--- a/Notas Paginas12.xlsx
+++ b/Notas Paginas12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,27 +481,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva audiencia en la insólita causa del Memorándum</t>
+          <t>Nueva audiencia en la insólita causa del Memorandum contra Cristina Kirchner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8 de noviembre de 2022 - 00:30</t>
+          <t>8 de noviembre de 2022 - 02:09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Otro episodio de la ofensiva judicial contra Cristina Kirchner</t>
+          <t xml:space="preserve">Otro episodio de la ofensiva judicial </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Sala I de la Cámara de Casación habilitó dos audiencias a pedido de la DAIA y dos familiares del atentado a la AMIA que buscan reabrir la causa contra CFK. Hoy será la primera audiencia. En octubre del año pasado, el TOF 8 determinó que no hay delito. La DAIA impulsó este nuevo reclamo pero a última hora de ayer dijo que no hablará y sólo presentará un escrito. </t>
+          <t xml:space="preserve">La Sala I de la Cámara de Casación habilitó dos audiencias a pedido de la DAIA y dos familiares del atentado a la AMIA que buscan reabrir la causa contra CFK. Hoy será la primera audiencia. En octubre del año pasado, el TOF 8 determinó que no hay delito. </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>La justicia de Comodoro Py continuará este martes con su ofensiva contra Cristina Kirchner, los integrantes de su gobierno y otros dirigentes. Será a las 10.30 cuando se sustancie en la Cámara de Casación, Sala I, el pedido de la Delegación de Asociación Israelitas Argentinas (DAIA) y dos familiares de las víctimas del atentado contra la AMIA, para que se retome la acusación por el Memorándum de Entendimiento con Irán. En octubre del año pasado, el Tribunal Oral Federal número 8 decidió que no había ningún delito en el Memorándum, que nunca entró en vigencia, que nunca se levantaron las órdenes de captura con alertas rojas contra cinco iraníes sospechosos del atentado contra la AMIA y que, en todo caso, se trataba de un tratado, que podía ser bueno o malo, pero fue votado por el Congreso Nacional y se trató de una decisión política no judicializable. Todos los imputados, incluyendo a CFK, fueron sobreseídos con aquel fallo. Ahora, se pretende dar vuelta la decisión, aunque el planteo tiene pocas chances. Este martes arrancarán la DAIA -que a última hora dijo que no hablará, sino que sólo presentará un escrito-, los dos familiares querellantes y responderán 3 de las 12 defensas. El 24 de noviembre se completará la audiencia ante la Casación con la participación del resto de las defensas y del fiscal Javier De Luca que siempre estuvo de acuerdo en que no existió ningún delito. La audiencia de este martes se realiza en el clima descripto por Irina Hauser en la nota La justicia en modo Macri. La ofensiva se concreta en numerosas causas: Memorándum, Hotesur-Los Sauces, Vialidad, Dólar Futuro, la muerte de Alberto Nisman, las fotocopias de los Cuadernos. Buena parte se viene cayendo porque en la instrucción, casi siempre a cargo de Claudio Bonadío o Julián Ercolini, se incurrió en irregularidades gravísimas y, por ejemplo, no se hicieron las pericias más elementales ni se hicieron las medidas de pruebas decisivas. Por esa razón, hasta ahora, se van cayendo. En la causa del Memorándum, la denuncia original fue de Nisman, cuatro días antes de morir, en enero de 2015. El desprolijo y apurado texto terminó archivado por no haber delito --tal como sostuvo el juez Daniel Rafecas-- y luego, con una escandalosa maniobra de Comodoro Py, Bonadío y la DAIA, lo volvieron a poner en marcha.  En octubre pasado, el TOF 8, en un extenso fallo de 387 páginas decidió no hacer el juicio y sobreseyó a todos porque la firma del tratado no había implicado ningún delito. Esto es lo que señalaron los jueces María Gabriela López Iñiguez, Daniel Obligado y José Michilini, que votaron en ese orden:*La imputación era por encubrimiento, o sea por no perseguir a los sospechosos iraníes.*Pero -según señaló el TOF-, el Memorándum no entró en vigencia porque el mismo texto establecía que la condición era que fuera aprobado por los dos parlamentos y después de eso que hubiera un intercambio de notas verbales. Nada de eso ocurrió. La Asamblea iraní no lo trató, el Congreso argentino sí, pero luego la justicia sostuvo que se trataba de un texto inconstitucional. Por lo tanto, nunca hubo intercambio aprobatorio. Al no haber entrado en vigencia, no tuvo efecto alguno.*La persecución de los iraníes nunca se anuló o suspendió. Las órdenes de captura, con alertas rojas de Interpol, siguen vigentes hasta hoy.*Los jueces consideraron irrazonable hacer un juicio que duraría dos o tres años, con 300 testigos, teniendo en cuenta la inexistencia de delito.  El fallo del TOF 8 fue por unanimidad. Los jueces de Casación Ana María Figueroa, Diego Barroetaveña y Daniel Petrone dispusieron dos audiencias para escuchar a las partes. En la tarde de este lunes se conoció que el principal impulsor de la causa Memorándum, la DAIA, no va a concurrir a la audiencia: presentará un escrito y mantendrá un bajo perfil. La conducción de la entidad judía estuvo en manos de otros dirigentes a lo largo de gran parte del proceso, pero tampoco el actual presidente, Jorge Knoblovits, y la actual conducción, desistieron de la acusación. En algún momento se planteó un debate interno, en especial porque se imputó, nada menos que por traición a la patria, a un canciller judío, Héctor Timerman. Finalmente se impusieron los sectores más alineados con Juntos por el Cambio y la DAIA acompañó hasta las peores imputaciones. Casi no existen ejemplos en el mundo de dirigentes de la comunidad judía acusando a una exPresidenta y a un gobierno.  En la audiencia de este martes, entonces, se escuchará a los otros querellantes. Los abogados Tomás Farini Duggan y Juan José Avila lo harán en nombre de dos familiares de las víctimas del atentado, Mario Averbuch y Luis Czyzweski, ambos muy cercanos a la dirigencia judía más conservadora. Hablará uno de los letrados y también Averbuch. Su eje es que la firma del Memorándum significó el abandono de la persecución a los iraníes. Un dato que tiene relevancia es que Farini Duggan y Avila fueron contratados por la AFIP durante el macrismo. El órgano recaudador tenía -y tiene- cientos de abogados, pero extrañamente les pagó a esos dos letrados, lo que fue puesto en conocimiento de la Oficina Anticorrupción. La sospecha es evidente. Del lado de los imputados, se escucharán tres voces. Mariano Fragueiro Frías, en nombre del exsecretario de Legal y Técnica, Carlos Zannini (actual procurador del Tesoro); Marcos Aldazabal que representa al exSubsecretario de Política Criminal, Juan Martín Mena (ahora viceministro de Justicia), y Martín Arias Duval que representa a quien era por entonces viceministro de Relaciones Exteriores, Eduardo Zuain (que ahora ocupa la embajada argentina en Rusia).  El resto de los imputados tendrán su oportunidad el 24 de noviembre y también ese día hablará el fiscal De Luca quien siempre sostuvo que no hubo delito alguno en el Memorándum.  Lo único que explica que la causa del Memorándum siga abierta es la persecución política. La denuncia de Nisman fue demolida, de entrada, por tres jueces: María Servini de Cubría, Ariel Lijo y, sobre todo, Rafecas. Pero, además, desde Dubai -donde vive-, el exsecretario general de Interpol, el norteamericano Ronald Noble, aseguró en forma reiterada que ni Timerman ni el gobierno de CFK habían hecho ninguna gestión para levantar las órdenes de captura contra los iraníes. 
+          <t>La justicia de Comodoro Py continuará este martes con su ofensiva contra Cristina Kirchner, los integrantes de su gobierno y otros dirigentes. Será a las 10.30 cuando se sustancie en la Cámara de Casación, Sala I, el pedido de la Delegación de Asociación Israelitas Argentinas (DAIA) y dos familiares de las víctimas del atentado contra la AMIA, para que se retome la acusación por el Memorándum de Entendimiento con Irán. En octubre del año pasado, el Tribunal Oral Federal número 8 decidió que no había ningún delito en el Memorándum, que nunca entró en vigencia, que nunca se levantaron las órdenes de captura con alertas rojas contra cinco iraníes sospechosos del atentado contra la AMIA y que, en todo caso, se trataba de un tratado, que podía ser bueno o malo, pero fue votado por el Congreso Nacional y se trató de una decisión política no judicializable. Todos los imputados, incluyendo a CFK, fueron sobreseídos con aquel fallo. Ahora, se pretende dar vuelta la decisión, aunque el planteo tiene pocas chances. Este martes arrancarán la DAIA -que a última hora dijo que no hablará, sino que sólo presentará un escrito-, los dos familiares querellantes y responderán 3 de las 12 defensas. El 24 de noviembre se completará la audiencia ante la Casación con la participación del resto de las defensas y del fiscal Javier De Luca que siempre estuvo de acuerdo en que no existió ningún delito. La audiencia de este martes se realiza en el clima descripto por Irina Hauser en la nota La justicia en modo Macri. La ofensiva se concreta en numerosas causas: Memorandum, Hotesur-Los Sauces, Vialidad, Dólar Futuro, la muerte de Alberto Nisman, las fotocopias de los Cuadernos. Buena parte se viene cayendo porque en la instrucción, casi siempre a cargo de Claudio Bonadio o Julián Ercolini, se incurrió en irregularidades gravísimas y, por ejemplo, no se realizaron las pericias más elementales ni se hicieron las medidas de pruebas decisivas. Por esa razón, hasta ahora, se van cayendo. En la causa del Memorandum, la denuncia original fue de Nisman, cuatro días antes de morir, en enero de 2015. El desprolijo y apurado texto terminó archivado por no haber delito --tal como sostuvo el juez Daniel Rafecas-- y luego, con una escandalosa maniobra de Comodoro Py, Bonadio y la DAIA, lo volvieron a poner en marcha.  En octubre pasado, el TOF 8, en un extenso fallo de 387 páginas decidió no hacer el juicio y sobreseyó a todos porque la firma del tratado no había implicado ningún delito. Esto es lo que señalaron los jueces María Gabriela López Iñiguez, Daniel Obligado y José Michilini, que votaron en ese orden: El fallo del TOF 8 fue por unanimidad. Los jueces de Casación Ana María Figueroa, Diego Barroetaveña y Daniel Petrone dispusieron dos audiencias para escuchar a las partes. En la tarde de este lunes se conoció que el principal impulsor de la causa Memorandum, la DAIA, no va a concurrir a la audiencia: presentará un escrito y mantendrá un bajo perfil. La conducción de la entidad judía estuvo en manos de otros dirigentes a lo largo de gran parte del proceso, pero tampoco el actual presidente, Jorge Knoblovits, y la actual conducción, desistieron de la acusación. En algún momento se planteó un debate interno, en especial porque se imputó, nada menos que por traición a la patria, a un canciller judío, Héctor Timerman. Finalmente se impusieron los sectores más alineados con Juntos por el Cambio y la DAIA acompañó hasta las peores imputaciones. Casi no existen ejemplos en el mundo de dirigentes de la comunidad judía acusando a una exPresidenta y a un gobierno.  En la audiencia de este martes, entonces, se escuchará a los otros querellantes. Los abogados Tomás Farini Duggan y Juan José Avila lo harán en nombre de dos familiares de las víctimas del atentado, Mario Averbuch y Luis Czyzweski, ambos muy cercanos a la dirigencia judía más conservadora. Hablará uno de los letrados y también Averbuch. Su eje es que la firma del Memorándum significó el abandono de la persecución a los iraníes. Un dato que tiene relevancia es que Farini Duggan y Avila fueron contratados por la AFIP durante el macrismo. El órgano recaudador tenía -y tiene- cientos de abogados, pero extrañamente les pagó a esos dos letrados, lo que fue puesto en conocimiento de la Oficina Anticorrupción. La sospecha es evidente. Del lado de los imputados, se escucharán tres voces. Mariano Fragueiro Frías, en nombre del exsecretario de Legal y Técnica, Carlos Zannini (actual procurador del Tesoro); Marcos Aldazabal que representa al exSubsecretario de Política Criminal, Juan Martín Mena (ahora viceministro de Justicia), y Martín Arias Duval que representa a quien era por entonces viceministro de Relaciones Exteriores, Eduardo Zuain (que ahora ocupa la embajada argentina en Rusia).  El resto de los imputados tendrán su oportunidad el 24 de noviembre y también ese día hablará el fiscal De Luca quien siempre sostuvo que no hubo delito alguno en el Memorándum.  Lo único que explica que la causa del Memorándum siga abierta es la persecución política. La denuncia de Nisman fue demolida, de entrada, por tres jueces: María Servini de Cubría, Ariel Lijo y, sobre todo, Rafecas. Pero, además, desde Dubai -donde vive-, el exsecretario general de Interpol, el norteamericano Ronald Noble, aseguró en forma reiterada que ni Timerman ni el gobierno de CFK habían hecho ninguna gestión para levantar las órdenes de captura contra los iraníes. 
 Todo indica que tampoco la Sala I de la Cámara
 de Casación le dará la razón a los querellantes. Lo más probable es que mantenga lo decidido por el Tribunal Oral, es decir que no habrá juicio porque
 no hubo delito y confirmará el sobreseimiento. Pero todo es parte de la misma ofensiva y en algunos
@@ -973,12 +973,1503 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x01,\x01,\x00\x00\xff\xed\x1fZPhotoshop 3.0\x008BIM\x04\x04\x00\x00\x00\x00\x01\xde\x1c\x01Z\x00\x03\x1b%G\x1c\x01Z\x00\x03\x1b%G\x1c\x02\x00\x00\x02\x00\x04\x1c\x02x\x01Lzzzznacp2NOTICIAS ARGENTINAS BAIRES, NOVIEMBRE 7: El presidente Alberto Fern\xc3\xa1ndez recibi\xc3\xb3 esta tarde a intendentes del conurbano bonaerense para dialogar sobre temas de gesti\xc3\xb3n como obras p\xc3\xbablicas, necesidades sociales y la situaci\xc3\xb3n econ\xc3\xb3mica del \xc3\xa1rea metropolitana de la Provincia de Buenos Aires.\rFoto NA: DANIEL VIDESzzzz\x1c\x02P\x00\x19MARIA EUGENIA     CERUTTI\x1c\x027\x00\x0820210621\x1c\x02&lt;\x00\x0b182422-0300\x1c\x02&gt;\x00\x0820221107\x1c\x02?\x00\x0b182422-0300\x1c\x02t\x00\x19MARIA EUGENIA     CERUTTI8BIM\x04%\x00\x00\x00\x00\x00\x10\x0eu\n,\x03:i.\x96\xd5.\xed\x02\xa5\xb6\x018BIM\x04:\x00\x00\x00\x00\x01%\x00\x00\x00\x10\x00\x00\x00\x01\x00\x00\x00\x00\x00\x0bprintOutput\x00\x00\x00\x05\x00\x00\x00\x00PstSbool\x01\x00\x00\x00\x00Inteenum\x00\x00\x00\x00Inte\x00\x00\x00\x00Img \x00\x00\x00\x0fprintSixteenBitbool\x00\x00\x00\x00\x0bprinterNameTEXT\x00\x00\x00\x1c\x00T\x00O\x00S\x00H\x00I\x00B\x00A\x00 \x00U\x00n\x00i\x00v\x00e\x00r\x00s\x00a\x00l\x00 \x00P\x00r\x00i\x00n\x00t\x00e\x00r\x00 \x002\x00\x00\x00\x00\x00\x0fprintProofSetupObjc\x00\x00\x00\x11\x00A\x00j\x00u\x00s\x00t\x00e\x00 \x00d\x00e\x00 \x00p\x00r\x00u\x00e\x00b\x00a\x00\x00\x00\x00\x00\nproofSetup\x00\x00\x00\x01\x00\x00\x00\x00Bltnenum\x00\x00\x00\x0cbuiltinProof\x00\x00\x00\tproofCMYK\x008BIM\x04;\x00\x00\x00\x00\x02-\x00\x00\x00\x10\x00\x00\x00\x01\x00\x00\x00\x00\x00\x12printOutputOptions\x00\x00\x00\x17\x00\x00\x00\x00Cptnbool\x00\x00\x00\x00\x00Clbrbool\x00\x00\x00\x00\x00RgsMbool\x00\x00\x00\x00\x00CrnCbool\x00\x00\x00\x00\x00CntCbool\x00\x00\x00\x00\x00Lblsbool\x00\x00\x00\x00\x00Ngtvbool\x00\x00\x00\x00\x00EmlDbool\x00\x00\x00\x00\x00Intrbool\x00\x00\x00\x00\x00BckgObjc\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00RGBC\x00\x00\x00\x03\x00\x00\x00\x00Rd  doub@o\xe0\x00\x00\x00\x00\x00\x00\x00\x00\x00Grn doub@o\xe0\x00\x00\x00\x00\x00\x00\x00\x00\x00Bl  doub@o\xe0\x00\x00\x00\x00\x00\x00\x00\x00\x00BrdTUntF#Rlt\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00Bld UntF#Rlt\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00RsltUntF#Pxl@r\xc0\x00\x00\x00\x00\x00\x00\x00\x00\nvectorDatabool\x01\x00\x00\x00\x00PgPsenum\x00\x00\x00\x00PgPs\x00\x00\x00\x00PgPC\x00\x00\x00\x00LeftUntF#Rlt\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00Top UntF#Rlt\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00Scl UntF#Prc@Y\x00\x00\x00\x00\x00\x00\x00\x00\x00\x10cropWhenPrintingbool\x00\x00\x00\x00\x0ecropRectBottomlong\x00\x00\x00\x00\x00\x00\x00\x0ccropRectLeftlong\x00\x00\x00\x00\x00\x00\x00\rcropRectRightlong\x00\x00\x00\x00\x00\x00\x00\x0bcropRectToplong\x00\x00\x00\x00\x008BIM\x03\xed\x00\x00\x00\x00\x00\x10\x01,\x00\x00\x00\x01\x00\x02\x01,\x00\x00\x00\x01\x00\x028BIM\x04&amp;\x00\x00\x00\x00\x00\x0e\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00?\x80\x00\x008BIM\x04\r\x00\x00\x00\x00\x00\x04\x00\x00\x00\x1e8BIM\x04\x19\x00\x00\x00\x00\x00\x04\x00\x00\x00\x1e8BIM\x03\xf3\x00\x00\x00\x00\x00\t\x00\x00\x00\x00\x00\x00\x00\x00\x01\x008BIM\x04\n\x00\x00\x00\x00\x00\x01\x01\x008BIM\'\x10\x00\x00\x00\x00\x00\n\x00\x01\x00\x00\x00\x00\x00\x00\x00\x028BIM\x03\xf5\x00\x00\x00\x00\x00H\x00/ff\x00\x01\x00lff\x00\x06\x00\x00\x00\x00\x00\x01\x00/ff\x00\x01\x00\xa1\x99\x9a\x00\x06\x00\x00\x00\x00\x00\x01\x002\x00\x00\x00\x01\x00Z\x00\x00\x00\x06\x00\x00\x00\x00\x00\x01\x005\x00\x00\x00\x01\x00-\x00\x00\x00\x06\x00\x00\x00\x00\x00\x018BIM\x03\xf8\x00\x00\x00\x00\x00p\x00\x00\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\x03\xe8\x00\x00\x00\x00\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\x03\xe8\x00\x00\x00\x00\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\x03\xe8\x00\x00\x00\x00\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\xff\x03\xe8\x00\x008BIM\x04\x08\x00\x00\x00\x00\x00\x10\x00\x00\x00\x01\x00\x00\x02@\x00\x00\x02@\x00\x00\x00\x008BIM\x04\x1e\x00\x00\x00\x00\x00\x04\x00\x00\x00\x008BIM\x04\x1a\x00\x00\x00\x00\x03A\x00\x00\x00\x06\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06q\x00\x00\t\xa9\x00\x00\x00\x06\x004\x00-\x00A\x00-\x00N\x00A\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\t\xa9\x00\x00\x06q\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x10\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00null\x00\x00\x00\x02\x00\x00\x00\x06boundsObjc\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00Rct1\x00\x00\x00\x04\x00\x00\x00\x00Top long\x00\x00\x00\x00\x00\x00\x00\x00Leftlong\x00\x00\x00\x00\x00\x00\x00\x00Btomlong\x00\x00\x06q\x00\x00\x00\x00Rghtlong\x00\x00\t\xa9\x00\x00\x00\x06slicesVlLs\x00\x00\x00\x01Objc\x00\x00\x00\x01\x00\x00\x00\x00\x00\x05slice\x00\x00\x00\x12\x00\x00\x00\x07sliceIDlong\x00\x00\x00\x00\x00\x00\x00\x07groupIDlong\x00\x00\x00\x00\x00\x00\x00\x06originenum\x00\x00\x00\x0cESliceOrigin\x00\x00\x00\rautoGenerated\x00\x00\x00\x00Typeenum\x00\x00\x00\nESliceType\x00\x00\x00\x00Img \x00\x00\x00\x06boundsObjc\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00Rct1\x00\x00\x00\x04\x00\x00\x00\x00Top long\x00\x00\x00\x00\x00\x00\x00\x00Leftlong\x00\x00\x00\x00\x00\x00\x00\x00Btomlong\x00\x00\x06q\x00\x00\x00\x00Rghtlong\x00\x00\t\xa9\x00\x00\x00\x03urlTEXT\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00nullTEXT\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00MsgeTEXT\x00\x00\x00\x01\x00\x00\x00\x00\x00\x06altTagTEXT\x00\x00\x00\x01\x00\x00\x00\x00\x00\x0ecellTextIsHTMLbool\x01\x00\x00\x00\x08cellTextTEXT\x00\x00\x00\x01\x00\x00\x00\x00\x00\thorzAlignenum\x00\x00\x00\x0fESliceHorzAlign\x00\x00\x00\x07default\x00\x00\x00\tvertAlignenum\x00\x00\x00\x0fESliceVertAlign\x00\x00\x00\x07default\x00\x00\x00\x0bbgColorTypeenum\x00\x00\x00\x11ESliceBGColorType\x00\x00\x00\x00None\x00\x00\x00\ttopOutsetlong\x00\x00\x00\x00\x00\x00\x00\nleftOutsetlong\x00\x00\x00\x00\x00\x00\x00\x0cbottomOutsetlong\x00\x00\x00\x00\x00\x00\x00\x0brightOutsetlong\x00\x00\x00\x00\x008BIM\x04(\x00\x00\x00\x00\x00\x0c\x00\x00\x00\x02?\xf0\x00\x00\x00\x00\x00\x008BIM\x04\x14\x00\x00\x00\x00\x00\x04\x00\x00\x00\x018BIM\x04\x0c\x00\x00\x00\x00\x14K\x00\x00\x00\x01\x00\x00\x00\xa0\x00\x00\x00k\x00\x00\x01\xe0\x00\x00\xc8\xa0\x00\x00\x14/\x00\x18\x00\x01\xff\xd8\xff\xed\x00\x0cAdobe_CM\x00\x01\xff\xee\x00\x0eAdobe\x00d\x80\x00\x00\x00\x01\xff\xdb\x00\x84\x00\x0c\x08\x08\x08\t\x08\x0c\t\t\x0c\x11\x0b\n\x0b\x11\x15\x0f\x0c\x0c\x0f\x15\x18\x13\x13\x15\x13\x13\x18\x11\x0c\x0c\x0c\x0c\x0c\x0c\x11\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x01\r\x0b\x0b\r\x0e\r\x10\x0e\x0e\x10\x14\x0e\x0e\x0e\x14\x14\x0e\x0e\x0e\x0e\x14\x11\x0c\x0c\x0c\x0c\x0c\x11\x11\x0c\x0c\x0c\x0c\x0c\x0c\x11\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\xff\xc0\x00\x11\x08\x00k\x00\xa0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xdd\x00\x04\x00\n\xff\xc4\x01?\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x03\x00\x01\x02\x04\x05\x06\x07\x08\t\n\x0b\x01\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\x10\x00\x01\x04\x01\x03\x02\x04\x02\x05\x07\x06\x08\x05\x03\x0c3\x01\x00\x02\x11\x03\x04!\x121\x05AQa\x13"q\x812\x06\x14\x91\xa1\xb1B#$\x15R\xc1b34r\x82\xd1C\x07%\x92S\xf0\xe1\xf1cs5\x16\xa2\xb2\x83&amp;D\x93TdE\xc2\xa3t6\x17\xd2U\xe2e\xf2\xb3\x84\xc3\xd3u\xe3\xf3F\'\x94\xa4\x85\xb4\x95\xc4\xd4\xe4\xf4\xa5\xb5\xc5\xd5\xe5\xf5Vfv\x86\x96\xa6\xb6\xc6\xd6\xe6\xf67GWgw\x87\x97\xa7\xb7\xc7\xd7\xe7\xf7\x11\x00\x02\x02\x01\x02\x04\x04\x03\x04\x05\x06\x07\x07\x06\x055\x01\x00\x02\x11\x03!1\x12\x04AQaq"\x13\x052\x81\x91\x14\xa1\xb1B#\xc1R\xd1\xf03$b\xe1r\x82\x92CS\x15cs4\xf1%\x06\x16\xa2\xb2\x83\x07&amp;5\xc2\xd2D\x93T\xa3\x17dEU6te\xe2\xf2\xb3\x84\xc3\xd3u\xe3\xf3F\x94\xa4\x85\xb4\x95\xc4\xd4\xe4\xf4\xa5\xb5\xc5\xd5\xe5\xf5Vfv\x86\x96\xa6\xb6\xc6\xd6\xe6\xf6\'7GWgw\x87\x97\xa7\xb7\xc7\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xe9\xad&gt;\xe4&gt;\xeaV\x1fpUo\xca4\xbc7\xd3.\xdc4|\x80\xd9\x1a\x99\x9fr\xa8[`ZZL\xda\xf1\xe1\x1f\x91I\x85f\xd5\x98\x19e\x99\x0ex\x0fsZ\x05Fv\x18\xee#\xdc\xc7\xab89\xb5e\xb6\xcd\x80\xb6\xca]\xb2\xda\xcfbuk\x9a\xef\xcf\xae\xcf\xccrh+\xcc\x0cwt(?K\xe2\x15\x86\x1d\x0f\xc4\xaa\xb4~w\xc9X.\x03\xef)\xd1Y$\xed(\x81\xca\xb0\xb5\xbe?\x81M~n65F\xeb\x9f\xb5\x83O\x12O\xee\xb1\xbf\x9e\xe4\xe46\xf7(\x97*5\xf5\\g\xd7\xea\xbd\xb6ST\x86\xef\xb44\t&lt;}\x17\xbdYs\xda9p\x1f0\x8a\x17:H\x1d\xf5\xfb\x90l2~\x01;\x9e\xdf\xde\x1fxB/\x01\xc7Pdv(H\xe8\x98\x8dV.Oa\xfd\x1b\xbf\xaa\x7f"\x86\xf0\x0e\xa9\xad\x7f\xe8\x9f\xfdS\xf9\x14k\x9a\xf4\x1f\xd1\x7fo\xff\x00"\xad\x13\xaa\xa7I\xfd\x17\xf6\xc7\xfd\xf5Y/\x1e(\x9e\x9eH\x1d|\xd7%\n\x7f[o\xfc[\xbf(R\xde&lt;P\xdag,G\xfa2&gt;\xf7"7\n;6?0\xfc\x0f\xe4Y\x05\xcd\x7f\xd0pt4\x03\x04\x1d\x7fub}`\xfa\xcfo\xda\xdf\x8b\x8b\xa6=\x12\xd2\xe1 \xbd\xe3\xdbo\xbb\xfe\r\xde\xc6.a\xa1\xd65\xd9\x15\xd8\xf7W[\xa04\x12\x1b\xa9\xfd\xff\x00\xcd\xf7)+\xe8\xc7z\xf7\x7f\xff\xd0\xd2\xc8\xfa\xc1\xd2\x1b`\xac\xe44?\x83\xaa\xca\xeb}]\xa7\xd0v\x0e\xcc\xa2\x03\xf7\xb4\xb8\x88\x92\xdf\xdd^z\xed\xf3\xe2{\x92\xa4\x1e\xe6\xf0Hr\x87\xda\xf1g\x19\x88\xe8\xf6\xb9\x19yN\xbcWM\x13T\x00\xe7\x87\x19\x98\xd7\xf9\x1e\xc5w\xea\xe1w\xed\x1c\xc2\xe3\x0f\xb2\xb6\x90&lt;\x9a\xef\xce\xfeW\xbdr=;\xaa\xdd\x8eKly5\xbf\xe9\x12WM\xf5w\xa9`S\xd5\x1d\x83\x90\xed\xb9\xb9U\xb0PN\xad\x05\xdb\xad\xfb\x1d\x8e\xff\x00\x07\x92\xf6zVm\xff\x00\xd0\x7f\xe7\xd3%\x02/N\x9d\x19\xbd\xd8\xc8nn\xf6/[D\x82\xe9\xf2Eal\x978&lt;\x13\xf1\x8f\xc1\x06\xa8\x0et\x08\xe1=[I|\x93\xa3\xcc(\xc6\xca;\xb6\x83\xea\x9dK\xc0\xef\xf4\x97-\x98\xfc\xfc\xec\xa7\xbe\xc7m\x8d)h\xf7\x06\xb0\xfb\xe1\xbf\x9d\xbb_\xa4\xba1\xb0\x1eO\xfa\xfc\x97;\x9b~N\x17Px\xb6\x83eO Wmd\x8f`\x03k\x86\xef\xdd\xfa/O\x87\x86\xea\xa0H\x12\xf9Vkr)\xad\xf7_yqc\x9b\xe9U\xb8\xed\x02}\xfb\xab.s_b\xd9\xc2\xba\xd7\xf5\x1c\x90\xf2\x05\x0ehy\x90\x00\x0f\xf6\xed-\xdd\xb9\xad\xde\xdf\xa7\xb5s\xf9v\xe5;$U[+\x149\xdbC\xe7W\xf1\xcb\xfd\xfb\xbd\xc7\xe8W\xb1*\xba\x8bzKo\xeaYV\x1c\xa7T\x1e\xccZ\\\xe8s\x89\xd8\xcfF\xbb"\xc7zu\xb7w\xe9\x1e\xcf\xf84\xe3\xad\x83\xd7eN\x11\x04\x18\xe8#\xbb\xd7\x11Y\xff\x00\x08\xd3\xf2j\xe4\xba\xd3\xb2\xf32\xc5\xb8\xd4\xda\xda\x9a\xdd\xa0[Yo\x1d\xd8\xda\xe3f\xef\xe5*o\xff\x00\x19d\x92\xd1\xd2\xc1\xf3\xfbG\xfe\xfa\xa4\xff\x00\xf1\x82\xf8\xdczS6\x9e\x07\xaf\xaf?\xf8[\xda\xa3\x96)KM\x91\x1c\x82&amp;\xd1\x1c|\xf9\x9fL\xb4\xf8\xfb\xe7\xfe\xad5\x97\xe7UK\x86\xed\x84\x82$\xba\xcf\x0f\xdd\xdc\xb3\x9f\xf5\xab\xeb\x03\xef9C(V\x0c\x9f\xb2\xb1\xad\xf4\x9a \xba\x1a\xc73\xe8\xff\x00-\xf6z\xab\xa5\xe9?\\\xfaVsj\xab%\xae\xc6\xccv\xc6=\xbb^X\xe7\xbb\xdb4\xfan\xb5\xdbl\x7f\xb7\xd3za\xe5\xc8\xeb~K\xfe\xf0\x0fJ\xf3hau\x1c\x86\xf4\x97\xb0\xb9\xad\xbd\xd7\xeehn\xe7ZY\r\x93\xea\xbb\xf9\xafrC\xacu\x06\x83\x0f\xb8\xc7\x8b\xc1\xff\x00\xaa\xadu\xd6R\xd9\x87W$|\xff\x00\xf2H\x07\x16\x8f\xf4?\x80\xff\x00\xd2i\x1cd\xfe\x92F@?E\xe5\xff\x00n\xf5\x01\xa9u\xdf\x19\xac\x8f\xfa\x95s\xa3u\xbb\xed\xea\xd53"\xcf\xd1X6\x12\xfd\xb1?I\x81\xbe\x98\x1f\xa4\xdc\xb6\x8e\x1e)\x1a\xd4#\xe0?\xf4\x9a\xa9~\x06\x1f\xae\xd0\xca\x19$\rK[\xcc\xff\x00W\xf3R\x8e9\x02\r\xfe%\x12\xc9\x12\x08\xe1\xa7\x01\xbd\x16\x9b\x8d\xa7%\xaf\xb1\xce\xb6\xc0\xf9q\x01\xcek\xdc\xdd\xee\n\xdd\xb8\xb5\xd5\x8c(c\x18\xd65\xbbv4\x82\x04\x8f\xa2\xe8M\x9d\x8a\xdcn\xb1~C\xacq\xaf2\xa2\xfb=G\xe9\xbc\x9d\x96zm;Y\xf9\xbb\xd0qzv\x03\x1c_S@n\x8e\x00\x82\x0f\xf2\\?\x92\xf56\xfdJc\xf2\x8a\x88\x17\xbfw\xff\xd1\xe0\\$\xc8\x1a(\x96\xea\xb4\x1c+\xdaZ\x06\xa7\x85]\xd5\x03V\xe6\xfd!\xca&lt;+\xad\x07\x11\x07\x85\x12H\xb3q$:wn\x93;\xa7v\xfd\xdfK~\xef\xceI\xa1\xdb\xa1F\xe3\x0e\xd7\xe6\x82\x0b\xda\xfd]\xfa\xe8K\xc6\'V\xdfu\x96Ch\xc8\xa9\x85\xf69\xdfE\xb4\xddE^\xeb\x1e\xff\x00\xcc\xba\xa6\x7f\xc6.\xbe\x9b?Gal\x9f|\x88\xf0 /\x15{\xbd\xa4\x89\x90$\x1e \x8e\n\xf6|G\xb8\xb0\x97A{\x88.#P\\Z\xdd\xdb\x7f\xb4\xab\xe5\x88\x89\x15\xa5\xdb&gt;)\x99\x03z\xd5-\x9d\xd51\xfae-\xbb?%\x98\xecy"\xbd\xda\xb9\xe4j\xe6\xd7Ua\xd6?l\xfe\xea\xe72\xfe\xb6\xf4\\\xec\xca\xe8\xab\xd5k\xee\xf6\x1b\xedc[Y\xd0\x8a\xff\x00Gc\xdf\xb2\xcf\xcce\x9b+\xff\x00\x84X\xbf]\xf3~\xd1\xf5\x8e\xda\xda\xf0\xfa\xf0\xeb\xaf\x1d\xa0\x19\rtz\xd9\r\xfe\xbf\xabf\xdb?\xa8\xb0q\xb0\xee\xea9\xb4\xe1P\xd0\xeb\xb2\x9e\xda*\x07\xb3\xac;7\x7fg\xe9\xb9:\x18\x85\x02I\xd5\x12\xccD\xb4\x03B\xf7\x14\xe6\xb8\xda\xe2\xd6\x1a\xebpl\xcc1\xad\xd8==\xee\xad\xae\x7f\xe9?\x96\xb2\xbe\xb0d\xd6q\xf0\xa8\xd8=K\x9c\xfc\xa2\xf2!\xc2\x82&gt;\xcf\x8dX\xfeE\xd6\xb3+#\xfe\xd8\xb5ux\xfd\x12\xbc\x9f\xac\xd7`\xdc\xda\xed\xc0\xc5\xad\x96Y\\\xba\xb6\xbf\xda\xca\xab%\xac;w\xd9g\xe9r=\xbe\x9a\xe0z\xd6{\xfa\xa7U\xce\xealn\xda-\xbbmD\x0fk+h\xf4\xb0\xea\xf6\xfb\x7f\xa3Q\xedj\x93\xdb\xa2\t\xed\xa2\xb2\xe7\x12\x8f\x0co\xc6\xda?f\xdf\xef\xa4\xee\x00\xc3\x9at&lt;\xf6S\xbb\xda\x1a\xd2 \xc8\xd0\xff\x00\xaf\xf2P\xe9s\x9a\t\x07\xf3\x8a\x95\xb9.{6\x10\x08\x1a\xc9\xed\xfdT\x0c\x18\xc4\xce\xcc\xac{\x06+Z\x1cwN\xad \xeaN\xafp\xff\x00\xa8V\xfa\x0bC\xba\xbe\x10&amp;\'3\x18H\xe7Gz\x87\xfe\xa5_?V\xab\xbb\x1d\x99\x14&gt;&gt;\xd1[-\xad\x81\xe2C\\\x1a\xfd\xbb]S\x7f\xf3\xe2\x1fH\xc0\xb3\x0b\xeb?O\xc4\xbf\x97]\xeb\x13\xa7,e\x9e\xcfc\x9d\xee\xdc\xcf\xdeM\xe8~\xa5\x90\x1dC\xe8\x8e\xb5\xa4\xc8\xb4k\xe2\x07\xf7&amp;\xde{=\x87\xfd\x7f\xac\x9bed\r\\&gt;eD\xd3_\xef}\xf1\xff\x00\x91P\xb2$\x05\xf1\xa6\xd3\xf3*\xbd\xbe\xa1\xc9n\x82\x03u\x82N\x9a\xa2\x06\x8a\xbd\xc2\x08&gt;]\xbeK\x90\xfa\xc3\x9dnWT}B\xc2\xda(\x02\xb61\xa4\x80Ln\xb1\xee\x8f\xa4\xed\xce\xd8\x9f\x08\xd9\xec\xb2r\xa0\xe9}c\xb3\x06\xccJ\xc0\xc9\xad\x99T&lt;\x16W!\xces\\G\xa8\xcd\xbe\xfd\xbf\xbf\xefY?i\xaa\xb6\x87\x17\x1b.&gt;\xd3\xac\xcc\xf87\xda\xa8\xd9@cd5S/\xb5\xae\xdc\t\x04xr\xa5\x18\xc2\xcfx\xf6\x7f\xff\xd2\xe3\xde\xc0\\\x08&lt;*\xee\x16Wa\x81 \xab\x05\xa4\xc1\xf0P\xb2\xe1\xc7$)\x10\xc7\x1f\x12\xec\x8bCjn\xe7\x9d`x*95\xb9\x97\xbd\x8f\x10\xf6\x98#\xc0\xae\xdf\xeau56\x8c\x8c\xfb[\xf4ZCg\xc0.\x1f?\'\xd7\xcd\xc8\xbbp\xfd%\x8e H\xe2tL;\xb2\x18\xd4A\xeaQ\x96\xbd\xe0\xb1\xa2I\x07@\xba\xfe\xa9\xf5\xd3-\xc2\xdaz3\x1f\x8f\x8a\xd3\xb6\xcc\xd2\xc3\xea\t\x02\xb6\x8a\xcb\x87\xa7\x8a\xcf\xccf\xff\x00\xd6?\xe2\x96\x17\xd5\xfe\x97\x9b\xd5\xb2\xea\xc6\xc3\xc7\xbb%\xaf\xb5\xad\xc9}M$V\xc2}\xce\xb2\xefmu{\x7f}\xeb\xd7\xaa\xfa\xa9]\xd8\xce\xc6\xcen\xdcK\x18\xda\xfe\xc3A"\xa6\xb5\xa0\xb7c\xacn\xc79\xbf\xc9\xab\xf3\xd9\xfd!G!diu\xf6&amp;\x06\xa3/W\x0f\xfd"\xf8\xbdu\xd8\xea\xdfk+w\xa1Qk_`i,c\x9f;[e\xb1\xb1\x8f~\xdff\xf7{\xd7W\xfe,\xb0\x06O\xd6\x0b3\x1e=\x98\x149\xedq\xe0Yq\xfb5_\xe6\xd2r^\xbd\x1e\xcc~\x9dWH\xb3\xa3?\xa77\xec\xde\x9b\xab\xc9\xc3\xa1\xa1\x95\x06:\x7fO\xbaZ\xe6\xb2\xff\x00\xe7\xa9\xbb\xf9\xefW\xf3\xfe\xd3K\xd75\xf5s\xa1\xe2t|\\\xccJ\xb2\x9e\xf7g\x9d\xaf\xb9\xc1\xac\xb1\xa01\xecmt\xfb\x9e\xdb\xad\xa2\xbb\xf7\xda\xe6\xff\x00\x85O$\x03\xaa#\x8eR\xd45\x9f\xd6K1~\xb0\xf5\xaa\x8cM.\xab\x1c\xff\x00+!\xed\xc5\xc3\xff\x005\x8c\xf5W\x9eh\xc0\x00\xe1\x83\xf2}\x15\xd3\xfdc\xa3#\xa6\xf4\x86\xf4\xb87:\xfc\xc3s\xec\xa9\xae-4\xe3\xd7\xb7\x1ft\x07l\xddm\xf6\xbf\xd3\xff\x00\x82\\\xa0xp\x99\x90y\x84e!#cj\x01i\x89\x8e\x85E\xe5\xb0\xc1\xe1\'\xfb\x94\xeb\x06a\xa2_\xc9&gt;\x08;\xff\x00JO05\x81(\xcc{@\xd1\xa4\x8f\xdd\x1c\x93\xfc\xa4\x10\xf5\x1d\x0f-\xf6\xd3M[\xa7c}\x11\x06tg\xb5\xb0\xef\xed#a;\xd6\xfa\xf3Y\x06E4\xdc\xed&lt;\xd9c\x7f\xf4j\xcc\xfa\xb3a9\xad\x0f\x89{\x81\xd8;\x00cj\xbb\xf5a\xde\xaf\xd6\xac\xbbO\xf8&lt;g~\'\x1e\xb5\x1c\xf4\x89\xf1d\xc7\xac\x87\x83\xdb\x93!2\x10\xb0\xe9#EO\xac\xf5\x8azN\x1b\xae;l\xc9p\x8c|w\x18\xdcO\xf8K6\xfb\xdbE\x7fM\xff\x00\xbf\xfc\xd5~\xf5\x08\x04\x9a\x1a\xb3\x9a\x02\xcaN\xb5\x9f^\x0e\x08{\xb5u\x8e-\xad\x83\x97\x1f\xfc\x8b\x7f=p\xaeu\xa6\xf3k\xcc\xb9\xc4\xb9\xdf\x12\x8e\xfc\xbc\xcc\xfbNV]\xc6\xeb\x1c\x00\x1e\xd0\xc6\xb4veU\xb3\xe81\x12\xaaC\xdd\x05X\x84+\xcd\xad9\xdf\x92j\x81\xb6\xb8\x8f\xbd9\xe9\xcck\x0b\xcf\x82\xb4*\x0c\xae\x07!3\x8b\x9e6\xa9\xea\x80X\x0b\xff\xd3\xe3\x9d\xeb\x16\xe8\xc3\xa2\x96\x1fL\xcd\xcd\xb9\xaced\x02uq\x1d\x96\x93\xc0g\xd1\xfb\x96\x9fM\xfa\xc0\xcch\xae\xea\x80\x03\xf3\x82\xbb\x9b\x94\x9c&gt;_P\xfcVb\xc9\t\x1fW\xa5\xd2\xa5\xbf\xb0:S\xc3\x9a\xc7\xb9\x8d\x96\x87\xb7sI\xf0{\x0f\xd2X\xb8?\xe3\')\xb6T\xcc\x9e\x9f\xd3\xb1\xe8k\x83\xac}8\xaeq \x7f\xc0\xfa\xcc\xf7\xfev\xfd\xea\xcf^\xcf\xc7\xea\xb8\x8f\xc4\xa3#\xd1\xcax\x9aC\xe0Wg\x8d.\xb0\x9fc\xdf\xfe\x0f\xf9k\x85kd\xed\x82\x1d;v\xc6\xbb\xbe\x8e\xcd\xbf\xbc\xa9\xc8QlN@\x90\x07G\xd80\xbf\xc6O\xd5\xcc\x82\xca\x99\x94i/"+\xcb\x164\x02\x7f5\xb7\x9a\xcb?\xed\xdb\x96\xd7\xed\xf2=\xc7\x1d\xf7T\xef\xa1n3\x99kO\xf2~\x9bv\xff\x00\x9c\xbc\xab\xa5\xfdSo\xaa\xdbz\x83\xc1k!\xdfg\xac\x9dO-\xf5.\x1bv\xed\xff\x00\x82\xff\x00\xb7\x17H\xdcJ\xcb\xdfev]E\x8f\xd1\xce\xa5\xfbO\x047\xb3\x9b\xf9\xdfE\xfb\xd8\xa19\x05\xf7H\xc6h\x93\xa1\xe8\xefu/\xac\x94\xd9G\xbf\xa3\xe6\xdd[\xa5\xa2\xd2\xfaX \x1fp\xf51\xaf\xbd\xfe\x9b\x9e\xdf\xf8\xbb\x16.N^\x1enC,\xc8\xe8!\xef\xad\xfb\xab\x7f\xdblk\x98\xe3\xb5\xc2\xca}*+\xfa{[\xfc\xcb\xfe\x9b?H\xb1\xba\x8f\xd7\xbe\xad\x882ze^\x8d\x965\xa2\xba:\x9d@\xd6\xf0\xc2\xd1\xfaO\xb3\xd7\xfa\xbf\xda\x1a\xdf\xd1\xef\xab\xd2\xaa\xab?\x9b\xa5e}L\xea\x06\x8e\xac\xdcK^]NS\x1c\xc61\xc4\xb8\x0bG\xe9i\xfa_G~\xcb*\xf6\xfe\xfa~\xfb\x1d\xd1\x12#\xa1\x07N\xc5\xde\xfa\xd5\xf5\x85\xaf\xa1\xad\xa4]\x8f[rX\xcb\x1dM\x9b\x9fU\x8c\x0e\xb9\xd5\xd3w\xe8m\xaf\xd6\xab}o\x7f\xa8\xb9\xbf\xac={\x0b\xad\xe5U\x95GK\xc7\xe9\xa5\x8c,\xb5\x95\x10E\x84\xbbs,qm8\xfe\xe67\xd8\xb4\xb2:p8\xddg\xa7\xb0H\xc7\x1fi\xa0\rHu.\xde\xcf\xebo\xc6\xba\xca\xd7,@ \x96\xf7\x92\x11\xe1\xe1\xfa\xea\x89\x1e#g\xc9\xea\xfe\xab\xddP\xe9/\x1e\x97\xf3\x16dZ\xc2\x1e\xf6\xc9ul\xdf\xbb\xd3v\xdb?\x99\xae\xb6\xfa\x9f\xe9?\xe1\x15\x0f\xadd[\x9f\x82\xec@\xe2_\x89_\xb4\xb8\xe4;\xd4}\x96\x9d\x86\xe7\xb5\x8f\xdd\xef\xd9\xb3\xf3\x17A\xf5o#\xeaK:h\xc5\xbf\x1f$Y\xeaz\xa0\xe5\xdc\xc6?y\x0c\x9d\xbe\x83\xb1\x9a\xea7W\xbe\xb6\xb9\x88=f\xbf\xaby\x19,wD\xa7%\xf9\x98x\xce\xdbS\x0b\x1d\x8e\xe3\xb9\xcd\xf7\xbbu\x99\x1e\xb6\xec\x8d\xff\x00K\xf3\x12\xa3W\xe3\xba\xcd.\x9c^\x8bFm\x1e\xad\xb9\x98\xf6Q\xb0Y\xb5\xce\xad\xed\x12\xd6\x99\xdbc\x87\xef\x7f)[\xfa\x90E\xbdc\xaa] \x80\xc0\xc9\xf8\xdb\xff\x00\x91\xa9zoCu4t\xccL:.e\xc6\xba\xdb\xea\xfaoi\x1e\xa3\xbd\xf7\x1d\x93\xbb\xf9\xe7?\xf3W?\xf5\xb6\xecj.\xb3.\xb65\x83\x18\xb7\x1f(\xd4C\x1d\xb2\xd2\xc1u\xd6\x8a\xff\x00\x9d\xfb3\x9d_\xd2\xfeo}\xa9\xb3\x04\xc4\x80\xba\x04\tZ\x1f\xb7\x00\xd2\xf6\xb0\xb9\xac\x97i\xcb\xabn\x99\x1e\xdf\xf4\xb4\x7f;\xfdE\xcdu\x9e\x8b[/\xbd\xd8\xb7de\xdf\xed\xbd\x8c\xd8mu\x94\xbc\xed}\xad\xbe\x979\xce~?\xf8OR\xa5,_\xac\'\x1e\xc2r\xa8\xb5\x96\x8b\x8b\x1c\xc6\x8d\xc3\xd6\xaf\xd9\xeb1\xdf\xe8o\xad\xbe\x96[?\x7f\xf4\xb5\xad_\xab\xdfY\xf1rr\xd9\x85N5\xf5m\xdc\xc6&lt;\xb0\x10\x1b;\xbd?Zw\xfaM\xff\x00\x06\xc5\x1c#8\xea&gt;\xad\xa9\x0cs\x00\x7f\x8a\xe6U\xd3\\1\x9a\xf2\x08&lt;\xc4\x10~\xe2\xa7N1/\xd3\x9f\x05\xd4u\x86\x06\x968\xea\\cU\x93UA\xb6+\x10\xd5\xa9\x96&lt;&amp;\x95]\x11\\8vC\xaa\x86\xef%\xdd\x8a\xd5c+\xf4\xfeK71\xbe\x99\x96\x98\xf2V"\x18\t\x7f\xff\xd4\xc12u(Ni*\xc8aH\xd4\xba\x13\x0b\r\x1bi&gt;\xb6\xb8mx\xdc\xd3\xc8*\xd7On \xcc9\x19\x0cm\x97mck\xb1\xc2cg\xb4;o\xfa]\xbb[\xea$\xeaS7\x1c\x93\xa7\n\xae~Hd\x04lOf\\y\x8c\r\xbd\x06;\x81. \xc8\xd3Ub\xb7@q\xf3%bcd}\x98\xc3\x9d \xad:\xeek\xe9{\x81\xd3_\xc4,~c\x93\xc9\x80\xfa\x87\xa4\xed&amp;\xfe&lt;\xf1\xc84\xdf\xb3\x85\x7f\xd5\xeb\xba\xa09X\xd62\xbb\x9a\x0b\ro\x98v\xdf\xa1\xb5\xe3\xe8;\xdc\xb13:7[\xe9\xee\xf5l\xc4\xb9\x85\x87sm\xacoh-\xf7\xb5\xed\xb6\x9d\xed\xf6\xc2\xec0\xec\xd9\xd2\xb2\x1eG\xd1e\x87\xe3\x0b\x17\x1b\xaaf\xd9C\xeaik*s6\xb8\x89.!\xc3\xe8\x078\xfe\xea\xaf\x86R\xe0\x1d\x7f\xdfd\xcb\x00r\x1a\xdc\xb71\xfa\xb3q\xfa\xd3\xb2,\xc8c\xb1\xf2kcrl\x15\x974\x12\xd6\xbfcZ\xd3\xee\xf4\xad\xff\x00\x08\xc5\xce\xf5,1\x81\x9d~\x1ddYK\\\x1fE\xa2=\xd58o\xc7{]\xfb\xae\xad\xff\x00\xe7\xab\x95\xb2\xd0\xff\x00M\xdfF79\xa4\x11 \xfep\x1e\xe6\xa3U\x89\x8d\x9bv\x0e%\xaf-\x7f\xae\xea\xe4}#Ao\xab\xb0O\xeed\x7f7\xff\x00\x1fb\x9b\x8e\xf7Y,t,}m7\xd5\xbb3\x9f\xd3\xee\xa6\x9b\x9c\xc8\xb0\xb8\x82t-hk\xdf\xf4\x83\xbf5\x9e\xc5_\xaf\xbb1\xd9\x18\x7fkt\xd5n\x1bZ!\xc4\xb44\xba\xcd\xb6\xbc\x1fkm\xdd\xb6\xcb\x16\xcfM\xc6\xc5\xc1\xea\x0e\xc7\xa2\xb0\xea]}\xac\xd9o\xbcm\x86\xff\x00\x9d\xf4\x12\xea?Vp\xf3,k\x85\xf6\xd1\xb1\xbbZ\xd6\x86\xb9\xa0Iw\xd0po\xef~\xfa`\xcb\x124\xe8J\x8e)\x03\xadj\x01uzFOL\xcf\xc3\xc7q~9\xc8kC.\xaek\x0f%\x9e\xcd\xfe\xd2\x1d\xfaM\xbb\xfd\xaa\x8f\\\xacc\xe5\xb6\x82\xd0[\x93d\xd6]\x04\x869\xa7\xd4\xf4\xe7\xfe\x19\xacb\xe3\xb2\xba^e\x19G\t\xf4\xba\xdb\x03\x8f\xa6\xf6\xb4\x96\xbd\xbf\x9a\xfa\xf4F\xa7\x1f\xa8\xe0u\x0cz\xaf\xae\xca\xc3\xac\xac\x86\xc9s\\\xd9\xf7\xed\xd9\xb9\xbe\xdf\xcfN2\xb1\xe6\x16\x88\xd1\xbf\x17o\xd0,\xb1\xd6\xd8\xc2\xf0\xfd\'\x9d\xe0\x0ff-\x7fKm\x7f\xe9V\xb7A\xab&amp;\xae\xa9]vc\xb7\xd3ee\xcf\xbe\x7f\xc28\xcf\xa6\xc6\xb4\xed\xf4\xa9\xfemS9L\xa2\x80I\xd4;EHu\xeb\xaa\xb8\xbe\xa1#\x84\xd8BD\x8e\xcc\xd2\xcb\x11\xa1z\xee\xbbt\xb9\x80v\x12\xb9\xcbs\xadm\x868T\xad\xeb\xd97\x12\xe7\x8dH\x85[\xed\x96\xb8\xea\xac\xc6\x13\x1d\x1a\xf9\xb2BGB\xec7\xabX\xd1\x0e*\x0e\xcf\x16\xc9qYO\xb9\xce\xe5\r\xad\xb1\xe6\x01!L\x0c\x86\xe1\x80\x80v/\xff\xd5\xcc\rO\xb0\'\t\xca\xea4s\x91&lt;\x01\xa2\x03\xb3\x1a\xc3\xb1\xad$\xa2\xd9?\xca\xf9B\xaa\'q\xe7\xe5\x12\x87]\x12\xc9\xd9-#\xdc\xd2\x15\xde\x97\x92\x1fM\xcdi\x9fi\x8f\xb9g\xbev\x99\x9f\xedq\xf8"\xf4^2"8&lt;\x7f\xb5g\xfcR\xfd\x83}\xdb\x1c\xaf\xf3\x81\xd3\xad\xe5\xbd\x17)\xc4\xc9\xf4\xac\x9f\x8c\xbaV\x031-\x11]Vml5\xee\xd2y\x1f\xf9\x8a\xdcl\xfe\xc3\xca\xff\x00\x8a|\xc7?I\xcb?\xa7n\xf5]\x1b\xbe\x8by\xdb\x1cy\xae{\x07\xf3b\xbc\x7f\xe9I\xd4\xc9\xfc\xee\xbb\x7f`j\\r+\x7f\xb1\xbf\xa3$\x16\xb8\x13\xd8~w*\xcfH\xb8\xfe\xd4\xa5\xa3J\xcd\xed\xda\xe29\xd7\xdd\xfb\xdb\x12\xcb\xdb\xb6\xcf\xa11\xdbt\xf3\xfeb\xb3\xd2\xa7\xf6\x8d\x1e\x11W\x11\xb3\x91\xff\x00C\xff\x00F)&lt;\xd1;\xe9\xafv\xc8yoUgo\xd6\xad\x1e\x1a+\xd9\x19\xb8\xf5\x9d\\\xb1\xf2g\xed\x8c\xfes\xf9\xeb\xb8\x89\xe5\xdf\xf4\x96fT\xef3\xea\xff\x00n?\xef\xaa&lt;"\x1c\'\x8aU\xea*\xcae\xc4(_\xa4;wu\xcaY!\xa6U;z\xeb\xdc\x0bX \x91\x00\xfcV@N\xa6\x88\xc3\xdd\x84\x9c\xbd\x93Y{\xed\xd0\x9d&lt;\x14CeD)}\xea\xde&gt;\x1e\x8dy[0\xd0\xa5-j\x16\xbe\x7f\x82\x15\x93\xfc\xa58=\x83\x1f\x99L\xfb\xdb\xc0\xd5E\xb6\xdb\xbaZ`!\xd5\x13\xdb\xe7(\xc7\x8f\xeeH\xdf\xe9\x1a\xf0W\x93\xff\xd9\x008BIM\x04!\x00\x00\x00\x00\x00]\x00\x00\x00\x01\x01\x00\x00\x00\x0f\x00A\x00d\x00o\x00b\x00e\x00 \x00P\x00h\x00o\x00t\x00o\x00s\x00h\x00o\x00p\x00\x00\x00\x17\x00A\x00d\x00o\x00b\x00e\x00 \x00P\x00h\x00o\x00t\x00o\x00s\x00h\x00o\x00p\x00 \x00C\x00C\x00 \x002\x000\x001\x005\x00\x00\x00\x01\x008BIM\x04\x06\x00\x00\x00\x00\x00\x07\x00\x08\x00\x00\x00\x01\x01\x00\xff\xe1\x1a\x05Exif\x00\x00II*\x00\x08\x00\x00\x00\x11\x00\x00\x01\x03\x00\x01\x00\x00\x00v\x0b\x00\x00\x01\x01\x03\x00\x01\x00\x00\x00E\x07\x00\x00\x02\x01\x03\x00\x03\x00\x00\x00\xda\x00\x00\x00\x06\x01\x03\x00\x01\x00\x00\x00\x02\x00\x00\x00\x0e\x01\x02\x00M\x01\x00\x00\xe0\x00\x00\x00\x0f\x01\x02\x00\x12\x00\x00\x00-\x02\x00\x00\x10\x01\x02\x00\x0b\x00\x00\x00?\x02\x00\x00\x12\x01\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x15\x01\x03\x00\x01\x00\x00\x00\x03\x00\x00\x00\x1a\x01\x05\x00\x01\x00\x00\x00J\x02\x00\x00\x1b\x01\x05\x00\x01\x00\x00\x00R\x02\x00\x00(\x01\x03\x00\x01\x00\x00\x00\x02\x00\x00\x001\x01\x02\x00"\x00\x00\x00Z\x02\x00\x002\x01\x02\x00\x14\x00\x00\x00|\x02\x00\x00;\x01\x02\x00\x1a\x00\x00\x00\x90\x02\x00\x00\x98\x82\x02\x00\x1a\x00\x00\x00\xaa\x02\x00\x00i\x87\x04\x00\x01\x00\x00\x00\xc4\x02\x00\x00p\x05\x00\x00\x08\x00\x08\x00\x08\x00zzzznacp2NOTICIAS ARGENTINAS BAIRES, NOVIEMBRE 7: El presidente Alberto Fern\xc3\xa1ndez recibi\xc3\xb3 esta tarde a intendentes del conurbano bonaerense para dialogar sobre temas de gesti\xc3\xb3n como obras p\xc3\xbablicas, necesidades sociales y la situaci\xc3\xb3n econ\xc3\xb3mica del \xc3\xa1rea metropolitana de la Provincia de Buenos Aires.\nFoto NA: DANIEL VIDESzzzz\x00NIKON CORPORATION\x00NIKON D850\x00,\x01\x00\x00\x01\x00\x00\x00,\x01\x00\x00\x01\x00\x00\x00Adobe Photoshop CC 2015 (Windows)\x002022:11:07 22:13:38\x00MARIA EUGENIA     CERUTTI\x00MARIA EUGENIA     CERUTTI\x00)\x00\x9a\x82\x05\x00\x01\x00\x00\x00\xb6\x04\x00\x00\x9d\x82\x05\x00\x01\x00\x00\x00\xbe\x04\x00\x00"\x88\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\'\x88\x03\x00\x01\x00\x00\x00\xc4\t\x00\x000\x88\x03\x00\x01\x00\x00\x00\x02\x00\x00\x002\x88\x04\x00\x01\x00\x00\x00\xc4\t\x00\x00\x00\x90\x07\x00\x04\x00\x00\x000231\x03\x90\x02\x00\x14\x00\x00\x00\xc6\x04\x00\x00\x04\x90\x02\x00\x14\x00\x00\x00\xda\x04\x00\x00\x10\x90\x02\x00\x07\x00\x00\x00\xee\x04\x00\x00\x11\x90\x02\x00\x07\x00\x00\x00\xf5\x04\x00\x00\x12\x90\x02\x00\x07\x00\x00\x00\xfc\x04\x00\x00\x01\x92\n\x00\x01\x00\x00\x00\x03\x05\x00\x00\x02\x92\x05\x00\x01\x00\x00\x00\x0b\x05\x00\x00\x04\x92\n\x00\x01\x00\x00\x00\x13\x05\x00\x00\x05\x92\x05\x00\x01\x00\x00\x00\x1b\x05\x00\x00\x07\x92\x03\x00\x01\x00\x00\x00\x02\x00\x00\x00\x08\x92\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\t\x92\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\n\x92\x05\x00\x01\x00\x00\x00#\x05\x00\x00\x91\x92\x02\x00\x03\x00\x00\x0092\x00\x00\x01\xa0\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x02\xa0\x04\x00\x01\x00\x00\x00\xa9\t\x00\x00\x03\xa0\x04\x00\x01\x00\x00\x00q\x06\x00\x00\x17\xa2\x03\x00\x01\x00\x00\x00\x02\x00\x00\x00\x00\xa3\x07\x00\x01\x00\x00\x00\x03\x00\x00\x00\x01\xa3\x07\x00\x01\x00\x00\x00\x01\x00\x00\x00\x02\xa3\x07\x00\x08\x00\x00\x00+\x05\x00\x00\x01\xa4\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\x02\xa4\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x03\xa4\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\x05\xa4\x03\x00\x01\x00\x00\x00n\x00\x00\x00\x06\xa4\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\x07\xa4\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x08\xa4\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\t\xa4\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\n\xa4\x03\x00\x01\x00\x00\x00\x00\x00\x00\x00\x0c\xa4\x03\x00\x01\x00\x00\x00\x00\x00\x00\x001\xa4\x02\x00\x08\x00\x00\x003\x05\x00\x002\xa4\x05\x00\x04\x00\x00\x00;\x05\x00\x004\xa4\x02\x00\x14\x00\x00\x00[\x05\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\xc8\x00\x00\x00 \x00\x00\x00\n\x00\x00\x002022:11:07 18:24:22\x002022:11:07 18:24:22\x00-03:00\x00-03:00\x00-03:00\x00\xd0\xa2t\x00@B\x0f\x00\xf053\x00@B\x0f\x00\x00\x00\x00\x00\x06\x00\x00\x00\x1e\x00\x00\x00\n\x00\x00\x00L\x04\x00\x00\n\x00\x00\x00\x02\x00\x02\x00\x00\x01\x01\x023084416\x00\xbc\x02\x00\x00\n\x00\x00\x00\xd0\x07\x00\x00\n\x00\x00\x00\x1c\x00\x00\x00\n\x00\x00\x00\x1c\x00\x00\x00\n\x00\x00\x0070.0-200.0 mm f/2.8\x00\x00\x06\x00\x03\x01\x03\x00\x01\x00\x00\x00\x06\x00\x00\x00\x1a\x01\x05\x00\x01\x00\x00\x00\xbe\x05\x00\x00\x1b\x01\x05\x00\x01\x00\x00\x00\xc6\x05\x00\x00(\x01\x03\x00\x01\x00\x00\x00\x02\x00\x00\x00\x01\x02\x04\x00\x01\x00\x00\x00\xce\x05\x00\x00\x02\x02\x04\x00\x01\x00\x00\x00/\x14\x00\x00\x00\x00\x00\x00H\x00\x00\x00\x01\x00\x00\x00H\x00\x00\x00\x01\x00\x00\x00\xff\xd8\xff\xed\x00\x0cAdobe_CM\x00\x01\xff\xee\x00\x0eAdobe\x00d\x80\x00\x00\x00\x01\xff\xdb\x00\x84\x00\x0c\x08\x08\x08\t\x08\x0c\t\t\x0c\x11\x0b\n\x0b\x11\x15\x0f\x0c\x0c\x0f\x15\x18\x13\x13\x15\x13\x13\x18\x11\x0c\x0c\x0c\x0c\x0c\x0c\x11\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x01\r\x0b\x0b\r\x0e\r\x10\x0e\x0e\x10\x14\x0e\x0e\x0e\x14\x14\x0e\x0e\x0e\x0e\x14\x11\x0c\x0c\x0c\x0c\x0c\x11\x11\x0c\x0c\x0c\x0c\x0c\x0c\x11\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\xff\xc0\x00\x11\x08\x00k\x00\xa0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xdd\x00\x04\x00\n\xff\xc4\x01?\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x03\x00\x01\x02\x04\x05\x06\x07\x08\t\n\x0b\x01\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\x10\x00\x01\x04\x01\x03\x02\x04\x02\x05\x07\x06\x08\x05\x03\x0c3\x01\x00\x02\x11\x03\x04!\x121\x05AQa\x13"q\x812\x06\x14\x91\xa1\xb1B#$\x15R\xc1b34r\x82\xd1C\x07%\x92S\xf0\xe1\xf1cs5\x16\xa2\xb2\x83&amp;D\x93TdE\xc2\xa3t6\x17\xd2U\xe2e\xf2\xb3\x84\xc3\xd3u\xe3\xf3F\'\x94\xa4\x85\xb4\x95\xc4\xd4\xe4\xf4\xa5\xb5\xc5\xd5\xe5\xf5Vfv\x86\x96\xa6\xb6\xc6\xd6\xe6\xf67GWgw\x87\x97\xa7\xb7\xc7\xd7\xe7\xf7\x11\x00\x02\x02\x01\x02\x04\x04\x03\x04\x05\x06\x07\x07\x06\x055\x01\x00\x02\x11\x03!1\x12\x04AQaq"\x13\x052\x81\x91\x14\xa1\xb1B#\xc1R\xd1\xf03$b\xe1r\x82\x92CS\x15cs4\xf1%\x06\x16\xa2\xb2\x83\x07&amp;5\xc2\xd2D\x93T\xa3\x17dEU6te\xe2\xf2\xb3\x84\xc3\xd3u\xe3\xf3F\x94\xa4\x85\xb4\x95\xc4\xd4\xe4\xf4\xa5\xb5\xc5\xd5\xe5\xf5Vfv\x86\x96\xa6\xb6\xc6\xd6\xe6\xf6\'7GWgw\x87\x97\xa7\xb7\xc7\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xe9\xad&gt;\xe4&gt;\xeaV\x1fpUo\xca4\xbc7\xd3.\xdc4|\x80\xd9\x1a\x99\x9fr\xa8[`ZZL\xda\xf1\xe1\x1f\x91I\x85f\xd5\x98\x19e\x99\x0ex\x0fsZ\x05Fv\x18\xee#\xdc\xc7\xab89\xb5e\xb6\xcd\x80\xb6\xca]\xb2\xda\xcfbuk\x9a\xef\xcf\xae\xcf\xccrh+\xcc\x0cwt(?K\xe2\x15\x86\x1d\x0f\xc4\xaa\xb4~w\xc9X.\x03\xef)\xd1Y$\xed(\x81\xca\xb0\xb5\xbe?\x81M~n65F\xeb\x9f\xb5\x83O\x12O\xee\xb1\xbf\x9e\xe4\xe46\xf7(\x97*5\xf5\\g\xd7\xea\xbd\xb6ST\x86\xef\xb44\t&lt;}\x17\xbdYs\xda9p\x1f0\x8a\x17:H\x1d\xf5\xfb\x90l2~\x01;\x9e\xdf\xde\x1fxB/\x01\xc7Pdv(H\xe8\x98\x8dV.Oa\xfd\x1b\xbf\xaa\x7f"\x86\xf0\x0e\xa9\xad\x7f\xe8\x9f\xfdS\xf9\x14k\x9a\xf4\x1f\xd1\x7fo\xff\x00"\xad\x13\xaa\xa7I\xfd\x17\xf6\xc7\xfd\xf5Y/\x1e(\x9e\x9eH\x1d|\xd7%\n\x7f[o\xfc[\xbf(R\xde&lt;P\xdag,G\xfa2&gt;\xf7"7\n;6?0\xfc\x0f\xe4Y\x05\xcd\x7f\xd0pt4\x03\x04\x1d\x7fub}`\xfa\xcfo\xda\xdf\x8b\x8b\xa6=\x12\xd2\xe1 \xbd\xe3\xdbo\xbb\xfe\r\xde\xc6.a\xa1\xd65\xd9\x15\xd8\xf7W[\xa04\x12\x1b\xa9\xfd\xff\x00\xcd\xf7)+\xe8\xc7z\xf7\x7f\xff\xd0\xd2\xc8\xfa\xc1\xd2\x1b`\xac\xe44?\x83\xaa\xca\xeb}]\xa7\xd0v\x0e\xcc\xa2\x03\xf7\xb4\xb8\x88\x92\xdf\xdd^z\xed\xf3\xe2{\x92\xa4\x1e\xe6\xf0Hr\x87\xda\xf1g\x19\x88\xe8\xf6\xb9\x19yN\xbcWM\x13T\x00\xe7\x87\x19\x98\xd7\xf9\x1e\xc5w\xea\xe1w\xed\x1c\xc2\xe3\x0f\xb2\xb6\x90&lt;\x9a\xef\xce\xfeW\xbdr=;\xaa\xdd\x8eKly5\xbf\xe9\x12WM\xf5w\xa9`S\xd5\x1d\x83\x90\xed\xb9\xb9U\xb0PN\xad\x05\xdb\xad\xfb\x1d\x8e\xff\x00\x07\x92\xf6zVm\xff\x00\xd0\x7f\xe7\xd3%\x02/N\x9d\x19\xbd\xd8\xc8nn\xf6/[D\x82\xe9\xf2Eal\x978&lt;\x13\xf1\x8f\xc1\x06\xa8\x0et\x08\xe1=[I|\x93\xa3\xcc(\xc6\xca;\xb6\x83\xea\x9dK\xc0\xef\xf4\x97-\x98\xfc\xfc\xec\xa7\xbe\xc7m\x8d)h\xf7\x06\xb0\xfb\xe1\xbf\x9d\xbb_\xa4\xba1\xb0\x1eO\xfa\xfc\x97;\x9b~N\x17Px\xb6\x83eO Wmd\x8f`\x03k\x86\xef\xdd\xfa/O\x87\x86\xea\xa0H\x12\xf9Vkr)\xad\xf7_yqc\x9b\xe9U\xb8\xed\x02}\xfb\xab.s_b\xd9\xc2\xba\xd7\xf5\x1c\x90\xf2\x05\x0ehy\x90\x00\x0f\xf6\xed-\xdd\xb9\xad\xde\xdf\xa7\xb5s\xf9v\xe5;$U[+\x149\xdbC\xe7W\xf1\xcb\xfd\xfb\xbd\xc7\xe8W\xb1*\xba\x8bzKo\xeaYV\x1c\xa7T\x1e\xccZ\\\xe8s\x89\xd8\xcfF\xbb"\xc7zu\xb7w\xe9\x1e\xcf\xf84\xe3\xad\x83\xd7eN\x11\x04\x18\xe8#\xbb\xd7\x11Y\xff\x00\x08\xd3\xf2j\xe4\xba\xd3\xb2\xf32\xc5\xb8\xd4\xda\xda\x9a\xdd\xa0[Yo\x1d\xd8\xda\xe3f\xef\xe5*o\xff\x00\x19d\x92\xd1\xd2\xc1\xf3\xfbG\xfe\xfa\xa4\xff\x00\xf1\x82\xf8\xdczS6\x9e\x07\xaf\xaf?\xf8[\xda\xa3\x96)KM\x91\x1c\x82&amp;\xd1\x1c|\xf9\x9fL\xb4\xf8\xfb\xe7\xfe\xad5\x97\xe7UK\x86\xed\x84\x82$\xba\xcf\x0f\xdd\xdc\xb3\x9f\xf5\xab\xeb\x03\xef9C(V\x0c\x9f\xb2\xb1\xad\xf4\x9a \xba\x1a\xc73\xe8\xff\x00-\xf6z\xab\xa5\xe9?\\\xfaVsj\xab%\xae\xc6\xccv\xc6=\xbb^X\xe7\xbb\xdb4\xfan\xb5\xdbl\x7f\xb7\xd3za\xe5\xc8\xeb~K\xfe\xf0\x0fJ\xf3hau\x1c\x86\xf4\x97\xb0\xb9\xad\xbd\xd7\xeehn\xe7ZY\r\x93\xea\xbb\xf9\xafrC\xacu\x06\x83\x0f\xb8\xc7\x8b\xc1\xff\x00\xaa\xadu\xd6R\xd9\x87W$|\xff\x00\xf2H\x07\x16\x8f\xf4?\x80\xff\x00\xd2i\x1cd\xfe\x92F@?E\xe5\xff\x00n\xf5\x01\xa9u\xdf\x19\xac\x8f\xfa\x95s\xa3u\xbb\xed\xea\xd53"\xcf\xd1X6\x12\xfd\xb1?I\x81\xbe\x98\x1f\xa4\xdc\xb6\x8e\x1e)\x1a\xd4#\xe0?\xf4\x9a\xa9~\x06\x1f\xae\xd0\xca\x19$\rK[\xcc\xff\x00W\xf3R\x8e9\x02\r\xfe%\x12\xc9\x12\x08\xe1\xa7\x01\xbd\x16\x9b\x8d\xa7%\xaf\xb1\xce\xb6\xc0\xf9q\x01\xcek\xdc\xdd\xee\n\xdd\xb8\xb5\xd5\x8c(c\x18\xd65\xbbv4\x82\x04\x8f\xa2\xe8M\x9d\x8a\xdcn\xb1~C\xacq\xaf2\xa2\xfb=G\xe9\xbc\x9d\x96zm;Y\xf9\xbb\xd0qzv\x03\x1c_S@n\x8e\x00\x82\x0f\xf2\\?\x92\xf56\xfdJc\xf2\x8a\x88\x17\xbfw\xff\xd1\xe0\\$\xc8\x1a(\x96\xea\xb4\x1c+\xdaZ\x06\xa7\x85]\xd5\x03V\xe6\xfd!\xca&lt;+\xad\x07\x11\x07\x85\x12H\xb3q$:wn\x93;\xa7v\xfd\xdfK~\xef\xceI\xa1\xdb\xa1F\xe3\x0e\xd7\xe6\x82\x0b\xda\xfd]\xfa\xe8K\xc6\'V\xdfu\x96Ch\xc8\xa9\x85\xf69\xdfE\xb4\xddE^\xeb\x1e\xff\x00\xcc\xba\xa6\x7f\xc6.\xbe\x9b?Gal\x9f|\x88\xf0 /\x15{\xbd\xa4\x89\x90$\x1e \x8e\n\xf6|G\xb8\xb0\x97A{\x88.#P\\Z\xdd\xdb\x7f\xb4\xab\xe5\x88\x89\x15\xa5\xdb&gt;)\x99\x03z\xd5-\x9d\xd51\xfae-\xbb?%\x98\xecy"\xbd\xda\xb9\xe4j\xe6\xd7Ua\xd6?l\xfe\xea\xe72\xfe\xb6\xf4\\\xec\xca\xe8\xab\xd5k\xee\xf6\x1b\xedc[Y\xd0\x8a\xff\x00Gc\xdf\xb2\xcf\xcce\x9b+\xff\x00\x84X\xbf]\xf3~\xd1\xf5\x8e\xda\xda\xf0\xfa\xf0\xeb\xaf\x1d\xa0\x19\rtz\xd9\r\xfe\xbf\xabf\xdb?\xa8\xb0q\xb0\xee\xea9\xb4\xe1P\xd0\xeb\xb2\x9e\xda*\x07\xb3\xac;7\x7fg\xe9\xb9:\x18\x85\x02I\xd5\x12\xccD\xb4\x03B\xf7\x14\xe6\xb8\xda\xe2\xd6\x1a\xebpl\xcc1\xad\xd8==\xee\xad\xae\x7f\xe9?\x96\xb2\xbe\xb0d\xd6q\xf0\xa8\xd8=K\x9c\xfc\xa2\xf2!\xc2\x82&gt;\xcf\x8dX\xfeE\xd6\xb3+#\xfe\xd8\xb5ux\xfd\x12\xbc\x9f\xac\xd7`\xdc\xda\xed\xc0\xc5\xad\x96Y\\\xba\xb6\xbf\xda\</t>
+          <t>b'\xff\xd8\xff\xe1\x00HExif\x00\x00II*\x00\x08\x00\x00\x00\x02\x00\x12\x01\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x98\x82\x02\x00\x1a\x00\x00\x00&amp;\x00\x00\x00\x00\x00\x00\x00MARIA EUGENIA     CERUTTI\x00\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x00\x01\x03\x04\x05\x06\x07\x08\t\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf6\x8f\x13\xd7\x06\xea\xc5F\xa9\x98\xccd\xc4\x06Y\x89\x958@\xaa\x16\xaa\xb5\xa4+7"\x9d\\\xed\x04\x8c0 v$\x04\xb9Y\xa9\xa4;O,\xb4\xce\xbb4n\\\x08\x1c\x08\t\x8e\x82\x02\x03\x07\x07a!\x01\x03\x03\x83\xa11\x03\x03\x02\x06\x01\x06`\xa1\x99\x05Mm\xf0a^\xa5[;|wp`\x82*\x0e}\x92C,i\x082\x18n\xc2\x13\x8c\x90\xe0 \x9a\xc7\x1eD8\x05\xbd\xd9\xcfb\x88"\x9b\rtA\x92`\x11\xb2I\x8c\t\x0c\xc4\xd2\x06\x04\x0c\x19\xf58\x12u\xfd\x19I\xaeq\x8eL\xac\xaa^\xd4y\xd4\x1ag\xccF\xb74\xcf#-\x12s\xdc\xd5\xce\xfd\x1aH\xc7Z.0a\xa6\x0c\xb6\x18\xa0\x9aJ\x90A\x9d\xd7\xa9\xa6\xd6\xbbS\xd2H\xab\x16\xe36\x8d\x05C\x82\x00\xce\xa4kSX!8\xde\xe2\xb8\xb4t\x97\x04\x04\x06\x0e\x04\x04\x04\xc2A\x03\xb1&amp;\xe0\xe8q;\x1c\x1000008\x080\x0b\x18Q4\x1d\x18&amp;XsV,p\xdd\xd0!\x04\xd4&lt;\xfa\xa4\xc4\x18\x05\x0c\x936\x9aI\xbb%\x91P\x92\x16\xf2\x03"\\w\x1b\xbd\x19J\xd4\x13O\xcd\xb6\x83I\x02\xc6\x06C4\x81\t\x98\x81\x90\x86\xcd33\xeapd\xeb\xfa2=\xb2\trF\x86\xe55\x1cT\x1a\xe7\xcb\xe7\xad\xdb\xcf\x1e-\xd5MSW;\xf4yq\xa2\xac\xdci\xb3\x12b\x0c\x02\x99\xd2\x14\xdd:\xf9\xdc\x174\xa9l\x13f\x86\x92\xacZ\x1c\x8d\x10\x10\x13\x12#\x9a\x95\x1a\x9a\xe6CB="\xb8\xaf\xe9.\x87a\x03\x83\x81\x83\xa0\x98`\xe0\xe8v88\xdd\t\xa4\x0e\x0c\x08\x04\x18\x10 f\x08\x84\x01\x91\xd4\x03\x1c"D\x91h\x04+MG\xcf\xb2\x80X \xc8`\x1b\x14\xa4\x992F:\x12\x05\x99\x01\x91@\x0bw\xa7\x03N\xbc\xd1a\xae\x80\x9d6\x10\xb1\x81\t!P \x90\xc2`T23\xd9\x82.\xc3\xa3\x195\xce4\xcf;:\x94\x11\xc3\xaf\xbe|\xc6;^\xd3,l\xed\xca\x96\xa6\xbeu\xe8\xd3Q\x85X\xb8\xd3Ld\xd9\x026\x03`\xa6a[+\xadsB\x96\xd3V\x9af\xaae\xab\xb5"\x10\xc9\x06\xd2l2\xa9\x1a\xd4\xdb2\x1aA\xeb\x9dv\xaf\xdc\xb8\x13\x1d4"\x02\x02\x07A0\x80\x98\xa5\xbbD\x9b\xb4\xc0\xe8L`I\x88\x08\x9d\x88\x18\x04\x05\xa4\xc1@\x80\x80\x82\x01\x01Eh\xb1\xc3E,\x06\t3\x10\r\x0c\x87\x02d\x80R\x98b\x19-\xe3\xb4\x0ew:q\x91\x15\xe6\xcb\rtId\xd9\x8c\x02\x0e\x84\x0c$\xc6\x06Bbi\x8340\xeaz\xfd\xf2\x93\\\xe2N\\\xa8\xad0\x04\xba\xfa\xc71\x96\xb7\xaf,l\xb5L\x9e\x95l\xef\xd1\xa4\x8cu\xa5\xc4\xa96\xc8`a\x8c\xb3\xa4\x93$U\x9a\xa8\x19\xd6\xb6\xc5z\xe5"\x9ez;\r\x0e\xc7A4\xe3\x0c\xaaFjm\x99!\x04\x9ag^\x8b\x95\x06\xc2bM\xd0B6\x10$\xc9\x8e\'\x02\x1a\x02A1\x92v0 @)\xa13\x18\x04\x18\x05\x8e \x01`\xa11\x90 !R)s\xecI\xc5 4\xc0\xcc\x10HvH\xc3\x07\x96\xcd\x08d7\x92\x88\xea6\xfaq\x99\x95r\xb3\xc3m\x14\x99\xa6b\x00\x86\xf4\x903H\x19\x8c\x87\x06i\x91\x9c\xccD\xba\xee\xac\x0fI\x8cRe\xa9\xdc2`\x9d}s\xe61\xd2\xee\xb9\xe2e\xb1\xb55(3\xafC\x86\x03\xaf\x9dD6m&amp;\x80X\x10\xe4\xb1HL\xad5E&lt;\xa6\xb7E\xa1\xa4\x90\xaae\xab\nA\xa6\x88\t\x88\x03:1j\xed\x99&amp;\xec\x99\xc5j-\xe9\x991\x01\x01&amp;@@\xed;\x1d\x0e\x99\x014\xc30I&amp;$\xd8\x1cL4\xd0\xa10@A!\x98\xd4\x85\x02\x02\xc5-\x9a\x00\x10\xab\x9d\xbe\x1bI\x04A\x13\x06\x93Kd!\x1d\x12\x01\x02\x18\xa4\xd4c\x06R\x02\xa7o\xa7\x19\x82\x9c\\\x9c\xfbh"9\n\xd14\xd0\xd3\x1a\x92\x13!\x98\x811!\x835\xacG=wFE\xa4\n$\xcfB\xb8A\x1c\xd5\x0b\x8e\x03-0\xaf=\x8c\xae\xcd)\xd8\xca\xbd2lQ[;\x85\x88n\x9a\x01\x00TnRd\x9dX\xac\xf4\xf9\xe1t\x96\xb66\xcc\xa4\xa9\x9e\x89\xb3H\x86\xed88G\x16b\xd5\xdf"M\xd1b\xa6\xb5M\xad \x98\xc0C0H  &amp;\x90:\x08h\x1c\x1d\x8e\x84\xd3\x83&amp;\x84\xc3a0&amp;\x08\x088\x08\x0bL\x80`\x83&amp;\x9afF\x8a\xd9\xdc\x98m,\x91\x84,\x8c\x18\x1aBa\xb4`\xe0\xc0)\xa6\xb1\x19\x96\x88\xeeww\xc6j)grs\xed|I\xa7Bb\x1b$\x98\xc8LBf0\xd9\x0c,\xd6b\xa8\xeb\xbar-$S\x93++\x8a,\xe6s\xbcM\'\xcat\xcf,\x99\x99E\xcc\xc2\x98_\\\xf2w0U\x8b\x86[\x82M\x00\xb6(\',\x9b\x8e\x0c\xef$~e\x92\xef(\xec\xfb2!S\xc3V\x03a \x81\xd8\x86\x13F\x8d]\xb2p$\xecTEJ\xc6\x99\x8b\x193a\x03\x83\xa0\x98\x84\xe9\x908\x89\xb7\x07B\x04\xc4\x84\x0c\x08\x19\xa4\x02\x02\x08\x19\xa4\x02\x02\x00\x0c\t\x82\x80\x01\n\xb9\xe97&gt;\xb2\xcb\x8d(h\x04\x0b\x14\x87A\x83\xb1\xd0\xcd00a\xa34"\xb9\xdc\xe9\xc6\xc0S\x9b&gt;m\xb4\x04\x98\xa4La&amp;\nn\x0c\x0c\xd2\x06i\x93B\xcb\x0c\x82:\xee\x8c\x96\xb1\x1c\xb9\xb3\xd2\x1b\x8f1\x8b\xe7/:5&lt;V\x99\xf2;\xe2\x99I\xcd\x94\xf5\xa5}\xb9\xe7\xfal\xca\xb9\xe9^Y\x82\x1aL@\x13v\x9d\x10\x0f\x025\x82w\xa6\xb4\xd3N\xde\x98\xcf\xaf=\xa9\x93NQ\x1b\x08\x1d\x89\x01\x16\x87\xaf\xae$\x0e\x16.cj{\x80\x047a\x08\x81\xc1\xd8Hq\x10\xc8\x1d\xa4\x9b\x831!\xc1\x81\xda@\xc0(@,L`d\x0bB\x98\xb4\xcc\x10\x10\x8c\x05\x15s\xbb&lt;\xfbI.9!\xa4,\x14$\x1b$\xa1\x02C1\x90\x83\x0c3\x9a\x8a\xa7s\xa3\x19\xe9T\xcfB\xe6\xdbA\xa44&amp;\x91\x02\xb1\xa4@40\x9c\x18L4\x96U\x19Jz\xde\x9cV\xb9\xc76\xb2\xbf"\xa8\xf3\x9dr\x95\x04\xd6\x06\x91\x96\xcc\xeb\x97N\xeb\x8dX&gt;\xc9\xe2\xf4\x93U\xa2\xeb\xaat:\xa6\x00\x0c\x0ct\xcfM\xc7U\xec8\xfa\x11\xe7\xbd\xdd3\xee:x9\xfcv\xe7\x05\x99\xa7/E|\xfdd\x86\xd3\xb6\xed \x1c\xe9\xd3\xd5\xdb"c\xa2\xcdHT\x9d\xc8\xb1\x02L\xc0\x98B@@@@\xe0\xe0\xc0\x80\x82\xa3Q\xcbfL\x8b\r\x10\xd9\xa0M4\xe0\x00\xc0-\ni\xa0\x01\x00\x08\xd0\xec\xa9\x96\xb3s\xeb$\x91%\x1b\x18b\x08\x1cR\xd3v\x9e\x18\x02\xa4\x83\x04tE\x15-\xce\xaey\xc2\xach\\\xda\xdfC\xb4\xcca\xb2H\x13\x18\x05\xa4\x9b4\xf0\r4\xd6P\xb3\x12\xeb:\xb1ZDh\xe3s\xd3\xe7\xed\xf9\xe0\xac\xdbI\xcfN\xea3iM\x9e\x9b\xd8\xed\x97\xd1\x8e&amp;\x98}\xcd\xe6\xfai\xaa\xd1p\xa6\xc9\x92\xa6j\x19\xbeS\n\xc7nk\xdfjz\xf2c\xa1\xc0\x19\xa2\xf39Y\xd2\xf3o\x1e\x17\xbb\xcc\xf5|\xe7\xb2\xca\xcd\x8e\n\x80\xce\x89\x9a\x9af@\xe8\xb1\xa4GS-\xcc\x03\x8eZ\x07h\xc0\xc0\x81\xc6bp @\xe1\x99Q\xe5\x9a\xe3\x93\xa4]\x16\xf8\xb7\xb3#\xcfN\x9e7\xd3t\xe0\xc0\x9a`\x10\x00@\x98(\x10\x10@(\xa7\x96\x91\xf3\xecH\x07"\x98\xb6(\x1a\x1aI\x12\x92\x87C\x82c3\t\x94\x047;\xbd\\\xf3\'W\x1d_\x9f[\xad\x13\x13B\x9bH\x9aa\xb5\t$\x0c\xd3\xa6\xc0\xd4d\x8a\x88\xba\x9e\x9c\n\xe3\x16k\xe7\xf6\xb8\xad\xf9\xa0\xd6.\x13\x9a\xc7U\x1aZ\x99\xeb\xb7\x97F&amp;\xd9U\xd3\x0f\xb7&lt;\xdfE\x9a\xaf\x17\x01B\x99&amp;\xc3\t\x01\x9cZ\xdc\xf2\xecg\xb5EeJ\xbc\xd2EyL\x87\'\x95\xee\xf2\xaa\xef\xc3\xf4\x17\x17\\\xc0M:"\x8b0\xd3\xdb2C\xb2k\x88\x84T\xa1\x8aq\xb3\x12\x13\t\t7Bc4\xed8s\xba\xe5\xc1t\xf2\xd6\xa5\xb0\xd6\xd4\xad\xb4\xae\xcb\xe2\xb3\xe9\xcf\xcf\x7fO\xd7\x9al\xf5\x08\xd0\x01\x98@ \x81\xc4#q\x08\x0b\x04)\xe5\xadN}Jh\xc4\x80\x10 4)F\xc3j@!*n,fPi\xaf=\xae\x9cf\x1d\\u\x9f\x97[\x14\x9c\x19\x8c\x86Bc\x02c!Zt4\x8a\x87FM\xaa\xc2\xe9\xfa0=#\x84O\xc0\xf5\xc4\xdcam\x95v\x90c9\x99i\xda\xf2w\xf5|\xfd\xd8\xd7\x971\xd9\xe5\xfd\xab\xc3\xda\xcdV\xce\xe3U\x1a\xa6\x04\x98&amp;\ry\x9e}\xd6\x97A\xd3\x01\xce\x15\x98U9\xf8PK\'&lt;\x97w\x97\x87\xd3\xc3\xef\x1c]=~z\x90\x84\x02h\xa4\xd4\xdb2c\xa2]"\x9bI9"\xe5D\xac H@\xe3$\x8d\x8e\xc2k\x85\xdf\x9b\x84\xe8\xc6\xa5\xe73\x9d\x9a\x9b\xf2\xf6\xb1\xbc\x97Y\xd8wiV]\xfe\xbc|\xac\xdd\xce~\xce\x86.0`d\xd0\x08\x00&amp;\x84`\xc8\x92\xe3\xf8\xfb&lt;\xef\x87\xadF\x920\xdc\xc4\x10\xd0\xcel\xcb\x9a\xa6\xc3S\xb2v\xae\xa2\xcdN&amp;\xd9\xe6\x93N\xf2\xef{\xf9w\x83/\x93v\xc3[\xba\x06\x91\xb4\xe8 v\x9cI\xb1B\xa4\xa9\x14\x87i\xc34A\xae}&amp;\xd9=O\x9e\xc1\xe0]\\\xf05\xaa\x9f;\xa4d\xda\xb5;z\x17\x1f\xad\xd8rw&gt;uZ\xe3\x95\xed\xf2\xfe\xa9\xc72j\xb4]x\xa1U\nq\xcd=(\x99\xe6Yz\x16\xca\x9a\xaaGF\x19\xc8\xa3QR\x1b\xcb\x9e\xe3\x9f\xe9\xf3\xf1zx}\x8f\x8f\xa3\xb7\xc3wh\xa5\xb8\x10\xf5v\xc8\x81\xc2J\x8c\xd6\xa3e\xbc\xee\xc4\xd1\x02\x07\x04\xc4\x84\x82\x1b\xb3\x86\xd7\x0e\x0f\xb3\x8f6\x95\x874nn\xa7qV&gt;ZN\xbaz\x18\xae\x8b^N\xf9\xf3\xf2\x05r|\xdd\x1e\x99\x87^\x92\xa6i\x95$ M M \xc2\xe6\xe8\xf1\xff\x007\xd3\xce\x9apt\x99(m\x98B\xc8\xdadH\x16"\xe6\tQ\ny;\xe5M\xc3\xd4\xfb\x87\xaf\xe4\xf4\xe2\xf3_;\xd1\xe39z\xa3\x03\x1d\x84L\x94\xcc$\x8c\x99G\x057h\xeae\x15\x87,Nm\xcc\xbac\xeb\x9e\x9f\x0c\x9a\xe7\xe0\x97&lt;5Q\xce\xe3jUZQ\xd1\xb7\x97WO\x1bXE)T\x94\xd0\xd3\x97\xe8z\xe04D:Sa,\n\x8aY\x05!\xf9\x03\xda\x8f_.\x85m\xd5\xe5\xd6,\xc2\xd3\x9b\x18\xc8\xf2\xd6\xe7\x1fP\x0f\x99\xef\xf2\xe9m\xcd\xed|]=\x977AR\x91\r\x14\xe1\xaf\xd1\x89\x03\xa6\xf7\x9dF^\xce\xac&amp;@\xec$&amp; p0&amp;r\x97\x9f\x8e\xeb\xcd\x8b\xd3\x8e\xd0\xf3m\xd7zh*\xc2\x0b\xfc\xfd&gt;\xa3\x8fF)o\xd3\xe7\xf5\xf7\xc1\x9dK\x94\xc7]\x9eN\x8fW\xcf\xa8Q\x18\x0b\x18c \x804\x13T1\xdb\xcbyz\xbc\xdf-\xd2l+\x91b\x11\x82h\x93\x8e\xa12\xccU\xb9\xa7\xa2\xab\x9eo\xb3\x8el\xdczO\xa3\xf5q\xf4\x9c\x9d\\?\x1f\xa12vA\xe5\x90\x13P\xb6\x02d\x9d\x89\xa7\x06@0Z\x8eJ\xfaf\xc8\xf4OK\xcd\xef\xbd/?\xc55\x9ew\x9b\xd4\xd5\x9e\xab\xb4\xee!*\x99\xe9b\xb3U0b\xe8D\xd1\xbc}\xe0\xe1z\x9a\xa1G=\x05T\xa0i\xa9y\x8dx\x0fdctsT\xd2}G\x83\xd6N\xbc\xf3\xab\xcd\x1b\xcbW=\xefstjr\xf6bu\xf9\xb2us\xfb\'\x9b\xdf\xd6\xe4$\xc8C4C\xd4\xdf\t\x01\x0c*\n]\xa4\xe4a\x83\xa1\xc1\x81\x012@fx\xd7o\x1f+\xaeu#M\xe5\xd3+\x05v\xb1U\xe0\xd2\xc3^\x8av\xc0\x1d~\xbf\'\xbe\xdf\xc8\xc5q\xcb\xe1\xad\xac4\xf6\xcc;\x92\x18\x13\x1d\t\x82\x11\x86vw\xc6\xf1\xf5\xf9\xdf\'W&lt;\\)5!\x1a\x06\x14\x81,Tu"\x0c4\xd0\x84\x81\x83\xd3\xcd\x8f\xb60\xed\x8f\xadi\x87\xa6s\xf4y\x8f\x1f\xa1\x83\xcf\xd3\x0bB\xc0H\x86\xd4\xa3IRM8\x1a$\x91\xdb!\xc6\xd5{\xc1\xaf?R\xf5\xbc\xbfI\xe8\xc7\xcd\xa9p\\\x9e\xcfBt\xdd*I\x814\x81\xde\x89\x9co8T\xc2\xd6S\xc3\xd4\x8e&lt;\xc1d\n\xac\xd4\x83\xb8;R\xe5\x97Y\xd7\x99l\xe9taN\xd7k\xc1\xeaF\xab\x95\xec\xe0n\x9e\n\xfc\xdd]\x96\x1dQc\xbc}&lt;\x91\xe8\xfa^~\xcf_\xe7\xe2@\xe9\x84\xb4\x9e\x8fF&amp;&amp;\x1d0\x01\xbc\xb3\t\x04@\xe3!\x10\xc9\xcc\x83\x89\xcf\x0b\xe8\xf0ak\x19\x9c&gt;\xe5\xd5\xd9:\xd6v\x98Z7\'\x86\x9bo\x97\x9b\x9dp\xb6\xe7\xec{\xbe~\x9a\xcf\x99\xce\xbbl\x8fA\xe7\xee(\xd5\x031\x90\x84\xcc\xce\xca\xfc7\x87\xbb/\x9f\xa1K\x8e\\\xc0\x8a\xae\xdb\x01&amp;\xa5;b\x10\xa4v\x1a!j&amp;\xb3u\xcb;Iw\x1e\xaf\xd3\xc8\x1c}\xbcf[S\xa1\r\x84\xd6\x85\x02\x02\x909\x8e\x94u \xe8\x1c\xcf.i\xd1\x05]1\x93L}\'\xb3\x83\xd3\xfb9\xf9\x14\xfc\xcb\x9f\xd8\xe9\'\xaa\xdd[DYn}\x1d\xaa\xce\xb6sMM\x04\xa1y\xd2\xdf\xcc\xe7.06\xc6\xb0L\x9d\xd8\xbb\xb1V\x13b\xa8\xd6\x97#kY\xe9\xb1=u\x93\xb2\x8b\x8f;\x11\xab\xa8\xaa\xaa\xa5N\x07^}\xa65\xec&lt;\xfc\x8e7hf\x94U\xfd\xf1\x91\x0e\xd2\xd2I7C&amp;\x98\x81\xd0\x93@\xed\x08\xea\x13\xc6\xf7q\x0e\xcb\x17\xcc\xfa9\x8d\xaf\xdb\xbbp\xc8\xcfL\xa5C\x0f.L\xfdp\xee\xfb\xfc\x08\xf4\xe6\xc6\xe7\xd3\xa6#\xa3\xe7\xec~~\xa4\x08i\x06$8\xd4\xe07\\!\x8a\x86H\xca\x82j\x0c\xed\xf3\xd2\x08\xb2\x9a\x14W\xb2\t\xaa\xf0\xe0J\n\x9cmr\xa1\xd1\x8cW\x13\xf3\xef\xa9\x8e\xf2\xe5\xa1H\xe3\xae\xddZ\x19\xabq@\x15.BZ\xa4I\xb0CEv\x86\x94mGx\xcfJ\xc5\xcf\xa8\xf7y\xfb\xbd\x18y&amp;\x1e\x9fO]G\xa6\xb3LOy\x8b\xcb"\xb2\xad\x9a\xb4\xb4\xa9\x9dF/\x1c\xf4\xfe\x7f7L\xea\xb8H!\x90M4\xed\x18\x1c\xdd\xc9\xd2\xd6{j\xc7]\x8c\xb5\xd25\xec\xf1\xed\x9d\xdd\x19\x8c\xb37\x1ef\xb8v\xd3\x97\xa9\xf3\xc2M\x00E\xa8z\xdd\x18\xc8\'\x084\xce\x8ci\xa2\x02\x0e\x0e\xc5"a\x0c\xd0\xf4\x85\x1c\xc7w\x15Mg\x8e\xf3&gt;\x8fZ\xb4\xbd\xa1~\xa6\x92\xaamSE\x99\x9c\xdc\xd5\x1d3\xd6\xeb\xf2:=x9\xbc\xaf\x16{\xbd_\x1c\xfa\x9c\xb6\x11\x80\x85\x0c\x9c1p\x04{g_:\x8c#N$\xe3\x18\x00\xaa\x14\xdd$\xd4\xac\x91\xa7\x08\xc4\xaaY\x0c(\xe8\t\xb6J\t*f\xde\xab&gt;\\2:\xa2\x97\x06t-\x8aq\x8d\xf3bU\x19\xa0\x97\x05(\x1a\xc9\xe8\xe7!\x1a[{c\xeb^\x87/\xce\xd5\xa6F\xf3\xd2g\xd9\xd9\xcfW=\xb7/\x9e\xe9\xc7\x9fpo\x9f\xab\xcf\xa9a\xbe\xd4k\xe1\xbe\x97\x82"\x06\x92N\x0c\x04\x89[\x90\x10\xd8\x92\x1c\xf2\xedN\xbb\xb9\xf6uYvnc\xd7\x14U$Wy\xdbK\xd6\xf2\xc7\xab!&amp;\xf2G6\xca\xafk\x91\xb0\x84\x1ag\xcf\xcd\xe8\xa7:\x08d\x0e\x0e\x04\x87\x07i3\x0bl3;yx\xaf;\xe87+[\xbbh#\x94\'3Ny\xb9\xc7:\x10\xcd\xd6\xd7/6\xe9\xf1=\x17=\xaf\xe7\xebz\xfc\xf9w9\xfa\x19\x88\x12\x19\xa8\xa2\xa1\xca\xectc\x183\x102\x04\x06\x97\x88tsy7G&lt;c\xef9z\xbb\xdcv\xf4\x80\xbc\x98\r\x84\x00\x12\xc0@\xd8\x84H\x1a\x04a,\x04)\x88&amp;\x93N\x04\xd2B\xa4\x12\xd5K\x8c%\xd6\xd7:)\xbag$\xf4\xbc;\xab\x1e\x03\xaf\x8f\xad\x8d\xfd\x8b\xcb\xfa,\x8d\xf0\xe5t\xe7\x17\xb5m\xf8\xfax\xe9\x93\x9a\xadE|\xdf\xeb|\xca\x18\x8a1\x00\x98\'\x1c\xe9\xc8\x02\x00\x0c)\x87:4g]\x9c\xfa\xb7q\xeb\xd8\xc3\xae)\xaa\x8e5\x1c\xfd\x01\xcb\x9c\x8cHC\x04\xc3;\xbd\xaeGH\x81i\x18I\xea\xa7|\x197\x07B\x06\x04\x9b\xb4\x83\x93\xdb\x1f4\xec\xe5\x9b\x8f\xd9\xd7\xd4\xd5\xadt\x1d\xc4W=Yq\xf7\xc7C9\xbd:\xda\x8dl\xc3\xe3z&lt;\xed\xda\xd7\xa0\x8e\xff\x00d\xe7\xf2\xece\xacc\x88\x05\x11\xb29+g\xa0\xd4\xb6\x91\x0bQ&amp;\t\x98|\xf1\xe8y\xdes\xdb\xc4\xd1\xaa\x11\x8f[\x9b\xa7\xab\xe7\xd7\xe9\xac:g\x04\xd2\x02a4\xc0\xe2\x10Ld*I\x0c\t\xa4\xc4\x0c$\x0c\x86`\xb1\x03\x00\'\x85S@\r9\\\xdd\xb8\xa7\x86\xde\x1b\xd7qN\x9e\x91\xc5\xec\x05\xe6\xaahi\xcf\x93e\xf9\xbd&lt;n\xfb\xcf\xe5\xef_\xe5\x90\xa3\x08\xd0 \xc1(\xe6\t\x10"\x01\xb0\xa6\x1c\xc8\x95\x97\xe3]\x9c\xba\xb5\xb1\xec\xb1\x8e\xb6\xaa3\xbd\x0f\x1b\xdf\xbc\x7f[\xa5\x8d\x1d7Dj\x83;\xbd\xbeFK\x8ct\xcf\x1d=d\xef&amp;\x84\x86\xe0\x81\x02\x07\x07\x0c\xda^\'\xd5\xcd\x8b\x9f`tBZw\x0f\xab\xa0Zp\x0f&gt;fr\xce\xdb\x88\xa3^\xcb\x1e\x9d\x88\x9c\xfc\xee\xf6\xf3\xbf:\xf5\x0b\xc2\xf9\x03\xa5e\xeb\x9cB\xa76\xc3\x16\xa4\xac\xf4\xc2\xa4\xd4\x95-S;Y\xb3B\x1a\xca\xe5J;\x87`\xcd\xdd\xce\xfd/\x9b\xa7\xd4p\xdb\xa3\xce\xe6\xb9\xd0i\x98\xc0 \x00\t\x88\x856`\x83\x034\xc0\x98\xe98;N\xc7\x07\x04\x8cJ\x9c\xf4\xd0MS\xa8\xe1g\xa7\x8f\xd7O(i\xe9y\xfa\x82\xf2\x9fL\xa3\x9b\xb0\xaa\x07W\x8c\xa2Y|\xc3\xec\xfc\xa8\'\x18\n\x1cn\x08\x08H\x04I\x069Q+%\x14\x89\xdaZke\xd7k=}\x8f\xb7\xcc\xf9\x91\xe54\xdf\xd3\xdeO\xaf\xe8\xfc\xbdH#\x8ah\xab\xfd\x18\x90:"\xd21S\xd2\x9a\xb4\x82\xa4L t\xdc\x13\r\x04\x0e\xe7\x84\xd7?8\xbd\xf16\\\xfe\xbc}\xa4z\x9d\xfe[s\x8f&lt;\xede_\x0c\xf8\xfa\x1b\x11\x8c\xb8\xef\xcd\xc1\xb9\xa2\xdb\xac\xb9\n\xf1\xfc\x17\xa9\xc6\xf2\xcanl\xf6\x16\x81\x06\xd5\x91^\x9b\x94U\xaaa\n\xf4\xa6\x8a\x9a\xf2\xdc\xe0\xf4\xdbn|\xae\xaeJ\xcbL\xc0\xb8\xa5\xaa}[\x87\xb3z\xd7}\x15\xdcc\xb0\x000\x01\x80@A\x93a&amp;\x10\x95\x0e\x911\x9a&amp;\x92\x1c\x103X)\xd4i\x06\xa6\x99J\x9cYk\xc1\x9d\\\xb6}\x9d-\xf4D\xf3\xafu\x9b\xb76\xde\x1bi*\x92\xb2\x19\x8f\x99=\x8f\x97\x898\xd0\xe9\xb8\x9cl!\x109\x11\x92\x0c%\t\x11 \x13N;3\xa7\xa6k\x1c!\x97&amp;\xc9\x03K;\xfb\x03\xc2\xf77#X\xe5\x8ci\x7f\xa3\x03\x04\x9c\x1a\xe5\x8b\x17\xac\x1a4\x85\t\xb5 \x8d\x02\x13\x8d!\x05z\x9en\xf4\xe1\xfaZ\xd2c\x9e\x8b\xf8\xedKI\xdczaN4k\x1e\x8c\x8a\x1c\xdd\x99\x84t\xa2\xf3\xce\x9f3\x91\xe8\xe0\xe5)\x8d\xe7\x91\x96\xc76\xedI\x17$\xd5\xe5W"\xac#?ljT\xc7Rr\xee5,\xd4.li\x19\xf9\xefU\x139\xadq\xbd\xd1\x8eW\x1f\xa3\xed\xf9/\xa1\xb0\xd1\x98(\x00M000\x08\x080\xc0L\x02\xd3\x02\x06`!\x04h\xc5eaI\xa6{51g\xa0E\xe4\xbb\xf2\xdc\xbdi5T\xfax\x96\xb1\xd6\xe7\xbeD-(\xde\xfc\x10,\xfez\xf5\xben5P\xa4\xc0\xe3`I3@&amp;\x04"\x03\x19\xa0\x80\x9ad]\xa3Z\x97$Jh\x81#\xd1\xb9z\xfe\x92\xf1\xfd\x99\xf3\xd1\xe4\xd5\xdf"i\'_L\xf2f\xb6\x1a\xd3`!\xc1\xd3t;\x1d\x0e7i\xc3"\xa3\xcf\xb7\xd2\xe6\x97\xcd-\xac- \xba\x8fIy\xd7\xb4\x89\xe6\xf3zb\xc3J\x9eQ4O\x03\xec|\xe7"\xe75^}\xcev;HP\x93$i4iz]\x91Xe-3\xa0\xd4\xe9\xc8\xe0\x1a\xeb8\xfb\xb2%\xd1\xf4&lt;\xea\x19\xeeIJ\x14\xef&gt;\x83\xa3,\xef?\xd6\xfa\x1b&lt;\xfd\x96\x06\x01\x06c\x02\x131\x80P\xec``a0;\x1cH\x18\x1031\xda\xcdN\xd5gv\xe6\xbci&amp;7kI\xf0\x89\xf5rv\xe6\xb3\xae;\x95r\x11M*\xf3[\xb9t\x84\xbf\x0e\xf4\xfe~0\xac\x80\x07\x04\xd3!\xc6$\x88\x98\r\x893A4\xc9\x03F7\x08\xae\x01\xa0D\x81l}W?G\xb7\xf9\x1e\xc7c\xcd\xd3\xbb\xbe\x12\x00\xa7\x05\xc6H\xf6E\xa6\xd4)\xd7\x1b\x81\x01&amp;\xe0m\x18\x8cn.OS\x8c\xae\xbd\xaa\xdf\x02\x8dZ\xd2m_\x9e\x99jL\xefF\xc3.\x9c\xe3\x9d\x9e=\x02\xcb?\xd9\xf9\x9f\x00\x96\xeb\\\xb9y\xf9u2f\x86E\xa9\xd3C6z\xe7a\x95\xe6\xa89\x98po\xcb\xa3\x8fE\xca\x87\xe3\xef\xc8\xed\xf3\xa8\x1a\xcf$\xceh\xde}6\xb3\x95\xc5\xe9}\x0f\x8a\xf5\\\xad\xdaM\x13I\x0e\x0e\xd3\xb1\x93I=&amp;\x06\x04\xd2\x07\x05H%\xbb\x1cX\x8c\xce\x0b\xf7\x9d\x9aPc\xa5\x98\xbb\x9aG\x91\x9d&gt;s\xaeg[\x19\xd5j\xdd\xa3\x12\x9em\xd8\xd1\xd6\x9e#\xe8xQ\n\xb8\xc0N$\t\t\xb1HA\x08\xc0\x93q\xa6\x98Q\x92hL\x0b\x88\x84\xc0A8\xec\'2~\xb9\xe6z~\xfd\xcb\xd92\x1a]z\x9c\x94\xf6\x99\xa6\xd4\x0c\xa2\xaa\x18\xb4\x0e\x0e\xd2\x1aA1\xd26\xb9m/\x98\xdf\xb1\xb5#\xae&lt;\xed3\xcf\xa8\xe9\xa7b\x8e\x86\xc3j\x86t\xf3\xcb\xd1z|\xdf\t\xef\xf1\xbc\xed\x1asU\x01N\x98&lt;\xfd\x91\xaa$\xed\x0bB.\xc5\'\xbc\xe2U\x9a\xd1\xb9\x83Lz^n\xbd-r\xe7yz\xebu\xf0\xe7\xbb\x9cR\xd1U\xe5\xd3\xdd\xd0\xe3\xf4&gt;\x91\xc6}\x136\x08\x06\xd8@8\xd3\x040\x08\xd2I\x84\x04\xe4\xda&amp;\x10\x1b\x97b\x02\x16@d\xa7%\xce\xb5fSvb\xe5\xb8\xc3\x9b\xf0.\xb5Nw\xd8:6\xc7\xad3]E\x1a\xe7\x07^7\xdd\xe4\xc4\x88\x81\x08\x81\x81\x00\x83&amp;-\x12F2M\xc1\xc4\x04\x83\x1d$\xc8\xae"i\x01\xa2@\x999\xdbtzw\x17o\xd0\xfew\xa7f\\.q\xa6\xf7\x1a\xd0\xa5\x9e6cKJ\x9d\xc9\x03\x89\xd3 \xcc\xa8\xe34\xc7\x8e\xe8\xc7V=m^\xae\x0c\xea\xce\x05\xbf&gt;\xb4g\x94\xadv\x18\xfa99\xb8\xe3?D\xf4\xbc\x0f\x8f\xf5\xe3\xb8\x8b\x88d\xe1\x0b\xb1\xa6\x1e\x1dyc\xd1\x8b\xbf\x1a\x1e\x98\x9d\xc5 \xcfe\xa4\xdd\xc7W\xc7\xe8\x16\x99\xcf\xc7\xd5\xc4\xfa~Ugs \xa9V\xbc\xba\xf7\xa6?\x0f\x7f\xd51\x1d\xd41h\x10\xc3\x10`f\x856i\x03\x001\x02\x12i\x00&amp;(\x06B\x9eC\x9ac\xb3\xa6{:f\xd9kc;\x93H\x18\xaf+\xd9p.\xed\xe8k\x1a\\\x97\x1d\xe3J\xb3\xa8/\'\xe9\xe0eL\xc7\x03\x14nT\xb1)$\x0c0 BHpBa2\x08p\xd4\xc5P\xccH06N\x9c\x83\x01t\xbc\xdd=v[\xfbW\x1fd\xbc\xfb\xee\x05\xfb\x8a\xad\xd5\x9a\xbdQl\x1c"\x17\x13\xa6^i\xd3\xcd\xc0\xeb\xcf\xce\xef\x8c"\xa5S\xd1\xe1\xdf\xed\x1c\xfe\xb7\x13]\'\xa5j\xd3\x18\xea\xd9\xcb\x9e\xf3\xe7\xe7\x9c_\xaeI\xfd\x1f\x07\xe7\xf8.\x84\xd2V\nl\xd9\x82\xea\xaa\xaa\xe8e\xb1g\xb9\xa06\xce,\xb4\xc6\xd7=\x18\xb8\xf5\xc2\xe7?L\xd1wy\xfa9\xafO\xcc\x18\xd6tKDW\x8f^\xb7\xe6\xb9z\xfe\xb1\xc0\xea\xe2\x89\n\x91\x01\t\xd8\xc2f0003H\x1c\t\xa7\x12`\xa0\x98(\xc3\x0c\xf0\xb9qe\xcc\x13\xa4\xb9\xd3\\\xd6G\'\xbe\x1ee\xadi\xcfD\x94\xc6\xf1\n\xcb%\xe5U\xae\x17L\x91F\x04\xc3&amp;\x01G-*p\x8e\xa5\xc1\xc6*Y7B\x07\x11 \xc7\x0b\x98\xee`i\x81\xc0\x82@`\x00\x95\x1fFwsv\xff\x00)\xf4\xf2\xf3\xf4m5\xad\xb6m\xa4\xd6\x8a\xb6\x94\xc3\x01|\x9d\xe9y\\/O;\t\xd9\x13U\x9a\xceE&amp;z\xb7\'\xab\xd9\xf2\xfb2m\xbc\xf5R\xceWsx\x9ar\xd2\xd3\x9b\xe8\x7fK\xc2\xf8\xc7\x1c\xea&amp;\xec4WFpm\xc9\xa4\x063\x96I\xc2\xae\x94m\x9f\x1ac\xeb\x9e\xa6v\xaaf\xc7y9\xbas\xfa\xf8\xa3\xe8\xc1\xa3[3U\x04:\xe1\xdaO_+\xcf\xbf\xd7\x1c\x9blgO4\xd5,\t\xa7\x07H\x9bB\x14\x13F\xd1\xd2\x95\xcc\x8c\x91\xcd\x9d"\t\xa4\x81\x0cFP\x0b\x95/Q\xcf\xb3\x9d\xd7&gt;[~no\\\xa8\xb5f5\xd3\x8e\x81s\x1dD\x0eX\x9b\xa1\xc5\xd9%\x063\x08\xc2\x94\xccJ\x9al\x89\x89\xcb\x03\x04B\x14\xd2\x0c\x08R&amp;i\xc6\xe6\xbd\xcc\r `p\x8c\x04\x13\x19\x1d\x05/\xb1~w\xe8\xa8e\xae\xd8i\xef\x89RR\xe5C\x07\x8au\xf1|\xef\xe9y\xb2\x03\xa4,\x06V\x0c\xc6:4%\xfb\xe7?y\xf2\xfb\xda:\xebZ\x8c\xa3\x96\x9d\xf3{\xc7\xa1\xe2\xf3zs|\xa7\xcbr\x03\x81\x05Tg3]\x17Q:&amp;L\xa4\x9d\x92\'T\xbeh\xd0\xb2\xd4\xef8\xc2\x01+\x8b\x93\xb5D\xe5\x97I\x07\xb6\x1dy\xd5\xcb\xe1\xbf\xd9\x1eoE\xe4\xcd\xa4\xc4\x0c\t\x00\x80\xa1\x93\x16\x84\x1d1\x110\x85&gt;\x91\xaf\xae\x15\xf3\xb7\x18\x86\x1a&lt;\xc7\xd1\xe3\xc5\xdf\x9e\x8b\x8c\xca\x98\x80\x10#\x04\x80r\x8d\x04"\x16X\rv\xb9\xab\xb2d\x8d\x98U\x16t\x15a\xc8T\x8c\x81L!\x10D(\xd0\xc8&amp;\x89\x12\',\xb1\xa9\x82\xa6\x16\x0bL\x86\x00c\xa0A\x80\xd3\xfa\xef\xc6\xf6\xf6y:\xb7S\xd0\xdb"\xa9I\xca\x9ak\xe2\xcfc\xc4\xe7\xf5\xcad\xd3\x01\xa8B\x93L9\x90h\xfaqi\xe8\xb9\xf4\xf8\x8e\x1e\xb8\xe9\x1a\xdac\xee=\xde?ux\xfcO\xcf^[\x0et\x18\x08Q\na\xa8\x8b\x08\x98\x0c%D\xe1*q\x88\x07\x97\x1blR\xe6Z\x96/I\x99\xf3uh\x9ej\x11O\xaf&gt;\xa1\xdb\x99\xcf\xa7\xda&gt;wI0\x93\x00\x89\x02\x9a\x06`\xa6\xf4\x92\x1cR\x01\x01\xd272\x8bCL\x92\xa8B\xa0\xfcs\xb3\x8b\xcd;\xf8\xecHA"\x1ch#HG\x13P\xa2\x16F\x80a\x81\x85\x8d\xac)J7\x15Q\xe7\xc2\xab\x0e\xc8\xe7et\xaa\x054@ C$@`r\xe4M5\rMv3L\x00\x0e\xd8"D\xa7\x1a\x0f\xa7&lt;\xaf[\xaf\xf3\xfd\r\xe0\xbd\xaeeR\x910\xf9\xfa\xcf\xe2\x7fo\xc26J\x06\x11\xb2\xa0UrJ\xae C\xeb\x82\xf9\x9e\x98\xe2\xfb%T\xfb\xce+\xd8\xf9\xf4\xcf\x0f\xceNw\x12\x10D\x15\x82\xc0R\r \x9d\x02\x12\x81 \xc1\x04L\xa8\xc2G\xa9r\xf4\x94\xe8\xc3k\x8c\xb0\xe7\xd9\x84\xd02\xde\xd9E\x97}\xfck\xec~\x1d\xa6jpp\x00\x11\xb0!\x08\xe3C&amp;\r\x03\x02FU\x18\xefV`\x12\xd2;\xcf\t\xbf\x9a\xbd_)\xc5(\xa6\x1c\xa8\x94l(Z\xac\x15\xc2\xa8@\x02\x00\x02\x12\x05\xdd-\xad8\x95\x10\xa5U\x10MZ\x0bM\xc2,\xf9t!V\x14H@a(\x8d9b\x81\xa8.j\xb1\x84\xc0\x81\x03&amp;\x02\x11\xcc\x8f\xa4\xbc\xbf[\xd0&lt;\xefCu\xbb\xdaf\xf7\x0e\x9c\xc8\xe0\xb7\xc3\xe4oc\xc5\x94#\x0b\x01]\xaa\x80\xc0\xe9\xd9\x0e\xc9\x9fi]y\xd6\x8b\xca\xbd^gs\xf4\x9f\x16\x9a8k\xe4\x19W\xcb\x19\xa6C\x011\xd1\x00R\r \x94\x18\x1c\x05\x0e\xc6\n\xa1\x18\\Gk\x86\xfe\x83\xc9\xd9BZ\xa9\xcb\x8a\xc9m\xc2\xd6\xd8\xf0\xbd\xbc\xb8\xd3\xd5\xd5\xf3\xed\xf5\xbf\x06\xf6Y;R\x08[\x142\x13\x18\x06[R\x10@\xed:#d1n\xe6*M\xb6^q\xae&gt;I\xdd\xc3(\xe4D\xcc\x99)@Z\x89\x94\xc2\x9a)\xb2\x10\x10\x04\x03\x08/U\xad$(\x14\x80\x01\xaa\xf2\xec\xb7f\x93"\x94\xba\x08\xa9\n)\x01\x12\x04\xc1"e5\x1bTj`\x13\xb1\xd1\x1bp\xa1\x04\x81 J\x1f`x^\xf5\xcen\x9d\xe0\xbd\xaej\xa4\xa5\xca\xd7\x88\xf6p\xfc\xf5\xe9\xf9\x92\xb2\x04N\xca\xc2\x80\t2\t\x83\xea\x8a~\xd9\xa3\xe4\x93\xf0\x1fw\x87\xd486\xf7\x0ems\xb3\x7f"fyZI\x0c\x04\x00\x15\x82\xb8i\x01\x83\x83\x84@,\xae\x0c\x89\xc1\x07C\x17\xf4\x7f\x1fh9\xa9\x9e\x94f\xeb*\xae\xe2\x8e\xdc\xfeQ\xdb\xcd\xc8c\xd3\xe8\x98\xed\xf5\'\x9f\xd95)\x9a!\xb2\x19\n\x93\x83!\x014\xe3zI\xa9Z\x8d\x10K\xae\xc8\x85\x9d\xbe^_\xd1\xcd\xc3\xf4s3F;-[\x14\x81\x18\x03)\xd1H*\x84!\x1b#@\x00\n\xf3\xd1i\x10R\x00HvW\x96\xc8\x96\x8b6F\x954T\xcd\xc1$p\xd2%\x0b\x12\xd0\xea9\xceh\x99\x10\xa1M\xc5(\xd3\r&amp;\x19#\xeao\x1f\xda\xea\xb8\xbbv\xd3\xbf\xb6ORI\xe3\xb8\xf9\x03\xd8\xf1r\xb6\xc8\x82 \x91\xaa\xec\x04$\xe5\x0b\xc1\xfa\x0bW{y\xf3\x04\xfc\xcf\xe8|\xdfF\xf3:\xbdk\x87z\x12|\x11\x8a\xca\x04\x1e\xadS\xe5\x93U\x820\x804\x02P`\x8d\x80(@\x06h\xb2\x14\x83b_\xd4\x99o\x8d\x8e\xb50\xe9\xba\x89\xf5\xce\xff\x00G/0O\x93t\xae\x17\x0e\xae\xaf\'\xf5\x9f\x97\xdfb\xd4\xb4\x9d\x0c\x08\x18\x13\x18\x00\x12n\xd3\xb4B\x91\xcd\x9b\x9a\x99\xdd1\xe7T\xe2\xef\x8f\x96u\xf1\xf3\xbae\x1bS\x85\xb1i2p\n \n\xac\xa9J\xa2 n\x14\x088\x0bI[i5\xda\x80\t9\xe9A.\x9c\x0e\xcb\x9aL\xb71K\xab5[7\x16m\x93\x99\x16\x06"\xc9\x15V\xa1\x14\x83&amp;\x81\x0e\xc9\x10\xc0\x82A\xfdE\xe3\xfb=G\x9f\xdf\xba\xcd\r\xb2z\x9c;\x8f\x92\xbdo\x1b\x17L\x93\x1cHn\xd4,\x8d2D\xc1\xec\xad\xfd\x81U\x1e\x93\xe2\xda\x1c\x7f\xbf\xe6\xf6\x9c\x9b{\x17\x8d\xd9\xc0\'\xf1FRL\x10H\x10\x94(\x84at\x0c\x05\x90\x83\x04\x02\x84. \xc7m\x02\x8f\xa6\x13\xe7y:\xed\xe1\xd1\xa1\xacY\xd7\x1d^\x8e~"+\xca5\xd3\x94\xe6\xec\xf5\xdc/\xdf8\xf7\xb5s"\x18\x04l\'b\x06\x06C\x02c\xb4BMZ\xb8\xaf\x96\x99\xec\xc2q\xcdus\xf9Wg\x1d\x17\x02\xd5\xb6^\x0b\xe1l%\xb2:U\x1c\xd3\xa2\xa3U\xd5D\x992q\x823\xd5\rMz*\xc0l\x99\x95\xe4\xa7\x0e\x01[\xd1Z\xb9`\xae\x9c9\xd0\xc0\xd1R\x85\x84\xe0\x16I0R\x06\n\x1c$\x1b\x80\x80\xa2@\x94&gt;\xbb\xf9\xff\x00~\xd7?N\xe3W\xb7\xcb\xca:\xf8\xbc[\xb7\x83\x07|k\x804)\xd9\x08)2\x04r\x03\xa3\xec\xa7^\xb9dV|\xe9\xd7\x9d\x7fc\x87\xad\xe3\xdf\xd7\xbc~\xaf\x9e3\x7f;\xa9@\x90\xe1Y\xa9\x87M\x04\xc9\xd0\xec\xa8\xd4\xa8\x84p\x8a\xda,\x8d\x80\x80Q\xee\x81\x8b\xc7\xd9\xbd\x1a\xeam\x8c\xbae\xd3\xeb\x97\x9e\xe5\xa7\x94\xde\xfc\xd7?g\xb7s?m\xe6\xda\xd3R\x88iE4\xcd&amp;:\x13L6\x02\x12bh\xa4\xb1\xaeu\xb2\xd3\x19\x9c\xe6\x99\xf1=|\x9e\x7f\xd5\xcb\\L\xd5\xc4h2\xe0\\e\xabG\xa4\xc1J\x9b)\x8a\x05D9G(\xe1F3b\xd5qW\x86\xcd\x13!E,\xddT\x1b\'\xd2L\x00j[\xc0\xd2\xcejyt\x9c\xd0sTL\xc6C\x00\x84cB\x90r\nA\xfd\x8d\xf3\xbfD\xd8\xed\x89\xd3\xcb\xe0\xbe\xbf\x8f\x91\xb6U\x1a\x10\x00\xaa\x16\x19 \x08\x98\x04f\x8b\x01\xfa,\xf4\x9bx\xcc\xa3\xe6&gt;\xcc\xb6\xbd\x0e^\xab\x8fog\xf2\xfa~&amp;\xc4\xe1\x04\x98\xc1\x02$`"\xa0N\x12\xb5@\x04%\x00\t\x93\xb8\x00\xc3ETjI\xdd+\xd4\xe5\xeb\xb6\xd6\xee\xb9\\\xd7-k\x8e+-&lt;\x94\xeb\xc6\xe6\xea\xfa\x03\x9d\xfa\xdf&gt;\xd6je\x10\xb0%\x8d!\x1b\xa1\t\xe8B `v\x9cV.)F\x9c\xfb9=\xb1\xf2\xae\xff\x00?:\xf3\x85\xa6\t\x83D/\xb2\xdd+V\xa4\xd2\x06\xd4#\x8d7*B\xa4\x07Etr\xc0-F\xd4)\xc6\x9b9\x01S\x8a\xa5\x9b\x8c$\xa2J\x08S0\xa1\xb4\xb9"\xe7U\x98\xa35\xc5f\x90\x0008:\x10\xd8\x19\x12\x87\xd7&gt;\x0f\xbf\xe6\xfd\x1c\xfeQ\xeay9\xb6\xa4D\xcc\xa8\x82\nl\xd1\x06\x14\x81\\d\x89\x03\xd3\x07\xf6\xc5\xb1\xde|\xea\x9f\x85\xf6\xe1\xb5\xdd\xcf\xe9\xfeWWi\xc3\xb7\xc0\x99\xc8\x03\x80\x85F\xad\'\x0b+"\xdbP\x05\x10\xb2\x0e\x12\xa6\xcc\x9c\x01\x103BA\r\x9c\xaf\xbf\xe7\xea}#\x7f\\\xf5\xef-&amp;q\x11^E\x1d\xd9xo\xf4\x87-\xfa^\x1a\xcfJj\x91M\x93f\x92\x105&amp;c \xa9:\t\xa4\xd4\xf5\x19\x93|n\x91\xe5\xdd\xdc\x1c\xf6\xb8\xc5R\x00\xc0\xe1m\x97\xe9[\xa5oI\x9bx\x94\r3\x8d$u)M(Z\xab/\x84r-0\xa3\x18&amp;NF\xa6\xb4\xbay\xd4\x11H\r\x92Z\x9d\xa3\x97,\xe9\xbb\x9fn\x9co\x82\xb0\xe3/\x82\x88\x99\x88I\x0e\x81\x1c`\xc2\x98v\x11\xd1a\xb7/\xbe.\x16Y]\x16\xc2\x060\xa0OQ\x88N\x9d@\x90\x08&gt;\x98u\xf4V\x80\xeb?;\xecq\x9d\x18\xeb\xf6c\xee~/_\x19\xcf\xa7\xc9\x8a\x18N\x9dFJ#\x1dd\x08Xe\x01B\x17\x82\x00p\xb4\x9cA\x1bW\x13\x98.A*}\xa6=6\xdc\xefk\x96\xed\xc5\x92\xb9\x01x\xf6\x1e\x86~;}G\xc5\xafs\x9e\xb355$\x08B\x9b4\xc0\xf4\x9d\xa0\x96\xe2*\x08OS+XR\xfc+\xd4\xf314\xc9\x91\x15 \x00b\x03e\xaaZ\x1aM\xfdb\xd6\x93;&amp;\x9a\x9a5\x99T\xa3`\xae\xca\x10\xbc\xee\xe1\x03\x08$\x19rh\xa5\xa9\x88U\xa6\xa1\xce\x814\x07JB\xa5\x97\xaf=^\x89\x97\xad\xa7\x1a\xf2\x87?\x96W\x91\xcf&lt;\x18\x13JG\x00\x1a\x15\x81\xea\xcb\x9d9\x11\\{\xd1\xbf{\x8fg\x9em\xc7\xc7m\xca,`\xec\x83\xe9`\xf0p\xf3\xd4B\x06\xc7G\xdb\xf5}\xe6\xaa\xa5\xcf\xca\x1d#\xe9\x1a\x9d\x18})\xe3v|\xcb\x8b\xf1\x87\x04\x0c\x8a\r]\x18\x85TJ\x0c\xd5\x00\x8c&amp;\x1d\x84J\xc8\x82 \xd0E\xd9\x0c3\xc2\xb0z\x9e\x1dR\xde}\x1e\x99n\xd2\xcf\xce\xf1\xae|[\x97\xd3\x87+\xfa\xd7\x97n\xa7+\x91\x934\x9a@\x80F\xceI\x8c\x86c\xcbz\x92h\x9aU\x1e1\xdb\xc7\xc3urD\x99\x005\x13#c\x04\xadZ\xb5\xa1\xa4\xdf\xdam\xd4\xcc\x13N\x93F\x96&amp;\xa5\x1cAQ\x19\xaa&lt;\xe2\xe6J\x91Dh\x05V\x19=\xcb4\x08\x86*)\x1e\x86TRZ5\xecg\xd1\xf5\x88\xee\xb7\x95p\x95\x97\x88\x9e?0\xf9\x85\x0e\t\x08q\x83\xa3~\x1c\xa3!\xf4\x99t\xfd\x11\xc1\xee\xd6[k\xa5\xce\xf4\xe1\xf2\xcfw\xceIy\xfd\\\xcf\xa3\x99`9\xd0\xfc\xeb\x95\x86\x99\x05\xc0\xfd\x06\xbb-\'\xcf\xf4&lt;\x1fp\xaf-\xf6\xbe\x98\xf3w\xf8c#\x9d\xa9`\xac\x0e\x94\x8d\x88\xab\'`!\xa5I0\r !\x00\xeb\x06\x82. @\x02\xda\t;R\xfa\xf2\xfak\xcb\xa0\xb3\x9f\xca\xf1\xae|\x83\x8f\xd6\x8aW\xd9\\]\x1a\xf1rT\xcc\t\xa6i\xa5\xb0\xda\x92\x12\x1b\xa1\xc1\xda*Q\xa9\xf1OW\xcd\xe4\xb7\xe7\x14$\xd3B\x1144\x18J\xd5\xebW\xf4W\xb4\x99\xae\\rM\xcf\x1aO4R\xe0\nb\xa4\xa7\xce\xa9KS\x18B\x88\xc7d&amp;\xb9:L\x9c2\xe3HF\x8a\x9a+Qt\xfa\x91\xe8\xfaLi\x12&lt;\xbas\xf9\xf9y\x19&amp;D\t8\x80\x00\x83NKi\xd8U\xad:}c\xe5\xfd\x10\xed\xb7"WK\x94r}\xb8k\xf4\xf8_@\xe9\xcb\xb0\xc4\xc4\t\x1e \x8f\x87d \xf4V\xfe\xc5\xba-\'\xc2\xf4&lt;\xe7G5g\xdf\xa5\xea\x1c\x1b\xfc?9\x983(\xa2\xd3#\x06\x08\xd1+P\x050\x14\xf4\xd8\x80\x05hvP!\x10ZE\x94D\x89J\xec\x87\xd4Tuts\xf9\xd7\x14\xeb\xcdx\xbd@k\xedo;\xaayr\\\xc8\rI\x84H`jH\x1d7i\xd3Ms\xfa\xe5\xe2^\x8f\x9f\xcao\xcf}\x16\xd3\x91\x88L\xc2\xa4\xe0\xedOE\xfa/\xeb7n\x0e\xd0\x17\x1c\\\x99\xd4\xc9\xb6n\x06U\x14t\xbc\xe6\t-\x03\x98\x00\x13\xb7IR!$\xe2D!\x0c\xd1\x8e\xcc\xe9\xd8&gt;\xdf_]\xbd\x9c,\x91x\x92\xc3\xc3\xe3\xcc\xaa\xa60@C $j"\xd2t\xc3\xda\xf9=_b\xe0\xf6\xf4t\x9e\x1bC\xd4\xfa&lt;\xde\xeb\xb3\xc7\xa5\xb6x\x9dU\xe8|P\x81\xc1\x81\x87\xf1\xb6w\xe7\xf9\xf5{\x0eZ\xfa\xb2\xa3\xcf^j/\xc0\xbd\xbf"\x8fO?\xb4\xe4s\x9c;\xfc\xe0\xf2A\x10D\xc9D\x86B\x11\x88\xa1\x1dA \xbe3\tBtB\xc4\x16\xd1fJL\xc6gE\x15\xd8\xb3\xad\xa9\xeb\x99\xc9\xc5y\xe1|g\x17\xa5p_f\xf9\xddo4\xd735\x1bH$L\xeaY4\x04\xe5\xdbB\xf2\x9e\xceO\x9d\xfdO7rU\xe9v\x93\xbe\x87i2F\xa4\xb4b*.\xb2\xe5+\xfa+:K\xd2\x89]T,\xb44\xdf0\x19Y\x8dG\x9b\xe2\xe5\xb4\xa9@K\xd1+Q\x88\x01\xa6\xa3\n\xe8\x8955\xa6k\xe9g\xa3\xea\xcbn\x92g\x95\'\xc1\'\x97\xcbg\x86\x00a\x00\xc4\x19\x16\x03~^M)C\xe9\x0e\x0f_\xa0\xe4\xf6=\x13\xab\x87\xbe\xed\xf1\xef\xe9\xcd\x08\x18r]\x97\xae\x97M\xcc\xb2\xb3\xe8\xe5q\xef\xaf\x96\xf8/S\xcd\xdcRr\xe5\x95c\x9fN]\xcf\xcf\xff\x00A\xe1{M\xe1\xe0\xfc\x9ay\xa5\xe4\xcc\xac\x12\xa1\xd8\xe2@\x00\xc1\x10SN@\xb8\x08%i\xc2!\xdeA\xa3-\x903E\x1d&amp;w\xb5q\xd83\xb3g\x17\x9b\xf2\xf3n\x7f\x93\xd0\xdf\x95\xf5\xc7\x0fR\x8a\x89\x12Z\x16\x9c\x0c%\x11\xb1\xc4LL\xe27\xe7\xf9w\xdb\xf26\x85\xa5\x9d[E\x89\t6\xa5+\t\xa3jj,\xb9\xb9E\xdaW5\x93\xa4-\xc2:\xb2)\xb5\x14HI\xc2\xd1Z\xf3&lt;.F\x9e\xd0T\xbbB\x88\x19\x04\x91\xe7B\xdc \x08t\xf7\x8d\xfdU\xfa&gt;\x97\x1al%\xc0A\xe1S\xc7\xc0\x1c\x8c\xe5\xc0\x04,\x14\xa6\x1d\x84\xa9\xd1y\x1ff\xf3\xf7{\x95\xe3\xad\xa7=J*\xa2fX\t\xc3\xc8\xbdM\xbb\xaf5\xf9\xff\x007\xbf\x16\xbc\xe2\xf3\xce\xe1\xed\xd7\xd7&gt;[-\xfbu\x81%3+\xe3\\\x9f.\xb4\xbd\x8f\x13\xe5]\xb8\xf0\xdc\xb8F\x13\x83\x00\x82c\x00\x8a&amp;UA\x0ep\x90\x10\x9cz\x12\x08f\xb0\xd8h\xb8\x1a\xf2\xf6\x1a\xed\xd9\xda3\x8a\x8a\xf2\x8c\xfar9\xfa\xfa\xd5?U\xf9\xfd\xa35\x0bS\xb9L\x10&amp;H#\t\x18Nr4\x8f\x9c\xfd\x8f#\x07|d\x9a\xbf\x0e\xdc\x97Q 3%\x05i\xda\xb3Spv\xaet-Y\xa0i\x0b"j\xa8\xde\\sG\x14\x81\x9a\x9bE\xe5|\xdaKA\\\x83\x94\xd0R\xab\x9dU\x97\x0et\xc3\x10!J\xeb\xad:\xbdMw\xfa\x0c\xdc\xb0\xbc\xe2g\xc5\x17\'\x1f&lt;\xce\x08n\x81\x07i\xeb/G\x17\xbe\x8f\xdf\x12\xd7\x06a"F \x84\x13&amp;D,\xf1_G\x7fO\xe3\x80\x1f\x0b\xc5\xebbOo7XvYW\x9fS\xd0\x9d:\xaa\xd2\xc4\xe1G\x13\x1b\x92\xfc_\xaf\x8f\x1f\xb7\xcd\xa1\xa77\x12\xd30@X\x84\x03\x8c@\x13\x06\x94U\xf0\x8e\xe5\xe5\xc2\x14Y\x0bV\xe5\xc8\x0e\xc8\x83Q\x17C\xbcg\xa45\xe5\xb1~_\x9f]\x0c\xb7\xee\xa0\xfa\x83\xce\xed\x19\xa8\xda\x9d\xc8\xb1\xa4v&amp;\x13N\xe7\x83\xee\xe3\xf2\x8fK\xcf\xc2\xdb:\x12]\x8b\xd1\x82\xfc\xd5\xd1\x00\x93\'\x07\xa4\xd4\xac5r\x95\xab\x9b\xac\xb5IPT\xa3j\xa5\x8f\x9dD\x80\x9a :S\xd4\xf9G?D\xd4\x93\x90\xa9\n\x98\x99\x06n\xbc\\9[!\x82KW\x96\xbd\xe1\xdf\xe9\xcb\xab\xb5\x92x\x8c\xd8\xc3.yl\xcez\xe9\xea\xa3)\x9b\xe1\xd0o]nx\xb8\x08H\x12\x84\x80\xecd \x8c\x00N\'n\xb0y\xb7N\x97yz\xf8^\x7fsw\xb7\xc2\xe4\xb9=\t\xe8\xf0.\x8c)\xe1\xdb\xeb|\xfbz\xbb\x92\x9c\x0f)\xe4\xf0\xdf\xc5{\xf9\xfa~\xaf\x07\xbc\x93\x98\xa5\xe3l\xe1\x99U\x91\x88A\x83\xeblo\x8c\x8d\xad\xe9\x97[\xbeT\xb8\xfaEW\x92tsy\xdd\x16\xd1e\x08\x005\x13\xb6\xce\xda\x97h\x1em\x15\xe6\x19\xf5U\xcb\x7fH\xcd\xfd)\xe7\xf70\xa3d\xceXl\x89\x0b\x07\x9f9\xbe\x1eA\xeby\x9c\xff\x00F4\xda\xae)\x13\xbf\x15j\x1e\x9av\x82\xb3\x93\t\xe98\x82\x89\x9c\xde\xa2\xc5\xc5\xb6[\xa5f\xd4\xd4\x05MfD:\xf2\xe2N@\x9e\x95\x9a^?\xcb\xd3+\x96\xa5\x15LNbN\x18"\xcfH\xb3\xb1B\x0b4\xf7\xa7\xa7\xbd\xafC\xd2\xa3~\xb4\x9b\xb1\x97A\x8f\x1fA\x9es\xa4\x9a\xac\x9cze\xd13\x9f\xba\xe64\xae\x83\x8c\xe9j]\xcac\x82\x01\x01i\xd1\x18F\x9b4\xc9\xa6r\xb5\xa61\xb6\xbb\xc7\x9b\xc7\xbb+l$\xac\xf0\xa3I#N\xf2t\xaa\x1cD\xf4\xef\xe1?-\xebX\x9d\xbf?\xfaL\x89\xd1\xe2!\xf1\xc2\x1d\x91"\xa3*\x07\xd8\xf9W\x96\x0e\xc1W;y\xf9\xbe]\xba\xac\xeb\xcb\xb6\xcb\xcd\x19(]E\x84 \xd1\x9a\xec\x07\xb3\xa4h\x87%5\xe5\x18\xf5\x86{z\xbe7\xf4/\x0fZdb\x92\x83\x97W&gt;\xa2]Vt\xe3\xf9\xeb\xe8~s\x0b\\a\x15zU\xd2\x8c{\x99\xd6\x9c\xbd\x19\xa9ER\xa6P\x9e\xa5\xa8\x16\x93W\xa9Z\xa5j\x95\xfbV\xc5%\xa2\xa5\x03T\x82\xaahv\x9a\x9d\xab6\xbc+\x8b\xa8\xdaT\xa3j\x14\xa1\x97\x12\xa0\xce\x86(S0\xde\xadz\xd7\xd9\xd9\xbe\xbe\xda::\x159\xc8\xf2\x8c\xf1\xf3\x15\xe5k\xce]\x1d\x01J\x8b^\xcb\'\xbegr\x8e\xa4\x99\xfc\x9bX\xe9\x99.gNd\xad\xcb@m\x18\x9008&amp;&amp;\x84(\x8a\xc3*\xb3,\x19\x82\x9a\x93%\xae4\xd3\x89\x9d\xfc9k\xd0\xf4\xf9\x7fL\xd5tn|\xf0&gt;?\xcc@`H\x10\xf7\xbe~\x8e\xc1=^\xbeno\xbf\x93\xb6\xf3=\x0e\x9f3\xe4-s\xf2zP\x00\x08G8n\xa3\xbc\x0e\xa1\x96\x83\x8aO\xca\xb0\xeci\xafi\xe7\xdb\xde8{\x13#\x08J|\xbd-U\x9f\x1b\xa5t\xb9\xd2\xeb\xf3\xfcg\xd4\xf1\xf0\xb5\xca\x01\xf2\xfd&lt;\x96$\xd3\xca\xb7\x15\xebMH\xe6\xad@\xd1%$JaT\xd9\xa2\xcd+\x17:\x14\xae\x04\x952\xd2\xafE\x11T\x8a+V\x02\xe3W-|\xe5\xcb\xd0\xa2\x85\x02\x989\x04\xc16\x8aI\x94\xbd3N\xebN\xae\xe6\xbaw\xd6\xfaSv\xe6\xb1\x13\xf2\xbc\xf9\xfc\x8e|\xba+\x18\xd9h=t=ro\xa4+\xaf\x95 \xb3\xaa`e\xb6J&lt;\x9a\x91O\xa2\x95\xb2\x17\x11\x82\x1c\xb0`3\x000G\x84\x9e\x18\xa9\xba\x15U\x0b\xd1\x8e\x8e\x9azz\xecz.\xe4\xb3\xb0~]\xae&lt;\xff\x00O\x1e\xc6\x98psUh\x86\xe1)N^\x91\x08\xe9z\xdf7G\xa0\xaa\xbf\xe9y\xfcW\xa3\xcf\x8f\xe0\xfb\x9e\xb8g\xe1\xdary\xbdLA\x03*\xa2\x16v\x12v\x8c\xeaB\x04\xf9!yn=\xa0\x9f\xbd\xf2o\xed\\]\x8e\x9d7tg\xb3\x16\xce\xaf\r9\rgR\xd7t\xf1\xe31\xe9\xcdW\xd8\xdc\xfc\xf9\xed\xfc\xd7+\xd9\xe7t\xd9=\xc8\xbd\x89\xb9\xaah\xdcVr6\x91&amp;\xd4\x94MSf\xd5\xaaWjm\xb2K\x99\x19R\x95V\xaagF\xcb\x14\xadi6\x91\xf3\x96\xcd\xb0\xd6Nm\xe5\xce\xa1\x95M\x02\x13\xaa\xb37\xae\xb4\xeao\xa3\xb8{\xf6.\xb4S\xa6\xaa\x92\xaeF_\x96\xe7\xc9\xe6\xd1\xe7\xc6\x02\x80\xa4r\xdd\x92K\xdf\x0e\x94]\xd2\xae\xf9/Sk@0iq\xe1\xcd0\x07\x96\xd4\xa9\xe3\xec\xfa&lt;5\xe6r\xf5\xdcG\x0f\xa3\xcbNWK\xdc\xcaF\xd9R\xb2\xb5\x97&lt;\xf0\xf0\x81\xf4\xbc\x9eB\xf0\xf2\x85\x06\xaa\x9b\x8b1\xac\x92\xe6\x8d\x1a\x93\x00\xcba\xfa\xdb\x9e\xdb=:\x8fC\x83\xcd\xbd\x0c`\xf3;=\x8f\x1b\xf0\r1\xf2\x971\xb9\x95\x8e\x14Y\xd5I\xda\xb3\xa5fT&gt;t&lt;\xcb.\xb1\x0f\xa38z\xbdk\x8b\xb1\xd1\xca\xe9\xd34tWi\x8b\xe8+?;\xe8=\x13\'\xb5\x84|\xeb\xd5\xa7K]\x1c\xd7o\x81\xc2\xf7x}\x9ci\xd9E\xeb\xa6b\xab\xa6Y\xaek\xd0\xf5\x04\xd4\xd4\xac\\\xdc\xa5;-5f\xd2\xb9A\x05\xcc\x01MQ\n\xddL\xcc6\xbc;\xe89C\x93Y\xb8\xba\xa7\xe4\xe9n}"\xcd\x9a\xadI\xadi\xdb}\xed\xd1\xbdzQ\xee\x04\xa3\xcd\x95\xcfI\xe7\xf1\x1ea\x1c\xfcb\xe7\x85"T.P8\xd8\x1d\x02\xe4\x93\x94}w7\xa1\xec\x9c\x9e\x8f\xa1t\xf0u\x1d~s\xe9\x95P\x949]\xf4\xe8H\xd9\xc0\xc6\x9e\x9c\x1c\xfaq\xf3\xe9\xc0\xcb\xa2\xd8g-6\xa6\nb\xf2y3\x9f\x8e\xfa\xbeWC\xd3\x8fI\x82\xf9\xdf1\x82!\x08\xc8R\xce\x80\xe5\xca\x12X~\xed\x9b\xd4\xcb\xa3\xad\xf5&lt;\xcf;\xeb\x8c\xcf7\xa7\xb1\xe4\xeb\xf3\xd6\xb8uN\xe7\xbc\xdf\x1fA\xc3L\xbd3\xf4M\xb0\xa2\x14\x87\xc4\xc5rL\xf3l\xb7\xac\xcf\xa4|\xde\xff\x00J\xe5\xe9\x15|\xce\xfdY\x03\xecs\xaekW\xd2L\xd0\xbc\xb1\xeb\xa7\xb9\x99\xf3\xe9\\\x96\x93\xee|\xd9s\xdd&lt;y=\\\xf6\xf6\xce\xd5\xe5\x05c\r\xe7\x99Y\xd0\xa4\x17,+\r]\xd6oR\x99\x93\x8a{\x95r\x99\x0b*5P\x10N\xc3\xa4\x9a\xf2\xbf\xb2\xf3!\xc2\xe6\x</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>https://www.pagina12.com.ar/495736-los-coletazos-de-la-interna-en-el-frente-de-todos</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sale Precios Cuidados, entra Precios Justos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>El plan de congelamiento absorbe al programa de precios de referencia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habrá una sola canasta con 1500 productos a valor fijo entre diciembre y marzo. Lo que quede por afuera, podrá subir sólo 4 por ciento. Qué pasará en los comercios barriales. </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El programa Precios Justos, que tendrá una canasta de 1500 productos a valor fijo por 120 días, absorberá mientras dure al plan de referencia Precios Cuidados. Fuentes de la Secretaría de Comercio adelantaron a Página I12 que la decisión se tomó para "no superponer diferentes acuerdos de precios", dado que como adelantó este diario el fin de semana, más que un congelamiento de precios lo que se hará es un acuerdo extendido para buscar un sendero de inflación estable y la mitad del ritmo del actual IPC. Hoy, Cuidados tiene una canasta de 450 productos, de ese total, pasarán algunos a Justos y otros quedarán afuera, tal lo que se está negociando con las empresas proveedoras. Por esta razón, el ministerio de Economía también trabaja sobre cómo se moverán los precios que no estén dentro de los 1500 congelados. Para ese universo, el esquema será el siguiente: no podrán subir más de 4 por ciento por mes en relación al promedio del mes anterior. Precios Cuidados nació en los años en que Augusto Costa estaba al frente de la secretaría de Comercio, en el segundo gobierno de Cristina Kirchner. Se estableció como una referencia de precios en góndola, no mostrando el precio más bajo sino poniendo una alternativa sostenible en el tiempo para reflejar estabilidad ante la volatilidad que genera la inflación en las góndolas. Cuidados tiene, de hecho, renegociaciones trimestrales en las cuales el Estado autoriza subas. Ahora quedará fuera de funcionamiento dado que aparece como central el congelamiento, denominado técnicamente Precios Justos. El secretario de Comercio, Matías Tombolini, viene dando puntadas finales al plan Precios Justos y planean llevarle el modelo al ministro de Economía, Sergio Massa, la semana próxima, con la idea de que en la primera semana de diciembre ya esté vigente. Se espera que en las próximas horas esté todo acordado con los grandes supermercados nucleados en la Asociación de Supermercados Unidos (ASU) para sumar los productos de marcas propias, y se trabaja en el eslabón más complejo: cómo hacer que en los comercios barriales, que son el 80 por ciento del consumo nacional, se respete el congelamiento de precios. Para esto, se reunieron durante el fin de semana con la Cámara de Distribuidores y Mayoristas (CADAM). La idea es que además del congelamiento del precio de salida de fábrica, haya un precio fijo en el que los mayoristas le venden a los comercios de cercanía. Es que ese segmento, en general, no le compra directamente a la fábricas y es rehén de los mayoristas, que le vienen cargando subas muy fuertes a los productos de la canasta básica. Ergo, llegan al comercio a un valor más alto y se venden hasta un 50 por ciento más caro que el mismo producto puesto en una gran superficie comercial. Por último, en Comercio aseguran que ya está casi lista la aplicación para celulares con la cual los consumidores podrán monitorear la existencia en precios y volúmenes de Precios Justos. Tendrá un escaner de código de barras o QR para ver cada producto y constatar el cumplimiento. En paralelo, la App tendrá un botón de denuncia, que con solo apretarlo e ingresar la dirección del comercio quedará asentada el alerta de incumplimiento. Esos datos irán a Defensa del Consumidor, que irá informando al denunciante con mails a su casilla para seguir la evolución de la denuncia del faltante de producto. </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Por Leandro Renou</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x007\x00\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x04\x07\x01\x02\x03\x08\x00\t\x01\x00\x01\x05\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x01\x02\x03\x04\x06\x00\x07\x08\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf3\xfeg\xed=\x98&amp;\xc6\x1a\x8a\xe4-\xa3C\x9c!,\xc3\xfaJ\xacEQe\xba3\xe1\xf9\xf3\xe7\xf2\x16\xc1r\xd6$u\x92\xcf\xf3m)+\xafE\xf9\xee\xca\x86k^\x13]Ds!m\xd7\x92^!\xbbS\xbc\xe6t\xb0\x0c\xf3\xf9\xcb\x08yu\'\x97\x95Ya\x89\xc1\xa4\xc3\x08\x19\xe3\xdb\x8b"\xaaxi_k\xbc\xe4\xa6\xb6\x92\xe6G\xe8]\xab+v\x9c9\xe4\xf7uea\xa0gv\n\x86B\xb7\xd4\xd3\x8c\xb3\xe4\xb5\xd9\x11\xd0\\\xe5\xcb\x01:+}[\xd23wZ\xe8\xae\x97s\xb3\xf0;e\x8c\x8a\xe9(\xabl\xcf|\x0f})\xd2\xbc\xfbC#\xbd\xc5Q\xf8H[f\xf4E2\xb7\xac\x8c\xfb^\xba\xab&gt;\x91\xcf\xbfvzk\xb3;|\xf1\x8b\xcaCA\xbc\x91\n\xf1\x83\xbaI\xd2;S7-U\xb7\xa7\x9e\xd1||\xc5\xea\xd8\x03\x8dR\xc5\xdd\xb5\xadp\x00\x9b\xcd8\xbeLk:\xa8\x05\xa1lQ\xe4\x96;+\xde\xcd\xa9\xb5\xaeN\xcbWZ\xccE@\nf\xe7 \xa0\x1c\xbb\xf0\x81v\xd3\xa6\x8dQ\xb1\rr\xb2o\x84\xb21!\xdb\xc6\x0b:\x0c\xd8my\xf6\xe7*\xf3\xd3\xb6\x8e\x93\x86\xdf|\xf95\xfb8U\xc67\xd7\x97]\xb5\xfb\xa5\xcf\xdf}\xcb\xf7\xdf}\xdd\xeb\xd1qEu\xd7\x0e\xe3\x87s\x98\x03i~\xf5\x7f?\xe9~H\x94G\x9c\xa3\xfaHW%\x07\xd6\xfc\xd3\x9c\xa5t\xf0\xeb#3L]\xb4t7\xfb5\xad3\x02+,\xc2\r\xa90\xbf&gt;\x8a\xf4(\xd3\xc2\x94)\xc2\xbbT%?\xd2^~\xf4\x0b\x1e\xbc\xbe{\xa9\x802#\x01r\xa5\xadb\x8e$\xa4b\xa9\xba\xce\xf8\xa1\xb6^`\xd0`\tZ\xe4Q\xcb\x17\xe6\xf6\xd9=0/\x1f\xe9\xc0\x0b\x0b7\x06\x81\x89\x9e\xad\xa5,g}\r@\xd3Q\x11\xe5\x8d\xa4\xda\xefg\xb4\x1a\xd4+\xe8\xe3\xbcex\xf6\xa3t~\xfc\xa4\xfca\xf3\xa7\xb7\xea-tt&lt;3\xd3G\xb3\xec}\x8eO\xb1\x9c"\xe7\\\xf3N\xfb:|\xd7\xfd\xa9\x9fFE/\x97Y=&amp;\xee\x8b\xe6\x87\x1b\xa4\x18\xad\n\xaci\xd0\xc5Z\xb3\xd3z\x03\xbe\x1c\xb1U\x8cU\x9f\xbeyt\x14k\x8c"\xa2-\nZ\xe4\xce\xf1\xb0\xf1\xcab=\xde\xb5\xd2W}-e6\xd9A\xc1\xa8\x88\x02\x06s\xf3\x14WpB\xe2\xd3\xf5\x94?H\x9f;\x94&lt;\xa3\xb2\x13\xbcK\x84\xfbo\xcf\xa2K/\xb7\x0e\xbdZ\'\x1e]\x9d7&gt;]y+\xf7\xfbM\x9e\xfezcev1\xaf\xca\xff\x00\xbe\xc7\xdd.~\xc6\x17\xb3\xf7\xdfwZ;Y\x10k\xeaU\xcf\xb4a\x91\xa0\xc5\xb3Z\xa5\xa5H\xca\xb5\xeb{\xd9\x011\xcdET\x0f\xa1\x18\xc8\xbe\xbeg\x93\xca\x0b\xa1\xfcyt\xf9\xa6e\xbb\xad\x85\x06\xdc\xfe\x82\x1d\x8fX\xdah0\xc2+\xd0\x92\xf0yN\xd1\xa7\x0f\xf2z\x0c\xda\xf34r\xab\x06:\xbd\xa1\xc89\xee 4Ef9\x02\x93]\x84\xeb\xd7M\xeb\x92\xf2\xdf\x1b\x9c&amp;\xb7\xce\xd5-\xe2\x10\xb3;\xce\xa9\xb5-ST\xa5\xd5Y\xac\xf5E\x81\xcc\xb4u\xaf\x12q\x97h\xee\xd6\xa5\xae5x\n\x81\xefr\ne\x8f5r-\x01R$y&lt;\x9f\xd9\xe0h\x05\x81\x1d\xb3\xa1\x17\xd6\x17\x89\x8c\xca\xc5\x13^\x9bl\xae\xbekl\xbaxg\xcay\xf1\xf9\x90\xa8\xcd5Sc\xd4\xf63i\xc3!\xaf\xd6\xeb\xf2\xe3\xd7zWzB\x9eUX\x07G\xd1\xa4\x87,L?\x87\xa2tf\x18\x02\xaf\xe9\x0c\xace\nm\xe1E\xb3k\x81\x92\x88\xda\x0b\xa4"\xad\xf4\xbe\xaa\xb20\xfcD\xcb.\x04j\x1c\xb4*\x81G\x01Q\xdck\xcf\xae\x89o]s\xc9\xcf\x0b\x9e\xbd\xad\x12\x8f\xb9N\x91V\x84-\xa1y]\x13^\xbc\xec^\xd7?e\xce\xdf\x8c\x8e\x1c\x98\xc6~Wc\x1bi\xce\xce~\xfb\x9f\x8f\xb3\x9e\xed6\xc7\xdc\x97\xfb\x82|\xf1\xfb\xa0b\x87H\xbd\x830\xf7P\xd8q\xcbv\xd5\x96q\x8b4(\x18\xde\x94\x8c\xe4\xf3;]\xc35\x1ba(\xb6W*\xbeo\x96\n\xf0\x92\x1b1\r\x8b\xc9t\x8dZ&gt;\x8e\xfc\xf8\xf7\xb7\rz\xa7\x18\xbc\xee\xd2G$\x06\xbc\xd9\xdc\x0b%+U\xb1\xe8\xe4\xc1\x96\x89\x80\xb5A\xa66b\x80\xa3\x04o\xa6Ci\x98z\xd3T\xc2\xcd\xeb\x08^(\xe4\xf8=OK!\xcdI&gt;\xeau\xfa;\x15\x19-\x0f\xc0H\x83\xcf|\xb5\xc1\x99V,\xca\xe4c*H\xe5^\x03\xc2\xbe0\x95|\xf9\x1b\xd3\xaaW\x92\xaf\x83d\xa4\xc3\xa1\xb3\x18\x15Wg\x14\xe2\xb0\xbb\xb5-8\xdb\x9a\xba\xb7(\xe6\x99\xc9,\xb5gxdR\xdfM\x1c\t\xba\xf5\xcd\x93\xf3=\xc5]^[\xa1\xea[5F\xbfIZI\x8e\x01\xc9\x8be\x1eR\x9c\xf2{\xc2\xc1\x1a\x13"k\xf42\x03\x8a\xc7\xa0\xdb\xc0\xd7\x1dR\xeff\x17#\xf1\xce\xeb\xe7\xce{^uUm\x00]s\xbd\x9c\xf7-:\xe1\xb6x\xe3\x10\x19c\x92\xfb\x82\xad\x1f[\xe5\xb7\x10\xf2\xd4\x1c\x1c\x88\x96\xd1\x1f$l\xeb7\xcbH\x8d2\x90\xaf\x86\x19-%\xd4X\xef\x83,\xdcN\xd2|)d\x95\x99z\xc7?\x1e}\xa2I\x0c-v\xd2I\xb3\x9ds\xce\xcf\xdfl\x8b\xa7\xdb\xfd\xcd\xbfg\xc0\x94;\xd2\xa5\x8fz \xc8\xd5\xa1\x9d\x94\x9d\x98\x9c\x88_\xc9\xb7\xd5\x0cQ]Ed\xb7i\xe8\xdbz\x86\xf5\'\x9ae\xa0\xedb\x1dI\xbc3\xef:\xfa\x1e\xb1\xa8T\x7f\xa8\xebi\x91J\x91p\x86\xa9m\x8a\xba\xb9\xd5=\x9c\x86\x95\x1fQ\xc3\x94\xacm\xf1El\xdc\xb0\x90\xa5yfz6=S\x1f6 \xef\x91\xbc\xd5\x1b\xe7\x19\xb0\x07h\xaa\xd9\x05\xa6\x0f\xd1\xb6\x1f\x89\xab\xc1\xd6,b\x05\xd1k\xe1\x95\xb9\xaf\x943r\xc9\x88[\xb4l\xc7{\xe7g8\x94\x99\x80\x16\xe8{u\xea\xe5\x9b\xa2\xa0\xa7\xa3\xb5\xb8\x1e\t\x7f"\xaa\xa9`\xa2\xd1\xd3\x89\xbc(\x0f@\x0b\x0cU\xb5I\xbcUx\xba\xf4\xd9\xa9\x17;\xad\x0b\x9a\xbb\xb4Q\xdf\x8c\xc9\xae\xfb\x99\x91\xa15\x1c\x93f\'b5\xa9\xae\xe7\xe8\xd2\xa7&gt;\x11\xd8\xe5\x1ex\xc5\xad\xb0\xac\xcd\xcad\x0f\xc4 \x06\r\x94\xbd2\x8c\x92\x87\x81IJ\xf6;M*m\x91\xb3!\xd94\xfa\x91\x94\xbek6TJ\xc7`\xd2b\xf2\'&lt;\xd6\xd6\xc3\xa7\x8c\x9dEI\x97\xb4\xe7\xa4m\xc7\x9b\x10\xa1E\xe8\xf1\xd0d_\xe7\x85X\xb1\x08\xe9au\xc4^o\xb7\xd7\x96&gt;{q\xae\xda\xb9\xd9\xfb\x1br\x98\xef\xa78\xe3\x97\xa0\xb9M}\xedb\t\x1e7\xda\x99"\x88\x8a\xd2E\xa3\r\xc3\x9b;\x84\x08\x0e\xae\xc2\xd3Q\xdc\x93e\xe5N\xf4xk~}KY\xb0\xe3N&lt;\xd2\x81%\xb9\xe9,\x06\xb8\xb4l\x82\x87\x18\x18\x18\x93%V\xfc\x8alP#\x02 \x17\x19lC$\xb6\x07A$\xa5`\xb0\xf7\xfa\x0f\xc9\xd62+\x1c\x83\x10\xac\x1bp\x0b\xeaB?u\x8diR\x97\x983U\xfc\xc8\xd3D\xc6\xdf\xc3H\x97L./\x15_\x88\r\x937\x11\xe5\xd1\xc3\x99\x1a\x13\x86N\x15&lt;b+D\x89\xbb\xf1R\x1cg2U;_-7\x8b\xeb\x1dg9\xb9AZ\x89\\\xbe\xa9\x89T\r\xc1P\xdb\x03\x04No\xaeZc\xa7\'\x90\xc5\xd5\xaa\xdf\xd4qKQS\xb6UR\xd7&lt;\xb6\xf5e\xf0+\x91\xd8\x90\xf8V\x131\x89Z\xcdP\xad-\x8d\x05]\x06h\xfa\x15\x0e\xc2\x18\xad\x93O\xd8\x95\xb1J\x06\xde\x84\xc0Q\xf2&gt;[m\x8a\x15\rV\x08\x11\xc0\x10\xed\x1aK\x1dcT6`!\x9e\x92\xad\x8e\xc1\xed?\x84\x0b\xe8\xa1L\'\x91\xa0\xddt\xcdyc\x862\x0b\xa5\xeeH\x0bZ\x9e\x11\xcf\xacw\xccXsC\x12\x81\xac~\xb1U\x1d\xc0d\xc4\x90\x8b4M\x8c&gt;\xca\xa1\xc28\x11m\xf3\xc6p\xe9\xfe\xdfN\xfd\xc5\xe4k\xbba\xed\xcf\x1bt~\x85OeS\x15\xee\x854\x8d\x15$%\xcf\x87\x0eIQ9\xf1t1\xe3t\x17(\xcfmZ\xde\r\xf6\xfd\xaf=\xa4f\xe2Ki\'\\\x15U\x9b\x19\x82\xe8\x16E\\o\x0f+y\xe1\xa0\x90\xb4\xcd\x15\x06\xe8\xc5G\x8a(\xceb\xc1\xa0\xb3\x14q\x86\xc8\x83c1\xed\xb0R\xf8;\x90d&gt;\xc4\x95Ur\xe1\x07\x965\xf3T^t\xc9R&amp;,+\x8a:\x9er-\xe9\\Is\xc9\xab&gt;\x9aS\x84\x80)\xe6\xe56\xd8\x95\x07\xe8\xa9aW\xb5\xbc)$K\x9a\xd7\x1eQ\xd2\xceD\xe9\x9cU*\xbe\xc6\\#=\xa4C^\x82\xa3\tOZuI\x0eV\xf4&lt;\x9f\xab\xf0\xc1\xad\x02b\xad\xb0\xc3CC\xbe\x04\xa23t\xa3\xab\xedM5\xc7n\x91*\xa9*\xdaYK\xc4\xf8Y\x1cB\x16\x8fc\x08%\xd1\xbe\x92\xf3m\x97\x15:\x08\xc5i\x9dc\xb2\xfcT:fA\x01A{\xd95\x95\x91T\xd2$\x81\xe0I\xf9k\x03\x003\xf5\xec9En\xcc&gt;\x8a\x80\xa1r\xd7\xef\xac7\x83\xf0"9\x1a\x91A\xee\x0cS%\x02\xb3*\x95\xba@\xd0vN#\xb0\x96\xfe\x11X\x81\xa4\xedf\x06"\x0c\xc9\x12\xb4\x0fv0\xadY\x91\x98U$oqe:\xbeUNRc)\x1f\xa4\xc7\x94\x9cO\x1be!\xdfI\x1c9\xf7\xaa5\xba\x82+\xd4\xa2k\xb7\x0e,J\x14\xc8)?q\xb3\xe2\xf4#D\x16\xeb(fod\xf8\xf7\xd7v1\x1cW\xd8Wn\x05\x91\xd4\x87WX\xae\xa0;CX\x06r&amp;\xacH#\x14&amp;\xd2\xc1\x8f\xf9\xee\xbe\xf5%j\xf9|\xc3\x8btQ\x11\x08^\x9e\xb2\x1dj[P\x15*\xc9ljl\x83\xea\xe9\xe9\xda\x88\x11\x89\xb2\xcdg\xe8"\r\xd4\x8ci\xcdS\xcf\xe7q\x1e\xa6\xe7\xe5\xa9V\xc6\xfa\\o\x9bl\x9a\xd7\xa4T\xfe\x9b\xa3\xb2\x9e\x99\xb0\xbeR\x87\xde"h$\'W\x86[\xbckr\x9c+R3\xd0oJ\xe1\xb1\x06\xdc\xd7\xc1Z\x11\xa6\x94\r\x95\xe4\xf5\xebR\\\xb39}G\xa7\xaf\xc8\xe3%r\x8b\xab\xfb\xd6c\x08\xf2#\xecU/\xd1$URcD3\xb1\x9e\x1cn\xa6b]\xb0-\x8a\xd3\xa3\x1b\xb3Zc\xb5\xe8\xf9\x97\xeb$&gt;J%r\xbb\x15pS[C\x10\xecZ\x8e\xe1\xa4Aw\xaf!\xd0L\xf2\xba\t\xa6*|\xdd\xd2\xa0\xc3i\x94\x9c~\xe5"\x9a\x8a\xec\x99V\xab\xaa+\xba)\xa1\x15\xb8\xf6e\x84N5u\x8d[\xad\xa9%D3\xa5\x82}\xf4\xda\x9c\xf3F\xb1\xb9Z\x17D\x90\xb9\x82H\xea\xf7I\xc2\x12\xa9\xd5"\xff\x00J\xde\x13\xb8l\xb2&amp;\xf2/\xdd\xb7\x80\xecs\xa70\x0f\xccz\xa4+\xff\x002l\xae\xf4"E\x9bVP\xd9\xf7\x84\xe4\xa9[w\xbc^\xbau\xbe?s\xea\xb1\xc4\x8b\xde:\x8cb\xbf|\xcbs;\x05c5U\xcf3\x87\xb0g\xd5E.F8#,B!\xedE\xaa\xa4\x88b\x8b\xb4\x9b\x83\xd1\'\xf9\xc6;\xda\xd9\xd1\x8b\xc6\x14m\xca\xf3{\x85M\x9d\x08St\xb3\x13\x9b\xe5\x86\xab\x07\xd5\xac\xa0HJ*70\x9fG\xbazg\x14\x84\xd4\xe9\x0f\xd1\xb5\xfed\xd2\xb8\xa43\x1b\xf4\x8b\xfd)u\xd5\xfa\xef\x01\xf4m\x11rW8\x7fB\xaf\xf7\x8f\x18V\xa2l\xd4\xd7&gt;+\xc9\xa5{\xa4\xb9\xfe\xb1\x95\xf6\xb4K\x9d[gV\xb4\xf6Wi\xfa\xd1\x9a\xf6,\xd7b\xf2(\xd0\xf8)\xd09\xd2?E\xd9\xc8\xdd\x1a\xe6\x1b\xab\x04\x83\xeb\xd9\xbfs\x1f\xa2K%\xb5\xb58\x8a\x0eU\x88\xe9\xa2\t\xe5\xa5\xdfV\xc0\x07\xb0\xa1\x18\x1e\xcf\xd6\x86\xa3\x81\xe8\xe5}FJ\xab%w1\xd2\xbb\xe5n\xd7\xda\xbd]E\\\xccR\xf1\x935\xe5e\xcfF\x12"\x13\xcc\xb1=Q\x05\xd4\xfc\xb9\xd2\xd7)Z\x1a\xe4\xdb1\x11\xfe\xb0\x1a\xbb-SY\xf1\x8b\xa0\xd0\xbfG\x11\x9b\xce\x15\xaf\xae\xc0\xb8\xa7\x95S\xfd\xf1\xc1f\xf0\xb0\xef\xd1:#\xb3\xfew\xbf\xec\xcc\xc1\xa0\xe9\xaf\xdb&gt;|m*W*=G\xe9^*\xdaU\xa1\xfbUE\x8e\x8cZ\xf3\x95\x86=\xe8\x9dQ#\xfaS^g\x89D\xfbn\x95J\x94li\x1d\xa5o\xa7;\xb0*\xd5.\x0e\xbe|J\xaf\xe8\xd1;c\xa4:1\x92#w\xe8"\x0f#\x19\xf4\xb8\xdb\x15K\x14\x98\xe7\xcb*\x91\xf4\x0c\xe1RD\xd8c.R0\xf8\xb8\xc18\xe10\x83\xf5\x95\xb5\x87\x11V\r\xab[T~\x87\xae\xad\x8a\xf3G\xa3(\xdb\x8ez~\xab\xac,\x05\xf0dO\x19Nq\x8az\x01\xb1\x1e\x1e\xb7\xcd\xecs\x08\xcb\xe1w\xbe\xc0\xe5\xbf \x86+\xba\xb2\xdd\xa0\xb6\xfeI\xe85\xda\xfd\xc0\x1f\xa0\xbc\xf9\xe9\xad(\xff\x00\x9ez\x0c\x01y\x18\xbfW\xf3p\xa6\x0e\x016\xe2\x0cF\tX\xd3\x94\xaey\xb4\x1d\xa4\x0cy\x0b*}crY\xf5\xcf\xa2\xb0-7Y\xcfH%\x0evA"}\'\x8dH\xfao\x9d\x85[\x13\x10\xbe\x0e\x8e\x00RA,\xc9T\x99\xa2Z\xf5u\x05\xc8\x9d\xa5\x98\xf8\x0e\xdeHrpe\x8f*\xb1\xf0\xe3+\x04\xa8bd&gt;\x95g\x8b\xac\xaf\xaa\x13[*"\xbf\xd7x\xeb\x01\x15\x18\xe7\xf2.\xe3\x14\xf96\xb6\xedJ\x1fC\xd6\xc7\xd5&gt;\xf5\xfd\x03d+\x04\xcd\x9cO+Z\x82=4\x0f\xd1\xd3q#m\x02\x14\xd7&amp;X\xba\xe4\x8aaM^6\xdc\xb2\x1b\x81;nN\xed\xb8\xed\xa7w\xda\xef\x8e\xedu\xce\xbd\xdfi\xb6\x9d\xdfk\x9dS\xbe\xd3:\xa2\xeb\xae\xda\xf7,yc\xd9j\xdc\x95\x06\xee\xa5c\xc6\xd5\x03Z\xc27|\xaf\r\x0f7K3\xc4\x05\xdaQ\x92\xa2\xf5\xfa\xd8\xb6\x8bA:\xce\x0cX3|WK\x03:\x08hfs\xbc\xcf\xe9\x9f?F\x92\x85\x89bUm\x0c\x813\x8b]uOWl\xc1\xe4\\\x90%\xfbr\x8a\xf4\x87W\xac\x1ee\'U$l\xf2\xa6a_\xa9\x0fH&amp;\xe81\xf5\x8e\xcc\x16e\xe1\xad\xe6\xab\x97,\xc6\xfa?\x9c=T\x18\xd6S\xcf\'a*\xea\xfc\xe1\xc8O\x0b\xe6\x81\xad\xfa\x1f\\\xc6\xfa\x9d_%\xda%cU\xf8\x0b\x884\x93\xd5\x03-\xea~\xa9\xe3\x05[X\x81&gt;\x82\xbdi\xdb\x0c\xa0\xfa\xc8\xe9\x97\x91\xc5P[\x86w\xcc\xc3\'P\xd2*\xd3%\xba[\xa3\xba\x1f\xc4\xb5z\xc3\x9b\xccP\xe9\xd3\x9eS\x18t-!\xf4\ro\xd5\x0f\xbec\x01)$\xf8R\xb2\xb2TM\xb4\xd1\x87\xec\x08\xf88\xd6\x01\xd5\x99y#\xa3\x81\x97\x89\xb7\xf1\xbb$Q\x18\x87\t*M\x8a\xc0\x82\x15R\x9d\xd7\xbb(\xbb\xbf\\\xa0\\\x9aWEf\x99\xe9\xc5M\xf2a\xad\x02\x9b\x87\xa6\xf48S\xed)O\xb7~\x84\xbbO\xf7\x0c\xea\xf5\xfb]\xb5\xee\xc6\xbbFsz\xc0AN5\x8f\xb5\xa4\xd3\x18\xba"\xfc\xde\x8dc\x1en\xce\xd5Q\x80f\x86N1\x8a\xf7u\xc6\xda\'k\xf7\xda\xf7P\xc7\x90\xe3R\r\xc9=\xa8\x0fhV\x85\xb5)\x99\x93=8\xefl4\xfe\x7fkf\xbd\x91a\xa1\xd9\x81\xc8C\xb9i\xb6h\xd6\xcb\\/&amp;x\xd1\x80\xd9d\x16\x1a\xad\xc8\xba(RN\x1d&amp;\xb0\x89\xbc\xb3/\x9e54\xfc\xd9\xe8E\x96\xcbC\x1d\x96\x9a\xeb!f\x99t~;\x13&lt;\xcf\xd6\xc4\xaa\x87\x90\x9e\xb0\x9e\x12\xe4\xe1\xef\xea\x08,\x8f\xfd\x0ct\xf1\xc5\x9fl\x15\xec\x82\xb9"\xd0\xdb$\x95B\x02+V\x8d)W\xc3d\xde\xaf)JX\xb25\xb1y\x81|\x80\x91\xb4\xe5\xc3^P\xd0\xd9\x9d\xd4\x1a1\'\xaa;\x02\xb4}\xd1\x0e&amp;x\x11,\xe11C\xa5CXFj\xc0\x16Zl8\r\xbcW&amp;C\xe0*(X8\x8eb#Aa\xc2\x94\xbba#\x1b\x8c\xd1\x08\xe9P\x96\x80\xb2{\x16mZ\xefNc\x9c\xc8}NQ\xba\x11\x81V\xc7\x1d:,3\xb9,\xb1\xa6\xee\xbc%\xfe}jt\xb8F\xfd\xd04sl\x10KZ6\x8b\x02\xbfX\xeb@ZC\x9a\x95]\x03\xfd\x97YM\xb9B\xf6\x11\\m\xda\x8bd\x8e\t7c\xf7?\xbet\xda\xe3\xecwc\\\xe1S\x9dH\xe1Th\xb0\x7fk\xb6\x9a\x1c&amp;\x98\xdb\xee~1\x8c\xa2\xe3\xa7.m{\x13%w\xad\x03\x17L\xfa\x19\x94F\x9e\xd4\xc6\x9b\x02\xd8\xf9\xd3\xbf\xc5"\x1a c\x9a\xfa[\x83ZZae1P\xe7\x18,\x16~\x9d\xfe\xb5U\xc6\xe5\xa6\xef\xa1W\x934\x93\xb5w\xbd:\xa5\xf2\x99\xb7&lt;1\x84\xdd\\\n\xb4Fi\xc7\xd6\x06O\xa5\xd1\x94\x9d\x8fD\xacZ\xbd\xebN\x9e@\xb2b\xbfr\xaa?\xcc\x1eU\x10\xbfNc\xe4\x8c\x81q\x00\xb3F\x91\xcbJ\xa8M+Zq\xf2Cf\xa5\xa7\xb6\x1c=YvT\xda\xfc\x98\xe6\x0c\xa3\xb8\xac\xf9\x05i\x01\xaf5j\x02\xe7#8\xea\x8a\xc8P\xe3*\xd8u\x7f0\x93\x8e\xb8\x1f+\xa3\xd5\xec\xe8\xe5^E\x8c\xa3\x95\xab\xe6\xd2C\xa7\xbc\xe1\xa4\xb9\xc5@\xc8x=\xea4\xa40\xed\x934o9\xb1s\x97\xc5r$WP6\xb49\x12\x13\xa6\xae\x0e\xa1\xd8PYm\x9d\x1a\xb1\'E\x92\x03\xb2\xf4.\xf4\x02\x88\xba\x1ah\xaf\x88U\xcd\x99B\xda!\xa1\xe4\r\rP\x9e\xc3(x&gt;\xd6\xaa\xdaEC\x02\x87\xb5\xcd\xb5\x8aC\xe5kW3S\x17\xa4\x98\x96h\x95\x96\x0elZ\x91\x9d"\x9c\xb7\x80\x82\xf9\x16\xeb\xe3|y\xe7Y\xf7\x9fk\x9d{\xbe\xc7\xd8\xee\xfb\x9e\xc3\x9f\x1dV\xb9\xd3M\xdf\x8a\xe3_\xb6\x92\x0e}\x9d^\x03\xea\xaa~\x97\x0e\xa3O\xd1Po\xd4k\x82\xab\xadzs3\x91\xc63\xf3V\xcfjFx\xc5\xfa\xcd\x13\xd2`\xbajH9X\xc9b,\x9d{\xa1\x9f7sa\x00`S\xaa\xf9pVj\xf7\xf5\x9f\x8f}IF\xc6\x99b\x96.\xecJ\xd2\xcdQ\xb3\x01k?\xc9&gt;\xa5\xa8\xfe\xe0\x0e\xf9,\x9d?\\\x0f\x9aDy\x1a\xc9\x16\xf2\x87n\x04\xd0\xef\xe1\xda\x94\xcf\xa8\xfc\xd8\n\xc0\xff\x00s\x98W5\t\x04(\xc9VY\xdc\x8e\xc1,.Y\xad\xbd\x07\xbd\xe201\x9f&gt;\x9e \xb3\x9f\xd0\x99\x1b+\xb5\xfa\xf0Q\xec%[o43\xa8[h\xc8PaG\n\xa3\xad\xc4V\x840a\x02\xdc\xab\xd6\x0faIH:H\t&gt;\xcce\xa5\x1e\x9c\xabo\xe1;\xcfU\xc7\xaa\xeb*Fh\xf7\x86\xe5\x1e\xa4Jb\x7f:VY4N\xea\xcez\x12S\x8cu\xca\xad\xeb\xc0q\x8f?6J\x18b\xbd\x902\xc8\xacn\x83\x9e\xcc\x1a\xd2\x06j\x84Jy\xaf/\xcfd\xb0\xd6\x8e\xa2\xa4Ue\x9d\xdc\xc0\xe3aF\x0c\x8f6`a\xf4F&gt;a!\xe4l\xe4\xec$\x99\xbb\x0c\xde*\xae\x11\xedn\xf0\xde\xd8!k\xcd\x1c\\P^(n\x9f\r\xd3\x17\t)\xb8\xeb\xbe\x84h\xeb\xae\xda\'}\x8c\xea\xad\xf9\x15\xde\x99\'\x9e\x01\xaes\xae\xf2\xbe\xb6\xb7&amp;\x9c\xb7\xa5\xe3\x1cQCo\x1fu\xa7\xba!\xcbwPf\xdb\x9a\xaeP\xee\xdaOS\xe68\xc7\xdf\x13\xcdYM\xc3\x88\xe1\xfd\x82\xae\x80f%{]c\x96Pl\xf3y\x05\xe8\xfb+\xb4\xa7\xa9\xbc\xd7n\xa3 .N6\xea\xa3\xfa\xaf\xca^\x9cjY\x1aL\xd8u\x8e(\x16:#\xdb]\xd8\x03\xac\xab0\xae\xa2[S;\x9eQX+;\xc2\x1b\xe1\x90P\xacA\xfb\xaf\x12#\x8b\xd74\x87\xa1*\x8b\xd9\xaf^\xa7\xba\xd5s&gt;[\xa2\xcb#d\xaf\xab\x13\x0f&amp;\xf3\xc9Md\x9d\x04\xe8\x80\xae=\xc1\ny(\r\x8f\x1e\x95\xef;M\xb3\x14D\x9e_\x8f5|\xa5\x82\x1d\xe5\x0f\xe8\xd1\x8do\xd5,Y)]\x11\x12\xb7\xa5\xaco#Xv\xc4z\x82W\x9d\xdfl\x87\xb0\xccA\x935mx"5\xc0\\\xac\x13}\xe6\x12\x88:\xc2\x80\xa9X\xd5^\xb7\xad -\xe59^\x82\x0fGG\xe6\x9eW\xb0d\x86\xb9\xb24T\xb2\x1c\xfa\xf2\xbc%\x86\xca\xb8|\xf0\xf0\x0c\x89\xba*\xc0\xeaF\xb2=\xb1\t\x91c\xf9F\x1am\xac\xf3\x92S\x80\xca\xa4\\R_+\xa8\xc30D\x06~\xce`\xabpy\x83w\xa8\xa2\xac\x14;\x05\xda\xb8\xcb\x07\x7f\xcey\xcf\x01&gt;\xb9_D\x1d\x91\x1e\xf9}5\xdb\x9b\xd9\xae3\x8eo\xdag^A\x94m\x8fZ\xea\xbc\xdbfu{\x86j\x87\xb8H\xaf\xb1\xde\xcc\x00\x060\xff\x00X\xc7\xdfc\xa7\x9bt\xd0\xd7Lx\xb9\x94e\xe5G\x9b\xf18\x8ckv\xb5\xd0\xcc&lt;\xf3\xc3\x1d\xea\x01\x14\x1b\xc0\'\x17\x85.GH\x8d\x88\x05f\x9a=Ox\'&gt;\xb7\x9d/Uk.J\xf4M\xe7\xb7\x16\xbe\xe4\xe4\xbd\x01\x14\xe81\xa2\x9d\xd8y\xa9g&gt;\x0b\x03J\x14\xf7-\x8bqR\xae\x02\xcb\xb4\x1e\xa8\x9d\x01\xdb\xc77\x00\xfaI\x1c&lt;\xf2\xe8\xa3c+\xe9\x08^X\xf4\x11\x01M}\xb1\n\xa9Z\x1d\xea\xa3\xbb4\xf9;\x0eF`\xe5\xb6t\x82\x8f{3]\xe7\xa9%H P;i\x01V&lt;\x03N\x8a\x1a\xf3\xf3@\xfd\x95\xe8\xa2\xea\x1e\x9f$\xcd\xdar\xd9\\\x9f\xaf\xdc\xf8\x11\r\x0el\xac1#\xf0u0.\x95\xd8;\x14}\x87y\xfen\x1buO\xd0\x89\x1e4\xbf\xef\x82\xb0\xf7\x97\xd1\xd1\xc0L\x94\xb7SR\x7f@s\x1brS0\xd7\x89B\x07\n\xd5\x99\x84Wk\xb74d\x7f\x99+\xbfm\x05\x86\xff\x00\x84\xc1{\xaa\xab\x8a\xed1\xcaj\x85b\xf6\xbdv\xad\x99G\xdf\x8b\xa2\xa2\xd4c\x11z\xeaO\x0b1\xa9\x13L\x18\xc79"C\xcd\xb8\xa60\x8cj\xa9&amp;\xdcj\x04qU\x15\xd0\xbb\xe8U\xd3\xb4\xf2\xce\xb6\xaak\xa6\xfc\xfb\xb1\xae\xfawi\xae\xc2_\x05R\x0f\xa7-\xdf\x8b\xcc\xbc\xe9\xcb\x93=\xbc\xc5\'q\xd2@\xbd\xa6?\xdfbM\xd7\xda9B\x8cb\xdd\xdbT\xdc\x11\xe5\xc7RVUc\xa6\xf0\x92w\x1aS\x90\xad\x16k\xe7\xdf1\x88\xd3]\xd1\xc4\xe19\x83\x02\xbb\xf3\xc0\xf1\xeb\nY\n@\x9b\rR\x82\xb9j\xf7\x17QT\x80\xe2\x82\x9d\xeb0\xbfr\x95\x83GM\x84\xe4\xe0T\x9a\x8bd\x12\x9fo\xd4o\x8a\xefo\xf2\xa7\xa9\xc4\xe8f \xbdA\xcc\xcf%\xcb\xce\xcf\xda\xb1\x8du\xad\xfc\xa3e\xb4\x8b\xf8\xa9\xa7|\xee\xd5iP\x06\x0fj\xa1b\xb5\xc6=\x99cSf\xad\xa8\x95\x04\xa7\x1a\xd4*\xb4\xb5\xaeE$~\x87\xb6\xe5$@%\x16\xad\xb0\x00\x81\xf4v\xc9\x02\xa4W\x9e\x17a\xbf"\xc3b\xd4\xba"\xa0S\xe2\x12}K\xe8va\xd5\xcc\\\x0cK\x1a\xf3cB\xb5\x86}\x0cRL\x93\xf3\xb4ju\xa4\x97\xd8\r&gt;\x10p\x99=\x81\xd6\x90\xb3b-a\xb7q\xde\xd6w:\xcc\xe4\xfapH\x03\xef\xcag\xb0\x03\xe8\xbc\xaa\x9b\x15.\xb9\xc5\xd8m1\xe04\x8a\xa9n\xf2d\x9euG\xf5\xe0\xf8\xecx\xe7oQ\xac"y\xec\xc5\x80\xa9\xd0\x1a\xb1(3\x89R\xe7\x86\x859\x056G\xafMIC\x1e\xa1\xa2o\x9bn\xe3\xae\xda\xd9\xa3\x8e{\xe9\xdd\x8dq\x8eMk\xcb\x06\x90/\x97\x13\xf7\xda\xeb&lt;\xc8\xe5\xcbC^\x99\x9fA\xcd\'w\xa1\x81\xf5\xda\xf3|\xf1\x93\xd1o\x84Pl\xb0\xe1&amp;\xb1n\x9f69\x18G6\xedg\x93?\xc7\x99\x03\x13\xeb1&lt;[|Q\x92\xb3\xd2\x90\x8a\t\x8a\xe9\x19\x01\xe5\xa5\x8eq\xfa\xc7{\x08\xad\x1aMNO\xe9\xac+\x03\xec\xaa\xee\xc4U\x8d,\xcd\x972\xf6\x15\x1b.+\xa3&amp;\x1f\xa4\xee\x9b\xb2\xcb\x9f\'ER\xd8j\x96\x12Ia\xc7\xa9\xac\xc0\xda\xa4Z\xb6\xef)p\x08\xeb\xa3\xcd\x96\xfd\xd1o5\x85\xe0\xa3dR-#v\xf7\ni\xa0\x9a\xc2\xff\x00\x9d\xea.\xea\xae\xc4\xeb\xebY\x0f4\xb4C\x13\xb6\xf2\xd2\x8bL\xed\x10\xdak*X6/\xd4Sk\x9b\xff\x00\xads\xd4/q\xd8\x80\xff\x00&gt;\x07X\xc7\x99\xaal\xd8C\xa3NI\x12\xa2Gg7O\x9c\xbd\x17g5\xe7x\xbd\x84\xb4\xe1\x91\xeeI\xe9\x8d\xb0P\xc1\xb9\x92\x05[\x10c\x88\x83\x97\x87\x12\x17b;"\xach\xb2F\xeaP/\xea|}\xb8}\xd1h\xfe`\x18}_\xd28\x9eI\xf4\r\x88\xecN\x9d8r!.m\xc2\x8e\xd7\xbfa\xd8\x8e\xc9\xae\xc0{\xacgr2r\xc5\xacb\x9dz5\xd8\xce\x1arW\x06[\x1f&amp;\x19M/\xfa\r^p\xf4\xa0\xeb\xab\x8c7\x91[\x08\x8d\x9a\x9e5\xce\x1d_\x1c\xf6\xd7\x93\\}\x8e\xe0\x94\x93\xea\x0e\xbb\xcc6\xc60W3\x8bN\xab\x9bH\xc5\xeb\x81d\xf1^\xb0\xba5\xcf\x0c2(\xa7\xcb\xee\x19\xda\x9f\xdc~\xaf\xcc&gt;\xb7+\x9b\x88y\xb1\xbd!(f\xf7&gt;q\xe2!\xb6\xfdK\xac~\xdfU\xbd\xd7\xa4ym\xb1\xce4\xf8\n\xde*G\x04\xa2\xacGc\x17=\x02\x8b\xc7!\xb9\x9a5/\x1cjw\xc4i\x1c\xb2\x18\xd5\n\xab\xb6\xd7\x84gDYU\x99-\x1c\xb5\xea\x88&amp;\x1c\x84\xc2\xfc^;HMA\x05\xb5\x97\xe7\x9f4\xc4\xd9\xc9\x17\x0c9b\xb5C\x11\xacj\xef\xca4D,*A\xa3\xd1\xa8[U\x84\xfeGC\xb8\x1a\xa9\xfaY\x8c\xac4\x9f(\xf3\xff\x00J\xa1y\x9a\xdb\xbe+\x01\xcf\x97\xbdSJ\xf7\xd2\xb0r^\x9dJ\x8e&lt;\xb0+e%"\xc3\x0f\xd1Vw\x1aI9\x03W\xd5\xd5\x96\xad\'vrY\xcf\x00\x8d`\xd6\xf75\x17\xf9\xca\xcdY\x86XM\xd0\xb8\x86~z\x80l*\x86\xe0\xcf\xd2_nCn\x97N\x94\x10\xa1\xa8\xc2\xa2\xad\xfaI!aJ\xbak\xf9%\xc8\xfa\t\xc7\xc1\xb8\x9a\xe7\xbb~\xf3\x85\xb4\x97\x1d\xfe\xcec!\x9e\xf1\xf6k\x88w\x0f\x94i\xce\xa0{,n\xcd\xcb\xa6\xefe6\xe2\xb0JJEF\x95T\xe5Y\xfa?d\xec\xe3\x18\xee\xc6\x9bk\xdd\x8e=V\xa6\xadV\x8c\xfb]\xdf\x8co\xaf\xceq\xd8L\xd6\xd3\x0fH\xbak\xb8o\x98\xe7H\xd5\x97\x08\xa7lS\xc6/\x83\xe5\xafN\xaf\x8a\xc3e\xed\x1f\r\xec:\xd66\x85E\r\x84y\'E&gt;\x06\x9eA\xda\xd2\xd0\x89#!$\xcc\x03\xe3\xc3G\xc3\x83\xd3\x9fw\x11\xe4\xe2\xcd_n\xf8\x92\xe8\xf4\x99\xcb\xb2t\xbd\xa4\xf4\x8f\xa1\x95\xe1\xd5z\\Rb$\x8fh\x11zr\xfaV\xaf\xdc\xfd\xc1\x81\xd9\xfbt\x86\xf2\xfc\x07A\xa3\x8d\xadi`VVFX\x8c\xb4Kk-\xb8\xd7\x96 \xf0W\xfc\xa9n\x88\xaf\xbb5n\xb0RO\xb5\xb4\xb3\xa5J\xe3j\xf5sP]Uy\x9c\xf1\x0e\xf0\x0e\xcb\r\x99{x\xd2\xfa\xe2w\xbf(\xe5%\x16\x1e\x8f\xb0\x96\xc4z"i\x13\x8bc\xb6\x86A\x8bm\xb7\x91KF\xb5*\x8b\xd9%+\t\x7fV\xc7)\xda\xbb=R\xc1\xb0C\x8dOJ\xc1\x1cL\x0e\'h9\xea\xb4.O&gt;\x9a5\xc6\x15\xbc\xc0\x06h\r\x94\xebI\x1el\x08{\n\xef\xd5\xbb\x06\x94\xd0e\x97\xd6K\x96\xfc\xe7\x07\xd1P\xdc\x16\xa6\xb8F\xc6\x95\x97\xe5\x83\xe1@\x13\xdd\xfd\x06\xd7\xcbv\xeb\xefX\xdd4me\x96\xdf\xa6\x89\xbd\x94[h]aV\xf7\xae\xde\xea\xa6\xafi\xcb\xe7\x9a\xbfk\x9c9&gt;\xd38\xee\xfa\xbd\xb0\x12\xaf\x08\xab5\xce6\xbeE\xf3\xa86\x01\xda\x01\xc5DoZ\xfb$\x94\xa1qOb\xa9\xf6\x00\xf8F\xfd\x8d\x8b\xe4\xf4vK\xb9\xc4\xe9\xa4\xc4\xd2^G\xd3\x12&lt;\xfbn\xd6\xd4vpv\x99\xda)\x1bp^9|8\xc8\xe4{\xf7@\x18~\nH"Q]\x11\xe28L\x86\xe6\xf4\x92?\xa3\xe2\xeb\xae\xfa\xf2\x15\xd6\x0fD\xee\x9bp\xfb\xb9\x82\'H\xb22\x18\x92\xb0\xf9\xbc\xb9I\x93\x1c\xa0\xe1\xc7\xe7%o]\xad\xd6\x17\xe53S\xeaKiB\xc0\xf0&gt;q\xf5Y\xb7!\x17\xbf8Y4\xed\x17\xf3\x87\xaeT\xa0+\xe2\x83\xd6\x82\xe5\x01},/1\\\xf1\x90\x8d\x00\xdf!6j\xf0w0\xa3\xa3\x11\x8c}\x1b\x89\x15\xbf&lt;\xe1\x12C\xfe\x90\x0c\x01\xd5\xf6\xc4\xf4\xe7\xb3\xa6\x89\x8e\xda\x96\xf2\xd1\xb5e\xc05\xf5\xe8\xa7\x17\x1a\x98Y"\xd2\x96n6\x17\xabmZ\xa6\xca\xb4$\x92b\xe1 Z~\xacu\x83d\xb5\xb3\xa4\xc7\n\xee\n~|\x06\x839\x08b\xa0\x89\xd5#\xb9\xae\x9a\x0f\x9b\xba\xaf\x96\xc3R\x16%\x0c\xa4\x00\xbc"\xbfSz\xd2e\xb9\x10\xc4t\x87\xd7r\xf1\xe3\xe8\xf6\xe2Wi\xc7z\x9a\xdd\xfc\xf5\x0c\xe8\xff\x00S\xe1\xfey\xfa\x01S\xd0U\x8b\xbaj\xb8\x03\xb5An\xb7\xb1\xf7\xd8\x92&lt;}\x8dS\xb3\x1b\xbe\xaem\x182\xd8\xaa6\x9eL`\xea&gt;$\x8a\xd0%NH\xa2j\xd7\x80\x94F\xad\xe6%\x92z+Q\xf3\xf7cx\xb3V\xd0\xb2\xf8\xdfT\x1f\xdeHQ\xe6\xe7\xe9\x10[d\xd9m\xa0\xb4d(\xde\xf0\xe4Y\x13\xb4\xc0\xf9\xee\x91\x0b\x8c~|\xee\x1a\xe9\xce\xd7\x8c\xedy\xdc\xb7\xe5\xbb\x99+\x1ae[\xd3\x18\xd5;nRv\xe4\xe4B\t9#\x880\xd7\x05E\x93\xf0\x87A6\xa1\x99\x81\xab\x03\\5hI;\xd8P!\xf6\xa5\xa6bi[N\xb3\x9d\x1b\xe7/E!\xe5\xb4\xd7\xebG\x8e=\x1d\xa4\x17\xda\xb4\xb7 \x8c\xd7\xf9\x8a\x15\xa4"\xb6v\x05\x95[Y\xc3\x86\x84\\\xb2S\xf3\xe5\xab\x83\xbbE\xd2[*\xbe\xeb\x0e\xce\x98\x11\x0e5\xd3\xdf\xe8^\xf5\xd9\xcb4\x0bh\x16Yloe\xae2V\xa9\x8a\x9f\xd3\xb5NT\xba\x0c\xe6\x18\xa7\xf3\n\x8f\x95\xfe,\xc5i\xae\xbb%\x89\xf4\x10E\xeb;F&lt;l\x87\xb1\x12sw\xb5\x18.\x1d\x8a\x8c\xaa&amp;"^&lt;\x12!\x92\xb2\xc9\xc5y\x88t@\xb5\x95\xd0\x98\xa0\xa34!\x8a\xd6\xa0\xeaE~\xc8\xdb\x17:\x94\xd1\xfa\xa5S\x1f\x90\xe1~q8i\x9d9\x8b\x02\xda@\x14p\xcb\x8a\xa1\xb0\x8aX\xb4\xae:m\xa9\xf6,\xfccY\xeb}\xf6&gt;T\xfb\x1fa;Jv\xe3\x02@-/\xf6t\xd9\xf9Nq\xa6{\xb3\xf7\xdb7\xbe\xfb\xe7:\xf7\x17\xec\xd2\xf22\xde\x89\xf6~\xdcf\x83H\x12\xbb\'D\x19\x95.\xe6h\xa7:\xbb\xbc\xd5\xda6\x1c\xd9\x19\xe5\xdb\xba6\xddv\xe7v\xd2_T\xed17\xafL\x17\xe3|\xb9\xc18\x16\x89\xc9\xac\xf8\x9f+{\xf3\xed\x9e\x8e4\x9c\xc9t}\xb4\x93\xcd\xc8=y\xb1s\x92\x07\xdd\xe4\xb5\xcb\x1c\xa7C\x92\x06\x1b\xd3\xca\xf7\xfd=9P\xec\xb2\xaaO^\xd8l\x1b\x8f\x10\n\xbe\xb9\xeb=\r\x17V\xea\xc6\xd4\xaeQF\xb5\xf4Z\x05\x1d\x92\xd2\x9b\xc3D\x00*\xc9.u\xd6U+\xb9\xc6\xa1^\xcb\x1c\x89e\xd7Z/C\xd1P\x84\xcaf\xa0\xd7\x16\xe2\xdf?\x95\x95Un\xe8\x1fB\x8b;-fna\xd5\xc5Wm\xad\xad\xb8D\xf3\xa8\x05\xeb\xab\x88\xa8Z`\x85\x9bST\xaa\xd0\xf7W\xb9\xc14\xad\x80\x18\x1cf$\xdd\x83%\xde\xd2\xe2\xb0\x04\xcc\xa0\xbb\x14%x\xa2\x9cI\xa5\xe6\xbf\xc7v\xb4\xbe\x13\xc2.\x92\x05\xd3\xed\xafX\xc5\xea\xa6\x12\x19\xb2[\xe5\x1c\x94\x88\xc0\xc2\xc4\xf1)\x7f\x90\x1ej\xc7_\xd5\xf1\x03r\xf3z\x93h3`\xb9q\x92\xab-+\x15\xb3\xf6\xb8ty\xc7\xdf\'c\x19\xd5z\xa9N\xbc\xa9\ro\x9as\xfb\x19)\x9e\xc1\x16K\x106\xa0\x1b6&gt;\xcdo7\xfb\xed\xa1\xb3\xf6v\xe3\xdd\xc4\x87\x1dS\x83\xc7\x18Qx\xc1.\x12\xd5\xbeR\xe1\xdb\x93\x9b\xd7\x18\xddWN\xfc\xe5\xa3\xe4w\xcfN\xee\xd3\xe3\xceI\x87hG\x82K\x04\x11\xb8\xbc\xd8[\xce\x8a\xad%\xc3\x96\xdd\x1e\xbd\xf8\xee\xb1\xf7\x8b\xdb\x9c\x8c\r\xafQ\xaa\x86\xe4s\x8c\xac\xe4\x05\x84\x07,=\xfaE\xe5\xf5\x83\x15!tAx\x90\xea\xa6\xa3}_]"\xbe/*\xea\xe3\xc9\xe6\x91U)2&gt;\xb3\x06\x99IO+\x98\xb9#V\xd3\x190\x8aO\xd5iY\x93K\x8e\xbeT\xf5$\xbb5Jq\x8a\xc7\xaaJ\x94i\xee\xa5Z\xe3S\x0e\\,V\xac\xa5I\xe4\'o\xcd\x1e\xcci!\x87\xaf\x8d7S\xd3g\xa3\xb0\x87y\xae\xfa[\x85\xef\xe6\xf6\x88\xb4\x1f&lt;\xc3x%nE\xadZ6\xad|\xa5L\'-\xc6\x81\\{\xd0\xe8|\x88f\xf10\xb6\x1a\xeb\xc0\xea\xf3\x16\x86\xd7\xf6C:\x86\xfb\xb2\'\x01\x84G\x126\x0c\xf0K5\x8fF/\xdaxp\x8b\xd0\xce\x04\x86\xb0\x84\xe6\xcd\xb5\xd0V\xb1.5\xe2v`_&gt;{\xe7\xd2zB\xc2\xf3\t\xb6\xbf\xd6Z\xd7\xb6\x14\x90c\x1fc\x93\xec}\x8e\xef\x94\x9a\xf15j\xc9\xb4\xfe\'\xa7\x8f\xb1\x8a%w\xfb\\\xa7o\xd3\x9f\x1e\xe9Q\xb1%\x17\xb8C\xca\x0b\xc1Z\xc36rO\xce~s|\x99\xf7=\xd5zv\x8d%W\xbc\xa8\x92{\xa4J\xc4\xee]Ii\xdd$\xd27X\xe9/1\xf3\xf9r\x0f\xe1&gt;"\xa7=:\xf3\xe4\xd7:\xf0t&amp;9\xe3g2\x08S\x83\xdd\x1f_\x85\xf6\xe5\x97\x90\x139\xfa\x0b&amp;\xba\xac\xd7\xd5~]ql\xb7ecj\x88\xa4u\xff\x001H\xdc\x04\xfb\x14\xfd\x16\xc8\xad\r6\x11/y\xc6\xcc]\xe3\xa6\x02\xeb[\xaf\\\xe3\xb5\n\xcdA\xc7Q\xabXBd\x03\x89\xf6\xc2\x96uX^H2+\x85\x9d%^%H\x06\xbe.d\x91\xf6\xbb\xa3\xa7C\xdf\xf5\xdd"I\xc9\xcd}j\x17QehY\x9f\x1aZ\x94\xb0\x91\xe2E\x17\xf5\xc6kC\x1c\xeb\xe7\x1a\xe4\x1c\xf1\xddz74R\xe3Zk%\xb3u\x17h\xbcic\x19\x9bBf\xc6\xc0q\x88\xfdB\x87\xd4vsf\x96\xa2\x8a\x07(X\xbf\x03\x8d\xf2M\xcd%\xf9l\x80t\xb1L\xc9\x03)\xbcRW\xadW\xa7\x89jt\x1e\x92\xd4d.\x84\xe1\x1d\xde\x82\xda\xaa6\xde%\xea\x7f!\xce\xb3W\xf4\'\x1eP\xf4\x92\xa9\xcc}\x84\xeck\xf6\xbd\xd9\xfb\\\'g\x19\xc7v&gt;P\xf3\x82\xad\xae\xab\xe7\xcen_u\xba~q\xb6"{\xd5V\x91\xb6\xda\x8d\xe4r=\xbc[p\xe3\\\xcf:c\x97g;\xac\xb8\xfd\xfb\xbb\xca\x8b?\xbaD\xe8f9~\x97\x89\xdd\'(e\xf4I\x02\xf0;\x0b\x94\x1c\x06\x11]\xd1\xf8\xcf\xe2\xb1\x8d\xe52\x1b\xa2\xdad\t\n\x9b\xc1\x91\xf3\x9b\x0eV\x91\x15&gt;\x06@_:p\xa22\xda\xe5h\x86\xf7|wI\x8f7_t\xceX\xd0\x96X\xe4\xa9\xb9\xfa\xa6\xce\x8e\'T\x97:\xb0\xc0\x04\x9b\x16\x99o\xd1e\xdd\xd5#&amp;\xc1r\xe5\xaen\xc1\x99M\xf7\x9c\x9du\x83\x92\xf6r\xeamB]DB\xebul\x8f\xf4D\xaa\x99\xa6Z\xae7u\x1fv\x9d\xc2\xf5\x83&lt;\x1d\xbc\xf2\xddc\xe9\x00\xa3\xb5^z\x17\xdc\x9e{\xd2|\xddbY\xeb\xe50\xca\x1c\x9b\xa3G\x9b\xea\xd3\x19\xab0cI\x12\x00Y\x17_\n-5\x81\x02\tw\x81B\x02 \x18#TE\xa2\x06&gt;\xd9\xee\xa3\x8a\x0e2\x1c\xb9\x86\xb5&amp;\xac\xeb,T\xe8\xd1\xe5-!h\x11\x8b\xd9\xe8\xe2Y\xd6\xa6\x9b\x95\xb2\x8c\x8d\xb0\xa9b\xa8\x05/#P\xcc\x0c\xd9j\x14K\x99\x0e2f\x19\xab\xf2\xed\x8d\xc9"k\xab\x9f\xb5\xadV\x86Y\xbd^k\xc3\xe1\x9c\x9e\xf4V\xf16\xaa\x9e\x9c\xa9\xab\xbe\xcb\xd1\xb9\x11\x1c\xe5\xc7\xd9\xdd{M\xfe\xc7$\xb9bw\xe4u\xb2\xa8\x93\x91\xaf\xa7l\x1f\x1e\xfd\x1a\xb9\xf6\xc7w\xb7\x12\xf9\xef\xc9*G)\x1c\x84\x08\xc0\x9b\xcaBp\xf2\xaa\xee\xbbK\xdf\xa4\x19\x0c\xac4P\xb0\x8c\x07\xee\x8b\x1fh\xee\x8e\x1c)\xb0\x9c\xceR#\xe5S\xb42\x9a\xabBt\xe9\xc5{h{h\xd7\xe7\xbfI\x1c\xe0\xd1\xa5\x84t}\x8f\xa9\xc0\xe7\xfaE\x9e\xbf\x98;E \x9abH,\xef\xb7\x17+\xcb\x7fQ\x1f\x99\xcb\xdb4\xee\xdf\xcdz\xb6\x9dk\x15\xa2(.\x8e\xbd3\xfb&gt;5]\xbb\xda\x12^x-\x9c\xe7\xbdDH;s\x9d\xbc\x95J\xc2\xdb\x06;\xd5\xdb\xc2\xbaj_\xf7@\xbf\'\xfa\xdc\xef\x9b\xf7\x80\xcfPt\xb1kK\x10\x88\x9d\xed&gt;[\xb0\x10\xfa\xcb\'\xb5r\xcd&gt;\x1a\\\xd0\x83\xf2C\r%\x18\xee\xe9\x11\x1dD=\x9aACmJ\xa5\xb9\xa9\x00\x0cM\xa0)P\xfd]\xcc\xa9\r\x17L\x8e\x90\x13\xa4\x93\x13\x87\x9aT\xef(A\xfd\xbcsRfg\xb1\xabb\x1a\x92\xe5H\x04\x1a\x96\xb5\x15\xea\xed\x1c{\x90\x12\xa3\xd1\xaa$\xf5\x93"2-\xb6\xec\xcbr\x9d\xbb\xd6j`\xf4\xcb\xaa\x07y\xbb\x0c\xc9\xdd\x19\x92*\xbcdG\xde\xb5\xde\xab1a\xff\x000%\xc5-{0K]kla\xcb\x9f\xbe\xfb\x93\xef\xb1\xf2\xf7\xd9\xc6\x11v\xed\x1f=\xde\x84\xe9\xcf16Wh\xfb*\x90\xde\x1fw4\xbc\x81D\xf9~9\xa1\x14^\xbd\xf0e{\xb47\xb8|\xb5\xb8F\xb0\x9c\x8b\x10K\xc5\xee\r\x04\xa4%M1\xf6\xbd\xc4\xa3\xfd5R\x00\xa3"\xdc\xd0\xf0\x08\x0bT\x92U|\xa2I%e\x98r &gt;\x99\xcc\x91G\xbd\xa8Kb\xa1\x86\xfa\x8a\xf0\r\x9a3\\\xb7\r\x17G\x1dv\xe6\xb0P\xd4V\xb9\xa8\xa6z\xca\x89\xf96M?x\xda\xd2z\x80\x1a\x8f"x\xed\xfe\xfb\xaa.zu\x92\xe6\xfd\'\xb4\xaeJ\xee\x95\xf5G\x93Gk\x94\xe7,\xc3\x88\x8f\xe8"g\x94}=ha\t\xa3\xf5\xa5\xa8`\x05&amp;Z\xf2TG\xd8T\x0f\x84&lt;\xa7\xd6\x95&amp;M!\x1f-\xe6\x10\x0c\x87\xe3\xe7D\xc8\xac\t\x9bp \xdf\x8c\'\x90&gt;\x1fE\xab\x84\x85D\x18-\x90\xe8\x01??\x98\xec\xd4\xd2\xea[6\x01A\xc8\xa6\x12\xdc\xf6\x93\rU\xb9+{;\x967%3\x82B\x00_\xb4\x11l\xb4l\x83\x8a%(\xc3P\x8b2\xc8q6\x1akD\x91[a\xd0\xf6}\x83U\xd5\xc4Q\xab\xe6\xe2\x97\x0cw%B%\xf1\t{\xac\xe0\xba\xa5\xdd\x98\xd7\r%\x1b1em\xdd#\xac4\xbc@u\xba\xb3\xe7`R(o\xb7\xc3\x97L\xed\xaf%\xf3\xf7\x0e\xecLM\xe3#\x96d\xa8=\xd7\x88\x17\x10C\x98jx\xd2\xcb\xc4\xd9\x17\xce\xf7ZL\xc9\xeeL\x92\x90I\xb0R\xdd\x1ap\xf6\x11\x1c\xe1|gt\xe5\t\xa9\x91j\xd8\xe5FJT\x82\x18\xd4\'\xa0nr\xa3\xa2\xc6\xd7\xa6\x17\xba\x12\x1f9\xaa\x0e1\xa1\x8edQ\x07\xa3\xf2\xfabg\x9d\xfd-@\xedR\xadi\x8a\xca\x9f\xafr&amp;l\xd9l\xd7\xf6\xf8\x08\x862Z\x9c\xb9\xeb\t\xef\xa6\x95\x05\xf1/$\xab\x99\x17h\xdb\x12\xaa.\x15m\xfa\x00\xf5\x08\xe9^\xcd\xbd\xe7[\x9e\xb5si\x00\xb6\xb2}B07]\x88\xe8\xfd\x0c\xe5\xe5\x9bj\x13V\x05\xdbT\xda\xac\xbf\xca\xbc\xb6\xa6OF\xbe\xaa\xee\xb9t\x89\xf9\xc8\x81U\xac\xbe\xf0\xa4X\xe5l\r\xe3+x\x81\xbc\xc5|Q\xd1\xd0\x10\x1eO\xad\x90R\xe0\xfa\xfe\xe0D"\n\x19Q\xed\x1e~\xe5d\x1b\x83\x8e\x947\x98[0\xa8p}\x80\x82:5\xfdM\x9d\x13\xe6\xc9\xe0M\x9coJreh\x84\x18\xf4K\xd5\xdd\xae\xb6K\xcf\x97Z\x89\x85\xb5b\xc1\x05^\x99\x9a\xb14\xab\x1a[\xddU\x9d\x141\xae4\xb7"3\x9f\xc7N\x9c\xdd&gt;\xee\n\xde\x84H+1ved\xa3\xc6\xe3\x13\xa0\xb5\xdc\xa1\xaa\xc6;\xf64t\x1dg\xafd\xc3H\xe747Wh\xf8e\xce\x92\xb9\xf5^\x90N\x04\xde\xe9\xf3 \xcd\xe6\x932\x1c\xc3\x90\xb9`D\x91,\xc7\xfa\x8d\xc5\x92\x00DpFsA.\xb1\x83\xe4\xe1\x1fx=\xd1\xa3\xf5\xe0\xbd\x0eTM\x9d\xd2\xe0\xe7\x9ft\x08\x84 \xaf}\xc7\xee\xbc\x9cHA\xea\x8b\xd8L\xde\xceP\xd3u\x88\x91\x82\xbc\xeb\x00\x0c\xb9\xe9A3\xbb\x83\xf4t`\xe7+\xf0^zHNqo1\x7fI\xac\xac\x03\xdb\n\xcdZ\xd6\xab\xb6\xbewi\xd5d\x0c\x8b\xd7\x0cpJ\xd9\xf0\x0b\xb67\x10\xe1\xeb\x00d\x1c\xa7y\x13s1)\x10\xd7\x94\x88\xbd\xdfG\x95\x19[\xea\x86\x8f\x97\xc1\x9eou\xa9\x18\xae\xd7\xb5\xd4\x18\xc6\xdcg\x1a\xc6\xc7\xda\xb9o4}kUy\x8fKp-\\\xf6L\xe3\xc0\xdc\x8c\xceb\x1c\xc6\n\xf9Lr\xaa\xd9\x89\xd7\xcdt:\xb3\xd2\xed\xc1\xd0;\xa5\xdb\xb6\xe3[\x17\x0en\x80\x81\xafJ\xc4cx+\x04I!\r\xbc*\xe6*\x85I\x0e\xb0c\xbcx5\xd6E\n:\x03\xcdI\xe7\x06\\\x88\xa0\xfb*P\x95\xf5m\xe8\x852-\xad\x99s\xb5\x98\xc7hR$\xb5\x05\x07&lt;\xa7:OrU\xee\xe1\xb7\xba\xfa\x03\xbb\xd56\xc40\t\xb6JP\xb6\x90\x98,\xd6\x9f3\x00\xb1S\xee\x13\x19\\\xd7\x8e\xbfe-\xe6T)&lt;\x93\xa5\x0e\x9e\xaaFd\x12\\\x92\xcc\xc0-\xcd\x9f:\x0bWv\xa5\x0b\xb7\xf3\xaa\xe1\xb6\nZ\xb5yq\xc8*rLR\xe3\x97\x87r\x91\x0b\x926\xbd89w\xe1\xd7\xa7(\xf8E\x07r\xc5\xcf=\xbb\xb9q\xe7\xdb\xbaG~\x1a\xaaw\x14Xw7\xe8\x04!\xabY\xadO3z\x1e\x9e\x9aEWs/f\xf4\x95\x0c\x1b\x8f\xa9\x0f(\x80\x92\xccx~\xa5t\xa2(BEm^\xf5\x08\xe2T\xfd\x04S\xcc\x99b\xfaYP#\x0e\xcb\xca\xd4d\xa9\xfc\x07T\xc6\tuf\x916H\xe0q\x1d\xa2\x1c\x83\xd9\x8f_qT\xeej\xf9\x9b0\xacZ\xca\xe3\xbc\xe8*\xfd,\x9b\xba\xdd\x8bV\xa7\xa4\x14\xb8\n\xef\xab#0\r\x05\xe5\x9cY\x1a\xbay\x84\xf07;\xe3\xe6\xe3A\x97#i6\x87\x9e\x8e\xef\xaa@H\x9c\xab\x83\xfcHi\xf0\x8c\xca\xfbvzh\x87\xa1\xc9\xe8r\xd4\x14\x7fB\xf0\xbe\x1f\xc5z{2\xabZ\xf4f\xdd9\xc9V8;.\xb1\x8c\x95\xb2\xd4\xb1d\x0e)\xd1L\xc0\xe0z\x18\xe7Se.l\xcdx\xc62i\xb9I\x1d\xd2\xd1\x10)V(\x92A"H\xe7\xb4\xc0\xa6\x1a\x80\xd33Vu\xb1\xab\xe6\xdd2\xca\x84?\x9ff\xe9GuW\xdda*\xdd\x95.\x1cw\x95\xd3G\x99\xbeQ;\xce\x8b!\xcb2l"}\xd3\x0c\x8f#\xdca\x91p\xd2\xb5\xd5\xf6\xbb\xb0\xda\xe0\x15\xed\x97Z\xf2\x07\x12LZ\xa2\\i\xb0U B\x97\x11z\x07\t1\x953\xcb0\x91\xfd\xe1\xfd\xba\xf7\x0f\xa6\xc4N\x8d\xb7\x1dW\xb5\x95\xa4\xfe\xec\xc4\xed\xc7\x96\x16\x9d`:.\x9c6\x0e\x93zVMv\xf4\'v\xae\xd3\rtqH$W\xe3C\xe5\x8d\xd4\xbd\xdc\x12\x03\x15\xd07\xc5{\xbe\x83\x1b\x99\x012\xc5%\xb1\x0eQ,\xe9\x08\x99c\x87\xaby[&lt;=P\xf5|\x12\xfaK\xbe\x86\xa7=?%L\'\x16Z\x06Q\xaa\xd2\x01g\x94\xadN\xda\xf4\xeb[\xb6\x0fu\xc3uf\xd7\xbdZ\x15\x0b\x04\xa2\x12\xf4\xe9\xb1\xbc\x15\xd7W]\xa2D]\xf2g/MP\x19\x8fS8B\xb3&amp;\xe1\x06+\xeb&lt;\x1e\x7f\x0e\x03\xbc\xdb2\x14\xaf\xec2\xd8\xf4zC5!\xc6\xcc|1\xd7^N\x1c\xe4\xfd\xca\x97Tz+&lt;\x9e7\x8d\xe9_3\xb9\xb1.zN]~\xb8\xd5\n\xe4y@\x11\xcc\xf0ue\xee\x934\x84\x8cp\xc48\xc5x`\xb3#\xad\xc2\xd5o$\xd8u\x03\xf9\xb0u\xb46\xe3\x11\xa7\xceM\x9e+G\xa5a\xad\x8aoj"\xb6WB\xe0\xe6\x19\xee\xb6\xe6\x8f\xef\xd3L\xed\x1f\xbft\xce\xd1\xe5*\xcd\x9b\x12b\xa1\x02\xe2\x0esI\x1b\x04ey\xb2\xc9\xab\xac\xf6&gt;5ikU\xea\xd5\xe5\xf3\xa2\x95\x15`\x1a\x1f\xdc\x06\x19\x08Nlq\x939*\xf5\x81&lt;g,nRq\xcb$q\x08}\xdd8t\x8a\xe6g1\xf9\xa7J\xe3\x1b\xe5\xeec\xdaG\xf7\</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495615-sale-precios-cuidados-entra-precios-justos</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Freno del consumo en comercios minoristas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relevamiento de la Confederación Argentina de la Mediana Empresa </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Registraron en octubre una baja de 3,2 por ciento con respecto a octubre de 2021. Si bien en la comparación mensual las ventas subieron, ya van cuatro meses con bajas interanuales consecutivas. </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Las ventas en los comercios minoristas registraron en octubre una baja de 3,2 por ciento interanual. De esta manera, se cumplieron cuatro meses con bajas interanuales consecutivas. Sin embargo, en la comparación mensual las ventas subieron 0,3 por ciento y acumularon un alza de 1,8 por ciento en los primeros diez meses del año.Los datos los releva la Confederación Argentina de la Mediana Empresa (CAME).De acuerdo al informe, cuatro de los seis rubros que releva el índice marcaron en octubre una reducción en la comparación interanual. Los únicos en alza fueron farmacia y perfumerí” y ferreterías, materiales eléctricos y de la construcción, que vienen registrando la principal dinámica sectorial. La caída más grande se registra en textil e indumentaria producto del incremento de los precios de este sector, que ya acumula aproximadamente seis registros interanuales en negativo.El mercado de consumo se mantuvo tranquilo. Se esperaba un mes más dinámico, traccionado por el Día de la Madre, por el Mundial de Fútbol y el inicio de la temporada de eventos privados, como fiestas de fin de año, casamientos e incluso fiestas de Halloween. El impacto fue muy moderado y específico por rubro.Interanualmente las mayores caídas fueron para indumentaria y textil y calzado y marroquinería. Un factor que incidió en los grupos de consumidores con mayor acceso a la tecnología fue el Cibermonday, porque muchas compras previstas para el mes se postergaron para obtener los descuentos de ese evento. El rubro farmacias y perfumerías es de los pocos que funcionan bien. Las ventas minoristas crecieron 8 por ciento anual, aunque cayeron 0,1 por ciento mensual, a precios constantes. En el año acumulan un alza de 6,8 por ciento anual.Punto aparte merece el rubro Alimentos y Bebidas. En octubre, las ventas minoristas Pyme cayeron 1,2 por ciento anual y 0,3 por ciento mensual, a precios constantes. En el año, este sector acumula un aumento de 3,2 por ciento. Las empresas consultadas señalaron que los precios se mantuvieron más estables y no hubo faltantes de mercadería como meses atrás. Pero de todos modos muchas empresas comenzaron a incrementar sus stocks para llegar con mercadería suficiente a fin de año.En el rubro textil e indumentaria, apuntado particularmente por los aumentos de precios por encima de la inflación, las ventas bajaron 19,2 por ciento anual, 2,6 por ciento mensual y acumulan un descenso de 7,4 por ciento en el año. Uno de los factores que explica este comportamiento fue la evolución de los precios que retrajo la demanda de los consumidores en octubre. Otro factor es la venta informal. Los comercios sostienen que, si la mercadería sigue aumentando, los consumidores tenderán a desplazarse hacia ese mercado irregular. Bazar, decoración, textiles de hogar y muebles: las ventas bajaron 0,8 por ciento anual, pero subieron 4,5 por ciento mensual y acumulan un alza de 1,9 por ciento en el año.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x02\x03\x04\x06\x07\x01\x00\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x00\x01\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xc4\xabv\x80\xc8\xd38Q$K\xa5\xb4\xe2\x1f\x97\x84\xc6H\xab7\xa0\xd1\xee\x99\xf5W\xfd&lt;L\xbbM|\xdb5+\x8a\x80\xb7g\xb1\x0f\\K\x92\xfd0\xb0\xd82\xc6G\xdd\xca\xd1\xb2\x9d\x02\xae\xd3\xc5$\x0b\x9c\xef$Cn7q)[w&lt;\x9e\xa6W9\xd4\xdc\xf3N&amp;\xaf\x9d\xf7\xa5u=\xe4\x9e\xe7\xb9/\xb0\xe5\xa2\xaf\xe7\xe6\x08\xc5nh\x0cMM\xc6%50o\xabOj\xfa\xaev\xa7\xb8\xae\\O\xbb\xdb\x9c\xf7}#pf\x81\xba}\x9e&amp;\xc6y\x00\xa4\x04\xa6\xb6\xeb\xd5cR}WA\x9c\x99\xeb\x9d\xea%H=V\x932g\xab\xd6H\xdc\xc2,%\xa5\x10\x846\xff\x00D\xba8\xf1I3\xd2\x979\xd2s\xccgW/\x19\xf8\x9bI\x85R\xdd\xe9\x0eI\x04\x81^\x85\x1a\xf0Y\x17E\xdd\x10\xb2\x13\x8a\x04\x99,\x03\x9b\xed\xca\x01\x9d\xaa\xd6\x87\xe4\x05~\x91\xd2\x06|\xf3\xaf\xda\xb8\x86q=\xe0\xcf|\xf5\xf47\xc9vb\x99{\x82\xe6|\xbfH\x85yUx\xcb~\x97\x99\x82\'\x8c5W\x9b%\xc6\xf4\xe4O{\xc9w\x0b\x1dx\xaeme\xab6\x80"Eg\x80\xb4K\xcd#Y\xeb:\xb1YM\xd4\x0e\xd1\x12l|\xa9rJ\xc4vDY+Z\x80\xd9\x0ew\x8ao\x93\xd4J\xe3Kl\xa7\x90\xa4\xc8\x9ew\x97\\\xe7[\x93\xde\xf7\xa5\xf3\xa9\xec\xafs\xbe\x96\x9fw\xd5\x12\xae\xfa\xaf/\xaf\xcb\x88\xcc\xe1#\x9e\x89t:tyw\x13\xde\xf4o\x8a\xf7$\xef\x10\x89\x1d\xf46\x8a\xa7\xb69\xe9;\x1c\x94\x89A\xc8\xce\xf5Z^p\xed]g\xba!\xf9x\xf1}\x91\xcb\x99\xa1\xbbw\xae\x84\xcby7\x1aK\xde\xba\x8c\xc4\xc0\x95*\xd1\xfc\xd9\x89K]r\xce\x16\xf3q\xabW\tU\x8e\xc1fZ\x8d\x928\xd3aq\x9d[W\xcbMn\xdaB\xfe\xbb\x894&amp;Hb\x8a9"\'\x16(R\xbd\'j\xd7\x94\xcf\x98\xb6\r\x93\xb9\xda8\x87x\x86B\x99\x1aIW\x12\xa4\xdd\'\x9eM\x8a\xfeJ\xfa\xcf\xe4\x98\xc8^\xf7E\xcd\xf1\xceH\xdf\x17\xe1\x98\x89\x01\xd3s\xb4I\x18\xdc\xa2\xa9\x8f\xb0\xd7\x9f\x9b\xdc\xef\x8a\xac\x96ZU\xe3&gt;\x89\xe2\xc82\xb6\xc0\xb4UlWC3\xfd\x87\x1cjlv\x1a6\x98\xc0\x06\xcd\x8e\xa6A\xb1\xc5\xad\t\x06\x98\xbeb\x96R\r\x7f\x8aN]&lt;J\xb9t\x84\xad%M\xa5I\xbao\x8a\xf5\xc4%\xceH\x84\xb9\xca\x8d+\xbe\x91=\xef%\xf3\xdcU_\xbb\xc6d\xcak\xd6*\xfb3\xa3\xa9\xe4\xa8\x92\xeb\xc4J\x886\xd3\x95m\xf6rjE\xf4\xd7\xa4\x1e\xabE\x82\xaf&gt;V\xbafLp\xfe\x9f\xcb\xba\x81\xf2]\xa9\xce+\x97=\xd59#\t}r\xa3\xaeS\xe5CPPqSo\x08\x03cz\x89\x1dF\x14\xfa\xd1:\x00\x96\x93S|\x8d\xc26\xbc\xf3@W(\x8eUk\xa5\x9a\x1b\xb8R\x9c\xd1\xd4\xd3\xf3f\xfcW"\xd2\xe5\xc1\xcb\xce\xe5i%L*V\xff\x00\xa4\xc8\xe3\xd3\x9e\xdf\x9dJ\x18\xaf{\xd4\\\xef\xbd\'\xb9\xe4Je\xf8\xaf\x18\xb8\x94zWP\x96\x0c\x19\xf9K\xea\xbf\x95\xa3[\xe7R\xb7s\x8a\xe5Z}\xefU\xe1\xb2\xe1\xc8\xcen\x08\xb0\xd6(\xdd\xa7\xdf\xe8\rO\xbd\xde\x18I\xd03\x8d\t.\x99&lt;Q\x94\xbe\xb4`s\xa46\xd8\x04m\x15$Q\xc4\x9avp\xcfB\x04u{\xad\x8c&gt;T\x1bX\xceJ\x90\xeb|Oq\xeb\xef:\xa9\x1aC\xed]6\x95\xf2\xe3|\xef.q\n\xe4\x9cH\xe0\x166\xdff\xb5\xab\x1d\xa6\xbd\x89Db\xf5\xe1\xd9\xa19V\x01\xb0%\xc8\xd7\x08zWm\xb5\xa9Uu\x13%.\x15y\xe4\xadx\xc5^P~\xf7\xe9a\rw\xb2u&gt;\xe4\xae6\xff\x00.4\xa7gJ\x80\xe1\x11\xb7\\]Z\x9bu\xb3\xa3\xe7\xa1\xb77z\xcee\xd0a\xd4\xd7\x0e1D\xactmM\xf9\xf4\x1b\xd7\xce\xf3\x16\x7fK\xfb\xe3\xea\xc9\x86\xd5Vx\x92\xd9\x9bG\xd1N]fSm=\xb0\xaa\x9b"B\xee\x8f"\xe3*J0\x1d\x83=j\xf4\xc9\xad\x92\xdb\x9e\xc4A\x87\xdc\xadu\xf8R\xf8\x9dUy&gt;\x1bW\x93\xcb\x8a\xeb\n\x91|\x89\x18\xc2c\xf0$\xdd-\xb7\x15W\x13\xaf\xb4`3\xe5\x9f\xab\xbeQ\x8cG}\xd5=)RD\xb9\xee\xfa\xaf\ty\xa5\xa4\x89\xd7\x0f\x89\x12%\x9ci\x142\x08\x1e\xef\x9c\x9f^h\xb6\xf5\xb8\xd1\x80\xa4\x90\xf81\xa6\r!\xba\xc9\x18ul\xcb,\xb5\xf8:2\xdc\xe8\xceG!%#\xe8\xef\x9f\x86\x03\x8a\x950~\x95\x9e\x04\xf6]J\xf2SV\xa6\x84T\xd8:\x03X\xe5}\x8b\xd8\xebY\xd4\x13]\xec\x146l_\xecV\xee\xa65\xc9r\x0cY\x89\xf5`\x9f\xb9X\xe8\xb3\t\x9b\x19a\x991\xfb\xef%\xd7\x89;\x0e\xa4\t1\xdb\xab?\xd7;-\xaf9\x1c\x85\xce\x04\na|^\x13\x14oj\xaed*\x13\xd2\xd5\x8f\xe9\r\t\xc2\xdd\xe9\x88r\xb0`K\xb2\xa2\x0c\x94jdBQ\xa70\xbb=Z\xe0\x9a\xa2\xd8-\xbfv;7\xc2\xc5\xb6l\x8c\x8f\xe9\xbd&amp;\x98pG,\xc6\xf7\\8\x0c\x13\x12\xf9bC\x97\x11R\x85\x19On\x18T\x07\xaa&amp;\x8dy\xa7\xe8^\xa57\x92\xb7\xe4&gt;\xcbo\x90\xea\xaf\xc2\x9b\xc5\xea\xfb\x9d\xf0\x97;\xeeI\xc55\xc2\x155\x13\x8dS\x8a\x87\x14\xc4\x97G&amp;\xe8\xacx\xceI\x0b\xe6?\xa3\xfeq^\x84s\xbcK\xfd\xce\xa6\xaf\xbe\xf2@\xb0\xce\xf5+\xb9\xcc\xb9(N\rd\xec\x1b\x95/{\xcf\xcb\xeb-l\xba\xdbo\x7f\x8d\xa3D\xf0\x16Z\xe5\xd5\x86\xc9R\xb4\x01\xe7\xd5M"\x8b\xa3,E\xc2"\xc5Me\xb4KZ|\xcd\xd6\xd1\xdc5@z5`!2\x05\xf7\xd2\n\x9aK\xee\xc9\x0cU\x9f\xd2\x0b\x93k\xb2\tf\xe4u\xf2\xc2Ya\xfb\xb2\xa4\x10]J\xaaOU\xdb\x8d\xa9r\xaeEI\x88\xf7T\xd2\xc0s\xaa\xbd\xb7-\xa3D[5\xda\xc8:\x98\x11\xa0:\xc4\x9c\x9a\xf2\xf3z\x01\xec\xef\xaa\xdeQ^\xcc\xeb\xf2tQ\xdc\x9d\xbf\x1d^\xa9\xba\xc7\xbc\xf2U^^\x8ehUD=\xf66=\xd46/\xf0E\xb4\x16\xee\x82\x98\xac\xf3S\xa0Y\xa2&gt;\x8c\xbf\xe5\xf3\xba\\\xc1x\x16\xb9\x98\xa7G\xd3\x1a6}\xa1\x9a\xe98f\xf7\x9e\xe4\xd1\x9e\xc7\xbd\xe7\xa4\xbb\x1aP\xed\xce\xa5\xbf\tOv+WEi\xd7\xba;Geq\xe7:xU%\xa2\x167\xf2\x03H\xf1z\xbd\xe2b\x89Kn\x0f\x08\x1f\x8d\xc6\xd8\x1e\xefg\\\n\xe1yCu\xceK\x0bp\x8a\xab\x90\xaeN\xf9\xefe\xc5\xd6\xef{\x9dS\xbd\xeetm&lt;W\x04\xf1\x16\x9f\x8e\x17,\x88\xb25aT\xf4\x8a\xbc\xd3\xbd\xe6\x9c\x8au\x9e\x89\xe9m\xb6\xf6mEA\x16\x8d#\x16\xaau\xaeBx\xbe\xd7\x8e\x9a\xc2\xdfY\xaf;4F\x9a\x92T\xcb\xaeK\x96?\x9a^\x8c3\xe7\xed\x1e&amp;\x9fV\x9b\'\xd1\x91\x1e\xaf\x97\x85oZM_\xc8h\xfaC\xa2_&gt;\x91\xd0\xe8ko\x14\xbeJ\xf7@\xcb0/.\xc7\xa5\x10e\xb6}Rl\x99\xf7\xc8\x7f|~u\xdcz\x15\x92G#\xadQ6aYu&lt;\xf4\xd5c\xd5\x1b)\xd93\x1dY\xad\x10\xedAH]\x99\xe1\xb9\x9f\x7f&gt;\x06\xdb\x89\xd6\xa8\x9dau\xf2&amp;\xcd\x89\xfd\x03\xec&lt;\xf4\x05\x1bov:\xc4+\x07\xcc\xc9\xd1\xba3\x92kJ\xd0\n=\x8a.\x9c\xd4C\x83\x96\xb9\xf6\x13D\xcbn\xe7\xb7\xf2\xff\x00\xd4\x7f,\t}_c\xa2\xd9\xa5\x01\xc3\xb7\xac/&gt;\x8b\x86M\xaa\xe5\x8dM\xb2\xbeM\x95\x90\xc9}\xf0\x93\x8fLz\xe4\xbc\xdfK\xa40u#R\x97\xd4\xc1\x18\x942\xc4\x04\xcf.o\x1f\xa9\t\xe7\xfc\xb6s\xad\x8c\x90\xbf\xaam\x90\xdc\x11\x9dV\x0ct*T\x08m\x0e\xfa3\x17DT\x165\xc3y\xad\x82\xbb\x9fJ\xbc\x9f%\xfe\xea|\x04\xa4\xf7\xc2x\xa4wP\x14\xb2#\x08H\xd3\xbdlY@\x86t\x16\x9c\x9d\xef\x15Wx\x9c\x18\xd6}2e\x8e0%S\xb7S-\xa4\'\xf3\x9d\x0c\r^e\xa1\x85\xb8;0Z\xa6\xd5\xab\xa5\x9f.X\xbe\x8f\xac\x81\xe77y\'\xaa\xed\x05\xa3\x14\xceU\xc6\xf9B\xdd\x9fP\x0b\x8d\xd7\xb5\xa3\xea\xa9?\x1a\xc6\x1b\xfa\xbb\xe5\xf2\xbc\xcb\xa7?oc\xb3\x01\xfc\xfc\x03c\xc8\xcc7\x83\x82\xad\xfd.v\x18\x84}\xa07\xf2\x9d/\xf4\xaf\xe1@0\x93\xe3\xce\xf3\xbe\x87\xd3\xe1\xcc\xce\xf5\x10\x86G;\x9d\xa0i\x14\xc7\xe7\xb4\x8b\xb1{\xa1\x8e\x83_!\x15O\xbc\xea\xf4\xdb\xaf#e\x9e4\xd0T\x1f"\xfd\x0f\x86l\xbe\x83\x98~x+\xae\x8c\xf8\xaes\xaeS\xc3S\xb2J\x03\xc9\xb9\xd1\x87\xce\x1el\x94f\x81\x9bn\xe7\xfd\xc5%\xa9\xfd&gt;X\x8f\x9d\xbe\xae\xf9\xba\xaf}\x90t\xdc\x94,\x9bu\xc2\x14\xcb-\x02\xe1E -1\xd4\xd8W\x958x0\xe3\x91e\x95I\xa0_\xa9M\r\xe9\xdfO\xe9\xe2\x0cx-\x88jD\x0c\xae\x9f\x9bN\xde+%\xe1M*\x90\x16\xb0\xd5\x92\x13\rr\xd0\xa1\xe9\x95nL\rUN\xa7\x9b\xb1kB?8\xc4\xdd\x07\x94\xcd\xeb\xc9VM\x9c\xe7S\x93W\x94\x85\x89s\xbc\xf0\x96\x16\xf4i#I\x9d\x12E\xc2B\x8b\x0b\x03\tR\xbe\xd0\x9c\x85w\xde!\xb0Z\xa8\xd7\xd4=\xb2\xc2\x88\x03k\xc7 \xac\xc2\xd2T$\xc4\xb7N\x87p\x18\x02\xfd\xf72\x1da\xaeUs\xdb\xb3\x93\x16\xa1\xa0\xfc\xff\x00\xa5:\x00mk3\xb9\x9e[u\x8b\x0f\x99\xee\xe4W+\x13\xf85\xc6\xf9\xa7\xeao\x9c\xb7\xe3\xd7\xa9\x97(\xe2\xca\xd0\xf1~xg@\xc8\xd7\xfb\x1c\xcf\xd2S\xb9\xfd\xcb\xab\xc9x\xf4\x8fe\xd5\xef\x8e\xfe\xc4\xf9\x92\xeb\r9W\xd0\xfc\xff\x00~\x04\xad{ \xc9\xa1\xc2\x82\xe5e\xd2B\xb1p\xa7\xb17\xca\xdd\xc3/\xeb\xf3\x00\xaa\\\xea=\x1e\xd9\x9b\x05\xe5n\xfa /\xcd(\xd0\xa2\x1aV\x19p\xe8\xe3\xfa\x00uV\xb3\x8fF}@\x80\x9e\xdf*\xe9\xb6\xfc\xbb}F\x8da\x01\xde\xcd\xa6\xadS\xd71\xady?L\xde\xccB\xf4y[_\xccV&lt;\x86\x8b\xec\xb9?9h\xe46L6\xc4\x06\xac\xa56\xe1F\xb5\xdf\x99K\xa0PA\xd8\x00\x03%!j\xb8\xba\xed\x96\xba\xf4\xfd\x05:&lt;\xee\xa6\x106J\xf5\x9f;&gt;}\xae\xdd\xf3\xe3\xb9m3\x1e\xeeH2\xa1HbH\x88\xf5\xd4Fd.\xa1\x92\xecul\xfa\x04v^5\'\xf4\x18,\x8e\xa6U\xac\xd0\x04\x19\xc7\xb9\x1e\xf7\xb2\xe9\xe2\xd3\xd1/{\x9d\x02\xc1\x9fe\xd8.&lt;\xd3\x97\t\xc4\x90\xd8\x1b9\xa6\xa3\x9c\xb1Q\xb9\xde1K\xd3\xb3\r!N\\\x98\x8bS\xa5\x85\xb2Un\xae\x13GM\x03\xdb"\x02*\x15\xf3\x07\xd18\x8e\x97\xb7.\x82@\xe1\x00\xb18\xb7\xd2Au\xe2\xc8/\xb5m\xc0\x19\x8b\xdfq\x9d\x93\xc3\xfa\xc5\xbf\x1aVV\xb9\x85\xefXgK\x16\xa1\x80}_\xf1\xdfW1!\xe9\x84\xa6\xc6\xa3\xdf\xb3\xfe\x8e\x0f\xba\xb4,\xa3q\xed\xf1l.\xc3\x91\x97C\x98^\xdb\x9aU\xfc}\xf4\x1e\x13\xf5\xff\x00#\xa7(Z*\x9c\x9d\xf9\xba\xce\xd1\xf1\xf4\xac\xf4\xab%p\xd7\xa8f\x97\xbc\xc7\xbf\xc2\x95-\xd2\xa0\xdcj\xcf#A\xe7\xf42\xa966\x99U\x92-\x03\xd7\x8f\xe9\x8f\x90\xb7Q$8"4\xcc\xcf\xa9\xcd\xf5\xd6\x97\xa5\t5a\xa2\xd9\x93\xa2\xc1\x93\xec\xd8\xe0\x16\xb8\xd8\x82]\xbe$\xea\xe9\x01\x15{o\xd1\xd8\x8d\xc1v\x8a\x1d\x808\xda)\x16\xaa\rV\xa1\xe8r\xaa\xd9\xafX*\xa0\xc2\x9d\x858\xaaMf\xc7\\j\xbe\x8eM\x7f\xe6\xfd\xb9\xfe\x89\xd11=\xa8+\x16\xce\xb6\xcb\xe4?\x96\xe7}\x16U,\xf9\xac\'\xd3X;\xc3\x14v\xc2&lt;\xc6E\x932\x1e7x\xb6\xe0\xf3T\xef\xa2\x19&gt;7.\x86W\x18=Y\xea\xf2\xb8\x97#\x8a\xe0\x9f\x14\x95\x01s\xca\xe0\x96\x12\xbez\x0f\x9f\x8c\xf5\xc2\x9eL\x81(\x94\xdbh;\x1a\x9f\xb8\xad\x19\xfd}\xa1[\x14\xc3Ki\xd5h-\\&gt;*\xa1\x82a\xcf\r\xcf\xb2S\xbe\xa1]\xfcg\xa5\xd2\xcb\'\x7f~\x96\xc4\xb4\x14\xbfC=G\xd1;\xfeS\x05\x8db\xc4\xd2\xe8;\xff\x00\xcb_Vy\x9e\xfd&amp;\xe2J\x9a\x96\\q\xed\x1a\xae\x86\xec\xbf\x1e\xfdS\xf3\xe7\xa2\xe5\xe7\xcc\xf5\nr\xa9\x97Z\xd6\x84}\'\xf4\x8f\xca\xdfju\xf8\xd0&amp;\xc2\x17R\xcd]\x1dZ\xba\xf8\xeb\xebO\x8fo\x98:\x13/\x98=\xa76\xab\xb0\x1aU\xa7\x95\xd3\xb3\x0e\x9a\xbev\xb9\x15\xf2\x05\xfd\'\x9e\xae\\\xf3\xc8"\xc9:.]\xa3\xf9\xfe\xea\x86]\x14\x9b\xcf\xb0\xcf\xa6~d\xeer\xed6\x9a\x15\xf3\xa3\x97\xb8_\xd1\x9f;\xea\xc4\xc3\xf0\xdb~sg\xe9\x1a\xaa_r\xc7\xb5\xdc\x97&amp;\xbb\x95\x82\xb8C\xbb\xc41]\x94b\xac\xad\x8e\xab|A\x03()\xd2\x88\xaa_\x98\xa9`tK\xa4\xb8u\xcb\xac\x1a(\x96\x00\xb6\x12\x1eRm\xd4\x86\x06\xb7E\xdd\x8d99\x86\xa9\x08\x92\xef%\xbb\xd6\x8e+G\xc4p\x0eI\xeb\xf3\xa8\xf14I\x1aQ\x99+PSW\x98\xbf\xa4\xf1\xa1\x98\xc2\xb4Vx\xbdm\x86\xafd\x81\xcb\xe9Gz@I,6\x8a\xbd\xa5\x0fG\xbd\xc0./\x8a\x03\xf2W\xc1\xbc-\x0bM\xd7\xb8\x88wVY\xb0%\x89\x0e\x89?\xd5y\x92\xd2\xadX\xfc`3\xc2w\xf7\x92\xe6mr\\\x8cN@\xd7ZE\xa6R\xf7\\.\xde\x9dlV-"YH\xda\xd91J\xb5i\x195\xef\xa5\xc8\xcd\xfea\xfa\x07\x0b\x03\xce&gt;\xa9\xf9+L\xe4\xf4\xee\xe0\x9a\xada\xda\xe6\xbf\xf3\xad\x86\x8bu\x17\x98n\x9d\x0c9\\\xbbE\x17\x99\xd0\x9b\x90[an\xcd\x07\xe8\xaf\x97~\x8d\xf4\x1e|\xff\x00 ;\xa1\x07\xc0\x92\x0e%\xf3V\xbd\x92\xee\xbcN\xdeak\xb75\xcf\xdb\x8a\xde)ED\xef\xa6iI\xe7lgF\xc34n\xbf(=/`\xf9\xb1\xa1\xba\x1f\xcd\x13\xce\xe8\xeau\xd0We\xc0Y\xa6\xd3\x88\xec\xcc{|\xf9&gt;\xeb\xd9\xe6\xee\xdf$\xfds\x8a\re1e\xcf\xd3\x98w\xd0Y\xbe\x8f\xce\xe9B\xc9\xb5|\xb2\x8bm\xd2q\xab\xa7k\x80)\xca\x89\xab zf[\xaff\xd5rn\xc99\xd9)t\xadc$1\x9c\x9fx\nX\xe2\x11.F!\x0c\xd5\xc6\xea\xb6\xea\xcbCg\xbb\x07\xb03&lt;"\xe2\x8b\xe7nhha\x11w\xcbd\x10G\xe8\x1e\x1co\xa7\xfbVQ\xe8&amp;\xd9A\xbc \x8a&lt;\xca\xa3r\xa8x\xbfa\xbd\xbfl\xd38\xbdl\x02\xc8oy \xf8\xfa}\xe2\x8f\x9fR}\xd4\xad\xab\xef\x92\xb2\xef9\xd0,!\xb8\xf1\x18\tm\x97\x08m\x84E\x14Y\xb44\xe56\x8a\xb2\x89\x90\xb5dG\xbd\xe94\x89\xf5[f]\x90\xcd\x019PqG\xde\x91\xc3\x94\xdb\x003E\xcf\x0c\xd8\\\xd9\xd7LKf,\xd0\xb4h\'\xfa\x1c\xaaG\xcd__`\xb6\xacB\xdb\x7f\xcc\xf8\xdd\xbb~qz\xa6\xf3\xf6\x80\xe1\xe8\xdaT\xff\x00\xd2_4_\xec4\xaa\xe0\xd8\x1c^\xa0)tY\xbdL\x00\xb6\xbcw\xea&gt;\xc7"\x85\xeb\xa7^\x8a\x8c]xJ]\xf3\xed\xe9Y\xb6][\xfd\x87"\x83\x8b}\xd3\xb6i\xd5_;h9\xb5\xcf\x16\x9c\xf2\xd1m\xca\xb6\xe2w3\xb9D\xdd\x9a\xc6\xfd\xba\xfb\x83O\xc9+\xfa\x1b-\xd6\xaa;\xbd\xe3\x96Z\xbedyV\xa5\xa2\xfc\xef|\x1b\xd5s\x91b(\xb4y\x19\xe3\x195^r\xa2#\xdc\x9b\xd5\xcf7-\xda\xe1\\ms\x10\xb3\xca~\x98\xf9\xc3\xeb\x07\xe4\x00T&lt;\xd2\xa6)\x1a\xb5&gt;;%.:vg\x16\x81\x12\x11\x89Cu;+\x82@#0\x0c6\x8b}\x1e\xe4\xb0`\xa0SJn5r\x10r\x9b\xf31\x81\x87\xbe\x81\xe1`9%\xddY \xb4I\x8b\xb8\x08\x9b\xe1&lt;\x82\x9fr\xa5x\xdfc\xf5\xb6\xc1\x83n\x19\xb5S\xf2\x13\xdf&gt;c}\xe2\xdf\x9d\xe8yu\xfb\x8a\xea_\xef{\x8b$)=\x02\xf9\xf9\x99\x0c\xb0\x10\xcb\xdc\xba8H\t\x01#`\x12\xcd\x10\x00v\xba\xa3\xf3s\xde\xf1\x01\xf3\xf5\x8b\xa2\xb4$\xce\x98\x08\xd5\xa1d\xb7\xaaD\x1a\xf1\xda\xe1\\\xdbt\xec\xe4\xf8]\x19t]\x16S:r\xeaU,\xd0Y/x\xf9+R\xa0\x9a\x83\x0c\xd3p\xaega\xfa\xbe\xc7C\xe6\xf4(\x12\xadI\xdd\x8e\xa8x\x9c\xe0*\xdc=&gt;PVR\x16\xe9+R\xa8?I|\xf1\xb7;?\x8cF"c6\xdf\x95k\nmS\xe7\xed\x9b,[.\xe3\'{&gt;\xcbN\x89\xf3\xcd\xe6\x84\xd0+\xa5&gt;,Er\xed\x9c\xe3\xde\x10\x0ca\xbd\x8eN\x8a\x12\xb6\xbdy/Z\x06\x15\xa1\xe6\xd0&amp;\x8f\xbdc\x99\xb4x\xe83\xc2s\xa7D\x9b\x9d\xcb{\xbd\x12SO\xa6\\6J\x0f`\xe8\x05s)]\xbe\x16\xbe(,\x06,\xa6\xf7\xf1}\xf4\xaf\xe9*\xee_hn^5\x83\x16\x07_\xd0\xf6U\x1as.\xbd\x84Y\x85\xd5\xf3\xdbC\xf3\xeet\xdb\xf63\x19\xf5F\x81C\xbe\x0exF\x86\x92Cs+\x10;\x0c?\x98\xacTKw\xa9\xf3d\x1f\xf3\x9a3\xb4\xc1h\x1d\x0e}^\x93e\xaf\xf9\xcfKQ\x82^\'+\xa9}\xdf\xb1\xdb\xc5\x9e{\x97\xd9\xe8\xe9+\xf5\xb3:;\x9bE\x9b\xb5\x96\x94\xcbbj\xcd\x81Y\x13]P\x15\x12,\xb0jt\xd9u\x84\xe8\xcdmU1\xab\x96\xc8@l o\xd24J\t\x03\x1eR\x1a\xa2\xbafE\xb6\r\xee\x19\x80\xda\xeb\x93`\x048r]b\xb3\xd0-8v\xb0\x9d a\x05\xb66\xb7\x8a\x83\xf4\x1ccs\xca\xac\x04V\xad\xb3Wt\xea\xce\x87\x96\xdc\xb4\xc1\xae1/N\tq\xa0\xa9\xb7*\xf9\x97\x16:~Sw\xcf\x89\x02H:\x8e\x8a\xa8V\x81\xe1,u\xf9q\x02k^\xb3\xba|\x82\xf0\xabH\xf9wP-\x97UNi\x00\xa8\xd4\xf5\x9f3\xd5\x81\x9a%h \x8c\xec\xb2\x81\x99R\xcb\xb2\x89O\xd8\xb2\x0fE\xe7^\x97\x0c\x9bP\xc18\xf2%\xe84\x89\xf33i\xad_.\xb7\xbc\xdar2zNn\x97\x12Ti\x1cn\xa3|\xec#\x1eB}\xa7\xaa5\x88\xb7\xd0^\xbb\xc9|\xdc\xb3ZI\x87\xc9\x9a\x953\\;\xbc\xe0;G\xcd\r\xc8\x98\x81\\\x17\xef\x19\x06\x90\xc3\x83$!P?\x83\xa0oA\xb7\xc7\xd0\x83u{5|Gp\xd0\xb3\xad\x19U\x00\x90\xa2\xa2Y\x1d\xe6\xb5g\xbb\xf9;C\xae\xe8\x1dnus\x00\xd1\xab9\xf6[\x08M\xb3\x90\xd1\xeb\xfa\x15\x08\n\x94\xd9\x98\x1c\x9e\xad\xacPf\xb2\xea,\x167\xacl\xa5\xeb\r,\xec\x8eV\xe1%\xd7\xd94\xa0Cz\xb3M\x0e\xaa\xabS4\xb3d\xdct6\xaf;F,\x9et\xa4\x9a\x9b\x8f3\xc3q\xab\x86B\xbd"\x92\xa4\x1a\xfb\xa5f\xb7\x8a\xb5k\x99\xce\x8b\x9a\xeet\xdbf\xa4\x8d\xd9y\xcd\x12\x1d,M0\xedw&gt;\x8dG.\xbbd\xaee\xd8H\xbf\tN\x17\x91\xd9\xef&lt;Je\x94\xbe\xcc\xb4\xa1\xb3\xc0\xc2\xfa\x039\xd13\xccZ\xacm\x02xB5\x98\x00\xc6\xa8\xcc\x80\xc4u\x04&lt;\xcbI\xa2\x1a\xec\xff\x00J`\xc41\xeb\xbd\\j\xd5\xdc\x8f\xd8E\xd0}\xc5\xddx\xca\x8b@\xe9\x80(2\xea}\x1c\x8cy\x98\x8f\xcdo\xb8\xe6\xc6\\\x814\xf3\x00\xf5c\x90TQI&lt;\xa6\xdc\xab\\\xb1r.[-\x15\xc9\xec\x1d\xcb;\xb9\xe6\x02}\x97\x8dN\xe2u\xf7\x06+\xa7\xf9\xdd\x08\xac:\xd1U\xdb^\xc4\xbe\xc7\xf5~O\xe4\x9d\x82\x85\xf4[\xd3\xf2\xc18\x16W\xa0\xa7\xca\x7f~|r\xb6f\xaelt\xb2\x81\xb4\xaa&amp;\xa4S\x17\xd5)tu8\xa4\x01\x12\xda\xad~\xe1\x84\xed\x977-+/\xd4r0aH\x13\xc0\xb3\xab2W\x0b\xe5\x8bevoc\x9b\x9f\xac\xed#6\xdd5\xdb\x8d\t\xa9H#\n\xc1\xb8\x90J]\x0b\x9b\xd1\xd8\xebA\xacr\t-a\x02\xd4\x8c#a\xce\xf2\xeb\x8a2\xdb\xa8/NSv\xbb1i\xa7N/\x9e\x92f\x00%W\xc9\xba\xe7\x9ci\x95\xe2\x873\x92\xbdn`\xca\xef\x1b\x9c\x1b\xe8\xac\xb9&lt;i\xe6\x9a\xbf\\)\x87\x00\xf4\xab.WiMoZ\xf7\xcd\'Q\xae\xe9/%\xcf\x8d\x7fG\xb9\x93XP\xfb\xfe\tc\rop\xcd*m\x8eo\xa6\x86\xb4\x1e|\xec\x8cQ\xda\x128q\x08\x8bn\xae\xc5.\xef\x9d\x99\xb9\xf6\x96\xf4\xc3\x1epxU\x8fc\xc7\x0b\xc6L\x9fA\xd2\x01\x82\xeb\x16j\x9c+MP\xee$\xfc\xf7@\xe7[%!\x9bdJ*\x14\xeb\xa9@fZ\xa9UMy\x0f\xb0x\x03\x16\xf0i\x90\xec]=^\xb0Ta\xf6\x97 \xf2\x02\x8b]\x9eb\r\x90\xc6\xce\x16\x9d0\x1a\x04\xd0\xa89u\xdb\xf4LCM\xcd\xa2\xd1\x1eD.WD\xb6\xbd\x91\xcb\xf5~T\x8f\xd3\xdf\x18}\x0b\xaf\x1e\x7f\xa2P\xf4\x97\xa2\xedO\xb6Vd\xc4O|\xf7\xb7\xe6\xd5\x8b^\xa8\xc3\x8e\x98\xafq"O\xbf\x1eC\x01\xed\xef\x05\xdc\x8an\x9b\x07\xcf\x1fBdd"!\xcb\x81"\xa1s\xa5\xdd\xe0\xf5\x1be/\xa9\x86\xeeO96\x97\x96\xccd\xc7F\x82\xd9f\xc9\x8f\xf3\xb7\x83\\\xe9eG$\x8e$H\x87\xc3\x14\x0c\x1d?x\x1d\xd5\x87\xa9N\xacJ\xc9.u[@-yD\x19\xf7^\xaa\x85\x19\xc9\xdc\xce\xa5\xd5\xcc\xca\xda\xb6V/c\'\xc2\xa53q\xcb7r\xcb\x85\x9fi \xcccY\xebNK.\xb3\xd2\x1b\xac\x82\xf6\xaewD&gt;\xdf\x9d\xd3\tZun\xae\x05\xe9\xdf\xf1+\xa63\x9fU\xb8\xb5\x19t[\xbcO\x9c%\x9a\xf5\xb35\xbd\xd7\x9f\xb7(\xad\xebAj\xf3h\xff\x00E\xb83\r\xb4Z\xe8\xfa\x80\xb8\x964a\x83\xab\xd7\xa79[\xb3\xfc\xafu\xcdv\x04\x8b$\x11\x1b\xb9\xd6\xaa\xdb4\xd2\xbdo\x00\xda)\x94N\x0e\x93M0\xbfA\x1e\xdc\xbbM\x8b$\xd0\x16A\xd0:qU\xc3\'\xd7*Z\xb3Q\xc6\xcf\x87\xaf\x02OW\xcdJq\xd6;$#b_\x96NH\xae\xc9gI\xd8\xb6\xaa\x15d\xc8\x85i^\xb7\x9c}\x07\x9bKC\xcaD\xe2\xf6O2b\xbb\xea\xfc\xb1\xad\x0e\x89\'\xa1\xcf\xbcX\xb0\xedU\xe8\xb3U3\x1c\xe1l\x13\xa9\xd16\x1b\xba6_f\xa7f\xd2\x13\xc9\xe8\x94\x89\x11\x9e0!\xf4\x06%\xf41\r\xb7{\xc1\xf7\x8c\xaf\x14Xy\x05Z\xb3M.\x8cE\xf3\x90\x1c\xec\xff\x00k\x9d7\xd6\x99\x18\xf5U\x14$\xf6-g"\x15\xbec\xd7]\xc7,\x99\xec\xa3\xca\xd1\xb3\x02\t\xb4\xbbu\x17\x07Df\xff\x00\x98\xeaBT+\xbek\xa7\xe7l\xfa\x94\xaav\xcc\x97V\xe9\xeeh@(W\xfa\xd6\r\xefYk7\x05h\xad^\xc4\xda\xa5B\xf9\xefa\xa6h\xcc8\xa8\xd7\x18\x8e\xe7\xba\xc6P\xe4\xc4\xef=\xa3.\xa5\xbb\xfc\xcf\xb7\xf2=\x16\xf7\xf1\xc6\xfd\x88\xbb\x9c\xde[:\x07G\x9f\xa6V\x07HS\xed&gt;\xa4\xda:\x98Vf\x97\x05\x81\xb8\xd9\xbets\x89\xd5\xd9\xee\xb9\xd2y[7\xca\xd5K:*\xfa\xbb\xe6\x1f\xa1rxX\x16\xd3P\xbfg\xd7\xa7\xc6\xae`\xcbN\x85m\xcc\xf7\x05i\xac\x91!;3\xe3|\xc4\xe8\xce\xe7+F\x80\xdde\xd5\x1e*J\xb5\x1e\xae\x1d\x8bv\xf9D\x89\n&lt;b\x06\xcdL\xf9\xf9\xd2\xa4\xd8\x97r\x9f\xa2\xf2\x16+=.\x10\xce\xccO\xb6\xb6\xa4jx\xb9\x92\x11\x86\xfbUz\xe5\x9f\x16\xb2g\xd3Y\xa7\xe8\xf1\x98\x00\xf5@&amp;\xeeNX\xb5g\xd3\xa1\x00\xb1#\xab\xca\xbe\xda\xc2\x93\xe8s\xeb\x17\xec\xf6\xfbk*\x10\xc4F\x07\xcf\xe7-5%\xb7 \xce\xfe\x8b\xc0r\xeb\x02\xb6\xd6\xb3~DwX\x17m\xcb\x10\xda\xca\xae\xbb\xe6\x01\xf4\x06G\xc1\x92\xc3\xe1\x1c\xa3^h\xe5\x7f%\xda\xea\x9a\x07K\x1e3\xa5BiM\xaa\xd9)\xd7\xec\x1ba\xe7\x9a\x16+\x9bL\x88\xb2G\xbf&gt;\x9bH"\xc2\xcc\xe5\x1a\xdbi\xe6\xf5d!\x1c\xc8\xf0:\x06ux\xd3\x9c&gt;}|\xaa\xac\xc3\x95\xae\x18\xdd\x93P\x11c\xc8\xf9\xbd\x16-\xf0*\x0f\r\xa98\xc1\xd1\x96\xa8\x03I\x0b+\x01\xec\xc16\xf3)\xee?\x1fNx\xa9q\xa2Q\xfb\x95\x0e\xf1\x97\xaba\x182Ju\x8d\x9f\'m.V[\x92}\xad\xf2\xe1\x05*P\xf2\x1d|e\xe2\xc9\xf6\xd1\x83\xc9\xf0r\x9e\xec\xcepW\xce\xf4\xacRj\xc8p\xefY\r\xae\xb6\x97\xe76(\xb4\xd6\xd6\xc5Wp\x18\x86\xc1_\xa0V\x85\x9f@\xe759\x0eD\xd5\xcc\xab\x83\x9c\x82\xc9v\xaat8P\x84\x8bY\xa8\xbd\x94L\xd5x\xa8\x11}\xa3!\x98a\xab\xb0\xebE@\xf2\xdd"\x89c\x92\x19\x0c_v\x17x\xaeTv\x04\xa6d!\xd6\x93V\xf5\xc2\x99a\x13\xb2\x8a~b\xdd\x01\xf7g\x18\xba&amp;\xd9\x95\xb06]\x17\x14\xdb\xb7`8M\x89\xba\xb2F\xb0f\x16\xa8\x17\x17#Jz\xa8t\x0bU\x0f6\x97p-z\xa9w\x94\xb8\x8e\xe3\xd6\xf4\xa8\xd2\xda\x1b&amp;\x85x\xaf5$&gt;\x86\xc3\xf7\x0c\x1a\xe0L\x859g\xdaU\xda\xa2U\xf1\x9e\x9d\x8ci\xdd\x0c\xd5\xb8\xa1\xe9\xeb3\xba\xb6E\xb2`\xdd\\\xc66,\x83&gt;\x87\xc6\x13\x17\xab%\xa9\x99\xe3\x10\xd7\xb4\x9c\x9eo;\xa7&amp;\xe3\x9ehHm3\xe8\x0f\x9fo\xfaQ\xca\x9c\x88\xb9\x9fP1\x05\x9d\xf8\xac\x03\x0f\xe6\xe6\x1aq\x1cj*\x9b\xa5Q\xc6\xf5\x81h\xbcd\xae-\x9a1|k\x83\xab[\xcaI\nv8\x11\xe4\xc6\xd1\x81V\xda\x85\xb8\x19t\xd3\xf1S\\\xde\x97\xd5E&gt;V\x99\xca\xbd\xc3\na;\x02\x9d.\xb8?\xd0s\xc8\xc60A\x81T$k\xcd\x1a\xbd\xe01\xac\x1al\xe73R\x9c\xcd\xf7\xba\x8c\xa1\x00\xc1\x86\x13g\xd7\x92\xb2\xa0v%hhm\xaa \x10\x05XV6\x0f6\xd1\x85\xb9y\x94\xa9\x82:&lt;\x99\xa8c\xd7/\xf5\x98Q\x16\xc9.\xc2t\xc3e\xab\x1d#\x87\xa1k\xb1`;3\xf3\x85\xa6\xb4\xc8\x96`E\x95\xed\xc3)\xd8\xeeH\x85\xaf\xd2\x95$a9l\x10\x16JK\x01\xbc\xf4\xb2\x9f|h\x04\xa3\x96z\xd998\xb5\xe3s\xecY\xc6\xfc\x1f`\xdd\xfe&amp;\xfa\xabn\x03\'r\x1bI\xafd\xf5R\xbc`\xe6\x7fu\xc6\xd6\xd2\x14\xab\x94]\n\xc8I\x03s\x1e\xc9g\xeb\xb7\xf7\'\xecJ5\x82\xb6\xfc\xf6\xbd\xb7\x0c\xdc\xf9\xfba\xcaa\xf4\xb5U\x8b=nO\x82\xecE~\xc6\xe9d\xfc\xf4\x99\xf5\xff\x00\xca\xb9\xf4\xce\xb8\xe5\x9a\x8e\x1d\x801\x8d\x8b\x1a[z\xa8\'\xf6`?[\x8d\x17&gt;\x87%\x89\xb0\xe7\xd8\xbd\x07;\xd0\xb0j\xa7\xd9\xabv\x90:\xd2\xcb\x86\x946\xbex7G\x0e\x99\x96n\x99EX?0VH5\xeb4\xa9t#rX!\xd3\x00X\x0er{t*\x87\xd2\x15\x04+\n\x8b*7\xa5\xf3\x9c$0\x8d\\\xa1\xf7\xa5\xa3UR\xdea\xdc[m#l\xec\xf2\xb7\x80E\xa1\'x\xcc\xedb\xbd\xb7%*m\x80\xc9L\xad\xfd,\x80X\x88\xd2X\xa2`\xc3\xc8\x19\x9eM\xb2X\x1a\xbc\xfa-\x8d\xc7&amp;\xbaF\\\xf6/\x19\xda3f\x98\x9b\xed\x08^\xac\xb6f\xd4\xcdc\'\xd3\x97\xcaC\xce\xce\x94+\x92 \xa8\xa3\x82w\xdbu:\xd3\xcd\xea\xd1`\x9d\xaak\xc2DY!\x8dS\x10\x9e\x88\xd5\xcc[K!\xe7\x9f\xf4\x8c\xc9\x8e\xdc\x8b\xb0\xd7\x0f\xcb\x1e^#\x8bak\x00\xd9,\x96\xa6\xe6\xc4\xe1v{\x7f\xce\xf5\xbe\xa7/\xe3\x89\x7fR|\xc3\xd1\xe7}9r\xf97\xed\xdd9h\xd4\x8d\xac\x16=Y\xdd/L\xa6\x94\x85&amp;\xe1\t\xc9\xf9Q\xc6\xfa\xbd\x12\xee4\xdb\x13\x17\xf4\xa0\xe9cMw\xaf\xa1\xbea\xfa-W5u\xe6j\xed@b\x89\xab\xf9\x87\xed\xcf\x86~\xe1\xb2_\xc2\x1f_|\xf7\x93e\x1e\xea\xf7a\xe7\xb9^\x89\x9d%\xf0\x0b\x8c%\xb3\x9fX:\x0c\xfa^&amp;\xce"v]\x85n5\xcb\x1e\ru\x8bEv\xc6\xb6C\x14N\xbdP&lt;35\xfe\xaf;s\xc1w\x8c\xa2\xea\x8c\xebo\x0c*X\x04L\xfa-\x91\x02\xcd\x135t\xcc\x9dS\'\xc3S\x0cM^&lt;\xd8}&gt;kS\xa0\xf6V\x92\xf85\xe2\xe8\x1d\xb0\x891\x9d\xf3.\x99\xf4\x9c\xcf\xd3$\xe5gr\xe8&gt;:\xe0\xc9\x9e^\xbd&gt;\xb5\x02\x042\xb6G\xae\xbd\xd2\x95^\x88\x031e\xcf8\xefDc\xd5\xb6\xeaz\xbb:\xd2\xdc\xd0F\xdb\xf3\xdb\xcbD\x94N\xbf\xd4\xe6m\x93\xe8\x86\x94\xdc\xb0~\x95\x9b\xe8\xc6\xd3\xa9t\xd4\xd7fD\x91\x83`\x8a\tiDE\xcc\xe6u\xa3\xd1o\x14=9M\x88&amp;/FY\xb5\xcb\r0\xc4\xeb\xd5\xbe\x98X\xbb]\xec\x85\x1e\x10jN\x97\x1b\x1c\xa1\x17+E\xa5Yd\xa6;GG\x8a\x9c\xdf\x06\xfb\xee\xcf\xf3\x0f\xd1L\xcfn\x92&lt;\xdfw\x81\x8cJ\xdb1&lt;]/\xa2\'\xfck\xf6\x05XH\x96\xdbI\'\xe7Z\xc6\x91Km|\xa1\xe53\x97T\xe3\xc1Zj\xfe\xf5\xaa\x9c\xaa\xec\xc9r9^$k7b\xce\xfa3Y\xaf\x0c\x1f\x9d\xdf4\xfd\xad\xf1\x0f\xd9\xb0\xa5\xa6?\xa5gy}\xba\x9b\xcb\xebf\xb9\xfd\x8e\xa0.t\x9dR\xc1\xa7\x1dv\xc2\x0e\xc0\x8d\x04\x06\x9f\xaed\xd9j\xb0\xd3\xadY\\"\xc5\\6\x96\xc0\xab\xc9wVp\xd1\x87\x16\xd7\x97g\xa9\xda\xa3\x89`LZ\x93(\x12\r\xb2$;\x8e&amp;\xea\x04\xb8O\x10\x9aXN\x894&lt;\xb0\x97gc\xde\xf1\x85\x94\xcdn\xef\x93m\x93\xa1\xe8Jm\xeeM\x0c\x85\xd5\xed4\x9e\xa5\xf7\xab\x96&lt;Em\xd7\xc3d\xb2\x97\xa3\xe8G\xf0\xb3{\x17i~\xbd77I\xc8\x1a.S\x91\x83+\x91\xee\xbb5\x01\xbf\xb5q?;P\xc6\xf4\n\xe3\xf2\xd5E\xdf(Z\xb0\xe9|f02-*\xdfPb\x11\xdf-\x8aiND\x95\xc9qeI\xa4N\x1b7\x99\xd6M\x17D\xcd\xdd\x9c\xe0\x92\x11\xb5e\xf5r\xc22\xc47;\xe6/\xbd\xf7dY\xe0{\xd5\x15\x06\xaf\xf4\x0e\x0bw,\x94"\xfa\x14\xcc\xde8\xe5\xe8\x1a\x06k\xf4R\xcf8\x9b\xa1\xce\xce\xcaM\xe1\xf9\xfbq6E1\x1a\xaf\x9c&gt;\x82\x9eAO\x92\xf5J[R\xee}n\xa1\x0c\xf8\x97\x9d\xe6M\xb2\xdb\xf3f?p\x84\xcdmZ\xf2\xe8\x890)\xa9jXIR\xeeA\xe2B\x95\x86\xfdO\xf2w\xd4\x14Ge\xd6&lt;an\xa1Oyg\x87|\xeb\xf7?\xc2Xw\xc3\xf3\xcd-\x8c\xdc\xaa\xf7,\xba\xa4W\x9b\x16\xb33e\xab\xdd\xd2\xf5x;\xf9\xddH\xd2iD\xf7b\x05&lt;t\xbb\x9b:\xd9x\x0b\x15\x8fd\xaaA\x97\xd8\xb0\xaa\xca\x80m\x96\xa7\xbcI"\xa8\xc7=\x15\x1b\x10\x04\xe0&amp;)\xaeu-\xcaj\xd9C+\x9bc\t&amp;\xf0j\x10s\x96yT\xd9\xaaiZ\x96\xca\xc8Q\xf6lE\x89Gqj\x91\xb3`\xdc\x02\xbag$\x04\x97R\xcbu\x11\x16\xf9Z\xd5\x08\xe5\r\x9c\xd6\xbb\x01\xe6\xaf\xd9\xbe\x85En{w`\xf4\x18\x8a\xa5\xb6\x9c\xc4*Dg\x98\xae\xb1:\x15D\xbe\x95]]\n\x80=\x83\xa6S1\xd3\xb3\xd6)s\x04\x9f\xd3\x90\x1f\x99\xec\xaa\xf7\x89\x0ej\xf8\xb4.G\xbe\x89\xf9\xe3\xea\xf5\xb2\'\xce\xbfr\xfc\x7f\x08]\x82\xb0{nR\x91-\x00\xb4(\xcf\xd2\x9f8\xfd\x0b\x9d\xa4f\x03\x9a\x931.\xbf\'Fs\xf2+]`[\x1f\x01(\xa9\xd8lT*\\(\x06jr\xfe;jT&lt;\x9a\xe60\xb6\x8c7\x1d\x835\xd9\xba&lt;\xee\x81\xda)K*g_\xb3\x10\xd6\x83h\x90E\x9f\'}S\x8b\xfd\x17V4\xad75\xa9\xf4\x99Lob\x0b\xad\xfe{\xfd\xf9\xf0\nt%\xa7\xe3S\t\xd8\x05\x12\xc1\xbe\x10\x83"\xa4Qpm\xd5\x1dX\xe6\xa5\xdckw\xc2\xba\x11\x97\x8d\xb1\x81C\xb6\xa7\xa3\xba\r\xa9fz\xee\x1aJ_\x1ap\xd4\xc9)\x1dN\xc90\x92\xea\xf4!\xc7\xa2Q:\x04\xe0\xa6\xe6\x84\xdb\xcd\xbf\x07\x8e\x04\xb0\'_\x16\xf3\xd9\xfa1W*`\x98\xc7\xe6\xb5D\xeb\xad(I\x99-?.?^fS\x04Xr\x8b\x82\x8c\x08\xbe\x85\xf4k\x93\xaf\x99k\xa5\xe8\xb9\xbb9\xc8\x0eZ\x03C\xd4\xfb=y\x88rx\xa2\x95\x18\xac\x92\x18jD\xa8\x8f\x98O\x88\xfbbH\xf2zCe\xb1V,x\xba\x07\xb3-\x0e\x89b:\xcdU=\xab\x18\xc2\x0c\xc9\xba\n\x14\xe8#\x1e-\x0eX\xcb\xdc\xf3\xbf\xa8\xd1\xa0`=j\n\xd9\xf1I{]\x0fv;\xd1\xdae\xd7Z\nj\xb5\x13|\xbd\xf3%\x87\x9c\xb3!4,\xbd9\x88Dn+\x02\xc0N\xbcI\xcaUB\xc1\\\x03\x98\x08\x8dZO\x978\x8e\xd5\xbc\x84\xf8\xab\xea=s/\xd6\xfa\xdc\x9bd\'\xe4\r\xfc\xcb\xa4g\x98\xe24\xeca\x87\xed\xcc^[l\xd7-\x969b5\xa7T\xdf\x8d\xb3\xaf\xd0z\xc2]\xf2\x0eY\xf4\'\xcf\x8aw\xa3\x10\x80ceyM\xf3:\x8c\x8b\'\nTt9\xcb\x19,\x1e\x06\xd5mi(!\xea\xa5\xd2\xf4\x8c\xd76\x9d\xa9\xc6\x1dC[\xf9\xfb\xe8lQ\x8a\xaa\x9a\x1eXM\xb4\xf1j\xd6\xfa\xb8\xc8\xb3\x8fy\xd9|\x0cxA$J}\xdd\\\xee\x16\x13-n9!\x89\xf9z|\x9c9\xc5\xbb\x88.6[\x9c\x93\x1a\xaf\xab\x9d\x06G"\xf6U\xc6\xbc\xcb\x95d\x00\x9d\x0f[\x0c\xd8\xc3\xd9\xdb\xc8\xb8fZ\x96a\x11\xe6\xa6\xf1\xa1^\xaf\xd9\x811 \xec\x15\x8bM\x85xa\x81\x06\xa6\xddiF\x13\xd8u\x81.y\xcf]\x15\xb7\xd3.X\xf7K\nW\xc0\xcc\xe0\xd0B\xfby\xf3\xe1\xcf\x19t\x8a\xd5\xb2\xa6C\xe5\xa1\xc2\x1d\xdb\xe9O\x9e\xef\xe9\xd4X&lt;\x87\xb1i\x8d\x80\xfd\x13\x89\xe9E&amp;\xe3H9\xd1\xc1\xb9\x99\xcd\xb4L;^z\x14\x9c\xcevb_\xd5\x99Iq\xb6\xac\x8c\x98\x13\xda\xb8\xd4\xeb==g\x1c!\x8c\xf8\x0f\x16W\x9d\xd0\x96{:$\x9fLm\x19\x06\x8f\xbb\x16\x82j\x96{Fy\xd4\xfb+\xd2\xbee\xc6\xff\x00@*y\xb5|e\xf4uS\x1fK~\xe9)\xf9\xe7\xb7\xe8\xcf\xf5\x0fi$\x1a\xbc_\xe5\xddo.\xe7\xefp]\x82\xbc\xe1\xb8\xc1*\x1f\x8d\xd7K\x0fz\xc4{\x8aU\xcbmN\xf7]\xd3\x9f_\xabYi\xacP\xaaU\xf6\x99\x97^\xa7,q\x05\x1a\xf3\x8d"\xb0C\x89\x90\x1aR\xed\xa7\xd8\x92\x0eZ\xd4\x85\xbaJU\xd1g\xa2\xcb\x8daXZ\xdb\xd7\xcb\xeb\xac\xf6\xae\xd2\xb8\x8f\xe4\xea\xcb[j[\x9dB\xd5F\xa5*-\\\x84uu=\x10\x90\xe2\xa7\x9f\x16VI\x10%:\xbdH\xd42=\xcd\xbc\xd99V\xaf\x97^{\x15T\xf5q\x80\xba\xd5\xaa\xae\xc5Sm\xd4\xebs\x14\xc5b\xe3Q\x1b\x8c\xb4\xf9\xf9\xc8F\x93\x0cJR\x1cEIwZE\xe36\xb7\xc8\x0c8\x8dX\xe1H\xcb\xe8r\xca\xb3\xe7\xa4j\x04\x97\x0cj\x8e4\xe9\x0e\xe9\xafd\xbb\x06-\xad\xb8\xef\x92\xc8\xbf5\xfd\x15\xf2\xf6\xcc\xd2\xdb 3vK\xc6\xc1\xf3\xb6\xd6\x07g\x91!\x1c\xbd\xef\xadr4\xa1\x96\t0@\xa2\xb0L9U\x8a\xa5\xca\xa8\xa6gt\x02\x12\xeeR\x19\xd9\xee\xad]*\xc7jzSe\xdb\x95\xa5\x06lu\xab\x0e\xac\xd2dBq\x80F;#\xc0\xc6=\x16\xce\xb6`\xb9O\xda\x02\xd4\xcf\x88;\xf5c\x17&gt;c\xb2}\'\x1eW\xce{\xaf\xcfv\x8b\xb0\x02\xddw\x85\xdc\x13\xeb[\xedU\x05\x87$\xd5\xd9\x89V\xb4=\xb8\xd9\x1e\x07H!\xc8\xc0\xbd?&amp;\xcbu\x86\x85|Y\xb8\xc4\x85\x10\xfc\xcae) \x8f)\xa5\x83\xd6\xf4Y@\xd9\xa9i\xd5\xb9-?\xe9U\xe8%\xc4k\xe6w\xde\xec\x03DC\x99\xcd\xd3\xec\xe8\xae\xabB\xde\x1e\xe8\x9b\xe9m\xea$;\xde\xcaa\x87\x17"\xf8\x81\xa6\xbb\x8ch3\xd3\xaa\xaf\xbd`\xb6\xad86l\xe74\x9fy\xed(\xa8Z\x18\xa2\xd5+uJU6\xc6\x10\x83Pz\x9dr\xac\xa1\xe1\x93\xdek\xc4J\x1c\xc8"S\x90\xb4\xd4]\xe2\x89|\xcf\xaaA\xa0\'s\xeb\xce\x87\x1b\x03\xb7\x9eRT\x15\x901\x0c\xc0c\x00\xee\xb4\xe1\x86\xdb\xb5\xe1;f\r\xd2\xb8\xc7T\xc1\xdf8}1\xf3\x06\xec\xb6\xb9\xce\x19\xd0\x9c\xb3R\xcc/\x1aQ\xb5\xf4l\x8e\x0f\\\x94\xd1O\xb5D9\x15\xc6\xac\xb4\xf0\xcaj\xa1\xc2y+l.\xcd\xec\x81\x9fO\x06\xe5\xbb\r\xf6\t9\xf1\xe7\xe9\xcf4\xc8\x92\xdbr\xbc\xf47\x9a\xb2\x11\x9d\x1c\x05\x02\xcfV,\x04U\xa1\xb2\x8a"$\x81\xb2\x9b\xc3\x1f\xd8\x84\xa8\xf9v\xe1\x16\xeb\x13n\xd0eM\x13\xc80n\x08\x15\xb5\xddT\xc0Whr\xfa\\\xeajo92\x9d\xf31\xc1\xc4x\x9d\xa5j\x19N\xa2-\x9c\xb4*\xd5\x8dW4&lt;\xd4\x86J8\xa0\xd1%\xe8\x8e-\xae\xc8jx2#2b\\\x82$\xf0-\x1c\xff\x00s\xa94\xcf\xb1\xd5\x0f\xe7\xdd5&gt;\xf26\x90a\xb4U\xca\x99\x1b\x82o\xc4Sr\xd7\xd4"\xc5\xf1\xd2\xe3\x12\xe0[(\xd6[\xa7\x0c\xc7bXd\x10\x18\xfcQ\xed\x95;\x01*\xc4\x14\xd8\xea\x94\xb4\xcb\x18\xcc\xf70\xa5\xc7d\xd7R\xe2\xfd\xbf\x9f&gt;\x0c\xc8\xa2R\xd2\x95\xd5\xb7{\xa2]\xd3\xa2I!\xa4\xb2\xeb\xa9\xd7\xac\x15\xdd\xb8\t\xc4\x93\x0c\x80\xe8\x99\xf0\x8c\x00\xa4\xf0\x13\x1d\xa3_\xc8u\x1ev\xf9\xbc\x8b%Lg\xe6m\xd7\xe7Mh\xd3\xf5\x0f\x9a&gt;\x98\x02\xf9\xe2\xd9.\xb3\xd2\xc1\xb4Xsm#\x16\xb9P\xe59\x99\xb9g\x92\xdfO\x05\xda\xb9i\x8e6\x0fQ\xc8-\x92\xee\xac\xf2&amp;]-3\x15\x940\x9c\x80\xef\x15Z\'\xd6\x08k\xcfj+W)\xb7!\xa9Ae\xbdEbp}[\x04k\xa5\xd4\xc2pX\x86TC\x1a\xb6QF\xf4\xeb \x17^\x91\x11\xc2&amp;K%\x16B(\xad\xdd\xab\x17\x95^\xad\xe8\x9d\x03t\xc6L$\x87s\xc7ly\x82\xdbJ\xbc\x0b\x1f\xcd\xe9=\xa1\xd4\x8a\x0b\xaeJJ\xc9\x15\xacK\xe8\xaf\x9e\n\xa4#\xa9[\xe5q\n\xa3\x93,\x11\xc0ckXY\x1a\x18I\x97\xe2\x1f\xeey\x99\x95b\xad\x1eV\xa3,\xfb\xb9:kR_\x91\xc40\xe0\x9c\xe4r \x93\xaaSD&lt;mnJ\xaaX\xeb\xc6\x9f\x94\xbbPd\xa7a\xfau\xde\xb8\xdc"d4\xcbSyG$\xc0\xa5WmT\xe6\xe6\xd0\x05\xce\x07\x93Xn/\x9bp\xc9a\xe4U\xa6DIr\xdb\xb7T\xec\ti\xe9\x11gd\xddT\x00XN\xde|\xe8\xcf\xb0BN\x1b\xd3\x08bV\xb4\xec\xc8\xabw\xd0h\xd6\xfeoA\xc6\xd9i-\x81\x8amt\xc7\x06gyj\x16\xb5\xed\x18E\xd6 \xaf\xdav%\xa0o\xc7\xa3O\x02O\x8f\xd1\xebe\xa4\xe8L\x02\xcc\xbe`\xb8RFU\xf2\x13\xd1\x12\xd8,%\xa4\xb5\xf5\xc7\x92T@\x80\xf9:\x10\\\xc5T\x9e\xec\xd6\'\x00\x94\xd3\x9c\x8cg"]V\xa5\xc6i-5,\t"\x92\xaa\xd6\xf7\x88@:\xc8:\x81\xdcx\xd9\x84Q\x97\x90\x865H\xe5^\xb0\xaf\x162\xf5\xc8O\x19\'s6\xc4&gt;\xbd\xf9C\x1e\xd2A\xcd\x80\xe7\xee$\xaa\x1d\x8a\xb5\xeb\xf2`\xcef\x14a\x9b\xbeY\n\x8b\xc5$\x1a\xef\x10\xe4\xb8v\x1a\xc9\xca\xb5\r%\x04O\x8d\xa9-\xce\x13\xa9S\xb1x\xa8\x99\xc0\xdb:\x92\xee\x1e\xc4g\xb8\xe4\xb4=\x14\xb5\x14_9\xd0c/Fp\x82+\xearJ\x85\x86\xb7d\xd1\x8do!I\xd6b\x0c\xe1\xa5\x98d"#]\x9a\xd4n\x9bw\xb5\xd4\xe8\xb7\xcaC\xb3\\@\xd8ky\xb4\xc4\xe7U\xa7/z\x95I\x1ap\xd2R \xb8\x97\x80\xee\x12\xe1I\xc7\xbe\x99\x15\xd6\xb6\xf3\xe5\xb2\xe3r(\xd0\x12\xf7[%6\xc6k6\xb5J\x1d#\x0e\xa7x\x9f\x01!\xa7\xe3\xd8\xb2.\xc4\xa6U}\xe2\xa3\x8c2z\xd6\x8f\x99\xf41\xeb:F\r\xbdHF@\xc94$\xe4\x87zI\xa2\x1e\x13-\xdeA\x86\x07&amp;&lt;\x08K3\x92*s\xeeZd\x84\x9c\xf5\x186\x00\xde\x84\x12\x9e\x18\x83\xd2@t\xd1\x14@\xe35\x033\xcc\xc9\x06\xfd\xc3R+\xa8\xba\xb5\x84\x8b\xea\xb1VJ\xb1\xea\xb2Bg\xd5\xda\xa4\xf4\x1b\x8fM\x8e@9\xafM\xac\xa5`\xde\x94{\xe7?\xa6\xb3\xac[3\xa0F\x18\xe4u\xa8\xf3\xe0\xfa\xba;\xe9*\xed\x84\xf9\x8eRn\xe2Hp&gt;u \xe7\xdcm\xea1E\x87\xcd\xb5\x91\x10f\xbc\x0fw\xa4\xa0\x1aA&amp;d7aK\xcc\xaa\xc6\xd5"\x01&lt;\x1d\xc50\xae\x89\xb8\xbf3)\xf7\x1d\xe09\x96\x9d~\xc6?\x1b\x97%@\xe8\xe7tc \xa9m#\\\xf6c\x18fj\xf5b\xd3^na\x16Z\xbd\x8bF\x13\x15\xb3C.Y+\x16Z\xd6],\xad\x0b~nu*\xb9\x0c\x84\t\xb2\x95\xe5r\x8a\xdf\x1e\xaf\rn3\t*4\xc8B\x93-\xb3!\xa7\xdd=* Iwr\x99\xb4\xa5\xb3_+\x86\x9aCvn\xd6\xc9d\xd2I\xd1\xca\x91\x15\xe3\xb5\xed\tM\n\xe0#nq\x9a\xe6[\xa1\xd3.r\x84I\xa5Or\x02\xae\xba:p\xca\xb6!\xbe&lt;I\xb8\xeah\nQ\x11d(\x8d8\xc4\xf6\x03\xc6D\x92z\x89\x92\x0cGBJ\x08\x9d\n\xea\x9f\x04\x84Lz\x93\xc44$\xf2\xa3(\t\xd4\xb7\xeb\x8d\xd9\x82\xd9X\xa9\x95\xab\x10f\x05B4\xc8\xc2fIV%=6y\xc1\tt1\xab\x14:\xc2\x18\x1em\x899tb\x1eW1z\rB\xed\x97\xe9%\xcf&amp;\x85\xf4\xd1\xf3\xd4+}4Z\xeb\xd1\xa6\xd3\x07;\xe8\x84\xa2\xd0f0\xb7\x10\x15=\xbb\x11p\t\x8cvD\xf7\xbe$\x95\xb2T\xec\xb9:\xbdJ\x9dV\x98\xeauR/\xbcP1\xc8\x8erR\xdb\xecK\xa8jk\xae\xcci\xbe\xa9:\xa4\xad\x97\xdf\x86-r\xcbVfpf\xc2\x15vI\x8bD8E\xa0qJk|RMh[n\xd8\xc3\x9b\x0e]\xc7\x92\xe3b\\\x80F\x05\x8c\xb5\xb4\xedG9\xeeBD\x88\xeb\x94n\xa5m\tt0\x83&gt;\xbbw\xb1\x97+OZ^\xc5\xb3\xcd\x14\xed\xc0~\xb43WY\xad\xe85\xc6\xaa\xab\xad\xe7\xf7\xe7$\xe1\x11\x93h\xa7%\xb6\xea\xd6:s@A\xe2\x15\x86\xb3\x1f\xc7Y\xab\xf2\xdbM\xc3\x84\xab\xe7X\x04\x8b\t&amp;\xc0)6\x0c\xcd\t\x9f\x0c\x88\xb2\x1a\xc4\x12\x021le\xb5\xf3;x\xd3\x91\xc6\xdf\\o]K*\r\xc6\r\xbc3\xd0\x9a\xb0\x91%A\x12p\xb8\x92\xafQH\xabN\x85g\x96\x03\xbd\x19\\\xe9\x01r\xb1\xceXg\xe2\xef\xc7\xd63\x1b\xc9c\xb2-\x87\x8f.}\x99nxE1\x12\xe2\xae\x8aHs\x02lK\xb2\xe2\x96\xff\x00{\xdc\x948i\xc0\xee\xc8\x8f{\xa6\x87O\xd7\x8d#if\x1d\x85\x9b\xa11\xd1\xfc %\xd1\xcf\x01\xa8d\xd8,K\xcf\xb8\xb9p\xd8\'\n\xc6z\xfd\xe5i\x96@A\x83\xcc:\xadq\xae\xea\xe7U{\xee\x9aV\x9fv\xe1G\x1ayNi\x0bM\x8b/\xc7\x92A\x0eC.\xc95\x97\x99\x12TIl]7&amp;\x14\xeb\x8aOyW\xcf{\xd2\x8d@q\xf9+\xe9OLU\xe4\xfaM9\xd8\xd30\xee\x9a\xa8\xee\x05\x97P\xf8\xe0d\xda\x86\xf4\x92\x0fU\xcc\x98\xda\x9eR\x</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495663-freno-del-consumo-en-comercios-minoristas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>En cuatro años creció la población que se atiende en hospitales públicos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7 de noviembre de 2022 - 21:11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Por la suba del empleo informal y de la cuota la medicina prepaga</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>El porcentaje de personas con obra social o prepaga disminuyó de 69,5 por ciento a 66 por ciento los últimos 4 años. Niños y adolescentes son las más desprotegidos.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cada año sube el porcentaje de personas que solo están cubiertas por el sistema público de salud mientras que bajan las que además poseen cobertura a través de obras sociales, empresas de medicina prepaga, mutuales o servicios de emergencia. El porcentaje de pacientes con obra social o prepaga disminuyó casi cuatro puntos entre el primer semestre del 2018 y 2022. Atribuyen la baja al aumento del empleo informal y del precio de la cuota de las prepagas. La mayoría, el 66 por ciento, sigue estando cubierta por obra social, prepaga, mutual o servicio de emergencia, mientras que el 33,9 por ciento solo posee cobertura médica a través del sistema público, lo que equivale a 9, 9 millones de personas. Los datos surgen del informe sobre Condiciones de vida de la población que publica semestralmente el Indec.  De acuerdo con el informe en la primera mitad de 2018, el 69,5 por ciento de la población tenía obra social, prepaga, mutual o servicio de emergencia, porcentaje que descendió al 66 por ciento. En cambio, la porción de personas que solo tienen cobertura del sistema público aumentó del 30,2 por ciento al 33,9 por ciento.Este proceso fue continuo desde el 2018, con un descenso más pronunciado de la cobertura médica de obras sociales o prepagas durante la pandemia, hecho que puso mayor tensión en el sistema público, por el fuerte incremento de la demanda de prestaciones. Con el levantamiento de las restricciones de la cuarentena, descendió al 31,1 por ciento los que sólo se atienden en el hospital público, para crecer al 33,9 por ciento en la primera mitad de 2022 por el avance de la informalidad y el descenso del ingreso de la población en relación con los valores de las cuotas de la medicina privada.Si se lo analiza por sexo, el porcentaje de mujeres que cuenta únicamente con cobertura pública del sistema de salud es del 32,6 por ciento y del 35,2 por ciento en el caso de los varones. Por grupo de edad, el 44,1 por ciento de los niños, niñas y adolescentes hasta 17 años se encuentra en esa situación, mientras que este porcentaje desciende al 2,9 por ciento en el grupo de adultos mayores de 65 años y más. En este grupo etáreo y gracias a la amplia cobertura jubilatoria el 97 por ciento se encuentra cubierto además con obra social, prepaga, mutual o servicio de emergencia. Al hacer la comparación con el 2018, el grupo etario más afectado (es decir, el que perdió el beneficio de contar, además de con la cobertura de salud pública como todos los ciudadanos, con una obra social, mutual o prepaga), fue el de los menores de 17 años. Es un fenómeno que se replica en los índices de pobreza e indigencia, donde la franja etária más afectada en general es la de los más jóvenes que pertenecen a hogares pobres. En proporción, en 2018, con el 71 por ciento, las mujeres tenían cobertura de obra social y/o medicina privada. En 2022, descendió al 67,3 por ciento. Entre los varones, se redujo del 67,9 por ciento al 64,6 por ciento.La estructura de la cobertura de salud presenta una fuerte heterogeneidad según los niveles de ingresos de la población. Al realizar el análisis por hogares, el informe del Indec afirma: "La combinación de tipo cobertura médica entre los miembros del hogar muestra que, en un 53,3 por ciento de la población total, todos los miembros tienen cobertura (obra social, prepaga o servicios de emergencia). Esta proporción asciende a 70,2 por ciento entre los no pobres, es de 30,9 por ciento entre los pobres no indigentes y de 14,3 por ciento entre los pobres indigentes".Hay dos respuestas inmediatas que explican estas cifras: el aumento del empleo informal, que no cuenta con aportes a una obra social, y la suba del precio de las prepagas autorizadas por el gobierno. La recuperación económica del 2022 tuvo su correlato en la caída de la tasa de desocupación de 9,6 a 6,9 por ciento en el segundo trimestre 2022-2021- y un aumento de trabajadores formales. Sin embargo, el crecimiento del empleo es traccionado por el asalariado informal. Entre los primeros trimestres de 2021 y 2022 la cantidad de trabajadores formales creció un 2 por ciento mientras que la de asalariados informales lo hizo en 18 por ciento, pasando de 4,4 a 5,2 millones de ocupados. Los datos los analiza el estudio "Informalidad y precariedad en Argentina" que elaboró el Centro de Estudios Metropolitanos desglosando las estadísticas laborales de la Encuesta permanente de hogares (EPH).De acuerdo al CEM, en Argentina hay 19,8 millones de trabajadores ocupados dentro de los cuales el 44 por ciento se desempeña en condiciones de precariedad laboral. En 2005, en el marco del inicio de la recuperación posterior a la crisis de 2001, más de la mitad de los ocupados eran trabajadores precarios (52 por ciento). Ese porcentaje disminuyó hasta llegar a 39 por ciento en 2015, pero volvió a crecer en 2020. "Como consecuencia de la crisis económica desatada a partir de 2018 se vuelve a retomar una tendencia creciente de precarización que se sostiene durante la salida de la pandemia (2022)", asegura el CEM.Por la parte de las prepagas, la historia es más conocida. Con una suba autorizada que acumulaba casi el 114 por ciento en el 2022, el aumento se encuentra por encima de las estimaciones de inflación más pesimistas que llegan al 95 por ciento. Actualmente el incremento porcentual en las cuotas de las prepagas está calculado a partir de la ecuación de costos que el Ministerio de Salud reconoce a las empresas a través de la Resolución 1293/2022, del 30 de junio pasado. Tras una acusación pública vía redes sociales de la vicepresidenta Cristina Fernández de Kirchner, el gobierno desdobló el último aumento del 13,8 por ciento para diciembre que se transformará en dos subas del 6,9 por ciento a aplicarse en dos meses. Con este desdoblamiento, en 2022 en lugar del 113,8 por ciento, el aumento acumulado de las cuotas entre diciembre del año pasado y mismo mes de este año será del 100,9 por ciento. Además a partir del primero de febrero 2023 las cuotas pasarán a ajustarse con un nuevo sistema, segmentado según los ingresos del afiliado.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x004\x00\x00\x01\x05\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x05\x06\x07\x08\x01\x00\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xc1\xb9@\xf3tv}\x07\x98\xbd\xafd\xd9\xf0\x87\x87\xd1z\xdf1\xca\xd7\xd4\xf6\xbeX\xbe\xcf\xa7\xe4\xf9\xb7F\xd7\xd0U&lt;b\x82\x9e\xbf\xcaY\x0ew9\xaef\xac\x1a\xee\t\xdd\x03\x911\x80\x84\xe2\x10\x13E\x15`\x96\xb3$\x05u\xfa\x01\x0c\xd6d\n\x92\xce\xe0\x8e\xca\xb2\x02\xd2\xb4\x06\xcb\xad\xb0Z\x9b@T\xef\xcbi:\xef\xb9 g\xcba\n\xb2\x9d\x13\x0cs\x81C\x1d\x96\xb3&gt;\xbd\xca\x96B\xc9\x18\xc8\xe3\x95\x82\x88=\xa1\x18 \x18\xd7\xb4\x03\\\x00\x07!\xb0\x94\x01\xb2 k\x81\x1a \x82!\x03\x88 JBI!\xa2\x08\x12\x10\x10kM\xf2&lt;\x9f$\xff\x00?\xefd\x8a^\x81&gt;bOK\xeaw\xf2\xfcw\xa9\xf5%\xb7\x8f\xcbts;O4\x11Z\xb3\xb08\xce\xc6\x93\x91\x13d" \x90L\x84\xd6\x9c\x10\x1aI\xa2\xf9\xcd\xd0\xbejg\xc0\xe4\xec\x1a\xc0.IF@\xbc\xfao\x0b\x8e\xa6B\xe9\xa6d\xb8i\x90\xb6\xeah/:\x89\x0b\xca\x92\x0b\xea\x82\x0b\xcc\xa5\x18Z\x8e\x1b\x01&amp;\x8buA\xd7_p+\xab\x8d\n\xa6r\x0c\xb2\xc9\x85-\xaa\xf6Z\xb7r\x9d\xa2\xb5/g\xdfD\xb6\xe8\xda\x0bSW\x94\x1aAc\x03\x8029\xa3 E,!^\x95\xfa\x14\xa1d\x91\xd1\x13dh\xa2k\xda\x115\xed\x06\x07\x80\x8d\x10\x01\x14\x01$0A\x04\x81\x1a \x82!\x03\x9c\xc2\x0fMp$\x90$\x90\x12\xd2\x06\x19\x92\xaf\'\xea\xfa\xf5=5m%|\x8e\x18&lt;F\xf9z\xa0\xf9\xd3\x8a\xef\xe6\xfa[\x82\xf1q\xe8s\xf6\xdc|\x03\xbb\r\x9f\xad&gt;H\xfa\xdf\xc1\xf4&amp;\x08y=\xe5$Jj\t\x90\x92\x12\rc\xc3Z\xe7\xe7\'\xd8\x91iX\\hSV\x9a\x8a\xef\x95\x00\x921S)\x84\xa7:\x81\nu\x02\t\xcdd\x16\x15v\x85\xa5U"\xd2\xacb\xac\xba\xbd\x80\xb1\xa9[\\,kC\xae\x02\xcc\x96B\xa2\xb6\xc0\xa2\xa7hF\xf4\\\xcb4\x12\x95n\xcd;\x01\xa3\xa1\x8dt4g\xa3a\x17\xe6\xa10Y1\xb4R\x98\\\xc9\x18\xd4K!t\x084\xad\xd6\xa5\x04r\xc7j6=\x80\xc4\xe0\x10\xb1\xf1\x82\x05\x03Z\xe6\x80I\x00\x05\x02I\r$\x86P \x92BNk\x81\xc5\xae\x1aH\x80O\x8c\t\x8b\x92\xb8\xec\xd7\x8bq]\xd8}!\xc6|\xf1\x1f\x7f7\xa9qX,\xef\xe7zj\xdf2\x82bk\x85\x08 \x1a\xdf[|\x9b\xf5\x9f\xcd\xfaR |\xae\xd0\xe8\xb9\xbd2\xea\x87\x97\xf3=\x9c\xbe\xeb\x9b\xf3\xa6_w/\xbc\xf3~S\x1fw/g\xccU\x1d\xdc\x9e\x9b\xd4\xf7\xfe\xbb\xf0\x7fa\xf2\\\x1f]\x07\x1f\x1f\xc1\xf6\x1ek\x7f%\xc5\xf5M0\xf9j\xaf\xd0\xbe\x02*MQ\x84\x8a$9Dh\x1e\x98\x81\xc5\xa4\x1c\xe4P\x88d\xdc\x97\xf2\xf5Cof\x9e\xfc\x93\xea\xc7\xaa\x11Mn`\xcf\x8bN\x10\xcb\x8bJ\x10\xa4-1\x90\xc8\\\xc7\xcf\x04\xc8\x9e\xcdY\xc9\xbbb\x8c\xa5hMJt]\x10\xb8\x99\x94hO,h5\x8d\x00\xea\xd3W\xb2&amp;&gt;:Lk\xe3\x13R\x00\xc8eh\xd8\x88\x12\x8eF\x03Q\x00\x12@\nCk\x82\x02\x92\x19BD1\x1a\xaem\x1e\x13\x8c\xeb\xcb\xdb\xf9\xff\x00\x9d1;\xf0\xf6\xfe3\x81]\xfc\xd7j\xc6zs\x08\x8b\x94\x0bjHr\xa0\x14\x01$\x805\xc8#\x12\x00\xd2\xf7\xcf\x9c\xf6y\xa3\xd4yN]o\xcdb0\xed\xe1\x85F\xc9U(e\xe9\xb7"\x19\xbd\xaa\xf9\r/\xdb;\xdf\x15\x9b\xe1&gt;\x9b\xdd\xf5\xfew\x9a\x97\xd2\x9a_.\xb8&gt;\xb5\x97\xe4\x92/\xa0&gt;zmd\xdb\x12HA4n,@\xf4\x08\xdc\xf6H\x0e!\x92\xd4)\x8d;o\x0b\xa0\x1fe\xd3a\xf5\xd9\xd4\xda\x8c\xd2\x05-\xabA\x93_v\xb20\xe0\xd9\xae&lt;\x885k38\xd8\x02\x89\xe5\xcc3G#\x89f\x82Zv&amp;\xaf,U\x97\xc4\xe0\x94\xc4\xe4\x9c\xd0\x04\x10kF\x19\xa1d-s,lo`\x80,\x13\x18\xf6\x83Z\xe6\x8c\xc6\xe0&amp;\xa2\x01\x02\x93\x009\x85a\xf1\xbb\xc7\xa6\x0f\x03\xe3;y\xfe\x8c\xe1\xfc`\xf6\xe3\xd9\xf2p;\xb3\x02\x03mH\xc7\xc1I\xc5\x82\x94\x824K\xd3K\x10!\xa2[%\x0cR\xe8K\xcboUS:\xe7\xd7[\x94\xcc`[\xb4I\xb5\x82\xab\r\x98\xb2\x03\x9d*\xf5L\xea\xe6\xa4\xa9\x16\x11 \x8a@\xb4\x0f\xb7w\xbcV\xf8\x7f\xa1\xf17\xfb\x14\x01\xe4\xae\xf4\xcc\x90\xe2\x8d\x9c\xc1Y\x10\x10\x95DA\xc8 D \x91\xf1\xb8r&gt;\xba\t\xd9\x15\x90\x97\xd0:\xefSk\xc9$\xf6\xb7S\xf1-\xafA\xe22\xabz9\xba\x11Z\x16jH\x89\xe0l\x12\xdb\\@\xdb\xaa\xbe\xad(\x83\x00\xa4-,/\x8d\xe4M,\x12\xd1bj\xf3+\x99\xd1\xa4Nbz\nbp@h\x18\xdd\x1d\x11\xb1\xf1R\x0c{E\x18sA\x80\xa45\xaf`\xd0\x8b\x93\xd6;(\xbco\x90\xec\xc3\xe8^C\xe7\xf6\xf7a\xea\\W;\xa3\xdb\x14\xdbj\x8e\xd9\xb8\x10I\x08PS^\xd8il\x12C&lt;\x17 \xb5\xeeB=DW,\xb7\xedMdf\xfa&gt;\x1cT\x17\xed\xde\xc6\xf0z\xea6r\xac\xf9\xf9\xf3\xa4\xdd\x93\x03\x1fl\xdbL\xae\xccZ\x9a\xe159&amp;\xd3sW\r9\xd3\xe8[\xdc\xbax\xf9\xfa\x0b\x7f\x9b\x7f\x9a4\xbe\x9c\xbf\xc7\xaf\xce]\x17\xb7\x0em\xbd\\\xbd\xd9\xdcm\x9d\xc1K\'\x7f&lt;&lt;\x87\xc2&gt;\x9a\xf9\xbeL\xa3"\x925"\x06\'\x81\x87\x07\x80h`8F\x85&amp;\xd6\x0c\xa8\xfaW\xd1&gt;k\xf5\x0b=\\\xf0\xb6\xe8\xe9xwS\xc6\xec\xe8S\xbb\x17e\xedt(\xa0\x9a\xad:\xf0\xc9Y\xa1]\xd1\x00L\x01+\xa2s%t2\x13&lt;\xb0J)\xe5\xad1s:)\x05#\x98D\xe0\x08\x82@\x04N\x8e\x86\xb1\xec\xa4\xc0\x9a\x01\xbe}\xe1\x05\xfda\xce|\xb3\xd4g\xb7\xa5q\xd59\xef{\xcdm}\x9b\xde\x97\x17+s\xae\xb7\x15\xc5\xda\xd9\x8d&lt;~\x93\x9er7\xbc\xf7W\'x)6\xf3so\xd4df\xfe\xec\xbeb/I\x8b\x9f^f\xee\xb6\x9ew\xcd\xf3\xbd\xef\x9f\xeb\x9fU\xcbu\x1c\xc5G\xa2\xd2\xe33\xa6\xfd\x03/\x8a:e\xdc\xe1\xe1\xaavk\xcf\xa8\x9e\x13\xbb\x9e\x93\x0b\xf2\x15\xf4\x0fC\xc9\xaf\xcc\xda\x7fO\xe8si\xf3\x97C\xed\xcb\x9bo4\xe8z\x95\xcd\xae}\xd7\x8c\xe8\xc9\x12c\x9a\x11MA\x12\x81a]t\xec\x8fl\xefI\x93\x92\x1df/\x97\xf9\x8c\x9e\x85\xe5\xa4\xe6\xd8esp\x89\xe2\x1cl\x94\x84\r\xb3\t5\x9aX$\xd4\xc6&lt;F\xd0\x95B\xc4[\xdd\xe55\xd9\xeb&gt;\x91\xe5\x1e\xa1\x9e\xbb\xb6h\x19\xadX0\xf2\xf1}K9\xdd\x9d\x11\xadb\xbd\xcc\x11K\x00\x06\xa6\x84\x8e\x89\xe1+\xa3{\x89\xe5\xcf\xc8\xa5\xd5\xbf\xc9q\xf5^\xea\xeaw2\xd5\xef\x88\xca\x91\xd1\xc4\xe6\xd4&lt;\x07\x17\xd7\x8f\xb8`\xfc\xef\x87\xdb\x87\xb7\xdc\xf1\xafTO\xd3h\xdd\xf1\xcf+\xb7\xc8\xae\xf1\x1d~=~\xc7s\x9f\xbf\xe4\xfbz\xb8\xf8\xf6\xba#\x9a\x19\x9c\xcf\xda\xfc\x86\xf5\\\xf7\xf7\xf1*\xb7\xf7\xe1r\xab\xa1\xd8U\xc0\xeb\xf5\x90gX\xfaL\x9a.K\xfc\xacNg\xd1\xe5s\xba2\xedr9\xf0&gt;\xbb\x12\xad\x89t\x1f\xd5\xf49\xdf\x9fg\xfb\xa7G\xcd\x7f6\xe9}A\xa5\xcd\xaf\xcd\x9d\x0f\xbb\xbb\x9b_)\xe9;6\xf3k\x97\xa0\xe3\x14Z\xe6\xa19\xa8\x1c\x02AA\r$\x00\xa0\x06@\x0eRHh \xdbBC\xf4\x83\xce\xbbL\xb6\xb1\xd9\x8c\x8c?\x12\xef\xbc\xbe-\xf2T~n\xda\xaa\x82\xcb`\xb6\x0c\xb75\xd4\xe8\xd6\xde\xafY\xf3\x90\xedAK"=HY\x9a\xcd\x16\x06s4"\n:\x10\xdb\x0e\xff\x00\xd3\xfc\xb7\xd2\xb2\xd3w2\xe6~z\xe2\xd5\xd5\xb7\x8d\xc1\xd3Q\xbf\xacIVj\xfa\xe7\x1cn\xa6\x13\x0c&gt;z\xe7\xb9\xa1\xe5\\\xfe\xb1\xeb\x9c\xbf\x9b\xc7\xb4t&lt;\xf8\xcd\xe8\xceM\xbe\x7fZ\x97\xd5zX\xba\xde_\\\xa62\x12\xe7]*~b\xe9}\xd5\x9d\xf8\xf9\xcf]\xb1\x81\x8b\xdc^s\xcet\xe3\xec?#\xf5\x9eE\x9d\xe7\xf5\x1c^\xc7\x0f\xa5\xeb|\xce\xf7W\xc7\xdd\xc6\xda\xe96v\xe7\xf1\xed\x0f\xa3|;\xd5\xf2\xcb\xf2\xb2\xfd\x9e\r\x0e\x8b\xcdY\xae[\xf4\xf3F\xf3\xd03\x1d\xe9UZ\x12k\xcf\x94\xfdg\\fK\xa0\\T\x9ae5\xef}Fn\xcf\xc5})Lvz\x12\xd22\x92r\x90@RHI&amp;\xd2H\x12Hi$\x08\x044RR\x90\x03MsX\x90h$\x12\x12\x01\xaf\x9fe\x8d\xd2\xa5\x884u\x9bi*\xaa,\x855\x99q\xa0\xcd\x8a[\xca\xa6\xb5fP\xa6\xcb\xd1\xbc\xf1\xebk\xd6\x16L\x1a\x90Q\x9b\x16\x8c,\xcf\x8e\xfc!FY\\\xce\xb7\xd1\xfc\xdb\xd13\xbe\x84\xb2\\\xf56\xe2\x9b\r"j\xa9\xac\x8ef\xa7\x93\xf5e\xdf\xf3&lt;\xbfW\xd1\x8f/K\xa9}\xaewVL\xfaZ\xd2\xf2\xb9\xf4\xba\x0eBw^utt\xba\xa9~\xcf\xbd\x93\'\x06\xdag\xc4\xb9\xafS\x8b\xe8ng\xc1\xcfw?\xa8s\xdcs{yo\xd4\x8d\xbd\x19(\x8bu\xc8r\x9dG\x1f\xf3^\xff\x00W\x0e\xae\xff\x00\xcb}f\xef\xa3\xf97\xa8uy\x93\xe8d?\xa7\xcf\xe8&gt;x\xf6\xde+\xb3\x0f\t\x97X}_\x87\x9f5\x85y\xb1\xe0H\xf68&amp;Y=\xec\xeb,u\x9a\xdc\xfby\xf3\xbdWk\x9b\xa3\xc4f\xfa\x07O\x93z{-w\x8d\xe9$\x80\xe4\x0cp\xdc\x9a\x81\xc8\x10!\x00)\xa4E\x047\x00\x13rjm\xc1\x88NMI\x90Z\xd3\x9a\x18\x93\xc2\xafS8\xca\xcb\xd2:u\xc4P\xd7\x1f-Xc\x9b\xabu`\xb2k|s1\'\xd4\xcd\xcbiI\xd4]\xcb\xdeB\xdd\xa1\xb0\x8d\x01b\x06E\x05\x1c\x82u\xe1\xe7\'W\xb7\x0c6\xdcT\x86\xfcN3\xa1\xbf\r:Jp\x1b\x9d\xff\x00\x9f\xf7Q}L\xd4\xedF\x96lV\xb1\x85\xe7r\x1dg\x1b]\xfc\x87\x9f\xfa\'\x0b\xd4\xe9t\xfc\xd6\xa7\x7f\x81F\x1e\xb7\xa0\x97\xe5V=\xb3f+\xc4z?[\x9b\'\xc4t[o\x87\r\xe8\xdf\x0el\x1d\xcc\x8d\xb3\xf9\xc0\x01\xf6\xff\x007#\xe1-I\x19\x88R9\x8f\x08\xe1\x9a\x1b\x9a\\Ou\xc9|\xc7\xbf?\xaax\xbf\xa7\xfc\xf7\xd1u\x9b\xdcgW\xa7.\xcd\xeez\xe7W\x06\x97\x1f\xa7\xb5\xb6~\x1e~\x84\xd3\xf4\xb8\xbet\xd8\xf7\xc5\xcf\xb7\x8bnz\x83y\xb6\xe1\xb67\xd6\x1bT\xb4\x94ZI\x03\xd3\x12\x08H\xb79\x8eaA\x08\xa4\x86\x92D\x94\x10\xdc\x80\x1b\x80\x04\xb8\x0f\x19\xe8\xe7\xf6e\xf3\xeeg\xa3\xc9\xf4\xb5_\x98\xabk\x9f\xd2\x99\xff\x00&lt;\x9d\xb9\xfd\xe7\x1f\xc5\xe4\xde=F\x87\x9e\xbbh\xecs0\x16\xb9]\xa6\x15\xc2A\xba\'\xb1\xa9\xe7ao\xb7\xe2&gt;\xbf\x9e\xad\xd1\xd3\x87\xca\xd2\xdc\xcd\xc7S\xb9S\xaa\xcb[]\x1dmI\x93\xa1J\x8e\x99tx\x98&lt;\x9b4\xf8\xfc\x01O\xb9\xeby\x0e\xb3\x97\xba\xb6\xcf1\xa1\xa6\x1dtv\x15\xf2Q\x86\xf4C\xa0\xcb\xb1\x05\xce\xdb\x8c\xec\n\xea-S\xb3\x1a[\x9e\xb4yS\xa9e\xd8\xd0\\\xf7wSl\xf9\x9d\x1ec\x8b\xe9\xe7\xf5\xc8\xfc6\xce\xb3\xef2ghp\xec\xe3\x95\x8f\x97g]/\x9c\xd9\x9d\xfd\x01\xf4l\xed\xe6Y\xcd\xd0\x86\xa7\xe5\xe1\xa5\xa5\xf6&gt;\x078\xfe\xe3_\r|\xc0{N\xb6\x1bx\r\xbf\xa2\xae\xf3k\xf3\xce\x8f\xbcG\xcf\xa7\x81r\x7fC\xe2\xf0w\xf8\x17y\xd1\xf3\xfe?\xb7\x15\r\xbc\xda\xbbZ\xdc\x96\x87W\x9f\xe9\x1d\x9d;\x9d^{\x80\x85\xa9\x166m\x1dZ\x06\x1aH0\xa4\x86\n\x02I"\x91@\n\x04\x94\x91\x19-\x05=4\t\xe9\x88$\x0c@\xe2\x1aS\xbea\xfaw\xe5\xdfo\xc6\xa8\x08\xfa/\x194\xa65\x14HD\x12\xf6\x82h\x90HI\x04\xcbPi\x02\x1a\xea\xc42|W\xd6\xd7\xabj\xb6o\x0f/_#\ru\xfb\x0e#\xb1\xe6\xe8\xea4r/)\x93\x96\xea9\x1e\x8e^/\x94\xdf\xe6tT\xb4s\r\x9d\r\x8eQ\xf2u\x9dg\x9a\xf6\x8a\xbd\x8ah\xec\xe75\xa2\xb5\x12uYj!\xc9\xd3\xf1\xbd\n\xae\xe2\xdeu\xf8\xbbU\xa7\x8b:\xe3n\xd0\x9bx\xedh\xe3\xf1Z\xc77\xe7\xdb\x1c\xcf\xb1\xc3kS\x9e:O\xd1\xae\xf9\xe2\xbf\x9d\xd1\xeb\xd8&lt;E\x8e/\xa5\xeb \xe4\xe1\xa7\xb5\xed_:{\xbfg\xcdz\xe9\x85\xfc\x1a8/"\x8e\xefR\xa9\xe1\xf6\xf0\xf6\xfdG7\x89\xbc=\x9c\xcb\x17K\xe9z\xaa]_O\xcd\xe0k\xc3b\xb3\xe19/f\xe2|\xdfK\xcbht\xb98\xf5\xf3\xb6l\xe6\xf4c\xd5\xf9\xb7{\xdbz\xfe/\xcd\x99\x9e\xd9\xcaz\\~y\xa5\xe8\x1b\x11^\xcd&lt;R\xf9}\x01\x16\xb6K@&lt;4\x8c\xa6\xa0r\x04\ti\x10 \x82!\x0c\xa4\x81$\x06P \x81\x05\x1f\x96\xfe\xa3\xf9\x87\xd8\xf2s\xcd\xa9=\xcf+&lt;kM/\x10t\xb63\xbeMv\xb6\xa2\xbc\xfc\xfa=\x9c\xb4\xf2\xf5\xea\xf3g~D\xbd\x92\xd4W\x88/v\x9e+\xc0\xd7\xd0sg\x7f&gt;\xebs[\xdew\xa55c\x8b(\xe2;.+gw\x89\xb9\x15\xe87\xbc\xc8)\xf5\xfc.gz4\xe3y\x9e\xbf\x8a\xd1Q)k\xce\xe5\x0c\x8d;\xba\xf3\xfd\xd4\xfe\x99\xb9\xccu\x18i\x1cS\xc5.*Wy\xf0\xa7\xbf\xe7}\xcb\xbfS\xd7\xc2\xd4\x8b\xbc#\x9f*\xe5\xa3\xe9\xe2\xb5\xe7^+\xf4\x97+\xd9\x87\x85\xbb\xdf44\x8f\x9e-}\x11nO\x9d\xef\xfb\xf3\xe5\xf8n\x97\xb1\x98~]\xa1\xe8r\xa3\x8d\xe9\xee)v$\xaa\xf2\xacB\xa3&amp;ih\xc6-A\x87WE\xd3\xed\xf3}.zC\x14U\x8a\xbd,\x0fe\x85^vq&lt;\xe7\xadr^w\xa3\xc1s]\xa5^?C\x9a\xf4\xac\xde\xab\xd7\xf0\xdd^\xf6\x1fG.M?\x9d\xe1\xf7|\xdf\xa1s\xbc\x1d\xda\xcf\xb2\xef|\xf7n\x1f\xd7\x8e\xa3w\xe7\xfdB\x92\x04\x92)$\x89D rHd\xb4\x82I\t$\x8aD\x10\x08\xa0m\x1d\x04:RXIF\\\x86\xd4CI"H\x05!\xadx\x00\x10\x1as\x11$$\xdf\xcb\x1a\xbc\xfb\xf1\xd6\xc71&amp;\x06\xd8:\xadF\xeb\x9d\xa1Q2v\xc4\x03\xa0\xec\xfc\xbal\xf4\xda\xc5l\x8d\xb3s\x1f\xb9\xcbn^\x9f[\xcb\xaa\xcb\xb3\x14\xbd\x1c\xbe\x9d\xec\x1f3z\xc7&gt;\x9e\x97\x15\x0b\xe9V\xe2{\x0e\x16\xa7\x0f\xd0\xbc\xfb\xbc\xd1\xfa\x16\xa7\x1b\xb9\x8e\x9d}\x8c\xc8yu\xdc\x83\x96V\xbaL\xf9\xb9=b\xd5o\x04\xce\xf5x\xfe\x86\xaf\xf3\xe0\xd3?z\xa7\xe2-\xa5\xec\xf4\xfc\x99k&gt;\x9d\x0f\x9c\x1dc\xd0+q\x02\xa7\xad\xaf\xcd\xbbX\xd6\xadH\xd2\x9a\x105Rldz\xbf.\xfe\xf1\xa8y\xff\x00\x9a\xf55\xaafh\x0fM\xc9\xe0\xc8e\x81\x97\xd5K!\xcep\x9e\xb7\x99\xc9\xd9S^S\xd5\xcb\x9fGZ\x9dg\xf2_;\xee\\\xc7\xd0y~l\xbd:\xcdO\x93\xcf\xea\xb6q\xbfV\xbbV\x7f\x07\xd2\x95B\x9a\x94F\x82C\x10*c\x08jq\x19\x1c\x89\x8f\x1aL\x99KT\x89\xb6\x15\x1ao\x11\xb9\xa7\x16\xb19Z\xd8\xd3\x99F\xe69F\x04\xf5\x1bI\x9d@\x82A\x10\x92P\xc2\x0fk\x13\nbK\xe2\xd8\xa8\xb5\xbb\x90\xbaj\x9c\xcaz\xf45\x8a\x8a\xe4tTNs\xcc\xbaH\xc4\xe9k\xbf=n\xfa\x0f\x9e\xfa/7\xb1\x9f\xc7\xfag\x9c\xcdf\x19[\xd5\xe5\xbbF\x9c2{/\xa3|\xf1\xeds:&lt;\x0f\xa0\xf9\xec\x99\x9d\x9f\x01\xd5\xe9]\xc6\xf7?\xd4\xe1\xae\xaeF\xaeG=qF\xb6\'F^\xb1\x81\xe7\xf8\xbe\xb7\x9d\x93OHz\xbcy\xe3Q\xbaN[l\xd5\x8d^\x9a\x95Jb{$\x049qi\xa9\x05\xaa\x92\xd3\xca\xb5\x17\xf5oI\x97\xd1|\xbf\xaf\x16U\xea\x13y\xd7\xa0b6\xcdF\xd1y\x8cq\x0f\xb1R\xc3v,Tz\xb7\xb2\'\t\x95\xae\xc6\x18\xf9L\xf9\x0b\xa7\x9f\xeb\xa8\xbeCgF_^A\xf2Xg\xd6\x11\xfc\xa8\xd0\xfa\xa5\x9f,\x86}G\x17\xccD&gt;\x98\x87\xe6\xc0\xcf\xa2\xa0\xf9\xf5\xb4\xbe\x80g\x81\x06{\xd4\x1e\x1a\xa8\xf7\x18&lt;Q\x0b\xd9Y\xe3\xc8\x9f^\x7f\x8f*=v/(\r\xfa\xa2\xf2\xd0\x8fP\x8f\xcd\x10\xbd\x19\x9ex)z\x038$&gt;\xdd\x9cK\x89\xecc\xe4S:\xa6r\xe4]+y\xa4\xcd\xf6a\xa0\xd7Y\rO=F\xff\x00\x0b\xbai\xa9\x80\xb2!\xb8\xcd\x0b\xb5\xaeF\x9c\xb5-\\\xad\xf8\x15y\xe1\xb1\xafj\x9d\xef\xf4\\\xbd\xdeos\xa0\xc9\xacg\xaa\x08_\x06\xfe\x04\xf1\xcb\x03\xcd\xfe\xa1\xe4\xdd0\xbe\x84\xe0\xba,|o\x81\xdb\xe5\xac\xea{\xafs\xe7\x9e\x95\xc9\xd1&amp;v\xbcy?0\xe6\xfdo?H\xe1\xe8\xfbD\xfd\xbc\xde\x13\x0f\xbd\x8d3\xf08~\x806\xben\xa3\xf4\xf3G\xf2\xdb~\xa7\x8d\xaf\x96b\xfa\xa1i?,\x0f\xaaak\xe5\xc3\xf4\xc47?5\x1f\xa3a\xb5\xf3\xbc\xde\xf3\x05?J\xe9q\xb4&lt;\x7fC8W\x96\x1c\x19\xd7r\x93\xdd\xb5\x8fn\xd6\x94y\x8eq\xb1-\tI\xd3Y\xf2\xad,\x08"e\xf8j\xc2\x9b\xfeI\xfa\xd3\xc7:y\xbc\x01H\xcfW\x95\xa1\xcd\x1a\x04\x08"\xa8D)I\x14\x0f\x86X\xa9\x96\x94\xc0\x8a$$X\x08"H\xa1\xa4\x91I\x14\x05\xa4\x88$\t\x08!\x10\x92d%R@)\xa4\x08$\x90\xd0@2\x9e\x1d\xf3\xde\x8ad\xccp.\xd0\xbdYKV|\xe7\x11\xc2\x1e\xd8\x8d\xa5\xea\xe0\x82v\xac\xd5\xb3\x97\xb0\x91\x86t\x8a;\xd0\xdf\x915+\xd1\xb3&gt;\xcdI4\xc7\xd5;\xbf\x05\xf5\x0cv\xe71\xf7\xf9u~\xe9\xea\xbe9\xeb\xd8i~\xd5\x1bxU\x98\xde\xc1\xc0\x18\xdd\x14\x89\x85\xc9L\x91\xc8HRqk\xa99\x04)\x9c\xc7\x89 \x9aqR\x04D\xbe\x9e\x959C\xaa\x0bK\x12]\x8c\x8d\n\xa8\xce\xad\x06%\x176\xb9\xf9iv\x96\xf8[f}\x839:\xe1\xd5\xc5\xca\xec\x05\xcb5PjB\xf7\xa2\x84[\x88|\xfc}\x13es1\xf5 |\x8c}\xa3i\xf1P\xf7`\\\x04^\x8a\x19\xe7\x90zRG\x99G\xea)\xaf*\x8b\xd7\r/ \x83\xd9\xd3&lt;N?q\x0c\xf0\xb8}\xe93\xc0\x19\xf4\x10\x17\xcf1\xfd\x16\x19\xf3\x8c_I \xf9\x96\x1f\xa8\x03\x9f\x96\xa3\xfa\xa5\xa1\xf2\xbd\x7f\xac\x05\x1f%G\xf5\xb0\x0f\x91\xa2\xfa\xe66|\x90\xdf\xadcg\xc9L\xfa\xca\x10\xf99\xbfX2\x97\xc7\xe9.M%1\xd8|L\x92h\xab\x9a:\x16`ZG^J\xef\xa5\x14\x9e\xc8\x82\xaa{L\x9b\x0fq\x94\xed\xd4\xae}\xf9\xab\xf7\xcb\x97\x86\xd8\xf46m\xcb\xe1t\xba\xdel\x93\xd5\xf3\x1d\x04U\x8c\x1e\xd7\x89\x8d\xbd{\xdb&lt;\x13\xder\xbb\xf7\xa8]\xc2\xe7L0\xebA&lt;:\xa0\xf6\x97%\xf1\xb8\x99X\x85\xa0Zh\x99\xd1=C\xe4\x89\xd4\xa4tdO\x92"\xc9,Q\xe1K\xf4\x85\xf3g?\x9fo\xd8p\xfc\xa3\xdfg\xb7\xa1\xf3\xba\xfc\x93\xe6\x9b.:\xfb\xe3\xa9Z\x0e\xb8ts/\xdbK.Y\xb7\\[f\xa5\xf1g\x17\xcdJH\xe5kS0\x84\x80s[@\xb6B\x12l\x82\xd0D\x10I\x04\'4\xb1\xcec\xd8\x92BI!\x82\x90$\x90\x10\x90$\x90$\x90\x92Hi\xae\x02a-\x02\x01CQH`p\x06\x87\xa0\xf8&lt;\xd7\x1b\xe3rj\x92\xae[\x91\xd7i\x0f\x85\xd1\x95\x1b\x1f\x1b\xd4\xa4\x9e\xeaX\xec\xc7]\x97\x81\x8f\xb5\x0cN\x0f\xcc\xd4\xf4/&lt;\xeb\x16~\xcfY\x8e\xdb\x8b\xc5y/E\xe2\xa3J=\xb7\x9e\xf4\xd7\x9f\xa2\xf9\x87m\xe7\xedz\x1f\xbf\xfc\xe1\xf4F\x1d[7(\xda\xe6\xd2y!\x9a\x1dx\xe5\x8fD\xc2^\xe2"\x8bE#I\xa4\x9aI\xedq$\xb4\x89\xcec\xc4\xe0\x80._\xa8M\xfc\xe4\xcfU\xf2\xee\x7fS{w\x8d\xb7\xc5\xe8\xf6v\xf8Y\xa3N\xc2\xae\x1c\xb7\x87O\xa3\xc7Gq\xd5gs\x1c\xc0zn\xa7\x9dt\x9ba\xe9\xd6\xf3l\xf5y\xaetRi.\x8d\xf1\xbc\xe6M"!\xa17&amp;\xa4\x04\x93\x0bSe\xb8\xb0\xb1\xe1\xa4\nk\x819\xa5\xa7\x96\xaa\x1c\x9a\xe1\xa4\x90\x92Hi\x04"\x81\x04\x93@\x90F\x9aZ\x009\xa9"\x10\xd3R\x04\x12\x12AI\xf0H\x91ub\xf9b\x929\xd0M\x12ahK\x15\xa8\x1e\xb5\x92OW[\xaf{\x1fY\xc0\x8c\xfd\n\xc1\xd5\xf4\xf3:+\xb0\xbb\x9bOg\xd0\xf3\xda{r\xf6\\\x83h\xf2\xf6\xf9\xee\x9dn\xdf\xbb\xca\xc1\xc5\xf4\xbej\xf2\x7f\xd1\xdf8\xfd\x0b\x8fWMn\x9d\xbe]\'\x96\tra\xaen\xaa7\xb4\xd40\xa0\xe5\xc1\xcd\xa0\x96:\x87\x18\xdeC\xcb\x1c"ZD\xf4\x80\x14\x13\x07\r\xdd9W\xce\x15=\xf3\xc9r\xef\xc0/tj\xd9\xa4\xd0FY\xe9\xb0\xe9S\xcf\xd8\xd6\xa9o\xa7\xf3\x1d\x0e\x9c\xbbs\xe3\xea\xbc\xe6\x96\x19\xed\x18\xe4eJ-R\x8bJ@!\xa2x\x05\rI6\x92HH\x01\xb8\xb5\x03\xcbM\xa7 \x18\xe4\x10\x9cZ\x81\xed\x08i\xec@\xf0\xd4\t\x02$Z\x81\xcdH\x01@\x0bB\x96\x92\x02I$\xc2H_\x0c\xcf.\x86\xf1\xcf)b9\xc3\\\xc2\x04o\x8d\xd3\xa0\x92"\xdcR5\xb5b\x91\x8e\xcb\xcd\xa8\re\xac\x98a\xd4\xde\xcb\xd2\xe1\xef\xa7\x0e\xc8W\x9b5\xf6R\x87\x7f\x0ez\xcf\xd1\xf1m7\xa7\xcc\xcc\xf5\xff\x004\xf4\xa9\xd3\xa7\xb5N\xcf.\xd3MVXr\xc6\xe8\xed9\x05P\x83\x98\'$\xd6\x89i\xb0\xba\'\xb8{\xa3p\x9c\xe6\x11&lt;$\x08\x84\t\xecs\x1d\x83\xb7\xcf\xd3\xe4\xe4\xb9U\xdc[\xf0\xe8\xa7FwX\n5\xf4\xde\x11[\xbda\x89\xb1\xc6\x96\x82\xaba\xcb\x9aci\xe92\x13\x80HsB\x02\x10aA\x01H!\xc0!\x90@\x12\xd7Rrim\xc9\xa1\x8fLp\x8a@\nHi5\r\xc9\x02K\x1c\x86\x1c\xc4\'\x00\x90\x92\x00\x90I\xa4\x02Nij&gt;+\xd7\xc9\xbf\xd1\x96\x15w\xc6b\x98\xf6\x12\xc6\xd9\xd34\xc3w]jz\xb8&amp;\xda\xa9y8!H\x84\x06@3]%\xdc\xf9x}]\x95\x9c\xd8\xbb\xb1\xd35\x16\x9dZ\xeb7:,\xdd\x1e\x8e\x05\xe8^=\xdf\x91\xe9\xd3\xe6\xda\xe6\xe8\xb36I\xc6\xf6\x99\x14\x97.A\\&lt; $\x10i\xc5\xae\xb27\xb4\xb4\xf2\xd2ItO\x14\x88!\x10\x90\x17\xc6A\xdc\xf7AB\x8et\xd1\xd7\xb7~\x93s\x07rZ\x1a\xc2|\xf0\x11\xe8:\xac\x93W\'\xc9\xb9SuD\xe1(d\xae\x89d\x82\xc4\xa6\xa4\x10\x88@\x80 \x92\x03)0\x1cP\x07$X\x08"(&amp;\x14\x0bnMI\x10\x93h\xb4\xb0\x84\x86BB!! \x84\x85\x04\x84\x80\x02\x08\x1ai\x02\x00\x84|9-;}\x11B\xdd\xed\xd29\xfdn\xcba.Wz\xf3\xa7\\\x8a\x1d\x04yv\xf8\xde_q\xc6\xef\xc3\x12snBM\xb0\x84%\xdeuE\x9d\xe8\xcb\x90U\xed\xf4\xdc\'\xb4K\xcf\xea6\xa5\x85K\'{.\xa3\x85\xda\xb1#:\rN2\x1c\xb5\xeap\xb9\xdcq\xfa\xbf\xa0\xfc\xf1\xecRw\x8d\x8d\xb1\xa4\xe0\')0\x92\xf3\x1b\xb4\x1c\x12\x11s\t$\xb5\x04\xa67\t\xc9\xa0OA\x03\xf2\xb4\xf1\xa8\xc2\x9e6X,\xc9\xb6\x0c\x0e\x84ltM\x1c\xf6\xb3\xa4F\xb9\xa9i\x93(\xe4\x13*\xcfM\x16,\xe7h\xcaH)\x10I\x84\x040KSI\x068\xb1\xc0\xe4\t%&amp;\xb6\xe4\x13\x11\t\x05\x04\x05 \xc7 \x80\xa0\x98P@PM\x14\xc5!H \xa0\x86ZX\x0ej\x00\x82\x08\xf9\x1fGN\xd6\xf9\xe5\xea\x0b2\xf4mCnj\x9a\x9e65\xd5\xc4\x99\\_\xa2\x9a^\n\xde\xc7\x8f\xde\x18\x1c\xdaH\x823$o\x13\x90Ro\xfbG\x11\xeb\x9c\xfaT\x96\xc9\x97J\x86\xc6xs\xd7\xa2\xd3\xa0V\xea\xeb\xcdqy\x9d\xb5dp[\xfa4\xc7\xd8t^Q4W\xb3\xcb\xe5\xbdB\xae\xa6\\\xab\xeagL\x14H\xd6\xb6\x89\xd4n%\xc9"\\Z\x04\xe2\xc2\x0fMA..\xc6\x132mB\xed\r7\xe48z\x11\xd3"\xd1\x8e\x9c\xc1\xa7]\xb6B\xb5\xd8\xd0\xe7\xb4\x88AV\xcdd\xa3\xd5\xcb\xd2\x91\xe5\xa1\x0ejHA\x01\x94\x10\xc8@\ti\x07&amp;\xb9\xa4A\x07&amp; z\x8c\x8d9\xa9\xa7\xa6\xb4R \x86BjD\xb4Q"\x8d\r\xe1\xaaG\x04\xd69\x04$\x13P\xe4\xd07\x00\xd4\xfet\x9e\t\xf6\xcaW\x08\xd3\xd7\xb1\x9dd\xa9\xe3O\x08\\\xf7\x04\x16[:\x1b\xe0_L\xf9\x10\xbc\xb89\xbd0$\x8d\xed! A-p\xfd\x9b\xd4&lt;\xf7\xd1x\xf5`*\x1cY\xda9\xb79\xf7*L.\x9d\xf5\xec\xab\x8a\x1b\x8d\x9b\xc9\xca\xeas\xaaph\xf4T\xee9\xc8\xf7\xa90t\x9c\x84\x13^\xbb\xa9\xe2z\xf2\xfdm\xdc_F=C]\xe3\x95\xd1HK\xc2"I"RH\x1f\x89\xb3\x98\x18\xd1\xc6\xddK\x8f\xa5(H\xf2\x81+ 3M\x86\x84\xc2+\xa16\x9d[C\x86\x9e\xa5aG~\x19a\xbd4\xc8\xe0\x00\x02\x03\t\t\x04$4\x1a\xf6\x8a@o, \xe0\xd4\xd1-()\xae\x04\x9a\xa8r\x06BZ\x98\x92\x02 \x84\xd2\x01\x8ejh=\x00\'\x04\x15\x16\x80"\x83G\xf3\xd3\xde\xed%\xed\x95\xa1=\xa8m\x81s\x88\tE\x94V|\x93#G\x91\xeb\x9b/\xe5z\xddW-\xd5\x9bH.eMHs\x9ba\xbf~\xecp\xf6\xb9\xb4\x00\xb4"\xa7v\x93\x9c\xf7\x89\x19\xbfj\x9d\xbc\xae@\x9d\x16\xd6N\xa5\xd5\xaf\xa0\xca\x9cZ}\x0cd\xf3\xb0\xebQ\xb9\xc3\xa7\xbf\x15\x98w,g\xb7\xd8\xf4\xdeCaW\xb6X\xf2\x1e\xa2\x0e\xe9\xd9\x1a#\xb0#*^\xe6\xb9\xa7\xd2\xb6\x83\x8f\x0e\xe7\xf5:k\xbcSC\xbe\x1c5\xa0\xe8\xdf\xc7Q\x0e\xc2\x97\x1c\xd1\xf7\x968B?A\x9b\xce\xa6+\xb7\xce\xc6\xbb\x06\xcfG\xcf\xefL\xc8\xf8\x9eK\x92\x03\x01\xa0\x1e\xc4\x84\xf3\x1a(\xc9\x03\xc2T\xc7\xb0\xa0\x81$\x98\n\t\x14\x08$\x08$@\xc9\x00E\x04\x08\x80\x05$%\x1b\xdaPsP\x9e\xc2\xd0\x08\x00sB\x1f\x84\xb2\xc47\x12:9\\\xd9\xb7N\xe1V&amp;\x8ea\x83#\xc2\x1bp:j\xd0\x8c\x13\xe3\xbeo\xec~7\xac6x&amp;\xd1Z\xa9\xd3\xf2\xb2\xa4|Ng\xd1\x1dw\x9ez\x0e:\x10\x14\xb5Zj\xf9\xaa\x89\x86\x96\xdd\xaaWM\x1e\x81I"\x00&amp;\x8bE\xae\x14F\xc9\x80\xa8f\xefB\xa7\x9d\x8bn\x8d,\x9c\xee\x8a$\xf9\xc7ng\x14\xba^&lt;\xc3\xf5\x9d\x9f\x13\xd4\x1f\xb0\xcb\xe7}&lt;\xad\xe7S\xb2\x18\x9c\xb7m\xc5\xd9\x08\x02\x9c\xb6\xdfXT)\xd9\xa0\x15\xact\xf8\x03\xb12\x96j\x19$*\x95\xa8\xf5\xd1&amp;\xe6}\xe2${\n\x1c\x98\x9a!5\x054\x8d\xc0\x16"\xc7!\xe0&amp;&lt;\xc6Q"\x8d\nE\x19l\xb9\x88$hB\x905\x03\x8bH\xc8@E\x00\x0fh\t\x96 \xc2\x82\x13\xa3@\x1e\xc0\x00\xa4\x83\xcakK]z\xb5\x18\xf8\xf6\xf2,\\\xa5e\xce\x8d\xbaw$\x9d4\x14b|`\xf74\x071\xe0\x9fH\xf8-\xc6\x14\x8c6\xbd\x17\xcf}7\xcd\xc2"\x88z\xc7\xacx\x9f\xb5d\xdc\x92M\x90\xca\x02\x80\x9d\x8dh_\xa1}h\xf7\x05\x03\x82@\xc2\x85\x05\xa8\xb4\xd4\xe6H\xa3\x95\xf9\x95\x1by\xb2eR\xdfb|\xda\xdb\xcfsF\xad\xc8\xec\xc5\xa9\xd13Y\xc0\x96\xdd%[\x9do\x98\xca\x1e\xdf\xc9\xf3\x1d\xbc^\x1d\xa7N\xedd\xc9^\x95T\xde\x88:~3\xbe\xe6\xa2pfm\xe7\xa5i\xac^C4l\xce\x11&gt;hT9\xd1\xb8O\rC-\x08H\x14\xdaA\x08\xa0F\xe2\xc2\x0eM \xf0\x1a\'\xa6\x91\x94\x08$\x90$\x90\x12\xd4\x04\xb5\x03\x93\x08\x12\xd0\x0eh\x02pI\xb4\x80I$\x86\x01hxHl\x9d\x18)\xe2\x94,X\xadt-\xddn\x86n\x17Z#\xa6&amp;\x8cP2X\x87W\xca\xfd[\x98\xa5\xe1"H\xf4^\xa1\xe7\x9d\xcf\x14\xca\x81\x00\xee=\xcf\xc2\xbd\xcf\x17(\x01"\x92\x06\x87 \x9e\xedK\x86\xb2\x06\xc9\x8b\x05\xce\xce\xe2E\xad=\x80\xd2*0\x12D\x0e\xb0\x825 \x14\xc8\x94\x80U\xeai\x01`\xc5\xd1Sf&lt;\xb2\xd7\x1dL\x8d\xd0\x87zf,\x19\xee\xfc\xb9!\x08\xebY\xa6\xdb=\x0b\x80\xedE\xadR\xc3"9;O\x9a\xf4\xb9??"}E\xcez\xe2$\x92j\xea^Z\xe7\x05$\x84\x13[I\xa4\x1e\x98\x8a\x904\x81! \xa0\x9a(\x14\x14\xd4\xc2\xe6\x80q\x89\xe0\xe0\x10=1\x03\xc3H"\xc2\xa8\xa69\xca\x08\x0c\x96\x96\x88\x00NA\xa3-I\x9e \xfd\xcc\xba\xd6\xa4\xb2C|\xd6n\xe7\xda#o[\x9f\xd9\x87\xa0gqY\xf5\xef\xd4\n\xd5\xad\xc2\xe2\x8c6\xe2\x0f\x07\xe5\xbdG\xcc\xb54\xb7 \xdfG\x9d\x16\xb9\x9d\xa7\xbaxg\xb9@\xf4\x1b#\xcbRd\xa75%\xc8,\xab$92\xa3p\xd2A\x81\xecBp\x01\x88\x84HI\x00)R\x04!\x04S\x1a\xd2\xa0\x15-\x16cC\xb7\x1d\x1d\x15x1p\xde9\x18[\x86\x14Z\xcc\xcb\x9f,\x9e\x97\xaa\xf3V\x07\xaaM\xe7\xfd\xd9\xa6\xackn^%\xfb\x99H\xb1b6\nGF\xf2\t \x13\x0bD\x88\x00\x92\x059\x0079\x84\x1cX\x84\xe4\xd4S\xda\x11$\xb0\x83\xccD$\rCp\x00OL@\xe4\xd4\x0eM \x93U7\xa6\xa4\x8aar\xe0\x00\xd0B_\x9d\xc7~)\xf5\xf32o\xc7\xbf\x92nGm\xf3\xdf\xe9y\xde\xba/n\x97mO=&lt;\xe6\x96\xd6&gt;\xb9\xd5\xa95\'1C\x1d`\xe6\xbc\x7f\xd3\xbc\xca\x8dOT\xf2_ig\x82\x8bUmu\xbe\xed\xf3G\xd09\xbd\xa6\xd4\xd0\xcdG&amp;\xce\x96o\x94wp\x13\xe4&amp;\xe8\x18\x9e#\xfb\x1c\xd7X\x06\xa4\x9a\x93 \xe6\x9a\x1c\x06\x815(\x16\xa4\x91\x02\t\x16\x00\x9e\x0c\x05!\x88\x1aH\x16\xa1\xb2G4h\xda\x16\xb2\x8b\xb4\xd8Y.\'\xb0\xb7W\'N\xa9\x96\x04=\x04zNW\xa5\xf9\xc6\x94_\xafU\xcd\xea\'l\xcb\x96\xeb%^\xf5Y\x92k\xa35\x13(\xcaO\x08\x14\x98\xe00\xd2\x04K^4\x80\x1b\xcbH$\x80$\x13\x0bH%\x16\x1a\xa7&amp;\xba\x12,-84\xb4S\\\x99\rM80\xb2@\xd3,\x88\xdc\xd3\x80HE\x85\x1e?+]\xd1\x93\xc3\x9e7\xdd\xadhv\xba\xbecO:\xf5\xec\xfe\x05\xf3K*\xe6}EJW\xe9\n\x8d;\xd5\x9a\xf3^\'\xd3\xfc\xfe\xd5/^\xf3\xae\xcc9~_\xa0\xc0\xa5{\xe8\xbf\x9d}\xd7\n\xf4\n\x9c\xd5\xaee\xdeq\x15;\xb4\xbc\x9b\xda\xb9=\xd75\xdd\xb7A\xedf&lt;Z\xb4\xeb+P\xee\'\xb0T&lt;\x04\x9ap-5\x00\xc7\xa6\xa1 \x88\xd8\xf5\'5B\'w&gt;\x95$\x96$\xe4\x15\xda\xd4Z\x99\x93t\xcb\xb2\'\xa7ZH\xe6\x92j\xb56\x9bj\xe8\xb6\xf9\xf2\xe2\xbfV\x95M*\xc5WZ\xeb\x9a\xb9o\xa9\x1f3\xd9EW\x8a\xc5Qq\x17\x9f\xe5\xbag\xeesx\xb7b\x97n\xfa\x17f\xca\x08\x03^E\x13\x8bFZAD\xb4\x82|h\x08I\xa0@i\xc9\x88oti\x0eMT\x12\xd4K\x8ci\x8f\x01&amp;\x8b\x10\x9e\x1a\x90\xf6\x80\xc2ZA\x00S\xf2AX\xed\x85\xc6V\x90,]\xce\xb8\x1bZ\x18\xfbY\xe9~x\xac\x0e\x1a\xba5\x85\x9dOB\x90P\xabr\xb0R\xe6zl{\x8eZ\xc4\x82\xa7\xcf+jc\xd9wC.|\xdfQ\xea~3\xeaPv6\xb0\xb4S\xd3}k\xae\x9bhL\x9bc\x9e\x10\x89$\x0c\x89\xf1\xb4\x8b\x15K\xc0p\xda\xe6\xcb\xcdBGE\xc9\xac\xc2\x11Jh\x98\xdd\xe1$:3\x01\xaer\xd6\xb5\xa0\xe9+$\xe5\xa1{;&gt;\x82\x13)\xc0\x80s:r\xacY\x14\x8csV\xbe\x8b)\xf4\xfb\x9c\x8fW\x8e\xf70\xf7jF\xbb\xd52:"[\xe3\xfe\xa2\xe7\x1e\x07-)4\xce\xe7I\xca\xbc=W\xa0\xf0\x8d%^\xcc8^\xba.\xeak\x93-H\x1a\x0b\x1a@\x07$\xb5:%\xa6Y,Lza\xa9 &amp;\x89\x00n\x00\x82\x00\t\xc1\xa8\x1c\x10\x13\x90I\x94\x03D\x80\x1e&amp;\xe0\xfd2t\xed\xb2%\xa3\x16\xa1W\xf7\xa0\xeb2\xd76\xff\x00A\xa7\x9e\x9cD&gt;\x95\xa1\x0f\xc6s\xbd\xc7\xce\xaf&gt;\x0b\'\xa1\xc4\xda1\xf1:\x1c\x9b\x8e~\x1d8I\xe1\xb1\xfd.\x8b\x1b\xb3\x99:}F\xcf\x1d\xd4\x86\xa5\xa18OhiM\xc2\xedS/\x1e\x1b\x15B&amp;\x96\x03X\xe6\xd2\rtu\x0e\x01\xc2xhT\xf0\x1c"\x08\x00\x13Rtnm\r\x8d17A#D\xc1\x18OR\x9e\x85\x0c\xb6\xc2f\xd8\xaa\xce\xbdb\x93I@\xfb\xc1\xf0\x84 \xc7F\x16\xba\xbe3k-z\xcb\xf9\xdb\x93\xbf?o\xa4zQ^\x86F\xbc\x7f\xcf\xfe\x8e\xf1+\xc7\x91~\xfeuL\x0e\xa8GrH%\x1fO\xd7yCf\xbd\xd4\xf8\xe7a\x15\xd9\xc5\x04\xc0\xe6\x90\xc0\x90\xa4\x1c\xd6\x8eD\x10\x8a\x00$Q\xb9\x84\x02\x01\x04\'\x06\x90A4oM")\x01\x96\xa4\x055\xc1\xe2\xd26]0u\xa8g\x1d\xbd\xbc\xbd\x85}?\xab\xf9/\xa4a\xaf\xa0[\xe4\xa0\xe7\xdf\xb2\xa3\xc7\xe5\\t\xbeq&gt;\x16\xb9\xe6gi\xd2\xdb\x1c\xbc~\x87"\xa7\x0e-(\x05V-\x08\x82\te\x94#\xd9\xc9\xd4\r\xcb\xb9\x9a\n\xb5:&gt;o\xb3\xcbV\xc5\xd4\x89\xbf:\xcf\xe80\xaf*\xa9D\xc2\xc6\x9a\x93\x19\r\xb5\xa5\x8e\x13\xe3!8\x8d\xe2F4\x0e!\xa0\x83Z\x85\x1b\xa1n2\xf8\x04\x02d\xbd|mWg\xb7&lt;\xba)i\xf3\xd1\xeea\x90\xe6&amp;VR\x08\xd5\x125\x88n\xdf\xe7\xadMt\x16\xb5\x1d\x86\xf5-k\xdd\x1e5\xbd\x94\xd4\x1c/}\xcbTy\x8c3\xad\xb9\xeaP\xd8\x89&gt;f&gt;\x8e\xbc\xd6l\xac\xa2\xae\xebb\x9d\x13t\xfc\xa4A\xeb\xba\x9e\x1f\xb2\x8fY\\\xa7D\xaa\xd0\x0e\xaaa\x91\xa4\xa2\xc0\x89\x13\x1dL \x84Z\xe6\x89\x02\x00\xb4\xb4\x11\x00\x1c\x82\x19L \xe4\x12&lt;zfI\xae\x13X\x82b\xb4t\xb2-\xa7\xd0ks3\xc3\xebV\r\xa1\xe82\xb8\x03\x03\xe3d\x10O\x19\x15\xf1\xb6s\xa9eT\xb9Y\xa6Cf0\t\xf6\x02\xbe\x90\xba\x17.\xd1\xb95\xab\xd8\xf0\xfas~\x93W\x8b\xcb\x8b\xd2\xc3\x8a+\x87\x88\x88#\x1b\x81\xccshc\x84u\x12\xb0\x02KJ\x02\xe8\x90J\xc0\xd0\rrMD\xf8\xc4b|A\x15{\x90\xb2\xbc1a\xc6\x9d\x8dn2\xea\xd1\xfa\x19\xb0\x93\xd23.\xe6\x99Xa"\x00\x80z\x8d\xc1\xd4\xfa\x1f\x89\xf6\x98\xeb\xda\xa8tgX\xdb%\x90\x87\x1f\xa3\xe3\t\xe1 \xbe\xcd0\xcd\x8f]\xfc;c\x0e\x81\x9en\xf8P\xeaP\xd4\xe7\xf3z\x8a\xfe\xe7.\x04\xf6s\x87pgY\t\xad\xd3\x8c]\xd7]\xe32C\xf77\xf9\x87^W@\xd8\xe5U\x18p\xb4\x80D\x97\xc4\xf0)\xae\x06\xb0\xb96\xa4\x98\n@\x10)\x02\x03&lt;\xa6@\xfd1\x96\xcb$\t\xed\xc5`\'\xbb^d\xed\xcb\x0b\x8b\xb3-y\xa1\xa1"\n\xf1\xcb\x1bU\xf3\xf4\xe8\x93\x8bOK:\xe66"\x13I\x04\xe1=\xba\xd3\x85\xc9\xa8\xc8\x9d\xf7\xd2\x94w\xa3\x8dH\xe0\xc4\xa9\xe1\xd0\x84\xcd\x8ea\xa4\xc0\xe0\xb16\x93\xd8#jV\xa2\t5\x80\xe7\x00\x12\xc5#\x87U\xf32T\x06F\x84\x02f7C\x0f\xa3\xcbg%.\xbeLk/?(\x17G+m\xdel\x9d\x80W\r\x17\x85\x91\x19\x07k\xe3\xe8\xc5\xf4\xbd_1\xa1\x1b\xf66pp\xd2\xefx\xef;\x92+^\xd5\n~\x1e\xdau\xaa\x8fG\x08*i\xc7\xe9r\xe5\xb6\xfd}\n\xc2P\x9dHn\xc6\x199\x9d;&amp;\xb9I\xb7(2\x03T\xa5h\xd7\x95\x9a\xfd\x87\x9c\x19\xafl\xb3\xe2\x9d\x0c\xd7\xa57\x17aS\xc0{\x90\x92a\x08&amp;\x92\r$\x90\xd8\x88\x00\x08\x95\xe6\xael\x9bc,\xd0\xca\x16,U\x90w\xe7\xcf\xb6\x1a2\xd3\x96j\xd4\x95\xec\'$\x91\xd9N\xb4Z\xf3\xa3\x02\xa7U\x8e\xd7+\x93\xb5\x95\xa6t\xdc\xf4\x0e\x9a\t\x02\xc4\xd5\xac\x04\xb2\xd7x\xee\x1a\x92\x85\xb1]\xf2\xe50\x94J\x98\xf0{\xab\xbc\xa7\xb0\x02Z\xe6\xa6\x16\xa6\xb9NH\x13\x93\x98\xc2\xd0\x0e\x9a\x17\x04\xb15\xe0\x19*\x08[;%\xd1\xa3\xa9R\x95*\xdam\x0c\x08\xf7\x88\xf3\x95\xe6\x8a\xa4\x8eC\x86;BJ,\xd1g\x07E}*G\x1d;\x16\xf0\x9c\xaf\xa7\xcd\xde\xf0\xcc\x91\xbc\xfe\xbf\x1fM_b\xee+t\x8d\xe1]\xd7\x93\xda\xc4\xc7\xc6\x1c\x11Cd\x86st)\x85x\xedB\x10\t\x1c\x0e\xc6\xd5\x85_.\xba\xac\xc4\xa8&gt;\xb2um\xb0\xca\x0e\xd2\xcc\x8eO@\xe9|ni\xafm\x93\xcbz\xb4t\xea\xbc\xe3bIJAP\xe0\x1a2\x90\x0f6rZ\xe34\xd5\xe5\t,W\x90,Z\xab8\xef\\\xaf\xa756\xcc\xdd6{el\xf4W\xf1\xd3\x0eM\xea\xd3\xa67\x95z\xf7\x92k\x87\x1b\x8d\xb1\x93\xd3\xcb\n\x960R\xb1\ni p\xed\xba\xb4\xc11\xad(\xe6|\x0eC\xe4\xaf \xe71\xba[\x8bRRF\x9e\x11\xa2\xa9D\xf6\xba\x93\xdd\t\t\x1a\x805\xcaD5\x931\x85\xd1H\x01\x12\x0cOA\x1d+\xf5B\x013D\xc4[\x14\xf8\xefZ\xf2\xfap\x1f\xd0\xd0\xe0\xde\x8c\xd1\xd3\xda-g9zX\xe3\xd6\xe8\xa1\xec\xc7\'\x1b\xda\xb2$\xf2J\xbd\xdd\x12\xf9\xebww\x96\x9c\xec\x96\xeaL\xe9ng[\xdb\x17\xbe$\xd4\x90\xb9\xa1+X\xd0\x99\x8c#\x15l&lt;\x9a,\xbbXq\x80\x01\xb1L\x82\x1a\x1a$\xaee\x9d\x15\x01\xd1,\x81\x16\xcdw\xaa\x995\x11\xa9\xd4\xf0\x04~\xcfw\xc4\xba8\xd3\xd2\x87?\xb5\ns\x0b\xa8x-\xa3\xff\xc4\x00D\x10\x00\x02\x01\x02\x03\x03\x07\n\x04\x06\x02\x02\x01\x05\x01\x00\x00\x01\x02\x03\x11\x04\x12!\x05\x101\x13 02AQa\x14\x15"@BRSq\x81\x913CPr#4Tb\x92\xa1\x82\xb1$\xa2\x065Dcd\xf1\xd1\xff\xda\x00\x08\x01\x01\x00\x01?\x02!\'\x1e\x05,uh\xf6\x90\xda\x95;bCj\xf7\xa6CjS!\xb4)?h\x8e.\x9b\xf6\x90\xb1\x11\xef\x15U\xder\x88\xcc\x8c\xc4\xa7chb\xad\x1b\'\xa8\xf8\xf4\xad\xeeBBE\x8b\t\t\t\t\t\t\t\t\t\t\t\x16,[\x9da\x8f\xf4W\xa6\xa5M\xa5I~\x1c%?\x17\xa1WhW\x97\xb5\x91\x7fi)fwm\xb7\xe3\xcc\xa5B\xadN\xac\x1b)\xec\xd9\xbe\xbc\x92)`(\xc7\x8f\xa4\xfcH\xc20\xe0\x92\xf9z\xbd\xc5!U\x92\xf6\x99\x1cMU\xed\xb28\xea\xcb\xda#\xb4j\xf8\x0bi\xcb\xb5\x151\xf3\x91)\xb9;\xb7\xcf\xbf2\xe5\xc6\xf7$F"E\x8b\x16\xdc\x90\x84!"(HH\x8a\x12,X\xb7@\xff\x00E\xad\xd4\x7f\xb5\xff\x00\xd1\xaeU\xb9E\xbe\xc6\xcax*\xd3\xf6l\xbcJ[5{r\xbf\xc8\xa5\x86\xa3O\x85?\xb8\x94{\x8d7}wT\xab\x1aj\xf3\xa9\x08~\xe6=\xa9\x85\xce\xa2\xa6\xeaI\xbbz(N\xfe\xa5r\xe5\xf7\\\xb9r\xe5\xcb\x97.\\\xb9}\xf7.\\\xb9}\xc8\x8a"\x84\x8b\x16\xde\x84!\x08\x89\x1d\xc8]\x1c\xbfE\xaa\xb3E\xaf\xedh\xa5\x80\xa9\xa6f\xa2R\xc0\xd1\x8f\x1b\xc8\x858G\xab\x15\x12\xde"\xde\xe4\xa2\xae\xe3\xa7\x89[i`\xa9\xf1\xaa\x9b\xee\x86\xa5m\xb6\xbf\'\x0f\xf5\x93+\xed&lt;e]9g\x05\xdd\r\tJRw\x93\xbf\xcc\xc2\xff\x003O\xf7\xa2\x1c\x17\xaa\xdfu\xf7\\\xb9r\xe5\xcb\x97.\\\xb9r\xe5\xcb\xeeH\x8a"\x88\xa1"\xc5\xb9\xc8B#\xbdtl\x7f\xa3\xdd\x1f"\xbe/\rG\xf1+\xc5x^\xe5m\xb7E~\x15)\xcf\xe7\xa1[l\xe2\'\xa2\x92\xa5\xfbQV\xadJ\xba\xd4\x9c\xa5\xf3|\xdc/\xf34\xff\x00r!\xc1t\x8fN:t\xf7.\\\xb9r\xe5\xcb\x97/\xbd\x11D\x11\x14$$X\xb79\x0btX\x9e\xe8\xf4/s\xfd\x1a\xadhRW\xa9R\x10\xf9\xb2\xb6\xd8\xc2C\xa9\x9e\xa3\xf0+m\xba\xf2\xfc8B\x9a\xfb\x95\xf1x\x8a\xdf\x89^R_&gt;\x87\t\xfc\xcd?\xdc\x85\xcf\xd4\xa9^\x9d&gt;\xbdhG\xeaT\xdaxX\xf0r\x9f\xc9\x156\xbf\xc3\xa7\x15\xfb\x99Sh\xe2\xa7\xf9\xaa+\xfbQR\xa4\xe6\xfd9\xca\x7f6X\xcae,X\xb1b\xde\xa4\x88\xa2\x08\x82"\x84\xb9\x96\xe6\xa1\x08DX\x85\xb9s\xdf\xe8V{\xa5$\x97\xa5h\xae\xf6V\xdaX:\x7f\x9b\x9d\xf7CR\xae\xda\x7f\x93A/\xdc\xca\xfbK\x19S\x8dWn\xe8\xe899;\xbe=&amp;\x0f\xf9\xaa\x7f\xb8[\xaf\xe0JQJ\xf3\xb4~l\xab\xb4\xb0\x90\xd1\xcd?\xdb\xa9SkS\xfc\xba\x0e_\xb9\xd8\xa9\xb51/\xa8\xa1O\xe4\x8a\x98\xbcM]\'RO\xea_\xc0\xb9\xa7v\xfa4\xa5RYa\x1b\xb2[;\x13\x15wHt&amp;\xb8\xc1\xfd\x8eE\xfb\xac\xe4\x9fs2\x19\x0c\xaf\xb8h}:"A\x10D\x11\x14$X\xb1n\x85\x08B\xdc\xba\'\xeb\xb7]\x85|f\x1a\x97^\xbco\xdc\xb5*\xed\x9ak\xf0\xa9\xce_\xb9\xd8\xaf\xb5\xb1\x95:\xb2T\xd7\xf6\xa2\xa5I\xd4w\xa9)K\xe6\xfdC\x0b%\x1cM7\'d\xa5\xa9=\xad\x86\x8fUN\x7fB\xa6\xd8\xa8\xff\x00\x0e\x94c\xf3\xd4\xa9\x8f\xc5\xcf\x8di\x7f\xc7BRrw\x93o\xe7\xd0_\xc4\xce\x8f\xfe9\x08\xe4\xa9?k\x81dYw#,}\xd4:p|a\x1f\xb1\xe4\xb8\x7f\x83\x12x\x0c,\xbf(\xf3f\x17\xe1\xbf\xb9\x8d\xd94\x95\x19N\x9bqk]It\xe8\xa6RD\x11\x08\x91BE\x8b\x16,X\xb1nj\xde\x84.\x89\xfa\xc7\xd7uJ\x91\xa6\xaf9\xc2\x1f6U\xda\xd8x\xf0\x93\xa9\xfbQ[l\xd5\x7f\x85N0\xf9\xea\xccN&amp;\xb5i&gt;R\xac\xa5\xe1r\xf2\xef\xd3\xd4\xe3\xc7\x9e\xdd\x874:\x9e\x06vf}\xfb\xf0\xd8\xaa\xb4%\x9a\x94\xdcHm\xaa\xf6\xd60e=\xb7;\xfaT\xa0\xcf=\xc7\xe0\x7f\xb2\x9e\xd9\xa0\xfa\xd0\x92#\xb5\xf0\xad\xfbK\xe8-\xa3\x83\xf8\xc8X\xfc#v\xe5\xa2m\x8d\xa1K\x90t\xa8\xcf3\x97\x16\x89t\xe8\xa4QD"E\x11B\x89\x94\xca4X\xb0\xd1nz\xdc\xba7\xea\xdc\x15\xde\x85Lv\x16\x17\xbdU\'\xdd\x1dJ\xdbe~U\x0f\xac\x99[ib\xe6\xbf\x13*\xee\x86\x84\xa6\xe6\xef.%\xf7K\xac\xfdR&lt;V\xeb\xa3&lt;NS\xc0\xce\xcb\xbe\x82\xe5\xcc\xc6c1\x9c\xceg\x1c\x86\xfamD\x99I\x18tA\x11DP\x91b\xc3E\x8b\r\rt(]\x13\xf5\x1d\x0b\xc3\xc4\xad\x8a\xc3S\xebW\x8a\xfa\x95v\xbd\x18\xfe\x1c\'?\x9e\x85m\xad\x89\x9fW-5\xfd\xa8\xabZ\xa5Gz\x93\x94\xfelz\xf6\xb5\xce\x9fY\xf4H\x92qvj\xcf\xb8\x8a\xbbK\xbc\xc6R\xe4q\x13\xa2\x9d\xf2\xb3\x07\x15\xc8\xe2\\\x92mR\xd3\xeea\xb</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495704-en-cuatro-anos-crecio-la-poblacion-que-se-atiende-en-hospita</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Incendio en el Ministerio de Economía</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Los bomberos evacuaron a los funcionarios</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Según contaron personas que estaban dentro del Palacio de Hacienda, no sonaron las alarmas de incendio.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Un principio de incendio se generó poco después de las 19 en el edificio contiguo al Palacio de Hacienda, pero que depende del Ministerio de Economía. De acuerdo a las primeras imágenes, el fuego se propaga desde el octavo piso sobre la entrada de Balcarce 186, casi esquina Adolfo Alsina.Al menos tres dotaciones de Bomberos de la Ciudad trabajan en la zona, y ya fueron evacuados los funcionarios que se encontraban en el interior del edificio, donde funciona Economía, el Ministerio de Transporte y las secretarías de Finanzas y Energía, entre otras dependencias.Las primeras versiones apuntan a un "desperfecto en los cables" de una oficina informática en un ala del edificio anexo de la Secretaría de Energía. El incendio no generó daños personales, pero un bombero debió ser trasladado al Hospital Argerich, ubicado en el barrio porteño de La Boca, por inhalación de humo.En principio, se supone que el fuego comenzó por un desperfecto eléctrico y afectó a tras oficinas. Según contaron personas que estaban dentro del Palacio de Hacienda, no sonaron las alarmas de incendio.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x01\x02\x03\x05\x06\x07\x00\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf9\xe4\x81\xe7\xe4\xf4\xc96\xb0\xa4\xba\xde\xce\x8e\xc3%\xfa\xbe\xbd\xc2u8v}\xbb\xee\x1fq\xda\xe2u\x8a\xac\xc6\x86\x81\x9f\xf9\xff\x00\xeb\xbeW^\x9f\x9c(6\x19\x8a\xf5\xe7\xe1,n\x8f&gt;\xba\xb6\xec-4^\x91\x87\xd1\xd8\x9a[:\xa3\xed\x15c\xca&lt;\x9eH\xa4\x82K*\xe3\xd9\xab\xb3\x9a\\\xfa*_\xd3\xdb\x12eu\x8d;\xa5}\xb5\x1d\xc8\x86S\xdc\x86\xc2;:\xabbi\x0c\x80\xa8,\xa0\x94I,\xeb\xce\x19\x96\xc6\x02\xac\x98\x9af\x97s\xa2\xbf\x9f\xba\x9eb\xbdGw+\x18u\xab\xa9m-\xbcR\xc8s\xd8A4\xb2\xc8\x88\xac\x91\xb9=N\x10\xc4Z\xed\xa44\xdc\xfbg\xb1\x90\xcc\xa5\xf7\x82\xd7\xe6\xa5\xe5\x8c{-hz\xb4:\xb9\x1a\x90.?M\xc4\xd8t\xad\x15V\x8e\x1eM\xca\xfe\xa5\xcf\x19\xf2\x86\xf3G\x9f\xcdnk\t\xb8\x18\xb8b\x17!L\x8e\x86\xa2ei\xfbg\x0f\xe9\x95\xcea\x8e\xb0\xac\xbc\xb2g3@FJ5Rh\x1c=G\xc3\x11\x06)-\xa8z&amp;\x9d\x03Mke\xba\xaf\x9c\xf3?E\x8f\x9e\xcf\x9d\xbd\xf4\x94\x80|\xcd\xd1;\'2`\r\xadx\xacmjPQ"\xad\xb0\x12\xb6\xa3|\xfe\xe3t&lt;@s#X\x17Y5V]\xdbfN\xcd\xa7a\x7f\xcft\xb9uu^\xef\xc9\xb4\xf8.\xea\x19\x98\xf0~\x93\xcfq,\xd1\xb9\xfc=X\x04\x98^\x976(f\x83U1\xc8\xd7:\xeb\r\xcf\xde\xdc\x94\x15\x87\xc0\xa5N\x8aC\'\xb7\xa7\xb32\xba\x8e\xf2\xaa,v\xb5\x16\x90\xd8S[\xd4\xb0\xc7\xeb\xb3\xba\x84\x05@X\x0e[g]i\x06wM\x97\xd3\xb2\x8fWoG\x1bE\xe4P\n4Z\xb2zn\xb3\x83\xee\xec\x9d\xb3\x96\xd9\xef\xee\xa3\x97\xe9\xc6\x90\xcd\xad\xb47\x16 DL\xf2\x18\xf5X\x19\x14\xde0l\x1fA\xaf\x87\x8aj0\x1d\x84\x9c}\xa4!\x18\xe7\x80,\x1dE\xfc\xde\xe6\x02w\xd8\xfbz\x8e\xa1\x1c\xe39\xf76\xec\x9f1^w\xbd#\xe5~\x96\xf3\xbbW\xea\xb9\x1eaM\xc9{o\x1dg\xb6\x97\x9d\xddP\xe5S\xeat\xcb0\x01u\xb1L\xce\xbf\\1\x1f8}\x18n\x90\xac\x0f\xaa\x16\xe1o\xf3\xff\x00z\r\x0f\xcaP\xfdG\xc6(&lt;\xf8\xfe\xf1\xaca\xcd\xba\xdcr[\x0eQ\x1a\xca\\P\x8e\xc0\xda\xf8\xa3\x90\xc8\x80b\x1c\xf67\xa4:\xb6\xe4\x91u\xc8$\xe6,\xe9\x82\xc5\xe0e\xd5\xbb\x87\xd1\xbbee\x8dn\xb2\xb1\xa8\xe7h\xb3=\xa7\x07C\x9eh\xa8j\x88\xe8W\x1c\xfa\xeb.\xad\x10\x14\xfd\x0e\x8d&lt;\xb2\xbf\xa0r\x8e\x870\x94\x19\x9d\x1eyp\xc3.\x8a=$R\xd8\x06\xbe\xa0\xf3\xd7\x7fI+IKJR\x81\xbd\xb2\xac\xbcsL\xb2C\x16\x96\xcd\xae\x92\xc2\xae\xd2\xa6\x1a\x9b\xdc\xde\x86K\n\x8bZY&amp;\xb6\xa5\xb7+Q)-\x84\xfa\xdb\n\xd3.\x1a\xa2\x95\xb7\x9b\x9e\xa1\x1dr\xe7\'\xd2\xd5\xb9\xf7E\xf9\xf3t\xd3\xe8\xbe|\x17B\xd3G\x1d.\xbf\x0c\xcb\xf4~\x97\xe4\xea\xb7\x1fg^|4\n\x8f\xbd\x9b\xf9\xf4\n\xcf\xd0\xff\x00~{l\x18}\x93\x8f\xe2\'&lt;\xe9\xdd\x0b\x86L\x1bi\x97\xa9\x00\xc1{\xa7\x07\x10\x9e\x83s\xc7\x01U\xfa\x92\xbf\xe6\xbd\x9d\x83\xa6r\xc1`r\xdd?\x1f\xf5g\xebz\xcf\x9b+\x11{\xdd\x0f\'\x81\x8f_w\x1aa=\xd4\x8f\x9f\xe3\xaew\xb8\xf8\x14p}\x02\x9f;\x8f\'\xd1-\xf9\xc6\t&gt;\x92\x1b\xe7/\t\xf4\x00\xdc\x19\xa2w!\xf8\x8aC\xda\x04\xe4\rS\xd6\x06\xe5\xe8\x17\xa4\r\xcf\x9a\x1bu\x1e\x15\xb0m\x9b\x89j\x9d\xacX\xc6I\xaf\x1f.\xd8t\xb1\xe7Z&amp;\x89\xb9\xef\t\xb3\x02\xea\xbf\x8b\xd4\xae\x95\x93_L\xc5\x8c\xea\xdc\xabJ9\x96\xe3&amp;\xac\xf2\xad\x94\x8f\x95H\xf6t\x1e\r}K\x1c/%\x8e\x04\xb6\xa2\xdc\x04\xf6WbEI\x96/\x9a\xf6\xd9_\x9e\xdfIQbXD\xea\xed\xe8\xad\xda\x07\x00\x83\x80|\xc3\xce\t\xf5\xb6u\xack\xec\x9f\xe2\xa5f\xb4\xb4bA\xa0\xa8\xbb\x8c\x17\x93\xc5O\xac\xb4\xad&amp;\xc79\xa8\xe7r\xb1\xf5e\xd50\x1b\xe8\xdf\x99;\xd3Ml\xf5Vv\xceu\xa7\xb1\xe7\x95?U\x0f\x8dW:}\x1f\x9a\xe5\xd4\xdai\xaf\xa3\xa2vV\xbc\xf5\x1a\xc9\xa5\x12\x89\x08\xbem\x02\x19|\xda\x14Sn\x94\xed\x12\xd5\x95\x88%\xa3k\x95Z\xf3\xe8\xff\x00\x96z&lt;\xb7\xa6\xf3:\x9aGX,\xf3^T)\xb6\xa78\xcd\xb3Y9\x18\x96\xeb\xf2\x8abf\xd6\xf4\x8eX\xce\xbe\xf2x\xdb{t\xa6p\xb4\xef2I\xc0}\xf4\x0c\x86|\xf2\xff\x00\xa1\xd2\x0f\x9f\xe4\xef\x11I\xc4S\xb1\xe7Vs\x0b\xf2\xb7\xe8p2\xf4\xbf\\9\xe1\x1b\xd7\x91\x87\x93d\xd32Ri)`\x8aLKRnYY\\\xc6\xb2\xcaw\xd4P\x1b@\xb8}J\t"\x9bM\x07=\x8b]\x8b\x0c\xc8V#B\x18Md\xb5M\xae\xd8\xc5l\x16!qG\xe2\xaa\x9ek\x97#|Vb\x01k\x0b"B\x91\xd0\xef6B\xb2#\xd8\xe2\xca\xff\x00 s\x07F\xfa\x85\x97%P\xdeG\xb0\xae\xb4\xad\x93+\xa9\xcd\xdd\x83mOl\x14\x11\\\xd3k\x98f\xa2\x82Pm`,"\x0f\xe5\xfd?\x9b\x14\xddfu\x94\xe4\xe5:\x1f\'\xd2\xb2\xfd\x0b{Y\xa0\xd0\x1b\x01"8o\x17\xec\rY\xf3\xea\xfd\x03 o\x99\xea\xfe\xa9s\xd5\xf2L_]8O\x90\xe4\xfa\xd5\x92|\xa8W\xd2\xa2\xc3\xf3\xd9=\xd4p\xdcQ\xfdxz\xac\xe5\x8e\xe8\x83\xa3eO\xd1\xb4\x16\x06P\xcd3\x1a\x1c\xc5R\r\x0eP}Ughd2n\xa5\x90\xcd\x01\x14\xd8]\xf6R\x87\xd0i\xe9\xec\x98\x13\xe8\xdbh\x99\x1a\xc2\'\x8d\x12\x0f1\xab"B\xe6\xc6\x85\x86=\x05]\x16\xc4py\xee\xca\xc2e\x81\xccT\xf6 \x12\x14\x8d+\xf2z\xeel\x8dSM\xe6\xd2&lt;\xd9|#N\x00\xd97P\x1e-\x93\x1b|\r\xaf\x1f\xa3\x9c\x9a\'\xd9U\x82\xf9\xabc\xdb\xef5p\x81d\x04\x1b?\x01\x1d\x1a)\x9b\x17\xb4Q"=\xa25X\x86H\x8c\xf4\x0fD\xf3\x07\xcc7\x8c\xb3&amp;\x90\x97K\xf6UX\xb0!U\xc2:\xae\xc2{\x16\xa3EIp,\xb8\x08\xaa1\x024RA\xbc\x08\xda\xc8#\xe8\\\xcfpW3:({J\xbbZf[|\xd6\xa2!3\xbb^e\xae\xb1y\xc4\xd7\xa1(\xfa#S\x96\xd6k\\\xf5\xc2\x13\x00\x99\xcdk#\xe7\xbdr\xc22v\x17\x8c\x8bL\xeb I\x89,P\xca\xa6Z\xc0%rY\xb5\x1a\xa9\x96\xcc\xad\xaa\x03\xd1\x04\xadS\x01\xf5Kc\x03\x12\xbe\xb8"\xdb\xdc\x95\xc5[i\xae\x1aQ\x93\xa1\x92\xea\xe8=\x7f\x13\xae}\x9ah\x84\xa7\x96\xd9\xd2S\xfa\xd9\xac\xb4\xef\xb6C+\x12\xcd\xd0\xd4-\xab"\xd5%\x8bA\x11\xf2\xc5"0Z\x95\x9a/A\x0c\x86\xfa\xba\x12,\xe0\xab\x80\x12y\x96\xdb*\x93\x9cI\xad\xad\xa4Ux\xab&amp;\x14D\xdf\x00&amp;\xef#c\x97yqmWu\xc8\xe9e\\_\xaeI\x11&lt;C\xbc\xa8\xc8\xd1\x0f\x146\xa22#\xcf\xa3\x13\x14\xe3\xe9\xc9$\xb0\xbc\xc9\xe3U\x11\xbeX\xe4r\xc6\xad$j6\t\x11\x8a\xc0\x92\xeb$2\xe4\xeaC\n\xd9\xc9\x04\xae&amp;2\xbac.\xa9\xcc\xabV\x8e\xca\x8e\xf5M\xa0\'\x0b\x1a\xba\xde\xaa\xccD\x8c\xc1I\xb6\xcfh\xaab\xda\xb0\x81\x84+\x15\xb9C9\x89\xb64\x0c\x9fAj9\x9e\x83R\xed\x9e\tV)H\x0f\xa4"/ \x8d`\xc2#X\x89\x04JrC\xe6%\xc5\xaa\xfa\nd\x86\xd9\x95\xad\x0fa\xea\xe6#XD\x03C\x9f%BI\xad?\x9fF\xe3\xa8\xb7\x95D\xc3\xac\xcf\xc6c#\xb6G\xc4b\x93\xb7\xc5\xc3\x9b\'g\x0f\x8e0\x8e\xc1\x17#l\x1db\x1eV\xc0:\x94\\\xd5\xd0t\x01\xb0\xed3c\x06a\xa6\xbd\x14y\xff\x00D\xbc\x8a\xa62\xb6\x83\x8e\xd2\xa5F/\x8a\x92\xc8\x14\x89}\x03d\x9f\xc3z).\t\x90\x1e\xd0b\x92\xc1\xb5\xec\x8dl\xea{U7\x17\x94\x96\xd87\xd4\xb5#\xb2\xa9\xd1\xdeh\xab\xef\x14p\xa4\x8e\x1fS\x0cKU\xd9\xd0l\x81\xba\x9f=\x16,\xae\xf4\xc6W\xb5\xc12\x14\x8c\x92DTH\x15[\xe9\x1c\xa9\xe8\\p\n\xc2\xea\xc35fF\x8ezK\x82\x1f,$\xbc\xc9h\xef\x9e\xaf]QuP\xa7\xd7\x14\xf7!\xa7\xae\xb4\x05a\xd5\x97\xd5a\x8e\x1e\xd1+3\xea\xe95V\xc5\x1bR\x06\xfc\xd9\xbamv&gt;\xb6\xcfK\x91n=\x1b\x06\xe5\x18\xc3Z\x99!\x08\xd9\xcb\x89\x92.\xbdq\xd0Cf\xfa4\x12\xf9\xd9\x9a\xa97Q\xe0\xcd\x07O\x15"\x83f ,`\xb5\xf651_\x0b\x1eU\xac,"\xae\x1eYd\x85\xf2\x1f\x18J\xe3\x10\xa4\x91\x9f\x02\xda"&lt;\x83X(X\x05J.\xb4\xa0e\x1aA\xe4\x91\xa5\x86W\xde\xb0Pi\xd2\xc5\x84\x04\x87\xb2\x00\xbc\xba\xe6\x19\x15\xe8\x92\x19\xce\xdd\xd0\xe1\x13\n\xbb\x8fC\x88]\xe9\x0c9\xf3:\x1da\x18\xafl\x06\x13\'i1\xa8\xe46Y2\xea\x05\x85\x8eW\xcb\x1c\x85\\\xe8\x9cI!\x92*\x8b\x92G!.\xce\ti]eLU\xf3)\x04A9\x15\xa3\x9a;F@hQe\x90wI+^\x80\xa3\x91$r\xb5\xc49\xcdp&amp;\xdb\xe7\'3ai\x8d\xd1\xb8\xd2i\xb3\x1b\xa3\'\xe4?P\x8e\xad\xf2\xdd\xed\xa5Z:G\x0c\xca\xda\n\xbb\x8a\xfa\xac\xb6&amp;[\xbcw\xbe\xc7E}\x9e\xcaJ\xfd\x05g\xa4\xe4\xd0\xf3\xce\x9f\x833\x81\xab\x07\xc3|\xed\xadu\x95\xd8\x8d)\xb25\xfe\xb1[+\x1fn\x1c\x99vEank0\xf4#\xad\xb9\xeb\x80\xe5\x07N\x83\xcd,\x87-\xa5\xaa\x8b=.\xb0\xaa5\xf3\xe17\xd5\x86\x90\x0e\xb6x\xb6\x8c]\x1c\x10\xe5lN\xf5\x94\xe34\x95\x1bS^n\xbfF\x02\xd9\x9f8\xb3\x9a\x9a\xeaMMI1\xdd\x07t\xad[_rT4\xb5\xd6\x84\xbdP\x8fw\xe12#\xe8\xa0d\xaa\x10\xd9\xde\xba\xce\x9b\xccZ\xc3\xb0\x0f\xca\x9a\xc3\xaa\x85\xcf \x13\xa1\xb7\x12h:\x94\xa0\x945\x8d|#@lr\xca\xb0\x0b5(\x1a\xbb\x1a\xf1\xa9\xba\xfe\n\xd9\xa1)\x14\xa8B\xf1l+\x14RE%\xf3\x95\xf4\xe8\xa4\xac\xb4\xac\xb6\x84\x91\x922\xc8L\x134\x10b\x87\x8a\xa1\xd8\x83#$\xf3\xc8"#\x06\x84g\x8d,\x8e_8\x1f/\x9c\x0b\xd5\xaf\x0c\xeb:\xc9\x0c\xd9v\xdf\x9b\xb6e~\xa2L\xbe\xde\x16\xf2\x8e\xad&lt;\x1f#\x91\xdb8\xddv\xde\x8a\xe6\xe6\xd1\xa3\xd6fu\\\xcd\x9d\xa2\xf7\x99Z\xe3\x1c\xef\x9d\xde\xf2\xce\x8a_QW\x07\xbb=Mm\xf4:3\xd1\x1e\x860\x8eYl\xc4\x81\x90\x8d$Y\xcd\x8ev\xca)l\xfbvv\xc5\xc7\x1f&lt;\xf4\xe9\xce\xb7F\x1c\x91\x1d9\x10\xe3K\x15\xeaoL]\xc6.\xa7;gQ\xcf%\x99\x16j\xe0\xd5Ff=4\x0c3\r\xb9\xcb\xb5`\xecq\xfb\x96Z\xba\xfb\x15\xa7]A\xf3\x1b,\xacm\xc4\xb1\xe8G\xd326SM0mV+u\x8b\xbe\xd1\xca\xb0\x1ej2\xd2\x87X\xc9\x84Y`\x1a\xca\x8e\x86yda\xc0\x07$\xa5^\xd3\x88uYT\xe2\xcb\x06[B5\x94\xd8\xc45Y\x0e \x80[\xdbf5\xefCa\x9b\xd8\xf6W\x8bp\xe2\x99\xf3,D#\xc5\xd5E\x05\xcb@%\x86\x89\xae\x8e\x8d4@\x98\x9a2\x83#\x98A\x13\x8cC\x01\x86&amp;\x18\\\x1d\x88\x02$\x91\xccA\x91\x13\x14\x15\x91\x90\xd8\x06\x9d\xaf&amp;o\x1a-n\x8e\xf3\xa4\x92\xea\x92\xfc\xca\xa7\x90"?E\xea_7hU\xbe\xba#\x8at\xc6]=U\xcc\xae\xbf&lt;\xd5}1\xc5pk\x8bE\x9f\xb3\xe5tv\xc5\xe7\xcf\xc3\xa7\x94s\xbe\x9b\xcc\xfd\x07,\'\x1c\xe7Q\xd6f:VGp%\x89Q\x1aImr{[\xb8a]\xbf\xeaY\xcb\xf2\xed\xb9/k\xf5\x8b\xf0\x9e7\xef\xff\x00\x8d\xe9\xb2Mg\xd1Y\xd7^;\x93\xfa(\x18~_\xce\xfd{\xc63m\xcf\xfd1\xc0\xb5\\?\x7f\xf47\xc5\xbdS11\xf3}%\xc4\xbbZ\xa1\xb7Q\xd7\xd8\xa6\xf5\x9c\x06\xb0\x96X\xca"\xb26\xaet\x19\xa6\xb3\x10(\xd9m&lt;5\xedzj\x0b\x1d\xe4g\xc7\x12+9\xbb\xc1+\xaf\xef\xcdA\x93\xd8\xe0\xef\xe0xg?G\x12\xb5t\xefF\xa1\x1fU\x9f\x8du\x948t\xb2(\x0c\x10\xad\xd4C[\x8d/4rZW\r|L8\xfb\rc\xee\xc5D\xf7\xb7\x9f\xad\xee\x85\xb0\x10\x8ct1@J\x15\x06+?\x11s\x19pQ\xa2\x80\x8a\xf6\xe8\xccx\xeb9Qd\x9f\xc6\x05\x11\xad`\xda\xdb:\xd0\x1b8\xe44\xb1\x84\xc1\xe1\xad\xf7\xbc\xa276Y.\xeaoi\xd5\x83\x99\x8c\x80\xc7Gf\xb6\x07"*\xb3\xc9\x1eU\'o\xb9\xe1\n\xff\x00I\xf4O\x94w\xe0wis\x1a\xeb\x13\t\x86\xef\x19\xcc\x1a\xb0\xb3\x80\xceoD\xdeW\xd2"\xbe\xbe+\xee\xa9\x9c\xdf\x97!&amp;\xb2}\x14d\xeb:\x1du\x89\x88\xeb\xdc\x97\xbb\xba\x06U\x99\x8e\x83\xe3z\x06i\xe9\xe9[&lt;\x1b]:\x1f\xc8=\xab\x84V\xfd\'\xa4\xc1\x83t\xb4\x1f\x95\xf58\xd9\xcf\x9c\xb5x\xaa\xaf\xb6\xe9\xfc\xbb\xa3s}\xb8\xd91"\xd5\xe7\xa6\x80\x07t8\xb5\x82MZ\x88_\x83R\x85xD\x80\xa6A\xe8ecR\x073\xcb\t\xdds\x90u\x9c\xde\x97\xd2F\xfc\x9e\x97\x14\xcfT]\xc4\xba\xbc\xc4z\xcc\xfd\'\x9bt\x8ep\x0c.\x8dw\xf9ia\xf1\x14\xda\x0c\x17D\xd5\xaf&lt;A\x15\xc4\xce5\x88\xb7c\xb5\xec\xdc+iju\xd1\xb0t\x99=?T\x83\x98\xba\xad=\x1e.z\xe5|\xe9\xd4\xf0Y\xe54\xce\xcd\x14%\xdf\x825\\e\x99\x90\xb9\xc38\x8d\x13\\\x94_T1\xcc\xb6\xaa\xc1ob"\xa4\xdf\n\xe9f\xda\xa9\xcc*7N\xd5\xd5Gt\x14&amp;\xc3#$\xa7\x91\x1cTyc\x9d[KOwP\xac\x14E@\t\xfd7\x9d\xf6\xaa\xac\xe0\xa4\xc2\xc6\x07I&lt;\xc9`\xf2\xb5\xf5\xb9GWOS\xee\xbb\x87\xcczd\x7f\xabg\xe4}7VW\xf2&gt;\xd2\xa8\xfc\x16M\x1e[&amp;\xbc\xf8\x05\x05uC\x9c)\x1b2\xcb,/\xb9i\xb2=\xb2\xb6.\r,$2\x88\x0b)]$:\xa4H\xbb&lt;\xa7\xa8\x04y\xdb\x02cA\xcf\xfa\xb6-g3\x9a(\xee\xa7E\xa2\xa4;\x97\xef\xf2V\x15v\xdd\xef\x9fW\xacp\x00\x1dm\x80Y\x9a4\x97\xc2G\xe9\x12H\xd2V\xc9\x1a&gt;3&lt;\x9ei\x86\xf5\x8eI\xd6s\xfa\x07$\x93\xe3\xf5|\xd4\x0e\x903s\xb0\x05l\xad\x017\x92u\xfeSn`\x1a\xb1\xf4|]\x85\x95wE\xabFdm\x86\tl\xa9\xf5D\xe6\x9b\x16\x95h ;\xfc\x8e\xb2\xc3\xad\xc4\xf7\x10l\xe8\xf0\xe9\xbe\x98p\xbb\xe6\x99\xbe\x8eSW\xc8O\xcd\xbf\x1f:\xf2 LW\x08\xe9\n+\'\x89j]\x03\xc6X\x9a$\x92jn\xa2I\x16\xfa\xda\xe8\xd9$\xc9\x1b\x88l\x07zJv\\1\x94S\x04\x1eK\x86\xd5\x94\xc2a\xcf\x90L\xef\xaf\xea \xd1\xd3Z\xd6B*x\x9a\xd8\xee\xe3\xc3z\xd2?\x15\x8e\xc4\x16\x1b;\xba{Jl\xc6\xcfZHc&amp;\x95\xb4]!\xc1OU\x96\xdb.~R\x9f\xa1\xb7?+t\x9d9\xbb^\nk\xfd4|\xea\x17x\xe2\x94_RT\x04hI\x15\xae\xb55;\x8e~R\xcb\x0b\xda)\x95\xb69\xba?_O/\xfa\x017Q*\xa8o\xa3\x89u\xcc\xb6\xbc\x8a\x1e\xe7\xf2/\xd3?\x1f\x04\xcd\x8eh\xd6i\xd7\xd2\xea0\xb8}l\xb3\xe5\x85\xeb\xf8[\xd1-E\xaaW\x89\xbf\xe8\x08\xff\x00?\xb3\xaa\xf2b\xae\xf0^\x84\xa6\x93f\xa6\x81\xae\x8d\xd5U$\x82~\xbf\xc7\xfa\xfe_D\\\xac\x9f\x0f\xb3\x85\x92#V1^l\x13s.\x9b\xcf\xac\xe6\xe7\xa0\x9a.\xaf\x827X?\xb9\xfe\x97=\x9f&lt;\x9b\xf8 \x90\xe4+3\xe0&amp;\xc1&amp;\xdb\x1b\xacu\xee\xd5vt}&lt;\xfb\xd5\x83\xd7,\xcd\x85\x14\xfcyY\xa9\xa1\xf3\xbb\x86=\xa5\xb0!\xea\xf4s&lt;\xf6\xa5\x81;\xcee\xd0/\x9f\x9bN\x06s#\xd5\x91\xc5U\x8eN\x89\x07\x944\xc9\xe9$d\xf0\xba,\x9e\x8d\xe4\xc09\xea%&lt;\xb6m1\x85\xd7@%\xdbk\xec\xcc\xab\x0fY\x1c\x14\xdb|f\x9d^\x8e\x96\xe2\xa5f\xa2\xc6\x98\xe5|\xe1a\x9a\xa2\xe2\xae\xda\x96\xbb\xacJ\x8a\x1aM\x81\x02K]\xa6\x17Y4m\xc6\xe3\x89\xd8]Wp\xb2\xe6\xdd3V~9W\xd6\xf9\x082\xab]b\x9f\xd09\xee\xf5\x8d\xbe\x03g%M\x8d?H\xc7X:\xcf;\xde\xdd@\x8bY\xf2\xf1\xaf\xbd\xd1p\xbe\xd2\xb3Q\xf3GA\xe5%3&amp;\xd7\xdeW\xdd\xd2\x1dEE-\xa6\x0bQM\xbf\xcdu\x8c\x8eSB\x07^\xb1\xc8j\xa9\xb7\x89a{\x07/\x92\x9es\xa6*.\x96\xbe*\xec\xa6\x10\xa1\x9d|\xa8\xe6Iz\xdf#\xeb\xb9\xbd\x05\x81#\x91\xce\xf6\xfb\x0c\x96\xba^\xe7\x88\xc0\xf4\xaa\x9b\xb7\xaf\x98\xe1v\x19.\x17\xaf\xcd\x0eH\xfd\xbf\x99\xd9u\x8eE\xb5\xe2\xfb\xec\x98\x8a\x16\xef#4\x11-\xf8\xe7p\xf7."\xd4e4\xac&gt;\x81\xa0\xb7\xa4\xdfN\xfd\xcf\xf6\x9a\xda\xaa\xd9&gt;]\xcd\xec\xf2\xde_\xa9\x14\xccu\xaaC\xe2x6(\x89]\xb0\xfb\xcde\xd2\xc7c\x06M&lt;\xc2K \xb6\xe1\x90\xd8d\x86\xceX\xe6\x0f-5\xddh\x95\xe5\xfax\'37\x11\x1a\x165\xf0\xa9I\xe8\\\x90K\x02\x0fa&lt;zrOh\x12XR\xbcKj;\xbb2s\x07YD\xa7 w\x96\xb6\xbe\xce\xe8s\xa8\xd7b\x94\n9e\nJ\xb3\xde1 \xc8\xf6HA\x9b\xfez\xae;\'/\x89.\xac\xa7\xc4\xe6\x9a]\xde\x1f^#\xcd\xc6\xee\xd4\xdef\xb45\xb6\xd3b=\x955\x8b\x8b\xf9w\xe8\xff\x00\x9c\x1d(\xfe\xdd\xf8\xa7\xeb\x90\x9f?g\xfa\x9734\xe7\xf5\x19\x8d\x86\x1fmYN`\xba\xb8G\xe7\xae\xe8v\xf1f\xd1\xe6\xef$N\xd9\xf3\xfd\xb5O\xd89\xa0\x80\xa8\x19#Z\xec\xb0`R\x04\xcd\x85`\r\xd1\x8fc\xca?\xac\xf2\x9e\x97\x97\xd1ZZg\xecy^\xff\x00oL ]\xbf\x11[\xd59\x06\xe5_\x0fWg]\xc5\xf5\xf9a\x08\x1f\xd1\xfc\x90\xddFK_\x83\xd1f+\xec\x01\xd1\xc5\r\xdeKh\x97}\x81\xdfX\xb9\x1b\xcc\xe5\xc4\x9fIf\xf5x\xdd\xab\xd4\xd0Gi\xa4\x96\x8e\xf0\xdf:eu\xf9?1\xd5\x81\xc8\xeb\xa9\x9d\xc9\xe0N\x8d\xcd\xae\xc8\xd5\xae\x93_\xe5v=\x98\xea\xdb\xba}Ydd\xcc\xb6\xb3\xc9\x80\xa5w\xd1^\xd6\xa8\xcd\xcf87Ug86K4#m3Y5gF4\x1dT\\\xcc\x89\tm\xa6|ks*m\x0c\xb12\xb5\xf2-u\xd4\xa8\xd5V\xf3\x8c\r\xad\x1bd\x05\xf9\x8d\xe1JrUz\xaaTh\x8a\x14\xa5d\x96\x19L\x9bg\x90\xdd\xc9\x97\x8ch\x9e[\x97_b\xd2OJH\x17\xdb|\x7fV\xcey\xbe\xa7\xa8\xe0(l\xe1\xc7\x89\xd3\xcf`\x1d\xdc\x0e\x94|K\xb8\x16\xf5\xf0\xad\xf7B\xe4/K\xben\xeb\x9cY\xb3\x91\xab\xceix\xbfN\xa5\x7fL\xc1\xf5\xfey\x9e\xa3\xb7\xa5\xba\x92.im`\x9f\xd5KM\xd6**\xa5lO:\x17\xcf\x17\xab9\xd0\x8e\x0bH\x8d\xcdsW\xee\x8f\xce:&amp;_Gg\x1c\xa2\xf0\xfe\x8b3\x99\xd3\xba\x1c\x1c\xbel\xc3\xaf\xc7@\x19\x90r}N0b\x85\xf4\xff\x00\x1b\x9fU\x96\xd2\xe5\xec\xd1\x00`6\xf2\xa0\xf2%\x94\xcb\xd3\xb9wN\xb4s\xed\x06r\xf9O\xd2\xd9\x1dF?\xa0\x9dM\xcc\x92\xfa\x91Q\x01\xf9\xd3\'\xad\xc9y\x8e\xa4k\xe6\xddY(\xc7\x82g\x98\xfa\xde\'\xa9\x02i\xa6\x14\x8c[3\x14\xd7\x94\xbb29\x13\xd6\xd7a&lt;\x04+\xf8C\x06R\x15U\xe5]\x95\xc7h\x01\xac\xbaQ\xdf\x05\x17\xd7\x8f,V\xd7l\xef$`*\xac\xea\xa2\xb6q\xca\x92\xc2\xe78j\xb6\xac\xdejln\x84n&amp;\xdd\x0e\xb3\xd5R\xc7\x0f\xc5\xcc\x96\xc4l`\x89-yN\x92\xad\xf7N\x0b]\xba\xc3\xea\xd8\xe5\xe3\xf3\x16Mi\\T:I\xe94\x15Y\x7f\xd2\xf9\xae\xb7=\x9a\x8a\x98\xe5\xa9\x9c\xdfa:\xf8\xba\t\x94\xe2]A\xb2\x11xW7\xf3\xc7\x7f\xf9\xd0\xe4\xcf\xf3\xbd\x967B_\x1d\x1c^{\xea\xf4$8N\xef\xcb}UgUb\x91iQfC\x08\xf5\xfd\'&lt;\xeb\xe8\xa0\xa5\xf1*V.\x97E\xda\xb8}?\x95F\xb7g\xa2\xe7S\xb2\xf7\xd6\xadF\xbb?\x7f\x87\xd0\\\x02h~{\xe9I\xdd8\x87X\xefx\x8c\xc4X\xbe\xb1nN[\x1c\xcc\xf3\x7fD\xc6\xc31~\xab\xe3@Gj\x14H\x81\xb0\xab\xa6\xc6\xb3\xcd\xb2\x89:\x97,\xeaV\x1euqKo\x07\xd2\xb9-nSb\xf4iG\x93MOc\x94\x1f\x9f\xb2z\xec\x8f\x9a\xea\xb1\xad}\xf4\xce\xc7\xb1arB\xfa\xadt\xe2\x15&amp;\x8c\x91\xfd\x8fe-!\x02\xeb\xc6\xe9\xa1{\x82\xd5\xac\x10\x86\xc5(&gt;\xa7\xba\xac""b{.\x82\x1f6\xabk\xa2{.\xaa\xe5\x1c\xc5`jn*\x01i\x83\x98U\xd2\xc38j\xd2"&amp;\x02\\\xe6Wc.)l\xc3_[\xe64\xcbl\xcf\xcf\xd9Id\xb5\xb6$\xb1\x0ez\x90\xcfk\x18PzV!\x9a\xc0\x13\xebr\x8d\x04\xba\xad\xbb\xd5c5\x88\xda:\xa99}\xb6\xe5\xcd\x92~\xc3\x0b\xd5\x02\x19rt\x97\xf3\x9ea\x9f\x99}\x92\x0f;\xa32\xd2\xcd\x05\xb6\xea*\xae\xa8\xbc\xff\x00\xd2\xcf\xcc\xdb\xd5w\xfe]DL\xa0\xad\x8f\xb5\xaf\xbc\xb2\xa1\xef3\x85X\x96\xf5\xcd{\xc6\xca&lt;f\x11\xe1\x9a$\xad\x8f\xd0\xaf\x98\xe5&gt;\xd6X\xd8p\xfd\xcd^\xbb%\xa8\xe4\xfa\xdc\xc4\xe2\xc5\xa6\x8d\xf6!\xe9\xbb\x92\x13_\xeew\xa1\xc5\x1a!\x9e\x9f\xe4-\x0c\xd0\xec\xc7\x15]\x9dU\x161=\xeb*\x7fR\xe5\xbdM\xe76\xb6\xab\xb0\x13\xe9\x8c\xc6\x96\x83p\xddM\x11\x17\xd3\x1f\xa6io\x9f\xf2z\xac\xa7\x9a\xe9A\xef%\xf4\x91\xefyX\xa7"\xd5r\x13\x04\xc0i\xfc\xc7d\xd5\x9c\xa8\xb8\xa4\xdb\x92Ia\x91\x90\xb7\xb5+v\xacN \x9a\xdb*\xc8\\\x8eG[\x87F\xfa\xed\xadb\xb5\xeb\xb6O00\xb5V5\xd1d43LG\xb5\xcaC0R\xe1%\x9e\xf2?\xad+,+\xb0\xdd.[R\xb6\xd4\xc6\xb0\xb2\xc5\xa3\xce\\\x19\r\xf6V\xf0\x1bKj\x8b\xb4|\x9bQA$\xa1\xa5G0\x91f\x16Y_g/\x95\xad\xf9\xce\xee\xb6\xebsu1K\xdb\xe7\xe9A\xcai\xf9\x9d;&gt;\x07\xab\x8a\x9cTa\xefk\xc7_\x10N\xa8\x04\xd4fkK\x96\xa7er\xa5\x97{\xe6\xb9\xb1\xee\x00(Y\xe2\x8ea~c\x98H\x88\x869Y\xe9\x15\x13\xc6+\x9d\xb8\xcd\xd0\xc6\xe9o\x83\xe1\xfd\x06aQ\xb8\xbd\x13G\x9cK3t.\xbf\xc9\xba\x97\xac\xf9\xa9/\xa0\x7f_\xce\xd2\xf1^\xe9\xc2&lt;\xa7\xd1\xb2dC.\xdf\x1c\x83\x14.\x8e`\xf5V\xb54\xbb&lt;\x8a\xe9/M\xe6\x1d)\x8e\x0c\xb8$#\xe9\xaa\x9b \xf6\x0b\xa3"\xb5\xd1X\r\xb4\xf3\x0f\x9e\xf2V\xf4~o\xa2\xc74\xabk\x9e\xc6\xdf~\x9d\x9e^\xde\xdd\x8ba\xce$\xba:\xacq;HmG\x98Q\xf5\xcc~\x9c\xf9I#,+\xd4\xa3\xaaz\x19\xa3\x90\x82\xe9t9\xf8]\xe9\xc6ag$\x0fX\x02{\xcc\xb6\xcd|i`5\x96U\xee\x93\x1e\x01\xc0\xb5\xd3B\x18b\xc2(\xc2Z\xd7%\x8f\xb2\xab\xb2\xa9\xcc\xd5\xd2u\x9cZ9\x0cs&amp;\xa4\x0e\xda\x9e\xd9\xc0\x16\xf5\x16`Y\xdc\xe6\xee\x16\xca\x95\x8d\xe9d\x93\x8f$&amp;\xce,\xcbe\xbd\xc9\xbdSn^_{\xd3\x9b\xd7\xe5|\xed\'7\xb3\xbe\x9e\x89I\xce\xa9hs\x19\x13\xfc\xd7\xbc&lt;"\x06\xe7{O\x0cK\x1e\x89r\xbal\xce\xbe\rk\xe4gs\xe6\xd5Q\x16\xa5\x01\x94\x98\x18X\xb9\x8aC\x91&lt;\xd1Q\'\x96Ekko\xc8\xf6\x97\x1d\xaf\x87\xdd\xf9\xcf_.U\x04\xbfO\x9a\xc6\xd8\xee\x14\x90\xdf6\xff\x00{\xcd\xba\xe7\xa7\xf9\xc9\xf5\'\xc9\xd7\xf39\xde\x15\xdc\xf8\xcf\x9a\xfa\x0e1J\x17O\x9ap\xa4\x8b\xaf\x8a5M\xb5EV1\xccV\xad\xdd\x1b\x9cj\xcc\xafc\xe0i\xf4\xb4i.\xc5\xb1\xbb\xcch\xae\xaevB\xdb\x07\xccM\x7f\xbc\xd7M\xb7u\x17\x12\xfe\x83\x15\xb8\x9dz\x8a\x8e&amp;i\xe5Vo\xf9\xf9\xbes\xdc\xee\xdd\xcf\tF\xdc\xe3\x14C\x93\x93\x10\xb2\xe8\xe0E\xa9\xa0\xbbU\xcc\xbdY]\xd6\xe6\x0b\xd0\xec\xe9\xe7\xc0oP\xd08rY\x01\x8b5Z\xdduZ+\xe50\xf5\x8e~\x8d\x96\x02\xda\xa7vy\xac\x00*\tcUV\x0c\xb1\x08`cU\xb4\xda\xeb:\xbb\x10\xce\x98f\xa3\xb2\xe2\x96\xf8\xc1\xadj\x1d.\x9a\xd6\x98\xb1]\x95\xbdY\x8bms\x9a\x8af|2\x16/G\x9a\xe97\'[\x9c\x1fz\x9f9e\x10\xb0\x89\xf2Ga\xe5\x1d\x0e\xb1]\x9c\xd9q\xccz*\xadj4&lt;\x0fw8\xb6\x82r\xbd\xb0\x15\xd6a\xd8\x92\xe7\xf4\xd9]&lt;8R\x18;\xff\x00/j\x04\x85&amp;\x8d\x8fce\xe6\xfa\t\\N\xa37f\x9f@\xd7s}|\xcf\xf1\xf9zU~lt\xf4\x9f\x1a0X\xe4G\x0b\x1e$\xc3=\x17\xbd\xff\x00\xe6k\x9e\xaf\x98\xef\xcc\xc3\xd4v\xfc\x8e\x9f\x8eG\x0f\x9b\xf7\xd4\xe3\x11A\xd2\xf17B\x85\x0e\xff\x00&lt;EM\xa5M.\xc71\xce\x8e\xd9\xe2\xf5\xc0\x8b[sN\xe3\xe8\xb3*\xad\xb5\x94\xd4e\xf6\x17S\x1b\x9e\xb6\x0f\x94\xdd\xe4\xf3\x9d?\x16/\xa4\xdb\xf5^\x03iwS\xbf\xe3\xf1\x16\xf6\xca\x82\xb4\xae\xe3\xf6\xe8d\xd3M+\xa9\x12\xf75n^c0\xe4l\xf3D[\xd3\xdb\x81\x9bj\xb2\xbb\xed\xba\'\'\xb9\xb3U\xcd\xf8\x99S\xad\xc3\xd7\xcb\x9b\x9f\xa7\xea\xfc3m\xcb\xd7\xd6\xf9=\x8eg%\xd9:+\x1a\xcfC\xc9\x9c\xb1\x0cu\xf4\xc3\xaa\xb0\xe5\x08S\t\x9c\xd6\xd6\xcf43\x16\xc3\xb59M\x96\x0e\xc0\x04\x97\xa6\xc5\xdf\xcbV\xf6\xfck\xcex\xdb\x1b\x1d\xfel\x17\xdd\xd6\x04\xa3\xf4.\xb6\x89\xa5\x86A\n\xd9\xe2/:9;\xe0\xfcR\x83\xab\xcd\xefX\xca\xae\x8c\xa7\xe6\x01\xfe\xb5\xf93\x0e\xaaGlI\xe5t\xb2\x96m\\\xbe\xb1\xf1]\xc7\x8b\xd7\xd2\x83}F\xd5M\x9a\xd2\x03\xa3\x97\x95\x81\xcc\xf4\x1f*\x19\xa4)\x81\xc8]\xa5z\x82\xbf\xba\x9f\x99\xed`\xd4\xd0St\xfc\xb7E#\x9d\xd8j\xe7h\x80\xc8\xc4\xf9\xed \x9e\xdb\x89\xef\xe8\x96\xf8L\x1d\xfa\xc7\x9a\xcbs\n=\x8a+\x88\xe3Un\tLdQ\x9d3a\x07\x9ct\x9e\x7f\xd3\xf1-e\xc5/G\xc8\xda\xd3[\xd4\xa3D\xa8\xae\xab\xa9\xcb\xe8\x81??\xa4\xcdX;\xfd9\xb4\x1a!uw4\xcf\\\x9a\xccV\xce\x1eM\xe7{\x89\xd0F\xbe2$\x9a\x12\x18t\xfes\xd29E\xf5\x91\x13\r\xcdq\xd1\\\xc7\x93fn\x12_\xa7 S\xb2k\xab\x96\xda\xae\xe2L\xaa\xba:\x9f\xce\x89\xc6t,N\xc3\x10D\x8a\x8cG&amp;H\x15Zd\x8f\xc2\x0f[eX\xed1"\x14\xf5:X$K\x07&amp;\x02\n\xbd\xecDyL\x0c\xfa\xde}\x9e?O\x87\xd4\xc8U,Iv\xa2\xae0\x83\xa1U\xc2o\xf2\xb7r\xe7\x9f\t$Ti\xa2T\x92\x1aF\xb7\xad?\x98_\x97\xe9;\xef\x90\xfa\x17[\x9f\xf4M\xcf\x10\xc84\xfa\x13\x90\xc1c\xc8\xeeAc\x9f\xbc\xe5z\xac\xf0\x95Z+nd\x8c\xaf\xc1\xeb\x99LP\x8f\xce\x92\xf2\x80\xe5\xbe8\xb5\xb5\xfa9\xf9\xff\x00t\x12/\xcb\xcd=\xb2\xc7\xe5\xe93\xce\xf5;\x1d\x91\xda\xe5{\xdf6\xbe\xea|\xa7\xa0\xd1\xa2\x97\x9aj\xf2\xdayV\x96PK\xce\xf6U\xb9kJ\x8e\xa7\x88c\xdd\x1e\xce\x1d\xae\x9f/\xa5\xe6{\'+]\xc6\xf7O\xf2!\x0b\xe5Ha\xe7\xdd\x0b\x9f\xf5|I\xb5F\x83\xd6\xf1\x16\xf5\xa7\x80\x86\x15Ea%\xf5\r\xb0:L\xa6\xc3\x1d`\xed\x94wY\xe4\xe8J\xe1\xfd^\xdb\x92\xf3O\x16e\xda\xa9\x9f\x96\xf6\xaa\xc0\xe2 \xe8\x8c\xb70\xec6\xba\xb2\xf3R\xe2\x8a\x9fAya\x99uZ\xb4\xc3\xd0J\xf4\xf0BB\x89\xf8\xb7\xbal&gt;\xa1\x1b2\xa3%N\x8e\x8aF\x9b\x8c&amp;\xeb\x08\xeaTO\x85\x0c\xb2\xb3@.\xa4U\x92\xb5\xae\xaf8\x0b+&amp;X\x083\xceDR\x93A3G\xb1\x1a\xba,\x0b\x1e\xca\x92\x1d\xedq\xb5\xdfeR|U\xda+\x8a)\xea\xa8\x1e\xee\xb3E@\x07(\x9a2\xcf\xaa\xcel\xb0\xec\xc8\xdd\xe7Ey\xa8\xe6\xd3\xc5\xd1\xe5\x0e\x84\xad\xd4\x84D\xae\xad\xdf\xa1\xc6CF\x9d\x95\\~\x9bvd\xe4u\x1c\x7fz\xd2B\xd3a\xeeg\xc1,v\x8c\x96\tQ\xdb\xe9\x12\xec\xac\xb5\xad\x97G&gt;&amp;1\xe3J/\x93\x17O\xc4\x8aF\xee\x0ed\x9b\x8a\xbe\xef\xcd\xeb\xafG\xb5\x17B\xc77\xcd\xfd[3G\xd0\x93o\x9a\xe7\xef\xdfz\xcc\x98\xbdt\xf0\xe7\xeb\xaa\xb3\xd9:\xd2z4t\x91`t\x0c\xe7\xfb\xbc/O\xc6\xc4\xd73\xab\xe2\xac\x804%1/\x9a\xc2c\xab\xc8\x07\xa0\xe1\xb7\xb8\x0b\'n\xc6l2\\\xcff"\xd7\x85\x83\xb5z\xea\x1f[\x8c\xf6V\x99\xd0\xf1\x13\xba\xb4\xe5\x92op\x13\x15\xd4\xd6e\xccs\xd1"\xc0iy~\xa6\xe7\xcf\xf6N\xb5\x85\xcekD\xc7\x17\x81\xda\xe0}\x07\x81;[\x9a\xd8\xe7\xbf"\x93\x00\xb5L\xea\xa6X\xbd7\x0b\xad\xc2\xb0\xb3\x88\x94\xab@u\xbav\'n7^g\x90\xc0\x11\xc1h\xf3\xd3\x12&lt;\xf29\x1e\x8a\xc3\xcf\x0c\xe6\x0c\x92zK\x03\x80:\x9bc&gt;+dzbd\xb5\x97e\xec\xac-J\xd0U\xe8\x84\x13=!\xd0\xdb@:\x0c\xf9\x08*\xa9\x96\x0e\x9f8\x96\xb5\x96\xa4\x85\x86\xb0\xdbz\x8e\xcaE\x0e\xe8\xc9ni\'\x82\x8b.4\xd8\x0e\x85\xc7\xf70\xa7\xa6\xe4{\x8a\xc2l\xc0\xb2\x91\xe5d\x8a\xeb\xe5hwD\xf8\xccr1\xb0=\x11Z\xbfy\x1d\x04\xe2\xc8\xed\\\xbfz*\x07\xa2\xf6\x9a\x9en\x8f\x97t\x13\xafC\xcd\x06\xc3\xd2\xdc\xd5\x8d\xb4a@]b\x92\x03\xe3\\\xca\x02X\xfaJ\xc8\xaeF\x02\xb4\x1b\x9a\xaaX\x91I\x15c&lt;\xad\x92I#\x90\xce\x8d\x81\xde\xe0\xec\x9d\x93;f\x0f;\xd6\x8b5\x8d\xe5\xfc\xdc\x9c[(\xf5\xf1pyk\xea\x0cZ\xe4\xb5+\xc9p\xe2\xc5\xa4\\\x99\xb0\x8b\xb9\xd53D\x1b\xb0\xb6\xa7\xea0\xb1\xe3\xdeh9m\xc5\xe2\x86\xde\xef\xd5m\x05\x00\xb0nE\x1d&amp;\x8e\x82\xab+\xd5}u[\xec\xae\xab(\xb6\x9f\x1cUUt;\xe4\x98"h\xf7\xf2r^\x99\xcc\x9b\xce\xde\x0f[\xa9\xd3\xe4@&amp;\xd4\x8a/\xa2\x97E26L\x9d$\xd0e&amp;\xd6\xc9\x1cB,\xe7\xa6\xc0\x0e\x99\x8a\xc9\x08U\x06\xdb\xc83A\xd9]\x9dQ\xd6\xf2\xac\xd5\xd6\xa2\\\xf6\xd2s\xbe\x93\xc6\xf6d{c\xf7G\x9fsP\xf6F"\x05\xf1\x04\x1d^CC\xee\xb2\xf6\x96;\xaa\xae\xea(\xb5\x9dK\x9c\xeex\x9e\xc4\x08\xe6o\x1f\xe8B\xdb\xd2OnKj\xf6\xba\xbd\x8dG\xb4\x16\xb2a\xc8\xf2y\x19\x15\xaa\xd2\x8e\xf28\x85\x15\x94\xdd\x0f7]%\xb2zO\x99\x0c\xf9\xe4\xbf8\xeaS\x18\x0f\xe6\xaaD\x85a\xa9\x9f\xe0\x18\x05\xaa\xd3\xc6\r\xef\xb3\xd1\xc3\xa6\x87&gt;\xd1\rZ\xdb\xa5\x80\xc1\xa2\xa2G\x07\xcc\xf4Y\xe4\x83\xd0\xeds\xb7y\xa7\x1d&gt;l\xed\x86N\xfd\xf6\x8f\x01A\x9b\xb5\xd7\x07\xe5,\xb75B\xc7\xed\x9eA\xb2\'\xa4\xde\x1d\xac\xc6v\xf3a\xba\xdf\x1f\xe8Xt\xf5,\xe5&gt;w\xab\x8f{\xcaa\x93\xca\xf5\xec;\x9f\x0c\xd9o\x9d\x0c\x1cVW7\xa8m\xc5\x13z\x1f\x13\xbe\xc4\xf5.c\x8f\xd1\xd7zIh\xedl\xf2\xdb\\\xc8\xb0\x1a&gt;\x83_V\xab\xd9ss\xe3\xfa\x15\x9eV\xfe\xae\xa8\xcd&amp;ke\xb3\xc5@A\x8f|\x03\x10\xf5C\xe9\x06\x1dM\x92T\x8d\r\xdc4\xf5\x02_\x05[k\x05&lt;\xba\xc2U\xa8l\x1c0s\xa0\x1ae-Y\xa4\x131\x83\xe88\x1e\x87=\xa8\xf4\xd5\x9e@\x8d\x18\x14lK%\x94\xe1\x10\xe4\xbf:ea\xdeRUuWC\xc4\x17\x83\xb5\xaa/\n\xeeW\xb3\xd8\xc3\x9a\xf3&amp;\x8d\xb9\xfaV\xa3r\xdc$\x16\xd1\xbc\x8f\x08\xdbh\xdc\xb3\x08\x8fF\xe9\x98\x86\x9a\xb6\xcd\xc46\xca\xf56\xd0\xafw\xcaF\xb9\xeb\xa9Io\x1c(\xb2\xc4\x1dM/mZ,U\xc2X;D\x9d\x91\xa8\x8a\x8a\xd9$qV/*,\x8cW\x01S\xf4*VQ\xdf\x00\x08\xd07AR\xa68\x95\x16F\xe7\xa1\x8d\xbf\xa2\xba\x07\xa4\xf1\xae\xe3\xc6o\x81\xf8\x883\x92$m\xb45\xd62\x06\xc7\xb3\xe0\x9d\xa4\xeb\xd5\xcb:nS\xa2\xe7\x98\xdcf\xc3\x1d\x9c&amp;\xef\x01\xd4\xf07=\xeb&lt;\xe7c\x7fSm\x95\xb5\xc1N\xc0\x00Y\x8a|\x06\xc9+\xef\xb9^\xd6\x92}\x0c\x97\xe0\x9e\x8fgT\xc9\x83\x9c\xbb\x94\xbb\x92\xb7\xa6\x97e\xdc\x8a&gt;\xc68\xa7\t\xa6\x06Wm\xa3+\x89\xc8\xa9\x01\x92\xd2\xf5\xcc\xba:\xbb3\xd4\x1d&gt;$~Q\xa2\xd2\xd7\xb2\x104\x11\xa32\x03f\xb0U\xc9f\xe9+\xe59U\xab\x99g"\xcc\x8f0\xe9\xdc\xdb\xad\xcb\x81%Mycs\xa2\x81\x9e|a\x9b!\xde\x82{*\x9b)iK\x11\x14\xe8\x14\x97h\xf0\xef\xcc\x91&lt;\xf9\xf6\x19U\xa6\xaa\xcd\xbb\xd9\x0e\xa5\x8b\xb2\x8aZ\xfb\xda\x8d\xdc\xa0\xe2"\x1dX\xa2k\x92\xda\x1a\xc9#)\x12\xa1\xac6\xf9m\x16?J)\x10\xba\x87:\xb6\x10\xe5o\x81\xa8\'\xbc\xa9\'\x91|b{\xcb\'\x91=\'\x9c\xdfI9\xd5~\x93Iq\x88:\xd1i\x10sH-\xa5\x9ehH\x04\xd2U\x82\x04\x87\xc6 \xd6\xa3\x93\'e\xe4]\x8f\x8d\xe8\x00\x89t\xca\re\xb0cV\xfa\xcc\x8e\xcf%N\x8b\x8e\xe1\xcc\xfb\x1f\xa7\xe5UX\x92?[6\x0f\x9fl\xb0\xdeW|z\xcc\xad\x9f#_]\xe6\xd7\xf9\x1c]F\xc2\xc1z9\xadI\xcc]V\xfa\x9b\x93t|\xee\xb6Z\xf4\x08\xa2i\xe0\xb8\x10\xe3\xe7\xc1j(;\x19\t\xa7\x82\x86\x95\xdc\xdea\xae\xd2\xf9\xf3\x1b)c0\xb1\x8c\xe6\xdc\x85\x05\xeal\xb4\x0c\'\x08\xc8\xcap\x01\xa9\xc4\x16\xae\x98\xf5R\x13\xcdU!\xa1\x89\x18wI\xe1\x18\xe9N\'\x8c`\xfa?6\xef\xf0\x125n\xac\xcfV8\xcf\r8\xea\xe6\x97U`a\xea!kq\x05\xb0\xfc\x9b\x0c\xd2Z}Y\xc3\xed|sO\xf5G\xceU\xee\x16\xc8\xee\xd3\xc7\xed\xf1\\\xef\xd2\x9c\x1a\xbb05\xdaJ\xaf[\xe3\xe9!\xb4\x1b\xa5\xc7\x023#\xd1\x90X\xcbV\xae\xae\xd9\x1e\xc9=2\xb1K\xe0\xf0\xb1R%@&lt;\xd2\xe01\xad*i\x01y\xea`\tc\xe3+\x19j\x92T\xf8\xf1\xd4A\xe5\xf4\x8a\xe6$6\x8f\xab\xb0`q\xb4\xd7O*,+\xa2Q\xb1\xa0h\xf6H\xe5\x8d\xca\xdd\xc7\x8d\xf6.?j=\x8fef\xbcf\xadM\xac\x97-\xa8\xa7V\xcb\x0b\xd0\xf9&amp;\x8a]\xea\xf9\xef\xce`\x936\xb6+DU\xaf7\xa2\xdc\xf6\x8f8\x91a\x07\xdbq\x15}L\x94\xdd\xdc\x99\x98\xb3\xc1\xd0\xb7\xaa\xaeykp\xc5iB\x12\x08\xa2\xd4gn)5\xd4v\x9f9\xb5\x8ea\x15\xd5\xf8\xb4]\x0fW\x1dMk\xe1&amp;XD\xa3\x10\x85\xd3Fb\xb4\x1e\x9e \xee{\x95dNzI\xefO8#\xa9\xf31\x02b\xda\x07\xcf\xd9Kz\x1fC\xc0\x91\x926\xea\x91\'\x1aF\xc6\xef\x02\x96\x15\x84\x06\xb0&amp;\xbee\xb4\xdbJ\xb3rm\xe8\x1fk\xfc\x05\xac\xe5u\xbe\xaa\xf9+w\xcc\xb0t\xb5\x1fQ\xfcq\xaf\xe1\xf6~\xaf\xf9\x1a\xdf\x0bKRRYS{/. \xd2\x8d\xd5\xe0\xc4\xc5m\xf9\x1a\x8a\xc7B\r\xa9q\x84\xb5a*\x83\xb9\xb1]\xe6\xced\xaa\xb2\x98\xd7\xcd;A\xa4\x9dYcs\x1cK[/\x80\t\x96#B\x08\xb6\xe2!\xacC\x04\x13\xd2E\xe9-\x90Bd\xbe\xc8\xe9j$\x1d\xe2\x93!2\xc4\xe7\x1d\xdc)\xf9&amp;\x85\xeb~\xe4Q\x89N\xe6I\x95\xdb\xbd\xc1\xf50\xc7\xf3\x8e\xcf\xc9I\xcc\xcf\x19w\xd2:\xb1\x956\xf7{\xce\xfa6M\x84\xf3\xad\xf74\xcfnX\xf0\xaew\xe1|v\x164_\x8c\xe9&lt;\xca}Tv\tk\xec\xb0o\x84\x95\x8c\x12\t\xa5\x1eB\xb3\xf6#\xda\xba-\x1cq\xae\x8c\xac1\xc9\x95d\x9e9\x95\xa549\xa9s\xa7\x05+\xb2\xd1\x95\xcf\x06\xc3\xd5\xea\xb0\xa5\x9e\xec\x9a94\x16\xa8\xd93\x14PN\xf0\xadXV\x7f\x07\x1f[\x0e\n\xb7A\x9f\xear\x9a\xcf6\x0f5RDV\xa0(\xe8\xa6Vt\xe2\x98\x0c\xf6#ON\x9bm\x16W\xeb\xcev\xfe9\xce&gt;\xd1\xf8\xaf\x06\xf7\x97L\xd6\xd7{X(\xa4z\xbd\xd0tx\xe3\xc1,;9\xecd\x91\xdbCQ\xd1\x95X\xec\xe3"z\xeb\x00\x98\x0e\xd5|WN\x92\x18\xe2Q,\x93\xc5\x14b=\xb0\xb1d\xca7\xa4%\xc2,\x86\xbc\'\x997\xa3\xf4\x1e\x0c\xd6IT\x85\x8a\xa5O\xae\x9eC-jmd\xa5,+J\x88R\x8f.\x85\xed\xbco\xae\xf2\x8b\x84\x1e\x99\xb5\x1a\xe5d\x95\x96o\xf0]\xe5l\xcb\xe0\xfe\x8d\xf9\xed\x88\x13+u\xe5\xaf5\xf7\xd8m3\xa3\xe0\xae\xf1\xf4/y\x16\xe7\x9f[XWU\xf6w\xe5\x9bIIaE\xe7s\xbd\xceq\xa5\xd6\x92\x98\x84\xb4\xe8,o\xab|\xac\xfb\xba\x95|\xdes]\x83\xd1F\xe6|\x0e\xde\xab`\x9fE\xa0\xa9\xf3z\x83\x04\x04\xcfb(\x96l\xb3\xe0*\xb9\xaa.\xb1\xa5f\xd4\xe2+$KU\x91\x87q\x93\xce\xba\xb7\xb5ul\xa1\x8e\x05(\x1d9IQ\x11\xdd\xe2\xd8\xe1\xf7\xf8\n\x9a\x18Q\xcfR:/H\xf6\xb5\xd0\xba\xfb=\xe9%\x9c"\x91\x9ex\xe5\xa5\xd7\x1fn|G\xf7&amp;[\xf7\xff\x00\x9e\x9f\xa3\x1f\x9c`\xd2\x8e\xa2&amp;\x92ElvV\x90J\xdb\xb3\x8f\x14\xfe\xb6\x91\xd8J2\x8c\xc2a+oS\xa1\xce\xab6)\x07\xb2\xa9\x08\x88\x82\x1cDn\x92H\xfd\x19\x8d\x8f\xd62W\x1b`\x11cY]\\\x96\xe8j\x05\xbbj\xea\x9d}H\x11\x1e&lt;\xd2=\xf1\xf8\xc6\x83b8\x80y}%\x89\x95\xd3I\x0cV\xc1I\x1c\xca\xf2:\xef4\xe8&lt;\xf2\xf1\x0f\x83uL#\xfd\xe4\x85\xfd\x0f\xc07\x14i\xd2r\x9dvb\xea\xc4\x12Xo\xcf\x0c\xb3\x11\x9d\xee\xee\xa8\xec\xd2\xe1\x94\xd6\xab\x8f\x11\x9e\xa8\xd3\x13_x\xd0\xdb\xcd&lt;\xa2\xca\xbb\xfc\xadP\x9b\x9c\xc6y\x80\x9c4-h]N\x98\x87\xaf\x98}\x15\x86\xbaV\xd9We\xf3\xf5\xdf\xa2\xa2l\xe1"\x95&amp;\x86=\r\x14\x86t\xd3y)*\xdd\x1e\xa3!\x08/H\x8b*\xf7\xf9\x8c$Z\xbbP_]l\x0b\x1aV\xdc3E\x1c\xef\x1b\xdb8\xa3g\xf2#\x1e\xa7\xf9\xce2(\x89b\xb0\x92DJ\xc8\xe5R\x94\x947A\x13&gt;\x9c\xf7\xd1?6\xe9\x16\xcf\xb8\xfe\x15\xdas\x8c\xf6\x0e:C\xb2\x97,\x11=wIP\x8e\xb6\xa9[\xe6\x16m\xacB\xb6N\xaa\x84\xad\x8dg\x92\x08\xd8\xaa\x04\xf25XL\xe6\xac\x9e\x81\xe4Hd/%7g5\xc5\x03\x9b\xa7o\x1ey\x1dt#\xd5\x92\xad\x9a\xbb\xb3\xc8]\xcf {\xda\x1b\xb9\xd2\xba\x19\x04s\x15d\n\x03C\x12Sk\xacLp\x07\x01$\xb26I:~j\xee\xae\xe9N\x8ehZ\xb25\xde\xad\xb1\xe4\xebf\x86\x82\x1d\\\x90\xe0\xb4ZF\x93G=\xac5\xb0\xed)\xb5\xb8\xf0\xc9\x0cRm\xab\xa4V\xc4\xda\xb0v\xaf\xa5R\x8c\xe1t\xcb40\xc8\xa1\xb9\x928\x8a\xf3\xa3dl\xe1\xbd&lt;R\xa3\x90\xf644\xde\x8f\xd0\xc9 q\x81n\xda\xe9cO\xe1\x91a\xca\x03\xd5\x8c\x8cf\x91e\x08,\x90\x9b\xda\x05\x04\xb7T\xb2\xea\xed\xd9I\x0b\xad\xbf%\xe8\x18\x03P\xfeW\xb5p\xfaE\x82\x05FH\xb3I\x082\x10&lt;\xc8\xf6Z|\x8e\xcf&amp;\xcc/G\xe6{]\x19\xec\xf1\xfb\x93\xb9\xbd&gt;A\x1fJ\xc6j\xc9L\xc5\x8fVE\x9a\x14!\xcdD!e\x81\x08{&lt;\xd8\x1e\xcf4\xc6K\x14\xd0L\xac\x90\xc9\x1b\xe6\xc8\xdb\x8a{"iv\x99\xfb\xbc\xdd`\x1a\xb5\xfa\xb93\xc0\x0b\x00\xb47&lt;Y\x9a\x1bL\xc5\xa6~\x96x\xf1\x0bl\xd5RE%\x99\x96he0y\xe1b0\x87\x83\xb1K(\xab\xbb?\x18\xcf\xaey\x87\x9fo;x\x95\xbb\xdb\x876oT\x9e\xe5\xcc\xbed\xcfd*T@\xb1Y\x18\x84\xc63A%\xa20\x13\xe3\xab6\x9b\xaa\xac.i\x15\x8f\x8e\xb5.\xa1k\x08mm\xa5#=\x10\xb2\xfa*U\xb6\xabD\xadq\x86\xb6\x17\x08c\xa2uv=\x15\x16=\xd1\xa4$,\x0f\x10\x99\x03r\xb1r\x02\xf0Jh\xfe\x10\x84dF\x1b-j\x83f\x80J\x8f&lt;\x82\xba\x12\x10x\xa0=+\x18\xc9e\xcfvy\x97\xaf!+=\xaf$\xaf\x89$Q\xa6I#\x8av\xac\x9c\x90\xc8\x0cn\xb7#\xb3\x16\xe4\x89\n\xb8\xae\xa6\xde\xb6\xf1m\x0e#R\x1a\xaa\xbdB\x14\xc0O\xa0,\xaeX\x1d\xf0\x84aJM\x80\\\xac\x9aG&lt;\xcfT\xee\xea\xc0\xc6\xcf\x14\xb1VX\x9ed\x8csd\x92XT&gt;\xae\xaaHrv \xac\xb7\xad\xdd\xc4\x84\xd0\x88 Tz\x83bml\x929\xa4\x0fGB\xb1\xc8\xb6\xf3\xdc\xf68\xc8\xe7\x86\xd4J\x03^\x18mM`\xb7\xc9eR^:\xcar\x89\xa0\xcc\x9940\xc6\x07Il.b\xf6\xf9\x86*\xbaEh\xbc\xefI\xe4|b(\xd3\xc4\n\\Q\xc9]\xafd\x8e\xb6\x91\xdd*\x98\x9e\x99\xd2@\x84J\x1a\t\xe5Uo+\x9c\xb1=\xe5\x85\\\x8f\x0c\xe6\xaa\x88\xc4\x91!b\xc8\xc1$\xf2\xb9Y\xad\x97\xd0$s\xa81\xf9\xcb\x0c\x91?\xc1\x9a\xd7:\x08\x10\x89I\x05\xb6\x1e\x02\xbf3\xb5\xe6\x96UZ\xc5K\xf3J\xe1\'\x91Q\x1a#\x95\xaf\x91\xb3\xb5\xc1\x8b\xd8\xe3\xf5\xabh)i\xe5\xb2T\x87\xc4N\x83\xa9\x936\x07\x10;\x179\x13c\xecc\x1clY\x8f`]i\x146\xd1\xe6HY\x0ez\xa7k\x93\x95\x8e\xaa\xd2\x8f\xf7\xbd\'\x8b\x18\xd0\xd0\xd9\xd1\xd8S\xbag\rg\xab\x9fD=\xf3\x19k\x1ec\xa1\x928\x08\xad\x82\x9a\x9e\xea\xad\x15._Y\x9b\xcec\xa4m\xbdM\xbc\x83S]\xd1\xc8m\xfeKLa\xa8;d,Eh\x99\xe1t\x95Rm\xdd#\xe3@\x93\xa40\xc9:A\x0bId\x90\xf8\x8f\x183\x88l\x91:w\x18;\x88t\x03&gt;T\x0e\x92#\x84k\xd5V5\xc8\xa5\xbd\xe4R="y\n\xfb\xca\x19QR\x0f;\xc8\x19}\xe7\xc6j\xfb\xc2y\xcdt&gt;zH\x8679\xc0\xb5\xdeP\xcc\xf2\xbcF\xac\x8fK\x1a\xc9fR\x0f \xeb\xdc\x87NH\xbc\x89\xa3,$B\xf9\</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495664-incendio-en-el-ministerio-de-economia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dólar: Una hemorragia preocupante</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>El Banco Central vendió u$s 150 millones de sus reservas</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pese al abanico de medidas dispuestas para desalentar la compra de divisas en el mercado oficial, el Banco Central debió sacrificar este lunes otros 150 millones de dólares de sus reservas internacionales para satisfacer la demanda en la plaza cambiaria. De este modo, acumuló en la primera semana calendario de noviembre salidas de divisas por operaciones de mercado que alcanzan los 390 millones de dólares. En cambio, en materia de la búsqueda de financiamiento en pesos, el Ministerio de Economía tuvo una nueva satisfacción. Colocó cuatro títulos por 63.592 millones de pesos, por lo que cubrió los 38.228 millones de pesos por vencimientos y se quedó con 25.364 millones de pesos para futuras obligaciones.En esta licitación se ofreció una letra a descuento con vencimiento el 28 de febrero de 2023, y dos bonos, uno atado a la variación del dólar con vencimiento el 31 de julio de 2023 y otro con vencimiento el 23 de mayo de 2027. Además, se emitió una nueva Lelite con vencimiento el 30 de noviembre de 2022, exclusivamente destinada a Fondos Comunes de Inversión.En la licitacuión de este lunes se recibieron ofertas por un valor nominal de 93.488 millones, adjudicándose un valor efectivo de $63.592 millones.El dólar oficial cerró con un valor de $166,32 promedio, con una suba de $1,17 centavos con relación al viernes, mientras los dólares financieros operan estables. En el segmento informal, el denominado dólar "blue" avanzó un peso, a $290 por unidad.En el mercado bursátil, el dólar contado con liquidación (CCL) registró un valor al cierre de $ 303,84; mientras que el MEP cotizó en$ 290,78 en el tramo final de la rueda.En cuanto a las operaciones en el mercado bursátil, se destacó el retroceso del índice S&amp;P Merval en la jornada, del 2,27%, a contramano de la suba de índices de referencia como Wall Street, pero en el mismo sentido que la variación de San Pablo (Bovespa, -2,38%). En tanto, las acciones de empresas argentinas que cotizan en Nueva York cayeron hasta 4,8%.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x02\x03\x04\x05\x07\x01\x08\x00\t\x01\x00\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf4\x0c\xdcGT\x8c\xec\x86\xaf\xab\xa6\xf3K"Q\xcb\x0be\xe6\xa5\xa9^=W,V\x8b\xac\xb2O\xe8K\xcb\xe0\xd3$\xe6\xe4\x15-\x84kC\x15\x03\x07B\xc6\xeel]o\xb1\xd2\xedt\x91\xbc\xdd\r\x044\xf9\x1d\x06\xb6A\xc4]Y\xb9BD\x86W\x99E\xba\xe9\x89?7\xddE\xa7\xe6\x9aLF\x87\x93\x96\x07\x1b&lt;d\xd1\xbf\x9e\xb5lw\x8e9\x15\xe9\xb2LKR\x96N\xcb\x9d\x8a\x8f\x1eEN[-\x03\xb0\xf2Z\x05\xa0\xa9\x17_&lt;\xe6\xdc\xfbI\xaa\xa7+\xaehfS\xd0\xc7\x7fb/r\x9c\xda\xdbTMQ&amp;\xc1\x9c\xba;:\x14\xac\xfa$\xad*\x12\x96\x97\x03\x88u,\x81\n\xce\xbcmI\x86\xe3\x99u\x16\x91^\x01\xa2G\x81]\x1e,&gt;\xb0\xfd\xf9\x92\x16\x8f\x8d\x13.:\x96\xb2\xe2\xb9\x02\xb9\xa0\xa64m8N\x8b\xb2\xa3\x8eO\xa4=\xb3\x1c\xbb\xc7\xd8\xb1\\w\x16\xcfq\nG{\xcf\x9b\xef9\xc4u\nJ\x19\x89=\x91\xd4\xc1\xbc\x8a\xd0\xdd!\x95U\xe6\x0b\\]Aj\x03\xad)9wc\xd3U\x9c\x11\x83\x11\xe7~k\xd7qm\xeb\xd8\xf8\xabk\x80\x869\xbd\xdd\x1e\x1d3\xc00_.`\xba\x86\xd44@\xad\x17\x9c\xb4?\xaa\xe4\x94\xcd\x01\xf0",\xcc\x82\x0ei\xa2Lz&lt;v\xb4\xa0\r\x1b\xe0\xd7M\x8e\x14gr;\x08\x9ad\x02\xd6ds\xac\x81|\xfd\x87d6\xa5\xa2\x84\xf10\x11*\xbe\xbc\x18wA!\x0bn\xd9\x1a\r\xee\x90\x0b{i\x16^{\x96h\xd9\xb9F{\xdeW\xb2$F\xe2#c\xaai^\xad\xc3Z\x8f\xad\xad\x96K f\xc7\xb3\x1e\xfd\xdf\xac\xe2U\xc0\xaf\xa7"\xa9\x15D\xca\xd8C4\x9c\x1fv\x9d\xacg\xd7\x15\x05R\x11\x97W\\aq\xac\x85\xb0\xe8/\x9c\xe8"\x05\x83\x0c\xa8D\xa8\xb5\x12z\xd4\x82i\x84t\x01\xfd|\xfc\xc61\x08\xdfO\xcd\xbb&gt;\x96\xc2\xf8g\xf5\x999z\x9fE\xb2\x8b:\xd0\xc4\xb2\xa9\xe9\xf0_3\x04-\xe7\xf5\xb4B\x01R&gt;?\xaa\xb5r2\x97T\x97a\xc9\x1b\xdd\xe7\xc9\xfd\xcf\x90\x8f\x92\xd3a!\r\xa4n\xb4\xa5"\x1d}\xdcZ\x91Am\x00_H\x08\x8f&gt;\x92\x8bU\xd2p\x0b\n\xb2\xb2\x88\xbc\xa3|\xc06\xefW\xe4\r\x00\x8eY\xe6\xf6\xa8\x8a\xad!\xb4\xf47\x1aL6`\xa9\xd4\xf3\xaa\xb8;`(XS@\xade\x9d\xdb\x92M[\x8e\xac\xff\x00\x97\xa2\xe6\x8a\x8a\xcf\x96\xa3T\x92\xb6D\x87!\xd5*\xb4?\x129\xe9\x87~W:eN5\xd0u\xa6\xe0\xa7\xd1\xbef\xed+3\x88F\xea\xb4\xbfG\x8dp\xcd\x98\x90\xb6W32b)o\xe9/\xeb\x82\xf8\xb5\xbf\xa2\x9d\x85)R\xead\xdaN\xbc\xab\xa7\xc9U\xcf\xcaO\xcc\xeaQ\x0c%\xc5\xa8\xa5L\x82\x90l]\x84C\x03\xd4\xac\xd0\xcc\xfc\xf6`\x9f\xa0\xee\xf3Ct\\4\xe7s\xd2*^o.\x9f\x9e\x8c\xeck!M\xb8\xd7R\xbf\x82\x04\x0b\x88u0e6\xe3K\xac\xb7a\xe6\x10\x17\xa8\x8fm\xe4\xe5\x1c0\xa3\xec\xf9E]\nX\xc6\xd7\xd1b9\x97\xa1\x02\xae\xee&amp;\xdeUyD"\x1c\xbb\x88\xc9(\xefx\xbe\xb2o[R\xecrL9!5\xc8\xef\'\xf3N!\x91[}\xa4\xb9\xdetn+\xe5%\xf3n\xa4*\xe8\t).B\x84\xcf\x85\xeeC\x1a\xbf\x83sYh\xc2U\x05\xfa\x8c+M\xf4&gt;r3\xcc\xbd\xcd\xe9X\xc4\xad\xa9\x90\x82\x9cM\xe3\x1d2\x9b\x11\xdb\x034\xb3)\x9fQ2\xf1\xb7WSJ\xe2b\x84\xf3\x8dV\x8b\xcf\xd8)\xe2\xa1\xbcN\xa2\xd8\x83T"LAk\xd7\x9c[6\xbe\xd98\xb8\x92\x01\xc6\xd8\xaem\xd0\xd5a\xc9\xdb\xd4\x80\xedz\xab\x12#\tJG\xdf\xac\xcb\xf2\xd0\xb3\x1e\x871\xb6v+\xad\x05\xcd\x1d\xd4\xa61\xd7\x9dT\xd6\x931K\xd7/\x94\x94\xb4\xe2X\x88\x13#S\x8b\x01`\xc0M(\xc8a\x8c\\5n\xd9M\x85\x00\xcb,m\x19\x80\xe1\xe0C\x0e\xb5|Cf\x8a3\x97\x02|\xb4\xb5%\x19\xe9\x11.\xb5\x97S\xaf\xc3}\\\x8e\xb6\xb6\xba\xd3\xdd\x15ss\x98i\xbe\xf7\xa9\xc0\xaf\xbdMd!M\xa0C\xd3\x8b+\x87\xa7\xc0\xd3\x80!\xc3\x17\x88\n\x96]%X\xed\x95\xe4\xc8\xec\xae\xb3~F^\x84t\xcdB\xd2+\xddX\xdcq\x0e\'\xde+\xa8e\xa9l\xb5\x1f\xe5!\xa7\x1c\x8e\xea\x16\xc3\x90X\xcdS\xf5MC\xa1\xb7\x85J\x8e\xbc\x96\x05\x03\x8d]\xb6\x1a\xf5\x85x\x87G\x96m\xe7\xcd\xd6\xa9@\x84}/\x08\xae}\xbb0\xd6\xabs\xe9\x1f\xbe#\x9b\xa2\xe7y\xf6}\nO&gt;\x048\x85\x03\xb1\xdd\xf9\x02!Z\xddW5\xc2$joD3\xf4\x86\x18\xe7c\xa0\x1c\x88\xd5\x13%\x81Qb\x93g\xb0lw\xad\xf3\xf3\x93\xde\x90\xaa\x96\x0f\xa0g\x19\x9cV\x89\x87A\xd6\x9bcp\xb1,\x132R\xde\x1a\xf3\xe7\xa6\\3%h\xd2;\xc6 \xa2|:AV\x14\x0bg\x82h\xd3\xe8\xbe?\xa5\x98\x17\x95O\xa0~!\xe0\x9a"D\r\x0cOC\x81\x9f\x19\'*Yi\x9b\x91\xd3\x89vh\xec\x84\xf5R\xd3\xf39\xe8\x98i\x81\x97D\xe95\x93\xb3\xe9\x9a\xe3\x0e\xb9yM(\x16\xd2\xf8\xe5\x8e&gt;\x912\xa5\xa8\x11\xf3\xaas\x025\xbf*i\xfbo\xf1\x15NX|8\xcf8\xb5i\xea\xfa6\xd0\xebhG\xdcP\xfeZT\x9f~\xeaG\xc6\x1d\x8e&amp;\x19U{&amp;\xbdU!9\xd5\xefV\xd4\xc2\xa2\x9a4\xd4\x89\x94v\xcd\xcefJ\xd0;\x12\xe2\x81\xa2\xdc\xa7\xd1\xa0\x9d^\x16C\xaad[Z\xc6\xfb\x12\x7fz{\xe0[m\x82\xea\x96\xb6~\xcb\xaaRc\xba\x0f\xf5\xb5!\x1f|8\x99\n\xa3.\x93\xa8S`\xb7\xe1\xb8\x12\xf8\xc3\x00\xed?\xc3cNF\xc5C+\x14J\xce\x92i\xa4c\xf6\xb0\xf6\nLG8\xcfBl\xfa\xf3v\xd6h79\x972\x9am\xb6\xf1\xd6D\xbeK\xb8_\xd1\xeb\xee\'\xd7\x0c\x83#@\n\x02\r+Ap\x7fn\xb5\x8d\xd1\xfa~\x8d\xac\xc7]\xce\x9a\x87\xad\x89\x0f\xe7\xe3;\xa0\x00.\n\xcb\xa3\xd3\x86\x81\r\t\'\n\xae\xc1\xee\'\xf7x\x89n"\x1dlieSN;\x9e\xe41C^\xcb\xa3C\xbe\r+e\xab\x8c&gt;%+\x9d+\xbdG\tW\xcd%\xa7\xf8\xd2E#\xe8\xa9d\xef\xa2\xb8\'\xba\xcf\x04\xfbm2\xc9+\x80\xa5V\x1d\x84\xb1&lt;\xca\x19\x07W\x0b\x83\x9f\xc8\x9d\t}\x88\xb0\x91\x1d\xde\n\x1du\xc4fRKy@\x98\x16\xb1\x04,(p/EU\x95j\x8a)\x9fI}\x15^.j9y\xe5\xda\xcby\x17o\xcc\xefa\xba\x95\x9c\xf6P\xda\xc8D\xec\xc7$1:7\xf3\xccK~\xbc\x7f?\x1e\xdd\x9dU\x8c\x8c\xd4\xb2\xcef\x99\xc9\x8e\xa5M%&lt;H\x9e\xecj\xb0\x97\x02\xb3\x1f\x9a4\xcc[\xb2\xb0\x9bS\xa2&lt;\xbc\xf2,\xf7\xd4\x19\xccU\xd6N?\x95N\x93,J\xb7\xbd\xb3\xa8\xd4$\xf3\x1a\xfa3\x112\xd6T\xf8mm\x8d\xbdpx\x93\x0fG\x01d\x83\xd4\x1b\r\x85\xcf\x9d\xd0x\xdb+\xf4\xfa\xa1\x196\x94y\xf6\x04^\x81\x8e,\xa2\x80\xe2\xfdL\xed\xa03\xcb\xf9iC\x98\xa5&amp;\x8eu\x13]j5,\xbb\x8a1\x90H\xd7@\xaf\xcb\xc9c{\n\xa9\x95%\xbboCh\xe4\xb4\xb3&gt;#\x9a5\x9a+j\x8b\xd6\xa3\xa5\x89b=P]\xf0m\xf0%\x95Sh\x1d\x8b23\x94\xc8\x8a\xeao\xa1M\xb4\x86\x9e@\xfe\xea\x9cG\x1dB\x83\xe6\xe4\xf0P\x93)-\xb3\xf3\xdcM.q\xc0[\xad&gt;\x93m\xcb\xe3U\xbc\x9c\x96G\x8db\xdacT\x06T\xf5 \x95\x86\x14\x14\xa1\x96\x06\xdf\xc6\x84\x91\x1dK\x96\xaeI&gt;\xea\xf28\xdb\xd1#g\x10\x8e4\xe4YY|\xbd:\x82\xcf\xcd\x93\xa4;\x1bM\xb3\xab\x9c\'H\xf9\x9c\xae`\x80\xfcI\xb2s*;\x82^n\xbe\x89U\x95-nb\xc1\xd0\xed[S\xd6&lt;\xf2%\xea\x7f5*-:+\x17\x93B\xf3\x88K+Iz\xf4\xff\x00Ak\x95Q/csh\xf5$!l\xf5\xbc\xb4\x0f\x8b\xd1\x81~o]:\xe7/\x8b\xbf\x8f\xb7\x91\xe8Yf\x9e\xd6\xeaI\x8d\x95\xe6(.\x16&gt;V\xc7\x9a\x8e\xe8\xac\xcf\x0e\xb5\xc3Z\x903\x8b\xe7\xe4\x8f!_*Oy\xc8\xa5r\x1d|\xdd\x95+t\x19\xeb\x14\x19\x02E\xf0^\xda\x9bl\xee\xb4`\x03\xc8\xd1\xf1\x1b\xaai\xa9vl&lt;\'\xecG\xba3\x9b\xa0\x1b\x99g\xf3\x81oEm\x1al\xb0\x1f~\xe5a\x1a\xd1\x97BT5D\x0e.\xb7\xa1w\xd8\x93\x04\xd7\x16\xd2n*:\xd8\xfaZ\xe0&lt;\xa8\xff\x00\x03\xa8o\x8cW\xcc4\x9c\xd5\xd6-\x16\xae\xd3\xba\x16\x9c\xadHY3\x01\x80\xb4n\xa9)\xcc\xabUmO)\xe4\xb2\xd5*\xe7\xb5D\xb5\xc5qV\xa2\x94\xaf_:3n6\xd7\xc3Te\x97\x12\xb0\x8d\xf6\x87-rj\xdd\xda\x97|\x08\\\xa6\xa1\xc7h\x94\x1a%\xe5 \x93;\n\xf6\x95A\x18B,\x8b\x00\x94\x1c\xea\xe2\xf2\xe3A\xd7 \xcd\xe3\xcd#\xb1^\xc8\x0ew\xcc9is\x95\xdc\x9c\xef \xbe\x84.;IRX\x8b\x86\x8eg\x1fy\xdb=6\x10\xcbj\xee\xaeq2\xad\\\xa2\xe7\x05\xdb\x05\x81\xa4\xf5=\'\xd1\x91\x91\x13\xe7 \r\x98\x03\xb5\xa3\xb3.\xd36#v\x81\x8dn\x95#/\'\xe9k\xf9\xbe\xa6\xe7a\xd4\xcd\xddV\x8d\xc3\xcf{z\xa8\xcd\xc6\xd7)Jf\x86E\x0f*\xf5\xcf6\xa58\xa9\xb8z\xe9\xf9\x19\xea\x1b\x16\xeb\x95*\x98\xa9\x89\xd3}|\xd1,\xc8m\xe1\xc9\xb8\x1ayV\x93o\x9bOL\xfd q\xc0\xfd\xac\xf1\xa4\x8f\xab\x01\xaa\x9a7\x97\x9f\xdd\xb3C\xb2\x0f\xb1L\x8d\x14}E\xba\xe9&gt;j\xeb\x94\x8d\xb2\xef\xb4?"\xf1\x14\xed2\xdd\xaa\x16\x91{\xc1\xf8\xc3*\xf8&amp;\x00h\xa8\xcfV\xd1\xccP\xe8C9\xe8C\xe9\x96WP\xd6\xdc\xdf\xacG\xad\x1b\xba%=\x17\xdd\xac\x94\xab\\L\x9a}8&amp;\xc4\x89l\xe7\x13\xd3\xe8\xcb\xb4\x87\x98\x9a\xceZ$^\xb2\x90v\xcdH:\xd37#I\x10T\xf5u\x0e\x18\x9e\xcb\xe6\x8d\xc4\x1fY&lt;\xac\xf4\x1d6lSM\xf2\x01p\xfd%\xe2\r\xdf\xca\x91\xa11\x11\x91\xcfF";\xb5\xac\xcck\xee\xb7E\x86\xd31\x89\xb6T\xc0\xa7\x90#\xa7\x9b`\xca7H0\xf0?@`va\xb1y.\xf3,/S\x1d )\xb8\xcet\xbd\x14\xce\x90q\x8d\x87`Oy\xf4\xd7~\xfb\xe9\x7fq\x8ai\xab\x9a\xf1!\x9c\xf73\x1c\x15\x8d;\x12\xbe\x13\x01\x9a\x0b\xd9\xad\x934\x8f\xb3\xa5\xcdi,\nL\n\xfa\x1bjj\x9bF\x85\x98\x19J\x9a\xba&amp;\xb7\xb2DXB\xc8u\xbdE\xd3\x8e\x92M\x08\xc4&gt;\x19\n\xcb\xd1B\xd1\xdcE7\xf9\x19\xed\xc5\xfd\x98g\xe2\x1b^z\xd0\xb1\x88\x91\x15+\xd6\xaa\xaaf\x8b\xdf\n\x9a\x82V\xa8[\x02\x18\xb4\x91\xa8\xb9\x98\x11h\x82\xe6*\xb8\xc7b\xc4dVM\xc0\xe8&amp;\xbeZY\x19\xf7mQV\xd1$\x96\x0c\xc9!dc\xb4\xc4#\xba\xe2\xcb\xe8\xb8b\xad\x9d\xb4\xcfh\x8f\xcbe\x06\xb8\xbe\xb9\x9d\xe9\xc2\x07\xbd]\x0b\xeb\x96\x96\x94\xc4\xe7\xd2NG\xc2kT\x84e&lt;r\xdcz\x9aI\xae\x86\x83\xe7t\xecR\xafOtc\x90\x89\xfb\x198i\x9c\x9dy\\:o\xd7&gt;Y\x18h\xaas\x9b_N\xed\x88\xb6\x9e\xd7\xdc\x9b/\xe8\xd9v\x1b\x9f\x83\x13\x98\xf4c\xe6\xbfJcUZG\xa1\xb1C\xdf+\xe7fD\x98\xcd\x96\xd9\xf47@\xd6\xe8\xc2\xb6\x8d\x8a\xf8\x90\xf2i\xa8\xce\x96\xa6T\x87~B\xa5\xab\xe8\xd4Swt@\x99\xfe{\x9f\xe7P#\xad\x1b\x95y\xa0\xd1\x95\xf7V\xaahb\xf3H\xb9\x9a\xc4\xa7[\x8f\xcd\x90\xd0\xec1\xeap\xf3h\xa4\xf3L\x05m`\xa1\xe7\x9b&amp;\x0c\xb6\xc4\xb0\xf4D\xe3:\xad\xc8\xf7\xdc\xc1\x98\xb1\xb3\x85\xd51J\xa9\x1b\x8b8\xaeb\xe1\x19\xcb\x05\xa1\xcd\xe9\x16\xb9\xdd\xda\'\xbc\x0e\xc0i\x81\n\xab\xb9\x0eq\xaf\x9a\x93\x06\xf9\xd1\x8f\xd8\xdb\xc9E2\x0b\x1cLA\x93\x8e\x8f=\x9cm$\x06%\x958\x01\x8b2X\x05\xbc^\xa4\xc4])\xea\xa1\xf9\xf7.\x8a\xa9V\xfcj\xa6\x11,zY\xd0f\xc9A\xb6\x19\x85\xe1m\x9d*\xcb{{\x1c\xb6\x1ed\xb7\x84\xe2ezl\xeb\xe4\xa0\xcf\xf58\xd2\xc0)\xf6H\xb51g\xfd^\x94\xf1H\xa2 I\x93\x07\x10m9\xc6\x99\xdd\xe7l\x87\xbc\xad\xee\xb8&lt;\xfa\xe5\x9a\xe7\x98\xb3\xb5V\x15u%\xfb\xc3Z\x81\xf6\x97\n\xb6o\xd18\xfa]\xa6\x04\xf3\x0e}\x1aP\xf0I\x1fg6\x9f\xe9\xaf"Q\xb8\xf5\x17\x93\xa1\xad:kMc^\xd7&lt;gc\xd4\x1c\xcd\xd4\xdb\'\x90\xdd\xeb&lt;\x9ay-)7[\x8fS5qYM\x97F\xf7Ab\xf0l\xd1\xf5&lt;\x8bL\x8d\n\x01\xb4\xaa\x8c\xb4\xc2\xf7\xaf9m,0\x1e&amp;\r\x02K\xac;BiX\xbe\xcf\x98\xb5\xa9\x10cN\xcd\xd9w0\x94\xd7\xa3i2\xea\xf4\xed\xc83+\x1d#@\x95\x9b\xb2-|@I!:\xdcjB\xa9tw\x12Z\xac!\xfa\xcd\x15uf2@\x16q\xb4\x81\xe7\xadi\xef\x06{&lt;\xe5\xe1\xe7\xf2\xce\x1e\x01y$(\x97A\xf5\xb4t\xe3\xbe\xae\xaaOU\xf2&gt;q\x1fT\xbd\xf3}\xa8\xea~\xf9\xc2\x9d\\\x96W32#re\xb3f\xe2\xb3\x92\x19\xa9\x91\'\xb6l\xa8\x8eE\xda\xccfA\x03\x8ei\x1e\xb6\xf9:\xd5O[UMKg\x0b\x82\xe7\xcas\xde\xa2\x99\xcf)\xbb\x90P\xc7\x9e\xf4\xd2\x1e\x9cs\xba\xefJ\xf8\xf13[\xaa\xab\r\xb3\xf5\x13\x18fa\xcf\xa4G\xca\x8dw\xccC\xd6\xb6\x92\xf1o2\x88\xbc\xdb\xaf7\xcdu,:\xe82\xd3\x1c+\xa7\x0bi \x84]\\\xff\x00X\xe9\xde\x8bs\x85\xec\x06+\xc6\xba\xc4\xb8\xf0\xdd[)M\xf6\x92\xa9}b\xb7(\xcf}z\xbb\xcd\xfb\xf2\xd1\xd1\xb3q\xc8\xd4\x16&lt;\x12}&amp;\xc3\x1b\xd10\xab\xcb`3\xc3\x88\x9b\xf4-o\x9c\xbe\xcb]\x15\xa0i\xd5%\x02\x96\xa4\t\x87\xdah\xb3Z\xcb\xabv\x99\x93Xd\xad\xc9J\xf1\x9b\xad&gt;D\xbc\x9b\xed{\xe6\xb3\x0b-\r@\n\xf9\x92Z\x16\x90G\xc4Q\xae\xef\xe4\xea]\xb0\xe2q\xdf\xe2X\xea\xa1\xa4S\xfbY\xd4\xec\x9b\x86\x96JC\x0e\xd2\xead-\xcc\x14X\xba*F\xc8z\xd0\xfb\xc4\x0f9\x1fz\xf9\xcaT*\xbeS\x8a\'.\xd7QB\xab\xce8\xaaz\x7fJ\xa5\x88@\xc3\x983\x96\xf0U\xc5\xb8\x8a\xc7,\xe1MT\xef\xdc\xebK\xea~\x0e\xb0\xecQ!\xc8\xbd\x96\xda\xfeg\r]\xa8E$\xd4\x91A\x9c{lj\xdd\'\xdc\xfa\xf9\xc3\xc2\xbdJ\xe6O\xcb\xdex\xfd\'\xc8\x13\xf3r\xe1Sl\xad\xe4w\xd4\xbaf9\xb2\xcbk\x93H\xb2Z\xcf\xf9\xbaH|\xc3H\x0ft`0aS\xd5\x84B}/z\xac\xfc\xe7\xe8\x82D\xe5Os\x8b\xcd\xa5\xa7Z\x05\xc5\x97\x14O6-\x93\xe5\xd1\xb1\xe3\x99\xe2]\xc5\xa9\xd5d\xba\xcc%kv\xce&lt;\xf5\x17\xd2V\xa3\xf3-\xbf\xa4\xe6\x07\x9b\xef\xf7IJ\xb2B=\tQ`sK\xfa\xa8vQ\x03h\xae\xfatt\xe1\xbc\xc39\xeb5uQ\xa2\xc9\xd2/Qry\xf6v\x94\xf4~\x02\xc1\xa9\xd2\x1a\xcd\xa3\xb5\xa3\xc5\xc7\x86\xaa=\x0b\x1b\xccGA\xb3\xc6\xa2\x1a\xb9&amp;\xaf\xcc\x9erz\xe8\xd2\xaaK/3"\xda\x93\x9b:+\xc7\x16\x92\xd7b\xe6\xb9\xf4\xc5&amp;\xcd\xca\xf9\x14HS.\x8b\xa9q\x90Z\xe0&gt;\x89]mL\xef\xdf|\x8e\xf7\x9d\x0es\xbc\x04\xfd\xf7\xc1\xdf\xbe\xeb\x13\xf2\xba\x08nO\xc0\xcb\x9d\xf8;\xde)\x9d\xfb\xee#\x8c\xba\x90\x89\xf4\xbf\x82\xa2\x9d\x14\\\xdbs\x11)\x14\xd63\xedD\xb0\x8b\\\xd3\x8f\xda\xd3\xe7nn\xbe-\xd6w\xe7\xdc|\x81\x02\\\xe9\x00\xc8\xf7\xd0\xdb\xe1NR\xf3\x1c]*\x8e\xce\x1f\xcf\xb5\xb7\x93\xa0^\xf5g\x1c\x97^\xde5\x8f?z\x10\x87\x98\xe8\xe2~s+e]UC_:\x81-\x9a\xac\xfe,\xeb+!6\xcb\xa7\x1b8,z\x98\xa2\xc9\xd6!\xa96r\x13\xad\xb2\xe3A!\xe8\x9f\x03\xfc\xaffn\xc7\xe1\x1a\x90?o\x1e\x8e\xcd\x96\x16Ln\xd1\x04\x11\x80*\x8d\x12\x88p\x87L\xe9\x04\x8eht\x81\x17\xce\xefn\x03\xa4\xde\t\x8bD\x9f\x93\xad\xce\xd1\x18$\xcd\x0bh\xb2\x85\xac\xfc\x0f@\x08\xa5?S\x80W.\xa731\x02b\x0b\xe8\x12\xe4\xe4o\x9d\x01\xc2z\xe9I\x96\xd9\xd1(zm\xf6\\J\x82\n\x1b\xce VOj\x07{b\x18B\x83/\xb9\xd6\xa1K\x87*\\\xdeFe\xab\x14V2;\xceV\xb4\x8bGj\xac\x86\xebk\x86\xe6K\x90\xe5&amp;\xb5s\x8d+\xe8\xae\x03\xff\x00}\xd6qI\xe8)\x1d\x8e\xd3LV\xd3He$f\xedV3\x8b^\x93\x80\xf6\x9by\x8a\x8f\xd3\xade\xfa\xb6w\x9dc~\x88\xf3&lt;X,\xd1s\xafC\x8e\xb7f.\xd12\xa5\xcba\xce^\x8eT\xc4\xc21\xda&amp;%\xb7o{N\x1b\xe8\x1b9Mu\xc7\x17\x9d!\x7f$&gt;\xe7\xcc9\xea\x84\xc3&amp;\xb4q\x91\xdb\x85\xa4\xab\xf1\x11\xe1\xea\xac\xe1\xd5\xb4\xb7\xc8^o\xa2s\xeb.\xf8\xea\xda\xa7\xd41|\xdbn\x8dZv\x05\xad\xd4\xe8\xae\x8f\x12\xa5\x93\x99WH\xb9\xf3\xb9?\xaa[\xb8\xf1V\xa2\x11\xac\xeb\x9b\xbb\xc6G\xb0gK\xc0\xf7\xcc\x81\x01\x9e\x8d\xf2\xc7\xac\xaehq_Cg\xe9\xbcZ\xcd\x82T\xf86\xfb\xe2\xa2\xfdP%\xa4_8\xf2\xa77\x8c\xc5\xd7n5(\xf2a\x0fhX\xfe\x93a\xdc\xf0\xac4\x95\t\x8fMj\xcc\xe5]\x16\xb0\xbc\xae\xc1\xa3\xa8\xd46\xc3\xb1T)BQ\r]\xc8\xca\xaf\x83-d\xb7\x1f\xb4\x82\xc8\xf7\xd5\xf6RZ"\'\x03\xae\xd4\xc4\x028\xed\xd8\x85\\{\xc4\'X\x9b_\x82\xae\xd3\x8e\xb3\xe8\x161\xdabco!l=\x1d\x95\xaf\xc1\xec\xb2\x07*\x1ds9\xb8?\x0e\xc9\x94\xb8\xc1as\x9a12H(I\x17\xe4=j\xfe[y\xc6i\xbc\xe0\xd1k\xf4\x0f\x94{\xd1\x85\xb8\xfc}\xd6\xe4w\xd1\x16\xa4\x1c\xbb\xb6\xdc\x98\xbc\xdb\xf0n\x0e{\x8fG\n~=w\x0e\xef\xe7\xb5\xc7\xe7\x10\x94\xa4\xa9\x94\x04\xb8\xf4C`P!te\xb6X\xd9.\x84\xbb\xc8*\xbbG\xeb\x9c\xcd\xfd\x13\xe6\x80\xda\xd0x\x9eMG\xbb\xa1\x9e}o\xd0\xed\x0b\x1b\x17\xde\xe9[\xf3\xf5\x07\xa5,*&lt;}\x0f\xd7r\x83\xc6\x1c\xf6ux\xfc\x99+\xd1\xf5\x89\xf9\xbfL9\x95p2I\x1c"^\xae\xd69X\x1b\xce\x89\xe2\xc53\xd6\xfee\xae\x8a\xcd\xe7d\xf2]\x84\x9e\xac\xf2$\xb9\xca\xfd\x04Q\x88\xbb\x0fY\xf2\xfd\xfb\xac\xdf\xac M\x16k\xe3\xafi\xf9\xc6\xe4[R\xd5\x03\xda\xd7\x9c\xe9\x0c\xbc\xf3\xcd\xfe\xa9\xf1E\xca\n!\xe8\xf7!\x97z9\xeeu\xe7\xa1\xff\x00^\x04\x0f\xce\x84\x14\xaf\xd2\xbd\x9aEo47&gt;&gt;|=^\xd70h6\x17\xf0\x08\x89o01\xad\x08z\x99\xaenY!#1\xd9\x14\xd7\xa9\x9d\x0bn\xd48\xcbD\xc1pR\xd5\x03\xa1=,\xf4\x19b\x7f\xd55\xdd\x9b\xf2p\xd3=\xa41*4\xa5_@\xb5EM\x14\xd9\x8b\x97^\xde7A\x87N\xbf\xe7\xd1\xc0-b\x94\x98\x93{\xea\xe6\xa2\xd9%\xf7\xcf\xee}q+\xb0\xd6HL\x1a\x9cz#\x17\xd8\x91i\x08\xb3\xe3\x9a\xe3\xd5&amp; K\x88\x11\xe7\xf8\xbfH\xd3\xf9oau\xb4\x13eV\xf7\x8e\x89\xd0\x19W\x99\x97\x05\'\xb9 \xe5L\xba\x99\x0bc\x8ef%\x9f\xa9/\x9c\xe2n=\x11C\x90\x94q\xcf\\g\xe6\x9c\xe7\xc9U!\xbf\x99\x13\xad\xa5b\xafj\xc9\xd1\x8d\xb9z\xf8\xc3\xfaP\xa1\x07H.v\xd0\x1c=\x0f\xa1\x9aC\xd5\xe3\x0b!\x0e\xf4k\x0c\xf2\xd5/\xac\xe2\x87\x94\x1c\xf5\x1ds&lt;\xd5s\xb1PM\x0c\x93R\x8b\xb5\xbe\x0ba\x15\xa9\xfb \x87\xc4\xd3\xe5\xfa\xdf\xcfC\xd6\x0c\xdb\xa2\x05\xd89\xb6\xfa8\x10\xfd.\xe8IT\x99F\x13\xeclCH6\xd2\xb1\x8d\xa2*\x93\x1d\xder\x96\x18\xbf2\xc0Xn=\xb7\xe0\x1a\xc1v\x8fDo5v\xe0\x87\xc8&gt;\xb3\xcc\xefS-pNRdn\x8f\xbc\xd5\xe3\xd4/\n\xdd\xb8\x1dE\xb7+\xfe\t\xcb\xacpV/V:\xcb\x17 KMNq@\xaf\xb8\xa0\xfb\xbf|\x1e4\xcbIg\xd8;\xae\x93\xe9\xf2\xea\x0c\xfe\xfb\x8b\xb1\xa03\x10Nn\xa8\xf1jJ\xa3H&amp;j\x9f\xbe\x12\xa51Wqy_\x98\xe5\x02\xd5\xf1\xca\xd9{c\x9f\xd6\xeb\x93u\xc7\x15\xbb\xd4\xf9SY\xa6f\x11\xe3OJ\x10y\x19\xfc\xf5\xf5\xda\xbc\xeb\xa0M\x99s\xb7\xd1b\xbd+x\x9c\xd8{l\xfbL\xf2\xf7\xc8\xda\xa9\x02\xb0\x9d\x9c\\l\xb7\x9em\xcf\xea}\xbc\x9f\x03\xd95\xee\xb5\xf8\xbf|\xce\xf5fA\xa8b\xb5I\x1ew2\xb8\xd6\x16\x03?=\x0b\x1e\x1d\x7fH\xbbDv\x05=p\xbe\xa51U\xf6\x03ZR\x92^\xf9=)\\J\x84\xdf\xcd\xba\xe5\xb6f(\xaa\xe8\xd7J\x01\x1a\xbd\x03\x81\x9a\xd5\xec\r\x06\'[\xbf\xc7\xa5\xe6\xca_S2/!\xb5\xeb\x08\xcdy}\xcfJU*\xc4\x9c\xd4)\x84\x1asC\x0c\x0fCi\xa9\xd9\xb1i\x1eK\xbe\xc7]\xd3\xce\xd7\xc0\xbb\xe1\xa1\x94d\xba\x1d\x03M\xbb@"\xb2\xd0\xfbY\xa9\xcc\xa4i\xad\x15CM \xb9\xdc\x9e\xb9\x9b\xcc\xec\xc4\xda]\xe3\xa1\xb4\x95:\xa3\xd9\x9d\xaa\x0f\x1c\x05\x9a2\xf9A=A\xe3\xa13P^\xf0\x84\x81\x95(iiy\xc7X\xb5(\xcffl\x9ao\x9f\xa1\xda\xb8\xe2xn\xf5\x13\xe49\xea\xd1\x14\x01M\xb1=\xa0\xc7\x00\xb5\xcb`\xcc(-w\xc6!,\xb2\x9e\x8ex$\xf2\x0b\xdc\x0c\xda\x17&lt; 4\xe8P\xd2\x03\x16\xd4*\xd5b\xe2[\xc0\xa3x\xca4\x1aV\xa94,\xfe\xbao\xd3\xa7^\x1f\xbc\xc7\x7fj\xfd\xe62\xbcw\xdc\xacsCIv\xf4\xcfHh*!\xe3\x95\x1857\xa6\x054\x8f\x1fI\xf5@f\xd8\xe3\xb6\x85\x99\xe3D~\x82\xf0\xce\x8a\xe3\xd7lcz\xe7/V#}\x90\xeazHN\xbf\xe7b4\xc7\xb4\x8cOV\xd3+\x99\x00^\x8a\xcbPR\x91\\\x8e\x97\xaa\xef\xfc\x06\x86\xbfB\xa4x*\xcak\xdch\xf3\x0e\x88\x96\xbe\xbc\xca\xe6h\xd9T\xb3jf\xf5\x9e\xd2}Mt$5\xd6\xc3\xbfs\xad|\x8e\xf1\xcfx\xbe\xa2;\x13\x96\x15\\\xb6]\x03\xd1I\xfa!\x08g\x8d\x8f2\xab\xd8Z\x0c&gt;\xcb[HdC;\xccf\xb0(^\x80\x84&lt;\xee\x83]\xa1hJ)\xab\rb\xb4{&lt;6\xaa\x88\x1f\xa1G\xc2\x85N\xdc\x84\xde5^\x9d\xdd\xd0Q2mC\x18m\xc9\xfd\xfePO4j\xb0\xd8Mh\xef\xe6\xcbU\xe8\xf7\x19\xac\xf3\xfb\xa6\xd0\x8egxo\xa1V\xe54\xb3\xa6\xda)\x82@\xec\xe2\xd6\xc4\xe2\x94\xf4\xf3U\xd8\x90\xdf\\\r\x11[\x90^u&amp;\x89\x99Quh\x13\x15\x1a#9}\xa0\x8f!\xc1\x98\x0e@\x9a\xb6\x86\xe0\x94\xd2\x0f&gt;\xac\xd1Z\x0cy:m\x14\xd0"t&amp;\x15fu\xfae`\xf3\x1b\xab\x08m\x97\xec^;\xa5\xcb\x7f\xd0\'\xfc%\xbd\xe3\xb7\xa0\x1d\xcc\x8a\xb2\xd4\x95\x0c\xaaA\xc8Er/&lt;4g\xd2\xe2\x9ag\xe4Q\xcfc\no\x8e+\xa5&lt;\x1a\xe7\xd1\xd9g\x9d\xe2\x86\x91\xa3\xe4Z\xe0D\xf48\x81\xdf6\xe8\xa0\xbf\xc5\x87\x98l\xdew\xf6\xc6\x93\xe6\xf1\xff\x00Wb"\xc3\xab\xf7I\xf79\xe6\x91\xdc\xeb-\xf5\n\x01\x93\xf4\xaa\teN\xcbHs\x9d\x0cL\xd2\xc3)\x1c\xa9\xf4E\x87\x8a\x99\xd3?r+\xc3\x16){\x81\xff\x00\x19i\xaa\xfd\x07\xdcN\xc4\x9du\xcc\xce\xee\xe4\xc3\xeaI\x14\xac\xb9\x05\xd0\x96\x86\xdcB\x96\xdb\x8d%*\xe2i_\x1ci\x86&amp;%\xa8\t\x9f\xd0\xa8b\xff\x00\xe6\x0bW\x1b!\xc8\x1fN&gt;s\x99Tl\x0c\xb3\x1e\xe6\xbf\x18x\x04\xdd\xa9\xa0\xc0\x13\xb8\xc1k\x1d\xa9\xdb\xeb\xda\xc9\xa4\xe9\x1dTC\x96\x0e\xe0\xfe\x7fq\x88@\xdf{\xb8\xa76\x82\x8d\xf0A\x9b\xe6\xd2\xe1\x98$\x9a]=\x99l7&lt;\x95\x06}H\xe8\xc1 \x15\t\x18\x85\x16\xe5\xaa\xf9cM\x92\xea8UuO\xba\xed&lt;e\xbaA\xa4W\xc4\x83\x15w\t\x12\xd9\x1d2\x9eE{\x06L \x026\x89\x143&amp;\xcbG\xe9\xe3\xb4\x1a\xf6g`O\xa8p-\xfa\x89\xf1\xb6E\xc6\xb9"\xf5&lt;#\x0e\x8d\x8e\xc7\xce\xb5\\}&gt;\xa7{\xcfZ\x96Vb\xaa\xd9R\xeaiM\xfbq\x94\x88z.\x16\x99`\x03&gt;\x86\xa0\xd3/+\xea\x04\xb4:\xe5\xab\xe7\x98\x8a\xc3\xd3\x1a\xbf\x96\xb4\x8cv\xd7s+/9\xcdz\x80\x81\xaeE8:K\xe6\x16\xf5\x1cC\xd1\x17\xba\xe5\xe5]\xb0[=g\xa1_\xc8}\x19\x0e\x84^\xc4~\xe6\x98:\xc8^\xe2\x98\xc3Z\xb2\x8d\x07\x99"\xcc`\xa9\xcc\xb4#\x1bXA\x11\x9d\xc4\xd0\x11M\xc4\xac\xed%\x17v\xf8\xebMq-R\xd1&gt;\xb1)\x91I\x11\x8fR|\xfeh\xb0\xd3;\x9c\xc9\xb8\xd0&gt;\nz\xe4\xcf\xe1\xb7\xae.\xfbO!\xa9\xdfF]K\xa9\xfb\x8e~\xfb\xbf1?+\xa1\x1f\xe7\xfeC\x08\x9c\xaa\x9a\x86\xee\xfe\x0f\xcb\x9a.\xdeo\x85=\x8d\xc4\xc6\xa2\x19\xfcT\xce\x946H\x12\x8c\x19)\x14\x1a3J\xb9x\xb5n\xcb\xf5,.6\x81\x9e4ho\xe6\x8f\xa8\xf4\x9e?@p\x18\xbc\xe3\xe1\x80\x15\x9aV\xfd\xad\x0c\x8f6\xd2%\xdd\xd8X\x0bgQ\x8e*,\xda_k!ImA}\xc0\xcd@u\xfcZ\xc0+fm\xb5T\xfe\x81\xf3\xbf\xac\xac/\x97\xc9Y\xe9\x9f\x16UcMk\xbe\x14\xf5@\xc4\xbf78\x9a\n\x9d\xe7L\xf21\x14t{\x86\xf3\xc5\x06^w_\xab\xa5\xe0\xfa7&gt;\xc6(\x82\xbc\xed\xd1\x92\x89\x1a\xe4\t\x9e\xfa\x02-\xe5\xe6\xbc\xe7\xd6_m\x8f\x90\xd7\xe8hzH\x9e\xfd\x88K\xc3m\xaf\xc8[\xddS6\x0by\x15\xf9\xba\x9c\x0b\xd3\x1e5\xb9\xd2\xf3\x8fa\xf0\x9cN\x8bF\xc8\xec\x98M\x132kw\xee\x0b\xbeE`3\xb6\x98zF]\xa3\x0bT5\xb6gP\xad%\x8d.\xc2h\xcb\xac\x9b\xa9\x96lB\x0ea.\xe7\xe5\xd5Ik\xc8\x13\xd9\x1d\x9b6\x15Cj\xdf\xe9\x07\x9a%\xf91\x84\x15p\x04\x92Z\x84\x0c$\x9d\x81\x8f\xa2\xf2\x00\xd32\xb9\xe73\xdc\xa0\xa5kC\x92\x19h2w\x07\xe3\xe9\x99W\x07\xa7T\xfe^i\xe3\xda\x1f_%[e\x13\xc2\x1d\xec\xe9\xd7+\xbc\xab\xba\x02B1\xb2)rk\xad Kb\xca\x9e{C\xc1\xba8\xf8y\xd87\xd6TV\xb1IZ\xa5[Y\xed\x14\x9a\x1a\x08\xf6\x065\xe1U\xdf\xbf?\x1b\x1c\x0c/\x0ca\x9e)\x13\x0b\rGI\xf2\xf6\x83\xac\xfa@k#\xa9\x87\xad\x80\x04\xdb\xd9\x16\xe2\x04*\x1b\xf6W\x89\xfd\xb5\xa2!\x9c\xc3\xf9h\xbc\xc7M\xe2~"\x1d\xf6W\x8ez\xf2\x03\xb2\xb7\xb3\xda@\xc9\xfe;\xeb\xcf\x12?\x15\x8b\xe3\xf4i\x95\xd4e\xd9hDr\x11A\xcd\xd1\xe8\xf2o\x1f\\s\xf4{\x01\xcf/\xe8xk\xac\xb9Ks\x17\xda\xeb\x17\x1c\x8d\xd7\x98\xd5\'\x8ag\xbe\xb7\xcez\xf9r\xcb?\x87\xb4\xc4\x9a\xba\x9b@\x9a\xf4S\x15\xf6\xb8Pg\x8b=\x07\x8ft\xe5M\xa1\xd9U\x8c\xc8\x03\x7f5\xca\xfcy\xaa]\xe5\xf7\x1b\xc3^Z$kk\xa8\x83\xa3\xc5\xe5\xf5\x1a\xb0e#*A\x9b\xa4\xdc3\xcf\x08\x13\xd6\x05iti1\x0b\x92\x8c\xda\x91\xc1\x96M\x19V\xe6\xfeB]\x0c\xbe3\x94\xa4\xdf8%l\xcb\x85\xb7\xf2|KiMn#\xa8\xf9=H\xfbKx\xcb"Hy\x844,KYsZSTG5\xe2\xfb\x996^\x87\x9c\xc5\xdb\xd3\xae[[\xce\x8d\xab\xc8\x96MJ\xb9\xa2\xb1\x97}\x11,K\xed\x854\xc6L\xa5\xbaa\x00\xa2zp\xb5 \xb9\x13&amp;R\x1b64$D\x06\x1c\x1e\x8a\xbf\xb4\x1b\xbbj\x9f\xcf\x9b\xa7\x96\x86\x02\xeb\x04:\xa1\xb6tIa\x9c\xca,`\x02\x16i@\xc2\xea\xf9\x02\xec0\xf6G\x9a}C\xa2\x98\xbe}\x8e\xbf\'\xa3\x94\xb3\xa1\x08\xf6\xbe\xdf\x18\xe6-\xbe\x8e\xa7\x85\x9a\xd8gtY\xd4\xc7?\xe5\xba\xad\xfa\xd6&amp;\x17\x91\\S\xce\xe1\xd0\xa6\x82T\x90\x1a\x83\xa5\xd5*\xa7*\x15\xa9\xcb]\xf0\xe7\xc8b|\xfd\x1e\xdb\xb1\xf2\x1e\xe5\xc5\xdf\xb1\xcd\x19\xbd3\xaa\x80P\xf5\xe7\x99\xe4&gt;\x9c\xa8\xdb\x1f\x17\xe8Z\x88\xc6\xb9K\xd0\xfc\xa9\x00^\xec\xf3R-\xe2\xb6r\x7f\x97\x96\x9fy\xe3\xd0\x1e\x0f\xe8\xc2i\x0c\x1b="\x9e\x16\xf4\x98\xbc\xb7E{9O~\x8d\xe5\xcb\xe4\xf5\xa2p\xa3\xb9d$a\xf6\x89\xdc\x80\x1bT\x13\x94\xfcB~\xac\x10\xd2u\x94\xb7\xc6.A\xea\x08\xaf\x06\xad\xd5Y9\x05hy\xa5\xa0$|\x87\x10\x95+\xe1\xa5.p"\xa5\xd6\xa6\xd6\xb6e\x04I\n\xfa\xa3\xccw4\xc4\xfe\xa7\x98\xea\xd2\xd2oL\x83l\xd4\xc5H\x8c\x9b2)\x1d\xa4L\xe5}\xb4\xb8\xab\xb2T\xb8\xaf&lt;\xe0B\x9a\xa7\x87\xd7\x9ai\x16\x15\xf5\xf0\x9a\xfa5\x8c\xe0\xec\xb7 &amp;\t\xe5]\xf7\xcf\xf6\x9b\xbf3\x0f\xa5be\x89\xdd\xb3X\xcf!\x0f\xa6YQ"\r\x0c2\xde\x9f\xa2\xdd\xb4*\xdbl\xedn2\x84\xf9\x80\xe9\x1eQ\xf5y\xf4y\xb9\x9c\xefO\x9d\xa8\xf5\xe4\xc8\x02\x86\x989ir\x92\xa3\x9eW\xacaS\x84&lt;\xdd\xa6\xc7\xd2u\xf9\x19\xcev\x8f\x1c\'sy\x08P5H\xb7C\xad\r\xe4^\x8c\xf3vm\x9b=6x\xc4\xb6\xcf8\xb5\xcd\xd3\xee[\xdf\tl\x9c}\xbe\x97\x96)w\x8e\x92\x03\xcb\x9e\xd3 |\xd7\xd0L\xdcy[4\xf5\xd4-s\xf3\xb6\xa7\xc10\xdcq\xcc\xb8\xc9\xce\xf1\x0e\xb6\xd6\x18\xc9T\xef&gt;\x0f\xd8\xc8\x89a\x9dy\xc07\xd1&gt;D\xe9\xc4\xc40\xd3z\x97\xe6\xfd\x14\x8f7\x1e\xeb/\xc9\xf3S\xf5l\xfc\x00\xf2+R\x90\r&gt;Y\\\n\x10w:\xf4 s\xf8\xd2\xb6\xa0\xbe3T29N\xe4\xf6(\xb8\xac\xd6\x8b~:@\x9f\xdcSm8\xd4g\xc1\xc5|\xe2\xa6\\BC\xcf\x96j\xfb\xd6\xf2bq\x0e\x83\xd7\xf5V\xec\x9d\x01\xe6e\xd7Y\xca\xb4c\x13\x97\xd9o\xc9\x8a\xe4\xb7\xd9\x8f\\;Y p\xa9i\x91\x02\x10\x82\x9e\n\xdc\xb5{.\x9e\xd2\\\x91\xa2\x00\xb4\xf1@b\xda\xbdgG\x8f\x0b\x88\x1b\x8d\xc1\x16\xf9F\xe4\xba-\xa0\xb9Z\xcb/Qb~\xaa\xb4D\xbe\xf3;]m\x88\r\xac\x93#\x9fW\xf5^\x7f\xd2gM\xb0Z\xd4\xc7.\xf3\xf5\x14\xd5\x03\xb4\xdc\xa8\xbb7\xda0\x9e==\x1e\x83\xb8|w\xe7\xba\xa3\x03\xeb\x84ae\xf9p\xf6)\xe3^\x8cJ/\x98})\x84\x85-\xc0I\x90\xc1\xab\xcc/`\xc6Pa\x9dgH\xba\xd0N)a\xdb\x1eGG\x86\xfe\xe0(\xfc\xf8+\xe5\xeb\xf7\x0c\xcf.l\xfc\xfd\x1a#0d\n(\xe1\x9a\x9c\xe3p\xb7\x01\xda\x8f1\x07\xfa\xf8\x13\\\xf2\x9e\x97g\x15&gt;\xb7*\xfc\xfe\xd0"\xbdq\xe4M0\xc5\xcf\x9e\xbd\x15\xe7\xdfQ\xe7\xad\xcc\x19\xe2\xd5\x9f\x9c\xb5`_K*\xf20?\xba3\xbd#\xcd\x87\x15\x89s\xa3Tb\xda\xdci{\xa2\x0b\x15gg.q \xfbT\xb6\xee[\xaf\xb5~XY\x94Y\xc9\xae\xbe\xc4:\xe5d\x957\xca\xbb\xf3\xbf"2]\xaf\x0c\x8e7c\xfa\xbeS\x12\xe1\xd9\xb2\xc2kRSK\x8d\xfc\x9d\x8c\xc1\xce\x812\xa9\xe7\x04\xa6\\D\xba\xba\xf29\x8c\xcfF6\xf0D\xc3\xc9r\xf5\xdc\xeb\xaeeV\xa1\xac\xdf\xe5d\x11D\xf9E\xb6F:k\xc1\x03\xdds)M\xd2"\xb3&lt;\xf7V\xa1fu \xc8Z\x9d\x14\x88\xa5\x1a\xce\xd5\xbd\xe7\xda&lt;h\xef[v["%\x15\xf5\x18^]\xec!\xefO/3\x98\x1c\xd3\xf6a_W9Rf![\x99\xbe:y\xdf~\x99C\xe5\xef\xe8&lt;\xa0\xe7\xcb\xe2 \xd50U4M\xe8&lt;\x13{\x16\x10\x1b\xb6?S\x98P\x98\x01\xa6\xa1\r\xcc\t=[Kb\xa1O\x9d4\x1f8{\xcd\xbf5\x88\x9cn\xf2x\xa3\xd0Q\xb3&lt;\xefG\xc0\xb6\x0c)\x16\xc8\xd7"\xcd\x8dk\x98mf\x1b\xfb\xf2\xef\xf3\xa3M\xe5\xeb\xf6\x83\xf8\xce\xa1\x8e\xb7\x1fGt\x80\xe8\'/\xb3\x06\xa6\xf4h\xfd\xc7\x93\x87}z\x15\xacdZ; \x84\xfa&gt;\xa3\xca\x17\xcd\x1d\xfak\xc8\xde\x99\xc7^`\x1e\xa4\xf2\xe6\xf8\xe4\x9b\xf6G\xa6\xa7{oQ*(\xaa m\xcad\xc69IT\xd7d]9Y\xc3\xb6\xae\xa3L\xd6H}\xa2w\xcd}\xd6\x92\xc5\x87\x06\x95\xb6\xa0\r\xad\xb6\x1d\xa0F#\xb1\xbd//\xb6T6\xf4\x8a\xa43c\x17]TG\x150\xd4\x93B\x12/\xc3b\xd2\xd4\xe6\xe67\xe9\x9dM\r\xb2\x8a%\xa0\x92\xa9y\xb6s\xe8*Fy\x86\xbfj\xcc\xb4U\xee\x0cQ\xd2;\xa6\xa6\xb0e\xe6\x96\x1d\xa6\x13h\xcaF3\xbb\x05\n\xf2\x87\xf3\x92\x11J+tp=_U\xe8"\xda\x02,\xb5e\xaeBs\xf3\x90\xe49\x95\xf4\x1f\xa6\x95LG\xdd\x16*\x17\xe8\xac\xe7\xbf\x1c\xd3\xd2\xf9\xce\xc7\x8b\x8c,b\xc7\x16\xbeb\xcf\xfd\xa1\x9f\xe99\xb6\xda\x11\x95T\xefx\xa6\xa1\xe6\xf1z@\xe7&gt;\xd2\xd1\xe7\xc3\xcc\x07W\xb9\xac\t\xde\xe3\xcbk-\xbc\xcc\x80\xd3\xd2\xf8\xb1b\x00m&lt;\xf7\xea0\xe4[-\t\xcf\x9b\x00\x1d\xd3\xe6\xeb\xb4\xf0l\xe1!\x8bq}F,"\x96\xe0\xda+\x16\xb5\xdasI\xad?e\xf0\xed?/W\xe9\x84\xbf\x08l\x1c\xfd&gt;\x94^~U\x96\x96\xee\xc2~\xb3\x1d\xa46e\x99\x88\xde\xeb^/5\xe7\xfe\xba\xa1\xd7?=\xdc\x1bP\\\x00\xedX^\xac\x17X\xfe\xa9\x9c\x8fF\x1a\x85d#k&lt;\xb6\xfeY[\x996\x84\x06\xa5\xc0h\x97\xa6\xd1\x88\xdf2\xe2\x04\xbb\xe4P\x94\x8f\xa4\t\x9d\x17\x96\x171e\xfc/&gt;W\\Vz~eu\xa5[\x94\x1f\xd9\x06\xdfK\xbfT\x19\x93I\xad\xb3\x8e\x98\xa8\xfe\x86\xf0e\x96\'\xe8\xa4/b\xfdh\x13\xda\x07\\\'w[\xc1\x89k\x13\xb2\x88\xcc\xd37\xd2s\xe6W_\xc7-\xd2JO\xc6\xc8%D\n#\n.\xad\xb4#I\x81Y.\x13\xa9\xda\xae]\xa6Y\xe9\x02\x01\x82\x1cm\xa8-6\xe7\xa9Up52-\x84\\\xe7\xe2\xbfy\xfc\xc4\xde\xb6\xdc\xb4GC\x9f\x03\xdbT\xdd\xad\x97\xc6\x8c\xebE\x8cO\x96\x06}\x9d\x9e\xd2\xb40\xf3!%Nu\xa8g\xb6!\xbb\xb8:`\x96\x07\xa2g\xbb\xfbX\xe8\xc6\xa7[4\xe3:o\x9cY#\xd0~a\x13\x17\xaa|\xff\x00\xe8k\xd9\xaf2\xea\x9e\x7f!\xd2t\x10-vVU\xe4\x1fi\x06\xeb\xc8\xa2\xa77\x8aF/\x9dz\xaa\xbao\xc5B&gt;\xd1\x04\xce\xfc\xf4u\x10N4\xf4\x06\xb9\xe1\xa2L:}\xec\xff\x00\x85\xcf\xf0\xdf\xd6\x8eb\xfa&gt;Z\xdc\xca\xaf\x98\x94\x11\xf2e\xb9\x04\x0f\xdcx\xe7\x1f\x06\xdc\xa0\\\xe2\x05\xee\x85\xd2\xaa\xd5\xb2\r\xc00\x1b\xfb\xc5i\x90q&gt;\x95\x8bM\xe9\x97\xb8e\x16\x99\xfar\xbc8\x9f\r\x8f\xee\xc1\xa9\x1a\xd5c\x8d]%\x1e\xd2cl\xcajI*}/0b-\xcdK\'_\x0c_4QuM{\x17%\xb9h\x8b\x8f2\x1a\xd99\x948\x88U\xc41\xc0\x16\xb4\xdcf\x957&gt;\x88&amp;)\x1f\x03n\xb6\x8d\xe9\x16\xa4\x96U\x91\x08\x8du\x95\xb2\xda\x18r\xbe\xce\xc3EkjS\x13\xe9\xb8\x7f\x9e\x13Q\xea\x89\xb9\xecf5+\x0b\x97\xecq\xfa&amp;\xd3\x0b:\xf2\xfa\xb4\x07\xa8\xc895}\xf8J\x92\xc6\\)\x97=O&gt;\x15h\xa9\xe4F\x00\x92Fr\xa6\xe8:T\x81.\xf7?v\xa4\xe4\n\xf0\x91?,Wz\xcc)\xa1\xaa\xb0\xe1\xcb\x9d\x8fe\x0f\xba\x8a\xf3\xb5\r/\xa3\xc2\xd6\xb7G\xc0\\\xaf!\xd4\x8f\xe6\xb3_\xaf\xeaZ\xcbt|\xef\xd1J\xb4a\xd2o38\xe4\xba\xfc\xd4~\xba!\xce\xc8\xe4.k1\xd2\xc4\xd2$?,d\x03`i?&amp;\x87{x\nk\xc6$\xfb&amp;s\x17TK\x9a_+5\xd3|\xe0M\x96\xde\xb20\xf1\xbc\x1en\x8fn\xf7\xcb\x1a\x86\x1bk\x1f\r\xdb\xe5\xad\x80\xf5\xf3\xbad\x10/\xae&gt;\xe3\xcb\x84\x1bE5,o8\xf4\xcec\xb6C\x95g\x12\xa9M;\xae\xc8\xe5\x99C\xb9\xc8\xee7y\xfen\xd6\xf3\xb3\x1b`\x82T1U&gt;\xa7\xd2\xf3!\xd5[C\x13Sa\xcal\x96\xf8Z\xe5;\xfe\xc3\x9b\x17\x15\x99\xcc\x07\x14\x9f\x98\xe7+(\x04WR%\x1d\xabJ.W\x858QH\xcb)\xe75"\xc2;Q\xfb4H\xa4~\xb1\xb8p\xbe\xaeo\xb0~\xebs%Fu\xb7\xa7BS\r\xe3\t=\xedr?.M\xa7n0/\x9c\x97\xcfVg\xb8\xc5\xb7.\x9b\x9c\xec\xc3K\xf2:\xe6s\xab\xc3IN%Z\xe7\xd5\xb4\xe8\x91\x1aCU!\xf5Z\x14*Uhf\xc4\x91\xeb(\\s&amp;\xf36\xb5\x03\xf1\t\x17\xb3X\r\x7f\xa5\x87)y{\xd6\x18\x8bl\xf4\x1e%\xdc\xc9\xab\xf3\xcc\xee\x99;M\xb2\xabU\x97\x96e\xc6\x16\x159\xe4\x1d\xb3:TD\x05_\x1d\xadsl\xc8uL\x9f\x93t\xf0Jm\xf3\xd9op_T\xe7r\x97\x8c\x13\x88\xcd\xda\xebXqE\x8c&gt;\x0c_)\xf5\xf5:\xaf\x10\xd5\xfa\xd7(\x9b\xa1\xd0\xf2\x1aIs\x05nI\xe5\xa7M\x8a\x9cz6\x13\xbf\x18V\xe3\xb7\xbd\x1c\xf1\xd6\xa3\x86\xfb\xbf\xc3V\xd9ia\x11\xe7\xab11\xfd=\xbb\x9f?\x00\xfa\xd6\xa2\xe3(\x82f&lt;\xd5ME\xa0N\xd8_\x13\x04k3NS\xc8\xaa\xef\xf3\xd4\xc4fZ\xb0\x99C`\x17\xf7\x02\x93\xd31\xb8\x15\xbb\x9b\xb7\xfa;\xf0\xf8\xd4\xa4\xa7D2kD\xcc\xd2\x83B\x18\xb9\x19\x894z\xa5\xa8J~\x88\xee\xcd\x90?\x9fg\x81\xdayT\x05G\xaev%\x0fLj`\xdb\xea\xf87\x99K\x1a\xa9wU$\xbe\xef\r\x95\xfdm\xfbJ\x85gW\x95TV\xcf\x89\xd1\x99\x86\xf3\x9ek&gt;\x1fg]Zx\xf5\xe3]\x80\x87\x9d\xa5\xb3T\xff\x00&gt;V\xb9s\x9f|&amp;[}"\x12\xa3\xd2 \xd2\x01\x93b8\xd1\x1dT\xde\x01%\x8dh\xba\x0e\xe9\xaa\x8c\xd5y\xfcW\xd5t\xe1\x9d\xe5\xfa\x0eyq\xe8\xdb&lt;\xb0\x91\x18\xf6\xe7\x89\xfa*n6\x11\x1b.\xb9\xf5\x00V\xc9U\x95y\xcc\xf0\xc2\xbe\x89yt*\xf0\xf4\x01\xf0\xad\xc4\xaf&amp;\xfa7\x03\xae\xda\x0c5A\x9d\xa3\rhm\xfc\xcb\xa4i\x9e\xaa\x91\xa2|\xe9\x98\xb3\x92\x19\xd6c\xe9T\x0f\xc9%z\xa4\xb5MU\xe8q\x94\xe3u\xa6\x1ef\xd2t s\xd8\x18l\x11\xa2V\xc5\xcf]\xa0\xe3\xc6R\xf9\xba\xbd\xe0\xff\x00\x8f\xb4\xae~\x8d\xe2XI\x06\x1b[\xd5\xc8r\xf3\xa7\xcevu\xde~o\x8f\xbc\xd5\xe9\x9eW\\\xedg\xab\xe4\xb5\xf5zZ\xb5v\x13\xac\xb6r\x9dH/\xba\xcem\xca\xd1\xec\x81/\xe1\x94"\x9f\xe8\xb9\x90"@k\xe1\x8bz\xb0\x14\xa1)\xa2\xa5L\xa5\xc7\xa1\xc7\xa0A\xa5e\x16\xb6\xad\xb9\x15\xf1\xe3\xba[\xb1%\x0e[\xf1\x9f\x1c\x851\xc0LwW\xd7\x9d\x81(\xcd\x87\xb5\xc2gt\x0fl\x8b\xfax\x95\xe1\xf1X\xce\xd7\x95\x99\x15\xc2\x99\xf3\xdd\xc9k\xa9\xa9\xeb\x0f|\x9c5\xbe\xd4\xb7;\xce\\!\xb695;\x91\x1f\xac\xde\xe7z\xc6c\xcb\xe0\xa9\x84\xb4&amp;\x1a\x8bV@ \x16\x0c\xc1\x9a\xd5\x93\xa1\xab\r\n y$\xd0.]\xea\x04\x07\x95}*=\x90\xb2\xa3W\xc2\xbd\x00\xd6\x9f\x9ai~O\x10\x8f\xa1\x95\xace\xa6y[\xf6\x1d\xb6d\xb05\xeb\xe8\xbc\x0fE\xa4\nO\xd5?d\xec^c#\x0c\r+\xda\x8c\xfc\xcd\xed\xa9B\x05\xc1\xdey\xd3?_+9.\xcbK\x9f\xaa\xe3E\xdd\xa2\x9d\xe5V\x98\x1e\xcf\x92\xed\x89\x918\xd1v\x1a\xe7\x98O\xae\xbck\xd5\xcf\xb1\x0b\xbdg\xcd\xbeM#A\x8a\xa8$\xba\xae\x16[mZ\x9f\x90\x9b\xe4\xeb\xf6\xcd\x97\x93\xb6\x1e~\x9d?\x95\xd3T\xf9\xe8d\xdb5\xf6\xbc53\x0f\xed"\xe6p\xe4\xd4X\xb7\x16,\xd4\xb7\xa9\x19\xa4s}\x9bX\x0fN\x7f=\x91,\xd2\x18\xdb\n\xae\xe9*\xa8\x99wSY\\\xd5\x9d}lZ%\xc5\x8d\x15\xd4\xc8\x91\xdbM|\xeb\xd4\xfe\x95\xc7\xd1\xc7\x1dzj\n$?\xac\xfdf\xfc\xbfG\x9e\xb6$\xda\xff\x00S\t2\xebf\xe96\x12\xfaS\x8a\xb4\xd9\x86\x8f\xfc.\xd9\xfc\xe2y4\xf9\xbe\xf1\xaf\xba\x9e\xb5\xf7\xdc\xf9\xae7\xdf\x85\x19/\xb7\x16\xdfT\x94\x9bz\xaf\xa5Z=\x0eV\x99|\xea&gt;iHW\x07F#\xa3\xc7K\x1b;\x97\x02\x85\x89]W&amp;LX\x01#-L\x1a\xcb\x1e\x8b\xba\xcc\xf4\xfb|7\xc1\xc0\xbdK\x9a7{\xa8y;Nq\x9a\xee\x98\xc6\x88,\xf4\x9f0\x95\xa4\xef\xd2*M\xb0\xd7.\xc9N=\n\xab\xcc\xfa}\xa61qA\xad\tFO\xd0\xa09\xef\xa51\xd7\xcc\xb7\xfaf:\x9f\xa7;\x158\xeb/)\xd3\x04n\x02\xa8\x83\x0c5\xcf\xd0\x1d\xa1\xb1\xe5\xe9\x1a\xf3\xbe\xc3\x97\xf5szL\xae\xaa\x15eq\x80z\x1f\xc7\xfe\xa7\x9b0\xbcOr\xe5\xe9\xcc\x85\x8e\xf4z\x9c\x05\xcd0\x16j\xbc\xc6\x1b\xb8\xecs\x97\xecy\x96\xbc\xe0o\xb6\x9d\xb2\x94\xe3\x0bU!\x946\x86\xe1\xb9\x08o\xc8\xa9\xed+\xc9\x03\xce4H\xc5\x0cUVu\xf1b\xba\x93\x11(\x1a\xdam\x90\xe4g\xdb\x1bn\xfc\xe8.O\xd2X\x89*\xbaM\x0f\x11\xc6t?*c\x1e\x97+\xad\xca\xa6\xeb\xca\x03?+g6\xea\xbc\x90\x89zH\xce\x9f\xc1\xa5\xcd\xfcY^WW[\xea\x05\xde\xb6\xb6\x95\xcf\xb8\xd7z\x8f\x85\xf2V\x81u\xb5\xf1\x0c\xadJ\x1c\x0e\xcbj_]\xaee;T\xd2\xc7\x8d/\x98\xa7V;Ki\xa5c\xb3q\xe5w=\x05a\x1b\xab\x1d\xc7Bu!\xd75i\x8d\xda\x8ar\xa9\xce\xb5if\x0b&lt;\ts}\x1a\xf5\x1e[\xae\xf5\x88~\x99\x8b\xe2\xe6!7\x1b\xbe\xad\x88jxo\xe7\x1fH\xf9\xe3l\xb9%nG\xd9h\'\x8d\xfaI-x\xf3Y\xd4rM3\x8d\x06&gt;\xdb7~\xb4\xae+\x89\\zK\xceM\xe2E\xf9~\xd3\xd1\xa2\xfaf\x19\x93\x19\x02\xef\xcd\xec\x0b?.\xfa\x93\\\x87\xfc\xa1\xe9\x0f&lt;\xfa\x1c:w\xa3\xb3m7\x93\xa2\x8b\xce~\xaa\xc7\xfay\xf4\xf4\xf9h\xb646\x00 Zz\x0eq\xad\x86\xe1x\xf0\xde\x92\x1d\xa4\xd4\xb8\xdan\x1di\xb6\x13\xe4\x17b\x15\xf7\x18S\x17\xd5%\xb5#\xe4\x03\xac&gt;\x86DfCH\x8d\xf3\xc9\x06\x92\xfa\x07\xc9(\x96\xc5\xca\xfa\xc9\x8a7\xa77T\x8a\xbb\xfa\xd</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495700-dolar-una-hemorragia-preocupante</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Los Barones del Carbono</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 01:15</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dejar que los super-ricos sigan enriqueciéndose del status quo no solo es obsceno: es y sera un suicidio para nuestras economias, y una tragedia historica para nuestros pueblos.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SHARM EL SHEIKH, Egipto. Al calor del calentamiento global, cada vez son más las investigaciones que vinculan las causas de la crisis climática con sus causantes. No hay sorpresas al respecto, pero si mayor claridad: un pequeño puñado de seres humanos está poniendo en jaque el clima del planeta, son los supermillonarios, verdaderos barones del carbono que se acumula tanto en la atmósfera como sus riquezas en sus cuentas bancarias.Una de las investigaciones más claras y recientes es el informe de Oxfam titulado "Multimillonarios de carbono", el cual da cuenta de la relación entre la fortuna de los hombres más ricos del planeta y la huella de carbono que sus inversiones tienen en sus distintas carteras de negocios. No se trata así, solo de su banal y bochornoso estilo de vida, altamente consumidor y contaminante, sino de las implicancias de sus decisiones en las múltiples compañías que dirige o tienen parte del paquete accionario.Siguiendo el informe de Oxfam, los números de los Barones del Carbono son elocuentes: En total, el grupo de los 125 más súper ricos del mundo emite al año 393 millones de toneladas de CO2eq. En promedio, cada multimillonario emite 3,1 millones de toneladas de CO2eq. Muy cercano al promedio de la Argentina que es 4,02 en promedio de toneladas por año por persona de gases efecto invernadero (GEI). Con la diferencia de que en nuestro país somos 47 millones de personas.De esta forma la inequidad e injusticia climática se corporiza en los verdaderos grandes responsables de la crisis actual, que si bien no son responsables del total de crisis climática histórica, son quienes continúan ganando dinero y acumulando enormes riquezas a costa del clima mundial y las consecuencias negativas que su modificación están produciendo para las inmensas mayorías del planeta.En este marco desde Avaaz creemos que los trabajadores de las distintas empresas y sectores que pertenecen a estos multimillonarios no pueden ser rehenes de esta situación.La forma en que transformamos nuestras sociedades para enfrentar el cambio climático amplificará o reducirá las desigualdades existentes. Para tener éxito en la transición, debemos apoyar a los millones de trabajadores en la industria de los combustibles fósiles a medida que dejan atrás las industrias contaminantes del pasado para asegurarnos de que lo hagan. así con dignidad y esperanza. Si nos tomamos en serio la eliminación gradual de sectores completos, entonces debemos tomar muy en serio las implicaciones para las personas que todavía dependen de ellos. La Declaración de Transición Justa de Silesia, acordada en Polonia en 2018, fue adoptada para abordar precisamente este desafío.Para que los super ricos no estén por fuera de las regulaciones de todos los mortales, los gobiernos del mundo deben establecer mecanismos innovadores y valientes que sometan a todos a lo acordado en París en 2016. Es decir, mantenernos dentro del aumento máximo de 1,5 grados centígrados, en comparación con los niveles preindustriales. Esto incluye sin lugar a dudas a los super ricos y sus inversiones. Ninguna inversión tendrá más riesgo que el que afrontamos con la desestabilización del clima y sus graves consecuencias. Según el IPCC ya casi la mitad de la población mundial, entre 3.300 y 3.600 millones de personas viven en contextos altamente vulnerables al cambio climático.Si el mundo se calienta 2°C, es probable que perdamos entre el 0,2% y el 2,0% del dinero mundial. Parece poco, pero el 2% del PIB mundial actual es más de un trillón de dólares. Si el calentamiento aumenta más allá de los 2° C, los costos serán aún mayores, aunque no podemos estar seguros de los números exactos. Se ha calculado que la adaptación a un mundo 2° C más cálido cuesta al menos 100 mil millones de dólares al año.Salvar el clima es un gran negocio incluso para la economía, no solo para el bienestar de la mayor parte de la humanidad: pero es responsabilidad de los gobiernos encausar a los super ricos, para que su destrucción no sea la consecuencia de un negocio de unos pocos. En definitiva, es la capacidad de los Estados de generar reglas, impuestos y marcos económicos con énfasis en la justicia social y ambiental, lo que determinará el futuro del clima, del planeta y la humanidad. Necesitamos una economía que deje de ser funcional a los millonarios y que funcione para todos nosotros, los miles de millones. Nuestra región sabe como hacerlo, tiene un largo historial de cambio del status quo en favor de las grandes mayorías populares, y esto es precisamente lo que el mundo está necesitando de forma urgente y dramática. * Director de Avaaz</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x01\x05\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x02\x03\x04\x06\x07\x01\x00\x08\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\x19-\x0ez.\x0b\xf2\xda\x95]\x8a}\xb5\x07\x92\xfcw\x95\x9ez3\xd2Hu\xa5\xc8\xfb\xcc*I\r\xc4~Gf\xb35crR\xb5\x92\xd6:J\x99\x8e\xb4\xf2\xbc\x97c\xf8\x17\xb8\xdb\x92)^\x92\xa7\xc8y\xa5n\xf5\x8e\xc8\xe4y\x1d _J*H\xe4\x90\xf2\xb7\xba\x8fB\xe49\x11dJ\xd9~\x08\xf1L\xb9%zA8\x8c;&amp;\x04`M62@*\xeb\x8fH\xcf_j\x14\xa9\xa4\xc9\x1b\xcf\xc9\x80ks#A\xd4D|\xccB\xa6hfn\xc4G:\xba7V\xc2\x9a\xce\x99\x10\xdb\x97diV!U9\xa5m\x16\xa9J\xeb\xc1N\x858\xe26\xa8\xe7#\xa4\x84z#\x8d\xfb\xd1=\xef,\x84)\xd90\xdf\xae\xd5\x1b\xb5}O\x9f\xe3\x17\x13o9\xb5{\x86\xb7.\xc2\xbe\x85\x17Up\x8bmql\xd4\xf7|w{\xdb\xcc\x84\xeb\xea\xb5#$\x83@\xc4no\x8c\x81\xe9\xfe\x82\'d6\x0b&lt;[22\xd3\xed\x10\xcbo\xf0\x88\x8ay0\r\x90\x99[q\xbb!\x99H\xeb\x90\x97CyJ\\\x9c_\x97"]Z\x84u\xc6dH\xc4\x85\xba\xa5\xb7\x15\xd9%\xb8\x99\t\x19\x90\x95\x03-\xf6\x9eWuM\xacE:\xda\xc1qI\xeaX\xd2\x94\xa2&lt;\xef\xbc\x0b\xbc\x85"\x07:\xb5\xc6\xf7\x93\x1aG\xe2;\xd8\x18u&gt;\x92Gx\xf0&gt;T$\x99&amp;\x1c\xb7$\x0f\x1c\xe3% Iy\xb0\xcav3\xb2:\x86\xbd#\x8eG\xf4&lt;\x8f5\xb9"F$\xdc\x10\x1fP\xa92\x0c\x85\x03p\xf6\xcb@\xb0B\xab]*\xc8"\xdcXa8\x03c\xba\xe2&lt;\x90\x88\xda\x9dNSg\xabA\xed\xbc\xf4)&gt;|\xce!\xce\xad\x8c\xfb\xcbj\x9f,\xe0K\x03m\x11\x87]\x963v|\xedu\x07\x8d\xe4\xdd\x89.\xb6UM\x8a]~\xb8\xb6j\xf4\xea\xe7\xd0\xef]\xee\xe7#\xba\xf1\xc6rS\x92Ch\x9a$\x1c\xf4\x86\xa4B;\xe9\x19fjd\x1c\xd9$\x185\xb2\x0c\xc9\x0b\xaf6c\x11f \x88\x12\xbd#fOJi\xe5g\xe41!Y\xc7\x9bpGU\xc7\x82\xf1kpD:\xa5C\xee\xba\xb0[\x94\x97C-|xD:\xa7A\xea\xd3\xd9\x1f[KFul\xad]KeR9\xee=$y\rrG:\x9eI\xe7"\xaeI(Z\xa1\xf3\x91\x1a\x82wcv\x19\x0eDZ\xc7\xe28\xc1\x8e\xae\x17\x8cw\xb0\x19\x80\xd3\xc3\xde\x91\xf5\xb7\xc0}\xc52g\x9bu\xd1\x1aR\xda2"d7"\x16\xe2d\xf9\xda\x95\xb9ey:\xa8\x93j9\x9fvJN\xa1W]\x17W\xf0\x88S.\x9d\x9e\xc6\x88r\xc5f{V\xe7a\xf9\n\x0f\x01\x93!\xcd}S\xc8\x85\xa2\x88\xed\x95\xc7z\x0e\x9e\x96\xd83\xc7j\xab\xa6\xc5[\x8e\xbbq#\xbdz*%&amp;!\'L\x01&gt;\xc9y\xde~n\xd0\xab\xac\xb4(\xd0x{,\xa7\xaa\xd0\xb3\x9d\xc2n5s\xed\xe5\xb8\xa0L\xfe\x9d\x0e\xb7!\x0e"2A\xb9\x07\xb6A\xb9\x077=\xb8`\xb75\x89"\xc7\x98\xc4\x11eG\x95\xb3+\xae\xb6\xfa\xb2\x9fi\xf0V\xb58"\\\xeb\x92q\xdf8"\xddmA\x9fSn\x88\xb7YxE\xb9\xc5H\xb7ZxE\xf5.+)H\xe2\xbb\xeaaR?\xd4rG\xbc\x8e\xc2\xef\x9b\xec\x9ci\xefI\xc7x\xcc\x8e!|\x81\xb5\'\x92&gt;\xfcGay\xa4G\x11QV\x92\x19\xea\x1e1\xaf:\xdc\x93z\xc7Dw\x89\\2\xd5\x1b\xc2J\xec\x15\xc8\xa6\xd4\x93\x1fTF\xe4\x97\xc8\x9c\x90V)\xbc\xd6\x16\xdf\x9b)w1\xf8\xf7eliU\xf0j\xdc:\x90\x18}\xa6$xT\x86\xe4}\x87\xda\x0e6\x1c\xe4\xca\xdaD\x99\xac\xa8\x0f"+\xd2\xe9\x80^[\x14\x9fx\xd7\xef{\xd2zd9\x86{\xc4,\x96\xe7\x11iY\xab\xb9\xefY"\xc5\xado\xe8,\xef\x99\xf4\x0c2M\xaa\xddpM\xb3zg\x93JS\xfb\xdc[1\xec\x8c\xbd\xc9\xab\xce\xcdK\x97\xbf.\x88(]\xa9\xa7&gt;\xb1\xb3\x1ce.\x96\x86\xc4\xf8d\x89\x94\x99\x1a\xb3u\xe4\xbc\xac\xa7\x10\xe8\x8f8\xd3\xc2-\xc49\n\xddm\xe8\x16\xb48"\x97\xc5\xc8\xa7\x10\xe4\x8e)*\x05N\xb4\xb5g\xb8\x95\x06s\xa8\xe8\x8e)\x1d\x91\xee\xb7\xd8T\xb6\xd3#\xfeg\xb2=\xd8\xfe\x82O\x1a\xec\x8e\xfb\x9e\x87\x8a\xe7\xa4J\x93\xc9:\x9fvN6\xe3rFjJ$\xf7\\L\x0f6\xe2\xe1a\xc5vO+\xa9\x91\x1ew\xd23\xc5"D3%\xb9"\xa2J\xa4\x1c\xfb\xe9\x93\xe7\\\xdf_\xc2h\xd9\x10&lt;f1\xec%\xce\xcb0dYq\rm\xf3\xbc\x11L\xa5\xb8&lt;\xdf\\\x92\x19hO\xd9X^z[T\xc2d\xc5\x87\xdcq\xb0=\xefzOK\x88H\xad\xaa\xc4\x82\xbb9\x10\xa4\x95\xe3S1\xe9\r2\x18\xb8\xe5\xfag\x98\xef\xb8$\xdc\xec;k\xaa4\x13\x1b\x91\xa4\x1b\x90\x13\x1b%jO\xb6\xf3\xa3K\xcf\x15v{\x11:\x1d\x9d4\x95\x8c\xd3!\xe5\xbbV\x15&amp;\x9573$Z\xea\xf4Y\x1bZC\xad\xbe\xa5N%p\xba\xebN\x80\xe2\xd0\xb9\x1dq\xb7`S\xa8rG\x16\x85F[\x8d(3\xceGZ\x17\x97\x1dr&gt;\xb6\x17#\xbeG\x84_Z\xe4\x8fq\x8e\x18\xff\x00\x19L\x92P\xcf$\x92\xa8\xeb\x11\xdf2\xa9&amp;;\x01\xf9%\xf1\x8e\xc2\xf7\x1a\xe4\x8eu\xa5I\xee\xf8\x1a\xd8u\x9a\xdc\x10\xd6\xefE\x90\xd4\xc9~\n\xcc\x99\xe8\xcf\x08\xf7\xba\x95\x8aG9\'Y}\x127\xc7\x1a3\xac\xb8\x83\x1aB\x9b%9\xf6\x82\x88\xdf\x11R\xbe\xc8\xcb3k\xa7\x8a\xbbQ\xb3k\xaf\x8f\x9b\x06#M\xba\xccT\xa1\xde\xc5g\xaf"D/l\xa3:f\x8f\xad\x97\xa9\x1c\xf3\x827\xe7\x13\n}\xde\xc0\x9b\x1dsPz.\x10.\xb5\x9d|fN\xa5\xe6Y.G\x92\xd5\xc6\xbcR{\x97^\xa8\xba\x89_3\xe8\xcc\x0c\x93&amp;\x96\x08\xea\xb9\xc5\xb9t[h/G\x880\x985\xbfA\xc3\xb5\x16\xad\x96\x96\x16\x8c\x87\x1e\xb1\xfd\x92P\x88\xcf\x9fD\xac\xa3\xfd\x7f~\xbe?\xe7\x90\xf9\xdf8\xad\xd7\x9bvE\xad\x0b\x85\xc5\xb6\xb8\x1eSJ\x12C\x91\x97$\x95F\xec2W\x19P\xbf\xe6&lt;$\x8fG\xf4\x12{\x1f\xb2HTOHAc|\t\x04DH2\xd3\x1b\xc4&lt;\xa8\xfc!\xde\xb3\xd1$=\x0f\xa1\xe6\xb9\x01\xd0H* \xe56\x00\xf8\x80\x1a\xb4\xe9Cj\x009\xbe\xae\xe0\x04\'tse\xe99L\xed\x9co\xabd\xfc\xdf\xf4Y\xa2Z\x91\xc6W\xd7\x19rHr*\xc4q\xbf(D\xa5i\x91\x94\xbc\x99\x19m\xf6\x84m\xb7\xd0Y\x19&gt;\xb5\x84\x8b3\xbc\xf2\xc1U\xe6u\xa2\xc7\x94\xd9X\xac\xcd\x8c\xf5\xa3\xbe\xf4T\xb6\xa6\xc8\xfb\x1b.\x19)\xeb\xc2b\xbc\x86\xadR_\xf34V\\\x8f\x15&gt;\xf7\x14H\xdcr\r~\xfeu\x88ih\xda9\x85\x10\xfc\xc6Qsd\xa8\x81\xe2,\xd1@\xb3]\xf3\x8bw\x8a\xf5\x968\xc1k9ln\xb2O+\xf5|\x1d(&gt;]l\xd0\xb6\x9a\x05\x86\x99~{U\x86\x9b#\x91\xdd\xd3\t\xd2\xae|^\xd9Z\xc1\xc1\xdd\x0c1"\x1a\x97e\x05\x9e\xf3\xde\x93\x99\xc5\xad\xc1\x12\xe2\x9d\x91\x0bR\xe4\xe2\x96\xe4\x88Z\xd5"T\xe2\xe1mKT(\xeb\x9d\x91\xbe\xab\xb0\xa1JP\x8d)^\x87\x8a\xf2\x84G\x94\x99=\xefxN\xfb\xdc\x93\xde\xf7\xa4\xf7;\xe0y\xee\xf6O+\x8b\x93\xce\xa5\x89\x06e\x14[mW\x8a\x18{\x8bpJ@E)\xb4\xad\x15\xa9,\xe5+\x96R-\x1aFp2\x8d\xdfX\xbd\x83\xedz\xb9dU\tOL\xcfF\xec\x8f\xf1\xbeH\xe7\x9bL\x8fz:d}\r\xf8N\xa7\xa9\x85\xbc\x17y\xc3R\xec\xe3&lt;\xd8r\xbewL7\x9cB\xb3qf2\xe9\r\xa9\x10\xde\xae\xa3\xb2bF\xe4d\xddK3\xa3\x95\x05\r;\t\xe4v\x9cm\x17\xdc\xf1\xb2\xa5\xf6:\xfd\xcbW\x10wd\xc4\xb2\x82\x12\xaas\xa4\xb5\x12\xadOe4\xd7W \xeb\xad\x12\xc1\xcc\xeaVA\x19\x10\xf8\xd5E\xb4\xd7\xb7c\x0f\x0c\xf7WEuo\xadof|&amp;d\xb2\\\xb3R\x99vk\xb4\xd7\x9f\xf2\x9e\xb4\xb1z\x19jl\xb7\x95\xc0n\xde\xf3\xc7\xea\xf3)7;C\xce5Z\x82\xd8\xaa\xb5\xb2\x1e\xb8\x87H\xf2\xfc\xa8\xfd_\x95\x0f\x94\xd2A\x93\xe1\xa4\xc4\xe7{\xe1=\xdfzOq\\\x13\xdd\xefdJV\x99\x13\xce\xf2Ou&gt;\x93\xbe\xea\xe4mm\x84\x06\xc0\xeeX\xe2[\xa8\xc6\xce\x1d\xae\xeb\xeeC\xd0T\xed\xf2\xb3\xb0\xd7c\xbeT\xac\xf8\xd2\xbc\x8b\xe0\xf8`\x0e*j\xea,\x1bj\xa9\x06\xc1\xe8\xc4Kb\xc5\xa3\x85o\xfaO:\xd1\xf6\xe0_z\xabs#\xaa\xf4\x9c\xe2\xbd"x\xbeH\x8e(d$9\xc5\xc0\x8f+\x925\x89m\xd0\x95\xfe\x14\xd1\xbe\x88o&gt;\x9f\x91\xebz\xd6{\x87p\x16e\x8eeDu\xa5\xeaxi0v\xd3%\n\xe9\x12\xdf\x8d\xc8\xc8\x8b\xc6\xca-\x1e\x9a\x16M\xf9\xbb\xd5\xfc\xcb\x04\x98\xc4t\xf2\xa34Q\xe23(\xb6Q\xb5\xea\x1aL\x1c\x15}(\xd6_k\xb3-\xb4\x1a\xa6\xd7aZ\xd5\x08w+\xb3=\x8a\xac\x9e\xb7,\xdf@q\xab,\xc0\xbe-\xb3X\x89\x1d-&amp;J\xb8\xe47\xae\x06\x0fN\x8dl\x86\x1b\xa1\xf1;\xb5\x8d\x1f\x05s\xb1\xcd\xfav\xa1N)bj\xd9-\x9b\x18\x83V\xdd\xfe\'\xdc\xdc\xfd\x06\xe6s\xa4\xe9\xa3\xcb[\x8c\xcd\xf5\xca\x15D\x8f\xb0\xa3\xbc\xb7\xb0\xdas\x0eW7\xf9\xd8\xb1\xbd\xe3P\xe5H\xed\xeaILVC\xd9k\xb5\x18\x98\xb5_\xce\xe1\x92\x1d6\xe4\xd1\xef\xdb3\xb3\xe7:\xca\xcdZ\x96\x1e\x9b\xc9\xc4\x9e\x1d/\x8d\x8f_+A\xac:\x1f\xcc\x1b\xd0\x96/\x9eoT84j\x96\xfdB\xa9\xf2\xde\n7b\x10\xb8w&lt;\x8fh\x0f\x12\xd7\x83\xabX\x93a\x18\xaaP\x9df\xc0\'\xd0w\xd1\'\xfb^y\xae\xb9\xd7F\xba\xe3rs\xcb\x8b#\xa8\xe5qM\x86\xa0\xed^\xa3e\xb1\xc7\x91h\x9e\x98\xf3\x98FjR$\x88$\xf2$\xc8~f\xfa\xfc~M?\x1d7{\xad\xe4\xd9_j\xdc5\x96\xb2(\x84K\xf3\xba\xa5 \xc9p\xd5\x18\x14{\xb3\xe21w\'d\xb7\x9e\xdd\xb2\x9a\xe5\xb8\xceH\xa0\xc7\x13`=\x88\xde\xae\xcbh\xad\xd8G\xb55\x006\xf0u\xec\x0fa\x06\xb5{\xb9\xea\xe9\x1b\xf9\xd8\xd5kC\xcf\xaa\xdc@\xed*\xda\xb6\xc1\xf2#\xc2\xfaP\xda\xbb\xac\xf9\xb1c\x92\xa1\xca\x8aV\x1a\xdae\x81&amp;\x17\x16\xf9\xefi\x9c\xe3t\xa8R4\xda\xcb[\x9e\xbf\xa9\x90Z\xb0k&gt;\xa0\x19\xcb7\xf0\xcc\x8a\xf57sFn[Nqf\xe5\x072\x83\xa4T+`\xee\xd7b\xda\xda1p\x97L\xd1\x06\x02\xcb\xb5,\xc3\xaa\xa7\xce\xedK(7C\x96\x14\x95\x1b\x9as\xca\xd4\xf3\x125\xdb\xbb\xe5\xccW:\x14Sm\xe1+\x85o\xe9\xa0\x9f\x8c9\xe8\xe3d\xa8\x16\x01-\x16Ek\xe9\x1c1[@\xf5\xdf5\xa5\xb3m&amp;.\xde\xc7\xe7\xda\xc2gQ\xaa\xf0\xb3\xa1rt\x9d\x11\x06c\xd2\xee\x9d_\xd2\x06\x12vZ\x05WO/\xe8\xe9\xbf3\x96\xbc}\x07L\xcbj\xb2o\x02\xben\xb1(\xd1\xaa\xd5\xe8\x99\x9c\xfcP\x94\xb8\xdfGs5\xb0\xd8\x9aU\xe3\xe4\xe6\xeeO\xb1\xdf\xf9\x0bC\xd270\x812\x1a\xa5\xba\xf3A\xaeP\xf6;\xd7\xcek\xac}+\xf3f\xc2\xee\xf3\xf1\x1f,\x02%\x8cF&amp;!g[!e\x82\xb9\xa5\x8c\xbd\x9cE\xe2I\x93v\x16\xd988\xadxM\x8b&gt;\x00}\x8e\xa2`h\xd2\x19\xa9K\xd3\xcc\xb7\xd7W\xc6\x15b\x8d\xb7N\xc2\xf3(]2\xdf\x99_i\x8fMf\xd5N5\x9f\xa8Tl\xc6\xdf*\x11\x1d\xd5\xbd\xe4\xc6\x91"\xe6\x0f\x9ak\x9a\xdbn\x91\x01\xa7\x1f\x0f\xac9\x15~\x7f\xad9\xc1\x04\x00! d\x84\x12\x9e\x1b4\t/\x0f\xf4\x84\x1d\x81:7\x97\nx\x91+W\xb9\x05\xb2\x8e\xeaS\x1c\xe7\xb7\x12\xcaS\xe9\t|\x07%f\x8c\xe9\xdf*\xb2\xcan\xac\xe0\xb6Mf\xd0\xd5\x96\x85bG\xce\xeaz.i\xd7\xc3c\xd0h\xb6\xfb+\x89\x14\xf8\xa1\x01\xb4\xe8\xd2CV\xce\xd7Q~\xa2\xf9\xd7i\xcd\xa9\xb3l\xf9\xee\xff\x00i+o\xce\xe5\xe2h\xdc\xb2\xd6\xce\xd3\xba\xfda\xce\xad8\xbas\xc9\x00\xbd\xdbF\xb7\x02\xc3\x19\xf8\xd5\xe8V\xa8\xaa*\x82ocU\x81.\xc8\x90\xb4\xe5\xdb\xbae+\xb6\xde\tN\x8d{v\x1c\xd4\x95\xcf\xb0Q\x98\xbf\xb7\x05N=\xc5\xc2h\xf04u\x03\x98\xcc\xd2\x1d-\x9dC\xd3\x16E)wIf|\xad\x99\xfdsQ\xd7_\xcd\xb6\xeb\x1e\xd5vJ\xb5w{\xcan\xcb\x9d0v&amp;]ff\xbbZ\xac\xdf\xfbT\xb4\xf4y\x14\x9a\x0e\xf9\x99\xe3\xeaR\xbc`V\xcc=\xf4&amp;^\x9bj\xe8v\xdb\xb2\xd8\xc5\xcd\x82\xf9@)\x91\xd4u\r\xd5\xcd\xb4\xadK\x96\xcc\xe4\xe8*t\x05&gt;B\x11|\xe9\xa9\xa4%\x12\xe2\x0e\xb3%\xb3ICL\xc8\xae\xb2\xb0\xff\x00DL\xb0\xb9\xc1\xf5\xb4\xe2r\x8dH\x05V\t\x90U_7\xe0\xf4\xd7l$\x91\xeb\x04\x0b&lt;E~a\xc52\xc2\x91)\x87_"GDS\x8c\xc60\xd3\xccI+\x9d\x94\xa5X\xe9l\xa9\x05\x1e\x8c+:\xb6V \xb5\xdeH\xc83-rE\x93v\x1a~\xe7L\x04\x1bI\xac\xe3,\xd8-5\xb4\xc7\xb9\x04W.q\xd9T~\x85\xbef|\x07\xea\xff\x00\x9c&lt;\x1a\x88N&gt;\xd1\xd3\xe1\xe7\xa5\x89\x1b\xe7\xf6*E\xc9\xca\xafF\x9d\xb4f\x9a6{\xd2\xcfc\xacw\x90\xd9\x86@\xd5\xc5\x90\xaf\x9a\xec\x9dO\x1b\x91\xf9\x10\xd5\'\x9e\x86\x89%\xc6w\x92@\x98\xdb\xd2Ez7d\x94\xae\xbb#\n\x07aP\xd3\xb3Zf\x83\x12m\x10!\x9a\x94\xa4\xf9\xeb*[\x16c\xb6#\xd2\xf0m\xee\x85\xe8\xf0g\xc5\xad!9\x9d\x00\xe0$\xd6\xbb\x1c[\x05\x9b4{\xab\xc7\xde\x8b\xe0\xba\xd77\xafB\x01\xf4f[\x93fj\x10\x84\x8e\x976\xb8V\xddI"\xc6\xb1%\xba\x9ed@\xbb`\x9aw\x8f,\xe4N\x7f^\x9e\xf4w//y\x0b\xb7?y\xe4I\xe7\xd0A\xabnJc\xd9C\xe8aH\xeb\xe3&lt;\x0f\xf5\xc2\xcb/\x87\xea\x83K\x96\xc9\x9cyNE\x0cdQ\x98a\xccL\xe2\x15\x1dA\xca\xd8y\xd6\xcc~,\x99\x10B\x92\xe2\xa4C\x12\xa2\x89&lt;\x8c:\xbc\x01*0\xf3\xacz\xef\xd5G\xe6\xd3jn\xb8\xee\xa8\xc9\x98m\x18,=\x99\xf4\xea]\x88\x1e\xac\xdb}0\xa4\x15/Q\xee\xd0\xdab\xeb\x18\xbdy\xac\r\x00\x93\t\x16\xd5c"\xae\t\xeb\xdd\xb9\x8ciU\xfdm1\xd5m\xf53\\\xee\xe1O\x95\xfe\x9b\xcb-\xabN\xd6\xe9V\xba6=\x19\xb8\xea]i\x96\xe0R\x13\x0e\x12*eP\xf9\xb7\x17 im8\xb2C\xf1f\xb1n\x11\x88\x103\xd9\xeb\x90"\xe6\x10\x90D\x82\x0e\x95\xacH#4\x10\xce\x1ap\x1a\xc3\x16\x9fA\\0\xb1c\x15C@=V\xcc\x08eS\x80\xf4\xf3Y\xa1xw?\xab\x9d\xd2\xf4\xd0{\xb8\xf9\xbcM\x0c_[\x8fJQ\x81u\xea\xbeh\xff\x007\x93\xe0z\x1d\x98\x14\xdbn\x1e\x9em\x97\xeb\x142\xa1\xcdO\x7f\xb1\xc8&amp;Ur\xb9}\x11\xf9\x19\x8a_c\x9a\x991\xadV\xa0\x0f\\\xa4\xe5\xba\x8a\xe5\xf6\xdf\x9e\xec\x8af\xab_D\xceE]}\xd0\xcfU\x9ad\xf0\x99\xdfo2\xd8}\x01:\x13\xd8\xfa\xb1\xba\xa4\xac&amp;\x99\t\xb1a\x90\x13(\x12\xaa\x15-\x91\xe0fb\xc36b\x92Bx\xef\n\xbb\xc7\x9cX\xd7\xa2\xe5\\\xfd\xb6&lt;\xda\x11\x1c:\xe3\xda\xb3\xc9\xbbs\xa5\xe4\xdd\xb5\xe5#\x8a\xfd\x16\x17Vjm:{tY\x9fX\xf4\n\xf6\xec\xa7\xcbX0*\xde\xc3kg!u\x89\x07\xb3\xf4\xd2\x02\xc9w\xb3:\x85\xba\x00z\xc7\xa9\xeab\xbd\x89\x80\xee\xb8&amp;\xfd\xc7\xeb\xd2\x0e\xd3\xed{0\x17\xc8u\x9f\x95\x16\xdf\xbbWO\xba4B\x12\xa0|\xd7\x1a+\x19\x94!\\\xd3q^+\xefy\xd8\x16&gt;R$}/5\x1aT\xa0\xee\xc8Y\x98\x88\x92Jx\xb9\x13+\x90\x04e\xf8\x86!\x0e\xe1e\x15\x19\xcfG\xe8\xf0|\xd2\xc5\xf4\xfc\xe2@\xcd\x81nP\xc2O\r\xbf\x9c\x08M\x83\xcf\x8e\x92\xdd\xa0PfV:5=\t\x90\x12j\x9e\x85&lt;v\x8d\x1e\x9d\x99t\xab\xc5O\x1f\\\xd5\xee\x83j\xf2\xfe\xb2\x0e{\xa0\xb7\xd0\xcdGb\xb0\x9d\x19e\x0c\x99\x0b\xa5\xcet\x84)\x0b-\x96\xec\xa2\xef\xc0\xeeZ\xbc\x16\x9b\x87e\xb2\xbe\x1e_[\x9e\xe9^\x93\xad\xfd",\\:m\x16\xec\xb2\xc4\xcb\xa4"y\r\xc8"\xce2t\x92\x9e\x86\xb39%\x99\xcc&lt;\xfbrYV(\x90\xf0MG\x9d\xc2 t\xc6X\x05\x9c\x16\x05\xec\xf7YZ\x97&gt;\xabk\x16\x9dS\xdai\x12!Y\x8a\x1bP\x19\xe2\xf5f\xb9\xda\xf2\xbdZ\x9bj3m\x96:l\xc6\xabz\x06i\xd0\xc4\x08=\xc8\x15\xcb2fp\xd5\x95\xdb\xb7\xef\x995\x1b\x92\xd9c\x0ej\xcb1\xcd\x0cH\xdev\x90Z\xf6G\xa9\xf1\xf7\xd75\x8f\x9c\xeew\xd3\x03F\x15\x9aY]Y\x8an\x91\xd1\xc3\xb5m\x14\xfb\x86]&gt;m|V\x85\xda}\xca\x00\xe5#\x9fV\x88\x92\n23+nI\x8e\x06\xec3\xfdY\x86\x16\xe9\xda\xe9S&amp;\xc6\x99\x06\x17\x9di\x88g\xb6\xc4\xb9 \x10TP\x1f\x87\x11}o7"\x0f\x80\xf48\x9c\x14=\xbb\xb08&amp;T\x0br\t\rv\x98\xf9\xf32R\x05&gt;RH&amp;6\xdc]\x05=\xd5\xbb;*vVn\xba\xd3])V\x89\x91\xa6\xd7k\xd0wN\xf9\xee\xc5\xc7\xf5\x96\xfbHK\xc7\'\xbd\xf3\x86m\xb5R"\xd1\xd3\xc5v\xf9rT\xc3o\\\x96\xd8\xf5v\x11tO\xaa\xba\xda\xec+v=N\x12\x81j\xcdz\\\xaa\x86\xe7\xec8\x0e\xd4\xde\xcc\xdai\xb9\x12nr\x0e\xb1\xc7B\xb2\x85r\x02\xb0[\xf3N\xbf\x05R\x14e\xaf\x02\xfbsa\x10\xfe\x19\xb2M\x8b\x85\xe7\xbb\x94LZ\xa9Z&gt;gx\xd3L\xac\xdfM\xc6\x19D\xa8\xd9\x8dx\xe7\x8b\x89h\xaa\xd2V\x8c[R\xad\xf2\xab\xdc\x1d\xa85_#\xdep\x96\xaf3\xdc\xf0\x9d[AE\x86\x99Z\xbdw\xb88I\x03]\x96\xb5\x14\x9e[+\xb7*\xfd\xc1%z\xd2B\xd7\x9b@+\x10\xfa\xb57\xd8\xf1m\x03\xdb\xb2a\x1fF\xe2\x7fI\xea\xcb\xb3v[x\xb5\x8e\\\xb8\x12S\xeeT+\xec\x10J\xc0j\x19\xe3|\xb3\x1eS\xcf\xc8\xf4)\xae\t\x02D\x88\x10\xbc\xba\xfd=\x1bZ\xf6z\xa2.s\x84p\x8bd\x01L\xc0]\xd1oi\xc0-\x89u\x9e\xdf\x93\x92\x16t\x0b1\x89\xae\x96)\xa3\x00\xfb\x08.\x00Z&lt;\x98\xa2\xc8TM\x10E\xdc\xfa\x99z{\xedD\xf1\x97(\xc5\x00\x96\x13\x04\x9b\x80i\xccUu\xb6%sd\xf3\xdfC\xc6j;\x8dA\xf1\xd14\xf1\xf1U+\xf4\r#&gt;M\xb9\xcf\xac\x904\\+\xcf2\x9aT\xeb2J\xb6\xdb\xdea6\xdfJ\xb7s\xf5\xc8\xb1f\x8fQ\xa7L\xa8\x93\xe5\x16\xdd\x88\xe5\x16\xfc\xf7n\xf2^F\xc5\\\x89&gt;`\xdbqP!\xa6\xc3\xb9\x15\xe7\x10\xe1\x0bn\x03\x94\xa9n\x0fr\xc6\x8bf\xaf\x11\x91\xcc\xdfGL4|\xc7G\x19\xcb\xeaQ,\x10)\xfb\xf0\xda\xe9\x9aG\xaf\xa2\xe3b\xc8\xe6!fc\x04/\xaa\x93f\xd0\xc0Sm\xeb\x05\xddq\xcam\xcd\xed\x02\'\xf4\xb2\xc9D\xf4\xcb\xc2\x06\xb7\xc4\xac\r\x9e*\xef\x91\xc4ZY#eD\xeb\xb5hId\xc0\xd4K\xc6\xdcw\xb7\x87\xec&lt;\xce\x97\xcfZ\xfe\x17\xb8t\xf9\xfa\xe3\xe3\x9d\xc7l\xe8\xa2\xa04\x05\xa5\x01.d\xaera0\x9c$\xa8&lt;\xff\x00Q\n#\xc7\x94C0\x0c\xcc\x02\xa4\xd5\xe8@jm\x90\x82a\x16*\xed*\x1a\xd13\r\xc5\x1bU\'\x94v&lt;\xbd\xca\xaa\x10\xe7G\xcf\xb1Ya\x16c\xbbr\x8c}\x96X\x03\xb5\x97\xcaj\xcb\x9a\x1e[\x0c\xca\x810\\\x0b6\xd7\xaaVdl\xceorj\xa4\x03\xb9\x08z+\xe7\x84\xb4j3k\xa7Yqv\xec\x82\x0cX~o\xf6Qh\x8a\xff\x00O\r&gt;\x9f\xbd\t\xf4&gt;;\x02\x19\xa7U:\xde^\x91_\xd1E&amp;\xdc\xca\x1e\x9c\x13\x1fv\xa6\x82\xc1\xf3u{,w\x92\xdb\x1aB\x12\xc5\xb0\xa9Z\xc9\x0c\xf7O\x1d\xc0n\x9fp:\x17\xcb\xa6\xc72\xa0\xe860\xacO\x8a#\xa6&amp;\xc6\xcf\\\xbcufh\xde\xa12\xba\xe87i\xe3\xec3\xeb\x84TH\xd3\xe3\x99Q\xea\x8d\xc6il\x7f\x9a\xec\xb0s\xbbU\x7fB\xd9\x8c)\\\xfa\xec\xe8c\x0b\xdb1ems%\xf6i\x87o\xd4\xd8\x96mMu\xb6\xd8rk\xc7C-\xf4\xa5+\x83N\x97+8\xb1\x95\xe5C\\t-\n\xe9\x0f(E\xb4`\xc7\x85YD\xb3CfW\xa3i\xaaS/\xd8\xb5W~\x8a\xf9+\xef-Y8\xf16)\xba\rj\xedR\x84\xa92.\xc0&gt;g_1\xb5\xb76\x08,\x16\xec\x8c\xf9\xd6dw\x9eL\x1cKo\xc8\xd32A\xc1&gt;Mj@\x87&amp;U\xe6\x13Y\n\x9b\x97W\xce\xe0W\xa9u&gt;\x8f\x9a\x06~\x1b\x97c\x81X\xb9P\x9e\x8d\x18}\x02\xe0Q@L\x8d|\xf6\x139\xad\xe2\xbd\x13;\x1b\xcc\x00\xd3\xb5\n\x83St\x93\x9c_\xd6\xd1\xa1,\x06\x9e\x8c\xb5\xcbm\x106\x8f\xa5|\xd5\xb7\xf1}\x8e\x8fE\xbc\xd6\xbc\x7f\xd0\xa9s\xc5\xd18\xdd\x1d\xd86I\xac\xf7\xb8\x99\xa57\xe9\xbc\xff\x00\xd3x\xfcC\xc7\x04\xf5|\xff\x00\xaa\xf7\x18\xcc\xb9\x93\x17\xb1\x18=\x1dU\xe2Q)\xe8-\x86\x9b\xabC\xcc\xf7\x84}\x85\xc3Mr;.\xf3\xbe\x90\xc4\xbam\x91\x81\xa7\xc2\xc5\x82\xc7\x14C\xe6I\x8a&lt;\xdc\x81\\I`X\x89l\x84De\xc9\x97\x04k|\xbc\xb7V[4\\\xa9\xf4\x90\x0cV\xc7c\xd7\xe9Y\xd5\x8f^{\x99]f}\x1a&gt;^\x19\xf5H\xf2&gt;:\xaa\xfd\xbfL\x83\xe4\x13%\xc4\xed\xca\x92\xb4\xc9q\xae\xd2+%R\xfb\x05\xcf&lt;\x94N\xb4\xba\r\x8a\xc45Y\xb1\xb8S/\x1b\xaf\xfa\x1ch\xae\x9d\xe0#ox\x16\x8f\\\xd0\x1f\xcc\xf9Y\xd4j\x14\xc0\xd0\xef\xeb\xce,\xb5\xc3l\xa8\x80h| \xdc1I\r\x80%\xad\xaa\xe8\xa8mC\x03R\xc4\xd3\xa3g\xa7\x94\xd9\x06\xc0\x84b\xa7\xc9\x8a\xeb\xc2^#&amp;oa\x10?\xa7\xe7t&lt;\x1b\xe8&lt;\xff\x00\x9b\xd5\xc4,Ko\xaf\xe5\xb8T|^\xaf\x9f\x07^\xd1\xeae\n\x8c\x14q\xaa\xab\x9b\x8c*\xbd:\xf0\xf0n[\x90\xf8\xeayHk\xf6\x88\x95\x05\xb7m\x17_\xb7&gt;`\xcd\x98[%W\\\xa1\x10\xc3\xde\xd9\xc2c\xf6\x1f\x1b\xf4]-\x95:\xf7fn^\x98\xa6\xe6\xad9\x1d\xa5\xd0\x9e\x03\xf4\xc0N\xdf\x03\xe5U\x1d\x03\xdd\xf0\xd2\xf3{\xd0*\xb7U\r\x86k\x17\xa0\xb320\xbd\xb8E\x8e\xbc \x8f\xaa;)^w\xda\xf1|\x9d\x02\x9f\x14\xdc%$\r\x9eD\x0e\xcb\x9b \xf2\x83\x0b\x93\x0e[\xf1\xd6\x12\x8a\r\xd2#]jdMA\xe9Z$\x9b\x90.[\xbc\xe5\xf0\xfc\xf9E\xd5\xf2\x0b\xaa\xb6}\xa7\xf2\x07\xd7t\xdemQ\x08Sh\xe8\x07\x93 *V\x8c\x12\x0f\x90\xc8\t\x1d\xab-z\x11\xb0\xb6\xd6\x8b\x05y\xc6[\xe4j\x93\xd5[n#\x9e\xcf\x16i$\xb2eF\xd8{\x93\x11\x8d\xaa\xb3\x9f\x95e\x90F\x98\xec\x97\xceV{\x1a\xca\xd88f\x19\xb6\xd3\xb8\x13\xe9\x95\xfc\xf7\xb5c\xba\xd0\xe5b5l\x7f\xcd\x123\x82\xe5\xd7\x81(J$\xd3\x19\x97].\xb1\xc2(SDvi82\xea\xed\x87\x10\xd5F\xbc&lt;\x98\x9d\\;\xe3\x14\xdb\xb7\x91\xf6 \x1b;\x9b\xd5}\xcf\x06\xd93\xcfE\xe6*\xd3IV;\xfe=\x82\x94\xb4\xdd\x9fL\xae\x8e?w&lt;U\xe2\xaa^\'\x03Y\xea\xa5\xac\x03#\xcft\xae\xddj\xa0\xaa\xd3\xb7F\x03\xcd&lt;\xb2\xc7\xa8\x07\xc1\xb2\x9e\t\xa8y\x9f\xa0gF\x8aU\xbco\xd0-\xd3k\xf6\x8d9\xe9b-\xd5\x94b\x16\xfc\x0c\xc6\x9a\x17\x92\xfd\x00\x1b\xbf\xe5\xb0\xe8\xe7\xab\xde\x83\xc8\xd8\xc4\xda\xde\xbf\x8f\x94\xd7w@&lt;\x0f\xa2fS\xc41j\xfd\x908\xd78\xde\x84qH\xb6Hc\xb1&gt;|\x9cx\xa2\xddV\x87\xb9$\x89\rH\x81OL\xf4,\x88$\xe8-\xf64C$pt)\td\x9a6c\xb7\x0eY\x95\xe8\x15c4?\xa5\xbeN\xfaw.\xa2\x9d\n\xd56\xd9F\x81\x1c\r\xab\x10\xba\xd7\xdd2\xba\x85\xb2\x8b\xd0\xe7BR\xa5\x91\x05\x12\x98\x81\x12P\xb3\x10\x99\x8d\xc8\xaeIq^$K;(\xd6MN\x99\xa4\xe4\xd9\x83A\xfaHI\x98\xa2\xb4:\x95\x80W\x85\xc0\xb5.\xce\r\x0e\xadj\xfa\xd7\xe6]&amp;\x9b\xf4\xbfa\xa0i\xbf]\xb4a?N\xa1\x0c\xf1\xb5\xd9\x96+\xa8~\x100\x8c\x01F+6\x04\xf7H\xb5Eg\xba\xe9\x89\x99\x16\xa4[_\xd4\xe4\xab\x85\xfc\xf7K2\xd03\xb7{^sdDG&lt;\x87\xb7\xaf\x8e\xd0\xea\x02A\x11\xa8\xd6\xba\\\xcc\xc3;\xfa/$\xf5\x1e/*\xb5\xa1\x9d\xfc\xc3\xa2F:k\xd2\xc9P\xac\xda9L\xb7\x1e\x04&gt;\x11ye\x83\x16\x1a%\xd5\xe8\x01&lt;\xc0U\xbfS\xd7(\x16_\x13\xf5\x19\xc9\x14\x7f\x9f\xd4\x01_\xba\xe5\x16\xa5\xc1\x88ld\xbed\x0e\xe6;\xf2h%\xbegr\xb1\xabf\x85Z\xf6&gt;\x02qzU\xabW\x18\x8d\xd6\x9d+\xc5\xfd\x078\xca\xfe\x8a\xcd\xae\x7f\xa7\x88\x9dv\xde\x87\x16\x89.\xa9u\x90@Y&lt;\x1d\xe8d\x99\x1c\x98\x0cpR\x03\x11v\xb5\x1c\x83\xe8\xaf\xc1\x90\xec\x18\x07T\x8b\xac\\\x81\xbac\xf0\x8cT:\x1c\xfal\xc2T\xb0E\xfd\x93\xf2\xad\xce\xab\xf7\xf0\x99x&lt;\x9at\xd1u""\x1f\x87Y"\xd3\x91\t\x8eI\n\x19\t\xa4\x88\x1ba\x84V\xbe\xe9\xb2\x8c\xb4\xa8z\xa0R*\x05\xac\x12U\xc552\x1a\x9b\x1c\x90\xc4V\xc3\x83;&gt;\x02F\xa0\xf1^\xab\x9f\xeaa\xaf\xa2\x9fC\xfa&gt;k/\xca2\xf7i\x06S71\xf0\xaa\xb2&amp;\x9b\\\x91U\xda,\xfc\xae=\x95\xe9\xaeW\xec\xd1G6QP\x85\xab\xc5\xceu\xe7\x93B\x87Z\xb48\x1d,\x81\xf5}\x9e\x83\xa1\xf9\xce\xbd\x0f\x1c\xd5\xb2\xce\xdf\x9b\xbel_(Yc\xec\xf0\xebgx&gt;\x83]\xafW\x18\xba\x01\x86Z\xbd\x9d\xf2E%\xafo\xf3x"\x8e\x88\x97F\xbd\xe7\x05\x93F\xce0$\x9d\xbebC\x95xK\xa0\xebPV,\xd4t\xbf\x9du|\x9d}l\x16SR\xe6\xf65\xb1ytG\xcb\xaa\xe6\xcc3\xd2\xe5\x0b\x98\xc8\xc2n\x80"[\x1e\x9a4+}V&lt;\xd3\xb4\x99\xea\xe6tJ\x15\xb2\xcem\xd6@\xf3\xde#\xdb\x89\x19j\x1b\xcc\xd5\xa8K\x01\xcfMq\xde2\x18\xc3^\xab\xcd"\xdc\xaa\xa1\xb1\'\xb7P\xb8HZ\x14\xb6\x8c\x0b!\xf5\x03\xd6\xc5\xc7\x92\xdf\x04,\xc9&amp;\xe3z\x1e:\xd5\xe7\xa2\xcd\x88\xd9\x92D$\x8d*N\x02,ieyW\x81\xd4]\\\x93jt&lt;\x02S\'Qh\xbeN\xe90\xa5\x8b-\'G\x1b\xe0 \xbd`\x84!&amp;\x08\x1dW\xadv\xd82\x002&amp;\xcf2\xbea\x13\x01\xadH\xb7\x0c\x80\x18rn\xb2\xd3\xa2\xde\x062V\xe6*\x1d\x88\xf9\xba}\x8c\x19wZ\xbd\xb2\xab\x0cFTF\x84\r\xd24\x02\x83\x16tK\x04U\x84T\xb6S*\x89\x18#\x05\xc0\xf2\x14\'\x9c@\x9bw\xd0\xbf-\xfd\x0b\x94\x03\xc3\xb7\x7f\x9f\xa9\x8e\n&gt;\xcfw\xcf\x0e\xb3S=V\x8d\x86\xcd\x87}\x03\xe6\xbdf~|\xa56\x8b\xeb\xf4}\xe3\x17\xed\xf9\xc0\xec\x12o\xbb\xe6F\xc0\xb23,\x05g\x026\xbdZ``\xc7\xad\xe7@\x7f\xad%\xf0M\x8bp\xcb@\xf5\xbd\x7f&gt;\x0f\x18H\xb4\x9b\xc3\xe4\x95tqX\xb1kK\x98.\x9e\x85\xc5\xaa\xa5\xad\xf2\xd6\xc3\xdd\xab\x8b\xa1\xfb\x96nT\xd3\xf4\x05\x8f5\xd8&lt;\x9f\xa1\xaf\x8d\xbaQ\xfc\x97j\xc7\xd2\xaf{v\xab\x9e\x92\xe4\x8a\xf7\x8a)n\xb4\xbb+,\xd5\x8c\x82\r\xbb\xd4\x1b1\x86\x87\xc0rNW\x9a8\xad\x16\x11z\x00%\x07(\x94\x94\xa9\xf6\xba\xf0\x90\x82\x9ep\xca\xe4\xeb\x9cd\x95r+CH\xf0H\xca\x04/-\xe7a\xcb\xbbh\xb1\xc3P\x8b\xa8\xc7\x12\x80\x8d\x12495\xc6\xcc\x92+\x10\x08\xaa\x01\x8d3h\x90 \x8b|r\x03\x80\xd0\xca\xc9L\xbau@\xc4H\xd9\xc48\xc5:\xfb \x07,d\x95\x82Sui\xa4ev;\x80\xf9\x00Ybq\xeb\x8f\x16]f\xced:\x1dR\xb1\xb6\xfb\x05d[\x01\xa5\xc7mK9\xc2\xfbM6b\xbb\x06\xb3b\xa6\xda\xf5\x17n\xc0\xba\x1c\x02\x18\xfc\xfa\x9e{f\x94\x8cC\xad\xc0\x8d\x0c\x93to\x07%\xf8b\xcb\\J\xe4\x8an\xd3GR\xec\\\xce\xacH\xd5\xc8^\x8f\xc8Z"\x00\x90\xe90\x19q5\xe9\x1aY\x88\x15n\xba \t\xb7\xc6\xd3\xcd\xa04\x8b}7A\xa7EPf\xa1\x9e\xe9\xc1\x0eX\xd7Z\xb2\xc9\x8a\xb7\xab\x90gE\x0e\nbG\xd1\xd0\xbdD\xaf\xd9/\xe7\xd7\xa1\xd8B\xa6\x83\x1a\x96*o-\xdf]D\xa1\xe9~\x0b\xd3\xc9\xe8p\x1e\x9fF\x8a\xed*\xbd\x05\xdf\xb9\xf8\xe8n\x90\x82\xd7D\xd4CQ\x0b\x83[\x83\xaa\xf8\x1acZ;a\xb3\x82W)@\xd78d\xab,id*\x00\xa21F\x81\xac\xca\xb1"H"\x1f\xac\x11b\x81"\xd5#\x84\x82qIg\x05\xb6\xc2\xa1n\xb5\xb0\xcb\xc7{\tL\x96\xb3[\x89,r\xfd\x08\x1a\xc7m\xf0\x08\x0f\xe31\xc0\x1aLt\xf8zK?\xcb\x98}\x17\x04m\x95\x1e\xbd\n\xd8\xf9\x14S\xb6~\xc9Y\x9aU\x02\n\x966\xb8WH\x02\xecF\xad\x12jt[\xf9R\xeb\x95`G4\xaa\xc5\x8cC\xed\x83\xd2\x1a\xba\xeb\xca6#Z\x1d7*i\x11u\xd8*L\xc2\x06\x1b\xcauL\xe7\xa3\xe7\xf3\xe0v\xdb\xc0\xe5|\xfe\x8d\xee\xa7\x8f\xa3\x96D\xb8\xd0\xba\xb9\x0bFT\x94\xb2\xa8\xf1\x88\x0c\xdd\xf4\xa9\xadM^\xc7\x1e\xe9\x9fXy\x8cG\xd5\xc4\x9bQ\xb1W\xb5e\x1b\x14\xa4\x85\xd9J\x93b\x19N\xe9\xd3+\xc4\x95\xa7\x1c\xaf5M\xdfK\xd6j{\'\x8e\xf6x\x15g\xe8\xdc\xdb\xd1y\xca\'\x0b\n\xedy\xfe\xf1-2v$\xd7\xc1\xac\x98dZh\xbc\x07h\x95\xb8\x80\xaeD*\xf4\xddw\x1f\x99\xb4\xde\'GD\x95K\x9b_\xa0\xb3\x8e\x83aF\x89\xe9\x11\xc9\x91\x12UyL\xc7\xcd\xb3$\xc7+\xd6\x00\xf2eB\x8cB\x9f\xa9Y\x01\xb4\xcf\xad\xb2T\x9e}Qt\x9d}\xa1\xd6\x10C7bn\x06j\x87d\x00\x08=\xc015,\xab}S-\x0e\xd7w\x8f!8\x05\xc2\xc0z\x0b\x07\x8a\x8a\x913\xca\xe0W&amp;\xc4\xb6fa\xb5Z\x04T\xdb\xbb9\x85|\x92\xe5\xc9[$N\x08/&gt;\xf0\xf9\x0c\x0fv$\x8e\x93\xa5\xa5\x96\xf1\x06\xbb\x02\xda\xac\xe1\xea\xb5\xad\x15\xd8\xaaU\xfa-\xd5\xd8\xeb\x95\xa8\xd5\xd5d\x0c\x82)C\x13,\x9fA\xd3}f\xd8U\x9az\x11e\x92\x88\x1e4\xe2\xb3\x08\x04\xbb\x08\xb0p\xcb\x1e\x8c\x1bg+(\xd9\xe8w\xfcy\xe0\x07:\xbf\'\xde\x14\x99Q=6:E?\xe8vsO\x9a#\xef\xf5x\x98\x07tZ\xa7{\x957Y\xaf\xda|\xa7\xa0\xf0BE\xb3_\x96\x8f\xd7\x86\xe9\xa7:#lK\xd1@kRz\xb9\x8f\xd3\xfe\x80\xceuL\xdd\xcfA\xf5\\I\x9fC\xfc\xc3\xa1\xf3\xba\xbfM\x84jo\x95\xf4\xd4\xec\xff\x00J\x8f\xa3\x16&gt;\'b\xcd}\x8f\x91\x0c\xecF\xf5\xe0|t\xa8Q\x93g\xabM\x86\xc0 \xdf\xae\xe7\x83\xb1\x0fz\x9d[\xe7y\x0f\xcf{a\xce!\xd1#[\xdel\x83\xe3D\x89e\x82 \xf8\x18d\xe9\xf9\xd5\xc2\x19\xeb\x9c&lt;\x17\xa6\xaa\x14&gt;L1\x8am\xc9\x10\xf4\x86\x05\xb1\x1aJ\xc1J\xd9W\xae\xc8n95v#L3%}\xdbR\xddDt\x9c\x08\x1e\xa4\xd8\xe9\x8a\xd4=^\x03RX\x8bU{%\xb0\x85fT\'\x14\x12 \x84%\x8b\x9eC5+\xb5\\\x1f\x1c\xa7H\xd9E\xaa\x18\x7f\x01c\x0cDemR\x05H\xcf\xb6\xe5\xdb\x99\xca\x0b\xb1\xb7\x03\xaeV\xc40\n:V"Y_\xa6\xb3]\x9fh\x86\xec9\xed\x16\xc9i\xb1\xa9\xb3\xec\xb1\x04o.\xd5k\xea\xccj\x95\xf9\x8c\xablE~\xfam\x95j\xe9\x0b\xb2\xdc_&lt;\x0f\x85xo3#\x9f\xa5\x98\xee0\xeb\x0c\xf3U\xb7\x07\x81\xdab\xf25\xd2"\x91?\xd6\xa8\x02\xc5\x10\xe3\xeb\x13-\x96z\xb9\xdfm\xb6r1z\xfbr\xa9T=\x19\xb7\x168B\xa4\xf6\xa9\xc9\xaaZ\xceg\xd0\xc4=r9\xd6\xe6\xd9\xb4\x8c\x0ba\xf2\xde\x9ah\xbd\x12G\x1f\xa7S\x9c\x94n\xcfU\xa7\xed\x82\xb4f\xc6"hU\x0fK\xe6\xc0\xb2J\x06\xfc%\x8aT\x89Y\x9at%\xc1#B\xbc\xe4\xba\xaf\x03\xd8\x1f\xb1\x8ez\x9d\x0f@"\x00\x89\xb2\xdd\x1c\xd5\xcan!p\xd5\xa9\xbe`\x13\xe0\x81\xd5]nW\\\x97|\x91\x0c\xa4\xba\xb3\r\x9e\x8e\x18k6\x11\xf07\x1e\xceM\x96\xb31\xca\xb8 \xb8,p;\x9cQ\x93\x99b\x08\xb7,\x10S\xe4p\xc0E\xd8~J\xd2\xdd\xe4\x8cd\xbav~Vn\xa7\x97\xdf\x881&amp;$\x05k%h\xe7a\xa5D\xa9I\xdb\x9eU\x9e=N\xca\xad\x05\xab\xd0\xe2\x93\xccu\xe6a\xf9\xce\x1e\xf7\xf3\x89\x01\xe2\'RYJ\xd3\xb6\xa9\xb94\x86\xb6\t+U\xa8\x92\xc4\x03)\x9a-U\xf2\x9a\x0c\x8a\xa0\xe5:\x80\xfaD=4\xdb*\xe1\x02\xe9\xa4\xedd5Y\x98\x85\xb3\x18\xbec?Q\xb3\xdey=U\xb9\xcd;\xbe\xa8\t\x96\xd72\xe7!\xa6GB\xa8\x06\x06\x0bR.{\xd6$|\xc6sF\xf9\xb7\xd7G\x98\x11\xb0\xb3\xc8|\x00\x8c\x91\xde\xa6y\x97\xd1j\xb4\xec\x16n\xac\x157I\xact\xe8\xad\xc3\xb7\x87\xba\xa86\xb8%p\xf4\xcf\xd8\x81\x90\xe7\xec\x9c$E\x83=\xa1\\\x9f\x0e\xda\xe6\x8aKjG\xd27\x9a\xcf\xa1\xe3b]\xb3W\xbb&lt;e\xb6\xb6ws\xbe\x91\x99\x02\x17\x9d\xf5\xee\x88\x1d\xd7M\x18\xfe]ez\xd1h\xa0\xc6Q\xa0#\xd1\r\x90\xed!b\xc0~\xce\x1e\x02]p\xac\x13\xaf(\xb7\xd2,\x18\xab\xae\xca{\x11\xd0\x15\xb4\x02\x14SM-)\xcd\x0e\x15?\x16\x08\xd5ir\xc7J!R:.Gs\xbbf{[\x8c\xd2*:\xcd\x88\xdaH\x0f`\xf0\xdfKF\x19.\xda\nD\xc4\xb0\x87\x85\x0eK\x0f$|\xa8eu\xeb\xfaS%\xb7\x9e\x874\xd3~`\xd3\xb7e\xd5\xe8\xae\xdc\xab9\x85\xaa\xe6*X\xc3(2%N\xf3\xd2\n\x80\xe1\x90\x8e\t\x08\x15\xcc\xd2\xfaw\xe8\xbf0\xdfk}\xb1`"G\x9d\x14]\x7fE6\x8a\xf5R\xb2\xd2\xdd^\xa8\x0bW\xb2\x07\r\xc1%\xdf\xb3kvy\xf6\xach\xf1\xb9g\xa8nN[")\xe8\\\xcb\x9ftzv$\xc1\xfe\x9fh\xce\xaf\x15cu\x98\xd0N\x11\xd6\x82\xc5\xcc\x94\xe38\x8f\xa8Uy\xf7\xd6ah\xf4\xec7Ce\xa7z\xd55\xc58\xab\xe0g\xc7@*x[\x8f=\xf3\x88\x96\x8agb\x82\xe7\xf2WwU\xf4\x140\xda7\x1b\xadG\x15\xa5\xd0m\xad,W\x8ac\xd0u\xf2\x03\xfa\xd8`\xd5d\x82@"! \xdd\xde7\xd0\xedR"a\xea\x91%\x05\xe6\xafI\x91C\x80\x18\xaa\xe8\xa7\xa0\xd0{d\rE\xf3\xa7\x8d\x82\xd0\xebJ\xecg\xc4\xcad\x19\'\x008\x19\xb7\x87[\ra\x1c&amp;@8b8\xd3\xf6W\xacE(\xfa\xb492\x98"\x14\xa9\x90a\x87$\xfcx\x1b\xaf\xda!\x82\xf3r\xd0c\xf1\xe8!\xe2\xea/\x898Gx\xcc\x05x\xc9\x92\xc1\x0c\xa4\xe0h \xc5\xb3\x8f\x86\xad\xf3\xb7\xd5\x00\xb4\xd0\x0bG\xc8\xde\xd3V\xad?\x1c`\x8d\xbc^\x12\xcb\xa6\xe1\xec\x04q\x1b\xa0&lt;X\xa9R\xed\xd2\xda\xd3\x8eg\xd0\xb9\xc9,{\xeduZM25\xc4m%\xb5\x96\xa1\x82\xe4\x88\xdck\x9d\xc6\xb6\xc6\xa5}7o\xaa\xcf\x97\xb4O\xa0\xe4V\xce#\xb09k\xe8RGr\xaf\x9c\x08\x94\xae\xadB\x952Z\x1a\xec\xe2/rn\xab\xd9\xc4X\x99j\x06\xcf\xd7\xb6TO?\xb6\x89\xe7\xdb$!\x8a\xd3K\xc0#\xc9v\xa0\xd6\xf5\xe0\xdd\x14\xc9\x9a\xb6\xc2\xe4\xd8\x05\xa31\xb6\xa52\xd8\x1e\xd1j\x84\xa5\xe88\xc6\xcc\xe1\x1ea^\x8f\x96^\xd1Jz\xab/\xb5x\xad\xdbC\\C-\r,[\x8d_b\xb8\xcb#\x8c\xf1+n\x86\xb32\xf9]\xb9"\xed\x8e\xd1\xa2\x9f\n\xf4:\xca\xb3{}\x84\xa3-\xf5\xbaYz\xad\x06.\xfbb\x0fP\x07x\x88\xadO\xb3\x11\x8eJ_\x918\x11\xc2\xee\xca\x8a\xd5^\xd6\x0c\x90\xc1o\xa4DX\x83\xb2\x99i6Xe$b|4\x95z,\xde\x06\\\xa6\x8e\x11S\x8eFaQ\xf8\xd6\xec\xdb\x00\x17\xcat\xe8L\xa5\x99\xc0\xc0@\xdf\t(\t2\xa0\x8e\x0cN\xa8Xo\xcd7@Zj\xaaH\xd8\xd6\xd9\xf1\xe7/\xf9\xeb\x88\xe9\x88\x9b\x12_\x18\x91!\x08\xad\x0cd\x9a\xe8\x19\x16Q\xa0\x81\x16Z\x8da\xf9\xb0i\xb9\xed\xf9\xb2\xef\xf4!\x9a\x9f(\xbe\xcfuY\x92m\xad\xa4f\xdc\n\x8cu\xcc\x98\x94\x9a\xc7\x8b\x99\xcf\x97?,\xf8\xce}\xaf\xb6l\x01\x93\x18\xe7\xa9&gt;\x1c\xfc\rJ\x16\xcdH\xb1p\xb5Y\xd8\x11#\xa9Hjq\xfc\xaf~\r\xff\x002\xb5\xe6\x945\xb6~3\x1b\xd2\xf9=\xa4\xbe\x00\xf7?\xa9\xf4={#\xbap{\xc6\xc3\xc7\x1c\x97\xc3n0\xfe\xbd5\x1a\xa6\x90\x0b\xb1\x8a\xbf\t\x98w"\x89\x0bT\x96\x17E\x12l\xbc\x8d!\x8bhm}\xe0\xb1-:\x98\x18K\xa9\x0f\xf4\xd9^\xcd\xf3\xfe\xa3\x84\x18\x1e\x0f\xb3\xd9\xf0,\xa8\xdd*\xda\xe3-#DE@\x1df7\xcb\xa5\xed\xaf\xeb\x8eg\x8f\xd1u\xd1\xca\xc9\xa2f\xc4\x95\rI\xba\xf9\x03\xc44@D\x96\x0b\x97\r\xb8e\xc8a\xa8#\x05\x99\x84\x89\xb1[~V\xdd\xd8\\]\x1ai[\xd0H6\xc0qx3\xe28\x82C\x18\xa5\xe9Cd\x93\xc1\xe3\xd8\x10\xce,5J\xda\xdd?\x1d\xd2\x83[1\xad:b\x9c\xc3F\x8c\xcc=\x96\x14\x8c\x8c\xc5 @\xae&gt;\x0fy\x1cS\x17\xf6\xc6\xe9?&gt;\xe4\xdfid\xef_\xce\xaf\xec\x13ue\xce~\x86\xcd\xf6|\xfa-2^b\xbb\xa6\x8b\x91\xd8\x07\x128!\x95\xa8NV\xd5\xe6Rm\x91)\xb3\xe6\xab\xee\xc1Kz\xf6{MR\xc5\x86\xaa\xddt\x84l\x96X\x97^\x1c%\x9d\x01\xd3z&lt;\x98\xe53\xbdbi\x08\xf8\x1a\xdd\x99\x93\xc1\xfd/\x18\xaf\x03\xc6\xf6\x9f&gt;\xb2W\x11Z\xe7\xf7,\xb1E\'^YP\x847OI\xe96\x8d//O\x15\xda\x9e\xaac\xdft\xa7\xd0\xa9\x0c\rW\xe4{MP\xfd\xde\x15\xf7\xbd\xe9=&gt;\x07\x84\xb0\xb4,\x83f\xea\xd9S\x17\x19y\x11c\xb8\x8eI\xf6\x01*\xe9.\x07\xa8!Q\x9c\x98\xb5\xf6\x07Ku\x9c\x1a\xd7\x9f\xc8\xcc\x84\xe8RR\xed\xc6^\xaa\xc8$E\xa0\xb1\x90]\xb0\x1a\xdf"\x05\x87\xaf@\x9f^),1\x1c\x0c\xe2\x16r\xb3C\x03BE\n\xd6\x96\x08\x9ap\x89#\xe2\x1c\x88Vb\x9f\x19\x14\x8f\xb9%\xc4\xd1m(\x16\x9d\x17\xc0\xc5\x93\x01\x82&amp;UlUY3\rW\xe6\xff\x00\xa0\xd9o\xe8\xe0\xe4s\x0b\xf0\x06\xa8\xa0\x81w\x8a\xe0Y2E;\xb5&amp;,@d\xbdF\xb4\xc2F\x1c\xb8dF[\xd1\x01\xec;#\xb0Sl2\xe5\xb2,\x90\x0ei\xa6\xc3"\xac)\xd2\xeb\x1b40\xcbe\xa3\\\t\xd3g\xc8\x96\xed\x9a\x85\x96\xf6\xdcj]v\xdb\xdd\xf5V\xde6yr\x10\x1f\xbf\xe4\\/J\x9f\xab\x16\x97\xa0|\xe3\x0b\x07c\xea\xa1\xf9\xf1\xbe/\xa9=^9\x9c\xe1\xd1Q\xa0]\x05\xfao\x1c\x12]x6\xa3n\xae\x16\xd1\xaa\xd9\x8d\xd9\xbe\x8b^~\x8d\n\xe9[\xa4\xe5\xd9p\xcc\x91\xa5I\xf3\xdb\x1fR\x86\x07\xe6\xd6\xac\xe1\xb4\xe6\xd2\xa2\xd4#1\'W\x9d\x05\x95\x1e\xf7\x8a{\xde\xf4\x9ey\x9fA?\xd0\x9d\x89-\xc8.\x95ZYl\x8f\xb2!\x16\xf7\x07\xd2W\x8cOb,\x12\x082\xc0}B\xf2\x85|gI\xe4`Ne\xf71r\x16\x15l2\x18!\n6d\xc9\xf4bqMr5\x8e\x0b\xa4XV,$\xa5\xc9P\x91i\x86#\xd1\x8b\xb8\xe9\x05\x87\x9eh\xda\xe2HX\xfc\xf8\xb5\xe8-\x95*\x08\xfa\xec\xbc\xd9i\xd6R\x1db\x15d\x9bb8\\\xabu\xf3\xe3d\xf9\xab\xe9o\x9b\xbe\x8d\xb2\xbb\xe3M\x8bS2\xa1dx\x1a\x81\xd2\x8d\xabU&gt;\\\xfa\xfa\x91&amp;I\xa6M*\x96V\xa6J\x1e\r\x96Vn\xdd\xb5\xe8\xae\x853\'I\x07\x9c\xea\xe9PG\xee\xcf\x1d\xe7Z\xb1\x1b\xa2\xdd\xdb\' \xb2\xddR\xe8\xb9+tB\x19\xfe\x97]YX5\xd9\x18\xb6\xc4\xc4\xf7L\xefg\x1b\'!2\xe1\xdc\xf1\x99|\xdd\t\xd4\xbf=\x07\xb3\xe54\xea\xb6*\x85Z5m\xd9]~\xe7\xce\xf4\xf9\xfa~\x8d\xb1\xdc\x98&amp;\xadq\x7f6\xd9~Mv\x8dC\x01\xdb\xab\xf4\xdafH\xe1j\xe7=Q\x98%\xb4*\xd3&amp;QF\xdd\xea\x97Q\x8a\xb7\xab\xd0\xf6c\x04\xd2\xd8\xbe\x8e{\xbet\xe7\xbd\xe8=\xefzOw\x9e\x91\xc5\xb2\xe8\x1eGPG\xda\xd3E;\xc4\xefO\x8bK\xbd\xc9\x10\xa0\xd9!\x88\xa6"\x08%V\xb3\xc6\x86\xbaH\xd4u "\x93qZ\xb5Y\xd1\xe7\x99_\xb9p\xb5\x95\xf2\\D\x91\x0c\xd5D\xe2\xb1\xd1!+\x01t\x07\xa8]&amp;\xd8\x98\x93d\x96\xdc\x05I^\x8e\xe1\x00\xc2\xc8\x87}L\xa2&gt;,\xe9%Km\xd5\xe2\xf0II\xc1\'h\xca~u\xfa\x0f\xe7\x9f\xa0\xacB\xb2\xa5)\x1e4\xb4\xc0\x93\xdd\x1e)l2&lt;|\x88\xae\xc6&lt;\x88i\xd5\x1d$\x00\x03fAP$LS\x0b+[9N\x94\xe0\xc9AMYV\xad$\x14\xce\xa76\\y\x0f\x08)\xc2\xdc\x90{\xdeL\x90\x84\xb9_\xc1\xba\xd6\xc8\x02U\xd8\xb8\xb8\xed8O\xa2\x1b\xf9\xcbQ+~\x91\\r3\xd5y\xe4 \xa5\xce\xbcz\xca^\x908ld2&gt;&amp;{\xcd31\xf0\xd1\xb9\x1b\xa6.\xb02\x9e\xd5O%U\x83u$\x89\xd5\x8c\x98Ni\xf2\x15Z$\xd09\x88\xf3\xaa\xaa\x12\xf5\x81\x10fu\xd4\xe7\xe2\xb5\xba5\xd5V\xa2\x9b\x8bm0Y\x9c\xd5\xb5\xc6\xf7\xbc\xc9\xe5\'\xd2Ja\xd4\xa3\xfdIk\xae\x83\xe2\xf6\xae\x82\xc3h\xc4F 2{17#\xf5\xab\x95\x16\\2\xa3*7%Wt?\x12\xa8E\xb7rO\tEj\xcc\x81$\x89\\\xa0\\\xa6\xe75\x0b)\xd2\xf5\x1a\t\x8a\xae\xb5\xba\x12\x1cd\x07\xb0\x8dR$\xf2\x9d \xf3\x01.v$\xb9\xc3\xc9\xb2GbkeG\x92\xac\x9c\x10\x83/G\x16f\xf9o\xd0\xb9\x9a&gt;#\xf5\x87\xca\x7fF]F\xa6&gt;8\xf5yPKG\x0c1\xd3\x10\xa4\x1cq\xc7\xc4\x166d\t+F\x03\xcfR\x89\x84[e\t\x8cnb\xc4\xf9^\xd7\xac\x10t$\xa7OQ\xa6\xcb&lt;)^\xd7\x1d\x99&lt;\xf5\xd5Kxb!\xb2\x8cX\xba\xcetB\xa4O\x8d\xd9\x98\xd03B|\xbe\x07\xeb\xaa\xde\x8c\xb8\x06\xf4YU[Y\xb8UB\x06\xd4\x8a\x82&amp;\xc0\xa3\xc0\x83\x08b\xae\xc5\x95\x1a\x8fO\xda\x1ez\xe9vs\\W\x19\x00\xb4\t\x1f`d\x89\x03\x06\xb7\x02e\x91\x11n\xc8\x18\x88j\x85\x95\xdc\x07\xe6\x07-\xa3Gf\x95\x18Xu\xfa\\w\xae\xd7\xca\x83oQq\x82\x94\xeb\x19\x83!\xec\xad\xb4\xb91\xd2\x19\x03\x90U\x92\x05\xc6\x9a}Pv\xb1d\xe3v$Po\xcc\xa9&amp;pD7\x16Au\t\xb0X$\xe5\x96\xb8-\xf2\xf2\xe9f\x11\xe5V\xd9]\xa9\x14\x1a)[|P\xef\x02\xf1\x11&lt;\x90\x9ds\xdc\x92\xbcj=\x82\xc4l\xb4\x87\xab\xb2\xb72\xf7&amp;@\'\xadD\x18\x02\xb1Am\x96R\xd21\x96+\x8f\x1c"\x9f2\xc1\x19\x1cl\x02\xd3\x19D\xd25aD|\xa3\xad\xd5\xb6;\x12H\xbd\n\x1c\x95\xb20\xa0\xd1}\x82\xa2Z:\x95\x8f0\xb2)6\x98\xee\x03F\x9bgD\x91\x85\x98\x06\x8d*\xca\xc4\x07R\x11\xa5\xc9\x851\xc8D1}\x95!\x94\x15v\xe0\x1a\xfa3\xf8W`\x01\xad\x1d\xc3m\xd5=\xba,Ct]"O :\x1e\x8a\x1a|#z\xd1\xa5\x82\xcbS\x1ed\xb2\x8c\xa5M qF\x89\xc8:D\x84\x0381\xe8@\xcc}\x880\x95dKeG;\x02\x05\x95X\xc3"\xaaa\xaf\tb\xca\xedA\xa0\x8f\x91\xe6`3mRZq\xb6\x0bq\xe9\nE\x92\x8b&amp;\x01PU\n\xda\xe35#\x8e\x90\xf6\x1c\xb7\xe8\x1a\x1e\x8b\x9b\xfd\x01\x82\xb8\x14\x95\'M_a=Q\x1b\xc5\xech\xb5\x816\x01\x07\xc6.1\x81\xa9\x13\xa0#\xca\xedT9\x12\xa0\x11q\x96\xbba0\xfdl\x1f\xb3\x82\x14Tc$\xa3\xd4\xed\x12k\xa6K\xb1A\x92\xaf"5\x8ah,J\x1f\x9e\xc9q\xb2Q\x8a\x91\x7f\x01\x83\x19\xb6\xad\x9cq\xebE\x8b\x93\xdb\xef\x85\xf4\xe7\xa1\xcf\xbb\xc9\xd1EH\x91\xd6m\xa9\xb9^K\xd7,L\x98\x96&amp;[z\x86\xcd\x92\xed]\xab\xd1qk5\x12\x9bc\xe2\xf5\x96\'\xdf/A\xf4i\xff\x00\x926\xd86\x87ZdYV\x9dbR\xc8!\xad2\x98\x05$\xb7\xc8\x88\x06\xc3\xd8R\xe3\xb3\xe0\xe7[\x8cU1\'A2\x1e\x19\xbf\xfc\xa8WB\xad\xe5\x87\x19&gt;\x93\x91_\xb7\xe5\xd4\x96B\xa5\xc4\xd9\xc1\xa7\x10\xc8\xab\xac\x88\xb4\xaa\xee\xa5P\r\x9c\xc8$\x0e\xdal\xe1\xa9\x84\x84s\x83[\xb2\xb3\'D\xceG,9\xb8\xf0\x14\n\xe8\xb2\x02\x0b\xb3\x04\xba\xa5\xb5\x1f\xc5U\x05,\xd8\x8fH\x1e\xf4\t\x965\xc2\x1es\xad\xc6q\xd1\x92\x88#\xc1M\x</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495720-los-barones-del-carbono</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>La AFIP reglamentó los cambios en el Impuesto a las Ganancias</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>El nuevo piso y qué pasa con el aguinaldo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Desde este mes alcanzará a los salarios brutos que estén por encima de $330.000. En tanto, quienes tengan un sueldo entre el piso y los $431.988 abonarán una alícuota menor. Los datos que hay que analizar para saber si el aguinaldo sufrirá deducciones.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Administración Federal de Ingresos Públicos (AFIP) puso en marcha los cambios en el piso para el pago del Impuesto a las Ganancias, que desde este mes alcanzará a los salarios brutos que estén por encima de 330.000 pesos. En tanto, quienes tengan un salario entre el piso y los 431.988 abonarán una alícuota menor.La decisión de generar una categoría con alícuotas más bajas tuvo que ver con que como el Impuesto a las Ganancias es progresivo, paga más quien más ingresos tiene, la suba del piso por la "deducción especial" autorizada por el Gobierno hace que los que están en las primeras escalas no paguen, pero genera el efecto distorsivo para quien supera los 330.000 mil brutos y a afectos administrativos está ubicado en un segundo escalón respecto del piso anterior. Las personas que continúan pagando impuesto a las Ganancias recibirán un alivio fiscal a partir del año próximo,cuando entrará en vigencia una deducción por gastos de colegios de los hijos, que está agregado en el Presupuesto 2023 por pedido de la oposición, aunque se estima que el importe no será significativo.De todas formas, en los dos meses que quedan de 2022, quienes hayan quedado en las escala de entre 330.000 y 421.998 brutos mensuales pagarán una alícuota menor a la  que tocaría por escala con los pisos que se mantuvieron hasta octubre, ubicada del 30% al 35%.En tanto, algunos aguinaldos quedarán alcanzados aunque la Ley del impuesto dice lo contrario. Si una persona en el segundo semestre llega a percibir alguna suma extraordinaria, producto de alguna tarea especial o un acuerdo paritario, que implique subir el promedio de remuneración mensual por encima del piso, tendrá que pagar el impuesto por la diferencia.Sebastián Domínguez de SDC Asesores Tributarios, advirtió que, con la reglamentación que se puso en marcha mediante un Resolución General publicada en el Boletín Oficial, algunos aguinaldos van a quedar alcanzados aunque la Ley del impuesto dice lo contrario. Señala que "los empleadores, al momento de efectuar el análisis para determinar si retienen o no el Impuesto a las Ganancias sobre el aguinaldo, deberán analizar las características de cada cuota del 2022 en forma independiente de la siguiente manera: </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x003\x00\x00\x01\x04\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x05\x04\x06\x08\x07\t\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xd9&lt;\xecN\x99\x94\xcd\xe6\xcbG\xddeMd\xcb\x95\x8b3N\xba\xc6\xd5\xa8t\xa0\xe5\xdbV\xc6\xf5\xee[\xa9\xe1\xd9\'\\\xbd\xe6\xcf\xaf-\x83\xb7\x1b\xfd\xf2\xd9u\xe5\x9a\xf2\xc6b\x19\x99lu\xa9\r\xa9"Yr\x9a\xc9\x87L\x83\xd65\x84h\xc1\x08\xc9\x0b\x034\xc9\xd3&lt;\x90\xc92\x9aV\x95ce\x91\x8d\x10\xd4:G\xb36\x8b\x890\x00)\xba\xa4%\xa0\x00\xd8Z\x04\x91\x11\x14\x00PFPq%\xd02\x10]\x8de\xd9\xae\x91r9\x00\x18D@b,H\x13a6c\xda\x8b{\xc4\xd6\xaas\x9dj\xe7[\xeb\x8dK\xaeuM5\xf2\x9e"\x8c\x98\xb9\xca\xe7\x9e\xae\xa5\xb9\xab\xfe\xbc\xb1\xf535\x8b|-&amp;\xb3\x97*\xed\xd8\x93\xad\xc5\xd6\xdfu\xe8\x1a\x98V\xe0E6n\xb7\xcfz\xb6:\xd2:\xd735\x96\xfd\xb9Yk\x119\xd1LW$\xac\xd8%\x8a\xca6\x88\x95l\xa6\xac\xb3e\xcb\x1f,{\xa6X\x8c\xb8`\x83\t\x0c\x934\x96\xa6\xa7\x19\x06Y3YM=fe\x99c\xd4\x15\x8b\xa46\xc5\xceE\r\x00\x19\xa1h\n\x086\x1dJ\x12 \x8a\x00\xd0\x14P\x1d@\xc8A\xfa\xca\xe8\xb8;"\x0c\xb1\xb0\x87Lr%\x88\x12U\xc8\x91\xf9\xca-|\xd5Uk{k;j\x16j\xb7:\xefIUP\x99\x18Y\x97\xd9]\xdbv\xd5\xf6W\xa7\x9at\xe5F\xe7ke\xe5\xb7\xd2\xd8K\x974\xd3"/.\xbd\x03z\xf5\xbdWk/\xb8Ae&amp;\x936\x1c\xdcmH.+\x96\x89\xadRcP\xaar\t\xcf&amp;k3L\xa8x\xe5\xcf\x96\xdf\x1d31\xa8f\xb1\xc720\xe6P\x8c\x8c\x90\xcb2jM\x180\x8c\x99\xac\x85\xb2\x8c\xd3%r,XB\x02\x08\x84\xc5\x8ca\x08\xe9\xb4\xa00\x15Q\x02\xe8\t\x14KA\x06\xc0-,\x14\x90\xa1@\xeb\x94\x0cT\x91\xb1\x14a\xc4\x0b\x124\x99fII\x0cI*#]5}\xb5\x1e\x93T\xb9\xd6j\xa2\x99\xa4\xabo\x17\x91u\x17E\xfc][q5f\xbe-\xaf6\xb7s\x81\x0f-\x16\xeb7:\xe9\xca\x91{\xbdz\xb6\xefB\xe8h\xac\xa8\x04\x02`RSU\x07X\xda\x0cY\x8cIqJ\x98\xabZ"\xb6\xd8\xb1\xd2\xc3\x97E\xc7H\xc7\xeb.sG"\x10\x88Bzx\xeaQ\x84$\r"\xe6\xc5\xb2\xe6\xd9aSD\xf0\xe8\\\xa2\x19X\x91\x8bX\xd4\xdbZ$6\x91\x1c4j\x96\xa0\n\x00\x10\x96$\xa0\x82\xa0\xaa\x8bK\x99\x1cE\x18\xf9B\xb1\x084y2J!\x88U\x14&amp;\xa7&amp;\xa9\xa6\xa5\xd3\x1a\xcfLU\xd8\xc9_m\xa5\xd5\xea\xdf\xe5u\x17\xb1s\x16um\xabgm\x82\xf9\xfb\x8e\xa7f\xab\x99U\x18Dd\xcde\x16\x19\xd6\xdb\xbb\xec\x9b\xd7B\xee\x1a:\x15\x05\x02B\r\x08\x02\x90\x04A\x01\x07d\x804\x1bfn2\xe3f\xe1-jb\xb9\xc3\x96!Y\x15\xf4\xdc\x9a!\x90MQ\xc5q\x84\xd6\\\xb6\xa5\x839v\xe4\xd9\x99.Tds8-H\xc7\xacZ\x86\xd8e\x84\x8a\xd6\xb2"\x11\xda"\x8a\xa2\x00\x10BST\x91\xc1@\x84q\x83\x9b\x10\xc8\x07\xac\x90\xfaT\x13\x15)\xcdx\xd6+R\xd3S\xd4\xd6R\xba\xe6\x1de\xdbg\xa5\xd1\xb05z\xbb\x16WUo\x86y\x99\xabg\xa6m\xb6%vm\t\xab\xc9\xa9\xb3\xaf\xc5Y\x92\x97K{\x9d\xdf\xeb^\x85\xd2{\xb6\xce\xb1\xe8\x00\x00\x04\x01D\x14\x00\x88\x00@\x00\r"\x08\xe5)\xb0\x92\xa4\x12G\x96\x19\x8b\x18f\x11\x88c\x95\xa5Q\x81\x96Le\x19\xa3\xed\x11I\x16\xcf,\xcc\xb2&amp;\xa5\x08a\x1d\xd69\x8ccD#\x12=D\x1bO\x16\x80\x1b\x0e\xc8\x1bM\x95QF\x10\x90\x91K\x16aO%W\xb4f\xb2\xe7\x0fY\xc0\xb3[\xceu*\xd455-5\xea\xae\xd3\x1d$\xce\xb2\xf5\x9b\xab/\xaeo-\xd8\x9a\xba/b\xce,d\xca373t\xcbk&gt;f\x93\x8f\xa2\x0b0\xca\xc6id\xd7\xa3\x1d\x9c\xd6\xaf\xa7K\xcdK\xee\xb3\xda\xf6u\xcb\xec\x14\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x05\x00\x10L\x9c&amp;ID\x14\n%\x11\x11\x83\x84&amp;9\x8cb\xc5daV\x18\xb1\x97\x9b\x9d5\x90IS\xc4\x82@1q\xe5\x83,k\x96T#F\xd3\xa9\x04\x83%\xa0A\xa4F\x19\x08\t\x94\xd18\xe0!k\x00\xa8g_\xdeu}cN\x8d&lt;\xd7\xf50\xed\x8a\x1fV2\xda\xea\xdc\xa5\xf5\x97\xfa\x97\x95om\xbcZff\xe5aff\x99{\x93\xcdf\xc6e\x9aw\x93\xd2T\x89\x12W\xb3A\x18\x8c\xbeY\x9b\xb2\xe92\xba\xdf{\xdc}\xcb\xb5\x15@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x80 \nH\x05\xa0\x02\x93 Q\x04\x83"\xa3\x86\x10.2\xe2\xacQ\x14\x8c\x16I\xc9\x1a\x8aH\xe5\xc5\x8cj\x81`"\x91\x15\x80&amp;bS"\x13\x1c\x84\xc5\x1e\xb3\xa6^SDD&amp;\x19@\xd6\xb7s\xa7o:\xa6\xb9\xea\x97:\xf5bZ\x99O\x9b\x99m\xe9wm\xd6\xae\xc3%\xe6\x97[\x99)hXIm\x99\x98\xd6ee\xef9:\xb9X\xb95&lt;y\xd7\x93\xd2\xb6%\x98\x92E$\x1b$\xcc\x999\xb8\xf5q\xf7:\x17\xb2K\x85\xb1m\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x002\x02\x80\x82\x8a\x00\x00H\x06B\xe8A("\xac"\x08\x89\x1a\xb6#\x96%\xc71\x16\xbf3\x0f\x16\x1a!\x92\xe3\xb3\x87.*B\xb0\xc92\xb8\xca\x14vQEyL\x9a\x96\xae\x97\xa6\x9dy\xea;QnD\x86RjZb[\xe2\xdf-\xe5\xb7\xfa\xbb\x02\xdbE\x9e\xd9\xdb\x93%\xb39\x89e\x9b\x9bYzOY\x16\xcb\x19\x06D\x9c\xc9\xe6\xee\xba\xcb\xc5\xcc\xca\xd4\xcf\xd2\xc7\x9a\xe6Ys\xaczg]{o|\xcd2\xea(\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\x00\x00(\x00\x01\x05\x00\x00\x84\x0bH\x10@\x00\x14\x95P\x19\x94X\xb0\x11\xd6&gt;Ue&gt;UU\x8e$I*f\xc9P\xe9\x83\x89\xaf\xa6\xaai\xe9\xa2\xed\xaaYCq\x8b\xaaj\xce\x96\x98\xb7Y\xbb\x02\\&amp;\xc9.\xc3m\xb4\xb9\xc6m[jgnJ\x99Ve[d\x99\x95\x95l\xe4\xc4\x95-Lpw\x97\xa1\xac\xcbd\xd9MfBZeu\x9d\xd8Mf\xea\xdd\xf4\xbe\xff\x00\xd2M2\xea(\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x13#\x04\n\x00 "\xa8V)q"\xbdi\xcdK3Fg\xc8\xeb@5K\x9cTs3\xdb\x9e\xb7\x85\xec\xd5\xf6n\xc8\xcd\xdc\xb7\x8dX\xd9\x9aYFv\x99\xb79\x1a\xcc\xf5-\xb9zX\x99\xa6@\xf4\x92\xd9t})\xf3\xd7\xcd\xd3\x16\xc9\xec\xca\x92DTtO\x9d\xcc\xd6^\xae\xcbocY\x91r\xb6-\xa0\x00\x00\x80)\x10\x83\x80p\x00\n\x03G\x00\x00\n\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x19\x00\x00 Q\x05%\r\x14B\xc2f"b\xd5:k3:\xbdi\xd2k\xf7X\x12aY\x91\x9df-\x94\xd5\xc6e\xa5fic\x19q\x99Y73\xeb3,\xbbd\xd6ld\x12D\x84\x95&amp;\x8bJ\x9f4\xb8t\xc3\xac\xca\xcf\xce3\xcc\x84\x9a\xe9s\xa65\x90l+\xdb\xb5\x93p\xeb\x16\xd0\x00\x04\x180\xf33\xc1\xcc2\xdc\xb9-M\x8c\xb7/\xcb\x02\xdc\x9c\x98p\x00\x0e\x10p\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00A\x00\x00P\x00\x14\xdaU$\x14\x91B\x92F\xa35\x12\x12\xc5\x9am\x91\xf3\xb8\xcb\x82\xb8\xab\x02aS2Z|O\xac\xe4\xea&gt;\x9dO\xd3.\'\xe6u8}\x92j\x82\'\xcb\x8cn\xbb\x0c\xaa\xce\x92\xc4\xcc\x89\xb5Qb\x96X\xda-\xef\x13?YxP\x00\x00Dy\x99\xc9\xa7H\x1b\xb9\x80T\x95\x05\x11HT\x18\x84@Z\x16\x85\xe1p_\x97%\xc9bg\x93\x0e\x14\x04\x01\xc2\n \xa2\r\x14P\x14\x04\x01@\x00\x00\x00\x00\x00\x00\x00 \x82\x8a\x00\x00\x00\x00A\x04DD\xa7\xabd!\xcd(\x82B\x80\tL\xb9B*\x82\xc4Y\x07\xe0SG\x8e\xa5\x10\xf9\xc5\xcdA\x955\xb0]f&amp;I\x91K\x94\x11\x19\xb3\xea\xfd\x0f\xb9\xba\xd5|\x14\x00\x00\xc23\x96\x8d\xac\xf7\xa1\xe2\x0e\x10A\xc4D&amp;\x19\x86U\x15F\xb8T\x94eA\x82b\x019h^\x17e\xf1r\\\x96\xa6Y\x98H\x02\x0e\x01\x83\x87\x00\n\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08(\x08\x02\x80\x10\x05\x00\x08(\x88\n\xa8*"(\x82\xa2"\xfc\xfe\xc60sj.\xa9j\x9c\xc7\x1c:$3M\xae\xbe\x83i{D-\x00\x00!\x19\xcb\x86\xee{X\xe1\xe0 \n \x08(\x084P\x1aFa\x18eyZS\x14\xa5\tXU\x91\x18\xe6A\x9c[\x96\xc5\xb1pX\x96\x85\x81\x9cf\x93\x8a(\x08(\x08(\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x80\x00(\x1f?y\xe6\x19\xa5\xacz\xad*J\xf2b\xc8\xcf-\xce\xe8\xd3`\xa5\x82\x80\x00\x02#\x97\r\xb4\xf7q\xe2\x80\x00\x80!\x10\xa2\x8a8\x00p\x08\x02\x00\n\x03H\xc4"1J\xe2\xac\xaa)Jr\x90\xa8*\x06\x8c3\xcc\xe2\xf4\xbd.\xcb\x82\xe4\xb62\xc9I\x86\x8a8\x00\x06\x888Q@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf9\xff\x00\x8c\xa6,\xda\xa9X\xe4$#a\xb9?I\xeb\xb9\xabc\xd1@\x00\x00\x08\x8ee.N\x80$\x1c\x00\x02\x01\x01\xcb\xc7\x98\x9bI\xb1\x9b\xb1\xedFX\x00\x0c1I\x89\x07\n \x80\x00\x00 \x00\r!!+L"\x98\xa7)\xcaR\x98\xa91@\x98\xb4-\x0bSc-K\xd2\xc0\xb3%\'$\x14\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x0f\x9d\\\xf9\xc8\xb6\x15\x92\xd4k\x8cc\r\x1cd\nv\xe5m\x1a(\x00\x00\x080\xe7\x83\x18\xe8\xe2`\x00\x01\x04&lt;\xfc\xf9\xceh\xe0)x}\x06=\xac\x90\x06\x0c&lt;\xb8\xd5\x8d\xa8\x9c\xb6\x14\xc86RS\x00\xc8%%\x1a8h\xa2\x8a\x004p\xa2\x01\x11\t\x84a\x15\x05yHR\x94\x85QR\x02\x16\'\xac\x1e\xa6e\x0f\x01\xa60\xa4\xa4\x83\x84\x188p\x00\xd0\x14P\x10\x05\x00\x00\x00\x00\x00\x00&gt;S\xe3\x13I\xb0\xdd^\x19\xf3Q\x81%e\x0f";V\xb6\x8d\x14\x00\x00\x00\x88\xf0s[:p\x94\x00\x00C\x14\xe2\x83\x94F\x0c\x01\xc7\xba\x1fA\x0b\xb1F\x08h\xc7\x8a\x14\x85\x01ll\xe6YXog2\x1aq\xb0\x9b\xf1\xd2g\xa1\x1ai\x9a[\x19FH\x08&lt;p\xd1@p\x82\x00\x82\n8B\x13\x1c\xc3)\x8f\x121\x0e\xa42\x08\xcf\x1b&lt;0\xce,K\x12\xe8\xb8/\xcb\x82\xe8\xb03\x89\x87\x88(\xa3\x80\x00\x00\x00\x00\x00\x00\x0f\x98x\xe7\x82\xafXb\xc9\xad\x8b\x0b}\xb2\xa9\x05\x1av\x95l\xfa(\x00\x00\x01\x11\xe2\xe7\x9f\x9dPJ\x00\x00Dh\xe7\xcd\xd3K\x10h\nd\x9d\xb8uA \xe1\x86\x8er\xe8\x1b\xc1\x86m\xa7\x8e\x9c\xd0v\xf9\xcf\xa7\x86\x08)\xb9\x1fJ\x8dt\xf1#d3\xc8\x0cs\xd6J\xa3\xd3\xcd \x94\xd8\xcc\xc2a\xa6P\xe1D\x01\xc2\x880y\x19\xccg\xa0\x1e\xb8k\x87\x1a\x9dz]\x18eYXk\xc59HV\x18\x869)nX\x17e\xd9v\\\x16\xa6y\x92J(\x82\x80\x82\x8a\x03O\x98\xfc\xf9\xc0\xafZ\xc8\xc0k..\xf6\xd9\xcb\x91\xc4ghi\xb5S\x80\x00\x00\x08\xcf!&lt;\xa4\xeb"`\x00\x10\x84\xf0\x83\xe7\xd1Z\x02\x00\xa3\x8d\xd0\xfaJn\xc3\x84&lt;\xe8\xe5S\xd4\x0c\x13n9l\xf1\xa23\xb4\x0f99\xbcP3\x0f\xa5Fq\xe3\x05\xf1\xa7\x18\x86\xeaxQL}\x19&lt;4\xf3R\xc0\xd8\n\x93g/\xcbs\xcc\t\x8d\x88\xd8\x8d\xf4\xbe\x1c8\x0f3&lt;\x90\xea#I9\xf4\xebbA\xe04\x00h\xd1\x0cS\x18\xab*\x8ab\x98\xd7\xca\xc2\xa4\x8cC(\xb0/\x8bSe,K\xb2\xc8\xcc\x1e|\xa7\xc612\xcd\xbai\x04\xa8E\xa5\xb1\xe9Q\x9f\x11m\xd9\xdan\x02\x80\x00\x00\x11\x1eTx\xb1\xd7f@\x00\x0c53\xc4O\x05&lt;\x10`\x80(\x12\x9dfvi\x9c4\xd5O\x0b\x02\x9c\xe5\x93M\x01\x0e\xb8=d\xe7\xe2\x8c\xaa=\xa4\xea\xc3[&lt;\x80\xd5\xcc\x83q9\x04\xf3\xd3\x7f&gt;\x98\x9e`y\xd1\x9ak&amp;\xd4k\',\x9d\x9ar\x81\xa2\x0e2M\xf4\xed\xe3\xd8I\x844\xb3\x9b\x8e\xbe(\xceO;(\x9cQ\xc3\x04\x00\x14P\x01\xa0(\xa0!\x19\x01\x8eV\x95\xa5AJR\x14\xe59\x8a)1\xc8\x98\x92\x93\xaa\x8d1\xc8\x0c\x93\xd1\xa3g\x8c\x8d;\x17M\xd2\x94\x00\x00\x00a\xe6g\x80\x1d\x88e\x00\x83J\xf3\xc7\x0f\x16.\xceC*\xc4\x10\x00Si&gt;\x8f\x9e\x96\x06\xbcx\xe9\xe3\xa72\x15\x82\x88\x07R\x1e\x86yY\xd8f\xd0f\x0f5S\x9b\xc9\x0b\xb3\x8f\x8d@\r\xa8\xfatk\xa7\x93\x14\xa5\xf1\xe7\xe7.\x18\xc7h\x1ePx\x18\x00\x1bQ\xf4&lt;\xf5\x91\x85Y\xc8\xc7a\x90\x9crvI\x9ejf)\xb3\x13\x18\x86i(\xa4\x800Q@A\xc2\x88\x00\x00\x00\x03F\x18F1\xf2s\x07T\x82\xe4\x95\x18\xd1"\xe2=\x16\xb6m;\x07M\xecp\x00\x00\x00\xd3B9\x9c\xec\xc3,\x04\x18i\x87\x85\x99%1\xa0\x9c\xd2D4\x00Q\xc7\xbd\x9d\xfe[\x95\x87\x0b\x9c\xd8D(\xd0\x14\xe8\x83\xd1\x8e4=X\xfa,lB\x1a\x89\xe1EY\xc9\x05\x08\xd0-\xcf\xa6\xc2\x1e\x0el\x87\x93\x9c\xd0@\x07T\x98g/\x088QOd&gt;\x8a\x96\xc69\xc6\x07_\x96G\x1c\x9dHl\xc74\x9b\xa9\xa9\x93\x97&amp;\xf2V\x95f\xecc\x15&amp;\xf8S\x99F1hf\n\x02\x88 \xa00p\x00\xa7\xc8\x1c\x9bM\xd1y\x94Q\xc5\x84m\x91\xb8\xd5\xa5u\xbdz&amp;\x8f\x00\x00\x00\x18iG,\x9d\x9cg\x8a4\xc5&lt;l\xd1\r8\xdbD9L\xd2F\x08\x02\x8ae\x9d\xc4u\x01N|\xd7&lt;\xc4\x04\x00\x1c{A\xef\x87\x0e\x9e\x94}\x167\x01\n\xc3\x8b\xce\\1\x04\x10\x0c\xd3\xe91\xb7\x1e\\ra\xe4\xa2\x08\x07\xbe\x9e\x8eq\xe8\xd1\x00\r\x88\xfa^z\x18\xd3\x90\x0e\x8f7\x03\x94\x8fh=\x1c\xf0s[1\r\xc8\xa7= \xf2\xd3\xdb\xcdP\xd4M$\xf7S\xc7\x0bSd7C\xc6Oi\x02\xd8\xf3\xa3k6\x02\x88\xd8\x0b#\x18\x90\x98\xf9/\xce\xd6t6\x97%\xcc\xcf6Si/\xa3"\x9cuEz\x8d:\x80\x00\x00\x1akg\x1e\x9d\xacX\x0e0\xcd\x1d|\x0c\x88\xce+R\x13\x14\xe4\x81\x83@\x00S\xd0\x8f\xa4\xa5\xd9\xf3\xf0\xe7\xe0\x00\x01ON;\xe4\xf3#\xd4\x8fD\x1c)\xa9\x1f4\xcd\x14\x04\x002\x0f\xa1G\xa8\x9f8O?#\x01\xa2\x9e\xc0t\xb9\xc1\xe4 \x00^\x1fK\xcfG\x03\x96\x0fX=@\xe7r\xdc\xf6\xe3J#)J\x03\x00\xdf\xca2\xc0\xf3\x13`!-\x0cR\xb0\x90\xf43\xcbK\xe2\xc8\xde\x0f"7\x13W\x10\xf4\x93n9\xe8\xd9M\xac\xe3&gt;z\xd3\xb6\xab\xa4\xc2\xd9\x9d\x8c\xb5&amp;&amp;$\x10\xeaC\xd5i\xd4P\x00\x000\xa68\xb8\xed\x82\xd0\n\xa5\xd0WM\x1eQ\xa5\x12lf!\xc9\xe6\x90B4@\x02S\xaf\x8e\xc084\xe6\xf1\xa2\x88\x00oG\xd2\x83o\x1e\x00)\xae\x1f8\xcf\'\x14\x00\t\x0e\xe8=\xb8\xf9|S\x00\x08)\xbd\x1dzp\x81\x08\xa2\x93\x1d0wI\x944\xe7R\xec\xf6\xe3\xc8M \xe9\x12Q\xc3\x06\x98\xc5yhkf\x11\x9cU\x8e#5\xb2\xa4\xdcM(\xb9&lt;\xd4\xe9\xb3\x9fO^&lt;\xa4\xc7=d\xddNj.L\xe3\xc38n\x9fL}er\x91$\xa7\xd3\xc5\x18U\x9dP{]-\x14\x00\x00\x0c*\xce\x1fk\xb7R\xdcq\x02\xc2JDc$ \x9a\xf9Ry\xd9Nk\xe5yVk\xa5!1\xdd\x07 \x9e\x0c0\x80\xc6!\x03g&gt;\x94\x1e\x84\x02\x80\x15g\xce\xf3\xc3@\x00\x07\x1d\x84ua\xf2\xf8\xd4\x00\x00\r\x9c\xfa,x\xc1\xac\x1a\xf1\xb1\x9e\xb2{ynH\x07\x8f\x1aQ\xd2f\x88x9\xd6\x83\xc5\x00\x01\x06\x88(\x82\x08\x00@c\x13\x13\x94E\xe1\xe6\xc6!\xb7\x9edlG\xa3\x9e&lt;l\x86\xb6xw\r\xd5TZ+\x0e\x10\x8e\xa3+\xccc\x04\xeb\x98\xf7\x1av\x85\x00\x00\x03\n\xe3\x85Z\xed2\xe4\x95\x1e\xaa8p\xa0\x82 \xd2A\xa2\x8a4\x84\xc61\xcc\xe2\x80\xd5\x8c"\x9c\xd7\x8a2\xbc\xad:\x9c\xdc\xc0\x00\x0c#\x82\x0e{\x03\x1ch\xd1\xc7N\x9d\xb6|\xc9&lt;\xech\x00\x17g\xd1\xb3\xd7\x84\x184\x98\x00@43\xc0\x0e\xb75\xf3\x99\xce\xbc\x1e\x00\x00\x02\x00\xa2\x08\x02\x00\x83\x05\x1e4Q\x05\x1a&lt;\x80x\xc1\xe5y\xc6\x9cwSM\xa6\xdc\xaab\x95\xd0\xb9O\xa5\x1di\'l\x1d\rN\xd0\x00\x00\x10i\x84|\xdd[\xc6\xf3\x19\xb1\\\xd5\xbbf\xc8\xba.\x0bvm\x12\xd5s\xcb3(\xc9$\'\x1c8\x90x\n \r\x14A\xa2\x92\n\x00\x03M(\xd0\xca\xf3_5\xd3_)\xcd\xc4\xeb\xb3\x86O\x1a*H\x8cS\x14\x94\xfa\x00t \xe0\x00\x00\x10C\\9D\xecs\x18\xe4\xb3\xb0\x89\xc0\x00\x00\x00\x00\x00\x04)\x8a\xf30\xb9\x00\x18a\x16#F\x8aJ4\x0e%\xe1\xbamH\xf4\xc1s\xc1G\xcba\x96E%kf\x81]\x9c\xbd\x1fO\xd5\x00\x00\x04\x10\xc78E\xae\xbaW\xa5iT\xb4\xa9VR\x94\xe5C5\t\x8e\xb8\x060\x13\x19\x06QbY\x96\x85\xe1r[\x16\xc5\xc1\x9cf\x19f`\xf3 \x94p\xf0\x10\x00@\x01F\x11\x8f0J\x93\x0c\xac)\xcaB\x8c\xf4\xe3\xd1\x89\x04\x01@\x04\x1aW\x9clv\tfrA\xd5E\xa8\x00\x00\x00\x00\x00\x08Dx\xa1\x88jG\xb0\x92\x1b\xd1\xe6e9\xb1\x16E\x01\xb0\x1e~o\xc5!\xcd\x1ek\xa6t\xe7I\xd2\xe0\xe7\x19f\xef-\x86jR\x98\xf5U]!]\x01\xab#@\x00\x00\x01\x19\xc2k\xd8\xe6\xca\x8eAP\x07\r\x1a4R2\x12\x02\xbc\xc01\nr\xb0\xa8)V\x89\xaav0J\xd3\x04\x84`\xc2c0\xb2,Kb\xf4\xb3.\xcbb\xcc\xb0,\x0c\xd3 \xc8\x1eJ8\x05\x01ADA\xe0\xa0\x88\x08(,g\x1a\x9dL_\xa7/\x1d\x02mb\x80\x00\x00\x00\x00\x0c0\x0f\x08(\x8d\xb4a\xaf\x9e\xday\x19\xed\xe2\x1eNj\xa7\xbc\x1eDoG\x9a\x1c\xc1\xc1\x83\xb9\x15\x96,V5[3\xb9Mlc\xeb\x16\xa3\xae\x8c\xd3\xa0\x95\xed\x00\x00\x00\x03N\x17:\xec\xdbE\x01@AD\x01\x04\x14@\x01\x06\x08\x04\x80\xaa\x88F4a\x8cc\x18eaV`\x14\xc5\x11NU\x94\xc5i\x8aFBJe\x19\x05\x89dZ\x16E\x91pe\xb5j\x96\x8dg\x19\xa9\x92N\xcc\x84\xa4\xc3\x85^I_wM\xf9&lt;\x04\xb9=\xa4x\xa0\x00\x00\x00\x000`\xc3Q#4\xc2\xa0\xdc\x8b\x13W2Ml\xd9\n\xc30\xdc\x8f\x1a9\x07\x91\xbaX\xa6t\xccQ\xaf\xdcGu\x97\x9bg\xa6\xc5\xa5\xae\xdd\x0ct&gt;k\xda\x00\x00\x00\x048T\xebSt\x1c\x00\x00\x00 \x00\n\x00\x03Ed\x00\x05UA@\x00\x04\x10p\x00\x00\xd0\x10i\x19\x19\x8cb\x98\x06\tRT\x95E\x19Z\xd5iNS,\t\x19\x8c\xca\x99&amp;Y\x9a_7\x82\xbe\xdc\xcf\xad\xa6\x01\xc7\x89\xeb\'\xab\x16d\xa4\xc4\x83\x85\x1e\x00\x004p\x08 \xe1\xa0@c\x99\x04\xe5i\x10\xf3I&gt;o\xe2N\xd4\xa5\xc7&lt;\\\\\xd4T\xf6\xd3i\x88d\xe9\xb8tt\xeegGgOh\x00\x00\x00\x10\xe1\xc3\xa9M\xf4p\x00\x00\x00\x00\x00\x00\x00\x08\xc0\xa0\x02\xaa\x80\x00\x00\x00\x00\x00\x02\x00\x00\x00\x0c\x01\xe0\x02\x08\n\x8a\x82\x08D\x90\xa4F\x01\\`-J\xf9\xf1dt+*\x98\x0b\xe1F\xaeF\x00@e\x19\x86q\x9eZ\x96\xa6qhe\x99\xa6a\x90HJH4p\xa0\x04b\x8e&gt;?\xc6DeD\xf8\x99\x86\xc2\x95\xfaV\xd6-\xb1j-u\xc2\xf5\x9c&lt;\x14\x00\x00\x008\x84\xe9\x93\xd0\xc7\x00\x00\x00\x00\x00\x00\x00\x00\x8c\x82\xa8"+@\x00\x00\x00\x00\x00\x00\x00\x00\x00\r\x01E\x00\x10\x00\x00\x00\x00\x00h/\x97\'\x8f\x9dV&lt;\xd2\xcf\x061\x8c\xd34\xb32\x8c\xb2r1HLc\x18\x8c\xae1\x84"1L\x93(ybg\x96E\xb1`g\x99\xe7\xca\xd9\x1dj\xe5&amp;fb\xe4HY\x15\xb8\xb6\xc52\xd3\xa9\xe6\xbbWCQT\x00\x00\x008\x9c\xe8\x83\xd3\x87\x00\x00\x00\x00\x00\x00\x00\x00 \n\x02\n\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x1a\x91\xcc\'`\x95\xe7\x10\x9d\x12oei\x88U\x15F\x01\x82T\x98$F!\x82LLHg\x96&amp;ybf\x8d&amp;2H\x0c!\x0c#\x18\xe16$U\xc6\x88}\x03\xc6\x0e\x18\x07Q\x9d\xb8.\x85\x00\x00\x00\x07\x1b\x9e\xe0z\xb0\xe0\x00\x00\x00\x00\x00\x00\x01\x05\x10P\x00\x10Q\x05\x1a(\xa0\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05Q\xc6\xe7c\x9a\xc1\xcf\xc7[\x1ay\xe2f\xe8z\x81\x98d\x92\x80\xe1\x06\x10\x08c\x98\x86\x19XU\x95\xa5yZU\x98&amp;1\x80@&lt;\x0etq\xd59\xf4\x8ah\xa2\x81E\x10Rs\xab\x8e\xcb\x17B\x80\x00\x00\x03\x90\x8f_=pp\x00\x00\x00\x00\x00\x00\x84#\x87\x88(\xa2\x88 \x80\x02\x8d\x1c(\x82\x8a\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00b\x9c`u\xa8\xd3\x9c\x0e\xaf5\xc3\xc7Og9\xfc\xd9\x8c\xf3(\x0br\xf0\xa4+\xcc\xe3n(M\xa8\xa8,\r\x08\xf4\xa2\x13&lt;q\x11\xac\x9b \x869\xc6\x17\xcf\xe7\\\xbbisZ\xed6\x80\x08\xcb\x8d\xae\xb7\x1a\xe8\x13\xa5\xe9t\x00\x00\x00\x00\xe4\x83\xd2\xcfj\x1c\x00\x00\x00\x00\x00\x000\xf0!\xa5\xd9\xe4\xa7S\x15\xc7\x8e\x9e\xc0Q\x9a\xe9p\xbb\xf1*W\x97\xe6!\x11\x941dE%\x01@\x00\x00A@A@\x00\x00\x00\x00\x00\x00\x84\xe3\xb3\xa3\x8d\xa0\xe4\xf3\xae\x0cc\x99\x8fl&lt;\x8c\xd8\t\xcf:=\xf8\xf3Sw&lt;\xc0\xd8\xc9JB\xa0\xbc0\xcbs^6\xf3\x08\xf5\xb2\xf4\xf1\xc3@=`\xb47s\x8c\xe7\x9fQ\xc7H\xe6\xa8-\xd4\xad\xaa\x14\xd9r\xdb\xf0\xb3\xa9\xb6\xf5\xda\xe9\xa1\xfa\x14\x00\x00\x00\x1c\x9az\t\xed\xe3\x80\x00\x00\x00\x00\x00\x06\x1c\xa2k&amp;\xe4q\xf1\xdfE\t\xc2\xc7n\xaf\x9b\xae\x86\x99\xadX\xa7M3\xcf\x07q\x1e0yI\xee+\xc8\x8d[$\xe9\xd6\xc9Tx\x99\xeag\xa8\x9e&gt;Nf\x9bI\xba\x18%Y|N8p\x00\x00\x00\x00\x01\x19\xca\xc7\xab\x9e\x94r9\xd5E\xb1\xa3\x15&amp;\xeaU\x1a\xb1\xb4\x9e|l\xe6\x9cg\x9b!PT\x98\x83\x88\x8b\x82\xa0\xc76\x82\x13\xd5\x0f\x16$4Ca=\xcc\xe3\x19\xc2\x87\x1a\xb2\xbal\xb1\xdd0y&lt;K\x80M\xb7\xa6\xd7P\xd3\xf4\x00\x00\x00\x00\xe5\xd3a=\xfcp\x00\x00\x00\x00\x00\x00\x873\x9erzA\xcfG\xb4\x18\xc7\x93\x9e\xdc\xd6\xbe\xd6\xca\x9e\x9ep\xbb=\x8c\xcf6\xaf}\x9e&lt;s!\xd4\xeb\xc8\xcdu\x81\noi\xc4\xe9\xe8\xa6\xb4{\xa9\xa3\x9e\x1eB{\xa1\xeb\'$\x19\x86\xe2ua\xb2\x0f\x00\x00\x00\x00\x00\x1as\xb1b{\x99\xca\xa7\xbf\x1b\x80\x804P\x14Q\x83\x00Q\x06\x11\x18D\xe3\x8cs\x14\xd6\x8d\xd0\xb34\xc3B6\x02\xa0\xf5s\x8f\xb1\xc7_j6\xa5\xc2&amp;\x9aH:\x1d\x94\x9aI\xb7\xa3\xd7QS\xe8\xa0\x00\x00\x00\xe6\x93$\xe8\xb1\xc0\x00\x00\x00\x00\x00\x02\x1c\xf2x\x91\xedg\x85\x17f\xaazy\x13V\x8ds\xf2l\xe7\xa1\xb3\xd1I\xc5g|\x1a)\xc7K\xda\xcb\xf3\xc9w\xd5{=zj\x0c\xf3Q\xb5\x1d2zQ\xccf\xb6u\xd1\xc4G\xa3\x1d(s\xa9\xe7\x07n\x13\x00\x00\x00\x00\x00\x08x\xf1\xe7\xe7M\x1c\xeao\xe7\xa7\x8e\x00\x01@h\n\x00 \xe1\x00A\xc2\x08\x02\x80\r\x01E8\x1b\x8e5\r6\xa5\xcb\xc1s\xa8\xc7\x92\x8f\x89\xb6n\xdb\x9du\xad-\x14\x00\x00\x08)\xce\xe5a\xd3\x03\xc0\x00\x00\x00\x00\x00\x04&lt;`\xe7#\xa0\x8e\x7f=T\xf1s\xdb\xcf6o\xd1\x16\xb1:\x88VqS\x83\xcfn0\x8f\x0c^\xde^\x15^\xcb[&amp;o\x0eyg\xda\r\x00\xe6\xf3\xe8\x11\xe2\'\x8c\x9d\xbeq\xd1vua\xe7\x87\x19\x1fB\x8c\xe1@\x00\x00\x00\x00i\xa1\x9c\xf6u\xc9\xe3&amp;9\xeeD\x82\x80\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\xc8\xfe{\xe7Z\xca\xdb\x90\xaf\xcd\x96\x1e2\xc2\x1bM\xdbx:\xd7Q\xfa\x00\x00\x00 \xa7\x83\x9a\x89\xd4c\xc0\x00\x00\x00\x00\x00\x00\xc2+L\xd2\x94\xb0)K#Zj\xc4\xad=\r\x15\x04\xd2W\x99\x8a\xd3\xa0\xd7\xd1N \\\x13\x15=\x90\xdeS\x98\tOC;\x04\xf2\xa3\x97\xce\xf34\xc3\x89\xcfl&lt;\xf0\xbb;@\xc8\x00\x00\x00\x00\x00!5\xf3\x93\x0e\xc94c\xcb\x0e\x96%\x14\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x0eF\xf3\xf5\xd2n[\xa4\xaa\xe4R\x01"I\x1e?M\xb5:\xdb\xa4}(\x00\x00\x08)\xe2G\x9c\x9d^H\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00 \x00\x00\x84` \xe1Lr\x12\x01L\xf2\x90\xad6C4\xaa5\x13}\x1ek\x87\x85\x96\xe7\xb5\x97c\x80\x00\x00\x00\x00\x08\xccc\x8b\x0e\xc5+\x8et:\xb0\xcb\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x009?\x87] \x8d\x99l\x8e\xea4a4:EZ\xcd[\xa6;w\xa1\xfa,\x80\x00\x00\x08x\xd1\xe4\xc7\\\x93\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08(\x82\x00\x00\x80(\x82\x88 \xa0\x03E\x18J\x00 \xf0\x00\x00\x00\x00\x00"#8\xec\xe9\xb2\xec\xe4\xf3\xae\x8c\xd0\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x05\x009k\xcf\xd7Dg\x1bQ\x99\xa9\xb4\x83\x88\xe2\xb5(%\xd64\xd9S\xe8\xc6\xd2\xdc\xad\x82\x80\x00\x00y\x19\xe2G`\x99\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x11\x9c\x92{\x99\xbe\x1ch{\xd9\xb0\x99\x06I919\x90NHF&lt;P\x14P\x18 \x0f\x10P\x10p\x01\xca\xbe~\x9e\x7f\xa9\x1eY\x14\xed\x1cT\x1a\xdaj\xf1K.=\x9b\xe7G\xd2Z\x9a\xc5@\x00\x00\x00\xf33\x9dN\xce2\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00A@\x00\x00\x00\x04\x01@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04#9\xa4\xdc\x0fc8\x94\xd7\xc9\xccr\x12\x01\xe2\x92\x80\xe2C8\xcc2\xcc\x830\xcd,K\x03&lt;\xc82\xcc\xf2\xc8\xcc3\x0c\xa3 \xf0\x0f&gt;\xf4\xbd#\x19s\\\x9a\xd9\xa8\xdbQs\x0el2\xb5w}g\xe9}dj\xad\x80\x00\x00\x01\xe7\xe72\x1d\x9ee\x80\xa0\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x15\xc7\x98\x9b\xa9\xb4\x80\xd2\xa0\x88\xbe\x1c\x04\x06\x01\x96d\x80\xc2\x02A\xe3\x87\x80\x00\x00\x00\x00\x00\x00\x00\x83O\x08*\x8e\x8ak\x99\xd3\xd3\xd3}\x1cW\x92\x01\x8c0\x80\xc6\x18a\x90\x18&amp;)\x8a`\x18\x86\x19\\b\x95\xa6)\x86b\x98f9\x8e{\x07\x9f\xa7\x9ejk\xda\x9a\xfc\x9a\xa35dV\xe3Y\x1c\xad\x1cnG\xd3z\xca\xd0\xa0\x00\x00\x00\xd4\x0eH;`\xcd\x01@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08O(8`\xf5c\xb7\x8c\xe1\x0f\x03&lt;\xd4\xec\x13 \n\x03\x89OL:\x94\xab9\x90\xd2\x0fb=\xe8\xb0\x1c\x00\x00\x00\x00\x00\x00\x00\x02\x08yz\xf9+]Jx\x82H\x9e\xd4\x95\xe73\x1d\x0cLa\x1b!FV\x9ay\xb3\x9b\x89VR\x1b\x918\xe0\x1eFV\x14%\xc9\x90g\nDrO\x0e\x9e3\xaez\x8d\xce\x14D\xb1\xb5\x16\xa04QM\x94\xfa{VZ\x00\x00\x00\x00k\'\x1b\x9d\xb6Y\x00\xa0\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x07\x1e\x1b\x19\xe5\xc7M\x1e\xb6)\xe2G\x80\x9d\xbaf\x8ay\x01\xcbf\t\xda%9\xc5\'d\x9e`{\xc1\xbe\x0e\x00\x00\x00\x00\x00\x00\x00\x00\x10\xd4\x8ehk\xafO;&lt;\xdc\xe8\xd6tC\xc8I\xcb\x83a&lt;\xfc\xcf\x1a8\x0b1\xe6\xb6l%\xb1\xeb\x87\x94\x9b\x11\x90e\x9c\xa6{\xa1\x011\xb3\x9a\xd9\xc3\xfc5\xaf\xeb\x9e=\x91\xab\x1a`P\x03\x8b#r&gt;\x8eU\x9e\x80\x00\x00\x00\x1a\xf9\xc5\xc7l\x96\xc2\x8a\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00T\x1f&lt;\x8d\xc4\xa47\x13\xb5\xc9\x0f*9X\xee\xd3&lt;a\xc8\xa6\xb0e\x96GZ\x9c\xf2x`\xa7_\x9e\x98&lt;\x00\x00\x00\x00\x00\x00\x00\x00\n\xc3\x90W\xb1\x17]k\x9e\x93\xab\x18\xf2R\xcc\xa35\x93b5s$\xb1+Lr3v&lt;\xec\xd9\xc8\xcf_0\x8f\x01:\x14\xb1&lt;\x1c\x88\xa1=\\\xd0\xcd\x90\xe1^3\x06\xc6j\xb6\xd7CF\x8aZ\x96\xe0lY}\x13\xabM\x96\x80\x00\x00\x02\x98\xe2#\xb7\x0b\xa1\x05\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00&lt;\x90\xe2#\xa6\x87\x1c\xecw\x19\xbf\x1e|q\x01\xd7fa\xb9\x9c44\xcf5#\xb4\xcf\x01:\\\xf0\xe3\xceN\xef2\x85\x00\x00\x00\x00\x00\x00\x00\x001\xce6^\xb8V\x1c\xb4u\x83.$\x14\xf3C\x1c\xf4\xc3^2\x07\x11\x8f)\x0c\x02\xf0\xd7\xcfM\x10\xe6\x93\xa2\x8c\xd3\xca\xcd\xbc\xf2\xb2\xf8\xc63\x8f\x9d\\\xcbak\x07\xc3\x8bB\xf4\x9c\n\xa3v&gt;\x81\x96\xba-\x00\x00\x00\x05Q\xc3\xa7m\x97\x80\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x07\x9f\x1a\x01\xee\xe3\xcf\x046C\xd6J\x03\x91\x8a3\x14\xf7\x13\xcd\xce\xae/\x8eZ.\x8cs\xc1\x06\x9dT{\x80\xf0\x00\x00\x00\x00\x00\x00\x00\x00\x10\xe43\xa4\x8b\xf3\x90\x0e\xb2-E\x1aD\x04\xe0(\x00\r\x10p\x82\x98\xe6\xacn#\x88\x85\x10\x88Q\xc7\xc8\xfee\xd0\x1f\x95\xad\\\x99\x83L\xc3,\xb42\x8e\xf2\xd2\xd6\x80\x00\x00\x00+\x8e\x1a;T\xd8@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x08\xc4\x14h\x0c\'\x1aF8p\x18\xc4\xc3\xc8H\x8c\x83\x04ad&lt;x\x00\x00\x00\x00\x00\x00\x00\x00\x01\xcb\xa7\xaf\x1b\xe9\xc9\x07J\x1b0\xe0\x00\x01@\x05\x00\x10AD\x01\xa3\x85\x01\xa0(\x01\xf2\x1b\x9aZ\xb6\xab\xca\xcb\xc82\x8b\x134x\xf3,\xee\xaa\xb6\xa2\x80\x00\x00\x03\x0c\xe1S\xb3\x8d\x98Q@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00@\x01@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00C\x9d\x8d\x90\xf5\xf3\x99\x0fZ=\x10p\xe0\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00&gt;SsZ\x99Z)&lt;Z\x13\xc4\xd51 \xe38\xee\n\xb7\xa2\x80\x00\x00\x03\x1c\xe1\x13\xb1\xcd\xb4Q@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x1e0R\x9e\xfex!b{`\x0f\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\xe7G\rPi\x93Y\xf79D\xa2\x92\x93\x92\ng\xc7h\xd5\xee\x85\x00\x00\x00\x069\xc2g^\x9b\xa8\xa2\x80\x00\x00\x00\x00\x084h\x83\xc5\x14A\x07\x80\x82\n\x02\x00\xa2\n\x02\x08\x008\x00A\x06\x8a8\x00\x07\x08 \xc1I\x00\x00\x00\x00\x06\x1e`y!\xd4\xe7\x95\x9aY\xd1B\x8f\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x80\xb8Z\x8d\x12\x9cKc\xcc\x82RRBS,\xecj\xbf\xa2\x80\x00\x00\x02#\x85N\xb17\xd0\x14\x00\x00\x00\x00\x04"5\x03\xcf\xcbs\xd2\x0b\x03\x14\xf3\x93k6\x82\x94\xa27\x12\x13Z6\xc2#U6\x834\xa6\x10\xb6+\x89\xcc\xd3\x0c\xab.\x841L\xd0+\xcb\x11G\x18$\xa4\xe2\x8f\x14\x00\x00\x00\x06\x1aY\xcd\'`\x1a\xa1\xe0\xa7U\x92\x0f\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x8d8\xb4m \xd1r\x9a\xa5\'$%\x1cd\x92\x9du[.\x80\x00\x00\x00\x11\x9c2uQ\xbf\x80\xa0\x00\x00\x00\x03D&lt;X\xe4\x93t)\x0b\xf3\xb5O/80\xf6\x83\xb7\xcf\x188\x84\xefC`8\xe4\xee\xe3\xcb\x8e\x17:\x9c\xea#\x95O\x1c;\xd0\xf0\x13$\xf4\x93\x92J\xb3y:\x8c\xe4\x83\xb4\x8dl\xe2\x13\xb2OV&lt;8\xe6\xf38\xea\x93\xd2\x89@\x00\x00\x00\x04(\x8e@;\x1c\x80\xe5\xc3\xac\xcc\xa1\xc2\x00\n\x00\x00\x00\x00 \xa0 \n(\x08(\x1c\x8b\xcey\xe6\x91h\xfc\'W\x99\x03\x851\x0c30\xec\n\xddh\xa0\x00\x00\x00a\xc4GK\x9e\x90\x02\x80\x00\x00\x00\x01\x8ep9\xec\xe7C\x14f\x01\xb8\x1cr]\x9eTuY\x11\xc1\xe6\xf2v\x89\xc6\xc7y\x9c\x9e\\\x9eFw9\xe2\x87\x1a\x9d&lt;n\xa6\xa2i\x87\xa6\x1e\xfcy\xc9\xb9\x9cDwA\xe1\x06\x80c\x9d\xb2p\xc1\xe8\x07\xa4\x1a\xf9\xd1fH\xa0\x00\x00\x004\xc18\xc4\xeb\xa3&lt;\xe1\xc3z&amp;$\'$\x1eHHJd\x12\x12\x93\x8aHHJ&lt;x\xe2s p\xf2a\xe7\x90s\xcf\x9am\xac\xd4\xf8d\xb5N@z\x01\x92b\x9aA\xb7\x1d}[\xce\x80\x00\x00\x00\x0c8\xac\xe8\x13\xd5\x00p\x00\x00\x00\x00\x84g\xcf\xd3\xdf\xcf\\8\xd8\xd2\x0e\xdf8\xa0\xf6\xa3\xcf\x8b\x93\xa0NM=8\xd4\rp\xedc\x86\x0e\x95&lt;\x10\xf6\x82\xec\xf1R\xbc\xda\x89\x8dT\xe9\x83\xd8\x80\xc0&gt;\x7f\x1d\x92r\x91\xee\xa75\x9dj_\x9c\xa8j\xe7\xb1\x9dNe\x8e\x00\x00\x00\x01\x08N7:X\xdb\x8e+7R\xc0h\xd2\x121\x83H\x88\x88\xc6\x8c! \x1aF4\x84A\x06\x08D \xd3H\xc2k \x19\x15\xda\xb6\xc4q\xb3\x8bWf\x96n\x91\xd4\xf5\xbc\xd0\x00\x00\x00\x03\x0e4=\xcc\xf5\x80\x1e\x00\x00\x00\x004C\xc0\x0eg:\x94i\xc8\'N\x9c\xc0z\xb1\x8eyQ\xd8G-\x9d\xd6q\t\xa3\x1d\xb4qQ\xeaF)Ft\x89\xe1\xa7S\x9c\x0cz\xe9\xe9\x87\x9e\x9d^i\x06\xc2ri\xd2\x87\x1b\x1b\tRz\t\xe8F\xc6o\xe7\x12\x9d\xa2zh\xa0\x00\x00\x00 \xc3\x91\xcfc=D\xe6\x03\xd8\x8d\xfc\xd5\rX\xd9\xcd\xa4\x90A\t\x08\xca\xb2\xc8\x9c\xab0\xcc\xa2\xc4\x00Q\x07\r\x1aH|\xfc\xe6\xb7\x97T\xb32\xe6\xf7Z~\x92E\x80\xa4\x82\x98\xc7Q\x9b\xe8\x00\x00\x00\x00\xc3\x8f\x0f_=\x90Q\xc0\x00\x00\x00\x03\x041\xcf\x11&lt;\x14\xc1=\xa4\xb15C\xa8E9\x9ca\xa5\x9dzk\x07(\x1e\xb2k\xe7X\x18\xc7 \x1b\xa1\xa4\x9d\x88x9\xe4gf\x9c\xc4y1\x9euY\xe2\xe5\xd1\xe6\xa7h\x98\xc7\x1a\x9d\x02s\xc1\xaf\x1b\x81\xda%\xb8\xe0\x00\x00\x00\x10i\xceE\xb9\xee\xe7&gt;\x17\xc7\xb0\x1e\x18X\x95\xe6\xdcP\x1b\x89\xa9\x01\x9ag\x96\xc6\xa6\\\x9epoE\xf1Fz!\x98\x02\x80\x84\x07\x88s\x9eK5\x87c\xae\x1fvl\xb0\x0c2\x00\xab:\x9c\xf4\x00\x00\x00\x00\x01\x87!\x9e\xa0{`\xa3\x80\x00\x00\x00\x00A\x00\xc0\x10\xb10\x07\x99#\x8cb\x11\x86x\xe2\xb4p\xf30\x0cc\x14yd@V\x16\xe2\x14\xa6YbV\x8c#-\xc7\x95$\xc6AB^\x19$\x80\x00\x00\x00\x02\x08x\x99\xa8\x1d4y)\xa7\x9d\x10y8\x86\xccs\xd1\xeeg\x95\x99E\x91\xb3\x9a)\x86z\x91\xae\x14$d\'\xa5\x15\x07\xb0\x8f4B\xd4\xd8\xcc3\xcbq&lt;e0H\x88\xf5\xa9\xb6\xc0\xca\xbc\xb53\xcc\x03C;l\xf4`\x00\x00\x00\x03\x18\xe5\x93v=\xd8Q\xc0\x00\x00\x00\x00\x02\x00\x80(\n \x08(\x00\x08(\x00\n\x03E\x01\x04\x01E\x01\x00`\xa3\x85\x14h\x00\x0e\x00\x00\x00\x00\x01\x0f9&lt;\x18\xeb\xa3D&lt;V:\x97-7O\x14\xad\x94\xd8\x8d|\xc3\'6\x12\xf0\xf3r\xe0\x84\x8ca\x8cg\x88^\x9e\xb4)\\Lf\x91\x1c\xf6\xcf\x8b\xc92\xeb\x85\xa5\xd5\x10\xa5\xa9\xac\x9e\x9a`\x9a\x91\xda\'\xa3\x00\x00\x00\x00\x18\xf9s\x11\xb0\x9d\x02(\xed\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x10\x05\x01\x00\x05\x00\x00\x00\x00\x00\x00\x00\x10\x05\x00\x00\x1a(\xa0\x00\x00\x00\x02\x11\x9a\xa1\xca\xe7c\x95\xd9s\x0cu\xc5:\xaa\t\x0b*\xaf&amp;\x1eJ)\t!\x88J(\xa3\xca\xf2\xc8\xc8\x14\x00\x06\x1e-\xd3\x1c\xd4f\xcbU\x86sU\xc6\xcaa\x0c.\x86\x11\x9d6zH\x00\x00\x00\x00\xcc9\xa8\x9c\xe8\xd1\xd4\xed\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x18\x05A\xc6gd\x99XrI\xd6\xf5c\x82\xec\x94P(\x80(\x00\x08\x02\x80\x00\x00\x00\x01\xe0\xfd1\xe3I\x8cfr\xad\xbbx\xa3\x86\x8e!\x10\xe8\xe3\xd3\x80P\x00\x00\x01\x98s\xb9Vt\xd8\xe1\xdb\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00 \x84\x07\x17\x1dU\x1b6\x1c\x90t\xedlP\xba-\x14\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\xe6{\xc7\x8b\x9a\xe0\xeeu.\x9a(\x86\x10\xd34\x8c\xe8\x83\xd5\x06\x92\x00\x00\x00d\xc8\xf0\x13V:\x98x\xba\x01@\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\r8\xf0\xf7\xb3\xd1\xb0\xe5\xd3\xd9\xcd\xf4ZZ(\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\xcd7\x8f\x164\xe9d\x89\xe5\xa8XL\xd4\xa4Lu\xb1[\xd3\xa0\xcf[\x10p\x00\x00\x042&lt;8\xf3\xf3\xac\x07\n-\x14\x90AK@\x82\x80\x00\x00\x00\x00\x00\x00\x00\x00\x08\x02\x80\x00\x00\x00\x80\x00(\x00\x00\x08\x00\x00 \x0e\x10@\x00\x1a \x872\x1b\xa9\xed\x19s\xb4m\xd1\xebT\xfau\x14\x00\x00\x00\x82\x80\x00\x00\x00\x00\x00\x1c\xbf\xbcT\xa6\x8d%l\xd6\xcf\x10\x9a\xc1\xb6\x15\xa6\x01dd\x9e\xfa{\x12\x8d8\x00\x00\x00dx\xecxY\xd2\xe3\x04\x12#\x88\xa8\xa2\x99P\x81\x00\xd1F\x11\x8d\x18F4\x88\x8cA\x84cF\x8d ##\x10\x88B \x18@0\x06\x91\x880\x88\x8c\x8ca\x18\xd21\x804\x88B!\x00\x06\x8c\x1aDF0\xd5N\x98:\x16&lt;\x825\xd8\xe8\x1auK@\x00\x00\x08\x02\x80\x00\x00\x00\x00\x00\x1c\xf7\xbci\x86\xbaVsYS\x8crp\x01\xe4g\xb8\x1e\xd0\xa8\xd3\xc0\x00\x00\x08\xcf.88\xda\xf2\x07A\x81\xb3\xa1\xd4\x9aKS\x8f\x1e)(\xe2AE&amp;\x1e8\x94\x07\x8f\x1e(\xf2RBAIII\x05&amp;$\x1cHd\x0e\x14\x90\x90q(\xf2@%$&amp;%\x01\xe4\xc4\xc0(\xe2BA\xc4\xc3\xcd\x08\xd6\x0e\xab4#\xc7\x8e\xa2$\x1e\x00\x00\x00 \n\x00\x00\x00\x00\x00\x00h\x1b\xc7\x88V\xb7\x0c\xc1\xa0\x02\x00\xf3\x18i\xed\xe7\xb7\xa8\xd3\x80\x00\x00\x08\xcf99\xc0\xeb\x8c\x9e:\x0c\x9dN\x17E\xa7\xd0(\xa2\x8a\x03\x85\x14\x00P\x14\x05\x01E\x14\x00\x05\x01\x00p\x08\x03\x84\x14P\x10\x05\x01\x00\x00P\x01\xa0(\xa2\x8d\x14\x05\x03J9\x94\xec"\x8c\xe5\xc3\xa8I\x84#1\xc8\xc6\x11\x91\x8d\x1aDD@F4\x84i\x18\xc1\x86\x10\x84g\xa4\xef\x1e\x0ej\xf1\x1cE\n0\xab2\x12\xc1u\xe2\xe4\xf7S\xdb\x9aUp\x00\x00\x00\xc3D9\x88\xed\x03"\x1d\x82A@\xba\x1a\x00\x00\x00\x00\x02\x80\x00\x00\x00\x08(\x00\x80(\x00\x00\x00\x00\x00\x00\x00\x00\xd1F\x80\xe0\x10\x04\x01\xc0 \n(\x14\x07\x1b\x9d\xa4@|\xf32I\xc6\x8e&amp;\x1e&lt;y \xf1\xc4\x83\xc7\x12\x8e\x1cNd\x12\x13\x92\x13\x13\x9e\xd4\xc7\x83\x94\xd5\x84E\x19\xc5\x81FT\x97\xf5\x83\x1b\r{m{vj\xb4\xe0\x00\x00\x01\x86\x9ery\xdb$\xc1\x90 \xe0\xd21\xa0J\x04\x04\xc2\x80\x0f"\x18Hb\x18\xe4\xa5\x80\xc3\x10\xcc\x14\xa9\x02\xcc\xc42\xca22\xfc\xac,\x8cRC8P\x10\xa3\x1c)bke!X]\x1b\xc9\xa7\x19FI\xe6\x85\xb1\xe8\xa4\x07\x9d\x1e\xb6L(\x15g\x1a\x1dn^\x1c|t\xc1r8Q\xe2\x88\x03\x85%\x1a\x04\xc2\x91\x0f\x1c4\x8c\x94\x90A\xc7\x9b1\xceea\x94c\x18\xe5\xa9\x8c\x1ad\xa2\xd4\xab\xec\x89\xeey\xd14\xe0\x00\x00\x10CT9\x0c\xed\xb3,a\xe4\x05Idz\x19\xe7Ei\x9ez\x99\xa7\x1aa\xb0\x17\x86\x19\xe9B\x1eJS\x1e\xd0s\xa9ja\x1e\xb68\xe7\xf3\xa7\r`\xd0\xc8\x8d\xcc\xd1\xcfE&lt;\xf0\xb03\xcf =p\x90\xb0=T\x00\x0f\x111\xc8\x8f^9\xd8\xa7=\xac\xf3\xc3\xd6\x0f(-\r\xb8\xf3c\xd3M\x18\xf4\x13\xc2\x8fz7\xf1\xe0c\x1cjt\xb9\xba\x9c\xa0{\xd9\xbb\x1aA\xb0\x96\xc6(\x12\x98\xa6Q\x82a\x1a\x81\xbf\x14F\x9cz)(\xe3\xccM\xb4\xd9\xcc\xe1M\x01\x8f\x075\xf2@\x1c(\x94\x9a\x03\t#\xd6S\xde3\xa5\x9au\x00\x00\x02\x08kG\x1d\x1d\xb6g\x10\x9c\xae{y\x8eyaLzi\xb6\x98g\x95\x9d\x02Q\x1aYNt\x01\x8es\xf1^{\x11\xe1\xe7\xa6\x9a\x89\xb0\x95\xe51\xb9\x9ext\x01lS\x1e&amp;b\x1e\xa6o\xa75\x0c\'-\xcb\xf3\xd9\x07\x0e0\x8f55\xa3\x10\xf7C\x9f\x8dx\xd8Mp\xf7\xf3\xc0\x06\x1e\xc2j\x07\xbc\x1c\xe0[\x15EY\xd4\x86x\x11\x1c\xaaz\xa9\xea\x879\x9b\xb1\xea\xc7\x96\x97\x06\xd8xi\x90Z\x94e\xf9\xab\x0e\</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495561-la-afip-reglamento-los-cambios-en-el-impuesto-a-las-ganancia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sergio Massa anunció un dólar diferencial y créditos para las provincias cordilleranas</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Por la inclemencias climáticas</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>El ministro de Economía, Sergio Massa, anunció este lunes que todas las economías regionales que adhieran a Precios Justos y a un programa de protección de productores locales tendrán acceso a un dólar preferencial destinado a promover las exportaciones. La medida estará vigente entre el 20 de noviembre y el 30 de diciembre. Además, anunció subsidios y créditos destinados a proteger a una serie de actividades productivas, como la vitivinicultura y la fruticultura, afectadas por heladas tardías.Massa realizó los anuncios en la estación experimental del INTA, ubicada en la localidad mendocina de Luján de Cuyo, con la presencia del gobernador de Mendoza, Rodolfo Suárez (UCR), la senadora y referente del Frente de Todos en la provincia, Anabel Fernández Sagasti; parte del gabinete económico, funcionarios de las provincias afectadas y empresarios de distintos sectores productivos.El gobierno puso en marcha un programa de asistencia rápida que dispone de un fondo total de 1500 millones de pesos para financiar la recuperación productiva, se activará cuando las provincias presenten las estimaciones de daños, cantidad de productores afectados y estratificación productiva de los mismas, propuesta de distribución de montos en carácter de Aporte No Reintegrable (ANR) o Aporte Reintegrable (AR) ante la Secretaría de Agricultura de la Nación.En el caso de compromisos productivos, una vez declarada por las provincias la emergencia agropecuaria, desde la Secretaría de Agricultura se homologarán las declaraciones de las provincias. A partir de allí la AFIP abordará y dispondrá de una prórroga de los compromisos fiscales y previsionales; y el Banco de la Nación Argentina abordará y dispondrá de una prórroga de los compromisos crediticios.Al igual que ocurrió con el sector sojero, Massa anticipó que habrá un dólar más alto para las exportaciones de las economías regionales, pero no dijo que cotización tendrá ese dólar ni detalló qué producciones serán alcanzadas con el beneficio. Lo que sí dejó en claro es que los empresarios deberán adherir al plan Precios Justos, todavía no lanzado, para tener acceso al beneficio. Además, dijo que deberá haber un "acuerdo entre productores y exportadores, para evitar que los incentivos no queden como rentabilidad de los exportadores"."Todas las economías regionales que entren al programa de Precios Justos y adhieran a un programa de protecció</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x02\x03\x04\x06\x07\x01\x00\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x00\x01\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xd7b\xab\x94&lt;\xf7ys\x9cW\xa4\xe7\x14\x99\x13\xdfrOs\xbc\x93\x9c\xef\xa4\xe7\xbd\xe99\xc5rO{\x9d\x93\xdc\xf7$\xef}\xc9;\xcfvN\xf3\xbe\x93\x9e\xef*w\x9d\xe4\x9d\xf7\xbds\xbc\xef\xa4\xef\xb9\xd9=\xdfzNv&lt;\x9a\xbf{\x9d\xba\xef\xbd\xe9;\xeevOw\x9d\x91N!r8\xa4.G_\x8f"\xa3\xcbG\x06Q\x82\x107\xc0&lt;n;\x868\x04\x16\xb9{\xa3\x0849\xd1\xbbE\xf7\x9at\xeeA\x01O\xd4\x96\xdcx\xe9\x889\x1a G \xc8\x84\xeb\x90\xf8\x8b\x11\x95l\xeb\xf2\xd5\x06\x85)\x1d\xd2cq&amp;\xaa&amp;D\x0e\x08\xcd\x89.%F\x1bL\xdd,\x85=\xdf)~~l\x08\xd1\x13\'v\x96w\xc3\xa0fdTGF\xf5\xcc\x8f\x10\xbc\xb3A\'\xc9\xc8P\x12-\xcd\x15"\xe7\x9e\xd9\xf2\xd1\x94Y!r\xdfC,*\xa5\xe8\xe1i\x12\xa0\n;&amp;\x11\xd4\x0b\t\x9b\xdc\xf4\x15\xb9\xf6f_\xd0^W=\xe8\'\xdd\xec\x89\xe2\xb9/\x89W$\xe7;\xc98\x95rN{\xa8\x93\xbe\xe7\xa4\xf7\xbd\xe9=\xcevO{\x9d\x93\xbc\xf7$\xf7}\xe9;\xee*Nw\xbe\xa9\xce\xf1U&lt;\xa4\xfa\xaf\xdcW.\xb8\xae\xf6D\xf1^\xb8&amp;b\x1e\x1b{\xbc\xf1\xd2\xbd\xefI\xee\xf9Rq\\\xedE)*\xb8\xa5\xa1r8\xfb\x12j=!\x97jg\xd5\xdb\xe5\'\x84uw \x10\xf1\xcd\x9a\x1c\xe4]\xb5G\x17{\x03\xad5\x02\x05\x87JP\xdf?Q\xa4D\x9cv\xc4\x92\x90\xa9\x8b\x8eDXSQ\x08\x19m\x05\x94:\xd4\x8a\xaa\xcc5\x04(A\x0e\xcc3\x86\x93\x95K\x8e\xf8\x94\x12\x81\xd9&amp;\xad\x17\xc6\x1e`\x04\x8c\x96\x99T8&gt;i\\\xd5R\x0ej&gt;\xe2Dvf4\xa0\xb5)\x93R\xa7\xa5T\xc7\xac#G\xe3\x80,p\x07\xec\x1b\x94z\xff\x00\xb3\x1a\xb4z{\x01G\xaa\xaf\xd6\xda%K\xd4\xdc\xd1w#\x87;\xe7\xeaQz\xc4\x1c\xd7\xf4\x0f\xbb\xef\xaa)&lt;Zn\xd2\x95\xa6D\xfb\xbc\x93\x88Rd\xe7;\xc99\xefrN\xf3\x9d\x93\x9e\xe7\xa4\xf7\x93\xe9;\xeezN\xfb\xbd\xa8\x95w\xd5;\xeez\xaf\xa9\xef$_y\xc9;\xe4\xaaEy*\x93\x8bO\xa5/\x9c\xf4\xb1\xd3\x14\xa1.\xfb\xbe0\xea\x92\xa9|W;+\xca\xe7*/\xdc]\xcf:\x97..KOTu\xe4,lfe2\x9f\xe5\x18\xcc\xe8Oy\xc3\xb0\x80\x93P\xd8-\x95\xad\x07\xe8\x04\x98\xf2BX\xab\xacIe\xcb0\x14\x8a\x0c\xcdw\x8bXL\x8c\xe4A\xb8\x04B\x91\xdd\x119\xe6\xb3\xc9P\'\n\x0b\x98Rs\x08!\xcd\xf5\xad6\xae\xc2\x1f\x14r\xd0\x15\x9ce_\xf5\x9a\xb7\xd0\xa8,\x1c\x84\xf9a\x06?\xc3e"@\x9es\x8c\x13\xe0\xc8.q\xdb\x06\xf4\\\xfe\xcc\x92M(\x90\x9d\x06\xf5\x94A\x94\x02T"H\xd9vGKE\xcb\xa4X\x02k\x11\x06\x84\x18\xe8\xb0\xff\x008o\x82\xa25\xb9\xe5\x14\xcf\xa2;\xef}\x05&gt;\xe2\x91\'\x1bq%\x1b\xf2\xd3"9\xd4\xc9\xc4\xa92s\x9d\xe4\x9e\xe7\xbbQ\x1dW*\xf9\xce\xf2R\xba\xdf\xa5\xb9\xe6\xfb)\\J\xa4W9\xea\x9d\xf7\x95/\xcd9\xd9:\xa4\xf6O)\x1e\xa8\xae\xa7\xb7\x15\xee*\xa4w\xe3J\xa2J\x93\xd2\x05\xf7\xde\x93\xdd\xe7e\xf7\xbc\xec\x9dRUt\xb7\xda~\x13\x8f\xb4\xe8\xc4\xd5\xe6\xd08l\x17c\x00\xae\x19\x07K\xc1y\x82\xa6\xfa\x9dR\xbe\xcb\xb16\x02c\xbf,\xd7\xc25\xdb\x180\xe5\x18\xb0\xb0c\xdci\x96\x0c\xff\x00C|\x03\xb3\xf9!W\xd0\xcd\x14+\x05-\x93m\x8f\x8b\x86*0\xec\x87\xa7\xaa@\x81&gt;\xbaJ\x9e\x87#\xbe\x1d\x15\tU]i,:Y+/?W\x12:N\xba\x08&amp;\x84\x05Bm\xc2ENX(\xf3\x862\x12KZ\xac\x9c\x80\xd2\xd3\n\x17\x11n\xc2\xc0\xb3\xdb\x16\x90\\&amp;ei\xa6\x8b\xc1de\xbc+\nA\x07,\x98Z\xef\xeb\xff\x00+\x9e\xc9L\xd7%d\xb8Y\xb9\xfa\x89{\xd4\tB\x90\xda\xe2\x14\x999\xce\xf2\xa7\xb8\x9fT\xf7\x13\xc9\x16\x9e*D\xa7\xa9\x95\xde\xa7\xb7j\xf79Q~\xef$\xe7x\xa9:\xaer\x8b\xdd\xf7 \xf5H\\\xbew\xdc\x94\xae\xa7\xd2\xfa\xa4\xaa[\x12"K\x1b\xf2\x93\xd2\x05\xf5\x1d\x91^\xe7\xaa\xdc\xf2Uv\xa5y\xe9^y\x0fKZ\xd1R\xcdv\x8c\x81"\xb8\xf6\xb0\xc8\x17\xc3\xb3\xb0\x8d\xc4\xc6U\xd3\xad\xc0:b5\x8c3\xa0r5\xf2Z\x14\xb6\xddJ\xe2!\x95\x12e\x1d\xe5/LrlKv)O:D\xc2[V\x1f\xa1\xc3\x1b\xcaL?#pE"\xa1\x99\xac\x987\xa4\x1c\xf5b\xef_ tS\x8a\xd9LD\x94P\x86$F\xd3w\xe4\x18J\xea7\xbb\x10\xaeDR\x03\xca\xa1\x96g\x85\x16\xd4\xe7\x00\xc4E-\x15\xd6*{q\xf5\xb6\xd3o\xcb\x8fa"Q\x9d\x89\x8b,gQ!\xd6\x87\xa0(G\xd3+\x84\\G\xc3\xbe\xfao\xebu{\x9e\xd0(Yn\x93\x96sN\xc7\xb4bz\x14\xbbso#\xa6\xb6\x9b\x92\xcc\xa6\xfd\xeeTJU\xc98\x95"Es\xbd\xa2k\x9d\xe9\x0f{\xd4\x8d\xa5I\xed\xd2\xbd\xcfTWQ\xdb\xbe\xfb\x9c\x91\xce\xa7\xd5;\xdevEs\xdc\x93\xab\xe2\xaa{\xdd\xf4\x8c&lt;\xebu}\xf2\x93c\xe5\'\xd7ns\xbd\xa8\x978\xab\xa5/\x8eKq\xd49V\xc6=z\xc9\xbc\xf9\xcei\xfe\xa0+\xf1\x9f\x8d\xcf"D\xed\xc15@#\xcc/\x8ct\xe8Wj\x86\xb9^(P\x8b\xd5\x01\xa1\x16 853\xadh\x81l\xcb\x85TD\x95x\x86:\xb0\xc6j\xb67\xa3"\x8aB\x98\x8fX\xeb\x02%\xe3\x87\x9b*Y1l\xcb\x8e\xdb\xf0\xdc\x10|\xdc=\x90\x81\x01\xfe\n\x9a\x0c\xc4\x8a\xa7b\x99\x08\xa3\x17!\x12\xf4\xc8B[+\xa2\xa0\xac\x84:\x8e\x19\xae\xf4JR\xa5"\xa2 \x16\x96D\x1e#\\\xd3.5\xc7\x8fd0\x03I6i\x8cDZ\xca\xe5\xb4\x89cR"\xc9\x84\x99\xf6^_|\xc4{\xf3\xb5\xa4\xf0%\xd9\xf0\xe6\xd7z\xbc\xd6$u\x96\xda\x1dIFR\xe2j6\x87Z\x91&lt;\xef\xae\xbb\xce\xfa\xad&lt;\xef$\xf7=\xd99\xee\xf6W\x92\xbeK\xe7|\xa99\xee\xf6Ow\xdd\xab\xf7\x15\xd9&lt;\x95\xf2W\x9cC\x92#\xdd\xe5\xc7x\xeb\x03j\xf7}q\x1dW,{\xee\xaaD\xb9\xe5\xc9\xe7&lt;\xb9\x1cu\xa7e\xd7\xb1\xad\xf3(\xe2\x90Ya\x0by\xe3\xad\xdch%\x1bQ\xae\x15\xc3\x0f\x19\xd1\xea\xe9\xe0\xb0\xd8\xc6I\xbaJ\xcf\xafT}\x82:\xd7\xe8\xec"\x0e\xc6\x03\x96\x1a\x04^9\x88i\xecO\xd3\x19p\x81$\x10\xe4O\xaf\x85\x10\x1fd2\x8a\xcc\xca\x14\x96\xfb\xa6\x93:,\xae\xbe\x92#\xb5\x03\x0c\xca\xe3E\x99\x12\x90\x06\xc4\xc6Y\xa1\x92:&lt;\xd8&lt;C\xfe2\x06\xb2\x11\x9fo2\xc4\x89M\x19`\x92\x8apf\xd0\x14\xd4\xf0\x924\x9c!^\x17\xd0\xad\x1e]\x02\xc7\xca\xa9\x89\x02T\xeeP\xa9,\\\x15e\x0cU\x87&amp;&lt;\xe8\xf8\x95\xf4\x1d\x12\n\xfa\xe5\x0e$\xa3\x8b\xba\xb5\x9e\t\xd7V\x92r\xb9d\xe9\xad\r-\xa7RS\xc4J\xebnr\xa28\xa4\xcb\xf2\x15\xc9IW9u\xdf{\xd5~_\x15#jW$\xf2\xbd\xda\xbf{\xa9\x97\xc5{\xb2\xbc\xaevD\xab\xbc\x93\xbe\xea\xaeq\\v\xad\tm\xf1\x9d\xf2\xb8U\xee+\xd78\xae\xfa\xa2\xfa\x97n%\xe4\xb9"\x9e\xe2\xaa3\x86k\xb8W&amp;\xc0K\x01+\x85,\xa7k6\xfe3\x94\xf3 \x0e\xe5\x01\xb9\xb2U\x9f\x850wxS\xe5\x15"\x10P2\x82]%\x19\x15\x16\xcdn\x91\xe4\tAz\x0e\x0e\x86\xf0\xe7y\xf7\xe6m\xc13\x9bU\xf2\xd2\x1bS+V\x19*\xb0&amp;\x837\xa6B\x13(N\xe1\xec\xe9\xc3J\xbd\x19\x0b:\x86\xe7\x9em"S*\x1b\x9c#\xbe\x82\x92\x83\x19a\xb4Z,\x89|\x9a\x04\x8a\xe3\xc8\x82rUx\xa9\xca\xf1\x1d\x9f\x1f\xd3`\xb6\xb3\xbb\n\x91\xd1"B\x0eJ\xe7\xae \xc5\xc0{K\x95\x1a1BL\xb0\xa2\x08\x1dS\xb2\x88tJ\xb3T\xbe\xe6\xd2\xee\xf2\xab\xa7\xc6\xaf\xf7\x10\x0c\xf4\xd7bj4\xd7\xd3&lt;Z\n\x90\xd3\xad\xdd!+\xe4\x88K\xbc\x91\xbf8\x99I\xe2\xfb"U\xefKO\x9c\xf5D\xf1~\xb9\xdeuU\x12\xaf.\xad&lt;W\xa4\xf7|\xbb\x89y\x0eU\xb7\xd7\x11u\x1aDicjRWt\x8f/\xd7]\xeaW"\x14\xb5\xc8\xdb\xdc\\\x8bs\x8f\xd5\xc3\xc0\xfe\x83\xf9\xcf\x04\xa0\x10l\x97\x06\x14\x99&gt;\xbb\xcdd;+0jX\xfd\x1d\x9cw&amp;$\x17]Qb\xce\xa9\xe9\xb4\xc6[\x9b\x02\r\x82!\x85\xd4\x91\rMY1\x08\xec\x8a\xb6\xecb-\x9c\xa3\xad\x90\x0b\x05\xf4Z\xb70C\xad\x1a\x1d\x12\xda"\xd2\xc6\x8b\x92\xc4\x1d!\x0cg\x04\x9e\xf6\xba\x04\x93\x00\xf5\x92\xfd\xd7,\x1c`\xb0\xb0\xa8g\x05\x10a\xc4G \x90&gt;\xa5\xcd\xa9\x0e\x05\x8b\xc0B!\xdc\x00\x15\x89\x87\xa4\x84s`\xcb\x8a\xc8\x81:\x8d\xc0KdR=\x8a\xb0\x96\x0b\xc8{\x08\x19\x18\x85\xd9\x1eU\'\x1c\xfa \xedV\xcc\x9bw)\xd6\x81\xc3\xa0\xca*/B\xaf\x01\xc5\x10\xccW\x8b\xbe\x7fw\xea\xa9\xe6\xa5\'\xa0\x11R\xd8l\xa4o\xd5\xc5b+\x02\x80\xcb|#\xee9\xbdm\xf1\xdf\x14B\xe2%\x17=#\x9c\xccrz\xe7z\x0bJ\x95\xda\x88\xea\xb9":\xe7\xa4G\x94\xcc\xb7\xd6\x89\x12\xa3\xf4c\xc9\xb9R\xe2N\xb2muH\x1c\xcb\xbd(1\xce\x907\xd78\xe9\xee\xa9PR\xef\x97W\xe7&lt;\xf4\xbe\x00?\x9d&amp;V\x86Xi|2\x8d(4^5\xdd\xa9`#\xe9\x13\x10\xbd\xd4\xcbi\xca\xfbX\xee\xbb2;;\xe4B#\xe36J\x88\xa3\x10G\x17\x8bi\xcdu\xe2\x07\xab9\x8e\xc8\xaa\x9cZ\x93\x9b\x13p}\x0e5\x02\n.\x14+\x10]C\x03\xa5V\xe2\x18\xc2\xa4\xc0mhz\x8b\x81\xa7BhJ#X\xb0\x14P\x82\x91,\x06X\x81\xcd2P2\x81\xdeFc\xf4z\xec\xa4\x81/\x04\x94\xd3"\x9feg\r\x10\xc2&amp;\xd9\x85(cH\x84It&lt;9\xd8\xcc\xa8\xabs\x8c42\xc0\xdd\x17e\x80\x06[\x8b\xe8\xcb=H\xef:\x8atws\x98j\x93\x91\xfa\n\x93e\x11/1\xcd$\x1c\x87:\xf5nP+\xbbW\xa7\xd2\x1f\x7f!\xc2ery\xa5\x1ep\xee\xdd\xddc\xd7\x91\xd7\tRj\x84\xb3\xc59[+\x92\xc9\xb7V\xb1\xe7;k\x82\xe3\t\xcd)\x9e\xd8z\xa9\xbe\xfa4\xef^\x84yjm1\x12H\xb5\x91\x19\xd0;UY\x0c6\x0f\x9be\xd2\xc9P\x19\x98\xe6\x03\')C.\xd9Biw}\x065\xec\xc7 \xadp\x19\xd6\xc6\xac\xab\xbd\xb5\xea1\xf39\xa8\xbd2\x93.\x90\x17Q\x19\xd1\xa0\xbb\xedyu\x95\xdbQ\xd8^\xc5\xf8\x84\x1dC&lt;-J4\x03\x96\xe1\xa3\xa4\x9b\xe9\x88\x01\'\xc1\xbe\x8b\xa8wjG&lt;\xcf*h\x8e\xd3\x99\xe1\x17\xa9\xe5\xe3vS%\xd1\x87e\xaeC\x12\xf2\\`\t\x93\xae\x8d\x006AwZ\x9b\xd8\xd2\xb9\xd4\x8aq\xa0;\xb3:\x12\x01X\x06\xd6\xb7#J\x18\x8a\x89\xcf\x12\xd1"\xcd\x96\xd86\xb4\xfc\xc6\xb4\x90\x8e\x96\x1e\xc0\x8ed9a\xb3-\x8fm\x0c\x85s\xa8\x1b\xb0&amp;.\xee\x0b\x98\x15\xc8\xbe\xe7F\x88\x8c-\xe0\xba\xa8\xc3\x81\xfa\xed\x8d`\x058\xcbn3\x07\xdc\xf4&lt;^\xbdiITM\x19\x8a\x05B\x92`c\xec\xf9\nm\xcf\x11F\x86\xa0XWeq!\x10V\xd8\x84{\x85\x83\x8c\x8b\x99\xd5\x0fI\x8f\xc4\x10\xdf\x18mV\x0c\xa5U\xfd+\x93k\x1c+#\x0et`\xdcW`\x96.y\\\xeb\xde};\xb8\xbb\xb7i\xc8\xea\r\x9e\xb3\n\xb0\xea\xb9\xc1\x12?\x9ep\x1b\x87-\xa9\xbd\xd4\xed \xf0\xb6\x17\x85Z\xd6\x0c\x02\x87b\x08\x0c\x99\xf3\xb8\xce\xab\xdb\x14a%\x9a\x06\xac,\x93]:\xf6\x8a\x0c\x14\xa0\x03\xac\xeeM\xb67W;\x15\xab\xc5/}@\\\xc5\x98\xbeF\xa8\xfeI9\xe26,G\x9b\xc9\\M\xf6A\xf8\xd2\xf3\x82\x98CR\xdb\x9a"ATY\x04\x18\xa2 \x16m\x870"\x0bA\xa5\xd8\xe3\xf89\xd8\xe2"Jn\xa2\x89\r16X]|\x81\x02\x01\x1e\x13\xd0k\xfcl\xeaD9\x03\x10\xd1A\xa2\xb3\x07j\xecVj\xac\x9c\xb7\x10y\x08\xdaN+n\x96s".@\x80\xbe\xf8d=\x95t\x8a:VQ\xd1QNs\x05\x1b\x18\xca$\x81,]s\xa4WD\xcb\xe6`\xaf\x012#\xae\xd5\x9f\x8f\x7f\xcaW\xe2\x14\xc3\x98\xd0\xd9a\xcc\x847&lt;$\xeaij\x15\xe0b\x1bN\xb0R\xcfnQ\x1aU\xd4Z\x17\x1c\xb9z~k\xb9\x15\xcblX\xca\xc5\xc5\xf8\n#\xf53\x8c\x19\xc5\xb3\xd2YJ\xc8\xba\xaf\xa5\xd8k\x0f&lt;a\x06H\x93\xbb\x83\xc7\xb3\xfb^R\xb7\xb5^5\x89\xec\x889U\xec\xa9q\x97\x05\xab+\xe8hl\x88PAYW&gt;"\x1f\x9eqvG\x1e\xc8c\x05\xda@\x10\xa9\xf0\xa5\x99G\x9b{\x9c\xb7\xc1\x10\\_@\x1f\x139\x9b\x11\xf1VX\xa5l\x15\xfe\x8f\xbcyi\xa5\xc9\xea.\x12\xcdv\xef=\x97\x04\xbd\xa8\x80r\xf01\xdc\xb9`b\x14\xb5\x84i\xda\xa3\x15\xf9\x93F\x08\x94\x1c\xabge\x04\xb6"\xc6\x9c\x8d\r\x06\x91\xb2\xe1&gt;\x9b\x18v6\xa0h\xc0\xf8\x96f\xaa\xe4G\xb4\xdbr9\xb7\xdb\x05O;\xcd\xaa4\xf7F\xb8z\xe4d\x90\x8f\x95&amp;\x06\x88\xa6\xe5\x83e\xbd2\x1b\xed5\xc9\xf4T-\xa6$\x15;\x19=v\xac\xf5\x9f=l\xad2\xddqM\x0cu\x89\xf1@\x04N4(\x89\xae\x92#gE*X\xc5\xc7a\x86\x8d\x98-\xc4\xc4[\xfak\x84halm/:H\xdc\x1a\r\r\x0cT\x8d\xe1\x0bK%\x8f\x80#\r\x99LV\x80iBt\xf8\x8dD\x13H\x93\xc8:\x18\xeb\x86\x7f\xdbE\x8a\xd1R\xbea:\xedr\xe9\x9d\xb4lSb&lt;\x14dL\xf8i:a{t\x8d\x03\x10\xc8\xce-\x86D\rx\xa8C\x04 \xf4\xd2\xe3&amp;*\x07E\xad\xb4\xdb\x9a\x08\xec\xe0\xf08\x8d\x1e\xb2\x11%\x0ef\x0c\xee\x88\x9dDr\x1c\xc6\xb2F\xa4\x1fB\xef0K\xc0\xc8p\xd4 \xfe\xf1\x81`\x06S\x9c\xe1#\x8f\xd0\xf4\t\xaa\xecq\xbdeX\xa42as:\x9c\xa50\x08V\xe6)4\xd3\xabj\x89\xae\x901UW9\xe3H\xb0qJ\x80\x96\x97bs@\x9d\x83\x00\x82\x89K\xf0\x92\xa6\xd7%Zg\x03\x9f\xa8\x95p\xec\x1b\xc1\xb8 \xc3lg\x89-M~\x96P\x12\x1b\xd0\xb2b\xe1\x93q\xb55\xb7j\x0c\xec\xc6\x9c\\\x95\x05K\x19\xe3S6\xed\xcb\x0c{/8k\xac\x91\x9a4\x04=\xca\x9f\xa2C\x88C\xda\xd9(i&gt;$!JbE\xdb\xd2\xc4\xc9\\\x9c\xafBL\\vZ\xd5\x7fA\xc5\'\x1b\xc2:\x11\xe1L\xfa\n\x94\xa8!z\x07+\x90!\xb8/5\xe8\xd0\x13\tBZ6\xd1\x97\x1d\x97\x95\x89\x01%\xc1\xaa\x991\xfc\xde\x8bH\x9b\x84\xfe\x0bs\xfe\\3\x8d\x8b)2\x0cG\x89\xae\xd5\x96\xc9s\x86\x99\xd8J\xbc|9g\x85\xce\xa8D:Z&gt;)\n\xff\x00Q6(\xf0&amp;\\\x195\xfb\x02\xe8\\\xf6L\xe5$\xc6/NU^Z\xce\xeeY\x9di\x0f.\xbb\x1a\xb8\xab\x13\xa1*,\x93\xf9%\x9ceh\xbf#Er\xc9\x10\x0fQV\x08\x95\xa2\xf5t\xb0\xb7\xc9:\xc2\x824\x94\x1d \xc9\x00R\x1e/E\x96&lt;(\x83l\xbc\x9b"\xec"y\xae\xcb\xd6E\xe39\xc0\x08\x05\xd0\x10\x97\xc1{\xaatS\x0f\r\x80(\xa8GR\xbd\nT\xa4\xa3\x89*\x8a\xd16\x1ahyn&amp;\xdf\x98\x0e-\x12\xd9xf\x81u\xa9\x9e\xb4\xa6\xce\x12\xd3\x9c\xfd_\xb84\x96P\xfcZOB\x05\x19\xa6\xd5\x12\xba\xd5\xa2!\xb1\xb1\xa9\x90\xb5\xd32&amp;\x94\xa3\x8bQ\xd5\xc7\x84\xa7\x1a`u\rny(\xfa\x08\x0fM6`\xe1\xb4\xa7\r\x8e\xaeZGj\xb0\xd3\x9f\xeb\x8bq\x0b9^\t\x95\xf2O\x16\xeb\xd0\x13\x0e/\xa6qV\xe2\xb6\x1b\x05\x83C;!B\xd3\xc6\xd8V\t"$\x13q\x9cu\x05&amp;\xa3v\xadu\x02\xb8I\xd3\xf9$0\xf6\x08\xfc\xf1\x1c&amp;\xc2\xd1\x90\x89\xdck\xa8\x9e\x99\x07+&lt;\x92\xa6x6k\x91\x08\x01\xc2\x906NG\x98\x88\x8e\x02\xa1\x9f\x1d\x07R\xe7\xae|\x84\xc7Q5\x9a:\xb8\xd0\xb0;\xdab2z\xacZ\xf4k\xef\xce\x9b\x92\xf9\xa0\xee\x10\x89\xf3\x06\x8ds\xea*\x0e\x14N&amp;\x1aG$\xdb^\xca4\x8b%[P\xd0J\xda`\x1a\xa8L\xcd\xaf\xb4W.7JOb@\x9c\xb6C\xcd\xbe\xab$\xc3A\x95$\xc1\x95\x13]!\xe7d\x958\xe4H\t\xa2P\x93\xe3\xae\x90aCIT\xb6*\x16\xf2c\xe7l\x88\x8c\x940d)!\xac\x83#\xc9\x9b\xaa6\xf4\xa5 c\x1bjX[\xc8\x04Ae\x04\tq\xbb*\xcbb\xae\x97\xe7\x88y\xc3c\xb0\xc8\xba.e\r\x98\xe0X9\xd8\xe5b\xc2\x13EFr\xc9\x05\x960\x14\x89&amp;\xb9\xef\xa2N8R\xb5$a\xc7\xa2E\xe6\xaa\x9c\xd7D\x93w\x18\xc2\xec~M\x80\xe4M\x83\xaa$\xb0\xe1}\xc7\xd9\xa7\xe7o\xb4f\xd6\xcf\xc5\xd8\xbb\r\x96\x88C;,\\\x8aS\x1d\xc3\xeb\xe3\x8e\x99\x80E\xce\x80\x854#\x81,\xae\xd2\xa6&amp;Oq\x88&lt;\xa3\xb2U\xc9Wt\xa9\xe5\x08We\x16~\x89V[,\x06T\x18\xcb4q&gt;\xcc\xd8\x07\x057\xb57\x04\xc0"\x8b"\x8eEEI\xafY\xc2\xd9\xe5\x8c+\xbe\x8f^\x9d\xc4Sy\xdd\xcb\xbd\xf3!\xd3\xb0\xf1d\x8c`^^A\x05E\x9a\xa9\x02d0:N\xc9&amp;\xa2\xa2\x97\x1fA\x99\x96\xe1\xd7\x8aU\xfa\x0c\xa9-n\xb9P\xa3?\x03E\x1a\x1d\xd8i\xab\x01\n\xfc\xccg&gt;\x03S\xear\xabz\xe7O\xa1\x94\x93\x91O\xea\xe6\xd0\xd66\xd5\xe7\xf2\xc4\x8amxin\x8euE\xd8\xaeC|\x89,\xe3\x07\x05\xcbA@\x81!\x93\x86b\xdd\xaa$\x94\xd4\'8\xf1B\xf5\xe5\x86\xb3\x80^\nt\xd4\x97\xa4\xd8\xb7k\xaaDI\xec\xe2\x01\xf3%\xf0g\xad\xc2\xb3\x83\x8c3&amp;\xa0P\xe5\x06\xcd_\xb3\xf4\xce\xde\x06\xcdY\xe3\x80\xfe\xa6k@\x9ch/"\xda\x8b&amp;;\xea\x132\xcc4\xc1\x0e\xba\xc7\xa2\xd8\x88\x90y:\xc2\xc62\xbcf\x0b\x86\xe5u\x17Qj\xce@\xa5E\xc3\x12\x14U\x99F;u_E\xa4~{\x8b\x1c\xca4\x087\xe6\xc8\xd1+\xed\x1exj\x9d2\xd0\xedJ\xdbV\x96\xd1\x00\x8b\xb9L\tLE\xc5\x9d\x03[M\xa5y\xee\xae\xcd\xe1e(\xf0\xee2\xe8\xa8oh\xad\xb0s\xaei]\x95G/bq\x95S\x0f\xacVj`\xc7\x12\xee\xcfBH$\xfa\xba\xd9o\xd0r\x7f\xa4sq3\xd1zzqa\xcbc\xea\xfe|\xcb\xab;\xbc%\xde\x1c\x0f\xe8\xb8\xbb\x99\x96\x02\xdek\x89\x1c\xc2\x9f\xa3\t\xd0\xaag-\xa0mA#\xd8\x96P$c(\xa2\x1f\xc78\x91S2\tY[\xca\xb8\x17o\xa7\x85\x85i\x95Wf\x1dra\xfc\x1c9\xc5\x07\'\x92\xa1\x84\xa7\x19\xa1\xa6\xac\xf5i\xec\x18F\x95\xf5\'\xa1\xea`\xca\xd13\xfc\xe2eS\'p\xb0\xad\x0cANe5\x01\xdd7\x06c\xed\x1d\x8e\xe1F\x18[\x95\x96\x80\xdfc\xd1[~]\xdd\xb1A\x1bb\xc3J\xe1\xf0\xca\xd6f\x01l\x88f\xba\xff\x00H\xfbg\x1d\x0f2\xee\xf0*\x15\x06Kqh\x82\xba\x12\xe5\xec\xf8\xef4\xcf\xb7\x05yW\xd35\xcf\x1d\x93\x92\xc45\x97\xd41\x12#\xce\xf4\x1e\x97\x15H9\xb2\xd8cR\xdf\x96:F\xc1a\xf0\x9c\xccE\x92\x82\x925\x07\x9dm\xbe\x10\xa4f\x03SH\xd3\xecm\x8a\xaa\xcb\xcc\xdb\x0ca\xd1v\x8d\xa4C\n\xc7\x0c\xf34\xb4\xf4\x04\xe4\xcaE\x84FZa\xfb=\x93\x98\x0b\xa0I\xb0\x08\x9dU"@7\x19fd\x82\x85%\xb5\x8a\xfd[j\xb4\x9f\x9eQ\x94\xfbl?\\e\xb6K\xcb6c\xdc\x82\xe7\x0f\xb3\xa9\xea\x18&amp;X\x9e\'\xd8m\xe2\x9aw\x94y\xc7E!\xf6d\n2w\x8e\xda2\xb2\x04GL\x161\xa3`\xff\x00M7\xb5u\xca\x86\x8aR\x16d+Q\xa4\x19@\xa9m\x99\xa1U2u\xb7\xc9H\xb0v\xc1\x94\xfbU\x12\xe9\x98\xf5\xba\xb6\n\xe8\xbbn`~%\xe6\xc7\xcd\xc3\x91\x1f\xd0jk\x94\x11z\xc9M\xc9\xc3\xc1o\xbf5\xf4Wp\xd5\x00i\x83\xda\xaa\xd7dlAx\x90\xed\xfa"\x9d\x87L1R\xc3\xc5Y\xb1\xc2\x97\xcf6\x1b\xc3\x99\x0bY+\xb6\x06\xbfN\xaf\xcb\xa7\xf5{`k\x0f\xce\xd3\xce\x14\xfe\x91Q\xc8\xd1C\x9cJq\xb6d\xcdmC\xa3Tm5\xa7\xe6\xcat\xd1\xb6\xce\x9fB\xd3\xf3\xae\xb5H\xcf\xa2\x8dj\xa8\\\xb6s\x0c\\\x8a\xdd8=@y\x7f\xd6\xb4A\x7f\xcc\xb2\xedt}8~\x89:&amp;/\x8dYr\x8e\x0e\x0b\x9c\xd8\xe1\x9e\xbd6f\xc7\xc9\xe0\xe9\x02\xdb\x8a\xea\x84\x92QU\xe7\x9eF3\x91z\xa8\x84\xc9\xa6\xd2b!\x18\x85\xd0\xcd \xa8\xf5rI\xe9\x92S\xdbup\xb0\xa2X\x97\r\x96#\xf4\xd4Epl\xf9HO%\xc7\xd7p\xac\xb4\xbb\xc74\xfa4\xc5v[7\x00g\xda\xba\xfd\x12\xe3\x85nT\x88\xf5\x07\xfe\x81\xcf&gt;&amp;+\x14V\x8f\xab\xfe)\xfb\x06UM\x9dK3\xe5\xeb\xa3\xe3\xbfD\xe0\x8e\xce\xce\xd9\x87\xdd2\x17\xd5\xbefG\x95\xe8\x82\xc4\xf5\xdc\xe0\x02\xd7Yx\xd2\x02\xc0\x18\xed[F\x8b\x9c\xe1\xb3r\xdcG\x95\xd6&gt;=&amp;\xed7\x14\x95E7^a\xc0\x95])\xdf\xca,QZ\x7fc\x9d\xb7`\xf6\x9b\x9b\x8f\x0b\xd7\x10{\x89\xd2\x11j\xbd\xd6\xb2\x8dxD\xb19\xb5\x9d#]\x8a\xb6X\xfe5\xd8r&gt;\xd7;O\xb3\xe7\xf7\xac}^\xe8us\xd4\xd4\x8c\xabr\x8e5\x1fJ\xa5?\x94x\xb5g~\xcf0%\x1a\x0f\xa3\t\x1a&lt;\x11=l\xdfN\xd5\t\xd8\xd1\xd2\x14\xd1&gt;\xf2\xfa\xa3(\xf6\xe3\x194e\xe7\xbe\x86\xc9vy\xdc\x94O#\xb5Z]\xba\x95y\x04d\x9a\x0e%\xb7\xe9\xec\xcc\xa7\xcf\xa4r\xba\x99\xd1\xb0F=G\x94\xfa\xa3f\xc4\xe5p}\x0e\xdb\x97\xd3f\xe0\xdd\x82\x11\n\x17\xb3\xc0\xfa\xd8S\x9e\xf9\xd2\x03\x9b`\xce\xc5\xf2\x9fg\x0b\xe8\xacE\xd0\xd5?\xcf\x18\x1b\xc0I\x1d\xd7JL\x81&gt;]6\x05\xc8\x89\xe9\xccr\xc6?\xc8\\%\xb6;\xbc\xa3Dm\x03\xf8\xa4\xe32\xab[\xf5\x17\x19\xd6_\x9a8\xf9\xed\xb8\x16N\t4\xdc2\x10\xc61\xb3l\xcds0\x11\xa5\xd9j9J\xe0\xf4\xa0\x9b-_\'\xfd9\xf3\x07\xaa\xc3\r\xa6X\xee\xa8\xa2\x9a\x92\xe1\xef\xd1TRy\xaf{\x90d.s\xa9\xfc\xb7\xf4\xa7\xcc/\xa5\x08\x98&amp;O\xb8\xa4g\xf2\xfc\'T`\xb2\x13\x8e\xa0\xbeJzm\xfa\x9d\xa1\x90d\xf2p\xaayt\x9f\x8fEf\xe6\xbc76\xb6\xb8\xe7\xaa8\x9d \x1d1Az\x9e\x05\xca\xab:}\xd0\x9f\xa90M\\\xae\x15\x7fM\xc0*\xf5\xb1\xd4\xaa\xfeS\xb7\xda2\r\x8b\x99\xd0\xaa|\x9f\xf4G\xcb\xfa\x96z\x02\x0f\xed\xce3i\xa1k&lt;\xfd\x95\x9d\x0e\x9cHZ$\t\x1a\xbf?\xb1\xac\xeb\xb4\xd9\\~E\x08\xf9\x01\xf5\x9f\xe6\x82\xf5x\xbfH\xe6H\x18\xe3\xf5z\x1f\xd3\xff\x00\x1d[N\xaf\xf9\xbe\x9a/\x87\xdb\x1b2,\xdev\xd6j\x15\xb4\xf5x\x13\x06\xd9\xe3\x9c\xb0\t\x11\x0b\xd3pFh\x19\xb6\xf7\xc1\xf4!\xa9{\x15[\xcd\xfa&lt;\x12N\xd3\x8cz?1\xf5\xc4\xba\tn\'\xa4\xb7V\xb9\x9b\xf3\xf5\xd5\x9bP\x9fq\xe3&gt;\x98\x8dK\xb4|\x85\xb6)c\xac=z\n8\x99\x96\xbe\xa0\xbb5]\x00\xcc\tll\xd0a\xf07\xae6I\xcc1;\xb1\xaa\xa8\x0e\xd7ZF^-\xea~\xb8~\xf7M\xd0\xc4\xe2\xd0\xaf5\xec\xef\xec\xb6\xb9\xbc\x07\x9e\xad\x90Z%\x14RZ\xc8\xd5+(\x0c\xe5q\x9c,\x83\x08@\x8e\x11\x1c\xd7\n\xa9\xca\xf2\xf4P1]W\x1f\xf7\xbc\xefC\x91n\xd6 \xb6\xd8Y\x12\x8a\xde\x12\xb8K@}K\xb5|\xf5\xf4R\n\x8b\xf1\x1f\xde\xdf\x02\xb2C\x82\xb8i-SF\xf9\xb7\xea,;\xe0\xd9*6\xbe\x07J\xdf\x02\xb0\xe7\x079aU\x96\x1fw\x9fQ\xb3\xddW\xadR\x9f-\xb6\xe6\x1f\xca\xe7\x18\xdb\xd8\x03\x08\x96f\xbah\xc7g\x95H\xd1\xf2\xdb\xbdN\\sS\x877\xbf\x9e&gt;\x85\xf9\xa9\xd4\xe85\x0f\xcde\xf5\x9a\xe0,\x1b)\xf9i\x90\x9bR\xf6\x85K\xb8\xe8M\xbf1\xd6h\xf2\xaa\x9a\xe6&gt;\xf3f\xae3X7\xc1\xedP\xc0\xd3j\x9a\xf9_U\xa7\xe6m\x0b\x8b\xa73\x14\xfb\xfe\xb3\x0c\xeb-_\x85-\x94I\x1d]\xe9\xf2\xf1\xad;PI\xd0.\xb4^\'c\x17\xab\x1cgw.\xd8.\xb0Q\x80=*k\xab\x8a\xc3\xb3\xe3\xfbvK\xd4*\x99\x89\xae7dV+\x7f\xc97f\xde`\x0f\xb1\xe5\xe8W`I\xd2qi\xc7i\xbfC\xd0\xbd/\x9f\xd9\x19f\x8f\xf1\xad\x9ai2\xf5oFe\t\xd6\x85\xf3\x98@a\xfa\xd3\t\x16\xc1\xf59VI\x82d\xf3\x02\xe7N\xb2T\xf7\x9dn\xd2\xcb\x9b\xb3&amp;\xafq\xac\xe2\x97\xc2P\x1f\xe8l\xad3[\xb4gD\xceO\x17\xb0\xa3\x02\xb6V\xd0\x17A\x04\xe0\xbc\x97]}`\xcb$\xc4\x10\x0b\xc66\xac\x87b$7\x9a]\xc4GP\xf1o\xa0+~\xb3\x10\x0e\xd3j\xfb\x16\xeb\xf0$&gt;\xa5{\x89m}\x0b\xf5\xe7\xc1\xdfzg*\xbf\xe7\xef\xdf\xdf\x03:\xab\x10%\x8e\xcar,Ur\x154\x8dN\xea\xaf\x0f\xd2\xcd\\\xb3\x89;\xa75\xa70\xe6aV\x99c\xb6f\xb1\x02\x06\xc9\x15\x82\xd9\x9a\xf2K\x8b4\x93\xedM\xfc\xf8\xb9\xfb\xf3f\xe6\x06x\xa4\xdai\xcas\x03\xeco\x984\x9cu\xb4\xe3\x81&amp;g=*XIy\x9b\x84E}\xadb|\xc0\xe6\x1c\x92\xc73\xf2\x8b\xb8\xd1\xa7\xc19\xf5\x8d\xdf\x16\xdeN\xbe_\xca7\\)v\xab\x05p\xe8\x903\xe1%8`!\x0b\xabf\\)5d\'\x89\x87+\xec\xddg\x03\xb5oF\x162\xcdG\xe6\xbd\x90\x04D\x89r\x1c\xa8[\xf3\x1a\xdb\xf0\xfb\xfd\xaa\x9di\xa2\xa5\x1a\xf5\x1c7p\xc9\xaa\xd9\xfa\xef\xe6\x0f\xb04\xa35\xce\xbe\xbf\xf9\xe73\xea\xc9\x13\x12\xebQzxo\x97\xb6\xd52!\xbe\x9e\xbc\xee\xe9\x1d\xeenq)zwOlG+\xd1\xb8\x99\xe5\x11\x88\x7f4=\x8b\xe9\xf8\xcf\xa0\x1b\xc1\xb1\x84\xf4P{5"\xf7\x92\x8a\x86;Lv\xe6\x8eg:\x8e\xac]\x06d2N4\xda~\x8eU\xe8I+\x1b\x9f\\F\x93\x1a\x96F;Kd\x1b0\x93\xe4\x15\xea\x91\xaf\x9d\xfa+\x12;\xb1\xbd&gt;.\x94\x0e\xf6\xf0,l\x06\xcc\xaaL\x02\'\xb0\x9d\x0fx\xa5\xca\x1b\xb6\xe46&amp;\x8e\xb3W4U\x05\xd7n\x11\x1a\xca\xed\x10\xae1#\x13\xb4\x00W{~N\x882\xf2Ff\xd201\xe5\x81\xd5zj\xb9r8u\xb3\x02l\xc8\xcc\xe9\xcf\x92\x87=K\xf4\\=\xd3;\xed\xe9w\x8d\xb71\xa7\x86\x85M\xd3\xf3\xa7\x8d!\xefi\x99\x8ai\xc2U&lt;\xba0\xd0\x97\xda#\xc6\xc2\xd4\xa9\x1aP\x1a\t\xa0\xe0r\x1a\xf2.\xb5\x0f\xad&gt; \xfb\r\x83\x92\xfc\xff\x00\xbe\xe0!\x19&amp;\x16\xc4\xb6\t\x95\n\xcc\xd1\xac9\x1d\xfb\x88\x8b8P\\\xe6c\xcb\x93\xe8\xdd_\x19\xfa;R\xbeY\xca\xb7\xdf\x9d\n\x99\x93\x02N\'\x98\x1a\xebnU\xc8]\xb6\x8b\x95\xd1\x0f\xc5\xbdjX\x1b\x86i\xa1KN\xe9\xf3\xce\xb3+\xe9\x1f\x9a&gt;\x9e\xf9\xee\xa7\xce\\\xf0\xdb\xbd\xfa\xdb@\xbc\xf8\'\xba\xae\xd2\xebU\x06\xef\x97\xed\x97\x91}\x8a\x9a\xe8\x96\xa5W.X9\xc8\xbbd{\xb2\xdb\x94\xe5:A.\xdaH\xbb*\xba\r\xcew\\\x97Gi\xdb&gt;\x7f\xdb1\xabm\xfa\xe3\x08\xb5\x05~S\x11\x92\x15\rB\x9b|e\x07=\x85\xda\x9c\xdb\x01\xb5\x14\xcdk\xa7c\xbbv\xb0?_\x97\x06\x15\x12\xd8Ti\x0f\xcf\xd7YZ\x16\x81\xf9\x88u\xda\xa7\xe91\xde\xb4:\xbe\x89\x82\x0f2,\xb3)\xd1\xb2\xc5\xd4i\x08h\xe9\xd51\xc9n\xb6\xc3r:\xdbmI?\xe9\xbf\x96&gt;\xa6\xe5\xf4`G\xb4\x0e\xe5u\x014}\xa1eZ\xb7\xa1\x01\tQf\xd8he&lt;&amp;\xcbN\xeas\xfe\x7f\xcc\xcf\x01\xee\xf2^\xd4\xb1\xa9pwL\xdeq\xbc\xfaO\xe7\x9b\xdfW\xb3\x163e\xcctsNZ\xeb\x9aO/\xa1\x86d\x17\xea\'G!\xf9@\x88j\xcd\xe1kf\\\x8e\'\xb2\xdc\xfb?\xe3\x0f\xb1\x8c\x00\xfc\xc1\xbf\xfc\xf5W\x12p\xe9j8\x93\xd9\x8arR\xa3,\xaacH\x93U\x12k\x92n}L\\L\xbd\xe8\x01\xf2\x87\xd5\xff\x009\xd4\xa8\x10\x1aW\x9f\xa4\x81\xea\xd4\xc3U\xd2\x99\xa5\xd3^\xb6\xed\xb4\xe7\xd4\xf1\xf0`\x8d\x1b\xd3\xa4\xd0\xbd+\xf4\xf7\xe7\xf5&lt;\xf5|\xdfP\xb1\xd3\x92\xef\xad\xcb\x08=\xe1\xf6@\xc7\xf4\xec\x16\xaa\xe5p\xa9_\x06\xa6\xd1\xec\xf9-j\x15m\xac\x17\x1c\x1a\x8d\xf8x\x90\xd7\xf3n\x8bE\xd8z\x99\re:\xce\\\x9d\x13\xe6X\x01GMGlqD\xd99\x87\xc2\xd2\x9a\xca\xa65[\x1a2"\xf0\xa8\x05\xef&gt;#\xac\x91~Q\xca~\x9f\x1e\xde\x9b7\r\xe8\xdc\xcd]\x02t\x11\xa9\x886%\xb5_\'\xd7\xcf\x8e\xfa\'\'x8\xcb\x9ey\xaa\x9a=\xddt\xb8\x92\x1e\xebqD\xb4R&gt;\xbc191\x17pPI\xb10\xccJ\x89\xc9\xeeI\xd5q\xe1\x9c&gt;\x86\xf17\x07)\xce\xdf\xb9\xcb\xf9\xd0E\x9f\xd1\x95\xecmh\xadA\xbc\xa4\x81M\x16%T\xbe\xbb\xa2\x87\xbdX}\'\x0f4\xa7}V%\x0c\xf9\x8fX\xce\x02Gn\xd5j$&gt;Wi\xd8\xed\x15\xe8\xf1\xef7\xb0\xde\xc8\xcc&gt;#Lt\xb2\x1b\x1a\xfb&amp;-\xbd\x1f\xa5\x1d[oJs\xea\x0f\x994\x02\x1ds \xd8\xeb\xbc\xde\xae*P^\xcbc\x9d\xe5\xfb\xc6"\xc0\x8c\x9bM_V&gt;\xbb\rr\x10\x92-\xcb\xab\x86\xa9\x83]\xa4\xdaq/\xa1\xf2\xa5l\xc5}h\xab^oO\x85\xf5\xe7#_\xce\xf6\x8f\xb4+\x18\xf4\xfc\x05n\xcfI\xfanL\xd8\'\xc9\xb2\x83 \xe4\x89_M\xfa\xda4\xc3\xe2z\xde\xabL\x12\xfa\xcd\r\xb7\xe0zt*\xd3\xa6YV\x8f\t\xb2\xa8\xa1gv\xaa\x8bI\xed\x0f$\xda\t\x16\xd8\x062\xfc\xbaH\xc9\xadn\x1a\x91A\xa6]\xaajeT\x1e\xca\xce\x96F\x8fM0\xcc\xfa]Xm\xa733\xdb\xcd\x90\x98\x98\x00717+\x90\xa6\xd4\xc4\xed\xa7\xa27lp\xcck\x06v\x8e\x85l\x90\xbb\x062\xe8\x0c\xc0\x00kVy\xd7\xc1\xf3\xe0b\xa1\xbd\xd7#\xea\x07\x18\x93\xe640\xdf#\xed\t\xd2a\xcc\xf4\xbeF;Ko\x7f1)W\xa8\xac\x0c\r\xf6&gt;\x85m\x991x\xbe\x91\xd9m\x12\xe0vD@83+\x80\xc0\xb0\xb7\x9f8\xa6\xa5\xbeT4\x8a%h\xd2\xe1\x98\xd1ar\xf7\x88\xcd\xf4\x1c\x8d\xb8\xa6)oC\x18\xf9\xef\xe8|B\xe0\x1e\xc5:\xe1\x88\x8d\x0c\xcd@z\x16+\xa1\xe4v;\x00\x94]@\xa2eF5b\x92y\x82\xa1j\x93$n\x06\x85K\x1bW\xb9\x9c\xc1\xee\x1c\x9e\xd5\xe2\x16hf\x99\xa9\xd7]\xa7S(\xe2\xfa\xd7c\xcf\xb8\xbe\xbbu\x17\xcfv\xa37\xd6\xac\x98:{\x10,\xecG7\xac*\xa8XGc\xcf\xdd\xb6\xcc^W\x99\xea}F;\x0e\xd38Z\xb2\xcc\x7fG\xcd}\xf7\x9frP\xbe\xefA\xbb\x96s\xf4\x8b\x97\xf5\x8d[\x07\xf7\'\xad\x9d\x81\xd5rmY~\x97\x8eB\xa5\xe1\xf4\xd4#\x08\xbck;T3\xadfhH\xd0\xaa\x1a\x06\xdb\xa6\xfc\xe3\xaf\xbf.\xb3\xf3\x86\xaf\x98\xdbjw\xd0\x9a\x03\xd2\x9c\xe8\xb5\x93\x9d\xaa\x85q9U\xa7\xb7\xa1\xd4\xed\xed\xcb\xc5\xf4\x8e-Cmt\xe2f\xb8\xa1l\x89\xadA\xe8[O\x12\xa0\xa6\xa4\xac\x1c\x1el\xc8\xf5$*3GD+\x8b\xad\xec\xces&amp;~\x83\xdd\xc7N\x10F\x07\xac\xe4\xfd(L\x1d\x83\xccj\x1b\x12t-\xaa\x992\x14\xdfM\xe3\xe3\xa5\xd4\xed\xe7/J\x0fk\xf2\xde\xc8\xc7,\xedr=\x1eE\x90\xea\xb4\x86f-\xa1c\xd7N~\xe7kR\x06\xe2\xd1\x0e:k\x01\x96\xf1e\xcd\xcaiv\x81\x0e\xae\x98VW\x01\xce:\xa7\xd7\xb6ZOK\x9c\xfd\xc4\x1d\x91\xf9\xa99\xce\x9fE\x02\xca%\xeex\x1b\xaa\xdcR\xb5m\xd0\x82\xb39d\xc6\xfc$\xff\x00\xd3Y\xbe]Yfy\xf4\xb7\xce[\x11)\xb9\xc3\xb7efx\xc9\x17\nq\x89D\x15\xf1w\xf1\xcamUjv\x88\xc4\x04\x1b\x19Wl\xd8\x82\x8f\xad\x0e0_\x95\r\xdd\x0b&lt;~\x95\x1f\x06\xd25\xe8)YO27W\xd1\x8e\x8d3\x7f1\xcf\xd7\xf3u\xabu\xc1y]\x0ec\x97\xda\'s\x96\xde\x8fI\xd1\x89\xf3IP -\x87O\xe72\xd4\xdbM\x1a]X\xd3\xf7%&amp;\xea\xe7\x8b\x7f\xcd\xfa*\xe3u\xd3z\r\x9fX\xc3X\xf0\xbaTFi\xa8\xb8@\xad\xe5he\x86\xc1\x8c1\xcd(\xd7\xb7\x90\xeb\x03\xde\xe6\xb9@\xe6\x05\xcc7\xf0\xa5\xe0\xd5Ib/\xb2\x98iff1\xb1\xa3XR\xdb\x0c\xcc\xf6B\x9a\x98\x173\xda\x1bP\xec\x1e\xd3\xbf&gt;\x8fPl\xa6\xcc\xe2\xec\xe0\x1f\xba\x87,\xa5C.\x8c\xa6\xb9\xa4\xd6;\xdc\xbd\x1a\xd7\xf3\xe4\xf4M\xa6\x08\xc3\x0eZ\xec\x80,\xbe\x83\xcbBC\xcc\xd1\xd6,\xb9\x1d\x93\xce\xfa\xaf\xa2)U\xec\xff\x00\x1e\xb2m\xd0\xec-Ifz\xdef\xc3\x8b6\xc3\x92\xab\x1d\xb6UW\xaa\x1c\xc9\xef2GM\xa7\xd7t\xf2\xb9=\xebAh\x91\xaa\xc4\xb2\xe9\x87p\xc4.=\x1ee\xca\x92_%b\xaf\xe0+\xa9\x07\xcf\xd03\xbb\xa6\xfe~\xd6\n\xees+0\x84 \xdem#)w\xaak\xd7\xc2\xb4\xe3\x9a\x117:\xd6+\xca&lt;\xb6SQz\x19\x8e\x95\xa7*I\x02U\x0c\x0c\xac\xf3:\xc2\x99\x91\x81\xfa \x0e]\x18?v\xec\xc3b\x04=\x0eGC$\x85E\x9b(\x13\x05Gd~\xd7\xac\xfc\xf9\xeef\xbd\xe4\x0e}\xb1\xf3z\x92\xab\xfc\xf5\x06)C\xd5s.\xe7*\x1b\xcd9\xb1\x04&amp;\x02\x96aa\x80\xdb\x97+\xf3Yq\x05\xf6\xae3j5\xe1\xba\xb9\xa2\'\xd2\xba\xd9\xeer\xf1\xedOS\xf5[\x94\xb8\xfc\xce\xdb\xac\xdab\xbf0\x1a\xee\xb1\x97\xb7\x0c\xa39\xca3\xf4\xb4(\x80\xeeE\x96\x91\xebg\xb8g\x9e\xd9-\x91B\xc4H&amp;\xd3LI\xec\xca\x95\xbd_H\xc8\xc5\xb4+\xabM&gt;W\xcb\x0eU\x0c;\xbc\xf4\xdcd\xf1|\xba\xb6k?&gt;hY\x9b\xa7O\xa1\x93\xc8\xed;\x0e\xd20\x16\tS\xd5\x82o\x00\xd0\xf8\x87.\xd1\xb3|\xd7\xf4\xa5\xad\xe2\xb0I\xfaO\x17\x1e\xb1p\xa1g\xdfK\x80\x16O\x0b\xd3\x98l4\x90\x82\xb5\xca!\xa4n\xbc\x96\x98\xdf\x11\xf4\t\xe2\xabL;(\xf0\xb0\\7\xb73&amp;d\xd7\xc7\xbdr\x02\xf9\xd6\xc5M\xf7c\x05\x8d\x97+\xb66g\xa9\xea!\xd0\xaa1\x0b\xa5\xe1\xd8\x9e23\x96\x10h4}\'\xa6\xfc\xb3\xb6\x16{\xac\xd06^~\xef\x97\xa9\xb7\x9c\xeb\xa5\x8ed\xa0\x84*\xc9X\x82&amp;\xae\xc1\x02\x8c\x92\t\x15\xe3q\x8e\xa3#p\x01\x99\xd2G\xfa\x9bg\xb9w*\xb6c\xd1k\xa6O`\xc7\x19\x9c\xc1\x9e\xb7&gt;IjE\x8d\x0c,r\xd9e\xc5\xa7 \xce&gt;\xa4\xa8=8E\xab\xd4\xd3\x9a\xa8\xaa1\xec\xce+\x7f\xcd,\xf5W\xd05\xc7\xb6b\xceE\x99\x03\xb2\xa4r/\x06\xfe\x97\xd1&gt;r-\xcc\xd3\xa2\xd9\xa1/\xc4\xf4\xc1|\xff\x00\xf4\x1dk\xd2e\xad]\xe8\xe8\xeb\xe7\xd7^\xcd\x9dCtK\x86\x1a{\x1e\xef\xa6\xe9\xed\x8a\x00\xca\xee\xd9\xd1\'\'@\x8dH&amp;%\xbe\xb7\xd7\xb9\x9b!\xaaW\x86\xc5\xfc\xc9u\xf9\x87\xa5\x90\xa0\xde\x9d\xecs\xc2^\xe8p \xfde\xf3&amp;\xa5\x94\xe3\xd9\r\x0f\xc7\xe8\xe1B\xba\x9a\x19\xd7\xba\x89\xbc\xef\xb3.\xa2F\xd7c\xca\xf4\xcc\xe2lT\x90M\xbf\t\x18\xb1\xfaC?\xe9?\x98\xf7&lt;\xfa4Rc\\\xf4\xde\x1en9\xac\xe4xzy\x90\xd2|\xe6\xf7 \xael\xf1+\x08\xea\x92n\xcf\x083\x12H6Z\x9b\x0bm\xd4tH\xb9v6\xc3\xec1{u\x8a\x88W\x9e\xfcFlb\xdd\xce\\q\xd2#\xd8\xf1(QR\x16\x9e\r\x91\x1d\xc6\x94\xf7\x10\xdc\x89V\xcf\xa11\xebq\x04\xdd\x13\x0c\x97\x8bD\xbc\xb2\xe5\x9f\xe9\x02\x8f\x0c0K\xae4\x8f4\x1c\xf3m\xcayQ\xfb/\xe8\\Xc\x99\xdby\xa7\x96\x02nZa \xb3\x9d\xbdf\xdaNm"AM\x06\xd1\x8b\xf4\x96A\xf5\x0cM\xc8\xa5)\xfeoJ\xc0\x18@\xbc\xfa,\xff\x00\x17\xfd\xaf\x92k\xc3\xf2\x94\x88\x85:x\xe7\xde\xaarpl\xbd\xd9\x80YA8\x80\xcd5\rf]\xdb,6V\xaf\x98O#\x99\xbb\x8f]\x85\xe6v\xc2\xce\xacU\xbfM\xcb\x1e""\xf5\xe7\xb9\xcd\x0cI\x060\x95d\x8a\xcfT\x93Q\xac\xe0\xed\xd4\xe7g\xf6~\xdf\x12\xf4R\x9b\xbb`\xd7{|\x92\xfc\xee\xd0\xe1/X\xd6\xa9\xf3\x18G"\xfa\xbe\x1c\xe6\xa3\xb6\xc5\xca\x8c\x8e\xc9t\x18X"\xdb\xc6Y\xf3\x91\xd7b(\n\xc5\xa2f\x1f_\xa3V\x05b\xfb\x18\xde\xac?\x0f\xe3\x9ft\xe0&lt;\xce\xe7\xcfM\x13\x17\xd2\xe3\xa6D]V\xc2\x99\xba?JQ\x12\x07X\x1e\xe5\x19\x9f\\\x1e7s\t\x02\xe07U\x10P \xbb\x9cbK\x94\xeb\x91\xbdW&amp;\x03\x8dU\xcb\x8c\xf4\xc0h\xc9&gt;\xd9\x11\xa1p\xb4\x1c\xbf\x1bh%#N\xe9\xf3\x83\xb2\x94\xb4\x14\xdf\xbb#=Z\x00\x9a\x84d4/Y\xab\x9a}\xcb8Kp\x8c\xbb\xc0\xd7\xbc;O8\xcb\xa76^wS,;\xa0\xc6\xe6\xed\xf9\xe2\x9d\xf5f\r\xbb\x9dJiH\xeb`w\xad;Rp\xe3`\xaa\xf5\xec\xbfe\xcb\xf3n\x04\x89.\xe9\xc4\xcd\x82\xb91n\xb3E\xb6\xaf6\xcd\x06\xed\\\x19\xb3\x99rj\xa2O\x9f\xb9C\xfc\x1b\x16\xcbQ\xdc\xe8\x833\xfc\xdbr\xd3\x03\xf5p\xd4\xc3\xdd\x18[\xac\x07s\xcb\xb8*\x80\r\xd0\xeb\xd8H\x9c!/\xce\xaeB\x8e\xec\xff\x00h3d\xc9\xbc\x8fg2\x1cB\xef\xe9\xb9Y\xd5\xc3\xe8\x0b.\x9c\xff\x006\xd4\xfe\xb9~\xa7\xc2\xc4~\xa7\xf9\xdf#\xe7C\\\x8c\xfd##/\xcfz&gt;\x16M\xf4\xd5\x01\xbcz5\xc7q\xe2\xdc\x9d\xba\x06?\xa3d\x19\x99\xf3te\xf3\xbf\xcc\xecy\r]r\xc0\x0c\xa5\xc7\xe0\xad\x92\x07\xbc\xdb\x158\xb8\x8a\xab5\xf5\xef\xc8_m-\xfb\x04[7ua\xa5\xcd\xb4{3\xbe\x14\xc4&gt;\xea\xf9\x15z\xaa\xdb\x9e\x13u\xd3\x92}\x02\xd9@I\xcd\x1cB]\x93\xf6\x1aE\xbcex\xccy\xa3"U\xac\xf5\xc3\xb6\xf8\xc7\x1a\x0f\xa5\x96\xea\xe4y\xbeU\x91\xd1`o\xc44/\xae\xfez\xbcU\xeeyA\x0f\x9e\xee\xb20\xf0\x1bYr4\xc5\x18BT\xa6\xe4\xe1@\xce)\xcd\x0c \xde\x80\xb5\xe8X\xf7\xd0P&amp;o\x16\x1bH\xcc\xfe\x85z\xf9\xee\xc4-\xb3#{\x83\xde\xd3N\xe4ob\xd7\xa1\xe4\xd6P\x8b\x1c\x91\x07\xab\xbe\xa3\x80\xb9\x10\xdf`\x14\x17\xf4T\x8b\x18\xb3\x03\xc6K\xef0*\xc4\xf4"\xbbc\xd3\xf3\x8c\xbaj\x92z\x0bJ/\x13@\x16\x0b\x9e\x0f\xb2\x17~\x92\x1e\xd5\x8bUI\x82\x00\xe0I\x88\x98[\x16rmX\xd3RZx\xf1\xca&lt;\xed\xf1\xaf\xabK#H\xc5r!\x9c\xd1\t\xe2\x7f\xd5\xdf\x1c\xfdS\xf2k\x95g\xfaK\xe7\xbd\x97fb1XQ.Lz\xa4U\x95\xa4\x00\xdcW;\x90\x9a\xaa\xd7\xa6\xd0{3\x11\xa9\x1fT/\x1f\xd7w\xe5\xefc\xfa\xe3\xc1I\xcf\xab\xf9B\x16\xcd\x97\xe7`dY\x89\x10\xd2\xdf\xb3C\x1b\x04\xdd\x82\x18\xc0\xccX \\\x1a\xe2\xbdp\xbf\xe9O\xe6}\xfc\xd7\xfa2\xaf\x96\xec\x84\x1b\xe8\xbf\x8b\xb2\xd2\xbd/\x19}\x04q\xadu\xab\xfaN5J\xe9O\xcc\xcf:9\xbb\x19\xf6\x9c\xfd\x14Z=\\E\x92\x08x\x17\xc8=,T\xafM\x83\x9fJ\x1cK+&gt;\xcf\x81\xb3T\xbc^\x06\x05r\xed\x91s\xc9\xc3v/\x9f\xb4\xfc_;YKi1s\xa8\xe4\xaf#\x9e\xa2\xef\xb8\x8a\xb3\xe3\x1f\xf6\xf5"\\b%S$W\\*9\xa5f\x17nf\xe0q\x0e\x03\xe6\xea#(1\\\xaf.\xe4\x97q?.\xa4\xeby_w\x9a\xc5\x9c&gt;\xbc\xe4^D\x98\xa4s\xb5B\xb2A\x96\xb6\xd7\xeb\xaa*\xf4\xcf9Wov;\x148\xf1\xbax\x8d\xb7\xc8\x1c\x8e\xd1\'c)\xd9\x1f@V\xe8\x1d`i&lt;\xda\x0c\xbd\x9eV\xf6\xe5\xdb=\x8a\xbeu\xb1\x03\xa7X\xd0\xdat\xd1\xad\xabB\xe7\x06\xb5Z\xb4`s+\x9c\x8d\xdb&gt;\t\\o\xd0\xf1\xec\xda\x0e(\x93\x1f\xa2c|\xfdd\x0b\xd7\xa4P\xe6gez$4\xd3\xd0R3\xcau\x9b?\xb2\x8d\xce\xd0\xbb\x06)#\xaf\xcc\xfa\x1f\xb8&amp;\xeb\xa9\x16\xfdx\xf4\x13\x94\xbf\x957\xcf\x96\xc6\x8f\xb9\nH\\\x10l\xad\rc\xcaT\xa4\x1d\x8foYf"\xfe\x88z\x8b\x01+\xf4(3\x1cY\xc3\xf5\'\xa8\x8bP\\e)\xa2\xa3\xa5\xcc5[\xb0sz\xf6*}\xfa\xa2(\xaa\xc4\'\x13FX\xbd}\xd9r\xac\x91%\x01\xf0n\xa7W\xf4\\\x1ajm\x90\xc1\x95\xa0\xe7W\x93J4\xcc\xe9(kQ\x0fL\xb3\x11\xf4&amp;1oE\x89\xcdt0\xeau-S8C\no9$\x14\x90\x1fS\x8d\xc8\x8f\n\xcfc\xa5Z\x86,;\xac\xb4 \xc2\'\x7feF\x17\xf7\x97\xcaX\xfa@+v\xe0|\xe7\x83\x9cL\xc2\x1f-\xb3\xc8\xc3\xaf*\xa0\xda\xea\xbe\x8b\x8b\xcd\x02\x83x~\x18r+\xa8\x13\xb2*\xbd\xe50\xccp\xcd]\x1d\x9dS%+@\x86v\x9f\xdb\xe5\xb8F\x951\x1at\x86$\xe8&lt;&gt;\xd6U\x0bt\x9f\xaf6\x07;\xe8B\x80_+\xbd\xf4.\x1f\xaf\x9d\xe2\x9a\x1d\x81:rJV\xf9\x8b\xe6~I\x1c\xa3\x060v,oYDMZx\xfc\xbai~\xea\xbb\xdc\x9e\xa1H\xba\xe7Y\xed]\x9e\xcbL\xb1c\xd7\\C\x0e9O&lt;%5\x16\xca] Y4\x94b\xc0\xad\x1ce}\x9fs\xc6\xb5]!\x8caZ\x06`\x82 \xdc\xc9\xf2\xaakk\xcac\xd2cl\x01\x04iR\xea\x19\xb6M\n:!\x19\xf8\xa2\xd0\x96\x18\xa9\xf7\xc5\x9e\x8e\xe4\xa8\x1d\x1cD\xa34\x9b\xa6\xf5|\x9b_\xcf\xaeh{DQ\xbc\xee\xbf\xa1\r\xd1\x9e\x94F\\,\xba9x\x9d\xa55\x02\xeb\x07\x07\xf49\x82&lt;}\xfb\x80\x86\xd8\xd9\x1b\x02\xcd\x8a\x9b\x9bT\xf0\xc1\xa5%\xfcK\xf1D\x9a\xf4x\xa6\xb3\xf1"M[\x03-\x86\xce\x88DR\xaa"!\x08\xb2\xdc0\x00\xad\x11\xe7\x80\xcc\x19\x063\xf0X?y\xbbF\xca\xcc\x90\xe1\x1d_\x06\xba-\xd1 \x1b\x93V\x0f\x83\x8b\xce\xea\xcdKK`\xef3\xb1\x9b\n`\x01\x93a\x1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495579-sergio-massa-anuncio-un-dolar-diferencial-y-creditos-para-la</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>La "visión correcta" de Economía</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Informe de economistas bonaerenses sobre la gestión de Massa</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Destacaron la importancia de "equilibrar al sector externo" y priorizar Vaca Muerta. Preocupación por el saldo comercial. </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Economistas bonaerenses del Frente de Todos destacaron la "visión correcta" del actual equipo económico al priorizar la búsqueda de "equilibrar al sector externo" y aseguraron que con el crecimiento del transporte de gas desde Vaca Muerta "la energía se encamina a dejar de ser una restricción para el desarrollo".Los economistas, coordinados por el exsecretario de Comercio Interior Roberto Feletti, expresaron por otro lado "preocupación por el angostamiento del saldo positivo del balance comercial en lo que va de 2022". En su balance de las últimas medidas, resaltaron que la conducción del Palacio de Hacienda "tiene una visión correcta sobre la trascendencia de equilibrar al sector externo como factor decisivo para el esquema de política económica".Las conclusiones forman parte de un informe de coyuntura realizado por un equipo encabezado por Feletti e integrado por el ex subsecretario de Políticas para el Mercado Interno de la Secretaría de Comercio Interior Antonio Mezmezian; el ex director Nacional de Programación Económica del Ministerio de Economía Horacio Rovelli, entre otros especialistas. En la elaboración del documento trabajaron también los economistas Érica Pinto; Fabiola Vela Velázquez; Diego Perrella; Diego Rozengardt; Graciela Tilca y Delfina Salerno.En un análisis retrospectivo, lamentaron también que "en el bienio 2020/2021 el excedente de la balanza comercial y el aporte no condicionado de Derechos Especiales de Giro efectivizado por el FMI no se reflejó en el nivel de reservas".En esa línea, advirtieron que en ese tramo de la gestión del FdT "el abultado superávit comercial no se reflejó en el incremento de las reservas internacionales y la reestructuración de la deuda con el sector privado no se tradujo en una baja del riesgo país".En contraste con esas observaciones, destacaron que el equipo económico que encabeza Sergio Massa tiene "una visión correcta" de la "trascendencia de equilibrar al sector externo como decisivo para el esquema de política económica", y pusieron de relieve que "la suba de precios internacionales ha definido la existencia de tres sectores extractivos beneficiarios de renta extraordinaria: el sector agropecuario, el energético y el minero".Al referirse a la producción de energía, indicaron que "sobre todo a partir de la explotación del yacimiento de gas y petróleo no convencional de Vaca Muerta, apunta a dejar atrás un límite histórico para el desenvolvimiento de la economía argentina".En ese sentido, resaltaron que "la energía se encamina a dejar de ser una restricción para el desarrollo y convertirse en un vector de competitividad estable para el país", con una "perspectiva de una oferta abundante y competitiva" que deja abierta "la posibilidad de consolidar un sector proveedor de divisas aún mayor que el agro, alterando una hegemonía política y económica de un siglo y medio de este último"."La disponibilidad de gas desde Vaca Muerta sólo encuentra límites en la capacidad de transporte, pues las redes de ductos están funcionando a tope", advirtieron, al tiempo que señalaron que "para superar ese cuello de botella se está llevando adelante el programa Transport.Ar en el que su primera etapa será el gasoducto Presidente Néstor Kirchner, que irá desde Tratayén a Salliqueló a través de 536 kilómetros, sobre lo cual se realizarán luego obras ampliatorias y complementarias".Al profundizar sobre los condicionamientos que afectan hoy a la economía, advirtieron que "la aceleración del crecimiento del monto de compras externas ocurrido en 2022 reduce el excedente comercial a una quinta parte del promedio alcanzado en igual período de los dos años previos".Y en la misma línea precisaron que mientras "las exportaciones crecen un 59,2 por ciento en el ciclo analizado, las importaciones lo hacen en un 112,7, con singular rapidez en el corriente año".</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x02\x03\x04\x06\x07\x01\x08\x00\t\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x00\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xa8\xaf\xe5\'l\x89LMev\xc0\x0c\xb5\xe7{\xbb\xe5\xe5Bj\x17,\xebC\x92\xfc\xd0J~\x1aG\xd9\x13\xe4jM\xe6\x0b\xdbINr\xf6\xd7\xf4\xd0\x9c\xda\xf2\xd56\x18&amp;r\x1b\xac"\xd5\x16%\x94\x8fE\x16-\x8a$j\x10u\xa0xz\t\'\xfa\xf0~)\xf8\xf1\xb0\x04\x18k\x10\x82m"Zt\xfbp\x0bi\xdb\xb6W\xac\xe5&gt;\x07\xd1eqJ7\xef\xfc\xe8\x892\\+\xd4r!\xd2\xe4Dzt\x93\xf7l\x0c\xb7|i\xca\xefW%4\x83\x16B\xb3\x96&gt;o?K\xfa=\x0bLG\xadT\xb4*/W\'M\x86\xe3\t\x11FZ8\xba\xc8\xb1 R4\xadHu\xc6\xb1\x89E/MJ\x9c\xd23)\x84S\xfenm\x14\xc1@P\x9dnwL\xca\xcfn}r\xd9\x9cXp\xbd3T\xaeml\xa8\xd7\x87\x9d\x1a\xacr\xa8\x94\x13_\'\xa6Rb\xed\xe6f&gt;\x12e\xc42\xcbT\x00%\x08V\xf9\x1c\xc9+\x8e\xe6\x03 &lt;\xc0^\xcc4@\xde\x00\xa6\xc3\xe2\xd4i\x8d\xe26L\xa5\xe021n\x86\x86\x89\x92\xf1\xa3\x11%Y@j\xb4\xc7T\xd2!\xbe\xd4o\xe97\x87\x15\x9fR\xa6\xb10\xb3\xf2\x9a\x92\xc0\xc1\xca\xd1\xd7\x91\xbdk\x19\xb5i\\3\x9dV\xb0g\x9fM\xbc\x11#6wL\x91\x86b\xe6\xaa\xd89k5\x1f?\xd0o\xf5\x1c\x99\xa7m\x07c\xf2\xb99\xb7\xa2z\xa9\xa4\xd5a\x9e\xa3\xf2t\x95\x8dTnO&lt;L!t\x9e\x96\xddi\xce~\x82\xb1"\xadO\xc2\xca@)U\xb4W\xec\x8e\xbb\x9e[\xaed~\'\xbd\x9d5\xf7\xde\xdf\xcf\xb4\xc4\xaf\x99F\x1b\x16e\x94_P\xc4\xdc\x8cN\x96\x14\xa2\x93J\xed\x04L\xf8\xa9A\xcb\x903?,\x95\xa9m=\x1b$\xd82\x9e\x9ew\xe6p\x89Z\xbd\xae\xa5\x1f\x87\xb2\xd1l\xa7\xee\x80\x16\x02O2GsCU\xe6V\xf3Qz\xccj4\x89\xd0\x80Ze\x9e\x88R\xdc\xa5t\xc0\x97\xa4$G\n\xa4\xba\xdb\x01V\x0bQe},,\xaa\x18\x1fk\x95\x89=\xef\xcf\x9e\x84\xda\xdc\xd2\xb9TO\x02!\xa7\n\x1b\x9fh\xb4\xc4\xf8\xc4\xc4vi\xa2i\x13\xfe\x02\x14\xa4f\xd2i\x15\x12\x1a\xc6*^F&amp;\xa0G\x9cH\xb7H\xd5\xd1\x89\x07\x8c@j\xe4\x03\x83\xd4\n\\\x94\x8dU\x90\xeb\xbc\xfd:\xe4xL/E\x99\xfa\x9d\x85\xb3\x91,\x12K\x05\xb5\xc88U\xfb$B\xbav\xd4\xce,$6\t\xbe\xe1D\xb5\x1e\x83\xb5\x0b\x12\x1d\x99P\xcbf\x1b\x94X\x81\x8f\x0c\x18_\xcc0\xbb\xd2\xda\x16-\xa8X\xdek\xfd2\x05L%\x94\x0f\x0fmN\xb5t\x057C\x04\xc9!\xa0\xc3\xd4\x06\x8d\x9er\xff\x00\x1e\x93\xcc\x89\xc3.\xc9\xe9\x1c\x83_\xc5\xbcok?p[\x9e\xc7\x8cA\xa6N\xa9v\x01R\xa1\xe9\xd2\x8b\x05\x0cW\xea\xf0\xf1\x8b\x03A\xe6Q\x92]\x1e\xd1\xb1D\x86\xc3,\xb9\x80\xacu]*\xb5\x0e\xb5\xdb\xe7\xdb\x11A\xb2\x83Hl\x85\xe3\xcd\xf4\xec:b\xab)\xab\xe4j\xbe\x9d\x8d\x9c\xc9\xb6\xdf\x1f\xa5\x06@j\xb9\xd4%,Q\xeb\xf1\x9c\xd1`]\x10\x14\xab\x89\xcaXY\x9d\xac\xdb\x1de\xdaD\xd5\xe5t\x11\xa9\x1a\xb4\x01\x8f\x95\x1c\x8f\xb7,\x03^a\xb1\xc4\x83"\xdc\xe2\xdejKL|gH\x8c"\xd4\xa1\x05\xca\x03\x9c=\x85f\x1d\xba\xa6\xb2fTYy\xdb{\xe3M@S\x8b\xd4q+V\x8c\xca\xeeF\x90\x9c\x13\xf3M\xab\xacI\xfa\xe8\x1dJ\xf8\x1a\xa02\xe0/\x8b\xb7nDF\xd6\xb2\x97\x06K\xe3r+F3\x19=R|\x8dL\xceG=\xa3\xad\xcb\xc6\x1b\xc9\xac\xc1\xc9\x90\xc3U\xc3lxK\xc8s\xc2\x1d\xb0z\x1b\x0b\x9d8\xdf\xcc\xaa\xc8\x9a6rR\xe3\xbdy[\xd2\xd7[1 e(\xa4\xc4g\xd7\t\x9c\xb8]\xc6\xb7\xc3\xd8\x15\x99\xc6\xc6\xaav\xe9\xc4\xad\x11\x1a\x13\x8f&lt;\xb1\xed\x10\x12\x9d\xf3\x1e\xd9s\xdf\x17\xdc\xc6\x9e:+\xda\xf0\xd2f\xbd?+\xf5\xfbD-\xa9\x92\xa7\xc7y\xc5\xea\xdd\x1a/\xc5d0\x18\xfb\xa9\xc0{Gu\xac0\xa2z\xc6qY\x9e\xac]+\xfd|t\xfd\x1a\x9d{V\xab\xec\xd5\xed\x1f\xce\xee\x17\x8e\\s\xb2\x84u\x8cM\xfb\xc7M\xc5\xcf6\xfa\xaa\xdd\xaeC\n\xde\x8c\xccnk\\ja\xa034\xc9Gz\xf9"OO\xca\xdfER\x08a\xe8\xe2\xd1\xc7C\xe8\xe5szvA\xa5\x81\xb7\xc9\x87+\xa3\x94Q\x87\xdf%\xb8\xed\xf1\x846\xddd\x88o\xaep\xdc\xce\xb4j\x81\x98\x8bS\xd0\xd6\xa4AD\x89\x9f\x83\x1d\x8aDx\xaf&gt;\x00\xdf\x88&lt;\x08\xb7\x08\xa8Q\x9a\xbe\x88&lt;\x1a\xe9P\xe2\x00\x8c\x16e;\x8f\xb7cd\xfb\xa1\xaa\t\xbb&gt;\xc6\x86\x9d\x05y\xb3\x99V\xc2%j%\xefv\xe3\xb2b\xfa\x91b\x99\x0b\xba\xe5U\x93\xce\x95k\x9ekyKfE\x9c=A\xa4@\x93\x13X\xe60.\xd8\xb5\x86\xb0m\xdeu\xd7\xda{+ql}\t\x9d3t*\x86\x85\x16\xe7M\xe3\xe8\xad\x1a\xae*OiE~*R\xd1\xca\xb9L\r}\x7f\xfa\xfc\xe7\xb3\xdd\x12\x9b\xe6\xfa\x99\x8atG~\x8f\xe5hfOD\xe7\xec\n\xd1\xa8\xe3AY\x08\xb4\x9a[\xeb[u\xbe\x8e"S\xf5.\xb2Z\xecY,I\xdb\xd9&gt;u9d\xe5\xe8\xcc\x85\xdd\xa9}\x9c\xa0\xb4JU\xcb.\x8fZ\xfa\xb5\xe6\xfa\x03\x83\xebx\x85\xa71\x9a\xa8j\xad\xd5\xba\x13\xf9t+\x8eY\xaaM\xda\xcb\x8c\xa1(\x10\x93E]^\x10\xe0\x90\xf1\x9e\x87c\xa4XJ\xe3)\xeb\xa3\xde*\xcdt\xd8W\xc4\xf4\x1ae\xb5)\xe9\x87b\xbf\xd7\xc8\x06k\x04\x0c\xd8\x05b\x1ew\'1&lt;\x91\x04e\x84\x1b\xb5r\xa0\x04\xb8Xl\xc3F\xc3N\x8b\x8cq\xe5S\x88\xb6m\xb1q\xaf\x10\xb3\x8cW\x9f\x06\x04lb\x840&lt;+,q \xd7\xe9\xf7q\xfc]\xda\xaa\xa1\xf1L\xce\xfc\x8c\xee\xba\x1d\x1b\x1a\nVNh\xba\x1d^\xfb\xb3\xf6\x18\xf3\x8c\xa6\n\x9f@y\xf9\xa6\xac@\x17lOEn/\x1f\xab-\xc7\xc7i\\\xe2+\xad\x06\x9b$\xd7?\xa1Z\x81m\x05Nh\xf6*\xbb]\x1c;\x1e\xb7\xe4\x9d5\x07\xaej\x14}#\x9c\xe5\xa2\xadt\xe9v\x95a\xc8\xca\xec\xcc\x19cyY\xc5#7\xa4\xf7L\x87G\xa1y^\xcd(\xa2\\\xf5&lt;\xa5\xca\x80\xe2\x15\x0fP\x16\x99\xf4\x80tij\x1f&lt;\x8d\x12\xafi\xa4\xf4\xf3\n\x8e]\x88\xda\x18\xf9\xc3\xd6\x91\xae\x03\xec\xca\xd3\x84\x95\x1f\xd3\xcb\x18\xc8\xc9T\xe7\xed*\xc7U\x95\x89\x02\xb3\xd6Q\xc3C$\xdb\xa4\x12\xdc\x0c\xda\xc20t\xb0a\xde)\xf6\xecg\xa6\x97bJI\x051\xf1\x88\x8e0;\x08r\xa1\xdc\xeb+Y\xab\xfbP\xb7\x95A\xde\x04:\xa9\\\x0e\xb4\xf5\xf4\xe1\xf3\xbd\x1e\x08\xad\xb6\xb2\xb0\x96L(\x05\xc5\x07\xe8\x11\xd4\xb6r\x10\xa9XF\x95m.\xa8\xb4hvR"\xd5+\x0b\xc1\xcb\xcc\xab\x8ed\x03\xac\'\xad\x9e\x15"\x08,\xf5`\x97*1O\x80\xa9\x88\xb3\xd29;61\xf6\xa6d\xf5\xab \xa9\x04\x99\x98\x00\xe4zY\x8ay\xe9\xd0E\x87\xa6\x88\x97c\xae\xcd\xb79\xcc\x13x\xf3\x1d\xf9\xea\x94\xcb\xe5V\xcf\t&amp;\x9c\xe3\xf4\xa0\x11ID\xa0"\xfcE\xf8\x9cS\x89\xe2\xf5\x1fi\xe8\xc5\xea\x90\x8a\x00\xee\xf0\x1es\xef\x9f\x96\xd9\xa8\xe2\xa4`=[\x9f\xd75\xbef\xa9\xa2\xe8\x06\xfd t\xdc\xec\xcb\xa5\xcf\x16\xb6\xd4\xd9t\x1a\x84F|\xff\x00HG\xd3\x9d\xeb\xe3\x892#\xaa\xcd\x0c\x9d\x04\xa4&amp;\t\xc6e\x152Q\xb0lt[\xf6mX;\n`\x8bN\xc8\xd1 \x9c\xfd\x92\x85\xc5i\x92\xee\xe8\x19\xef\x10dj\x07\x9e$\t\x1a\xf4\x12\x1f&gt;\x89\xf6B\xa6\xfe\n\xaf{\xcb\x13\xc3\xcc#4:\xa50\xf3\x1fHJ\xf2\xd9B\xba\xe5\xa9N\x89%\x8a\x8d\xd7y7\xbeDy\xf0j\x05\xa1\xa5\xe7\xe9\x89\xd4\x18\x92\xae}M\xb0\xd3]N\x04\x96&lt;\x9f^\x9e\xac\x99\xed\xe4\x902\'L\\\x12F\x16\x9cg8\xacU\xd9s\x18\xc6\xad\xde\xeb`F\xb2U\xf8\\\xa5zDr\xd1\xe3\xc8\x824?\x94\x8cP\xc1\xe1X\x8f`\x9c\x15$+\x96v\x01\xaeD\xd1c\rV\xc9\xf5&lt;r7\xf4\x8a\xadn\xf2\xf4\xd6\x9e\xb5\xf0\x9a\x8b\xb7\x97\x15\xeb\x0f\x1eJ\xb0\xd3P\x19+w\x8c\x17,\xf4\xf8\xfd!\xe4rt\xd8\xda\x03\x08W\x1f\xa1!\xc8\xeeK\xa5\x93\x0cL\x14\x95Z6\xeb\xcd\x97\x800\xb8\xdch\xf1(\x84\xa9\xb0\xa3\xf4y\x93\xce\xd6\x1d~[K\xda^\x7f\x1d\xdd2\x88\xcaOp\x17F\xbd-+\x13ldg\xe8A\xa0\xfa\xa3\x0c\xe8\xe5\xa8\xb3`\xe4\xad]U\x81\x83\x88\x05u\x82\x8b\x86L\x1b#\xa2\x88\xc5i\xbcE\x0f+\xdc\xea\xd6z\xbb(\xaa&gt;\x91\x9f^\x05\x1e\xae\xc6\x95o\x0e\xd0\xb8\x06\xa2\xbaU\xfd\xd7\x1e01\x15\x9f\xa6\xfd3\xe0k\x84w\xb5\xbe\xf2+\x0c\xbe\x9d\xf3\x96\x7f^S\x1e\x13\xb0(\xce\x8d\xf9\xb5`\xc5@O\xd8\xdc\xfe&amp;V\x8f\t\xda\xb3.\xad\r\xf8h\xcfDT\'Q\xe3\xca:\xc8\xe5f\xd0%,\x96\x0e\xd5p\xf4\xdd\xcf?\xbe\xf7p\xb6\xd4\xb6t\x9a\x8eX\x965rGa3\xcb\x8b\x1a\x13e\xd4,\x80\xd2P\xc8\xc4\x98Y\xb8\x0e\xc0\xcd\xf3\x13%c^\x9d2Vn\xd5\xee\xc3\xc3\x84/\x08\x006\xbaY\x90 $T\xb8y$f\xbaEV\x1d;\x1b\xac\xc4\xe5\xe8,\x90\xfa\x01\x15!\xf2\xa1\x8a\x0c\x18z;nO\x9ek\xa0\x04\x0b$\x7f\xd1y\xa1\xa3\xc3c\x9a\xc2\xdde\x7f=\xec\xaaH\xc9\xd1\xe8IPSJ\x94r\x0c\xa9v\xc8\xcbt\xdc\xd3\xa3\xcc\x82\xe2&gt;\xeb\xf1\xbb\xf7\xca\xc2F\xe1\x85i\xf3\xbf\xa7]\x8d\x1b\x97\xaf4\xc4\xbdu\xf5#\xe2kg\xa6\x16\xc0%\xd02\xb9\xfa\x8b\xd3\x8b\x13\xbf-x=\xe4T\xba)\xb0t\x05aEE\xfa\x16\xd4\xc1\x97\x18\xac\x80\x1a\xb1$\xadU\x16\xc8eOD!\x0e\xd1\x13T\xb5\xc8i\xd3\xea\xfb^}*W\xde\xd1+\xd5Jv\xaf\x99\xeb\xa3cb\xedN\xd6Sg\x03~N\x88\xef\x82+\x1e\x04Hj\xdck\x89b\xbb5R\xd0\x8fY\x9d\x1a~\xc7\x1az\x12Q\x80e\x82\xba\xe9R\xeb\xe6fc\x07\xfaC\xadYR\xdaad\x06\xb9\x13\xa4\xb8V&gt;a\xab\xdes\xdd\x8f\xb7\x949.Cy\x9b\x03\'\x87F\x878Q^\xb5\xf7N@\x13!\x16m:\xd5\x805o\xeb\xbc]`\xc5\xc7\x85\xcdd\xafE\x89\x82\x97)\xb6Q\x90\xde\x88\x0c\xa1gE+\tn[y"V\xacu\xceN\xcdc\x84\x13\x1aC\xbe\xd3\xdf`\xf8\xb3\x12k\xa0\x18\xaf\x82\xf59\xef\x00\x80H\xf4c:\xa9c\x1f\xb5\x06\xa1\xa1\x81\xe2\xadd\x90\xc5sRga\'\xcb\xf4\xecA&amp;\xc4BnXB\xc9\xdb2\x89l\xa2\xd7\x8a7\xdf+\xab\xc7\xea\xbeso\xb6\\\x87\xd0iM\xe3\x85\xd3\xcd\xd2%D\x94\x8c\n\x19\xf8\x81\x93-S\x08\x13/\xae&lt;\xdb\tg\x1a@^\x17\xf9\\(\xdb\\\x1c*\x9c,\xc91\xd6Zn\xd50z\x10,\x02\xc9|gO%V\xa1y\xa4\xd2d\x9f\xa9\xa6U;\\\xac\x93e\x9b\xb3\xe1;q\x19|)5\x87\x9d\x80\x9cyR\xa0g\xd8q\xc5E\x85\xb0\x85-\xb6\xd9\xcb\xb4\xd4\xad\x8ac\xf1-\xabY\x16\xb9s\xa5d\x1d\xa2\xbf@j\xd1^\xb0L\x8bc\xe9dWc\xdek\x07\x1a\x93G\x85\x85\x98#\xe2\x88\xdd7\\\x0f\xd0\xfd\x9c\xed\xc7u\x9aIl-\xdc"\xb5?\xb9\xa2\xc6\xb0D\r\x02\xb7o\xa2i\xd8~\xaa\x9b\xc5\x88$Xfg\xe79\x9a\x0bsd\x00\x0f\xa6\x06\x92+\xe9\x9c\r\x1c\x01\xf0+\x9d\r(\xaeP\x14\x9d\x9f\x1b\xe6\xea\xde{9|]Q\x1c\x95F\xec\x99 b\x93\xf4\x1cR\x9d\x1d2\x93)*\x0f\xc4\x90b\x1a\x08%S \x94jE[R\xa2\xf1Pl),\xf2Y\xc9\xf5\xc2&gt;\x7fD\x146\xc5\xb9\x1cSk(\xb5\xb6\xe9\xceKh\xbb\x86\xfd\'\x91\xfb\x01*r)\x19R5\xdf\xad.\rOj\xf4\xe6\xd4\x89wI%s\xa6\xf4\xf7\x98fi\xd5VFR\xfe\xa1\xf6\xd9\x97t\xcf\xb0\xc4~\xd2\x04\xb0ve\xaf\xe55\x9a\xee\x91\xc2(\x0b\xbe0Fy\xe5\xff\x00ay%\x92\x8f]+_Z\xa1\xf1&amp;\x86w`\xce4\xc23\xba\x85\xd77d\xd1\x18\x8c\xca\xb4v\xc9\x0f:\x9d\x04\x83H\xe3y=\x00@\xb1\x8e\x95\x8fP\xc1\x00g\xcf\x9d-(\x96\xe6\xf1\x18Q\xb7\x99\xcb"\xb7\x04k\xa4\x80V\n\xc3\x0b@\xa2m\xca\xe0\xd3:C\xcbH\xf4O\x99\xfd3\xd9\xce\xf8\xe3\x8c2\xb55\x91@O\x89\x05\xd6\x03eC\xe1\x04j\x16\xaa\x98V\x8a\x0e\x96\x03\xcc\xab\xe6\xacw\x9b\x99\x99\x87IN\xc4l2\xd1\x83\x0f\x8b:\xb5\x89\xf1\xd0E.\xedi|\xd2r\x8fu\xa6\xf3\xf5\xfa5\xf6jP\xb0\xdaT\x16\xbe\x8b\x90\xdcu\xd7\x0e\xb1\xcd\xad\xd9HW\xd0\xb8D\xf6\xe3\xa0\xac~|\x85j\xe9\xba\xe9(\xb4`Vx\t\xaa\xad\x11\x17\xc0g\x8b\x95\xf4Z:\xbe[\xa2\x9cC\xd8K\xbfS=\xc9f\xb5j\x8d7\x01+\xa3X\x18\xcf\xc1\x11\xb1\xef\xabQ6\xb8}Hk\x0b\xe7\xd9\xdcc\xb4\xd4em\xed\xa9#&amp;Y\x1a|,\xc3\xed\xadu\x115\xecv\x089\x8c2/\x10\xe80].\xa3\xe86\x10\xd0\xeb\x91\x9d"\x82\x1f\x8cN\x96\x06k\xf3\x08\xb5j\x99\xb6\x80\xf3\xaed\xbb~$\xa6\xc1!\xd6d\xf3\xc6\x11\x8dQU\xd0\xeb7\xeeZf#\rUH!\xd8$\xdf\x1b(&lt;\xa4\xeeB/\xc7\x8a\xc5\xa0\xdaj\x94\xe6M\xde\xb3`\x9d\xea\xc2l\x0c:\x87\x0f\xa4+\x08o\xce\x19\x1b\xd6Tl\xab\xcd\xdfI`[\xefT\x15\xd9\x8c\xd6R`Lc`$cN\xc8?\xe9\xf1\xcbK\xa3\xdd\xebYFK0X5t\x89X:\xbcLV1\x966\x1c\x0c\r\xba-\xd2~\x1f!\xc2\x01\xc244\x1a\xb4y\x8d"3S\xb9Uc\xd3\xec_$N\xcd\xfb\x92\xc6\xf4\x19\xfd\x99\xba\xe4\xa0\xdc\xfa\xf1`\x1d\x1b\xa4:\xf8\x82\x0cfE\x1b\x1c\x04\x8a\x95\\\xe7%\xa5\t0\x85o\x05\x96\xda\x10\xa3\x8e\xc4\x00]\xe0\xef;c\xbfz\xd6\xcd\r\xe2\xedO\xd5\x06%L\xd3O\x94?br@@ar\x166\xb7\x85\xef:\xc0*\xb4M\xb3\xea\x8c7\xdb!lD\x00&gt;\xc4M;\xe5Sr\xa8\x11\xce\xb2.\x90\xad\xacA\xe0F\xc4\x84$N\x9b\xd6\xe4\xb2\x86H\xd2\x04\x97\xc4=\x8cyd4Y\x8f\xb7yg\x0e\xdel\xa8\xd8[\xba\x14iQ\x17z\x9d\x97\xaf\x98\xd6\x1b\xbd\xe2\x08\xc4d\x0e\x9e\x0b\x82\xcb\xd7\xb1\x93\xa4\xe1\xd6\xe84J=\xba\xa2t\xf3\x10\xec\xb9\xc7@\xbbjX\x8e9\x99\x1f\xbc)\xc1\xec\x82o\xe7\xf2\xc9\x9a\xf3\x83\xd5\xb9Zr\x9d;\x0b\xfdZ\x9f\xc5k!\xfa]\xfd^@zCY4\xdd/&amp;\xd2\xba\xa4F\x1fU\xd1\x07\xe3\x1dl8\'\xc9\xb0G\xdc\x83\x18\xe34\x9b=O,Bb\xa7\xe0\xec^4[\x9d\x1e\xf8\xcd\xc3\x9d(\xe1O\x17,\x1e\x9f1\xe63D\x1d&gt;&gt;\xd4\xe6%\xc4Dv\xa7o\x07&gt;\x8c\xe5b\x8ev\xac\x99\xc0\x8d\xf4\x10l\xc5)\x01x\xabJ\x85\xd2%\xc8\x19j]T+\xf3\xa0\xc0\xe4\x0e&amp;\x8d"Lq\xa4\xd7\x8b\x0e]4s\xdc@p\x8dB\xd5-\'\xd2\xb8e\xd5\xb6\xd0\xdb\x92&lt;\xcb\xa2\x05\xfe!\x19\xcf/\xefc\x9e\xf9\x8bZ\xf3\xf5\xa5c\xf4\x89\x82*\xf1!\x90 \x0e}\x92\xfaX9\x18\xf1\xfc\xca\xca\xaf\xa1\xdb\xb1\xdd\xd5\xe5\x0e\x08x8]!V\xc4\x83ln\x81\rM\xec\x13\xc3\x11\x87\xb1\\\x85Y\xd8\xedy\xfd\xd8\x19\x01Y\xed\xa4\x02\xb7\xda\xbcnZ(\x94\xa8\xb8\xe89V\x8eF\x9f\x80\xfaS\xce\xfd\x10\x8ahu\xb5\x18@kue\x88S&amp;\x91\xce\xd4\xb1.)\xb5\x9bC\xc9-d\xe88\xe0\xeb3\xa8\xeb\xa5x\xf1\xc1\xa3\x9a\x8a\xfc\xc1\xfd\x19\xe7\xafR\xf3u\xc8\x13v\xa78\xb5E*\x19\x1d\x04$\xfc0\x1c+\xd0\xd8~\x14\xbfN\xf8s\xd8}R8\xd46\xe9#\x10^\xf9\x84g\xfa\xd1\t\x1eV\x06g\xab\x87\x84e\x17%\xa9\xa0D\x8b.&gt;\x7f\xa4\xfcK4~\x1c\xe65\xb3\xc8\x81\x88o\x9cB\xb2^\x1a4\xe9\x91)\xac*\xe8\x14c@\xc5p\xe3A\tX|l,\xab\x91\xa6\x83u\x01bn\x07\xb6\xb2\xc7;V|I)x`\xb0\x9cjE\xf8\xf2\x1d\xd9&lt;\x84C\n\xf9\x98\nP\xc3\x04uIi\xba\xb69Wa\xed\xe8\xe8\x0b\xe4u]\x86\x89\x1c\xc8\xa8@\xa8x\xe1\xfa\xee\x1b\xeaZN\xc9\x18$e&amp;\x93Z\x9a\xcbf(\x88\xec\xb4\xbc\x87\xd8\xb5\x074A9\x85\xfaUtu\xe2,\x8d*%\x97\xebJ\x9cbN\x98\xad\x9d\x95\x9cQZ\x9d\xd5\xc0e\xaf\\]\xb3:\x0b\xc3\xbd\r\xe6\x1c\xd0\xc8\x90\xb7\xf2\xfa\x142\xf6\xd7\x14J\xb4\xe3\xd7\x18u\xedx~\xbf\x91\xfa^\x13\'G:\xebx\x8a\x9b7\x0fN\x17^+_\xeb\x83\x84f\x1e\x1a\x8b\xa5\n\xd4\x0e\xc6\xe7M\xa66\xb18\xc1pfR4:%\xb8\xf6M\xeb\x06\xd3\xf8}\xdb]\x16\xf5H\xbf\x9b{(\x11q\xa1v\xe9\x81v\xd00#y\x06\x1a\x06\x97\xe6\xff\x00DuH\x833#\xf4BB&amp;s\x11\xea(\xfe"\x9e3\xf0`\x80n\xf5\xdd\xa9\xe6{ \xab\x0e\xd6\xdb\x0fkz\xbb\x18\xebH\x88!\xf6\x91\x12\x13\xb8J\x83\x00n\xcb\xe7$\xa9\xaf\xb3&gt;\x1eT\xb2B:[\x0e\x99\x19\xea\x99\xec|\xcd\xb2_fr\xeb4D\x9a\xeb\xd2+\xb2\xa3m+\xe9\x106m\x9e\xb8\x86#\xb2\xa1\x8c\xf0yr\xc0\x8e"TY\x82\xb6\xaaA\xc1\xb4\n\xb5\xecN\xdb\xa5\xc3\r\xf5\x87\x95\xd3\x95\xf0\xa4uJ\xee\x05\xbf\xf9]\xd5\xcfFc\x9b\x1b,He#m\x04\xa4\x166\xd2Fe\xc4p\xdc\x8bg\x82\x1c\x88\xa4\x17!\xe7w\xe9\x9e}\xacz\x19\x0c\xd9X\xc4\xeb\xf3j\x96\xdc/m\xbcr\xca\x1e\x8f\x9bj}f\xae\xbf\xd3\x1d\\\xc6wc\xe8\x8c\x1a\x16\xa3K\x8a\xe6A\xcd\xe7\xfe\x7f\xbcX\xf5h\xf2V\xd52\x99d\x8d7Vh\x17\x1fK\xc2+\x91h\xb8b\xd0\xc1A\xd24i\xd5K\rf\xa9?\x7f\xf3\x17\xa6\x01\xb2\xd3K\xde\xa6p\n\x1d\xf6\x8dM,\xfb\x10\x91\xb4\\\xa3p\xc3z8\x98\xbdRv\xe8\xf6\xc2\x15\xe9\xe8\xb90\xcbf\x8fe\xe7\xa6L~\xef\x0bl\xa7\'\xf4\x15\n=\xbe}\xf5w\x9f\xf7&gt;\x98\xde;\x147\x7f\x05\xad5Ne\xb2F\xaf\xa7c\x88\x18\xc1\xc5\xa2".\xcc=_.DX\x12~\xc6\x07L;\x9a\xb4\x9b\xc8\xd0i*\xb5@:\x10;,0\xc0\'q\xe0+c\n\x0fU\xe4\xf7\xdf\xd4\xf3\xbcYP\xdc\xd9\x864\x9e\x83\xf4\x88\xd2\xc1\xb0\xa2E~\xda\xc1\x0c\xb8\xb2\t\x8f\x9c(\xef\x9bu3)\x91\x1d\xf3\x98h\x926\x8a4\x9b\xf8U-\xc0G\xf2\x8b\xed\xf6\x89sl#\xdc\xfe\x1d5\xcbOIE\x8b3\x98\x07\xf1W\xb6\xfc+D\xf4\x0e\x93M\xbc2\xc4\x8b2#\x08\x91%D\xd9\x89p\xdfRo\x1c\xda\xfc\xed\xcf}\x0f%\x87v\x8d\x98%h\x0f\xd7\xcd\x98[\xa8\xa6\xf5+\xf7\xaa\xcdkO\xd9yU\x80R\xb4\xbb8Wo)\xd3\xeaI\xa4\xf4\xec\xebS\xcd\xc2\x1b\xf3/\xa9\xfc\xc5\xcb\xd9K\x91\x07\xe6[H\xe0\xd6MM\xd3E\xaaj&gt;\x9f\x9eQA;\x12\x13\x15\xf4\xd7\x9e\xf9\xab\x9f\x81\xb0\x01$n\xc9A\xb4I\xf5M\x8f5\xdf\xa2|c\x9bn\xb8\x1dE\xee\xbbp\xbf\xc6\xf1\xfc\xfd\xea\x7f,vy\xf3t\xd8\xc7#\xd5\xbf\xbd\x05n\xa2\xad\xb4Cq=\xa9\x8e\xab\xfb\xff\x002t%))Gw,7w\xf0\xbe\xa1\xe1s\xfe\xf4x!\xb6\xe4\xb2\x06\xbaBH#\xfe}\xf2\xc2\x90l&amp;\x15\xe2!\xac\x99;\x16W\rF\xbe]\xd0\xd18U\xb0\xc0\xda=\x03a\xc3lh\xda\x91.\xc9\x0c\x1a\xdf&amp;\xd7\xb69\x18I\xd0|\xac\xcb\x9f&gt;K\xf1d1\xeb\xa9\xe51\xe0\xf2\xa1&gt;\xbaB#\x02\xfa\x07\x19D\xb4\xb5Esg\xfe\xe2\xf1\xec\x8e\xabg\xa1\xc8\xb2a]\xa3\xeb\xd4\xa8\x00\xfa^7\xa1&amp;\xd2p\xadb\x965C\xdc\xdeD\xf6\xbf\x1b\t\xf0\x97\xbc\xbc\x1d\x97\xd5\x16\xfa\x9d\xbd\xe4\xdcI\x90\xd9c\xc3\x91\x15\x83(z&gt;\xc70oC\xd2cPse\xb9x\x8b\xa4h!H\xf3\xe9\x1b1ht\x16\x85F\xd1#jI\xcd\'\x07u\xda\xe8\x93At\xc3\x8cKTi\xeb3\xb4\xad^T\xf3\xc6\x17\xb6\xe2XW\xa5\xdf\xee=S\xc5\xcc\x11\xd3;\xe1\xcbi\xa8\x14\x91\xb0\xc0G\xf2\xb5\xa0\xdeH\xf2\x1a\xcem\xeb?2\xf3\xf4Vn\x94\x1b\xec\xdbo\xbePqIm\xb3\xce\xbe\x83\xc1\x89\xb3\xfa\x97\xc9\xbb\xde7\x8f\x19{;\xc8\xf6\xe4\xd3\xb8oD\x97^x\xd5\xcc\x9b\n\xf9x\x11\xb4k\xf5W\x85}\x1f\xc7\xd7\xa0\x0eg\xc8\xfa[\'\xa32\x9d\x8b\xc6\xfa\'\x16a&gt;\xbf\x93\\\xb0\xc7\x90D\xb5\x88H\xc7SYo\x1b8\xe8\xf0\x8e\xae\xd9\xaa\xc4\xb2\x1a\x8e/\x86\x93\x19\x1e\xad\x8c\xc0q\x90\xd0\xa6|\xf9\xc1\xe1\x16gh\x11\xa7\xb1\xb0\x1a\xf5\x9e\xb8\xba-\x82\xb7a\x1b\xcd\\\xefh\xdcq\x9e\xe2\xf2U\xf5t\xe8\x93 \xb1\xbbG\x8b&gt;\xe0\x0fZvy\xdeuD\xf1\xdeI\x19\xc7P;b_ScDZ\x0e\xd1\x99\x86\x86n:@\xd9\xc2\xa8\x85v\xbd\xa4\xf9\xdf\xd1\xbc-\x0f\xc0_\xa0\x1e\r\x03\xd37\xdc\xa6\xf5\xb1\x88\xe8\x8d\x1e\x88\xc3\xc7\x8e\xe9\xe4;\x14a\xc1\xad9\xd6\x9d\x8b`M\x91\x0b\xa0)\x1eH\x93\xa5}\x08\xb5\x12\x89\x9ch\xb9\xf77AqL\xb6\xc1Sa;\xb4k;\xaa\x1b\xd2:\xcf\x9b4\xce{Pr\xcd\xee\xbbA\x9bkg\xccwK\xcf\xda-.\xb1\xf4\x1ev\x96c\r\x8dD\xd6&gt;\xcc-^\x17Q1\xf1\xc5@\xeb\xd5\xe0w\xf5&gt;y\xd2k\xfa?/N\xa3\x92m\x93\xc6\xcbp\x7fPyd\x8bU\xf3;\xdf\xc1\xb3\xf9\xa7\xd4\xbeG1\xde6\x9c3vf\x8f\x15\xd1*\xf4\\\xfevQ^K\x08\xe4=\xeax\x94\xd1g\xf3\xff\x00+\xdf\xd16o5mQ\xee\xdf\x87Ig\xbb\xcf\x0cDu\x83\x08"l\x15\xdd\x93\xd9q\x89\x96K\xe6\x83T\xcc\x0b\xb1`\xa4N\x8b\xa8\x15\x87\xfeV\x9a\x96\xdb9\xfe\xc6\xf9\xb7\xcd\xc9p\x10\xff\x00\x12\x8d\x80*\xe5\x84\x00\xd1\x8d\x00\xb6\x83\xe5O\xb8\xa7n!\xce\x0c\xd4\xd8o\x1c@{\xecT\x95\xb2\xd4-\xb5\x15g\x99Z\xe9jClI\xc8m\xbd\x82\x89\xb59\x100\xa7ISt1\xc0\xa9\xabP\xf8\xbe\x11a\xd7(w\xae\x93U\xf5\xb7\x8e=7\xcan\xbe#\xf7?\x8e\xa6.\xba\x9ek\xaef\x88\xb2=\xe6\xea\x0eI\xe3\x1d&lt;\x99\xc40F\xcaY\xb3K\xfe{\xcfrl[\x9f\xad(\xda]F\xe0\x0e4%\xdc_\xab\x89K\x8c\xe4\xd8\xa8~\xb07:\xda\xc6\xeb\xd0\'\xe3\x7f\xde&lt;\x93\x7fJ\xfa\x8a\xc3_f\x90\xb3\t\xc9e\xf7J \xc2"}nd\xe7$]\xe0\xad\x15\xeb\xeew\x89t\xd5\x0erR\xf7\xa0Ql\xed85\x1b\xe6G\xcb\xd3\xb6\\0M\xf5\x1e\xe9\xe5\x8fRy\xf4a\xfb\xce\x15\xe8\x8c\xa0|\xdb\xed/\x1d\x81\xadz\x0b\xcc\xfe\x8fun,\xe8\x89LS:\xdf3&gt;\xdf1\x98D\xc2\xf4\xf9\xf4\x8a}\x82\x9f\xe4}\x1e\xc1\xa9Q\xf5\xc5\xa5\xd5\x92+\xef\xe5\x05=\xe9d\r\xab^\xa1\xe1S\x91k\x8d\xb5nyo\x81\xcbl\x90l\x186\xc1&amp;\xf5\x00\xac\x9f\xc0\x8ar_1g\x8e\xac\xef\x97%\xa3\xa2|\xae\x0c&gt;\xb7n\x04u`\xfbs\xf6\xf1\xd7~\xe3\x9f\xbe\xfb\xe0:\xd3\xac\x8d)\r\xae\x86Y\xba\xf1k\x18j\xe70"\x96c\x92L\xa5},&amp;\xbb\x0ej\x12\xa3\x81\xac\x8e\xfcN\xde\xbb4\x1b\xb4g&lt;\xa2V\x8f\x93i{\x07\xd9\xb2\x8d\nm\xea\x0f!{\xef\xcc\xfc\xe3,\xd9&lt;\xd3\xe9\xa8w?\xd3`\xa1j%Ju\x9f\x1c\xcc\xee\xa9\\\xa4B\x0c\xd2\xb4^\x9e*,{5B}V&lt;\xd1~a\xcc&gt;\x1f\xcd\xdb\x82S\\\xe1\xdcR\x1d\x1a?z\xad\xbe\xd42\xe71\xd7]\x0fn\r\xe8R\x9e:\xddJ\x12\xf3\xee\xacS\xd5\xe7\x85E\xbef\xf6J\xdfJ\xc1\xe0\xb4\x1a]\x9a\x96\xac@\xf4\x0bQ\xd6\xb63}\x19\xe5f\x99\x1a\xcf\xc7\xd3\\\xb7\x8e#\xcb\xd1;%\xd6\xb2\xba\xce\xb3\xbc\xf9\xb3H3\xdc\xbc\x99\xacb\x98\xe8~\xa3\xf1\xaf\xab\x99\x0f\xc1\xfa\x02\xd6\x9b\x90\xe8\x80\x93\xac3:v=\xcf\xd9]\xa0\xdc`ty6\x9fE\xf9\xbb\xd0!\xb4H\x81\x95\xe8\xf1\xcc\x9bZ\'\x84\xbeA@b\xb1!8\x8d!\xe1\xab8t\x954\xc1M\xf5\n\xdcy\xbe\x12\xa8\x92\xe0m\x1d\xf4\xb4r\xe0(;\trD\x13RZ\x91s\xa4l\xbbvyu\xc3\xcal\x91\x1dC\xf7S\xd0~O~\xc1\xa7\x99X2]mW%\x1aX\xb6\xcf%\x99#KG\xdd\xa6\xec4\xcb]:p\xe9\xb5\x0f\x94\xaa&lt;5\xfe\xb3Q\xd3|\xcbfz\x15\xb9&lt;\xd5\x12\x06\xe2\x1a\x89\xfa\r\x8f:\x14K\xc7\x1f\xa1^\r\xf5\xf7\x1fu\x86\x85m\xcecj.\x83\x9d\x16Z\x9dUU\xba&amp;\xc0?\n\x0bhlYP\x8b\x07\x7f\x99\x8b\xb5\xf3R\x0b\xe2&gt;\x05iO\xdb|\xe3]\xd9hs\xed\xa5\xfa3\xce\xbe\xf6\x95\xbc\x12{\xd3\x1eT#A\xaf\x81\xb66\xbdi\xfek\xd9}.I\xb9\xdb1+6\x84&gt;\xdf-\xabb\\jl\xf7S(\x8b\x15\xce\xbaz\xb3\xbdo^p\xcd \xfe\xdd\x85\xe6[\xbf7F\xb5\x8a\xc6\x8fYgz*,8\xd4\xb3\xafE\xe3I\xa9\x9a\xbey\xeb\xb5o?I\xde\x11\xc9\xe9\x0c*z\x8d\xf9\xcf\xe811\x9d\x00\x1f\xd4\xf1\xe6\xb6\x88\x1b\xb7\xb9\xf2\x19\x1e\x90n\x05\xb8\xee\xac\x99\x8d\xe8\xf9\xf5\xa9\x05\xdbd\t&amp;o\xca\xd09+\xaa\xd0\x94\xf7v\xe0\xe9\xf0X}\xc9M\xab3\xdf\x9dl\xcf\xcf1\xb0\xae\xcb\x8atAD\xe16\x87\xc2=\\\xcd?N\xa6\xedT\xb9\xd4\xae8y\x96$\xb8\xd6fU\xc5.B\xbe\xfbn!|"WX\x93R\xb8o\xb4\xa5\xd9p\xc9\xd3Gc\xa99\xe9q\xe0\x0ctlB&lt;\x95n\r\x88\xa7\x17[v*\xf2\xbc\xefJ\xd6H\x01\x16SD\xab\xf3YI\x19\xaa5\x96\xeb\n\xa5\x1a\x93\xb89O\x0c\x0e\x88\x16\x9b\x0b1\xf1\xd0\xd1::\xecb\n\xcd\\\xaa\\\xb7&gt;|\x16\xefH\xf5~jTO\x93\xcf\xd5\xdf\xbe\xee\xdc[\xee\x86\x8cgD\xb3rvP}\x83\xe6\x1d:\xfc\xba\xf5\x0f\x85\xb0\xf1\xc8\xcfPy\xbf\xa1g\xce\x0f/\x9b\xaa\xdd\x1a9\xae\x8ej(\x9d+(t\x81"&lt;\xa5\xcb\xba\xc2\xb4:\x95\x87\xdbE\'\xf6C\xa4g\xd2\xa7=C\xe3\xefZF\x99P_LbL3\xe9"$m\xb0P\xec!V\x99\xaf\xaa\xfc\x9b\xb6\xf9\xfe\xad\xfaul\x14{5\xd0\x98\xe1O\x1b\xd4\xe0\n\xa1\x8fs\x95\xff\x00P\xf9X\x93\xf9\xde\xa1\x15\x80\xe9\x95\xe5\xda\xdf\x0ek\xa2\x03\x06\x9d\xae\xba)#\\\xe8\xe3\x96\xc4V\xd5\xa6;\r\xed\x91\x0c\x9c\x03\xa4!\xa6\xc6KN$\xe46\xb4\x9d\x15\x89\xe8\xc6\x04\x13\x11H\x1f"G\xc3H\x13:\x03\x1a\xe1g\xe1\xb6\xf3\x1bO5\\\xda\x16\x94\x1c\xfb\xee\x93\xcf\x97\xc0\x1a*!C9"$\xe6.\xf5\x08\xb1k\xb1\xac\xbcu\x0fn-\x13\xc7\xf6\xdfT\x06\xe5yL$\x86\xc3\xe7IR7\xdf1\x10\xac\xe6\x84\xbbINDic9\x0b\x89a:;RWGDG\x1d&amp;v\x0b@\x96P\x94\x07.\xe8\x0e+\x11\xcfn\x02\xfd\xbf\x96\x0e\xce\xc5~\xe7\xaf\x98Nz\xa2\xe2\xaf\xe3\xc9~\xb4p\x1f#\x93\xf5\xfd\x88\x8f,\x9a\xf4\xadu\x90&lt;\xd1Y\xa50k\x08Q~\xb7\x1eH\xd1j\xe7\x93\xe8Y4\nK\x9c\xbd\'\xe4V\xe7\x89g.\xeb\xb4\x0bAmA\x99T\x98|9vR\xa1\xca&gt;F;\xe9l\x1a\xc9\xcd\xd1z\r\x9c\xe9TZm\xb6~\xad\xf2\xdfk^\x07\xae\xd6|\x8fo(\xd2\xbas\xca\xf6h\x80\xe1\x92\xfbo\xcf\xf3\xa7\xac5\x0e\xff\x003\xed\x0e\x9d\xb0y?QH\x0b\xb25\xf3\x9fG\x82\xd8\xaf`\xfdO\x1f\xd1\xf6\xc8\xe6\xfd\xff\x00\x8e\x1d\x10\xf2|\xea\xd2\x86\xe8p=\x05\xa1\x05\xbc\xd3\xfd?&gt;\x13\xeb_O\x0bL:\xd1\xc9bC{6\x951\xb7P\xeb{6\xca\xb8Lh\xd3\xd9:\'\xd2\x18\x18mz\xc0\x13g\xa6\x8a$w\x9c\x19(\xc7^\x1d\xc7\x1a\x8e\xe7\x16\x96=mJ\xc1\xa6\xdf\x8e\x81\xb2c\xa4\xae \x1c\x88\xcc\xd7\x93\x90\x0b\xfc\xef\xd4!\xa2\xc4e\xd1Tt\x98\xe7\x9bj\\s\x90\xc3\x9f&lt;Y\xe4\x97YY~D\x84h\x91]i\x91\xd9A \x95)\x1cD\n\xf3\x96H\xe7\xdd^\x8a\xe76q\xd2\xfb6\\g\\\xf4,\xca\xf3RL\x96\x89n5-\x9f\x88\x93\xd8\xdd\xd9\xf5\xc5\xfb\tN\x0f\x8f\xb1\xb7\xab\xaeb\x8f1ib{eU\xca\xb6!\xd0\xa5tF\x96A_\x1f\x1b\xa4d\xbc\x9dG\xe6\xd6\x08am\xb5g\x06\xd1\xed\xb3\x1c\xdb\xab\xcf\x99\xc1\xf4\x12\x9d|lS\xd2\x19s\xce\x8e\xf4\xe8p\xe9\xabk\x99u\xd6\x83\x9a\xf7\x9f\xf7\x1f\x8f\xfb=.\x81y\xad\xfc\xcfn6\xf5\x92\xa7/\xb3\x1d\xa8\xf9\xcbx\xfa\xaf\x8d\xaf\xd3\xb5\t\xfeO\xad\x9f\xe9\x8e\xcb\xe7\xdcnc&gt;H\x18n\x12*\xdb\x0c\x88]\xfd\x0f\xf3\xd9j\x8a\x88*\xa0O\x8d{U\xeb%\x85{\xbe:\x12\xae\xdf\x91\xbe;\xd3\xa34\xf3#FfJv\x8c\xdfxw\xd1\xde\x8c\x0fc\xc9\x86s0dD:\x10\xb2\xf1\xb0bg]\xdb\xcd\x89_z\x19\x84\xab\x847\xf7~\x05\n\xe7[)\x89Q\xd4#\xbd\xe0\xcb\x1eA\xa4\xd6\xc3\xd9\xe5\xe7\xc2\xf7\xe7[\xe8O\xf2\xfa\x17*\xf4\x18O#\x08\x15\xdd\x88\xb2*\x1d#`h\x1b\r;\x14j\xf4\x8aJD\x07\xbet\x8c\xe4\x8e`\x9f\x9b\xb3\x14\x01\xcfWl\xf4\x87\x82\xf5\x7fTP\xe9\x0e1\\6\xf2&gt;\x90\xad`v\x05\x16\xf0\x19\xfe:\xeex)\x19\xe7\xc4\xa7\xa6\xf9\x10\xad&amp;\xcf\xcb\xa4f\xb4Uk\xee\xce\xea\x8eZ`|\xee\x85\xe9\xbc\xa8&gt;Ub\x94\xa8\\$\xa3-\xdaY&lt;\x8d\xfb\xcf\xcf\xcaD\xa5\\\xa4\xc1\xcb=a\xf9_\xd3\xa63[\x95cf!\x9c\xd7\x1ez\xfd\x0f=\xaa\r{\x7f!\xd1YQ\xa8\x86#\xf2?sir\x9fh\xf2}JewE!\xe6\xfa^t\xf4P\xfb\xa7\xa1\xe4\xd5\x00\xe9Tn\x0b\xba\xc9"\xe3\x07\x0f\xa1\x83IP\xec\xdd\x8f/GSb\xaf3\xf4\x8f\x80\xb4H\x1b\'\x9c"\xa8\xedo\xd6\xe0TiI\xf4|\xc6W\xde\x90\x8e\xb9\xcd\x98fS#Fi\xf8\xfb4\x85\xa7\x18\xec\xcb\xf8\xe8\xb1\x88\xb6H\x88\xe5\x99\xd8\x0b\x06`\x10\x12S\xec\r\xe7U8\x8b4t\xcbb\x99\x96\xe46\x02&gt;R\x0eSjX\xdf7%\x14\xc8\xe2z\x9b\xe2#\xdd\x8d,\xe9\x01?\xc6\xf6\'\xfc:9\x06\x87\x87e\xb9\xc83\x015\xe6$\xb1?`k\xa1g\x1d\xd5\xd9mL\xb2*\xde\xdd\xf3\xc4\xf6u\xeb\xaf\x12\xfbm\xd2\xdaw?N7\x8a!q\xd4\x8eUr\xa1\x97mhb8\xb6\x16\x9b+S\xa5h\xb1\xe5\xb1\x9b\x11E\xac\x8c\xed\xd3\x12c\xd2up\xf6\xd0J`8\x12\xb8\x1du\xf8\xf5\x90-\x96\xdc4YOUF\xf2\x87\x08\xf4\xc9?1\xda\x17m\xd9\x81\xcco,\x9d\xaf\x04*\xdbs\x9f\x99{!L\xa3\x0e\x1d\xec\xf2\xf1\xaf&lt;{\xe2\x89\xf3\x1fm\xe3\n\xe7\xad\xe9\xfe\x17\xb9\xe7\x1d\x1ah\xbfw\xc5.+I)\xc3\xde6\xe1Y\xbe\xf8\x9e\xf9#C\xe7\xc7\xc3mh\'^t\xc69!8"\xc37\x06\xd1\x0e\x18\xe8\x9a{\x14\x8c\xb8\xee5\xf4\x9c\xba\x9e\x93\xe4\x82\xbd\xdew\xb7\xf9\xe4\x12\xbbz\x16/\x9e\xf4\xff\x00O\xc5\xba%\x995\x9bkRFJ\xd3\xf1\xc9JZ\xdb\xac* \xc9\xe2Z\xc5\xf6~l\xees\x8cc\xf3]`\x16\x98u\x92"\xc5\x9a\xd6\xde\x7fe\xd6K\xc7e\\\xb8\x8c\x99\tu\x8f\xf2\x99\\\xaf\xb9\xf6\x0fw\xa8\xa6J:\xf2\xee!?l\xd7V\x9eb\xcb\x0b\xe7&gt;k\xaa\xe6^\xf7\x8a;\xbd\xe2\xb6T\xe831\xb5\x9d\xaf\x17;X\x89czu\xf2\x87\xe87\xe7?\xb2\x8ak\x113g\xdcY\xf3K_\xd4\x90\x87I8D(\xa5|\xb97\xf4\x9b\xdem\\/\xb3S\xa4\xd4\x80\xb3\x11\xc8ZJl\xb4Q\x02\xf0\xd2B\x02\xe8`_4\xb2b7,\xed%JkL*\xd3\xc7\xdd\xd1!\x9dU\x92uj\xc4\x9b\x13i\x06\xb3;\\\x9a\xad\x94zO\xcf\x9b-\xf9\xb7\xf9R\xca\xcfA\x15&lt;w\x91\xeb\x82c\xe0\xff\x00\x9b}h\xba\xf6\xa2\xdbw\x86\xb2\x98\x98\xfe\x00Y\x06\x87\xdf\x8a\xb5\xc91\xb8\xbds\x05 \x18\xfa?\x1a4\xc5\xc4\xaf+\xf1c)\xed\x06\xabk\xf2\xdf\xa9\xd9]\xa8[k\x1fA\xf3\xf4\xbf\x8b\xc22\xe6\xb7\x8cn[fY\xf6\xa5\x9bN\x84\xaf\x99\x1fo\xcd\xeaM\x0f\xc8\x0c\xa5\xfd\xdc\xd7\x86\x0fZ&gt;\xc1\x8b\xe7\xbb\x8b\xae\x92\xd0\xc3D\xc3n$\xdd\x9bGPsm\xa9\x9cR\x8523\\Rvi\xbf\xa1\xed\xe7\xb4\x92a\xa8%/\xc7q\xc48\xc3\xa2\xfa\xdaX&lt;\xda\x102\xfe\xe3\x84\xba\xda\x14\xf9\x08u\xa9\x0ew\xee \xe3o\xf5tD\xcafY\xa5+\xe4\xdc\xea\xbb\xb7$\xb3#\x1b\x04\xe4\x8b;\xd9\xc0\x08@\xb4\xfcO\xee\x1f\x0e\xfbb,u\xc8qj\xa7a\x87\x8eA\x86\x96\xa1\xaa\x19\x12f\xce\xb5;\x0c\x81r\xa6\xe7\x87\xca\xab\xbc\xc9\x15\xa3X!]`%\x98\xc9Q\xd9\xc5\xcc\xf2\xd32\xa7\xee\x00\x06\xc9\x06j\xf5\xba\xa5\x16f\x84iN\x12\x9fJ\x9fm\xe5/\xbdb\nu\xf3\xd5\x97U\x8b\x9bLNvN\xb2\xd2+5\\\xfeV\xfd\x0c\x9f\xe7\x1d\xdf\xe6\xfa\xa6\x0e"(\xa2"\xf6__X\x96\xa6C\xf1{\xceM\x19/\xc4\xf3\x12\x1c\xfa|\xa6\x0b\x0c\xf3\xbe\xd5\xdb|t\x0fI\x085\x05^\x9fD\x98p\x80&gt;\xcd\xf1}g4\xf7\xbcHy\xc9\xf0\xf4\xe6\x0e\xe6\xc5\x14\x8c\x8b\xd3\x9e\x7f\xf4]\x10N\r\xeb\xff\x007-2\xee\xf3\xaa\x97\x05\x99\x85\xcd\xe8\x00\tf\xacS\x9f\xae\xb4\xed#\xc2\x10\x98\xda\xfdk\xc5V\xe3\xd1\x0c\xf9\xfdGz\x92\xc1\xe3in\xbe\xbdk\xcc\x96\xb6\xdb|J\x1d\x98\xe9lI\x89\xb6\x10\x91\xc9\xe8\xa3\xb0T\xdb\xabi\xe2\x15{\xf7$a\x1d\x0e50\xe7\xdc\xfa\xac\xb54\xa2:\x859\xb4\x7f\x9dR\xe6\xd6\xb7[!\xa9\x8e\x1c-\xb2\x0cs\x88\xdd_g\x91%\xa7\x8e\xb6\n.=v\xf5;\r\x96\x8d\x97z\x93\xcb\xd7\x95\xda\xe4\x0c\x93\x84\xe9\xf6|#Td\xdb\x1b\xa3\x97F\xc2\xafZ\x81\x1c\xd8t\x8d\xbb\xb9\xbc\xc0c\xd2m\x01\x82\xdc4\xc9`\xd6\x9f\xb1\x04&amp;\x8fJ\xac\x0b\x16\xbf.\x95\x12\x17\xd8i@\xed\x93\xa6y\x07Q_G6l\x7fG\x9e\xdb\x12oK\xa3\xc6\xa2\x1a\xbb\x98"\xb5Y\xb0\xd9\xaf\x1a\xb5&gt;\xc5W\x857oVyKo\xf0=-*L4\xf9\x1a4\x97d{\xc8\xc3\x92\xf9\xc98}\xf8o\xcetN\x8a%\x8e^\xd2M\x8b\xfb\xd5\xe9 \xa1\xb1=\xdey4\x9b\'zcJ\xb0+&gt;\xb4\xa9dL\xa7\xd6\xf9\xeaD\x12\xa1\xd4V\x07\xda\x0c\x85\xc9\xf7\xec\xae\xefU\xdf|\xfd\xbfc\x0c|\xe1\xd9q`\xdb\xe9\xf0\xda\x8d\xd7\x10\xc7\xfd]\xe5\xe8\xda\x13\x88\xea\x87\x98\x97\x14\x16\xdei\xd6^\xaf\xe5\x03\x1b\x8am\xd3\xa4\x87t\xcf\xe4\xbc\xc0.\x9a\xad \xe2\xe9y\x8fH\xf1?u\xb78\xea\xf6eKg\x0f\x90\x8eOJLu\xbe_\xddY\xcd}\xf2FrLW\xd8\xc9\xfa"\x98-H\xea\xee\xf1K\x1a\x133\xa3s\x86^o\xb2\xd6@\xee\xc4\\\xc9(\x93\xe3J\xf4\xcd\x7fd\xdb\xc7\xbd\xd3\xc0\x82\xce\xf1_0\xaeBh\xe93\xa9Y\x03\x9epm\xca\xf3N.0\xe3$\xceT\xca{\xa2\x96\x1c\xe6\xd5\x9a\x9dG\x1baR\xd2\xaeX\xb1\x19\\\x1d\xd1\xa9R\xad\xf0\xd6H\x97\x8e\xba\xac\x9e1}\x92\x97A\x88\xac^U&amp;u\xf8\xf5\\\x92\xba\xcdP&amp;\x9fD\xda\x11\xad1Z1\xe1}m\x8bK\xc8/\xff\x00\x0b\xea\x9c\x9b\x06\xb7\xe7\xf8\xb6T\xd4\xe2zT\xb0\x8a\xaf\xc0~\xbb\x18\xc7\nv\xda\xbc\xdd\x8f\x9e\x80\x86n\x07}\x8f \x87!\xa9\xe4\xc52\xbdU\xed\xf3\xee\x89\xa45NK\xfb\x99\xdb\x03:\x02\xcfn\xe8\xe6\xc2\xee\xca!ioyN\xad@\xa2\xf9\xbcQ\x90\x9c=Z\xde\xf5\xe7\x0fFw\xf1\xb1\xe5?[y\x92\x16\xa0$\xf0\xae{2\xcb\xb1\xde|}\x898&lt;\xcb\xcd\x06e\xa7\x9a\xa4\x90\xb6\xd0\xf3_Z\xe8\xcds\x9c\xc6\xc0\xcc\xb8\xde\x9eO\xcdG\\\xf3\x1dZf\xd4\xb4\xed\x1d\x0f;1\x1b\xe9Ks\x11r:B\x16\xdf\x0e\x7f\x9c\x90\xe5\xa5\xcb\xf9\xf4\'\xa5wf\x1dS\xa4\xc6L\x88\xab\xa0=\xd6\xf9\x14\xb0\x89\xa2\xe7\xa3\xbd\x1a\xc53wC\rB\xf5\x0bH\x0ba\x06\xaf\xf8.\xec+.\x1c\xa7\x85\x1ap\x93\xa5k\x95\xe9\xf0qH\xdb\xac\xd6L\x8bE\x9cK&lt;n\x9b\x8c\xac\x1a\x93\xa9\xd6\xd5\xb30\xfa\x82Ce\\\xd7g0\xc5\xdb\xdd\x13\xb6N\xf5\xc02\xd0D\xc8\xb5\xf0\xfa5V\xe3\xad\xc5\xbc\xddg\xf4j{\xfc\xba2\xaebEEE\xb3\xf3\xe5&gt;\xe8-\xf6\xb3\xa0x=\xae\xe4\xbb\x0e\x01\x0f#\x03\xe3\xd3\x7fI\xf9\xd1\xe8\x9f\x05\xa7cx`W\x95\xe3\xb5\xc9\xc9Kq\x8ae\x90\r$\xbdX\x8c\xa9\x93\x8f!\x03$fg2\x00\xf7\x1dH\x1c8\x12\xfep\x08\x9b\\n\x8e[\rN\t\x8e\xceo+\x8f&amp;/\x87\xaa\xd3\xea/$\xfa\xcf\xb7\x91\xdf6z[\xcf\xd3\xadXU\x89\x8e\x1e\xda&lt;;0+sFy\x97Y$2\xef\xc1\x99e\xf6\x1d\x19\xf9=x\xa3\xbc\xe6\xcd\xf3\xbd\xd8\xecf\\\xef\xdfw\xe5\xb9J^C\xe4"de\xcd\xc9i\xe3\x91\'\x8b\xa1W\xddu\x84tJ\xfb\x01\x8d\x94fY\x87\xa3\xa0\x02\xaf\x87\x96\xe6{M\xc4\xc5\xf8\xddbBtX\xefC"\x17[\x86E\xfa\x8dy\'\xd5\xf9\xdb\x99T\x9eX\xca\xbd\xeb\x0ei\x80\xc9r\xf7On$\x86\xca\xf9\xa4\x9c\xf9Xd\xf2\x94\x92\xfa\xa9\xcfQU\x9ah\xa8\x17g\xc5\xda\x0cgb1%\x14cgL\x86\xa7\xdbW\x9bs7W\x95V\x9b\x1eN\xca$ \x93\xb7\xea&amp;\xa3\xe7\xfaD\xd11l\x81\x99\xb5Acc\x94\xf5\xab\xe3&gt;\xa8\x99Z\xf5p\xfc\xfcl~\xfa\xdf\xd4\xc4\xd4\x88\x89\xf4|\x89\xcdE\xfbi\xf2B\xc4\xc2\xd0\xac\xfcz\xbe\xa3\xcch\x19]\xf4g\x9e\xc0\x91\xbd\x84\xc5\xc0\x93\xb6\x89\xca\na`v\xb2\x82\xb6\x873\x8f\x8aj\xb1+Um\xb5\xed\xbb\xcd\xbe\x97\xea\xe7\xf2\x80\x83\x01\xf9/#\xd8\x9e1\xf6O_4\xcc;q\xc4\x83\xd4\xdaq\xef?\xb0\rV\xef_\xa2V\x9fS4\x8b\xee!\xbc\xce\xc36\r\x91\x08R\x1eImh!\x1fs\x9b\x17O\xdd\xef=\xeaR4\x87";M-\xaeu\xb7z\xf3\xaf\xa3H_\xcf\x96\xebNm!\x953\xb3\xad\xa1\xdd\x97\xf2\xbe\x19M3\xc1\xa3\xf1LL7\xc3\x15\xf9n6\xa8\x9c\xb9\xb7\x11%3\xd6\x1a\xf1\xae\xady\xa0\xda3\xbe\x06\xd6\xecn\xe4\xacwI\xe3K\xf2\xf6\xa6J\x9ea\xc7\xd3%\xd2a\xb0\xd3\xe93\xaf\x87\xe5&amp;/\xb2\\G\r\x16\xdf$\x8aa\x0b\x12\xf6\x0b\xc3q\xc6\x14\x92\xcb\x0f]\xaa\xe8p\x94\xe4C6h\xf3\xaelN\xde\xc0!l`\xe1\x86\xb79\x9e\xc5\xdbLo\'\x1a6\xcf\xdc(&gt;\xde\x8bo\xcbPY=O\x07\xcb\x11J\xfa\x84G\x9dm@\xe8\xd5\xea\x08\xf2.\xb0+H\xa4O\xa64\xb9t&gt;\x17H\xa9F\xf5\xce\xe8\xb5*\xc6\xd1H\xd0j3\xa3C\x0cE\xea\xe2\x8b\xd32\x05\x1a\xf8\xb1\x954\xa8\x07\xc1\xec\xcf\xa1&lt;\xe3a\xac\x8eS\xfd\x11\x90.\xa5{C\xc5~\xcf\xb4K\xe4\x1a\xfeT\xcd\x9b\x15\x0eW\xcd\xec\x8b\\\xb6\x82q\\\x16|C+\x11\xe6\xc4d\xb1\xd5n\x15\x07F\xd9\x90\xcb\xc9\xb9\x11\xfas\x9de\x00\x12Z{\xe9\x1e\xbc\xca\x9b/\x8e%\x8a[arW\\T\xca\x98\xae\xcbq\xf3\x1f:\x96\xd1\xd7%`Drc\x9bD\xf8\x87p\x14\xe1\x14\x82)\xb2\xd5x\xe4\xb0\xb7y\xb7\xc2\xe6\xc2\x96rk$\x1fD8\x12\xc5l"5\xc2\xf9\xc0\xf5\xdb\x0b\xd2\xcd.\x92\x11&amp;6\x90\xe2\x9f\xa2}#\xaa(\x97&gt;^\xcfH\xae\n\x1a\xf8\xe6Ca\x07@g*\xca\x86\xf4\xec/9\x80\r\xe91~o\x9d\x8e\xe6\x13\x0ed6\xbe0=\x1c\x0b\xc3t\x96\x88;\x05/\x91\x17\xb0~d\\93\x98\x08\x95,\x90XLr0\xab\x1f\x1d\x82e\x15\xc2B\xf3KTS\xd2\xb3 m\x95\xe0\xd0&gt;+9\x92m\x9a\x9b\xa0y\xde\xa2\xc3\x1d\xa8\xc6\xe4F\x9d\r\xd7\xc7l\xca-\xb1\x9e`\xd9\xbe\xe7]|6\x95A\xf8;\xbf3\x17d\xcd\x8b\xa4aAf\xe5F\x07Z\xd8\xbc\x8f\xeb\x8e\xbej)\xf3\xfdq#4\xb8S\x90\xe63\xc4\x93\xf3\xbb\x1e\x14J+`\x03\x0f\x8d8&lt;S"\xca\x95\xae\x91\xe5\'\n\t\x81\x8c\x90\x98~\xdc\xf3\xa5wG\xe2\xbdi/\xbb\xeb\xa4\x17\xa5\xc1\xdb\xe8r\x1fL\xdb\xcd;\xb2\\\x8c\xf3i\x0f\xc2\xe3\x12\x1d\x1e\xb2\t\xc8\x08\xbc\r9^`\x0b\x13\x02[V&amp;\x81\xed\xa2\xcb\x17\xc7\xb9\xca\xf8\xa6\x06\x86\xea\xe6\xa6u\xbb&gt;\x85CP\x11\xacd\xbcV\x9d\xa8f\xb7\x96Q\xa7\xb1\xe2\x94\xda4\xcc\xa4\xbf?F\x91q\xa4l\x05\x06\xe5\xd5\xa0\x00\xee\xd4m\x8b1A\x8cB\x1fql\x1e]\x8a\x1aV\xcd\x9f\x9a.\x00J\xd3\xfa\xb19\x0c{\x9bEj\x8f\x15\xd1H\xc7;\xe8\xdc#\x10eE\xb0\xeb\xec\x9a\xde\'\xea\x89\xa7\x9es\xab\xf5-\xf0\x08v\x98l\xa2^)3j\xd2\xed\xc3\x83W\x1e\xb0(\x88\x04\xc1\xd9\t\x08b8)Va\x87\xed\xb1\xaepZ\xe8\x1d*\x1c\xc3\x12\x95\x91 )5kU\x1b\xa6\xd1\xe9N\xb5\x1b\xbf\xcf\xb3\xd3m\x83\xdap\x1c\x82\xddT\x9c\x05\x86S,\xfdL\xa6[\xf8\x92v\x08\xf4g\x9e\x89\xf3\x9d\xc3\xa7\x9bv\x93\r\xae\x98\xd9\xb0#\x83"\xf9\xc1\xaa\xf9\xce.\xa7\x9ak\x846&gt;tla\x8a9\x1f`\xf1-\xb0\x1dB\x0f\xb0\td\x05x\xa2^\xdeF\x9da</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495618-la-vision-correcta-de-economia</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aumento de las ventas</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Construcción</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>El Indice Construya, que refleja la demanda de insumos para la construcción, registró en octubre un incremento del 5,3 por ciento respecto del mes anterior, al tiempo que se mantuvo estable en comparación con el mismo mes del año pasado. El acumulado anual se ubicó un 7,6 por ciento por encima del mismo periodo de 2021. "Con esta nueva suba, el índice sigue registrando buenos niveles de despachos y se muestran estables. Las fluctuaciones recientes del índice se dan en el marco de un buen año visto en términos generales, y aún queda el último trimestre en el que creemos seguirá sosteniéndose la actividad", señalaron desde el Grupo Construya. La entidad está compuesta por doce empresas que concentran las ventas de insumos para la construcción.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x00\x07\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x00\x08\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x01\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xdd\xfb\x1c\xd3\x81\xe08),h\x15\x80`:\x86\x80\xf0\x0c\x86\x80\xd2\x1c\x04\x93\x12!\xd0\n\x9c\x06\x03\x01\x89\x18\x04\x9e\x01\x0e\x01\'\x88\xe0\xe0(\x08pp\'\'\x97\xb2\xec\xad%\xbb\x05\xb5\xd3h\xabC\xb2\xadZ\xe0\xd6@\x80D\x8c\xa7\x95\xf0t=3\xab&amp;6\xba\xb4\xb5\xa2\x93U\xfb\x0e\xdcB\x1c\x1d\'\x00\xc1\xc0\x01\xc0`\xe0,\x9c\x1c\x1c\x1c\'A\xc0#\x08p\xdc/\x0b\xc4\xf0p\x18\x9e\x0e\x98)\x1c\x01\x00\x00\x10\x04\xf4\xcf\x0b\xd2\x14\x9c\xa3\x0e\xa7y\xa4$BB&lt;\xb6\x80TN\x98\xd4\xbbx\x8e\xf0\x00@\x06\n\xe0\x01@\x80Y\x82\x10P \x00\x14\x08\t\x92\x98\xa4\x02L+\x0c\xa8(\x03\x02\x90\x18\x93\x81\xa6D\x0c\xa1\xe0\x10\x15\x0c\n\x01\x80\xc0$\x89#\x07\x00\xc0 x\x06\x0e$I\x12\x00\x81\'\x86\xe0\x10\x00\xe0\xe0\xe9\x86PT\xeb|\xf1-\xdeuf\xc4\xf1\xea\x8bw\xb2\xb8\x08\x1d%Y&amp;f\xbf1\xe0\xd9\xa8\xed\xcf\xe8\x8d9\xabT\xb5&gt;\x9dZ\xc6\xdexD\xf0\x08\x1888\x00888888\x8e\x0e\x0e\x0e\x0e\x0e$@E\xe2\x00\x04n\x0e\x17\x83\x80\x00$\xe0\xe0\t\n\x01\x07\x00\x01bs\\zM\x95\xd1$\xf2\x12\xc8\x88G,\xd6\xc5\x97h\xeb\xe2\x08\x9e\x02\xcc\x15\x821\xc4\x00\x14\n\x04\x04\xc8\xe0$\x85\x90\x80@N\x14\xb3\x05\x07\x0ba\xc0\xe0\xa0\x1dE\x00\xc4\xf1"\x02\x06\x80\xf0r\x9c\x07\x05\x00@\xc4\x89&lt;\x02\x03\x00\xc0`\xe88\x04a\x17\xa4\xe8\r\r\xc0P0ppp\x01\x14\xfa\xdf7[\xb7]\x19r\x0c:V\xbd5\x9bh\xe6\x91$\x8a\xd0s&gt;o\xe5t\xfde\xd1\xe7\xf3S[\xae\xcaE:\xb5\xbd\x98M\x12\x04\xf1\x02\x1c\x1c\x1cO\x07\x11\xc1\xc1\xc0\x00  \x01\xc0!\xc0 Qx\x00\x04n\x14\x03\x83\xa4\xe0\x00(t\x85\x0e\x0e\x98\x02@\x13Y\xcepi^\x87N% I\x88\x9a\xdab\xfa&amp;m[GW(D\x96N\x95\xe0 \x00p\x14\n\x04\x02\x90PN@\x90\x84&amp;\x05\x14\x80@z\xb6\x1c\x0f\x01\xc1E\x93\x12p\x19\x06\x01\x80@\xd2\n\x86\x80\xc0!\xc0  bx\x93A\xc0 !\xc0!\xc0 h\x01N\x0e\x0e\x00\x01\x0e\x02\x85Y,\xcd"\xed\xd3FL\xa3\x06\x86\xf7\xbe\xbf~N\x89\t\x04:O5\xf9\xfe\xe7\xa5\xfb\\\x82\xbdU\xea\xed\xa5\xe6\xd3\xabn\xc2`\xe1\xb8\x93A\xd0\x00\xa0\xd1\xc00t\x01,\x13"\x06\x00\x80`\x00\x10\x01@\x8e\x93\x80 \x10\t8\x8e\'\xa6\x0b0\x00\x01\xc0\x00P\t8\n\x04\'=\xe6\xeb}K\xb6\x86Ja)F\x14\xdc\xf2\xdc\xf6=\xb5\xcfts\xf0p\x01\x1c\x04\x02\x80L\x10\x04\x82HX\x92\xc8X\x82\x81&amp;\x13 \x84\x10\x84\xe4\x95K\x8c\x06\x80\xf0\x1dX`\x87\x87\xe9i\xf2\xa6R=\x03\x00\xc1\xd0\x08\x08\x00\x08\x08\x1c\x91$@C\x80\xc1\xc1\xc4q"\x03\x07\x07\x07\x07\x07\x07\x07\x01d\x80\xa6\xcc\x99n\xde4\xe3\xcb\xb0\xe8\x8b\xb2\xdd\x96\xfc&lt;?I\xd3\x1c\xad\xe6^WO\xd3\xdd&lt;$z\xab\xf5YL\xcb\xa7U\xdf\x80bx\x9e$@T\xe9P\x93\x83\xa0\xe89\x9b\x83\x89\xe0\xe8\x8e\x00c\x80\x05\x128\x9e\x0e\x00 \t\xe0\xe0\t\x80 \x03\x80\x80\x00\x00\x00\x00\x00\x8cM\x13\x9b\xad\xedN\xb82 Z+\xf4]"\x91f\xe9d\x98\xeaf\xe0\x10!$ \x00\x00\x1a\n\x00AI!\x05\x02\xca\x12`\xb3$\x02L\'\x01d\x9b\xcdy\x80\xe4\x9a\x03\xa9\xd2W\xd6\xd0i\xb2\xcd\x14D\xb6\xee\xf0\xb0\x82\x02\x1c\x02\x1c\x1c\x02\x06Y\xe2LG\x00\x80\x92`\x00\xe0\x10\x10\xe0\xe0\xe0\xe0\xe0\xe0\xe8\x0b$EVb\xf5\xdd\xbfi\xcb\x9b\xe5\xba\xb3\x16m\xda\xf2\x0cOI\xc2\xf4Y\xe6&gt;_C\xd3\xfd, \xd5\xd7\xab\xb6\x95\x8fN\xb1\xd0\xc20\xdcO\x00\x80\x80\x11\xd2\xbc\x1c\x1c\x1c\x1cO\x07\x07\x00\x01d\x1288\x0088\x02 \x03\x80\xa4t\x85\x00\x90$ tG\x00\x07H\x0c6[)\xdc\xbd+T\xc3\x12\x80(\xd1]\xcfh\xd2\xf2\xbb\xf1\xdd\xbb\x98@\x9e\x00\x02\x10\x12\xa5\x02\x92\x12\x15\xe7\x80\xb0\x12Q\x1ali\\\xad\xa2\x9eh+\x04\x80\xb2Xq\xe90(\x03\x01\xe0\x10\xaf-\x88;\xda\xa7=\x12\xbb\xec\xd6D\xb1WH0\x00p\x08\x18:\x0e\x89\xe2L(\x80\x12$\xa8\x02\x1c\x1c\x02\x1c\x02\x1c\x1c\x00\x1c\x1d\x00I\x1d[\xe1\xb5_\xe8\x1d9s\xec\xd7S\xeb\xb3s\xdd\x97\x94\xe9\x04P,\xf3?\'\xa3\xe9\xde\x9f96\x8a\xfdvQq\xe9\xd7:\x18\x8d\x00\x8d\xc4p\x08\x04\xc0J\xf1&lt;\x05\x0e @\x03\x89\xe0\x00\x028\x9e\x0e\x00\x00#\x89\tR\x87\x00H\x00P\xe0(s(L\x81\x00\x1d!db\x96\xd59:W\xad\x81Y0v\xe9Q\xcds\x8a\xdaWf[\x87w\x00\x81@$,\xaf8P$\x010\x01\xc0Y\x92Ce\xfew\xbd\x0b\xcd\xb2\xf7\xe9\xb8v]\xd8J\xce\x04\x016LZL\x06\x03@`\xe8+\xd0\xc95\xb6\x86\xcfM\xae\xf7\xeeX\xda\x9e\x90C\x83\x80\x00\xd0\x04\x06PI\x12\x0c\x1cH\x92p0pppp\x08pp\x00pt\x1c\x0c\xeb\x7f?Q\x7f\xa3vf\xa2\xe6\xb6\x8d]\xdb\xa6\xdc]\x00\xc8\x04\xf47\x99\xf9\x1d/Muy\xc0\xcb]\xaa\xca\x16M;\x0fC\x08\xc0#q \x1c\x00G2\x80\x00ppp\x1488\x00\n@\x11\xc4\xf3\x05\x00\x0e\x0e \xa1\xc4\x05\x81P\xe7\x02\x0e\x88,\xc7\x0cI\x00\x82\xc8Y\x86Ie3\x8f\xb6B\xb9w\x12\x94\xc3\xc6Z\x9ek\xdaU3]\x1c\x97&gt;\xde\x1e\x99 \x04\x85\x95\xe2\n\x1cAC\x88\x00(\xb1Y\xf7f^g\xb3W\xaa\xedC\xd1\xf9\xcbwW V\xc10\x98Z0\xea8\x1a\x0e\x90C\x82\xbe\xacV\xb6\xc8\xd9\xeb4\xde\x8b\x96\xbb)\xe2:g\xa4\x199C(h\x06\x03\x00\x81\xc0I\x12x\x04\x048\x048888\x008\x05N\x04k\x7f9f\xbf\xd2[\xf3R\xb3[\x9c\xd7v\xfb\xb7\x10Dt\xcf\x12*\xfef\xe3t\xbd7\xd9\xe6\x96V\x0e\xab3\xcc\x9av\x0e\x86\x01\x83\x86\xe1\x808\x00^h\x00\x00\x00\xe0\x00\xe0(\x14\x00\x00\x80#\x83\xa4\xe0\t\x02\x0e\x06\xd2V$\xa8Y\x08gb\xb9j\x82\xd4\xd0\xf2\x14\x97\x80\x82d\x98\x80e\x8d\xae\xda?\x1f|\xe5q&amp;3\x12\x14\xb2\xaaf].\xe9\x9b\x0f[\r\x8b\xb3\x93\x89(t\x80 \x01d\xe8P\x00\x00\x02DRy\x9dz\xd7\x17\\\x15\xd1\xb6\xfa&gt;\x07iR\xac\x14\x12&amp;\xdf\x87H\x80\xc8!\xc0\x04W\xe1\x9b\x97\xda\xdf5n\xad\tK\xda\xac\xca\x04\t"\x03 \xa80\x1e\x03\x01\x89\x10\xe0\x10\xe0\xe0\x10\x10\x188:g\xa0\x18\x90d\x12@:\x00\x02+y\xa3&amp;\x9fK\xee\xcbR\xa2\xcc\xb6\x9d\x1e\x81\xdd\x88V\x06d\x03\xa1\xbc\xd3\xc8\xe9\xfak\xad\xcc#D\r6P\xb2\xeb\xd77\xf3\xf8\x9e\'\x86\xe8\x8e\x00\x14\xb3\x1c\x1d!@\xa0\x00\x00\x01\xc0P\xe0\xe9\x8e\x93\xa4(sG(\x0cc.R\xedD\xa6S\x89|\x135L\xf6;\xacJ\xb26\xd6\xe5Ym*D\x92\xd8\xa9\xa3Sy\x1beji\xf6#\x88V\xc4\xa9Wzx.\xb0\xf5y\xf6n\xe6!\x00\x02\x80\x10\x13\x00\x00@\x01\x00$M_4\xf3}\xb8\xec\xd6\xbc\xecr\xf4\xce\xc78\xa4\x92 \xa0\x916\xfc:D\x05\x81\x03\x00\x05^\xab(\xa9\xa7F\xbb*\n\xee"\xdb#\xe5\xe1D\x91\x00\x0e\x01\x80\xd2\x18\x9e\'\x80H\xe28\x90 \xa00\x1a@\x0e$Vy\xce\x93\x90NCB\x84\x9d\x07\x981k\xf4\xee\xfc\x95\xba\xad\xc7\xb3i\xf46\xdc\\\xb0f\x04:\'\xcd|\xae\xb7\xa5\xfa\x9c\xa2\xb4AR\xd4\\\xbb5}\xf8zg\xa0\xe0\xe98\x00^\x0e\x00\x0e\x80\xb2p\x16\x00\x01\x90\x03\x80$\xe9\x02$%i\xc5\xf9\xdeke\xb6d\xc85VQ\n\xae\xf2\t\x00\x9cI\x90\xcbi\xec\x02\x88K\r\xfa\xafF\x81\xba\x02U\x8d\x17U\xb9\xfa\xa6\x90\xb1,\xc3\x90\xe9\x95\x94\x99\xc6{\xf5N\x86\x19^\xbeN\x00\x90 \xe1@\x00\n\xc1@\xa0H \xf2\xed\xa0\xf9\x8e\xb5z\xd4\xd9\xbd\'\x0eCM`)@\x80@\xb5\xe1\xd4 y\x93\x90 !\x12\xb3Y\x8dV\xc9\xcdMFX\xb7A\xb30\xc0 !\xd2\x08\x00p\x18a\x01\x0e \x00\x08$\x84"&amp;\x86\xa7fy[!\xeb\xccE-k\xd7\x18\xc7&amp;\xc64I4\xce\xf1\xd5\xc9%!`\xf3&gt;-\xbe\x9a\xe9\xe2\xafb\xd1\x86f\xd5\xb5i\xcb`\xb2\xa7\x96(2\x8b/\x97\xb8}\xdfQ\xf68\xc4x\x82\xa6h\xf96\xea\xfd\x1c\x1c\xb3\xc1\xc0\x12t\xc8\xbc\x02\x83\x07V\x0b\x9c\xa0\xb1\x07IP\xa8\xb1ZY\xac`em\x02\xf25A\xdd\x93S\x1b\xc3\x9c\xbe\x9c\xe6\xfel\x87G(\x8a\xf9Y\xc2\xbc\xa8Z"R\xae\x19\x0fc\xaaK\xcb\xd5`\xb6\xb8\xaa\xe2\xbb\x99\xcf\x96\xfb\xd6\xb6\xb0\xbaI\xb0\xc8\x12\x04\xc4w\x10\xa7g#\xedTp\x00q% \x08\x00,\x9d!\x00$\xcex\x9d\xa8^.\xc8\x9dyv\xff\x00C\xc66\x8a\xca@\x01\x00\xa1h\xc5\xa0fZC\xc9\n\x98-#H)\x11\xbbC\x9c\x15\xe4x\xa2\xfb\xb5\xb9yg\x980\t\x00\x1d\'\x07\r\xc0+\x03\x07H3\x18\xff\x00/MZ\x87o\x91\xea\x8bb\xb6Qg\xd8\xb9\xf7\x13K\xd8\'z(\xa6\x94\xb7^\xac`\xb5\xcdU\x0c\xb6\xc3j\xb7\xd1;\xf2yC\x8b\xdb\xa24i\xbaj\xab\xc1o\x16\xff\x00\xa2\x92+R\xf0\xea\xf4\x17[\x936\xf5D\xa3Q\xb1j\xd4\xfa\x9c\xf1i\x81\xa2\xe6\xb9\xee\x97\xd1T\x8d\xf4\x8c\x03\x00\xc0\x14\x94|C\x8d\x04,\x1eO\xe3\xcd\x87$9I\xd3\x95\x9a\xc2\xd7dg|\xc7\x11\xac\xf5W,\xb3\xadZ\xe3z\x8a\x0fC\xcd+\xd1\xc1x\xdbT\x8d\xf4\xd8\xc9B!E\x97\x11\t\xc0\xee]\x9f\x0f[.S\xb4\xbec0E\x81\x1b^\xed\x97GS\x92\xc4\x11\x88~\x0eDq\xdb\xc4}\x14\x04\x81\'C\x01\x05#\x80\xa1\xc0\x13\r\xd6\xfc\xa7\xce\xf7"\xb3%\xbf\xb1\xcf\xbe\xf4\xf9\xdc\xe0\x01@\x00\x81`\xcd\xa0B,y\xa1b\x87\x96\x14\x03=M\xdaE\x9c\xf8\x9a\xde\xaa\xb7\xdf\xee\xcb\xd0\xdd \x8b\xc2\x81"H\x80\x80\x80\xac\x89&lt;\x1c\xa6\x17\xcb\xd1Xv~\xabE\xc3{+\xe3r\xdb^\x11\xe7oKT\xbd(\xb3\xeb\x9dG\xa5\x9d\xe3\xc6]\xcc\xba\x07%\xab[\xa2\x16\xdd\x1b\x0fG\x9bA\xcfg\xa9:\xfc\xd4\xd1\xa3af@\t\xf3_\x9b\xefi}\xce\\R\xb5g-\x95\xaa4zs\xaf\xcb\xafP\xf5\x1cZ \xf1\xed\x9b\xb2\x9dO\xad\xcc\x1bG\xf6\xc4\x16x\xf3\x1f\x04\xacU\x12\xd5\xcc\xadm\x03\x9cd\x8a\xce\xd9Y\x1e;K#\n\xe9\xd20\x9b\xab\xbc5\x9e\xb5\x8e^\x8d\x17\xb1\xe4\xca\xd1\xea\xdd\xf8\xa9[hf\xcb/#U\x13\x88EA\x99\xef?\xb1\x972\xd9-\x93D\xc2\x97mS\xbb\xec%,Y8d\x015\x82\x10\xe6VC\xb9\x88\xd6\xd2\x13\x01,\x01\xc2\x94\x02D`fH\xaa\xc5f\xe8S\xfc\xf7N\xa8\xcb\xb6\xfa^\x0b\x9b\xea\t`\x88\x00)%\x82]m0FR\xf3O\x11\xe9d\xab\xd20\xd9\x9d;t\xbbp4\x1a\x8dV\x8d\x0fVc#pp\xa2@\x92  u\x91\x0e\x83\x80diSd\xe8\xee\xe2p\xeee\xae\xea:\xf8K\x9fc\x97+\x8eY7Re\x9bU\xa9wx\xc7y\xda\xae\x17\xa6SN\xfd[\xa7\x93x\xbf\x17\x9d\xb9\xbd\x1fKv9\x9c\x02G\x00\x07\x9e\xfc\xefo\xd1\x1d\xeeHYM~\x9d\x1eU\xe4\xf4\xb6U\xaa\xbf\xcc\xb6(q\xacKu\x17\x8bY\xd56\xceo\xe7\xe14d\xcf\x97M\x93]y\xef9\xe7t\xd1\xb5n\xcc\xd7\xa3CVd\xeb+5l\xae\xe0\xd3U\xc7e\xaa\xdaB\xbd\xfb?+\xd6\xe7\rNo\xbf\x8fp\xc7\xa7o\xf4\\\x03\xec\xca\xe8\x18\x05A\xd7=Q\xf5\x91\x11M\xb7\x0f=\xa5\x0c\xb3c\xb1i\xd4\xc5\xae\xeb5\x9d\x8d7bI\xc4&amp;LZK\x98U\xecY\x9e\xee!\x9aBd\xaf%#\x85\x00j1*!\x8b\x1e\xcaT\xf9}h\x1em\xed\xb4\xe5\xd7\xfd\x07#\x9c\x00\xe2\x08\x05&amp;\xabV\x8d\x00N\x85\x89\xa9\x9aM\xa16Z\xdf9\xabL6\xae\x9e\xa5f5!\xa8\xcbn\xb1\xaf\x1f$\xf0pp\x08p\x1a\x01\x0e$@\x00\xc4t-j\x9bp\xfeu\xf5\xcc\xb6D$\xbe\xc2\xd2\x1a\x88D\x8a\xf45\xbf\xa5TN\x08Z\xeb-\xf7\xd3\x9ca\xb2\xd3\xa1\xa8q\xbf\xd5\xbd&gt;F\x91\xa1&lt;\xe1\xc6\xe9z_\xbd\xc9\xe7\x91\x02\xac\x88\x9ex\xe2\xf7=\x15\xdb\xe43\xa4\xf3\xc7?\xa7#\x89\xa9\xfc[c3X\xff\x00eP.\xb7\xde\x9d-\xf3_\x11\xc7\xd0\x83\xe7&lt;\xca\x1aU\x1e\xaf6w\xbb\xcd\xd8\xfdG8vgJQ\x95\xd5\xc6\\\x8dZ\xd7\xf9\xe6\x0b&amp;\x98\xef\x9c\xfd\n3\x97\xd5\x97\xc3\xbe\x9fu\x12\xd4\x16:,\x9c\xf4~P{|\x99Uw\x04F\xb1\x9a\xdef\x13\x0cy\xdao\x9c\xab\x10\xa5\x9fgc,&lt;\xbev\xae\x8aJ\xdc\x8f\xd0n\x08\xabGR\xcf\xad\xa6{\xd0\xe0\x06\xac$\t\x92\x8b\xc4\x00G\x16E\xa36[\x1d\x89F\xf3=\xc8\xa8\xaa\xeb\xd9\xe7\\\xba\xb8Q\x05C\x85(\xc4\x06p\xf6:\xa4\xc4\xb7TA\xaeo\x16N\xcar.[N\xcdJ\xec\xb1K92i\xdd\xf4c\x05\x8e\x0e\x0e \xc4\x80\x08p\x18\x0b\x11\xc0\x8c\xc3\x1a\x1b9\xcft\x04\xd9\x94\xf9\xa6\x9a\xd7b\xe8\xd0\\\xdbUGi\xae\x81\xec\xd2\xcb\x03D\xe9\x873[\xc9g/en5\xefZy\xfe\x83\xdbO\x97x\xfdoUwxef\xe5\x8e\x89\x07&lt;\xe3\xc6\xeez\x0f\xa7\xcc\xf3\xf7;\\~6uL\xd2\xf8\xed\x15/!\xa1"l\x99\xcd\x95NSe[\x06\xa6U\xa3\x8a\xebt\xf9d\xbdO\x1fl\xfa\x17\x19+\xe8g\xa2\xb2\xc3\xb7\xb6\xa8\xf9#\xd9\xc8\xf4\x0e\x1e\x9c\xb7\xc5\xfe\xbbY\xae\xd6)%F\xbbf\x9a\xdd\xa8\xc7g\'O\xedq\x14\xd1\x99\xd0\xa9\xbd\x8ct&amp;:\xb3L\xe3\xdbdFw\x8d\xa5\xd9\xebXZ\xc9\xb2v\xbe\xb6yR\xb1\x99fKuh5\'\xaeI.\x86G:\xb3\x99\xa3\x9e\x01\x93\x80!\xa3\x07&lt;G\x13V\xc3\xba\x03\x85\xba\x06\xf9\xda=\x07\x9fWB\xb6[\x16jy/\x08\x94\xea\x96\xf9\xb4Yu\xe7\x18n\xa9a\x9e\xe0\x16|\x81\x85\xcd\xa9\xd7\xa7_\x9cV\xac\xc2\xad:\x95\xf5r\x03\'@ !\xd2t\x1cA\x89\x05\x1b\xac\xf9\xdb\r\x94\xac\xee\xbc\x9d\x91\xb2\xec\xec\xe1\x8b5c,\xcc\x85\xaf\'3?\xd7\xcf\x1d\xa1\r4\xd43h\x97\xd4\x9a\xbe\x85\xcd\xb1\xec\xddvV\xfe\xb31\xe5\xf45n\xb6\x12@\x8c\x0e%\x1dDy\xff\x00\x07Fe\xe8\xbd\xd1]\x07\x9fc\x88\xd1\\\xcbC\xc2\xd5\xd2\xd0\xd3\x9a\xbb\xa8s\tY\xcds\xed\xb4)\x9e\xb5\xb4G\xa0\xfe\x8f\xe6\x1e\xf5\xb15\xb5Xi\xa66]\xc5d\\2,\xc8=\x1dF\xc9O\x8e\xfdN\xa7\xcc\xde\xea\xbb&amp;\x92\xe9J\x80\xb1&lt;\xf3\xd0\xe7\xd5\xf6`\xb3\xc4\xde\xa85\xaa\xe8\xd1\xb5\xe5\xc5:4P9/,\xcf\xd9\xec\x86\x88\x83X\xd7\xef]\x07\xa7T\xe0\xae\x88\x8f$\x08X\x12\x88\xc3\xde\xb6\xf5%\xe3L\x91#I\xe8\xe5\x91\xdfPD\xc7\xc5\x89\xac\x1al\xcf|\xefU:\xadj&amp;\x8d\xd1\xad\x9emQ8\xf5\xb7\xc3\xb9\x1a\xaeI\x1d\xf5\xf53\xcd\xaf_\xf7\xdf9\xe2OTS\x1b@Ew\x86\x80\x85\xa3\xa6\xab\x9b\xd2\xe9S?\xae\xed\n\xfa\x8c\x8a-#\x00\xc1\xc1\xc1\xc00t\x82\xb3\xe7&gt;e\xb8V\x07I\xe5xf\xd8\x86\xf71\xa483Y|\xf0\xd5\xc9v]\x97\xa3]5\x92\xbd\x86\xf9\xed4M\xeaU\xa8\xdb\xea\xae\xae\x03\xaa\xf9{\x8d\xd6\xf5\x17W\x9c\xc2V:&amp;zb\xa5N\x8f-\xf2:\x92\xb8\xb0\xa5\x87C\x19W\x1bl\x84\xcf\x99z\xadgs#}N\xec\x98Z\x99\x9b\xc2\x84;\xac\xd9\xfd?\x13J\xf7&lt;&amp;\x17\xd3\x1f\xa2\xa8\xcd\n\xd0x\xac\xd6\xc7C!2\xbd\x94.\xb6\xad\xf2\xef\xa3\xd6\xfc\xcfz^\xab\xa7\xe9\xbeX\x8a\x8bF[\xb3\x05\'\xa5\x80\x93\r\xa1[\xddN\x93\x95w\xba\xa9\xc9\xb9\xf5\xcb4\xd6t\xd6\x9cKZ\xe7b\xdc\xb7\xdd\x8a\xfaI\x98\x88\xf9\x87\x8d%\x82&gt;\xa9\xc5rMC1\xbb\xf4\xe8\xc5/\xbfS\xc9e\xde\xfb\x14\xb1\xab8z0x4\xae\x8c\xa6\xfe4-\xf56\xe0\xfak\x06N\x85~\xea\xd9EwK\xe8\x94\xba\xb3_\x86[^g\xf6\xd1e\xf4~|\xd3#TW\xdbJ)]\xae\xc8$WO\xcf\xa2m\xd2n+\xa3\xc6\x9be\xd5\xbf+4\x9d\x121\x00\x02\x00\x02\xe4}\x07\x98\xf9\xd7\xe5\xd9\xe6\xaa\xf2\xb2\x8e+~\xa81,\xacb\xda6a\xcb\xab\xfa"B\xa8\xd1\xba\xb5Z\xebz\xbe&amp;\x9f\xe8S\x02\xc3L\xba\xbd\x89\xd4\xc0\xe5\xd3\xcb\x9c\xae\xb7\xa8\xfa\xbc\xbe\x06\x11\rV\xea\xac]\x87\xf2:Q\x98\xb34\xcb,\xe6&amp;n\xb1\x96\x18\x81\xb02D\x0fF\x0c\x8az\xe5=C{\xeb\xb7\xdfV\xe7\xec\xfc\xfd\x9f\xaf\xcegr\xc1i\xa6!\xc4\xe5\xea\x19\xae\x8e\x87\x01\xa5\xed\xce\xb0\xc4\xf0~\xda\xa3\xe2}t\xc6I]\xec\xafY\x10\x92\xda(P-\xc9G\xdd\x90\x1a\xab\xce&lt;u=\x19-\x93\xa1\x82\xd13K4z\xc8\xc4|?\xa1-[~\x88\xb3\xc8\x9a\xaby\x1c0\xb0C\xe6\xd3\x9c\xf9\xbfLz5&amp;\xbbdIy\xa31bZ\xd7(i\xce\xfbfE-\xc8\xd3o*\xb7dj\x94h\x9d\xba\xb8\xd6\xa2\xcbjJ\xb5I\xc2\xd2\xd5\xe4\xe2+\xea\xc5\xec\xf2\x94\x8b\xae\xda\x12\xa2\x97.\xebe\x89\xa9d|k\x06\xfb\x07V\x9d*q\xd7R\xeb\x85\xd9\xac\xcc\x86$VxV\x85\xae\xe6\xb4%\x97\x95\x88\xa8\xf2\x7f7Vw\x95\xa1\xe4\t\xb2R\x85`\xd1\'C\'d\xc4\xdf\rn\x1cRMf\x83\xa9:\xea\xfa\x97\xb3\xee\xaa\xf3\xd4\xabN\xbe\xbc\x03\x93\xd2\xd37\xe2\xd4\xae\xab\xcf\x9c\xce\x87\xa7:\x9c\xd3\xc1\xd2\x00\x0c\x1eJ\xe1\xf7\x96\xcf\x96\xb9TD\xbb\xccM\xf1\x9c\xda\xdf\xe7V/[\xad\xb6\xb9\xadW\xb6\xb8\x1e\xbdL\xaa}\xd7\xb5\x82\xe5\xec\xf8\x08]\x95\xb5\xf1\t}Q\xc9j\x0c\xd9\x1e=\xa9\xa4\xb9\xd1]\xe2\xcc\xccZX\xf9\xfe\xeey\xf3o}k\xc4\xf5m0-\x1aF;\xaa\x17\x11\xf7UZ\x9a\xe4\xec\xe7\xca\xe3\xe6\xb6\xd7\x07K\x1e#\xa6\xd6)q5\x9fU\xb7\x97\xba\xef\xd6\xc5d\xe8\xf2\xec\x8d\x04 \xa4\x1cW\x0bdfmu\xfe\x1f\xa3}\xaf\x13\x8b\x92cVWO\x96M\xd1\xc8\xb2\x0c\xb1\x96Fk\x9fD\x14\xd1[K\xefVQ\x04\x85i\xe5)fh\x8bX\xd2\x0c\x93\x13\x12\xb2T\xb6b\xae\xe6\xd7\xa8u\xb0\xaf\x13\x1fE\xd09\xb4c\xdc\x8d\xa8\xdb\x16}sn\xd1\x9fL\xd5\x9e{o:qT&amp;\xb8JtX\xb4S\x1d\x0f$+Q\x9e2\x1e\xb34\xe7j\xf1\xdf\'b\x8c\x92\xd9.\x8d\xb2\xb6V\xc2\xab$Iv\xf3\x0f\xa4\x92\xaa\x17\xa9Ra\x17,9\x97\xd0}\x8c\xf6\xbd\x11Pt\xcby\xbd\x1fcu\xb09x\xf3\xe7\x1b\xab\xaf\xf5y\xb2\xf6\xd4\xf2`\xe4D\xe3\xd1\xe5\x8e\x17q\xbdx!\xab\x98Ko\xbeW5\xfc4\xc6\xc2\xb8(\x92{\x99\xdf\x01B\xcfu\xaa\x89w\xd9\xbdw\x1e[\xad\x9a""c\xb1\xca\x8f\xbd!\xb1\xebE\xe3\x02\xc3\xd6=\xb4\xdc\xb4\xe3\xb4\xdd\x9d\x9c\x8c\xf2\xe9\xcd|O\xaf{\xe5}\x06\xaf\xce\xd7R\xd1eB\xfacn\xa8\xb6U\xa1s\xba\x13\xf9\xa9\xe5\xban\x8b\xedU\x8bH\xd1\x99;!;VZ\xda$\xba\x9c\x17z2\xcf\x14\xbd\x98f\x0f\x99A,IY\xf3\x11\xf6\x15\x1a\xad\x80P\xc2\xc1\xd71\x12 \xe3\xca.\xb9KFY\x9e]\xd2\xe1*\xed\t\x8b\xa3\xa4l\x80(@k\x16Tf#\xbd\x1f\x1e\xb7\x9a\xf5\x986M\x18\xbf/\xa3\xd4\xe9\xaf*\xa9\xa7\x9ej\xa5)\xb6\xde\xf3\xb3\xf7yz\xff\x00G\x96\xce\x87\xac\x96\xdc\xef\xca\x89zy\xc7\x0e\xfc\xf5Q\xb9\xd7\xe0\x1cn\x8d?&gt;\x86\xc9B\x16X\xdd\xe19Vw\x0b\xa4\xc7X!dL\xd3=T\x12\xe1d\'3\x16\xedu\xeb}\xdczm\xf9\xb0&gt;\'^\xeb\xb76=\x9be\xfb\x0e\xcb\xf7s\x8f`\xb2\x99v\xa4\xb34\x0en\xdcS\x83\xdcvs#\x9d\xaa\xcfm\xf2\x89\xae\xe5\xa6:I\x9c\xd5?\xcfk{d\x95fq\xb3E\xa3\xba\x96\xeeo\xa5\x9e\xc7\xd1\xad=E\xfa7\xce\xa5}\x87\x9a\x87\xcd}j\xab1&lt;\x1d{WS\x0b\xf3=\xbbV$G=\x16T0n\xce&lt;\x87\xa9\x99\xe1\xf5\x8d\x1a]v\xf8\x84\xedrgwd\xf47\x8a\xf5v\x8f+\xe8\x14\xbe\x85o\xa2kFy\x0b\xb2\xb6j\xa4\xa6\xb8Dj\xe2C}U++90+\x08L\xbd\x90\xaaV\x12\xca\xc5v\xd9\xca\xa4\xdc\x7fb\x1e\xb9B\xa7x\xec\xd5\xcam\x172\xb5kQ^\xf5u\x07\x99EC4\xaa\x11\xf5\xcbE\x1b\xc47\x86,\xc7\x92\xf6b\x8a\xcf\xb5\xd5z\x96\xae\xc8\xbalB\xe7\x8cz$t`gX\xda\xc6\xbe\xd3\x08\xe8=\'\xd8\xe6\xe7\x9c\xed:\x07S\x9fbz+x4\xe3\\-\xad\xd2\xed\x8f\xb9\x8a\'A\x84\xf0wB\xc5\xa3b/J\xb3\x98\x8c\xb6N\xf05\xcb]\x10\x85\xc2\xd9\xc5\x14et\xcbP$E\xa6\xdc\xde\x8c\xf4\x18%\xe1r./_\x13\xa7Q\xe2\xcd\xc34-\xd8\xc5pjf.G$e\xdc}t\xbeGqU\xe6&lt;iRU\xd3\x94\xcais\x03\x12\xa5\xd2U\x89F\xdae3]\xa5i\xf46\xfc\x9d\xa2\x90\x94\x90\xda\xb2\xc7\xfd3\xe6\xf1\xfd\x8e]+.\xcc\xe2\x8e\x85\xe3\xb3\xc8J\x99\xd1\xf6\xe0o\x0e\x8ew\xac\rH\xe2\xf5\xe1\xb9=I=\x19\xe5\xba\xfc\xe6\xd2(\xa7\xa6\xbc\xf7N\xe5\xc2\xda\xde]\x84L|BD\xb2\x1f\x91\x93\x85\x9aV\x93\xbe\x95D\x98xp\xb1\xc4\xad\x12D\x05Y\xfdo\xd2U\xdd\xef\xafDer\xd1\x1c\xed5\xc9)\xd0$3\xb8\xaf[\xd3J#\x18\x00\x15\x08\xd4\x96\xb1-\xa0J!\xec\xc7\x8eWTUo\x1b\x16;\xb6\x88\x85\xad\xbd\xc3{b\xd5\x8a\xf3\xd6\xf2\x8d\x13\n\xb1\xb7S\xbdu3^\xb4\xd0\xea\x16\x03#\xf9\x7f\x95\xa2a\xe0\xd9\xf5@j\xab\xd0\xbd\x0c\x9e\x7f\xe5k\xabhi\xaaf\xbbm(9\x0f\xaa%\xd6\x08\x93\x150\xe9\xc7\x95\x08\xa8\xca\xc1j\xc7\x0el\x16\xe4\xdez\x98\xe6\x9d\xb2\xeeoO\xcd9t\xb1\x83s\xa6\xfa\x0b\x16\xac\xcb-t)\x15\xd5\xf0]\x1c\xda\xe4\'\x9b\x02\xd1/\x13,\xedS\xcd\x94%Y\xbc\x96eh!\xf6&lt;\xb6Z\xfd#\x8b\xd8M\xe6\xd6\xfd\xeb+D2\xddK\xefp(\xdfA\xf0\x954\xd3TMW\xee\xc7\x16N\xb9\xf4\x7f"\xdc\xeb\xa1\x14\xcd8\\\xe8\xae\xb7F\xba/;\xa8\xf2+\x7f\xa3;8h\xac\x9a\xfdg\xc5\xd3\xaap\xba\x13j\xd1(?\x15\x80\xf1\xcd)\xc0\x8c\x13\xb0R.R\t-b(\x1c\x0b\xab\x16\xb9r\xb2\xfa\xb6Q\xe1\xfd\x8a\xa3\xc4].\xd6\xbb\x10e\xa2\xab\xb2\xbe+\xd5\x1a\x85ky\xdd\x9d\x8a\xb9\x01@m\x03d\x17\x98\xe1\xe3\x89FW\xc3\xd8\xeeT\x96\x1a\xe1{+\xaf\xaa\xca\xd4\xf2\xab\x16\x1c\xfa!\xf5S\x1fD\xc9L\xd8\xa3:v\xd9\x06\xd1\xa8\rOX\xb1\xca5\xa1\xdaP\xd5\xb7t,\xad\xab\xd8GY8\xb2\xb0\xd9\x9b\xdd\x11\x0f-\xdd\x1c\xc0i\x1cD\xa3\x02\x89\x0c\x9cZ\x04\x82\xe8\xab\xe8{\xd2\xdf\xa6\xbc\xf3\x06\xdf6.\xb6vF\xd5\x96+\x11/+\x84\xd4Q!\xa2\xcb\x07\xbe\xc39"V\xb9De\xed\xb2\x06\x9c\x8c\x9a\xb6\xb6C\x9a\xc6\xcc2\xd3t\xado\xe9.7\xb2\x9fB~\xca\xd9\x03\x05x\xc8z\x07\x7f\x8d\x86{\x1f3\x1d\xb2\x8bGO\x93\xa4\xaem\x93\x9db\xd8\xb7\xe0\x1d\xac3}\x0c\x8cRh\xd96\x96\xb7\t\x10f\x8a\xc3\xb7\xdb\x9e_~\x8f\xca\xd4wX\xe5uac\xe2RiI\x1a\x11\xa6\xc1\x11O\xb5\x9d\xceu-G$\xb4\x98p\xb2\x92\xbc\x9dC\xc4g\x16D\x8d\x95\xf3Lm64\xae\xc6\xc5y\xb0\xed\xe6[A\xb5MRz\xa9f\xae\x90\x08$\x18\xd4\xcdV\xa9I\xc6\x131\xab\x19M\x16X\x9a\x17j\x0b\x16AT\xef\xa5\xf9\xd6n\x96\xach\xae\xc7\x92b\xb6\x0c\xe5\x18\xc4H\xc4?\xaa\xf2\xd72H\x16\t{%\xba\xcc;${\xc5\x99f\x12\xd5oQ\x13\xa5fiH\x0b"&gt;\xf1\x8d\xa1V\x1f@\xaaKy\x1d\x01\xd0\x9f\xa2\xdb\x96\x0b/:\xeb\x88\xd72GA\xbdR\xd6s\xd0\x95\x1a\xd2\x8f\x12\x1c\xd6\xf0\xd7C\x86\xd1?\x19\xdb\xa2H\xe7W\x9a\xde\x88\xb4G\xba\xb4t{P`ok\xdc\xf3\xef\xdcy~\xbax\xa6U\xa9#\x08\x92\x9c\x11\xd5Nq\xdb\xe7\xe1&gt;\xe3\xc9\xd8;|k\xf5\xbc\xcfY\xf8\x9fMD\xb5i\x9b\xb38\xd4\xb9\xdfc\x9c\xf3\x9f\xd2\xa0D\xc5j\xa6:\x1c\xf9/\xf7\x9f\x8c\xecNau\xaf\x84RO+\x10\xad\x1d3.\x10\x10\xd2\x114w\x99\xc7\xce\x16G@\xdd\x89*\xe6=\x1e]a\xc24\x95\x8b\'r\xa7$]\x0e\x85o\x14\xd1\x99&lt;\xf5N\xed#Y\xd3\x9d\xf5\x8a\xce\x19(\x13$\xd3\x11-\x19\x9e\x84\xcd\xc2N\x16\xb2E;\x9b\xad\xab2K2\xcd\x11\xf3X3\xb1\xb2\x17\xa9\xadhWH;K\xe1 e\x9a\xb0\xe9ZV\x8bB\x15\xa3-\x9aG\xb4\xcb\xd4j\xd5\x84\xa3\xd4\x8a\xd8\x82\xd1Z\xbc \xb5\xedP\xdd\xc4\xe2%k\x83\xc4\xc5\xb4\xbe\x81F&amp;\xa9k^K,\x84Mu\xa8\x8a\xa6\xc5\xb5\xd6\xe2F|\x8e\x8c\x1d\xd4\xd7\xf2\xc3\x8a\xect\xaf\x1e\xca\xf64\xc96X\xa8\x85\x16\x9bf\xa8\xce(\xa4\xcd0\xf7\xab\xfa\xe1\x18\x85\xc1\xfak\xbd\xf3\xbd\x8d\xa3=\xb7\x89\xaaN\xca\x9d=f\x91\xaa\xccb\xb5\x13\xa7\x8b.\xfag\x81\xbe\xfa.\x14\x877M\x97\x95\xbe\n\xb8\xb2\xb5W&gt;n\xba\xdb[\x8e\xee\xa6\x99\xbe\x88\x1a\xb5\xda\xe8\x8fD\xf8\xae\xdd.&amp;\x12\xb5\x84\x88A\xe4V\xd6\xd5\xb7\xaf\xa5b\t&lt;5x\x8bF\xac\xb1\xac8In\xe3\x84"\x90\xb5\x12\xf2\xb2Q\xe1kD\xa0b\x8c\xca\xb9\xa5W}SVh\x1b\xe7O\xc97[\x11\xd3\t\x91\x1c\x8e\x10:u\x91\x94\x93\xd6\x9e4f\xb9\xa9\x9b2\xd4\xf9\x1ac.\x17\xaa\x194\xcb\x93\x0c;\xc9\xa9\xb3\x0e\xa9\xb6\x0e\xc2mH\xbbR\n\xd2\xd5KE\xc4\xcaH\xd5U6\'\xd0\x95\xa9\xe6\x12\xc2Z\xa8\x8c\xde\x84\x87\xb5\x194)+\x17r\xc3X\x84a\xe5r\xc4\x83;9HJ\xc2f\x8bt\xe0\x9a\xe8\xe3\x88\x19\x86K\x9b\xdfT\xb4\xcb~?]&gt;\xbf*P+\\\xdd-3^j\xc3\xc6\x97\xaf\xcfD\x87\xa4Nl2\x94\xa9\xf5j\x84BV\r\xe4N\xf9I\xd3a\xf4\t\xdf&lt;\xf7\xf6\xbc\x9agZ\xa7\xed\\\xc5\xb4\xbc\x98k$:YX\xe8\xe1\x8a\xfao\xce\x96\xecq\xaby\xf7;\xc1\xa3g\xe5\xeacu5+\x15\x85;rn\xdf:\xb9\x9bf\xb3\xcd\xb3m\xf1\x9d\xaf/]\x06\x85\x92\xa2\x1c\xa0\xd2\xa9\xb1\x96z_K\x0b\x8d\x95\xe8\x11\x1a\x06\xcc)\xcb,\xac\xd5\xd4\xe4\xc8\xa2=\x8b](\xb1\x08\x90\x94\x8c\xa5\x92S1\xa3s\r&lt;\xfa\xf5\xd3\xbag\x99\x96W\x0c\x01\x11\x88\xe9\xc4.\xcb:\xc9#\xb1&lt;\xc4\xd3mB\x915\xe1\xfc}\xeb:G\xccF\xdb3\x95\xbb\tz\xdd\xb4\xbeY\x9d\xa5\xe9\xba\x16JU\xfaD\r\xb0\xde\x1a\xc0\x89\x133p\xcdt\x88\xf5\x96\xaa\xdfM\x95;\t6\x89\xb5p&amp;\xa8\xe8\xabR\xf5]\x04X\xe7\xaa#H3(\xb8\xda%t\x8b\rd\xd9|\xae\xac\x8foF\xaa\xd3\x99\xee\xaf2&gt;t\x94\xcd\xa2\xad\xa6\x99M\x14\x8f?T.-eI_.\xd9\x8a\xf1M\xd3Yu4&gt;\xf9\xa4.Yl\xf1\x19|F\xdd\x08@\xd6\xe9\xbft\xf0\xe8\xfe\xeb\x81\x05\xe7}0|\xdb\xde\xde0\xe8\xb2\xc5M\xac\x16j\xa6\x9a\xb3\x961\x89\x81\xd9\x9a\x0f\xe8\x1e&amp;\x95\xdd\xe1F\xdeZ\xda\xbd\x13\x83\xd0\xbas\xf6\xe1=L\xb9\xc6\x98\x83V\xf4\xe7\x0e\xfd\'\xcc\xf6|s}\x11\x932"\xcdR\x03A\x92\xcfj+\xc74\xb6\xae\xca\x0c\xcd\xfb^&amp;\xd0\xce\x06ee+\xcc?K&lt;\xd2]\x96EqNB\x90\x04\x84L\xedG\xa5\xf2m\x0b\xe8\xc5\xec_MMW\xf9U\xe4RHD\x95"\x13\x0b]\x95\xa7\xb1&lt;\x94\x8fq\x93,j\xa9|\x9d\xd1\xa2\x12\xd9V\xd1\xccA\xd5\xeb\xa2\xcaC\xd9*\xb6\x05\xeb\x87\xb1.\t\x14\x0b"\xd9[\xbeE\xad\xda\x1a\t\xd4x6[\xa5V1Q\x14\xd3g\xc5\xdfU\xf3&gt;\xa2\x90\xab\xa0.GYBMTf\xa4\x1d8\x1aE\xd9\xf6\xde@\xb2\xb9Y\xb6\x15\x9b]K-\x8a\xca\xdb3\xddH\xb1^\xca\xd8r_K\xb9\x1di\xcf`\xad\xa0x\xfdg\xf5iyV\x97m\xce\x7fM+\xbb7\xe9SL\xcb\x1cQ_\xd6\xb24\xcby\x84\xedk\xef\xac\xe4[=/ \xdbj\x84\xf3^\x8a/\xe6\xdfB\xb4so\xb9\xd4&lt;\xb5F\xca\xe4"\x17\x02\xabE\xb9X\xed\xf2i^\xe7\xc8\xca\xf6x\xbd\x10\xadw\xd5r\xe8\xa1\xd3\xa6Y+\xf5\x87\x9f\xdf7\xc6\xe8\xf8OE*41T\xb0\xd56\x16kUv\xfa\xc9Z\x14\x82%\xb4\xa7\x9bn\x9c\xad\t\x9a\x88B\xca\xfa\x16El\xf2inc(\xc5\x86r(\xaeB5\x8c\xb6m0\xf0\x8ab\xba#\xd6\x06k\xac\xc4\x8c\xabv"\xabr,\x1ab\xde\xea\xcbu~q\x8bI\x1d\x1c\x8f\x0fn\xba\x9en\x01\xab;K\xbb\x15\x00\x92\xaeN\xa3k\t\xea_\xaa\x9a\xde\x85\xb8\xa5\xb0\xab[9\x9b:)\x8b\xeb\xd6\xd6\x98\x8d\x94\xb1\xab&lt;Fw\x93\xa2\xeb\x9b\xed\x06\xeeM\x92\x87_\x1fd\xf2\xa9YS\xaa\xac3\xd5\x1f\xb7\xcf\xa8t&lt;\xdf\xea\xfc3\xf4Il\x8f\xa4A\xd7\xe8\xa4n\xc4\xf1\x96\xcd\x86\xfa\x0e\xa1\xf1M\xd3\x1d\xf9\x86\x95\xd0\xb4\xd1jV7\x97\xf5\xef\xb8^\x92\xb9\xd5\xf30\x9apL\xe4\xf4v\xcc\xbaj\xbe\x8f\xc1J\xf3;t\x8d|*\xd6\x8c\xab\xa8\x93\xc4&amp;\x9b7/y\xe6\x94\xe9\xe4SEl\x1a\x9a\xdf\x03\xd25\xf0\x9e\xcak\x85\xd6\xbdV\x93\xec\x88Wr\x95\xdb)0\xe5\xeaf\xce\xd9\xaa\x80\xf6\x1eR\xad\xec\xbc\xac;53\x0e\xe8*\xad\xb4\xbeoR\xf9\xdd\xf2|N\x93=\xd4\xf9\xc8Z"\x10,\xd6t-\t&gt;\xcb\xcdtc\xb3\xc43\xabZ\xdb~G\x97!\xebc\xcc&amp;\xb2\xf4&lt;\x80\xf7\xd5\xe7&lt;\x1b\x89+\x96!\x14=7\x87U\x8a\xd9\xc9\xa6)\x8e\x9e\xb7\x8c\xf2v&lt;b\xad\xeeV)\x1c\xb2\xa0\xf3+cg\xd6\xf4\xfc\xe9\x97\xd5Ur\xf7\x13]+\xaf\xca\xab\x9a2\xb3\xd1[\x86U"Z$\xcbS|e\x93fT\x8eG;,\xb29k\xae:\xc8\x8d\xbd-1l%U\x8d\x92\xacE\x9a\xa8o{\xcc\xe2\xe8\xca\xf1}1.\xa9\xa31\xec\xcd+\x8f\xa8\n\xd1\xfa0\xb8\x8b\x1dD3\xb6\xbcG\xd2x\xcd\x03 \xbdSy\xc7\xba\xc5\x97\xb7\x83z\x7f"\xf2\xfc\xf6\xdcZ\xb3Mq"Qw\xcb\xa2\x81s\xec\x1c\xbe\xb4MV\xcd\xe6\xd0\xff\x00\x9f\xd2\xab\xf4\xb9U\xbd\xbc\xbb??\xb1&gt;\xb1\r\xdd\xf3\xf3\xdcN\xdd\'g\x02\x9d~j\xee\x99\xb0f\x98\xfd\xf5\xfa\'\xe9&gt;V\xabbHhX\xe4h\x99\x9aW?{\x8e?]_5\xdb\xb2\xf0{6|;&amp;)\xbaMVY\x92jQ\xbd\x92\x8a=[\xd0p\xb2\x8f]\xe6\xf3\'\x87\xfa3\xd8\xac\xa3\xd5\x1ek\xa1/\xc4\xe9\xab\xb6\x8a\xe8\xbe@\xa8\x85w\xb2\xa4[\xd5\xbdw\x9a\xe6v\xb5b\x87\x06&amp;\xb6\xe3\x91\xb5\rX\xac\x80\xb2\xe4\x9f\x1a=\x95\xc9\xa69\xd4\xaa\xcaQ\xaa\xc5M\xfe\x8b\xcc%u9}{\xd9\xd9N\xf3\xaf+)\xb9\x14[\xa9Z\xaa\xf0\xc5\x94P\xa6M\xb9\xdc^\xc5-\xb43]\xeb\xb3\x0e\xb3\x8d1\x95\xaa\xfa)Z\xdaWi%k!\rQ\xb1\xe5E\x02\xc7\x14YaZ\xe5\xe9\x88K\x9ev\xa6\x1b\xe2M"\x8d*\xe9]K\x19\xad\x95\xd8\xb1m\xb8p\xbd\\t\xabk\x1d\xdd\xfc\xc7\x98{\x0b5ko\xe6\xc7\xe6\xbd\xc2j+,7k\xc5]2,#$\xc5{c\xf3w\xf2\x7fU\xe3\xa4\xee\xcbi\xe7\xea\xcb\xb5\xc3\xd7\xcf\xa0d\xd3\x9f\xbb\xfaW\xcfz8\xcc\xfd\x166\xe2c\x87\xa7N\xed\xf0a\xf5s\xed&lt;\xce\xf5\xe13\xc0v|\xfd\x83\x8f\xdc\xcdz&lt;:\x95\xd9\x93\xb6.&lt;\xee\xcd\xeb\xa1l\xa7\xd6~YM\xae\xd9\xdb\xabe0\n\xd9\xee=\x90\x99\xf6\xb1\xcbj\xebt\x9f\x17\xa7h\xf3=\xfbG\x1b\xab\'\x9d\xa6\xde-O\x0f\n\xa3U\xab\x9d\x1c~i\xf5\xbee.\xe7:\xc9\xb3\x0f\xb0&lt;\x87]\x87\x1f|\x16\xaa\xb4\xfd\x15x\x0e\x8b"\xd1\xed5\xb5\xc4oIP&lt;\xb5\xaa\xd9\xeeqvk\x0e\x9c\xe0\xc2\xf3\x07\x155w\x88$I\x80\xc47\x99\xce\xf0\xfa \xc5\x0b\xf6x\xb4Z5\xb5\xf3~\xca$f6\xc4\xcdC\xa0"\xc9\xab\n\xeeX\x92\x8awX^\x9e8\xe7$\xf2]\x9av&lt;\x83K\x16J\x97\x8c\xd1[-\x19Y\xb4Zy\xfd\xe9L]W\xd6\xe7\x92\x88\x93\xc7\xbd\xccfN!\xd6N\x8a\xa3uB\xf6BP\xce\x11\xdc\x03\x16\xadFX\xeb-*\xac\x8dl\n\xaa\xb5\x89\xa5+\xc0\x85\x92\xcf\xa3\xc5\xb1d\xd5\x01\xd1\xf2l\xde\xbe\x92\xc8\xda\xdb`\xf4\x99_\xaa\xf1\x8e-\xcfj\xe7\xe9\xc95\xc3\xeb)\xd3q\xdf\x9d\x93\xea^Wb\xab\xcf\xeeBE\x9d\x93lW_\xcb\xd2\xba\x9c\xc9\xaegoK\xe7o\xae\xfa_.\x87\x0b\xa1H\xe8\xf0\xdeM\xcf\xb3\xf5f\xf0\xf6\xad\xbe\xff\x00\xc8\'\xef|\x05W;\xca\\\x8bJ\x99[+\xcb\xb6\x0f.\xc4\x12\xc3\xc5b\xf1h\xd5\x9a\xd1\xc9\xe8:\xf1^\xc2C\xcfv\x94G\xb5\x04\x8a\xa9\xec\xaa\xbd\xd4\xc9\x82\xfb\xcf\x15!\xd4\xc7\xec\xaf\x15\xda\xaf\xf3uWt\xd7\xe8=4x&gt;\x92\xbfT\x15\xac\xd1\x87\xdd\xb2X\xfe,\xa8Wt\xd6\xac\xd6+3\xf3\r\x1e\x1e\x8a\xdd]\xc2\x0b\xc4\x92e@Y\xa32\xab\xa2\xb6R\x12\xec\xb5h\xda\xa7\x03\xd6\xc7f\xd6\x8a\xc8C\x00#*\xe5`&amp;$u\xe5SV2]Lu\xd9\xdb\x0e\xe3&amp;\x8c\x97\xaf\xe6\x1b#\x91\xa5v\x98\xab\xb1\xc4\x0f`\xcf\xd5\x98\xc3\xda}n#*I\xe2\xeaL\xc66\x9a3\xbd\xc1\xbc\xa6\xc5\xb38]\t\xc2\xbc\x86t#\x07H\xe7b39F\x99\xce\xc8\x94\x05\xb2\xa5j\xb4\xa9\xed\x1bL:\x9c\xe4\xd5\xe6\xcfdUW5\x9f\xd9R\xc7\xc5\xfb:\x17\xa8\xf2/\xed\xc5b\xe7\xec\xcb4\xac\xcd\xb9\xef\x187Q\xa2w\xac:\xa3\xb9\xde\x82\x01bC\x0e\xb8~\xf7\x12\r\xf9o\xb2v4&gt;oR\x9f\xe9\xbc\x85\xf7\x97\xd9\x8d\xc3\xad\xa6\x1e\xec\xc7?\xad\x07\xd1\xc71\xf7\x9f\x85G\xf5\xb8\xf5\xac\xb7\xc8\\\xb2\x04 \x96e94\xc4Q\xb1\xbdV(\x06\xb1m\xda\xb9\x96\xad\x98\xfa\x8d1^\x7f\xb8\xdb\xc9z\xcd3\xcfu\xedY\xec{5\xc6\xb8\xc7\xa5\xce\xbau\xf8Wl\x96S\x16iwG\xa0/\xaa\x95\x19\xe1\xd3\x1d)\xf5\xab^\xbb\xa6{\xa7"i\xb5\xe8\x91\xd1\x92^\xda\x0e\xc2-\t\xcc*\xb2\xed\x19\xfa\xc9\x81I\x06W$\xcd\xd4:T\xc8ze}\x19\xcd*\xf5Uz\xb4\xc4a\xdfY\xc5\xd0--j\xe9r_\xf59\xb0Ix,D\xd1r\x0e\x8e\x1aQ\xa1\xb2N\x87\x99}U\xd6\xaa\xecq\x11\x94\xec\xc8\xfe:\r\xe2\xfb\x0e&gt;\x88\xe8\xe6=\xcf\xa9*:R\xeb\x95\xe2f\x9a\xc1\xdct\x9a\x18\x83\xb8\x14\x86+C\t\x873X\xad\xa6i\x91\xa1\x8dL\xc1\xf5\xb8\xb1o\xb6[&amp;\x88&gt;\xe7\x98Z\xcc\xf6\x0b\xb4\xb9\xe7_b\xbf\x90\x01\r\xb6\x82\xfd\x0f\xca\xd4\xbem\xef\xa0:\x9c\xa7\xfa9\x8fy\xfbs\xbd*\xea\xcc\xda\x07;\xa1Y#]\xc5\xa2\x03\x1f^\x16\xad\xd3\xd8\xb6\xc1\xf6\xb8\x05\xb3\x96\x86^\xa6\x93\xcb\xeb\xd3}/\x90\xd1\xb9\xfd\x98.Wr;\x07h\x8c\xeb\xfa\xef"\x1fa\xf9\x03)\x88\xac\x1a\'l\xad\xe5\x95\xb3\xae\xfc\x8f\x1e\xf8z4\xf1"\xf0\xacSf\xd7\x8e\xdf\xaf!VY\xe4\xd3\x99\xe4\xe8k??\xf6{G\x0f\xa6\xf0HA\xd2f\xb4n\xe5_\xb7\xf1\xa9\xd0\xd5\xe74\xa4\x91\x05\x1a\xba\xcc\x15\xd6\xb5\xecY/T\xd0\xd2\xeb\x0e\xbc\x13\x16V\xbc\x9d0\x88)\x03\x95yD\x00\x12\x98U\x8aU\x1a\xeb\xf5\xa4\x1b_\x04\x9d\x15-\x8e&amp;f\xfe|\xb9d&amp;.\xac:\xac\xde\xac-V\xe0\xae\xc4\x9ebri2\xab9W+8\xf6\x9e\t\xe6\xd9\xa4K\xcaF/\xd2\xc9\x07-=\x87\xb11\x83\xa8\x86\xeeT\x9d\x176]Ct&lt;\xaa\x89\xdc=\x97u\xc1\xe6WJ\x892\x0e\xac\xe6^\nPl\xd7M\xe4\xbd\x19\xad\xae\x8c\xeb\xa5\xbdX\xf3ENi\xb934\x1f\xaa\xf3\xdb\x04`\x94[\xa2\x9f._\xeb\xf8\xfaW\x92\xf4X\x1a\xea\x93\xdd\xe7\xc36\xca=\x934\xf9\xed\xf8u\xe7\xb66\x97\xcf\xbe\xad\x93s\xbazv\xec\xb7\xc3\xf49\x88\xeb\xe7\xca\xf3=\x06\x83\x87f{\xe9&lt;\x85\xf3\x91\xe9\x9ad\xd0\xf2\xcaK\xa33[j\x9b\xddE\x82\xc7\x90\xad\x1f\xcdJ\xab/(\xac"p\xb1\xf2\xd0n\x91Z\xe8mvtuCmTU\xf6f\xc2\xf6\xe6\x9e\xf1\x9e\x8b\xd2\x9e{\xb9+\x16BUdC\xab\xbd\x19\xef\xfb\xf9)\xdd\x92\x93N\xeb\x96^\x84\x9c\xd37\xb7\x9c\xd4\xae!\xa2BX\xb5\xb5r\xb66\xbc\xae\xec\xaeBUPj\xd0\xb2\xaa\xaa\xf2\xaa\xeb\x01&amp;\t3@\xa6\xea}VQ\x13POE\xc3#w\x185i,8Ia!\x96\xc66\xd3;[\xb7\xb74\x8a\xdfe\xe4\xf5\x82\xc0\x8c\xb8\x7fG\xc9\xf43\xa4\x87\xe8T\xb7$#\xcb\xbauZ\xb9]\xd9\tS6j\xf5\xcb6\x9a\xe4h^\xc7\xd8\x99\xac\x90\xa6\xf3\xac6\xb6*\xbb\x96g=\x92\xd4+\x91]\xd1iFA\xeat\xa8\x03\xa0\xd1\xa0Y\x87\x9b,WK=q\t\x1fA\xe6\xe3\xaaz\x07c\x05\xcd\xe9\xd0\xf9\xfb\xe8\x1c\xee\xbb\x0e\xa7\x0e\xaf\x9fUM\xd2\xc3fkv=Y\xe9}\xcb\x15\xfavM\x10\xe9\xd3J\xabbvb\xab\x8a\xb5\x1d\xbdO\x93\xa2\x17\xbf\xe5b\xb9\xfe\xa2v\x9bmy+#\x8eR\xe5\x14\xe5\xb1k*\xe6X\xb8\xb8l\xa5\xd5\xf8\xf8\xa8\x90\x87g\xe1\xc8\xf1\x0bV\xb6\x12\xe4\xd9\x8f\n\xfa\x07\x80\xf5w\x92\xeb\xc5q\xba\xaf\xcdK\xbdP\xabcx\x82t9w\x1d|\xfc\xc3/]\xf6^\xba\xcf\x87p\xdb\xc5\x17\xa2\t\x92VXRi\xe8:\xd1S\x99\x89\xe7\xad\x05v\x16$\xb4!+\xd1\x19\x83\xb4\xa5\x0e\xde\x17\xb4\xe7\xad\xdf\x92\xa0\x15\xcb4\xa9:\x9b\n\x11-&amp;\x10YZ\xa9k#\xba\xef\x8c\xd1\x9aR\x87N\xc5\x9a\x88\x95\xe5\xf6\xc1\xc5^\x8c/\xa3\xe4\x92\x03\xac\xbbY\xaci\x83\xda\xcd+\xd3g\xe4z\x076\xd0\xb3\xe4\x86[\x1d4\xbf@\xf9zk\xa2K\xd7|\xa5,\xd4R\xd9\x06K\re.*s%\x89\xbb\xcaR\x8a\xbd,lwy\xec\x9f\xdb\xc9ufc_E\\\xb3Jw\xf3\xf7S\x97\xe8~}\xf9\x7f\xab\xe5\x13\x91\xb2\xfb\xcd\xea\xd5\xe3-j\xc6\x81\xd1V\xb3\x9d\xeb\xc9uv\xbbd\xa2\xab\x86g,k\xa7\xa5\xc8]\x96,h\xd7\xd1q\xcd0[\xb0f\xf7\xeb-Z4\xdeWRw\x0f@\xd0\x8a,9\x81yU\x19H\xc8\xa5\x94\xbf\xd7\x89\x14\xd0T\x95.\xa3\xa5Bb\'&gt;\xb4Z#\xbaX(\x1fI\xf9\xaf\xa0\xbc\x17\xa7\xa6r:\xb6\x9b.WFl\xc2\xbb \xa5\xb4\x0b\xf9\xfa\x86\x9c9\x86^\xe3,}I+\xf1zS\xb3\xe5i95@\xac\xca+H2C\xb1!\xa7#\xb8\x89\x16D\t`\xf0\xf8T\xa9\xdb\xe4\xceO\xb2\xb0\xf3v\xbc\xcb\xa6\xfb\xd6\xf2K\xf49t\xd8t\xf48\xcb\x1c\x84$\t\x92\xb0\xa23VT\xea\xd5\x1beN\xb3XII\x9a\xee\x7f\xcf\xec\x04\xc2v\xd5\x99\xed\xf3\x08\x12\xbc3\x94j\xd6\x81\xd4\xbc[L\xc7;\xb8\xa5\x98\x9d\xc5.\xb1\xf6\x15\xbf/=J\xe6\xe9\xadM\x8b\xd2\xef\xab\xb2N\xb0\xea7vj\xc8b\x13\x9a\x98Y2Y\xe1wH\xfb\xa1xU\xb4s\xad\x16\xe4J\xfc\xb4\x88\xdfl\xe9r\xb5\x8cw\xb3LY\xafk\xcfW7\xcd\xc3\x9b\xdc\x98\xe7j\xccr\xf4b\xee\xad\xea\xccV\x9c\xd0\xf6\xd3\xb0\xf3\xf7Y\xa0\x8dM\x14e vg\x88},\xb1\xf5\xb4Tjwc\xc7\xa9\xc3\xf6\x91\xcb\xafD\xe6_,\xb2\x0b\tH\x9c\x0e\x01bL\xc8v\xad\xe6\x9c\xeck\xd0H\x95\xb4f0\xa0$|hB\xc5\x87\xe9\xf2+\xbfP\xf9{\x7f;\xe8f&lt;\x17\xb7\xda\xb6r\xb2\xe2a\x94\xb1+\xbfz\xee\xeb\x148\xe8%N\xe9m\xdc\xbd\xb3\xab\xe5\xe8\x1c\xde\x8bJ\xad&lt;\x8d\xad\xa6\xc1e\x12\xba\xb2KLH\x8a\xcee\x95\x82\xcau:\xbc\x9b\xc9\xf6V\x1eWU\xf5+\xa1\xfa?\x046EF\x8d\x92\x97\x91\xed(\x03\x88\x13\x89NT\xe4\xa1\xa2\x92Q\xa1+(S=\x88&lt;.\xb7_\x0b\\[R6\x1e_N(\xc8Xi5j\xb6\x8a\x90\x9b\xa2\x9e-&lt;\xfe\xca\xf6\xd0\xf9q3]\x8bJ\x11\xf3!^\xe5\xeas\x16\x16^A-\xb3d\xbd\x1a\xaeE\xea]Y\xdaZYf\xcf\x12\x19\x99;\x1c\xb5Y3\x98\xb1\xec\xc3\x01\xaf\x909\xfa5_W\xe4t\x8e_Z\x0b\x7f\x8f\x8c\xbf\x9b\t\xd4\xe8Yy\x1d}\x1b\x9b\xbf\xcd\xf7\xcc&amp;\x8a}\x1d\x87@\xb2\xe7:sj\xdc?Op\xd1\x84\xe5t\xc1\xf3\xc7\xa6\'\\\xc6q\xfdu\x8a\xb5C\xb3\xe1\x99\xf1}\xc5z\xeb\xf5\x8e.\xd7\xda2!]\xc8\xc8H\x06eR\x06`\xf6T\xad\xd46\xaf@\xac8\xb77J\xa4\xac\xc4\xb0\xb6D\'W\x97E\xf7\x7f:;6\xaf\xf3\xaf\xa2\xcd\xb6\x0c\xe2\x15;\x89,\xf6\xcda\xefH\xd1\xa6\xad\xab:\xa39J\xf4}x\x1c\xe4h\xb4\x86\x85\xc3\x15\xbf\xecy\xdb\xbfK\x96\xee\xca\xa5\x02,\x18\xb4\xc9\xc1\x1fF\xdf&lt;y\xefv\x92_o^=\xbf\xd2\xf8\xd8\n\xb6\xc2\xe0\xea;\xb2H\xca\x89\x07\x91WT\x81!\xd0\xb6\x8e\xa6xG\x92\xa4\x85Ent\xda+\xb7\xc2\xd9\xf4e[&lt;\xa2D\x98\x15\x89\x85\xb6/\xb9\xfa\xec\x99`\xf3\xf4\xcb\x12\xf9\xf1\x12mM\xa0&amp;\x84\xa8\xde\xdd\xacrI\xe1\x13V\xb9\xe0\xd71\x9a\xf6\xd6V\xce\xe1\xf5J\xdd\xd1+\x16b\xaa\xd3\xbb&lt;\x84*\xca\xf2\x95\xeb\x9aB\xd5\xaf\xcde\x9e\x8f\x85\x95a\xf6{\xb5|,\xcb\xa5\xc6\x91\xe8\xd9d\xcf}\xdf\x8b\xd0\xa2\xc9\x8ek\xaf\xd9x\xdf4\xb2s[*\xd3\xf9\x9dl\xb5\xad\xd4\xeb\xb2\xadRDl\xc9a\xd7G\x9f\xa8\xefm\x9c\xddM\xba~F\x8d\x97\xd4Xptu&gt;\x0fR\xb9\xd1\xa9\xda\xc7,\x92a)\x02%IQ\xb1\x16\x88\n\xac;#\x8b(D\x94K\x08\xb1\xce\x95^\xbf+.\xf7\x1e\x01\xd6\xea5\xef\x0b\xed.&lt;~\x91\x19\xb0n\x8f\x0e\xd9\x97\xb1-\xc8\xf4\x86f\r\x19A](\x96\x97Q6\xb8\x8e\xf9\x9aU\xbe\xd5V[7\xa0\xf36\xfd|\xd9;\x15\xd0E\xc1\x19#\xb5Vut|\xf9\xe7=\xd4v\xb8\xd8\xaf\xf2g\xd9\xcd\xab\xd3\xba^\xae\x83H\xb14\x86\x91=.b\x1b\xb0Y\x97VU"\x9228\xad\xdc\xd3+-\xa3]\x85g\x99H\xf1\xbf{\xc38, \x81\n\xda\xcb\xdc\xcfA\x8b\xc0W{\xa4k2\xe4%\x1bz\xda\xd5nq\x12\xf7\xcf\x0eQ\x9c\x10\xf1\xa2R\x8b\'j\x9bE\x8bg\x03#\x1e\x15W\x87\x04\xca\x08\xe2\x1dU\xb0a\xcbR\xd1\xb4p1OY\xc1\xda\xfc\xaf\xbc\x99I\xa6\xf7x\xf4.\xd7.\x89\xc5\xeaz\xcb\x9d\xa7!\xad\xb1\xdd\xc9\xec\x9c\xd3\x8a\xcc\xd3\xf4\xd1\xa2\xe0\xbb\x91\xe6l\xbf%\xcfrW\xa4{\xa5O\x07\xae\xd6\xe8F\xbd_\x19\x9e`\xf5\x10\xb7\xd9\xabr\xfa\x13\x18\xf5\xbbXQY !\x06\x89\x07\x1e5j\x952[\x97\xb2\xa7VR\x84JIkY\x0c\xf5\xd5\xba\xfc|\x87\xddx)\xee\x86-;\xcaz{\x0f\x98\xf4\x0cn\xe7\xe1\xfd&gt;u\xd2\xa2\xc7\x87\xb13\x8b\xa4\xb3\xeb\x84K\x98\xa6\x93\x95MS\x95m\x15\x16\xd4\xf4oS\xcc\xb8\xbf\x9f\x1c\xea\x9d\xaa\xb85\x04 I\x16\x02\xae\x96\x13\x</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495621-aumento-de-las-ventas</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>La responsabilidad de los multimillonarios en el calentamiento global</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 01:15</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Informe de Oxfam de cara a la conferencia sobre cambio climático</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Las emisiones de gases efecto invernadero de las 125 personas más ricas del mundo son un 50 por ciento superior al impacto total de Argentina sobre el calentamiento global. El caso de Paolo Rocca, que aparece en el listado.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Las emisiones de gases efecto invernadero de parte de las 125 personas más ricas del mundo son un 50 por ciento superior al impacto total que tiene Argentina sobre el calentamiento global y equivale al valor de un país desarrollado como Francia, en donde viven 67 millones de personas. Esta es una de las conclusiones del estudio de Oxfam llamado "Multimillonarios de carbono", publicado este lunes en el marco del comienzo de la COP27, la conferencia anual sobre cambio climático que tiene lugar en Egipto.En la lista que publicó Oxfam aparece el empresario Paolo Rocca, líder de Techint. Considerando su participación accionaria en las diversas compañías del Grupo Techint y el cálculo de emisiones de gases efecto invernadero de cada una de esas firmas, Oxfam estima que Rocca y su familia, mediante su participación en Tecpetrol, Tenaris y Ternium, emiten anualmente casi 9 millones de toneladas de CO2eq (dióxido de carbono equivalente, medida que se usa para la emisión de gases efecto invernadero).En promedio, cada multimillonario emite 3,1 millones de toneladas de CO2eq, lo cual representa un número casi un millón de veces superior a las 2,76 toneladas anuales que emite el 90 por ciento más pobre de la humanidad. En la Argentina, la emisión de gases efecto invernadero (GEI) es en promedio de 4,02 toneladas por año por persona.Semejante diferencia entre las personas más ricas del mundo y los simples mortales no se debe exclusivamente a los viajes en jet privados o los paseos en yate. Lo novedoso del estudio de Oxfam es que en la suma de las emisiones de GEI de los super ricos se incluye la huella de carbono que tienen las empresas en donde estas personas invierten su dinero, que en definitiva es la fuente de incremento de su capital.En total, el top 125 emite al año 393 millones de tn de CO2eq. En la lista aparece un nombre conocido en el escenario local. Paolo Rocca y su familia, mediante su participación en Tecpetrol, Tenaris y Ternium, emiten anualmente, según Oxfam, casi 9 millones de toneladas de CO2eq. Entre las personalidades mundialmente famosas aparece Carlos Slim, con casi 7 millones de toneladas de CO2eq. Warren Buffett se anota con 3,5 millones de tn de CO2eq; Bill Gates, con 4,8 millones de toneladas. Elon Musk, dueño de Tesla, es responsable de la emisión de 79 mil toneladas de CO2eq. Jim Walton, de Walmart, por la emisión de 2,1 millones de toneladas; y Alice Walton, de la misma cadena, por 2,2 millones.Para confeccionar esos datos, Oxfam recurrió a la última lista de billonarios de Bloomberg, de agosto pasado, y cruzó los datos con la participación accionaria de esas personas en sus principales inversiones corporativas. Al mismo tiempo, ponderó la huella de carbono de las empresas en cuestión de acuerdo al peso accionario del multimillonario. Para medir las emisiones de carbono de las compañías, el informe se basó en datos publicados por las propias empresas junto a estándares internacionales en la materia, como por ejemplo el Greenhouse Gas Protocol."El informe muestra a las claras el grado de disparidad que hay entre un puñado de personas que entran en un salón y el resto del mundo a la hora de la responsabilidad por el calentamiento global. Y también muestra como hay personajes que se venden apoyando políticas ambientales más amigables, mientras que el dinero lo invierten en sectores contaminantes. Hay una disonancia entre lo que se dice y lo que se hace", explicó a Página/12 Oscar Soria, de la entidad Avaaz.El informe de Oxfam también advierte que las inversiones del top 125 se dirigen en un 14 por ciento a sectores altamente contaminantes, como combustibles fósiles y cemento. Este porcentaje duplica el promedio que registran aquellos sectores como receptores de inversiones, de acuerdo al índice Standard and Poor 500.Otra muestra del mayor peso relativo de las inversiones más contaminantes en las personas más ricas: por cada millón de dólares de los multimillonarios se emiten 162 toneladas de CO2eq cada año. En cambio, cada millón invertido en el S&amp;P 500 de Wall Street genera 86 toneladas de CO2eq.De acuerdo al documento, si bien el consumo personal de los multimillonarios puede ser miles de veces superior en emisiones de carbono que el de los ciudadanos de a pie, al contabilizar la contaminación que producen sus inversiones en empresas, la diferencia asciende mucho más. Se calcula que entre el 50 y el 70 por ciento de la huella de carbono de los multimillonarios se explica por sus inversiones corporativas.Eso no quita que haya situaciones de consumo que siguen siendo vistas socialmente como grandes proezas, cuando en realidad suponen una gigantesca desigualdad en materia ambiental. El caso más obsceno es el de los nuevos vuelos privados al espacio, que emiten en un puñado de minutos más dióxido de carbono que una persona normal a lo largo de toda su vida.El cruce de la cuestión ambiental y del calentamiento global con la distribución del ingreso y la riqueza tiene como referencia un trabajo del año pasado dirigido por Oxfam junto al Stockholm Environment Institute (SEI). Ese informe reveló que el 1 por ciento más rico del planeta, alrededor de 63 millones de personas, eran responsables por el 15 por ciento de las emisiones acumuladas de gases efecto invernadero. "Esos individuos emiten 35 veces por encima del nivel de CO2eq compatible con las metas del Acuerdo de París para 2030", indicó aquel trabajo. Hallazgos similares fueron publicados por los economistas Thomas Piketty y Lucas Chancel.Otro estudio firmado por Beatriz Barros y Richard Wilk detectó que en 2018 las emisiones de GEI provenientes de yates, aviones y helicópteros privados y del consumo energético de las mansiones de 20 multimillonarios generaban en promedio 8194 toneladas de CO2eq por persona. En contraste, el millón de personas más pobres del planeta emite apenas 1,4 toneladas al año.A la hora de las propuestas, Oxfam sostiene que "los gobiernos deben aplicar más impuestos a las personas más ricas para reducir de manera más radical la inequidad y la concentración de la riqueza, para bajar emisiones insosteniblemente altas y también para disminuir su poder e influencia sobre una economía basada en fuentes fósiles. Esto podría generar mayor recaudación para que los países enfrenten el desastre climático. Los ingresos también podrían ayudar a avanzar hacia una transición energética justa".El foco sobre la desigualdad a la hora de analizar la cuestión ambiental sugiere una posición política que se diferencia del discurso dominante en foros internacionales, como puede ser la Conferencia sobre Cambio Climático, que actualmente se está desarrollando en Egipto. Poner el ojo sobre la desigualdad, entre personas y también entre países, obliga a redistribuir la carga de llevar adelante la transición energética, que supone costos económicos a corto plazo por lo cual las poblaciones o países más pobres se enfrentan a mayores dificultades relativas para abordar la tarea.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Por Javier Lewkowicz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x004\x00\x00\x01\x05\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x05\x06\x07\x08\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf9p9\xa0O\x00\x05\xd0\xc2\x95\x16\x14\'4\x8e\t\xa3\xcb\x08\xe0\x90\x91"Nh\nCQCS\x80\x83\xc0\x80C\x81h\x88A@\x85"4\x94 \xf0$\x9c\x04@\x1c\xd7\x05\xa1\x05\x04\x14\xc7Aa4\xd0\\5\x125\xae sI(H\x9b\xb8\xe0\xfb\x1e\xbc\xbaHj\x8e\xb3Nl\xfbW\x06&amp;\xd8\xa2,D\x94\xee\x8bV\xd2\x8a\xe4\x12\xdal\x94\xf1\xa9,P\x95mbY\xcf\xb2\xb7\t\xd7\xf1\xbc\xba\x0bUo\xf2O\x99\xab\x91\xa3\xacC5\xbd\x8cv!\xed\x85~\x95\xd9o\xcdVk6 \x8a\x9c]\xb9\x8fgR)hYK\x15e2H\xa5\x8fV3a\x97qk\xe5j\xeb"Z\xb6\x17g=\xd4\xda\xf9\xfc9xt\xd4@\x83\x80\x8bHZ@\xf4\xc2H\x1aD\x1cF\x82\x02\xe6H P\xd0\xe0 Z\x10\xe0\x14\x90\x90C\x9a\xd2\x12\xd2\x02P\t@%\r\x124E\xc8@\xb4rb\x1c\x98a\xe9\xaa\x88\x04\x05!\xae$hr#s\x90\xd75\xe3\x91`\xfe\xe3\x86\xec\xf7\x8dqN^\xb9\xbdf\xa5\x9b*\xd8\x16\xf5"\xab\xb5E"}\xd1-\x03,\x88\xfaw3\xad\xb3b\x8c\x94\xca\xecnu\x8d\xc6\xf6&lt;g\x1d\xab\xb4\xeds\xb6(Z\xa7\xa0\x95\x93GR\xdb\xd0\xf5\xc1\xb4\xf9\xf4\x9a\xed+\xda\x96k*\xfa[uh\xf2u\x9aw\xa2\xb3\xc5\xc5\xafW^\xad\x91C\xb1Qj\xea2\xe6\xf1\x06\x86~\x86\xac\x8d\xaa\xfd\xdf\x9fZO\xcd\xea\x02Ahx\x12\x02)\xc0\x0e \x0eC\x0b\x80\xc7$\x07\x16\x124\x90 \xf1\x894\x90FG\x96!\xed\x04Mr\x00 I&lt;jx\x1a\xf0\x07\x02\t\x14ds\x0bI\x0cH\x91FG\xb5\x009\xae\x02s@\xe0@\x92\x1cX\x83,.%ba\'q\xc2\xf6\x9b\xe7\xa6\xe8%\xef\x9b\xed\x99\xb71\xca\xd9\x91\xf5\xed\xd3[\xc5\x8c\xb1\xd6s\xac-\xaal\x82[\xf2S#`tSX\xfc7q\xc5q\xdcs\xc7c\x16\x08\xa7\x88l\xb1\xd8:\xf6\xd9\xaf\xdf\x1av\xe9X\xd2\xf6\x9e\x06\xb5OQ\xb5\xf3t*\xcfY\x05\xaa\xd7\xf4\xcd\xb3\x1d\xb8\x8a\x9e\x9d$\x9e\xbd\xdaQoG&gt;\xcfK6\xb6\x06\x9e\xe2\x972\xc3\x7f?\x04\xbe~\x82H\x08\x91\xa1\xc8bz\x10r\x1aQ\x1a\xd9\x1a"\xd4Hc$\xd1\xb9\xa3\x9d\x13\x80\x9a\xe0\x84\x80KB\xc9\x10\x01#\x1c\xe6\x08\x92\x02\x80\xe4\x10P\x10\xe4\xd2$\xd2\x12\r\x06&lt;\x8cl\x80\x0e \x08\xa1$\xd1\xc5\x8f\x02\x00\x91\xcc#\xa3\x95\xa0\xeb9^\xafX\xbd+\xa6\xed\x8b0_\x83Q\xb6\x05\x8a\x85\xa9-\xe8\xa1\x81\x9b71nD\x8d\xa8\xe9\xbb\xd5\xa6\xaa\x92T\xd0\x8a\xdec\x94\xeb\xf9N\x1b\x82h\xe4\xcdm{UAj\xb5\x9b{h$\x87\xb65\xf414R\xc6\xbf?\xa9J\xbam\xb7s\xf4\xe9L\xc1m[\xac{\x12\xd8\xce\xa9\xc3\xa1\r\x8a\xae\x86uk\x91SWGG\n\xde\xf1-\xfc=)\xd3\xe7\xd2G\x87MH\x8cO\x03\nB)\xc3\n\x03\xd3\\\x10@\x1a\x9c\'1\xc3\xc8h\xe0\x90\x1e\xc4\x10@\xd5#F\xa2\xe1\xa8\x922H\\\xd0=1\x0fsP\x0bHZ\xe6\x80\x924&lt;\x91\xa7\x18\r{h\x82@Z\x87\xa6\xa0\xb9\x9aK\x9c7SXgJ\xa30\x89X\x8d\xe8\xf9\xde\x93X\xd3\xb6\xdd/G0^\xac\x92\xf5\x1b7QX\xcf\xb31f\x08\xe2\xd6g\xb1VF\xeb\xb5\xf2M??Z\xa4\xb0C\xa9\x0c\xbc\x87/\xd7\xf2|\xb7\x0bd\x8f\x92j\xf6\xaa\xd2\xb9N\xd5w\xaa\xb4\xdd\xb9\xe9hd_\xdaM&lt;\xcd\r\xa9Ce\xd9\xb1S\xd3\x82J\xef\xd1\xaf\x9dQ\xb2\xf9\x8as\xc1kCF\xddT\xdb\x81\xb5\xabR\xd6d\xba\x93i\xe4j\xeb\x7f65\xeb\xe7\xe9\x89\xc4a@I\xa4%\x84E\xae\x1c\x82\x1c\x10\x08p\x1a\xe4\x07\x94\x86\xb8\x10\x02\x00SB\x8bBP\x11\x08{ZG\x10D\x89\x10 A\xce\x862VQE\x0c.l$U\x16\xa5\x055Q|z\xcbK\xac\xdf\xda\xbfC?f\x19\xf5\xe9y\x82\xd5\xd5\x8c\xdd1yq\x1c\xb7\xb5O\xbf\x17\xcd\xbb\xdd\xef\x0f\x8f\x1e\xbe\xc6]\xde\xfc\xa5\x96\x8c\xa9\xa6\xea\x9175\xdc\x9b)f\x08\xa3\xad8\x9dZ\x04\xb5n\xc4q%k\xe0\xb7Os\x9e\xe5\xba\xaeG\xcb\xd5\xa9\x8f\xe5g\xa9n\n\x8e\xf5\x0b\x89\xda\xde\xca\xbb\xe9\xc6\xa4\xd4\x9df\x95\x9a\x965jK\x16\x86Y\xd0\xdbI%\r\xcc\x8aR\x90\xd5-\x0c\xbb\x932\xba\x8c\xf3ZpQV\xf4qT\x8f[\xd4\xd4\xc1\xd4\xde&gt;pE\x9f?O-Bc\x80@C\x93H\x1e\xc7\x0e\x08\x8d\x0e@\x0e#^\x9aH\xd0\xe0$F\x10\xe09\x8e\nj\t\x08td\x04\xa7\x01\xcdA)\x08\x15\t8S\x13\x90\x90@ \x8e\x08\t\xccp\x86\xe4m\xcf\xe82\xbd\xf6\\\x9a\xfc\xf7\x99W}\xc4\x9a\xd9\xfb\x17J-\n{\xc4\xfat\xf6\xbd\x1e\x11\xc5z\x0c~\x9f\x9b\xe2r\xebs\xben6lQ\xb3\xac\xe8R\x9a\x8bV\x1c\xd33\ryf\x95\xb0]\x8a\xdc\xed\x16h]c&gt;I%451\xd3#\x90\xeb\xb8n\x1d-&gt;\xb4\x9c\xd7\xe6\xce\x8d-\\\xcd\xd0\xb7\xac\xbf\x99\xa5\xe8\xe7m\xae%\xe9%~\xb5\x97|\xdb\xb7%\\#\xb35\xf3a\xefQ`\xcb\xd4\xe7"\xbf\x93\xa8\x90\xa8\x0e\xdb4\xe6\x8br\xc5\x96\xcbg\xce\xe97\xe7\xf5\x91\x04\x06\xa25\xc8\x00\x90"\x88\xc2\xe2\x02@\x01C\x82A \x89\x16\x80\xa0=5\xc2\x0e`\x1c\x9a9\xa4\x88\x17\r\x0fB\x0fh\xd2H\x8aCA\x01A\x04\xb0\x85\x1e\xdeu\xe6}\x03\xa9\x9f?N\xa6T]\x0f_L\x98\xfd7*\xdcl\xad\'\x99\x1c\x8f\xbbZ:T\xb7\xfah\xd4\xdc&gt;\x9f&amp;n\xad\x1b\x1d|Z\x8c\xad/\x7f\x1f+\xc1z\x87\x95\xe3\x94\xf63\xadr\xe7o:Z\xf5f#$g\xdc\x82\xfe\xe5\x18\xafA:GfVE\t\xd9)66\xb7&lt;G\xe7\xbd\xe7\x05\xc3l\xbbB~m\x08%\xae\xb6\xee\xe7\xdb\xb3\xb1\xd1\xcb\xd3\xef\x89\'\xad\xa7d\xca\xc4{\xac\x92\xec\r\xe7\xce\'f\n\xefnV \x92\x85k\xd8\xce\x91\xa5\xab\xcf_e\xb3\xe5\xda]6@\xe3Z+5\xae\xfeyH\xf8\xa1A\x0cOhC\x9a$\x9c5\xed#\x9a\x80\xe7F\xe1\xcdBR\xf4\xfacgi\x1ax#.\x12$R\x84]LR\x02\x150\x869\xee\xa8\x94\x86#V\x05Dfz\xd7\x16\xa3\x88\x05\x84\xb5\xc5\xa6\x95e\x97\xd0\xdd\xae\xf6Y#\x9f\xd9\xd3\xe7z\x0b\xba\x98\xba5\x19\xac\xd8\xa1~\xee\x9c&lt;U\xa7\xf2u\xb9\xa7\x9b\xa8]\xea\xb8\xfd\xbfC\xa9v|\xfe\xcf%+U\x1d\xbf%\xb9"\xe6\xfar\xe8\xbc\xb7\xa4\xe7\xb8\xcc\xbbUo_\x0e{&amp;)\x10\xb3\x16\xa5[\x8e\x92Z\xd1Z\x86n\xed{4i\xd3\xd5}X\xc4\xbf\x9d-\x7f&gt;\xf4.\x0f\x86\xa9\xbd\x8e\xe4\xd0\x81!\xf6\xe9Z\xae\xc7S;k\xbe3\xf5\xb3\xf6\xf7\x14wb\xb6\xd5m\nR\xc1r\xa5\xa2\x84\xb5&amp;\xb3C:j\xab\xa8j\x95\x16i\xcd%[\xd9\x9b\x12\x88\xec?V\xe5-Z\x9a\xdf\xcf\x84\x8f\x06B\x90,fY\x12\xb1\xb9!I\xf6\xce\xa4&amp;q\x11HV\xb2\xf8\xe7a\x1b\xa4\x92\xd8\xac\x89\x90M5\xcc\xeb*\xbfC\x1d\xbc\xd8\xe8$o\x9b\x1dK\xa69yz\x9b:\x9c\x9b{Vi\xc7[\xea\x1f\xab\xca\xcf\xd0\xb2L;W\xe6o2\x1d$\x94\xdfzy2\xe0\xd8Z\x94\x06\xaaLhv\xf5\xefl\xdd\rH&lt;\x9fn\x1d*u\xf3l\xd5mV\xb5\xf4\x1b&gt;\xd6\xf9\xfe{\x95\x95\xda\xb8\xdd?\x9eZ\xb9F\xd4\xd5\xfb\x945:]\x8b0O\xeb\xe5b:w\xba\xf9jy\xef\xa7V\x99\xe6!\xb3\x9f\xe3\xfa&lt;\xd4\xfat=\xdf\x96\xa0o\x16*\xd7\xd6\xadj6!\xe9\xa8d\x8aE\xbf\x9ciI\xa5&gt;\\\xc3\xeb\xd7\x19G\xe7\xfd\xaf\x03\xca\xd6{O\x1dM\xb5\x87\xa1eI\xa2\xb0\xbd~\xbd-OFh\xecA\xabdO\x9ek\xb1Z\xed\x1a}\xba\n\x9bg2\xc37Y\x9e\xfc\xb5a\x86\x02\xf1\x84\xb5O[/Z\xe5\x8e\x9e\xce\xe4Ut[zx%\xad\x97\xf81\x98\xfb\xf1\xdc\xd3s\xe1Q\\Iu\x1d\x99nIYZ\x0c\xe7\xd6\xbf\x0bT\xdb3@\xe9%\xb6\xbc\x85\xd2\\\xb7R\xdc\xcc\xcd{\xb5\x15\x89e\xe8\xa2l\xb3U\xf3\xc1%\xe54P&amp;oM\x9c\xeb\xbb\xd0V\x8a5\x1dQ\xab;k)o:\x12\xd3]\x1c\xc8Z\xe1\x15z~c\xa6\xe7\xf4-\xf3\xdb\xb8&gt;o\xb3=\xbcgsk\xeaO\xa5\xd6T\xf3\xeew\x9d\xce:\xeaq\xdc\xcfU\xd3d\xe8\xf3I=F\xd9\xa7\xb1\xc5\xebo\x1d\xae\x97\'/}\xeeC\x89\xd4gZ4"w\xa7\xc7\xcby\xb7\xac\xf1\xfe\x1fn\x97;\xde\xf1\x1e\xef\xcf\x99\x9bc\xa7\x8e\xb3\x12\xdc\xb7\x13k,\x96\xb2\xad\xc8\xe8\xaa\x99nIU\x97`\x16\x19|7q\xc5y\xf5E\xae\x8f\x9ai\xe1\x95M\x9a\xf6S\xb0\xbdR\xe7|Z\xd7\xcd\xd3\xd5v\x86V\x8fZ\xea\xd1\xd6\xcc\xd1\xae)\xc5\xabYw\xa2\x0b\x19\xd6\x8bT\xacQ\xbb\xd3\x85\xd1\x11\xdd\x8aF\x1fv\xad\xe6\xa9\xd8\x82\xf5\xbed\xc0||\xa2\x8e\xc4\xd6\xd0\x8fa\xab\x99n\xc4\xd7\x9dqr+\x8ajw\xe5\x9d\x1e\xe1\xd6\xf0N\xacKT\xe89\xacio\x1c\xda\xd2\xc8\xe6a\x98Y\xden\xa8\xdb\xdb\x12\x1a\x8f\x9a\xba\xea\xd133\xe9\xd8\xa9\xe4\x8c\xab\x12\xb5Q\xc3n)jGp@\x87Q\xb74\x16\xadkj\xc3\xa3NJ\xdd\xcf/\xd5s\xfa\xd5\xb0\xf6s&lt;\x7fO6\xec:&lt;\xa7L\xc98\xff\x00O&gt;Z\x9e\xf1\xeb\xf38\x9d\x16\xd5\xf2\xfd.\x83K\x94\xda\xe7\xda\xc2\xbf\x90J*E\xae=.\xde?Q\xbe\xb76q\xee\xef\xad\xa6\xd6\xb1\xd3U\xf0\xba^#\x94\xe9xn\x8f\x9b\xf6~vM\x0c\xeb7\x842P\xb1\xa4\xf1C\x13R\xdb\xcf\xb1U\xd3d\xd6g\xa7\xa7JVV\xd2\x07+\xc7w\x1c\x8f\x9fX\xf1\xcb\x1f+$\x84\x12O\r\x85\xeb\xf4\xf2\xf5\xbd\x1c\xedkd\xdc\xd2\xc6\xb6&amp;\x85\xe8\xa0\x8e(\xd6\xa1-[\xa9oQ\xb2\xc5;\x10\xdb\xb2\nW\xc1\rmJ\xf2\x98\xb6j%{\x93\xdc\\\rFh\xed\xe7Q]\x8b\xcf\xe6\xaf4\xb2E6\xdfePt\xe6n*\xf7\xa1\x9a\xa5,\xce\x99\x8d\xcc\x8e\xc9\x9f^\xc2\xd9\x8d\xcd\xdeX`n-\x962\tlY\xa9j\xe6\xcc\x90\xbb\xa6\x0c\xb5\xacn\xbe\x05\x14N\xe8\xe5\x1dZ\xd5x\x13\xb6\xc9V\x1b\xb0\xac\x12\x9b\x93PX\r\xb4\xc6\x10\xda\xd3\xd4\x93_\xa6\xe5\xfa\x8e?f\x8e6\x96w\x97\xdf[[?W&lt;:.G\xb0\xf3\xbfw\x85\xd0\x88\xba\xfc\xdc\xeeg\xd0\xf0\xfc\xdf[\x8e\xd4Z\x9c{t[\\\x7fW\xc7\xe8r\x96\xfb\xaesy\xa7n\xee\xebY\x1aST\xe9\xbd\x97\xd5\xb1\xd33`\xe9T\xd7\x9f\x179\xf5;\xfen\xfc\x95\x19\xb1\x9a\x8c\x9a\xb2U4\xcb\xcd\x11\xc8\x1f\x1d\xb5U,\x85\x8d\xb7+M\xf3&lt;\xc7O\xcc\xf0\xb9\x01\xd1s\x96c\x9e\xb1j\xcdk+\xd5t&lt;\xc7E\xd7\x9e\x85\x9c\xf9-\xd6\xd0\xc6\xb5\xdbRGZ],\xc1\x14I|\xb2\xa4X\x92\xa4\xd1\x0c\xd0\\\x96\xbcVM\xd4\xd5\xeeE\x12\xc9,\x1a-\\\xddS\xce\xeb\xdeg/\x03\x1d9X\x04\xf0\xa5)\x0c\x99\xddx\xdf\x0bo\x0c3F\xe1\x9e\xc5r\t5\x87Q\x9b=]3g\xcde-J\xb9\xb6/@\xfd\xe5\xd1\x16\\C&lt;ve\xadZ\xfc5\x1b\xec\xba\xabW\xd1\xaa\xd3e0\xc3atX\x96\xafS~\xab\x95Y\xea\xc4\x95KJ8\\\x9b\xbby{&gt;\x7f\xd0\xe4fh\xd4\xf2\xf6\x87dX\xe9\xc8\xf1\xbb\xf8\xbe\xaf\x93\x0eN\xdd]y\xb8\xbd\xbd\xac\x9cz\xeat\xd5u|\xff\x00o\x0f\xb0\xe3\xfalu\xea\xb8?F\xe1\xbd\x1c\xb9\xfe\xb3\x8a\xb3\xe4\xe9\xea\xd5\xb9n\xab\xb0L\xda\xb6S\xd9\xa0\xddq\xe1_\xa3\xc8\xfa~/mN\x9d\x8b\xc2fM\x14V\xabqh\xda\xba\xb5nh\xddn\x8e\xeeC\xa6{L\xa3\xaf\x93\x96\x0f=\xd5r\xdc.D3\xd7\xe6\xbb\x13\xa3[\x16*Z:&gt;\xa7\x94\xe9:\xcd6\x08\xb6\xde\x92\xab\xba\x99w3Nj\x9c3\xb6KY\x9b\x99r\xc4\xebe1\xef+:R\x9a\x1d\xb9\xac\xc6\\\x87X\xb7O[1\xa9\xb5\xb2\xf4%\xe1\xe4\xf2\x11\xc7\xc5\xed\x12x\x9bm\xf6\xc8|j(\xf6I\xfcI\xad{D&gt;8s\xd3\xd8\xacx\x9a\x97\xdd\x99\xe1\x8a\xf3\xf7V\xf8Y=\xa2\xbf\x8f#\xda&amp;\xf1\x19\x8fn\xca\xf2h\xda\xf7\xc8|%3\xee0x\xd4U\xedo\xf1\x02\xbe\xc5\'\x8c\xa3\xdad\xf1"\xbe\xcb\x0f\x90)=\x86\xbf\x93\x18\xf5f\xf9R\xb7\xd7G\x91\xa5\xf5wy2_[\x8f\xca\x11\xea6&lt;\x9f\xa7\x9a\xf6\xe9\xe3o\x9b\xf4Y\x97!\xe8q\x8a\xd9=\x7f\xce\x1e\x8e\x1d\x04^t:|oB\x87\x81W&gt;\x8a\xcf=\x12\xfaf\xef\x92z\x0f\x9f\xedMj\x87K\xcf\xd5Jl\xbb\xdb\xc6\x94\xfc\xe6\xaet\xed\xfe7\xb1\x9a\xb9N\x9fQ\xd7\x9dJ\xcc5\x93\xa1\xbf\x07\xd6\xfc\xe7\xcd\x9b\xdc\xd2\xf0\xef\xa8\x87\x9a\xa7\x99\xd6\xb3\x98+\xd4E\xce&gt;\xb7$\xe7\x82n\x1c\x11/C_\x128\xd9\xa3QK#\x1a\xb3e\x119%}w.\x85\x8c\x83f\xcb2Ml7%\xc6\x8a\xceI\xa0\xda)/EX-\xa1T\x93\x88Q"\x8dC\xdf\t\xb5\xc9\xa8xj"@\xe6\xa0\x88\x08B \x80\x84"\x08\x90A\t\t\xcd#\x9a\x90\x82A-AI\t$$\x80\xe4\x10\xe0\x90PA\t\x05\x04\x10\x80H"\xf6\\\x1f\xa4{\xf6\xe0\xf9\xde\xab\x99\xf1\xfdk}F\x1fMu\xcd|\xd7\xec\xde1\xdf\xe3\x84\x968\x80Z @\xba^jF\xfdv\x1c\xad\x9e\x1fc\x1aM\xacF\xfa\x99y]\x19t\xeb_\xbf\x1dEN+s\xaf\x9e\xfc\xb5\xbd;\xe9x\xee\xf9_\xaax7\xd2\xf8\x1e0\xe8\xa4\xf8\x9fHA;c8\xda\xa9\x8d&lt;\xb0\xc4\x88\x11\xc63R\x18\xcd\x96+[:\x99\xa9\xec\xe7\xa4\x92\x12I\tjW\xa6\x12D\xc4\x92&amp;"E\x19W\x96\x14(\x15I$H\x11\x04\x94\x84DB#I\t$$\x90\x90"I\x089\x01$ H\x11@E\t$ \x88\x82 H\x88\x14"\x08\x81BH\x08\x82$\x80@C\x88\xd7\xaf\xa4;\xc9\xf3\xbe\x9c\xc3\xaag\xe7\x885\x1f\xa3\xdf\x7f7y\xb7s\xc3|\xd2i\x7f+\x1as\x02bD\xb1\xb0\x17}K\xc9;\x1c\xfa\xbb\xe5\xcfZ\xe3\xf4\xa4\xbb\xcf\x85\xeat9.\xd7\xa735\xce\xe3\xdb\xe2\x9fj\xbc\xff\x00s\xe0A\xf2w\xd0\xbf8\xf8;s%\x83\xe6{%h$l|r\xc0\xa6\x82\x1e\xe68rJ\x10\n\xad\xbe97\x91B\xfd\x19ZB\xc5I\x10$@Q\x01\x04\x05 \xa0\x07:7\x0e!\x05\x02$\x90\x91\x00)\t$\x00\x80P\x03\x90\x03\x8b\x10\xe2\xc49\x00\x85\x04\xa5 \x14\x10BA@\x80\x84\x14\x08\x88C\x93H\xe4\x12\x14\x12\x90\x12\x14\x12\xb9\xa9\xa3\x90!\xf5o+\xd4\xdb\xed\x1e{\xcf\xbaOf]\xa1OS|\xf4\x83\xa0\xf6\xf1\xf9W\x02\xcdO\x89\xeb\x10\x98\xf9\xd2\x02\x08\x08(HY\x9e9tw\xb9xG\xb3t\xd5:~\xf3\xcb\xe7\xd3\xe6z|\x15^W\xe8\xfe\xb3\xc3\xbd\xaf\xec\xfc\xabS\xd6\x9b\xdf\xe4\xf2o\x1f\xef\xbc\xeb\xe2{\xb9\xb0\x97\x9b\xaah\x10\xe5\x1aX\x9a\xd7d\xe7\xb5\xd4\xe0]c\x19#%\xb6c\x1b\x84\xc5$\x95\xd9v\xb4\xb1\xa4\xb3RH(!\x10\x82\x82B\x92T\x81\x1c\xe8\xdc\x85\xcdC\x82JR\x01A\t$5\x04\x14\x08\n@D\t\x14\x02\x08\x12BE\x01\x14\x04P\n \x04\t"$\x10H!A\x05 \x14\x10KP\x82B!\xc5\xa7\xc9\x0e\x93\xf6\x9c-K&gt;\x90\xeb\xfeD\xd4\xf5s\xfa\xfb\x84\xf9\xef6\xc7\xb6)\xbc}\xab\xc3f\x1c\xa3I\x01"+\x94\xed\x12\xc9\x13\xf4\x7fa\xc7\xca}\x89\xe3\xfd?\x93z$uu\xeb\xf3\xd5\xcav\xa0\xed\xcb\xe9\x08|\x8b{\xd7\xe7\xe4\xfc\xdb\xd3\xfc{\xe6z\xa1!J\xc0[(c\xa3\xc99\xae\x0b\x84\x94\\\x8e\x905\xcc\xcax\x9c\xca\x910\xc9+\xe2:&gt;\xa5\xb8\xe2\xba{sBDI!\x04D\x81\x01H\x05 \xb9\x88yc\x82\x92\x12D\x04\x11\x88!\xc0\x01\xc8\x01\xc5\xa8( \xa0\x82\x01\x01\x04I!$\x84\x92\x12HI!$\x84P\nHD!"\x02\xd2\xd0\xa4\x83j\xae\x9d6=m]\xdeR\x95\x881\x0c\xb0\xcc\x02\x06\x91\x16\xc5\x85\xc8\x9bcJjV\xe5\x11\x91\xa2\x92"[\x96\xb4\xf4\x90q\xdd\xeb\xf1\xbe\x8b\xa6&amp;\x1fA\xcem\xbdb)\xfa\xe3s\x1bW3\x8e\x87\x93\xfa\'\x9c\xe4\xd4\x12\x86=\x90\x1a\x96E$I(;\x075\xc5d\x9b\x91`P\xe9\x1a\xe1\xc5\x8a\xa6\x92\tw\x1dJ\xdb%\xac\x88\xc1"\x80\x8a\x02 D\x11\x02\x04B\t\x08qb\x1e\x9aBA#)\x04 \x14\x90\x81@)\x08" \x90R\x01I\t$$\x90\x90"I\x00\xa4\x14\x1c\x04\x90\x92"H\x01 8$M\xa1R\xe6\xdfQy\x8f\xd2_\x12\xef\xd5\x80\xc28\xf9\\\xf6\x1d\n\x06\xc3^h\xf3b\xb9RH\x95&gt;=\x1a\xf8\xe4\x1a\xc9@\xdb\x10\xca=5\xc6\xcfS\xcbni&gt;fs\xce\xce\x94\x14\xbd&lt;\xfd\x06\x9dM\x0f7N+\x87\xeb\xf9\x08\x00\x815\xc6#\x12\x08c\x9b!2Kf=\x86*\xb4\x1c\x01Dx-\x0b\x81\xa7&amp;\xa2I!\x96\xa5\x8aS\xa9DY\xab\x8aR\x10\x8a\x08PJR\x02(\x05\x02$\x08\x88C\xd3\x1c\x04\x90Z\xe0\x02\x08\n\x02 \x80\xa0\x10\x90\x9c\x10\x92\x01\x05\x08\x14\x02\x08\nBD\x05$$P\x90 \x0e`\x88"\nB\xfd\xda1\xee\xfdq\xf2\x05\x8am \x8e0\xe0]\xa0/\x8a\xc8@\x18\xa9\x00_k_Q\xbd\xaa\x89F\x84\xadC\x8cF:=)\x99\xdb&lt;\xa6\x85)\xfc\xfb\xda\xa15\x0e\xd8\xdc\xed&lt;\xaf\xd8\xb1\xaf7\xe3\xbd\x03\xcf\x82\x08\x84\x81\x0bH\x88\xe5\x8eZ\x94\x11\xa3\x19%x\x84\x83\x81 \x84 9\xccp@x\xe4\x1dN|f\xcb\x14\xa6u\xb5T\x91\xe0\x92BH\x08\x82$\x90\x82AH\x08\x84"\x10\xe4@BBI\x08\x10\x10\x88\nBI\x08\x10\x10P\nBI\t$$\x90\x91BH\x81"\x04@\x01\x02 \x82\xc5{\x95$o\x8bEZx2$&lt;.KB\xd4\xd2\x16\x16\xe0\x92D\xd6(\xdf\xa8\xd9,c\x93P\xe0\r\x17\xb6C\xaf\xebx\x8f]\xf7r\xf0\xa9\'\xaf\xe1\xebb\x8c\xd1\xc2\xf5\x0f*\xef)\x9es\xd8\xf1\xf6\x04\x84\xa9 \x10D\'\xb5\xd50KF\xd7\x96\x0c\xa3!d\\\xd7\t\xae\x01pp\x8bPA\x94l\xb2\x1d\x98\xa46D\'\tI\x97\xe8\xe7I%\x90)\x01$$\x80J\x02H\x05\x028$$\x90\x90AH\x05\x02$\x08\x90AH\x05 \x14\x80R@sH@A \x0e \x0e\x08\x04\x845\x02\x14\x10\xb4jZ\xd0A+\x08\x98\xf8\xf2/k\xa9\xc9-\x1c\xd6\xa0\xd5\xb3W$\x92\x81r\x9b\x8b\x91\xbe*(\x08yi\xa7&gt;7\x1d\x0f\xbb|\xfb\xf4\xc7\xd2\xe1\xe0&lt;\xdfW\xc8\xf8{Yd\xd1r\xad\xe89\xeb\x85\xbew\xa5\xe6\xb6k^$hp\x95G$\x113\xa1\x92\xa71\xbfH\xa0\xb7O \xd76\x1eXG\x00IC\xba\x17.v\xff\x00\xa2i\xbeo\x17\xdeym\x8fG\xd4\xfab\xbf\x98{\xef\xd6\xe3\xe1\x1eQ\xf7O\x9cr\xdf\xcb\x0e\x9a/\x99\xd1P\xd0\xad-D\x97*\x92@D\t$"\x10\nB@\x895\xc1\t\x08\x10\x12\x10\x88 N\x00I\t\x10$\x88\x81BI\x00\xa4\x10\x90\x88"I\t$\x10\x9a$\x90\x81\x05\xc9\xeb\xcf\xa4q\xcb\t\x10G"A\xa2\x91\xd1\x04\xe2\x18.T\xc9\xa5(\x048\x9c1\xc2)\x08\x87\x0esN\x96\xfe\x91\xf9\xeb\xd7}\x9c\xb8\xce\x1b\xd0|\xeb\xcf\xbb7*\x1e;Q\xcb\x04n\xf3S\xc1\xb8\xd4\x80\x92l&amp;\x14\x14H\xf71\xda\x1av+d\x120\xd7\x04\x14\xb5\xda\xe9\xfdG\x16\xc6:\xde\xb1\x9d\x7f?&gt;.\x13\xd4.\xf4\xf8~_w\x99\xc3\xf5}\xaf\xb6\xa7\xe0\xbb?\xd0o\xc0\xbcK\xea\xef\x96~6\xe3\x8d\xce\xf3t\xcb\x12\x0e5\xa8\xa8jp\x1a\x9c\x00\x8a\x00(@\xa0\x10D\x82\x11H(\x11$\x84\x81\x02 H\x81\x10D\x90\nHI!\x14\x02B\x12(\x08\xa15\xcd\x12HMp,\xcb\x01\xd1\xf0\xcb\x18\xc2\x8eH\xa3\xa2\x05Rs^2\xa5\xaa\xb9\x00D\'\xb1\xe2{Q!\x8c\x8f,C\xd4O:.\xc7\x9b\xdb\xed\x99|\xfbr\xb5c\xae\x99\x99\xbc\xebury\xd8\xdd\x14\x82\tR\t\xb0\x9e\x9dMr\x03\xd0\x15]\x84`\x08"#\xaco\x1f\xd4\xe5\xb9\x8f\xac\xe9\xebY\xcf\xa9\xf7*\x1d]\x9dnwW\xa6\xcf\x99\xfb3\xfd\x1f\x86\xdc\xd3\xcf\x8f\xee\xfbx\xcf\x9c=\x1f\xcf\xbe6\xe8\xcb\xd8\xe1\xf3\xd7Ow\xd7.\xfb\xf1\xe1\x99?E\xbe_\x93\xf1\xbe\xcf\xa5\xc2\xfct=\xf7\xc1&lt;\x86\x877\x95@\x81"\x06\x10\x87$@\x91\x01\x08(\x10\x84D\x08\n\x08D \x82\x80R\x12\x04I!$DB\x11H\x01\xcd\x12(\x01\xc8\x92Xf\xa65\xed\x02&amp;\x82D!\n/i\x19NX\xf2\x02H\xe0=\xa8\x90"$\x08\x92B\x96)N\x93C)\xfbV\xd9\xce\x93K\xd2\xb6.\xb9\xb1F\xc5\x9a\xe1\x1d\xb7\x87\xe6\xd2@\x81\x85D\x8fk\xe9\x89\xcd\x10kHRY$5\xda\xed=#:\xd7?\xb8\xea\x1dV.\xbb\xe6h\xc7\x93\x89\xd6\xe6\xf5\x18}t\xfbu\xea\xddv\xef\xa3\xd4\xfd\x1f\x05\x1e\x1f\xd4\xd7\xb3\xe3|\xc5S\xeafy\xf5\xe63zz\xee\xe7\xael7y\xce\x16\xdcTu\xa8\x92\x1f\x97\xfe\xaa\xe28\xe7\xe4\x96\xbd\x9f\x17`8\r)\x0cI\x08\x848\xb1\x0f\x00\x85\x02$\x90BB(\x05$$\x08\x92A\t\x08\x82\x07\x02\x02\x08\x92@N@[&gt;\xb3\xd2\xf8~\xef\xd2{\x1e\x87\xcf{\xbe\xd2\xee\xd3\xc8[\xec\r\xe9&lt;g?\xddC?9\xe0\xfdRs\x9f\x8f\x9b\xf5\xd6?;\xf3J\xfa\x9az\xf9&amp;_\\\xf3O\x0fJ9\x1d\x0en\x19\x85\x01\xc5\xa8xk\xc0A\x14\xf0Nm\xb8JS\xbb\x9dd\xb6ihtY\x932\xde\xe4\xfcg[C\x0c1\xae\xa5\xe7\xa5\xd5\x82+9\xd1\xd3\xa0tp\x1a\x96M\x05\x0f\xf6\x9e/\xd0s\xf4\xf1\xeb7\xb5\xe1\xdfG\x0fk\x93\xeb\xe9\xb7\x93\x7f\'\x9f&gt;\xea\x1a\xf4\xfa\xf5\xbfg\x17V\xc6z_\x8fzW]wI\x97~\xcf\xe7a\xb0\x0e\xf2\xe8\xe5e5\xaeaY\xb2\xc5Nd\xade\x95\xac\x96~\x16\x87w\x0f\xe0i\xa0\xac\xd6\xa2\x88\xd2 H\x81"$\xbb\xfe\xd8\xf3\xf7z\xa6W\xa3\x97\x9f\xba\xdd/\x17rA\x94\xa0\x84B\nHH\x80\x12\x04A\x11\x04\x05 \xa4\x83\xddr_\\\xf5\xdd[\x90E\xddp\xd0,\xdevs\xec\xbc\xea\x0bM\x07\xe7K\xac\xe8\xcf[o\xd5\xcb4\xdc\x8fy\xae\xdb\x11\xad/\x95\xfe\xb2\xf9w\xc5\xbc\n\xd7!\xf9\xddy\xc1b\x01$\x82\xe6\x11\xe1\xa4t\xb0\xc8lX\xa5\xaabZ\xa1\xa2Z\x86j\x1b\xba\x0c\x07Q\x90\xb6H\x81J\xc83\xc5.\x8d\x82\xe4&amp;&lt;;\xd8\xbc\xd1$!$\x0e\xe7\xb8\xf3~\xaf\x1fV\xcf\xa7\xf9\xd7\xa1&lt;\xb9\xbc\x87_\xc9O\xa4\xb2Q\xc4\xf4\x0en\xf66\xfa_\xd3\xa3\xb1\xads~\x87\xe7\xfd\xe2\xfa\xa5\x8a\xd6~\xef\xc4h{:qp$\x8e)\xa0\xd4\x8d\x85\xab"d\x97\x10\x02$\xf9+\x89\xeexo\x86\rp\xe5\xa0\x90\x18\x88\x11\x08E\xa4&gt;\x91\xe6\xfa^\x8e]\xf6ML\x8fO*\x94\xa4\x8f\xc1\xe9@\x8c\xd2\xe6\xa1\xc9 \x82\x04B\n\x04I \xa4\x07\x00D\x9aOG\xfa\x9b\xe6/\xa3\xbd\x9d+\xe6[\xad\x9c\xd7\x8e\xcbyH\x8c\xa9X\x9e\xfb\x19}\xb6\xfa\xca\xfd-;&gt;\xcep\xc2c\xed\xcc\xb0\xd6\xa7|\xd1\xf4\x8f\xcd\x1e=a\xc34\x1f7\xb6EKuD\x12\x11H\x05\x10H\xc4L\xf8\xb6\xb4\x83Pgi\x19\xab\xbd\x06\xb8f\x95\xa7\xae\xfc\x9f\x14\x13\xe53\x99&amp;\xd6a|\x9bg\xd1\x9e\xaf$qZnU\xd1ik\xa5\xe47\x9d&gt;\x9f\xcf\xd5=\xef\x1d\xc8w\\W\x97\xe8d\xdc3bkbl\xb3]\xcf[\xc2\xf7\x9a\xed\xc8oe\xdfc\xda4\xa9\xe9\xfd\xdf\x93\x0cn\x8f\xa7\x17\xa8\xcd(&amp;\xafM\x8d\xf1\x8e\x96\t\xaek\xa0Y\xf9\x03\x95\xd7\xc7\xf845\xcd\xe7R `{\x04\x92\x01H\xf4\x15\xa9\x95\xe8\xd7\x18\xcbm\xe7\x85KZ\x18\xc9Db\x90\x90\xe2\x10R@(\x81$\x14\x80\x88i"b\ni=\x7f\xe8\x0f\x0c\xf7OoL\xb8-A\x8c\xc6\x9e\xdc\x00p\x90:2\x96\xef\xe6\xdc\xea\xd44o\xfb9\x88\n\xed\x98\xa0tw+\xe6?\xa6&gt;`\xf1n\x8dy\xeb\xfc\xee\xb8\xd0&gt;1\x14\x84\x92\t\x04R\x1d\xfam\x88\xd7D\x18\xf3\xc1\xcdoV\x94{K\x1bk\xe5$A\x99K=yj[Y\xba\x9bGf\xbc\xbagS\xda\xc6\xe6\x0ea\xc8\xd5\xb7\x01\x1fA\xcfo[\xf5\x04\xdc\xfe\xafk[\xce\xbd+\xcd\xfc\xfe\xfa[x\xfd\x9f9\xcf]\xce\xd6\xbe\xcc&gt;\xdf\x90\xf4-o\x97\xb9\xdau\xbe\x9f\r\xf9\xe2?W\xc5\x0co\x8f\xa4yq\xd4\x8e\xb5\x98b\x16&lt;\r\x9e)nk&lt;\x1b\x9f\x8bq6q\xff\x00?Z\x08\xc5@\xa2\xc5-|\x9b\x02JTA:mL\xce\xb7\xd3\x9e_B\xc6\xbe//\x9b\xd1\xf3\x87&lt;\x08\xe3R %\x11\x02\x80R\x01(Mp\x00  \xa0\x14O\x7f\xf6/-\xf4\xafoJ\xf5\x9f\x1e2\xd2\x16"\x04\x01%$\x96\xaa\xcd\xd5zjv=\x9c\x8b\xa2o\\\xb4!e/\x99&gt;\x8e\xf9\xbb\xc1\xd2\n\xf3\xd5\xf0\xf4\xc3I\x00\xa7\x91\x99b\x0c\xcc\xe9i\xd0\xcd_\xa2\xcdw\xd32\x9d\x1b\xf96*:=\xa3i\x18\x07\'\x8cR\xba\x99\xa3Zm\x94\xf1?I2\xf4\x06X\xa1\xec\xe6@\xa2\xb6\xaeV\x81\xef\x9b\xfc\xde\xde\x9a~m\xe8\xb4\xa7~\x17\xd2\xa9l\xaf\x96me\xdf\xcf\xbe\x87qog\xaf=\xbd\x0c\xeb\xff\x00C\xc1\xa7#_\xe9\x95\x18\xe3\xd1#\xda\xedHb\xb1ZZ\xe9\xd1\xb2\xe5\xcb\xf9\x7f&lt;{\x97\x05\xf3\xdf9\xe4\x9a9N\x8f\xe7\xe9\x07\x0c\xd0\t\x8e\x83\x9a\xeb\xf9\r\x02C"ZO\xa1{O9\xbd\xed\xcd\xdb\xdc\xce\x91\xad\xcf\xed\xe3k~\x02\x1c\xdf\x04\x05 \x90@B\nD\x05!\x02\x80\n\x02H\x05\x13\xe9~\xeb\x8a\xef=\xbd(E4\x1c\xb2SL\x8eih\nj[\xb5\x99k\xabH\xc0\xff\x00_ \xd7G\xd6(\xdc\xc4\xe6~{\xf7\x7f\x04\xf9\xdd#\xa5k?\xc9\xbc\xe2\x90\xadA-\x10\xdbe\xbbT\x8e\x96\x1fU\xc4\xd4\xe4\x80\xces\xa3\xc3]\x90\x8d.\x1an\xab\xb01\xc4\n\xc4pe\x81\xc5\xb7B\xed\x9f#\x1aR\xa9\xb7\x8f\x84i,\xab\xe8\xe6\xdd=\xdf_\x0bl\xd4\xbbJ\xd5N\xe8e\xddj\xb1k\xa6\x95\xda\xd2\xf4\xce\xb4\xd4\xb4;\xea\xdc\xf5-\xfa\xacE\xd4\xba\xe2\xf38\x8f/\xc4\xf7\xceS\xe6\xeek\xcb\x9fn\xf3~f?-\x11\xecu\x1c\xef\x9f/k\xee{\xbeXoS\xcb\xf9 (b\xa4\x91\xa1\x8e\xe1MIB)\x1e\xb9\xa5\x8f\xb1\xeb\xc6}\xbe|s\x9d\xbd&lt;\xdb;\xdf\x8c\xb2X\xfc\xb4\'\x018&lt;jp\x01 \x05!\x04F\xa4\x03\xd4\xf2\xde\xe9\xd7^2\xefj\xc6\xe9\x9c\x8e\x9f\x90\xb1\xd2u\x0e\xe5\xa6\xf5:\xae\x93\xca;/\x1e\xfd\x12NW\xab\xe5\x03HK\x16\xa9Z\xeb\'\x9a5\xec\xe6\x1a\xe8\xfa\xc0\xc7Bq&gt;\x13\xeb\xbe%\xf3:CL\xaf6\x82(|\x8c\x92\x8d\xb8&amp;\x11c\t\x1d\x12\'\x82Xj\x05\xa7h\xc8}\xd8\x08\\\xd9An\xb0\xa6\xcfJH\x9d\x93*k_\x19z)\xa3\xd9\xd4\xe6\x9a0\xc4\x91\xf2W\x91\x88\xf7^\x87\x91\xeb\xabV\xd5K\x9a&gt;\x86\x87\x9bVu\x1d.\x7f\xbbf\xc6.u\xcf{?\x9b\xb6_Y\x9b\xc7\xfa\xee\xb7\xb4\xf1\xff\x00P\xf1\x98\xa6\xce\xdb\xb5\xe5|o\xa2\xfa\x03\xa3\xf4\xef\xc1{?h\x97\xd0\xe1\xfa\x9b\xef\xef\x8a\xd0\xcf\x06\xf9\xfc\xa1\xc0\xfa\x7f\x99\xfc\x1a\xc6\xb8p\xd2H\x10\xa4\x00B\x11\x04\xf4\xae\x87\x98\xdb\xf4\xf2\xc0\xb9\xbf\xa1\x96\x14\x9a\xf9\x97^C\r\x8a\xfc6\x92P_\x1b\xc2\x92\x12HH! @\xd7\xb4Z\xb9"\xbby\xf8\x13\xb7\xb2\xe8w:\xdd\xdeh}?%&gt;s\xb3\x9d?)\xed\xbd\xa7\x13\xdc]E\x1c\xb1+\xad\xd5\xbf\xd2L\xf7C\xee\xe6bj\xe9\x96\xd1\xb7\xe5\xbc\x9c/\x03\xb9\xcf\xfc\x9e\xa4\x85\x9a\x92D\x8e\n\xac&gt;\x19D\xd0a\x04\t\xb4k\xdf\xe8my\xe0 \xad4Y&gt;\x94\x8a%5,\xc2Nu+T$\xab\xb1\xc8\xed\x94\x90X\xa8^\x9aW\xcd\xde\xc4\xc2\xb3\\\xdc=[\xbf\xf2\xcfV\xad+\xd9\xb7\xf4\xb3\xe5\x1e\xad\xe5\x15\xce\xc9.\xaf~u\xf7z\xee\x8b\x97O/\x8f\xd3\xe3\xdb\xcd\x9f\xe8;\xfe\x8dy\x97w\xdfY\xf7^\x7f~Yz\xd1^\xccl\xc5\x14\xec+\xb9\xae\xb9\x82\x19\xe1g\xe6\xcf#\xf6O\x1b\xf8\x80\x12\xf2\xd6\x94V\x04\x88\xd0\xe0$\x89\xbeH\xe9\x98oc\x89o]\xae\xfdg76\xfd\x1ez\t)C\x82\x1cZ\x87\xb5\xc0\x04\x10\x10B\xd2\x865\xed\x14\xb1_\xaf\xb2\xb3\xb5\xb2=z9Zyy\xcf\xce5\xdf\x0f9\xee\xfd\xd7\x0b\xdd\xdb\x14R\xc4:\xcdG\xeeY\xaf\x9f\x91\xe8\xc7@\xb8\xea\xc9\xd2xgG\xc6\xf9nfe\x9a\xde~\x89$\x07\xb1\xc3\xd0D\x93A(K\x1c\x00\x1ej\xaa\xef\xda\xd5Y\xeb\xd5R\xc6a\r\xa8\x98\x18\xefD1\xf0:%h\x05\xab\xb9\x176\x9a\xcc\x13l#\x95\x84\x95&amp;\xb1\x1c\xc4v\xabru\xbe\xcf\xe1\x9e\xcb]\r\xdc\xfb\xb5w\xc9}[\xc9\xec\xe3\xba\xee\x03\xbf\xeb=+{\x0bw:V\x06\x8f[\xab\xb3\x95\xab\xf4i\tw&gt;h%\xd1\xc0\xb0bMJ\xa8\t\x19^X\x99\xf9\xfb\xc5}\xc7\xc3\xfe1\x88\xb7\xcb\xa4\x92\x86\x1f\xa8\xe8\xf6|\xd2\xbe\x90\x07\xce\x07\xe8\xe2x\x82\xf6\xf1s\xe0c\xdf\xec\xaf\x85\xb7\xdex-O-\xcf\xd1\xcd\xe0I\x0c\xe8\x96\xb8D"@\xd08\xb5\x054\x0fM!\x89\xed\x0e\xee\x17U_Xe\xe8\xe7z\xf4(hR\x98\xf9\x8a;\xb4y\xcfy\xee\xb8&gt;\xe9\xa6C,U\x1dKxRe`\xcd\x8d\xaf9\xa3\x1d\x1c\xabQ\x9a\xb7\x1fF\x1cOd\xa9$"\x08\xe4\x10\xe9a\x94qj\x0c\xb0Y\xa1s:\xd1f7\xb3J\x91&gt;&lt;$L\x9e\x891\x81\x8fqYZ5U\xf3\xa8\x9ez3\xedq\x01\xb0\x96\x17\x99\xb9}\x06\x17&amp;\xbf\xac\xf9\x07\xa5\x9e\x89z\x85\xea\xb1\xe4\xbe\xb7\xe4\x95\xc7v\x9c?u\xdb\x1e\x8d\xbbV\xdezX\xbbN\xeff\xbe\xaeF\xb7\xba\xc8\x9a\xee\xf1\xd2G&amp;\xab\xd8\xe6\x82)Y%X\x9c\xc4l2Cs\xe1\xfe\x11\xef\x9e\t\xf1\xa4`\xaf&amp;\xc0*&gt;\xaa\x93:\xcf\xbe\x0c\xe5\x8b\x8b\xa4\xecv\xa6\xca\xe7v\xa4\xb0\xf9\xd9O\xe2:\xcel\xf2L\xcd\xcc?-A,\xd4\xe6\x90\xa4\x02\x92\x11\x08I\x00\x90B\xc72\x8fk\xc5w\xb5\xf4\xb6v\x86\x7f\xa7R\xd2\xb9M\x9f\x9ahX\xa9\xce{\xd7w\xc1wj\xd8d\x8a\xa1\xe7z\x0ew3\x92\xc7\xd0\xc7\xc4\xabJ\xcdL\xd8+\xcfJ\\\x80\x08\x11B!\x08\x82)\xa0\x94r\x04Vi\xd8\xa6\xca\ty\x93W\xaaMG&amp;\xdb\xa7j\xa4\xadf\xbd\t#tJ\xd7\xc5R\xc9\x0b\xeaF\x06V\x93\xe2wC\x81"\xe7:|\x1ec\xe9\x1ek\xe8\xf8w\xdb\x9c\x7f_\xb5\x8f$\xf5\xbf!\x8e?\xba\xe1\xfbn\xf9\xf6\x84[\xadX\xbd\x9d{m}|m_m\x9c\xb1\xfd\xe3\x9f\x1b\xf5^\x93\x95\x91\xbe\x0c\xe6\xacN\x8e\xc1\x0c\xb0\\\xf8\xcf\x81\xfb\xf7\x80|s\x12^=\xa0A\xf4\x83\xe2\x8f\xd9\x9c\xdd(n*\xa5\xa4\xaa\x86\xa5{\xc4\xc4\xc9X\\\xdfG\x971\xe7\\W\xb0\xf8\xdf\x9fd\xb0r\xb2\xc9Y\xc4\xe2\x12\x8es\x08B  \xd3\x9aPZ\xe6h\xdfF\xf3\x7fN=\xfe\x85\xda]\xeb\xea\\\xa7\'\xcc\xf9\xd7h\xf3{\xd7s\xc2v\xea\xf8\xa4\x8fJ\xdc\xe7E\xce\xe1\xc3fifaN\xa5\xba\x99V\xca\xd4\xc1#I\x08\x82\x04P\x92@\x91\x8e\x1c\x90\x04\x91\x03J)\xe1\xad\x1a\xf7(iM\x05\x80\xb3^r\xcd;ui\xc8&gt;\xa4A\xd5\x14\xad@blj\xa6\xbb\xa9"\xa9\xf9\xf7\xa1\xcb+\xd1\xbc\xeb\xd18\xb7\xbb\xbe\x03\xb4\xdbW\xc7\xfd{\xc7NC\xd1&lt;\xd3\xd2{\xcfgc\x9b\xa4\xb6\xe9\xd9\xb7SW#W\xda\xb0\xe8\xa4\xf4%\x9e\xbd\x8d\x1c\x1a\x01\x0b\xe2*\xb0\xb5\x1b\x04\x91k\x9f\x91\xfc\xf7\xf4\xbf\x84|\x9b\xce\x8e\x88\xf8\xbas\x8b\xa4\'\xb9\x0b\xab\xd5\x8as\xca\xea3\xb2}X\xd5\x97U\'[\xae\xbc\xa49g\x9f-\x0f \xf4\xef:\xe7\xac\x90\x17\r67G*\x01\xc2\x0e\x03S\x92\xb4\xa4\x80\x90\x06H\xd5\x8b\xd4\xfc\xe3\xd7\xb6\xf5\xaa\x96+wKR\xd5K&gt;h\xa9v\xbf)\xed\x9d\xb7\x15\xd9\xcb$r3V\xb79\xd2s\x99p\x99\xbat8\xb3\xe9\xef[\xae\x1b\x17\xd5\xe6\xaf"&gt;\xc4\xac\xf1\xd5\xeb\xd5e\xf2\xa3\xe9u\x0f&gt;=\xa5(\xe5\x9f\xb7\x11\x94\xaf\xc1\x15[,e\xf9\x04\xba\\\xcf\xd0\xcd\xaa\x84\x1c\x14\xd0\xbe\xafR\xd0\xcf\x1d,3R-T\xf0\x81\x10C-T\x07d\x85\x8e\xa7\x82\xe8\xc2\xf4_=\xf4.\r\x9e\x87\x9c\xd6\xd3\xb1\xf1\xef]\xf1\xfdN3\xd1\xfc\xd3\xd3z\xcfb\x0ff\xac\xf6\xe8\xdb\xb7SK\'c\xdc\x92X\xcf\xa14\xd5mZ\x95|\x8b\x9dz\x9c\x9e?7u\x1f\x0f[\x13\xd0\x99\xe7\xa2M\x0f,\xee\xe9y\xef\x16\xde\xf2\xcf+\xe6\xeb\xd1Y\x1f\xff\xc4\x006\x10\x00\x01\x03\x03\x03\x02\x05\x02\x06\x02\x03\x01\x01\x01\x01\x01\x01\x00\x02\x03\x04\x11\x13\x05\x12!\x101\x06\x14 "A#2\x07\x15$034@P\x16BC5%6D`\xff\xda\x00\x08\x01\x01\x00\x01\x05\x01\xe2\xdf\x05X\x15\xc5\xed\xcf\xc1C\xd08)\xa8\xf7@q\xd2\xdc\xb7\xb7^\x17\x0b\x8e\xb7\xe1\x0b\xdb\x9b\x1b\xa0\xbd\xc5|\x1e\x82\xcb\xfe\xab\xe4[h\xb26\\+\'t\x08\x82\xbeQ\xbd\x8d\xd0\xe8B\xe1\x05\xc2\xb0\xb8\\/\x85\x01"V\x97cc\xa53B\xe9Z\xc7e\xc4\xfc\x99\xe0.\xdb\'\xf0\xbbnh\xf1\xeep\x8cC\xf4s3\x12\xfab\x17\xec\xcb\t\x17\'\xf4\xcf\xdd\x99\x8e\x95U\x190\xd7\x97\xdb\x95\xca\xa7\xbf\x98\xae\xb9-6W\xbb\xd9ki\xf8\x8d+\xb1\xe7\x8fg\x96\xf6\xee\xa3\xb6\xe3\x7f.\x0b\xfc\xc3L\x9b\x0e\\D\xcd\xe6F_.\xec\x9b\x99}\xe7\xf8}\xa6vl\xc4\xec[)\xb1y\x82\xf8\xc46g\x9bi\x18\x85\xd3\x1c\xfc\xae2y_@\xba\x07\x83\xe8=\x05\xaf\xd3\x8b\xf4\xf8A\x0f\xb5\xd7\xe8\x10%\x1b\xf5\x1dB\x1d\x1a\x82\xf8A[\x8ev\xae\xe7\x9b\\\xaf\x95\xf0\x81A]|\xfc\x1e\xdf(t\xe6\xe2\xea\xe5|\xfa#\xfb\xa3\xc6[\x06&lt;\x8d\x11\x88\x8e;\x00\xcc\xd0[c\x9b\xf4\xbd\xf9\xa1\xc9\xb6\\\x98\xc1\x97\xcc0\xc9\xb1\xc5\xd8\x899\xe2u\x83\x8bp\xb8\xb3;\x0c{jqc\xab,\\"\xa8\x85\xea\xab\xb8\t\xb7\xdf\x1d\xd6\x8cd0\xdd\xf9A\x7f\x96\xbb\xb2\xd2\x92\x9eF+\xc7\xe6\x01\x8b\x0b\xf1 a\xcf\xec\xf2\xef\xd9\x96+\'\x8f\xa2\xdd\xfee\x86C\t\xcc\xa22d\x90\xc9\x8bs\xfc\xe8\xbf\x95y\x1b\xd8\xe6nv&lt;\x1ct\xe1qq\xe9\xf8\\\xae\xcb\xb8\xb7%_\xa9\xb2\x16C\xed\xe1q\xd3\x85\xdd\x0e\xe3\xa7=\x05\xc2\xe7\xd1\xd9|\xdb\xa7\x1d\x02\x1d\x90\x1c\xd9\x1e\xc8!\xdb\xa5\xfd\xa7\xb7K\xf1\xc2\xb2\xe2\xdct\x1d\xbe\x05\xc2\x17L\x06\xf0\x07\x86\xc4\xe92\x03&amp;\x17\x97]\xae\xfa\xac#\t,_O4X\xb6&lt;E\xb0\x08\xf3\xb03\x0c\x8d\x00\x01\xf5\xe3\xdc!;\xf6ZO0\xcc\x82\x1a\x8c\x8a\xab~\xc4U\x1b\xb6\xcfRw\xb0\x00J\x8e\xcbH\xd8\x05\x99\xb9\x8d\x18\x08\xfa\xb4c\xd9+_\xb5\x99|\xcf\xd5\xf2\xf3e\xdf\x19\x97\'\xbb\xcb\xbc\x1c\xf1\x9e\x1d\xb7\x19\xc7\x99\xb8\xb0\xda#$x\xf7J\x19\xb04y\xc6\x8f\xd29\xae\xcf\x0e\xfb&lt;K\x88v=.\xb8\xb7\xc1\xef\xc5\xf8\xe9d;\xd9[\x8f\x8e\xe8\xf6\xe6\xdc\xa0\x9a\x87\xdb\xcd\xfeU\xfa\x0e\xff\x00\x1f\n\xc3\xa7\xc5\x95\x90_\x08/\x83{\xfc\x8e\xe7\xb2\xbf7\\!\xdf\x8e\x9c]\x1e\xdd\x05\xd7+\x9b\xfc\xfcu\xe1p\x85\x93H\xbc8\xcba\xd8\x80\x18\x9e=\xf0\x83\xbc\x07\x08\x08\x908\t2\xb7&amp;\x19\x04\x97avf\xdf\xcb\xce=\xd1\x96e\x05\x98\x1f\x8e\xe3\x16P#\xc1(\x8f}Hn&gt;\x94\xff\x00t\x8e\xb3\x1d{\x8b\xa8o}#v\xd6\xee\xb8\x1fK\xff\x00z]\xb8\xa6\x11\xa6a\xcb\xf4\xfc\xbc\x82,\x8c\xd9p\x1b\x80\x8f\xaf\x1d\xf1\x80\xfd\xb6\x97+ry{K\x9e1&amp;\xd9\xda\xed\xa2\xfee\x96\xf2o\x11\xf9\xa8\x8cx\xdd\x88\x8bp\xade\xf1s\xb6\xcb\x94\xdb\xf5\xbfF\xa2\xb8\\.:\xf7-C\xb2\xe0\x15\xcfAu\xf1\xf0\x81\xe4\xf4\xf9\x08[\xa7\x08/\x8e\x9c\xab\x1bX\xee\r*\xc4\x0em\xca\x1c\xaf\x8f\x95\xf1\xc7N\x17\x08Yp\x87d;\x81\xc5\x8a\xe4\x1eW*\x91\xces"\xbd\x87\xf1\xbe\xc6hv\\\xe3\x10?\x16F\x08\x89-\x8f\x0e\xd6\xefc\x06F\xb4\xf9iX\xfc\x90\x89r\x16\xc9\xe5\xe4\xc8$fM\xe7w\x97\xa8\'=m\xbc\xb9\xe9\x05\xaf!\x08\xda\xe2\xca"7h\xc1\xb6`\t\xa3\xe9\xedp\x9e\x90?\x04\xd9/\x18\x971\xc9\xe5\xa4\xc9\x9e;\xab\xfd\x12\xf6\xe7c\xa3\xc7\xba%x2\x83\x16\x06\x98\x8dC6l\x98\xb6\xcc\xbex\xef\xe4\xc8\x93\xcd\xb3&amp;\x17\xe5\xb2\x0b\x8e\x9cYY\x05`\x17\xc0\xe8\x11G\x82;w\x03\xa0MAvG\xbf\xc1W@\x85~\x81\x02\x87Au\xcd\xbd\xca\xe6\xfc\xee\xf4v[\x95\xf9\x05\x13\xc2\x1d\xfasqtw[\x95\xca\x17\xb1\xbfA\xd3\xe7\x8e\x9c.\x10\xb5\xbe(&gt;\xc6\x07mh~7\t\x0c\xb1\x19ns`92F\xe7\x94I\xc5q\x91\xaen\xeb\xc7\x81\xe6,\xb0\xba\x1d\xce\xc5\xe5\xde#\xc8\xc2\xcd\xc6\xde^\xa2\xfeb\xa7w\x977\xdco\xba\x9bqt\xd7\x0b\x9b\x85\x1f}\x1a\xe5\xa0\x80\xa3-\xb7\xd3\xcdO\x8b\x0b\xf0\xeff,\x96\x8f\xcb\xb87\xccF\xb9\xc5\xf5&lt;\xc3r\x88\x8ed\xdc\xdb\xef&amp;\x16\x19|\xcbK\xb1M\xdc8\x17\x87G\xe57C\xe6\x98a\xf2\xe7\x16\xfeW\xcf\xc8\xec{+\xfa8\\!dE\xfa\x8f\xb5|\x8b\xa6.P\x0b\x92\x0fO\x95\xf0\xae\x87R\x87en\x9f\x1f\x1c\xdcw\xe5r\xb9A\x1e\xc1]q\xb1p\x85\x97\x16\xe1||\x1e\x9f\x1c\xdb\x9b\x8e\xdc\xdb\xe4\xf4=\xa86\xdb\xd9\x8b\xe9\xed\xfaFvc\xb5\xa3\xc2\xe0\xcc\xb0\x80\x9e\xd3\x8c\x07\xe6fK^\\.\xcd\x9e\'J\x13\x8c\x98\x1e_\x99\x8f)\xdf\xc3R[\xe6\xaa\x0bp\r\xbb\xe4\xb6\xfa]\xbb\xea-\xbcZ\xe0s\x1f\xdd\xa1\x02\x9d{A\xbe\xed\xc9\xbe\x1c\xa2\x07e\xc8\x0c\x88\x97a\xbd\xea.1\xbbe\x99\x88\xcd\xf4\xb0\x1cY\x19\x89{DQ\xed\xf3L\xb6\x19\x01\xdc\xd2\xfd\xa3/\x96\x06o4\xd37\x949s+.\xc8+t\x0b\xba\xec\x8d\xd0\xeaP\xf4qqd;\x15\xc2\xba6\xb1V\\\xae\xc3\xad\xca\xe5\x12P6\x07\xa0\xe8l\xbezq{/\x8e:snln\xaco\xca\xf8\xf9_\x1f#\xbf\x166\\ \x02\xe1\x01\xd7\x92\xa87\x85\x1eCJ\xec\x80Fd\xcc\xcd\xfb\tx\x8d\xdf\xcb\x15\xb6\xca\x19\x8cc\xca1lv-\xa0Df\x8cF\x05\x9b\x8fo\xd7\x88\x11\x1d\x9d\x8a\xa3\'\x98\xa8\xdf\xe5\xdb}\xf2\xdcILH57\xde;\x84\xce\xfa&amp;\xdd\xaf\x0c\xd9\x08\x8f{\x047cc\x11\x11\x1eV\x86\xd8\xb7\xe9\xb2\xe6\xa0\x07\xe1p\x91G\x979\xcb\xe5\xbe\xaevd\xda\xf0\xecl\xbf\x99\xff\x00\xfc\xe4\x03 \xc7\xe5\xed\x10\x8a\xd0\xe6\x02/.\x1b\x1f\x98\xba\x07\xa7\x0b\x82x\xb8\xb2\xf8G\xd1\xca\x17_\x0b\x94:v\\\xdc\x02\xb9D\xa1\xd3\xe1\x14:|\x8bz\x02\x17\xb2=\xc7\'\x95s\xd7\xe0\xae.;\x1b[\x8b\xf1o\x82\xac\x87n\x80\x15\xcd\xb9\xb8\xf4p\xb8\xb7\x0bN,/\x8ff\'\xb6=\xd0\x86\xe5\rn\x12\xcb&amp;\xb5\xc6H\xc3\xf1H\xd9v\xb4K\x9ce\xc5(\x95Fd\xcd\xc8\x8aN\x05\xdb\x99\xa5\x98\x8e-\xb3\xe2\xc9Q\xb3\xcbGm\xf2[|v\xbc\xf6\xb8B\xea5\xa0\x87\xe2x\x93d-\x90M\x18\x97h\x12b\xf7g\x1f\xc3%\x93K3\xfd?.\xfcY#\xc3\xb9\xd8\xbc\xbd\xa2\xf31m\xc6\xe6\x8b1\xa7,\x8cx\x861!\xa8\x8cI\xe5\x00\x9571\x99\xa2_*\xe1\'\x9b\xec\xb9MN%|\xf2\x87B\x8d\xac\x0f^:p\x11\xb2\xf8j\xb7\x16_=\r\xd77\xe5r\x8f@W\xc5\xf9\xe1\\.\x17\xca\x16\xea-\xd0\xaf\x91tz\x8b\xf4\xe6\xff\x00\x1f\x05w\\X\xa1k\x8e\xd6\xe2::\x89\x93t\x9a\xe4t\x8a\xd5=\x1dK\x16\xc3{\x1b\x1b\xd8w\xd2w\x94\xdd\xd8^\t\x92#\xef\x04`\x93n\xe6\xba=\xcd1\xe2\x93\x15\xc6,\x8d\xc7\x82V\xb2\xf1\x86\xe6\xb7\xd0\x95\xaeQ\t3m\x93\x01\xc9y\x84\xb7\xac2yH\xb7d\x96\xf9\x1b\xde\xa3\xee\x1d\x19\xf7hf&lt;.\xc7\xb2!\x1eX\x84{6\xb3c,j\x00\xfd;\xc3\xb7\xb3.a\x97\xcb&lt;M\x9e#*\x93&amp;\x02]\xe6\x98\xe2)\xdcF\xf6\x11\xbam\x98\xe2tFx\xf1yP!\x12E\x8a\xe0G\x80\x08\xcdQ\xb2\x1d\x91V\x08/\x85n\x9f\x1c\xaeW7oBP_#\xa7\x1d?\xeal\xb8C\xb3QC\x82xE|\x8b\xaeB%\xc4|\x8b\xaeQ_?%\x1e\xbc.7\x0b.-d\x07\'\xb76\xb7#\xb0\xed\xca\x8e9$\x92\x8bG.\x14\xf40B\x98\xce\x0b,\x00\x0eM\x8c\x16\xd4\xd0\xd2\xce\xa7\xf0\xfb\x15n\x954\x08\x81\xbbL\xda\x00\xb0h\xe6x7 ]\x81\xf92\xc6d\xbd\xe5\xc4\xf3&amp;\xf6\xb9\xfb\x83\x9d\x82Nda\x1b\xee\xdc\x12\xe3\xdf\x19\x8f)\xc5\x84\xe2\xdf&amp;;\xd6\x06\xf9h\x</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495655-la-responsabilidad-de-los-multimillonarios-en-el-calentamien</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Efemérides de hoy: qué pasó un 8 de noviembre</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:01</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Hechos que ocurrieron en la Argentina y el mundo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En las efemérides del 8 de noviembre sobresalen estos hechos que ocurrieron un día como hoy en la Argentina y el mundo:En Clontarf, Irlanda, nace Bram Stoker, el autor de Drácula. Su novela de 1897 aterraría no solamente a infinidad de lectores, sino también a quienes vieron las versiones cinematográficas que depararía. Stoker murió en 1912.Se produce el Putsch de la Cervecería en Munich, el primer gran intento de toma del poder por parte del nazismo. Adolf Hitler organiza un golpe de Estado en Baviera y reúne a las fuerzas de derecha. Mal organizada, la asonada fracasa. Los cabecillas son llevados a juicio. Hitler convierte su defensa en una arenga política y los jueces le dan una condena de cinco años de prisión. Sin embargo, es amnistiado. Saldrá de la cárcel en diciembre de 1924, con el manuscrito de Mi Lucha bajo el brazo.Nace uno de los mitos del séptimo arte: Alain Delon. El actor francés protagonizó infinidad de clásicos, como Rocco y sus hermanos y El gatopardo, de Visconti; Los aventureros, de Robert Enrico, junto a Lino Ventura; El samurai y El círculo rojo, de Jean-Pierre Melville; Sol rojo, de Terence Young; y A pleno sol, de René Clément, en la que se puso en la piel de Tom Ripley, el personaje creado por Patricia Highsmith.El senador demócrata John Fitzgerald Kennedy vence al vicepresidente republicano Richard Nixon y se convierte, a sus 43 años, en el presidente más joven de la historia de los Estados Unidos. También es el primer católico que llega a la Casa Blanca. Kennedy se impone por un escaso margen: en unos comicios a los que concurren 68,9 millones de personas a votar, gana por 102 mil sufragios de diferencia. La campaña incluyó el primer debate televisivo entre candidatos.Sale a la venta Led Zeppelin IV, de la banda británica Led Zeppelin. Es el disco que contiene la canción más famosa del grupo: “Stairway to Heaven”.A los 85 años muere Emilio Eduardo Massera, uno de los máximos símbolos del horror de la dictadura. Llegó a jefe de la Armada en la tercera presidencia de Perón y se sumó al golpe militar en 1976. En la ESMA montó el campo de concentración más importante y significativo de la dictadura. Pasó a retiro en 1978 y dejó la Junta con vistas a su propio proyecto político. El crimen del empresario Fernando Branca provocó su detención en 1983. A fines de ese año, quedó encausado en el decreto 158 de Raúl Alfonsín. Fue condenado a reclusión perpetua en el histórico juicio a las Juntas, en 1985. Carlos Menem lo indultó en 1990 y la causa por el robo de bebés lo enfrentó a la justicia ocho años más tarde. Sus problemas de salud impidieron que afrontara los procesos después de la anulación de los indultos.En París fallece Aurora Bernárdez. Tenía 94 años. Fue traductora, una de las más importantes en lengua castellana. Se le deben, entre otras, las traducciones de Las ciudades invisibles, de Ítalo Calvino, y de El cuarteto de Alejandría, de Lawrence Durrell. Media hermana del poeta Francisco Luis Bernárdez, fue la primera esposa de Julio Cortázar y, tras la muerte del autor de Rayuela, quedó como heredera de su obra.Después de 580 días, Luiz Inácio Lula da Silva abandona la cárcel de Curitiba. La Corte Suprema de Brasil determina que su encarcelamiento fue ilegal. El ex presidente deja de ser el preso político más conocido del mundo y promete ponerse a la cabeza de la oposición a Jair Bolsonaro.Además, es el Día Mundial del Urbanismo, declarado por las Naciones Unidas; y en la Argentina es el Día del Técnico Radiólogo. </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe1\x00\x02\xff\xdb\x00C\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\xff\xc2\x00\x0b\x08\x02\x80\x03\xc0\x01\x01\x11\x00\xff\xc4\x00\x1d\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\xff\xda\x00\x08\x01\x01\x00\x00\x00\x00\xf9\x95\xb1A^\x16\xb5\xa8\xf7\xcdjy\x1e\xf2K\x13X\xb5n\xc5\x99\x80\x01*\xc1\x05Z\xda\xfe\xad\xe8\x1d\xbfM\xa6\xdc_&gt;\xf2\xeeQ\x9d\x0f\x7f\xd7t:\xd7\xa9\xf1\xb8Vu\x13\x17\x02\x8a\\\xd1\x9a\xaf#\xe7|Fuift\xf2\xac1\xd6\xa2\xc8\x19\x03Q\x8ep\xc7=\x8f\x89\xd2\xc6\x03\xde,R\xc0\x0cM\xc8\xa1\xae\xc8\x1a\xd4\x1e\xeb\x16mH\xf7\x92N\xfb6\xacY\xb1a\xea\x08\xc8\xe0\xa9J\xacv\xbd\x07\xd2\xfa\xbe\x83n\xecx&lt;?(\x9d\x0fi\xb1$&lt;\x7f\x94\xf5\x1e\xaf\xa7n\x1c\xec\xba\xeez\xd7\xca\xe2\xfc\xdf\xcf\xf1\xd8\xf9\xed=d\x89\xb5\xa8\xc7\x04,\x8d\xa2\xb8\x15cr=\xc8\xd7\n\xf1ctj\xd45!\x8e(Z\xd4\x1c\xaf\x9a\xd4\xf3\xbd\xca\xf9e\x96\xc5\xbb6\'s\x9c\x8d\x8e*\xd4\xabT\xae\xee\xbf\xd0\xba\xfdm=\xedWE\xcd\xe2\xc8e\x99\x96\xa1\xed\xb5\xfa\xfd\xa5\xafAcJ9\x98\\G\x9ay\x97&gt;\x84\xf6&amp;{\xd6\n\x94\xd9\x04\x0ch\x88\xe0r*\xb5\x1e\x02\xbeF\xacl\x00m\xd8\xe1j1\x01\xca\xe9\xe6\xb5;\xd5\xeb3\xe5\xb1b\xc4\xd3J\xf7\xb0\x8e\n\xb4j\xd6\x85\x9b=7c\xb9\xd1u\xdd^\xf7\x9e%}X\xf0v\xac\xdc\x8b#\n\xf7E\xde\xdanm\x98\xe7\xcb\xe6\xb8\xaf5\xf2N^7\xc9ryU\x95*\xd5\x8e*\xed\x04h\xae\x00\x07\xb1\xe0\xe5\x08\xd5\x11\x02Tb" \x0f%\x9e\xd4\xef\x91\xe3\xdf4\xb3\xcf4\xf2=Q\x91\xc3R\x958cK\x9d.\x8fW\xdav:=\x949X\xbb\xd0\xd9\xe4\xdf\xcb\xfa\x17y\xc5\xf9^\t\xec~\x83\xca\xa6\xbd\xa5\xad\xc6\xf9\xb7\x88qB\x96\xa7\x91\xf1T\xa7\x0c\x11\xc2\r\x00\x01\xc0\xa0\n\xe0V"\xb9\xa8*\x08\xd0\x01\xca\xf9\xa6\xb5;\xde\xaa\xe9_&lt;\xd2M#\x95\xb1\xb2:\x94\xea\xc6\xc2M\xce\xc3\xd5\xb2v\xbb6\xb7s\x1b\x94\xd3\xbf\xbd\xe7=n\xa6W\xa3\xe2\xc1\xc6\xe7A\xea&lt;\xc5\x8d|\xfe\x977\xcc\xfc#\x88\xaa\x12\xd9z\xb6\xb5j\xf0\xc7\x10\x00\x00\x00\xe0Pp\r\x00\x10\x04@\x00{\x9f&lt;\xd3\xd8s\x9c\xe7&gt;gK#\xd4\x1b\x1cUi\xd6FI?\xab\xfa\'\xa0_\xe0a\xbf\xc7\xf4vz^K#\xbc\xe6&lt;\xc2\xc4\xda\xde\x81\xd7G\x0b8n\xc3\x8b\xca\xde\xd5\xdc\xe2\xfco\x8a\xc9c%\x9eR:\xd5bH\x98\x00\x02\x88\x00\x0f\x00\x11@\x01\x80\x00\x00\xe5t\xef\x9e\xcb\xa5\x90r\xc8\xe9\x1e\xae\x02(*\xd5\x81\x8f\xb1\xab\xea~\x8d/_\xccyR\xd4f\xfd\xce\xa7\x89\xe8}\x1b\x89\xf1\x0eb\xa6\xd7K\xdc\xfa&lt;\xd4\xddW\x8d\xe0\xdd\xb5\xd7\xf9o+\x8bP{\x9cG\x13\x18\x90\xb0\x00\x00\x00\x01\xc0\x08(\xa0\x08"\x00\x00+\x9e\xf9\xe6\x92Y\xa4W9\xce\x1c\xaa$u\xebRb;\xae\xea1\xfb\xafL\xbf\xe2&lt;\xec[\x8b\xb7\xb0\xea\x9c^\x9d\xb4\xc9\xe0\xf1i\xd8\xdc\xf4\xdfR\xb5g\x86\x8f\xc7\xb0&gt;\x97\x9b\xc2pr\xe1k\x875\xd0\xc0\xd1\xa0\x00\x00\x00\x00\x00*\xa8\xaa \x8d@\x00\x05s\xa6\x92y\xa5\x95\xeer\x8eU\x126A^\xab\x17S\xd1x\x9d\xee\xcf{&gt;\x97%\xcft\xdd\x0e,\xfa:\xdcG+\xceE\xa5\xa9\xd5r\xb8\xd4\xed\xef{\x7fy\x95\xe3\xbc\xf6WW\xec5\xfc\xbb\x88\xcb\xaa\xc1\x1e\xc8Q\x80\x00\x00\x00\x00\x00\x02\xb8W\x03\xda\xc4j\x00\x00=\xd2\xc95\x89_#\xdc\xaa\xa0\x8cXa\xab\x04rt5j\xe9l\xf4\r\x82\x96e})\xb2*Q\xcd\x8eV\xd7\x86\xc6\x87]z\xbd.W\xa9\xf6,\x9e\xad\x9dg\x9f\xf6\xdd\x7f\x8e\xf8Vl0#aA\x00\x00\x00\x00\x00\x00\x15Tr\x85\xa8\xe2b5\x00\x01\xcb+\xe6\xb14\x8fs\xde\xf1\x00a\x15H l\xb2S\xb1g\xb0\xf5\xda|\xcdZu\xf50x\xfbn\xce\xc5l\xd6\xe5\x92\xe45\xa6\xbf\xab\xbf\xb5\xb1\xd5mz\xc7\x9f\xd7\xb1\xb1\xe4\xff\x00;\xe4\xb2(\xda\x00\x00\x00\x00\x00\x00\x02\xb8\x1c\xa1\xa9\rxZ\xc4\x00\x1c\xaf\x9ai\xe7\x9aEW9\xc0\rF\xc7\x0c\x14R\xf3c\xd2;?L\xa7\xa3W\x9c\x9f\x91\xe4\xe3\xa7J\xe4\xd5\xaa\xc1\x03\x0b\x11\xcd\x17]\xe8&gt;\x9bs\x7f\x9e\xf7ns\x8a\xd5\xe3{/\x9b\xfc\x8e\xb4h\x00\x00\x00\x00\x00\x00\x00\xae\x07+\x97Z( \x85\xac@\x07\xbeImO;\xde\xf79\xea\x83F\xa4m\x86\xb55\xe99k.\x86\xce\xff\x00m\xdaf\xf1y\x98u\x99\x89P\x9d`h\xa0^\xeb\xbd3\xbe\xe95}/\x98\xe3\xfa\xbe\x1a\x9e\xaf;\xb7\xf3\x17\x01\x0b@\x00\x00\x00\x00\x00\x00\x15\xc2\xb8s\xb7!\xafZ\x18\x98\x809\xef\xb1b\xc4\xcf\x91\xf2=\xefz\xb5\x1b\x1bY\x1c\x15\xa8I\xad\x86\xc7F\xcd^\xff\x00\xa09\xbef\x9c\x98\xf4\x99\x1b\x1c\xa8\xe9&amp;\xd1\xea}\x1b\xaf\xdc\xdd\xef\xbaK\xf0x~\xb7\x9c\xd7\xd8\xcc\xea\xb9o\x98\xb2\x10h\x00\x00\x00\x00\x00\x00+\x87(\xe7n2\x1a\xf5\xe0\x84\x07,\xb2Z\xb53\xe4\x92g\xcb$\x8e\x10l12\x18)Q\x8a\xfd:\xd1\x164=\x06n[\x16\x9c,\x8c\x84F\xca\xeb\xfb\xdb=\xd7s\xd1f\xf4K\xbf\xd9k\xda\xe2yO!3\xfd2\x89\xf3W!\n\x0c\x00\x01\\\x00\x000\x00\x15\xc0\xe5S|\x8a\xb5Z\xf0\x80\xf7\xcd5\xab\x13:Y&amp;\x9aY\xa6\x01\xac\x8e\x18\xe1\xa9J\x82\xbe\xb5\x16\xbd\xcf\xe96f\xe43\xe4}\x08\xd8\xf9-t]GO\xda\xebjmU\xc7\x93C\xa9\xda\xd6\xbf\x9b\x8b\xe5\xbeCc\xa1\xefg\xf0/2\xad\x03\x04h+\x80\x1c\xa3P\x00`\x02\xb8\x1c\xa3z"*\xd5\xeb\xd7\x01\xd2Mj\xd4\xf2K$\x96,\xcf;\x9c\xf4H\xa3\x86\n\xb5s\xe8j\xcd\xcdT\x11\xaa]\xb7\xd0\x10\xe5d\xb2\xce\xafU\xdcw\xbd\x1d\xf4\x83j(\xeb\xd6\xa3\x06\xaf[\xb1\x8aA\xe6\\\xad\xfe\x83W\xce|\t+\xc4\x83\x06\xb8\x15\xc3\x94j5\x00\x18\x00\xae\x07+z!*\xd3\x82\xb89\xf2Of\xdc\xcf\x92y\xecX\x9e\xc4\x8fQ\xac\x82\x08jR\xce\xa5"c\xc0\x8dk\xacw&gt;\xfd\xee|\xb7\'\xcd\xf1\x0b\'_\xda\xec\xe5\xed\xcdf\xed\\\x8c\xca\xb9x\x8e\xd8\x9b_\x9d\xe7\xfal?;\xea(w\xd2\xfc\xc1\x95\x0c+\x1b\x00W9\xc4\x885\x01\x880\x04j\xb8\x00\xe8\xd5\x95\xa8\xc1\x089\xf3\xcfj\xcc\x92O5\x9bVlN\xf7\xa8\xd6GV\xadZ9\xd9\xf2\xd1\xcfc\x1a\x9a\xbe\xb5\xf4\xff\x00g\xbe\xf8\xcc\xfa8)$V\x9f\x9dfXx\xec\xdc\xceG\x9d\x9bGj\xcf;\xc0j\xeaZ\xc9\xc2\xf5~\x9b\xe6,\x98\xa2|\x10\x8a\xf7\xab\xdc\xafkA\xa80\x8cj#Ep\x07FCN\n\xf1\xa0\xe7\xcf=\xd9\xa4\x9a[Wn\xdb\x99\xcfP\x1bZ\xbdj\x99\xd9\xd4\x9d\x9dR6\xaf\xa6}\x03\xe9\xbb\x1a7m[\x8b*\xaaA&gt;t4k]\xb1#9\xdf&gt;\xe4Y\xa9X\xc6\xa9\xc0\xad\xea\xb6\xb1\xfd\xbb\xa1\xf9\xef\x9akc\x80U{\xe4r\xc8\x88\rA\x8cF#\x06#A\xca\x1d$pT\xaf\x13\x10t\x93Z\xb54\xb3OgKB\xd4\x88\x006\x08j\xd1\xa1\x99J,\xe8\r\xcfM\xfaC\xa9\xbfr\xa5\xddH\xcc\xd8\xf3f\xb1\x03!\xbdf\\~\x07\x8f\xe7\xfaM\xbd5\xa5\xc7\xf9\xbf\x1d\x91\xd1\xf2}M\x7fI\xea&lt;;\x99dh\x83\xe5{\xde\xe78@h\xc71\x8c\x8d\x88\xc6\xb5\xa0\xe5:8+V\x824A\xd2Mf\xdc\xd3\xc9=\xbdM+J\xd6\x806\x08\xea\xe7\xe7gQ\x82\x9dM\xefS\xf7=\x9e\x87^\x85\xed+\x13Q\xac%\xd5\xcf\x16E\xc6\xe1\xb9\x87t=\x1e\x8c\xd90\xf1\xbc\xff\x00\x8cr\xba\xb44\xeb\xfa\'\xad\xf8\x87\x94\xc4\xc7\xbde\x96Y\x15\xce\x1c\x88\x025\x18\xc8\xd8\xc8\x98\xd6\xb5\xca\x1d\x0c\x15\xab@\xc4\x07I5\x9bsO$\xf6\xf54\xed\x8ch\x08\xc8\xa3\xab\x9d\x9f\x9dA\xb9\xd0kz\xb7\xd0\xd8=V\xcb\xebo\xdb\xd4\xd5Z\xc5Z\xec\x8f;K\x92\xa7\xc3\xcb[w\xa7\xda\xbfF\x9f\x9f\xaf\x99x\xd73\xd7\xd5\xb9S\xe8\xfe\x07\xc1\x98\x8e\x96Y\xa5\x95\xe3\x80\x04\x06\x8a\x91\xb68\xa1c\x1a\xd1Cz\xbdh!j\x03\xa4\x9a\xd5\xa9\xa7|\xf6\xf4\xf5.\x11\xa0\x83X\xc8*\xd2\xcf\xce\xa1\x0e|:~\x87\xe8\x1a\xbd\xc7O{7W\xa8\xd8\x96zKH\xce\x97\x82\xd3\xc5\xc3\xe6|\xeb\x90\xad\xe9\xfe\xcb\xa1\xab\xd23\x89\xc6\xf3o\x9eih\xd8\xdf\xf6\xd5\xf9v\x92\x93\xcdbY\x1e*\x80"\x00"E\x1b`\x89\xacj\x01\xb5^\xb4\rj\x03\xa4\x9a\xc5\xb9\xe6\x92[W\xf4\xee\xc8\x885\x062\n\xf4(\xe7g?\x15/jw\xbd~\xff\x00s\xd5j\xcd\xab~Z\xf5\xabP\xaf\x9f\xa7\xe6\xf9L\xf2o7\xe6\xbb\xafz\xf4\xcc\x0eE\x9d\x0f\xb0bI\xcex\xa7\xcf}\xa5\x8c?\xabx\x0f\x9a\xd8\xf2y\xa7\x99\xf2*\x80\x00\x00\xd4H\xd9\x1c\x11\xc7\x1a\x01\xab^\x08\x9a\x88\x0b$\xf3\xd8\xb54\x92X\xbb~\xfc\xafQ\x10k!\x82\x9d\x0c\xfc\xe6c\xc5o\xd2w-\xf5]\x7f]\xd9l\xd9\xb4\xea\xb9\xf8\x184\xb0}K\xce\xfei\xbd\xe59\xde\xb1\xf4\xf7s\xe7\\\x8e7-?\xb7v\xbcOM\xd7|\xb9\xe6\x9e\xb5\xe5\x1e\xef\xb3\xf155t\xb6&amp;\x92YU@\x00\x00\x15\x8cdp\xc3\x14H\x05\xe8#cP\x02I\xa7\xb1ji\x1d=\xabwmK+\x80F\xb6\x1at\xf3\xb2\xea\xe4Gw\xb4\xd0_L\xdf\xef\xfb\xbe\xa2;8^o\xc3y\xd6\xec\xdd\x1f\xbeP\xf9\xcf\xe6&lt;\xcfB\xfa_\xc5\xbc\x9f:9$\xd5\xfaS\xd3\xbavt\xf4\xbedn^\xa7\xb3|g\xc55\xef\x92ylH\xe5\x14\x11@\x00\x1a\xc8\xa1\x86\x18\x91\x02\xc4q"\x00\x0e\x96{V\xa5\x91\xf2\xcdf\xd5\xab6er\x88\xd6\xb2\xbd&lt;\xfc\xaax\xb5\xedu\xf9\xdd\'\xb9\xe6\xfa\xb7o\xa9\'+\xe3\x1e\t\xca\xe2Z\xb3\xf4\xe7\xd2\xda\xff\x00?\xfcu\xcfwx\xd0}{\xe6\xdf;\xb0gs\xed^\x9b\xec\xf7]\xe7&gt;\x0b5\x1f\xa0\xb9\x8f\x87\xf3\x9c\xe9e|\xf2\x8fUp\x82\x82\x80\x11\xc5\x0c0F\xd6\x0esZ\x80\x00\xe9&amp;\xb1jw\xbd\xf3Mb\xd5\xbb\x96\x1e\xe0F\x90\xd4\xce\xca\xca\xca\xab\xb8\x90\xfa?\xbd[\xdb\xee401\xf8\xaf\x13\xf2\x1a\x91\xc3\xf5\'\xd4\x1b&lt;\x07\xc7\x1eJ\xfb\x9fW}I\xf3/\x01\x99O\x91\xe5\xbd/\xb9\xf7~\xa7_\x9f\xf9\xd6\xdd/No\xcf\xbeB\xd5\x91\xf2I#\xde\xe1T\x05G\x8a\x08\xd8\xa1\x86\x061\xa8\xaa\xd4\x00\x01\xeb,\xf6\xa6\x9d\xeb,\xb3\xd8\xb9j\xcc\xf2\x0eV\x91\xd6\xcf\xc8\xc8\xa3ON\x85ov\xf6}k}F&gt;\x8f\x13\xf37\x97\xd4r\xb7\xe8_\xac:\xdc?\x9e\xfeO^\xbb\xe9\xbfD\xe3|K\xce\xf9\xedN\xe3\xdb}#\xd0,s^k\xf3\xaf\xac`\xf2\xde\x15\xdcp\xa2K#\xc9\x9e\xe7\n\x8ep+\x81QR\x18\xa1\x89\xackTh\x00\x02\xb9\xd2\xcfj\xcc\x8es\xa5\xb3f\xd5\xab\x13H\xaa\xae\x8a\xa5\x1c\xbc\x84\xc7\x8e\x0b\x9e\xeb\xea\x9b\xaf\xce\xad\xe2\xde\x19s+O=6=\xe7\xe9\xce\xb7\x13\x8c\xf9{\x88\xc0\xd5\x9a&lt;\x18:Oy\xf5n\xefz\xc5\x8e?\xcf9\x9f:\xe9 \xe6|\xe3\x91h\xb2\xa3\xa5{\x95T\x15^\xe4$\x01\xb1C\x1cmkA\xa8\x00\x00+\xdf&lt;\xd6&amp;\x91_4\xb3\xd8\x9e\xcd\x89\x9d"\xac5ig\xe4\xd6\xa1\x0e\x93\xbd\xcb\xd14\xa9p\xfeY\xe7\xba\xf9\xf1\xfb\x0f#\xcf{7a\xea~\x8d\x85\xceq&gt;\tP\xcc\xb1\xd9w\xfe\x9d\xe8w \xc6\xc2\xd1\x8f\xe7\xfd&gt;\x7f\x81\xf6\xafR\xf8\xc7\x81\xa8\n\xe7=\xe2\xb8\x05p\xf5$@#\x826" 0W5\x00\x01\xea\xf9\'\x9ei%\x95\xcf\x9aK\x16\'\x96G5\x95\xa9\xd1\xce\xa9w\x03\xbc\xc2\xfaO\xa6\x9f\x9e\xf3\xdf\x9f\xfa\x0f\xa37&lt;\xf7\x8d\xf3\xdc\x7fA\xfaO\xb2\xf4\x0c\xcer\x87\x92y\xf7\xa7\xf7\xfa=^\xf22\xd5\x1c\x1a\x1ey\xdf\xf0\x19\x1d\xe7\xc8^\xf9\r?%\xf3$x\xa3\xd5\xc2\xb8\x15\x1c\xa2\xbc\x04bF\xd4h\x0c\x00\x00\x00z\xbeI\'\x96WJ\xf9\x1f&lt;\xd2\xcb2\xa41AV\x9dIs\xb7u~\x8f\xe8\xd2\xbf\xce\xbe}\xf4\xd38\xaf!\xe6mu\x7fK\xc9\xe8&gt;\x8f\x079\xc4y\xc7\x0b\xd9\xfb\x87]rz\xb5\xb2js\xda\x99\xb4r\xb0=k\xc0\xbej\xb1\xf5./\xcc\x08\n\xe5p\xe5Q\x05r\xb8P\x11\xa3Z\x82\x8d\x8c\x00\x00\x01\xe2\xb9g&amp;\x91\xce|\xd3\xca\xe9\xa5\x08\xd8\xc8\xa9\xb5\xdb\x99\x1e\x85\xf45\xdcnS\xc0\xfa\x9d\xceW\x02\xa6\xe6\x9f\xd2ss\xde\x83\xe8y\xb84\xf1x\x7f!\xf7\x0fL\xd7\x92\x97;\x95\xcbf\xc1\xd1\xe8k`\xf76\x7f7\xa9\xfaG\xb9|\x8c\xd0\x1e\xae\x01\xca\x00=A\xe8\xd0\x04j\x04N\x11\xa0\x00\x00=\\\xafW\xc8\xe9&amp;\x92w\xc8\x03\x11\x95\x89;\n]\x0f\xd1z\x17y\xfc\x19\xfb=|\\\xec\x9e\xf3\xa8\xf3,&gt;\x9b\xb4\xe2\xbes\xb9\xda\xf5&gt;}\xe4\xde\xff\x00\xeaw\xe8\xe2\xf2\xbcO!\xd7\x9d7I{\xb0\xa3\xf1\x8f\x98\xf5\x9fQ\xfci\x18\n\xf7\x00\xe5\x01\xea\x00\x02\xb8\x00\x1b\\\x06\xa0\x00\x00+\x81\\\xe5Y_,\xaf|\x80\xc7\xa3\x1b\xe8\xfe\xad\xc1y\x7f\xd2}\xee\xdc\xda:\x8c\xb7\x87Goc\'\xcf\xb0x\x0e;\xce\xb8\xe4\x96N\x87?\xa3\xf6oX\x9e\x8f\x9f\xf3\xdc\x9fS\xa1\xa9\xd3\xf4{\xfd/\x80\xfc\xab\xda\xfd\t\xf1\x83@W\xb8\x07(\xf5\x00\x01\xc8\xe0\x1c\xaeV\xd1\x04h\x00\x00\x00*\xa3\x879f|\x8fz\xa3\xe5Q\xbfSv\xdc7\xcf\xda\xdfGuv\xb7\xb4/AY\xd2Y\xa3\xe6\xde{\xe0X\xfc\xfeb\x04\xbb\xeb\xa9\xf4Oa\x07\x9a\xe4\xf3W\xbb\x9b]wS\xb9\xd3y\xd5n\x1a\xaf\xc9\xd0\x00\xafp9Tr\x80\x03\xc0\x16E\x1e\xad\xcbr\x83P@\x00\x00\x00W\x0eW\xbd\xe3\xd6i\xdc\xa7\xae`{?K\xf2\xef\xb0\xfa.Ok\xd0j\xe9\xbb=f\xc6\xf2\x7f\x9e|\x8e\xfe\x972\x82iz\xe6\xee/I\xdeT\xe5\xf9\x9e&gt;~\xb7\xbe\xd1\xec\xba.\x87\xcfm\xf0\\\xcf\xcd5\x80\x91\x15\xc3\x9e\xe0\x00\x01\x15\xe2\xbd\xca\xb2)\x90\xe5\x11\x10F\x80\x00\x00\x00\xaa\xae\x1c+\xe7\xb6\xf4;\xd9}\xbf\xd1\xfc7\x8b\xf5\x9c\xae\x9f\xb1\xea\xb5R\x85k&lt;6w\xc6&lt;\xc7\xb1hx\xe7mA\xfd\xefe\xd2^\xcc\xca\xbb\xc6\xe2r\x10\xcb\xd8\xf7]\x7fK\xbb\xceI\xcc\xf0\xdf/\x80=\\\xaa\xe5p\x02(\x00\xf1\\\xb29\xca\xb9\x0f\x10F\x82"\x00\x00\x00\x00\xe0\x15\xeb=\x89\xdf\x1f\xa1\xfa\x0f\xd0[\x1em\xf3\xe7@u\x9dgk\xae\x996q\xb9\xafP\xf1_\x0f\xf5\'x\xdf\xd1y\x1a\x15g\xd1\xa7o\'\x81\xd9\xe48\xa8\x99\xb9\xd4\xfa_I\xbd\xa5\xd4\xf3\x7f\x12\xf9\xb8\n\xe5{\x95\\\x02\rr\x80\xae\x15\xca\xf5z\x99R**1\x04\x18\x00\x00\x00\x00\x03\x87\xc9f\xc4\xad\xeb\xbd\xe3\xdb\xa4\xf2_0\xc4\xd5\xd9\xd2\xec{\xa5\x8f\x1a\xc6\xe6\xdf#\xcf\xeb[\xf2?Z~.+k\xd6\xf3\xf4\xd7\xc0\xb9\xc3s\xd9\xf3\xf7\xde\x8f\xb9\xb3\xd3\xf6\x9e_\xf0\xb5AG9\xca\xe5r\xa05\xa3\xd5\xca\n8s\x9c\x06t\x8eW$C\x1a"\x02\x00\n \x00\x00\xf9,Y\x95v&gt;\x80\xf5L\x7f\x8c;\xdd\xbd+\xba=\x8e\xfe\xdd\'j\xf5x\xf5jn\xeaq\xb6\xba&gt;+\x9a\xb3W\x87\xf1\xde[\x7f\xa2\xf5\x1f1\xe0\xb1\xad\xf7\xbdD\xbdF\xee_\xcc\xfc\xb2\x0eUz\xab\x9c\xaa\x88\x83EQ\xea8Up\xe0)=\xca\xa3\x126\x03A\xa0\n\xaa#A\x00\x1f%\x9b\x12\xbbS\xeaN\xef\x83\xf9O\xbc\xe9\xae\xf5\x16\xae\xf5\xf6\xd7wY0t\x1b\xb6d\xbf\xc8~_\xc1\xa0\xeb\xac\xe7\xfa\x8f^\xeb\xf9\xbe\x07\x93M\x9e\xb9\xd3w\xbeo\xe3\x91\xaa*\xb9\xca\xe7\xab\x86\xa3D\x00{\x94r\x8eP\x12\xb4\x8e\x00HZ\x83\x01A\x00\x01\x10A\xa0\xf9\'\xb2\xe9o\xfd\t\xf4\x05o\x8f=\x05-\xf4\x1a\x92u{\xad\xd8}&lt;\xbd].+\xc2\xf8\x88\xbc\xfb\x9c\xac\xe9\xc8g\xee\xfe\x89g\x95y\xadf\xed\xec\xb6N\xff\x00\x1b\xc6\xa1dLW9\xcfx\xaa\xd4F0\x05z\xab\x9c\xa0\xa8\t\x13\xdc\xa0\x89\x1bQ\x18\x00\x00*\xa3Z\x88 \xd7\xc9f\xcb\x9fg\xbb\xfb\x07\xad\xf9\xbbs\x93\xb9\xb3\xab\xb9\xb5j\xf6\x92\xe2bk\xf9/\x84\xf38\xd1\xed\xfb\x07\xa3\xf5I\xc8y\x9eoQ\xd3\xbb\xc3\xb9\x16Cc^\x8d\x8fP\xee~k\xad\x1dx\x18\x0fW+\x95\xadcX\x80\xe5\x1e\xe5QQ\xa0\x8dY\x14\x04\x88kZ\x03\x90\x05p\x8dDkF\xa2\xcd5\xa7\xbe]/\xa8\xbd\xa9!\xf9\xf7nm{\x9d\x05\xd9\xd7O\x9d\xe2\xbc\x97\xc6\xdf\xef\x1e\xbb\xda\\\xaf\x89\xe7^Q\xc2\xc1\xe8[\xbbx~%\x85P\xb5\xb5Q\xde\xe5\xeb\xff\x00(fV\x8a\xbdfF\xaa\xaa\xe1\xad\x88`\xd0\x1c\xe7\x02\x82""\xb9\xe3\x95\x89\x1a5\x10\x07\xb9QQ\xc8\xd1X\xd4cZ\xb3\xc9fe\x1f\xda}}\xd3\xda\xf9\x9f\xa8\xd2\xd8\x97b\xfcV\x99\xf3\xc7\x89s\xbfH\xfb\xafT\xeeK\xce|\xaf\x99\xe43\xad\xf6]&gt;\xce\xcf\x11\xe5\xfc\xbb\xc94 \xb7\xf4o\xb6|\xa3\x85R8*\xc5\x0b\x10\x06\x8d\x8d\xadj\x00\xaa\xe0\x04EDW\xc8\xe1\x181\x1a\x80\x129\\\xaa\xad@lc\x10&amp;\xb7bfA^\xe7\xb3})\xdb\xf8~&amp;\xae\x9d\xe85\xb5+\xe6|\x89\xd8\xfdB\x98\x12\xf1\xbeA\xc9rQ\xe7[\xdd\xeb:\xa7e\xf2\xdc\x05dj\xdd.}O\xec\xbf"\xe2\xd4\x8d \xad\x03\x1a1\x821\xackZ\x00(\x02\n\x8d\x91\xcfQ\x10\x18\x83G+\xd5\xefW\x03PcDjKoR\xed\xa8ie\xd2\x97\xd8&gt;\xb7\xe6\xfc\xabcJ\xe2\xe9Z\xb1\xcfy\xff\x00\xb9mc\xf3\x9c\x9f\x9a\xf9\xcf+\x88\x96:~\xdb\xaa\x9e&gt;K\xcf\xf9\x88\x1a\xd9gv\xbf\xd9=\x7f\xca\xbc\xf4\x15\x12Z\xd0F\x91\xb5\xa8\x8ck\x11\xadh\x00\x88*\x80\xd9\x1c\xe7(\r`\x80+\xde\xf7(*\xb5\x00\x18\xebw\xf6\xb5m\xd3\xcd\xca\xc3\xab{\xd8\xbdk\x88\xdb\xd0\xb1\xb1\x99\xa1\xa3F\xd7gv\xb7\'\x91\xe7^Q\x8f\xbd\xdbv\xdb\x96W\x9d\xe3|\xef\xcf3\xa0kd,\xfa\'\xd6\xd7\xfc\x03\xcdr\xe9\xa5\x89\xa2bB\xd1\xad\x88b\rF\x03\x00\x00\x02I\x15^"\xb6 \x02G\xb9\xce\x05p\x03Q\xee\x92\xe6\xcfE\xbd=l~s\x03&amp;~\xc3\xbe\xe9,\xda\xda|\x90Vf\xf7Cu\x91\xd4\xa7{X\x86\xb6L\xf0\xf2\xde\x7f\xe4&lt;\xcet-bM\'\xb7\xfd\x1f\x99\xc9\xc7\xf3&gt;L\x96\xf4\x92(\xd8\xd4k!\x10\x1a\x8c`\x00\x005&amp;\x95\xcex\xa9\x08\rG\x92=\\+\x80\x00$\x9bGg\xa5\xe8t\xa2\xc3\xe69\x8ch:&gt;\xbf\xa5\xbb\xbdgZ\n\x98UW\xa7\xd5\xe8z+\xb2\xd8\x9b\x13\'\x9b\xc739^+\x85\xc0\xa8\xd8\x91\r\x0ft\xf5\xafQ\xf9\xab\xdd|\xd7\xe6\xee~\xe6\x82\xc6\xc6\x115"\x1a\x0c#\x00\x00\x00KOUp,l@\x15\xe3\xd5\xc0\xe0P\x01\xf3\xde\xd9\xde\xdd\xd1\\^\x7f\x9e\xc6\xa9\xa7\xb5\xd1o_\x93KZ\x8e\x1e\x0b\xba]\xde\xc7\xb7\x9a\xfb\xf0\xfc\xef\x9cg:\xcc\xbec\x96\xc7\xc6\x81\xa2\x8f\xe9\xfd\x13\xaf\xf6\x8f\x9a\xfd\xaf\xa5\x87\xe7\xcf\'\x1c\n\xe8#j5\xa8\xd4\x04h\x02\xb8\x00\xb4\xf5r\xb8k\x11\x8ej+\xc2G\x00\xe5\x00\x1e&gt;\xde\x8e\xc6\xbe\x8b\xf2\xf11\xb3\xa9\xd8\xd6\xdb\xbdv\xe5\x9b\x937\x947zn\xa7\xa9\xd8\xd8g\t\xe6\x9c]\xbek\'\x0e\xbdz\xd9\xb1#\xdc\xcb\x9d6\xb7\xd4\x9e]\xc9\xf7\xfd_W\xa3\xe5\xff\x00:\xf3\x83\xa7F\xc4\xd6\xb5\x880\x01\xcd\x05p\x01e\xcf{\x81\xa85\x00\x07\x88\xf5\x1c\xa0\x00&gt;{Z:\x97R\xb5\x0c\xfc\xfa\xeb{cN\x18\xb5\x9dzl\x96\xdf\xeav:\x8e\x92\xa6\x17?\xe5\xfc\xcd\xcek\n\x8b\x05k\x1c#\xb44\xfa\x7f\xbe?&lt;\xfa\x8d\xa6u\xfd\x9e\xd2xg\x8f\xd4\x95Q\xa3Z\xd6\x0c\x01\xe8\xd0\x01T[N{\x9c\x03P`\x03\xc4Up\xa2\xa8\x00\xf9&amp;\xb5rt\x8a\x1a\xf5!-_\xb5\x1d*\xdb\xf6$n\x93\xfa\x0b]F\x8eo1\x99\xe6\x98\xd0f\xd6b\xb8\x10\x1b&lt;\x96\xfe\xd3\xa1\xf2W@\xd4\xd2\xb9\xd5z&gt;\xc6_\x80\xe6`\xd7\x8dZ\x8c\x8c\x04\x01\x1a+\x9a\x80\xb7^\xf7\x00\rF\xa0&lt;Dp\xae\x07(\x00\xf7\xc9,\x92\xa3X\xd8a\x92i\x9d^\x9c=\x92\xe6\xa6\x8d\x8b\xd3n[o\x03\x8b\x8f\x94\xc4`\xb0\xabPQg\xf6\x0f\xbf\xff\x007\xf9]H\x93A\xfa}gO\xd7\xddL\x9e\x7f\x9a\xc2\xc8\xc6\xcf\xa5\x11\x18\xd4\x00\x00j\x1a.W(\x8a\xd4A\xaek\x80\x05p\x0eP\x02G\xbd\xee\x01\x1a\x93K%x)\xd7\xb9\xdc\xbb\x1f!\x96oL\xb4\xf2)CV5\x89\xe9\x024r\xaa\xef~\x91\xf9_\xc3\xf36K\x17o\xec\xf4Svs\xef?"\xb6-\\\xda\xf1ge\xe7\xd3\xabV\x18Pk\x01\xa8j*\xb9F\xa2 \x80\x00*\xa8(\xaa($\x8fp\xe1G&gt;k\x92\x94\xf3+Wwc\xd3e\xc1C:i)\xd3\xab\x04\x15\xe5F\xc5\x02\x0cV\xc8\x97\xbe\xfb\xf6\x9f\xcdn\x12\xfa\xba}D\xdb\xea6\x19\xd7\xa5\xbau(\xd0\xabV&lt;\xe8kg\xd6\xab^\x08c\x82\x08Z\x88\xba\xa3\x94\x1a\x08\x8d\x00\x01\xc2\xa8\xaa\xa0\xe0k\xde\x0f\x15\xd3O\xa5\xa144qi2]N\xda7P\xcc\xb1N\x8dZ5\xea\xc5\x141\xa3T\x1a\xf1\xff\x00h}I\xf3\xaf\xc3sM\x7fJ\xdb_\xbb\xb5\xaf\xccz\xad\x9b\x99\xf5\xb3*\xc1R,\xbaujU\x86\x18\xa0\x86\x0c\xb6&lt;D\xd4W+Q\x01\xad\x00\x00\x07\xb9\xc0\xaa8\x1a\xe7\x03\x9d$\xf6\xb5\xfa-\x8b\x19\xf8\xb8\x95+\xc7\xad\xd3\xd9\x8e\xab\x9b\x89\x8fC&gt;\n\x95#cUZ\xa2&lt;\xfa\x97\xec\xb6~kp6&amp;\xdb\xb3b\xd3\xf77ns\xde\x89\xbe\x89\x95F\xad\x1aU\xb3\xeaAZ\xacP\xc7\x149\x14\x05\x115\xc1Q\xadA\x10\x04\x00\x079\xca\xaa9Tk\x80|\x96\xad\xe9t\x1d7O\xa5\x1e\';\x93\x80\xee\xa7\xb6\xe5hZ\x97&amp;&gt;k:Ng\x11\x1a\xe6"\r{W\xe9\xaf\xb3\xec\xfc\xf1\xf0\xe1v\xed\xeb\xd3\xd9\xd0\xd2\xebpt;\x9bsg\xd1\xadR\x94\x19u*\xd5\xab\x0c\x11A\r|\x08T\x03X\x15\x88\xd4\x00\x06\x80\n\xaeQ\xceUPE\x02K\x17\xb4\xf7\xbaN\xaf\xab\xde\xbfW\x9b\xe39fv\xde\x83\x17\x84\xb4t\xb4\xf0*\xf2Y\x88\xc6\xd2\xb2\x8c\x8d\x93\xfdK\xf5\xed\xa8\xff\x009|\xbe{\xf64\x93\x7f?\xa4\xbf\xe8\xde}\xb9\xd7Z\xb7N,\xfa\x15\xa8\xd1\xcf\xa7V\xacPA^\x1c\xcc\xa6\x82*\xea\x80\xc4D\x00\x1a\n*\x82\xab\x9c\xf5\x00T\x02K\x9b;\xdd\x1fS\xd6u\x1b\xbaRe\xf2&lt;\x94}Go\xd0\xf8o\x98g\xd5\xdc\xa4\xb8\xfc\xf6\x06+\xe2\xb5=z\x85\x9f\xae\xbe\x9d\xb0\xdf2\xfc\xef\x8bJ\xc4\xb3\xdc\xbe\xdd\xae\xc7\x7f\xce\xbb\xbd=\xa7\xe7EB\x9dJ\xd43\xa9Q\xaf\x15z\xd5\xe0\xc2\xaa\n\xadMpF\x88\r\x01\x04\x05{\x95\\\xaes\xc1\x04\x14|\xba;\xfd7M\xd4\xf5=&gt;\xc5\xf7es\xb8\xc9\xb3\xd3n\xc1\xf3\x17\x11\x91v\xeb\xb1\xf3x\xaa\x11i\xc9\x10\xe8\xbe\xd9\xf7\xa7\xc6\xcf\x8b~{s\xed[\xbd\xa4\xedk\x1d\x87Y\xe6\x1d\xbd\xab\x92%J\xd4\xaa\xd2\xcf\xa7J\x8d(!\x82\nx1\xa0\xa8\xd4\xd9\x06\xa0\x02\r\x07*+\x94Yd\x96E\x04F\xa8\x8a\xfbz\xbb\xbdOU\xd5t\xfd\x16\x9d\x98q\xb9\xbaW\xf56\xf6\xed\xf9\xbf\xcd\xb9tde\xacN;\x1aM\xbd\xb9\xb2.}\xc1\xe9\xee||W\xe7\x16|\xf6\xaf]f\x87Ac\xa4\xe9\xba\xbf&amp;\xec-C4pGS6\x85,\xd8k\xd0\xad^\xb49\xf8\xe8\x82\x08\x9b \x03Eth\xe6\xbd\xca\xe7I$\xb3\xcf4\x8fR&amp;D\xc0\x92[W\xf6:N\xab\xb0\xea\xb6\xefIG\x9c\xe6`\xd0\xdf\xe8wd\xc1\xf0^\x7f\x0b\x0e\xady8\xacM^\xe2*\x1dG\xdb\xbdD\xac+|\x8b\xf3n}\xad\xf9Y\xb15\xce\x8bS\xb4\xd5\xf3&gt;\xafF\xac\x15F\xd2\xcd\xce\xcc\xafZ\xb5:\x95kE\x97\x9c\xa2 \x86\xb8+\x81\xca\x8a\x8a\xd9\x1e\xf9&amp;\x9a\xc5\xc9\xec\xda\x9aa\xb5\xe0\xad\x0b\x16kw.\xda\xbd\xb5\xd6\xf6;\xf6\x8c\xeeC\x92\x83[\xaf\xe8i\xe7fz\xb7\xce\xd9\xfc\xc75\x06/&lt;\xbdUS\xd7~\xbf\xbf*\xa2\xf3\xbf\x9e\xbc\xbcsm\xeb\xd1\xd7\xaf\xb5\xb3\xd2nX\xe3\xba\xdd\x8cjU\xe0Zt\xf3\xf3\xe9U\xa5_:\x9c0\xe6\xd6\x11\x8d\x03Y^\xe1\xcfW+\x87\xab\xe4\x9ak\x17l\xdc\xb9v\xd5\x87\x11\xd7\xadJ\xbcM\x96\xf6\x96\xa6\xad\xebz:\xb6I\xb2yNs\xa7\xeblG\x8d.7\xbb\xbf\xe7N?\x9c^_.;\x96\xfe\x9e\xfaEeW\x0c\xf9\xf7\xe4f:Y\xa7\x97[z\xd6\xad\x9d\xad~#\xb0\xde\xc2\xca\xa9V:\xb5)\xe7\xe7\xd6\xa7J\xa5X \xce\xac\x8a\xc0bn\xbaW\xbd\xef|\x82\xbaA\xf2Ob\xdd\xebWm\xdc\xb5;\xd1\xb0AV\n\xb0\xa5\xdd[\xda\xfa\xf75/W\xc5\xca\xcb\xda\xeb3\xf0\xb2\xa8I=/z\xf4\x8e+\xe6\xee3\x98\xe5\xaa\xdf\xe8~\xb9\xf6Y\x80\x95\x90\xfcm\xe4\xac\xa7f\xb7F\xee\x87^I_\xd9V\xe0;m\xaaY\xf5)S\x82\x8d\n\x94iW\x82\x95z\xd5(\xc2\xc0F#:Y]3\xe5\x92RWH\xaeY\xa5\xb3j\xe5\x9b\xd6\xee\xd9\x92D\x19\x0c\x10\xd5\x81\x96\xf4\xee\xe8Y\xdc\x9d\xe4\xba\xf9\xd8\x19\xbc[\xddYm^\xef\xbd\xf99/\x9a|\xdf\x9d\x8e\xd7\xda\xde\x9c\xf5\x1e\t\x8d\xf0\xdf1m.\xba\xde\xa5\xfd\n\xbb\xa6\xa1\xe5\xbd\xf6\x8d\xec\xa8\xb3*fU\xadF\x9dJ\xb5`\xa9R\xad8\xd1\xa9\x1a\r\xebg|\xeb&lt;\x939\xd2\x0f\x91\xef\x92y\xec\\\xbbv\xd4\xf2\xcc\xa1\x14L\x82\xabe\xb5oN\xee\xa1cF\xdf=\x95\xc9\xe7\xc1V\x93Y\xd1\xe4v?Z\t\x9d\xe5&gt;9W\xe8OO\x91\xe3\xd5\xc4^5\xf2\xacZ\x13X\xcf\xdf5\xe4\xbfJ\xeb:\x0f\x15\xf4\xadWf\xa5|\xfc\xea4)R\xabR\x94ua\xa7\x04MjD,\x1d\xdc\xb6%\x9eW\xc8\xf5\x95^\xf5zK5\x8bW\xad\xda\x92iepE\x1c\x10\xabl\xbe\xc6\x86\xae\xfe\x8eo\x1d\x83\x93\x916eH\xee\xe9\xd2\xc5\xbb\xf7\xf3\xa0\xf8\xbb\xdd\xfb&lt;\xa7u\xfa\xefk\x9a\xe1\x9f"\xf9\x16\x8cs\xdc]\x8b\x1b-Gd\xec\xf2\x9c?\xb1N\xca\x13\xd6\xa5G&gt;\x8eu\x1a\x95j\xc1V\x1aqD\x8ckQ\xb1\xfa5\x8b3:g9\xf2H\xf7\x8f\x04\x96\xc5\xab\x96\xa7\x9ay^\xf9\x14ez\xedV\xdc\xb1\xd0u\x15\xb0\xf9J\x1c\xe5y1e\xcc\xb5*\xe7a\xe4~\x9e\xcf\xe3\x1f&gt;\xfdM&gt;_\x15\xc1\xfd\x81l\x15\x13\x17\xe1\xa77\'b\xf6\xa3\xeeg\xe9VJ\xdc_\x93{\xefS\xbbF\n\xac\xcc\xcf\xa5S*\xa5:\x90U\xab\rXX\xd8\xc6\xb1\x19\xeas\xd8\xb0\xe9\x1e\xae\x92er\xa0\xc5}\x9b6\xacY\xb3$\x8f|\x92I\x1c\x15j\x89\xd8t\xd5\xea\xe1sx8q\xc7:c\xa6\xfe;)\xe3q_\xa8\x9d\x1f\x9es\xdd\x16\xaf\x86\xf9\xef\x8f}\x87\xf4&lt;\x82\x90\xf9W\xcc\xf5\xa0,tL\x83F\xf2\xbf\x1b\xc9\xb8\x1f_\xf5+\x973iC\x06~ftThT\xabZ\n\xb0\xd6\xae\xc4F\xb1\x8cg\xb0Z\x9aW\xbd\xefY&amp;PA\xa1=\xbb6,O$\x8f|\xf2HCS#C\xb5\xd7\xc7\xca\xb9\xc7\xf2\xf9\xd5\xe2\xc6\xbd\x0c{\x91\xd1\xb5\x9b\xca\xf1?\xa0\xbe\xe3\x8f\x97_\xc3[\xf3\xe6U\x7f\xd2\xde\x85\xca\x8c\xf9\x8b\xcc,E\x91sM\xf64\x91i\xf8\xd7\x0f\xed}\xae\xdd-&lt;\xfa\x94Y\x99\x99\x04T\xe8S\xa9Z\x1a\xd0U\x89\xad\x8d\x8dk[\xed6&amp;\x95\xce\x92y%DA\x1a*\xcbj\xd5\x99\xa5|\x93&gt;i\x1eEF~\xbe,Z\x91\xb7\x86\xaf\xcf\xd1\xb8\xb1Z\xe8jf\xd9\xa9S\x83\xe5&gt;\xd3\xfa\x93\x9e\xe6d\xe6&gt;U\xc2\xe4\xb4&gt;\xce\xfa$rP\xf8\xb77S\x12x4\xba&lt;\xa2\xdeG\x8e\xf3\x9e\xdb\xd9Ii\xf6qiZ\xa5\x99R\x9dZUs\xa9\xd6\x8e\x08*G\x1b\x08\xda\x88\xcfq\x9ei$Yf\x9d\xe3#\x125\x1d=\xabS\xcf+\xa5\x91\xef\x91\xe9\x01j\xd5\xaaup\xb2y\xac\xcaV\xa7}}\xf6C-9\xb9\x1e\x1b\x0f\xef\x0f\xa1\xfc\xafa\x9e\x13\xe4\\\xc5\x1f\xae\xfe\x8e\x9d^\xcf&gt;\xf9u\xd4\xf1\xf6\n\xda\x96\xdb\xe7\x9ewS\xda:}\xda:\xfa1fb]\xa3\x99G6\xb5:TkW\x8e\n\xf4\xd8\xd6\x11\xb4k?\xff\xc4\x00&amp;\x10\x00\x02\x02\x02\x02\x01\x05\x01\x01\x01\x01\x01\x00\x00\x00\x00\x01\x02\x00\x03\x04\x11\x05\x10\x12\x06\x13 0P@\x14`\x15\x07\xff\xda\x00\x08\x01\x01\x00\x01\x02\x02\x86l\x9d\xef\xe2 "\x0f\xa0A\x07C\xeb0\x9d\xd0\xd8\xafC\xd1b\xd9\xe4M\xb3)r\x11\x91R\x84\xa5j\xa9\x15\x15\x05\xcfj\x1aUB\x95tt\xf1\xf0Z\xd5t\xf3"dK\x0e\xf6\x1b\xe6a\xf8\xef\x7f\x11\xd8\xf8o\xe6b\xaf\xf1\x08&gt;\x81\x04\x10A\xf4\x92I\x84\xee\xb3\x89e\r[\xa5\xab`w\x97\x0b\xe8z\x12\x8ai\xaa\xaf?\xf4\xff\x00\xbb\x90\xcc\xab/\x1b*\x98\xb5\xfbf\xb6\xad\xa9\xf6=\x8fk\xdb*\xeb\x902e\x9d\x8e\x97\xad\xf6a\xfb\xc7g\xea\r\xf3\xdf\xd0:\x10}\x02\x08 \xeb\x7f3\x0cn\x8cI\x8e\xf8\xb6\x87[\x16\xda\xec\x04FK\x86\xc3\x9bRdS\xed\xb6=R\xaa+\xaa\xb7\x03\xc4\xa1\xa8\'\x8f\xb6Q\x96\xc1z\xe5\x0b\xbb\x13`\xec|\x0fg\xf07\xf5\x0e\x84\x1f@\x83\xa1\xf4od\x92Ou\xb56\xd5uwj\xa6F\xf6\xf2\xaeQ\xech\xcc\x98\x99\rg\x8d\xb8WP\xdc\x80\xca\xa7\x90\xaa\xe7_;`\x88Lu\xb5n\\\xa4\xc8\x1f\x005\xf0=\x18\x7f4A\x07\xcc};\xde\xc9$\xfcP\xd6|\xb0\xa5\x17\xa1\r]\xcf2W\x1a\xf6.\xa8\xb9X\xf8\xd6YF%\xcb3p\xef\xc2\x0f\x8d\x9d\x81\xcb:\xbb%\xfeL\xd5\xd8\xebre.X\xf8\x03\xb0z0\xc3\x0c?\x9a \x82\x0f\xb3{\xde\xf7\xb2L\xdf\xc0J\x86\x1dXu\xe4\xd5\x85\x97\x8c|\xb1n\xff\x00FMw\xc5\xc9\xc5\xcb\xc9R\xd8\xdc\x86R\xd3\x96\x974\xf6.\xe3\xd3\x12\xbc\xca\xef\xb1\xa8\xc9L\x8ft\xdbq\xcb\x99\xa0\x8f\x80\xf8\x18a\xfd\x01\x04\x1f1\xd8\xeb\x7f\r\xec\x93\xd6\xc7|^58\xf4\x9c\x9cK\xab\xc3\xc8\xca\xbe\xe3]\xf8y\xae\x1f\x1di\xae\xec\xb5w\\\xe6\xcc\xc4\xcf\xaf\x90L\xb9c[J\xd1^V]6^r\xf1\xf2\x85\x99m\x95\x1b\xe0&amp;\xfb$\xfe\x88\xe8}\x9b\xf8\x92I=/T\xd7\x8e=\xeaU.\xcb\xcbyVk&amp;=\xc6\xdaY\xb2=\xd1j\x1bp\xef\xa4\xba\xd8\xb7\xe3\xf2\x7f\xeb\xc6\xe4\xec\xa2\x8c\xfbks\x99E\x81\xef\xc4\xcf\xca\x191\x81\xecu\xbd\xfe\xa8\x9b\xe8}\x9b\xdc0\xf6\'\x1fE\x96\x8c\x9cL\x9cw\xbd\xf2!\xb0\xa5&amp;\xd8\x97WJ\x0b\xd5\x8ag/-\xfe\x8bq\xac\xc7\'jj\xca\xc3\xe4\x86E\x14]\x8e^\xba\xf3\x8dVceg`[QR \x9b\xe8~\xe0\xfa\xcc?\nQ\xa5\xa7\x1a\xb4\x96^r\xbd\xdb\xe91\x1f\xc1\xa2\xe5.q\xcc\xb2\xcbcO5\xca\xaf/\xdf\xb5MZI\x8f\x91\xc6\xf2\xed2r/\x97eW\x81\xe3\x83\x9b\x99\x89~+!\x1a\xec~\xb8\xf8\x8f\xa8\xc3\xf1\xa5\xec\xb82^\xb9T\xd9\x1f\xabb\xc5cy\xb3\xdc0\x91c]\xe4DUE\xc7\xc7\xb6\xa4\x99\x11\x86\x1ew\xfe\xa7\xf8\xb0\xb8{j\x18\xd6\xe3\xf1\xcc\xc3\x93\xe2m\x10\xf6\x7fX\x7f\x01\x87\xe2\xcd\x14\x89\x87e9\xd7^i\xb3\x1d\xb1MH\xf6\xe1AY\xc1\xb2\x89\xaflQ\xec\xa49\x1f\xea9)\x92\x99\n\xb5\xe2\xd3\xc6\xae0&lt;EW\xd0\xe8\x9dV\xfc\xc7\x1d\x93^\xff\x00\x1fG\xee\x10A\x07\xf0\x1e\x8fH\xa6*\xa0\x98v\x9c\xa3]h\xd8V"\xe4\xdf\x1c-\xf67\x9dy&gt;F\xdfx\xdb\xe5\xd0\x13{\xc4\x98\x95R\x9et\xe2\xd8\x98\xd6\xdc\x8c*\xb6\xd2\xb3\x96\xc5`\x7fLu\xa1\x04\x10\x7f\x01\x86\x18\x80\x02g\x96\xd2\xfa\xf2\xa8\xbe\xb8\xc2\xeb\x1b"\xd1\x19Y;\xd7\xc7q*\xc6\xc2\xa3\x02\x8ct\xc7\xc7\xc2\xf6y\n8\xb7\xbd\xbd\xc9\x95122\xa9\xe41\xcc?\x90~\xa1\xd0\x80\x0f\x98\xef]\xeb\xa3\x0c0\xc4k\xde\x16\x10\x99\\\xc3\xb9IV.\x02Z\x8c6O\xcbAk\xa6\xac\\|ZkICU\x16\th\xc9\xad\xa5\x97;\xe0f\xf2TcY\xcb\xe3dU\xf8#\xe8?H\xe8A\xf0\x1d\x81\xadu\xadjkP\xc3\x0c\x11\xa1\x87\xe1Y\xc7\xb7# \\\xcd\xe7\xd6\xf7\xf0\xd0UD\xc7\xaf\x13\x1f\n\xacaI\x95\x87\xaf\x1d\x95\xc3\x19\x92\xb9\xd4^\xf5\xe5\\\xb8wV\x97\xceK\xf2\x8c?@\x82\x08&gt;\x8djk_#\x0ciX\xd3v&amp;\xc4\xc6\xb0Ye. \x85\x08\xe8\x0f\x15\xae\x9cj0q\xf0\xab\xc1\xaf\x1djZ\xae\xab\xc5\n\xdd[,\xad\xbc\x9e\x11\xca\xe3\xb2#`:\xdc\xd3\x92\x84k\xad~!\xe8\xfcGB\x08:\x1d\x88:\xd0\x1dkZ?\x03\x0c0\xccYl\xb6\x0f\x80\x80\xa3,\x18C\x1eX\xc6iR\xbak\xc2\xc5\xe3\xa9\xc2\x18\xe8\x8cUT9,\x8d\x92\xfeUJ\xaf\xae\xefy\xd8^\xeb\x95]\xcd\x8fw\x8d\x16\xfa\x83\x14\xf4~\xa1\xfd\xa7\xa3\xf1\x1d\x08 \xecv;\x1fQ\x8d\x1a\x18\x90\x16\xf9\x01\x85\x85\xc6q+\x8d\x99\xc6\xbf\to\x01o\x0283\xc4cq\xb5\xe2\x01\xee*\nB\x98\xd0\xab\x85\xaa\xcb\x15\xf6\x97Rl\xba\xec\xcasR\xec\x8bk\xbf\xc0\xe4P\xfc\xb1\xb4\x18\x7f\x1c\xfc\xc4\x10A\x07B\x0e\x84\x03@k_#\x0c0\xc6\xe9\t\'\xe3U&lt;g\x15\x8b\x8bR\x88W\xab#\x0b+Z\xfd\x9fe+\xb1\x8f~wZ1\xad\xc4\xbf\x1f\xd8gF\xa6\xf6\x8ffCa\xdf\xc8X\x18\xa6&gt;N=\xb6\x1b\xfa?\x8e~b\x08 \x83\xb1\x04X\x00\xfaL0\xc6\x8d\x1a\x18#\xc3\xde\xb8\xde7\x03\x8f\xc5\xa9\x15`e\x824f0\xc5\x1an\x9f\xa1X\xa3\xdb\x97\xbd\x8db\xd7H\xa0P\xd5[vDq\xe6\xcd\x87z[\xbe4S3\x90\xc1\x0f\xe3\x1f\xa0A\x04\x1d\x88"\xc0\x00\xfaL1\xa3F\x87\xa6\xee\x9a8\x8e+\x1e\x94\x00\x19\xe6\x8b\xb0\xeddb\xcc\xad\xb0\x1e-#\xa1/{2\xaf\xc8\xa6W_\xf9\xd2\xafa\xc5\xb8\xb7b]7\xaa,\xc8\x95\x9e2\xdc\xeby\x0e\xb7\xbe\xc4\xd7\xd9\xaf\xe1=\x1f\xa0A\x04\x10t \x89\x17\xeb0\xc6\x864=0\x94\x0e!q\xd5X\x14\x96\x15\x00\xa4`\xd0\x8fo\xfc\xebK\r\xe8@\xb6\x1b\x1f.\xc4E\xa2\x94\x15\xff\x00\x9c\xab-\x87w\x0c\xa8g\x19w!U\x8f\xe5\xc6\xd6g3Y\xfa\x07\xf7\x1e\x8f\xd0 \x82\x08:\x10D\x8b\xf5\x98cC\x1a\x18&amp;\xfa\xe2l\xcb\x82\xe4\xb3\xc9\xe7\xbe\xae\xb6%z"j&lt;AlX\xee\xf6\xb3_=\xd9[\xd4\xbb\xd8G\xa6\xfcw\xab+\x1b*\xb9kc\xdaM%O5Oc\xf0\xcfG\xe8\x10A\x04\x1d\x08"\xc5\x83\xea0\xc6\x8d\x0c?\x038K\xac\xca\xc7\x98\xec\x81\xa1T\t\x01\xf2\x9b0\x9b\tv9\x0e\r\xcf\xee\xdd\x91\x93\xc9\x1eD[\x81v6Q\xc8\x17c_em]\x95\xf3xW\xa5F\xd5\xae\xec\x11\x86rV\xde\xc7B\x0f\xc0?P\x82\x08 \xe8A\x16,\x1fQ\x86\x18\xd1\xa1\x8a\x0f^u\x0cH\xcf\x8aq\xec\xa9\xc2\xe8O\x18\xed\xe4_\xdc\xb2\xcck\xed\x99-\xc7\xe6\xe5\xdb\x93\x9bvP\x988\xd8&lt;Zq\x99\xbcx\xc6\xff\x00U\x17#\xb2\xc39\x8e/X\x8b\xc8ac\xce&amp;\xafP!\xect \xfc\x03\xf4\x88 \x82\x08;\x10E\x80\x8f\xa8\xc3\x1a\x18\xdd\x1e\xb5zb*\x8ae6b\x91\x11B\xaa\xc2\x04\xb1\xac7\xe4`\x0b\xeb\xc9\xa7\x91Kr\xed\xb2q\\N\x07\x18\xd9Ws\xb7svg\xff\x00\xa7\x1a\xfc;}\xc6\xc4\xc5\xc65\xf3\x9c]8\xed/\x1c1\xcf\x96\xaf\xc0u\xbf\xc7\x10A\x07\xc4A\x01S\xbf\xa4\xc2\x0c`\xc2\x18bOs\x19\xe9\x95J\xa6\x18\xc6\x02,\xf2\xbf\'3\x91\xb7\x97&lt;\xbd&lt;\xb1\xce\xf4\xe5\x86=\x1e\xa8B\xd3\x85\xa2\xcc\xfc\xdfQ=\xa4Ee\xb2\xac\x9e\x13=-L\xb6\xc8\xad\xf3h\xce\xc7\xdbUC{|\xa5\x1f\x01\x07C\xf1\xc4\x10A\x07\xc4t\x08"\x0f\xa4\xc2\x1a4\x11\xe1\x98\xf3&lt;Rp&amp;-U\xa5\x13\xca\x17\xb3\'\x90\xb3"\xbb\xc6\x91\x85\xfe\x95\x94\x9bg?NZ\xce;\'*\xfcJr\xb8\x1fR\xdc\x07|E\xd98\xfc~(\xa5P\xceG\x1dg\x8e\x1b\xe0\x1e{\x89\xbe\xbe\x87B\x08?\xa0\xff\x00\x00\x82\x08:\x1f\x11\x04\x11~\x93\x0ch\xdd?X\x15\x9b|\xf8\xe1\x88\xac\x98\xe6n\xfb/\x96&amp;}\x966\xba\xf4\xad\x98\xd1\xe6v?7\x8f\xd5k\xe9\xae6g\xf0\x1f\xf8\x1f\xe4\xb7\x1f\xfc\xa5)\xe4p\xa9\xc4\xc5J\x94\xe6Y\x91c&gt;H\xa6\xeb9\xdfS)\xf8\x8f\xca\x10A\x04\x1d\x89\xb8 \x80\x8f\xa0\xf4\xd1\xa3K \x186\xaf\\T\xc7,)R\xd7[A\xe4\xb9|\xfej\xcb\xb7\xbe\xbd/0\x8c\xb6s\xd8\xd6\xd6\x94\xe2c`O\x7f++:\xf3\x96\xd7\xd2\xd8\xd8X8\x94J\x89\x96NFd\xc5\x95\xaem\xc4\xf9\xfd\x9b\xfc1\x04\x10|D\x10\x10A\xdf\xc8\xc3\x0ch\xd0*\x15+\xd7\x1aj(Q\xaf\xca\xc8\xc9\xe5\xb9\xa77\xe3\xcah*\x06&gt;?\x13V\x0b9y\x9a\x9c\x86#,W9\x875\xdcL&lt;L,z\x1a\x96C\xe4M\xcf}\x99\x13\x84|\xc3D\xf5G\x11\xc7\x7fa\xfea\x01\x1f\x11\xd0\x80\x82\x0e\xf7\xd6\xf6a$\xb4h\x91\x80\x0c\x9a\xc0J\x026S\xd8\xdc\x9eu*\xd8v\xca\xea\xc1\xa2\xdcV\xaf\x8au\x98F\xc8\xcd{e\xd3}b\xabqU\x13\x12\xae\x06\xbfNaq5\xa4\xb1\xb7\x95\x97M\xf93%\xa894\xe4\xdf\x8bK.\x15W/\xf1\xef\x7f\x13\xfc\xe2\x03\x04\xdf{\xd8 \x83\xb0w\xbd\xec\x93\x1a7W\x031\x97\x1aa\xaf\xb8\x82\xf5\xe4\xd9\x8dX\xbc5\x16\xad\xb9W\xe6Y\x938\x8c|y\x894V\xd4\xbefR\x17\x8e\xb0\xf1\xf4\xf1\xf5U\xa14\x03\x9b%\xd8\xdcm\xd9-\x9bY\x185\xb2\xd1\xc8\xd9\xc8\xfa\x9b\x1b\x9e\xa3\xf4\xf7\xde\xf6\x0c\x1dl\x1d\xef{\xdc0\xc3\xde\xab\x9c]T\xd4\xf5\xcbq\xf9\xc6\xe3\xaa\xaa]\x9d\x91\xc9\xdf\x97\x150\xf0\x7f\xce\xb3\x1e 2\xd1z\xd8.\x183\x0e\xd0W\xa2I{\xec\xb4\xdf\x8f\x91\xc9\xd0\x13\xc7\xc7\x8b\x1e\xa7\xe3\xac\xb3\x1e\xce.\xfeq\x7fW`\xf5\xbd\xef{\xd8;\xde\xe6\xfa=\tmFqJ\x83\xc9\xf2/\xcd\xcf^/\x16\xea,\xc5|*\xb8\xfb8\xcc,N7\x8d\xcb\np\x842\xd65\xbe&gt;v\x15m\x83\x99U\xa1\x8b\x1b\x1e\xe2\xf6\xdb\x8f\x9be\xb5\xe4\xd7n@\xde\x14\xe4\xa5\xe8\'\tw\xa9A\xfa\xc7\xe8l\x1d\xeeo\x7f11\x05\xb4\xf1\xd6\xa1\x88\xb9\x15\x7f\xe5\xff\x00\x96\x8e0V\xd4\x9a\xdf\x13\x0b\x0e\xe3\x935\x85nFV_%\x9f\xcc\xe1sc\x9e\xc7\xe5\xb9\x96\xc2\xca\xc0\xcc\xaa\xf0\xd74{.o\xf4#R\xd42\xc4\x15\xbf.}ED\xe3\x86x?X\xfd\x1d\x89\xbd\xef\xad\xef\xe1\xc3\xe0?\x1d\x9a\x1c\xf1\xd6\xa2+UW\x85H\xf5*\xdc\x95\xd3Z\xcbfZ\x93\xfe\x9c\xdeB\xfc\xb2v\xaf\xeec\xde\xf3\x1f/\x03.\xab\xbc\xecl\x97h\xc9K:\x86\x12\xb3Z\xb2\xfa\x97\x1a\xcc~\x16\xbc\x82~\xb1\xfcC\xf07\xbd\xcd\xf4;0N)V\xec\xae;\x94\xc5\xe2\xf2+"{\xa0\xee1\xf1\xf1\x03FfL\xdb\xb23L\xb9~\x00\xd7]\x95b6%\xa8\xf63\xcb\xe7\xb9]\xb5\xde\xd6\xd2k\x95\xa8\x19\xd8\xff\x00\xf8\xf6%w\xb7\xd4?cb\x08&gt;\x17e\xe2\xf2x\x19yxt\xe3\xf1\xf99\x16Qb[\xee)\x9b%#\x97\xbb\x91&lt;\xb6I8\xeb\x95_\xc2\x8a\xf1\xb1\x8e/\xf81MV3\\\xd6\x8b&amp;=\x88\xf4\x9a[\x1d\xfd\xc0\xdc\xbf#\xc3\xe5\xfa\xa5\xb0R\xdf\xf8\r\xeel|\x04\xa6q\x14`\xd2\xa3\x98\xa7\x1d\xad\x9ex\xb7-\x94\xc0\xc63\xad\x8de\xf7e\xe3\xf2\x10\x0c\n\xb2\xf1\x85o\xc6\x1c*\xb8\xfcl*\xebDR\xf8\xa6\xd6\x96T\xf0\x95\x15J.\xa2\xdf\x1c{k~Z\x9e\t\xb9\x9cn_$\xff\x00\xc2\x08&gt;\x1c)\xe2\xeb\xc1\xab1r\xebYU\xc8\xd5\x1cKj`\xde\xea\xc0\xc4\x84\xf6\xf9n8p\xf8X\xd6\xd4\xb5\x1c\x7f\xf0\xa5\x17\'\x8b+\n\xdf*\x0b^Y\x1eX}\xcck\xfc\xe9z\x1f\xce\xb3U\x1c\xb2\xf3\x97\x7f\xc2\x08 \xef\x8b/0%\xd6\xdb\xc9\xe4!)=\xccc\x8f\x93[9\x0e\xa6\xc5\xc6\xa2\xd3r\xfbUUe\x19\x98\xd8\xc2\xcc{1\xd9e\x96]nE\xde\xfd\x93\x11\xef\xad\xd0C)\x94\xcckE\xa2\xdcR.\xf5\x1ee\x8d\xff\x00\n \xef\x1ar\x03\x8b\x9c\xed\xf9\x8d\x82\xfe+-LtQH\xf1\xb2T\xbaP\xc7B"\x14lz\xd0\x8c\xdc\x9as\x9e\xdb\xaa\xbb\x1b5h\xbcXY\xa6@c\xa0p,\xc7km\xaa\xecW\xab\x94\xe42\xbf\xe1D\x10t%0N \xf2\xf5\xe5U\x84\x90\xa8Q*E\x82\x19J\x84\xb5\x8b\tM*\x1a\xc3w\x9f%\xcffe\xb3\xfb\xc3$g\xb6^\xe8\x95\xe3aC^Q\x80$R\xe7\x1e\xdcy\x94\xc4}\x1a\xfeA\xf2\x1f\x84 \xf8!\xf4\xe6N"rUr\x95\xddJ\xc6Zg\x8a%j\xa0J\xe6\xed\x84\x08\xb3?:\xfb?\xd1fvE\xde[\x00\xd6\xb5x\n8\xd4D\x9c\x86A\x10J\xd8\xbf\xbdSqo\xccc0\xd6\xb5\xfa\xfa\xfa\x87C\xb18\xab\x92\xcc\x85\xe40\xf3\xa9\x10\xcci\xa4\x8a\x0cUX%\xb0\xdb\xe5\xcb\xf2\xd9\x19g;\xdd\x14Q\xc5\xe1zb\xbfN\xd7\xc5[C\x8c\xa7\x8b)k\xd7:yl\x95\x81\xde)\xe0\'\xa8i\xb1|u\xadk_\xbe:\x1f\n\x9f\x82\xcc\xaa\xe1O\'BC\x16\t\x8e\xa5\x16!\xb4\xd6l\xbd\xef\xe4y\x8b.\xc5\xc5\xe3\xbd5\x8b\xc2\xd7\x89\xedy\xdb\x9f\x93\xcb\xe4r\xed\x95Y\xa5*\x15\xcc\xab2[g\xa4dvp}49\x89\x91Y_\x12\n\xeb_\xbe&amp;\x87\xc0\x1e:\xfcv\xa1\xf2\xd9\x8dcHV\x02\x184\xbd\xf9&lt;\xcc\xcc\xfa\xa8\xe38\x1c&lt;`}\xf7\xcf\xbb\x95\xbf\x93\xc9\xcc\xb6\xff\x0054\x14\x81\xb7\x95~M\x9b\xe8@\xdbS\xe9\x89\xc8&amp;Xn\xb4F\xb5\xaf\xd1\xd7\xd7\xa0\x00\xf1\xf1\xf1"+p\xb9\xf4Y9\xc4\xa9\xebz\xfa&amp;\xb6\x13\xcb(\xf2\xe3\xd3\xfc\naY\x1e\xd1nn]\xf96\xdb\xb61%a\x02\xa5\xb4\xde\xf9\x05\xcc=lC+\x9e\x9a\\\xc3\x97\x0f\xc0\xfe\xfe\xb4\xa1T\'\x87\x83)X\xad\xc5r8Ws5\xd0\xc9\x01H\xcb\xef\x832ca`\xd2e\x8bp\xbeeT\xe5\xdf{\xad(\xa2\x9cu\xc6\xf6\xad\x8ffM\x9f\x15\x9b\xc5^13&amp;_d\x86\x86\x1f\xdd\xd0\n\xa8\x81&lt;J\xb2\xb8"W8\xbc\xf4\xceiQ\rIbV\xa3Yx\x82\x96b\xe5\x96\xd4\xcb[q\xd7\x8f\xab\x84\xab\x80\xc7\xe2\x8e%X\xd7\xe3\x99}\x991\xe1\xf8\xeep\x8b\x8cr&amp;f\x1d\xa0\xb1`A\xfc\xc1\x07\xf0\x80\xa2\xb1Z\xaax5vV\xea\xe0\xca\xe5\x06\x87iQh"1e/\x90r)\xc9G\x16jX\x83\x1dq\x16\x8b+1\xce\xfc\x9ed\xcbW%\xd9\x8f\xc8N\x11\x03g\xb7\x17\x7f/\x81j\xecE#\xe8?\x88:\x1f\xc0"\xca\xe5q \x8f\x1eX,\x0c\x16T\xd5=v\x02\xad[\xa3X\xd2\xf8[\xdc\xa2\xeckq\x9d`\x04h\x96b\xd9\x16Ww\xba\xf7]m\xd7\xe4\x16\xf9\xd28\xab,\xb7\xdb\xe2\x8d#\x95\xe32\xb1"\xc5\x9b\xfe\xc1\xd8\xfe1\xd0\xfa\x04YY\xac\xa1\x0cY\xcb\x9b!\xe9"5L\x1d\x1c\xba\\\x18\xd9i\xb2W+4\xbd1\x1c\x90e\xf6\xdbm\x99e\xacw\xc8[.k\x19\xa1\xf8\x0e\x94P\xb8\xb3\x8e&gt;\xac\xc8\xc2lK\x94\xdf\x8d\xcaq\x0c\xbf\x84?\x8c}"\x02\x85\n0o\',^\x1e\x96VT\x</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495738-efemerides-de-hoy-que-paso-un-8-de-noviembre</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mercosur: impulsan que los estados legislen sobre el derecho humano al cuidado</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Una iniciativa de la vicepresidenta de la delegación argentina, Cecilia Britto, junto a otros 19 parlamentarios</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>La representante misionera en el Parlamento del Mercosur y actual vicepresidenta de la delegación argentina en el organismo, Cecilia Britto,  propuso, junto a otros 19 parlamentarios, la formulación de legislación en todos los estados parte en materia de derecho humano al cuidado.El proyecto busca "elevar al cuidado como derecho humano en el escenario y debate internacional, pensándolo como bien público y común, reclamar el rol del Estado en la garantía y desarrollo del cuidado social a lo largo de la vida con la recompensa de trabajo decente para sus trabajadores y reconocer el cuidado como derecho humano y su pronta incorporación en la agenda regional junto con las políticas públicas a implementar, las que necesariamente deben ser transversales y con enfoque de género"."Esta iniciativa parte de la premisa de que todas las personas, en todas las sociedades y en todos los tiempos, han necesitado de cuidados a lo largo de su ciclo de vida, así como de personas que cuiden a otras personas --se explicó al presentar la iniciativa--. Si bien esta necesidad está presente de modo más intenso y se refuerza en determinadas situaciones vitales vinculadas a la condición de edad como en la niñez y la vejez, de salud o de capacidad de las personas, lo cierto es que el ser humano por esencia es vulnerable y que las necesidades de cuidados son inherentes a todas las personas".Cecilia Britto destacó que “por primera vez el Parlamento del Mercosur incorpora un documento que pretende ser un aporte a un tema tan importante y que empieza a gravitar en todas las agendas políticas. Que además es plural y transversal a los espacios políticos”.Los parlamentarios que acompañan a Britto en este proyecto como representantes de la Delegación Argentina de todo el arco político son Sofía Prado, Norma Aguirre, María Luisa Storani, Nancy D Auria, Lilia Puig, MaríaTeresa González Fernández, Víctor Santa María, Nelson Nicoletti, Carlos Gleadell, Ramón Rioseco, Armando Abruza, Hernán Olivero, Marcelo Elías, Damián Brizuela, Julio Sotelo, Emilio Magnaghi, Gastón Harispe y Cristian Bello.El documento también será defendido en la XV Conferencia Regional sobre la Mujer de América Latina y el Caribe que se realiza en la Ciudad de Buenos Aires esta semana. El objetivo es incorporarlo también como material de trabajo del Foro de Mujeres Parlamentarias.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x01\x02\x04\x05\x06\x07\x00\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf8\xf9W\xd52yY$\x95k\x95\xa3\xb5\xcct{\x17\xd0\xb6l\x13\xc9g\x06`k\xb1\xc33 : \xc3=\x8aVWZA\xb1\xae\xdb\x06\x99+\xb5\xe5\xab\x9c\xa7\xeam\xdf\xcb_Or\xb7\xc9\xf3\xd2\xb2\xc69a\x10L\x05#w\x9d E f\x0b\xc4\xf1\x11\x98f#\xc5w\x94\x86\r\xed0, \xc3\x04E\x18\x8dk\xc2\'\x9a\xe4e\x08\xc8\x8a\xc2iDC0\x1b\xfeWj\x13\x95o\xf9\xbfG.\xb3m\xc5l\x08\xeb\x968\x9d\xceM?9\x8f\xbag7d\xe6v\xe3\xbdu\xeb\xdc\x8b\xb0\xfc\xef\x87U\xdd\xb6FV\x94\xe9\xb7\xbc\x9b\xb1\xe2\xbe\x83\x9b\xed\xe7\xdd^f\x8b\xa2\xe4c\x07s\xeb\x17\xa3\xa6=\xcf\xd5\x91fD\x9a\x90\x93@F\x12\xca\x92\xdc8\x81|\x8f\x1a\x91g\x84`\xc8\xb9\xac\x87\x18\xc9\xb2\xf2\x9c\x0e\xcd\xd3x&lt;\xad\x1a\x8b\xe6F\xa1G"goh-\xce\x7f\xb0~^\xfa\xa3G9\\\xd1\xddW\x86b\x91\x17\xc7d\x91\x88\x8fp\xd4G0\xf8\tZ\xa5\\\xc7\xfaE,s\x82\x01\x1a;!\x15\x8f\x84\'\x0b\xc8\xb4Q\xc9\xa6\xf0&lt;r\n\xc6\xf3\x92\x02\xca\x04\x80\xcba\x16bY&lt;\xe0-v\xc2k\xa0\x94\xb3\xfa\xcf\xe4.\xe7\x97O\xd0Mrs\xb4\xa7\xbc\x86\x04\x04\x1a\xb7\xbc\xe1\xc8\xc4U\x91\xa8\xe6\x10(\x92\xa2\xa5\x8fk\xd8\xca&amp;\xbd\x90\x89\x85\x02\xb0Z\xaa\x08\xc4a\x95k\x1e\xd8\x04\xd7\xb4\x16\xb0\x8c"\xa3\x03\xa8\xa5\xbd+:^Ss\xb3/\xce\x18\x9f\xb3\xf8\xce\xdc\xd1k6\xdcO&amp;\x84\xd5s\xf9z\xe8\xed\x13x\xf7L\xe6\xee\xb1\xe0\xfd\xfe\xb8\x8e\x1b#\xa6\xe3\xf6Q/\xb5s\x1d\xe6\r|a\xd4$\xdd\x97g\xb0\xe5]S&amp;\x9d\x84fj\x9a\x8d\x12\x11\xfb1\xfa@\xa5\x88g\xb4\x92Nx\xa5:\xab\xfc\xd0}\xe4\xc0R\xfa\xae\x07\x92\x89\x8f\xa8f0I\xaeO\x84X\x10\x81q\x05c\x92B\x89\xac2=-\xa5F\x9c=G\xe8^S\xd8\xb4\xf2\xe2\xab\xc3`\xf0\xc8\xac\xack\xc3#|\xe7\xba\xc7B\xba\x1f\xcf\xa7\x85\xee\xa6Tz\xb0J\xc7@\x91e\xc5`\xafc\xa4\x1a\xf9H\x9deQoM\xf0\x8e2@\xd1\xc9\x8eT\xd2\x86es\x1d\xa7\xae\xc3\x1a;\xd5\xd2\xb2\xca\x01\x12\xf7\\\xfbS[\xfd\x8d/\x1d\xb1\xe5\xedQ\x94"FiX\x8e\x8c \x8cj9$\xf3\x08\xc8\x03\x16C\x035\x1c\x86\t\x84\x18!\t\xc4\xa6:\x94`\x8cG\x19\x0ca\x81\x03\x1a\xf6\x826\x90Ps\x91C\x87\xae\xacn\xe3\x97\xcb\xd7Ow\xb4\xe1Z\x1a[c\xf37\xd2ed\xf9\xb1\xddc\x9dtqG\xed\x9cw\xe8\x0cz\xf9\xb6r\x0cV;\x9d\x9f\x1e\xb2\xa6\xde\xc5SsS\x9a\xce\x0e\xce\xe5O\xbf.\x13\xb6s^\xc5\x96\xfa&gt;\xa7\xce\xfaU\xf9H\xf6H\xd1Ad6A\x0c\x90G\x88\xf9"4\x9e\x83\x94\xf9\xfb.\x9d\xaf/\x89\'/Y\xea\xcfUyU\x8b\x1b\xc4\x03\x8a\xb2Mm\x85\x88dA\xacO1\xee\x95\xf4\xd6\xf5[9\xdfY\xed!\xce\xd1\xcd\x18$Bx\xf4\xf2H\xc44\x86\x00KL\xaa\xac\xe9\\\xdf\xa14\xfc\xf3{WB\x1c\xa1=n\xd6\x90R\x12\x1c\xe8D!\x04FV#\x98d\xab\x9a[ZnQ\x98*d\xc4\xb0\x86D\xc3\x8aZX\xf9\x81\x9c\x8e\xd8v\xcd\x0fR\xc9@\x8b\x1b]\x98\xdd\xabw\xbd\xeeKI\xcd\xd90%\nF#\x95HFa\xc6c\xbc\xb0\x0cd`0\xde\x8f\x85\xac(\x88`\xca\xc5 \x01\xc4\x1d\xad+ \x8e\x85\x1c\x8d\x0c\x81\x08\x1f\x11\xb0\x86\x9a\xfb\x18E\x06/\xa4{~[\xde\x7f\xf4\x8c^\x8e\x0f\x8cG\xf6\x179\xaa\xfe3j\xdc\xde}=\x0fC\x92\xd6\xd1p\xa5\xb0\x00|\xf7\x1b\xe9L\xae\xbc\xbcsH[6\x9d\x93\x86\xf7\x9f\x96\xa8\xb6f\xeb\x9co5&amp;\xbfs\xc6\xbbg3LM\xf6So\xd2\xe6\xc61%\x94\x84|\xfc\xe57\xe6i\\A\xe1\xd38\xf6=\xd6\x10P9\xba\xa7*\x95\x08\xc8CWlp\xcd\x14hb\x91\x1e\xda\x83e\x06\xce\x04\x01\xc2\xb0e\x11\x1e\xba{\n\xcd\xf7G\x8f\xf4\xf2\x14:r4.,\x0c3\'\n\xdc\xd4\x8bP&amp;\x1a\xef),\xf6\xf3)\xb5\xd3_\xe73\xd1\xf6\x87\x9c&amp;WA\x91\x90:\x1c\xe8d\r\xfes(\xd0\x89!\xac\xabeUd\xe8\xb2#%\x96\xf1f07\xac#Y\x07,\xb6\x15\x19\x8f\x02\x02\xfay\xf0\xd9K\xb7\xc8w\x1a-\xea\xd6\xaalZ\x1c"\x8a\xb2\x88\xe4\x10c\'\xa1\x1a\xb9\xa5Z\x03CWa\x95$\x8e\x8f\x1cd\x19F$f\xaa\x86k\x1c\xd9\x1a\xd7\xb4\x811\xedR\xc6\x91\xb23\x98\xf4\xaeV\xd2\xcb\xa5r\x0f\xa6:\xbc\xca\x92\x8c\x9bq0p\xa7@&lt;\xd6\x87\x15\x9bi\xe9\xa8\xb28\xbaw\xf5\x99\r5\xcf$\'\xcdUOC\xb0\xe5\xd2\xab^\x93\xf3__\xb3\xba\xbe\'c\xbd\xcah\xbaOc\xe7\x1d3\r\xbd\x04\xd3\xc1\xd0\xe3:\xec\xb0\xcar\xce\x99\xca;*Y\xe4x\n\xfc\xd3\x87\xb2\x8f\xcd\xf4\x00\x01\xa2\xa5\xd2\xe45\xf5\xbb\xa5\xc5\x95U\xac\x11\x04dA\x17\xd7T9\xc08#\x19=\x11\x07&amp;\x0b\xd7Q\xda8\xa7\xd3}N\x1fJi\x99\xa32*\xf9\x94\x19}7\x1f\xdb\x92\xef\x90u=D~q\xa0\xde\xe0y\xd7k\xb4\x94\xf7\x17/\xe7Q\x86V\x8aa=[\xde\xf1!d)\xb0\x8a\xb5\xeds/\xbd\xe6\xc8Y1J\xafe\x18\xa0G\xbcxeWi,\xa1\xd8%\xb2\x1e\xf7\x89\x04\x16/&amp;\x82&gt;\x9e\xd8\xad\xcf\xd2U\xfa\x8e~\xb62@\x141\xafeo\xe1\x94r\r\x1d\xe9\x1a3\x04\x06B\x99\t^G\xbc\x85F\xc2\xb2\x10\x84\xf1\xd1\xc2\xbe\xf0f5\xde\x90*\xbe # \xd1\xbc\xd7#\n\x0c\xad\x97\x9cP\xfd1\xc2\xbb\x07s\x8d\x18#\xe7\x15\xd8Z\x8c\x9c&lt;\xdb\xef*C5,\xad\xc8\xfd\x07I\xa1q\xb7l\xb7Kw\x18\x8d\xa7\x17\xd3\xc6\xc6\x06\x14\xa2\xd3\xf33;\x05\x89\xcdle\xf3\xca\xac\xfa\x83\xa6\xf2\xce\xed\x9d\xa1\xcc(4\xe5\xf6?G\xc9*\xb5:\xe6\x03~\xe2W\xcc\x7fL|F\xb6\x1adW\xf2}\x11\xa3$\xb0L3z\xab\x88\xf3\x02\x9bE\x1aDK\x14\x04o\xae\xa4\xe6a\x11\xfc2\xfa"T\xddP\xdf\x9a\xb7\xec\xdf\x8e\xfe\xe2\xeap\x8e\xc7&amp;\x8c\xed\xf2\xa3\x08\x18\xd9\xc75[B\xb5\xb4C\x88\xcbn3\x19\xef\xd8M\x04\x9du~v\x95\xab\x19\xc8\xa3\x91\xf2b\xcbV\x8d\x12LvF\xb9\x14\x86yT\xc7\x18fW\x90\x832\xb5\xa4\xd8\x16\x14\xdf&amp;}}\x82Y&lt;\xa30,|J\xe7\x1a\xce\xf9\xc6\xbe\x9a\xcdu\xaa&lt;T\xc4\n\xb1Y\x13\xcdFV\xf9\xa2"\xb5 P\x90+#\xa0\x8e\x1f\xdeF2\xabU\xa0\x80\x06\x12X\xd1\x91\x80\xb1\x1c\xd3\x10e\x10\x8d\x12\xb4\x14OF\x83\x9a\xd8U\xec/]\xa4\xbb\xcc^\xca+\xf9\xbe\xa3\x99Q\xa9\xcf\xb0\xe9zrP\xeb\x88\x9b9\xfe\xc5\xec\x04&amp;\x0beE\xeav\x87\x80i \xdb\x96\x9c\x1d\x0f=\r\x86\xbf\x8a\xd5_\x9f\xa5\xe0!\x12\x0e\x8f\xf6\xef\xc2?t\xd2\xf2\xe9m\xe8\xa8z\xee-\xd6\xf8\xaa?r\xd0WX\xe8@|?\xf6\xd7\xc7y\xf5N\x1c\xc0\xf2\xbb\xe1\x95\x1eH&gt;x\\\xafj\x15\x8fE\xde\x8ca]\\o\x15\xb6W%\n\xc4u{V/\xb3\xb7\xf9\xfdX\xb4\x7fc|\xc9\xf4\xef_\xcf\x89\x84\r\x88\xa1s$\r\xc8ir\xae\x89!\xd7\\+\xab!\xc9[)\xb6U9\xc0\xdf\x1e\xb9\x8e\xd3Z\x85\xe3\x80\x92\xe3\x9d^0\n\'Oy\xcc\x81\x1d\xe4%\xd2\x00Eg\xcc\x87`\x8f2t)U_"\xc6\xb6rYi*\x04\xc5j\xd8\x1a0\xbal\xbb_\xcf\x96\xd4?\xd3\x92\xfef\xd3,\xed\xa3\xe7\xfa*l\xbc\x1a\xf8J\xb8\xf33n\xba\x89\x1c\xc5\xe2t\x81R\xda\xd5di\x11L\xac\xf69\x86+\x1e5\x83\t\x06\x1d\x1a\xf1\x88\x83+dhN0\xd1\x9af\x82\x1c\xe6\x93\x00@5\xf9\xb9;s\xf7l\x9e\xba+\xdb\xc8s\x1dc\rM\xba0\x82oc\x82\x15\x83&lt;\xa7\x86\xa1C\x9a\xe5\xbd_\x95f\xdf\x8b\xd2\xd0Yi\xc9s\xce\xedj\xd9*[kZ\xe8\xf1y\x82t\xff\x00\xb5\xbe4\xeb\xf8\xb7v\x0c\xadTl\xd9\xe1b\x03\xae\xd1oO\x99]2\xc4\x97\xf2W\xd1\xff\x004\xf3\xfad,T\xc5\xd7\xf3\xe3=\xebC\x06J\xb1S\xcbU\xc0\x1c\x81\xb8\n\x1b\xcc\xb2&lt;\xf3T\xf1\x15\xaft\x8fAw\x9f\xdd\xcd\xef\xdd\xcb\x9b\xf4n\xaf\x07\xc33\x1a\x07\xcf\xf4\x95\xb5\xdai\x11O\xcc\xfa_\t\xad\xc1\xd2x\xe7\xd0t\x92r^\xb9\xc7.\x9f"\xf8k}n\x0b\xd2I\x8aH\xc8\xe3\x13\x9a\xe8\xbeG\xc2\x8cs`\'\x90\xc0\xc9\x963Uy\xa4\xc3\x94\xb6K\x95\x0eBYc*\xbePk9U\xb6\x88\xce\xb2\x82\xb1-\xa5T\xce\x92Y\xe1\x98\x8b=&amp;\x1ck:\xfd\xef\t%M\xdeb\xf2\xdd%mq(f\xaa\xd9r\x01Z\xcb1\x99zW^\x8c,\x1d\xf5mt\x8c}W1\x8fd\x9eT\xf3\x06\xb0\x81\xad\x9b\xe2\x10\xca\xfeE\xd6\xf8#\xae\xf3a\x9d\xef}\x8e[\x19oW^\xd8Y=\xac\x1c\xfa9L}\xfey\x1cF\x86~\xa7\x14\xad+,\xa37\x91\xd4\xd7b\xe9p\xea\xbd\xd7&gt;\xbf4\x84Q]\x99)\x8a\x12&lt;\x89 \x1f\xa0\xb5\xc8\x9c\xbe\xb8\xa3\xd9\xd0\xe6\xd5\x86\xeb\\\xe3\xa1o\xe5\xf4\x0b\x1c}\xc5\x95f9\x06\xeb\x1b\xca\xecVA\xbc\x89^\xba4\x9d\x12\xda\xd2mi\xd1\xad$BvmR\xfc\xc6\x07\x19\xc3!\xd4\xc4 \xa8x\x8f+,Z:;%\xebq&gt;\xca\xb8k\xfa\x1c\x7f\x0c\xa3b\xd4p\xa4[\n\xcb\x98\xb4\xbf?\xf6~\x17\x97F\xdf\xa0\xf3\xde\x88*\xa2\xc8uNT\xef\xf2\x19X\x9a\xa9l\x91K\x04\x91\n\x15,G#\x06\x93\xce\x90\n\xa4\x93\xd3\x9b&amp;\xbbT\xac\xf0wJ\x8b &lt;\xa9\x11$#\xcc\x99_5^u\x85d\xe5}d\xd8Z[r\xd4\x0fJ\xf6L\x90\xb6\x8d\xad\xf2.\xbb\x87]\x91U\xe3VUz\x18\xb3!"\xcd\x9d\xff\x00+\xf2\x9e\xd8\xce;}[\xee(\x89sM\xb0m\x11Q\xd1=\xe2\x11\xfeR\x06#\xa5n\xe28\xae\x99~Q\xd3u\x1b\xf1\xeat\xd8\xed\xcf_\r&lt;\x1f\x06\xab\x10f\x8d\xcf\xea\x82\r\x88i|\xae/\xa3d\xaa\xbb1\xac\xc4D\xd7\x8fq\x05\x96[\xb9\x99\x7f\x9b\xfe\x93\xc2e\xdb\xc6\xe3_\xd3k\xc0\x01\xcbaQu\xec7\xd9UZ"\x97qX\xe1\xb53\xf1|\xfe\xd8\xed2\xd4v\xd5\xdb\x89S[n\x0c\xf8\xb3\x96\x18\xba\x92k\xe3\xd5\x97\xbaZ\xa9\x16U.C-*\xb68\xad_\x8b}`\xe61m\x8382\xa0\x93\x1c\xa0\xa9\x89\x1am}\x95\xe65\xb9\x0e\xb3\xdb\xf3\xbfH\xb8+\xb3\x01\x00\xe74\x17\x8a\xe8\x12\xca$\xd8\xbc\xd7\x8du~M\x87oO\xe9\xfc\xdf\xa2\xe8\xc7\x17\x90\xf5\x0e^\xd6\xfc\x8d\xe5%\xb5)\x1a\xd0\xc8\xd5d\x8aD4,\x11\x9f \xa5=\xaa\xef(d\xab1Z\xf8J\xe6 2\xe4F\x90\xb6I\x99\x06R\xbc\xf9\xb5\xb3V\xcd7F\xe4\xfdV\xda&amp;$\xe2\xe8\xc5\x06\x9bQ\x96\x82T\xbeYi]\x9d\x16&gt;oM[V\xc0\xd82\xbbp\x9e\xdcV\xd7fk\xd6\xf0U\xa3\xa3\x9b#\x9c7\x19s{\x8d2\x9e\x897\x96\xce\xa9\xfaBd\xee+{_0\xd5\xd8w\xf8\x06\xbew\xdfx\xefL\xeer\xea\xbaF\x03m\xa2\x9c\xaay\xf7\xd3\xe1\x9f\xdc\xbe\xcddY\xd5\xf95\x86\xae\xf2B\x9em\x84\xe9&lt;\x9a\xdc8\xfe\xc9\xcb7\x97QU\xaa\xe6\xd7\x8b\xben\x1fNm9\xf9\x98\xfa\x15E/\x1dl\xb3H\xbd6\xcb\x9a\xd9+4"\xaa\xa3h\xd2\xaf\xa9\xdd\x9a~_s\xcc\xa6z9!"\xe8\re\xc5"]$\xa0"=\xd5\xd55\xbe]RK\x18\xd9\xf4\x05Z\x91\x9b\xe5j\xb1\x82A\xa9\x99Kq\x9f\xb6\x8a/\xa1&gt;t\xfa\xe7\xb7\xe77j\xdfj\xcd\xe1y$\xf1\xda\xe6Y\x16u\xd6F\xbe3\xcc:w5\xc1\xbf\xa8\xef\xf9\x17`\xbf\x1e[\x9e\xecq\xa2\xff\x00\x92\xdc\xd7\xdfR\xb5G\'\x9c\x8f\x91\xc4R\xab\xfb\xd1\xe3\xc1-\xcc4b\x9cJ\xae\x8e\x0f\x8c:\x8aPc\x18DG\x91.\x1c\x95i\xd2\xa1J[,\xfa\xbf$\xeaVW\xb7#f\xed\xe6\xc7\x1d\x82\x99\x9c\xca\xedOY\xe6o\xe8z\x88\xdct{\xec\xeaH\x17\x99\x0c\xddvuR\xf3\x1d\x12\x1d\x1dM\x91\xc3d\xa3\xedGU\xb92\xd9\xd6\xc8\xe5\x1a\xa5\x87c\x07%\x8d\xc6e\xa0\xf4vs\xab\x85\x9d\x1e\xf2m\x17{\x93\xaa\x91e\x9b\xb6\x98\xefa\tR1\xb4\xda\x90\xec\xdf\xc9\xec\xd4\x1avXNF8\xb3:^7\x1bc\x1eN\x0fO\x0e\xd2#\xf2\xf5\xe6\xcb\x8160`J\x84\xb2\xd3\x07\xb3\xa1)S+3{v*\xaar\xc1\x1a_\xf4_\x00\xfa\x17O&gt;W\x0f\xee_?S#\x1e\xaa\\\xbd\xf4\xf6p\xab\xb9\x0e)\x95h\xb9\xb9\xab\xb3\xe6\xf4L\xf4T\xb2?\x9e\xd6\x03B\xa8\x83\xf3\xbc\x8c\xfc\xb6\xa7#\xaf\x15O\xdc\xff\x00\x19\xfd\xbb\xda\xf3\xa8\xd72\xea\x93\xc8\xd1\x1f\xe4\xf3\xac\xcb\n\xd9\xa6\xbeM\x17[ME\xf4\x1b\xacC+\x93\xf3\xb6\x15\xa2\xcf\x93\xd5\xc2\xd5K\x9a\xe7\x99\xe31\x8a\xc4\x17\xbc@\x0e\x19&amp;\x14\xc3=vy\xcf@\xc0*:\x12\xbc$\x0cc\x80\xaa\xd2M\x1c\x81\xa7I\xae\x9a\xb6]vN[\xdb\xee\xcf2\\k\rXFok\xdds\xd5\xdbq\xd8\x9c\xcf{\x83\x9dS\xebq\x97\xf9\xc55U\xf6Rh\xb73\xad\xa7\xdb\x19\xcf\xf2]\xe7\x12\xf5\xf3\x1ddm\rV\x96\x07D\xc6\xdfT\x06\xd3N\xcdtZ\xbdPk\xbb -\x1eYX\xfd\xef\x8d\xfd\x1b\xbf\x14T\x8d}\xbb%\xf6+Q\x95R\xe21\xf0\xba,\x98\x04.\x87#\xa9\xe7\xf4\x93\x86\xf4\xee\x0b^Y`&lt;\x1d^xuVt\xf8=\\\x88\xefL\x9d\x93\xda\xd4\xdb\x03\xe8r\xe3\x83\x1e\x1c\xea\xa6\xaf5]k\x9c\xd7\xc7P\x9em]"w\xee+\xdcu\xf2\xa1\xfc\xeb\xda\xf8\x9e-\x91\xdc\x9e7\xf9\xc8tv\xdcW\xdfb\xdf&amp;\\i|\xee\x91K\x0c\xd0&lt;h+\xaa\x94\x85\x8f[\x08\xa0XG\x98\xd1e:\\\xcd\xb7\xd7?7}\x1d\xd6\xf3\xe2s\x82\xd0\x8c\xf3\xdd\x19!\xa5u(\xc5\x85X\xec\xf48\x19n\x91N\\\xddV\xdc\x8f)j\'\x00\xf2\xbb~u\x1b\xc3!\x1e2\xc2\x88\xac\x91%G\x94\t\x0e"\xd6\xe6\x8c\xf0F+\x86\xf9\x1cQ\x121\xca\x12+\x9c\xd1\xc8\x18\xf2\xe0\xcdW\xbe\xea\x9cO\xa0\xd8;\x84\xb8\x16{yKkUUm}"\x7f\x195\xaby\xbe\xe2;\xd0v|\x7f\xad\xf3*\x9b)\xa0\x8f\xcf\xf3k\xda`0\xf8\xca\xed\xea\xdaO\x9f\xb5\xb5i\xfa\x13i\xcdv\xfa\xb9qk\xcbceXJ}\xecjn\xe6\x97V\xb4\xb0\xb2\xb9\xb4\xca~\x8f\xe8\xf4:\x0e\x96\x1a\x1bYV\xac\x94T\xe6\n\xdaG#\xa0\xf5M\x9dD\x8c\xd2\xe6(\xf3k\xe7\x1e\xf3\xa7\x06-d\xba\x91M\xe6#M]_xr\xa0L\xe5zI2\xc6\x8a\xe3t[" \xf3=\x874\xd5\xca\xb2\x89&gt;\xa2\xfc\x1a\x93h\xf1\x15n\xdb\xf5Nu\xd1^\x8eo\xcb\xb6x\xac\x9d\x05k\x9b,|\x98\xd3\x11\xe4\xdf\xd5\xdds:\x9e\x90"\xe3\xdb\x19\xde\x13D\xf0\x96\xeam\x04\xad\xac\x8dP\xa6Weo\xf3]~7\xd2]\x8b\x13\xb6\xe9q\x1c\xd4{O\x11\xaf\xb6\xbf#^Dj\r-R\xb5\r7J\x00&lt;\xe3\x90}\x1b\x9cW\xe3[\xb6\xee*?\n=\x84\xb1V&lt;\x98\xe68\x824f\x8c\x83\x80\xd2Bz\xd9\xe4k\x039\x8el.x\xc9\x0b\x8a2\xc6#\xc6\xf5s&lt;n\x0cS\xb0\xe0\xc1\xfaS\x82}g\xaa\x8e_\xb6\xb0\xe5\xf6g\xed\x85\xe7=\x05\xea\xa7\xe6\x9d\xa6\x92\x0e\'i\xb4\xc6+\xeck\xb0\x1c\xb9/0j\xa6e\xe8i(\'A\x01wSmU\x07\xec^J\xc1\xd8\xbao\xcc=a\xd3\xaeC\x84\xcb\xf9\xc3\x85&gt;\x12&gt;r\xc2\x0fBa\xd6\xac#O\xe9\xe14\x86\xc2C\x98\xf3H\xaeEEa\x1e\xb2ep\x19\x9e9M\xa2\xafN\xba\x11\xeb\xeb\xf34\xf5\xf0\xda\xba^\xb5\xb6#\xa3]*\xfb\x13G[|\x1c\xa4\\\xba\xb5\xd4X\xd8\x8f\x94VP\xa5j\xe6BZ\xad5[:\x1f6\xe98!oY\xd8V\x1e\x9b8-\\\xb1f\xe8\x08O\x1b\xc3\xc9\x8b.\xb7\xd0X\xc4\x9d\xca\xeb\xf9U3\xe8\x1c+\n\xb6\x8c\x93\x16}\xb5\x9d\r\x1e\x96q\xc2WL\xd5\x1d\xac\x9e\xe7\x03\xecK\x05M\xdc\xa6\x17\xca\xd3\xceal@\xa9^\xc0Y\xadnL\x1bY\xb5\xd3\xe0\x051\xe4)\xa4\x19\xe6\x19\xf9\xf8P\x9a\xab|\tA\x04G\t\x8ccH\xd9$\x1d\x8a\x8c\xd5a\tr9\xaa\\\xe6\x92\x15#\\\x18\x8ej\x86y\x19 1\xc0\xfd,\x95_Q\xe7\xfa\xa6\xfc0\x00\xd2\xe9\xc5\xcb\xe9\xbb?7\xa3F\xea\xf3\xe5\xfe\xc2\x96\xecy\xe6\xa3\xe5r\xb5u"vM\xf3.+\xde\x96\x07G\x9f\xe8\xf1\xa4`\x1fA\x0c\xf1\xa7L+\x13\xe9\xab9\xbd.N\x03%\xb2\xc4\xd6\r\ra\xd5e\x7f}\xe1_L_M\x95\x85u\x8e\xdc\xb3\xf3\x1a\x9c-L2\x88\xe4\xbb\xdek\n\xaa;\x8a\xe1&gt;W\xe9&lt;\xdf\xaf\xd1}x\x92By\xec(\xb4\xd5i\xa2\xaa\x15\xed|\xb6\xb8\xd1\x15/\xaf\xad\xd3JI\x8a\x93\xb0\xa6c\x07*x\xc3W\xb7X\xbe\xa8\xb7\x0c\x107\xabn\xf7%\xbe\xe4\xf9o\xe6\xf1d\xc2\xcf\xd2\x8e\x9em\xf4\xca\x9b_gU\xba\x89\x02?#\xb0\xf1=\xb4\xdc\xca\xc9\xf5\xce\x12\xd6\xb6\xe6G@\x99\x06\xb2\xe9aMY\xf2{\x9e\x7f\xdb;\x9es\xe8d_j\xc6\xc4s\xd81\xe7\x93ep&lt;\xd1\x18`H\x8e\rL\xaa\xa8\x954\xdbe\x86\xe2\xba}d\xf0\x7f&gt;J"\xd7aFO\x07\x8aF\xf8\xab\xfc\xaa\t\xc6\xf6+y\xedq\x84Ox\x178d\x04\xaec\x83\x11Z\xa0\xbd\xc1H\xd6\xbfP|\xdf\xf5=\xf5_\x16\x1c\x8d\x18\xe4\xcb\xaa\xf3\xa5\xb6:\xfb\x82\x99\xce#d\xcb\xce\xeb^\xe6\x0eS\\)m\xb2\x16\x12\x13\x8c\r\xc9\xd9\x9a[a\xbd\xda\xd6Cw\x0c\xfdu\xf8z\xf9\xfem\xaa\xd0\x9d\xba\x1c\x19\xf5$*\x8bL\xfa\xcd\xc7~\xe5=_~I\xb3\xa1\xce\xba\x92\xe2ty\x9a\xec)\xc4f\x0e\x8b.\xb9\xa4\x11\x16!\x1f2\xf6\x9e\'\xd5\xb2n\xcf\xc2\xb9\xcd\xd5\xe7\x0c\xc8\xc4W\x8a%\x88m\xb5}$\x00\xda\xfa\xac}P\xb2\xd2\x81a\xa6\xc0Y\x0e`,\xec\xb8}\xe8\xd5\xcb\xbe\x82\xe0?K\x90N\x15\xdc~l\xc3\xba\xac\x03\xf2\xe8\x12{\xd6$\x8b\x8a\x9b\x9c\xfao\xe5W\xd8r\xba\xedF\xfa\x14\xaf\x97\x1a\x17]WXR\xf1b\xaa\x91.\x0c\xfa\x8d\xd8\xb2\xdfR|\xb3\xf6\xc7g\xce\xe8Q\xc9\xa2\x89\xf7uv:\xf2\x15*l]0\xb6y\xfd\x15\x1a\x1c\xd2\xd6+R\xc9\xae\xbe\xa1\xdd_a[p\x89{Up\'\xe71\x11)\xb6B\xa3\x83\x84rC\x03\x95\xab\x0b\xdf\x1eH\x8dTP_\xe4P\\\xf6\xba\x17\xabV\x17#PG\x10v\xa5\xb7\x9fBb-\xb4\xe6\xd7\xcb\xe4\x1d\x1d\xab\xb8,W\xba\x1f\x8fu\x9f\x9eA\xe2O\x01q\xf4dE\xd0UH\xcb*\xf1\x85\x9aq\x19m\x8f\n\xe0Q\xc5\xdesS.\xcfe\xc7!\xc2K\x9dnn\xde \xe6\xec\xa0\xeb\xe5a3\xdd\x0e\x1a\x9e\xbd\xaa\x89a\xd3\xc3"\xc6\r\x84\\|&amp;\x16\xb79\xc6[\x02\xd4ZR\x90\x90\'f!\xe2z\x8c}\xe6&gt;\xfe\xf7\x9d\xf9\xcb\xe7\xeb\x82O/:5t\x8c\xc8\xd1.3$%\xf5\xb0\xc9T\xb79\xac\xd5F\x8d@x\xa1\xbb\x05\x83(\xc6\xa8\xdfCq\xfe\xb2\xe9\x9b\xf9\xe7\xa8r,[\x91\xccQkH\x13H[\xea\x1d\x16]\xb3n*,9\xbd4@\x8d\x83\x84\xc7\x87\xb28\xc1\x9a\xd8\x92!J\xb6\xb9\xf9\x8dN7\xa7\xcc\x0f\xdd?\x1e}\x9b\xd6\xe0\xb5\xaf\xf5\xd5\\\x95\xcc\xd7\x92\xa2\xfe\x9e\xde\x0e_\xad\xc5\xed\xe8\xd0\xe8\x133*\xd5\x17b\x8fS]\xd7\xcc\xac\xb4z\xf6\x9a\xea\x0f\xce\x16\xf9s\xe83\xc6P\\#\xa8h\xbey`\x87\'\xc2\x90\xfe*+1\\\xb2#\xfc\xb0\xb5^\x90\xb5\\pY\xd8\xb3_G\xe8\xaa\x835g;N\\gQ\xc8jQ\xb4M\x1ex\x8a_\x974X\xcc\xda\xbd&amp;4\xda\xef\xba\xa2\xd0\xe6\x94\xc8V\xa1\x83\x9d^\xa54\x0e\xa7\xb9\xae\xed&gt;\x1e\xd2\x96]\x16\xfd\xdfVY\x9f\x9a\xee\xba?1\xeapm\x9d\nr\xb5M\x88\xb6&amp;k&amp;G\x97\xaa\x82\xe378\xd4&lt;\xce\xca\x08\x15\xb7W\xfc&amp;\xb8\xcf\xa1k\xb8\xee\xa0\x8d\xd7\x0e\xeb\x7f3M6\xd9\xce\xeb\x91\xcd\xbb\x99nq\xfdzU\x88\x15vhd\xd9Q\x86\xba\xac\x16\xb9X\xd5kx\x8f*\xf4Y\x15\x8bL,l\xb1j\x16\xdd\xde\x0fw\xcc\x85\xdd\xb7B*\x80yF:t\n\xaf\'\x94)q\x1e\xd2\x86\x93\xa5\xa2\xd1\xe0\xe8\x1d\x148\xb7\xfb\xcfj\xb8\x0e#\xb0\xb4\x890Y\xec\xaa\x9f\x0e\xe2\xe4\x1e7S\x90\xeb\xf1z\xcf\xd3\x1cW\xb1t\xb8\xa7p\xe5\xda\xba(\x93\x03\xaf\x1coO\xcd\x87\xc4l\xa84y\xeen;g\x99\r\x02R\xe8\x16T\xd4\xdf\xd2\xbc\x93y\n\xd9\x93\xf3L\xa06]D&lt;b\xab\x18\xd1\x1e$\xd6\x90\n\xf6tZ:8\x0foEl\x1alK\n7]\x8d\x8f&lt;\xd4][\xeb%W5:k\xec\xee\x90\xa6\xbbm\xce\xcdf\x9b\x96Uf\xf5\xe5\xe9\r\xa6\x1dGs\xc2\xb4\\\x7f\x06\xa80\\\xb5\xdc\xb6Pl\x12\xd3\xd1\xd8&lt;\x8a\xf7#J!\xc2\xe8\xde+L%\xdc\x9c\xcd\xc2\xbfh\xfa[\x8d\xec{\xdez\xf3\x95h\xf0\x95\x17\r\xb5y6j;G\x00\xfa\x17M\x16s M\xd3\x9ef\'c\x96\xad\xebR\xd4\x91\xa8\xd2\xf4/^c1\xbe\x08\x9c\x92&amp;\xf2\xfa\xd3\x84t\x06\xe0\xe4c\xf0}c\x9bU\xe9)fTk\x0e\xac&lt;=\xc0\xd7\x9b\x96\xd3M\xb9\x0fK\x97e\ry\xc9c\'?.N\xaf\xcd\xba\x8a\xe9\x9f\xce6\x15\x8c{\xa6\x1b_\xcc\xaa\xb3\x96\xa7\x9f^\x95\x8b":\xbc\xa3\x0c\xf5\xdbe{[k\xce\xe9\x943\x03\x93Z\x06\\Uv\x98RH\x9e\x176\x87\x87qWi\xaa\xac\xf6Z\xe6\xa7\xb7\xe7\xbe\xc9\xddf-\xfa\xfc;)\x14\xd6.n\xbd\x9f\x85eZ\xfe}?\x1c\xaf\xd0\x16\xb2z\x16s\xed&amp;k=\xf3\xf4yK\xdb*m&lt;\x13\x13aiCmn\x7f\xcfc\xa19\xfd4\x7f\x88\xac\xdfya\xf0\xa6\x82D\xf1f\xc9dX\x0e\xaa\xdd\x11\xb4\xf7\tg\x1e\xa9\xee\xc1\xb2\xbe\r\xee\xc7D\xf5\xf3\xfb)tv\xd5\xb6\x9d\xcc\xdao\xfa\'9\xc9m\xf5\xe4\xeeQ\xf0[\xb4\x98\x9ea\xb9\xc2d\xd221\x15\xe4\x8c+\x1a}\x94i\x95\xd9L\t\x01z|\xf6\x9c2J\x0c\xa1d\xdb\x88\xff\x00Fm\xc5\xf3n\xef\xa2p\xed\xdc\xfe\xd9\xd0~`\xfa\x9e\x9b\xb9\xae3e\x87\xa4\xf4^\xd7\xcf:6\xcc\xd2\xe7\xc2\xb0\xba\xa8\x98-e\x1do\ny_\x1a\xb6Q\x95\x94|\x8fi\x9c\xe7u\xb5\xd6\x145\xde;\xd4\xae\x07cM\xee\xbc\x1736\xc2\x9bV\x0ex=\x0f:\xc7\xdd\xbc\x8f\x9b\xbd\xcd\xa0\x95\xb2\x99^:\xfd\x94;\x13VP\r(\x85\xe9\xfc\xc3\xa8M\x19\xbd\xdf\'\xecv\xd7\xab\xe3\x1d+\x8de\xd3@F\x12\x8db\t\x9b\x18\xf3"Y\xd3u\xbd\x8c[.W]\xc3{(\xbd\xf0,j\xe1}\x8de\xb1\x8a5ml\xcbZ\xb9\x1b\xf2bn\xa9zGc\xce}\x19md\x1e\xb7+5:\xcek-\x08u\x15\xf1\x8b\x06\xcd\x01\xa6\xb2&lt;B2H\x00b\xd1&gt;b\xad\xf5\xd2$\xa9,&amp;\xdb\x91\xee\xbf\x9a3#N\xe7\xf4\x06\xc9\x0cF\x19ZI\x0b\x16\xe6&lt;\x95\xa5\x97f\rF\xcc\x1a,\xfa\xef\xa6UMRu\x13\x9a\x19\xbed\x0f\x8ew\x03GA\xd0\x86\xf5\xf1\xea?\xa1\x02\xf5|\xf1#\xb1P8\xc7Sh\xf3\xc6\x01\xa7c\x06\x1cr\xd5\xec\xd1a\x82\x008e,%\rb\x84\xb1|\x06\xa7\xad|\xfa\xfdy~\xa4?\xcb\xb6}\x0e~\xeb\x1f\xa9\xca&amp;\xae\xbbG\xcd\xf7\x9c\xfd\x9fK\xe92\x1b\x1e\xc7"e\x94\tDe#"\xd6\xf2\x0c\x130$\tu&amp;r\x8d\xb73\xdfx/~\x98\xedM\x17\x03\xae\x0b\x8c\xde\x8f\xd2\xf9\xcc}&amp;\xb3\x98\xfa?\x0b\xd2q\xbb\xceI\xea\xa9\x8177C\xc5\xed\xea\xe1F\xb8\xad\xe3Sn\xab\xe9\xcf\x9f\xac\xd2\xd1\xd3$\xf4,\xa1\x17L/\xa3&gt;}\xfa\x1d\xab\xcf\xfc\xfd\xd8\xf8\x96-\x84\'\x99V\x96*:\x19V\xd0\xac\xf2\xec\xb6\xb2\x87/\x97\xd4`^\x15s@0\x0cu\xbdU\x8a\x16\x80\xe0\x86P\xcfS\xd3\xe7b&gt;\x94\xe0\x7fV\xf6&lt;\xd7R\xf4\x15\xd9L\x83U\xac\x96\x81\x8a\x84J=[\x81\x9a\xd8\xde35\x13`\x1aZ4\tT\xef!\xdaQ\\\t\xa3p\x1a\xeb\xf9\xd6oJ\xc3\xb6\x1aXUCb\xf86\x82N[yR8\xef\xa5\xae\xcb\xbfG\xb2\xcd\xb0\xd2\xe0\x92-\xa9 \xc9u\x90\xd6!\x04xK$\xb9Y\xda]9\xf7 \xc8O\xa9\xec\xb9\xcd\xf6\x15\xca\xd6\x1b\xcc\x91\xd0\xc8\xc89\r\xf0cB\xf4b\xbe7\xa4Ic\x1amxV*,\x1e#\x1e#\xd5\x16E{\x1f!%Bt;\xde\xc1\xf3#\xaf\xab\xee-\x1f\xc0w\x9ah\xfa\xfc\xff\x000m\xed\xaf\xb8\x1b\x0b\xa8\xd1\x9en#[\xc9\x0b\x87gIu\xf3\x0f\xa6\x04\xb0\xed\xef\xe7Ug\xee\xb3^\x93\xcd\xdc\xf3\x8e\x9b\x8a\xb3\x08yv\xcf\x1f\xd8\xe4W\xd1l\xf1\xd5w\xa4ks[:\x9f*\n9\x89\x9a]l\x98b\x9d\xc0)\x8fv\x8d\xa7J\xca\\U0\xdc\xc7Y\x9a\xc7\xb1\xa33R\xf6\x182\x81\xb5\xb2\xad\xb4\xe7\xf4\xaf\x84`s\xba\x08\xd7\t\xc0B\x8e\xd5\x96I\x81cE\xc2\x04\xc6\x19+7\x7f\x89\xe9s,&gt;\xcc\xf9\x0f\xec\xde\xa7\x05\xfeo\xae\r(\xdd#\x93\xcc\x90\x88\x92H\x1f\x95X1\x8a\xd1#\nj\x06\xa9\x9cgH\xdf*\xb0\xfc\xef\x94\xc3\xe1\xdaXV\x9e\x13\'j\x18Nv\xd3aZ#&gt;\x92}\x08[\x1b\x1c\xfc\x9aul,16\x89f\x8aL\t\x81\x0e\xb1\xc8\xc2Ac\x9c\x86\xfa\xd2\xc1\xc6p\x17\x18\x87\x14\x19\x8b\x9a\'\xacE\x1f\xa2IQ:\x17F\x94\xd1+\xe4\xad\x83W\x18\x97\xd6\x8935\xd3`\xb4o\xbc\xa4x\x8c$\x8e\xf7\xbc\x0b\x9c\x8e\x81\\\xd7C\xe7#\xa0\xf1\x1a\xe0H\xf68\x19\x174$+\xd0\xc5\x85%\x93\xe8kO\x9coy}~\xd8&gt;\x7fe\xc1\xedh1\xd7\xf4N\x9b\x0es\xba\xe6\xbe\x9b\xc8dN\x8b\xd5\xe1\x87!\xbb\xae=\n*\x99+^\xb9\xb1\xa6\x1d0\xd5F\x91\x1c\x19\xd7\xb4\x1a\xdbo\xeb\x1c\xfb\xa6\xf0\x9a\x9b\x1fqIw\x97S\x11\xcd\xae\xff\x00N\x87g]\x93\xedko\xb9\xddIq\xcf\x1b\x16\xc1\x8c\x8d\xb1s\xce\xbb\x81\xd3\xe5\x0f\xaap\x80\xef\xe6}\x07/\x8fi\x9e\xa7s\xfd\xa5vm\x93\xfe\xc7\xf9\xf7\xe8N\x8f"?\xbc\xc2\xfe#\x1c!\x07\xe5`\xe5T!|\xd6\xc8\xe4V\x18\xf6y\xa29\x1c6\x8b\xe6\xac\x9f\x01=\x87\xc1\xb8\xa4\x14\x80\xd1\xf2\x1b\xac\xd3\xa4\xcd\xc7%\xe8\xd1\xe1Q\xda\xd2*\xca&lt;"%\xb3\xe4\xd5\x91^\xfa\xe3#1,\xdd\x93\'x\r\xfe\xa6\x9a\xca\xe5\x93R*7T\xc8X\xd0J\xeb\xaa,k\xcdlp\xd6\x07\xbcd\x90\xaeQ\x88\xfb\xb8WR\xb9VSi\xe8\xd1\x8b\x8c`\xe8\xa1\x8a\x8ab\x91\x84\x11U\xae\x91\xea\xd7H\xefyDz\xf9\xc2y|\xe9\x1e\xf6\xbcG\xbd\x8f\x05\xeea\x0c&lt;\xf8r\xcc\xbe\xbc\x83~\x9a.\xaa\'\xd5d\xea\xcf\x83w\x96\xbf\x95M\x07?K\xd4\xf2\xd7\xd9{\x1a)\xd2\xab\xb1\x86\xf9\xaeD\xe1\xaaQ\x02&lt;\xf0)\x9f\xd1\xf2\xda\xfe\xad\x1d\x03\xe6\x0f\xa3&gt;_\xe6i\x97i_a\x97_\x98\xe1\xd7l\x8bj\xdbz4\x9fI\x9f\xbe\xe6\xf4\x9c\x123&gt;\xa0\xab\\\xea"\x06k\x07\xc7\x93\x19%{\x8b?M\x14\xc4\x18:\xfe\x7f\xea\x1e\x8fMo\xbb\x9e6\xbf\xc5\x98\xe2x\xc1*\xac\x9eG\xb1\x82\x0b\xc3\x04\x8e\x13\x84/\x82\xf2\x14OS\x06\xf6\xa9\x9f\x01\x94\x06\xc1\xbc\xe7\x8ePd\xd5YD\x83\x1bk\x165\xa3YQc\r\x0b\x1c/\t!\xd1\xd64\xb3W\xaa\xb5\xb1i\x86\x1b\xa2l\xf8\xb6\xcd\xce\x96\x9c1"G\xaa&lt;\x02\xb1aJ\x8b\x11\x8eW\xc2\x85\xf1\xd4\xacy\xf0\xe2\xdd\xdf\xd6\xe9J[\xe4\xf5\xf8\xac\xfa\xf1\xa3x\xf4\xe5EE\x81\xcfk\xa0U\xf7\xa4{\x9a\xe0U\xecx\x8fTt\x8a\xf6\xbcG9\xa4\x05\xcfc\xccS\x88\xe0H\xb2\xac\xd34\xb7\xd9Pl\xbc\xe7\xac\x85\x02\xdb%\x97|\x0c\xf4\xa1\xf69\xd4\x0bx-\xfc\xb8\xb9\x9d\x15^\xac\xb4\xf2\x9aEHiiY\x8fpi\xae\xf3\xac\xba\x9d\x87&gt;\xe8\xfe\x97\xcd\xe9\xb8\x97a\xe1\x9c}c\x93\x14\xf5\xe8\x7f\xbc\x95\xdb&gt;\xda\xb2\xcb&amp;\xc9\xd7UV\xbc\xde\x93\x06\xf0%\xa8\xadW\x0c\x9d\n\xc9H\xda\xc5\xd1\x88\xed\xd0\xe6w\xe0\xa8\x9f\x13_\xb3\x97\xf5!\x9a\xfdT\xb9\xafkG9\xbe1\xaek\xa0s\\6\r\x0b\xc6\xac\xd7"\x08\xff\x005\xd2y\xcds\x0fy\xa8G\xc0D\x1b\xb0\xef)\xe3\x91Z@\x1e\x10sq\xa5A\xbe\x9d=\xc6KWV\x8c\xd2^Q\x9a|\xad\xf4*\xdf$\x88?0\x82\xde\xe5\xedZ_H\xce\x95Z\xc2\x13\x01\x15\xc3k\xc4\xf1\xd8`\xc4\x96\x1bJ\xec\x8d[\xa0\xa0z\xb5\xda\x8c\xce\xa0\xa4\xbc\x16\xf7\x9cQ\xab&gt;2\x87F_*,\x0fr,*\xe6\xbeE_(\x8a\xf6\x94Es]"\x91\x14\x17=\x1d\x03\x88\xc2\x88\xe30\xa4\x9fWC\xa0\xae\xdd\x04\x9a\xfa\x9f\x1f\xef\xad\xea\xe8\xa0\xf6\xf93\xe2B\x8f\x8f\xa58\x11Gm2\xa2\xb6U\xd9\xc4)\xad\xbb={\x8bZ\x8fK](]o7a\xd1y\x9fD\xec\xf2\xad\xf8\xe7F\xe6\xfc\xcdK*$\xb5\xb9\xca\x8f\xaa\xdb9\xd0\xe7c\xdfo.)\xb9\xdd\x15\x1a\x8a\x17\xb5\x8a\xe0\x93\xa2K\xa1\xe2\xb9\xb0tg\xf3R6\xfc2z\xe7\r\xfa\xa3\xa3\xc1\xe9\'\t\xf5+\x1a\xe6\xc8\xef{\xd0"y\xb0\xb5\xad\xf4\x8f\x01= \x90\xc1\x93\xc4\x8e\xe8%4N`\xe6\x15\xad?&gt;N\x18\xbc\xee\xa5\xa3\xebd\x95\x96\x04\x8b\x12\xba\x1c\x86X\x85\xd9\xe6o\x16\xfb\xbc\x8e\xdb (\xacG$(72F\xb5\xc8dY\xf0%2\xc9Q(c5\xaeR\xa5a\x83:H\xe6V\xd2/\xe0\xea+\xb6\xa7\x13\xd1y\xcd\x94\xed\xf4Y=3W?\x99\xf4\x8e_]\xd0\x02Q\xdfC\\\x8e\x00\x9eE\x85\\\xd7\xc8\xf5k\xc4s\xd8\xf1\x1c\xe6\xbeG9\xae\x11\xc4a\x04y\x06I\x0c`\xccit\x8b\x83\xb1\xfa\xces%S\x8f\xadn\xa2=6X\xa0ds\xfb\x0cA\x00\x82\x96\x04\x96\xa6}r)f\xd5XR_\x9a&gt;v@{&gt;cA\xbe\xc9\xec\xf7c\xccd-i\xf0i|\xb8\x92\xeb\xb9\xefc\xab\xba\xda\xc2\xbe\xdb\x0fB\xc3\xce\x16\x1d\xe4\x17\xa2\xb8\x94\xa3x&amp;\x97Y:\xa7\x049Q,\x04\xa3\xb9\xa4\xe9rj~\xf5\xf8\xe7\xed\x8e\xaf\x06R9\x96\xcc\xf7.\xb6\xc0W\x7fZ\x9f\x86\xb4+\xb9\\\xba\x14\xdd\x93\x98\x90\x1e\x96\xdc\xa4\xe7K\x91\x87\xc2Hj4\xc6\x91\xaf!\xe2x\x98|\x0b\x1c\x81\xe7u\xfd\xe7\xb2\x15V6\xc44\xa8\x87\xaeK*\x98K:\x87\xfa\xcc\xf4M \xcc\x13\x08\xd9\x18\x8fl\x91$\x86[*=\xca\xac\x84\xf1\x14\xf8\xc9%l}\xb0{\n\x19w\xf7\r\xd3\x8f!\xc2\xbe\xa1\xe3\xe6a6\\\xebqM\xd7&lt;\xbf\xa8r\xe0c\x04\xc1eW\xb0\x92yQ`W\xb5\xd0\xb8\xacz\xc5{^"\xaa:G\xb9\xa4\x05H\xc2H\xf2\x88\xf0\x12\xda\xafF\xe1\x99\xafO\xdb\x9b)[\xd0\xb3\xe4\xe5&amp;\xfa\xbd/\xb7\xaf\x82\x8au\x93\xb0\x9e\xa3N\xfb\xd8)\xa0\xea+\xf3\xd0\x91\xeej\x98{\xf1\xc6\x97\x1cvg\xe8v\xf5\xf05&amp;R9c\xe1\xbeL\x98\xe7\xa7C\x8c\x19)m\x8d\xb5]\xce\x0e\x94\xd0\x16&gt;=\x9e\x0b\xdbb\x91\xe0(.,w\xa9|Y\xb0\xe32\xa6\xce\xa7\xa9\xc6\xe9?Y\xf0.\xff\x00\xd3\xe2\xf9\x8f\x1d\xb3\x82\xd3\xdbYQ\xa1\x16\xc2yZk\n\xd2\xa1&lt;i\xe2\x87T\xda\t\x17R\x90\'\xd5\xc1\xb6\xb2\xa9\xba#\xc8\xbeq\xe1=L\xf8\x01\xa06.\xc3$\x04\xd50\x99.+\t\x05\x13\xabk3\xc3\x9f\x12\xbd\xb2j\xde\xb6\x8as\x1a\xa8&gt;\xb0y\x15\xcf\xb2 \x95\xb6\x05$"\x1c\xd6\xabD\xf1\x98\x0b\xe4DP\xdb\xde\xa3\xf3\xdc\xb7O\xa1\xcb\xc1\xed\x99;$\x1es\xa0\x89\xc3\xac5\x9c\xec\x0e\x85\x80\xb7\xa8\x868\xde\x92"\xa2\xc0\xaej\xc8\xe7\xb0\x82=\xcdx.Tt\x9e#\\\x0b\xde\xd7\x08\xf20\x92)\x84b,/#t\x8b\x07\xcf\xb5}\xcb\x99\xed\x94\x12`\xd7\n\xefS&lt;\xd5M\x1czi\x05N\x02K\x92\xa9\x96\xc3W\x89&amp;\xbdA\x940DP\xf9q\xe7\x13\xd21\xbb\x1c&gt;\xaa\xa9\x80p\xe1\xbek\xd8\xfat\xbadI\x95\xddesQm\xce\xe9\x1c\x04\r:\x1a\x9e\xf3+^\x13\x18I\x11\x8f[\x89\x11I\x8fKm]\xd6\xe0\xfdm\xd1\xa8\xeez&lt;\xafaw\x1c$h\x1d\xf3\xaeQ\xab\xf4g\x93m4\x95Z\xb8\xb5YK[mF\x1e\xc9\xb9\x89v\xd6Z}\x15\x1a\xafQ\xb3\x0c\x87\xad\x86k\x18\xbb\xc8\x8c?=\xfd=\xd8\xf6\xc6\xf5\x94t\xb4C\xf2\xa5\x8fQ85\x85\x9c;\x17\xa2\xad\x84C\x0c\x8ca\x04\xf4V\x031\xb0\x9b$\xd6\xc1@f$4\x92[#2I^\x87\xe2e\xacE\x06\xc2U;\xc5\xba\x1d\x0e\x12\xe9[\xb2r\x0e\x82\xe7\xc1\xca\xd5\xcd"\x12"H\xe70\x90yQd{\xda\xe0^\xf68G&lt;o\x81\xcfa\x03)\x84Y\x1eA\x91c\xa4\x0eY\x1b-\'\xafon\x7f:&lt;\xf6\xbb\x93\xd6^\xc2\x0b\x9a\x89r\x07\xa6\x9d-\xe4\x91\x9an\xd2\xbc\xael\x9b)J\xd8E\xd8T+RD\x98\xe7\xa5\xb7\xd5\x1da\x92\x9f\x1d\xa8\xc6lH-\xf3\xb9\xba&amp;y=N\x83M\x87&gt;\x9b\xe7\xddU[\xf3\xba\x81by,F(]\\\xa2\xf3,\xc2\r)\xb1\xecV\xd8\xb5\xd7\xf9\xae\xa7\xd6\xf3\xff\x00M\xc9\x8em\xf8\x97\x80\xf7\x8f\x9cSN\x9a\x04h\xd9\xae\xde\xe8y\xfd\xbd\x94\xebcQ\x85\xa4\x9c\x9d\xc5Yz\xb0\xc0\xc8\xd7\xd1\xdd\xd4s\n\xba\xb5\xfd3k\xf2?\x9e\x8f\xb3n\xbe\x1b3\xa7\xde\x12~\x17\xbbz\xb3\x834z\xb0\xce\x9fOi\x020\xfe\x92\xa5\xb6\xd1a;\xe1\xab\x12\x0ca\x0c\xf8\xfe\x18da\x1c\xa4&gt;\x96i z\xd5\xe0\xd4\xfa\xe1\xc0\xd2\xa5\xef\xa4\xcf\x0fF\x19(]j\xd2k\x16\xc5\xa1\xa2\xe8j\xee\x95\xf6\x97\xf9\xcdR\xe7\xe6y\xee\x8b\xce-\xa2+\\\xd3\x1c\xe6&gt;\x05{\t\x0b\xd5\xaf\x11^\xc7\x02\xf75\xd2=\xccp\x84(\x88!J\xc2\x82K:\xed\x82\xce\x98\xb6\x12\xcd\xd9\x9a\xcd\xc8\xef\xaf\xe7\x8ao\xa5\xe0\xba|\xba\x0f\xa4\xb3V\xd3\xc9\xf5\xf6n\x1a#VKEzr\xc2\x8a\x8dM\x0eUt\xa9\xb3\xe6\x11\xe9\x99\xdc9\xff\x00E\xdd\x9f\x96r\xcd\xde\x06\x10\x94\x129\xfa\x0e\xa8\xfat\xc9\x9d\x12v}V\xd3c\xbf\x9f\xd0\n\x8aS\x88\xf0\xe7\xc11\x1e\xcf2m*\xf4\xb9\r\xdc\xd7F~\xa5[\x01\xf4\x17\xcf\x9f]h\xc3\xb1(\xd3nq\xfc\xeb\xdf~`\xe8\xd7\x99\xbdeV\xfc\xf3d\xe4\xf3\xdc\xfd]\xd2\xff\x00\xe7\x1d?:\xfe\x98\xdc\xdc\x8c}Oe\xd2._K\x18\xfej\xd8\xc04VflY\x03j\x81\xe9\x08\x0b\x84\xd1h\xf3\x05\xb0\xa3\x9aV\xe8!\x11B\x8e;\x0b\x1d\x18PF\xa6x`\x91\xfe\x07\xcf\x12\x06\x92\xe8\x9e\x82r\xc0h\x96\x0b[\xe0\xd6kX\xab,[\x01\x84\xceJ\xf7I9\xd0\x944\xe9Ur\x03\xe9\xef\xb0r\xe0\xb9\xc3\xe9)\xdf5[\x15\x1a\x95{]\x0b\x9e\xc7\xc8\xe7\xb1\xc0\xb9\xcd|\x8es\\#\x88\xc7\x88\xf2\x0c\xa2\x18\xc28.\xe9\xdc\xd3C\x81\xba\xbc\xaeJ\xb9_\xab{\x96\xa5\xab\xd3\xe3s\x87X\xbd\x0b\xdc\xf5\x90te\xe7V\x16\rdH35\xca\xcc\xb7G\x97\xa5x^g\xe9\xf6\xba|\xc3+\xe8Z[\x12\xb8\x97X\xee\xa6^QKiS\xc8\xda9q\xcfU\x84 \xcf]\xf2\xac\xeb\xb6\xb4\xe8\xb4\xb4\xcd\xe9\xf5\xf3\xeabt\xbb\x038\xe4~\xf1\xce\xb2k\xc4\xb7E\x0e\x9d\x13r\x1a\xdek\xd1\xe6\x12\xf2\x14\xba\xd9\xbf`\xf1~\xff\x00C!\xaa#\xd8(\xfet\xec\x9c7\xd8s\'K\xca\x13vI\x99\xabz,\x96J\xb2\x0b&lt;g\xa1\x04Y#]\xf7Iq\xa7m\x18jmex\xd5C*\xea\x1cJH\x83\x1a\xc7\xb3\xde\x8bg_{Uw\x9f\xad\x90b\xb1k\x93\xc5&lt;\xf7\x18\xc4"2B\x8cB\x10\xa2\x10\xa43c\xb4\x19^\x8a\xa2I@zC\xf8\n\x0c\x87Gt&amp;k\x10\x15Di%$g\x82r\xc5Xg\x1a\xb1\xe1\xef\x1dU!Z&lt;y\x91\x1f\x13\xbc\xd7\x15s\xd8\xf0U\xcdt\x0e \xde\x0b\xde\xc7\xc8\xf7\xb5\xe2&lt;\xa30\x85\x97\x16R\xc1\x86\x90x\xec\xd2\x9b/&amp;\x83\xa6&amp;vMM\xa2vvJ\xcb\x95\x87.\xa8R\xb0\xc9\x1b,e2\xff\x00G\x84=\xeb\xd2\xc7\x80\xb9\xe9U\xa4\x04\xb9\x1d&lt;\xf5u\x1a\x9a\xf6\x99\x9a\xadI\xd1\xb9^s\xb9WSo\x0f\x87\xda\xe6Uw\x16&gt;\x9b\r\xa7&gt;\x9a\xf6\xba\xda\xfa\xaf$e#\xc3\xdey?&amp;;\r{\xf9\xd4l\xf6u\xaa\xeei1[\x7fw\xcf\xf5`v\x9b\xbeK\xa0a\xd2\xa4\xf2j\xc2\xf2\xb0Wu\x1e\xaf\x95IU\xb1\xcd\xef\xcfAQ:&gt;kw\xf1/\x99\xe6{\\\xfe\xbf}\x9d\xc7\xb5{\xc7\xcc}\xb3F;\xbc\x86\xa1-\xa3\x99T\xf4\xfc\xfeM\xfc\xf2\x1e\xca\x9a\x8d\x94\xa2\xb1\x8e\xaf=\x83&amp;\x8e+\xfd\xe4\x8c\xd6\xf8R\x1b\xd1\x98\xd2S#4I\x02\x13 #\x18\x80\xb9\x13\xd0*\xb5Dz\xa2\x86_yDW"\xc6_/\xa1F\xbf\xd0\xb5\xca\xe9\x1a\xafXX\xe2K\r\x10\xbe`\x04\n\xb4\xd0\xafc\xca9\xcc|.V\xb8G\xbd\x8f\x05\xeek\xe4y\x18\xf5\x850\xcb\t"L\xcf\x81\x95x#\xe9\xa2\xdeFyT\xe9\x8d\x95-M\xab\x91G}\x96\xd4\x94:\xaa\xa6\x86V\x1aX;[\x0c\x1c\xba\x9by\xec\xad\x8ef\xbe\xb3\xcf\xbe\xa3\xa8\x93\x81p\x9dp\xbc\x89\xfd\n\xfa\xb0\xf1\xbb\x8e\x951$\x9e\xb2\xf9p\xdc\xd4\xf0y\xb5\x0ft\xe6\xd7\xd5\x17GM~\xc1\xbbL\xefh\xd5\x9f\xe7\x0coC\xe79\xef\xa6\xad\x95\n\x96\x89_&lt;0\x0e\xde\xb6\xd5Z\xd6erWv\x8e\xcb\x91\xcb\xb2\xbe\xe4L\xafJ\xb99\xf4\r^\x0f\xd1s\xeb\x80\xe6\x91\xb4\x89\x16\x17\x13g\xa9\xa6SUdN\xa1\xce\xbb\x93\xdd\xc8\x0e*\xfe\xef7ag\xceE\x89\xfa\x84Nu3\x15\xdaZ\xe6L\xc9\xa2\x81B\x95\xb9\x98\x11\xc8P1\x80=\xaca\x85k\x14\x17#VGy\x16E\xf7\x9c\x0f\xbc\xe7\x02\xd5w\xa1\xf2\xab\x81G#\xa3y\xcaQ\x1b$\xf6RV-\xeb\xcdT+z\xf8i%\xce\x8c%\x0cti\x1e\xf2x\xa1\x1c7\x88\xf5k\xa1{\xc6\xf9\x1e\xf1\xbc\x17\xbd\x84\x11\xe5\x19\x049\x85,\x19#\xb7-\r\xcf\xe8\xba\xb5Y\x1c\xda\'H\x85rs\xc6l\xeb\xee\xaa\x07H\xe7Z|O\xd0\x05\x1c\xdc=u|\xff\x00\xaa\x17]\\6N\xc3\t\xd8\xcfq3*C6\r\xcb\x96\xa7\xd1\x174\xf57\x12\xa9\xf5t2i\xd6.\'\xd8\xcb\xc9lzB5\xf4\x1a\xdb\xc6\xef\x98\xdeT\xdf\\{(R\xb4g\xd6\xed3\x99\xbd4\xe1\xb0\xb7\xf9|\x9ab\xc5\x91\x0e\xb3\x1d\x8eVWY\xd7\xd8+\xca\x86z\xe5j\xb9\xf0\xec\xad\xa6GD\xc8\xeb\xdeR\xd5\xdbZ\x1b\xb9v\xa77\xd0z\x98\x05_u\x9d\xc1ze\xb4yD3&gt;\x8c\xf9\xd7\xb8\xdfW\xb9\xce\xafA\xadx\x88zW:q\x1f\xc5J\x98\xa8\xdfs\xba\x0ckY@p\xda\xd9\x15\x88\x82y&lt;\x90\xab\x98\xb29X\xe9\x1c\xef82\x95\n\x0f\x95\xca\xac\x11\x1cP\xa9\xe3\x9e\x17x\x87\x10S\x96hS\xcf\x8d$\xd6o1\x19\\@\xa9\x04\xa7\x9fP%\x08\xad#\xc1\x1dD\x8d\x0e\xf0\x14B\xb9\x8e\x05\xef\x1b\xc4y\x04\xf0H\xf1\xb8C\x169A\x99iS\xa4S\xa2C6\xb3S\x17MY%M\x82\x11\x0cj\x9d)\x9dr\xf6\x03\x176\xc9\x9e\x87\x0b5\x97\x08\xd3\xd7=Odw\x1c\xa2\xab\xaf\xd0\xf4\xf3s\xa5\xdb{Bc\xed\xb4\xb6\x19\xde\x16\x84N\xe7\\\xfa\xb7@v}\xad&lt;\xeb\x06\x9e~^5f\xd8\xfc\xcb\x7f\xd9\xcddz\x8b\r\xd9\xfa7,\xde\xf2\r\x0b[M&amp;\x06[Y\x10\xf1d\x0b\xc3\xe6Y\x93\xa1X%\x8bUoK"\xdd\xd4h,\xaf\xc5\x89\xacc\x8c\x8d\xb2\xc6\\\x87}u-6o\x8f\x821\x9a\x8c\xa1\x0e\x92\xdb\xbcpn\xd0\xefG\x9a\xe8t\xfd\x1ct!\x9ft\x93\x90\xcd\x97l\x1a\x82&lt;\xb0\xf1zt-k/\xa1\xecD\x91Q\xad\x91\xfek\xa1\xf2\xbc\xb0\x88\xa5("\xf4\x86\x8277\xca\xcfp\x94\x13\xf9\xaf\x91\xc6C,l\x86\x91D\xc3\xc3x\x92\xd0&amp;\x83\xcaD!\x15\xdee\x8b\x16`\x8a\xc5\x14\xa4\x92\xba\x1d\xcb`\xa1u\xe0\xdaUH(d#\xe2\xac\x92\xdd\rT\xcc$\x07CbH/V\xb9\xd6\xe2\xb6\xf0LupQ\xae\xa4\xd2J\xa9\xad\x84\x07\xba\xa0K\x19Z\x0e/W\x9a\x92\x80vcQ2\xcf\x1eZ\x8e\xeef\nVv\xdd3\'gKO\x8eeP3\x11\xb5\x98ah\xafR#&lt;\xc5\x1f\x14V-\xd6}\xd4\xb6\x8bm\xc5\x15\x86\xfa\x03O\xea+\x93_\x99\xa6[R`\x95\xc8\xf1\xa1\xd8@"\'\xa4=\xd2D\xf8g\xaa\xd7\xc0\x97\x10\xc6\xdaVJ\xb2\xb7u^@\x8ewy\x08\xad"ff\xce\x02X4T\x87\xcfiVJ\xeb\xdc\xb7\xaeH)2\x83\xa79S9Wr\x95|R+\xa1M\xae\xc3\xab(\xd2%v\r\xa6X\xa0t\x92C\x1c\xf2_\x08\x9e\xff\x00\x02\x9ek$"\x0b\xc0\xabU\xa0\xfb\xc8\x8b\x08\xf1\xba\x12\xbc\x0f\x86K\xe3\x10\x19$\x8a\xf0d\x96\x0f\x84\xb6=4\x88m\x96\x01\xa43&lt;\xf8\xa1i\x85*g\xbc\x82y\xab\xe9\x1a\xefxEB\xb8\x88\xf0l\x9ce"h\xde\x8d\x9f\x9bk \x1a]\x10&amp;\xc2\xb2"(2\xca\x12,&lt;\xaa\x93\xc4\x9c\xe8\x8d\x</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495715-mercosur-impulsan-que-los-estados-legislen-sobre-el-derecho-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Orgullo de ser</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>La mirada de Flor de la V sobre la marcha de la comunidad LGBTIQ+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Con la participación de miles de personas, la comunidad LGBTIQ+ asistió el sábado pasado a una nueva jornada de celebración, visibilidad y fiesta durante la edición 31ª de la Marcha del Orgullo. Quienes estuvimos allí comprobamos que el evento crece cada año: esta edición contó con cuarenta y dos carrozas que transitaron llenas de personas bailando, destilando purpurina entre Plaza de Mayo y el Congreso. El clima fue cómplice y acompañó con un sol que gritaba libertad.Hace muchos años que participo de las marchas y cada año las energías se renuevan al mismo tiempo que las emociones. Es inevitable no conmoverse al ver tanta gente unida con un solo propósito: celebrar el amor. Entre las personalidades destacadas participaron Moria Casán, Lali Espósito y Florencia Peña. Aplaudo que hoy elijan unirse a nosotres, ya que lograr una sociedad más igualitaria, diversa e inclusiva depende del compromiso de todes, no solo del de las personas del colectivo LGBTIQ+.En esta oportunidad, fui invitada junto con otres influencers, actores, modelos y periodistas por el diseñador Jean Paul Gaultier, que por primera vez participa de la marcha en Argentina. La presencia de esta firma francesa en el marco de este acontecimiento tiene que ver con visibilizar el compromiso de las grandes empresas con las políticas de diversidad entre sus empleados. Esto debería ser un incentivo para aquellas marcas que no las aplican, algo que ayude a comprender que el futuro es de todes, y que ni la orientación sexual ni la identidad de género deben ser impedimentos a la hora de ocupar cualquier puesto de trabajo. No solo ha sido un día de celebración, sino que también fue un espacio para el reclamo y para la conquista. Gracias a esta marcha, la Argentina tuvo grandes victorias a nivel legislativo, como la Ley de Matrimonio Igualitario, la de Identidad de Género o el Cupo Laboral Travesti Trans. Conscientes de que falta mucho camino, treinta y un años después, seguimos marchando y pidiendo por nuestros derechos. Como siempre, pusimos los reclamos sobre la mesa: basta de transfemicidios y travesticidios, basta de patologizar a las infancias y adolescencias trans, queremos acceso a una ESI no binaria y no heterenormativa, una justicia con perspectiva transfeminista. También pedimos que exista perspectiva de género en los medios de comunicación, información accesible sobre tratamientos hormonales, transmasculinidades y personas no binarias visibles, y seguimos exigiendo la aparición con vida de Tehuel. En definitiva, pretendemos vivir nuestra orientación sexual e identidad de género libres de violencias y discriminación. Todas estas demandas se encauzaron esta vez bajo el lema "la deuda es con nosotres".Creo que parte del crecimiento de la marcha puede deberse a que, a diferencia de otros años en los que la comunidad LGBTIQ+ recibía hostilidades sin que el resto dela sociedad reaccionase, en los últimos tiempos mucha gente empezó a abrir sus cabezas y sus corazones y a tomar conciencia de que hacer la vista gorda también implica complicidad. Sobre esto último, siento que si bien este año han crecido los discursos de odio proferidos en el sector político y en los medios de comunicación, también es cierto que programas como Gran Hermano generaron polémica y rechazo masivo por los discursos de odio y comentarios homofóbicos por parte de lxs participantes. Creo que antes estas alertas no se encendían porque ni siquiera eran consideradas como ofensivas estas actitudes o discursos.En fin, ojalá la próxima marcha sea el doble de lo que fue esta, y que la celebración se multiplique con cada edición, sumando a quienes comprenden que una sociedad más libre se consigue con empatía. Cada año somos más lxs que podemos mostrar que estamos orgullosxs de "poder ser". Que eso siga ocurriendo depende de todxs.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Por Flor de la V</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x04\x07\x02\x03\x08\x01\x00\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x04\x01\x02\x05\x00\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xe4\xb3b\t\xb4\xb1\xe5\xa9\xc3\xc9\x06C\x16\x1f\xdd+\x18\xe4\xebg`\xd9\xe1Z\x84\x1f&amp;8g9&amp;}\xea*\xe8\xb2\xeb\xeb\x93\x0f\x89a^\x19\x8bp+A\x80l3/\n\x83\xfb"\xaa\x03tn\x82;\x99Tk\xaa\xfe\xd2\x0er\xe1&lt;Eh7\xaa\xf2a2\xb1\x0eXm6\x06{#]c\x0f\x0b\xec\xee#\x9c}\xf6\xa0\x08{\xf4E\xbc\xdf\x1bgI\x1d\xe1\x8dM\x06y*_p\xcf\xa4\xb3\xdaU1-\x12:\x0f\xd3\xcd\xd6\xeb\x1a\xd8\xc3t}\x11\x82\x11*\xc3hU\x96\xade\xe2\x0e\xd9sht5\xc5C\xd6\x9a\xc8\x91\xf9k\x85.$\xf8I\xd0x&lt;\x0fCO\x95\xec\xaa\xcb\xa3\xd9\x05\x04\xb8\xca\x88\xea\xc6M"\xc4 \xce\xc8\x1f2$\xce\xa5\xe8\xa2\xb9oV\xf2\xbdX\xe1\x88\xc2a\x8bz\xbe\x9e\xe6\\\x17\xf6t\x1b\xf8\x0eS\xccZFi\xe93%cmy\xa3\xd8\x1a\x04G\x02\xe0rT\xa7\x1a\x13^\xd7+\xef\x95\xb9\xf4\x98\x99`U{\xeb\xcfd+\x9d\x93\x16\x84}\x81W&amp;R\xa2\x86de#\xceQ\x88$\xd7]j\xb45\x10\x08V\xb30I(\xaf\xd0\x1d\t\xd0\x9c\xbf\xa0\x92\xb1\x11,o\x06&amp;C\xe0\x98N{\x12\x1eW\xb0"\nr\xedber&gt;\xe2\xc9\xc0\x186\xa6}1\x0e\xe9$h\xdd6u\xfa\xbfl\x0b\x18&lt;\\\xb0\xab%\x8a+\x16T\xdc9\xe8\xfa\xa6N\xbc/ARa\xba&amp;\xd6\x1c\xfc\xc6K\xad\xc5\xeb\x7f_io\x98\x97\xa2\x06\xf7u?t\xd2C\x9d\x135L\xa4\x042w\\\x96\xbeb\x1aF\xb2\x0fii\xd6\xa2\xf4g5)\xb6\x92\x90\xe7\xf5Kh\xf3&amp;`\x18\xcbW!\xc6\xe5X\xdf\x0c\xb7\xa5(\xcc\x9fho\x89.\xc6\xac-;-3\xd6\xb5ka\x13=\xc2\xa6\xd2\x0e\xd3,5\x03\xce\x92\rw\x07\x95\xba\x91U\xd0\x81T\xcf\xd1\x02\nA\xc6\xd4\xe4~\xa5\xe7\x1e\xa7`\x1c\xaa\x9bb\xc2\xd3J\xbe\x8ew"\x0e\x1e\xf2\x1b\xa9t\x8fM\xea\xaf\x03\x8e\xd1\xb6y{I\xb8\xb3\x01v\x90\xd7\xd0?\xc29L\x8b\xdcw&gt;\xe0\x1e\x98\xdf\xd0?L\x19\x9d;\xa7\x8br\\\x926\xf95S\xb4D`A\x01[\x98\x92\x19\x07;6C\x1d\xdc\xdc\t\xd8\x0c\xc7\xa4T\xc9L;\x02\x8f\x85a\x91 \x9c[@w\xb4=\x96\xe7\xe2\xf5\x99j\xdd\xf2*\xeaC\x81\xb0\xb8\xfa\xc9\xaf\xd9\x04\xfd\x1bW\xf4\x05!\x87,i#w2\x17az\xbb\x7f\x91\xd51\xe2\xc0=%X\x13-\xe1\x0c\rt&lt;ri\xb3\xba/\xc6\xc8#)\x9bG\xd6\xf2\xa0\x1d\x1d#\xce&lt;R\x14!\x18\xecB\xda\x08\x99 \xfaLw\xe7\xa6X\xcd\x96f\xa7\xb8\xea;\x16\x16\x0b\xa8\xe1\xe68\xf51g\xa1g\xc8\x9c\xb0\xb9\xdb\r9\nt5\xd8\x8b\xf7\xbai\xd2\x18\x07\x96\xb7h\x84OE/\x0cA\x99\xf6\xe8\xed+M\x0e,\x9a\xe8}\x977F\xadgI9Z\xaf|u}\xb14Xu\xb5\x96\x1a#\x1d\\\'q\x9enR\xb0.&gt;^\xb2\xeb\xe2s,\xd0\xa5B \xc9E\x9e\x17\xa2\xc6TnKI\xdb\xea&lt;\xb2\xb9\x8er_P\xf2\xbfd^\x11l\xe5\xd2\x1a*\xf2\x88\x19\xb1\xe6\x91\xb5\xcb\x8dK\xaf\xe3\xee\xaa\xf4\x8bN\xb9\xb1\xfb\xabh{\xa3Z!\xfd\xb3T\xc6\xbc\x9c\x00\x8c\xb2\x0c!\xdd\xb7\x12\x1b\xd0\x93v\x8a\x90\xda\x16\xbb\xd6\xcc\x14\x9f\x95,\xf1\x82\xa9zZ\xc3\xde\x8c\xfe\xb1\xa5?\x90w\xd9B\x82O\xb9\xa9L\xb7&lt;i\x9eYr\x0f\xc2\xb8j\x89l\xc39a\xb0\xad\xf2\xf2\xe9\xd2y.Um\x9bz\xb4R\xd6\xcb\xa5\xae\n\x0fAL\x16\xef\x15\x01\x1e\x8e\xf4\x93^\x98\xd4\x8e\\\x83\x9bF\x98\xb8\x83N\xc7\xd0\xabW\xcb\xf8@\xeb\'\xa4\xe4\x14\x14\x94\xb9w\x11\xa8\xa4\xcb^\xb5\xdf@\xd7O@*3\x06\x9d\xe9\x17j\xa1;&amp;\xa6\xe7\xcbT\x1e\xf6i\x1cE\xa7L\xec\xe5C\xb1\x85\\\x99\x1a&lt;\xfbk\x08\xf2h\xa6a\xfe\xaa\xbc\xd9\xd2\x01\xb8Z\xd5\xa4`M\x1c\xb9\xf5K9\xc9V\xb9NAU\x87\x16|S\x9bjG*d\xe6ivy\xf8M\xc2\x0b\x8f\x85\xa4!uk\xd9\xd4\xbd\xf0\x9f\x15\x19\\\xb5\xb8\xde\x9a\xab\x9be\x03\xae\x01\x8a\xcb\xaf"B;\xb7\xd7s[=\x16\xa7 \xd2\xc7-$\xe6\xcaW\x9f\xa1N\xf1\x80=\x9d\xd5du\xb9\xae\xc9\xdd!f\x1b7V\x81\x80\xcd\xc8Mq:\xb5\x1f\xd4|?\xd16\xa5u\xb2\xab\xbd\xda\x12\x98\x9bf\x9e\xa1\xd9\xea\xfb2\xb0\x1dwh\xd9\xe1\xd46\xf2\xbde\x0c\xdc\xfb\x13\xa0Gt\xd1{,P\xc5\x1fI\xf3U\xb7\xcf\xab5\xef`\xf2\xbd\xce\xca\xb0k\x9dz/\xca\xf9\xb0[b\xbd\t;\xa2RWk}9tF\xb0\xa9\xc2\xa2\xdb\x1aW\xa1B\xbe\xf2Zz\x96Z\x04\xc6\x96\xf1\xe2\\K\xb6\x0en\x9f2\xf4 \xc5\xcb\xd5\xfbE\x0c\xddZ\xa9X)\xb7$uH4\xd5"Z\xf4\xe2\x93\x02\xed\x80\xfdA\xdaCIc\xfc\xf9\xdb\x1c\xa0\xab\x8a\x07.\xba\x83UV\xcb+j\x02D\x9e\xae)\xdc\x83\xab$\x0653\x82\xcd\xca\xc7I\xe5i=\x1dM\x1e$\xc3\x8cJ\x95\xbe\xe8\xdbM\xf9gyF[\x12I\x90\xb4\xca\xd7\x9a\x04\xcd\xd0)\x87\x9e\xebo\x02\xd9\xf5\xde\x82N0\xae:Q{8[tm\xab\xd66\xabQ[\x9dz\xd9\xfbu[[\xbd\x92\xa5.2\xad\xa6\xd2\xaalf\xe12\xb6\xbc+L\xb7\x90\xafz\x8e\xcb:\xf5\xcd\xc3F^k\xbfE\xf5\x05S\xa4g\x06\xb8\xd2\xb6\xe2V\xc5X\xb7\xd1\xc2\xadUz\xd0\xce\x1d\x0e\x94}\xe7F\x96\x8cW=^\xf8I=Q\xd80V\xb2\xcd1\xd3\xb5\xf1,\xa7}\xd6\xccc\xb5(\xc2\x1bky\xbd\x06\xa4G\x9bUt\xb1\x80\x96RvD\xfa\xd2\xac[\x8b\xfa\x96\xb3\x13\x18\n\xad\xafL\xdc&lt;^g\xecD\x05\x85\xed\xd1\xfc\xb3\xd1\xb5E4\x1d:?\x88mBf\xc3\xa5\xe6\x16\x9a\x92\x95\xaa\xe3\x88\xa4\x0c\xd8\xd5(Y\xb2\xa9z\xf9\xcc\x94\xbcj\x1e\x80\xe5\xfa\\\xca\xe3\x9a\xde\xa6Z\x11]\x1bk/=)\xcc\xf6\xea-Co\xe7\x13\xaaiXvr\xf5\xc3P~z\xba\xc8\x01\xa9\x9bnR$5\x01\xad\xef\x14\xc5\xbaU\xfa\n\xb8\xb2\x91\x12\xd0\x97\xcf\xcc*\xday\xc6\x1f\xd1#\xcdC\xf4\x8f\x1dY\t\xb5yQ\xbd\x12\xba\x12P,.\x07X\xcdG\xea\xaerxE\xfb*\xb3,\x9fWZ\xaa\xdbs\x974\xb2\xac\x16\xfa\x96\xfb%j\x1aL\x96\xbaM\xee\xfbE\xd9\xba\x0b.\x95 \xcb\x91\xa4\x16\x80|\xb9^\x05\x15\xbd\x82\xb2\xb8[\xdb\x99)\x84\\aD5Z\x90\x1d\xb5\xcc\xdd7T\xe6\xec\xcfD}\xdc\xdeq\xca\x0f\xa4\xa8\x98\xbb\xd5~\xf0\xd4\xdat8KU\x14E\xb1\xeb\x9e\x89\x84\xc0\xf9LwH)z,\x9a\xda\xcc/#iQlp\xf0\xddNd]Z\x1d\xa1\xb0cF\xf9m\xa2\x9f-C\xf1\xbb\xe5f(k\x04\\\x03*\xff\x00)\xcd\xf6\xef;L\x01\xee U\xe5\x80\to\xa8\xa5[S\x9fcs\xa9 \xf2\xc1\x8b\x9f\x9c\xee\xf0\tm\x00\x196mo\xc4F\xb4\xa6\x946_G:\xf6\xbf8\xf7\xe7"\xe7i|\xabn\xb4X\xd5\xd4\xac\xc6\xb3\x9dr\xd4\xceTD\xda\xf7F\xcfo\x1fh\xc1m1k\x1a\xb9!\xe0X\x00\x92\x15\xb6\xe1\xb3\xc3\xde|\xf6){l\x84\xafp\xb6\x95\xe5\x96\x81\xd8j\xc7Ms!\x81m\xd5\xfdB\x93^h\x99X\xd7\x83!%,\xef\x86hI\x91\xe9`$\xa5\xde\xde\xbe\xa5\xe8\x9b\x85\x1d\xa1\xa1O\xe3\x9e\xb0\xe7\t^\xe9\xad\xe5\xf5\x18\xef\xc7\xb7\xcc\xd2N][|:\xe7a\xcb\xd2\x84[)\xe54/\xf87\x1d\x07lZrP\x9b\xe9\xf4\xab\xce\x85\x1c\x8f\xc9\xd95\x15\xc7\xcd^\xcb \x9a\xccw\xdf*\xf45\xee\xb5\xe6\xfc?N\x89\xa0\xd2\x93\xa95\x0f\xc1P\xa0\xc2x\xb7\xea\xde\xda\xaaY^\xf2\xf5T\x9f\xb9\xed\xb5\xb4#\xc5\x11\xd3\x04\x9en*81)h/\xe1o$\xd5J[\\Vi{\x08L\xb1\xf6\xf3(\x18\xb1\xeb\x9c\xb6\xbfJ)\xb2hK\xdc\x90AMZ\xf9ot\xbd\xf3\x93\xf8+\x0ep\xb6l\xf9E\xeaS\xa3\xf9\xebkWL\x7f\xabvv\xde\x02\xad\xcc\xf0~\x9eN\xd8\xfb|\x97\xd0"xS\xc5\x9d\x13\xa0\x9e\xdb\x00w\xd2\xb1\x91D\xc6F\x16\x0e\x8c$\xfd4\x87\x84\xef&amp;\x83\xed*\xefW\x01\xf5\xea\x82\x94L\xeb7\xa2\xb8\xcb\xa8\xc2\xad&gt;\xb7\xd3\xdc\xac\xc0\xb3\xbe!\x92iJ=5\xd52\xc3\xec\xeeo\xd6a\r\x1a\x8e\xd6\x12\\\xd4\xa8\x0e\x0e\\2\xcc\xf3X\xaf\x8a\x1a\x8aq\xafz"\xf6\xaa\x95\xf3\xab\xb71\xbb!\xeb\x8a;3\xcd\xfa\x0e4[u\xae\xce\x9fH\xd4`M\x8aKY\xf4wiY\x8a&gt;\xf9\xa9\x9dJ\x06\xden\xc1\xd96\xb3\xd1:\xd1\x95\xe87;\x8e\x82Sam\xe8MG\xa9\x8fo\xbc\xf2gU/suZ,\x103\x9d\x89Y\xc6\xd5\xc9uAcN(\x9a\x9b)\xee\x80M\x88\xfb\xd8\xaa\xf90g\x86z+J,\xa4@\x90s/\xd9\x9c\x9d\x9b\xf0\xa2\x9f\xed&gt;Z\xe9y\x81\\\xd9g\xd0\xba\xeb\xd8\x01\xf7\xc4\xa7\xae5`2\xef\xc5\xf3$@h\xe8z8\x91\xcb6\xd5\\\xc2u\xf8g\x81\x85\x12\xd5\xc8\x0e\xbe\x88\xbb\xee\xee}\xbc\xd3n\xa1Y\'\xbfEH\xfdC.\xb9 y\xa0\x95\xa0\xa0\xa9\xed\x81\x14\xbd\xb5S\x13\xa7.\n\xd4\xb5\x16\xf6\x04\x93+G\xa9-*\x82\xb5\xe9\xab&amp;\xab\xb2\xfd\x17\x8f\xc6^\xb5}\xbf.\xed&amp;\xb5\'\x87\xabk\x8a\xaa\n&amp;\xf3\x12\xee\xfa\xbfAd\xc4\xc1\'2&gt;\x87\xbc\x81\x13\x1e+\xe9\xe16\xb5F_Mwi\x99at/\xa4}\xa9\x96\xf61F"\xeb\xda\x18\xb02K1\x1b\xfe*\xc9_7\xc1*\xab\xde\x14\x1c\xc2Z\xfe\xf3\xe2\xae@\x9a\xf1RbtPz=\xee\x8a\'\xdc\x95\r\x87\xa3\x9a\x90\x18\xea\xfc\xd2\xf7\xb4R\xab\xcc\xbd3-\xb5\x9cK\x92\xa2Yq\x82\xde}\xed\xe4ve\x1d\xa7\xfa\x07\x8f\xefB\xd1-I\xa5M\xc5\xb3e\x83\xf4U\xaa\xae\xb0\x81M\xab\xfe\x8b\xa4:=x^3X\xeb\xa3\x96\xed\xb7\xc8\xef\xa4\xa3\x0f&gt;\xf6\xc7*8\x8ff\xbb#T\xcaM\xb5V\x94\xa5Wn\x10\x0fmz\x12\x1d\xf9\xc5\x7f\xa5D_\x94\x06\xb9\xd2\x94\xbd\xca?\x9e\xec\xcb\xd6\xd2\xe4~\x9c\xe4bA{QR\xe9\x15\xe2#\x00\xfa\xf3e\xcd\xa5o&amp;\x0fUOd[\x94oj\xad\x91pbQK\xb6\xe5%\xa3G\x8fn\x13\xac\x16\x8bn\x92\xeeE\x1bq\xa1\xadU\xa4\xa9IR\xaeh\xaf+5\xfcR\x8e\xc6e\xe5\xcf\xd34\xe55kR-:\td\x9b\xae\xaa\xd4\\\xfb\xed\xae\x9el\xd1\xc4\xebZ\x12\xc7\xab\x83\xb4\xd6\x8b\xee\'\xea\\\xe4\xe19\x9a\x0fKGW\\\x07\xa9\xb6\xac\x08\xa2\xfd\x9dfQ\xb4F\xd5J\xaf\xe35\x83,D\xc6\x0c\xad%oloj\x14\xec\xde\x18\x17F\xb6w\xb8\ry\x8d\x8eH\xbd\xdeV&lt;\xf7\xbbF\x17h\x06\xef`\x87%\xb5z\xfbC\xb4\xe1\x8c\xe8n\x06Si,\xaf\r\xd7"\xd2\xb3\xdc\xf6\xb4\xc8\x04\xfb\xae;c\x97\xe7\x9e\xc9&gt;\xf3\xef;\xa1\x0e=\xe1TQ\xda\xd1\r\xccE{e-\xc3O\xc0;\xf9\\\xbe\x88\xc9\x0f?Z\xe4\ru\x7fqgf\x04\x9c\x7f\x08\xd58i\x7fO\xb9j\xb2\xaa\xb0\xe2\xae\xf3\x16D9ps\xf4\x9a\xf9M\xbb(J2\xd9\xaa\xe2\xac\xea\xadY\xb9F\x11\x83l[\x1c\xcb\r\xfc\xb7+\xe2\x83\x99\x8f\xe8d\x12\x19e"\xe5I\x01\xf6\xac\xd3\xca\xe9\xa8)\xad\x14\x9a\x8eT\xc3\xf4"#\xca\xaai,s\xb8\xff\x00&gt;\xff\x00@aiil\x9c\xee\xa7\xa1T\x01\xa3[X\xcccX\x8b\xb2\x0e\x9c\xa8o\xba\x1f1\xea8e\x8b\xb9\xb5\x80\x80# \x83n\xe9\xaeR\xbd,8u\'J\xf1\xd0I\xd9U\xbd\x00\x06\xd6\x1fo\xd6\xbd)\xa0\xb0\x805 |\xd3\xfe\x87s\xa0\xa7+w?\x14\xb9ij\x1a\xab\x9a\x08\x83\x99\xeeES^@\xcd\xa7Lv\x1f\'\x1b\xa1\xedSdi18O\xdc\xa9g\xed\x8c\xbcQ\xdeq\x837i\'S(0\xc1\\\xcc,\nw\x0e\xb2&gt;tY\x0e[\xc8^\nd\xd7\xfc\xe5\xab\x16\xab\x0fQP\x0b\x84\xb6 "\xb0\xd7\xbfNz[l=\xf0s7f\xe1\xe8\xdf\x1f\xee\xcc\xd2\xb6/72\xd7B\xc1V\xb3\xc2\xd2a\x06\xb4\x91\xfa\xa3*\xe5=&amp;\xadp&gt;\xda\x0eg\xab\xad\xbbu\x1d\xbcb\xef\x87kk\x85\xbf\x03\xa8\x12+6L\x89w\xd9\x83\x8e]\xd8\xfd\xf5\xcb\xe1q$\x1b\xf3\xf6x\x96\xa5\xcd\xaf\x1bX\xdf\xf5\x8b\xca\xe1\xae\x11l\xd7E\xa2m\xbe\xa5Z\xbe\xa5\x7ffW\xb6\x16\xca5\xd5$\xe5Y\xe6\x9d\x96\xdd\xa6:\x08WU\xabzG\x9e\xa5\x8d\xcb\x8dj\xd6Q\xab\xa1\xf8\xee\xd7\x03iC\x9ft\xbc\x85t\xe2\xb4\xcb\xdc\xe7\xd5|%\xfa\x0b\x97\xa9\xccy1\xbbU\xaeh\x97e\xe8"\xe4k\xbb\xbf\x98\xc9\x9e\xe2V\xaed\x92\x98\x9c\xb4"\x0b\x0e\xca\x92\x17E\x1e\xc5\tEt\x06\x16\xbf,\x8d\xbc\x89\xb4\x18H\xf5%\x8e\xe2Dd\xc4\xb6S\xdcd\xac\xef\xeevDu02I\x1a\x89[ )\xd2WV\xfb\xaas\x0b\x16\'\x1cTN\x87\x13\x81b\xf4,\x11\r"`\xe1\x88\x96\x04\xd5\x1b\x11.\xc4\xe4\x1d\x17\xa7:\xc5\'\xd9T\xb9\x9a\xdb\xa9\xb9\xec\xca\n\xed\x16rC\xe8M\x05(\x93\xc20M\x9b*\x14\x96\xb6\x94\xa7l\xcaU\x96\xd5\xf4lK\x1eFG\xac\xd0\xe8\x1e\xc7:&gt;}\x88\xbel)\x9bANn\xa8\x8c\xccH\xa4\x1b\xc2\xf2\x12T5\x9cGZ\x9e\x9fDh\xec~o\xd2\xe8[f\x83\x8b\xbb\x9a\xe3aQ\x1e\x8b\xb5*\x1bm\xc2A\xd0Kb&amp;\xabf\xbfUOz\xb38A\xdemm\x8am;-j\x94=\xabXh\xf6\x8f\xb4o5\xbd\xcb^\xde\xb6Yk\xca P\x96\xcd\x8c\x8d0\x88\xf5\xcfI\xe1\xef.\xb7\xe5\x9e\x88w\xcd\xd4K&gt;\x990\x91\xf7\xbcV*1\xa2\x1b\xc78\xc9\x1f\xadj^\xc6\xf58\\\xfa\xdb\\\xdd\xd8:\x1b\xd0Z\x90:.\n\xac\xf4\x11\xb3\xd7\\ok\xc6\\\xb4-\xa0\x1f\'P\xb1\xab\x0b\x10\x1b\x14Mv\x0fu3\xb2\x9e\xd3\xe6}\xe87X5\xdbV\x10\x06[Q\xd8\xf2\xb1\xa9Z\xbe\xe1\xa3\xfd^2\xc3\xa9\xd0\xba\x83\x8e\\T?)\xa8\xc6\nX]D+\xdb\x96\x97\xef\xac\xf6Xi\xfaZ*z\t\xfb\xfc\xbc\xde\xce\x13j\x87\n\xa3m\\\x93n\xd5p\xc4\xb6\'{p\xaaq\x99^\x92\x93KQS\x17\xce^\x10D\xf4\x0f9\x10o\x16eO\xdbV\xbf\x17\xd7\x9d#D\x95\\z\xbb\x8f\x1b\x96`\x99\xca\xf0K\x8b\xb1%\x98\tA\xe5\x8f\xbfwH\xdb\x07d[g@R].6\xabA\xdd;\xcf\xf6&lt;fa\x1e&lt;\x8eT\xb5\xe8\x91\x15\x89w\xd0\xcf\n\xe2\xeck\xd1fF7\x9b&gt;\x179\xb1\xcc\xebg\xcd\xcf\xc3\xdfqU-6\x0egV\xf5\x90\xbe\x9a\xbe\xbe\xa7\xc4s\xdf\xe2=V\xc56\xd5p\xb4\xc7\xb3NJ\x9a\xa3cp\xe7\xdd\x98\xb9~\xd7\xe2&amp;\x99\x0bn\xda\x96\x936\xedT\xebz\x96ocn\x8dX\xe2\xa6\xc6`\t\xe2l\xf4\xe6\xc6\xb5\x8cI\x06wfXy\xd6\x95\n&amp;\x8fM\xe1\x00\'\xceo\xd7\xf3=E[[\x9e\x8a\xf4\xcdh\xfb]/\xa3\x02\xdf\x80\xf8\xf6\n\x85L\xde\xc8\xa3\xe9:\xaf\x84\xa3\xdb\x9f\xba\xe3\x9f\xd4%[\x02:E\xf9&amp;G\x1b|R\x11+n)N\x06SMvb(\x8b\x94\x85b\xb37\xa9\x92\x0c\xcbzq\xa5&amp;\xd2\x8d\x0c\xbcE\xe7\x8aY\x81\xf5Z\xbe_\x07\xab?:{O\x9e\x12=\'a\\K\x1a+4\x8b\xe9\xeeV\xcf\xd3\xd4\x95\xee\xad\xbc\xadv\x9d{1\x06m\x12\x1c\xdez,\n\xfc\xa2\xad\x1a\x8f\xa7U\xe8\xab}SP\xf6UJ\x15\xf1t\x1d\x97\xc5=\x8f\x96m\x9c\xeb3\x9c\xcb.a\xd5\xbe\xd1B\xcd\xdc\xb0\xc3C\x8a\x96\xa6(\xa1\xdf\x17\xdb\x1a\xc2\x1f\'\xa4\x92\x92k\x9d\x9a\xe6\'2\x18+\x8d"\xafQ\x9en\xfa\xc2\xd3\xf6_w0\xfe\x80q\xe5\x86\xa3\x88\xc3\xc2\xcck\x8c\xe3\x1dd\xa2\xb2\x04\xc5\xc2\x86\xc5\xd4u\xd7_\x0f\xee\xdc\xbe\xb60\xfd1\\\x91Od\x9dR\xd1\xce\x8ep]\x8e\r\x9d\xb9}\x95}7\xcb\x12\xa5\xe1j\xee\xd9\xaf/3\xb5\xbdE\xb9\x1e\x8c\xb6\xe7\x87\xa9\x96G5t\xa5S\xb4&amp;=\xa9.\xc0g\xe9:\xb0\x1c\xc8Jr\xc7\x98\xa7\x08z;_\xd6I\x87\xe8\xb3_\xdc=\xf9\x85\xb0Q\xb05L\xd5\xc1\x93\xd9=\x97\x8f;\x9cO\xb4\xb0\x93:\xbb\x96\xbfC\x07\x0e\x15]\xb5\xca\x0f(\xbc\xabh*\x16f\'\xe6&lt;1Tv\x87\x1a2\xa2\xeflW\xf6%5\x97\xb3E\xc6\xd2#S6\xf4\xbc\xb8\xba\xf2\xa7]t\x15\xed^\x08\x9c\xfa\xb6\xd7\xd0\xed\xa7\xccnj0\x80\xfcMv\xdeN\xe7Za9\xcb\x0c\xed\x17cVT\x1d\x8d\xea\xdd-\xf3\x15\xd0\xbc\xee\x12C\x12\xc34\xa7At\x1e~\x82\xf5\x1drU$\xeb\xf3\x907]n\x87\x99\xb7Z\x8c\xf9\xca\xd2r\xc2Lu\xc6\x85\xa4\x837\xe3\xcbsTdv\x8cz\xa7\x0b-t1\xf3\xed\xe0{Z2-\xfe6\xc4\xd1T\x06^\xd9\xda\xcd\xa2I^\x8d\xae)N\x87\xb4\xeb\x8c}Z\xcb\xef6\x9dR\xbd%RtfV\x8d\x91\xc6\xbduA\x98\x9c\xf3\x13\xf4\x05\x06\xe0\xe2\x8f\xb5\xe6\xfet\xa2\xa9\xd2\xe0\x93\xa5\x8bl\x89\xe8\xde}\xb7h\x15\x1a\x1ex\x15\x80\xf8\x05aj#\nSl\xb0W\xd4\xe2\x10\x9f\x97\xd7\xf1\xb9.\xcd0\xb2\xf2\xf7\xfb\x96vV\xc9\x1eL\x15\xce\xb1\xe5\x90}\xbf\x9b&lt;\xd9v\x95\xca\n)\xe2\xb7=\xcf\x0c\xb3^\xdc\x9e\xe0\xa7C\xb1\xfb\xe6I\x9bf\xbfv\x969N\xfc\xa7-\x9d\xf8!\xa7g\xd9G\xc3\xed9\xda|\xa6\xeee\xe6[\xac\xf5\xc4\x9f\xaf\xe9|-\x8d&lt;`\xb5\xd0\xc0\x88\xfb\x1f\x0c`\xe1\xbd:\x99\xb1\xf5a\x12j;\xba\xf8\x1f\xa0\xc3~\xc8\xa1\xafZa\xa5\x80\xd9\xe8\xe625\xb9[j\x98F\xc35a\xfc\x03\t\xdc\x00\x95=\xd1\x0f\x8cI\x91J\xaf\x9d\xc1\xcc\xdd+\x8b\xaa\x11\xab\x90z\x01c\xf4Y\x8aY\xed\x95\xf9m\x12\xfd\x05\xa5\x11\na\xb3Y(\xfc\xa5\xda\xdc\xed\x92\xddL}+\xb12\x1c\xab;O\x89U\x89O\xd0\xea\xbb\x8e\x1eVr\xe4\xe8\x1ew\xbd\xd1c\x9d\x13\xc1\xa1\xbc\x06\xd6\x1a\xaeaW\xbf\x9ei5h\xe1[\xc6C\x89\xd0|SY\x84!\x16\xc9\xab\xa0x\xe5!\x82\x97\x16\xf8\x00\xe0\x8c\xd9I\xb5y\xd0\xa5 \x90C\xafr\xd8\xf4\r\x9e\xe8\x98\x98\xc7V\xa9\x1a\xbf$\x90\xea\x03\xdd\xd9\x0ft\xc3\xd7|\x1a\xfb\xca/\x07\xa7h\xbb\xe6\x98\x19\xb8\xd1\x90\x0e\xad\xbf9\xaf\x0fq\x89\xf5\x95g(\x9b\xae=z\xda\x9e\x8a\xbd\x94\x16\xcc4\xb7R7 D[E\xbb\xb9\x96\xdf{\xcaZ\x1a\xe4\n/\x85\xcd\x9b,\xb2rq\xdf\xe6\xe1\x8f\xc7e;2\x9e\x9f\x0f\xb6a\x1e\x8f\xec7\x81\xebB\'\x8e_:\xdf\xfb,r\x196,\xb2/\xd4\xe6\xb3\xc7$\x8f\xf6\xdd;o\x15\x80\xcbs\x9c7Et{\xab,\xf6\xf1\xfb,o\xde\xe3\xec;r"\xbc\xfeu\xf5-\x11\xae\xe7h\xf6\xdela\xe0&amp;\xcc\xb9\xcda\xe3\xcf\x13\x13\x94z\xce}\x1f\xcev\x91\x85z\x90\x87L\t\x9b\x0e\xd8\xe6\xde\xa6\xca\xd1\xe1\x85ca^I\xdb!N\xbb\xb8}+S\xdd:=\x07\xcf\xf9\xf17\xbb\x15\xfc_\xd3\xc4\xd4\xd8P\x19\xda\xb6\x1eQ\x1dKM\xc4\x8d\x98\xbc\xae\x11I=\xe9\xb2\x182\x0b\xa6\xf2hz\xe5\x85\x9a\xedYu\xd6\x95\xb6\x136h\x1a\xa3\xa5/H4\xd7~\xd6J\xbdGYu\x14\xb7\x83\xbf\x9f\xfb\x83\x8b\x85\xdeZ5e\xddX\xae\xb6.\xb4\x96\x95\xceY\x0f"gM\'\xeea\x12j\xad{F\xca\xe1b\xd0\xd7\x7fi\xe5\xfcn\x19\xd3S\x88\xc5\xca\xa7\xdb\xc0\xa9\x0b\xb6j\xc0R\x0e"\xc3\xd2=\xab\x9f^s\x0fld?\x8d\x98\xa3\x03+V\xadWcp\xf49&amp;~\xbc\xbc\x04\xfeLa\xa6n\xbe`\xadd\xec&gt;\x9a\xa7\xde\x8cPU\xca\x8b~\xc2\xa4R]\x8dN\xd8\x84\x96\x7ft\xa3\x01\x9b*\xe6\xd2\xe0\x83*\xa7\x042[\xe38\xfb\x9eJ\xa3\xf6x\xed\x82\xb82\xfb\xf7}\x1f\x1f\xbe\xf6/\xf2\xf3\x12\xe2\x05\x91\xef\xde\xf8M\x9cr\xf3(\xb7\xa1\r\x88\xa9J}\xef\xc93\xe6xe1\x95\x03~\xd5\xba\xa119kD\xb2\xc0?\x9cQ\xfdBV\xadE\x08\xbf\xb0\xcf\x86\x94\xc6\x08\xb7\x8b\x91\xe0W\xa6\xc3 \x0f\xda\xb1\xa4\x11\x9b2\x17\xc9{b\xcb\xd6\xb57e\xb0\xbb%h\xc5\xb5V\xed\xd3\xf4\xfa\x92\xac\xda\xf5\xbd\xd9H\x86\xa9\xf6\x1deal\xe4\xde\x98\xf3\xc5\xee\xe6EUg_\xfc\xcb\x8f\xec+\xa4\x96\x81\xa6U\xbd\xd6\x88\xb3\xb2\x9f\xeb\x1a\xb2\xde\xaaB\xc5B\xde9\x8b}\x1d\xd9M^\xdb\xcdQ\xee\x10u\x17\x8f\xd0O\x7f\xac\xdcv@\xcdf\xd5s\\U\xd6\xa8&lt;o\x17Y\x0e\xb6\xd9C0\xb5\xe4\xa5]L\xb4\xc9[\xdb\x1c#*e@\xcdzJ\x9b`+U\xb8\x0b\xac\xe6i\x02\x1b\xb7E\xf9\xbfQ\xc5\xb2\x1e\x867\x9e\xf3mX\xc9*E2\xa4\xf0\r\xd1u\xdf\x15vw\x17\xd4`\xeb2`[U\xcej\x9f_\xd0\xa8\x86:\xa977O\x93\xa37U\xfa)\xf4\x85\x8b\xcf\xfe\xed\xe3v\xd5:\xfb\xceyM\xf1A\x11\xb3\xafR\xfdyG\xbdsH\x8e[\x9a\x14\xd0\xa9Pz\tj\xaaQz\xdfk\x93/x\xd2n\x88\xa6\x07K\xf4\xb7\xe6\x9fo$\xd5O8\xa2\x08\xc5w9\xf0\'EW\xc1\xde\rKVR\xb4\xdf\xee\xbf\xbb\xd3\xe5\xef\x99M\xbe\\`\t\x80\xd6\xef\xbc\xf7\xc8\xea\xc6\x88O\x11\x1f\x18!\x8c\xde\t\xf9\xaa\xbd\x036\'\xdc\xddUz\x05\xfb\x1a\x9f\xe7\xb0&gt;\x85{\n\x9cd\x01\xeaR\x17h\xd5\xaf\x0cE\xa1V\xb3\xd65\xb3\t\xb3\xa6\x97f\xae\x018s\x0b\xe9!\x0fQ(\xd0\xda\xbbf\t\xca\xc7\\8r\x11,k\xbb&amp;\x86\xbc\x9e\x14\x95\'\x9f\xe9\x176\xd6\xf5\x1a2\xee\xd0\\\xdb\x9b\xd7U,\xe5!\xd0\x9e\xc3\xafW\x9c\xa5jW\x07h\xfdd\xff\x00W\x111.\xe5\xcd\x8eX,*,\x98\x8e\xf3^0\x02\xd2NN\xf1\x12\xbaz\x0b\x9e\x12\x83)\x16\xc0\xe4\xf6\x9d%-\xf6$F\x9fE\x94]\x01\x8dw9\xa0\x85(\x8e\xe9\xf2{4\xc5%jTE2\x9e&gt;\xebw/\x19\x90dD\xeb\x8324s]\x82\x86\xc5G\xaf\xc7\x8eYLE\x87\x0bS\x99\xdbYW\xba\xf8\xe7\xbc\x82f5\xcd\xf4\'QQ\xaf\x0f\xb99\xe6\xc1 \x83\x1f\x9f:\x9f\x10\xf5r\xe7\xf7O\x16\xf4\xddo\xd3\\\xf8\xa0\xa4\x13\xf4/*\xf5\x1f"\xde@\xac\xf4K\x13*S6%)\n\xd5\x0b(\xcf\xb6\x0f@ad\xf3E\x19\xb6\x12j\xd2c\xb7j\xf37T\xa7(\xe5eX\xf4\x9d{6\xae\xd1\xeeZ\xcbk\x0ck\x01\xcd\x96\xad\x8fX{o\xe4j\xa6Z5\t\xb8\x19\x85*\xd1\x9b\x97.\xd5D\x03\xa2\xddt\xdd\xc3\xd1\xe4_\xa3\xbbxK\xec\xa6{7\xee\x16\x7f\x1b7\xa1\n\x81Re\xc6JB&gt;\x90\xaej\xd0\x84&amp;\xecl\xd2\xb4\xc69\xfe\x9e|\x1c\xbbh\x98\xfc\xd0\xce}Yc)\xed\xbd\x19\xeb\xc6U\xc8\xb5\xcdl\xf3\xb5\xa2\x86\xb4:o\xa0h;\x8cV\xcd3\x9b\xce\xdbs\xd6P\x06}0b\xc3 w\xea\xf3\xc8\x83w\xdd/\xfa8\x132P\xcd\xc9\x0eG4+6\xab\xad{3\xab9w\xb1Sa\xba\x81;\xc5Q6(\xe5~\xa7\x92\xf2\x85|\xd8\xb4\xda\xbe\xda\x95\x1d\xc9J\xe6T\x1b$\x9fxsh\xba\x08\xae8\xae\x8e*\xdeG\x9d\xaf=\x9d\xd6X\x9b:\nu^#\xe6\x9a \xc4\xb3\xd6*\x1e\x9a\xfd\n\xfc\xfb\xeb\xcc}&amp;^7\xe8nP-\xe1G\x95\x15\xdc\xbde\x83\x9f\xa1`zK\xa4\xce\xbd\t`\xf6\xadh\r.qk\x14\xfc\xb59\xd2oBV\x97\x9e\x8d\x7f\xa5\xda\xf14\xab^Z,\xb5\xaf\x9d\x07\xf4\xeb\xf3\xd7\xbeJ\xa0n&lt;\xbe\xf9\xfa\x84\xba\xd8\xd5\xb9 \x95\xfd\x01\xa3\xaa\xab\xd9w\xd5\x10\x19\x11\x1cH\xd7t~t\\\xb6\xa0\xdd\xf0\xe4\xea\xe7T}e\xce\x9d\x8b\x8d\xa1MR\xedU\xe0\x1a\x82\xda\xa9\xd1\x8c\'\x1c5\x85s\x06\xfc\xe3\x15\x91\x04\xb4{\xe7\xde\x89K=\x17I\x0e\xfbM@\r\xf5\\\xbc\x8d\x0b\xf9d\xda~c\xe4\x89\x8f\xc6\x86\xab\x17\xe7\xcb\xd2\xcb\x156\x04\xbb\xd4\xc4\xa1L\xd1h\xfavn\x130"\xb2\xa8\xf5\r\xa5\xc5\xd8e\x0c\x15\x19\xb7\xa6[ZY\xaa\x9d\xaf\x11\x1b\x17\xd2\x87=z\xce6}K\xa1\xe2c\x0b\xa4\x89\xb0\x90Gq6J6}\x0e5\xe1\xd04&amp;r|\xf8\xa0\xd6GX\x9bF\xbd\x19g\x11\xaf)\x98D\xeb\xed\xeaT8\x89{yLU\x15~$\x02w\x19\xf3\xf5\xf6Lj9C\xd1A\x83Fex\x97\r:\xef\x05\xda\xbe\xe4\xa1#\xd5i(\xdb\t\xb5[\xcd \x8c\xccZ\x95/\xc2\xf4\xb3X\x03\xe3\xa68\xc5\xe7\xcd\xfd(\x93V\x9b\xf4\xe8\xea\xb1]0\xd6L;\x19\xabu\x1d\xb3JfhW\xfb3\x15\xc2&gt;09\x9e\x99\x90\xe3\x97 \x01\x97\xd8(\x85\xb2{\xed5n\xb4|\xe7\xa7\x1e;\x97m\xd0\xb1\x9f"\x88\xb0Ih\xa9\x1fe\xd6\xe8+\x93@M\x98\xb5\x99)\x81[\xcbV\xd1\xb2\xd2\xe2R\xd2)i\xc3&amp;\xcf=KTB[B\xbf\x06d{\xf9m\x12Q\xa0\xb8\xa9\xa0zu\xa8~\xde@\xe9.%\xcc\xd3\xd3^\xb7\xae\x18pm\x89\x17m\x83D\x82\xe8D\xf5[\xc9q\x9a\xb0\ttA\x82-\x95\xfa5\xa6\x9a"6\xc2\xa0\x11\x90\xda)\xae\x93\xa4\xc1$\x96]\xda\x83/\x92\xd0\xe7\\{\xea[)@\xe1\x06\xf9Y\xd8d\x89\xba3L\xb0\xf2\x8f\x1e\xc5tH@o:\xa9Y\x1ay`\xecA]\xa6"^~\xf24\xa5\x9d\xfb\xb6y\xf3\xaa\x85\xd43\xed9\x12O\x02\xb6\x12\xc6e\xeb\xdfN\xaf\x91F\x15\xb2\xc2\xfa\x0c7e{\xd0\x9c\xc4\xa1\x7fUR5\x19\x1ebA\xcd\x8d\x9e\xae\xb3\xd1\xd4\x06\xfb\xd2\xe4^[\xd3\x93\xb8F\xa0\x94\x1bG\x1c\xae\x98\xfa\xed\x1b\xe2\xee\x85\xd1\xf3\x92\xeb\x0f[`3\xe3z\xef\xad\x84\x02c\xe9\x80\xca1g\x05Mc\xa7F\x8eD\xd2\xc1]:W:\xcc\x1f^(\xd2\x9f(\xcf\xa6hf\xc5w\x9e\x93b\xb5J\x07@s\x08\xa5&lt;q}\xb7Uc2\xb1\xc9h\x04\xa1\xe7Z\xef\x9a\x11\xec\xb4\xe8\x9a \xfe\x00\xd0`Ij~\xd3\xcf\x1d_:\xaf\x01\x84\xfdMb\x06hK\x0c\xc8\x14\x10\xbd\xe5_\xa8:\x96\x19\x87\xeb\n\xec\xa6\xb2\xc7\x89WA\xb3\xd5b\x05{\xd045HP=\xb1P8\x9e\xbc0\xf0\x17\xf7\xcc|\xac\xf6%\x16\xa0\xee\x9e\x97\x84\xc4m\xa9\xfa\xe2\x95\xaasm\x1e\xa3\xb8\xf8\xbf\xaf\x12==O;\xd4G\xef\x13\xad\x84`\xc0+\r\x03\xb2\xe6x\xbfm\x808\xb5\x17-\xc5@7\xe8\x95YU\x82[\x8e\x94\xa9\xf8\xefy\xfc\xfd\x91\n\xd5\xac\xdc\x92\x1b\x18\x06\xbd\x19\xc3s;\xebB\xa7w\x0e\x9b\xda\xd4\x82j\xb1EmaY*N\xc6\xd2\x98\xe4\x9a\x9c\xc4l$\xb5\xf4\xb7,X\x8a0\x15\x19\xadz\xa7\xd8\x17\xcdu,J\xe9\xc18\xd9\xf3}\xd5q]{R\xccr\xc7\'F\xb1\xae\xac\xfa\x00\x8dI\xa0z\xa2\xba{&amp;\x98\xc3\xec\x0e\x06h\x12\xa0\xe8\xa92r\x89\xac\xd7\xb3.\x1e\xc7\xa9\xf4/m\x9cHZZ\xb7P\xa9\x0b% dE\x9c\xacz\xc2\xcd\xa9\xdc\xd2\x04(\xa8\xf3\x19\xca\xe1\xd6b\xb3\x1c\xc0\xb6\xe6\\\xee\xc1\xa0\xae\x95\x1c\xc7m`\xec\xd8\xaa\x85\xf7\x01\xfd&gt;\\*Mz\xc8^|\xc0\xc8\x13\x13Mf\x11\xba\xee\xd4(\x0bh\xe9\x9d;\xe0\xcb\x80mr\xae\xcb^,\xe3j\xd6\x05H\x17\x12\x15\xf7X\xf4]L\xbe\x8f1\x7f\x7f\xa9T\x913"X9\x0c\xd5\x93Z+e\xcbiw\x05Z\xce\xda\x95\x95Q\xd1\xfc\x94\x06J\x06\xd5\x90\x0c\xc6\x97;\xd7\x93\xf5[G\x83\x83B\xcb\x8e\xad\x8f\x83\xb0\xcc&amp;\xfd[/\xdc\xb4\xf2\x9a\x9e\x0f/\xe7\xe8\xd6c3"\xc2\xea\xdd\xed\xc5\xf7\xca\xa6r\xe7\x8e\x8f\xe61hX\x10a\x9f\x1cT\xce\xe3\xde\xd9Z\xc6\xe7[1t\x17\x8c!\xf9\xaa\xe9\x89Z\xe8\x00\x9b\xd8\x9c*C\xad\xdd|\xd6\xbf\x15\x0c\xb2+\xfb4\xb0\\A\x17U\x9d\x1b&lt;u\x92\x8cp\x0e\xfc\xbd\x87c\xd5\xc3\x98M\xe5elW\xe4V3\x02\xac\xf9\x1b\xe1z\x8eU\xa5\xcf\xa6\xa9K\xf4\r@\xa8m\x9aY\x17\x96\x1d\xfa\x1c\xa6\x86o\x14\xa4u\xa5J\xc2\xd5\x8f`\xf2\xa7r\xaaM\xa9v\xca\xceV\xcf0V\x8c\xfb\xb5@\x0e\xce\xacI\xcaU\xd0k\x1dL\xa0\x9b\x81\xf5\x82P\x01Q\x9e\xd3\xb35\x11\xb8l\xa3=\xc4\'\xc6+[8W|\x1c\xb5c\x89U,\xefY\xb5Q\x99j\'\xb4\x8d\xe1\xcc\xeb{z\xccc\xb0\xcd\x8c\xf6]\xc0\xae%\xadh\'\xda&lt;?rY\x8b\xfe\x92q$\xa8\xe5\xa4u~k\t\xd0\x08\xe9\xd0(6\x954T\xe5}\xa3\xc8\x1e\xcd\xbfo\x98\x88\\u\x97ip!19\r\x01\xa1#\xb1\xfa&lt;\xafW\x87\xa7:\x99h\xf1dy\xed\t2\x84\x18\xac\xfa\xacxd\x17\xafA\x04\xcf\xd3a\x0eQk^\xad\xe3\xc3~XL\xe8$\xe0\x87\xac\xeb\xcf-\t\x9f\xdfp4\xb5\xcf\xcf\xafK\x01\xa8yB\xc5\xd4\xed\x1dS\xf0\x19\xd7o=\x15\xbd\x85b\x0c\xbcL(Y\xdc]\xd1\xce+\xbd\xc9g\xb2\x19$\xb9\x12\xd7\xe2\x12\xc0\x14,\x11\xe4Q\\\xb7\x93\x18S\xb4\xab\x14\xbe\x8e\xd4\xce\xa1\xaaN\xca\xe6\xef1\xe8\xab\xfb\x105[\x98\xd4\xa5\x96P;I\xc7\xdb\x86\xefK\x82?l}\xd8\xcf\xca8\xbf\xa5flv\xcd=\x97\xd5\xe5\x9es\xfd[\xab\x97\x1f\xe7e\xd3o\x82`\xe9\xfd\x11\xca\xdd%B\xd7\x15c`\x91\x9a\xe1}\xe5{P\xabWJ\xb2\xe2\x9a,\xde\xa5A~\xca0~q\xeb\xea(\x9a\x1c\xcb)\x99q\xa8\xd5\xa0V\xf2\xe67U\x8dI\xa4]\xf7zT\xda\xca\xbf\x8d\x01\xdbR\x138IK\x9a\xc9L"\x02\xae\xceRvU\xe5\x85\xfd\xf6W_\\\x8d\x8fk\xeb,kpO\x1e\xc7\x93\xb2&amp;|(v\x9d&gt;4a\xec+7\x85,\xf0\x1dmx\xb9F\xf94\xa5\xa3\x19\xcc\xda\xe0U\xd5\x8d\\\xad\xd8\xf7BL\xb2i\xdbW;V\x92\xceN\xb2&amp;x\xdcOKi6\x18Qi\xb7\xd6|\xe4\x92\xa8\xb1\xcb\xc3\\c\xf4\xb8\x015\xef\xc3-\x93\x84\x03=\r\xb47L\n\x96\xb5\x98\xa6%\xda\xd2\xd4cLx\xdb\xc9\xc6D\tZ\x8al\x13\xf4\n\xd9=\\\x98\x7f?\xa5\xbawJ\xdao\xab\xc0\x8d}:\xd1I\xa9\x19\xdeb\xea+\xc5\xa5\x06\xb0\xf9\xcdV9\x01\xdf\xd8\x1d_e\xb3@P\xf7"\x82\xd6*\x01\xe2\xfa\xe4\x9bL{\xf6\x95qp\xc3\x12\xdc~\xa2r\r\xce\xd7F\xd9A\x9aE2D\x16k\'\xd0W\x9az\xfe.\xe5X\x88\xc8\x17J\xdb\x11\x9c\xbd\x05\xd3CJ\xca\xc3Z\x91\x13W\xa4\xf3\x9ei\xcbFc\x99\x9b\x80\xd0\x86\x8fRte.]ed\xad\xf3\xec\xb1\xbf~\x85\xa9\x0bu\x12\xaf\xe5\xb66\x04\x98\x83kS\xa2\xd1\td\x87}\xf4\xbeb\xa1_\xbe\xd4\xd3r\xd0\xe8.R\xb5\xfc\xd6\x9d\x99Ej\xaa\x0et}Q\xe7m\xa2\x82\xc8\xc0&lt;\x99\xdb\x94^!\x04\xd5\xe4vU\xdb\x05\xc4\x1b2\xabB\xd82DuI\x99`\x99\xd0\x8c\xa1!{=\x87\xb9y\xd4e\x90\x13%=-\xaa\xa8\x00\xfc\x0e)\x06 \xec`+G2\x0e\xdd\x06\xcc\xab\x9c*n\x8dP\x9e\x1d=\xf2EU\xdc\xb6\xbc\xf7\x9e\xec\xd9pU\x88\xad\xca\x98\xda\x1d\xd9\xcc}m\xceH\xbbWU\x17mQ\xa6\x94\xdd\xc3&lt;-\x1865\xab"\xeeK-{4\xf2\xe1\xccc=\xe8sk\xb5\xcbu3\xcaz0$2\xd4A\x0b\x93\xa4\xe1\x86\x96!\xd1&lt;C\xea\xc1\x8f4y\x93\x87\xe4`\x9bh\x91\xd1\xa8lH\x18^c\x8c\xfd\xd1\xd0\x9c=l\xb8.\x9e\rE[\x9b\x08\x17\xf8\n\x13\x02\xa0^S\x1c\xbc?\xb71~T-\xcd\xe1\x10\n\xbbY\x95"\x8b\xe2]\x06k\x10\xd2\xc1\xd1\xb7\xd1e\x14\xd6\x92n\x85\x86V\xbb,\x92\xdc\xa0m\x85\xd9\xdc\xeb)b7mQ9#c\xec\x0f\x87\xab\x1dU\xc9\x9a[\xf5v\xa1\x829\xae\x16\xad&gt;\xd9\x1b_\xcf{\xe6\xb9\x809Fp1\xd2\xd5\xb2!\x8dno.\x181\xebTb\xe09X6&amp;\xcb\xb3\xadJ\xa6EzC\x9f.J\x10:6SEFE\xf5\xba/\x05O\xbdN\x18\xfa\xfa\xe6\xa6P\x88{\xb3&amp;D\x17\xb6Mg\xd6\xce\xa7F?i\xf3^\xa9&lt;\xcd\x99\x86\x88\xabD+v\xa4\xc81\x85\xa3K\xf6\x06~k\xf4$\xf7\xecvwI\xd5\xbe7v&amp;&gt;=\x9f\xa0\x94X{s\xab\x8cq\x04\xd1N\x10V_X\x06\xdcX\xa5\xda\x9c\xbbV+i\x12\xb3i.\xc7\r\x80,\xbf@4%8\x1b_\x05\xfcZ\xa1\xbe\x1d\xe1\xdb\xfcK\xdc\xe8\xbd\xb6\x8a\xbc\xe9\xe4\xc9\xcbu\xb1\xb5\xbd0\xc3\xf4\xd0\xc6\x13\xeaZ\x9dID&amp;k\x1a\x17\xe6\x93&amp;\xd0\x81\xb2\xf1\xd1\x15\x92\xa9\xb546\xe0\x0c\xadn"fR\xcc\x1d\xc9\xf6&lt;\x12\x8eoAU\xbd\xd1T\xean\x1a\xee\x1e\x13\xd3\xce\'xs\xad\xf6Ks\xac2\xbb\xb1\xf5X\x18T\xdb\x15yJ\xc2X\xd6\xc2\xed\xb5yK\x03k1\n^y\xf9oV\x0c+\xac[\xa1\xbd\xb6\xbc\x10\xc0n\x12tV\xbe\x8b\xbceB\xe5\x11\x7f\'\x9bDSF:+"\xf7h\x13\x96\x0b\xd8\xd3?\x04N\x98; \xe1\xb1\xfb\x1f\xa8+\n\xf6QSb_\xf8\x07C\x84\x8d\x02\x00\xf4\x84\x87\xc9\x1d\xa1Vg&amp;\x1e\x8f\x8c"@V\xf0;\xfa\x11\x07\xc3\xe9\x17\x8cg\xfb\x04\xad\x14\x17\n`d\xf5~\xc2\x97\xab\x81%\xb17]\xe90\x8e\xed\xa55\xb5\xb5^\x7f\xa5\xcc\xb0\x83zq\xc5hF\x02\xcb\x99\xaa4\xca\x9cC\xd2#\x00\xfc\xc2\x16j\'\xdad\x0c\xfa9\xf3\xa5\x12\xb3Z\xe5a\xe4\x06\xf8\xed/~\xfb\xe1\xcf\x99y\xe7vy\xe3\xf7II \xe4E\x1cK\x8f\xdb\xcdn\xec.\x16\xee\x14\x9f\xaf:\x17p\xb5\xb8w=}S\xcb\xfe\x93G\x18\xfe]\xde\xa3\x0bz\xaf\xd7\xa3\x1a\x17\x1e\xc5\xd77\r\x12;\x13\xa9\xb9~\xe0CJ\xdc\xe6\xcb\xf5\xd5\x81\xf1b\xf7A$zLJG\x12\x90sK\xa3\x1c\xb4\x88\x9fc\xe7\x95\xefr\xd5\xeft\xb2!H\xc5\xc8F\xdb\xa8LF\x972i\xc0\xde1\x88\x9e\xd2\x1d s\x9dj\x9c\xe2\xde\xfc\xae\xe4\x8d\x13\x83DQK\x96n\xd0\xd2\xeaI\xe6\x15\xba&lt;\'\xa3\xe4\x8a\x1f`\xfc@\x1c{\xd5\xa7\x11\xcdIjC\xc84\x8a\xdc\xaf\x913\x8a\xf9\x08\x8c\x8bR\xbd\x94hQ\xc0\xeb\xbe\xab\xf2\n\xc3\xbcd\xc5\xf6\xf2\x947|3\xbf\xcc\xb0\x83j"/q\xb3\xc8\xca\x9d\xb5\xbcx\x8aV\xc2\x9b\x0b\xfc9\xe9\x0b\x17\xd4\xef\x94.P5\xb6W\xb6\x9e\xd6\xbc\xedW"\xc2\xba]\xf3o\xb5\x0fEsNk\x95\xb7\x85\x88j\xa6\x9a\xc8\x0354\xb6\x06(]\xec@\xacI0\xa8K\x19X\x16\x89\xb5\x8e\xc9VX\x1bi\xbc\xbcW\xed\x1b\xe8L\xa4\xef*\xe4\x03\xca\xcb\xe7\xf9\xb9%\xb3\xca\xd1\x9b\xb6\x17\xe8?*bL\x16\xd2L\xadp\xf3\xdbz\xe9kN\xae\xc6\'\xbf}\xf0\xc7\xeex\xf4\xacp\x8b_\xa3\xeaZZ\x82[h\x87\xd2\xb2j\xad\xdf3t`\xbbW\xf4\xfe\xa1\x03\xd1\xa3\x0fk\xf3\xf5\xe5V\xd2|\x95"\xbd\x81^9\x95\xbd\xce\xb0e\xa9\xc8\xa58\']L\xb3\xc4\xe4\xafwu\xff\x00\x8ck\x1b5vQ\xeb\xb5\xcb(\x9dc[ofU\x94\x85\xcbU\x0c\xaad\x08l\\\x80\xa3\x18\xdf\x1c\xbb\x89\xc0\xf27v;1GI*\xd3SL[Xq\x96\x1dl\x0bK+\x0c\xeb\xd2\xb6\xac[\xcb&amp;`\x0b\xbd+\xcfY\xcc\xcaS\xd5\xb6\'^?a\xdc\xecb\xae\x9fnaS\xdd \x83\x1d\xf6\x1b\x82H\xb2a\xfd\xd7\xb3\xc0-Z\xaa8\x93\xb31\x951]\xc1\xfe\x98b\x8c4\x84Tf\x05\xe1:\x96\x9cf\x17\xa3yl\xda\xd7\x9b\xea\xea\xaf\xb6\xe9\xe2\xc6\xf7\xddg\xcf\xdf&amp;/\xd6\xad\x88\xc3\xd7\xf4,\xe1\xa5S&amp;\xe2^\xd3J\x05\x02+9\x8b]\xd8do\xde\xb6\xfc\xe6\xea\x16W\'O\xf4w&gt;(\xd0\xcdU\xec\x96T\x8c\x03|v\xd5\xb2\xcd\xc1!\x91\xaf]\xd7\xb2\xc6\xb2\xb6{\xe2?\xda\x006\xb5)u\x18\xf6\xd4\xf9&lt;+\x94EG$\xe2\x7f\xf4\x19\xbeC\\|e4Xx\x9a\xdd\x9b\xaf\xafll\x15\xd0\x82.z\xa5\x00\x0c\x87\xc4\xb8X~\x81\xf0w\xe8\x00\xe5\xcb\x9d\xad\xceb\x1c+\xa0\x1cP\xbdv\x07\x9d\xe1(&lt;\xf2\xfe\xc8\xbf\x7f\xa6GZ\xc7\xd9\x82*e@\xd0\xc5|?\xcdlV\x85\x16\x0fJ \xa2\xa4\xc4Q\x8d\xb7\x9d\x1d\xd1\xb1\x1d\x91$~\xd4O\xb9d\xaaH\xda4\xa8\xd8\xca\x16\x81\x92)\xc9f\x02\xb59a\xd5:Y\xd2\xc9\x05%%\xc2n\xdbY\xa5\x84K4\x97\xad\x96?\x0fG\x84\x86\xcb\x07\x1f2m \x92\xa2-\x10\xeb\x1eL\xb2\x16\xbf\xb6$\xce\x88\xce\xd0\xe7\xaa[\xb1\xe8\x90\xbfB\x06\xb2\x124\xf1\x82\xb0.eq&gt;\xc4P\xf5\xe5\xb7D\xcb\x15\x8d\xbfy\xab)fj\x02\xabf\xe6\x82\xe7l\x0b\x12\xd2\x0eK\x08\x1aU\x9f\x16m\xbbdGD\x92\xaeK\x01&gt;L\xef~\xab\x1b\x93\xd7$\xb8\xf6\xb9\x9f\xed\xc0\xf9\xafv\x87\x97\xcb\x1c\xa3\xf0\x9b\xf1\x1a\xfel\x11\x06\x17\xc3\x8f\xbc\x89\x8c\x02RdH\xb0oC\xddW\xc7\xe4\xea^\x96\xab}\xf4Z\n\x91\x1b\x01\x99u\xdc\x0e@\xde\xc9\x8cfQ\xac\x1d5Q\x96-}kF-\xbb\xb0\xc5\x1c\x8e\xb9\xdc\x1c\x8a&gt;@\xcb\x1d\r\xa7+F\x1bz&amp;: \xb2qY0\x03\x8d\\7\x18F\x13R\xda\x05\xc0 \x8d\x8f\xd5(\xaa\r\x91\x07\xc0\xd9\x87\xad(+iVonn\xe9\xeey\xa5\x10\xd2\xdc\x90KEm\x9e@(\xf3\xf7\x0c\xbb\x9f\x02\xd8)\xdd`\x98\xe8\xc0\x83\xdd\xaee\xcaZ)0\x94?N\xa2\x13]\x15\xed\xd0\x1a\xd3\xfe\x15\xff\x00S\xf9\x99\x0b\xdc\xfdT\xc2\x8a\xbb\xcc7{/\x9b\xc4\xda\x9d=\xcd$\xb3e\x1e\x84\xa2\xe5\xc8\xb4%\xd8nn[H\xc41*&gt;\xba+&lt;\xeb\xd5\xbc\xf5\x91\xa0\x1fhr\xc9\xdfw\xd0\xe2Z4\x81*!&amp;f8&amp;\x9c\x11o\xae\xca\xfc\xd1\xbb\x13n\xf1\xe3KE4z\x1b*\xdf\xd1\x0eX"\xbc\xed\x81Q\x8cf\xef\xf7\xcf\x98\x1f\x8f\x88\x9d\xe4\x9b&lt;vi\x0c\x8d\xefg\'\\\x94\x91\x00z\xba\xf3M\xeb\xb7V\xfd\x9dc/\xc4\xd7\x83Q\x01L\x83\xa3\x85\xd5\xb6@\xa9|8\xbf"\xeb\xdb\x80\xccK\xf2\xff\x00g\xa8\xb7E\xdb\xe8&gt;h`\xb1mAg\x10\xa6\x85\x97\xcfo\xf0\x80\xe2\x81;\xedq\x8c=\xba\xb0\xc6c~\xf8\x92\xa2\xc5\x9a*\xf7\xd5\xdc%#\x1d\xab\xbe\'dx\xc5\x1e\xddz\x99m\xd3\x851\xa9\x8c\xc3\x7fE?9\xba\x00\xd9\xf7\xe5\r_.\xd1\xc5\x10fa\xb3\x95\x07)\x1a\xac&lt;\x89\xe4\xc0\xf2\x81\xb70\xee\xd0U\x7fy\x88w\xa8A\x92\xa1\xa3\xa1\xb3/1\x91b\x14\xa0\xe4Lw\xa5\xb9\'\xb1\xd3j\xf1\xae\xefd\x94\xd9\xe3\xb0v\x05&lt;\xd0\xb1_rX*\xe2\xf2\xfb;wy\x86\xb7\xf9]f*\t\xe6b\xba\x9c\x17J\x9c\xcd\xa9\xd6\xb5f\xaa\xcb\xa1pT\xa1pI\xf2\x039.\xce\xbbB\xba\xbc\xd2\xd0\xa1\x95\x8c\xee8\xac2\xc0\x18W5\x1fsWVV\x9eG`\xf3\x9d\x8e\xe7JRI\x07/\xf3\x8e\xb9\xe7\xb2\xc8\x8d\x88\x9a\xf6)\xfd\xd2\xf6\x07\x98\x933&gt;\xca9\xa9\x1b^z\xd6/\xcf\x08\x93\xe0\xb6\x1c\xb5c\x14u\x85s!\xb6\x9bO\xd4]\x94\xe41;u\xdf;)9u\x95f\xbb\xee\xecc\xe4?\xf96\xd8\xa5;o:\xf6T\x14u\xfa\xa9\xad\xb2-/9\xb3+L\xa4\xda\xa1K\xa8\x8a\x90\xb7&gt;\xbc\xcc\xd6Cl\x9ab\xb6\x1c:N\xc8%\x8cz\xb4v\xc4\xfa=a\x1d\x89cW\xc7\xb4\xb3\xd4\xc6\xa9~\x84\xa8\xed\x9d\x82F\x9e\xf7\x05\x16\x94\x85\x86~\x98X\xf9\xb7\xde\xed{~g%D\x9f\x14\xebk\xf8\x10\xc2\xeef\xb0]\xab\xf2\x99F~\xd1\xd3b\x18\xf4Y\n\x19M\xf4*\x85=v\xe8V\x8f#\x17\xe6\x0b\x02\x11I\xb0\x05\xd8lR\xfa\x06\xed\xecZ_\xd4y\xaa\x8c\xc2\xaeu\x83\xb0\xe2a[\x0e\x8cG \xb5\xafAx\x04\\4\t\x90\xf2^\xf1\x85{1_\xf5f/8\xddX\x9b\x15_\x1e\xf7o=Y\xfa\xa3\x1c\xc6h\xe0\xc3%\xa5\xaf\xady\xd5\xb5\xfc\x0bP\xa6\xdd\x1a\xce\xb0\xa2\xc2wD\xfd\xb8\xa6\xbaZ\x1c\x9cw\xd6a\xce\x0e\xcf=9z\x18x#\x93\x1aQ\xf5\x1fi\xb6J\xd5\t\xb8\xbbY7 h\xe6v%\x8d\xc3V\xc4\x84\xff\x00T\xf1\xdd\x894\xe6\xfc\x0b!\x98P\xe3L\x87\xd3\xf7\xdfm\xee\x99\x1f=\x17\x8f\xb5\xec\xc6\x9d\x8e\xcd_t\x9c \xb6v\x87(ES\xda\x99\xba\x18i\x04\x85+\x12U\x941tm\xa3\xc8d\xf3\xdb\xe9\xba\xe2\xb3\xa2\xc6z\xdf[\x14]\x9c\xd8\xac\x90\xe0\x9a\xb1\x06n\x89\xc3\xd9\x86V\xbd#C~\xc1R\x10\xba\x17\x02\xde\t\x8c\xd1\xf5\nA\x85Gb\xcd\x86vF2tgG\xdf \xaaA\x8c\xc04/\x1c\xfd\x1f\xfc\xb4\xed\xec\xbfAQ\xd3\xfd\xb5@\xd0T\x9c\xb6g\x96\xebS\xc9\xb5@\xd4\x89\xc2\xadH\xac\xa3]\x9d`&amp;\xf25\xf0\x86\x01Y\x1b\x08\x1b4\xfa\xe6A\x169LZJx\xed\xd6,\xa9W\x97\xed\xd4&gt;la\x964\xf9\xbe\xe76\xc1W\xe2\x14\xab\xcf\xd1\x03\xde\x9e\x88\xbf8\x1f\xb7=\x024\x05[\xd8|\x8a)\x1e\xd0&lt;\xbc\xd8?\x9b\xe0-%\xc7o\x10P\x8e\x8d\x96\x19\x8e\xe5\xee\xcd1$\xba\xbf\x8f\x0b\xaeo\xd3\r\x9c\xf9\xd3\x98\xdb\x14\x1f=w\x87,Y\x8a\xf2o\xccZ\n]5\x87L.\x8e\x9c \x1a\xfeEm f\xfc\xf0\x16\x06\xb8\xe4\xacP\x8d\xdd\xa7\x12\x0ep\xdd\x91\'\xb6\xe5\xabl\xc4\xa6%\xfb5=\x1e\x81\xe7\xfbw\x9c\xb3\xf4\x944\xe9\xfbk\xcf\x9b \xa6XL\x13\x9e\x17*0evw\xda\xd9\x10\x050\xe8\x0f\x03\xdd\xb9\x8cWV\xf4\xe8\xe8\x98{u{</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495650-orgullo-de-ser</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>La población mundial llega a las 8 mil millones de personas</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>La cifra se alcanzará el lunes 14 de noviembre</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>El 15 de noviembre habrá 8.000 millones de personas en la Tierra. ¿Son demasiadas? No necesariamente, responden los expertos que alertan más bien del excesivo consumo de los recursos en el lado más rico del planeta. "Ocho mil millones es un hito capital para la humanidad", dice la jefa del Fondo de Naciones para la Población, la panameña Natalia Kanem, que se alegra del aumento de la esperanza de vida y de la caída de la mortalidad infantil y materna."Sin embargo, me doy cuenta de que no todo el mundo lo celebra. Algunos están preocupados por la sobrepoblación, con demasiadas personas y recursos insuficientes para vivir", agrega antes de instar a no tener "miedo" de la cantidad.Pero, ¿hay demasiadas personas en el planeta? No es la buena pregunta, responden muchos expertos que rechazan la idea de la sobrepoblación y prefieren hacer hincapié en el consumo excesivo de los recursos por los países desarrollados. "¿Demasiado para quién? ¿Para usted? ¿Para qué? Si me pregunta si estoy demás, no lo creo", responde Joel Cohen, de la Universidad Rockeffeler en Nueva York."Creo que la pregunta sobre la cantidad de personas que la Tierra puede aguantar es una pregunta con dos caras: las restricciones o los límites naturales y las decisiones que toman los humanos", apunta.Esas decisiones hacen que se consuman muchos más recursos biológicos (bosques, peces, tierras...) de lo que el planeta Tierra puede regenerar cada año, y el excesivo consumo de energías fósiles, que generan cada vez más emisiones de CO2 responsables del calentamiento. En cuanto a los recursos, se necesitarían 1,75 tierras para satisfacer las necesidades de la población de manera sostenible, según las ONG Global Footprint Network y el WWF.En el caso del clima, el último informe de los expertos de la ONU señ</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x03\x00\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x07\x03\x04\x08\x02\x01\x00\t\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x04\x05\x02\x01\x06\x00\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xdb\xc33\xb3\x98\x03&gt;\xe5L\x03~\xe7w1\xbb\xc0q&amp;\x89\xf3V\xa9-\x06\x0f\x9d8\xb6A\x9e\xf2T\x9a\x87\x9d]\xfcR\xad\xcb\xf6\xf7T8\x12u\xb51\xfd\xf2\x898\xf9\xb5^\xaf\xe4\x0e\xec\xa12M\x08\xe8\x18\xd2\x0e\x12R\x9a=9\xc6cfe\xe9z\x8a(\xb7\xb5my\x8al\xc9\xd28\xd2\xac$\xa7\x14\xd5\x0c\xe4\x82\xd9\xa5DG\'\xf5\xb5\xca\x12\x88\xcb,(\xbe{\xd09G\xacs\xad\xf1\xcb\x13\x94\xf0y/%\xb5%\x81\x81,mRV\xc6\xed6\xbeN1\xd8\xb5\xbcv\xa3\t\x18\x15CU\xc1\xdb\xc5`\xd8\xd6R\x12\xfe}6\xabG\x99\xe3\xaa\x19\x994\xae\xd0r\x15i\xb7/\xc4\xa8\xcf]\x148A\x0f\x19\x85k\x8e*\x03\xa8\xbb\x17\xb5\xe7\x15-b\x1d~\xd3\x17\xe7__$\x93\x9a\x92\x8d\xbe\x97\x1d\xaa+\xa8\xb2\xd5\x88\x8bP\xe2\x81\xe8d:+#\xe2*\xfd\xd139\xf1\xac\xb0\xed\xae\x11\x19\x01\x9aW\xc6\xda\xd7\x9d\x00\x8eH4\xb3-,\xfbAtZ\x9c\xfc\xbaOK\xba)d\x968\xb1\xf05&gt;\x92\xa8\x1a\x876\xd1`{\\\xb5\xb5\x81\x87Z$\xcf\x9es]CA\xbb\x98Bf\xd7!\xf7^\xd1(Z\xb8\xdc\xa8\x11\x85gT\xa6/\x9b/5\xe4V\xbd\x9d\xacw\xc4\xde\xe8&gt;\x9a)\x07[\xe4S\xdbp@\xcf\xb0\xda\xc6HQ\xd3H,7Y\x90T\xe9\xf4\n\x0ev\xaa\x92\xb9on\xd5(\xd4\xcc\xe2[\x96\xa8\xc5z\xa7(\xfb\x99\xea\x05\x97\xd8 \xcf$\xa1\xd9\xb1y\xfb,OQ\'\x96B\x94\x13M\x8cg\x08\xe4\xf5\xcdz]\xe3B\x9b\xaa\x06fmj\x8fkmwQ\xd4!\xb4\xc9\xaa\x1c\x00\xb8@U1K\xbd\xd6\xa6H\xe9U%\x8c\xc3\x98\x1f\xc5b\r\x8cv7N\x99\x18\x14\x83n\x12\x97\xa98~&gt;\xcd6*\xf8\xefR\xfc\xf31\xef\x0fGN\xc7\x9dm\x8f\xbaD\xd5bsB\x8e\xb5\x1c\x07\x1d\x12w\xa8M\xb3\xf3-\xa8\x1a\x14[\xe7\x8cS\x0c\x19\x9d\xd3?\x96\xd2\x0c\xf9\xe8\x8c\xfa\x11aO\xaf\xad)\xcfO\xe6\x95\xf3\xf3\xd4\xa9e\xb8\xa8\xb4\xfe?&amp;\xc3{\xab\xec\xfbg\xe3fB1\x00\xf2\xd8\x95HU\x0b\tT%\\4\xa7\xda$\xba\x02%\xd3\xa1\x1aW"\xd0OK\xa9\xc8\x0c\x82#\xd3\xae;B\xc7 Q\x99t\x10\xae`\x1e\x9ev\x93[a\x97\xdd\xb3\x9c\x8b4\x99\xfa\x07\\\xa8H\xf4\xefID\xd9(\xcf2\x91\x9f\xca\xfeBC?\xbe3h\x86d\xb4\xd5\xff\x00\x83\xe5%\xdf;\x89\x84(=\xe5\x1a\\\xf4:\xd4\r\xb5\x9d\x94\x8a\x16\x9bG\xee\xa6\xa6\x8bjO\xce\xd4\xe3\xd6cR\xf7&lt;/A\xbaB\xb1\xccV\x93\t\xb7\xd8=\xaa(\x9b\x96\x1f\xdaM\x9d\xe2Iz\xcbm\x8e5E]\xd6\xf5t]\x14\xfd\x0f\x90b\xce\xa4\xc1\xe7}\x95p\x06\xdc\xe3\xd0\xc8\xca\xc61\xaa+\x9a&gt;B\x17E\xb8s{.\xc5dD\xb5\x82bU\xb1Lr\xb6\xa5\x8b\x82{\x91k\x83\xae\xba!_\x99\xf8V\x9b\x12v\xc5\xcf\xdan\xd2\xd0\x1e\xee\x19\xa3R\x84\xf3\xd2\'\x89\xfc\xf7\x8c.\x9c\x98\x15{\xc0|\xa2\xf0R\xf2J;\x11\xb3-n\xfb\x1e\xad\x1e\x97\xac\xbft\x96\xf2\x92;)\xd5_\x16A\xb1{\x9d\x9ed\xe8H9\x80\xce\xc1\xe36\xb3\xaeCi\tV\x14\x8c~&gt;A\x04\x15VY&amp;Y\xe1\xae\xc74F\xca"61l\x1e\x8f\xc1 a\xb03\x82YTg\x8a\xd8\xe1\xba\xfa\xa6\xbfX\xf0a\x92I\xfb)\xd8\xee{\xb0\xfb@\x8eUoC\x0f\x17H\xd43\xb9\xc6\x0c\x97\x8a\\3\xa3\xeb\r\xb0\x97\x16y\xabG\x9c\x17.e\x8d%\x05\x0e\xe9\xa2\xd7\x93z\x8d\x83\xce\xf6\xc8\x0eKj3\x95I\xba\xc5K\x9a\x9b\x11\xde\xad\x95\xd7G\xb5\x19\x153\x0e\xbb\x1f\xbc\n\xc7\xcc\x91\x05\x9c/IG\xd1\x15\xe4]\xc6l\x81a\x17]\x16\x9b: V\xe8\xe3E\xe1\xe5S\x9b+\xf9!$c\xe84au\x96y\x05\x01&amp;\xd0\xd7\x0cN@\xc6\xad\xd6q\xa2\xf2w\xfc\xdb\xf3n\x06\xab\xcd\x95\xf9\x80\x0c\xc6\xfd\xce\x9d\x18\xd0\xe3\xcf\xc1\x8az$\x05\x12\xd8\x15\xe6\xea\x1eO\xab#\xe3q\x1b\xb2\x8d\x87\x85\x8f\x8a\xa1OJ6c\xff\x00\x16\x88\xa9Bs=l\x99v\x88]\xe5\x81\xfeR\xd8\xd8S*\x17,\xb1\xd2\xea\xbb\xbf"\xb1\xb4\xbc\xb8\xe1M$\xdf\xe7\x0f\xc6Ha\r\xb1$\xdcW\xa4\xb8f\xbb/2\xc7\xb9\x13\xa4\'Z2\x17U\x0c\x04\xc8\x1a\xe4\x87\x98\x07\xf4j\x9a\x08r\x85\xb1\xa1\x16\xf2r\x9c\x95R\x90\xb4\x03\xb3\x9a\x1bV~8+?\xecupB\xcd|\xa5\x82{4\xcb\x80\x84x1\x0c\x19\x1b\x1e$u\x17\xb3\xb2\x9e\xe8\xa2\x96\x93i\x95\x94*h~\xc6\xca\xe4-s\xe6\x9ec\xc9=1\xd4\x15ma=\x14Jlw\x9b-\xb4K&gt;\xb9\xf9\xc3\x9dj\xe5\xc7\xb7\xc4\x12\x0b\x95z\xb71|\xce\xf2\r\xdcc\x11$;\xd3n\x8b\xd0\xd47\xd2\xe8\xbfrwm\x81\x1e\x11\r\xb7r\xf7Q\xeczs\xb7\x13\x03&amp;\xaa\xd8\xa7\xbe}\x17\xaeC\xeal\x06\x87\x11\xaf\xf2\x03\x92;\x123A\x92/]y\x97?\xb6\x01\xaa\x0b~\xaa\xab\x02\x9e\xa6DUd\xec\x93\xcdA\x9c\x9cF\xb0L\xd7i\x97:\xc3\xde\t7\x16\\iU \xed9y\x11\x14=\x97&lt;AG\xda\x192ia\xf9\xeds\xf6G\xce\x14b\xa3\x95p=I\t\xad|\xe1u\x84\xf4\n\x86\t\xaa\xcf\x1f\xa91\x993\xf7\xdf\x9a\xdb\xcd87\xad\x92\x03\x86\xafVV\xea\xf3\xfb\x0c\xea|\xd7\xadG\xd9\xdf\xdbG\x13\xed4#g\x97.iF\xb1d\r\xbd6\xa8\x84k\xa3\x87\n\'\xcd0\xb6\xb1a\xf9\xa2aL\x9a&amp;\xd6N\x8b\xe6\n!\xf0\xdc\xa6M\xad\x17\x8e\x8c\x98$\xb4\x91\xcfJ\xe5\x01b\x85\xba \xb8_\xda\xc2\x83Z,\x13,\xdcmr\xb71\xda@\x9e\xdd\x16\x89"\xc0d+\xf7\xad\xe5\xe2\xcf.h\xd5\xc1+z\xe4\xe76H\x13\xc4\xebLx\xceh\xf1CB~(\x1cM\xaa\xf8\x0c\xd4\x9bE\x9a*\xe2\xd6hT\x88\xa3"\x8d\xbf\x8dT0\xc0R\x8c\xb1\x0cM\x89\xdaU\x87e\xc9\x89\xcf\x93~\x8a\xef9\xe3\xdb\x01D+\x82~\xc9J_\xee1\xbe\xcb\xcd\xb9\xaaXLz\xd7 o)Q\xe2\xbe~\xd3a\xcd\xc9\x00\t\x81\xc9\xbfq\xd5gY&lt;\xef\x84\xe8\xdd\x04\xb8\xcf\x9f\xa3\xdb\x94\xa4F\xd6a\xd372E\xea\x16\x94\xea\xc6@\xb8!\x94\'(\xd2EC\xd2w\x89\x8e\xa3S6`C\xd7\x0b\xb2\xa2\xfa\xc4\xae\xa5&gt;q*~\xd0\x9av\xfa\x9e\xee\xa4\x8c\x02\xb1\x8d\xd9\x9bUG\xa1O\xaf\xdf\xd4f(\x89D\xe7\xa5\xb7YFwKY\xdb\xb6\xa2\xee\xbdIgf\xad!\xd3l\xa8\xe7q\xc1\xde\xa1\xc5p\x0b\x1f9~^\xe9\xaaS&gt;\xa9\xdf\xb3\xd2[\x97\xa8\x02\xd5f\xb9\\\xd9\x10\xbb\xce[\xd2=\xfb\xd3\x0c\x18\xc1oz\t\xa6\xf1\xf9\x92\xf9\xc6\x89h\xafz\xef,\xc0\xd4\xff\x00gm\x08\xdau_\x8a~\\\xde0\xeaL\xcd\xb8\'\x87S\x9e\x88\x96\xd9&gt;\xdc&gt;\x9c\x83H.T\xf6th\xd5\xa6\xf2\x8dZ\xa8\x8c\x03.\x06y\xf5"\xaa\x917\x89\x83\n\xb0\xccz\t\x1ceR\xd0hk\xf5\x1euk\xc2\xfb\xd7\x97\xf4\xd3_\xcd\xcdDCIs\xa0\x94\xc0\xe4\xbbB\x9d)\xdfl\x1c\xfdQ\x06\xb6\xe8&gt;#\x1d_U4\x8f\x18\rN4\x11\xbd\x1c\xb3\x01t\x03D\x15=\xf9\xb7ND\xac7#\xa6\x8ft\xd3\x03S\x17\t\xf5Z\x9c\xbd\n\x02\xb4\x12%*\x83\x7f?\x9c!Z\x1b\x10^s\xa4\xecZ\xca\xce&amp;\xfd\x80~\xda\x8c\x913\xa1b\xa4\xba\x8e\xa9\xf8*\xbd\xa3\xcf\x12\xb0*K\x83\x8c]\xcb-\xcd\xb7:!c\xe0\xaa\xe4\xf49\x90\x88k@\xaa\xac\xd2\x96\xc6\x8f\x9c\xf1\xec\xdf/[\xb6\rX\x15\x9c_\xdd\xb6\xeb\x81\x13\xf6\xa7\xcd\xbb\xea\x9a3\xde\xfenU\xe8\xba\x08\xb2\xea\x18\xb7\xa8\xf2\xb1r&amp;T\x86\x03&lt;":\x8f(\x15\xc4\xb5\x076\xee\xa6\xec\xcfZ\x85\x10\xd6*\x16H\xbd9\xe51\x89pJ\\\xb1w\x81\xcd\x01;\x1c\x8c\x9c\xe7\x1dR\xa6\xe3\xc1\xb0t\xe4N\x83)\xb2\x9cv\xda\xba\xb91\xcaZ\xe0\xae\x84\x1e\x82\xef%}\xee\xf5\x82\xbdjq\x8d\x9fo*\x1f\x04v\x95\x1dI\xc9\xfe\x98v\xf95\x12\xd04s)\xdd\x9e~\xc7\x02\xb1\x81\x85&lt;gZ\xa2\xd8\x90\xa6?9\xbe\x96#\xda\xf4\x8aR\xe3\x0ft9u\x04\x18\x996s\xe7\x93\x12\xef1\xdf?\xe8\xe3\xa9Te\xa1\xf0\xb5S\x9d\xacO\xc5\xde\xf6\xc6"?\xa1\x98&gt;Ik\x1a3]Q\t\xa4"\x9f\x8f%&lt;\x03\x8f\x0eh\xe9\xc6\x10\xf0\'XXVi\xd13j\x06y,\xa0,\xd1\xd6\xa30-\x83~\xba\x0e|\xa7\xd3s\xf9\xcekZa\xf6\x06\xd38\x87]\x97\x93\x13\xdalv\xd0\xd4\xb0 \xaa2\xe8\xbe\x89=\xa9\x94&gt;\x18\xf8\xbe\xf2\xb4\xca2\xdbZ\xaef\x17wQ\xdc\xf4\xb9\xc8\xbb\xccI8\x16\xf5\xf9\xe9e\xf5oB\xd77\xde\xcb\xab\x8a\xafG\xc3\xec\x0e\x90"I\xb4\x942X(\xc9\x86R\x16\xbfo\x88\xe2\x0f\xd1A~`\x93}\xc84\xa1W\x05\xa4\xa6\xd4\x025\xba\xde\x07\xd1\xe4\x16D\x16e\xd1\'\xeb\x95\xb5\xda\xa5C\x9cR2\xc5\xe3VGHe4\xf1U\x1f3=2\xb8\xc0\xfb&amp;\x95I\x9d\xd1\x93\x80}]\x8f8\n#\xb9\x12\x9ek\xc8\xde\xd8\xe7+X\xcd\xac\xb2\xba\xc5=\xe0\xad\xfa~\x84L\xab\x88\x18\xcc\x97X\xe9%fQ\xf9\x00V5\x07\x94\xed\r\xf9\x19\xa5\x98\xde&amp;\xb9F\xa0\x00\x0e!J\xb8\r\xb4g9\xeb\xf3\x81Dz\x02y\xe5\xae\xac\xd2\'\xf6s.\xa9\x1d\xa0\xfbhLuB(\x07\x9c\x83\xe8\x0e\xa4\xbbi]-\xcaU\xea\x131\xbc\xedauS%\xcf.p\xaf\xca3\xed\xa9\xd4\xb6\xd2]\xa2 \xddC;\xa6\xfd\x19\xd1\x96\x98\x85\x91\x17\x1a%\x8f\xcb\xc1o\xd2\xcb#\xd3i%\xaf\x13\xa3$\xf4\xea\xf3\x11l\xc64\xd0\xaaD\xfe4\xf0\xb0&lt;\xa2a\xc0\x0b\x02iuAc\x9d\x94\xbf\xe3y\xca\x8b\xbb\xb0\xa7\xa1L\x7f\xf1\xa2\x169\xf5\xaf\x0fD\x1a.\xf2p\xea\xe1\x16\xe4w\x83\xfa\xd3=\x18\xea\x16\xc2\xca\xad\xba&amp;\xd3Q&gt;UE\xbc\xd4m\x8e\xf5&amp;8\xba\xc7\xa1\xf348\xbd0\xe4+\xe8\xfb\xd5\xe4\x9a\x91\xd0\x9f&amp;\xe6H\x1b\xaa\xc0$h\xf6\xdfv\'\xf6\x9d\x8ax\xe4?mW\xc1\x1f[\n0\x07.@\xb1\xc2\x82\xc63\xe8\xa8\xfe\x7f2\x0fi\xa0\x04v\xa5l1\xb2_R\xb5\xda\xe4\xfd\x99kL&lt;\xcbW\x9cq\x86V\xdf\x9a:\x0cq\xf9\xb3D\xe9\xab\x89Ww\x02T\xb8\xf3\xa7\xad\xd5Y\xb2+\xcb\x86W\xb4\xed{\x86\xfeM\xd6?/\xef&gt;P\xf9\x92\xb2U\xad1\x0f\xafx\xee\x92\x93d{\x0c\xbc\x90C\xfc\\W\x9ew\xa6s\x98O~!\xb3\xaek&amp;\'\xd0\x9aW\xdbO\xb5\x85\xdadV\xf8\x7fMm\xc86!\xf4#_Ns\x97\x85\xf7@iK_(\xfaO[Cy\xc5\xab\n\xaa\xfbp-\xe9\xad4s\x118\xd1V60\xc1\n\xf5\xf1\x8d\xf5\xd6\xfc\x91!6\x8a\x06\x15\xd7\xb7&amp;\xc2\xc6\xddh\xc6\x0f(V\xdf\xb9\xad#\x9a\xb8s\x85\x1d\xd2\xd0s\xc4]\xd68\x9f\x80\x15\xf2\xb5\x15\xd4\xa6E^\xc6\xaf\xad?\xcfj\xd6\x98\xf2\xa7x\xcc%\xe1dd&gt;\x19\xaf\x17\xa6\xf3\xaa\xef+\x8b2\xf0\x03\x1b\xfc\xf9K\xbbv\x1eB\xed\x07R;\x16\xbf\xf1\xcc\xba5\xcd\xf3\xb3\x93\xf2\x978\xa0\xc9\xfd\x02\xac\xf2tz\x87\x9c\xbd[\xe7:&gt;\xc8\x88\x04+u\x9d\xd8\xd2\xa9]\x90R\xed\r\xa4\x8cv\xd4\xf3\x13y\x06\xb6:&gt;\xaa1e\xf8\xd4\x85\xb7,2k\xaaX\xe4t\xeac&amp;Rg\xb4\xa5Z$\x8e\xbf,\x10~n\xcf\xdf\x1c\x1a~z\x94\xdb\xb9c\x04\x81\x99\xd9oa\x18\x17\x13\xa1\xaa\xaa\xdfKm5"\xfb&amp;xY]\r\xe0jG\x9ah\x0bU \xbao\xee\xb0\xfeu|&lt;\xf77\x03\xb2\x1b&amp;l=\xf3e\xa1\x0f\'\xc3l\x80\xd1}\x1c\x1f\x9b#\x05\xf9\xbb\xa5\xcf*\xb8\xdd\x95&gt;w\xc1\xb3\x02\x8e*0\xa6\xa4\x0b:\x90\xb1\xb1\xba\xbd\n\x7fK\x98\x8b\xa5\x02Gn.\x89\xa2e\xd0S\xd1k dz\xd6K\xbbD@a\xa8\x8ca*\xdc\x01o\xa6.\xa8/\xc1.\xd0uvq\xb4\xd7\xeda\x13\xa1\xe9\x05\xd3R\xd4\xdf\x1eQ\x17\xa2\xecEo\x9dWw\x0b\xb45\x19\xca\n\xa6\xa9\xcc\xdecB\xddB\xa5&lt;p\t\xe47\xa8%\xaf\xb8V@k\xfb\xd0\xedhT\x95\xaa\x8aA\x7f\x08\xc4\xb6\xa7,z;I\xb6\xaaSOj\xa4m\x88\xb7M\xe1\x9b`I,\xf4\x01!1\x8fPq\x0e\x80z\x1c\xc8\xb3\xd2\xce\x19\x9b&gt;\x99\x87^|\xa2.\xc9\xae\xad\x82\x9b\x18\xa3+]\x9e\x9e\xef\xae\xcd\x9f1\x10\x0b\xf6n@\xbfA\x99\x98\x85I\x97\xe2\r&gt;\x95Q\x8f\xd5\x9c\x96\x81k\x9c\xd7#\xfabp*z\x89\xe3\x11\x8b\xf4*\x07\xdfH\xab\x03\xea\x1b\x17\xc5\xd7{\x89T\x8e\xc8m\xd3%[\x0emQ\xc3\xe3P\xc4\xd2EW\x9b9\xdfv\x19=\x99c\x7f:\xf5\xe3\x1b=8\x7f\xd4_\xb0\xd9\xd5\xd3\x99\xd8Y\x82\xaf\x16\xb7\xe5)\xc3\x1ev\xc1\xd2Tj\x89\xd9\xdbF\xa6\xb6\xcc\x87\x96\'K\xcdt\xa01KKh\xca\xc2p\xc0,S\x8c5e\x81U\xfe\x0f\t3\x9a\xa1P&gt;\xcaeJ\x0c5.O\x9c\x95]T\xc6g\xc5E\xfaI\x8cTd\x10(Sw\x07:\xc59\x9a\xd5\x07\x9e\xe9k\xd0\xb5E\xad\xb22NEP\x1cU\xf4z\x99L\xca3K\xc7\xa8\x9fR\x93\xab@r"\xbe\xcc\xa6%\x99\x8b2oSH\xa2\x8f\xdb\xbet\xbc\'\xe3\x8e\xc5\'VE9\x1ei\xc2\xcc\xc2\x82i@4\x19\xdb\xb6\xd4\xae\x7f\xb5r\xec8]\x9d\x1c\xa0\x15,\x18G\xf3l\x04\xd6]*\x83\x12\x8aO\xdd;\x1a\x13F&amp;=cdPq}:6\xa3\r\x99\x82\x1f\x88\xa5\xf9\x8b\x9c\xfd}\xf8\xd2\xdc\xa9\x9f\xe61\xe8\xd6u\xdf\x9e\xb7R\xf1\x1b\x13P,]&lt;\xbb\xdb\x0c\xe7\x1e\x82\xca\xdc\xb2O\x06\xfb\xa6\xc79Y\x8a\xa0]\xa7-mpa\xa3c\xdc\x8a\x98c\x9a\xb4\xb59\xdb\x9b:c\xb8\x94\xa1\xb9\xb6k\xbc\xc1NKz\xa5&gt;\xaeF\nm:-\xe3VQ7\xf5\xb6\x93\xcd6\x06S\xaax\x8d\xefI\xa9\xa8\xb0]\x01\x95:\xb6_`B\xf3\xef6\xcdh\x1c\xea\xe2\xdd\x0e\xd1\x06\xd1\xb0\xad\x9d\xad \x16\xf39\xa9\xf3\xd5\xed\x90U\x12\xc9\xcc\xc0\xde\x9c\x17\xa2e`\xe8N\x8f\xfbU~b\x0c\xe7\x02\xbckn{z\x957q\xe2[\xa4\xae\x1c\xb0\xda\xd4\x82\xa6IE\xc2/e7\'\xda\xb5F\x9d\xe2K_\xf1\x02\x01\xa8\xea\x8b\xa4\x9d^\x84%\xedmM\xe3X\x82\xe3 \xea\xe0\xe8\xc8\x1f0\xc2\x99\xf1\xf9f\xddW\xdb\x93\xa3\xb1\x13\x03\xd4\\\xe9e*\xfe\xce\xf9\x13\x19\x00\xaa\xc3"\xf5\x8b\xc9^\xf7M\x11.\x86\xd0\x03\xe4L\xaf\xcf\x9e\xc1u\xc9#ff\xecm\xe3/K\x1b!9\xd5f\xf0,\xf1\x85\x87\xe2\x92\xc7\xc2T\xb1\xf6\x94\xf9,!=\xfbT\xf2K5\\P\xc60R\xab\xd3.\xa6FM\x84$\xe4f\xd1\t\xd34iD\xbeJLe\x0b\x9f\xb5&lt;_OH\xefL\xe6:\x97p\x93zI\x97\xa9\xab*\xf7\x8c\xf4&lt;\xf5\\\x9e\xe0\xa7;\xab\xf9\xb7\xa8e\xca9\xaa\x07g\xe9\xa6\x8a\xdc\x9ftQ\xfc\xd1\x0c\xfa\xe83\xbd\xbe\xb5J\x11h\xe7Wq\xea\xe66\xc8\x85\xdfZ./h{\xda\xa7\x1dN\x0fj\r\x80\xa6O\xab\x92\xe5Yl\x9e\xb7x\xd6c\xf6tv\xc7f\xc4&lt;\xb8\x1a\xee\xe6u\xfc\x0f+\xb8\xde\x9a\xfb;\xa3\x19\xd6D\xdaw\xcdzx\xd7D\xca\xbe:\x104\xb9\xe5(cs\xe7\xa70K8\x86c~\xc3bF\x14D\xd4\x02\x85\xebm6\xb5\xf1\x9cF\x8c 2Mg=\r\xcf\x06W\xa4\xfey\xdfu\x0ci\xc4\xb1E\xbcD\x8a\xc2y\xf2I\xd1M\xbc\xab\xaeM\x1bu\'3\xa3}\xe7\xfb\xe6\x9e\xd3I\xac$\xf1s\x1c\xf7\xd3\x89\xcb\x86;oQk\xe3\xc2\x93\xdc$\xc4_E~\xb6[\x1d\x98Q\x84L\xdbV\x93}\x8at\x1c\x7fO\xc6\xafx\xdcx\xab\x14v\xf5\xcc\x9b\xa4\xe5`\x80\xf6\x0e\xdb\x9bM\\U\x98\xf3\xb3\xae\xb8O\xd60\xbd\xac}\xa3s\x1c\xbf@i%\x8c\x84\xdd\x02\x18\xfa\xb2%\xbeLY\x97\xd1&lt;\xe9c\xe4(m\t\xea\xaaQ\x9fK\x19\x0ei\\\x91\xcf\xb9\x93\xf0;8\x1a\x9a\xfa\xd9\xb9\xaah\x9a\xfep\xe6\x0b\xd3\x1c{\xdf\xcd\x99oH\xe8\xf1\r&amp;Z\xe0\x84t@\xa6:z\x17\x01\xd9\x9d\xa7\xa5\xee\x94&amp;\xd71\xac\x90K"\xd9\x99\xee\x10\xdb\xa5\xce(\xa9\xf6AJ\xd1\x9aX1\xd64\xba\xd1\xab}%\x1e\x90\xc4\xa3\xd1\x08l\xe1\x07gn\x96\xb2W\xbfA\xb7\\~\x9b\xe7e\xff\x00\xaf\xafm=A\x0e\x829\x8c\x93Wd\x86\x95\x9b^\xa2\x1da\xccs\xe2\xfb\xf2\xb8\xfe\xb0\x93!&gt;]\x96\xcc\xebm\x06\n\xe9\xdd\xbd\x86g,\x06\xf0\xbe&amp;\xd9G/\xb8w@\xd4\xf6$+\x16\xb7\xb4=\xa8\xba\x8cW\x15\x0b\xb6\x85)KUB=}\xbc/`\xcf\x7fW\xa1`\xf4a\x81Q\x7fI\x83\x93v\x81P\xce\xf0?$\x99=\x9b\x1fXZe\x87A\xe7\x9f\xc9j\x1f\xb4g\xb5\xcf\xa0\xa4\xea!\xc7zO#\xc6\xd3\xd9\xdcq\xd7E\xd09V\x9d2\xae\x14\x90\xc0&lt;g\x9cVvs%x\xa5R\x82^O\xd1"\xc8\x90\x89\xf5o\xcb\xf3d\xd7\xc9\x81\xf9w\xf6\xf6\xe2\xc3\xc1\xabG6\r\xb9\x95\xceT\xe8\x80\x95L;\xc9\xb7y\xeb\x99\x960Y\x1d\x88M\xe6\xd9\x127hs\xfbs\xbe\xa1DY\\\x06\xb9\x97\xb6\xfbi5&lt;\xb3\xafu!\x96!\xb7s\xb5\x1b\x96(\xf1\xb2\x91)0\x16\x98\xdb\x8e\xecF\xa4/\x12\xda\xd8\xc8v]f\x8dl\xcc&gt;\xc2jL\xfdf\xab\xb4\xf30o\xf2Ub\xd3z;j\xd05@\x95\xf9\xf3\x0b\xba.\x9c\x1f\xb9=4\xe1\xe7\x1e\x91\xfd\x9b}\xae\xee\x8d\xa6;.\xc2\xd2\xbb"D\xebH\xfe\x89a\xf4~I\xf3@\x97\x99\xd7-\xb0:\xec\xcdmNz\xca5\xba|\xa9T\x81\x85\x0b\xa4iB\xd3L\x05\x1b\xcc\xc4\xb6W\x1d\xbc5I\xa5Z\xed\\\xc5CmK4f\xad;M\x96\x85\x8c\x1a\xe0\xa9&lt;\xf61\n\x9f\x9f\xea$1\x8b\xa8\xbc\xf69W\xa7]\xcc\x98\x85\xa7\x99V\x07\xa9eRZ\xc0m{Sw\xed\xe1\x8c\xd4\x8a\xca\xb4V\xb9\x19\xdd\xf5\xfd\x8cx?@B\x8a\xcb\xc0\xa7\xc8$\xe7\r\xbd\xcbh\x07\xedK\x08\x8c\xe1\x9f3\xd0\xa1\xce=\x1c\x8a\x90TOI\\C\'\x93\xf3\xd3\xdco\x9c\xf3~\x9c\xa2\x9cE\xeaR\x85{AO\xbc\xd4y\xddZ\xd3\xc6\x1d:\xdaT)\xef\xc1K\xb5\xb9\xf3VB\x16\x12L\xec\xbe6\x9fCc_\xf5\x84J\x83\xf3*\xd6\xa9S?,\t\xdb\x9d\xde\x01\xea\xaav\xae|\xa1N\x9f\x05\xfa\xa3\xca\x0e\xc2\x014\x84\xab&amp;Z\xf8\xf9\xef\x08U\xde\x9fR\x11\xd8\xec\xe4\xcf\xb6\x95\x9a\x98\xeeU1TO|N\xec\xed\x07|\xb4%\xb3\x89\xc7\x08\xcd\xa0\x1d9\xbc\xe1\xd0K\xd4\xfc\x03\x96\xba]?C\x86\xd0\x94vK\x80\xb9\xcc\xc4\xed\xf8\xf4\xcc./\xd6\xf2\x96tRr\xdc\'+\x823\xaba\xc3\xc9\xf4\xc1l\xc7\x0c\xec]\x9f\x97PP\xcb\xba\x86FB\xc0Ex\xa4\xefB8\xf2\x88\xba\x91mR\xac\x1a\x93\xe9\xec\xbb\x00\xd2\xa7$\xdeR\x83%\xd1&lt;\xad\xa4\\\xe0D\x17\xb1\xb0\xbf+3\x90\xa8\x0e-`:\x02\xc5\x82\xc5\xcf\x10V\xc1\xd2k\x12\x87\x16\x91e\xc5\x85le\xe8\xed`\xba\x96\xe7\n\xd4/\x94lf\xf9\xf0\x81V\xe7\xc1\xf6dX\x94\xfa\x18\xb0\xe0N\x87U\x0e\xbf6\x9c\xef9\xfc\xae\xa5\xb3&gt;oi\x85898\xed^P\xe1\xdf\x9aj\xf3\xc3^\x7f\xd7\x0f\x8cg\x9d\xd3\x8e\xd5\xe8\x01T\xaa{\xb4KKc\xb9\xea\x9eD\x87\xe0\x92\xbb\x97#Z\x8dX\xf4\x9cT\x9e\x9f|V\x82\x8e\xfc\xf3\x05\xca\x1b\xf1e\xfa\x05L\r\r:/\x1c\xa5\xd6G\x1f\x9d\xcb\x1d\xa34\xce\xd2s&lt;u5\xc95#+\xf6uS(\xb7e\x12\xc6\x8dMt\xbf\tn%\x7f\x00/S\x89\xa5\xee*\x0b\xf9\xbb\x1d(\x1d\x0b\xa3\x9b\'\xde\xa4\xb8\xa2\xa7H\x11\xb8\x93\xbaO\xb3\xd3[\x08\x860[QBrS\xd0S\x8bY\xe7\x8e\x98C\xa0\xfc\xa0\x0c\xa0\x0f\xe6\x8b\xeav&amp;\xd1\xfa\x9eA\xbf\x16\xbc\x1f\xcf\r\x94[\x15\xeb\xf9\xf8\xbdK\xf2X\xd8\x9b]\xa7\x0f\xed(\x06\x05r\x92\xf9\xea\xb8\xba\x8f\x91\xba"\xbc\xe1\xbc\xe9T\x93\x98,\xa7u\x1af\xd9\xe7\xef=\x91\xcd\x8fEv\xber-\xc9\xdc3 \x94\x1f\x0e\xf0\x9ar\xdb\xe3H/\xfaR\xa5M\xb0n`\x1bL\xa9\xcb\x0e\x18%A\x05Z\xf4\x9b\xa1\x82q:1\xc6\xd8\xf6\xc41\xc7{\x0e\xacyi\xac\x98gt\x8a\x0c@\xed\x1c:\xd8\xe4\xec*?\xb2\xa2:\xadRg6\xf5\xa8\xa9\xceB\xd5P\xe2\xe6\x95\x9b\xe9!\x13s\xae\x05\xafo\x0f\xb3\xfd\x91\xf9d\xc2|\x9c\xc6\xac\x935\x1d\xa5\x89\xde\x04\xd0\x9c\x8f\xc7h\xab\xebr\x00\xe7/\xfb\x05P\xba\x15t\xab\xa0U\x04\x06 ^\x1e\xa7;\xaaU#\xce\xd5\x88\xc3\xcb\x14\xa8D:\xd9\xb5A)0K%=[\xa2O\x9ff\xdaS\xe4n\x96\x81\xd9\x81\xab\xd6\x11\x0b.v\xa5F\xf4\xbf.\x8c\xdd\xafV\xcbR=)_rK=\xea\xc8\xc1\xe2k\xcel\x10SN\xec\xf9O3\\ \xbei\xea\x87\xc1\xb4\x07\xf2\xc1\xe1-QV\x0c\xa1&lt;\x82\xfb=f\x84\x11c\x04Gp\xcd\x90\x8bZ\x14s\r\x8fp-^"\xefA:DR\xf4Lf\x850\xfa\xf4\xc8\x1d(\xe8\x9a\xf9\x042yI`Y\xad3\xdec\xa4J\x84&lt;\x86\x05}]\xa5|\xfa\xfee\xa0\xdb\xe5x\xdaK{\x99ls-t\xddc\x97\xfa%\x802\x13\x99T((~j]25\x92\x14\xa9\xc8:\x12\xa5\x8b\'m]\xfaK\xd9ry\xca\x06\xb1M\xb1\x0f\xc9\x96\xb7\xd8\x91+\xcdn\xab\xf3\x97U$\xd6\xcc\xe5_m\x1a\x843\x8e\xd0&amp;\x1ce5\xfe}\x16\xbd\xd0\xe6=2i\xce0r\xfaX:\xc5*,\xfc\'6z\x03\x8f:\xcb\x1d\x03\xa2X\x10\x9a\x17$vq\xa2\x93\xa3\xdaf\xe9d\xa55\x8b\xc4\x03\xd0\xa4L`\xda\xea\x86\xa1F9\xd4T\xd7rY\\Ax\\\xaf:\xe6v\xa1A:6\xa4\xdd\xceG\xeb\xa5\x19\xaf\xc9XN%\x13\xb3\xea4=\x80\xc8Zf\x0cSdmX\xfa\x0e7R\x07g+\x1d\x1b\x10ydF\xa1\x9bi\x1a\x93\x89\x81\x96\x7f\xa1\xe7\x87\xd3c\xef\xf9%\xa4\x9d\n\x17\x18\x83\t\xb43?&gt;\x13\xd3\x83\xf7\xa6\xb0\x8b+\xb2m\x90\x89E*2\xc0t\xd7S\xc0v\xb0G\xcem\x0fZ\x07\xd3\x19)\xea}\x05\xfc6\xfe\xd3\x9d\xef\x1d\xb8\xa7\xb3\xa0{\xf0 \xfa\xaep\xc0\xe2\xe5\x13\x97\xd7pO1\xbbZ\xe19Q\xa7o\xf3\xb7yV\\\x9f5\xf3u\xe8\xed\x15\xb2u({\xdeQ\xadg\xa2\xa0-\x12\xc2/\x85\x9fF\xc7\xf1\x10\x91jq\xdc\x81\xc3k}aj\x13\x8d\x13\xc1iDX?8y6q\xdda\xbdR\x95\x15\xcf`\xa7Y\xc3O\xca\xf4\xa5z\x9c\xe7U\xcf\xd1\xaf\xc5\xe7\xc9\xddr\x0e`da]\xb2\x90~\xd9(\x10)\xed\x93b\xd4\x04r]e\xb4\xc5\xc4\xaar\x7fJ&amp;o\xb51\xfe5\xe2\xdc\xc7e/\x0eZa\x0c\x8c\xa1\x7f\x83c\x0c\x8e\xc1^\xa77\x9e\x90\xacQ\x89\xb4:\x88\x8e\xe4\xa1g\x08\xa3\x10\xd3\xdeR\xaf\xae\xa3&gt;L=.-m&amp;\x96\x82\n\xd76!5j\xfc_&lt;\xab\x1eN\xd8p\x1e6\x91\x08"\xe1\x1d`\xad\x0e%\x1dmh\x1f\x13\xd1"i:+\xb1=Y\x8a\xb8\xa46\xe4\x9d%\xc8=\x0fN%\x07\x9aj\x8b\t;\x89\xb6QL}\x05O-\x95\x11\xf1O\x9d,g&gt;\xdb\x96\xe7\xb5\x1f\x9a\xd6\xf9\x88A\x02[})\xe5\x81\xb9\x8a2\x9f\xe7\xef\xfa\xa0\x86\xd2\xa11\x9d\xbd|\xfdt\x06\xc1\xba\x87\x0f\x17\x8c\xce\x9e\xe2\x12k?\xd8\xf9o\xae\x98\x12\xfaE^e\x90bd3\xf79\xe7\x8b\x12k\xa2\xa7Y[\x03 \xd9\xfau"+\xf5\x85\xab7~A\xea&amp;S\xe5\x1d\x1d\x9f\xc3\xf8\x86\xcb\nVMk\xe7\xdb&gt;\x19\xad\xd1\xa7\x87uv\xea\x98J\xbe\xa1\xd0\xf3\xac\x15\xb9w\x80Ta\x15\xac\xec\x88\xe2\xc5;\xc2\xbb\xdc\x9a\xf4dt\x88f\xda\xfb\xea\xb4\x85\x01\x8b\x04\n\xc6\x0e\xfd\x83E\x1f\xb7\x01\xe8\x1b\x87`\xbbx\xed!2\x8a\x14\xa4\x7fp\x85\xdf\xa9\xa3\xeef\xc3[\x9c\xc7(\xc4\xfb\x7f\x9ez\x03\xc2\x1e\xe1=\xd0\xee\x83\xe5j\x7fp\xef\xf2\xb77M\xf3X\xe3\xb6r\xf6g \xa9\xae\xfa\t(.J\x15\xc5Ky\xc9\xcb\xddN\xaa\xc1\xe5\x92\xa6\xae\x12\xd7\x92l\xdfP\x1b\x10\x1b\x1a\xae8\xe8\x0e\xb4\x1b\xce\xfa\xb4\xbc\xb5\xa4\xdf\x82\x04p\xf6\xd6U\x9e\xf4\\v\x9c\x93\t\xc2\xb6\x1b\x99\xdb\xc7\xd4\xb3}\x00\xc0\xe3\x03\x1b\xe2\xa9O\xc2z\xb0ri\xed\xdfr\x82\t\xb9Z\x17\xa5Ejb\xd8\xa5"W\xa2\xe3/ \x11\xe9\xcf\x8a5g=\xc8^g&lt;.FU}{\x91\xa8\x99\x10\xe9\x9e{\xd0\xa8&gt;N++\xb2\x05\xeb\x9f+y\x97\x8a6\x89\xf5\xb5\xaa\xef\x93\xc3\xb4\x06/s\x0b?\x9a\xf5.\xb0\x9e\x8d\x9972]\xda\x1c\x97O\xa7;\xa7\xb8\xa1\x86\n\xc2\xff\x0046|\x138\xfaO\x9b\xb7\xbb\xbf\xe8$m\xcf0\r\xac\xae\xd2\x87\x02\xc6\xac\x8e\xa6\xa7\xc3\xeb\xb0N(]\xe4\xef\xa6\x92h\xdbG\x82\xef"\x93\x9c\xcb\x8e\xcb9uu\x8cC\xebU\x89|\x9f\xd9\xc0\xfc\xc5\xa4\x95E\x8aH\xfb\x9e\xd6\x8e\xcf\xc0\x84\xb6ut;/\xa1\x99\xce\x96\xb9\xbd\x7f\xce]\xda\xfd\xb76\xc6\xb0\xfa\xa7F\xce\xab\xbf\xe9\xc5o\x07\x9c\xa8^\x17\x0b\xa4Z\xda}5\x16T%tz\xab*\xf1-\x02\xd3+nw\xd9\x87\xd3\x1d\xe8\xae\xe6\xe4\x1e\x8c\x16\x80*\xba\x0e\xcbl\xe0\xe36\xc1\x84b-\nx\xbd\x85\xd0\xdb\xf5f\xd0\x0f\xe5\xc4\xafI\xcdT\x8c*\x8cL\xcfO@c\xf5P\xcf\xc4\xeb\xab\x1dOR\xcc\x95\x92\x15\xccj\xb8O\xc9\xbf\xac\xeb\x1f\xeaV\x11\xd5E\xa7\xc8\xfdg\x97b\x11\xa1\xb9\x0b\xd1P\xd2_\x12\xa7\x18\'\x87\n[@\xe7\xfa\x96\xabJ\x0eH\xe9.\xeb\xc6P\x08\x91z\xb8dFU\\\xdd\xf9\xe3\x00\x124e\x01\xd5g\xf4\x95\x0e\x81C\xd7\xd0E\xd7Q\x03\xa3\x03\xcd\x05H\xa4\xca\x82\x9d?\xca\xf6\xa85\x05\xa9q\x8a%\x1ac\xb3\xa97JL\x1b\x9a\x9b\\\x95\xf5:\xf4!\xd4u\xf2\xea\xd2\x93WX\x81\x16Tkb\x8b\xfbd\x98&lt;l&gt;6\x84\xe6\xa1\xa4\xf7\x1f\xd0\xa4\x03i\x9c\x1d=9\xed\xaeb\xda*\x1a5\\\x14\xe7\xcc]\x04\xdeq\xf2\xdc\xd0Q \x12\xb8\xd3;\xa5-C\xd4\xdc\xaf\xd0uc}p\x9b8\xb3K\xcb\x15\xf9\r3lN\xb3\xaf\xc7ug\xf4\xcbp\x98\xf6\xd1\x9b(\xcf\xda\xdd\x14S\\\xde\x97~\\\x89h\xf4f\xf6\x9c&amp;\xfc1\x87!Bg9\xdf`4\xa0r\x8e\xfb\x05p\x05\x1f\x90kLQbS2\x1c\x02\xbb5\xa2#\x10\x0e\xaf\xb6%!\x0e+\xf2\xa97p\x97X\xde\x8e\xc0\xfcP\x0f\xa2\xc6\xf4\xe4Hh|l=\x1e\x87R\xc2\xb7Pv\x89\x97\x98*\xf4&amp;Td#s\x89\xa7\xe8\t2\xbc\xd7\xb3G\xd8\xb2\xe8\t\x85\xd2^D\xf4Vp\x16:g7\x9d\xc3\xed\x82\x1a\n\tnI\xa9\xba\xc7;H/\xf3^\xb1\xedx~\x94\x95\xd54\xf5\xcf8\xe4\x82\xc7\x8e\xb4\x8eK\xa5OO\xcd\xa6\xf2\xb0\xc6\xa9\x0e\xceT}\tMx}\xab\xf7\x8c\x9f\x0b\x8e\xb6\xe5\x9a\xc6\x8c\x1fA\xce\xd4\xecC\xab\xc2rt?,\x98\xdd\x11;CV\x8a4^nk\x98\x00\xcf\x8dQ\xda\xa0\xcdfYr\x0f\x87\xe0(\x96\t\xab\x88\xd0\x13\x1b-o\xca\xe6+\xcc\xab\xa0\xa6\xd3-3\xc6\xa6\xae\x85\xd4\xa3W\x92\x13&amp;g.w\xa6\x83G&lt;\xdf\xc0\xa0\xe4\xed\x88\x13\x15y$\xe8r}\xea\xb2\xabiZ\xd6/5z\x025\xea\x08M1j\xa6\xfen}\xc9P\x16\x05\x8e\xea\xee\x02\xf3:\xa4\x0ee\xd1\x10}wK\xb1\xf9u\xe5\x95\x9b\xb9\xd6\x99\xae\x1aK\x02\x98}\x1eF\xebgG\xc8T;\xad\x02~\xbc\x9b\xf9\xe7\x14\xbf\x9e\x93\xcfL\x98\xd2\x8e\xe7G\xf7\x14L\x8c\xa9\x0c\x13\xfe\x92\x9bM]x\xa8"f6!\x81\x90\xa8\xcb\xd8\xd9\xd8u\xa9}R{sR\x94\xfc\x05\x9dG!\x04g\xe1\x11&lt;\xe2\xbf\x8bT\xc7\xda\x15\xb6\x11\x892\xfa\nfa\xa1J\xc5BT\x9d\xe8h\x93g\t\x9bC\xd8Se{*\xf4C!\xb3\x19e_/*\xf3^\x8b\xfd: \xdb\xd6\xdfm\x9fPB\x91\x85sn}j\x04\x95\x85w\x9fc\xcbC\x82\x1awX\xca\xe6\x17\xb5\x9bm\x91\xe8m\x91\x00}]\x11\xa5\xba9\xdd\x01\x9c\x1f(L-(\x0c\xf5b}\x17\x06\xdc}\x03sc\xa2\xfc\xfd/\x01\x9cB.|\xa8n~\x9bRd~\xb6P\x83\x07\x9a\xcd\xa9.\xe2F\xc6P\xbd\x16\xc8\xa0\xa6\xf2M\xa5fy\xb3\xa9 \x1bT\xf9\x8e=\x8d\'\xd2E\x1a\xdeZ\xd8\x84]\xd7\x86\xd6\xe1\x06[\xa0g\xcd\x13{\xdeX\x85\x06oB\xfb\xb1\xa3.\x88~k\xdehZ\x9b\xe2\xa3^\xa9\xcbw\xe4J\x8aQ\xe4\xc5\x94\x94\xac.\xee\xbd\xd1f\x93\xc9\xc2\xba\x04Q\x15\x98\x9d\r\xa9\x97\xda\xa7-i\xfa\xccSG\xb5\xb9\xbd\xb9!-R\xce\xb9I\xe3|\xf3L\x84\x01\xbf\x0f\x91\x97\xf2a\x0e\xae\xd0\x11\x81z\\0Fo\xa0\x99Z\x10,\xadEb\xe6z0\xde\xe2o3\xd8\x10\xdc\xde\x9dp\x89Q\xb4\xc6\xd2\x1b\xbf\xee\n\xe3\xce\x94Dy5G\x15_\xa3\'fT\x0b\xb0\xe2\x16\xa2s\xd7Ks\x1fD\x03\xa0w\xa6\r:/A\xe1\x83\x00\xc0\xac\xc1\x10\x07\x05\xaf-F\xdc\xd9=\x06u_\x827)_I\xb7Uv-K\x8c\x13\xda\xb2\x12\x96\t4Ls\xd4\xb1\xf1\xbaeY\xc5\xae2\x16\x84\xdcORN\x93A\xc1(\x8b\xe6W&amp;\xfb\x8c\xe3\xa1\xeb&amp;\xc9\x02\xe8}\x8b2\xe0,H\xe0\xd1r\x8a\xba\x8e\xd1.\x94\xf13%,\xc8&amp;u&lt;\xbe\xbc6Uh\x00\xa6)\xf4\xfc\x8b\x0e\xedY\xf6\x9a\xff\x00\x14\xf5\xe9\xf9\x91qyu\x06\xe3&amp;\x05\xf8vm\t\xcaL\xea\xab\xa7\x9dd\xfd1*\x81\xd8\xebG\x1c\xedN\x86\xf1\xce\xac\xb5\x92\xb7\xee\xe8\xf9\x9fe\x95\xb28\xf4\xc0\x1c\'r\xae\x85"\xe3c\xe3\x02g\x88\xab\xfdB\xa9RgE\x02\xf4\rv\xdf\xf7\xb9\xbf\xa4U&lt;6gD\x9f\xa9F\xf6\x80us\\\x91\xdc\xd0\xa4t\xa4tbx\xa6\x85ht?\x12\xf4\x1f8\xa8n\x9c\x8c;\xaf9\x85\xec\x05\x8f\xb1N\xb2%}\x9aZ\xe3\x88\xbc\x01\x1af\x11\xd8S\xdf\xce*\x14\xbc\xc15\xefM!\xabY\x1f_\xce\xce\xba\xf2\xb9\xb5\x19\x10U3\xb9\xa5\xdev\xa2\xbc\xf0Tkk\xd2\xb6\xd6\xb3Z\x0b\x13l\xcbJ\x8c\xcaMf`\xc9\xe6\xebJY:\x912f\xb8\x86\x91*\xad\xd1\xe5oH\xf4\xd5O\xa6,G|\xf7N\xa5\xd5\x04!a\xc3,\xf1\xabg\x88\x1c\xaa\xde*\xf9\x9f\xe6\xd5\x8b;\x0b\x832\x85VDF\xb9%z\xa70d4\x9e\x88\x82\\\xecLn\x82tG1\x04\xd4\xed\xff\x00:\xfb\xee\xd2\x80b)PG;\xb39T\xcd*N\xdb}\x0cP\x91\x99\xb3\xa8V\x1e\xcd\xec\xc8{\x96\xad\x0fs\xedrsxWu}K\x16\xbf3\xc7\xb4\x1e\xb1\xdf\xe4\xcbZ\xecl\xa7\xb9\x95\xd6\xd2\xd4\xa9\xa9\xaa\xb3\x81\xcd\x1f7MX^f\x93\x0bu\x05MVf2\x8a\xd3\x83g:\xe6\xed\x8a\x05-\x88\xd0\xf5\xde\x805\xce\xce/\xd3\xbd\x06\xc3D\xc6\x97"\xf3wz\xa2X\xf9\x8a\x81\x17u\nB\xed@\xe8\x93p:\xcc\xe7\x10\xf6\x17\x06\x91:\xeb\xae\xde\xc6\x8d\r\xd4a\xdb\x05,t\xfe|\xea+\x9e{\x84h}\x12\xbe\x9e 68q\xe03\xb9((\xacaP\x19c\x9a\x9c\xd5\x01t\x0f\xa2\x85\x82\xbc\xbbMM\xb0\xec)\xec\xf3\xea+\xb1h\x16\xe9\x05\xe7K\xc5~%G\xa0\xd4\xc4\xc3u|\x08\xe5\xfeu\xb2v\xf8\xc0\xde\xd5\x99^\xd48D\xe6\x05\x0b\xb2m\x01\x95\xca\xf6\xe8D\xe8B\xdc\xd9M]\xa2\x0f{\x1b,\xeb\x91\xc1\xd2\xc8\xacoA\x0e\x8f6P\x83\x9f\xf0\xca\xef\xf3\xf7x\xf0\xc7\xfd\x1d\xe7Z\x94\xa6U9#\x88\x1c\x9f\x0f,\x87\xaeb\xb8\xdc\xd9\x94\x86\xd5)\xac\xc6\xc3\xebE\xf4\xcfVy\xf7J\xb3,D\xd9v|?\xb1b\x9f\x91\xa0\x8bs\x02\x15-\x8d\xe2\x94\xbd` 1\x1b\xcf\xa9E*\x12F\x95x\xa0N\xdd\xdb\x92y{\xd5)\xc7\xa9\x99\xc0U\x16\xc1\xb4\x1a\x1b\xa1N \t\xb3\xf5]\x98)d\xf48x\xff\x00\xe5\xf9)\xa1\x84v\xd3\xe4\x136\x97\x086\x88\xed\xaaw\x8d\t\xa6\xca\x99\xda\x99\xd0(\xb5\xe8\x9a\x8dW\xf46\r\xfa_9\x0f\x9fts\x14zq\x84\xee\x99\xe6u\xaal\xb71;QN?KB\xa5t9\xa5\t\xf2T\xfbF\xa2s\xd9VD\xf4\x88\xe6\xb66[u\x8f:\xae\xd1\x89\r\xb6\x1fI\x04\x80o\xc5~\x1aE\x99\x91d]Z\x02P\xc2\xecU[7\x80\x1fS\xdd\x81\x0eS\xeb\xf3\xad\x86\x80Q\xf8\x08\xcc\xc8\r\x81\xa3.\x9c\xb6\xa8=\xe7\xd4_\x11\xeeA&lt;\xed\x9f2\xf8\xcb?\xa6J\xfa\xa5\x95\xe8\xfc\xf9B\xd3N\xca\x99\x846\x84\x9a\xa0\xfe\x99\xa3\x99n\x85\x83\x0f\xa3\xbe\xb6}\xba\xc3\x82\xfa\xe6\x97\xcc\x04g\xdc\xe9\x05\xa2\x08\x8eA\xa3s\x7fED\xd9`\xa8C\xc0\x05\xd9\x8c\xa6\xce\x13?k~\x13\xbc\rt\x83R\x80\xaa\xd3\xe6\xe5\x95\x95\x90\xae\xcb\xa8\x81[\xbf\xe6S\xf6,z\xbew\xd0"f\xf9Z+\r\xd1[\xff\x00#\xe1u\xea\xe1\x97o\x97\x8b\xa7\xf5o;\xa1sQ\xb9!\xfc\xa1LJ\xe8\xa9\xae\xae)w\xef\xf3o\xb0\x89\x1e\';\xea\xc8\xa2\xc3M\x1e\xcb.~G@\xd9\xa06\xf6V\xfd1-\x13\t\x1d\xcfF\xb4\xdaZ\xe9\xd1\xbf\xce\x07\xbc\xfd\xd3\xd3\xb1\x9br\xea\x93\xa3\xa3\xd3\x8e\xb9\xbd\x0ec\xd9\xfb\x16)5H\xb4\xbb\xd2\xe7\x08\xd5\xd4\x8a\x1d\x95\xca\xd6\x1f\x99\\X\xda\x1e\x9d:\xa9\xa0k\xfb\xc3O3\xd4\x10XHS:\x81\x82\x0f\xa8\x83\xcf\xad\xcb2\xb5T[\x07z@h\xa5E.u\x00\xb6~[\xbe\x9dj\xe6q\xf9\xed\xaa\xf1)}14\xb0\x88\x85\xd7\xf7\x95\xf5\x9c\xd9\xa7PZ\xa7\x1a\xff\x00\x90w\xb4\xee\x13\x8d\xdb\xd4\xec\xf9K\x00\xa5\x16\x94\x1c\x93\xe3;\x0cd4\xb3\xd3\xdb\x02\xae\xc8mqZf\xbaq?\xde\x8b)&lt;=ns\x82\x0cQ4\xe7\x94w\x07#n\\tV\xacP\x8b\xd9g\x017\xd7\x1f\xb3\xc9\xber\xec\xe1\xd0\x17\xba\xf9"O\x82\xbb\xb0s\xcd_\x8d\x16W\xb6H\x06\xc2\x8e\x83gP\xdd\xf3\xfc\x13\xd4\x9c\xbf\xdb\x80+j\xdf,\xa4\xcek\xa8\xbc\x0f**\x1bt\xc4\xe2\xae"\xe3;\xd8\xe6\xe7\xd0\xd4\xa9\x8e9.\x82\xbe\xae6\x19\xd5\xe82CRV\xa4V\xc3\xce[\xacO\xd6\x91RfB3\xa5\x9d\x16\x9e\x061s\xeb\xced\x1d\x96tl\xe1\xaa\xac\x9a\x94\xdd\xb0z\xd5\xb4\xa4\xaa\xdbxC\xa0]\xe2w)w`M\xb5W\x1de]Q\x9e8\xfc\xe5N\x80\xe5\xaa\xd0\xe9j+:O%\xbe\xa8\xa5A`\xa3$\xa7E.\xa20\x80\xa2(X\xb0]\t\x05\xba\x1ce&lt;mj\xf9a[\x12\xc2\x11t\xe9\xf4\x0el\x1f\x14\xa2 \x85\xdd\xf3\xe4c\xc2\xe8\x08\x80*\xd3\x81\xd1\xc2,fkd\x90;\xc2\xbd\x03\xa8\xf5\x84\xe4?\\W\xfe\xa6\xbf2\xab\xf4!\xa7\xf0\x8e&gt;\xc7\xe7r\xaa\x1a\xd3\xce4:\xe9t\x1c\xc0\xb27Nhj\xab\xf7\x9d\xbb\x1a\xa1im\xd6\x87w47\x98Ud\xea\x02\xdeV\x92\xbc9s\r\xeeuw\x94\x1a\x0c\xf4L\xb6\t\xbb\xc9\xba\xa2\x9b\xecR\xabj\x06\xeb[\x088\xde\x81quT\xc1\x97\x94\x98\xae`\xf9\xd9\xe9\xd7\xc9{S\x18\x07l\xfe\xde\x1f\xb9\xdf\xa4X\xe5\xd2\xe4\xfa#\xc0-\x81 M\x82P\x8f\xea\xf9\xce\xa7\xe83\xbd\xd4J\x93\xf3\xdf\x9e\xce(\xe6\xc5\x8a\x1e\x19\x1fS\xc5\xc0\xfc\x8f\xa2\xaa\xfc\x95\xd4\xab\xca\x10=\xf7Cu\xb8\xf3\xbd\xa6\x98y\x9f\xaa\x0c,\x87&lt;7\xf1\xd5\xc5]\xb0\xd1\xa6\x08\x1d/]\x83\x17\xaa\xd2\xe95\xe4\xeb\x03@DB\xb3\xa7\xc5\xa9\x12z\x1bA\x19f^]\x10r\xda\xba\xa5\xe5f\xdf\x9d\x9c&amp;3\x82\xcf\xd6\n\xe77\xf5\x9c\xeaH\t\xack\xe2l\xe1l\x1a\xb4P/\xab\xe3\xe3k\xc5w\x19T`\xdc\r\xd0\xdc\xad\xd1kw\xa19\r\xea"\xc4\xfc\xed(\x1e\x1dS\xa8\x08~\xe6EY\xecX|\xde\xcb\xd6S\x8ex\xcb\x1b\xd4Ye\x07\x81\xd5\x842wD\x8du79=\xb2\xa4t\x10&amp;&gt;\x86RG\xcf\xe3\xad\xa20\x9b\xcc\xd2\xf3\x1a\xcf\x9fz\x0b\x1a\x0c\xeeA\xdcK\xe7[\x98\x1f\xfe .\xfe\xc3\xf2S\x1am\xf5\\\xf3jT\xc2\x9b`\xd5P\xd9[\xab$3n\xb8\xe8y\xcfz\xb6\xa9\xa2\xc9\x0c*m&lt;\x9d\x9f\x10\xe1\x84\xed]T|"-\x1b\xa6\x8cU\xb9\xf4\xfa&amp;{C16\xc7\x13k\xdd\'.\xcd^\xb1\xc6zl\xab\xa3\x86\xae\xc5\x9eR\xd8b%`\x9bNl&gt;\xa3\x1b,\xae\xc0\x9a\xfe\x8d\xcd\xf5vYJwD\xb6\xaa\x00\n\xacP\xa9tD\xb2\x8c\x8c\x95=m]\x7f-J\xbb\xee\xcc9\x9d2\xf4a\xdeOsy^\xac\x95\xd0\x02\x02\xcc#O\x15\xedoZ]\xa4\x01\xeeyuU\xe01\x07c_\xfd\xc9l\xcb;L\xe6\xfa\xcaJ\x8eD\x88\xd8vj%4\xacJ\x9f8+\x8a\xe7\xbdG\xd0\x17P\x94\x0bE\x98^6\x93\xdc.\xd5\xa6]L\xa4\x90W\xd8\x9dO\x1d5\xcc\x07@y\xdb4\xc0\xbf\x16\xedN\xa1\x0b\xaa\xc6\x90\xabN,\x88Z\xe7\x9c-\xc9]q$eo&amp;\xf3%\xf3\x8fsP\xd8\xa3]\xa2\xfeC\xcb\xfa\'\xe7u\x99\xf6U\x14\x1dhJ\xaa\x88\xfc\xe7\xf4\xc8\xad\xa0V\xc6\xd5\xa0\xca|\xaf=0g\x9a\xb4\xa8\x82\xea%\x92\xe1\x14\xb50-TQa:\x18\x15\xe6\x8f\xb4\xc4n\x98B?\xd0n{\xeb\x89\x0f\xc5\x07\xf1Q\xba\xc2S\xaf\x14\xd7\x1e\x13\x9cK\xfd}\xce&gt;t\\\xca\x9d)\xe82\xb9\xdf\x86{Z\xd1\x0fy\xe2JH\xd6\t\x1b\xc14\xae\x03h\x1a\xeb\x15\x8f\xc5\xfaI{n\xb1M\xf20\xcb@lX\xbc\xe6\xfd\xb7\xaay\xf0\xaf\x8c\x89tg2Z\x14\xef\xca2\x8a\x84p\xe2lB\xea\xbf\xb0\xea\xad\xb0\xb6\xff\x00&gt;\xf2[\x02\x8c\xa5\xbc\x84\x0fE\xa4\xc0\x98\x1d\xa2\xed\xfc\xfd\xecvg@\xa9\xbd\x1b=\x19\xa35E\xb4\xd9\xcb\xd7\xf9\xed\xeao\xaf\x98.\x11\x8b\x0b\xce;\xcd\xa9k\x97\xa0\xc3\x17\xd4\x1e&lt;\xef\xa5\x9fTc\xd7#*\x9b\x13\xb2\xea\xa5R$i\x80;\xb3:\xcc\x18\x12\xc6\x0c\xaa\xeb\xf7Y;\x13W5\x103\xfb-\xd1\xc1\x9e\xd4Bu\x95V\xbf\xb6\xabP#\x88.in\xaeh\xae\xd5\x11\x9al\xe1\xe8&lt;7\x91\xd5)\xb0)\x11\xf1\xbf\xce\xf1\xed\xb0mI\xe9\x9a3\xfb\x8c_qj\x14M-\x89\x13\xd1\x1e\xb4$\xc7\xc4Gy\x85\xa8\xa8(S\xe5\xf6\t\x88u8\xad\xc7\xb7\x9dA\xc9%\x07\x05)m\x86\x97C\xb7\xc7\xc1\xc1X\xe7TI\x1f\xbck\xdf~x\xa9\xa3\xd6\x91\x8f\'\xea"\x94Iw\xa4\xcf|\xde\x17`\x9fO\x8b\xfe\xf5L\xf3a\x8ez\xf4\xe0\xd2\xed\xee\x05\x16\xa7\xdedHbh\x0fe%\xc1\xb3\x19]^\x8b\xc8\x94\x1cO\xc1\x08t\xde"\xb4\xae\xa6\x97k(\xac\xad\xc5V\xa5\xc7\xf9-\xc9\r\xce\xbf\xeas#\xc4\xc6v\xf6\xd5\xfa\x89\xa7Bx\x8es\xbe\xe5u\xcb\x17\x13\xf6C\xabL\xf2t\x97:\x98vM\x17\xee\x1a\x93B\xcd\xa5\xcc\xc6O\xce\xc2\xd2\xc2k\xe3\xefy\x9di.\xcdHt\x8e\x84u\xe8\x9ci\xda\xbc\xa0\xa6g\xb9\r\xa6\xd2U\xca\x97\x0e\xa8\xf7\x85f=\t;\x99_\x9e\xcd= V\x87\xd3\n5\xbc\xb3\xbd\x04\x07\xbb8\xb7\xa9\xb5&amp;\x13\xbb9\xdfp\xd4\xed\x14\xd6\xa5\xbc\xf8\xdds\xb9\'\xf9\x0f5\xf9\xbb{\xd7A\r\x96t%\x1b\xaa#\x93\x03\xa2\xd2\xbd\x92wD\xac\x82.\x9d\x0eQ6\xc9\xfc;\x1d(\xb1Kr\xbd%GAqx\x95\xef&gt;\x85\x859\r\xc9c\xf3p\x9bl\x8a\xa0\xaaJ\x05FF\xa8\xad\xd2\xba2\xfe%e\x9e\na\xf4&gt;gS|6z~a\x9f\xe8-\xd9\xf7_c\x97\xc2&gt;o\xd9\xf1\xa2\x8fZ\xc6\xd9\xe1I\xf9\x84!\xee\xde\xa1\xbe\xc6\xbb\x94\x97E\xceY\x02\xddS3\xe7\x134\x13\xea\xfc --\x8f\x93\x0e\xb7Ae\xd1q\x9f\x9c]\'\xc4I\xd4\x1e\x8c\x9f5\x9elM\xf5\x10\x9f\xdf\xbe\xc8\xe3P\x9bl\xadf\x01\xa9\xc8t\xf2\t\xbfE\xe5\x1e\x87\x92\xf3\x08\xcc\xac\x8a\xb4\x106\n\xe7\x1fk\xeb@\\\x0f\x19*\xf3\xb2\x87:\xb0\x0e\x96b\x06Qb\xc5\x9f\xc6\xa5M\xa9Yn\x9d\xfc\x0e\x00\xa4\xb6e\xe1ui\x90\x03\x9bKV\xdb\x01\xc9\xbd\x07__\xf2\xda\x15\xfe\x9a\xe2\x9e\xa6B\x92\t\xaa\xdcD\x0c\xa4Y\xa5TW\xa6\xd9\xb7\x10\xc7QE.g\xd2\xfbQ=\x04\xfc\xfb\xbf\x1a\x88\x1d/@\xe4\xebuy\xa8\xea\xdd\x1f\xc9j\x99\xc5\xceYv\xe1\xf3\xa2U\xe2\x8a\xd5\xc4\x93Hh\xe6\xc5m\x1dt\xf4\xdeRv\xb2\xcb_\xf2\xde\x921\xa8\xa5\x90\xe8\xd4\x08\xc8m\x02~Yi/\xba\xd2\x1c\xb5\xb2I\xeb-(\xe5\xf4\x17\x1e|\xe7\x9d\x05.Ch\x1d\xa4\xc9\xbfHY\xfe\x95\xc8\xca\xbc\x89&gt;\xa9{\xaa\x8c\xf2\x919\xb9\xd3H\x8aE@c\x80\x9fXf\xd6\x89U\xb9\xac\x8e\xf6\xa4\xdfB\xdd&gt;\xad\xc9\xc45\x17D\x036&lt;\xe0\xe7y\xc5\x9a\x9aGTr\xa6x\xcfk\xdc\x9c\xdbm\x840\x82\x16\xbb\xe4Y\xe9\xf7\xf1\xbfB\xe0\xae\x17Y}8H\xfe\x8c \xee\x02\xb1"(\xadZ\x1a8\x1a\xc6"b\x86\xc9\xa3\x</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495671-la-poblacion-mundial-llega-a-las-8-mil-millones-de-personas</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Parque Ameghino: semaforazo contra el memorial para las víctimas de covid</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vecinas y vecinos convocan para el martes a las 18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Vecinos y vecinas del barrio de Parque Patricios realizarán este martes por la tarde un semaforazo para rechazar la instalación de un memorial para las víctimas de covid-19 en el Parque Ameghino de ese barrio. "No queremos un memorial que nos llene de cemento y nos tape nuestro verde y nuestro patrimonio histórico", advirtieron en un comunicado desde la agrupación "Vecinos del Ameghino", que convoca al semaforazo. La protesta se realizará a las 18 horas del martes en el cruce de la calle La Rioja y la avenida Caseros, justo en la esquina del Parque de los Patricios. Allí los vecinos y vecinas volverán a levantar las consignas que el viernes pasado llevaron a la Legislatura, en el marco de la audiencia pública en la que se debatió el proyecto del oficialismo, que ya cuenta con aprobación inicial por parte de los y las legisladoras. "El memorial abarca siete mil metros cuadrados de superficie, incluyendo más de cuatro mil metros cuadrados de pérdida de pasto, tierra y la tala de gran cantidad de árboles, e incluye una gran fosa de dos metros y medio de profundidad", advierten desde la agrupación. Además, el parque tiene valor patrimonial e histórico, ya que en el Siglo XIX funcionó allí el Cementerio del Sud, donde fueron enterradas alrededor de 15 mil víctimas de la epidemia de fiebre amarilla. Según el Consejo Consultivo de la Comuna N°4, que se expresó en contra del proyecto, "todo apunta a que en el lugar se hallan aún innumerables restos humanos".</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00&gt;Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x02\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x82\x98\x00\x02\x00\x00\x00\x10\x00\x00\x00&amp;\x00\x00\x00\x00Sandra Cartasso\x00\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x02\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x03\x04\x07\x02\x01\x00\x08\t\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x00\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00M\xf6y\x02y\xfd\x17\x95\x99\xe8\x82\x0e\xd3\xfd\x0en\xad!\xb4J$\xe8\xb6\x90\xb0\xc4\xf2\xe5\\}X\x9f\x8d\xd8\xa96\xfd3\xf4^t\x8c\xab\xf0\xa2\x07\xcf\xfa\x7f\xa0&gt;\xa3\xc7l\xb4\xec0\xac\n|\xa9\x8cy\xbdz\xa7w6\x81\xd5\x1b\xb8O\x80\x14\xa2d\xdc\xfd\x11+\xca\xea\xc0\xfc~\xd1\x07\x13\xe8O\xda\x9fI\xe5b\xfewV\x01\xe2w&lt;w\xc7\xf5_\xbf\xe6\xac\x86\xd0)\x1f\x0e\xf3o6\xa4\xa7\x90G\xed\xc0\xd7\x9b\x14e\xf0h\xd4\xf1\x88\xe1\xbf3\xf8\xbe\x85D\x7f\xd3\xfe\xcf\x9eJ\xc8\xb4\x84JQ\xf2\xd1\x8c\x1c#\xca\xee\'@\xe7x#y=\xac&gt;\xf7\x03a\x9b%\x14"\xb0I\xd1\xa9\xa7\x84\xf9\xfd\x9fq\xdbf\xf6\xfc\xd4\xdd_\x06\xd1^\x7f\x01\xf9C\xc2\xf4\xb4&gt;\xa8\xbev@I.\xcc\xaby\xecs\xd1\x97\xaf\x9a\xc3\x0ck\xcf\xeb\xdb}\x1e/\xcc^?~\xbf\xdb\xcc\x8e(\xfbh\x9fu\xbewD.\xc2\xac\xb7\x8d@\xd5\x17~^\xf1=/\xd2&gt;\x9f\rw\x15\xd0\xb3tNc\xbd;\xb5\xd3\x11\xee\xc2\xb9\xa9\x9c\xf0\xdb+\xe3\xb0\xc4+\xdcU\xf2\x84\xb5We\xeeK\xdb(\xf3W\xb6\xdag\xb1\xc0qw\x0e\x00\x92r\xd3$\xb8|\\\xbd\xe4\xb8\xaf\x9epteQ\xbf\xeao_\xceQ\x85D)M\xf1\xfb\xf6O\xa1\xf3&gt;\x19\xae\x93\xb2\xf9}\x08AGC;\xec%+\xee\xd4\x95\xa1S\xf9\xaf\xc4\xf4Q|\xeb\x8d:\x17\x1f\xaa\xfe\x8b\xcem\xb4sNN\x8f\xcd\xff\x00?\xe87v\xc7\xf6\x17\xd0\xf9\x8b9\xdb^S\x11\xf6\xdemYYj43Iz\xd9jtn\xa4\xfe\xd8W={\xaa~q\xf1\xfbIW&gt;t\xc9\xab\xa2T9\xdc-\x06\x97\xd5\x0b\xe5b\x07(\x8fF\x8fHa\xbc]m\xa5&lt;\xeaM\x16\x92\xb8B\xea9R\x99\xbf7F\x97\xd1\x04x\xd8?;\xbev\xc38\x8d\xced\\\x8d-\x8c\x97\xcdk\x18\x10\xa8\xd6\xfa`\xc5\xd1(\xf6\xe4\xe9\x98a\xdeo^\xe9\xe9\xf1\xe2\xdc==A\xb6\x0fS\x97\x10\xe2\xea\xdc\xbb9|\xda\x01\xbd\xda\xa8\xdfb\xae\x8d\xf9c\xe7=M\xe7\xd6\xe1{\xec\x8b\x15\x12\x00m\x11\\\x1e\x81\x9bj\xdc\xec#\xce\xae\x13\xe0\xf4\xa0\xd6\xb0\xba\xd0V\xaaO\xa7~\xbf\xfa\x0e\x0c\xd3\x8f\xaaj\xa6\x95\xd5\x02\x0c\xa3\xa4\xd1\xdd\x0f\xba\xd9R\x99\'\xa3\x1a\x97\xea\x8f\xd3c\xd7\x95\x8a\x01!\x89e\xc3|\xae\xddW\xb6\x0c\xd6\x97\x07\x0e}Fm\x0e\xcc\xd7\x99\x9c,0\xe1w\x08\xd2\xb2\xfec\xf0}\x1c\xab\xcf\xe9\xaew\x0c?S}\x1f\x9d\xa1V+\xb9\xad\x01\xf9\x0b\xe7}1\xf1\xa7\xec\xaf\xa8\xf2]o\x11\xea|;\xa1\xba\x06\x00Rae\x19\xb4\x0e\x1ek*1\xa2\xc7-b\xba\xc1\x86c\xe6\xf5h\xbe\x87&gt;\xc5\xdb\xce\xa1\x17\xce8:\xb4\xafG\x99\xa2\xf1\xf8\x14\xaez\xe8}\x10HZ\xd2\xe7n\x89\xd0z\xf9\xcc\x95\xf4\xe4\xaek,\xf2]\xa3\xae\x0e\xfd\x11\x1a\x8d\xf9\xcb\xcc\xee\xdb\xbd\x0e&gt;\xdf.\xc2\x88\\\xd6mQC\xa1j\xcc\x9f\xb4\xc7\xa3j\xbdP\x85M\xca._\xcdf2\x1d\xfa\xe0\x11_\xf2\xf7\x81\xe8\xfe\xac\xf7|\xec\xf6V\xd3\xfa!\x12\xe8v\xfbiv\xf3h\x01\xfc\xfb\xe6v\xabA\xda]6?G\x90\xc5\x97\xe1\xa5\xdaQ\xa5\xd9W\xcd\xb6Y\xf1\x9d\xd9wq\x05F\xe5\xc7\x84|O\x0c\x7fA\xfaP9\xdb\x12L\x04\xc9\x9d\xed\x10\xa1\x8b\xba\xdb\xa2-\xc6\x92\xcd\x90y\xae\xd7\xd9\x1a\xe8\xdagD\x04\xd0\x12]\x9aptQ\xb05y\x10\x9b=\xf5\xc6\xdb\xaa\xea9\xf6A\x99\x8c\x91\xe9\x1e\x8d\xe8\x18o\x93\xdb\x87\xf8\x9d\xe1\x98?\xfa|\xef\xfd\x91\xdd;y\x04\x92c*\xfa:\x1f=\x7f2|\xf7\xa4\xc1\xd5/\xd7\x7fE\xe5\x93a9\x14\x95\x85#.\xa5\x18\xeb,\xc7\x93\xa1\xff\x00\xaf\x9dBUcd\n\x8e\xaf\xcbD\xd8P\xd26\xf7\xea\xf1Qm\x9d\xf2\xd9C\x9a\xfb7\xa7\xc2r\xa81XZ\xb3S&amp;U\xcfr3.\xdd0a\xe8\x9f#\x07R\x9f\xc3\xd7\xa4\xfa\x1cq\xabpt\xd9S\xa7\\\x9b\xce\xea\xde=.L\xd3\x9a\xe0\xf8\xeaB\xa1\xd7\xbf\x9b(\xe1\xe9z\xb4\xb2\xfe[\xeb\x9d|\xf7P\xb5t\xc7\x06\xe3\xea\xd0\xab\x1d\x0b\xb26Ys.n\x8cS\xc8\xeb\xd2;\xb9\xf6n\xeexT\xf6\xc2\xc9_1\x89L\xac\xa1\xc3b\xdeg]\x8e\x84Q\xe1\xb7\xe8/W\x8a\xf3\x0bcXm\xcf;\x0e#\xf3w\xcb\xf7\xa3F\x90f\x82\x8d\x0e\xdcm\xa9\xfb\x1c\x83|\xfe\x96\xce\x99\xb5Y\x14\xb9/\xa4z\\\xb5\xdcN\xcbo\x01\x8c&amp;]\x97\xf9\xdd\x95\x9bn^\x8f%ub}\x12\xcd&lt;\xde\x9ae\x9f;\xf9\xa8\x11\x0c\x9f@\xe8\x91\x07N\x88\xed\xb7\x13=\xb0\xbc\xe2\x058\xb7\x91\xd9\x84\xf9\x1d\xb46\xd7\xbd\x9eM\xef\xd4\xe2+\x95l&lt;\x833\xba\x00\x9d+\xe5\xfcK\xf2\xde\xc4\xf4\x1f\xb7\xbe\xa3\xc7(\xcb\x0e\xc3\x15\x87\x86\xb8\x00\x10\xc7\xdd%"\xfb\x08\xd0\xa7\xad\x15eL\xe7\xce\xe9\xd0{c\xaa\xf6sH@$iX.\xce\x93(a\xb4\xc4\x86g\xa2T\\\x12u\xbf\x06b\xed\xe6\x84\x1f0O\xe7\xe8\xd1\xfa\xb9\xab\xabt@\xd49\'\x17LJ\xda\xa7g:\xd8t\xef?\xa4\xb5\xe7\xa1vsBv{\xcfe\x9e{3\xd2t\xa1G&gt;\xc81\xdeY\x87/CA\x9e\x81\xdb\x08\x95\xb3\xf8\xd7\t\xf1\xfb{\xdbx\xf4x\xdc\xfa\xa5`\x881\x9b\x08\xf1\x84l\x9f\x87\xabY\xec\xe5\xfc\xef\xc3\xd7\xbav\xf2DM\xc0o\xe0\xaf\xe4t\x12\xee\x92\'\x97\\+\xc0\xec\xb9\x06\xa1\xeeEvt\x90g\xafG\x9d\x8d\xaal\x05nk\t\x83\x9b\xb25\xdaw*&lt;]\x9d\xc2\x92\xf5M\x83\xa2D\xddi\xcd\xfae_\xe4\xa6\xab\xe8\xc7E\xeb\xe6\x93\x05i\xbf`\xcau\xa6[\xcc,\x90*NJ\xa9.\xc3\x90\xfe*\xf9\x7f\\z\x1d\xdb\xdd\xe2\xdf\xfby~\xa2\xc9\xb5\x11\x93\xe7C\xe0zH\x0ej~C\xf0}\x13\xfdr\xfd\x97\xf4^P\xf2a\x1a\xeb\x03\x98)\xce\x80Q\x9d\xeb1C3:(\xc6\xc3\xa6\xebR\xcar\xb6\xf3\xe8\xf1\xdc`\xb9*\x91e\x91\xd1;\x9e\xec\x9d0\x10\x8eq\x90\xdb/\x1bP\x04O\x0fSg\xa1\xc7\xee\xc2\x91\x97\xf9z\x1e{y|\x05NT\xc0|\xde\xdd\xdf\xd1\xe3\xba\xeb^t1Ya~wc\xede~\xe8\xd1Y\xe1~wf\xb3\xdb\xcb\x99\xf3tE\nl\xfe\x87%\xfa$*q.N\x9d\xbb\xb3\x92v\xcast\xde.\x87^\xa9`\xfe\x7fS\t\x9e\xdb\xe8\xf2\x91})Z\xc1\xa4\xc0 e\xff\x00;\xa51[a\xeb\xe5\x13\xe5Y\x97\xd9\xe7\x80\x990T\xf2\xfaq\x8f\x92\xee\xcfzI\x0ep\xb9\xdc+\xd08z0\xd7=^S\xde/\xa2\xaf\xcf[\xfd2\'\xe8s~|\xf2{tn\x89\x19\xef\x85\x99\xb2\xd2&gt;\xb7\xe8q\xe7\xb2\xaa\xaf\x9f\xd1Ha2g\xff\x00F\x1a\xdf_=\xa2\xa1U\x8dQ\r\xd1j\xa9_G&amp;@\xf9\xb8\xe6\x04j\xa9\xfewNw\xe4vek\xa3\xdbs\xf6\xb8\xde\x8a\x82\xd8f1`\xc7\xd32\x1b\x14\xac\xd5y\xaf\xf9\xc3\xc1\xee%t\xfd\xcf\xf4\xdeD\xc4P\x07\xed\x97\xd5\xa8\xabC6%dhy\xc86i\xc9\xd3\x9d\xf3[J\xee\xe6\xf1\xb6\x87X\xd2S\x00r\xf4\x9dQ\x93\xe5f\xdbD.j3fFR\x0c\x81\xd5\xd5\xfc\xfe\xbd\x13\xd2\xe1\xe3`\x81\xa8\xc2\xac\xb7\x8c\xe4g\x91\xb2\xbf=]\xba\xe1I\\\xfe\x14\xb6\x10\xa5s\x8b\xa3D\xef\xe4\xae\xfb.\xe2\xe9\xd0/\x14\x19S\xd5m6\xd1\xb2\xc0\xbdS1\xe6\xe89Y3\x10\x8f:,B\x8dT\x9b\xcfD\x93%LW\xc9\xecbe\xdc}N2V[9i\xe6G\xf2\xfb\x15\xb6x\xf2r\xdf\x89\xd7\x0f\xa3;}\xb2\xeb\xb69\xa7\x1d\xc3x\xbd\x86&lt;\xb3\x9b{Q\x82\xc2\xc1=\xb6\xd2}^E\x1f+\xd1\xf1\x95\xd5K-\x94\xe7\xa3\xcb\x82pt4\xdao\x9d1\xa8\xb4\xd7\xbd&gt;,\xd9\x1f\x9ez6vG&gt;\xe6\xb3\x93\xaft\x01\xa6\xd5\x9c2\x14\x05\'\xb7\'\x88\xaa\xa8}\xaf\xd2\xe2\xac\x8c^\x89\x95\xf9\xbdxO\x87\xde\xaaq\xee\x99\xe9\xfdp)\xd6\x9b/w%\x80\x06\xad?8y\x9d\x8c\xf7\x9e\x95\xd3&amp;WO\xcb\xfe7n{\xe7\xf4\xfe\xbe\xfao+D\xe8\x8c\xc4US\xd6\xcbY\x87B\xac\xb6\x88f\xc9|\xf7Q\xe3\xb6\xed\xe9\xf1\n\x9b\xb1VwYi)\x1f\x9c\xb1E\xa5{\'14\xd6E\x08e$V\x1cGM\xd3\xbc\x8e\xfd\'\xda\xf3z"\x88\xca\x92\xb3\x8de.\x01\x83~a\xf2}\x0f\xd1\xbe\xa7\r\x83\xbb\x1b\xd5*j\xf9?\x9f\xd5\xbdz\\K\x85\xabE\x8c\xd5\x06\xcd\xe7p\xe4\xd2\x91\xb4\xc4\xe5\x9c\x9d"J\xb6\x99\xb3\xd5f;\x1f\xe4\xe8\xd2//9\\\xdf\xcbu\xe1\xdc\x14\xcb}\x8d\xfaC\xe88\x1e;\xa1i\x86Q\xe4we\xdeoF\xab\xe30^{\x1d\xf6\xf9\xd6 \x82\xee\x0f\xf5\xc7&gt;\xf9\xee\xfbME\xee\x98Y\xf5\xf9\xa9\xa9Q\xe1\xbb?)\xd1=M\x1a\x9c\xd3\x9d\xe0\xaa\x95\xa2\x87\x93\x0b\x04\x80\xd7\x170.\x1b\xd6\xa6;%\xbc\xfa\xbc4\x15\xf5n\xaeq\x13a$\x9d+\x9c\xca\xb6\x08\x0f\n\xfa\x84"5\xf7RtM{\xb3\x9b\x06\xf0\xfd\x0c\'\xcc\xeb\xabd\xfd[\xf4~j\xb4*\xeb\xd3\x16\x06J\xf8\xdde\xe5w\xe7o;\xb7H\xeb\x96\x8f\xd1\xce\xa9\x07\xfc\x81\xf3^\xb6\xa7\xe9\xf2\xfe\xa7\xf6\xbc\xe9\x0e\xa2\x8di\x94 uDe\x0e+\x87\xae0\x16Lw&gt;\xee4\xf9Y\xb6\xb2\xb8V\xb0!3\xb24\xf3\xa8\xf4h\x96\xe7\x8fe\x94\xa3;O\xd3\xba\xd8h9\xf7\xcf\xfa\xba\x7f\xbd\xe5H\xe3\x81\x90y\xfa\x1fz9\xf8\xc7+\xe6\xb84\xa6\xab\xd5\xcd\x7fa\x01\x81\x06\\\x85\x04I\xf5n\xbeh\\I\xb5D R\xb1&amp;\xd3\xba\xb9\xfb#\xbd\x90%a\x91l\xf7\x9e\xfd\x05\xd1\xfa\xe2\xe1D\x08\x1c,\x1dc\xe0\xbd(c\xaa\xfaS\xc8}}\xbe\xfa\x1cz\x17d\xd2&lt;\xae\xac\xc7\xe6\xfbX8\x1d\xfb\xa0\nR\xbd\xce\xb5:\x15[\xd0\x9f\xbe\x9cY\xae\xa8\x9c\xb4\xa7P\x03\x95\xe9\xa9\x92\'I\xebj\x849uOD\xaa\xc2Fm\xe3\xf5\t\xe3\xa8\x9aN\xad0K+z\x17\x0e\xc8i\x9e\xef\nD,\xff\x00\xd7\xcfE\x8e\x87IZ8H\xc2%A\n\xee\x97\x88\xa49\xaf\x9d\xd5\x9dsU\x90dNK$#~\x86\xfa\x0f?j\xed\xe6\xb6E o\xe1[\x1a\x03L\xc1Z\x14\xfc\xff\x00\xe7v~\x8a\xf58\x9c)?\xc4?9\xeb\x04\x8b\xfe\xe3\xfa\x7f \x9b\x05\x19=\x19P\xd1\x1c\xd9\x16\xe6\xfau\xf9\xff\x00;r\xf6o=\\\x84\xca\xe7S\xbe\x8dXE\x8fcA\xb4\xe4!st\xbft\xf3E\x8c{w\xb5\x9c&lt;:\x809\xaf\xcdz\xee\x9e\xd7\x9c\xcb\xd7\x0f\xb6K\xe4\xe9t\xeb\xe6W\x9d0\x7f;\xb7^\xf4\xb8\xdc\xdas\xec\'\x1a\xb8\xe6\xdc}-\x0e\x8e}\x10\xacIB\xb5\xc1\xcd\xa3b\xa05\xdaD\xd8z\xa70K5 \x956#\xcf\xd3\xa0\xb2\x0c\xf3:4oc\x8b\xd3\xbf;|W\xa5N\x15l\xf3V\xe7\xdcq\xe5\x1c]\x1a\xb2#\x17\xc9\xf4\xe3\xbe\xc5\x1c\xb8I\xc55\x82\x89\xe7\xc8~\xdcju\x87\x9a\xc5jL\x9f\xd0\x1d=\x18\x02\x85\x17ykF{V\x16\xd0\x99!\xe6\xa1\xce\x88#\xce\xc0!I\xe7\xa0p9\x94}\xe7\x02\xd05\x96\xfb\n\xf5W\xefO\x9b\xf4W\x7f+\x15\xe7\\j\xb8\xa7J\x82\xf9\xa9\x95q\xdb&gt;\xe0\xe9\xf2f=\xb9\xdb\xe3\xa3\xb0\xfd\xa3\xf4~M\xd5\xc4\xe8\xbf\x1d\xc27\x05L\xd1+\x1c\xbe\x94\xfc\x93\xe0z_\xa3\xbd\xbe\x16\x17\x9ey\xc9\x7f\xcc^\x07\xa3\xfaS\xdd\xf3\xb6\x8e\xfee\x94\xa2|\xdco%lU\x18o7\xeb\xc3\x14\xe3\xeb\xda\xfbyHe\xa3\x8d\xcc;;\xe1\xa9\x07\x9c\xa6m.\x8d.\xbc\xfdl\x1c\xb1\\\xb2\xed\xf6\xd1\x8c\x8d\xf3\xfe\xbb\x9f\xd0y6\xf0\xe3l\xbb\x97\xabE\xeb\xe6\xc5\xf8\xba\xf5\xae\xbeU\x99\xd5\xe6\xb1\x1e\x1a\xb9\xc3 \xe9\xc9M3\xa2\x10\x10d\xaf\xa7RS\x95q\xf6&lt;t\xf3\xb5Rq\x83\n\xb2\xd9""\xe1\xfc\xdb\xaf\xce\xaf&gt;\x87/|]\x00\xbc\x1e\x93\x9d\xbc\xe9&gt;7@aK~\x13:{\x10\xfc\xef\xeb\xb1\xef\x1e\xa7 \x80=\x07:\x98\xce\xd7\x93\x0b\xa2/\xd9\x96z\xe5\xa9z\x9c\x90uO9\xf2\xfaO\xfa1B\xf3:;\x8d\x1c\xfb\xb9\xcdy\xbd\xa4\xf8\x1e\x9c\x8dV\x06\xe6DP\x97\xe7\x11\xf6n:\xa4DLw%\xfb\x82Q\xa0\xa3\xd0\xca\x1e\xd4@\xa1l\xeb\x8e\xa1y1Q3\xbe[c|=\x11\xa36v\xc9\x9b\xaa;\'w2\x8f\x1d\xf0o\'\xb1\x83\xaa_\xa2}~&amp;B\x82\x95\xcftK\x81\x8b\xb2\xfcp@\xeb\xbc\xd5\x12\xd9\x1b\x8e\xdc\xf3=\xf6\xd8\xef=o\xb0\xfd\x9d\xee\xf9\x81[[p\xbf\n\x8b\x05\xeb\xa2\x05\x8a\xfel\xe0\xed\xfd/\xdf\xc3\xee\xd5q\xbb\x87\xdb}\xb5 W\xcb\xfb\xce\xed}\x10\xfbov\xfbo\xb6\xfbj\xa0\xe3\xbe\x1f\xad\xaa\xfb~R\x9aX\x07=5.\xce^J\xa9\xc6\xefu\x82\xac:%\xa2,\xf3tR\xa4\xef\x02\xc7\xd1\x12$C\x81\xa2\xbel\'2\x94.\xe9h\\#\xed\xb8\x1a\xa6l\xef\xcf\xe8\xa1\xe4\xf5M\xe7\xd9\xa3\xd8\xe3\x01\xcd\xd1\x07\x89`\x9f1\xd0\x13\xd4X\x91lO\x14+\x95\xfb@3\x1d\x1cPFO\x19\xd9\xdd/wJ\xbd&amp;\xc9\xd7$\xaf\x8e\xef\x05\xf4\\\xfbG\xd1\xf9\xd4#L\xaf\x96\xc3|\xfb\x0b\xe5:/\xa9\xce\x9f\xf3\xfe\x87\xa4Y\x9b5r\x9e\x19\xca"\x82\xa0\x03\xd5\xbc*HL=\xdeK\xc8\xe9S^u\x05\xfa\xfb+\xcb-@i\xb7\x88c\xdaL6\x9fc\x8fJ\xec\x82R\xd7\xf4\x0fW%uo\xcc\x9e\x1f\xa2*\x83F\xef\xe6\xd4\xba"\x9b\n\xb6^LN\x92m(\xd4\x01\xcd9zu\x9e\xdeL?\xcf\xeb\xfc\xeb\xe1z\x1a\x7f\xa1\xcf\x0b.U\xc1\xd3\xfb\x83\xe9\xfc\x82D^e\xbd\x85\x1cla.\x18\x8f\'^\xdb\xd9\xc9\xd6\xddm\xf6\xdfm\xf6\xdfl;\x10\x1c\xdd\x0e\x1d&lt;\xddm\x1e\xddm\xd6\xdfl\xaf\x0b\xfb\x86e\x0e\x8d\x87\xaf\x97$\x95\xb5\n\xc4\x16-Y&lt;:\xb4i-\x92\x90(|}.\xdd\xbc\xcc&amp;k\xc5\xbeVbi\xc3\x8c\x9b!\xc3\xa1\xca\xb0\xf4\xe9\xb6\x12\x8f \x19O\xcdz\x8a&lt;6j\xb8ge\xab\xb5\xfe9\xe4^\x1fQNuU\xef[\x01\x85\x99\x89\xe8\xa4.w\xcf\x96\xaag\xd0I\x1b\xbd\x9a9\xf3g\xd2\xf9\xeb&lt;\xb6\x04q\x9e\xd9j\x1dr\xc8x\xec\xdc\xca\x9d\xca\xeb\xdc\xf5\x8b\x9c\x88\xaei\xe1\xb8K\r+\xcd"i\xa5\x0f\xeeY\x14\xc1D\x1bV\x88\tb\xab\x9e\x92\x9b\xb2\xcb\x17[\xa9[t\xfdO\xf4^k.\xca\xca\xd9\xef5]\xea\x8c\xfd2/Etx\xccp\xf0\xd9\x17\x9f\xd4\xc1\xd7\x19v@\xe1\xe9d\xea\x8e\x99\xd1\t\x88\x93\x1a@\xab\xf38mM\x17\xa7\x9f\xf3\xdf\x8f\xdd\x8fy\xddfQ\x82^V-\xbfa\xfb~h\xd0m\xd9\x1f\x0c\xab\x1d\x066p\xc0a\xd9\xbf[\x8f\xe3\xa6\xc3\xad\xab\xabYu\xfbe\xa5\xa2\xdcl\xf8\xd2\x99\xd2g^\xb6\xe2m\x14\xe8\x99\xe7\xf6\x13\xbcr\x1e&gt;\xa7\x7fS\x89\xc6\xd3$\x9b9\xe7\xbe\x84\xd3\x16\x94\x13&amp;)\xd10\xb4U\x9ez\xe8\x9d\xbc\xd7\xb2\xca\xc1}*\xd2\xf1\x8f\x18vR\x9d\x8de7IF\x94S\xf0}A&gt;a\x01\xe1\xf4*u\x13\xbe\x94\xfa\xf9\xeb\x1d\xa8\xcc\xe3\x05/O\x19gL`\xe7\xe5R\xd4B\x0f\xb13\xd2\xa6\xa5\xf3\xe7\x91\xb2\xcf|\xe8\x1ez\x96a\xd7\xd0B\xdf\xb9\x02=HG\x97e~\x7fS\xe5\xe5\x9ax\x9d\x99\xff\x00BSPk\xacK\xc5i\x90\xd9LfF\xcc\xd3\xe0jb;\xa4\xc7%7\xc4\xb5(\x88\xfe\xb9.0\x9b\x82\xbd\xd3\xd5\xfd&gt;}\xe3\xbb\x96|&amp;d\x10\x8d\xf9\xc3\xcb\xf4?Cz\xbc\x12mSc\xc5ic&gt;\x19\xc4/h\xe2\xa5ScW\xb7\x9b?T&gt;\xc65\xd9\'\x17])\xbbOO/\xe4\xcf\x07\xd4\xfdE\xee\xf0~u\xf9\xefH}\x13\x87\x1f\xad=\xff\x00;E\xb7?[(\x97r\xd3\x88j\x99\xb3x\xd8\xf5P\xfeI\xce\xb3\x85\x93\xba\xc2\x08U;\x83\xb5&amp;\x0e\xe9U+\x07\xb5T\x8c\x189\xadN\x14\x8b\x045`\x9dq\xd0\xfb`k\xc9\xeb\x1b\xcb\\\xca\xa9\xa4\x1d/T\xa8:\xdc\xe8B\x1dP\xafY\xb3uB\xc8\xd6\x99\x04\x06\x98\xeb\xd9|\x19QlG/\x11x\xfc\xafA\x13\xc1\xb8\x0f\x12\xd1\x13\'\xac\xb6\x14\x0c\xf3\x89\xcf4\xe2\xbfG\xce5\x8e\x8b\xc2\xc0C\xd6i\xe8^A\xc7\xbe\x86o|\x17X\xee\x17\x95\xfa\x82\x9c\xe5R\xbc\xc4OY\xd2~\xef\xcd\x8b\x9f\x03\xf0\xfa\xa8\xfc\xf7A\x1e\xf3\xf7R\xe6\x15\x9a\xbf\xa4\xbb\x1f\xa1\x00\x7f\'\xd8\xad\xda\xd1\x1c\x7f\x9c\xc8\x00\xd2\xb7`Is\xe9\xe72\xdc\xb9#\xd96\x102p\xb2\xe7\xa05\x0f\xa0\xe4\xd2~\x9f\x8e\xb8\xcdZqcXlz\x1d:u$\xc1h\xc4\x080\xc3\xc3P\x0cYW?\x9dI\xe1r\x8b\x0f=\x8b\x14n\xeb\xe7\xeb\x0b\xe4~`\xf3{\xb3\x0e\x1e\x8d\xdb\xd5\xe5\xdd\xfb8\xf1.\x0e\xbc\x0b\xcc\xec\x95\xd7]\xee\x87\xe9/K\xcf\xeba\x19\xa9\xa9bd\xe3\x1c\xd6u\xad\x9bA\xd3\x1f:R\xe4\xb1\x19=\xee\x99rvA\xe4w\x9fV\xe9t\xd3k*k#r\xc2J-VT\xea\x07\x97@\xb0\xb7&lt;\xb4P\xaa\xb5\x10T\xeeX\x1f\xbc\xb9;\xea*\xec\x9bD\xf6|\xfb}P\x85\x85\xa0!&amp;\xf0Qs\xa2w\'Y\x9e\xbea\xdeGP\xbf+\xae\xbc\xd8\'\x87aLa\xb8/\xe9FI\x85\xaf"\xf9\xcf\\4\xef\x16\xe4\xb9\xf6\x05\xf5P\xb81\x18\x81\xb5v\xce\x06)\x00*\xe1s\xb1\x9dy\x1d\x87\xcdV\n\xc8_\xb96n\xa0\x17\xe4\xfaD\xfa\x8a\x91\xee\xa5\xbe\\\xf3\xf3U\xb4\xa8\xf7\xfaW\x0e\r\xf1=\xe3:\x88N\x872\x8d`\x00y\x1b&lt;\xe67\xc0\x82\xaf\x87Y-cn\x08\xb7\xe9&gt;\x83\xe6+\xaf\xd2sj\xff\x00[\xc5\rU{;CO\xbd\x92gR\x85n0\xb1\xb5|*c\xd8\xc3\xc9\xa8\x08\x99R\x0c\x0e\x95\xc48\xba\x83\xa3\xe9}\x9c\xe0\xe2\xd9\'\x9d\xd5\xa6\xfa&lt;\xfbgg\'\x9bK\x8c\xf8zpI\xb5`t\xeb\xc1U\x9a\xd2\x9638\x81\xc4c\xd7\x1c\x18\xcf\x99\xd5?5\xa3\xc0\xc7d\xad\xc9\xc3\xf6\xf3\xcf\xcdZ&lt;=\x12)\xeb\xa6r\x11\xe6\xc2\x14\x91\xdb?\x85,\xf6A\xc7\xd0\xe7\x11\xe6\xf5$\xf2\xd0\xee\xc7z&amp;:N\xe4\xebS\x16?C\x9a\x9f%\x90`\xee\xa43z\xdc^ws0V5\x8e\xa1* x&gt;\xa2\xfc\xeb\xa8z\x9er\xf7\x1d\xe3\x9bp\x14\x0f\x91\xd4;\x88\x93\xeb\xcb$\x9e\xf1[\x9f\x04\xa2{j\x85\xea\xcc\xc4\xcf\x01A\xdd\x89SS\xa6\xb1\r\xaf|\xf3\xe4^\xec\xda\xbc\xeax\xe8\'\xb1\x8cC\x12\xa4E#\xfb\x99\x87\x9c\xcf\xb2\x8f\xac\x9cp\x06^\x16o\xfa~lO\x8b\xa8\x87*\xaa\xfaD\xa6yQk\x16m\xf2\xcc\x8a\xb4\xdf\r\xba\x9f\x85*2Ew\xe2&lt;\x9bO\xa7-w\xec\xb8d\xaa\xd7\xd8V&amp;\x88N\x8dnQL2D\xad\xc6\x11c{\x0b\x18rO\xc0f\xb3\xbd\xda!r\t(\xc48\xfa\xc1A\xed0\xbf\xd5=\xdf\xa3\x9b1Z\xeb\xaf\x0b\xb8@7\x98\xfeY\xe0\xee\xdf\xba9\x98o+X\n\xcc\xaa\xafS\x87\xac_\x1d\xd0\xe1M/\xaa4q;\xd3$N\x0b\xbdr[\xac(\xd4S\xe5\xa9\xeb\xce\x90&lt;E\xc7\x1d\x00\x08\xb2w\xde\xfew\x1fG\x95\x06t7\x07^\x85W&amp;Xh\xad\x18[\xec\x9c\xcb\xa8M\x96\xec\x8f4^\xd8\x11t\xa7\xd5\x067Q\x9c\xbd*\x9eW_\xdd\xdc\xfey\x9d5`\xc1x\x98\xc0E\x1f&gt;\xb7\xa8#\xe1\xa0\xbf]\x12%?Ut/\x12\xac\\\xcf\x9b\xfa\xf0\xae\xda\xfcY\xc3\xa5r^\x92J\xd3-\xe7\xd9\x13\xd1\x07&lt;\xe4aJW\xc9\x9cz\xcc\xe1\xce\xd5\x11Y\xb8\x01\xdej\x92\xe7\x0b\x1d\x19G\xe9\xf9\xf5\x9f7f\x1e\xac\xa1\xf2*o\x8c/z\x8c\'\xb1\xef\xc9\xc4\xd1\x19\xbc\xf6h\xe3\xa2\x87\xa2\xb73@\xa07Z\x14\x98)\xc7\x17/\xa2\xe4\xfd\x15\xf5\x1c~\xb0\xe3h6Y\xcey\x06s;\xbb^%\xc0\xfbj\x87Y\x1b\x9d\xa9\x1c\xbc\xacQ\xc32\xadC\x96\xe7P\xccT\xe2\xc9\xdc\xd4\xd9=\x0ew\r1\x98\xdf\xd8\x96^\xb6\xa0\xa5e\xde\x94]&amp;t\xd2:9\xd7\x83q\xc7\xd3/\x8b\xdfY\xd1&amp;n\xe5\xd9\x11vE\xb93\xf75l\x1cP\x80\xdc\xf5\xa5\'\xb2\xcb=\xe6&gt;O+\xae\\\xba\xca\x9d_\xb6,&gt;\x97"\x9c\xa8\x1f\x83\xa0\xddW\x1f\xe3\xae\xc1\xd5*8\xb0t\xca\x87=/UU6\xd0\xfa\xa1a\xd4Vc\x96\x81\xcbI\x7f\x9e\xe2\xb8:b\x83\xaf\xf2_\xc85o&gt;\xc1\xbc\xc6\xb7\xd4\'\xf5\xf9\xe0CYM\xefS\x9aFK\x1f\x9d\xf7\xe6\x9e\x92\xba\xf9*\x99\xe9,\x89\x89m^\xb4M\xed\x8d\xe95n\xf0\xcf\xe2\xb1\x1fQX\xba\x12\xaf\x9e\xd9c\xd4\xd7\x9f\xa5\\g\x85\x9b\xfc\xe2#\xb0\xd9\xfa\xce4\x9e\x17g\xe7\xa2\xde\xe7?\xc2\xe9^\xbdht\xb3\xe7\x8f8\xfb\x0f\x1c\xc5s\xd0#:\xa9s\x9d\xaf@\x0c\xe8\x93\xef\x9e\x8bU\x9b\x97\xd5r\xec\xbd\tb\xe8K\xd9\x87\x0c\x16\x91\xea\x92$3\xc3Nm\xa2\xda\xc6\xd5\x81\xa8wg\x00\x0c\xc7\x96t\xc0\x16\xb6\x9ew\xb0\xc4\xa3{\xcc\xbebP\xae\xa1H\xdc\xdar=\x19\x1bU\x8c\xcf\xcd\x95\xc3\xe3\x90\xe8\xd5d\xc3|N\xf8\x01)\xd9\x05\x8ej\xd1\xa2\xb28\x1b\x16q\xeb\x88\x9eZ\xd4\x8d&lt;:\xa0\xd6\xac\x84\x8a\xa9J\x96$\xf3^v;9\xeeI\xda\xfd\x1e\\\xc7\x9a\xf7\xf9*x\x8c\xe7\x13\xd6F\x9e\x89S\xe7\xaf\xaalQC\xba\xb3\xcc\xfdU?\xdd\xcd/-\x97\xfc\x9e\xc8z\xa3&amp;)?!\xd9[f\r\x85#R\xcb\x07Y\xf7\x93\\L\xb7\xd6-\xfa\xb3My\xe7\x98y-\xa0\xb2\x0e\x15[\xc0\xdf\x9c\xfa\x17\x16J\xf7f#\xa86sb=\xc07\x9dV\x8f) \xf3\xec\x1b\xa1\xc6\xf4GH\xf0\xae\x16\xf11\x17\xb1%\xf6\x98\x0fVp\xe2|\xe3\xd6\xe6\xb0\xf7\'\xca\x80;\xeaG\x9el\\*\xb7\xde\xf6\xbd\x0b\x07\xe7I\xd1\xcd\xf1\x85\xee\xd9\xb4p\xf3\xf7\xb5.\x8c\xc1:M`\xe7\xf5\\\x8e?M\xc5T\x92\x99s\xe5\xb6\x86e\xd9\xd4\xc9\xeci\xb0\x98\nLD\x06\xf0a\xabG\xb6\x85|E\x13\x81C\xa5\xfc\xa6\x8fh\xd0S\x8a%\xff\x00F\xd3\x97\xed\xa9b\xb5\x9d\xcbN]\xaac\x18?\x9a&lt;\x7fM\xd7\x9a\xa6\xfb\xb9\x82sT8b\xcc\xb7\xa6\xd2\x02R\xa8R\xf3^\xe5\xb0\x82\x07\xc9\xdc{y\xa9\xc2\xaa\xbcw9i\xab\xf2\xd9\xc3\xda\xe0\x9eT\xe2\xe9S\xcf\xe8\xac1\xb7\x19\xff\x00-Y\xfa\xa0W\xaeQ\x82v\x88.\x15K\x07D\xbc\x89\xdarQl\xf1\xf4\xa6\xfc\xf7\xa1?_/](\xb9\xe0\xf5\xa3\x15g\x83\xcbs\xcf*\xfdI/\xb9#Z\x04e)\x04\xc8\xaa\x91\xb0\xf6\xda\xaem#\xc7\xb0\xcc\xbc\x95\xd1\xf8^\xb7\xbf\xcd\x93\xf5\xb6\xb3\xc3\x80\xf2\xd8\xbf4~\xf7e\xc7\xcbu\xfd7\xb74\x1fG\x9ekj\x01g\xbdt?"\xca\xfe\x84\xc4_qH\xd5\xe9\xb4\x01%{W)]\xb1\xaeY\xda\xbd\xe1F\xb8\xefZ\\\xeb\xf7\x8dJ\xa1\x8esaZ\xc3f\xa6!\xe85_\xb0\xe2\xd1\xbd\x8eH6R\xd4l\xc9\x1e\xd4\x89\xbb\x85\xb0 \xc62D\x82\xbeN\x86\'\x16!\xb1\xb468\xf6z\xe6\xcd\xfd\x10\xaf\xb2\x9aQ\x98\xa4\r\xb9\xda\x00\xcd\x81:\xda\x9c\xabK\x9e\xc8\xe1\x92\xe5C|\xef\xea5GV+-l-J\x81\x99[\xe8\x818\xba/^J\x11\xa3]\xe7v\xf3\xca&lt;\xde\xb6.\xa8+%\x19\x9d+tH\x84\xde\xa75\x88Vuae\xcevb\xea\x91V\x16\xef"2l\xfd\x1d\x8a\x14f\xe9\x95\xa2h\xc9\xfb\xe7q\xdc\xed\xf7D\x97\xfc\xb6F\x83\x08\xf4\xc3$Z\xef;\\\x85B\xf6s/\xe1\xa4\xd3\t\x8b/ZJ\x9c\xb4j\xe2\x19g\xa8\x8c=9\x97\xe7*\xc1\xc3R@\x8a\xe8\n\x1dhY\x03W\x1b@\x941\xc4\x97\xba\xd3)\xf4\xd2t.\\e+\xbc\xd7\xd2h\xe1\xa7\x93\xc4\xe4\x03X\x87\xeb\x17\x965\xa9\xbb\xc5o\xd1\xb5\xdeT5\xc9.\xcb\x95S_\xa2\xc9\xfd\x92\xa3F;\xcb5?D\x0fe`\xe4\x04\x17h~]FP\xb7\xc0\xbb}\xd7\x9e\xd1\xf4&lt;\xb5\xb1\x98\xeb\xa0Bu\x90=\xdb\x9d\x97\xb3HH\x83\x9d\x15:\xc7\xdc)\x8d\x827F\x9d\xcc\x1czaS\x1b``\\\xfdZ?D[L\xc2\x87s\x0bRn\xa3\xc7\xd7\xd5\x90\x83&amp;\x19\xcb}\x06l\x17\x9e\x83\xec\xae]\x90gy#p\xf5\x8b\xe2\xb9";$\x086o/\x90\xe8^\x9f&amp;U\xcbi\xe2\xc0v\xe0\x17\xbe\xc8\x8e\xe6\xad\x8b\xa8\xbe;\x0f\x91\xb5A5fI\x8f\xb8[\xa2\xa9rY\xecc\xddR\xeaN\x1f\xca\xe9\xaf\xcbP\x8a/\x17\x8f\xa2(\x93\x168\x99\xaf\xd4\x90\xd7J\xdbF\xd9G\x9a\x9a\xec\x89\x9fB`}\xae\x1c#\x86\xd5&gt;n\xf3\xfbk\xa8\xf6G%\xf0.\xed\xe4]\xd6\x88+\xcf\xa5\x8eV\xcf}\xe5\xd1\xbc\xba\x8a\x9cL\xf2 \xff\x00A2\xff\x00\\\x13\xe5bs\xadgZ\xd7&amp;\xf8\xd0=I\xaecF\x8a\x9f\xe8g\x8e-X\xa7yW{\xdd\xc3\xcc\x1d*\xf5\x8d\x87\x01\xfa)4\xd2\xbb8\x8e\xa0/\xa4\xf0\xa9zbe\x99\xeeZ\x10\x8bue\xbf\xe8\x8f\xd1_y\xe6HG\x1bX\x1b\xdd\xbd\x1b\xec*\xe3\x0e\xd6\xf6\xe7`\xacXB\x8c\xc5\x19\xe8\xe2\x89\x99F\xfa\xf5\xb9\x97\x19\xa9#c|\xfd\x1a\x1d%\xa4\xd6!s\xdc\x91\xab\xc5\xd3\x00h\xaa\x95y\xab\x8d\xca\x9awo?l\x05\xf1\xde\x84+\xaf{&gt;b\xacm\x9epu\x16\x933\xd9\x05\xdajRs\x13k\xe7\x0c\xee\xe6\r\xf3=\xa6\xfaT\xb7\xa5\x12\r0\xa9G.\xd8\xa3r\xde\xa7=.\x1c\x8a\xa7l\xf49\xb3\xa8\xbf\x1e\x07Q\xfbY\x8a\xfc\xf7\xfbe\xec\xdd\'\xe6\xbbH\xdc\x85\xc6\x19\x8e\xfa`\x9d\xcd\xad\xf11\xfe\xb6\x19\xd13yo^i\xd3\xb3[\x12\xbe\x97$}Sj\xe9T\x9f#\xad\xb3\xd9\xe4\xfc\xef\xe6Us\x9e\x8d~U\xb4\xaf\x00\x83A&lt;0\xbfJ\xa9\xde\x89\'\xc3\x07\x7f\x14\x0b\xec*\x9dy\x97\x9d\x10=9\x9c\xe7p]\x98\xcf1m\xe1\xa6\x7f\xebI+\xd1\x17\xa6t\x9f.\x91\xa2\x8d\xe9\x1f"\x14\x96\xe4\x90\xddLP\xe1e#&amp;\'q\x1dC\x87xL\x88\xf3\xa5\x9b\x9b\xfcD\x92,n\x9a\x1f\xd8\xf3~\x83\xf49\xe3\xda\xae7\x00\xf0o\x86\xe0\xefv\xe8o\x0e\xf3l\xca\x8etk`\x0c\xcci\x91z4a\xac\xa4\xc7\'\x85\xae\xe0\x08\xb3\xcd&amp;&amp;6\xf3\x8e\xcc;wD\x1b\xc1\xd2\x1b\x92\xc9\x96\x9a\xe7D\xdd\x19\x1d\xee\x95j\xa7aN\x81\xa2\xea\x93\xc3\xd1\xa3z\\k8\xc3\xcbj\xbc\xf5\xea\x89\xf7\x95I\xfc\xf6\x1b\xe7\xe3="\n\xa7\xdfG3]\xd33\xd1\x1cS\xe7\xfdVM/\x94\xb6\xaa,\xf1^h\xb7d\x95F!\xedsYgV\xf2\xafL\xb7N\xb53\xf1xq\xe7\xe5@\xcdb\x91$\xd7\xae\x1a\xbb\xa2o\xd5\x82\xcf\x0fQ_C\x957\x9cZ\x95u&gt;\xc9s\xe3\xd7\x1b\xf1\xaf,Z\xf7)\xb3P\xa7\xd8\x85x\x8b\xc7\x0e\xc7\xbe\x87X\x8a\x90\xe5\x90\x1b\xab\x17;\x95\x85\x0eAq\xefv2;\x06\xeb\xacJ\x92\xe5\xa9C\xe3\x1d7\xc0H\xa8\xc0{\xd9w\xa6G9\x1bA\xf3\x9c\x1f\xa0\xd5h\x8f\x01\xf2oD\x08\xcbY\x87\xc4_\x91a\xe5_zY\x8f\x96Lp\xcd\x7fI\xcf\xa6{\xdc\xcc\x04w\xb0\xfd\xaf.\xf3o\x86\xe4\xef1\xf8aD\xd5m\xde\x06W.\xb3\x14\xcb\xee\x08\xba\x8f99\x1b\x1dK\xect\x82x\xa7,-s\xd6\xach5K\x07Tk\xf2\xd9"\x15\xbby\x06\x8b\xf2\xc0\x95\x11O\x8a\xfc\xf1t\x97\xec\x85\x887=\x92\x12\xa2\xd6:\x07TE\xf9}l\x1d\x12\xcc\xbc~\xb7.8\x8c\xf1k\x0fD\xe3\xab\xd7\xe8.\xbfE\xce\x15\x88\x8d\xb8\xa0=\xe0\xd0\x17\x86\xecMd\x97\x15\xfb\x19\xa7\x970"\xcf\xea\x11\x9d\xab+\x18\x95\xf9U\xa8\x91O\xe5~K\xc3\xd2\x1d\xbd\x18\xd2\xe2\xb0\xee\xb8GT\xd5z\xe5\x8e#\xe7\x1c\'\xb6;\x87w4\x1f\x07\xdfK\x81\xae B\xf4\xc7\x01\x08\xd2\xf5\\2yc.\xfa\x04\xb8\x8c\xff\x00\xe4\x05\xca\xc8\x0fR\x99\xe4,\xfc4N\xf5\xc15\x0b=K\xa0\xf2\x93\xbcG*\xf4V\xdfI\xeb\x8d&lt;c&lt;\xd0\x1fY\x89\x94\xb7&gt;g5\xa2\xe3\xcfV\xd9\x17TKe+eO\x93\x91\x89\xb4\x84\x9c\x04\x1dSp\x8a\xee\xbe\xe7;\xd7\xaf\x0b\xe7s\xb7\x03N7\xbb}\xb7\xdbC\xb5c\xa6\x1a\xa9\xc3[\x1bL\xbc\xe4\xc8\x13\x81\x9c\x8a\xeaZTNMj9\xac\xd5M8\x9b\xc3\x1aLB\x175\xdf/\x0b\x15YJ\xe4\x12\xb9&gt;\x1b\x16\xba\x01MF\x8a\xb6\xad[\x8a\xd5\x81+\xd1=\x17\xab\x9e\xaf\x0fO\\\xf5\x1f=\xeb\x13\x9d0X\xf9\xeb\x10\xf9\xf7\x9c\x10\xdd\xa0\xadY\x8f\xddb\xb7\x95\x0f)\xccus\x89\xe2\xa6{\xc1E\x8b\x03\xcd@\xf6V\xce\x17-\x06\xb3\xd0z\xf47\xb8R\xb8\xb6\x98o\x12\x0b\xea\x9d\t8\xf6\xdaG\xb3(\xf9\xcf\xb4\x12z\x90_\xe4\xe87\xdb\xce\x8d3\x94\xf1\xd3\xf4\t\x97\x7f\x01\xd8\xaf}\x0bH\x07CX\xc5{\xd0\xd0\xe0\xef\xe5.m\xebM\xab\x9e\xe1\xa8\x0br\xcf\xcc&amp;\xae\x8d5\xac\x00R\x87\xa6#\xf4\x12\x1ffi|\xcf{\xa0\x94\xf1\xed]fK\x92T\xeb\xa8\xd9x,I\x0e\x81\xcc\xcb\x8e\xa3\xbb\xc5N\x80\xcb\xe6 Od\xac\x9a\r\x9e;\xca+t\x9d\xcf\xd8\xe4t\xe8G\x9e\xd4;\x97\x8c|\x03\xed\xbc\x07\xcc#:\xb9\xd3\x0c \x9am\x99\x10s\xb23\xd1\x9f \xf3\x87\x07rY\xf0p\x82J\x81\xe8\xc0C\x90\xd9^\x17\x07\x1aMi\xc8\x86\xe26I\xcbv.\x99NV\xfa\x9b\x16N*\x99\x17\x0fKQ\\\xf3\xce\xea\xd1;y\xd8\xe5F\x8b\xc5g\x9a\xa5|\xe2/\xcf\xa9\xb6\x90\x1eN\x95`\x8a\xdd\xeb&gt;\xae\xeb\xe6\xe9\xa0\xe1\xb9\x90\x85\x94}\xd8O3\xe7\xfe\x81*\xcdE\x95\xd3\x9d\xbd\x9bC8\xc5\xd0\xfe\xed\xd7Ff\xeedy\xc6\x89\xd0\xa2\x98\xeai\x83G\x15\xfb\rW\xea|\xec\xab\xc7\xef\xfb\xd1\xe5^\x8d\x07\xf3\xea\x13\x99O\x97\xab\xef\x97|\x9f\xdc\x86\x91\xe3\xd4/Cf\x9e\xe4\x89r\xa5"+t\x12\x19\xf8\x90n\xe4\\\xd3\xd2K*\xba\'\x91f\xde\x1d\xc6u/_-}\x14Nyl\xc0\xa5N\xea\xa4\xd8\x07K\xcb\x94\xc7,\xe5\x01\xbf\x8d\xe2\xa3;tU#\x83\x9a\xf4\xc1\xce\xa19\xc1\xfa\x96\xaf]A]@\xc6\x9a\xafG37\xa3\x03\x8aZ\xe7\x9d=9Zm\xee\xdc\xed\xf6\xdfm\x01\xd2\r\xd6\xd5\x08\xf3\x1b\xe3y\xb2\xdb\x9f\x94\x90\xca\xa2k\xa3,E\x1d\xe1\xc4F\x1d\x8a\xe8\xa1%\xc4\xf2\x84.\x105(\xbf\x04g|\xb6Y\x8d\x1e\xbb\xb9\x8a\x11\x04\xdc\\]\x9e\x89\x13\x95^zhesNkk\xbeOP\x845\xbc5\x0f\xce&amp;\xea[\x13\xb2\xe2\xce\xc78\x8f\xbe\x8e~J\xac4\xec\xabS\xa6\xadz\xd2\xefu\x8a\xc4\x99pU\x0f\xd0\xa5\xe4\xd5\'1\xac\xbcQ\xadL\xdc\xcb\x17\xa0B\xc0I\xd6\xc6\xdc\n\xacj\x07/\xd9&amp;\xae\x8ep=\x1a\x84i\xc7\x8d\xda\xd0\xbc\xb9\x8f\t`\xf2j&amp;\xc17\xd1\x93\x9f\x0e\xcd}E\xf2\xb4\xb3\x15#\xce$\x98O\xf5\x8bG\x13\x01\xa4\xa0\xa8j\xe2-\xdeY1\x07\x0f\xd23\xdfpR\xecC\xc5Z&lt;\xcb\x8c)\x92z\xfb\xa4\xc6 \xb3\x02k\x85\x1c\xfc\xf0\x1f\xd7\xe8d\xb3\xady|\x84$\xcd\xdex\xb9\x9cgh\x96\x81\xa3\xb50\xff\x00m\xc4Et\x0fF68\xc1_2\xba\x9f\xbb\r+\xda\x8f\x9bs\xb7\xa3y\xb5C\xa7\x1b\x9d\xa9\x1c@jg[\xda\xa6\xc9MI\x98?I&gt;\xda\x93k@H\x087 \xb3^\x9bxETnU\x96&amp;\xf7\xddC\xd0h\xb4\x8eg\x9e\xd4\x99\x81Jd\x9f2\xf3\xfaY/-\'\xbb\x9d\x7f\xc8\xf4,\xf5CA\xf9_Q\\\x83\xad,\xe3\xc0\x1d\xf3af`z\xd4\xf20\xfa\xea\x87[A[\x06\x8e\x17\xca\xfd\xf9L\xecXV\xe9\xa5,]\x85$I\x8f\x9b\x04\xe9K\xdc\xda\xbe+\xd7F\xb4\xd0I\x84zJ\xe1\xe5\x9a&gt;\xd2\t\x93\xbb\xf7\xce_C\x9dn\x0ctI{\xc6\xe8\x8b\x91\x90\xfb\xb7\\5\x7f\xf1\xf0\xce\x89\xf2\x00\x9e\xac\x8b\xec$ R\xa0\x15e7#}+e\x16\x8e\x99\xee,k\x92\x87\xf8\xf5\xb75+\xb9\xb2\xe3\x1e\xfej\xaa\x1f\xf2\x8a\x1f\xa3\x8a\xf0\xce\xe4t\xf2\xd6\xd5\xbd\x9a\xba\xfa=)\x8f1K\r#\xe7\xdb\x8d\xacb#\xd1,\xdc+"\xb0\xbfPQ\xf4\x92\xd7\xbb\xccB\xb9\'\xc9\xb6\xeb\xdf-K\xd5\x8f\x83y\xb7\x87{\xb4\x1bL7\xd8BL\xfbq\xb4{w\xb02|%\x89S\xa0am\xd8\xc3[V8\xaa\xe8\x81\\\x9d\x97\xb9\xec5\xb3\x05e3\x8bTC\xaa\x99\xd9\xabVB\xe3e\xdc\x9dT$\xf0^4\xb8:\x88\xcd\x8c\xf5\xc3M\xf9\xff\x00IbUX\xf3u//\x9c8\x9d\xa5`}(\x8f\xdd\x15\xae\xd0\xd5\xca\xec\x1c"\x8d\x1b\xacs\x9fex\xb5\x1e\xb8\xaavU\ty\xd6e)\xc6\xa7\xa1E\x9fPT\x8c\x99\xb8\\\x1fA.\xb8UU\xa3\xb4\x91\xe8\x1cA\xb3\xea#zY\xdf\xd9\xe4\x8b\x87\x0ftG\xf4&amp;\x0b\xc8\xec\xd3\',\xf7\xc9\xb9\xfe0R\r\x93\xfa\xf1!&lt;\'\xab*\xf6\xce\xf4\x18\xdf(\xa1\xd0\xa4E\xea\x04\xe6\xaa\x15\xd5\xab\xceSP\xdb\xff\x00\x8d\xd4\x95I\x8f\xb6\xce}\x00G\xd3\x168\x06=\xeff~&lt;\xfd\xe0ND\xd2-\xabt\x06\x9e\xea\xa8\xca5\xd5\x07t\'\xa5\xaf8s\xeaY&lt;jM\xc6\xc3_\x16BC\xe8`\xa5\xefH\xf5\xb6\xa1\xd9=\x11\xd7\xc3\xbe\xdb\xc0&lt;;\x9d\xba\x07\x9c+\x93o\x0ev\x84\xebc}\xb2\xfb1\xd5Y0\xe3\x1e\xb6\xe7h\x8e\x16\xd8\xb4\xf27/b\xbaQ\xb3\xbb\x90\x93)U\x00X\x81\x95\x16\xa7M\x1e\xf2\xbd=\x97r\xf4\xac\xf3U\x93\xb7\x9c/\x0fJ\x7f5t(\xd3\xf5+I#\xce\xe8\xca\xfcS\x0c\xc2\x11\x84\r\x8bD\xe2\x1fI.\x00?\xcc\x84\xf9u\xec\xf0\x8c\xaf\xde\xab^\x8d?F\xf9\x97U@\xa4\xe1\xb3\xcd\x9d\xd8`\x1e\xa1\xab)\xf2q\xf8\xbc\xde\xce]\x83\x9aL\xc7\xe9\xb9`\x0br%\x8fc\x98_\r\xc4r;\xc7\xbf\xca\x8d\xd2\x87\xdex\xef\x8b\xdfG\x98?|\xe5i\xa4\xe5\x1b!\xfa\x04\xa7ciYc\xaa3M\xaf\xae\x17l\xff\x00\xe5\xd5\xbe\xa8\xafyU:\x8c\rT:\xdf\x81E\xefN7\xefF\xdf\x10\xc5\xcb\x80z\xdb\r\xfaY\xea\xdeu\x0c\xfc\xff\x00&lt;F\x86\xf9\x1b\xcb\xa4\xf6z\x8b\x1fKT\xb2\xc5\x9d\xaf\xe9\xa1V\x00\x7f\x1dGp\x123`=\x88l\x0f\xd0\x7fo\xcb\xf7X\xe45\x92\x182xw\xc3y\xb7\xb8}\x8f\xbbs\xb7\xb8xt\x83}\xb7\xbb)\xd8\xb2LX\x1b\xdd\xbe\xdb\x9d\xb8:\r\x80\x97\t\xcd~\x9c4\xbco\x11\xc8\xc9\xcc\xd9\xf7=\x8bJ\xba\x97w\x14\x80\xe6\xbc\xf7Y\xe2\xe9\x13\xc5S^K3z\x93\xa9\xe3\xf7\xfe\x8f\xf6x\x92\xe3Lg\xe7)\x17\x98\x97\x14\xaf\xd1\x03Y=s\x90\xfbsS\xf4V\xfcu\xe5\xda?\x8a[8\x9d{\xa7\x08\xe9An\xa6!A=lBg\xa6\x10\xf3\xca\xff\x00^\xb6\xe4\xb7C&lt;\xfa\xcaM\xc8i\xb9J(G\x94\xde]\xbe\xd4\x15\xe6\x16\x1ffO\xfe\xdf\x00\xdb*\xe7\x0fNk\xf0\x1e\x96y\xdf\x07&gt;6N\xed\x96y\xed\xad\x06\xcd\x9c\xf5\x0b\xd7\x0eb\xdd"\x91J\x93\x8b]\x0cs\xb3\x9c\xcf\xa1,\xf3\xc6\xb1\xdej\xa8^/\xb0\xbdkL\xc7\x8a\xbd\x90\x8d\xea\xd3\xb5\x83U:*y|\xdd\x16\xce}\xdc\xe1\xe6\xea\x9d\x8e\x7f@\x9a\x06\x0f3A\xce\xc6=y\xc0\xb8\x87C\x8f\xf3r\xa7@=e.6\xcf\xf4\xf1#\xda\xac\x98}\x87;}\xb7\xdbxw\xa3|w\xc3{\xb7\xc7{\xb7\xdb}\x85\x12g\xda\xc0\x1e\xed\xee\xdfm\xf6\xde\xed[\x11\xc1\xc3\x06ai\x08v#=c\x04\x19\xf4,M\xcc:\xbaZ\x15&amp;\xe8\xbewPI\xb4?1\xd6:`\xbf\x99\x8dv7\xe9\xbf\xac\xe6\xcf&lt;\xfbb\xff\x001\xb3\x7fBy\xef\xa7-O\xc6\xaey\xe9I\xff\x00\xcb$\xe4\xd8\xbf\xd1\xcc/Nr\xf3\xa9\xa0\xf9Sp\xe4z\x13\xc9\xbe\xa9_\xba\xdeS[(\xee\xb6\x05\xd09\xc1\xf7\x88S\xa8l\xf5\x86\xa0\x08\x9e&gt;\x90\xe8y\xe0%\xfd9\xb3\xfa1-\xd9\x05\x1en\xb4\x8f\x1b\xb3V\xfa_\x1fF\xec\xe7\xcaR\x98W\xc3z\x80\xfd\x18\x16\xf3\x99\x0b\xbf\x0c\xe9\xd6\x15&amp;\x95;\x18M\xd2\xfc\xb6\x8b\xd1\x92\xb8\xa9\xdfT\xd9\xbd\t\x1d\xcd\x9e\xf9\x15\xd0\xfa\x06}%\xd7\xbc\n*}\x0c\xd5\xfa\xd1\x93\xe7\xe9\xae\xf96\xcf\x0c\xc3z\xad\xe7\x170.\xe3,\xe8\xc9\xc1\x95}r\xfd\xd1\x10\xdc\xcen\xa2\x9f"\x84\xf4\x0bmVk+\xe5\x95a\x06\xd3\xe9\xa2m\x86\x89Q\xf1\'Jy\xb7\x9b}\xb7\xdby\xb7\xdb{\xb7\xdb{\xb7\xdb{\xb7\xdb}\xb0\xd2\xe5\x15&gt;;\xed\xbe\x1b\x8cd\xc3\xec8\xc6"}\x03\x9c~\xdb\x8cPR\xcbQ\xa8hQFomsl\xc1\xde\x02\xbf"\x13\xcb\xad\x8ev\x07\xa6\xda\xcd\xfag\xe9\xb2l[\xf2\xf7\x87\x10n\x11=I\xe8^SO,+\xa4i\xde5\x16}g\x19\xa7\xa3xY\x13\xdc\\\x8f\xd6W\x8e:2p8+\xc5k\xd0#\x18\x00\xeb3\xb3r\x8aL\xa9\xe0X\x81j\xf3\xef\xc4\x1a\xff\x00[\xdf\xe76\xfa\xd1\xcb\xd1\xe5t\xf4\xb8\xfd\xecL\xdf\xe6=\x04\xb8[d\xfa\x9f8\xb5%\x8a\xf8\xfe\x8c\x1d\xbc\x98\x0f\x97\xd0_\xc8c\\\xec.\xa8\x93\xeb1\x9ew\x1bu\xbc\x06\xad\xe8K2\xf3o~2\xe7\xd06"W\x82i\x1e\x16\xcf\xfd5p\xf2\x1bX\x0e\x9b\xeaN\x9a6\xb1\xe8*/\xcb\xdf9\xf4\xd4\x87\x02\x85\xec\xc6\xe0m\xa8\x15\xd4\x85\xe0nL\xaaw\xe6~y\xf1\xea\xad^\xb0]\xd3\xa7;\x87\xa5"\x8e\x1c\xdc\\\xc1l\xbb\tO\xb6\xf3\x0f\xb6\xf3o\xb6\xfbo\xb6\xf7o\xb6\xf7o\xb1\xeb\x0f\x86\xfboq\xfboF\xfbh\x86\x87kg}\xb0\x03J\xae\xa5\x95A\xb9SZ.r\xf40:H\xc1X\x8d\x11\xe4\xb9\xe1v[\xa2\xc9i\x08\xe1\xa2?\xc9\xf6\x14c\xba{\x94\x92\x8f\xd1\xd8W$\xb2\xee8\xe7\xde\xaa6\xf9\xe3\xd2\x13\xfb\xce\x91\xe3m#\xce\xa5GU+\xaa\x97\xa5\x94}\x0c\xd5\xc9\x9e\xbc\x8a#z\x01c\xd8`\x8c\x9c0\xaf\x84\x832\xcd\xbd\x80k\x93\xb4\xf0\xb5\x89\xd8\x87E$\x9e?\xd3&gt;\xb9L\xdd\x13v\xf6\xf9e\xf4\x131\xf1\xbbos\xe6\x0fW\x95k\x9f\xa5C\x98/\xf8\x9b\xdc\xa1\xfa\x02\xe7n\x1d\xd1\xa1"\xb5\xd5\x80\x899/J\xb2\xd0\xbc\xfc\x13\x95%\xf6I[\xcc\x07\x94G\xf5g?\x02\xc9\xbe\xa4\xf4\xbf!\x9ahb\xe4u\x1fEr\x7f\\\x1e\xf3\xd0}\xccw{\xbc\xe2B\xcb\x9e\x88a\xe7R\x9d\x93\x83\xcb\xcf\xfdr|\xf4\xa7\xa9z\t\x18,\xce)\x9cg\x08\xc0P\xb3\xb8\xa2\xf9\x87\x9b}\x8f\xd8}\xb7\xd8\xfc7\xa7}\xb7\xbbz7\xdb{\xb7\xdbz7\xbb}\xb5U\xc1\xfc\xfa/G\x1d\xeeF.\x81]\xf0\x06eup\xcf\x89\x81:\x96\x0c\x8a\x02\xac\xb5\x88)S\x99PB\xb1a&lt;\xeb\xe6:Gy5\xef\xdd\xa3\xc5\x99\xb8\xe8\x14\xc0\xbb\xf3\xff\x00\x07&gt;y\xd71\xd5\xd6\xa6\xc1zs_\x089\xcb\x94\xbd\x01I\xb5\x85\x02n\xcf\xfe[QuV\xf4\x99\xd9i\xc74\xb3\xfe\xedP\x8b\x03N\x018&gt;\x9d\xc1\xd3jMnF\xf6\x99\x07z\xf7\x07\xa0\xde^p\xc5\xa4\xa3Q\xa6\x1f\x15e\xe5\xc3;\x02\xdfDR\xb9U\x17\xd3C|\xc5\x87\x9e\xa1:\x10\'R\x12\x07\x89\xe2\x121S\\\xe6\xdc\x04\xbaE&gt;\x85d\xeaK\xfe\x82\xe6&gt;%\xe7\xe8v\xdf&gt;Y\xcf\xa0\xc5\xf9\xe8\xc7\xc1\x02\xd1z\x0c\x14=BN:\xb5s,z\x11=$\xd5`\x92\xfa0L\x8b~\xa5\xf59\xe8q\x17\x8e\xc59p\xc6\xa3\xd2\x02\xc5\xbf?\xf1tl\xde\xac\x1c2y\xb7\xc7y\xb7\xc3}\xb7\xd8\xfb\x87\xd8\xfb\x80\xf8\x94\x8f\x12\xef\xde\xec-\xb0\xeb\x1f\xb6\x19&lt;\x99\xe6R\xa4\x19/\xc0\xe9[\xf2M\xef\xa7\xe7\xdd&gt;\x92,\xf7Q.T\xd9\xed2\xc7\x87jG\xe3\xde\xdd\xb2\xd5GY\xe6\xb9\x0b\xc6\xf4\xcao\x97y\xfej\xcc\x1e\x95\x8c\xf5\xe6[/\x9b\x08\xe5?\x8b\xf8\xf9\x92=S\xda\xe8\x19\xa7\xd9\x83\x8f4y\xd3F\xf5Z\xb3+\xaf\x96\xab\xfd\xd5\xd9~p\xc6\xc8\x9f\xeePgc\xacd\xbb\x89\xc1\x90-(Il\xe3g\x1eK\xc4\xca\xed\xcdQ\xb47y\xe7&lt;\xe8\xcb\xdf*\xa0\x01\x93\\\xe2p\xddI\x0fa+\xc6Av\xc8/\xa0\x82QU\xd4\xcf\x13\x1b\xce\x9b\x9a\x98\x11lr\x87G\x1b\x17\x8e\xbcs$uwU*1x\x86\x14\x12\xf9\xcf|\xe8l\xfd\xce]\xc7\xa2\x03\xc1\x031Xh]\xa9t\x9b\x1d\x1dA\xea\x06*\x1e\xe5Y\xba\xa77x\xd8z\xa5\xa7\xf7L\xb1\x07\xb1\xe2z\xf5\x173\xf2\xaf\xf9\x8b\x96\xfbw\xa7\r\xf3\xbf\x9f\xed\xbc\xc7\xed\xbe\xdb\xec~\xdb\xdd\xbd\xdb\xe1\xb2\xff\x00\n\xb9\xe7\x85\xd2\xe9\xe9J\xb7\x9e\xe4:E\x86\\\x97\xc7\xad\xd5i\xf6\x15\xcb\x84\</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495678-parque-ameghino-semaforazo-contra-el-memorial-para-las-victi</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CABA: La Auditoría General detectó irregularidades en los subsidios habitacionales del GCBA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>El relevamiento señala subejecuciones presupuestarias, áreas vacantes y falencias de control interno y de seguimiento</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>El informe estableció que, además, el 25 por ciento de las personas que reciben el subsidio habitacional deben recurrir a la Justicia para poder acceder a él.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>La Auditoría General de la Ciudad de Buenos Aires detectó una serie de irregularidades e inconsistencias en la ejecución de uno de los principales programas de asistencia habitacional para personas en situación de calle del Gobierno porteño. Se trata de "Asistencia a familias de Alta Vulnerabilidad", dependiente del Ministerio de Desarrollo Humano y Hábitat, en el que la Auditoría encontró subejecuciones presupuestarias, áreas vacantes y falencias de control interno y de seguimiento de la población, entre otros puntos. Además, el informe revela que el 25 por ciento de las personas que reciben el subsidio habitacional deben recurrir a la Justicia para poder acceder a él.Del programa “Asistencia a familias de Alta Vulnerabilidad Social” depende el "Subsidio Habitacional 690", el principal plan del Ministerio a cargo de María Migliore para la población en situación de calle. Se trata de un subsidio que funciona como un fortalecimiento transitorio al ingreso familiar, destinado exclusivamente a cubrir gastos de alojamiento para las personas en situación de calle. El informe de la Auditoría muestra en esa área diversos problemas presupuestarios, como subejecuciones o desvíos de fondos entre sectores sin dar a conocer su destino final. Entre otros puntos, el informe marca que, durante el año 2020, en el programa se realizaron 25 modificaciones presupuestarias y 18 de ellas, el 72 por ciento, "fueron aprobadas por decreto y no se publicaron en el Boletín Oficial". "Además, no se tuvo acceso a los correspondientes actos administrativos probatorios de requerimiento de modificación presupuestaria", agrega el informe. La subejecución se tradujo en problemas concretos, específicamente en el seguimiento de las familias en situación de calle. "Tan grande es el abandono de las familias que el informe muestra como durante el año 2020 las Direcciones del área estuvieron largo tiempo vacantes, no se creó el equipo profesional que manda la Ley 3.706 del 2010 para realizar evaluación de las familias y mucho menos un equipo de seguimiento” sostuvo el auditor general por el Frente de Todos (FdT), Lisandro Teszkiewicz.Según precisa el informe, que no se haya creado ese equipo de seguimiento tuvo diversas consecuencias: la ausencia de evaluaciones técnicas del Programa y la falta de actualización de las llamadas "fichas socioambientales" que consignan datos demográficos, sociolaborales, sanitarios y educativos de las personas. De esto último se desprende que el Programa no cuenta con datos propios al momento decidir, por ejemplo, la renovación o no de los subsidios. Además, la Auditoría advirtió que el programa "no permite precisar la cantidad de subsidios solicitados". "El Programa no cuenta con estadísticas ni indicadores sobre composición del hogar y cantidad de miembros que lo componen ni tampoco sobre las condiciones del establecimiento hotelero o vivienda que alquilan", agregan los y las auditoras en el informe. Actualmente, el subsidio 690 está compuesto por poco más de 20 mil pesos mensuales o un pago único de casi 244 mil. Teszkiewicz afirmó en este sentido que, más allá de las irregularidades detectadas, el monto abonado no alcanza para solucionar el problema habitacional de las familias, ya que, en promedio, una habitación con baño y cocina compartida ronda los 40 mil pesos mensuales. "Asistir a una persona o familia en situación de calle, otorgando montos que no alcanzan para el fin que están planteados demuestra que Rodríguez Larreta y María Migliore no quieren resolver el problema ni acompañar a las familias, mientras gastan fortunas en la publicidad de una supuesta integración que ellos mismos hacen imposible”, aseguró el auditor del FdT, quien agregó además que para obtener los subsidios las familias tienen que pasar por "trámites y requisitos burocráticos de casi imposible cumplimiento, como los presupuestos del hotel en documento membretado”. El paso por la Justicia también es otro de los obstáculos con el que se topan las familias. El informe detectó que 4.353 subsidios, el 25 por ciento de los otorgados en 2020, se tramitaron judicialmente por interposición de un amparo. "Es escandaloso que quienes están atravesando una situación tan terrible como ser desalojados de su vivienda y terminar en situación de calle, deban recurrir a la justicia para que se apliquen políticas públicas establecidas por ley y que deberían alcanzar a todes", alertó Teszkiewicz, quien concluyó que "este informe de Auditoría deja al descubierto que la única política de Larreta y Migliore para las familias en situación de calle es el abandono".</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Por Santiago Brunetto</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00II*\x00\x08\x00\x00\x00\x01\x00\x12\x01\x03\x00\x01\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x02\x03\x04\x06\x07\x01\x00\x08\t\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf9\xbcE\x11k\x97 \x04\x88\x93eEP&amp;\xbfe\xc4\xabt\x13\x06\xf0\x9e\x05\x84!g\x88\xbc\xd3%.J\x053\xceX\xb9\xa8%[tq9\xa0\x99&amp;#\xe9=\xd1\x84\xcaK\xb3&amp;l\x07\x8b\xe6..\x9b&gt;\xd3\x0b+\x8d\xd1\x94k\xcd\x89!\xa3_\x9dh\xaa\x0em\x8b\xf3{\x19@\x9a\xa7\x91o\x9b\xa7\xd6v\x9d(d\x01\xa49\xa0\x15O\xcc\xb3\x81\xa6k\xb5\xab\x0c\xd1\x1d\xfc\xc9\x8e9\xacF\xd5\xcf\xcdC\xeb\xd0\x1f\x7f\x05\xdb\xc2\xd7|\xf4}yl&lt;\x12\x98\xe0\xdd\x08\xc8q9m\x93\x1bI&gt;&gt;0$\xcd\xb2n2$P&gt;A\xcc1f\x1d\x86\xb6"U\xacC#\xa5\xe9QQf\xab(\xa0)\xd9]\xda\xb6\xcb\xe7\xf22\xfd\xf1\xe5$\x05~i\xa1\xac:\x9d\x9b;\x15\xa4\xea\x19\xab\xda\xdb-\x98\xd7\x0b6\x9bh^\x93Ijnj\xdfU\xc0l?:\x92&amp;\xc3\xe8tb\x04xr\x9a\xa9\n\x9bTx\xbd\x0e"k\n\x03\xe2XB\x15$.\x94K\x8a}8\x82\xce\xc9\xbeS\xa7^t\xe6\xccKp\n0V[]\xf5\xe7\xbb\xb4\xfa.*\xf5\xe2\xe6\x8b\xe5\xbe&gt;\x93z\xe6\xee[X5\xce\xb9\xae#ERs\xa2e\xa3s\xa3\x9bF\xb7s^\xc4\xbeX,McAw\xcc\xcd\xbe\x02\x81\xd6\xa2\x06\x02\xb2\xca"&gt;\xb4\xd3|\xe5N\xd7W\xf2\xae8\xe6y\xce\xd3\x87=+\xaa\xab\xfe\x8f\r\xdb\xc0\xd7\xea\x1fS\xd6\x9a\n\tE&gt;\x0e\r\xe4&lt;7\x10\xf3\x16\x86\x81\xb0\x013f\xcfFD\xc5*d\x9a=\xb9A\x87\xe1\xa9\xca\x98Z\xc3\x8e.\xf9\xea\xf0\t\x9b\xc4\xdc\xdc\xa5\xe8\x08\xc6\xfa9\xf1}d0\xa4R\x9fI\xe5Bd\x9eQ\xdc\xe8\xbc\x82\xb5ZVs\xa1\xads\x84\xb59\xa2C\xab\xc2\xcc3\xc4rW\xbbz~\xfa\xb6\x14\xd9?;l\x9f%\xd9\x16\x16\x06\x11\xa6\x11\x15HU*\xa7[~M\x08-\xe9H\x1b\x81\x14T\xb4\xae\xba7\xf3n&amp;\x18Tg7gU\xca\xca\x8bTM8.:\xce&amp;\xba\x92\x02X\xa4Mo\xd9\xdf\xd0\xd7_4\xf2t\xe6Zsj\xb9u]\xb5\x86\x84&gt;\x96m\xa6\x1b\x14\xd5c\r\xf4\x1bZ&gt;\xd9g\xf2\x0f\x92\xddJ\x0eUV\xd7;\x8e\x94\xe8\x96\xd7\x01!\x9e\xb9\xf9{\x1c\xbe\x93\xbd)\xcc\xdd\x9d\xfc\xb9\x96Y~q\xb1a\xcfM\xeb\xd0\x1f\xa1\xc1t\xf0/\xea\xcfW\xd7P)\x0bC\xc3|s\x9br[\xa0\xe8)\x89C,\xa6\xe7\x07p\xd2}\xae\xe8\x0e\x92\xe7T\t,\xf64\xab\\\xda\t\xb8MM\x101\xe4p3m\x89\x9a\xbe\x93F\xdb! \xfb\x18s)\xab{)\xf3d\x13\xb0\xe5s\x80F\xb1\xa7\xe6\xb5u\xaes3nV\xf6fk\x13\xedJ\x85"\x93;\xf6\x97\x91;\xc3\xaa1\xaa\x99\xf9\xdd\x96C\xa1\x0cS[.*S\x9aS\xb2\x82\x94\x96\x8aU\xc4N\xa1\xc0\x8e*@[\xda\x99\x14\xf9Q\xda\xa0\xb8\xb4\xbb\x00\xf3\xa2S\xb0\xc3\x17HsL\nU\x89\x13ry2\xa8\xfa\x0e)\x18uWt\xc6Nz\xdfnM\x95 3\xed3\x86\xb2\xb5\xcfA\xb4\xb6M\xb3\x1e\x15\x0c\xd4\xb6D\xcd\xd04\xcfU\xda\x9c\x07D\x90HG\x0f\x8f\'\x1b\x90\xec\xb5\xa6\xa5\'\xce1\x9eg\x13\xacc\x85K\xaa\x82z\x1c6\x9f\x07_\xad=/Q`\xf84\x0e\xa7(%\x950\x167A\xe46\xc6C2\xcf;\xc76\xce\xeb*\xd0*\x99&amp;Q\x11\x93\xc5Kf\xc2\xd4\xa4\r\x0c\xba\x9c\xbc\xea\x89\xa2\xa1\xe9\xcd_\xb2\n\x1bc\xe1\x15\xcc\xba\x0f\xcb\x06\x98\xd0L\x9a\x84\xd8\xbd\'S\xcdkK\\\xdaU\x8e-\x84\x11\xa4GEA\xa4\x1a\x16\xb2\x9d&amp;\xef\x1a\xa8\xf9\xd6C)\xd9\xa4\x90\x99\x96\xa5\xb1\x86\xa9\xc4\xd6\xa9\xb0\xc9\xb2ON\xe8\x8b0\x19\x01\x1394\xcf\x82\xd15\xa5\xe9\xa4AV\x1c\xd8\xe9\xd6\xdcP\xe9\x9b\x87\x18\x02\xdc\xc5\x11\xfa\x90)\xf4$Kl\'\n\xdd\x96\xbd\xa5y\xc7\xa2\xad\xa6\x1b\xc4\xec`\x14:\x0e\xb8+:q^\xe7\xa6v\xf7Y\xe4\xcb\x02f\x1emQ\xb0n\xdc\x05\x0b\x80\x90@|\xfeFe3\xf4\x1b\xd1(\xc7\xe23(\x9dG,k=\x0c\'\xa1\xc6{\xc5\xdb\xea\xee\xff\x00A\xd0\x90\x0f\x84\xa1\xf8\'*\x92\x12\x02R|\x0f\x07\x99\x9cFw\xcemjD\xdd\xfa\\IU\xe9\xab-\xac=^\x97\x95\xda\xb4\xce\x12&gt;e#L\xab\x06\x96S\xa4T\xee\x18\x043\xc0\xfb\x07\t\xd1\x9d@\xa0\xac\xb5\x1c5\xbcm\xbdV\xab\x9a\xd6\x96\xb8\x9cN\x956Pu\xe6\xb3\xcd2\x884\xc9\xb9\x15L\xab\xc0\xf4\x8c\x076\xe2F\x11`\x19\x81\x12\x1c\xa6\xa9\xee@S\x9c\x90\xe1\xc4M-\x11Oq\x1dl\x8a\x90Z\x1b\xf6.B\x08\xdbi\xcd\x8e\x9dm\xc6b\xcb\x1cUF\xa5\xa6&lt;\xc2m\ri(\x95/\xa8K%\xb0\xd24\xae~\xa2\x1adY;$\xd5\xa5\xb8\xa1AsdUi\xac\xaf\xe5U\x9c\xc9j\xb7\xcdU=#[\xe9h\x07\x83\xa2h\x12\x19\xeb_2e\x97\xd2w\xa5d\xaa$\xe7\x99e:l\xaa\xe6\xd2\'\xa6l\x9c\x1d\x1fLu3\xad\xc8C\xa3\x94R\x92|r\x82B}b\xd1\xc0m\x94\xd8\x89|Z\xd1\xae6\xae\xa6\x02\x01\xc3\xb6YF\xc7[\x12R.(\x02\xc1\xb6\x8dNt\n\x96O@+\xc5\x0c[\x16\x02P(\x12\xcb\xca\x04\x0e\xb2\xe5\xb1\xdes\x0f[\xd425\xe7\xa6?\x12w:\x04\x96U\xb2kX\x936F\'\xe9\x15\xa6kU@\'\xe5\xf4)\x9dG\x01l,\x8br@Z!k\xa5I\n\xc1)\x1d\xa1=M:\xea\x91\xa1`\xa0\xdc8)\xf8\x02\xb9\xb5S\x02\xe30\xa0\xcc&lt;\xe6\x93\xad\x1b\t\xa04\x14)\xacRm\xa1`\xf0\\cK\x05E\xce5\xae\x0b`\x9b61Qo\xdc\xd9\xf5\xc6\xab\x9b\xb74\xfd,\xe3\x9e\x85\xdcl\x1d-\xd16\n\x07\x01\xb0\x8e\xcf\x8ag\x1di[\x0e\xebQ\x9e[\x13\xa8\xcdV\xb5\xccgT\x93\xf3\xfd+n\xdc_Jk\xa4\xf4&gt;7\xc6\xa4\xe4\nCn\xa6\xb0R$\xb1\x80\xa5L\x14\xc6\xa3\x8e\xc7\xa1\x9b\xe7:\xee\x97\x11\xa18\xe8\xd2y\xce\xb1[ \x16\xa5\xc7;qU\n+-\xe9\xe5m\xa9\x80-\x02\xe8\x1a\x893V\xe7 \x9b\x00\xe5\xa6X$\xb57\xacdm+\\\x8af\x81\xa5\xe6\x8f5R2.M\xd8s\x9f\xa4\x96\x99\x81Y\xa9?&gt;4\xdbjC\x88\xe3:\x93\xa3\xf3\x0b5ta4\xb3\xbb!\x05\x92^\xa60\x939\xdb\x1f\xa81\x9d\xdc%\xcf@\x0bV\x8apH\xc9\xecv\x1d2\x85\xb4i\x04Z\xaf\x07PI\x93\x02@\x98\t\t\xeaxus~{\xach\x1e\x90\x1c\xe3{[\xc9\x8d&amp;\xd4\x17\xd7\x15\x0e\x87\x9c\xdfm\x82\xcc\xa3i\x1a\xfe\xb4\xe0\x98\x1f\x01\xb1&gt;\x0c\xb3\xe7\xb5\x14h\x9d2\xf5\xa0g\x9ee\x13\xbaiy\xf4`\x1b\xb5\xc9\xf3}-_\xb3\x8fyu*IC|i\t)\xbe\xc8\x88\x96\x13\x06\xe0 3\xc9\xcc6\x0c26\x0e\x8a\xf2fS \xca\xd67\x8e\rzg"\xa6\x97f\xcf\x8e\xabO\x10UQ\xdf\x98Jc\xea\x19@kC\xe5\x90\xcbKf\x91W\xd1\x02\x17\x04q;c5\xec\x8d\xa1m\x92\xa8\xc9\xb6\xbaa\x95\x82]\xc0\xaa8\x8cf&gt;\x9d.j@f\x1a&amp;\xa1x\x10\x0c\x87\x01\xc1\xac]bXE\x04BK\x16\xcb\xfahs\x8d\xd2((A#:\xb0\x05\xd9\x96\ncT\xe3\xd6\x98@&amp;\xd4"\xa9\x19\x00e$\x99\xc11\x92\xc1\xc0$\xabP\xe7\xe9\xb4i\x9bD\x89\xa4\t\xcd\xdb=-q\xad\xb1\xa3\x9be(+\x02\x8e*\x86eN\xe3\xe8\r/\xa1\xc0@\x9bd\xb0K(\xe2\xf9\x0f,\xbe\x93\xbdp&lt;\xe6\xaf3\xf5&gt;\xb7\x89e\xce\x13\xb1\x95\xe2\xea\xfa\xc3\xa6I\x03\xf2\xa6\r\xf2\x94\x12\x02R~\t)\xb4\xce\x02\x83-Y\xca\xc6\xc2\x8bh\xd6\x86J\xb3\x95_\x0ck- R\x9fy\x92h\xa4\xdd\x86\x95k\rs\xf6\xc4i\x98\x81\xd2\xf4\xc1\x84\x05gp\xd0\xc6:\x9a\xee\xe6\xa6\xda\x00\xd2\xc4~K;\xad\xb3#T\x8dr\xdc\xca\xefC\xcf\x9c\x1e\x82\x18\xe9\xa2\x88\x9c\xec\xda\xd3\xf21\xfe\x8c\xddM\xe48\x86Q\x1d55\xd0\xf2\x14\xdb\xa0\x84"\x91\x96^\x10U\xacf\xd1\x10X@\x17\x83c\x8d\x0f\xb5\x1dN%\xa2`\x90\xa5t\t\n\xc2\x98\x8c\xea%\xcc\xdaDP\xe8\xec\x11\xa4\xfa\x9b\xdf?F\x83\xb6N2\xa40\xcf#\xf3qs\xd2\xda\x8dkl\xca\xb2\x8a\xa4\xdd\x18\xce\n\xb7q\xf4N\xda\xa8N4\xf0 \x1b\x06\x02 |C9\xeeec\xd2\xea\xf3\x97\xd4\x97\xa6/\x18\t\xeb\rr\xed\xf5&amp;\xb4]\x8e\xa5%\x0e\x14\xd8ts\xd3\x92\x13\x13X8\x11\xd9\x9c\x19\xe7\x189\x12\xfe\x86\xe8\xa4@\xb4\xf3\xf0\xa5g\xa3\xb5%\xf4\x9bJ\x1f\x15[=L\xc5\xe7\rf\xba\xf3\xda\x16\xd4\x1a\xc5\x84\x06TG\x97q\xddX\\\xf6\xca\x85`V\x96+\xb4T\xe6j\x99\xb8&lt;\xfbYi\x03\xb2\x88\x95E\x11\xd8F\x1f\x93\xf08)C\xc2z2y\x8e"T\xb9(l\x1bCc\xe0q\x1e\x0e\x82\xc3\x8ci\xa9\xc2b\xc2\xec\'$\n#\x06\xa1\x15bk\xcap\x1d\'\xa0\x0c8\x89\xcc\xb6\xcb\x19\x95\xb4\t\xd1\x12jHZ\xf3\xd6[\x9b\xd6[\x91\xa9\x93\xa6V\xb6\xe8NM*\x03\x95M\x1d\xda\xf3\xd5\xe8\xac\x13&amp;\xcc_\x9c\xabk\x1fGi\xa4\xa1 \\\x06\x01\x91\x01\x08\xc2\xf9\xb0\x990\x19\xab\xc7\xa3/\xa5\x9e\x99Ta\x07\xb5m8\xf4]\x12u8A\x1aT\xc7L\x8aj/Ur\x80\x88\xfa\nB\x9b\xc6\xa64\\\xee4\x16=\x86`\xcf\x11\xa0[\xc9\'I\x12\xb4\xbd&amp;\x98\xe0N\x8a,\x03p\xd6\x89t~\xf3\x81\x9e\x95*\xca$0:\xc8\xcb\x85T\xdd\x82\xb7T\xb4\x1e\x8a1\x16\x1f\\\xf5\x1c\x87\xf3\xd6\x90\xa6\xa2\xa9\xe9\xa7\x06\x94u\xa7\x81\xd0P\xa4\xb3\xe6M\xf3t$\xb0\xbae\xe546\xc4\xc2\x1b\x0e\x07\x87\xe0\xe0p:.\x8d-6\xc9(&gt;\xc9\xac\xb2K\t%\x9e\xa7%\xd2&amp;\x8e\xbe\xd4p\x98\x17\x10\xad\xc5N\xca\xbdA6\xa4\x85\xb5X\xf7%cM:\x92\xb4\xcc|\xbb\x8d4\'L\x8a"\x9e\x9d\xa6u8/\x0e\\\xb6#\x17\x9a^{.\xd4\x91u\x9e\x08\x89\x0fE&amp;\x02aD\xb5\x87\xccmf\x98y\x17\xdc\x88\x0f\x1b/U\xec\xd3\xad\'!\xf6]m\xbc\x89 \x81\x8d\x1d\xac\x97X\x08VuVr\xe6\x86\x15\x19\xea\x19h\x0f0\x97T\xe7\x12\xf5\x01\xb4:\x8ckn$=Kj\xdb\x16v\xc80\x87\xb7o\xd2)\xd1t\xcb\xc6\xb9S\'Y\x08\x85\x13{T$\xb39\xe9\xe9d\x93\xaam\x94\x8c\xc6s\xb2\x19\xdb\x92\xd4\nb\xc1\xd1:\x13\x1a\x9e\xc2\r|a\xbcq\n\x19$]\x92P\xdd\x06\x12\x8c\xc8\xa1\xc0l:\x08\x17\x13\xe0t8\xc4\xa1\x03\x92+ \x15\x03l\xc9\xf4\x83\xb3p\x99\x05\xc4v\x1e\x10\x01\xf9\x13\x93),\xac\x87\x9d\xd9\x9a\xaf\x0e2Vz-\xa5\x98\x80\x85\xc2\xa6\xc5\xcdZ4\xc6Bt\xe5\x17m\x1cnw\x9b\xeb\x9e\xcd\xad-\xaaA9\xb1\'\xd3\xbf; \x12\x82\x08|y+nO\x1dsw\xe6+w\x96\x8f\xa5\xea\xfa\xe8\x0b\x056\x9d\x9fQH*\x12\x07\xc1\x84\'+j\xa4\xa3Z/JV\xe0eIZ\xb9\xae\xca\x0ft\x19\xf6s\xb3\xbb\n\xc0\xf8\xed\x1cD)\x00k\x0b\xd3\x1be\x16,v\xce%\xdbu\xca\xb3\x1a\xe6\xdd&lt;\xc0\x14\x19\xb0\x04\xb7\xc9\xb8\x96\x12.\xcb\x9d\xc5\xa1\xe4\x0e\x91\xcc\xeaVw,\x1f\x05\x82\x9a|O2{E\x00\x0cU X7NP\xc7\xc0\xb0"\xea\x13\x11&lt;+\nkm\x95\t,|"\x83) &lt;\x08m\x08\xe3iB\x81\x02m\x84\xc4#I\xb1E\xb0\x87\xe8\x12\xd1K\x8a\xf2&lt;\x04X\xd2\x0b\xa7t\xcfk[\x90r\xec\x0c\xf5H\x19{4\xdfA\xc5RJ\xb4\xed\x81V\xb39W\x8b`\xf9\x8c\xea\xa7X\xe8d\x18\x1cXJ\xce\xc4V\xbc\xd9V\xdc\x08A\xf3\x92\x98\x90\x99a\\\x9d(\xcfJ\xba\xd8\xb5\xb1\xb9\x93\x19`\xd1\xc8\x05\xca \xa9C\x80*s+\tj\xc9\x9d\x1b\xc3\xc3\x1efy.\xd4\x9d\x8b\xa9v\x1d\x85\xb4\x85;\x1dY\n\xb5\xc0bsm\xf3/H\xb7&gt;\x82\xf4\xaa\xfb\xc6Iu\x1d3\x84\xa0\xd5\xba\xe1=(\xac\xb1\xd3\xa1$4\x89\x12\xeb0_y\xf7XLd\x91JjX\xa3\n\x02M$l+2@k\xe7~\xa2[\x02\'dE\xe1\x13Bc\x00\xa5\x97SR\x1dD\xc0.\x82B\x9e\xc8\xcc\x84\x9aD\x80\xea|b\x10\xcb\x12\x8fR\x91C\xcdJL[R\xea\x06\x03m\x12ch"\x17\\\xf5"(J\xad\xa0#\\^\xcfcP[\x16\x86\xa2\xdfe\xff\x00\xa3\t \x06Rm\x01\xe6y\x1d\xc6\xe9\xbd\x13\x08\xa1V\x13\xcc8"\x8d\xa8#\x05\x14_,\xe5:\xb5\x12\xe5\xd0b4\xebz\xfe\x97\x1d\x0bA\xebo\x03\xc9JT\xb0\x1e\x11\xc3\x80e\x13\xca}\x18I\x9e\xc5\x8e\x91\xd1#P\xaa\r\x0e\x8c\x15\x8cu\xa3\xd2\xb2\\\x19\x0c\xdfI\xb8\x92\x96\xf3\x9a\x90\xcd\x11\x8a\x82\xd5\x15\xcb\xf5.\xd4\xb0\x0e*\x83\x1aM\x81\xe5O\x80\x06h\xfc\x9b&gt;""P\xab\xf1\x98\xe9\x8e7\xe0\xf0\xf8\xce&amp;\x96|\xd7\xd8\xfd-,\xb3\xa2\xec\x04\x11%\x83\x94\xe4\x85MCBm\x88\x02\x880;0\x04\x05\tm\xa0\x1aB\x01\x94t \xb5\xed\x13\xb6\x9eDV&lt;\xe7\xb4\x9e\ta\xd9g\x99:k\x8d\x1d\x0b2b@\xac]\x82X\xc4@\x9a\xb9M[\xb6\xcbA\xb2\x04\xaa\xe03\x8b\xa5\xdewM\xd9\xaa\x19D\x14\xd0\x12\xda \xcf\x04Ph&gt;*\x98\x9d*\xf5.\xab3\xa7\xd3\xd56\xb8\x90HA\xed\x1b\xe1,&amp;\xcbx#\x04pt&amp;\xa79&gt;\x06B\xe3I\xc2\xc5\xe4#\xa5\x19E\x1e\x1b\x94\xab3\xb1!O\xb9\x06\xf3E\xd0i\x8aqR\xda\xbb&amp;\x86\xf2\xca\x9a\x1b\xcc3\x1brl\x0e\xaaT\xde\x94\x92\xd5\x88\x8a\x15\x8eo\xcam\x1eG\x83\xc9\xf5\x1e\x17\x07\xe4q\x9e\x04\x0f\xe7N\xd64o"\xd1*\xea\xd9\x14KdD\xb21\x91\x86\x97\x1di\xc0X\xdc\t\x01\x1c8\nnzs\x82J\x19\x08\x80.\xd3\xb6\x99c\xad@D\xaa\x91\xcd-\nJIG\xca\xd0\xe6\x93H \x89\xc1&amp;\x95\xe6n\x10\xa7\xab\x8b\x14\xc8\xee7\x948zF\x92\x0e\xd4\x0ew]\xa9\xbbn\xedL\x8c\x9ca6\xc7\xc2k8\x11\x81\xa0\xc0\xc5\x8ae\x1a\xb2u\xa9\x9dF\x9e\xa9\xad\xc7\x81\xe09\xa3\x94\x12\xd1)\x0e\r\xb0\x13$)C\xe5\x8b\x11 \xb2Sq:\xf2$\xe8\xab\x12\xc8\x94\x84\xa2\xc6\xa1\xean\x95\x9dr\x95I\xb12\xad\x98\xed\x93o\xcf\xa1F\x95\xf6\xb3=s\xa9\xb9\xe8\xca\xa6F\x19\xc1\xf1U\xb8\x0b\xcdO@%\x98\xbcN!!\xc0T\xaf7\xe4x8\x84\xb7\xd0@|\xef\xd6\nu!\x16t\xae\x89\x97\x1b\xedG\x16Z$M,\x95\xa1T(:\x1dIa\xd0\xe8\xba5!lu\x12\x1dr\x93\x16\x1aC\xf4\xaa\x08z\xd4"\x05\'\xe0x-\n\xb4\xc9\xb3\x08\xa79\xb4F\xb4-q\xd4\x0b #r\xea\xaa\xaeLK\x87\xa5\x91hP\xe8\xb8\xf6\xc4\x1d\x96\xf8\xacw\x84\xd6\xc97(g\xed\xcab\x01\xa0@\x06\x17\xc5\xb8\xe7\xa3\xcb\x18-\x19\xbdokf\x07\x87c\xd0x\x1e\x92,\x95)N9\xcc\xf2\xf53|\xbd\xe6\'\xaes\xc9\x8d|Utx?Ja\xa9&amp;/F`E\xe8\xa9\xa0Di!E6\xd3y\xe9Qi\xa5\x15\xc1\x81\xd6\x035U\xb9S$K\x99*5&gt;\x8d\xd1\xd92\xada\x04,\x0b\x9b\xbcueA\xe5pp\x13"F\xe28\x1eG\x86\x86p\x14\r\x87\xcf\x9d`r\xac\x05h\xd9\xccK\x0f\xa6\xf3L\x8b#JTZjT%1A\xd0ZJg\x81ixj\x12\x81C3\xb0;6\xd3\x01\x81\x016\xc9\x16\x80\x12\xc0\xfc\xc51i\x12\x97jU\xc4\xad\x99h#X\xd0s\xd5W6KW\xfbQ\xa4\x1f$h\x01\xce\xdf&lt;g\xee\xf5o\x19\xe7\xd2\'m\xe1h\xba\xf2[\xd1Z\x87u\x02\xa0z\x82\xfaS\xe0$&gt;(\xca.\x89\xcbJ\xfe\xcdck\xe4\x0e\xa2S@\xa1P\x92f\xca\xd87O)\xcb\xd31\x87\xba\xa2\xcaOj^\\\xed\xf9\x1f\xa3r\xe6\xb0\x94j\x83\x8d\x16\xa7\x01(\x83\xc8\xf9*k\xaa\x95\xc5\x05\xcc"kWv&amp;g:g\xab\xb7\x98\x12\xe4Uv\xa6{\x19NsjOJ\xc9\xd9\xace)\x0f8xR\xf3m\xa3\x80\xea&lt;\x8f\x01)\xa1\x8c@\xbc\xce\'\x82v*\xfb\xadR.\xdb\x9c\r\xd0|o\xb4\x90\xc9T\x95\xc7Q\xbad\xaa\x14\x1db\x90\xb1(:\x85\x07\x98\xb0XO\xd0;\xa4\xe7XX\x9bH\x1f\x01\xd2l\x85G\x87\x0e\xa5,a\xcb\xb4N\x08h!5b\xcd\xb1su\xe7\xd7I\xdd_5\x92`6X\xf9\x05\xc1\x97G\xa3\x96\xc7\xa7\x1c\x86\xef\x18\xd7\xc7\x0bo0\xe5%\xd0FRZ\x9b\x15\xa2\xa5\x1d\x07\xd9\x1d\xbc&gt;K\xcd4e:M+.\xd7C\x89\xf3@\xdb\x92\x14\x86\x18d\xc4\xe37\x9be\xa1\x1c=\xa9\xb1\xd8\xea\xbe9\xd8{&lt;-[&gt;e\xe6\xccRr\x95\xd1\xb00\xe2\xa0\xa5\xacw\x1a\xa1\xb8\xab\xe8H\x83L\x8a\r\x81\x84\xfa1\xbe#\x18\n\xd2\x04\xdc:9\x0cvi\xc4\\&amp;\x8c\xd2\x9d,\xe74u\x1cch\xe2\x1eg\x91\xc4\xd2\x8e\xb3\xc1\xc0L\xbc;\xad\x85u\xb3\xe6\xe6\xa8S"\xd1\xda:\x19\xe4&amp;cQ\xfad\xa0\xeb:\'Q(#\x89@\xa0\xe3\x14\'\x11\xca&lt;\xddD\xa6\xdam\xb5\t\xb1\x11\x8a;\x9b\x13\xb4\x90\x96\x869S}\x1d\nb\xf7\xcd\xa9F\xea\x9dy\xecm\xdc3o\xa6gI\xae\xc0\xe0\xe1\xcb\xce\x0e\xbcb;RK5\xce\xc5\xf2&amp;\xf9\xf7\x06_\xe8\xaef\xc0R\xa2\xdc\x83\x04\x89\xf6xk\xc1\xe8\x1bLX5\x88X\xbe\x95V\xb5\xc4FE\xe9\xbb\xf4\xd5\xf1T\x19\xaa\x13X\xaaKZ[0\xf4C:"\xbb\xbe\xd3\xdb\xc6\xd0\xaf\x9a\xba\x01Q\x19\xa3a\x03:`]\x02TC\xa3\xe7nZw\x8a\xa67W\xdf&lt;\xcb\xd1\xcfw\x8a\xca\xd1\\*\xb5\xa6R\x02QQQ:]\xdd=\x86\xd4D\xc3\xf2\xcaRBm\x89 \xfa;"G\xe6x|\x0e\x0b\x89\xd0\xb5\xdaJ8\x9f\x93}\xa9\xb5$\xf4\x87\x99V\x92\xa3\x9d\x07\xd353\xccZ\x14\xd2\x81it\x16$\x82\x9bq\x1dC\x0c\xa8\xd5"\x97[H\xbc\x0f\xa7i\xc2\xb9ILf\x94\x86\xad\xd4Q\xd4\xdex\xf5\xd5\xba\xd5\x9e\xe6&lt;R\x11(\t\xed0PI3tc\xb9\xf7|\xf3\x18\xc8\x94\xb0\x81YHOR\xd7Y\xd9u\xea\x9b\xf8\xed\xcdr\x95@2\xb74\xe1A\x19\xbc\xe8\xa2\xab\xab\x99\xf38\x96\x89Th\xa5kSW\xd0\x89\x1d\x16]y\xb0^\x0f\xb7\xb2u|\xf6K\xc9\x9c13d\xf4\x95\xa9\xb3^\xbfDi\xc59\xc4 \x04\xd5\x86]m\x03\xe0\x8e\x99\x1bYV&amp;w\xc9A\xf7\xceD;6ZS\xfaU\xbb\xb3,\xd6h\x00\xea\x17\x9b\xc3\x90\x9c\x84\xd6\x9e\x9f\x95}\xe1Pb\xab\xe3\x1c\x10\xd9\x84!\xb4\xd0\x12\x03\xd2p&lt;\xce\x07\x03\xc1\xc1\xe6:\xe9\xe1\xa5\xa5\xa0}I\x88\xb1\x84\xb6\x0c\x82\xd5\x07\xd3/1bS\x14\xc5!I)\x8aG\x01M\xb8\x92\x81\xf1\xd2\xe9\xc2\xa1Mq\x89A\x04\xed8\\w.\xb1\x9aS)\x1f\xb0W=\x19\xe7d\xb6\x8d\x9b\xa1\xb3-\xf6N\xa5h\xd1\x0b\x11UB\xd6\xa9q\xf3\x1e\x1a\x03\xce\xc7\xb9\x99\x15o\xd03\x9f\xbdi\xdf\x85\xed|\xba/\'\xad\xbavx!\x14T\xe4\x14\x9d9:\xbc\xd4\x8b\x0c\x11=&lt;\xcfI\xb9\xe7{\x03\x83\xcd\x96]8G\x1f\xd3m\xfd\xff\x007\x1f/f2\xd2\x81&gt;E\x0b%!\xb9\rZ\xb4\x8d\xf3L-mX\xd8\xa6I\x0f\'L\x93\xb2\xfbJ8|\xdb\x8a\xae\xcc\x10\x9at\x9b/6\x95&gt;\xb5w\xea\x9c\xc52\x91yF\xb0%\xcb\xea\x9f\x02\t\xda\x85\xf7\xec\x16E\x7f\x1d\xe6\x86D\xa0\x10\x86\x91)\x1d\x0e\'\xe1$~g\x83\x83\xcc/W\x82@&lt;\x855B\xd7!#\x923H#\x9d\xd7\xf5\xc9C\xf3\x97\x13SJ\x05\x02\x92S\x12\x9a\xdaq\x1dDg@,\x1c\xcf\x02\x05\xe6[\xc6\xac\xd4a\xc9O\xcd\x12h\xe6\x8a\x17#!\x907i\xdc\xf7\xb3\x94\x93/\xcc\xbaj\x94\x1cj\x1c\x959u\xa2\xb0|t\x85"(\xd8\xb5\xb2yz\xf5|\xf7\xab\xbeX\x15\x9e\xbf\xd3\xe1\x8d\xc6\x86TQ\x85X\x0b\x1ezX4\xb6mX\x16Y\xd58\x19\x9a\x08Z\xd6\xf6\xae\x9c\xb0\xde\x1f\xa45\x87\xae[&gt;\xfd\x1f\xa7\xc5\x17\xd5\xf3x\xben\xc0F\x93\xae:\nZ\x1d\x01\xc1\xe4\xad\x80Pm\x8a\xa5-0\xf8\xcco%O\xe7\x05\xeb\'\x05{w\x19\'[ \x8a\xaeN\xa1\xe8FQ\xd5\x98\x00g\x1a\x98\xc3(\xdb7\x8f\xa1y4\x95\x9e\xdf;c\x9ct\x90\x86\xc1\xb4KG\x03\xc1\xe4\xd2\xcf\x07\x83\xc1\x9ai\xafG\xe1-\x83\xc8\x0bi\xb98\xc7\x18O;\r\xa6}\x0e\xb1`\xa6\x96\x8e\x82\xd1\xd1%\x8e\x02\xd0\xa0n\xa8f\xa8\x0c\x8c\x02Y1;\xaa\xb2w\x854:\x04\xf3\xbb\x9f-\x10\xb4\xa8Q\xa8\x96\x88:\x1a\xe6\xac\xa0\xdc\xa5k\xd6_@\x04\x07NU\x04YD\x83;\x8e\x9a\\\xd5\xc0\xda\'/\xd4H\xdb\x84\x13\xe7w_,\xc0\x00\xca\x01\xeb\xc4\n\xe1\xa2m\xb8mx\xe8\xcd[f[\x0b\xa2\xee\xa8\xd8Q%E9\xfd\x8d3h\xa8\x97\xaeV\xe6\x19I\xe1\xfaP\xfd\x7f!I\x95\xac\x17\xae_)\x17\xcbj\xa4\x14c\x93\x0b\x06\x81J\xc0\xca&lt;\xb7!\x83\xb3"QtqU\xbb\x859\xfdd\xf5"\x9bl\xcf\x85T\xdd|\xbb\xed\xf0\x08N.W\x13\x97I\x189]\x99\xda\xbd&lt;4\x98_N\xfc\xf7\x7f\xcd\xbc;W\xb3\x84!\x84!\x13C\xa1\xe1\xf8\x10\x1e\x1aY\xe0\xc9\xfa\x87\x90\xf08 \xa8e\x14\xda}\x06\xc2\xe3\x96\xb1/\x15\x07ZX\xfa%\xa1@\xa1u\xb4\x82\xc4\xb1\xbbS\xee\xa8\x15\x15^\x96\xd3oi\x12uF\x1c\xe9&lt;\xfa\xbb\')\x19N\xd6\x9b\xa2\xb4\xb74Afq\x19\xbdy\xb2\x19\xd7\x9a\xb9\xed5\\\xd89\xa27&amp;hJ\xac\x9f\x9f\xd5\xadm\xc1\x99e\xae\x80\xf7\xd7\xb7G\xaf\x86\xb2N7\x95\xd3q\xed\xb6k\xc3S|\xc4\xc4\x08\xabF7s\xdf7\xf6\xcav\x1a\xd4t3\xcc\xcdM\xb8\xaf\xaa\xb3\xcd\xdfm\xdb\x8bZ\x8fP\xcc\xe8K\xa3\x938\x9c0&lt;7\xd8\xb6\xe3\x01\xc9\xf4\x9b\x86\xbc7\x9b\xf1\xcc\xeb\x85X!M\x1ej\xdc\x8a\xc3OC\xa7hc\x04m\xf9\xe1\x92\xed\xb1\x9c\xe7\xe8\x8b\xb9)\xc0k\x14\x97\x8e\xf6F\x7f\xdb\x82\xd0\xaek\x95r\x8e\x99\x8c\x99\x1d`\xdfDm\\\xae7\xcc\xfaUh\x86\xd1\r?4^N\x87\x82d\xd8+\x08\t\xa0\xea2\xee\xa2D\x8e\x82Y\x15\xaa\xfc\xb0\xec\x10\xc6\xd9j\xca\xfbQ\xd1(\x16\nb\xc4\xa0R\x14\xd3cP:\x08\xf5\xf0\x1f\xac\x0f\xc6\xdb\xca\x91\x8b^\x87tKj\xdb\x86\x9a&amp;/_\xb9$\x03C\x81(\x14\x00\xd2\xf9\xee\x1e\xe9L\xdev\x9aF\xa9W\xe5\xc6NK^\x9e\xda\x1cv\xe4\x18\xf4Zz|ZR4C\xa0\xe6^\xa5;\x97\xda\x17|U\xde\x9f\x9d5\xae\x16\xbb\xcf3\xcd\x18\xac\x00\x05\x97\x1d,[KZE\xca^}qR\xc7K\x06\x1e\xc5\xfb\xab\x8e\x8b\x9e\xd0\xf1\xec\xbar\xfdY\xa5\xd7e\xe8\xf9\xdaus\xd6\xfa&lt;\x07r\xe9~=kEF\xac\xcb\x96\x9e&lt;\x07\xca\xe0\xa4Q\x02\x03\xb6L\x87K\xb3\x052\xd4\xda\xcb\x1b\xd1\x89\xd8\x8bcI\xa4\xe6\xb0L\xb5\xcd;2\x97\xd3\x9c\xc8d\xba3\xf6\xa90\xe6\xe8\x89o\x12m\x14H\xa7\xc8z`a6\x8f-a\xbcm\xd9\xdb5-\x04r\xf3]MO%\x1d\xb9\x01\x03t\xf2\x1d\nPr\x8at\xa9\r\x91\xd1Tr\xd2=A\xe9:.\x8d\xc1$\'!\x96\x94\x1d\x06A \xfe\xaa\x0f\xaf\xcd\x0f;\x8b\x9d5-\xeaK\xcd\xb7\x07(\xe4;V\x17\xa28\xbfn\x94\x1db\x84\xecS\xe9a0\xb4\x83M\x154\xda\x8b\x0f\xacX\xebXz\xf2z\xbc\xfc#\x8f\xd6\xb2ty\xd9\xf6:\xce\xd3\x88\xe6&gt;\xad\xc0\xf4\xaf\x1d&gt;m|\xcb\x1a\x8eHR\xfb\x9ft\x9dx\x81\xe9\xe7\xb83\xf9Y\x9ar4sg\x1a\xc6\x94\x0e\x0b6&gt;\xf0L\xf5\x85\xaf\x9b\xa5\xeb\x9f\xd2\x9d\x18\xd8\x15d\xbc\xbe\xfe}\x18\xe7\x8f\xc3\x10\xbb7\xad\x9e\x1d\xcd\xd9\xb5t\xf9\xb5\x8f;\xed~\x81\xeb\xf9\xbb\x9e\x9eui\xf2\xa1\x85\x1a#5\x11\x19%*\xde\x99\r\x0brZ\xf5S\x8c\xf9S\n\xa9t\xccN\xeew(D\xb6\xd3t:\xd4\x9b\x97\xaee\xe8\x8bZ1\xe0\xfb5~!\x82!RdO&amp;\xe8\xdai\xb4\xec\x8aN\xc6\xd5)\xf4K\xe9\xc1U\xd3\x96J\x1e\x1d|E@0\xa1\x05\x82\x8a4\xb9sR\x89\xebH\x07@C\'\xa2P\x9cmh\x82%\x8f\xbd1\xdfG\x0eH\xdc6\xc7\xe98\x1dM"i9\xd8hc\x03g\xe9\x92\xf6\x9ec\x81\xcc\xda%\xe5\xf2\xb5l\xf5;J3"\xa0f]\xd1\xdfNC\x87d.\x8f\x1e\xbd/E\xb7K\\\xcbQ\xa3\xeb\xae\xa0\xfaAc\xdc\x01\xe3\x97\xdf\x9bX\xcb\xa6\xef\xa5\x1c\xd7\x87*\x8cz3\xf9\\\x8b\x92:t\xa4\xda%\xf0\x8f\x93j\xbd\xaa\xf9\xf5e\xb8;{w^O\xa79=:?o\xcd\xd3\xf6\xf1\xf0|3-,\xcdoY\xcb\xb2\xc5\x19Sw,\xeb\xbb\xe8;\xca\xcf\xa7\x91\r&amp;\xc0\xeac!\xd3GG\xe8\xc4:W\xaaZ\xd0\xfdO\xe2\xbd$\x1e\xf9\xa1\x88M\xc6.\xd3\xac\xebO\xdaSN\x12\xf5\x96\x8c\xb4\x8b\xf3\xfe\x97\x95\x86\xb8C\xcb\xaa\xe1\x83NO\xe7\xa32\xd4\xb7cl\xa1\xbcY\x8b6\xa6\x12\xda\x01\xa5\xcf^\x1al\xcdQ\xb6\x06Y\x96&lt;\xf7\xac\xd7&lt;b\x90\xaa{\x18y\x8ec\x88\xf0x:\n\x02=\xd8G\xdaY\x97\xd8m\'\xd4\xd2\x1eGZP:\'2\xad\xed\xbb~\x99\xa5\xb7C\x99\xd3RS3v\xcc\xf44\xd4F\x9fn%\xeb\xf3\xc6\x1dC\xef\x8e\xc5\x17\x11\xa0\x1a\xe1s\xc6\x834evY9\xbe\xa04\xee\x1d\xe1[\xea\xf9\xa3{\xf1Z\xcd\xe8\xb8t\'n\x12\xef\xa1\x19`\x87\x83\xf7\xdbc\xafL)\x8dW&gt;K\x1f\'\xd0\x9b\xea\xf1\x81_\x0c\x1c=M&gt;=\xcbMg\x11NPy\xc1\xb5\xf0l\xa9\x08\xe9\xcc.\xd2\xf0q8\xf8tmY\xad\x8f-\xab\xc4G\xa8)\xd14\x19b\x12\x9c\xba\x80\xe9\xc5\xa7\xf3\xfazWW\x9f\xf1\xad\xc5F\xa1\xed\x12\xa8U\x8b\xa4\xe5\n\xa4\xbbKmbt\x952\xc1\x93W\xcfz.\xa6\xcbp\xc9\xeb8\x84\x03\r\x12\x96\xc4\xf4L\xa8qi\x9d\x9d\x97m0\xb7i\xc1\x9a\xf3\xfb%\x9ed\xef\xc9\xca\xdcDn0K\x9e\x88\xd7\xcf\xe4H\x07V\x9d!\xe4\xa23\xac}\n\xa1\xc1/\xd0\xc6(x&lt;\x97\x13\xe4\x9eG\x93\xe0\xfc%#\x88\xb3\xcd})I\x1aGS\xecWcL\xae5\x8c\xf0+=\x16\x19\xc5\xbc\xb6\xa8\\Pw\xca6\xf9\xb6/$\xeb&amp;\xe5i\xca\x9a\x9d\xbe\xa4\xe9\xd1\xea\xca\xb57\x81\xe1@\xa2\xec9\xfasv\xe2\x19\xa7,\x04\xcd\xc6)Q\x17gb^\xc8#\tu\xcd?.\xb9\xb1\xd7\x9d\x9eu\xde\xf9\xfe\x88\xda\x17\x9fc\x19\xf6\xfc\xc6\xfc\xd8\xdb\xf0si{Y\x86\xab\xadX:s\x89\x85\xde&lt;/SO\xc7\xa5\xae\x9e-W\xab,xT\x0b\x8d\'7\xc7\xd1]\xae}\xab\x1e\xdf\x9c\xfa\x9e"\xbc\xf9ZC\xfa%h.\x87-)\xa5\xdaU7\x1a[K\x0fd\xcdy\xdb\x10\xf3:\xfa\x9b#\xf2\x1cr\xdal\x951\xa9\xcb8 \xe5K kn\x9c\xbb\x9b\xdf\xd2\xfa&lt;3U\xcd\x97\xf3\xfbr\xab\x8a\x89~dv\xe3\xb7-&amp;\xddLI\x85j%NZb\xd0\xe8x\x1d\x07\x04\xcf~Q\xec\xf3\x9e\'\xc6z_Q\xe9^\x91#\xe8\xfd)\x19\xbb\x15i\xf4&gt;\x99\x9ar\xccT\x9c;\xaa7\xcdOY\xe9F\xc1L\xc5qwSo!\x9e\x97\x02z3\x15\x14/\n+\xa4\xc8\x8bnG\xf1\xeb\xb0y\xff\x00^\xd5\xf1G\xdf\xca\xabi\xc6\xe5et\xd2\x05g\xd3Y!\xa1\x1d\xcd\x13\xa85\xbb\xa3\xe7\xd6\xa7~\xccp\x99\xfa\xf1\x04\x96\xd6}&amp;y\xbd\xe3\x19{\x16\t\xec\xafz\xdf\x9f\x01\xd3\xcf\x9c\xc4\xea\xabp\xcbo\x95\xdf\xb7\x98n:\xcc\xf1=y&lt;\xfd\x1b?O)\xbd\xf0\xae\xc2\xb0\xf4\xe3\xb7r\xef\x11^.E\xb4\xd7\xe6\xea\x9cgH\x8f\x10\xfb}\xb9OD\xbf\xbar\xd2\xf4\x97hq\x8e"W\x9d\xa0~Mv\xa7"2\xed\xafs\x0c\x8ca\xa1S\x16\xdb,\xb3\x82\xec\xea\xc4x\xc0\xe9\x1d\n\xfd1\x86\xde!DB\x1b\x0c\x80)@\xe8&lt;\x84\x87Q\xe0X\x9fC\r\xf4|B\xc4\xa1\xf1\x9c\xd6"\xed\x0eo&lt;\xb3\x88\xf29\x07\x86\x99|\x84\xa8\xae\xa1\x12\xedN\xb5:\x92\nnN\xad\x13\xa1\xaaK\x15\xb9\x19E\xe7\xf3\x8f\x1ft]3\x8d\xe9\xf9\xcei \xf9\xb4\x81\x8d\x91\x04\xe8\x90\x1aDuXy\xbd\x8c\xfb\r\xea\xb7\xc4;ND\xb8j\xb9\xcbc\xe9\x8f\xdb\xcf"\xf5)\x9c\x19yY6\xcf&amp;\x9d\xe6\xae\xb83\x04\xf1\xf5\x00m\xe1\xae:d\x01\x99\xea\xd2+m\xa3\xa7\xce\xcb\xb4\xc3\'\xdf\x90\x8dD\x1cm\x8e}\x03\xe9\'\xfb0\xb8ub\xff\x00\x07g|\xafK\xea\xce\xceJ\xd5d\x99zVWK\x9a\xf8\xd2\xf3\xd9\xdb\xe0\xb9S\x8f\x9aV\xa6\x18M@\xb6\x14\xdado1\xb5R\x9a\x7f\x1a\xe75\x8b\x87\x1c4G&amp;\xea\xe9\xde\x7frT\xc1nz\xca)\xa42\x90]\x99r\xf5\xc8\xcb\x97Y\x9b\xe8C\x9b\xebr\x94\xf4&amp;\xb9e\xa8\xf2\xfc\x87C\xa2\x1a\xdb\xc0\xe8M\x94\xd0\xfa\xc6\x10\xf0\x98tgX\xf5Ev.e\xcb\x9d\x12\xcd\x89\x0eH\xf44f3\x9d)\nd\xa6^*[\x97\xbc\xd3\xc3T\xdd\'O\xa2\x980^\x01)\xe6\xa3\xa0\xf5a\x07\xaf\x9e\xbd\xcf\xa0^}-\x89\x95\xe8\xca\r!1w\x1e\x0f\xa0\xb5\xbc+ZpR\x90\x85\xa0\x81G|\xf6\x9b\xd6\xb734\xec\x9f\x9f9\xbc\xe0\xcc\xd6M\xd7\x89\x15\xdc\xd3\xe5\xbf]Q\xe6;\x9e\xc4\x16\x8a3\xba\x1b\xcc\xe6\xfa\x18G]\x13\xd6\xf8\x02\xda\xe4i\xa9&lt;\x9d\x0c\xc3\xa3\xf4\xe5v\xf4yl\xe2\xb8\xf9\x9d\xc0\xb1\xba\xe9\x1a \xf5\xfct\xc3\xf7*\xd9\xe7\xb7-~D\xb8\x04\x9a\x92\x9fR\xeb&amp;\x8d@8Q\xd3X\x962\xac6\x10\x19\xc4\x11\xe7\xd2n{\x8eZ\xb6\xb3\xe8\xe4\x13\x18!\x9b\x12d\x99\xc6\rdQ(w9\xf6\xd4&gt;Z\x01\xc2\xa4#\x85\x18\xbcEI\x19\x0f\t\xa0d\x147\x02D\xa8\x0e\xf8\x0e\x8ab\x96]v\xa7\xcc\x8fS1\x8aCL@vD\x02Y8M\x02F\x90\xe2&lt;\xcb\xca5V|\xf6\xdf\xe8;\xa2\x04\x8deM\x19BA;\xb9\xa8\xf6\xab|\xdaZ\x13\x0e\x86t\x98\xd0\xcfGM\xc7\x87\xe9s\xe8\x91\xda\xf9\xf2\xb6\xe1\x1f\x1b2\xf3M\xf3%RJ![\x13\xcf+:\x99\x81\x93k\x9c\xf3\xacd\xe4\xf4\xed\xeb\xe7\xect\xce,\xad\xe0?\x1f@\xdc\xf4\xecT\xe9}\x1c\x19\xb7O\x8c\xaaN\x0e\xd1\xbeA&amp;\xad\x10\xb4N]\xaa(\x81C\x88\xb1\xcb\xfa\xc64\xc95\x7f\'\x99\x08\x971 \xc5\xf5\x97\xf7\x13\x87Z`\xf4OBB\x18\xa6\x02\x93\x97J\xce9-\xa3\x9a\xa4c\xb4R\x87\x04VN@\xd7HW\xc3K\x02\xe6r\xb1\x92\x86\x19\x94\xed\xb17\x98\xa9\xda\x1c\xd4\xea\x89."+"\xf9\x85!a\x18\x144\xa3\xccy(\xc5\xa8N\ti6\xdb\xc8r\xd4\x8b\x98\xe0\x91\xf8\x98\xa3HH\x07\x10\xc3\n4\xf8\x82\xa7\x15S\xcee\xb3\xa2&amp;\xef\xed5O\n\xaaN\x19QYa\t\x13sT\xd5J\xb5\x177\x1c\x15\x0fE\xe7\xf5\\\xcf\xaeF\xdefl\xf3\x8e\xa8\xa3\x88\t\xc1y\xf0m\x04\xd3\xa4\x94g\x7fY\x93\xd1a$\xcd:\xe2\x9c\xe5^\x90L\xc8\xab\x9a\x80\xaa\x9f\xd3\x1d:v\x11\xcb\xf4\x1awO\x8b\xf3\xae\xdc\x11\x82U\xcc\x9aO3d\xe4\xbb\x0br\xf4*\xcd3\x911;\xa4P[\xac#\\ksC\xa4@\xe4\xb5p\xa4\xfaf\xe9H\x06\x022u\x80\xb5\x8aS:\xc2\tQ&amp;\xae\x18Ylm\x94B)\x02\x8a\nL\xab\xa1&amp;\xa5\x978F\x8d$\xc3y&amp;\xda\x92"\xbc\xbax\x06\x1eRjL\xd61\xa5Wd@\xd9c\xa8\x90\x86\xc4\xe0C4\xe8y\xcc\xa9Hii\xc9\xa5\x17I0\xc8Bd\xa4\xa5\x18&amp;\xb4\xe0Jg\x91\x11\xb8R\x87\x8f\xa8q\xa3v\xa3\xc5\xee\xf0\xc1\x13\n\x94\x9b,\t\x8e\x860Y\xf6\xb05\xa6Jl/xtk\x17\x9eY:\xd0\\5\xa6^\x1a\xa2\xdd\x1a\xc8m\xcb\x02x\xd0\xc4=\x10\x92\xba,\x1c\x97\x96\x91\xc9 \xb5`^Z6\xe1\xba\x95\x02\xdb\xd23Z\x94\xd5\x7f\x97\xb7\x0f\xf4x\x98y:\x97\x137\x85\xb4\x16\xe4\xa0Yh\xce\xe1\xd4\x90Fu\xac\x85\xb8\xb8\xef\x15\x08Q\xa0\xe2\xd0\xdd:\xe2}i\xe0 \x13C\x82i\xb8\xcdXzr\xd4\x9a\xce\xf8\xfa\x0cb\xcb\xe3\xa7\x91\x00\x18\x07\xa4$\x87@@\xc8\x8b=\xd4*\xa6;a4\xa2d\x0b[\x0bZ\xd8\x9f;c+x\xc0\x87]N;"!L%* \xde\x07A\xc4,"\x83\xad-?Z\x19h\xc5\x03\xeeS5\xe1y\'F\x81B\x1bI&lt;\x9c\xc6\xa0$\xed\'\xa8(\x98\xec\xee\xdd"\xd0\xf2+\xb4M\x01(\xe0C\xd2UI*\xe5\x9b^\xf8\xfaY\xbe`Z\xe5[\xb7\xe1\xac\x1dt\xb2\x9ayDY\x92C\xb9)n\xaf\xfa\x06n}5\x8057:\x83nK\xa9+f\xc9i\xcbJx\x04!Y0\xde\xc3\x97N{\xdb\xcd\x02\xf0q\xe6\xc8)9\x92\xcc5&lt;d\xb2\xa9\rit|\xcf\xa2\xe2/\x1aE\x1ak\xaeU.\xd9\xa4\xcb\xec\xcd\x9d\x12B86\x85\xd1.\x94\xddf^\x939\x94\x7f\x1b\xafX\xe4\xb8\xd9\\!\x0fo\x92\xa5\xaa\x18\xd40\x9d\x01eU\xbd\x14G)\x1b4\xb8\x89\x14\x9ag$|\x1fn4\xa0\xa0\x11\xb4\x03 \xf0q\x12\x82t\xa6\x81M\xad\x88\x05\xa4\x9a\x07\xda7\xd7\x94\n#\xc5"D\xa1`\xe5\x0e\xb4\xe8\x9d\x8a\x83\x8dCIL\x907\x92\x88\xa8\xf8i\x80\x14&amp;0^\x91C\x87\x11\x1d\x13\xecm\x0f+?\x87Lj\xcc6\x99\xb5p\xf2\x16\xd2[@\xd4\xd3({+|s\x85e\xb8#\xd03\x83\xcb\x85/;\x89\xa2u\xaf\x03\x82\xf0p\x1b\x1aS-\x8e\xcbT\xd5\xc0\xadqy\x9c\x08\xc1"\xe6\xef\xb6_tr\xf4CNPNO\xf3\xcbD\x0eF\t\xe0K\x17\x06gI_D/A\xdb\x97mq\x9c\x05I\xc9mgM\xf3\xd8|h\xac\xbb\xf46\x07\x04LHn)r\xc3S\xf4\x91*_\x18\x9bL\x83.\\\x06A\xc6,:\x8e\xb1\xd4\x0c\n\xf8\xda\x04\x03\xa0\xb0u\x12R\x8c\xdb\xe1!%6\xcb\x14!\x16\xa5\xf4B\xecU.\xb3\xc8P\xba4\xc1\xc9=\r\x9c\xa9\xa0P3\rT&lt;\x8b\xad?\xa9\x1ah\x16\xcc\x12\xf2\xcaS\x8f\x14\xf2n\t\xb1\xf191^\xa4J\xa1\xbaP\x01\x08\xe3\tec\xaeR\xce\xcd\x14\xb2XI\x99=\xda\x84j\xaa&lt;t\xaezf\x86\xd9\xc8v&lt;\xe8gFQ\x9ay3c\x801\xd2E\xa5\xc0xn\x04\x11;h\x85\xcf\xdc\x99U\xd8\xa8p\xe5\x0f\xe2[3\x99P\x1c\xf4\x1cF\xe7KO+\x08e2S\xadt~\x17\x8a\xeaR\x99xj\xdc\xac`\r\x12\x00,8\xa0\xe4\x8c\xc5G\x1c\x89|j;S\xe5\xc4\x05\xb0&gt;\x90\xd2\x06K\x94\xc9Lq\xa6\xd0E\x8e\xa2\xa2\x9a\x05\x01\xbf!\xe6,&lt;\x0e\xa1\xc4z\x8e\x89\xa6)\r1\xfa\x10\x93\x01\xc6y\x1d\x0e\xb3\xa8K\r\x05\xf4L\xb3*\x93\x83\xf3%#D\xa7\xf4B\\C\xda\xcf\xcbu\x9dN-\xb4X\x93\x14\x86\x01\x92\x9d"U\x17J@\x909\x11\x9b \x89YX{\x9fR;\xd2\x10\xd6"\xe3}\xe4\xab\xbe\xaa\xad\xdb\x1eEw\x9a\xc4aH\x05K=-\x1bf)\x92\xd0]\xab\xd5\x98\xfcTD(\x1du(Q*z\xd4\xdb\x9f\xa5$\xde\xe7Fs\xae#\xe2\xeby\xc2\x98\xc1\xd0\xd3\xc8\xfb\xbc\xd1\xb1\xfc\xd3O\xe6)\x89B\x92\x8d\xd5\xab{\xa7\x04f\x84\n[8\xd2\x184yT&lt;\xb76\xa8n\xcbe\x93d\xf3j\x06P\xa0q!\xda(\xe9\xc7\x14a\xce\x90\xbd\x0e\t\xb1\x99\n\xd2@[\xf0G\x07\x03\x81\xc6u\x1eB\x99\xe0@)\xa24\x1fjKI\x06\x10\xd3nITC\x00\x80\xb8\xba\xfa\x01.\x8b\rsBU\xe4?E\xcc\x7fF$\xba!\xe9\x1f/\\B\x96\x88{mV9\x93\x8e&amp;\x01\xe6\x1bj\xd6\xca\xf2\x1bA\x91\xbc*\xf4P\x8b\to%:\x08x&amp;q\xb2\x12=\xa9\x04\x1f\xe8OX\x0b\x9a\xa2I\x0f\x9e\x8bK=\xaeE\x95\x04i\rOeE1\xe1\xe1\xbe\xc7\xd1\xa8\xeb9 \xa7\xeb\x1auO\xd7\xdc\xfbD\xce\xd5\'\xc3\xb6\xe9\xaac\x07G\xf4j\x9f\xa9]\xb6,.\xeb\xe4\x88\xceX\xd4\x1f{J.\xe9\x81\x8eJ\x13\x12\xd46L\xa4}\x80\x19\x80\xcde9\x90\xd1.\x1b\x88d]o\x88|&amp;"\xa3GX\x84 \x08K\xb7Rp" \xf8\x07&amp;\x9aS,\x8c\x1dbC\xa1\xe4$\x14\x1c\x07Yq\xd1[\xea&lt;\x88i\xca\x1b\xf2\x12\x971\x19%M\\m\x85\xe9\xbd\xc5.\x06j\xd6D\x9f\x81\xe0\xb1\xb7\xf4\xca]\xb2\xad\xb68\r\xa8\x18\xd9\xb5_@\x8b\xe6\xd9\xa6\x12e\'X@%Sy&amp;A\x90H\x10\xd5\xbf\xd4\xda@|N\xe0z\x19\x12@\xday7u\xa2\xbd\tV\xe4\xd0\'\x8d\xb5\xc9Mk\x94@&amp;\x0f\r\t\x8ai\x86\x9e\x02\xe1\x14\x7fU\xe8|\xa4\xc9\xca~\x91\xb7\xb1\xc2\xeez;\x07\xc16\xeb\xa9D\x12\x83\xec$\xb6GhF=o\xe4\x19\x89\xe24\xcf\xb8\x93&amp;W\x04\xb0B\x18C\x00\xc3#\xd1T\x0c\xe2*\xb8Hf\x84K\x88\x03\x82+\x1d\x97\xc4(\x02"PHD\xc6,sQ$&amp;\xa6M\xa1\xedg\x81\x11\x88bC\xa8H,:\xce\xa1\xfa&amp;Iv\xd2M\x81\x04u\x04S\x90\x12\x1aq\x99[\x9c\xfai\xa0\xbb\x0fl\x13\x81Vk\x05O\x81 \t\xb7\xf5"=j4\xf4d\xc8\xab\xed\xcd{\x1d\x85,\xccr\x14\xd3\x92dS\xc6\xe0x\x18N0\x13\xe8\t\xf4\xb1\x19\xcb3L\xe2\xe6b5.]Em\x843\xa7\xb5\x1b\xea\x14\xc9z\x075]\xe7u\xbe\x020\xddh\xd5\xcc\xd6\x84\x8e\xe1H\xe3\xb2\xed\xbe\xd4`|t~_Ck\xe4\xf7n=&gt;\x1c\xad|\xeaG-\xfc\x9d\xd30\x12\x83IB\xfbJ\r:\xab\x8d\xe2\x94\xfeR\x8c\xcc\x06\xbe\xe7\xe9\xd3^\t\xd1J\x0e\x83\xa1\x1cc\x13\x8d#i\x84\x1dP+\tFCv\x01\x10\xd4CT\x16\xa6\x10\xaaQN$\x96p\x12\t\x0f\rBu\x8e\x03(\x8a\xce!t-\x0b\t,\x98\x94\x86\xe5\x01t\x8f&amp;e\x8f"e\xa9\xb4\x96\x1dG\x19RK\x1fN(Z\n\xdd\x12\x90\xd5|_?\x0f\x89\xbe\xd3\xf2\xf4l\xde\xa1\xa3\x15\x97\xadN\xdb\x91\xbdx^d\xa6:\x81\x89\x06&amp;8\x85\x03\x93HB&amp;\xe6\xe8\x15\xf5\xb2a\xa2\x9c\x94\xd6N\x91\x80\xb8N+\x9dJ\xbe"(`\x0b\xf7+\x1b9\xd3#\xfa\x12\xf3\xd2/\x93\xd03\x95\'\\\xda\xbc\xdd\xa7%\x06\x82\xe5m\xe6\xdf\t\x00)81Zn}\xe4|\xbfv\xdd\xea|\x97\xcd9&lt;\xe3X\x89@\xf0Pn\x13?T\x16\x96aU_4\xac\xeeMlL\xdb&amp;\xe5\x04\xe1:\x1cg\x90\xc8\xc5\x04`J\x19T\xfc\xbe\x00t\x04@zCE\x058\xcce\xaf\x9c\x01(Px:\x1eb\x81H\xea\x16\x1egP\xe3\x1dD\xb0xR\x06I\x04\x84Po\x03\xacSO\x04\xb6\xa7\xd2X:\x0b\nhfr\t\x19\xb1\xef)\xba,\xa8Y\xdb&lt;\x13\x8a";v\x1d\xb6\xf9\xe9\x13\xae o#:\xf3\x11yEhl\xaa\xb0\x83!\t\xad\xcd\xa8\x08P\xd6}\x82_A.\x8e8~\xd7\x1br\xbb,\xef\x8d\xa73*\xca\xa7\x80\xd8\x97m\xdcz\x15{\xdb\xc5\x81\xafE#\x1b%\xf2&gt;\xbb\x9d\xf9OxV\x0ejz\xa8\xe9\xce\t\xd4Y\xda\x9aV\xaf=h\xe7\xf5\xab\\\x9e\xecW6D/o\x16\xef\xdd\xcdV\xcfJ\x9cr\xd5n\xc2\xd1W8b&gt;\x7f\xb2 \xd0\x9d\xe0\xf4\xfejY\xd8\x1a*\xebt\x83dnX&lt;\'B0@lb\x1bIC\xe0x\x1aM\xc9\x165*\x8a!\x88\n\xca\xbc\xbc\x06\xf9\xc0\xce\xbdb\xc3\xc1\xd0xK\x07\x86\xebQ\x91\xd0q\x13\x1999\xec$\x87A!\xda]I\xd6u\x1enH\x8cQ(:\x08\x16:\x00\x87\r\x05\x9do\xe9\tO\'}\xa7S\xb0\xc6\x16m\x1b\xefa\x981\xf1\xd4\r\\\xa2\xef}\x1eU=\xc5\x13^X\xe2\x14\x9a\x12m9u\'\xc92\xd5\x98mN\xd6/3l\x93\xe8\xf8\xdc\xed\xcd\x9bv\x8ej\xdd\xfc{\x11K\x03\x9a\xd4\x967\xad+)\xebpj\x82\xf6b\x0b\x9e\xf4?\x9e\xee\x99\xd7\xc8\x03\xa2iP\xc66=7\x87\x199.M7\xa1\xa7\xabg\xd5\x06n\xbf\x8e\x96\x17\xcfp\xd3\x15J1D\xcaT\xfe]#\xe9\xd1H\xea\xf5\xc5&gt;\x8c\x9a&gt;v\x13\xe4\xd1Sr\x8a\x9bDZ&amp;\x16tX\xd5W\xd9\xacJ\xd0\xe9\xc7L2m\t\x84!\xa5#\x8d\xb8\x85\x07AI\xa96e\xf56\x83\xe1z\x84\x07X\xf0\xba\x87\x83\xa0\xe8\xe4\x83\x80\xc2S\x86U\x8f\xa1\xd0\xf3Hb\x81BR|k\xc3}%\x8dH!e4\\\x1c\xd6\xaa\xe2i\x91\xd3XIL\x8c\xf5\xdeQ\xcc\xb9\x8c\xdc\xaa\x81r6\x04C\xb4M\xd1Igig\x89W\x06\x01\xa8\xd0\xeeQ\xb4\xbc\xf6\x9b\x16wna\xda\xf1\x10i\xe0\xac\x96#\xbd\'\xb4\x9d/}\xf9\xfd\x1afk\xb6\x0b&amp;4u5\xcb\xe9\xd3\x1c\\Z#\xaf(\xae\x1d\xaa\xdd\x98\x87\xe8\xe7\x16SHS}\x13\n\xad\xb2\xafRk}\x12xm"2u^j\xa8gQi\x18\x82\xcf\xa2\x91\x9dz\x88\xb3I\xbe\xac\xcf\xabZ\x8b\xf2\x9dG\x82\x02\xad\x15\xcdPb\x90E\xa7\xdb\xb3\xa5nL\xf3-rL\x9a\x86\x1d\t\x02q\x8e\xb5\xe4\xfc\x1c\x07C\xa1\xc1\xa6_\xc2\x82\xea\x16\x0e$\xe3\x1enB$\xa0\x88\xe65\xc4$js\xd6t]G\x1b\xe0\x94&gt;\x89\t\xa4$0jQi\xc6\x00"Cm$\xf0\xcb\xb4\x02\\\x9aEe\xdbq|\xb2\xc8)\x01\x00\x1a\x97[\xa4\xf0\x1e\xb4f\x94\xe6J\xa0X\xa8\x986\xac\x87\x1d\x01\xa2\x86\xd6&gt;f\x85\x1d\x00z8YpDF\x89\xb7\xe7\xad\x8e4\x81\xd16\xa8u\x85\x9eO\xac\xc0\x03\x9c\xde\x96{X\xc1q*j\xc7\x97V\x9d\xa65\x1e\x9eTVcU\t\x97`E|\xa3\xf99R\xf4m\xb27U\xd8q%\xc4\x18\xe4\xd8\x92\xf7\x9b\xe2\nR\x9a\x83\x9a,\xefG\x99b\xec\x14\xf3\x9d\xb2\xd8\x9802is\xb4W\x995@\xaa\xd3\xc4\xd4\xeb\x89\x87k;U\xb3)\xd8\x8b\x84\x81\xb2\xe5\xb4\xd0\xdd\x13\xc0\xf3#\x87\x11\xc0t\x12\x1f\x0eCu%1\xe0\x943lu\n\x05\x82\xc4\xc8r\x8fQ\xc4pJ\x1a\xd1\xc1u5\x84DKd\x86e\r\x14l\xb8\x9b\x10\xd1\xe9,\x8d+7g\x15\x14\x0b\x14\</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495681-caba-la-auditoria-general-detecto-irregularidades-en-los-sub</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>La justicia francesa investiga por abuso a 11 obispos o ex obispos</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Uno de los investigados reconoció que se comportó "de forma reprobable con una niña de 14 años"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>En Francia, la justicia investiga por abusos sexuales a 11 obispos o exobispos, anunció el presidente de la Conferencia Episcopal. "Hace 35 años, cuando era párroco, me comporté de forma reprobable con una niña de 14 años. Mi comportamiento necesariamente causó consecuencias graves y duraderas", escribió el exobispo de Burdeos, Jean-Pierre Ricard, en un mensaje leído por Éric de Moulins-Beaufort ante la prensa en Lourdes, donde los jerarcas sostienen su reunión anual. Otro de los obispos involucrados es Michel Santier, sancionado en 2021 por "abusos espirituales con resultado de 'voyeurismo' a dos hombres adultos”. Hace un año, una comisión independiente estimó que unos 216.000 chicos fueron víctimas de sacerdotes y religiosos en Francia entre 1950 y 2020.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x01\x04\x05\x00\x06\x07\x08\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x01\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xfc\xb9\xcb\xab\t\xc1\x92q!\x04I8(Hmj\xc9\x8d\x1c\x10\xd0\xb1\xc7c\xa1\x1a\x0cF\x97h\xd4a`\x91\xae$\xe0\xc9\x08\xe3\x80 X\x00\x00\t\x00\x8b\x04\x1a\x91\xa9\x06\x86\x80\xe0A8\xe6s \x12\x0e \x83\x8e8\x92N\x04\xecq\xc4\xeaC\x18\xd6\xe6\xd8\xe6\xb4\xab\rp\xe1\xc3\x87\xe1\x81\x03\x1b\xcd\x02\xb8\x81B\xf0\xabE\x85!\x81\x04\x93\x81\x00\x92\x08 \xee\x9d,\xf9zz?/\xd5\xf4\xfeO\xab\xe8\xa3\xd7\xf9\xf3\xf4\x7f\xcf\xcc\x9c0\x92B$\x92I\xc4\xc0\x83kVLh\xe0\x86\x85\x8e;\x11\x0e\xd0`t\x16\x8d\x0e\x00\x805$\x9c\x19!\x1cA\x00\x82\x08\x02\xc0 \x00\x05\x91R5 \xd0\xd0\x82\x08$\x9c\xce`\x10q\xc0\x90I\xc4\x12I\xc4\x1d\x8e$\xedHc\x1a\xdc\xdb\\\xd6\x15a\xae\x1e4p\xfc4\xe2#y\xab\x10 P\xac*\xddaH`A$\xe2\x01 \x82\x01\x1f\x1d}\x1f\x9b\xecz\xaf7\xd7\xf4&gt;o^\xcf&gt;\xdf\x99?O\xfc\xdc\xc9\xc1\x84\x10g\x1cpx\x98\x10mb\xc9\x8d\x1c\x10\xd0\xb1\xc4\xe3\xa0:\x0c\x06\x86\xdd\xa0\xc0\x10\x06\xa4\x92B$#\x88$\x80E\x02,\x10\x00\x04\x81u!R\rY\x1a\x12\x01 \xe6C\x04\xe3\x808\x82\t$\x93\x8e8\xecpGk\x83\x18\xd6\xe6\xdb\xe6z\xac5\xc3\xc6\x8e,`\x89#\x9e\xc6\xe8\n+\x8a\x13\x85\xdb\xac)\x0c\t\x07\x1cA\x00\x90v\xbb7s\xcd\xf5}\x7f\x9b\xed\xfa\x9f/\xb3[\x8f\xbfJk\xf2\x9f\xea\x7f\x970\x9cH\xc2tD\x9d\x88\x19\x86C\x83i\xac\x98\xd1\xc3\x06\x13\x82\'\x11\x01\xd0\xe04\x16\x1a\x0e \x00I8\x91\xa4\x92q\xc7\x02\x08\xa0\x00 X\x14\r\x0e\x81 \xc0\x03@p \x9c\x0b\x05\x9cA\x07\x10A\x04\x1c\x10G\x12A$\x84\xdel\x87\x87\x96\xb0\xfek\x03\xb7lt\xdb\x12l\x19\xcfM\xa4\xd9\x9d\x1d+A\xd2k\xe5#)U\xcdm\x86\xc6\xc2\xc1 \xe3\x80s\xe7HTMG~W\xf8\xfa=\x97\xcd\xfd\x17\xad\xe1\xf5\xb7\xb8\xfa\xb48\xfaH\xfc\xa3\xfa\xbf\xe5L\'\x06\x19:"I\xc4\x85\x83\x87\x06\xd6\xac\x98\xc1\xa3\x06\x13\x89\x0b\x11\x08\xd0`4\x16\x1aF\x04\x10I8\xe1\x81\x12q\xc7\x1c\x00\xb0\x00\x16@\xaa\x0e\x87@\x95\xb0\x00\xd0\x1c\x08\'\x10\xc5\xb3\x888\x80H \x83\x86\x04q\x07\x04HM\xe6\x90xx\xf2\xce\xed\x98\xa7F\xda\xe7\xe8\xd7\x8f_\xa1\x8f]\x9e\x1d,;\\z[\xc73{\xf90}&gt;&lt;|\xf1\xe7\xdf\x04_\x9dU\xd5i\x870\xda\x02\x01$\xe0\\\xf9\xd0T9\x97/\xa7\xa8\xf2\xfd\x0fg\xe0\xfb^\x8f\x8f\xd6\xd4\xe3\xe9\x98\xe9D\xfc\xbd\xfa\xbf\xe5F\x16\x18HZ\x90\xc9\xc4\x93\x83\x87\x06\xd6,\xd8\xc1\xa3\x06\x13\x89\x0b\x11\x08\xd0`4\x16\nv\x00\x82\x0e$#\x83$\x93\x81\x08P\x02\xc8\x14\x08\xaav\x84ZW\xb8\x00h\x0e\x04\x13\x8eb\x99\x07\x1c\x08\x07\x02q\xc1\x04pD\x92HM\x90\x9axyd\xbf\x1b\xa9\xc3\xdf\xea\xbc\xff\x00K\xda\xf9~\xc7\xa6\xe5\xea\xd6\x8fA\xf9\xfb\x0c\xec\x85\xd3\xa7o\x1a\xdb\xe6\xc3\xed\xe4\xf2\xbe\x8f\x0f\x8c\xef\xe0\xf3&gt;\xcf\x9b[x\x0e\xf9\x97\xbd`\x8d\x0e$\xe3\x90+\x15XO\xa4\x9f_\xaf\xf1\xfd\x8fO\xe4\xfaZ\xdc&gt;\xb5\x8e&gt;\x8a\x8c\xcb?6\xfe\xaf\xf9C\tT\x8c$0\xce\xc7\x13\x83\x81\x12\xd6,\xd8\xc1\xa1\r\x0b\x04v:\x11\xa0\xc0h,\x14\xec\x01\x00\x92pg\x06I\'\x1c@ \x0b X\xb1d\x00\x05HT\x83W\xa5\x9c\x0b!\x90p\x00\x10@ \x9c\t\xc4\x84A!\x84pA\xa3\x9aK\xb4\xbfe/\xa3\xe6\xfb\x0e\x1fOC\xc5\xf7t&lt;\x1fF\xe7\x9f\xdf\xd3b\x16Q\x8a#\r\xc9\xb4\x82\xbd]\xf1\xc7\xe9\xc3\xc3\xfa~\x7f\xcd}\x9e\x0f-\xec\xf8\x95\xe7\xc7\x1d*:\x06\x12p$\x92m\xcd\xfbI\xef\xe9\xe3\xeanx&gt;\xad\x9f/\xd5\xaf\xe6\xf4P\xebY\x16\xfc\xfb\xfao\xe5\x0c%R4 \x89\'\x04N&amp;\x04\x13Mf\xc6\r\x0ci8\x90\xb1\x10\x8d\x06\x03A`\xa7`\x08 \xe3\x83$"B8\x92\x05\x80\x00\x00\x00,\x10\x05\xd4\x85H44\xb3\x81d2\x0e\x16\x08$\x02\t\xc7\x10q\xc4\x04\x18A\x12\x1b%^\x81\x7fo\xdb\xfa\xc7\x0f^\xef\x93\xdc&gt;O\xabS\xcd\xf5j\xf9}\x14\xf3\xbde\x10yPH\xad\xb1\xd9\xac\x8b\x13\xb6\x92\x08\xa9{\xe7=\xbe?\x9d{\xbe/\x80\xf6\xfe~\xa5\xf8cQ\x1b\xc4\x10\x19\xa2{\x19\xe9\xea\xa6\xfd\x04{\xf4|\x7fL&lt;\xbfg/\xcf\xec\xcc\xde\x99v\xf8W\xe9\xbf\x940\x95\x10\xc0\xc9$\x99\x19$\xc2Ci,\xd8\xc1\xa3\x06\x13\x82#\x13\x08\xd0`4\x16\nv\x00\x83\x88$ \x89$2N X\xb0\x05\x82\x00\x00\x00.\xa5u \xd0\xd0\x1c\x0b!\x82p\xb2\x05\x90@\'\x04\t\xc7\x10\x10A\x04Hm\xdf_\xe8\xc7O\xabq\xf5\xd9\xf9\xdfb\xaf\xcc\xfbT9\xfbkG\xa9&lt;u]\x9d\xba"\xf2\xab\x08mK\xea\x9d\x8cM\x86tl\xce\x8f-\x9d\xe5f\xb5W\xe6\xf9\xef\xbb\xe1|\xc7\xdb\xf9\x9a\x9e\xef\x07s\xa8#\x12Y=9\xedg\xaf\xa5\x96\xbcz\x8b\xcf\xf43&lt;\xbfs#\xcb\xf4s\xb3\xadK\xdf\x86~\x9b\xf9A\x8cQ\x06\x19\xc1\x9d\xc8d\x92Hm%\xb5\x928hZ,\x14:]\xa8\x03AE\x90@\x04\x11\xa28\xe1\x84\x86\x11\xc7\x02\x00\xb1b\xc1\x16\x08\x00\x01R\x15*hid\x82\xc8`\x90(\x80N\x04\xe3\x8e\x04\x80\xce8\x90\xd9*\x95\xef\xe6\xfe\x82\xae?e\xf3\xfd+\x1e\x1f\xbd\x87\xf2\xff\x00CS\xc7\xeb\xaf\xd0\x9d\xa0\x16\xe8;\xb5\xf1R\x95\x8c\xe3"\xb7\'\xb7/7\xdb\x80\xecz^=\xb6\xf8v\xd3\xbc\xbf9{\x9e\xa3\xb7\x9b\xe7^\xaf\x91\xf3\x7f\xad\xf8\xea\x9e\x8f\x0c\xe7I\xca9i\xb7\xdb\x9e\xcb+u\xb7\x8a\\~\x96O\x93\xebdy~\xbew/J6\xbe!\xfa_\xe5f1D0\x90\xc2\'\x92I$\x92Z\xc5\xb1\x864`z,\x14:]\xa8\x07K\xa0\x02@\x04\x11\xa98\x91\x84\x86\x11\xc7\x02\x00\xb1@\x80\x08\x02\xc5\x83R\x15*hh\x08\x05\x9c\xc5\x90\x08$\x02A\xc7\x12A\x04\x90pa3\x95\xb2\xe9\xfa?w\xec&lt;\xfa\xd9\xf9\xbf\xa1\xc7\xf9\xbfr\x87\x8b\xe8R\x9e\xd5\xbbj\x1a\x817\xb5\x9bD\xa3J\xda\xa6f\xdf\x0c~\xdcq;q\xa5\xd24x\xf5\xf4\x1c{\xeaG}\t\xdd8i\xf2#\xaf\x9b\xe6\xbfK\xf3\x9e\x1b\xe8~`:y\xca\xfb\xb68\xfa\x86\xfb\xb3\xd4\xe5j\xb6J\x1c\xfbg\xf1\xfaY\x1c~\x9eW/\xa3[\x9f\x7f\x8a}\xff\x00\xe6L\x18\xa3\x0c\x91\x84\xe0\xf9\xb8\xe2N%\xadY\xb1\x83F\x07\xa2\xc1C\xa5\xda\x80t\xba\x00\x07\x02@:\xe2I\x18HA\x9cp \x0b\x16\x00\x07\n\x16\x08\xba\x90\xa9SVF\x84\x06s\x16A\x04\x02\x08G\x1c\t\x07\x1cA\xc1\x84\xc2W\xde\x97\xfa:\xba]\xf2\xfd\x0c\x1f\x8b\xfa\xdc\xff\x00\x1f\xd9_5&gt;\xb5C+6Y\x85.\xa8\xd2\xc0\xd25M\x94"jt\xe3S\xb7\x1a=y\x9f&gt;\xba\\\xbb\xbe\xa3\xa5j\x1bS\xdf[w7\xd9\xf2\xbeg\xed\xfc\xce\x0f\xa3\xe0\xcfy\xb7\xcf}\xb3}\xd1\xe8r\xad5%)\xe7R}\xb9\x13\xee\xcb\xe5\xef\xa9\xe7\xf5\xfc[\xec\xfe\x10\xc6e00\xc9\x0f\x05\x089\xb2\xae\x0c0\xc6\r\x180\x9cq$\x90\x00\x00\x02\t\'\x01\xa8\x08\x80\xc382N\x12H\xb1d\x00\x08\xb0\x05\x01R\x15 \xd5hH\x04\x12\x01b\xd9\x07\x0b8\x93\x8e8\xe3\x81\x080\x9b\xba\x8f\xd6n\xdfL\xe5\xe9\xc1\xf9\x1f\xa9\xf3\xff\x007\xf4\x08\x9fEV\xd12\xaa\xb3[P\xea;\\\x0em\n\x9c\xde\x9c\xea\xde\xa9)s\xaa\x94\xde;\xa2\xc4\xd39\x97\x06_]I\xcd^l_W\xc0\xf9\xf7\xd5\xfc\x95~\xbc/\xe4}\x05^\xcd{\xf8aE\x95\\\xaa\xba\xe5:gr\xf7S\xe1\xea\xf8\xbf\xd2\xfc\xd1\x87\x94\xc0\xc3$f&amp;\x1cq\xcb\x91\x84\x8c\x0c1\xc3\x02\xc4\x9cp$\x0b\x04\x10N8^\xb8 \x8e\x0c\x90\x898Q\xc2\xc5\x82\x08"\x80\x16\x05HT\x83W\xa5\x9c\x08$\x02\xc0g\x02\x01\xc7\x1cq\xc7\x1cHD\x86\xdf\xb6\xa3\xf4\xb3\xb5\xef\'\xd4\xf1\xff\x00\'\xf68\xfe/\xadOw)Y\xc5Z\x0e\xa4^\xca\xb7\x04\xaf\x9bF\xe2\x9d\xc0\xb6P\x84R\xbe\x15\xfa\x06\xf2en,\xf9\xf4\x9e\x9ap\xb3\rN\xde\x7f%\xec\xfc\xc7\x9b\xf6\xfe\x7fY?E_\xb2^\xde\x14g\x94\xd9\\\xa2\xca3T\xe3\xb7\xc5=\x7f=\x81\xe5\x18a\x923\x13\x0e\xd7\x1c\xbe\x18\x16\x08`\xcd8f\x0f\x1cq\xc4\x90\x06h\xee\x0e\x00\x127W\xb9$\x84HA\x04q\xc2\xdb\x0c\x01@\x82\x00\xb1`\x01R\x15\x80-\x8b\xd7\x02\xd1 \xe4\x86\xa363\x07@\xceo\x1c\x11\xc7\x04pf\xca\xbfY\xb9\xfd=\xdf\x0f\xe7\xfd\xcf\x0f\xf2\xbfq\x8f\xe6\xf6\xe5\xdcfn\xac\x8d\x99\xd2\x8a{\xcd\x1b\x8b\xdcQN\xa4*\x19(e=\xe7O\xb7\x99\x17\x81eO\'G{\xd1\xdc\xef\x0e2c]\xd3\x15\x7f+\xcd}O\xca\xe8\xef\x8f\xe8\x1b~\xdb/k\x15L\xe2\x82\xea\xb9\xa1\xce\x9bj+\xe2}\xf8\xb34\xf3\x1e\xd9\t\x920\x93\x8e9r\x1e&amp;(\xc6\xb1\xbb$7\x07\x8e\'5\x93\xd0\xc9l\xb4\x08\x01)\x13\xa0\xd79\xf3;t\x82\xd1\x04C9\x80\xe8 $\x00\x00H,\x04\x00\x15aT\r\x14\xad1\xbb\xc9\x06\t\x1b:&lt;\xfe\xab#\x9e5\xfc\xf1\xaa\x1dD\xe44\x82\xdc-\xc99\xbc\xd9&gt;\xb4\xaf\xd5.[/G\x96\xf1\xfe\x8b\xe7\xdf\x0f\xf6\xb8|zg\xf6\xe8\x0ed\x95i:\xae\x04j*+\xdcR\xe9\xc6\xae\xe7\r\x8d\x8a\x8a\xbd"\x8f~\x0bd\x03\x1et\xba9wg\xa9\x0c$-\xf1f{?2\xefO\xcc\xf7N\x9e\xdb/w"\xbbs\x8c\xf3&lt;\xaeU+\x9f\x1a\xe9\xc0\x92\xcd\xb3s4\x9b\xa1\x04I\x07\x12\xb9\x0f\x07\x14\xd1\x83$a\x13\xa3\x1b\x9a\xe8\xe8\xfd\x1bI\xbc\x03\x01\x88+a,R\x07f/\x0c\x90\xb4G$R.\x82\xd52\x05\x8b\x00\x81b\xc0\xad\n\xd5\x1c\xc0\xcaw;\xd6\x8b\xbb\x96\xc7Q\xed\x17&gt;o\xe8&lt;\x97\xa3\xe6d\xfd\x1f\x803\xcf\x99\x19\xd7\x9aZ,\xc9a\x12\xd9k\x0f\xd3*\xfb\xeb\x92^\x8f\x1b\xe5\xfb\xbf4\xf8\x9f\xb7\xa1\xc7\xd5Z\xe8\x1c\x94\x94\xe9Z\x00\x13Z\xa2\x9d\xc6\x7f^*I\x05\x1b55\xfas\xa3\xd3\x8a\xc9\x05\xc9,\x02\xdc\xf5\xb0H[\xd9\x9c\xf9\xcf\xa7\xe1w\xa7\xe1z\xe3\xda\x9b\xf5 g\x99\xa6iD\xacW&lt;W\x97\xed\xd3\xaf=oW\x95[\xe7-\xf3\xcb\x08\x9dq\xc76sX\xd6\xe1\xd3Lk$\xdez{\xb3\xa9\xa1\xb1\xf9\xb6\'\xa3\x86\xb4\x94@\xee/1\x02\ns\x88sU@t\x9e\x08\x9d\x139D\xea\xe7J[\x0by\xc34\x1a\x18\x1c\xa5\xed\x0e\xea\x9a\xad\x91\xd9&lt;\xdf\xa0y\xbd\x7fX\xf1\xfd\x1f\xa1\xf9\xbe\x8e\xd7&gt;\xd1=h;\xe2o\xa3\xe2=\xfd\x1fP\xe9\xf3|\xb5\xfc\x9f\x87z\xfe\x1f\x97\xf6|\xce\xeb\xbd\xbaS38A\x04\xdeo\xa1?\\+\xdf\xb9\xe7\xbb\xf9n\x1fG\xe6\xdf\x17\xf6\xb9\\=\xe8z+%)\n\x00\xb1u\x14/\x9eu\xf2\xaf\xd3\x9c\xeeC\n\x11QZ\xe2\x95p\x1dI\x14\x07:\xeeg7m\xac\xcdun\x87\x1d\xbf\xd3\xe63\xd5\xf1\xb6\xb7\x8f\xabs\xd8\xb1j\x89\x9cf\x14\x8a\x85cc\xe1~\xfe\x85\xf9\xf3;x\xb1\xfd_7\x1f\xd1\xf3ko\x92.z\xe4\x1d\x0c\x9c\xc3\x88c\xa5\x8d\xab\x0cltg=vA;\x16\xf4jZ\x87\xe4\x9et}\x1e\xd9\xe5E\xd3cK\xc27+2\x8b\x9dtW\xa9M\xa1\x12\xd2l\xb9r{=.\x8f\xa2\xa7B\xdf+y\xdd\xc9\xf6z\x0e^\x8fK\xc3\xbb\xa7\xbb\xb6\xc4\xc1\xbeU_?\xeeQ\xdb\xd7q\xfa#\xc3\xa5&gt;}*Oj\xf9\xd9\x0b\xea\xbf\x9eo\xa6\xea\xaeg\x97W\xd5\xe1\xf8\xdf\xd2\xf8?\x1b\xf5\xfe}\x1e\x9f\x1f@\xb15\x84\x139^\xf1\x7f\xae\x9b\xa8d\x99oO\x83\xf9\x1f\xae\xf1\xff\x00;\xf45\xb2\xeb\xb2\x1b=5;\x0bE[\xac\xce\x9c\xa8\xdf\x02\xad\x84\x829\xcdh\xa6\x8a\xbd8\x8e\xe1\x83n\x12)\xca\xecU\x88\xe9\xe8&amp;u^{\xcf5?O\xcc\xbb~\x1fUmlM\xab[&gt;k \xa6TeC\xe9\xdf\x9c\xfe\xa5F\xe7;|\xf9\xde\xaf\x91\x95\xe9\xf9\x18\x1e\x8f\x97\x85~z\x97\xc8n\xa4&lt;2\x0f]\x85:q\xdc\xee\xc4\xf4\xb5\x9e\x9b\\\xfdwg\xd1ku\xf9\xcc\xd1\xdb1\xd3\x94d.3\xaf\x94T\xa9\xa8+\xeeS\xaeu\x11V\xa1W+O \x8eie\xcf&gt;\xc7\xe7\xfa\xbe\xeb\xcf\xf6\xfe\x8f\xc3\xd9\xab\xce\xedE^\x8a\xbb6M\x1d-\xce\xd5r\xb8\xf3Lggl\xed\xedY}\x9a9\xbc\xbc\xc7LW\xaf-W\xef\x90\xee\xbd\xc3\xcf\xfa|?\x1b\xf7\xfe[\xc7\xfd/\xcfOH\xe9I\xcc\x95}\x1d\x7f\xaa\x9a\xc30\xa5/-\xe5\xfb~\x07\xe6\xfe\xaf3\x87\xd2\x0cp\x9e\x8a\x9b*s\xab\xd1\x9f|\x91|\x0f\x00\x95#\xaf\x015\xdc\xea\xd7\x11g\x13n\x16\x03\x95\x88\xbd\x88\xbfQ&lt;v\x1em\x97\x96\xa7\xa7\xc9V\xfc\xdb\xd7\xd3G9\xf5\xaaR\x8e2\xd9DS+\x9fa\xfc\xb7\xf5j]1&gt;\x8f)z~\x1d_O\xc9\xc2\xe9\xe5\xf3\x17\xe4\xf2w\xe7\xc9\xe8\x1d\xc7a\xf1o\xde\x961g\x96\xe8r\xfa^\x87\x97\xbf[\x87\xd1\xd2\xf3\xfbt#\xd1a\xcb\xb6;s\xab\x17\xd3\x85J\xf2\xd0\xeb\xe4\xa1\xd7\xcf^\xbc\xeb\xce)+\xdeR\xe9\x14\xdc\xaa\xecW\xb8V\xc09\x93\':\xd8\xcfe\x8f?\xb3\xdc\xf8\xfe\xc7\xd6&lt;\xbfcg\x97uGE\xf3\x92\x9b\xea\x92\xdc\n\xe5\xb0\xf3Y\xde\x1d\x9d*GzS\xd1\x15\xd0\xfaZ\x11k"\xa3\xa6\x16w\xc9\x9fUV\xc5q\xb1WGy\xb5\x9a7?/\xfa\x1f\x98\xf9g\xd5\xfc\x90\xf6\xf3\x14\xa3g\x95\xf5\x05\xfe\x91i\x94\n\\\xeb%~O\xc1\xfa_#\xe1\xfd%y\xef]\x94\xbamm\x95o:w\xce\xbd\xf2]\xf0\xe8)\x82\x82\xe9K\xd8C\x9dg0d0\xe9\x04\x93\x9c\xcekvo\xd3O\x93u\xe5\xd5y\x97\xe8\xe5\x17\xce\xe5w\xb0\xe1\xd6\xce\xac\xa59\x9c\xcabv@\xfa\xe7\xe5\xff\x00\xabwO\x0e\x87\xab\xcbo\xbf\xc4\x1e\xdeL\xce\xbe\x7f&lt;\xe7\xe3\xb7\x9f\x8d\xbe\x19}9\xb3r\xdf.\xaf\xde\x96\xd5\xb5\xe7\xfa\x1e\xc7\xc1\xf7}\x1f\x93\xdf\xa9&gt;\x9b\x8bnQ\xccpz;\x90\xcet\xf7\x9e\x7f_6O\xa3\x86w_-;\xf1R\xbf-&gt;\x9ch\xdc\xd4\xbeu2*\xa6\xbfNk\xa8\x99\x99\xe7\xde\xff\x00/\xab\xeb|\x9fk\xeb\xdeO\xaf\xb3\xc7\xafeJ\xa7($\x0226^kw\xc2\x19^{Pw\xe7J\x84\x13Ykg\t\xe8\xf1\xefA\x95\x05\x17\xb3.\x19\xdb\x85t\xeb\xf2\xfc\xc7\xe9\xfeS\xc1\xfd\x1f\xca\x95p\x85\x16\xbe\x80\xbf\xd0\xd9W\x1b\x98W\x85L\x9c\xa7\xd8\xf0\xfe\x1f\xbb\xe7\xfc?n\xad]N\x98\x8b\xe7V\xf8T\xae+@\xa1i\xe2\x0e\xbc\x04%\xcd\x15\xa0\x9es\x99\xd3\'\x115\r\xda=\x14x\xfd-\xf9t\xaf\xcb\x93\\l/Ez=$5\x9af\xab-\x08B.\x14\xcf\xad~{\xfa]\xafG\xcc\xd5\xed\xf3\xb5k\xe7\xd8\xbeu\xab\x9e\x1b|\xbe\xe7\x92\xeb\xe7\xf2\x97\xce\x8de\xa9\xab\\\xebo\x8f\xd3\xf7\x9e?\xbb\xe9|\xdfOg\x87K9,\\(\t\x19\x86D\x9a\x14\xca\x15Y\xd59]\xb9\xd1\xf4\xf9(t\xf9\xf9w\xe1\xcc\xed\xe4\xa3\xe9\xf3\xd3\xae5"*\xe1\x99\xd3f}\xde\x8a&gt;\x87\xa8\xe1\xec\xf7^O\xa7\xab\xcb\xd9\xd1\x9c\xcaj^R$\xa6\xeag\rg\x9c.yY\xb3\xde\xbb\xbaUI7Kt\xaf\xb3\xe2\x1e\x8c\xd7`M15+\xd9\x1c[j7\xad\x9b\xe4=&lt;\x9f\'\xfa\x9f\xcf\xf3\xfe\x9f\xc5\x8c\xe9\xd0\xdf_\xe8L\xafH\xda\x85\x18\xedW&amp;\x9a\xbc\xc4}\x0f\'\xe2\xfb\x98\xbc\xfe\xcar\xebo*\x1d8&amp;\xa2\x10\x08[\x98\xb3\x85\\\xad\x02\x80\xad\x04B\'F\xd8\x06hq\xa4z.&gt;oG~k\xd7\xe5EM\xc5\xeb\xaa\xff\x00IV\xe6krU\x8c\x9a\x0e}|V\xcf\xb1\xfco\xdb\xdc\xf4\xfc\xad\x1b\xf1\xeag\x0b\x19J\xd9\xa0\xe9\x85\xb5\xe7:y\xfc\xbdG\x9d\xbe}\xbb\xb9\xe6\xfa~\xf7\xc5\xf7\xfd\x7f\x8f\xdb\xb3\xcf\xd31\x81\x93\n\x8d\xb5U\x08\x03R\xe4\xcb\x17\x97[*\xb5e\x0e\xfch\xdf\x0c\xcb\xf3\xe3z~v/\xb3\xe3\xd1\xed\xf3\x13\xcf\xae\xa7\x0f\xa7\xef&lt;\xff\x00G\xd5y\xfe\x8e\xc4v\xd2\x88|z\xa8OU\xec\xa9JU,\xd0\xcb\xb2\xe3\xe9\xf3\x81g5Ug\xef\\\xec\xec\x87z\x0c\x04\xe9\x0f\xd7\x9a\xd9\xf2\xee\xe3\xbd90V\xaex\xb5+n\x8c\xf3\xb8\xba\xb6\xbd\xbc\xfc\xe7\xd0\xfc\xe7\x86\xfa\x7f\x91U\xf8\xe1zk\xfb\x96_\xb9 \xce\x8a\xca\xcb\xcb(v\xcco\x1f\xd0\xf3\\&gt;\xceG/\xabA\xa1Q:\x14Vs\xae\xe2\xad\xc5\xb1] \x13(\r\x02{fi$\x1d;\x05\xa3g\x8f-\xad\xf2j_\x9e\xc5n\x9e^\xea\xae\xdc\xabYz\xc7\x9b\xc6\xd9\xc1\xdeC~sg\xdc|\x1f\xa0}\xf8\xedd\xbd\xac$\x02\x81\x89L\x17\x0f?\xbc\x97_G\xdfx?A\xed\xbeg\xbfw,V\x85\x83DKS\xb5\\Q\xc3\x08l6Fhh\x87*;\xcb\'\xd9\xf3\xb0\xfd\xbf\x0f&amp;\xfe\x7f\xa2\x8f\xa1\xf4\x0f\x07\xd8\xf5\x1eoM\xe91\xce6\xf1\xf3\xd7I\xd1\xad[\x10P\xcd_OG\xa9\xe7\xf1\xd9\x1e\xd6\xd4\xe4e\xe5\xd7[\x1b\xd3&lt;\xcd\x04\xb0\x11\xe5\xcc\xe0(\xda\tZ\xb9\xd5om\xc4\xe1\xe4\xbd\xb5+-\xf6\xf9\xfe\x17\xea\xfe*\x87\xaf\xe3\x82\xac\x1fX\xce\xdfIk\xd9\x9b=03rD\xf4\xe2\xa8\xbcn~\x8c^\x7fC\x0b\x97\xd0D}\x18\xce\x8aEg4g$T\'\xa75\xf4\xe4\x1b\x92C\x9c0B$\xe2U\xd9&amp;\x8d}\xe1\xbe\xf1i\xb2\xe3\xa6\xc4zv\xa2/V*\xd4:0\xf8o\x9d\xbb\xf3\xdd&lt;\xb5/\x93\x1c\xff\x00B\xf9}\x833\x13\xdf\x9a`\x9c\x03h\xe3-\xe7\xcez\xb5\xbc\xff\x00o\xdcx~\xbf\xa5\xe1\xdaYU`\xb45\r\xae\xc4i"C\x08\xe6\x8bx\x9d\xa6\xd55\xcck\x9dO_\xcb\xc9\xf4|[\x9c\x9e\xbb\x87\xd3\xf4~om\x88\xc1\xb8kh\xbb`;\x8a\xd6\xd1\x04\xcc\xaa\xdc\xf6\xfc_I\xe7\xaa^\x1f\xa3\x9f\xd3\xa6r\xd5UGT\xcb\x86\xb1X\xf2t\xc2\xd0\x15\xeaB\xb1%*\xe6Z\xbe\xe93\x83\x98\x05z\x97o\x9f?\xe8~k\xcd{\xff\x00:\xbb\xe5\'\xd1"\xfe\xb1\x96n\x98\xac\xcbfh\x19\xc8v*l\xd3\x9e\xd8Q\xef\xc5\xe7\xf4s\xf9{\xaa\xe5\xabuy\x15\xef\x9a\xae\x17Q\xc4\x10\xe7\x0c\x82N\x0c\xea\xd8pc\x86\x8c\xf9\xfd\x1b\xcd\xa6\xe9\xa1\x1dv\xa3\xdb\xbb\x15n\xb8\xd3\xb5n\x8cns\xe4\xee\xfc\xd7O-\x0b\xe5.\x7f\xa4\xf9w\xad\xce\x93\xcf\xbd|\xd4\x9cpYN\x92\x1c_\x1fS\xd2x&gt;\xdf\xa7\xf1\xfbY\xb7F\xae\xa2\xe1Jj\nEz\x98i1\x99\x9d\xaeh\xe9m\x1dMc\x1c\xaf_\x96\xdf\xa7\xe4:\xbc\xfb&lt;=\xda\xdc\xbd\x8f\xe7\xd6\xb6s=\xd3t\xcc\xde\xb9\x0e\xa0\xb5\xe6\xa1\xb9\xbbX\xdd|\xff\x00t\xfa\x7f\x89\xc4\xf1~\xa3\x0f\xe5}\x1c^\xd4N\xb4\xab\x15\xb3X\x16\xf1\x9f\xb9\x8fJU\x82\xc1\xb8\xa7s\x9a+f\xe6\xad*g\x1c\xc4\x02\x84\xe6\xdf\xf5|o9\xf4\x7f-_\xaf\x93\x8fq\x0f\xa9\xcfZ\x8fFF\xf2]s\xa8"9\xd1\xa2:\xe9g*sX1y&lt;\xbe\xa5I\xf4Ru\xa8\xec\x8d\xc5\\\xc6\'4X\x15\x1c\xce!\x92\xc3L\xf5\xf3K\xcbm\xe6\xb5\xc9\xb7\x91\xac\xf4[\xe3\xdf\xd4\xcf\xd0\xf4\x11\xd1\xb7\xe6\xa3J\xf7\x99\x19\x1eN\xeb\xc6\xdf\x9b+\xa7\x19G\xe9.u\xd9\xb5\xf9\xf6\xa3\xce\xe8M\x8e\x9cX\xcd\xb6\xbb3\xd7o\xc7\xf5=/\x9f\xeb\xdf\xf3\xf7\xa3\x1d\xb3:\xd5qb\x04\x957SZ\xc1\x8c\xe4\xc1\x1a\x8d)\xaa\xdcWH\xb3\xdf\xc7\xaf\xdb\xe5\xef\xe7\x9f{\x87\xa3G\x87\xb8\xf9UwE\x0cj\x1d37\xaev\xda\xc8\x9cC\xd1\x97\xd3\xad\xee\xdf#\xed\xbfc\xf9\xd7\x86\xf0~\xe33\xe2}|\xbe\xbd3WZ\xaa\xbe\x90\x0eU}\xca\x9d#\xceT\xc6\xca\x1c\xeat\x85t\xc0\r|-\x1d\x90\x00\x8d\xc9\x1a\xbb\xfd&gt;\\z?;G\xd7\xf3\xab\xb3\xd6+\xe9\x19\xd3/\x9fz\x9b\xc4\xaf\x8a.3\xb7q\xb2A\x16/\x07w\x0cO.\x81\x9d\xf1\xdd\xf2\xd7Ub\xb8\xe7\xd1x\x06\x87^&lt;\xc2#bs\x818\xb7\xac\x1e\xf3\xb4\xe7w\x92\xfcv\xd6\x8e\xfa&lt;=\xbe\xad\xed\xddm\x8e\x9e:\xd8Q\x8f\x8f)q\xe1n0{y\xf9\x1f\xa0\xf9\xc5\x86\x8c\xf6\xce\x8b\xcb\x8b\xe9\xbbE\xa2\xca\xf6x{\xfd_\x83\xecl\xf2\xf6\xc4\xf6\xccv\xca\xe8\xaaW\x14$\xae\xd4\xd6\xc9 \xb4H\xcc,\xe5g\xb7\x95\x9d&lt;\xca\xed\xe2g\x7f.\xf6s\xf5\xdeOV\xc7\x0f{y\xfa\x15\x8a\xeb\x95\xd7U5\xe6oJ\x1b\xb0\t\x9fW\x93|w\xbd\x9f\x0f\xee?_\xf0\xbeC\xcb\xf7\xfc\x0f\xc7\xfd\xa6\xcf.\xc8\xe5\xd2\xb3r)\x9cR\xd2\xeero\x9eMK6V\x82\xac\xadi,\xb6\xab)\xb9\xa2\xa6\x19\xc3\xdb\xd5!~OU\xd7\xf3\xea\xf5|\xdc\xed\xcb\x91\xbe\xf7:w&gt;\xf9W\xc6\xb7NC|\xebl\xe0\xe4\xa5\xce\xcd\xab\xee\xd0\x19\x11\n\xcdncs\xd6JNv\xaa/\x13\\%\x84I($\xb2\xa8\xf7l\xb6\xef)\xb7\x1d\xb4c\xb6\xc7\x0f\xa1\xe9\x9e\x8f@\xe7o\xa7\x97\xb1\\\xc6\xcb\xf2\xb7\x1e\x06\xe3\xcc\xf6\xf3\xf2&gt;\xdb\xcb\x95\xfd\xd8u\xce\x8e\x99\xb1m\xe5\xd2\xde\xad\x8d\xdb\xf5&gt;O\xb1\xec&gt;w\xdc\xd1\x8e\x94\xf7\xb65\xf4\xca\xa9\xaa\'B\xca\xed\xaf\xba\xaa\'1,\r\x9e\xd9v\xf1\xd3\xed\xf3\xbd\x17\xa7\xe6\xe8z&lt;)\xaf=~\x1d\xfd\x0f\x9b\xeaz\x7f\'\xbe\xcf/Eh.\xfb\xa7n\'\xa6S\xaen\xd6UeF\xd8\xca\xcf\xdc\xc2\xeb\x19]~g\xd3\xbd\xff\x00\x97\xfbW\xd3\xf8\xb8|\xb3\xc7|\xef\xd1b\xf8~\xeeo\x93\xeb\x9c\xfa\x19\\\xe8\xeed\xd32\xb7\x0f\xaf\x14T\xb55\xeb\x92t\xad\xd2\xdc\x96WJ\xd0\xba\x9e\xd3\xdb,\n\x85\xd4}\x0b\xaf\xc1\xd1\xf4|\x9c\xb6U\x9a\xf5\x91\xd5\xdc\xbd\x1e[\xaf\x1c\x9e\xbcm\xdf3s\xc6Mg0\xb5\x10F1\x0cFe]\xca\x8a\x9d\xa5"\xa8\xa0\x9b$\x84\n\xa5\xa4\x89\xcb\xb9\x9d,Nh\xf2\xedr=&gt;\x8f\xcf\xee\xd5\xdb\xf4;\xc3V\xbc\xf0Un.u\xf2]#\xc3t\x8f1\xd7\xcc\xa4}W\x8c\xdf\x05\xd2\x9f&gt;\x95\xe2\xaceY\'q\xcfG\xb7\xf1}\xefm\xe2\xfb\x16\xf8\xdeM\xf4\xc2\xba\xca\xd8\x024\xad!\xb5\xabQj\xce5\xf6"\xe5\xdd&lt;[=|&gt;\x8f\xb7\xce\xf4\xbe\x8f\x9b\xa5\xd3\xca\xa9\xaa^O\xa3\xb5\xe3\xfb\xfb\x1e_R\xb3\xa2\'\xadk\xed[m\\7\x1azg\xf4\xac\xba\x8a\xbb\xdd\x17\xe6\xc6\xf4|\xe6\xfa~v\xa7\xa3\xe4}{\xd1\xf2\xfd\xff\x00o6\x16o\x9d\x89\xc4\xf3{\xfcw\x93\xefey\xfe\xbdn~\xd2\x8fS\xa3Ok"\xf9Tr\xcc\xa8\xa1\xe8\xf3\xa2\xb1M\x8b\xe6\xbd\xe7\xcc\xe3\xa7K*\xc3\xac\xb9\x92\xa79}\x03\xd7\xf06\xba\xfc\xbc\xd6V\xad\xf4\x9c\xbbO\x9f\xd5\xe1z\xc6/^\x17/\x8d\xed\xe5E4\xd1Kv\x88b\xd0\xa6Wi\\\xd5\xd0\x10W\x16\x1by\xa4\x08\x04\x85\x86\xca\xcc-\xefm\x1e]\xb7\xb8}-\xae\x1d\xdd\xd3\x8e\xfdq\xd6`\x94\xcci\xeb\xe3{\xc7\x8b\xef\x1ew|\x9c\x8fu\xcbl\xb5\xb9\xd1qq4\xed\x92j\x19g\x97\xab\xe9^\x1f\xd2\xfb\x7f\'\xbb\xb9\xf4\xc3\xbb\xf3\xdd.\xa5\xc4\x83\xaa\xfb\xb5\\k\xee\'\xa2\xbf_\x14t\xf36\xfcv\xef\xe6\xeft\xf1z.\x9c\xb7\xeb\xcf~\xa1\x13\xd6\xa7/~\xaf\x9f\xe9ip\xf4Wt\xaf\x97F\x81\x1e\xc3\xf1\xfd&lt;\xe8\xf5dt\xdc:\xe1\x95\xdf\xe7o\xfb~\x07\xa2\xf5|}\x8e\x9e,\xfb\xcfe\xb3\xeb\xb5E\xbeQy\xcb\xccN_.\x9e_\x87\xbf\xce\xf9\xbe\xa6g/\xa8\x89\xf4\xd6\xce\xfb\xd1\xdb\x99Z\xa7&gt;\xbc\xf4/\x82o\x9a\xb6\x05$D\xec\xe5\xbdv\xa3\xb1\xef:\x1d~_\xd3\xfd?\x0b~\xa3?T\xea79w\x9f?\xab\xc5\xf5\xe5\xe7\xfa\xf1\xbb|t\xb7\x954\xd7E=\xd5\x95\x8a(S\x16\xd9\xb9\xcf\xd0\x9cU\x04ke\xa4\x00\x07\x0c\xc5\xa8&gt;V\xe7\xb6\xbf\x1fw\xb1\xe3\xeb%\x05\xf2\xf47\xc3_\x9d%\xb4\xcc\t\xeb\xe3;\xc7\x92\xef\x18{\xe7\xb2\x8fW\xcbL,\xe8\xd8\xb7\xcdu\xc5]\xca\x99\x9b\xde_w\xd4\xbc_\xa7\xf5\x9e_UI\xe9\xe7\xee\xb1zmN\xb0;)J/\x827\xcd^\xb8w_)u\xf07\xb7\x8ew\x85\xbb\xe1\xb7\\\xf5kts,eN\xf5\xd2\xc6\xcatj\xa1c\x95W9d\xf2\xfa&gt;c\xc5\xfaZ1\xeb\x1e\xbf?K\xbf\xca\xdf\xf4\xfc\x8fW\xdb\xc2\xeabN\xe1\xe6\xfa\xc3\xd0\xd2\xa3&lt;\xdb*e\x17*\xf3[\xa9\xb6\x0e\xd7\x8a\x8e\x99\\\xee\xbf?b\xb9\xfdZ\xd3\xec\x9c\xe9f;NPQ;\xcdi\x94\x8es^d\xb4\xeb{\xaf\x8fs\xbf\xc3\xfa\x0b\xc3\xab\x9e\x9a;Y\xbb\xcfO\x9fk\x9e\x7fW\x98\xeb\xcf\xcc\xf5\xe1f\xf8h\xef51(^\x80\xcb2P\xad\xc5n\xd5\xd9\xa3\xa6\x04U kI\xa4@\x07\r\xc5\xc8X\x95\xae]\xfd\'/\xa9\xeb9u\xa5\xd2U|}\x05\xf2\xd4\xe3\xd0\x1bD\xf3\xd3\xdb\xc6\xf7\xe7\xe4{E\r\xe5\xa9\x91\xbf\xcf ,\xa7\xcd\xbe.\xba)\xdf4V{\xef7\xbb\xe9~_\xbb\xa9\xe7\xf6\xe4o\\K\xe7\x97qZ\xf8\xa3x#x\x8f\xa3\xcc\xbe\x9c*W\x03\xaf-\x8c\xe0\xcd\xe6{\x87\xabC\x87\x97\x1b\xebk=gH\xd2\xb8i\x01\xcdgG4/\x17\x9f\xd5\xbf3\xe8\xbb\xf86:p\xa4\xac\xf5\xd7\x9d\xf3\x11\xb6W\xf58\xe9\xe0\x1d4\xef\x8eey\xf3\xaa\xb1LIQ\x9d\xa4,AH\xa77\xe1\xe7\xb5\x87z\xb1\xd6\x8c\xf4\xe7\xa1\xae\xd0)\xcdH\xbc\xe6h*\xe1sxo8{\x9d\xcd\r\xe9A\xd37V\xf9\xf7\xdc\xf3\xfa\xbcOX\xf3\xdd|\xd6\xef\xcb\xa3\xb2\xd0Z\xa4Pfy\x91\xb0\xaa\x9a}6\x94\xcaC Y\xc4\xb4\xdad\x12p\xe8\xbbp\xb1\x0b\xd1\xe9\xf6\xfc\xfd\xfa\xb1\xd36\xf8.\xe3\xd0\xd4is\xb9^r\xbc\xec\xdf\x8b\xef\x1e;\xaf2\xce[0\xd6\xc8I\xd9N\x9b\xb5\x16(\xab|\xef\\\xfdJ\x1e\xcf\x8f\xb49\xfb\xb1\xa9\x9b\xd2+W:{\xc3=\xc15\xc2{\xf2\xa7\x93K$\xb2\x18\xa0Rpz\x90G\x1b\xda\xfa\xcfX\xf6w\xcc5S6D\xb73#e\xce\xfe\xf4\xd4\xda\xbbL\xe9y\x9el\xb5\xd1\x97\x9e\x8a\xf5\xafO\xb6\xe3\xe9\xf8fv\xf6~\x9f\x1e\xb7O&amp;\x06\xeeQJs\x0f1\x98\xaaS\x10-^s2\xfa2u[w\x19t\x12\xa1\xea|\xe7\xa3\xc9K\x99E\xaf/Q^\xebz\xdb\xdd\xa4\x9c\xdd\xcb\\\xfdZ\xbc&gt;\x87\xce\xfaFG_.\xed\xf9w\xb7\x95\x90\x1bM\x18\xec\xaa\xdc\x8d\xe7J\xa6\x97M\xa32\xa0C$\x80Zm\x92\x08\x0c\xb9\x17v\x16\xa1\xb9\x1e\xafu\x1e\xb0\xe7\x99\xd7+\xb8\xdf\xb8\xd7\xe5\xdaW\x92\xaf9/\r\xdf\x9f\x95\xeb\x17\xf2vac%@\xe6\xd8\x9b\xb9\x16\xd4\xf5\xf3\xf5\xb7\xcf\xe95\xe6\xdd\xc5,\xf5eR\x95\xc5]\xcaY9\xbb\xc5(K\xa5\x0e{\x9b:\xae\x9a\xa4\xd1\x15\x94\xd3\xb0\x18\xb7\xafoS\xf6~\xdc\xfdU\xc5\x06U\x9bQ@\x06\xfaf\xecT\xe9\':^z7\xcd\xc5\xe4m"\x189[9\xeb\xdd\xf3\xfd\x1f\x91gk\x1e\xaf\x9f\xf5n\xfe\x1a\x8c\xceb2s\xf33L\xc1\x853;c5/U,\xca\t\xcc`\xe5!z\xce\x95yV\xe4\xa9#\xb6\xdc_o\xbb\xdfO\xd0s~g\xbe|\xbb\xe5o\x97\xb4x}O\x9du\xe7\x9d\xd3\xcd\xed:y}\xab\x95\xa6Ub2p\xd9\x98fld\\\xd0\xac\xceJE\x0fl\x00s`\xe2\x08,\x17\xe3\xa6\x84.\xc6\xfa\xc8\xf4\xfa\xde^\x8a9\x14z`\xd4\xefT\xebr\xf4\'o\x1d^{\'\xe7\xfdy\xe3u\xe7\xa5;\xaf#\xc0\x11\x98\xe9\xbbqv\x99r\xe3\xdbt\xe7\xf4\x0e\x9em\x07:L\xce^A\x96g\x99\xe2t\xa5P\x8c\xa75\x0b\xa8eV"\xb2Fa\xb0\xbb\xaf\xa0\xd4\xfd\x87\xaf?Ar\x8d\xcaqY\xe6y\xa9\xaf@k\xd4\xbc\xf3\xd1~v/\x0eY\xc5y\xacJ\xe7\xd1\xeb\xd8\xf2\xfd\x8f\x07=|\xf7o\x0f\xe8\x1fW\xce\xcerR\x1fYKw\xcej\xab\x04\xaey\xf4\x91X\xcefs)\x13\x1b\x7f5\xc3b\x934\x8d\x19u\x1b\x0fU\x89\xf7z\xeeW\x97\xdf\xc3\x91\xd3\xc6\xce^\xda\\~\xaf\x8e\xa8\xcc\xbf?\xbc\xe9\xc7\xe8\x89\xbe\x9a\xcej\x99\xf3\xc6A\x91q\x91\xb1\x96\xe7\x95|\xd4\'E\xb6\xa0\x03\xc4\x84\x13\x0c\xb2[\x8e\x97\xa6\xef\xf3\xbfW\x97\xea&lt;\xbe\xbc\xfb\x8a}\xf9\x99\xbei\xc7z\x0b\xc3W\x9a\xac\xf0\xd5\xc2\xbd\xf1\xd1\x8e\x9aZ\xb1:\xa3\xb3\nn\xc4]\xa6h\xdc{N\x9c\xfd\x87O5\xa753=^i\xb8\x05\x02\xa8\x1b\x8aTG[Q\xd0r\xe8c"\xa6\x9f^b?\x0f\x85\xbd{z\x8f\xaf\xf5\xe3\xe8.U\xb9\x9f\x15\x90U7\xf5\xbaj\xa5\x18\xf3qx\xb3tL\xc2\x94\xd6=s\\z\xb7&lt;\xbfc\xc2G\x7f;\xdf\xcd\xf6\xdfW\xcc\xf4O6z,Vy\xed\xdc\xfd-\x19\xec\xa6U \xa4\xdeg\x94b\x0b\x11\xba\x19\xb7J*FP\n\x9a\xbf9\xa3\xbe\x94q\xf7oD\xa3\xd9\xf3*u\xf3Y\xe3\xec\xb7\xc7\xe8`G|\xab\xe5\xef/\x8f\xb9KS\x9c\x8aI\xc0\xd6A\x93|\xf2\xb6("\x95\xf3\xad\xb8\x02uT\x02\xce\x08\x92\x14\xe6\xd9e\x88\xab\xd3z\x9c\xeb\xd1e\xfa\x1f/\xae\x8fH\xa9\xdb\x9d\x83\xd0\x17\xe3\xbeZ\xfc\xf2\xbc\xa5g\x99\xae\x13|l\xc5]\xdc\xd3\x8e\xb5\xb7\x00\t\xa3\x9as.T\xfa\xcb\x8fM~k\x9b\xc8\x13\x9c\xe9\xe6\x8f4R\xdc\x00\xb59Z\xbc\xbdV\xf9\xf7D\xdef\xe6]\xc5~\xbcx\xec&gt;q\xfa\xf6;\x1f\\\xeb\xe7\xf4W\x14\xf72&amp;\xb3JF\xbb=ct\xf33\xe7qgs\xb2\x97\xbb\x90U\x9d\xcb\xa9\xa3\x1d\xfd\x8f\x93\xec\xfc\xbe}8=\xf9\xfdG\xd5\xf3&gt;\xe7\xbe\nN~|\xcd\xdd\xc13v2Q@\xce\xdaV\x90f\xce\x16+\x96\xf3i\x8c\x18\xb753\xb5\xa2\xae\xe6\xf3\xd3_\x8f\xb3\xd08\xc7\xbb\xe5#\xa7\x1b|\xfd&gt;\x8b\xcf\xed\xab\xc3\xde[&gt;\xba\xf9\xed"\xa2r\xdc\xf2-\x88\xccff\xf4\x8a{\x08s\xa7QKr\xb0\x8a\xc52\x07H\x889nm\x86\xbar\xfc^\xf4W\xa0\xcb\xd3\xf3zh\xf4\x8a\x9db\xd1\xe8\x0bQ\xdf)^i^b\xf32\xb8M\xf1\xf7s\x9e\x99\x9e\x07\x8f\xae\x9d\xcaX\xa3\x82,\x1bl\xde\xde7\xbap\x8a\xe7\x99\x9d&lt;\xe9\x8b\xb9[\xa4vk1s\x97}\x9e&gt;\xa7r\xf4\xe7mf\xf5\x8a\xdb\xcck\x9f\x10\xc6\xa6\xc1\xea\x91\xf5^\x9c6\xbaF~\xcenm\x12\x84\xb4\xa5\xedM&amp;\xe5\xab(@&amp;@\x11\x94\xab\xa5\x08\x9fU\xe2\xfd\x17\xc93\xd1\x9f\xe8\x8fy\xdf\xe7~\x87\xbf\x9bQ\xc33:\xf9,\xdf&lt;y\xcd\x9f=\xb3\x9ef\xdc\x95\xce~s\x8c\xd3\xcdIaW\xda\x06\x86m\x88\xaa\xf0\\\xd1:\xe4;]\x8fV\x97o%o_\xcbJ\\\xe9\xee\xbc\xbfF\xe7\x9f\xdd\xaf\x8d\xe26rw\x9eB1\xad\x90\x9c\x84Q\xeb\xce\xbe\xc5dSM1\x02\xac: \xa3{\x1cK\x18\xa7.\xc6\xe6\x9c_\xab\x8b\xdf\x9a&gt;\x1d\xb3{\xf2\xa9\xb9h\xde.\xc7|\x83\xce\x18\x1d2\x95\xf1\xf5\x17\xc7\xe8\x99\x80\x8f\x99y\xbe\x85[\x9a\xecHa\x84[4w\x9d\xee\x9c:\xb9\xe5f\xe3\x95w\x13p\xb6\x96n\x8f/N\xb7\x1fQs\xf4dt\x8a\xd7\xce\xbdC3\x0c\xe6=6OJ\x8f\xa3t\xe1\xa1\xd23\xb6if\xd33g-\xce\xfb\xf3q\xb9\n\xcc\x12$\xc33\xe05\xdc"=G\x8b\xf4\x7f2\xce\xf8\xbe\x8f7\xbf\xeb\xe1\xfd\x01^\x01q\xcd\x9e\xde=^x\xc9\xd9\xa9\xb3L\xc6\xdc\xa2\x9a.t\xab"\x95\x02\x9a\xb1\x9a[\x9a\xca\xd5\xc3\xa1\x954\xd7o(\xed\xb7\x1e\x98\xed\xf2\xe9z\xfet\x96\x17\xf4\x1f/\xd0\xf4\x1e\x7f\xa3\xad\x9b\xaael\xe0\xef&lt;\x84dTgl\xd0sOX\xad\xb1I\x14\xd3\\N\xba\xb27M\x91\x1d\x0b6Ng)\x8b\xb1\xb9\xad\x17\xee"\xf5f\x91\xc3\xb6_~U\xb7\x93\xcd\xc6\xe8\xc7|\xb3\x04\xc3\xe9\x88\xbe\x1e\xde\xf8\xfb\\%\x1f)\xf3\xfd:\xf5)`\x0c\x08\xe1\x81\xec\xb6\xf8\xf5r\xa5\xb3D\x80nA\xab\xcd\xbd\xc7\xd1\xa9\xcb\xd8Q\xdf7\xa7*\xd7\xca\xae\xc3d\xe6\x91e/66}\xc7N\x17\xaf\x96MM&lt;Tm\x0c*^\xe0\xf7\xcd\xa5\x9b\x9cU\xd5\x16\xf9\xbc\xdc\x19\xdc\xfa\xbb\\\xef\xdf\xf8\x7fE\xe0\x1d|\xbf\xa7\xc5\xf5\x1a\xf2}\xe7|r\xe3\x8a\xeb\x93\x9d2\xd5A9)\xa2\xcc\xfc\xba\xed\x04\xd5\xa9\xcc\xa9\xa6TH\xec\x91\xda\xddd\xce\xcc\xee\x0e\xf6\xca\xce\xfe\x8e;\xd0\xf4\xfcJ\xbe\xaf\x11N\x9c\xd7\xb3\xe1\xef\xf7\x1e_\xa3\xb2\xa6\xedyFy\xac\xe7Y\xc9\x95\xcd\x15\xcf\x0e\xf8\xd0\xe99\xdb4\xd3Z\xa1\x1a\n\x1380\xa3\xb1\xce\xb8=7+\xb2\xdd\xb5\xb7\x15\xed\xb9\xdd\xb9\xba|\xef7\xb7:.-6\xcd)\xedL\xc22/+\xf4\xe1\xe9k\x8f\xd2\x08O\xc7\xb8}J\xe0T\xf0d\x92\x1e\x170\x17\x11|\xc7a\x02\xce\xad\x10\xb3,q\xbd\x18\xf6\xb2}9\xdb\x14\xaf\x85Z\xe4\xf8Y\xde\x8cSP\xf2\xee\xe7\xa7\xe9\xc1\xf7\xe7\xc7\xa8\xa5\xba\r\xa0T\xc6\xb9\xf6)]\xc53?YK\xf2\xd1y9Q\\\xf78\xfb}7\x87\xf4\x1f5\xeb&gt;k\xbf\x87\xeeY\xc7\xed5\xe6\xaa\x8c\x19\xdf=\x9dq\x97\x97\xbbE4\x11I+b\xcc\xee\xb3V\xe5m\xe9v\x044h\xa5\xc5uy\x17[\xafG\xa1\x8d\xc7\xf6|dz&lt;\x85\xcb\xa7s\x9d\xde~\xbf\xa0y\xbe\x8f\xaf\x8e\xf4\x97\xe4b\x038\x86p\xa5\xd7\x9e\x07~&gt;S\xb7\x0c\xde\x99V\xb1z\x1d\x88\xdc\x83\x898)\xb2\xcd!\xb9V"\xad\xc7K\xd9\xdb\xd4\xf1\xe9\xe88\xd4\xdfZW\x14.)9\x91\xaejOU\x19\x06/Nuo\x8bo\x8f\xd0\xb35\x0f\x95\xf9\xbe\xb2\xc0\xa9\x11\x81\x84vl\xc9W\xcc\xeel\xca\n[\x89\xa8\x0c\x10\xc8\xad\x0e~\x87O\xa2\x96\xb3\xef\x8a+\x8d\x88Z\xde\x92\xd2K\x0b{\x9b\xfd8\x1d\xf9\xf1\xaa+n\xa5\xb4\n\xb8a\xf5\x83\xe9\xa6i\x90dM\xf9\xd8\xbc\xd8\xa2\xac\xfaw\x0f\xa7\xe0\xbc\xff\x00w\xe7\xfe\x8f9W\x87\xef\xbc\xb8\xfd\x1a\xb9\xf9\x86\xf9|\xac\x9c\xcc\xf4\xd3\xe8\xa1x\x8c\x8ai\xa4V)\xdc\xa6\xa4\x9a\xc9?\x16@e\xc1\x87\x9a\xdd\xc8u\xd2\xcfN\xde\xf9\xf1\xbd_\x1f\xab\x8c\xe7Y\xce-\x8e\xbe\xc7\xcf\xf4&gt;\x91\xc7\xe83\x8c\xf9\x9c\xf3b_/5\xdb\x87\x9f\xf4q\xca\xb9\xabS\x17!\xae#0\x0e\xd0\xeb\x89\'6N#p\xa2\x9f\x17\xa3\xcf\xaf\xac\xe3\xe8\xf4\\{\x8dm;\x8aw\xce\xa7H\x8ci\x1a\\\xba\xcb3L\x9e\xf1R\xf8.\xf9/2\xb1\xa3\xe5\xfb\x02\x06\xcc\x04:h\xf6K\x07577Y\xb1\x14\xcc\xcc\x86gt\x85\x0b#6\xdc\xf4\xb1=R\xba\xd5\xcd[\xceXj&amp;\xcb8\xb7\xb3\xe8\xaf\x85\x8b\xe1\x8bQ\x9b\xbb[r\x83+`\xdb\xeb\x8f\xb9k/7\xcc\xe6\xe0\xcd\xd7\x9b8\xd0\x9b\xf5\xfc\xbe\xbf\xce\xb9\xfdo?\xe8\xf1{\xac\xf1}\x8b\x96v\xe7\x87\xd8\xf1w9u5\\\xd3Dn\xd6Mf+d\x90\xdd=LWf\x04\x9b\x9b\xae\xa6\xe1\x1a\xf35\xb5\xe7\xbe\x93\xad\xde\xdf?7\xbf\xc9\x9c\xc9\xae\xb2\xe33Z\xdeoO\xd2\xf8}\x08\xe3\xcb\xc4z&lt;\xfeG\xbcQ\xed\xca/\x9cIy\xb1r\x1a\x1208\x10u\x04\x11\xa88\x9d\x99\x9a)\xd2\xdd\xd6\xe7\xea\xf4\xfc\xbdz\xbc6\xa5s\xa9p\x8e\x9c\x96\\49\xf5f*j\x8f\xa3\x8dJ\xe5Z\xb9/4\x0b\x1eo\xb1\xcc\x14\x8b;6\xc4^\xa6\xc7\xa1FRr\xdd/\xe5\xfa\x0e}t9\xb2\xd9\x99\xd2P)\x89\xa9\'Ge\x86P5[*\xa8X\xc0\x88\x1c\x9fE\\\xb4/\x86%s\xc6n}\xc5\x1d\xe68k\xa3\x8fy9\xee\xe3\xa6\x0c\xd7\x9c\xde\x8c\xcb\xbf\x95\x1c\xfb2}\xb8S\xdd\x9b\xc3\xe8)\xf5\xd9\x9f(\xa9\xf3w\xd6\xefM\n\xe1\x94\xf3P\xaet\xeb\x00\x8d\x00\x8c\x9a\xb9\x03\x87.\xe6\x1f\x0b\x11\xd3gz7\x9e\xd5\xa7\x95\xedE\xc7\xd1\xa7S&gt;\xbf\x91R\xbc0\xa2\xc4\xb0\x9d=\x1f\x97\xa6\xd4z&lt;\xa21}~h\xb9\x90H\x16BA\x80\x00\xb0E\x9cp\'\x1cr\xf8#\x9c\x9b&gt;\x9d\xb8\xf4\xfaN\x16\x8a\x8a\xd7\x15\xab\x88\x96Y}\xd4\xc5\x15:\xf2\xaa\xe6\xb4\xa9k\'\xcd\xf58\xe0XY\xb6!\xebv=[\x9d\x8b\xe5\xe3]0W\x7f\x9fm(\xea&lt;\xecfKP\xca\x97\x8aY(w@V\xcdj\x84\x860\xe1\xd3\x9bNz\xb7\xc7"\xf9`\\\xe4\xf4\x9a\x8es\x83t\x95[\x9d\xfa4^\x9ct\xc1\xce\xc9_f\xb2t\xe3\xa7\xb9\xca\x9d\xed}\xd6\x9dW\xcf+\x86]\xfc\xcc\xbb\xf2\xe8W7g\x12\xda\xb3\xb5\xe4L\xed\xca\x95)\xad\x9c\xa3\xcb\'A\xcb\xbb\xce\xf4g\xa6\xe4\xf4\xb9\xc7s\xad\xe6\xfd\x03\xe7zu\xc2\x87\xa3\xe6v\xcc0\xd1\xd1\xb79t\xd9\xe6\xcf\xbe\xb4z\xc3\xaf\x9a\xb4\x80\x00\x00\x14\x83\x16(X \x90q\'\x1cr\xf8 \x90\xf9\xbb\x9c\xfa\xfa\x07H\xb9E\xf3\t\x9e\x0c\xb2\xde\x00\xafZ\xa75\xa5\x0bX\x1eo\xa0m\x95px~G\xa5G\xb6\xdev\xfas\xc2n\x0eV6mh\xec\xd9\xebo\x8fk\xf8\xb7\x94\r\xae\xd1\xddU\xe2\xb0\xbd\x9a\xb7\t\x0c`c3527v)\xd4\xf9\xdb\x8c&gt;\x9c\xa9\xef3\xca\xb0\xea\xfc\xbe\x98-jOks\xdf\xe8\x0e\xbb\xc9\xca\xce~k\x9d\xe9\xe5\xfa|\xf6P\xd9\xf9\xafO\x9d\xe8\xb7\xcf\xab\\\xcbyx\x91k\xc5\xa0\xb2\xbe&gt;\x89\xce\xbc\xe5M\x1fO,\xec\xdc\\\xac\xba2\xb5\xfc\xfb\xde\xe3\xe9\xf4\xb1\xd6\xf7-\xcf\xbex\x9e\xbe,\x98\x1a\xf2\xaf\xa7\x0eu\x94v\xc1s\xad\x9eT\xf4\xd0\xebvz\xc8b\x9e*\x95\xc0\x04\x14\xad\x80,\x12A\x04\x82N$\x85\x90\xf1\x8c\xb3+s\xba\x97\xd1\xf5\t\xa9\x89\x08!0@j2\xd6\x95\xa5-X&gt;\x7fq\x07\x96\xc1\x8cuE\x87=\xc4l\xd6s)\xb6\x86\xd6Y\x95\x95\x1c\xfb\xdf\x8b\xd0\xe7\xd6\xdct\x96\xf0\x15\x88jw\x13P\x80\xc6\x0c\'3Z\x1e\xaf\x9d\x9e\xef\x96\xef\xcf\xcf\xdf\x1a\x9b\xca\xec\xdd\xbc\xee\xdc\xbaO\'\x9e\xef\xe2GJnw\xdf\xce\xfe\xeb:\xfbY\xdfI\xcf\x98G\\n&gt;\xaf?~9\xf4|\xfaz\xf9\xea(t\x9c\xda\xc4\x95\xe8\x1aP\x9c\xd1h\xb3G7rwC+\x07g\x02\xba^\xe7\xea\xf6&lt;}\x17\xf8^?o67\xaf\xc55\xca\x11\xcd\xe6\xb4\xb2^/\x84 IX\xa8V+\x8b \x04\x83 Y\x04\x1c@\'\x10\x10\xd5\xd9,\x0e\x1eX,\x8c\x08\x9a,P\x02\x85\x0b\x92\x85\x8a@\x05\xe7\xf6\xc3O)\xec\xb1\xab\x1d9\xb5\xcc\x12\xba\xcb\x85\xd1\x93\xb5\xdbL\xc9\xaa\xa7\xce\xecGK\xb1\xd6\xd3\xad\x9c\xe8y\x8b\xd2\xb0\x002F\x04\x14\xee\xd7;\xf7\\\xefD\xc0\xed\xcf\xce^\x06e\xde[;\xb4\xef&lt;\xc7\x7f\x0e\x07o\x02\xaf\x03+\x9a\x0e\xad\x9e\xfa\xbc\xef\xdaOo\xa2\xf1\xbf)\xd3\xc1\xf3\xdfG\x9a\xde\xe0\xb9\x85]j\xb4\x150\x80\x05\xees\x00\r\xc5ML\xf4\xf43^\x87+\xc7k{\x9f\xa3k\x87l\x0e\xdel\xdfG\x83\xb6MO]\xe2\xf9hx\xa1\x05B\xb0\x81\x05qB\xc0\x01"\xc8\x16A\xc0\x90\x08C\x87\x96\x17d\xb0&lt;h\xe0\x82\x04\x1a(P\xb1b\x85\xc9b\xc5\xa0\x08\xe3\xebsNj\xc3,l\xd9\xed\xcd\xa9\x04\xa3r\xb8\xb2\xe4\xd5\xbcv\xe5z\xcc\xe9\xbc\xb9\xa0\x9e\xd6\xf3\xad\xec\xe9s7\xa7g7\x9b-\x9c\x16d\xee\xe8\xeb\xdc#\xe8&lt;\xf7s73k\x0e\x94\xe2\xabq\xdc\xc3\xc6\xf6\xf3\xf8\xefg\xce\xab\xd3\x9a\xabG1l\r\x90\x9d\xe8\xeb\xe93\xae\xbebzC\xbab\xf2M&amp;\xd9\xdd\xaeV\xc5|U\x13\xb8\x9d\xc4\x81\x14!t\x85N\xb7\x9fOc\xcf\xa2\xa3\xb5\x99\xaf?\xdf\xcc\xce\xbe{j\xd1]\xe6Za\x0b+\x95\x8a\xc5qbD\x89\x14(\x00\x18\xb6\t\x07\x1c@C\x0b\x03\x87\x966\xac\x16\x03\xc1\x84\x00\xb1`h\x05\x0b\x16\x009\x8b\x16BV*=,k\xe7\xad\xc7;;\x0f\xe9\xcaN\x00\x11\x05Qe\x9cZ\x92\x8a\xad\xcd\xcd\xa3K3w\xb3\xd1b.\xc4\xd3tk(\xa2\xe1;\xce\x9fJg\xd6o\x8f\xb2\xeb\x17\xba\xcdmg\xf3g\xce\xe3\xcd\xfc\xf5\x9f\x08\xed\xc3\x0b\xbf\x98\x05\x82@5!\x98q\xd3\xd5\xc6\x8antk\xe9\x82D\x08(\x95\x8a\xa2\x05\x00H@\x00&amp;Uq\x07\xa1\xe5\xdfor\xa7n:u\x96\xf3\\H\x91b\x8a\xe5b\xb8\xa1b\xc4\x89\x16,P"\xc18\xe0\xc7\x8f\x1e&lt;p\xe1\xb4paIb\xc0\x16,\x00\x00\x04\x01` E\x9c\x01R;KooM\x07;)eL\x92I\x02\xca\x85Q\x189Z\t\x88\xdc\xcc\xd5&amp;\x9b\xbd\xae}.\xc5[\xca\xb2\xea\xc8\xdb\xbe}\xf7\x9c\xba}\x0es\xdf\xf6\xe3\xbd\xde\'\xb4\x0e\xe3!9\xb9\x16\xf8\x9fn?\n\xbeh\xc9\x00@8\x8a\x90\xcc\xd1\x8e\xbe\xc7\x1aU,\xe8^\x17*\xc2\x84\x94\xca\xe5QB\x01\x04\x80\x83\x1aZ\xd3\xcbQ\xbb\xa4\xeeN\x96\x00\xb1B\xc5\x08+\x89\x10(P\xb1b\xc0\x16\x08\xa0\x82\x1eX\x1cX,\r\x180:H\xb0$\xb0E\x0b\x00\x81d\x02\x00\x00 \x018\xe36-\xed\xd1\xba\xd0e\x94\xb0\x90\x83 QT\xaaW\x11(-\xee\x96\xea\x8a,\xcf\')\xd1w\xe3\xb5\xe9\xe8\xfc\xab|\xf7\xd4sn1\xfdy\xb19\xe0\xab\xdb\xf1zl\xdf/\xe8\x9f\x8dz|\xd8\x9d9/5@iG\x1d\xb9\xa4\xcfm7\xab\x81\xac]\x97*\xd2@\x91"J\xa2E\x8a\x10\t\xc3\xcb\xc6\x96\xb4\xa9h\x9c\xc0\xc2\xe7W\xa5\x9c(P\xa1\x02D\n\x10(X\xa1D\x02\x00\x01\x8f\x1cX\x1eX\x1c4i$\t\xd0\x0b\x07\x0b\x04P\x07\x00\x08$\x00\x00\x08\x12\x01\x04\xab\x17sW\xe9|\xb001\x81\x90W+\x8a\x10 \xae p\xe21JY\x96\x86\xbe;\xdc\x8e\x979\xd5\xdc\xcbW\xcc\xef\x9a\x9c\x84\xad\xbb\r\xd3\xe2\xf5Q~S\xa2\x87n\x01\xd3\',@\xd0\xeb\x8fLz\x91\xa7\x0b\x12V\xc5\\V8\x80D\t\x10 H\xe2\xf1\xa4h\x16\xb5:\x000\xbc,\x00\x00\x16 \xae$P\x90\x04\n\x04X\xb0H8h\xf1\xe5\x82\xc0\xe1\xc3\x0e H\xa0\x05\x8a8Y\x02\xc08\x13\x808\x01g!d\x02\x00Qw5v\x96\x8b#G\r$\x80J\xe0\x15\xc4\x95J\x82\x06\x9602\xa6fYz|u\xd4\x8a\xd6\xdc\xd1\xb8f\xf3\\\xc2J\xfaV\xd30Y\xa9b\xf7;vT\x825\xbb\xafT[\x08\x80\x8a\xe5R\xae\x13\x88\x002\x04\x08+\x90[4\x0b\xc3N\x17\xa5\xe8\x00\xc0b\x01\x10$P\xb1 \x8a\x10,P\x02\xc0\x04!\x83G\x96\x0b\x03\xc6\x86H\xb0\x05\x0b\x14\x00\xa2\x08\x16\x08$\x02H$\x02,\x80Q\x00\x8b \xb3\x95|\xbb\xba\xe1\xa3\x86\x8d\x08\x92A\x00P\x92\xa1L\xac\xd4\x84;1e=\xca\x15\x8f\x9a\xdb</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495690-la-justicia-francesa-investiga-por-abuso-a-11-obispos-o-ex-o</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre Ríos: nuevas excavaciones para buscar a la familia Gill, desaparecida hace 20 años </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Con la participación del Equipo Argentino de Antropología Forense</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Este martes, la Justicia de Entre Ríos y el Equipo Argentino de Antropología Forense (EAAF) llevarán adelante nuevas excavaciones en una estancia de esa provincia para avanzar en la investigación y búsqueda de la familia Gill, integrada por una pareja y sus cuatro hijos, que desaparecieron en 2002 en un campo de Nogoyá. El objetivo es dar con el paradero de José Rubén "Mencho" Gill, un peón rural que tenía 56 años; su esposa Margarita Norma Gallegos, de 26; y sus hijos María Ofelia, de 12; Osvaldo José, de 9; Sofía Margarita, de 6; y Carlos Daniel, de 2. La estancia "La Candelaria", de alrededor de 500 hectáreas, se ubica en el pueblo de Crucecita Séptima, a 50 kilómetros de Paraná, y pertenecía a Alfonso Goette, quien murió en 2016 en un accidente automovilístico. En el lugar, vivía y trabajaba la familia desaparecida, y fue también allí donde desde 2019 y hasta mediados de octubre el EAAF, encabezado por el antropólogo Juan Nóbile, trabajó junto al Gobierno de Entre Ríos realizando excavaciones, que tuvieron resultados negativos.Esta vez los trabajos serán en "Campo del Abasto", más al sector norte y cercano a un camino vecinal, y contarán con maquinarias de la Dirección Provincial de Vialidad (DPV) y personal policial. El fiscal Federico Uriburu afirmó que "la investigación siempre se siguió", y remarcó que el dueño del campo "era una persona de temperamento muy fuerte, y muy temido”. Por eso, con su muerte, aparecieron nuevos testigos que "perdieron el miedo" para aportar datos, aunque "han pedido que conservemos su anonimato", agregó el fiscal.En 2017, uno testigo contó que el 14 de enero de 2002 había visto a Gill quejándose por los pozos que le había ordenado cavar el dueño del campo donde trabajaba. "Él dice que ese día vio a 'Mencho' Gill cavando pozos en el campo y que estaba enojado por ese trabajo", dijo.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x01\x04\x03\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x03\x04\x06\x07\x00\x01\x02\x08\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xb0\xbe\x83\xc0:\x1c\xa3\xb0\xc0\xc6`bX\xcd\x07jq\x18\x1b\r\x067\xa0\xc4\xb6\x18\x18=\x8633\xd5l\xf4m\xbf?D\xec6\x18-\x8b\x03A\x81\x81\x81\x8c\xdb04\x18\x18\x1b\'\x03A\xb0\xc0\xe006\x1a\x0c\r\x86\x83\x03A\xb0\xd0b01\x98\xccf\x83\x03l\xc4`\xb6\xd6\x06\x06\x0fI\xf2\x18\x18\xcd#\x03\x03\x03\x03i\xe84\xcd\x06\xc3\x90\xc6c0Z\x0c\x0c\x0eC\xb1\xe80\\\x86\xc3\x03A\x88\xc0\xc6h4=\x0ba\x81\xc0l6&lt;\x0c\x0cf%\x81\x88\xc0\xd3\x1eg\xd1\xb9X\x9fA\xb6`j\x96#i`b[\x16\x9b\xd8`i\xbc\x0c\r\xa3i\xe0`i\xac\x9b[\x1d\xd0\xdb\x9bml000\x9cF\xc3\x03\x03)\xe34\xd6\x06\x06\x83a\x92\xb01\xacF#\x19\x81\xb4\xf4\x1ak\x07\xb78\x8coC\xd0\xb6-\x06\x0bL\xc6`b6=\x06\x0bB\xd8``\xf04\x18\x18\x1c\x86\x063\x03h\xc0\xc4aX\xcd\x0bA\x83\xc6b\\3l\xd204=\x86\x0b\x03\x90\xc0\xc0\xdb9\r\x86\x07)\xe0\xb0Z\r\x86\x0f\x91\xf6\x1c\x86\x83\xa4l6&lt;\x17 \xf5k\xb1`c00y/A\xd5,\x0c\x93\x19\xa0\xda4\x1b\x16\xc7\xaa5/h\xc1\xe0\xb06\x878\xf55\xbc:\xd204,\r\x86\x99\xb0\xc0\xc0\xc0\xc0\xc1h6\x1a\r\x86\xa9`b2LF3\x03\x03A\xb0\xcaz\r\xa3\x03B\xc0\xc1``a8\x18\x1a\x0c\x1e\x83\xa0\xe406\x1a\x16\x06\x06\xc3\x03A\xa0\xc1r\x18&gt;\x83A\x81\xba9OA\xb4\xb009f3\x11\x81\xa0\xd8l8\x0c\r\x063\x03A\x81\x81\x88\xd0r\x1d\x07A\xc0h6\x1a\x0e\x9b\xe8{F\xd5h8\xa4\xf2v\xc4\xb1-\x8f\x03\x03\x03A\xb1l5/\x19\x94m\x9aGI``\xf1\x18\x18\xde\x0bA\xb0[\x1e\x84\xcc\xf9\xdb=\x86\xc5\xa0\xc0\xd3\xad\x8b\x03\xa0\xe4[\x0c\x17!\xd0b4\x1bf\xc3L\xe5\x18\x1a\x16\x83b\xd8m\x9bg!\x88\xc0\xc4`hz\x05\x11\xcbZ\x16\xc3C\xd30:\x0eCa\xa0\xe5N\xc5\x81\xb6b9\x0c\x0e\x83\x90\xc0\xd8h0zf\x15\x81\xa2v\x96\x83L\xdb8\r\x8fir\x1c\xb3a\xa0\xda6\x18\x18\x1c\x86\x06\xc3\x90\xe46&lt;\x0cf\x91\xa1l}7\xd2}\'\xa2\xb4\x8d4\xeeo\x05\x88\xc1\xe0\xf4\x1bf\x06\x0b\x05\x85`l00:\r\x06\x06\x06#a\x89i\xd6\xdc\xef-UM-q\xd0l01\x9a\x1e3Mt\x1a\x16\xc3\x11\xc0m\x1bK\x07\x94`bx\xd6\x99\xd2z\x17.06\xcc\x0cO\x03\x94`t\x18\x18\x1bG,\xe1\x9bF3\x03\x03l\xc0\xc0\xd0b\x9d\x86\x06\x92\xc4sF\x06\xc7\x81\x81\xa0\xc1`\xf0x,\x0cf\xc3\x94i\x9bg!\x81\x88\xd0i\x98\x1aGA\xa0\xc4\xb04\x8c\xa3a\xc8`\xf0|\x86\xc3\x11\xa1h:\x1fj\xf5/l\xe4X\xd3\xdc\xeb\x1b\xc0\xc1\xe807F\x06\x0bA\xb1\xe0l0006\x1a\r\x06#a\x88\xc1\xf7S\xc4S\x8c\xb4G\\q\xac\x0c\x0c\x0ckA\xbbx\x1aF\xd1\x81\xa4m\x18\x18\x18\xde\x06\'\x8dcX-\x06\x83\x03\x03\x03\x13\xc0\xd0l0\\\x91\x81\xb4i\x98\xde\x063L\xd0v\x8c\x0eC\x03\x19\x81\x81\x88\xc4h6\x19F\x06\x83\x91``\xfa\x1f"\xd0b6\x18\x8d\x06R\xc1\xe81\x1a\x0ck\x90\xda04=\x06\xc3A\x94b1\x18&lt;\x1e#\x03T`\xb6\x18\x8cOa\xb0\xe4\\P\xfa5\xd0````l06\x1b\x0c\r\x06\xc3\x03\x03A\xd0h01\x1bF\xd1\xa6n\x8df\xd5\xcbN5\xc7Mc6\x18\x18=\x06\xe8\xd8i\x1a\x16\x06\x06\x063\x07\xa1`m\x1bf\x06\x06\x06\x83A\xb1``l4\x1a\x16\x07"\xd0m\x9b\r\x8f\x03\x03B\xc0\xe5\x1b\x0c\x0c\r\x06\x06\x06\xa8\xd8e\x19&amp;\x91\x81\x81\x8c\xc0\xd0lz\r\x865\x81\xc26\x18\x8cF\x07!\x81\xa1``\xf4\x18\x1b\x0eCTt\x18&gt;\x13\xe9\x1c\xb3A\x8c\xc0\xc0\xd0l[F\x06\x83B\xe4oV\xd8\x1d\x06\x06\x83a\xa0\xe82M\x863L\xda6\x8d\x06\x07A\xa0\xd0`nN\x91\x94n\x96\xa0S-9\xd7\x1eE\xa4\xf6\xab\n\xd3Y\xa4\xed&lt;\r\x93\xb4\xb9O\x1b\xca4\xcd\x86\x89\xc0\xd8`````h{\x93A\x81\x81\xa6\xb1\x9b\x0eE\xb0\xe5\x1b\x0e\x83\x91\xe8X\x18\x18\x8c\r\x86\x83\x03a\x81\xa6``i\x98\x8c\x0cf\x06\x83A\x81\xb1\xe0j\x96\xd9\xa4jM\x86\xa4\xc0\xc0\xc0\xe5\xaeY\xb0\xc1\xe86\x1a\r\x07A\xa0\xd26\x1c\x06\xc3N\xb04N\x83C\xd8h1\xaeC`\xf2u\xc6t\x1b\x1e\x06\x06\x0b\x03rh06\x8cf\x83\xa0\xc0\xd8h06\x8cGA\xb6\xf6\xceR\xef=R\xd27I\xa6UL\xe3\xd4W\x8f\xbc\x93\x997\xa7\xe6H\xccq\xc7B\xc6h{\xa3p\xf4\x1bf\x0b\x03\x05\x88\xc0\xd0l:\x16\x06\x93\xca4\x18\x18&lt;\x0c\x17"\xc0\xec4\x1c\x0f\x19\x82\xc4\xb06\x1c\xd1\x89\xedN\x06\x06\x83\x07\x81\xcb6\x1a\x0c\r\x86\x99\xa0\xd0\xf0:\x0c\x0eZ\xc6jM\x87(\xda01\x9bF7\xa6h4\x1a\r\x8b\x90\xd8\xf6\x1c\x87(\xe8\\\x06\x06\xd9\x81\xc1;\r\x8f\x86\xf06&lt;\x1e4\xf3=p6\x18\x1a\x0c\x0c\x0e\x83\x13\xc0\xe4[F\xd9\xb0\xd8h4\x1b\r\x86\xc7\x81\x81\xb6c9\x99\xef\x1dx\rj\xaa\x0c\xba(&gt;N\xbb\x1f\x9b\xa8\x97/e\x8b\xd9\xc7&lt;\xf5\xbc\x0e\xearkL\xdd,\x8a\xe9e\xa6\xf7F\x0b\x03\x03\x11\x89\xe0\xb01\xad\x86\x06\x83\x1b\xc1\xe0\xb6\x18\x1a\x93\x03)\xe0r\x18\xcc\x17I``r\xccg#\xd4\xac\x16\x0fl\xc0\xc9004\x18\xcd3B\xc2p6\x9e\x83\x1b\xd8\xf4\x18\x1a\x0cF\x83\x19\x92c4\xcd\x86\x83A\xa0\xc0\xc1h4\xcd3\x07\xb0\xd0\xb0[\r\x0fA\xa1``r\x1a+c}\x9e\xba\x0c\x0c\r\x86\x06\x0f\xa0\xd201\x9bf\xc5\xb4i\x1c3\xa0\xe9&lt;\r#a\x88\xd3[\xa5\xa0\xd7&gt;\xcbM#G\x9fy{\xe3\xbc\x9d\xcao\xca_\x87\xd2\xb0\x8b\xb1\xbd\xef\x94\xef\xaf \xde\x97\x81\x0f\xf4\xfcGx\xeb6\xf1&gt;\x91\xcf\x1f~\x0b(\xd8`\xf0\xacY\xe1\\\xa8\xdb\xad\xd9\xb1r\x9e\xe4\xc0\xdb|\x8bmi\x195\x8c\xc6h1\x18\xcckb\xc0\xc0\xc0\xd0d\xea\xef-\xb72\xc7\xa3\x9ft\xb05&amp;\x83\x03A\x81\x8c\xe4\xa0\x0e\xe2\xf9\xd4\x9d\xa3\xf7\x9fb\xda9\x16\x0b\x91l\xaeC\xa0\xc4p\xcd\x0fa\xb6cY+A\x8c\xd0\xb9f7\x83\xd0\xf4-3\xa0\xd0\xb4\x18\x8cF\x07\x01\x83\xc6&gt;\xcf\\\x1e\x83\xa6\xf01\x98\x1bf\xe4\xc0\xd4\x1bf\xd9\xb4\xb5&amp;\xac\xc0\xd8\xf7&amp;\x06\xc3\x03\x03I\xeb-\x93\xcbV\x8a\xf4\xdb.^\xaao\xcd\xf5\xd5\x00#[\xaf\x8b\xd2\x9e\xdf\xceV]\x9c\xf5\xf7\xd0|\x85\x82\xfcX\xff\x00\xb7\xe6\xb7\xe2\xf4\xee\xff\x00\x92\xfb\xb7\x1c=\xdb\xd5\xf4,U\xc8\xb4\xceW\x14o\xd8\xf1\xc8ru\x96\xe5\xf5u7\x81\xd4\xbcf3\x05\xb6\xb09\x9a\xd0bX\x18\xccf\x0b\x19\xa0\xda9\x97\x859\xe5\xea3\xcd\xd5\x92\x05\xee\xe4m\xd1\xc9\xd4-Q\xa1\xe8z\x0c\x0c$\x1a\xdb\xca\xf9u\x8c\xcd\x91\xd2}]\xb7\x11z\x8d\xaa\xc6hZ\x16\xcb\xd0h2Lk\x19\xc8r\xcd\xb5\xb4\xb4\x18\xcd#rr\x18\xcd\x0b\x13\xd5\x1a\x0c\x16\x99\xd0`i.G\x83\xd2\x1f\xce\xfb\x1e\x06\x83\xb6`b02L\x0cf\xe8\xc6m\xadK\xd2X\x1d\x8f$\xc0\xd8`b8\x8d\x1b\xe1\xb8\xe9\xb241\x96\x9at\xaf\x17\xa6\xaf\'\xa5\x16\xdb\x19\xf7\xaf\xe2\xdd\xbay1\x1e\x7fD\x94\xc5\x7f\xdd\xc9\x03\xf5\xfe}\x0f\xb2\xf8\xcbK\xe7\xbe\xaa\xcc\xf9\x9f\xa1\xdb\xd7\xa5\x96\x15\xcbZsU\xfdW\xc45\xed\xf9.\xb0\xf4g^\x1f\xd9\xc8&lt;\xaf\xa5\xdd\xc7r\xb4\x8cF\xda\xc0\xd0bz\x0c\xa5\x88\xc4\xb0z\x0cf\x83\x19\x93z\xcbh/\x1f\xa19\xc3g\xf2\x89\xf4\xf3F{\xbc\xf5\xb4\xcb\x03J\xb9o\x11\x82\xc74LtT\x1c^\xa0\xe8\x11\xd6=?\xd3\xc9e\xeb\xc3\x8d\xe3ZkB\xdax=\x06\x91\x8cF\x1f\x12\xd7\xa3T\xb1\x9c\x07bk\x9d\x8f\x80\xb3LI`\xa9\xbch\xdedh\xc9\x0c\xd6\x89\xfe\xb3\xbb[lf.5\xcdb\xe5\xdb\x9d\xd1\x89\xe86\x9e\xd1\x81\xc34\xcd\xa3\xa0\xca4\x1a\xc4\xe87f5\xb9x\x1d\xb5\xa0\xc0\xc1\xe96\xb9l\xd66d\x91\x11\x80D\x1fYa\x96\xb5\x1e\x1dS\xfd2\xbe\xba\xb9*&gt;n\xf9\x87\'}\xb3\xc5\t]\xf9\xd7\xa7\x96\xab\xfd\'\xe0l\xb5\x97\xa1~O\xdd\xd3\xd7k=\x8fP\xf9\xbc\xfc\xcd\xf6\xbf\x18\xeb\xd7\xf1O\xf92\xff\x00\x8b\xdf\xb8\xfeg\xec\xf9\xcf]\xbc\xf0\xac\x16\xd2\xd8`m\x9a\r\xc9\xa1\xec9F\xdc\xf0=\x0f\xa0\xe6[\xcc\xfa\x10\xe6\xef-\x8bi$w\xaf\x8f\xbe\xbe7\x97=7\x8db1\x18\x8e)V\x18\xf4Q\xfew\xb9+\xe5\xf4\x14\xc8\xb4\xba\xf8\xa7\x9d\xff\x00;\xd7L\xf0&amp;90\xd3q\\\xda\xe3~\xc2!\x0c\x82;\xcc\xe3\xd92\x16Ll\x11o`\x82Q&lt;\xd8\xac\x893\x18436\xc6[\x85\xa7j\x9e\x89\xcd\xc2\xf7%Y\xb6C\xe1\xe66\xbc\x9e\xa2\xf79\xf65S\xc1+c\xcd\x16\n3\x9e\x8d\xe5I\xec\xe8\x00eUw59\x9a\xddM\x99\xd5\x07v\x95\x01\x9elD\x85hz\xe8\x1f?R\x92\xd9td\xc5\xcb\xa9z\x0f&lt;h\xa5J\xee\x18[\x99\t\x16\x03\x97X5vJ\xfc\xbfRi\xcd\xdf\x1f\xec\xe2\xf3\xc7\xd5\xfc\x9d\xe5\xe9x\xf7\x87\x91\xd9\xab\xae\xb3\x06\x8fe6\xba\xf3o\xb1\xe2\x17\xf6\xbeg\xd0\xff\x00-\xf6U\x87\xb3\xf36\xdf\xcf\xfd?yuj\xd6\xa9\xee\x16\xd4\xea\x96[\xc4\xf1\t#\xa0\xda{Q\x8dc\xbd\x0f\x05\xa9\xae\xb3u\xecty\xbaz\x1e\xe6\xee\xbe\xbf2\xd7\xea\xf3:\x8e\xd4y\xb5\xee\xccw\x88JE7\x86EyC\xce\xf6:\xf3\xfd[\x03\x93\xa2\xd1\xea\xe7\xb7\xbd\x1f\x9f\x8bur\xd0\xfc\xdaE|\xe696P\xf9+\x03\x967G$\xb5\x13\xb9\xa7F\x929\xa6\xac\x8b\x99\xa1vc#O&gt;\x1af\x9b\x86\xd1\x16\x02)\xad-Ik\xb7\xc5\x0ci`\x95\x92kT\xd5\x187A\x96\xb5\xb2\xd9,\xe2\x95\x96\xee\xdbI\x94$FZ\xb0\xda\xa4\xf7h{\xa4\xbet2i,[\xab\x8b\x13.\xf9\xff\x00\'\xadY\xf5do\xdd\xf0\xdek\x91$C0\xa8\x96u*\xce\xdcf\xd1MPp\xd2E\xc60\xef\x95\xf0z\x91\xca\xcf\xce?M\xf3\xb6+\xf3\xac\xef/awRF\x82\xa1\xce\xa3\xe74\xc7Z\x9bz&lt;\x13o_\xe5#}\\\xf6\x9f\xe7\x7f\xa9C\x0eG\xf3\x9az `cy\x92\xea\x92\x93H\x86\x808}h[\x16AYo\xdeH\xb9Y\x9a\xa9\x1a\x8aw\x11\xc7W=)\x9fvN\xd6w\xa5\xf9\xcd\xb3\xdb\xf2L9=\xc87\x95\xf6\xc0\xfc\xdf\xa0ui\xdc\xb6\xa3\xb7\xf7\x81\xfb*\xcb\x9b\xba\xb2\x9d\xec\xbb~\xaa\xdf\x88\xa6\x98\xb9\xce\xea~}&lt;\xd3\xc6\xba\xce\xf2#\xb9\x91[1:\x8aP\x90d\x843k\xe49W\xaaj^l\x0b\xdc\xda3*Ld\x88\xb6\x98\x14\x17I5i\xcc\xb7\x92\xd9h6\xd8v\r\xe4=\xc7\xbb\xe1\x12B\xa9\xb5\xd0\xea\xc7\x85\xb9M%M(ZP\xbb\x85t\x97c\x1c\x97*\x1f\xa0P&lt;\xa7\xca\x1d\x95$\xe7\xf5]r{P^\xdeX\'\xd0|\xdf\xa6\xf5\xc1)By5c\x8e\x8b\xbaH\x14B\xe1\xa9\x94A;\xa7\x18tV\xfdJ\xb2\xf5|\x92^{\x9ay\xd6\xd0\xa5\xe8\xb2\xfa\x8b\xbb\xa5&lt;\x9a\xf0\xe7_D\x17,\x0bz\\W^[\xc5~{\xde)\x87\x10\xe7\xc4/s\x91-\x90Pnq]\xb8\x1a\xd9)\xa5C\xbbd\xb4\x18V)\x07R\x0b\xd6\xc6v\xf0\x01\xf7~}\x87_+~?Js\xbf\xcc\xdb\xfe\x87\xe6\xfa\xdb\x8d|\xf4\xdf\x9f\xf4\xf4\xb7\xc7\xfe\xd4\xf7&gt;\xa3\x0b`q\x92\xa0\x9d\r*\x9c\xfb\x1c\xd7\x87Vr\xc1\x8bJV\xb5\x95r\xd5g\xc5\xaf\x9b\xf9X|\xe1\xfc\xe8\xdaam\x08\xfe\x80\x8a\x0e\xc8\xeb\x17!\xc9\x93w\x0b\xa6\xad\xc0]\x9b*g\xf2\x1f\xe2\x9e\xe6\xc3\xd5e\x1a\x17v\x90i$\x89@\xde\xc64\x9c\xa1Y-_+\xa4\x9d\x05 \x11#\xd6)T\xf9\xb7(w-67\xb05\'4\x86T\x0c %d\xae\x99\xae\xa5\xc4Wri\xdb+\xf5\x01\xcf\xb3\x04\xf4&lt;\xf8\xff\x00\xa9\xe4[\xc9J\xf1r\x0c\xe8Ft\xe6Z(Y\xae\xc3@\x90\t\x19D-\xd7\x92\xb7\x8c\x13\xc7\xc5\x9a\x1d\x82\xfa\x9e\x85\xf6\xf5\x92;S\x9c\xa7\xfac\xcb=X\xbc\xf4\xb2\xb2\xf9fU\xe1{m\xfck\x17~h\xb2\xca\xb9!\x9dqU\xa4"\'*\xfbmv\xd9\xb0\x8c\x91\xf5+D\xf3\x12\xe3\xbb8\'\xd4\xfc\x9c\x1b\xbb\x91\xefV\x13c\xc2\xb3z&gt;\x19K\xe3\xe7\x1e\xa6\xb5\xd8~\xb2\x86|O\xed\x19\xe5}V\x1a\x8e\xcb2ZH\x9c\xeb}X\xc9\xfd\xfe+\xaf]\x87\xce\x8c\x88i\xa25\xe6z1\x9f\x1f\xddc\xc95\x9d\xf9K\xaeF\x91)\x02\x94\xf8o\x81-\x15\xa9}\xbd\\\x94\x9b\xcd\x8d\xc7\x0c{\x14\xd5\n\x94\xb1\xa3\x84\xf9%U\x1c\t\x144k\x9d$U\xa5)\x10A\xae\x00}\x8d\x98\xe8\x1c9\x12\xc2\xb2\x11@\x11\xbc\xd8\xaa\xf7\x94\x04]\x12e1\xf6\x9aS\xdbN\xd1\xd2\x17\x94\xe2\x94\xaf\xaf\xd0\x80\xe1\xeb\xef\xa7\x9e\xcf\xdf\x89\x94\x1bH\xcbq\xe8f\x91\xc2\x1c\x87!\xb0h\x03\x1b:\xcdh\xa4za\x10\xe1\xc0dC\x1d\x03=e\xcd\xdd\xa9wK\xe5M\xfa2\xf2\xd7\xa1\xc4\x17\xaf\x99\x94\x92\xaf3\xd6\x9d|w\xd01\x8f)\xe3\xe3JB\x0bW\x13h\x8f\xb2\x8b\x17\xddZZ\ri\x91@\xa9Jd"j\x07\xd3T\x9f\xd7\xfc\x08\xda\xcac\xdd\xe1[\xbb\xfc\x13\xbd\xfcu\xe3\xa077\xb6\x0f=\xe7[q\x08\xf9\x0f\xd5\xd4\xf0~\xe9\xac\t9q\xa0\x97&lt;\xb7\xf5\xb9\'\x7fE\xc9&amp;\xbd(\x9a\xcd\xdaSGt\xaf\x89\xec+\xe1}%\xe3\xcfk\xbf&amp;\x15\x1c\x1c$\xd4E\x18*EI\xe2\x90\xd695*\xed\xfaM)$\x92\xaaxh\x83\xb4KM1\xcaxY\xa8\x1cJl\xd7I7%\r%\x88\xb5y\x13\x90`&gt;\xd0\x13c\x94\x97\x84@\x1fR\xab(q\xb3\x97\xa5\x12\x00\xa9\x1b\xa3p\xd4\x91\xc6\x95\x1c\xb4\x92s\x1bw\xa7\xad\xb7\x969;\xac\xde{Z\xf9\xa3\xda\xc4y\x93\xdb\xa4\xf3\x0c\xe69\x1bA2\x04\xc3m\xa1A\xb5%\x0bWLd:eFj\xa4WV&lt;l\x96\xdc\xfd\\\xdbQg\x94\xc6\xf7\xe5\xabw\xe5\x89\xd3\xa9\xf9}\x8bO\xe5\xbd\xf6+\x88_g\x80g\x04?+\x94`3V\xf2[\x98\xa5\xd5-M\xa3H\x89T\xcd\xe7\xbc~\xfab\xdd\xddU\x97\xb3\xf36W\x0f\x06\xfe\xcf\xf3\x89\x8f\xad\xf0\xfd,\xdbN\xac\xf3\xf5\xea\x1f\'\xf4)g\x81\xf5\xd7\x9f\xcf\xfd4V98\xcey\x04\xecs07\xe8\xf8\xa3\xde\xef$\xda\xea\x17\xd15\x9e\xa2X\xa9\xdf\x87\xedF&lt;\x7f\xa1\xceuqrq\x19\x8etH\x18\x12\x04\x87\xcbHz\xb4\xc1\xa1\x85\x16\x1b\t\xccmC\xe7O\x9b\xda\x1d\x14\xec\xa7C\xc0\xda\xb6T\x98,\xd9\x89\xcaK#\x9a;\xa7\xa7\xc1\x18\x94OV-\xa4t#\x88\x95\xe4(\x9c\x96\x13\x0bU\x0e\xc10!A\xbc\xd4#u,\xca\x9a\xc8\xc2\xd4{R\xc0\x97\xbe\xd7zz\xd5\xe4\x8e^\xbfF\xf9=\xf5\xbe\xb9E\xbbxa\xaed\x97VF-Lh\x80\xd3\x10 E\x83h\x8e\xd0|\x9b/:p\xce:3!\xa4\x8f\xc7\xaa\x05\xc3\xea\r\xf4|\xa9\xdf_%\xd0\xf1\x96c=\xb5\xde\xa8\x16/\xc5\xb3\xd8\xe7\xcc\xf5\xce\xd6A\xbd\xff\x00\x14\t\x91\xec\xe4\x97\x1bc\xc8\xcb\xe7Er`t\xcc^\xe9\xd52Y.sn"\xcc\x1bA\xef\xb6!\xd5\xc9`sy\xe4\xfe\xcb\xf2\xf9\xa7\xa7\xf0*\x83u\xa2\x85T\xbe\'\xea\xb3\xef\x90\xfdN\xde\xf1\xfdj\x8f\xd1\xf1H\xbe.\xbc\xe4\x8b\x81\xf6\x9e}\x0f=\x87\xecC\xf5\xa4O\xb3\x1ac\xbb\x01|=\xe0\xfew\xd6\x19\xcf\xd1g\xf9\x9c\xb6/&amp;"T\xf6Kvr\xd3P$&gt;$d\x824\xd9\x82\x0e\x17\xa6\x10f\xd39\x9b\x12\x1d\x82\x15M4\x1a\xb6\xd6\xe4\r\xcb\x90M\x8d\x82[\x95\xbcL\xee\x19\x03`\xee\x96G$N\x94$v\xb6n\xb5\xd8!dMCR$\xb4\xc0[?\x82\xcd\xc2\x18Y(#\x9a\xcc{R`\x94\xe7\xd8U\xb7\xa1T\x96zZ\x1ew\xa3}rvy\xd3\xa7\x86\x01\xd7\xcb"\xdb;\xdf\x9a\x83\xf3\xealm\x00S8\x10J\x90t\r\xd6m~]_GH\xed\xf2\xb9\xf7\xe6\xaa\xb8\xbd\x17\x1eo\xb3\t\xfa\x0f\x9c\xb2\xfa8\xee\x04\x16\xac\xdc\xd6cn#\xd9\xcf\x95\xf6\xe8\x0b\xc9\xdaB)\xa7\x7f\x07u-\x1c\xf1iLP\xc9\xb2.\xa4\xf5#\x18&lt;7\x15+\xc2\x8ac\xa0\xb8\xadF\x914\xa6]&gt;9\xaf\xa6\xfc\x8aG\xdb\xf1\xfd\xb9Pi\x1d0\x8f\x9e\xfd.m\xf3\x1f\xaeM|?r\xb8\xf6\xfc\x88\x7f\xa3\xe4N\xbey\xc6\xb1\x86\x1d9\xdc?E\x12\xde\xe6NQgU)\xa7\x9c\xfc\xafM\x87\x9eO|\xfeB\x19\xe6&gt;!\xe4\xd7v2\xd14\x0e\xd2Q\'\xe9\x88\x97\xd5\x8a#\xa6\xb1\xbe[\x1f!|\xc5\x18\x93\x19[:\x1c\x8a9Mv4bT#c\x11bwW\x06\x88\xa1\xb6\xa4\xbf\x028$um%\x0b\xd4p\x1c\x12\xb5\xcc\x03\xa1\x05\xa2c\x9b\x95\xa1\x1c\xa9\xdc\x83\xaaGj4\xddL~\x82|\xeb\xd7,f\x9dq\xf6\xfa\x87\xc8\xf5,~=|\xbf\xe9qE\xbd/:\xe6\xc0\x8esnVB\xcd\xc7\x99\xd3C\xdc\x87j\xbc\xdc\x96rk&amp;\xc7\xb8\xb7W5\xb3\xb7\x1c\x0f&gt;\x80\x1eW\xb8b\xe6[\xed|\xe5\x89\xaen.1\xc0m#j|\xab\xd0\xda\x15\xday\xa6Y\x0f\xa4\xdcQ\xdeT\xf7=$\xf3\xa0\xfc\xadid\xa4+\x14\xb4&gt;%\xb1M6\x0er\xef\xbf\xe5\x0c}\'\xe4\x8fz&lt;\x07\x04\xe1|&gt;\x86\x1f9\xf7\xfc|w\xed2^\x1f^\x0b\xf4^\x13\xafC\x89o1A\xfc\xec^t\xc5\xb1\xf4yO\xdd\x14z8W\xe5\xdc:\xaa\xcf?\xb2\xc3\xf3\xf8A\xf3\xf34a,\x84\xa0\'\xa1\x1c\xb1d-\x02R\x8c\xb6\xd6\xe97KH\x8c%\x95\xf4J\x92\xc3HB\x97,x1\x80xn\xd89\x01\x98\xb5\x1d\xe8\x0fc\xb93\x12p\x07(m\x83\x10\xea\x0f\xb0\xee\x0bG2A%\\\xe5\x8e\x8b]\x06\xe9\x11\xc5\x10L\x15\x92&amp;\x0c\xcc\xe1\x91\xde\xe5V}\x0ev\x0f~L3\xa8\x16ZJ&lt;\xcfK\xd4\xbe\x17\xae\xf7H\xa6&gt;\x83\xc7{\x18\xc59\xb6+.O#\xc9!\xf6\xd7s\x1a\xa5\t\xd8\xdcZ\xfc\xfdr=\xf1\xba\xeb\x10n\x00\xe5\xd3#\xf3={i\xf3\x1e\xf6|q=\\\xafdg\xa8\xf2W\x93u\xb0\xd5\x04\xe5\xbd\xce\xdfC\xee\\_I\xe6\x94\x8b:{\x8e\x8f3\xa2\x92\xf0\x98\x99LJ\x98&amp;\xfa\x97Ny\xd38\xe7\xa5\xf2\xf2\xefo\xf2\xa5\xb4\xf0\xdf\x98\xf2_\x06\xe1\xbes\xef\xd5\xf8\x8f\xdcS\xd9U^\xc7\x85d\xf4\x11\x89\x98\x97\x0eew=\t\xed\xe7`\xc3%v*J3=*\x08\xd2C\xe0\xf37\xe2\xa7\x16\x10h\x08\x04\t\x96glc-\xe4\xae-\xc4\xb4\xa3\x02c!Yj\xcd\xbb\x99)\x0eM*#I\xdb\x1d\x0e&amp;9+Q\x10\x91\xd1\x1d\x05\x98&amp;\x82\xccL\'\x98(\x9bCv\xab\x7f\x9e\xc0\xea\xab\x8d\xa6K\x9dKq\xbeI\x7f4\\U\x0fQ\x1c\xdaHc\x07\xe1B\xba\x1a\xda\x8e\xf1\n!mH\x07\xb7\x89\x1fO"\x13B\x15\x1b\x8d^y\x1e\xbf\xa0\xbc?b\xb6\xee\xf3\x87z\x1e\\:5\x88m\x94y;*.B\x81B\x89\x14\x1fT\xd5\xa2\x99t\x1dy\xdanLI\x12\xa5\xae~\xeb\x9f\xc6\xf5f\x1d^q_\xa4\xf1\xdf\xe3\x02\xf73=&lt;\xdeS\xa48\xca\xb8\x07\xf2\x82H\'I\x8aj\xa5\xe8\x94\xe1\xa3\x95q\x9a\x80\xa0\x88\x8f\x00&amp;+b\xf9\xc0\xbdI\x97\xa9\xf0c=\xaf\x86%~Y\xbb\xe0p\xb9\x9de\xa4+\xe5\xff\x00e5\xf2\xff\x00\xabT\xdd&gt;O]\x1e{\xa1\xc6\xf3Ns\xcd\xf7d\xde\xfe\xec\xda\x89\xc4#k;&amp;\x95G\x96}^a\xbf,\xe7\xdf=\xdbNo\x9c\xaeX\xd9\x08\x01\x90\x8a\x0eR\xa81@n\x18\xe8\xe5\x19\xa4`\x94\xa2+g\x03t\x86\x81\xd4\x9a\xb1\xe5\x11\x17KR\x87\xb96\xd1$\xcb\xe2\xdfC\x84\xe8\x16\xd9\x08\xb0\xf4\x83\xd0k6\x16\xdb\x97.\x12{N9cd\xe6\x194\x19\x94\x00\xa87\x00\x9a\x18j\x01\t\x0c\x8d\xec\xdf\xb3\x96\xbd&lt;\xdf\xcb\x1c\x9b\xca\x93\\\xdd2\x0f\x0b\xda\xb7\xbc\xee\xe6\x9b\xf2\xd1~\x9f\x9f\x18\xe8\xc4\x89 \x07c\xa7\x184#\x96\xec\xa1\xd7\xba\xc9L\xf5\x98\xbc/t\x1cN&lt;\xd8\xd8\xa6\\\x1e\x91{\x9b\xa7\xdb\xf16\xf2N\xb4s\x95y\xc2RQF\x9e\x9d\xa6)\'\xa1\x03s\xd5\xa9q2\xac4\x85\x94\xca\xb3\x1c\xea@\'\x8c\x0fR\x85\xc2\xf9\xa9\xb6\x85{\xe8|y?G\xe3\x1e\xef\xe0\xb8\xdb\'\xdc\xbe\xab\x0e?\xa0C\xe7\xff\x00I\x89x\xfe\xd5u\xd9\xe3\xd8)C\xa5M1\x98z\x95=\x08\x9c\xfd&amp;v\xf4iag\xa1\x9co\xb7\x9b\r3\xf2\xdf\x9a\x9a\xfc\xe7T\xdd\x10e2j \x9a\x12 \x8c\xcb&amp;0,iY\xbav\xfeY\xfc\xcd\x00\x9d\x88\x82%\x10:\xcc\x94gj\xe9t\xb7nk\xb59\xcc\x89\xb4\x88w\x98i1\x19;\nUo\xb2[\xae\x98\xe4H\xa2E\xb0V\x8e|\x11X\r\xd0\x0e\x87\xcd9\x00\x89\xa8\x9cf\x92\xf6\xba\xa0E\xb9.L\xc6`\xcaKz\xf9u\xeaf\xe2A.\xcc\xb9,\xd2\x18\xf40\xf1\xfd^y\xf5\x9b\xf6s\xd50K\xaatL\xe9-EV1\xac\x1e\xdb\xadi\xd6uy&lt;\x8e\xca8\x99\x18 \xf4\xab\xcdmK\x9b\xd5\xf2\x82\xd1\x1e\x1c\xa2\x9dV\xe3\xcf\x88\xb0\xb3\xab&amp;u\x8dH@\x14\x11\xa7#\x04\x92\xadTa!\x15\x1cd}\x9d\xd1\xe8\xaaS\xec\x95n\x9d_Dk^y\x06\xbc \xf1\xeb\xb1\xfc\xefe\xcf7W\x9b\xb7\xf3#9r\xcf\xf92^T\x07\xa9\x06\xd9&gt;\xc5&gt;\xd4\x94{\xaaG\xa6\xd3\x8e{5\x12N\x9dm\xce1\xf3\xe2\xb7\xe4&amp;pF\xe4&amp;\xe6\x17\xd4\xd8\x0c\xf8\xfb\xcc\xda]T\x98\xcd\xc6\xe9\x82\xb1\xf5\x0c`x\x07\xa4\x94f\xe2\xca\xe6\x17U\x1fFr\xe1\x07\x86\xf0A%\xb3\xd1\xf1\xb3\xcc\x89V(t\xa9\x8c\xb6\xd6?\xb4\xdd\x02\xad\x96\xa2$\xd2m\x8f\t1 \x11\xb1\xc94b\x04rTtr\x98\xa0!\x12\xb0\xe5\'&gt;\x86B}\\\xa7)7t\xd0\x08!\xdd\xc1\xac7\xd7\x9d\xd5i\xc6\x90\xcc\xad\x9dD\x8a\x85\x15\x07Z\x84w\x04\xd7(\xb3\xb9\x1e:]\x8b1\xa8\x95\xcd\x14\x92&gt;\xd5K\xd5\xcda^wg7Gu\\\xac\x89\xa5\x11\xd1RoX+\x14e\x812&gt;\x92\xc2X\x990\x87\x03\xe6\x0bI\xea\xa0\r\xf6\xd1vzJ\x8c\x95_\xcdQ\xb9\xdbY\xd7\xbb\x9b\xcf\x93xq\xadK\xb7%o&lt;\x1da\x9c\xdf\x9ac\xc3\xefP%\x89\xc9*\x86\x0b\xd5\xa9\x86\xdbZX\\rQ`\x0f\x9cW\x1efO.bm\xcd\xe0)2&amp;\xd0\xfd\x1csJv4\xe9\x8f\x14\xb7\x98\x91d\x99\xdb\x88\x13a\xc1\x18\xb1\xbbk&amp;_\'\'\xc6\xa2;\x91\x8e\x91\xda\x1a\xb9y\x0c\x07[mc\xdc\t\xa78?1\x97B\x91\xa4\x17Ch~\xdd\x8b\x89\x10\xd9W,j\xc2!\xd2,\xaes\xba*\x9d\xc9&gt;Hf\x8d\xf5\xb6\xcd\x86\xb14\xbb\xe8\x87&gt;\xc6s\xed\xb2\xe4\x80\xa5\xb7\xce\xd9\xbb\x98D\xcf\xbc\xde\xb9\x96:\xc4\xd2\x85\xd9m\xe5K\xcd\x91hk~y\xb25\xa6\xbe\x83\xc5\xc8sQ\x95o\x98\xf0m\xa6B\xdev}\xe6K;\xaf\xb4C\x89\xb6\xaa\\\xe7T^]\x8d\xa8\x0f\xb7&lt;\x96\xf1\r\xac\x8f\x07A \x97\x02\x0btp\xf4"\x89\xc3U\x80\xbd*\xd5\x92\xc6!\x0fO\xcd\xd9o,\xca\xfc\xcb\xd5\x8f\xa3\xb95\xb9\xf3\xb1j&lt;c&gt;x\xa9\x89\xcf:qj\x13\xb3\xe5\x8f$!n%\xea;7=\xed\xeco\xa9!D\xc7&lt;\xdc\x03\xf1\xcbN\xa1\xca\x1d\xd9\x1b\xe8R\xcc\xe9|\x1dS\xde\x88\x8c\xc6\x0cm\x8d\xa5Y\\\xe8\r\x88\xea\xa1\xc10\xc8[2?\xd1e\xb2\xb3\x988\xb7ZCv\xf3\x9aq\x0b\xc0?c\x96\xf6\xc1\xa98\x98y\xd0\xd7\xc8"\x82L\x80jN\xf9\xc1\xd6\xdd!\xd8\x80\xa1Y-\xfeb\x13\xb2\x03\xb9\xcc\x02\xa91\xa0N\xaeB\x0f3!}1(\xf6!\xefVS\xdd\xb0\x8e\xaa\xab\xf0\xeb\x0f\x95H&amp;m\xae\x1e\x8bg\x1d\xd8\xa9\xa1h\xf4^U\xd4\xd6\x81P\xa7\xf4Q\xbd4\xb9\xe5\x96\xc6\x89\x17\xb0\x05bi\xedg$\xa9pE\'\xa4\xdf\xb2I\x907;\xa4\xf0\xeb\xd1c\xba9\xe3\xdb\xf2\x98\xd2f%T\xe1/GR\x88\xbaf\x8a\xdd)H\xa5\xf5&gt;\xae\xa1\xe8\'+N\xbcu\x86\xe5\xf3\xd2\xa8\xe9\xcaA\x85\xfa\x1f\x9fP\xf9\xe5\xe5\xc5\xc0@\xcce\x02A;id&gt;\x13\x7fA\x82\xedv\xce:\xda\x98l\xeeGS\x9d\x15\xe7s\xf1\xc8\xa3\xdd.\xcc\xcc\x08\x10\x1e\xc2Y\x16C\x8e\x9e\xec\xa3@w43\xa13\xd9q\x92"\x83rw-\xe0\xb5\x89\x1e\xdbD\xe1\x94\x08\xe7B\xd2,\xae\x17Q\xf4\xb7\xf2\xda\xea\xe4\x81\x05\xd6M\xa9\xe8\x06t\xc3Y-&lt;\xc0\x81]\xf4\x13|\x01\xb65\x83y\x16\xa0@\xe4\x93C\x89t\r\xb7c%\x17\xcaI\xa25A\x90o!w\x03\xbd\x8c\xe2\xde\xac\xd9z\xe5\x1aUY\xf3u!53\xe5\x99\xef\x06\xd6\r\xee\xb6\x93\x03\x87bC\x88M\x11d\xc1\xba\xe7L\xec*\xa7\x11@&amp;\xcbE:\x96\xdd\xb1\xea\xda\x13/\xd3\x16u0\xb6\xee\x9c\\\x96\xa5\x92\xaf7\xe7\xbbr\xe3\xbar\xc95\xc9=*\xca\x08\xd0A\x11$B!\xd2P\x8a"\xdaO\xa6\\\xfarD\xc1\xeaM\xd3\xf3\xc6=Q\x9c4\xa9\xf7\xcaP\x17\'?As/*?&lt;|f\xc4\x05\x82M\x95@]QOA\xc7\xf7v&amp;\x16G\x1a\xb2$z/2q`w$7;\x9cb\xc0\xd9#\x11|&amp;W\x15\x19\x12\xd2#m\xb6\xce\x07\xd0\x8f\xca\x9a\xe2As\xa7\x9a\x80v$Y"\xd9\\\xdf\x10m6:\xa8\xe5\x8c\xf2\xd36JgQ\xfe\xaa%\xcc\x8b\xd6p;D\xd9\x17\xf426\x9fpJp\x03\x81\xac\x00\x1bH\xbbr\x0c\xd8\x9dN$\x9ar\xb9l*\xef\xb0\x1a\xce\x10\x0e\xc4\xd9(\x87"\xcd\x12\x89\x88\xfb9F\xbd\xe8\n\x05UC\xb9\xf7VT\x87\xcfv\x97\x1d\x8a\xdf{?B\xb3\x82\xcb\xc8-\x95&gt;n\x15\xb1\x08\xda/\x89\xd5\x86V\x17;s\x95\x8a\x9d9\xb9Ll\xef+-\xe0\xbd\x10\xa2\xad\x10\x94^x\x9f\x9d\xb3\xde\t\xa5O/\x9d\xed\xca\xce$\x01\xd0E\x02-4\x1aI\r\x0c\xa9\x08\xa2\xe8jv\xa6\xc3A\xbaB\xe5\xd3\xfc\xbdI\xf3mTtd\xcbH\xb1\xf9\xbaIV^G|nq\xc8\x86pk6\x9e\xc5}\xd2we\xaf\xd4R\xdb;{\x1b-5.\x12\xb8\xaaK\xce\xc2\xc0\xc95\xc3i\xb2 \x95+\n;h\xc8\x05\x95f\xe5u\x17S\xb81\x18s\xa9\x05*\xb7e,\xe7`\xf5\x02u\xd8\x05\xa5\xa5\xc1R\x138\x9e\xe3\xa2\xdfyz+\xc7\xb4k\xda\xc0[Vnv\xc7;\x15\xd1\x15\'^v\xc6\'\x9c&gt;\x87\x99h\xa3\xb8\xb9\x16\x04\xb2\x00\x02\xe7b+nO\xc6M\xf2\x08J\xa9\xf7O\xd1:\xcd\x96\xd0\x07U_Y\x9a\xce\xf9\xd4\xf3\x9e\xa0\x9dK~\xa6m\xfd\xcc\xa1\xeee\xc9\xc4\xf2\xb61v/\x9fI\xf3P\x9e\x8d\xbd\x0e\x8a\x1aCh\x96\xe5V\\\xb8\x15\xd4\x0fh\xde{I\xf2\xa0\x8d9\xaaQ\x8f\xd3[;d\xe2\xe1X\x1f\x97\x0b.R\xc9\xde\xb9\x92O\xccs\xb4b\xe2\xc0R9\xc8\xca\t\x84&lt;\x1f\x83\xd9\xae\x9a)\xacW\xf7-PnJ\xf1\xa0\xf4X\xf4\xa4r\xd7\xe5\xde\xd9\xe6\xe8\xac\xf6\xcc\x16\x91\xe8Nn\x97U\x97\x92\xdf\x1c\x0eT\xab\x085\xcb\x02\xfaX\x1e\xa4\xf7F\xa7R\x87j\xfd/\x85\x88\x9a&gt;\x0c\xf0\xce\x1d\xe7\xe6\x9a|e\xaf2X\xf8\xc8\xf4\xaa\xbe\xf0\x1e\xc5\xbb\xc2\xa5\x9c\x17\x19\xe9\xb7\x19\x12\xd9*\x0e\xd0\x8e\xa8\x9f*9\xa1\x02\xcbR1\xackv\xa6\xf8F:s\xb38\xc9\x8f\x8b\xbaYt\x82\xdc!\x16\xf0\xb1`\x1f\xbb\x08\x7f\x7f&lt;\xef\x99y\xff\x00\xe9yQtB\x0e!\x11\xcd\x8f\xb0\xaa8\x91\x08\x0c\xf3\x16/ \x07\xa8,\x90$\x99\xd8\x0f\xa6\xdf\xe2K\xb0V~EW\xd0\xd4\xaa\x1f\xdd\x8cW\xe80\x03h\xd1=\xe3qi\xdc\xf7\x03W\x9a\x9eu]\x83\x9b\x81"?N\xfc\xcd\x9b\xcd\xd7\xd4B\xf4Q\x87^\x8c\xc2\xe9\xfbY\xa0Nd \xd6T\xe1\x1e\x96\xcd\x16\xcd\xc1\xca\x90:\xb0+"#\xa1gm\xe7\xa22(\xc7Y\xb7-\xa0\n\x15\xc2\x11\xdb\x18\xcf_,\xbd\xe3Z+\x97I#\x95\\\xecZ`\x0b:\x19\x85\x8d\xcf\xa4&amp;\xf9\xc75\x8b\xd7\x9f\xa4\xd4\xe7\xe6\x1a\xe6\x072w&lt;\xe5\xb8f\x84\xba\xfb\xb0%\xa0\xff\x00\xa8\x81\xdd\\9\xb9\x0c\xd9\xe0\xde9E\xf8s\x8deg\xb3\xd5l\xad\xce\x11`s\x00\t\xeb\\\xe3\x9bQy\xb8\xc7}\xcb4\xd1\x91m7]X\x95GlW+\xc9B\xf5\x954\x84\x93{\x94\xe65\x1c\xd3Y\x0cJ\x12\xcf\xf9\xb4\x07\xa4\x8f\x19\xf4ede^r\xfaL\x00\xa4b(t[\x99E\xb3\x9b\'\x12)Fl\x0e\x90\x870\xcbA+9hE3\xa9\xb9\xc4\x90\xe6\xe0}\x04\xaa\x10z\xa7}Y\xc1\xfd\x8cy\xd9&lt;\xb83\x04O=\x89\xf0U\x89\xc1u\xefc\x90iR\x1c\xd8\x14\xfd#\x853\n\x03E\r\xe9\x99\x06:\xfb[\xce\xda\xa2\xe8|Z=\x9a*L3i\x8c\xddX\xf2\xc5$\xc9\x04GhLHa\xd2S\xb0,\xf5Q\x8dS\x7fi\x06\x8c\x82\x08RF\xb5\x9do\xd7\xcf\xc1$\xeae\x957\x14;"\x9fi\xf9\xc2\x14K\x1a\xb32\xe9\xab\xb7\xce\xb4\xd6-\x9en\xbb\x0b2\xa5Y\xe4\xc4\x1ac\xbb\xcc\x976l-F{\xc6\x9d\x89\x9d\xb96NE\x17k\xc0\x1e3\r\xe4d[\x86\xe53M\x13\x8f\xab\x9e\xf3\xd4;\xa38Odt^z\x9a\xf5\xd5I\xb1\xe3q\xfa\x98[\x04\x83f\xb6\x1b\x17mbk1yK\x1a\xb7T\xe1fYi-\x96s))\x92\x13\x13\x1f\x8a\xaa=\x8e5f\\K\x93ao\xe4_9"\xa7I\n\xb4\xe8\xb1X\xb9\xa4\xd5]\xd6\xca\xe7.\x12\x90\xc1\x12\xa1\xdd\x0f\x9b)\xce\xe3\x1dU\x1b\xe8\x81^\xa6n\xf4K^R\xc71\xecl\x97\x9d\xd12\xe3\xba\xff\x00\xad#\xadZH\'\xcfw\x06n\x1e\xca\xf7|\xeb\xcd\xa3\xd4|]vG\x1fE?\xdb\x80\xa1ZNkn\x9c\xaa\x9d \xb9V\xa76\xceb\xa1\xfa\xc1\xd2o\xac5\x1d\x99\x12\xcf`9k\xa0\xe1\x9c\x15\x8cj\xdbt\x95J!\xa6\x00u\xce\xf8\xde*\x8e\xbei.\x98\xd8\xd8\xed]\xf1o\x1a\xf3\xac\xe2..\xa2\x0b;\x8b\xe8\x8f&gt;m\x8f\xa19;%\xb9\xd79SlRXc\r\xbej\x7f\xb3\x19\x83q^\xc2!\xd9\x03\xe8\xb9p\xb2p\xe6\xb9\xb6\xdc\xca#\xe2\x93&lt;\xe0np\x9e\xc0\x9cl\xd3p\xfe\x96\x1b\xa5\xcfs\xd2\xa0\xf6\xa7:\x86\xad\x16\x96\xee\x9e\x81\xfbb$E6\xf4\x9b14",\x14\x92v\x1d-!\x1ft\xdb9\x91&amp;FGt\x98\x13\xe7\xfe\x8elrF\xa4\xf5L\xb7L\xc9m\x89[\xc9!=\x86\xcf\x0b\x84\xe7\xa4\xc3\x9bXli`qh\xcf=#\xf5bv,nX\xa8\xba\x07\xb71\x8d\x8d\xe8\x83zP\xa5\x8b\xdev\xb7F\x01\xf94\xb4&gt;{\xd1\x93\xd5y\xdf\xbb\x08\xbe\xf3nE\xcb\xb8\xaei\x15\x1a\xa25\xac\n\xa7\xec\xfem\xa1*\x82i\x98\x06\xa3\xfb/=vc%yG\x8a\xb1\xb9\xb7\xf5\xa7.\xf5\x8e\xb9\xd3\xb5\x9f\xb22\xd94P\xabX\x96u\\\xdc\xbd\xb8\xea/\x1aQ\x9c\xca\xb1q\xd2M\xcd\xb9L\x91m\xb3\x8b\xf6\xe5U\xeb\x94N\xe0\xa63bqj\xc7+\x90\xc8\xf3[+\xd946\xd8\xdb\xdc]v\x12\xa6\xf8P&lt;%#8\xcde\x01\xec\xcc\xae\xc3\x1d\x95i\xd9\x83*^\xae\xe5\xb4&amp;\x87\xc5=\xe0\xd8g\x96\n9\xe7\x19EI\xdc\xac^\x17[\xf6\x86]\x1c\xcfx\xefE\xd0\xde\xd7:]R\xe76RY\x96\xd8\x81\xe0\x10\x0e)\x95\x82;\x04\xf4q\xa0!m\x11\xf5\x8b4X\xb1\x91!\xb0\xde$\xa8&lt;J\t\xebyG\xb4\x83:\xe6\xebX\xd5F\x9a\xc9\x95iwK\x88\xa4\xb3\xa2\\\xbaJ\xb97\x95\xf0\xees\x8f\xa18\xd2\xa0\xdc[\x17Dt6\x1dC\xe5"E\x1b\xf4r\xde\x82\xd7\x95\x91|\xf6o\x99\xd3dx&gt;\x93.\xdc\xa2\x1d\x19\xf9\xc3\xad[2\\\xdc6\xb4[\x96\x05\xd5W\xaa\xfdN\x9f\x9e\x9c\x89\xe4\xabk\x9a\x82lC\xfa\xe23L\x16\xea\xf5\xd39\x9e\x1a\xb9\xd2&lt;\x83y{\xab-z\x1c;=+\x9em\xc3\xc5\xafIY\x10\x12n\x94\x94\xb2s\xd8jI\xaa\x12\x1a\xd9\xa6\x9d\x18\xf9\x83\xd0\xe3\x0f\xdf\xcc\xf3\r\xbd\x87\xe7i[\xba\xcb\xaa\x0e\xa2\xf5\xe3\xe9\x90+m\x82C9\xd11\xed3\x88vc\x1a\xe8r2 \x1dXsu\xe9.jAh\xd6\x1c\xd7\xce\xe9G\x8bH\x8cA\x0cr\x89m\x9c\xfd\xd4[Q=(\xc7YAv\xc4\x0f|\xd4\xa1\xc2\n\xaat\x93\xf0\xe9\'\x14\x0b*F\x11\xe4\xcd#i\xb7\xaa|\xc1Y\x84\xde\xa2\xc4\xfc\x86-\x95\x80\xbc\r2\xd0\xaf\xd6|\xbe\xe2z\xa4\xb5,\x0e\xa5\xea)\xe7&gt;\xd2\xfe-%\xfczJ\xb9\xf457\xd6u\xac\xdfhB!\xbe4\xcew\xa4\xba\xfa!\x9d\x1a-9\xca6^O\xf68y\xd1\xa9Q3\xaco/\x1b\xb4\xef\x99\xdeW\xb3\x94k)n\xbc\xd7\xab\xf5\x1f3\xaf\x92\xea\x8f8l\xfd\x0b\x85\xfa#\x1dj\xeef\'\xcd\xd5Ns5\xa3\xdb\xc4[\xa8\xa3\xbb\xf3\x9cur\xfa\x7f;\xae\xae|u\xa6~\x88\xcfkZ\n\xf0\xbaw-{\xce\xf7C\x948\xce\xa5xt\xd9\xbc\xfd\x03\xe4\x1d\xaeM\xdc\x16\xa8\xd5\xe6\xfdB\xc0\'\xab/&gt;v\xf3^\x136\xb76\x9eS\xdd\xd8\x19\xe9W\n\xef\xe7\xd1\xf2\xd5\xaf\x08\xdf*\xa6\xbb\xb0\x8b\xf5\xf2\x08\xea\xc1;\xa9i0]\xa6q\x96\xb3lSz\xb3y\x93/#\xb0\xa7%\x8ay,\x90\xc2\xdf\xebQ\xfd(\xf6\xaa\x9b\xee\xc0#\xc1\x90\x0bn+\xb0\xee\xd3\xb4&lt;\x02\xa9\xbamU]\xa3\xa4\x11\x05\x1d4\x94\xbb\x19\xa17|\xb1\xa0\x9f\xb1)r\x0c\xad\x95\xb3\xbfG\xf2j:\xd6V[*\x95\xf3\xd4\xab\x8bI_&gt;\x86\xf0\xd7\xac\xf4\xea_R\xb5\x8ag\x90\xd8l\x93\x1a\xaa;n\xa4\xee\xe8\x8c\xd6\xb6\xf73\x94bF\xbb\x97\x8f&gt;\x83\xccOCb\x91T\xfa\x03\xcb\xebC\x8f\xa6{\xae\x0ed\xa7w\xce5\xa3\xf4\x1c??\xc8\xbb\x04\xdd]\x18mc\xe5p\xbetc\xcd\xd9[\xb7;\xbdRa\xa1\x04\xde!\xfd\xdc^\x92J\xafg\x9b\xb4\x9fyggsp\xbdO\x1eM\x1b\x9d\x19\xb8\xc7\x063\xd6\xfe\xf3;\xcd\xf2\xf4\xa2\x8e\xc6\xebHq\xa6R\r\xf9\x9e\xe9\x88&lt;u\x15;\x02\xdb9\xa9\x9cH\x8f\'\xfa1kgP\xab\xcd\xe6.Y\x1aK\xb8\xb5y\x8e\xa0u\x80=\xbc\x89ta\xd5\xa8b\x98\xbe\xf0fn\xd9\xcd$\xed\xfeL\xbf\x95\xd6\xe7\x0b\xe6\xe08\x8a#\xbd)\x0b\xa1\xd2\x9ch\xa0\xeeHH\xf9(wvt\xb7DI\x04\x05\x8e\xacr\x9f-\x96\x06\xc8;\r\x96m\xc8*\xc6t\x13V\x8a\x12\x14\x90\x02F\x93\xfc\xb4\x80\xc2\xb8~\x87\xe7&amp;|zLx\xac\xcf%\xe0\xfbU\xa94\xb3\x1d\x8ba\x88\x8ec]\xaa\x11\xd2\xeb\x8e\x97[t\xe83M%\x18\xd8g\xa5\x99\xcfV\x07%\x10*\xa6\xef\xcb\xcf~\xe7\x9d\xd5\x1d)#Y\xd8\\\xdb\xc9\xf8:&amp;\xd2\x84[\xac\xb3\xd9m\'\xd2\xd5\x92\xd9\r\x99\xe6k~\x9a\xcbk\x01?\x1di\x9d\xcf\xc1\xd4o\x1ad\xd7\x1a\xd3\x06\xd5rc\xaf\x92WS\xe7\xf5\xa4\x0bh\xe6\xd7\xa6pr\xbb\x8aNt\x93\xf3t\x14&amp;\x8d\xdb3yW\xa2\xb9\xba\x16\xc7A\x83k-\xf5\x06\x9eJ\xe9\ni-\xf1qL:\x8aZ\xeaX[&lt;\xe5\xe8r\xca(\xa8\xfa9\x1c\xa5\xe9\xbem\x81a\xab\xac\xf77\x13]i\x8c\xbbT\xf2P\xec\xca\xb7\xb7\x08\x97F&gt;\x91\xca\x9bM\xc9q\xd1\x1eN\x88\xf4\xb3\x95`\x9bH]T\xe9\x83\xdc\x8a@6\x14\xd1\x90\xe7J,\xd73\xed\xa0t\x9bh\xd8jD\x18\xa5\xa6\x10\xa5\xd83\xb8S\xa9B\xec\xe6\xdb=t\xe8d\xe4\x1e\xd35R\xc8\xd1\x0c\xdf\xa7\xb4\xf13[\xcc\x1fY\xae3\x18e,\xa6YY\x0c\xdc\xac\xfa.\t\xd5P=\xf4\x1b\xabP\x8d\xd0\x9e\x84\x93\x8a\xfd=\xe7k%\xcbV\xf7\xa3\x94W\x9e\x8f?\x93\xbd~\x15\xdd\xf2\xf3\x93\xd4J"\xa5|\x1d\x16\x1f6\xb5\x9d\xd1.~\x93\xd72]y\xf7\x8a(\xcf,t\x16\x14\xd9\x04\x04\xde-\xfe^\x86\x1c\xdbG\xe97o\x03\xab\x98\xed\xe6R3\x95g\xdb\x14\xbc\x87\xed\x84\x9b9\x87\xd4\x9bWe\xf2u\x9eV6\xa5\xab\x9b \x9e\x1aj&lt;\x84\xc2\xac\xc3ZA!4\x99\x0f\x96\xe9\x16\x1f\x1d\xdaj\x82\xef\xc8\xdd\x95\xf7O5=\xbew\x9f7L\xf7\x9fR\x12"O\x17%\x1dj\x1dl=\xf4cc\xdeDs\xa4!\xb6\x8drZ\xa3\x12\xd8\x00L\x1a\x13\x94"\xda\xb2\x11\x07\xf2++\xbc\xd6d\x98\xa8rf\xc5Rv8cg\\\xec\xcaCa\x8bp\xb3v\x86\x8d\xa3\xb3~\xd9H|B\x11`ko*\xfd\x0b\x9f\x8e\xd7 \x7f8\xc7$\xc6\xa6\x1d\xda\xeb^\xca\xab\xba\xee+\xd2\xd3\xde\xb4&gt;$\xe5$\xaav\xe5\xc3Dr\xa3\x1c\x9a\xaa\x9c\xc7`\xe6`\r\xe2\x9b\xef\xc11\xe9\xa7\xe4\x9f\xcd\xfbw\x83\xa9\xae;Q\x99f\xca7y\xd16\xb5\xe6\xc7)Y\x9ep\xe8s\xf6\xab\x171\x9b\x89\x0e;\xdd\xbc\xfd\x8d\xe57\x07\x00\x83Z\x12\x99\xb4c\xb2\xc2Y\x1c@\xa4\xc5i\x8bK\x97Y\xec\x11\xb9\x1b\xc8\xe13\x11cb\x8a^N\xc4\xa9,\xcb,\xe3\xa4\x0e\x9b\x13\x96\xc3\xa3V\xbbg\xb7\xccZuV\xa2\xa1\xea\xc9\xf4\xd4\xf7\x0by-\x90\xd7\xa5\x1dj\x1fG\x00\xad\xa9|\xa9`\n\x90x\xf4\xa8\x81](A\xa0\xe8\nT\x95[\xa6\x9c\xe6d\xb72\xcb\x12\x9c\xa6\xf6\x98\xb8\xda\xcdF5\x90\x10H\xa6\xc2\xdd\x14\x05\xc6`\x91\xe3\x14%`LP$\x1d\x83\x88d\xb5e\xb4s\x1f;\xc9\ts]\xf6\xaa\xc7\xbd\xd7]v\x1b{\xe2\x1a\xad\xa7K\x05\xbaJ!P{s\xdbN";\xbaj%an\xc4\xa1\xb3M\xb6\x89\xad\x1cX\xe8wO5{\x03\x97~#Jc\x8f:\xb2\xd5_\xd9^\x94\x14\x831\x84\x94\xcfAX\xe9*\xd2z\xad\xacU\xb1\xcd\xd2N-\xe8\xba\x0e\x9bA\'HJu\x8e\xcew\xbeM\x05O\xe9\xae \x9a\xcd[\xa1 \xac\xad(\x0ef\xd7\x91\x16\xb9M\x119\x0cz3r\xf4I*k\x162H\xee\xb1"iy\xd4lJ\x9aC\x9a\x9e)\xf7,DP\xc0-\xa4\xc3-#(\xcd29\xb1\xcd\xa1B\x00\xbet\x04\xa1\xaf6m\n\tz\xb3sf!\xb4\x87\xd4\x05\xa4\x7f!HIh8\xd2\x05\xd2M5T\x8c#\xb5#\xb5OJ\xd1N\x9b\xe2\x06\xb01\xcc\x18\xe5D5T\xeai\xfb\xa2\x9a/*\xfa\xdeD_Zig\x1a\x1d3rj\x93\x91m\xb7s&lt;\x8f\x81\xb8\'nU\x12\x90\x9b\rB\xb4\x1c\x8b\x96\xd9\xb3\x91*\xd2\x1a5J\xbc9\xb4\xf4^w\x1e\x8a\x85y\xe4igQ\xfa\n\xf1*\xc2n\r\x9b\x80nT[C\xb5v\xfe\x1d\x0e\xf3\xae\xf2oKF\xe5$\xfa\x12\x89l\x14\x1bd\xe6p\x8f\xb2\xb6\xd2xM\xe6\x90\x94\xe9-\xc9\xd8)&gt;I\'/\x98\xaa\x1b\x02\x12\xd0-\xdb\x82m\xb6M\x04G\x81\xae\x8e\x0e\xd0\x8aL\xa4r\xc3\xc1"\x96bA2\xc4\x84\x03Th\nHa\x9a\x97\xc0"\t6\x15X\x00\xddK7,\x82M\x0c\xcc\xb5\xc7*\xce\x9ag[\x9aJd\xfep\xd9\n\xd2!\xabmI\';\xa4=\xad[|%[L\x18\xc8;0VI)\x92J\xd6Z\n\xaa\x7fM\xa2\x9f!}\x1f\x92\xb0\xd4\xb3\x82TR\xe86\x1a\x0e\x01i\xa4\x13x\n\x19 -\x82\xcaR\x1a\x83\xe5\x8b10L\x1d\x82\xa4\xe8\x13*E\x96\x84q\xa0\xb9U\x85\xc3j\xe7\x98\xbe\xfb\x8a\xec\\\xda\x91\x19\x01j\xaa\x9d\xe5\xac\xa9\x06{\xd89t\x1a\xc0z\xab\xa6*\x8d\x86\xd0\xd8\x1e\x82a\x1a\xd1G\xf5J\x19\xda\xf1U=\xc1\xb9\xbfLs\xdc\x82\x02)!\xa4\xf6\xc1\x88\xc42\x8ad9\x1b\x96\x8d\xb0N;,\xa6\xa8\x10V\x16\n\xb5\x80\xe8\x16A\x99\xa9\x1c\xae\xe5\xd7\xecJ\xc9|\x08\x01p\x93I\xc2\x06\xaa\x180.\xc8\xa5\x19$&amp;\x92\x86\xa8\xec\x05\xf3\'9\xbdM\xe2\xa60\xd1\xcc^2\x90!\xcd\x0e\xf5\x13\xb4\'A\xd3i1\xb2H\x12\xa0\xdd\x02h\x05#\x1c\xe5\x92\x1fM\x97\x9da\x95s\xe0VW\x8a&gt;\x97\xc5r\x92\x01\x96\x94r\x88,\x9fI\xf0\x9e\xa7D\xd3\xe8\x8d&lt;\xf8\xa9\xdb\x1cZP|\x02\x80\xe2\x0c\x93\x010\\K5\xa6\xf5\x8dZ\xfc\xbd\x16\x97\'I^{\xa96\xce]\xbd\xcaTK;\xb2\xf3\xedgM\xe9\x11\xfb9\x07\x8a\x89a\xb5\x89\x86\xf2\xa9\xa4\xa1\xec\x16A\xa5L\x01Ph\xd2\x14\x86\xd2%\x01\x1aQmS\xb8\xab\xdf\n\x91LbK\xb3\xb6\xb4\xdf \x06Y0mRQ\xd3Yq\xe4\xe3\xbb\x1cD\xc34b)6\x05\x81 \xecn\xd3\x9a"\xb1a\xe4L`r\x01\x91$C\x06\x0cV\xd8b\xe9\x0er\xb3\x08 @\xa6\x90\x9fJ\x0e\xa9b\xc5\x8eg\x8b\xee)\xcc.\xe1\xb0S\xbd\x04\xec\xcb\x01\xa9\xdbr\x07\r\x14\xf04\x19\xda#\x82\x94\xcc\x95\x1bghF\x91\xf0\x95\x87M\xf8\xbb\xe8\xfc\x9eRu)m\xa17*)D\x13\x9a\xd1\xaby\xd3J\\8sQ\xdb\\\xd0\xb0*\rA\xc4\x8a\xc0\xc9\x0b3\x96v\x0eZ\xea\xa9v\xd5\xcc\x9fr\xf5]\x1c;\x88\xc5\xb5\x96o\xa3;\x87\xd0\xcc\x1d\xe5\xe3\x1d\xf3\xad\xd9\xcc\x84\xa6\xae&gt;.\xa8\xac\xe9)\x8a\x93f\x07bi\xad:\x13\x1fB \xd3W,(\xd0\xd8\x93\xd6\xa8\xae{\\\x19\x92\xd9\xe5`\x0b:\xd38\xb1\xe3\x12\x80z\x11h\xd3\xa4\xa5\xc2\x13b\xce\xe8\x80\xd8\x02\x84\x19\xd8\x94\x12\xc1\xc9[\x</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495706-entre-rios-nuevas-excavaciones-para-buscar-a-la-familia-gill</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>El derecho al cuidado como derecho humano</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Reclamo de activistas y organizaciones de toda la región ante la Conferencia sobre la Mujer que organiza la Cepal</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>El Foro Feminista presentó un documento que exige a los Estados garantizar los cuidados y a la vez reconocer "su importancia e injusta distribución". Autoridades de América latina y el Caribe inician este martes una conferencia  para fijar la agenda de género regional.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El derecho al cuidado “tiene que ser considerado como un derecho humano” desde una doble exigencia: los Estados “deben garantizarlo” y a la vez “reconocer su importancia y su injusta distribución” al recaer mayoritariamente sobre las mujeres, adolescentes y niñas porque esa “sobrecarga” de trabajo “profundiza y agrava desigualdades, impidiéndonos determinar el uso del tiempo o disponer de tiempo libre”. Con esta demanda a los gobiernos latinoamericanos y del Caribe y la exigencia de políticas y programas integrales de cuidado, “con suficiente presupuesto”, cerró este lunes en el Espacio de la Memoria de la exEsma el Foro Feminista previo a la apertura de la XV Conferencia Regional sobre la Mujer que se inaugura este martes en el Hotel Sheraton con la presencia del presidente Alberto Fernández y delegaciones gubernamentales con las máximas autoridades en materia de gé</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Por Mariana Carbajal</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x02\x03\x04\x05\x07\x01\x08\x00\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x04\x00\x01\x02\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\x0c(\x13\x89\xe4\xfd6\xaeK\xe7g\x84M\x92\xb2&amp;g\xac\xe8\xd7 %\x8a\xb9K\x01\xe6\x16h\xbb=\'&gt;\xe9\xf3F-\xe9h@w\xe3!\xb4\xdc5\x01\xb0$}\x08t\x04U\x004)N\xa3\x060\x00"K\xfc\xdaB\x0bQ)\xa3\x1a\xa0^\xe7^\x9d\xd7&lt;\xe9\xe9/G\xe6\xb1\xbb\x07\x18\xe4vi&gt;q)\xb8\x08y2\xcd\xee}}.\xb5Z\xda\x01\xea\x90\x13\xca\xed\\\xe7&amp;\xa1\x825\xf9\xa6{ \xa3\xd2s\x8do\x0b\xe9q\xeb]\xfa\xd3\x85\xe8\xa8\xef\xe7E85\x08Y\xfc\xae\x97"+\x1ae@\x88)\xd1\xeb\n\xdc\x03&lt;\xf2\xace&gt;\x15\xad\x9a\xbb\x12kL\x0c/ \xf9\xee\x9dd`}\x9eiEz\xac\xe7Z\xaau\xe5\xc5\x05\xca\x04\x18\x18\xb0\t`\x9a\xcdhD\xf4\xbb\xd2\xf8\x81o\n\x93\x18\xb7#fD\xc4\xaf\x93r\xc8\x9aZ*\xba \xb2v\xba\xc7UX\xf2V\x96\xfe\x16+\x13\xad\xcc.\x14.xH\x8b,S7\x96@z\x85v\xa8\xc6m\x17\xb0R1r\xde\x083\xd2\x1a\xcc\xd49\xc7[E\xd6o\xaa\x92\xdc\xcc\xd6\xd89\xc6\x85\xf2S\xcb\xa5+\xaa\x91\tZdJ\x14\xdd\xc4\xb4\xd4!T\xca\xd4%BED\xa6V\xde?\x9d\x19\xd7\x83\xa7@\xd6\x80\xf2=\x0c\xe0\xee\xce\xc0\xa3\xc4\x8ft\x11\xd9B\xc5\'c\xb2\xe9b9H\xbb\x15\x0f\x1afG\x11\x13_q\x17\x97~7\x1bc0\x12\xd03\xa6\xd2C7e"b\x96\xfc\x12\xc9\xa5\x03ln\x8b$\xcd\xfb\xb3L \x80\xfde\xe7\xed\x9f\xab\xc9z\xb8\x874\xc6\xc8\x06f\xb4\x87F\xbae%i\x04T\xd3\xa3\xe4\xc9\x9c\xc1\xde\x0c\x96\xf9Ae\xeefu\'F\x1a\xc1K\xf2\xe3o:4\x91D-,_\x93\xd9\xa61\x1a\xbc\xde\x01\x97!\x85\x98A-\'5\x9d\xc2n\\\xbe\xaf\x17n\xf3Aq\x9d\xd7\x97\xed\xf4\\\xbb\x9b\xd7\xba"H\x19\x81c\x02\xea2oV_\xc5\x81x\xf4\x14\x8c(g\xd3\xf8-\'\xec\x1a\xdb}K\xf8c\xfaZ\x8ez\x10\x8b\xe8\x0bf\xba\xb4\xc2\xbcd\xbb\x93Hb\xf2\xcd)\xc0\xb6\xc7\x1c\r\xef\x1a\x84\xba\x7f\xb3\xbf2}f\xda\x9e\x8fw\x8e"f\xc5\xcb\x05\xe6\xe4\x97\t\x16\xb8&amp;\xf3-;\x0e\x19jF\xaeFBfYy\xf1\xdd\\2C)\x90ML\xf4\x9e\xc5DD\xf2Z\x12\x10\xf25\x86\x96\xa5j\xdb\xf9|\x93\x9c\xf9\x17&gt;m\xaa\xe1\xdc\xda\xe6\xba\x9e\xda\xe2\xd4\xbe\x90\x97QQ\xa6\x9f\xac\xcd\xe6\xa0\xa7\xcah\xd8S\xc6\xa1&lt;\xbe\xad\x8c\xeaY\xa9=rB\x1bccd\xc6\x94WU\xab=\x99\xba"j\xa4X\x1c\xa3\x83G\x93\x99\xb0\xd2\x9b\xd0-D"\x0c\xc0\x8a5\x86\xc69\x1eu&gt;tR\x81G\xf3\xae\x80k5[\xc6D\x9dg\xa0k6\xf4\xc6t^\xe2\x9b\x06y\xa3\x00\xbc\x83\xb5\xad\xd5rz\xf1\xbbs4\xa1\x19\x89cSs\xb2\xeb/\xd0\xe9,\x04\xf7\xe7\x10\x10;\xceM$\xb5\xc6\tV\xc2\x99\x16\x88|\x18\xb3\x95\xdfYR\xe3T\xceD{\x9d\xd3\xba\xa5\xb4\x9e`3G\xc5Hp\x00\xf6\x87\xbcRi\x18![\n\x11d\x06\xbav\xb3\xe6y\xbb.`\xb3\x9fZ\x82\xfa}\xd0\ny\xa7\xf4\x04\x0f\xd6\xf8\xdf\x02\xabx\x17\xe7\xf5\x04=\'\x89\xfa{\x9c\xc9!\n\x9dD\xbf!\xc9l\xae\x1cr\x0el\xd4\x8f\x96\x94\x00\xc2`\x18\xd3\xac\xba\x8f5\xcc\x8c\xbbx\xfd!\xfb\x8a\xe57\xd1b\xb1\x89\xa7\x0b\xc4\x8b\x9d\x1d^\x19\xad\xe3"=\x0e\x7f\xf3C\xa7\xb5r}HV(kh\xa6B\x9e\xf3\xa7\xc7&gt;\xfb\xea\x9c\xfb\xbc\x93\x9c\xe3wKC0E\xa9\xb5\xcd\xfc\xa1\x1a\xeb\x9c_|J\xf9\x98\x8f\xb9AWyL$\xe5S0\xca\xdc0\x82Ue\x11\xc3B\x08&lt;l\x04\xc1\xd3\xa5\x83s\xfa*zE\xe0\x0f\x1d\xf2b\x12\x03\x17,\xd0\x83\xb3\xb9\xe4!\x90\xb3z\xe5&gt;6I\xac\x16i&gt;k60\x8cs\xcaV\xd5rS\xf2\xa0\xef\x14\x12\xba\xda\xaeK\x95DFu\xc4\xdcQ\x89qPX\x13\xd3\x03\xdaU\x03:Og\x89\x90O9\xa7\xe4\xf5\xa1\xbc\xe0\xb1A\xa3 J\xf9\xb4\xe8\xa0\xde\xc4K\xa0)\n\xf8P%!#\xc8\xf6\x06\x96\xc5\x06L\x98I\xd0\xd2\xf9\xcf\xe7g1\x85\xe5tyB4{\x9dB\xcdb\xe4$\x0c\x01\x8c\xfeQ\rJ\x8e\xc6q\x97s\xadc\x19 (\x7f\x9d\x9b\x91\xd4MQ\xda\xad\x0721\xd64\xfbL\x07\xd5\x9d\x9eD&lt;\x87@\xcb:I\x04\x88\xd8\x0c\xe1\xcbOjy\xa3\xd4\xc0\xc2_v\xc4C\x86\xcb\xecA\x8a\x19\x87\x95h\x99\xc6\x0b\xb3y@\xb7\x9a:\xabGQ\x8ca/F\\\xde\xbdq\x0bH\x9d\x1b$\x1c\x9bYX\xa9c\xa2\xcf\xf2-]K1\x98l\xb7\xb6V\x16_\xe7\xcc\xe3\xef\xb9\xd9I\xfb\xee\xc8\x9f\xb8\xddE\xa1\x88\x98\xb91[\xf9=\xb6\x97\x12\x1d\xfd\xc5\xa77\xc4\xc6\x17\x1d\x95\x0b\xd6Zk46W\x9f\x1cQ\xd4\xf7X\x0c\x7f\xa4}\xba\nzs&lt;\x8e\xedt\x0b\x96\xba\xe8P\x8e_\x8es\x1c,\xcf4A\xda\xd8:L~Q\xda\xb6\xcb\xae\xb6&lt;\xa6\xfd\xd2&lt;\x13=:\xe8\x96t]\x98\xdc\xbcA\xb0\x88\x88Q\xc9\x17\x83vd\x1d\xa0\x99\xc5QB&amp;ls \xeb\x84T\xe9a\xfb\x1d\x9d\x98\x14P1\xe8\x8d;\xcb^\xb4\xedqrk&gt;D\xe7\xf4\xa6\x00]s\x17\x04\x9e\xae\xe5\x80\nL\xaa"M\xe8\xb6\x0c\x820\xb1\x97F4#\xa9\x8e\x8ahuj\xba\x1fb\xcc\xa5]\xe0\xec\x0b1\xeb\xa40\xaa\xee\xb7\x98Y\xef:\x1c\x9b\xa1{B\xb1\x18H\xc2\x876\x96ug\x95&lt;\xab\x9bpP/H=\x19\xfazY\x82\xaf@g\xc7=^x^j{\x9a\x1a\x01\xd5X\xc6M\xcd\xbfw\x05\xd1\xd9\xe7|\x90a6\x05\xad\xb3\xde)C\x93\xe03\xb3\x04x\xaf\xd6&gt;[c\x11t;\x13=\tL:\xf8\x8b\xea%\xf1`\xcf\x07H\xc7ko\x13\x8c\x92\xba0\xb3\x11\x13\x1c\xeb\xab\xe7H&gt;}\xde\xcbOR\x99\x9f\x9bn\x18\xb4\xfcD|\xae\xfe\xefx\x0b\xe7\x14\xddk\xa9\x1e\xa5\x1d\x92\x0e\xca\xb8\xde\x06\xae\xacT\xc8"\xf6mq\xc6\xeb\xa3\x07\x17\x98\x1fY\xf3uX\x97\xabsu6\x05\x14\xff\x00 \xf6\xc3Pm\xab\xfe\xa5\xc4\x16bSv%\xc6\xb1l\x82\xc6a\xec\xb9r=\x06d\x8e\xc8I\xed\r\x01\xa4\xdb\r\xd5\x8elYZ\xbb\xb2\x88\xf6\xc3&amp;\xe6\x08\x11\x81\xacT\xe5\xe4c&gt;\xbbE\x8eG \xb4\xea\xa1\xba\x85\xda\xd1\x86\xaa\xae7\x86\xeb-.+p\xfdM\xe6\xadO\xa9\xca\xbf\x1e&gt;\xa5\xa8/\x14\x8eh\r\x16{\xef\xba\x80D\x12$s\xba\x82qdG\xadV_[\x8a\xb2\xaes\xa4go\xa1\xd1\xd8\xb38\'\xae#\x81\xbb\xe80\x05\x1c\x1d\xb8\x0f\xb8\x19io(\x1fY\x82\xd0{}=\x95h\xee\xb1\xfb\x02\x08\xef.)\xbd\xadf\xe7f\xd9E\xe6\x91\xc6\xc9\x14w\xd1\xd2\xed\xa8}?\x9b\x07\xcct\x1c\xc0-\x8b\xf5\xbb\xe5\xd8\xf6\x05!F`\xf73*\xf2\x81\xc6zP~\x9e\xdbe\x1a\xba:\x1a\x81:\xb7ldyf\xa2\x08\\\xcb\xb8E\xd0w\xc9\x8f\xce\x0e\xf7e6\xe9\x15\xe0\xe9\x18\xedm\xe2!\xd2\x17p,`,Us\x9fq\x17\x85\xb6\xccQ\xdc\x98\xe8\xe2\x9b\xe2V\x90i\x1cUd\xbb8\xc2\xc8\xc4\x93\x02\xfaAG[`\xea\x99\x03Ju\xd2e\x97\x1e^\xa9\xa5\xaf\x9a\xcd=\xd5%\xa4\xa7cw\x9a\x95\xd1\xae\xdc\x91O\xda\xd6\xfc\x97\xd1\r\x0b\x94\x0fz\xb2\x868\xca\xfd\x17&lt;\x82\r\x84gV\xafft5\t\x92\xddI\xb1I\xc8k\x15\x90\xb3\x9a\x10\x04\x02\x9a\x94\x96C\xc4\xe0`l\xe1t\x9a\xcc\x91\xf7\xabs\xab[Aw\xf0K\x9aMF+\nf$:S\x9b\xc8\xa1\x18\xf0\xe9Fte\x82\x94f\xfd_\x99\xea!\xddNl&amp;Xm\x07\xea\x8a\x87\x8b\x8c\xbe}x\xc2UqRkFL-\x0c:\xf6\x99\x84\x85\x19&lt;\xca\x13\xe8\x14@\xa6\x1d\x115\x03\x1c*\xca\xf1\xae\x06\xd4\xd84\x98uv\xb0@\xbbxe\x8e\x86\x1b\x99b\xca\xdf\x9a\xcf/\x8c\xe3\xe3`\x84\xf3\xa1\xc9m\xa6\xd4\x1b\xf4y\x93\xc5\xc9\x03\xba\x0b\x81\xe6\'9\xca}\n\xed\x13&lt;\xd8\x077\xbc{L\xf3\xabi\xf9i\xb5\\8\x8f\xb0w\\{b\xe5\x98b\xae\xd2\xabld\x94Wl]\xf2\xdef\x96\x02\x0ehV\\ao\x9cB\xc5\\\x1b#\x1f\xad\xbd{Cz\xf0\xe8\t\xc4o\xc5oGo\xe5\xef\xef\xbb\xf05\xce\xb6=\x8b#\xa3\xa2\x93)\x9e\xda\xac\xc2\xe3\x9dq\x80\xa5N\xb9\xbc\xb2\xe3\xdfj\x92\xa6\xfe\xbas\x8c\xfdqI\xf9wTwu\xe3\x14S\xd7\x18\x94P\xf3\xad\xf3Y\xbcd\x18\xa3\xe5\x1e\x8f\xec\xff\x00M\xcd;{\t\xf9\xd5\xfa\x85\xae`\xcc\x8f\xd3E\x0c|\x91n\x82\xeajy\xec\x04\x8fk\x99\xb8L\xd4\xcc\xc2\xd9.\x86\xaf\x0cH\xc4\x81\x81"\x05\xd0\xc9k\n\xa9\x17Ewx\xc9&amp;\xa8\xf3\xa0\x1f\x10WB\xaf@U\xcb\xda)\x85L.\'zS\x0c\x98\xd9x4e\xd4\xe4W\xf6\x0b\x89\xba\x89\x93\xdci1xv,\xac\xd0\xbc\x99R+j\xc4w\x8c\x16\xf3\x00\xf8R\xc5.\x81\xceyg9\x94\xf3\xeb\x9d\x0e\xa4E\x9a\x10)\x11f\x0e\xe9j4\xcdHv\x99\x95\xc5\xe1\xc0\xab}JL\xf8c@\x0b\xabW\xa0kN\xb6\xbcR\x18V\x8f\xa3\x04 \xac\r\xecg\x80E\xa1it{\xbca~\x92\xc0\xee\xbc\xbd\xe9O2&gt;\x9e0t&amp;p@z\xdbE\x00\xd09\xf6/\x02\xc5dc\x13\xd1\x8cI\n83\x9cY\x83\x05\x8bV\xaeV\xab\x9c@\x9d\xa1\xbe\xa2\x9b]\xe5\x15\xeb\xb8\xa7\xb0\x81;\x9b\xbf\xb9V*;1\x1d\x1c]T\xe9\xb52\x0c+w)\xde(\xed\xdc\xaat\x99\xb5v\x9b\xeb\xab\xb5P+Ux\x8a\xb9[\xa9.\xfd3ya\xc7\x91\xaa\xf9I\x89wK\x8cjY\x9a\x9d}\x9e\xf8`\xa8\xfc\xb4}\xdf\xb5\x89T7\xab\xf9?\xa3\x0e\x19\xd2\xb3OBQ\xa9MM\xf4\xe8\xca\\S!\x8f\xbcd\xaf\xe7=|\xad\x16\xd4\xfe\xf1\x19\xb1\xadG\x9fL\x15\xeb\xe7\x96k?E\xcb\xbc\xbe\xb3u\x05\x12\xb7\x91\xdb;w\xf3t#Zo\xc5\x10\xb2tJ\xfb\xaa\xe6o)\x8e\xbd\xe5@\xda\xb0hn\xd5]\x0c\xa6\x9e\x84\xc06\xfe\xcf\x0e\xad\xcbv\xb5\x90\xf2\t\xe9\xbc\x8eW\x913\x82\x88\xd4\x9eC\xbc\xd2\x06\xda\xe6\x0b5\xae\x0cW\x97T\xcb\x0c\xa7\x0e\x01\x89v@t#&amp;\xd8&gt;9W\xac\x1aP[Zh}\xa0\xe4\x0c\x92M\x15\xc2\x00q\xfd\xc5\xb3F\x11\xa7&amp;\xa1!*\xceKq\x8e\x9a\xe2\xf9\xf1\x8es\x96\x01\x85\xaf(\x94v\x7f\xad|\xcf\xeaJX?\xce\xde\x85\xf3\xeb\xa0\xca\x8f\xc3\xb4a\xd7\xa3\xf4@\xf3\x05\xb03gYfr^:\xdb\xae\xab\xde\xb7\x1eIpYl\x1aWR\xa5H\xaa\x0b\xf1\xfb\xd2\xef(\xef\x1d\xc0\x153\x119l|\x97\xdd\xb5\xd9\x92\xdd\xe15D\xc4iy\'z\xb5Z\xc8R\x9e\xd5&amp;R\xa7\x93)\xb2jK\x03\x92\xfcg\xc9\x97\xdeC\x97JZ&gt;\xa8\xb1\xa9\xa3A6~*@\x06\x97{\xd73\x1a[\x9e\x7f\xees\x95 \xd8\xf5?)\xf4-\xe7\xc6A~\x96\xc7T\xeb\xfe\xa9\x1b\x13`\xc9\x1e9\xfb{:\x92/.\xd5\x18!\xd8\x9fnL\x083\x0c\xfa7\x9f+\x8f"P\xc9\x9e\x03\xecA\xbc\xe7\xaa\xaf\xe30\x93\xb7\xb5\xafF\xce\xbe\xea\xa2\xd1\x17\x12\xed\x05\x05\x01;\xf7\xb34\xd7\x14\x95\xa5\x19eE}.\xf1k\xe8\x0cgFuMc\xae\xfd\xdc\xe1\xc7\x87l\x8a\xbay3\xfe\xcd\xd7V\x92\xc0\xd5d"\x95M\xf1\xfb\x03\xd6:\x0c%\xce\x11*\xecw:2\x0f\x8fqU\x9a\x1f\x13S\x8c\x80\xf2\x0f\xc3\xb2JM\x068\xeee\x84\xb5j\x85\x05\xb4\xec\xe3T:M\xd8\'\'xZ\x8cH\xc86B3\xb3|\xe1w\x03\xea\xe4\xc6]\x9dS|\xca\xf5zL3\x0c\xdd/\x1a\x1e\r\xe8\xeb\xa9y\x1bHu\x01\xc8\xb5\x9dd\xe2\x18\x81\x10\xfe08\xe7V\xae\x90\x8eT\x0bV\xeb\xfb\xa5\x9c\x1d"\x1c\x9az\xf6\x8a\xf5\xe1\xe5\x04\x14V\xab\x92\xf63+\xa5\x13\xd9\x10l\x94\x93\xe0\xcd\xc3_"\xda\xb4\x88\xb6\xd29V\xe4\xb8\xd3w\x97e\xb2\xfe\xa9\xd7\x98\x95Qr&gt;][\x9f\n[\x0c\xd2\xc7\xa7\x0f\xe5\xac\xca\xdb6\xf5fub\xd2\x90D\x13\xd4*T\xf5\xe6\x9aO\xcd{5\xc0\xc6\xc1\x9e\x80\xa3\xd2cI\xf5\t\x99.\x14\x9f\x95v\x06Iz\xe8\xc9\xf5\x15q\t\xb7F\x18OC\xf5.\t\x14\x97V`\xd5\xa6k\xbc\xe6\xc6\xb2\xdd\xc42j\x80\x9e\xba\x12\x0f\x96\xb1Y\x06\xae\xca\xda\xaa\xefY\xaa\x1d(\x93\xacOE+$\x15\x99\x0e\x7fot\xed\xb0\xe2d\xd7e\xe3\xe2O\xa3\xb6\x9f\xf9?S8\xcc\xec\xfc\xa5:\xe7\xaa\xe2b\x96\xe4\x03\xe3r&amp;(\xd8\xec\x13K \x98\x1c\xd9\x19\xedB\x8c\xdc\xa8\xb8d\x18\x122\xb5\xad\x02\x97PtD\x8c\xdc\xfd\x93C\xb9\xf9$\x0c\xa1\x8c\xee\x99\xbe\x97\xd3P?\xc6\x9e\x8f\xf2&gt;\r\xfa\x13Kp;\xba\x07\xcc\xf4,\xc9gE\x94\xd4\x80\x9b\xd5\x04\xb2\xe1\xce|\xbbjrN\x80\xc6n\x98J\xb2Jc\xf44?qMpB\xc9\xed@\xea\xd91\xab\x08UQ\x0f\xd4\xb2L3\xe7[]\xef\xa3D\x83\x97\xb5_\xd4\xdb;\x8c\xae\xca\x05\xe0v\xe4\xee\xb8D\x9d\xa9\xb4\xa8\xa2F\r*\xab\x1b\xd6\x91\xc1\xea\xb0\xae\x9e\xa7y\x9c\xb9.,\xc9R\x1di\xcdS\xaf4\xe4\x8f\xb2\xe5d \xeb\xd2\xdf\x17Q\x8c\x88\xcf\xcf\xc4\x19\x9f\xa8\xc3\x8cg?\x9c\xfb\x9a\x13=Zd\xf2\xdc\xf7\xe2\xad\xd5;\x97\x97\x9e\x04\xb3d\xd6\xd46\r\x82\xa6\xd6\x1f\xc8}\x17o+yxe\xe8f\'\x1eU\\l\x1f\xf4\x9eU\xd1\xb0\xd6\x8c\x80G\x05\xb4l\x97\x8c\xf5\x8dT\xfe{\xae}V\x7f\xaa\x0fsZ\x1f\xb9\xa4Z\x8e&lt;\xdd\xc5t\x8e\xa9\xe8\xc5\r\xb5\xe0\xb0\xed\xe4\x8e\x9a\xc6\xae\xe4\xd5tO$\x9d\xca\xd8\xf7\xa2\x1d\x87\xce\xfa#*\x8c\xc6\r\x91\x82\x11\x9aen\xe3zU\x02\x9c\xd8\xac\x07\xd3\xa1hc\xf6i\xac\xba_\xc8\xb3\x96\x0c\xe1\xb7\xc35lJ\xad\xbabm\xeee\xb2\x1d\x14\\\x0c\xbf\xd1]\xb9\xf1#V\xbc\xcb\x9e\x95\x9c\\\xdf\x07\xef(f\xf3\xec\xc7N\xca\xd7pzd;a\x93\xdb\x00\xf4\xbe_\'/u\x1e\xc6\xe3t\x01\xbe\x08e\xf4\xd9\xb3\x19\xb9\xcf\xd56M\xc3\xc1S\xe6\xbd\xe1 \x03u@\x80\xfc/\x8fX\x13\x90G\xcdQO~\xe0\xc9\xc1\xe21\xcb$\x9bZ\xdb\'\x87\x97^\xd1\x91\x07W\x1c\xf9\xdbU\x8a\x8b\xca\x01\x9e\xb6\x1c+8\xe0\xd5!xF5\xaa\xb8.K\x84\x9e\x93\x06E\xe2R\xdawU!\xc6\x17#\xd4\xb6\xe3v\xc4\xca\xe73m2\x16k\x8c{\x06\x97\xbay\x1fR\x9d\xe3i\x96\xbeq2y\xe9\x8f]\x0b\xb0_/k-\xdb\x01\xaa\x01\xb2\x81\xea\xd0\x89x\xd5W!\x8fE\xcc\xf36\x95\xe4^?,\x0c\xd1\x92\x18@F\x87\x9c\xfb\xa4\xcd/\x18\xb5@`\xbev\xe0\x9f\xb8\xe6\xed\x07~j&amp;\xbdnq\xcd(|\x9f\\U\\\xb69c\xe3\xfbn7y\x12\xe1\r\xd9\x02\x1flYf2\x81\x15Z@\xc4\x19\xe9{9%D\xf4\xb5\xacX_\x05\xcf \xfb\xf0\xa5\x99\x87.\xad\xc6\xb2Voj\xd5R\xee\x9e\xe35 \xb4\x8e\x01=\x8d\xebt\x00\x8d\xdeM\x11C\xa4\xe3eDc\x06dX_Ai\x8e\x92\x984\x8c\x8e\xfbu\xebJ[\xc0\xd1\x17\xcc;\xe6\x17\xe9\xbb\xbb\x1a*\xe4\xcd\x88\xe5\xa7\xd9\xb0Z\x85&gt;\xbb\xb8\xd5eO\xd2:|n\x0f\xcb\xac(\xe3\xf4\xb0\x94f\xcc\x99&lt;\x0e\xba\xac\x99\xc8d\x15\xdf\xa8\xfc\x84J\x1b\xfd\x0b\x9d\x8al\x8b\xe5\xf6\x90\xee\xa5\xb2U\xf2\r\xf0l\x98^\xf7a&gt;\x1c\xc7\x87\x97\x91\x8d\x13.[\xb4:\xde\x16COB\xcd\x82\xce\xbaY\x99\xaf\x1a\xdbrn\xd0\xb3]s\x01\xde8\xc5\x94\xec\x19+\x82Zk\x83$\xd2d\xe1\x02z\xbfV\x06\xf9Wn\xb3\x11\x07j@\x0c\x9f\x16\xd6@)\xfbk\xfbQ\xdc\xafP\xf3\xcb\xf3\xe4\xa4Q\xc4%7ED\x91e\xf7\x93\xae\xcb\xb5\x8c\xaf\x9e\xf0]\x1d\xfb\xaa7\x92w\xd7\x19\x86\xd5\xc5#]\xd7\r\x98;v:\xbey\xfd\r\x9b\rI\xbdn\xe3\xe4\x14\xfc\xf5s0\xe8\xdc\xee\xb6%\xf0\xe5\xfd\xe0\xef\xd1\xbe\x1b\xf6\xf78 \x04\x15d\x9a\xe9U\xe3\xfb62aW\xd8Q\xda\xd8\x89l!\xf3E\xb8p*X\xa1\xadm\x82\xea\xe9*n\xba\x1c\xcc\xec\xf8\xba\xdd\x1d\xc3\xafo\x10F\xce\xa8\xe6\x14&gt;D\x8a\xa4\x8d\x1e\xc7\xdd\xd27v\xd5A\x96\t&gt;\xceE.[\xb2\xba\xb9\xbf\xfb\x1by\x7fP\xd4\xd5\xbclx\x8ba\xc4\xbd#\xac\xef\xa3\x05\x169\x90k\x8bB\xc9@\x11\x1b \x03y\xc6S\xb2cy,W\x1aF.\x1aU+\xab\xc6\xcf\xb5\xc1\xed\x85\x1e\xa2x\xe5b]:\xca)0$\x86\x12\x7fFu\xb3"\xbak\x8e\xa7\x08\xb3\xd8\xbe\x1a\xf4bZ\xdf]\x85-{\xb5\xef;\x82|0N/{\xb5\x90\xcb\xaf\x0f.&amp;\x19&amp;X\xd6\xff\x00%#_\xac\xb8\xddF\xe6A^\xd8X\x81\x16cg\x12\xd7r\x9dHa~T\x19\xb9\x07\x9f\xc1N\xf5\x97\xf1\xe6j\x8dc;ix\xfa\xe0\x95gq\xcd\xa0+\x16\xaf6u\xf1\xfc\xc5b\xafI\xfaG\x08\xf4\x7f\x9c\rK\x96\xbd\xc6k\\\x9f\xd2`\x9d\xcc\xb3Rs1r\xfdG-A\xe1\x19\xf0\xac\xd7&gt;\xca\xcf\x15\xd7\xe0\xa4\x1b@r\xaf\xce\xc0\xbe\xca\x84\xab\xdeL\xb8\xd0@Q\xe9$\xdc\x1a\xe308#S\xc7\xe7B\xbaUm\x9a\xfb\x1d\xf6\xaf\x91\xbd\xb6\x82\x99\xb9=9A\\\x18\xcf\xf4\xb17\x12\xa5\xce}\x07\xe67\x14\xd0Gb\xd2.\xd8\xcb\xb42\xc8\x1fL\xcd\x16}&gt;\x8c\xf5\x0f\xa88&gt;\xc54\xbc\x80\xf5LT\x04^\xc2\xdb\xfdJj\xc0{W\xe8\xa7\xcc=\x90\xe8\xde~`g:\xff\x00\x9a=\x11%\xb5c\x95\xa0\xd2\xac(-uZ\x97\x9b=\x1d\xe4\xd6\x96\xf5\x03\x8c\xebV&lt;\x1b\xd0s\x198\xa9&amp;C}b&lt;1iU\xad\x81\xddv\x1e\x88\x01\x91iy\x80\x9an$\xb6\xecu5\x165}N=\xe6\xc7\x8am\\\xbe\xdb\x10\xa2\x8a.\xdd\x8cZ\xd9Z\xdb\xb1]f\xf2\r\x10\x90;\xa1\xc4\xb2\xd4\xf1R;\x07\xaf\xb5\x9f\x1ez;\x9cM=|X\xf4\x91r\xa1k%\xbb\x89S\xe2\xcbH\xc6\xc8\xd65\xb2\xd3\xc1\x01\x11_\xaa\x9a{\xe4\x85\xed\xb9\xf9&lt;\xa1\xdc\x98\xebA\xaa-\'2\xbeT\xe9[\x17\x99\xeei\xf3\xad\x98\x9c=\xd8\xf5\xb9\xa3Z\x08_\xb2\x1b\xb4\xf1&gt;_\x0c\xfdj]\xc8\xdf\xa8\xf5&lt;K^\nv\xbfuZ\xc3}s\x92\xbc\x86\xda\xb1Zo\xd3\xfa\x07\xe7\xf7\xa0\xc7{M\xad1\x02mj\xf0lY\xebp\xbb\xc7\xf9\xa9!\xda\xd9\xb0\x99\xc6e\xa3yc\x99\xd3\xf6\x9e\x1f\xe5\x1d8\x82\xd9qIy\xe2\xbdI\xdf\r|"H\xfd\x04\xfc\xde\x9d\x84=\xd4Y\xe6m\xe5~\x8cl\x9e\xa4l\xe2\xd4b\xa4\xf8:\x01\x89xd\x0c\xe4\xeclW\xe6\xc6KW\xba\x00\x01\xec\xfa1c\xe2`.\x9bR\x8aA\xe4\x96\x1a\xac\xa3\x80*\xabL\x8f\x99\x9d\xf6\xfe\xd2@\x0c\xa3\xd1%\x06\xcf\x93v=i\x83\x075t\xf6\x94p&amp;lY%\x0e\xc5\x01\xad8\xd8v\xc6\xbb\xb4;8\xc3\x89\r[\x8c\x90\xe6\xda6\x8bX5|\xce*E\xef\x83\xb7\xb0@Rqu\xda\xfa\x0c\xfa]\x8a\x95\xc5Cm\x13\x8b\xfa\xaa4\xbaQi\xa1$\xc2\xb4 \x10&lt;\x0bT\xb4DaE\x018\xea\x92Ui%51\xa4\x0f7o,\xfa\xb7\x9c\xd6\xf1z\x08z\x96\xb8*T)\xa2^\xf1\xd6\xba\x01\xca\xca\x05\x96\xb9tW\xf1\xbd\x80\xc9U\n?\x1f\x9b\xdcpV\xdcZ\x8c2(F\xfbi\xfa\x13\x8aa\xee4\x99\x10\x1e\xba\xf3x\x11\xcd\x077\xa9_A\xa0\x84\x8c\xac\x96c\xdb\x87\xa5\xe7V\x14\x18M@\xd9\xd5y\xb8\xd0Os\xe8_,\xee\xf6\xa6\x94 `*\xff\x00+?\xd9\xf0\xf3\x98,C7\xd4\x99[\xbb\xe5\xbdW,::\xbb\xae\xa9\x8do*\xb0U\x18\xbe\xb1\x8e_l3\xea\x8d\xd6\xac\x0b\x84\xf9\x8b[\xd1sv\x1a\xc9\xb5\xc8\xb9\x9fW,\x1b\x91\xce\x13V\xf5=\xee\xb0\x8e\xf7\xb7\x95Y\xd5.\xb5\xb5\x86\xd2\x95#\xdb\xd3\xf4\x9c+a\xe3I\x04\x13\x1f*M\x89\x9d`\xe39\xedpu\xa4r\xe5\xad\xa1\xe9~\x7fO\xa0+\xe8\xb8\x94M\xd5Ux$\x9dn\x16fS(\x8f8&amp;\r\x0c3;\x0b\x16\xa1\x1c\x1aA\x14\xb5\x06\x9b\xb4\xf4\x13\x07\xc7\xcd\xc5Vf\xfbR\xc1]\t}cSE \xa1\xb9\xba\xc95\xed\xa9#\xcd\xbe\x93\xc4\xb3\xd0!&amp;\xa1\xbbp#\x00&amp;Y\xbc\xd8m%\x95b\xec\xf7\xe4\xd3\xb0\xa5T\xa5\x95\xeaJ\x86E\xf2\xdd\x0c\xea\xb4\xda\x1d\xee\x93C\x15\xd0\xb5\x8a\xac\xd3h\x02\xcd\x89\xf2\xe1\xe9YT\xd8O\xf5&lt;\xec\xefSy\xa3\xd1\x0b\x97}7\x893\x94d\x89\x13`\x05\xd6\xfb\x1f\x10\xd1\x9b\x18\x8f\x9a}\x91\x84ja\x9e\xcb\xf3\xc6\xd2\xb3\x13Xj\xa5\x0e\xaa\x86,\x05\xcd\x8a\xad\x035\xdcY@\xf1\x94Iw\x94\xa9\x11\xe4\xde|\xbc&lt;@\n\x97H\x8c2\xd2\xbcd\xcc\xfd5\x85\xee]$6jr\x11\xd0882GE\x83Pw\x91\xd6.\xa9\xb4y\xc7\xd1\xbd\x9f&gt;\x1b\x96mx\xaa\xaf[\xb5\xf4;&amp;%Q\xb9a\xc6_m\xd8p\x89\xb9\xde\xcf\xe4\x9a\x121\xd6\xa0w\xe4\xd8gUl\xb7dm\xd3A\xb3\x87[C\xe4\xc4\xaa:/dA\xa8\xad\xdf\xc1\xe3\xe9Q\t\xd1\xc9\xea7\x8e\xcf#\x81\xbar*\xd4\x92\xfd&lt;\xf6,\xf3\xd0\x1eV\xd2x\xc4\xf4\xb4\xac\xa8\xcd@\x92`\xc6\x00\x91\x97\xech\xa5B\xfaS\xe4\xa7B\xc1\xb4\xa2Z\xac\xc1D\x9e\xc0\xdc\x04\x8b$\xd0v1\x93m\xd9s\x0b\xd4Z\xc8\x0c\xbd\xe9%\x18\xa7\xa3t\xb1\xb7\x9c\xf4\xbc \xa7\x18`\x9a\x88=\xaa[\x884\xf1?Vh\x18\x8e\xa64!jY\x06\x84\x10^f&amp;y9\x99&gt;\x93&gt;\xa5\xb1\x02\xe7\'\x19\xc6J?\x02Da\x19\xa1\x8b\xd1&amp;\x16\xd1\xa5\x8c\x14\t\x92:\xb6\x07h\x8cS\xaet2\xad\x1e\xab.m\x85\x17\xca\xc5]\xe0\xf4\xf81\ti\x9a\xef\x19\xff\x00l\xf9k\xd9\xa3\x9a\x06\x05\xb98\n\xf2\x9eg\x0b\\\x8dN\xd3\xf3\x8djo]\t6\xc9\x9cG%\xb9\x82\xcf\x17\xb8\xec\x18\xe9\xa2E\x1b\xb8\x1f\xd6`\x1c\xe7\xd5\xb4/J\x92y\xefVg\x9ey(~\xd5\x95|\xdbh=\xdc\x9fJ\xf3?\xa6\x0f\xcc\x1c \xee\xd4\x87R\x1d\r\x8dR\xbd\n*K\xfa&lt;\x90h&lt;\xb4O\x15?\xd3\xdeR\xd4\xfa\x9c\xbc\xdfj\xc9\xfdO\xb4\xb2\x16\x1e\xa6S\xb5\xccS`\xc8t\x1d\x0e\xe4&gt;\xfe\xf6\xebeYj\xf6\x15Z\xdb\xef\xa9\xc3\x08\x0f\xf4;\x02dp\xb5\xaeO^\x9c\xc6\xb3AA\xec\xc0\x95\xa9@\xe3\xd1\xc6\xec\x06\xbdl\xcb\xcf\x84\x95\xf3t\xb1l`\xb5\xdb\xce\x19\x9f\x07\xa1\xf3\xabGi]\xb8_\xea\x7f\x1e\xef\x81X\xf4\x14\xc2\xe5\xb0b\x97\x04Yw3\xb1\xebi\x18\xc5\xfb\xe3\xd1+j)x\xbe\x90\xfe\x97\x08\x05\n$\xde\x94\xf1\x9f\xa1\xf0\x9d\xdd\x96r&lt;\xf5\x95\x0c\xbe\x1c\xa7F\xf7u\xc3\xb4\xd2\xab\x18\x07\xaa+\xf2e\xb7\x96\tB\xaahU\xb3\'\xdb\xbf\x9fv\x92&amp;D{D\xc4Y\xc0\x9bH\xf9{X\x14)\x0ed\x19\xbepo\x9e\x8d\x8a\xe8\xee\xc6\xc6\x9d\x01\xd4\xb3\x07R\xa7&gt;\x06\xb7\xcd\x9dW\xd7\xd9\xf3\xba\xb5\x90\xcaf\xb06.\x13^L\xc1\x12"\xe8\xf7W\x12\xdc3k\xaa\xc6\r\x8b\x08n~\x87\xc1w=\x0e\xcaUT#\xaf\xe3}\x9a8?9\xfdK[\xf2\xb6\xcc\xbb\x1e\x80\xf3u\xd0i\xaa\xe6\xb5\xda\xd1\x9eknE\x11k\xe8/F$\xac\xad\xe4\xac\x15\xbb\x0eU\xe8[\xa6\x8d\xe5\xd3r"\x19\xad\xe5&gt;\xa1&amp;\x81\x87\x00\x01\xc82\xe3\xac\'m(\x8fy])w#\xd0_Q^\x84\x84\x8a\xc5s\\/\xc9w\xfe\xa7#C\xae1\xc3\x93"\xc6\xee\x85\xc8\xcc\xcc\x97A\xcbv-$\x97(\xfb&amp;\xd8\x81\x99\xa1\xdbM\xc9\xac\x9d\xd3\xdd\x82\xc7e\x12\xef5L\x97R\xe5z\xaa\xa7*`,\xc9\xb5\x0c\xa2\xe1yL\xfc\x86\x86\xcc}\x0b`D\xd7Q\xa7Em\xa3;c\x14\x88+\x1e,+\x85\xc2\x9d4z}\x9e\xd8\x82\xb7\xc3\xbc\x8a\xadww0\x03\x8c\x0bz\xd0v|\xbe\xfa\xf0{\x96ix\x80\xf4S\xa4y\xe3l\xc8\xbc\x9aS\xdb\xe3fN\xb7\xe7\xdd\xfcf\xa3\xcd\x8d3T\xfa\x84\x13\x8e\xb1\xbd\t{\xf6-\xb9\xea\xb21\xad(\x10w}\x96h\xb9\xed\xd1A\x18\xbb\xf3\x1b\x0cP\xcd\x81\x94\x9c\xa7\xa4dMz\x0c\x10\xd0\x01\x85\xb3\x00r\xd1!3\\\xeb\xf7\xa7\x03\x18v\xd7\x9a4\xa0\xdc\xaa\xe9U\x9b\xfb\xd1\x9b^\x7fL\xb2\xe2\x84\xc2\x17\xe8e\xb1v`\x1a\xd2\ne\xcb@\x0f.\x0fG\x83rH,P\r\xde\xcc\x0c\xac\x19=\r\x8f\xd3zV\xf1\xe6\xaa\xbfEy\xec\xc3l\xeb?\xd9sW6A\xa4\xaat\n\x18L\xf2\xe5\xaa\xa9\xb4\xa1&lt;QK\x90\xec\xe9\xb5\xd1?\xbb\xbd\x91@\xfd]\x86\x9d\x9dh\xa2\t3F\xf1\xcb^p\x18%\x1a\xc5}\xe8\xac\xe3WmZ\xdb\x1a\xdbP\xb2\xcd\x01\x05\x0e\xe0xA\xb0\x9df\x8b\xd3\xfe\\\xf5\x7fW\x8bw\xe43\xc1&lt;Y4\x1az\xf1:H,\x8ab\x80\x99\xda\x9e\x8c\xd2\x07/\x06\xdc}\xa8\x0fB\xc75skmi{-;\x1c\xd1A\xed\xaf8\xf7/\xbe.AI\x11d\x8akZ\x1a\xc8-\xdb\xa8F\xa5\xf6\x83\x98]0\xac\xfc\xc7I\xa4\xcf\x97\xe5)e)\x15\x01\xe2\xda \x8e\xac\x80n\x15h\xe8x\x92\x9a&lt;Y_F"\xcf3S\xad\xcef\nj*\x91\xe8\xda\xbf\x13\x9e\x90U\xeb@ZH\x1dh\xef_\x0e\xf8\x89\x0e\xa9\xdf\x9c7|#x\xf4\x1d\xa6-\xa6\x80\x99\xe1=Y\xee\xaf,\x0b(\x1d$\xbeX\xf1=\x87q\x9c\xb0\x91P\xd9\xee;\xeaG0\xd5h\x99^\xef&gt;\xe1\xa5q\x84!L\xfb\'V\xb6\x96\xdb\xb8\xd6QY\xafey\xcd\xbc\xd4\xc9\xe7u\x1f\xb2\x83c3-\xaa\x04\xea,`\x900\x83\x80\xae&lt;\xef2Ihu\xda\xac\xaa\xc5\x12@\xc9&gt;\x889\xf1n\xe3\x17\xd5%\x0c\x81\xa4\xf3\x87\x14\xd5\x8c\xda\xbbfC)\x97\xfb\xa8\xba\x19b\xf8"\x81\xc8\xea\xb2J\x1bDM(\xe1\xb5aU3\x7f\xa2\xe5Zr\xd7\xb5\x81C\xcdG\xb9F\xf6\xf2kW\x1fR\xc9dv\x08L}\xd2i\xe5\x07\xeb5\xb9\xf19H\xe6e\xa4\xfa85\xfevP:\xde\xe0\x8b&gt;d}\x9d\xc7g\xf3\xea\x89B\x8c\x1b\x0bZ{\xf6U\xa1\xa4r\xac\xa4\x9f\x02\xc2\xb7+*\xde\x9a\xd6T\x13\x10\xa2L\xbb\xb8"\xaa[M\xc1\x85\x06\xa0y\xb9\x8bM\x14x\xbb\xad\x8a\xa9U\x1avf~\xb5\x95\r\x1b\x89r\xcf 8\xd7-\xa5\xc7\xa3\xbc\xdfw\x9dnsC\xab\xf3zi\x06\xd8\x84\x16`0\xd1\xc3B\x0cE\x9d\x0ctD\xbe\xd92C\xfe\xe7$*\x9aX\x87U\x1c\xccsE\x9f\xce`_y\x8a\x17\xc1\xef\x04\r\x15\xcam\x07\xf5\xb1\xc2T^\xce]\xfa\x9b;\x17\xabL\x83\x8c0\x8d5\x9d\x0eG\xb9&lt;\xc5\xac\xe4J\xbf#\xd7~L\xf6\x93\xeb`6v\\\xd9\xfe\x0c\xb7\t*\xbc\xa9\xb2`V\x85\xd87WS\x9b\xeb"\xd39\xf9 %\xf2\xc7%\xb9\x1c\xba\x031\xe1\xf28\x8c\x90\x83\x10\xc6Rd\xa2\x86a\xc2\x89PWU"\xd8b@\xc8\x7f\xa8\xe0\xa6\xca\xbb\xa4\xb5\t\x94\x0e\xc0\x99M[8\xb0\xbab\xc9\xb5\x98\x8baQ\xba\xaa\xa4\xb4\x1f\x16\xb9\x02\x04H\xc5\x81\x18;\xf7\x9d\x04~\xbd\x81\x92\xea\xe0\x1e\xa6\'|\x1c\xcf\xdd\x1eo\xa5\xac\xf2\xb3\xfewR\xdeM&lt;\x86\x07l\xc4$MF\x07\xbb\x1b\xc5Y\xfa7\xcd~\xbf\x06\x95\x99\x99\x0c2,\xcfD\x99)sy\xf0\xda\x05\xa5g\x06\x1e/\xab}:\xe2Q\x19\xa5\x15Tg[\xd8\xde\x84\xa4I\xf4\xa8\xb2$M\xc5-\xac&gt;\x97v Tvjh\xc8\xa8\xf3\xba\x9e\xccl\x05\x8f\xf3\x8ed\xf4\xf7\xb5\x8f\x0c{\x8d\x1d\xb3\xfc\xfc\xe7\xf9\x01\x00\xd3\t\xfd\xdf\xbb\xd1T\xbbk\xf3\xf7\xa29\xde\x86\xc4d\x92\xab\x97\xa7M\x87\n\n)C\x85\x15\x18\xdeK\xb6\x0c\xcb\xf4\xbc\x05\r\xdct\xd8\x00\xd1\x9c\x07\xf3\xbd\xc9c\x05\xd3\x81\xe7sY\xa0\xa6\xf3\x12\x89j*\xd4|\xa46\x0c\xa3w\x04\xda\xb1\x9a\xda\xc1\x96\x0e\xc5\'-\xcd\xf3\n\xda-\xc1/t\xfeo~\x90t\xf8\xf8ea\xaep\xf9D\xfe:s\x139\xb4+\x1c\xcd\xd7\xc8+\xa6\xab\xab\x88u\x12\xe7\x94\xedZ\xda\xc6/&gt;\xdam^y\t\x8c\xf9\\\xff\x00?\xb0\xd8\xbd\xed[)IvQf\xf0\x04\xe9\xc3\x8btr\xb7\xc9\xb5\xdd\xa1\x88\xbb\xbc\xe4Z\xc4\x1fC\xe0~\x8f\x11\xc3\\\'\x81\x92W\xf3\xb1\x0b:7(j\\Q\xcbP\xa1\xdd\x8cG\xa4n\x93\xf3\xcb\x84\x89\xc7\x1c\xa1\xd7\xd6\xcd\xab:\r}\xd4\x1c\x05:\xde\t\xb7,\xd5\xda\xe2\xc9\xc9^m\xca\xfdUx\xdc\xd1\x00\x14\x8f\xd7^\x1e\xf6hj\xcc\x1e\xff\x00;9\xa4\x92y\x9aC\x03\xd2\xe9\xc8\xb2n|x\'K\xcf\x9dV\xc8~\xe0}\x80\xc7J\x17\xa1\xb4\x8e\xfd\'_er9g_z&gt;\xe1%\xbdL\xbc\xfa\xb9T\xf3*\xaa!\x08P\x97S\x9c\xe5[u\xf656\xa6\xdft\x1aZ\xb7\x0b0\xca\xf7\\=\xd4R\x99\xac\x9cR\xb6\x9cGN\xc7kZ\x89`\xdf\x9dbU\xec\x1b\x12g\xe8\xebD\xca"\xc2c\xbd\xe7\x8a\x9a@o\x1f\xd0\x8f\x0bRQ\x19m\x9a*)\x0b\xc1\x17\xbe\xae\x89kjq\x9c\x9b\xc3\xd0},{\x0e\x87V\xe2\xa6\x14\xea}\xe8\x10o\x87\xc8\xaa\xf5nM\x11\x8e\xb4oT\xf8o\xd4\x1d4\x8f\xc44\xb1\xbe\xc76\xb2\x15\xcd\x96\xb1\x9c\xac\x8amXb\xa7_gB\x0c6B2y\x85\xadk\xcaa\xad\x03&gt;y\xc1n\xcd\x82Q$\xfaQR\xcb\xcc"LZ\xd95\x1a]\xc4\x19b3\xf6\xd5\xae\x08\x99\x8ec\xe8\xbf?\x19S\xed\xf3\r\xda\x16i\xfat\xd6\x1c\\\xa9z\xa7R\x08\xec\xe1\xe0\x16\xb6\xaa,\x82\x0b\xb60S\x92\xdf*\xadc?\xd0P\xd9Te\x99\xd5fW\xe6\xba\x92\x89[\x06=\xa1\xe3z\x0c\xca\x9f\x84\xcd\x85\x1b#\xd9\xb6\xc7\xe3\x95\xe2\x8d\xfdA\x1e\x11\x08\xd0e4\xec\x0f\x03\x12\xf4\x16-\xd5\x06\x93\x9e^E\xe5\xec\x93&gt;+\x1e\xa2\n\xc5y\x86\xd4ih\xed\xd7\x13\xf2dum\xcf\xcb\n\xbel\x92\xbd4i\x8b\xfb=\x88\x91$\xc6\x1e\x1bK\x8d\xe0_-\xaeL\xaa\xb6l\x08\xbe\x96{\x9d\xeaA\xe0\x8ad[\xd65v\xaa\x0bxy0\x81\x00\xec\xae\xa77\xd7)\x83a\xe5\xfb\xb6r 9u!\xb6Y\xde\x18\x00?\x1f\xeepm2]\x1b&lt;\xb6\x85e\xc7\x8eu\xde\xb7\r4*\xef@\xab.\xe2/S\xa1g\xb6QE\x89\x92\xd0\xd9\x87\xcbP\xdb.\xa8\xf4\x0f{Dr\xbc\xf7\xe8O7\xef\xd0\xb7\xea?+{\x0f\xa5\xcd\xda\xab\xee\xa0\xf5yq\xe2Y3%e\x01%nuRG_\x7f&amp;\x07\xa5fZ\x80\xcb\x03\xc0&gt;\xe3\xf2`\xacx\x90[XI\xebj\xbbK\xc6\x17\xc0.L\xac\x05\xaaBJ\xc2]_\x1d\xed\xb5\xdf\xdfZv\xae v\x94?\x9dez\x88\xe4\x95O\x16\r\x1d,\x84\x95\x15\xd5\x85\x0b\xe1\xdd\xa9 m~\xac\xd6u\x8c\xe1\xe5\xd3\xe7wP *\xeabR\xa9J\x86\xfb:\x1b}[z\xa5\x12\x8dK\xab\xd7\xa2\xc3\xbcY\xb0\xf1}5\xfa\xa0\xdfc\xcaqV\xbb\x92\xce\xc35t\xba\x1e%s\xb0\xedB\xce\xd6`\x90+\xf4\x8a\xfd\x08Z)%M\xd8$"a\xa7Rg\xef\x91\xbc\xfd\xf3\x9c\x96\xabZ\xcb\xa1\xf5/L\x86\n\xb5\xeb\xd5]o]\xb6h\x18\x95\x1dd\xe3\xb4\xf3x\x12~\xeafS\ndH\xb1\x8e\xcf\xe6\xdfE\xdf\x02V8\x7f\x91\x86E\xaa\xe5\x11\xad\xc7Zu\xd5}\x04q\x8c\xec\xbe{\xb0\xfb\x91\xd6=\xaa;\x915\x89\x0c\xc4\x9f\xe98c\xb3\xef){\x1c\xd0\xbcgo\xccS8\xf1\x16\x85\x9b\xf1\xfa\xb5\x04\x83=\x88l\x93\xc6\xecx\x9c\xee\xc9m\r$\x02\xe5\xfb\x0cw\xacv\'\xa6-\xd6\xc3\x81\xc9\x83X\xc7}\xa9\xe2?m\xf4\x92\xda\xe3Jo\xa1\xcf\x88\xc4\xa6%\xd7\xc7\x9f\x1a\xaeUe\x9d\x0c\x99\x16\x96\x03|2\xf9\xe2\x9f\xd0T\xf8\xaf:\x1fH\x8e#Y^ ]s\xcb\x91=\xbb\x94\x05\x03\xa4\x17Vw\xbf|\xd0.b\xcb\xb6ez\x00\xfb\xbaD]|\x1bD\xc3W*\xc7\xa0T\x84\x97#\x91Y:\xbfw\xe5\x14=\xde\xf0m\xe6\xea\xb7\x14\xf4\x0e\x15.\x1b\x85c\xb8\xd3.F\x91)\x08\x93\x1e\xeb\xac\xc8N\xa4u"\xe36\xff\x00\xa32oG&amp;\xfd\xd1%ur\xedK\x01\x89\x91k2s6#\xb2\x8f^=E\x8d(\x1d\x91E\xd2\xa3\xbb\xf2\x0fUW\xdc\xd5\xea\x85\xc6t\x9a\x16\xd3\x11\xb0\x9b\x10\x92K\xc5u\xf4\xd89\x05%\xe6\x9a&amp;&amp;\x1f\xbb\xd7\xac~\xaa\xca\xb6\xf7Y\x1aDQ)\x19\xa5\xa3+\xa5\x1dD\x12\xa3\xc8j\xc5[:&lt;\x12\xf2,(\x90\x8d\xf1\xbb\xf7;\xacK\x9b_0\xbd\x02\x1fI\xf9O\xd4&lt;\xc7\xa7-\x85\xa1nB~\x0e\xf2\xd4\xfa9~\xa3\xcf\xfduP\xcfM*\x8c7f\xc5\xf9\x8f\x1c\xf6\xf4\x0f\x8e\xc5}F\xa7\xa3\t\xdf:\x90o2\xd5\xd8\x8c=\x11\x95v\xabA\xd1\x033\xad\xe744\xbd~`\x19 \x89\x9a)\x05\xfbg\xc8\x1f\xa0\x1dl\x95\xa5\\uX\xac\xca\x8bzb\xbe\xc6&amp;m\x9a\xa6\xe4U\x82\x80l\xb9\xael\xd8\x7f\x08 \x16\xc6/1-t\x06\xb4"\x031\xc9\x07I\xe8&amp;MW\x9af\xda=B\x9a;\x8a\x12`\xd6\xea\xa5\xe6\xd6\x00\xb7\xa2\xb1]\x8a\xef9z\xaf\xca\xb9\xa0\xcf\x95\xca\x17\xdfur#\xbfvE\xee\x18\x8c\x99=-\x18(\x16\xe7\xab&lt;}\xadS\xc9\x92\xa8\xb4s0\xcd\xc1\xad\x02\xd3\xcda\x98\x86\xec\xcc\xbd\xdb\x81\x98\xf3M\xc0\xcdVwz\xab\x03\xab\xc9\xe8\xf32\x16\x0e\x88\xa9\x8b\xa4\xc7X\xa3`\xc8\xa2,]\xe40\\\xc2\xaf\'\xf9+C\xaa\xc4\x0bHR\xfb\x0e\xc5\x17b\x99\xf9\xb0K\xa8i`u\xca.\xaen!\x90\xe3\xd0Z\xdeB\x9d=\x1cX2"L\xd71!\xb1\xad\x11\x99\x11"\xc8\xfb\x9fE\xd6\x95\xa6\xf5\r\x996\xfa\xe6\xfc\xde\xca\xcf-_3}\xdew8\xcfO\x818\x8e\xab\xd2^m\xf4:\x8e\x14\xfc\xea\xb9\xf1\x0c\xcaI\x06%ZGW\xe8\xb8\x8b\xb1\xbd\x81\xd7\xe5\xe7x\xae\xa7\x98\xf1:\x85Z&amp;-\xe9~gX\x99#T&lt;~\x91\xddh\x05EB\xb8Cz\xf6\xb1\x94\x0f\x93\x0f\x9dzi%\x02\xdb\xe7UY-\xb3b\xef\xf4W\xc0\xbf\xa0O/\xde}\xce\x80S\n|[\xd31e1PzcY \xf7\xa4\xc8\xf3\x95~g\xa0\x94\x02\xd4\xdf\x98\xc9\t\xb3\xf5\x8b\xf5%\xeb\xd5\x9fBg:%f\x883^\x1b\xb5b\xfepL\xaa\xb6u\x16$\x03\x8cr\xd2\x93Z\x91\xbf!z\xbf\xcc\xb8\xbc\x97\xaaT\x0f\xdd\xfb\x92!I]G=\x0f\xe7\x8d\xe2\xe5\xc6{\xe8\x9f&lt;U\x96\xc7\xa1\xdan\xb0km&gt;\xce\xeb\xcc\x14;\xac\x8c\xdeP1\xed\x9cv\xeb\x08\xd4\x00\xc8$2\xfby\x17\x1e\xf2\xd8CPJ;\x1a8\xcd\xcb\x86t\x1a]y&gt;\xb6\x8dQ\xbc\xaa\xe8&amp;w/\xa2\xe2\xe3H]\xc7\xabl`\xe7j\xf9i\xbb\x00\x15 \x1f\xe9sQ\xcf\xbe(\x0b\x8cC\x0cy\xbe\xfa\xc9L\xf3}8\x8c5\xd2,\x86\xe4C\xa1\xc5\x89&amp;$K\x9d\xe2\xac*\xe2\x937\x1a\xe2\x9e\xea\x91\xd7z\xe2\xbc\xe6\xb10\x8fNy\xf7\xbb\xc4\xab 1\xd35\xaacuL\x03)S\xfdav\xb9-\x9d`F\xf9\xab_Q\xe7[\xab\xb1\xa6i&lt;w&lt;;\x04\xf3\xfd\xb9{\x06\x0fd\x87CE\xab\r\xe8\nUK_\x18\xe0\x93\xe8o:\xea\xa3\xbba\xe2\x13\xd1\x90hCW\x06M\xca\x9a\xe2\x05^\x87\x7fD|\t\xef\x8e\xd7\x1f\xbdB\xfa|\xff\x00\x90\xe2jW32%\xea\x0f\x92\xfd-@-\xdf\x8ac\x97\xf9\xbcc^\xca\xbdw\x9dx\xa8\x88&lt;\xb8[\xa5\xb8%\xb7\xc6\xc9\x8a\x87\tw&lt;\xfat{\x83\xe3G\xd4\xe9\x87\x99\xa9@\xbb\t\xde\x89\xb40\x93\x12\x8b=\xc7\xf4\x90\xa0\x17\x01\xf9|\xda\xe9K\x8d\xd4\xe2\xd2\xb9\x14\xa4\xea\xf2G\xb7#\x17\xb8\'\xb2e\xd7\x18\xd1=\xb8=\xa12\xedi\x90.\xb3\xe9\x0f$k\xd6\x99\xba\xcf1\xec8\xddY\xd2+\xa9\x973-M\x88H\x9e\xb6\x9d\x86e\x85+\xd7Ev\xe1\x92\xe4"ps\x816\x87\xd5\xc6\xe6\xf4\xe5Fz&lt;\xb7\x10\x86\xe8\x83a\x1a\x85\\\x06w\xde\xfd\xd8\xe5\x93\x18\x06\x96r\xbd\xe5\x9ct\xc5\x1fV-\x8d}\x9b+5\x06uU\xe5\x88\xcf\xc7\xdf?\xe5\xa5W\x95qi\xadF\xbb\xa4\xb7\xa4\xb6EFw\xcd\xe9\xf6\x1ep\x98~Li\xa7\x1c\xab6\xc8\xba\xbc\xca\xce^\xb2\xf2u\xcc\xde\xc5\xbc\x88Z\x0c\x92t\x90\xac\x1d\xb7\rq&lt;\xd4os\xf3\xef\x1f\xad\tI{\x16\xa2\x8a3a\x8a\xb8b\xfc{F\xb03\x1b\xd0C\xcf\xfbH\xc9\xf5~o\xa8\xaa\xa3\xb2\xad\\\xc3\xc35\xd1{\x1c\xa3_\xd1?\x06{\xcf\xa7\xcem\xd6\x16a\xb9\xf7~\xccb$\xdc\xff\x00W\xe5\xe9p\xa4.OLWD\xf2\xed\xec\x8cKU\xda3&lt;\x93\x9em\xd8\xe8\xb7\xd2\xc6X\xcd\x9f\xc5\xc7\xbd\x1fsF\xcaB\xbd\x1f\xb9\xe7\xb2\xa1\xbb\xd5\xac\x83\xadD\xd1\xa0m\x99\x17\xc5\x1b\xe3\x17U\x99\xbf:\xa7\xe4\xe8?\'\xe4\xe6)m\xb9"\xceA\xb4)=a\xe6\x0fN\xf9\xf3p\xf6\xfcVMHA\x82~\x85\xc6\xbc\x8b\xa6\xc8\xbc\xbc\xaf)\xf4,m\xd7\x97\x91\xf3X\xb9\xf7#\x04j\xb9\x16\r\x95e\x9a7\xc8u\x9ej\x1c\xea\xe4\xe3\xcdXcl\xd8\xa5\xcc\xebG\x89-\x1c\xae\xaa\x1aS;\xcfb\xb9\x17\x1b\xeb\xed\xc9I\x8c\xa2m\xed_o\x8fax9|\xbf\xb1\x97\x11\xf8\xa1\xe89c]i\xbdF\xa7\x9d\x00\xcb6\xcb\xd1\xc8\x97\\B\xef+C\x8dM3c\\\xbaCk\x91\n_\x9c\xdc\x87X|\x98\x93:\x1c\xf6\x97\xb7#\xa1&amp;\xec\xf2_g\xb1\x9bZCu\xaa\xa8*\xb9U\xcf\'H$S\x94\xb4\xa8\xd8\xbb\xdc\xe3u\x9b\xb4\x8d+%\x94eN\xfeP\x0eR\xc8(\x85\x04\x03Sy\xfc\xfa]+5*\x9d\xd7\xc3.\x01v\xd4UGW_\x97\xbd{[\xcf~\x828\x18v4\x82\xe1\xf54\xe6n\x1f\x91\xfdm\xe5\xf9\x0e|\xe7\xec\x9f3\xe7B\xe3\xfe\xa8\xf2\x18\x89\xa4\x13[y\xcce\xda\xa2\x04i50K2\xb8\x18\xb0\x8fMQ\xd1\x92\xb3\xff\x00icz\x1c\xbc\xff\x00.\xf5g\x9bD\x16o\xc4\x0cr{B`r\xec\xb2\xf8\xa4\xf1\xed\xe3\xcd\xccXVi~\xfc\x9f\xa5)m.Ge\xc1\xbb\xb9\xb7T\xd4\xc3\xb8M(\x0e\x05\xd5\xd1\xd7\x9f\xe5]kf&gt;f\xe5_\xa8\xec|\xb6\xba\xba\xa8\xd7uY\x9c\xbd\x8b97\xd1Si_\xb2@Z:\xcf1\xf54\xb9\x1c\xb3\xaf\xb0\xc6\xe6&lt;\xef\xc21\x9a\xd9_3\xa4\xe3\x1f1\'`M`DS\xdf&gt;\xa1\x90.Z\x96\x07\x91\x97SA\xeb\xec\xc1\x03\xee\x83\xa4J\xf8\xfbCf\xcd\xba\xd6\xce\xac\xf8\xf5\xd0\xcc\x95\xebU2\xacsa\xc8D\xba\xdb\xf6\xae0=\nl\x0b\x0e\x11$Hi\xfd\xe2E\x8c+&amp;AtQBc\xd7\xe5\xd6\xb0ER\xca\xf5.\xca\x85WB4J$\xfa\x958\x8e\xbf\x98\xef\x03\x1cK\xdc\x97\xe5\x14\xd98*\xe6cw\x0fW]l\xc2\xacDF\x80\xe7\\\x8c\xd8\x1a\xe5\xba\xd0\xba\xf9\xdeS\xe8\x1f?v\x01\x01H\xd7\x1eO\xdb\x17\x8f4\xc8#--\xee\xa7\xa9\xb6\xea\xb2\xab|\xbe5OD\xd7\xf9\xd7\xd0\xb7~;\xb5\xddA\x04L~0\xa6\xaa\x02\xe4\xa6\x15n\x8fvL\xd9\x0eT\xdc\xf5&lt;\x800\xd5\xe8qL\x87f\xcd\x8f\xd7\xe0%\xf36\x06\x10%\x08\xe2E\xf8\x03\x82?\xa0\xe9\xb1\xe9\xb7\x8a\x81[\xbaS*\x8f\xbe\xe5WV\x8f\xa4\x7f\xd0&gt;z\xd8\xa4\x8auk\x8c\xeap\xd1\xdc\xfeV\x96c\xe6Kyf\xb13\x93:\x85QcR\xc8%\x7fMO\x8b\xbb\xedd\x84\xba\x0eFROU\xdd\xfb\xac!\xc9Q&amp;J\x95eW3;\xb0\x95T\x9c\xeb@\xe66\x95Z\xd8\xf9\x8e\xe9!-\xbbM-\x06\xa5:\xcb\xd8#\xafF\x95/:\xed\xa0\x9fZ\xafSM252\x12\x1c\xbc\xbf\xd5\xc5\xa2\xaf\xa8\x82@\xda\xc8\x1a\xfbC(\x83LA\x8c\xd4\x1c9j\x90,%\xd6\xcfL\xd6\x92aL\xd5O\xb8\xaa\xb88m\xec \xa5\xd5,\xf9Z\x86Cg\x16\x1b2\xab\xc7\xeehZ\x00\xe8\xd1\x05\x0fS\x97\x9c\x12\xd3\x14\xf1\xbb\x05T2\xe8\xb4\xdd9Ay\xb7#\x9b\x8fP\xfaH\x00J\xe5%f\xd2L\x1c\x9b\xd2X\x96\x8e\x0fMw\xe5\xff\x00Jy\xc3\xa4\xb5/\xba&lt;q\xfaS\xd3\xe7&lt;\xc4\x86\xd8\x1cd:\xd5\xc9\x89jM\xe7\xcf\xd6\xbaPT\x98\xee\x89\x13\xcd#\xdf\xb3\xe9\xbc\xe5gw\xa0g\xeb&amp;\xc6\xf20?@\xcf\xcc\x7f$\xda|\xf8"HQENj\xe4\x83C\x8f\xab\xf3^\x98\x08G\x8b\x92?K\xccm\xb9\rMG\xa4\xb1\xc2\xc1\xfc\xc0\xa4;\xce\x97%\xbf\x97\xca\x88\xe2\xf9\'\x0e\x02;\'\xa5H\xbc\x93\xda\xb9-%wI\xe2\xfe\x91\x1f+\x92s\x9dL\x9c\xb2\xae%\xcd\xd2O\xd7ZU\xbc^qh\x9e\xf1W\xf7:\xc2\xec\xbc\xc4\xe9\x1d\xb1\x83oZ\xaf\x85s\x02\xae\x8f\xef\xbb\xbc}\xa4g\xba/=\xe5HjO7\xa0\xeb\x8aX\xf6\x96\xd8\x97\xaa\x87N\\&gt;|\xd2\xd7\xdc\xc2h\x043\xefW\xc8ts\x84\xaa\xcd\x8c\xac\x89\x893X\xb7\x94=\x84lM\x07\n\xd43O\xb6\xb0\xeeD\xa8\x12\xf5V\xb3\xeb\xe7\xef\x16v\xf4\xf6\xa5\x14\xae!\x06\xc3\xe8e\xa2fDV\xa3\xe3H\xac\xb0\x81\x8d\x0b\x8f\x19P\xfa.\x1esb\x9a\xd4:\xe5Tp\xe2\x18^\x9f\xb6\xf3\xd1?7\x9b\xb3\x87%\x9e:a\xba\x06L\xae\xb6M\x86\xac\xa1\xf3\xdf\xd7\xfc\xd9o\x0f\xb6\x7f</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495711-el-derecho-al-cuidado-como-derecho-humano</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Asesinaron a un adolescente por defender a una compañera de un robo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tomás Ruidia, de 18 años, fue apuñalado en Wilde por al menos dos personas </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Familiares y amigos convocaron un abrazo simbólico al colegio nocturno al que concurría el joven para reclamar justicia.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Este lunes en Wilde familiares y amigos de un joven de 18 años, asesinado de 5 puñaladas por al menos dos personas se reunieron en la puerta del colegio al que asistía el chico para reclamar justicia. La víctima, identificada como Tomás Ruidia, se enfrentó antes de morir a los atacantes, para defender a una compañera a quien intentaron robar a la salida del colegio nocturno.El episodio ocurrió el miércoles pasado cuando Ruidia y y una amiga salieron a las 21.45 de la Escuela Técnica 6 ubicada en la calle Cotagaita 24, del partido de Avellaneda, donde eran compañeros del curso nocturno. Los jóvenes tomaron el colectivo de la línea 17 para regresar a sus casas y estuvieron charlando hasta la terminal, donde debían encaminarse cada cual por su lado. Sin embargo, siguieron juntos porque Ruidia no quería que su compañera viajara sola. “Le dije 'no hace falta que me acompañes, andá para tu casa, cuando llegues me avisás'. Él insistió”, contó Milagros, la amiga que viajaba con Ruidia. "Él me acompañó porque esa cuadra está toda oscura, no hay luz”, detalló la joven en una entrevista televisiva. A las 22.20, el joven y su amiga fueron interceptados por dos hombres y una mujer en la calle Camacuá al 6300, entre Esteban Echeverría y San Carlos. “El chabón me apunta con el cuchillo al cuello y me dice 'dame el celular’. Ahí fue donde reaccionó Tomi”, reconstruyó Milagros, que añadió que está en estado de shock desde el ataque.Ruidia “le pegó una piña y me dijo 'corré, corré'”, recordó la joven, que luego de escuchar esas indicaciones corrió en busca de ayuda hasta un taller de autos que estaba abierto, pero del que nadie salió a auxiliarla, por lo que decidió seguir corriendo hasta llegar a una zapatería donde logró que alguien llamara a la policía.Mientras Milagros buscaba, ayuda los atacantes apuñalaron a Ruidia al menos cinco veces en el tórax, le robaron sus pertenencias y después escaparon. Cuando la ambulancia llegó al lugar, fue trasladado de urgencia a la Unidad de Pronta Atención (UPA) de Wilde.Las lesiones del estudiante eran de gravedad, por lo que luego fue trasladado en estado reservado al Hospital Finochietto de Avellaneda, donde falleció producto de las heridas sufridas. El crimen, que se dio a conocer recién este lunes, está caratulado como “homicidio” y es investigado por la fiscal Alejandra Olmos Coronel, a cargo de la Unidad Funcional de Instrucción (UFI) 1 de Avellaneda, quien dispuso las diligencias para dar con los agresores."Nunca pensé que me iba a pasar algo así. Yo la verdad que estoy mal. Estoy destrozada por Tomi. Me gustaría estar yo en el lugar de él. Daría mi vida por él", concluyó la estudiante, que se tatuó el rostro de su amigo luego de lo que sucedió.En tanto, familiares y amigos de Ruidia convocaron a un abrazo simbólico a en la puerta de la Escuela Técnica 6 de Avellaneda, de la localidad de Wilde, para pedir justicia por Tomas.“Hoy tocó despedirte y no solo dejas a tu familia y amigos, dejas a todo el barrio San María, y algunos más, con un vacío inmenso, Tomi. El gran corazón y personalidad que tenías se reflejó en todo el barrio. Te vamos a extrañar siempre y nunca te vamos a olvidar, no vamos a parar hasta que se haga justicia por lo que te hicieron. Siempre presente, Tomas Ruidia”, escribió en redes un amigo del joven.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x00\x01\x04\x05\x06\x07\x08\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf0_\x9dm\xe6\xdf\xcav\xb9M\x91"\xa4\xe4\xf1\x9el\xc7\xea\xd2}Ew:\xb7\xea\x04\xbc&lt;V\x9e\x93\xa6=\xb7l\xf01|\xaf=WG\x9f\xdfM\x1a\xba\xd1Q\xd1\x92a\xea\xf7\x8c\xfc\xdec\x1a\xe3\xed^\x8c\xe4\xf4\x97\xdb#\xd3%\xab\x08\xb1\x00\x12-\xa1U\x84YaQ\x96XI\x12\xc3\x08"\xc8\x02.QU\x82QE,\x00\x00@\x08"\xc8T\tp\xfc\xebg=?%\xf3\xd2\x9a^\xf4\xab\x01/C\xb1\x9a\x8fg*#Pu\x8a\xd4\xea\xd7\xbc\xb9\xe2\xe3|^z\xe9\x9ak\xc9\xe4\x8b&amp;\xe5nM(\x10"\x96\x90e\x84\x04\x95QK\xf5\x0f\xc9\xf6\xd9\xcen\xe4\xeeq\x9dL\xc3Z\xc4\xe6\xf1\xcf\x9e\xd3\x95\xea\xd6_U\xbe\xe5Vc\xd9o&lt;&lt;\xd5\xcb\xaa\xce\xf7I\xe4\xe6\xb2\xc6\x8e\xae?M\x93ZY\x1em\x99\x9c\x95\xfa\'~\\\xbc\xbcW.\x85\xd3)\xf4\xe77\xa4\xae\x99\x9d$\xb4\xeaD\xaa!"\xaa\xe8\x88B\xcb (JHHa\x16B\xca\x04\xa2B\xc0!K-\xa2\x80\x16R\x92B\x10\xa8\xb8\xb2JX\xbdNq\xd9\xde\\\xf4]\xa9\xa0\xd4\xba;\x0e\xcd\x979\xd9\xe6\xd4\xdc\xbb\x9d\x15\xef.K7\xcaq\xeb\xa7/[\xac\xf9\x03\xce\xd3\xbafnV\xa4\xa1\x81\x95e \xac,\x14\xa5\xa0S\xeb\x1f\x8f\xf4\xe9\xc67\xf1vxN\xfecf\x87\x0e.\'\x9d\xea\xe5\xf7\xb9\xfdEtg\xb75\x14u\xac\xd3\xa6\xed5i\xe1q\xbb\xd1\xbd\x99\xb7[4\xd4\x0c:\xd9\xcf\x82\xb7\xd9z9\xf5n|\x06w\xd1\xef\x9c=r\x9e\xa1\xea\x9b\x92\x88\xb4\x84,\x8a$\xd0\xc9\x12Im\x10\x1a\xb2\x17#la\x08\xb4QK&amp;`\x10\xa5\x85\x92\xdb\xa8.\x16\x02\x92Y\x00[\x82\x90\xe8%\xac\xbay\xbb\xb9\xdc\x98\xea\xa9\xa0\x80\xdc\x9a\x19z\x8f\xb9;\x9eU\xc8\xeaK\x9c\xf6\xf7\xd3\xd7\xd7\x93\xe1\xdb\x0eu\xebu\x9d\xdb\xe7\xe01\xac\x9b\x8d\xe9\x8a\xe9\x9aQ\x81\x06@Q\xab!"\x15B}w\xf1~\x8d9\xc6\xef=\xefp\x9e\x91\x97gA\x97\x07\x0f-\xd2\xf2\xbdDz-\xea\x0e\xde\x97s\x93\xce\xf2\x97v\xef\xaa\xe9\x9e\xad\x9f$\xe1\xd1\xbb\x0fj\xae\xba`\xdb5\xc5s\xcf\x8f\xe9\x0b\xd5;\xfds\xc8Vk\x1c\xee\x80\xda\xfa+K\xb92\x14Y\x0b(\x9a\x19yH\x95Z\xb0\x84-\r\r\x0e\xda"\xd02\xd2T\x81\x14\x8b)`Z\xa4P*\x12\x05\xa4\x96@e\x14\xb8 \x14Wv]\x0ez_.\x88\x9a\x0ev\xfaK\xd1\x81XH\xcb\x9c\x17\x19\xf5\x9a\xdc\r\x0c\xf5\xcb\xd0\xe7\xbf\x19\x8e\xbd\xe9\x9fg\xdb\x9f\x8e\xc3\xc3\xc9\xa7\xae\x07p*\x15P\x00*\x16H\x80\x97_b\xfc7\xa1\xec\xef\xf3\xdfC\xc6z\xb9\x97\xe6\xd6/\x03\x9c\xf0\xdd5\xcd\xf5\x03\xd4f\x87\xa7\xae\xe9\x8eO+\xe7&amp;\x95\xbd\xfa\xed\xe3\xd4\xb1\xf1\xaf7}]\x81\xdc\xae\xd4m\xd0u\xaex\xfc\x9c~\xb9\xc5\xeal\xef\x9a\xe8\xcf\xaex\xba&amp;\xd7U\x13P\xa8\x81(\x90v\\^\xa9Y"\xa2\x17\xa5\x11I-\r\x0c"5(ap(\x10\x05\x16\x0cMR\xb6\xc8\x00\xb8\xa0\xc2\xb0\x94!q \x80U\xae\xb9:\\\xf4\xdct\xc9\xcfa\xce\xcd\n\x9c\x9a\xa9H\xedg6\xb9\xf1Q\xddp\x1b\xaa_C\x1e\xf6\xdf-\xcf\xaf\x9d\xe7{\xbb\xc7\xa5\xbc\xfc\x1e^wYwL\xd6\x94V\x97AC(\xd8Qv\x82H\xb3\xec\xff\x00\x84\xf47-\xdc^\x93\x19\xf5\xfc&amp;\xda\xaeo1\xe7x\x0by\xde\xdd/\xd8-\x9f\xb9\xdf\xdc\xe4\xf3\xbc\xd9\xa4k^\xcb\xae=\xe3?\x15\xf1\xf6=\xceo\xac\x8fI\xdd5\xd1\xce\xbb\x99\xcf\x9c\xe6\xe0m~\xbc\xcfV3u\xc6\x1e\x906\xad\x8a\xac\x8c\xc2,K(\xba\x94a\x16P%\x101\x81\xa1\xd8aE\x10\n\\\xa0\xa9AHB,\th\xb1Fh\xd3DY`\x80T\xb4\xa3\x02;.\xaen\xfe}9\xfc\xfa\x07%-\xeak\xcbv\xa6-=\x0e\xf1\xa7|\xbea\xca\xbf\xbeG\xa4U\xb2_\xa0\x9e\xad|V7g\xa5\xbc\xf2\xa7\xcb\xf3Cx\xbd\x07R\xaa\x80\xa0\xb0H\\Q\x02\xaf\xb7~\x03\xd0Y\xbay\xbd\x06q\xea&lt;\xb3\xd3j\xcew\xcay3\xe4\x13\x97\xef\xde\x1feWK\xab\xb4\xedjb\xc3\x9b\xcfX\xb5\xaf\xa5zy\xfb~y\xf8_\xcb\xf4\x1fL\xf1&gt;\x95\xe5z].\xfa\xecr\xd5\xf3ks\xf1\xcb\xe5\xfd\x19\xed\xfbp\xbf^9]`\xe9Z\x12\xdd\x14\xccH\xb6\x90\x1d.\x8e\x0c"-"\xc8X\xc1\x94\xcb\x18\xc9\x04\x14JP\x89\xa5\xaa\xc5\xc9\n!\x06-\xd4\x15*G\xa4,\xb0A[P\xc8A&amp;]\xe9z\x9cz\xf3y\xf4W;Cd\xdf\x96\xdb9\xfa{~\xfc\xcbX\xf9\x1f\x0e\x99\xbb\xf3\xbe\xb8-\xa5m\x9a\xfau\x9e;\x9fEM}\x1b\\\xb2\xa7\x88g\xca\xd8\xaa\x1d\xc1\xb0E\x83@\xb4\xb0\x85\x06\x9fr\xfe\x7f\xe8\x92\x9e/g9\xf4\x9el\xfb\x9e\xb6\xf9\xeb\xcf\xfc\xee~\x1c\xe6{n/m\xcb\xdfU\xb0\x1a\x90pe\xd7\xd7\xbd\x1c\xba\xde}|C\xe5wW\\\xf0~\xa3\x95\xea\xbd\xdf]\xeaq\xda\xf9c\xd1\xb1\xd4\xdf?\x87\xefY\xbd\xbc\xdd\xee\xc7;\xba\xb5il\x80\xb3\x08Y4\x84\x0c}Y\x01\x04\xa2\xc3\x0cu\x8cb\x06\xa6X\xb4\xce\xd2\xd5R+!\xb4\x8b v\xdd\x0c\x080t\xb82\xc1)\xab$\xcdJ\xb5V]i}\x0f&gt;\x98\xbc\xfdS\xc85\xa0\xdb\x86\xb4\xd9\xd6z^\xd8\xcc\xcf\xcdq\xbf1\xbc\xec\xf4r\x9b\x83Y\xad\xf7\xa9\xd6\xc7M\x11\xd7\xb9\xe4\x9e\x17/?s5\x80\xdd\x96AI(Tj\xaaD$}\xb7\xf0&gt;\xa8\xb5\x86\xcc=\'\x1c}\x17\xa4{\\\xef\x0e|\x07\x9ey\xefE\xcd\xed\xa9\xf5\xd0\xa5\xca\xca\xd0\x9d\xbb~\x82\xce\x8f5\xf9\x1f\xcf\xec\x8e\xf9\xe0}\';\xd3z\x9e\xbb\xbb\x8e\x8f\x19t\xc8^\\/C\xca\xfbb\xbd\x9c\xeb\xba\xf5Ea\x01f\x10\x95t \x0c4\xd5\xd4\x88@\xaa$\x82\x19MdB\x1cX\xb4Fj\xc5\xc2\xe6\x97`\xda\xd2\xd6U\x83\x14\x00`\x86\x08\xa2]\x08\xc9\x1b*`3\x0f\x1a\xf6|\xf6\x9e=qp\xb5\xab\xa56\xc9\xd5\xd4\xef\xf6\x8a\xd1w&gt;k/\x9ed\xde\xfc\x8b\xb1:\x83\xb5s}Q=n\xa7\x86\xc6\xfc^u\xcbf\x98^\xf0\x1b\x15\xb6\x81T\x05\xb4B\x11j&gt;\xdf\xf8\x1fM\xca\xac/\x9b\xb1\x9c}\x1bx\xf4]v\x9f+\xc6x3\xe2\xf7y~\xcd_\xb4\x1a\x10\xa5zzM_\xa0L\x1f\x0b\xf2\xbf7l2y\xff\x00\xa0\xe5z\x9dn\xb7l\xaa\xe7{L|\xd5\x1f\xec\xce\x1fvsz\xb9_T\xdd\x1bn(\xa6h\x84\xd2\x02-Zj\xb0\x81\xa8\\\x1d\x85\x17V\x11s"\xb7a\xc5\x92\x15\x80\x01\x0b\xd5P\xadW\x84\xb4B\x10\x12\x96\x11\x15A--\r\x87@\x03\x98\x8c_}\x8d\x8f\x0e\xbcn;;:gM\x9e\x9e\xe6\xee\xac\xbbFZ\xcf\x82\xc3\xc8\xeah\xed\x90\xe9&amp;\xa4\x97\xb5\x1e\xb3s\xc1\xcd\xf3\xf1\x1d0\xbb\x13\xac\x8e\xac\xb0\x81\xa1PQ!\x08\t\xf7/\xc0\xfa\x96\'\x14q\x9dx\xcf\xa8\xde&gt;\x99\xdc\xee[\xf9\xc7\xcd\x9ce\xe2{noU\xd3\xa2%*\xd0\x9d\x03\xd2\xa7W\x17\xe5&lt;zk\xdc\xe6\xfa\x1c\xcfE\xd5\xd1\xb4\xe7c^\xb9\x8f\x9b[\x87\xd5\x8c\xbfG\x9a\xfd9&gt;\xab\xd4\x18\xa5\xa2 \xacI\xa4\xaa\x8a\xa6\xc9\xa6\x89\x17h\xc4 \xd0\xec\xb2Ee\x08S$H\x90 \xadj\xaeZ\x1bR%\xb2+&amp;T3Z\x10\x98\xbc\xc8SSb\xb0\x85\x85\x18\xb1\xaf\xa3\xf3\xbb&lt;\xfd&lt;\xcf\x9f\xa3\xe6{l\xf5:6\xf5\x0fV}\xd53\xa73\x81\x99\xf3A\xbd\xf9\xbb\xac\x94z\x84\re\x8a\x90\x88\x94\x8b\xd2\xcb\x14\xaaQ\x89\xac\x89R\xd2C\xee\x7f\x82\xf7.\x112,\x9c\xcas=gI\xf5\x9a\xf0\x9e+\xf3\xbe{_\xa4\xfe\xe3\xde\xb8r\xba\xb4\x0f^\xf5\xc3s|\xff\x00=a\xea\xe7v\x07]l\xdc\xe9\xeac\xce\xbe\x93\xbe_\n\xcfNO\xa3\x96\xaf\xa5\xc8=\x16\xfbI\xa0d%\x10\x12\x03\xa4ZJ\r5X\xd2\x0bP\x88\xa7ZYq9\x94\x1c\x00\x16H+\x08"\x9a\x8a5y\x8f\xa95\xa5h\xbcK(\xc9\xa6\x0c\xd4\xad\xcbW\x12+j\xd2\xa8\x03\x8cx\xd7\xbd\xe3{\xfe&gt;\x9ew\x8e\xb5L\xf4z:}.\x9e\xd0z\xb3\xda\xab\x92\xe7\x1fs\xf3\xeb\xaf5\xd3\r\xe9\x8a\xd4\x1e\x81A\xaa\x88P\x0c\xd4K\t\xaa\x01V\x82\xb4\x00+l\xc4\xfb\x8f\xe0\xbe\x80\xe3*\xb8^\xe12\x07#\x17\xe9w&gt;\xd7\x19\xf9\xcf=\xf9-j\xfb^\x97KR1T\xd4Ok\xae|\xdc\xeb\xca\xe3y{\x91\xddZ7M\x15\x97:\xf6\x9b\xe6\xce\x99\xf9~\xdc?\xa1\x9a\xf4B\xeb\x91\xd0 J\x05h$\r(\xa5\xa1\x89\xa5\x1dLA\xba\\T]m\xcc\xf4v\xbb\x9ex\x93\xa1\x8a\x10\xca\xa1\xf4\xcd\x0e\x99,\xc5\xb3D\x87r\xbb\xad\xd8h\xb0\x0c\xcd"\x02\xdcJ\x8c\xd1\xc9Z\xc2\x99E/El4Q\x87\x1a\xf7|\xaf\xab\xf9\xbb\xe0q\xdfE\x80\xeb\xafI\xe8\x93\xb1]H\xa5!d\xe98:|\xf4WnC\xbc\x8e\xc1e\x10\x84\x16\x80\xcd-\xacX,\xa2\xa9m\x80S\x9c&gt;\xeb\xf8Oz\xeeU2\x0c\xc6_J\xcaf\xf5\xa6y\xd9\xb87\xa2\xe8\xdf\xd2\xe9\x84\xc2&amp;\xb3\x1b,\xc0\xd7&amp;Q\xe8\xcb\xd4}N\xd0\xc1*\x97\xac3\xae&lt;\xd7\xb8\x8fN]\xdf5U\x95\x0b\x05ah:B\x8b\x1a&gt;\x9e\xae\r,[W\x96\xac;\x16v\x81\xcd^H\xb7\x05\xb8s5P\xda2:\x9d\x0c\x8d\x96Q\x9a5b\xe8\xb16\xe1\x9aJ\x12"\xdc\xf9\x04 Bf\xb9\xcd\xb8\xadU\xeb3W\x9d\x8d}g\xcc\xf4\xbf/^C\x86\xf6\x9c\xafN\xbd\xd7\xd0\xcc\xebWJ\xb4\x10dL\x16\xb3\xe23&lt;\x8e\xa2\xfas.\xb9\xab"\xc2\x14\x03+\x02\n\xd8\xb4\x0cQV\xae\xd4\xa5\x84~\x8c\xfc?\xab\xcfs\xb4\xc5\xcc\xdd\x8e\xa6!\xb5\xa7$\xc77T6u\xd6\xf4\xb8\xe6\xe3Zi\x9az.\xd3\xc7\xe7\\%wY\xcf\xed\xa2\xdbJ&gt;\xcd5\xe4\xb2\xcd\xd2_\xbf\x98\xfar=\xb2:\x16P\x00HB\xb6\xaa\x81C\xf2|\xd3ft\xdb\xa4\xd1k&amp;\xb4J\xe8T\x9d\xfc;39\xe3%\xb9u\xbcx\x97\xac\xa2\xdc\xb3L\x99\xd3\xa3M6Be%\xaaD\xb8fR\xb6)\x13,\x12\xb9\xeb=\x99\xaesi\x9f\\\xd6a\x9b\xfd1\xe6\xce\x9f\x95\xd3\xc2\xf9\xbap\xf7\xac\xfe\xc7\xd1~\xbe3\xcdE\xa8\x0b\x95\xe5\x9a]:\x98X\xf9\x8e\x1c.\x91\xfdp{\xc4\xa8Q\x05 %E\xdb\x16\x81(\xa5X\xba\x81\x1f\xab\x7f\x19\xdf\xe7\x9c.|\xc7$\xb1\x8b\xaa\xe7cM\x84I\xcd\xde\xb3\xeb%u\xa8\xec\'\x9e\xe7\xbd\x14[\xbe\xc7\xb6__;\xe3\xba\xd9\x1d\xdc~\x95\x1a\xba\x13\xab\xaceg\x81\xd7X\xfb\xe4=8\x1e\xf9\xadB[(\xa0\x95\x82\xe8%\x11\x96k\xcbR\x949\xad\xdan\x93\xa2\xd7BQ\xcc\xc1/i=\x02#7\r*\xe9l\x88\x99q\x14B\r\xa2\x19%\x893.l\xc4\xc2\x8a\x99\x0bSj%E*\xcc\xd6s\xd9\xcf\xac\xa61]~\xc4\xf3r\xf3\xff\x00\'\xb7\x8b\xe1\xaf\x9do\xa7O\xe9\xcf\xa6},e\x9d&amp;U\x17r\xa16\xab3D\xcf\x9b\x97\xe5\xeb]0\xde\xdcoR\x92\x94PR \xad\xad\x14P%Z\x10*6Q\xfa\xcf\xf2=|g\x0b\xe78\xe9\xda\x905\xd4\x9bd\xd3\xa0G&amp;\xdcz\xce=\xf4jzvrs\xd7\x16oN\xee\x0e\x9b\xfb\xc7\x7f?\x0f\x85\xf9_\x0e\x9d\x1e\xf3\x9d\xda\xf17\xa2\xd3oN{/.n\xb5\xc1\xe9\xbc}\xf3~\x9es\xa6J\xd2\x08d9^\xd4PQ\xa1\x8d)\xaeS\x91\x8d\xec\xd3|\x9ds\xa0I2\xe6\xec\xb3\xafhF[\x00P\x13@)\x11*\xcb\x08"\xd1\x8c\xa9s\x88\xc9y"\xa2e\xa4\xaeuE*\xb2\xcc\xf3\xec\xcf\x99\x99\x11\xd2\xfe\xc4\xf3r\xf0\xbf\x1f\xbf\x9c\xe3\xaf\x9av\xd7_\xeag\xe9&gt;\xd8\xa9\xa3\xcd\xba\xb1btV\x0c\x93\x96\xbf;\x97\x89\xbc\xb7\xb7\n\xb8\x9a\x83j\xcaKf\xd6\x81!E\x15h\x01\x01e\xcb\xfa#\xf3=trx\x8e{\x1a.B\xb7I\xb33Me\xd3\x93h\xead\xde\xb4\xa7s\x19\xefb|\xeb\x97\x7fI\xa6}\xde\xb7L\xfd5\xcf\xe4^N\x98m\xdf\xe9\x9c\x1e\xfa\xe5\xda\xcdg\xb9\xae[\xf5|?Mr\xbd\x10\xbbs\xbe\xd8\x8a\xc8y\xb267\xb3W^\x9bn\xb7\xc9\xce0cg\x9a\xcd\xc7\xcb\xae\xdd\xb2m\xd6vX\xd0r4|\xd1\x0b\xb1h\xabW\x0b\x81U@TB\x82-\n\xc5\xaa\x84b\xa71h\x9br\x08\xac\xea\x8aUe\x98\xc0e\x935\x81\xd1\xfb\x13\xcb\xcb\xe5\x9f\x1f\xd1\xc7\xe1\xaf\t\xdbN\xfaY\xfao\xae-\xb6\x86]\x0e\x8b\xd5\xaev\x19\xae|\xd9\xf3\xdaF\xb9\x96\xf9\xd7L\r\tIl\xc2\x94K!@Z\x00\xc9U#\xe8\x9f\x17\xbf\xaf\xc6|\xb7\x1d\xd4\xaf\xc6\x8f\x13D\x9b%\xd1\xa9\xe75\xae\x19\xd4\xdbm\xc8\xa5q\xbfZ\xce|\xc7\x1e\xbc\x9cizsk\xec\xbb\xe6\x8e\x0f\x91\xe3\xa6\xcfK\x1fg\x11\xa5k\'\xab\xe9\xba\xe3\xb5\xe8\xe7\xf3\xbe\xaf;\xd6j\xef\x81\rv\x9d\\\xb7\xdd\xf4t\xddn\xb6\xfa)\x9a^vt\x12\xb5\x9d\n\xea\xda\x9ah\xcd\x10UQ,\x91\x11uH\x91\n\xb8\x85-\xa3\x02\xa1\x92\x02\xa9\x959fE"e\xc8\xb9\x93&lt;\xb9\xacUdLi\x8dr\xdc\xce\xb9\xfdq\xe3\xe3\xf2_\x8f\xe9\x9c\x9eO\xb6\xbc\xbf\xb7_X\xf7\xf3\xd0\xd8\xca\xd0\xad\xad%VlP\xd6B\xcf\x11^\x06Ft\xe1{\xe6\x16]\xa2\x94B\x81\x8b!V\xac\x12%T\x8fG\xf3\xfb\xef\xe7\x13\xcbO\x99\xdf4\xccW\xe2h\xd5rs\x17\xcc.\xbe\x93bt\xf0\xcf\xc9\xe98\xde\xbf\r\xf9\x7f&gt;\x99]&gt;\x93\xa1\xa9\xc9\xe3\xaeN+{\x0f\xb4\xe4g]\xfe\xd9\xeauy\x0e\x97\xe9\x1e\xbe\x1e3s\xe6\x1a\xd6\xde\xd8f\xe1\x1b\x13\xb9\x8b\xd2\xde\xfa\x15\xb2Si\xd2\x95\xd1a\x10\xec}\xa6l\xa7\x00\xba\x10\xc1J))A \x06P\x0b \xc1\xe8\xc5X\xb1p\xb8Tb\x97:$\xc7\x19L\xf9\xb9\xf5\x12eLu\x94\xc9\xa6&gt;\x8f\xd6\x9e?7\xcc\xfe?r\xe50u\xd7\xcf};\xfa\x17\xd3\xc7V\xd4\xcd\x1c\x15\xd5muy\xb1oQ\x96c\xb9\xf9\x1e/;\\\x1b\xd7\x98\xef\x12\xc1ZXP0+@\x92\xa9!@\xdb\xd6\xf0v\xbafcs4M\xb31\x98i\x82\xd4\xcb\x9b\xcdVo.\xae\x86\x1a\xb0\xe8p\xe9\xec|\xba\xcd\xe6\xbc&lt;\xdd\x1b\r}\x1a\xe3N\x1f\x19\xcfN\xbfY\xd0\xd3/K\xe5\xfak\x8f\xdaw}\x9c\xfb\xbb\xe7\xf2\xfc\xed\xbe\x8ch\xd6/MGr^\xbe\xb7\xd2\xc1\x85\xb4\xdc\xec\xcd!\xd5\x9a,h\xfamHu\x8d!\x12\x99[VP\xb1 $[\x184`\x06a\x04\x85\xe6b\x8cbLSX\xa4E\xa8\xb1\x06T\xcc\xb9S\x16\xef/W\xf5\xb7\x8f\xcf\xf3\xef\x95\xd3\x1f*\xae\x93\xc2w\xd7s\xdd=\'\\\xda\xd5\xd5\xb6:\xd1\x0fS&amp;\x94\x85\xbc\xf8&lt;\xcf\x1937\xcav\xe5UE\x14QP\xbbh\xa9a*\x14\x8b\xae\xaf\x97\xb4KI\x175y\xaf\xd4h\x83&gt;)\xcc\x96\x8e\xdcf\x1as\xaf[\xe4\xdf\xae\xf1\x17\xe4\xd7\x96\xe3\xad[m\xd6}.\xb1\xcf\xc6\xbc\xa4\xbe\xbfw\x87u\xc0\xe9x}\xb5\x87\xbc\xd9\xe9\xcf\xa4\xe9\x8f\x1f\xa8\x9d\xe0\xb5\x92\xd3^\x9d{\xae\xceu\xd3\xc8\xf1Fi\xca\xda\xd3c\x95\xf5\xa9t!\x05\xb9t\xc4\xd2\x12\xc6A\x90R\xaa\xb4s\x16\n\xd9\x0bC \x95\xc8&amp;\n\x822\x1932\xc69r\xd27r\xc6Y\x9c\xcb\x9cT\x99:^%\xbf\xa5\xbc\xdc&lt;\xf7\xcc\xdf\x9e\xe1\xac:\xcf\x13\xbc\xd5\xeb\xbd\xce\xd9\xd5D\xe8\xcb\xba\xd5e\xd3\xa1\x88:\xb43Y\xc1s\xf3\xbc\xceF\xb9\xde\xf8\xd7H\x00\x94TR\xd5\xa2\x83\x12\xad(\xa5\x1bz\x1cu"\xc9\x94Ii[2\x89R\xd1-m;\x9c~5\xe9|\xbd4\xf8o\xd1\xb8\xcf/\xe4\xd6\x1c\xb6o(\xcd\xf7]0z\xbf/\xc7U\xea\xdff~\xfa\xe4w+\xbev\xf5\xe5\x8bD\xf4\xcc\xd6e\x8e\xb7\xa5\xab\xd8\xcd\xe9gZ1\xaa\x82\x9a}i\xad&amp;\xbb6\xab\xec:-d\xe8\xd5\xb4s1\x16\t{L\x86\x16Qe\x06Q\x95VeE\x90Z\xe6\xcb4f\x91\x12\xe5\xb5Vf\xb3\n\xe4\x8c\xc0H\x8e\x97\x85\x9b\xf5\xfe\\\xfb\x1e9\xe4|s\x97\xad\xce\xb0=Y\xae\x97Eh\xbd6tj\xd5}\xae\x1a\x87w\x16\x99\x96yD\xf0L.\xf0\x9d245J+i@\xc4*\xc8\t\n]|\xb7HIv\x8a\x9bWU!\x12ZZ\t4a\xaf\x0e\xb7\ru&gt;~\xfd7\x95\xd5\xe3&lt;\xaf=l\x15\x97Z\xcd\x1d/\x92\xce\xdb\xbd\x0fj\xbe\xd9\xe4v\xd6OD_\\V\xb0\x1dE\xaej\xa3\x8e\x95\xbd\x1c\xeb\xa55\xb2Z\xcd\xa5r\xec\xb3u\xce\xca\xdbZlt\xb7\xa9(\xd5\xa8\xc4\xa0l\x18\x1d!P2\xd1$\x18\xab\x13n%P\xa1`\xc0\x19\xf2D\x883\xcb\x91Uj\xb51\xa6c\x14f\x89\xa9\xcd\xcd\xf5Y\xcf\xad\xf3O/\xe3bk\xb1\xd7&lt;\xce\xf3\x89\xbd^\xb4V\xec\xeb:;t6\xde\x9b\xcd\x8d\xb8]\xb9\xd3\x13?9\x98\xe2^u\xd3\x12\xc0*Q\xa1IS6YJ\x00\xd1ef\xaez\xa2U\xea\xdbD\xb7 \xd4&amp;-\x91b;\x9c\xd3\x96\x8e{\xef\xf9u\xd6\xf0^\xa79\xab\x8b\xcfs\xba\xc5\x9b\xb4\xe8Y\xc7u\xcf\xd2\xab\xac\xe5w\xb8\xfd5\x1d\xf0]0:\xc9l\xb2\'RMmokl\xd5\xe5M\x1dk\x9c\xfa\x1ao\xd3bj\xb9hv\xd1\x15\xc1\xa2\x96j@V\xea\xb3\x02jHr\xdc\x88\xb8\xcfn\nX\xa9S*\x84\x99\xe6Q\x19\x9aD\x99\x17\x1d\xd0\xdbW\x00s\xf2I4\xcd\x97S3\xd1\xf0\xcf\x1f\xc7\xb1\xae\xff\x00Ly\xee\x9a\xe5tg\xba\xcd\xb8\xdd\xcd=n\xfe\x93\xac\xcfYzM2\x1fi\xe86y|\xe3\xc1\xe3\x1c\xfe\x98\xadf\x88\n\xca\xa4\x84\x01T\xa0\x85\x91K\xd0\xc6\x85+Im\xcd]\xa6\x90Z\xc9\x83\x8bY+p~f\x99\xd3\xb7\xca\xf5\xfc\x16p\xd7\xd48s\xf1\xbcu\xcc\x9a6:w?L\xdc\xe0g\x7f5l:\xdc\x1d\xf5\x87\xd1r\xfa2]\xf1z\x93j\xa3N\x9clkTh\x90\xb2\xbdi\x89\xa1\x9d\xb5\xb96\xeb.\xa6\xd1\xcbH\xb5\x88"\xedv\xb4r\xd1Ee\x14\xa0\xe2L\xe2\xbc\xf2\xdb\x91\x14*\\2\xe5\xb3\x14\xd6%\xc5&amp;KS\x9a\x85\x1a\xe8j\x05\x98\xb3]%\x8a\xd6\xb3\xe5\xb39\xf5\x99\xcf/\xcd\xa5\xe2u\x0e/K\xd5\xeb9+\xe77C\xaeo\xa4n\xe7Ezz\xbb!\x8b\xba\xde\xbajc\x9d\'\x8c\xc6|\x85\x83\xbc\xcd"E\xaa\x12%\xaa\x84\x95)e,\xea\xce\x92),\x96\xd2\xc0h-9\x83\x88\xb3\'f\xbb3T\xdfs\x1a\x7f\xcf\xb9\xb8^\xff\x00\x9f;\xf9\x86\x15\x83\xac\xf6\x0c\xf4\xf2\xf9+w\xd2\xe6\xeb\xac^\x8b\x93\xd3\x07\xb4.\xd0\xb6*\xd1\xa6\xd94\xc3\xe1\xd0Tj\xcari\xd5\xdam\xd6%\x15\xa5\x9cP6\xae\x15(\xd3\xae\xafJ\xcc\x992\x18\xd1\x05\x92s\x8cU\x9a\xb2\x19\x0et\xdf4\xc3\xacc\xcb&amp;\xaeI\x17\x04\xa4\x8e\xba\xea&amp;\x08\xe7K\xd04*S:\xec=u\xc7+\x8do6\x8e6m\xeb:c\x9b\xb7\x86o\x95\xd4\x8e\xd2t\xcb\xe5\xd3\xa9\xa64K\xb2\xba\xe7SP\xa4\xc73\xe1\xf2\xf3`\xd8[\xc4\xaaX\xa2\xcd\n\xcd\x05\xb4\x92\x86\x9d\x9c\xea-\x10\x85\xac\xb2\xad\x18\x977\x94\xb6\xc7J\xdeRg]o&gt;\xb7y\xf4\\]\x1e3G6\xcc\xab\x901\x19\xcf&amp;\x9c\xad\xee\xf7\x15\xd2\xe6\xefr\xfa.n\xcb\xeev\xda:5V\x99\x19G\x07\x98\xcb\\\xac\xa2If\x8dS\x99V\xb2\xb9n\xdb\x0fE\xca1WOG\x8d\x1b\x9a\xd9\x08\xa9\xa0\x91Y\xce$\xc5o5yYs\xb6\xc9\x19\xb7\x9c\xea\xb6B[h\xf5\x96\xa6\x9c\xebT`\xcc\xcd.\x83U\xa4\xa8K]v\xf3\xf9\xde\xe79\xe8\xa4\xf5L=0t\xbe\x06o\x89\xbb\x9f\xb6U\xd3!\xa1#\xb3\x96\xb5\xae\xde\x92uk\xa1r\xfdN&gt;u\xe0\xf9\xeb\x9by\xde\xf1ZQE$\x06Z\xcd\xa4\x15\x1a\xedJ+d\x8b*\xd2Z\xd0\x10&amp;me\xacW!\xf2\x0e:uxi\xbe[\xd2\xe7\x17\xc5\xd5M\xd8;\x84\x0e18\xca\xb2WKZ/z\x0e\xe5\xf7\xbc\xde\xf5}\x8e\xdd\xd1\xd1\xa7ML\xcad\x14\x15[J\x91h\x1a\xcc\xd5EeQJ\xd0h\x14\xb3YO\x9ay\xbf3\xaf\xac\xe9\x83\xca\xd5r\xaaD\xa6&lt;\xce]\x9c&lt;\xeb\x97J\xb1et\x93PJi\x96\xb5\x18\x8e\x94\xf0Nb\xe51\xcd\xdb)3\x94\xde\t\xd3\xd3\xb1\xf5)\xcf\xaf\x8b\xceEj\xf8\x99\xaf5\xadsz\xe0ze6\x0b$\x869tV\xeb:\x96\xe8\x1c\xd7\x9c\xcb\xcc\xe7\x9azd,\x16l\x84\xa1\xce\xad\x06Z\x16w\x14C&amp;U\x03\xbb\x01\xd6\x81\x039(+N\xe9\xa8\xdei\x9d\xf6y\xeb\xa3\xe2\xbc\xfcS\xe6\xda\x9dns_"x\x95\xc73\x05n7T4_m\x07mr=$\xf7;U\xdbk\xe8\xd0\xcc\x96\xc6X\xb9yR\xe6D\xdc\x85M\xe3&gt;\xeeX\xb46\xa2\x05\xb7tr\xb5\xad1\xd5\xe7;z\x9d\x0b\x19!d\r-\x15\x1c\xd9\x9e\x1aqeJD\x1bY\xd4\xcd\xc6J\xcdh\xd6daE\xe5 $\x99\x96\xd2\x979\x8e\\\xea\xe6\xfe\xbf\xd7\x9f\xa4\xcer\xe3Xr\xbbx\x8b\xe6m\xf2\xfa\xcdk6\xe7\x9be\xdd\x9d\xcc\x91\xd5\xb57S\xed\'D\xb3\xc2\x98\xe4\xea\x03%35*\xa11e\nT\xb0\xf4*\x05\x17\x15\n\xd5\xad\x01\xa1\x06fHkm5\x19\x8bx\xd7\x7f\x9d\xebx\xdc\xeco\x17+\xd5\xd6t\x1b\xb9C\xe0_\x15\xf2\x97\xa6pv\x9dj\xfbo\x95\xde\xa3\xb9\xddc\xb6\xe8l\xda\x80\xc9\x17\x97\x97\x0f\t\xbc\xad\x91\xb2\xfaJ\xdc\\]\xa6\x82E\xb5+\xb2m\xd9l\xe6\xecju\xb55H\xd9k1b%\xe5\xb1\xc4L+hz\r\xaf\xe8\xd2\x85\x98\xfbE\xa4\xe6\x8a\xd2II+2\xa1M\r\xd6e\xe5K\xa2O\xa9u\x9e\xb6\xc5e\x87\x153G\xad[&lt;\x1c\xbew.}\xf3\xdf\xd3\x86]\\\xb7i\x8ab.\xaa\xd4\x86\xb2\xf4\xd2V\xb1\xe7\xf2\xc3pL\x86\xb3(\x8a\xcc\xabdH\x87\xa9T\x89\x08\x86z\x0bE\xa1Y\x9cD\x8a\xc6\xac&lt;V\xe3}\x8en\xf7\x91\x8b\x15Y\xd3t,\xba&lt;\xe3\xf9\x15\xc2\x97\x19\xdeg\x8a\xd7Kr\xba\x91\xde\xf9\xae\xbb\xe4\xf5\xd3\xbbM\x1d3\xd0\xdc\xd0]\x0c\nps\xae.\x05\xac\xcdJ\xb9-\xe6\xf7\x9b\xa2\xd1\x92\xd2\xb2\x8f*n\xee\xaf\x14\xb1z6uSa\xb2\xaeDb\xe7\xb3\x04s\xac\xcc\x94K\xa9f\x8d\xb4\\\x94\x83v\x8c\xd5f\x881j\xcb\x99\x99B\xe6\xebW6\xf5\xc1\xc5\xfa\xbe\xf9\xfb\x9de9\xd2\x1aFi5\xa9\xa63\xc4\x99\xf0\xb8\xber\xe7f\xb8\xd6\xe6[1\xb4\x08\xb2\x0e\xd5d\xd4kUtl\xc5s\xc2\xbc\xf2HL\xde\xa4\x8a\x8a"E\n\xf6\n\x98\xcc4\x035\x05\xa2\xd0\xad13-X\xd4\x0f5\xdc\xbat\xb8\xdd\xfc\xae\xdef\xcb\xca[\xcc\xe9r;\x99\xfc\xddn1\xed6\x91\\\x0e\xb7\xea\x9e\xee_8t\xf9\xeezn\xf4\xcd\x1a\xe7\xbf\xa4\xd8\xa4Z\t\xc6\xcb\x8b\x8a\x1a\xcd\xeaK\x0b\xa6[\xac\xbbm2t\x17`\x06Is\xcd^v\xb9\x06]\x0b\xb3.\xae\xe7N\xc7\xa6\\\\&amp;\x18\xc5fD]\xd0\xa9S5\x90\xac\xf0\x9diy\xd4\xc4\xb0\xc7\x9a\xac)$\x03J\xba\xe17\xe8\xee&gt;\xc1\xd3\x98\xe3J\xb5J0r\xe9i\xa6V&lt;~\'\x85\xcdN\xb1\x97Y~\xf0T2\xa9U\x01\xabSGt\xfa\xdfc\xae9,\xf1\x99\x16%\x90\xaa\x91U@\'\xb2\xbaNI\x1e(\xcb@\xb5h\xca\x12R\x10m@\xb0w-\xf5\xb9\xefnzuy\xbb\xb2q\xb2\xe0\xf3\xa8\xe2\xea\xc9\xedY\xf4Y\xbf5\xe5\xd7\xd1k\x1e\x0b\x1b\xf2\xbd\xdfu\xf7\xf2\xe8j|\x17\xcf\xdb_y\xbb\xa65\xeb=\x0b\xa6\x8cd\x0eDr1\xa9q{\x8c\xb9&gt;\xb1\xd5\xa6\xcd\xe7BF\x983\xac\x13A+\xb2X\xb0\x9a}w\xac\xefk;\x936o\x0b..o&gt;\xe7:\xaa\xdc\xf6\xa9r\xdc\xe2\xb6\xa5.\x8e\x86L\xcb425V\xeb\x1d%\xca-s\xe6\x92\xbfV\xe9\xcf\xd0\x8f1&amp;K\xb1\x94\xe4!\xd4i\xc5\xcc\xf9\xc65\xcd\xd6q\xeb8\xcdV8\xbdP\xcdM\x8ah\xedul\xb3X\x9dg\x8b\x9e\\\xe6GIqDZ\xa8\x0c\x9e\xcbZL\x02\xbcNf{\xa0\x80\xaa\x80Q\r-#E\xcfZy\xde\xb7=t\xddz8\xd7}\x9e\x8e3\xc0\xe5\xac\x18}&amp;\xe3\xe4\x1c:\xe1\x8e\x85\x9d\xfb\xcf\x81\x8d\xf8\x9fF\xba\xfe\x89\xf4\xfe\xd8\xf3\xd9\xd7\xcd\xf3\xd3\xbb\xd3\x1bl\xea\x8f\xb90N|\xb8d\xab\n\xab\xa4\x97%s\xaby\xd7\xa3\xe3$\xd7/\x1aVt|\xda5\x93S\xcd\xb5==V\xa7\xa6\xd6z\xa6LO-\xc7^b^d\xca\xf5r\xea\xe5\xd5\xd5g&gt;^z\xd9\xa7\xac\xeb\xd3d\xc1,\x8d\x19nM\x12\xd8-s3}*}\x13\xaeuF\xd6y\xd9\xdf.\xe9e\x14\xc9\xd1\x84\x9e_:\xf0sB\xc6TE9\x08\tj\x95\xb1\xd33v\xeb[nd\xc71\x8e\x14\xceM\xa6\xf3S\x16\x01U\x0fc\xbd\n\x8a\x94\x89\xcd"\t\x16)AM-\x0b\x15\x92\xeb\xc6\xba\xdc\xf5\xdc\xc7^\xcc\xbd\x04\xd5\x18\xf9nq\xc7\x9d\xce\xbc\x8c\xd8k\x0fc\xb3b5x[\xb9w\xae\x9fW\xbf\xde&lt;\x16w\xc9\x8e\xee\x9dK\x8d\x14e&amp;\x13$\x92\x03S&gt;\xb5\x9e\xf3\xab\x97X\x15\xc6\xbbD\x8eWK\xb2:Re\xce\xba\x17N\x91\xd5\xecv\xf5\x15\xd8e8\x9e;\x93\xc4\xf1\xe9\xc6\xd5f\xf1\x97u\x07\xa1\xd69\xd8\xd7\x0bT\xabV\x9b\xb5\x08M\xa5\x0e\xcc\xdd\xcbZ7"\xe6\x97\x9b\xce\xfb\x9e\x93\xd7o-e\xd9\xbc\xaco\x9b\xaa1Z\x82\xb1\r5\xd0G\xcfgN\x0c\xd1\xe7\x98j1,\x02\xe9T\x19\x0c\xd6\xcd]7\'2\xa6xW\x1c\xbd\x93\xbc\xd4\xe7* \xd5\xdb\xebu`\xab\xa9\x03\x96\x84!\n\xb1*\x01\xa4\x8a\x9a\xd6\xd6\xeco\xa7\xc7^\x8e^\xf2\xea\x82\xe7Q\xce\xf3y1\xe6\xf8l\xeb\xcf\xdcu\xb7:\x9d3\xd7\xdb\x88\xa5Yu\xa4\xea\xfa;\x9e\x0c\xad\xd4\xeb\\\xeb\xad)\x0c\xeb\x98\xcf\x19\x13,dc&gt;\xb3\xa3N\xce\xb3\xe7\xee\xb9\xcd?E\xcdz[\x9fT\xc7\x94\xcfFMl\xc5\xdfs\xe9\xf5}\x15\xbe\x8d\x97\xf3x\xbc&lt;\'.\x9c*\xbd\xc1\xd4\xadgl\xcc2j\xa5M\x0bR\xd4K\x1d\x9b\xbf\'\xedk\xce\xe7p\xcd}7x\xdfZ\xb5\x17\xcd\xc1\xce\xd1m \xea\xa8;6&amp;\x84\xa3\xcf\xb5\xe0\xb3\xd7;:Q\xe1%\x8dH\x02\x8d\xade\xc3\xdc\x868\xf5\xc1\xac\x9b\xc2\xf5\xca\xaeeU\xb0\xf5Z\xa1hMT\x14\x9a\x10\xc0EZ\xa9\xa5\x84QS]6\xfaX\xd7O\x8e\xbd\x16odr\x0f*8\xbc\x9ckd\x9c9\x8f\x9a\xcd\x1fX=\x1e\xff\x00\xa6yX\xbe\x92\xe7\xa9\xab\xf3\x9ct\xd4\x8a\xd9:tS]\xce\xb3U\x12\xa0\xe6f\xf3L\xcc\xe7\x91z\xce\xbdN\xfe\xb3{x\xcc\xef\x1c\xbd=OK\xa5\xe6s\xf3k;|\xd7oY\xf4\x1a\xd7N\xe7\xd5\x9dLO\x11\xc6\xf8lt\xf3E\xed5\x91b\x17`P\x05\xa1PJr1tK\xb7F\xcbg\x1f\x9dNo\xd4\xba\xf3Lo\xd1Y\xd7\x15S\x0b\xa5\xdd&amp;\x13][\x8d\x89\xa4\xcfu\xe1\xa6\xf9\x92\xd9IP\xc1\xf2V\xb2Mi\xb3}\x9b\x19fs\x8f3\x85\xad\xf9\xe6y\x1a\xc6Mr\x1dB\xdc\x02\x8fM\xaa*-\x0c\\=\x1c\xc9\x8bT*T\xd2\x0c\x9b\xeb\xce\x9d\x8c\xeb\xa9\xc7]\xc8\xe9#\xc0\xc3\x99\xcf^W\x9e\xf9\xe9\xe8\xb5\xcb\x88\xbe\x1bz^\xdfF\xd6:Rvs5M|\xc3\x9fL\xdao\xeb\x13\xa7M\x96V\xdb:f\xbbA3/*99\x99\x19s\'M\xd4\xe9\xa5\x18n\xdd\xa0F;U\x9a\xbc\xeb\xabo\xa9\xd3\xa7c\x0fZ\x9d\xccO\r\xca\xf8L\xef\x80M\xabQs\t \x14\x1a\xb6\x903Tj\xd3T\x9b-cU/\x13\x0c\xf9\xbfI\xd74[\xd0\xb1\x96\xe1\xcd\xca\xa8\x15\xa9\xcf\x9a\xe4\xcb\xdb\xb9\xec\\\xee\xb35\xd7!\xa5E\xd4\x03 \x04\x1b\x9aR5\\\x9eb\xb3q\x1c\xa9x\x8cqn9\xbdy\xe7\xd6GA\xaaN\xfe\xb5\x16\x14Z\x98\xe4pU\x9a\x16\xb2.]S}\xbe{\xed\xb5\xd7\xce\xba\xfc\xdaB\x919\x9c\x0co\xc8s\xb8+\xaf\xb9\xdf\xbc\xbeq:f\xafU\xbc\xfd\x13x\xc9\xca\xf9.\x1d&lt;\xdd\xd1\xeeuz\xabN\x85\x8fMgWS\xa3a\x86f\x97\x8d\x9c\xf1e\xc11.YmE\xd5R\xda&amp;\x96e^\xf5z\xdd\xbaI\x05\xaf\xaaOM\x99\xe29\xdf\x03\xcb|m5\xeel\xd6s\x98\x80\xac\xf3H!f\xbb\x9dF\xbb5\xc3\x88\x04r\xe5\xe6c^\xc7Y\xd1f\xbdN\x8e\xf4\xac\xdc8\xb9Ei\xc7\x97\x8f5\xde\xde{\xba\x9bl\xcd\x19U\xc6\x8b5\x06g\x80\x00J\xe4\x930\x98\xcb.#\x16\\\xb9\xcf\x9d\xbc\xf1\xb7\xcf\x0e\xb2\xbdA\xd5\x93=}u\x84("\xcbG\x0cD5ISW5\xd0\x97\xd3\xf3\xd7zk\xb3\x9d\xf4\xf0\x18\xe6\x88\xc4\xe6by^W\x91\xbd7w\xd6\xde|L\xbct\xdfO\xbe~\xe1\xd7\x977\x8d\xf3\x9e}\xf2\xf5qn\xf6\xbaTYR\xeb\xb3Mu\xee:z&lt;`Ec\x1c\xe5\xf3\x99qQ\x11v" Z\xd4m\x95\xe8\xb7\x9fW\xa3\xad\x04\xb0f\xbd3&gt;\x9d&lt;\xa7;\xf3\xfe[\xe3\xa6\xed7t\x8f\xb2\xb5"\xa2\\\xd2\x80\xda\xd0\xc9!\xa1\xe6\xd8\x86U/"_7\x8b\xd8\xb3\xa7\xac3z\xf4\xdd\x1a&amp;\xb9|\xd9%M\xbc\x89\xaeU\xbe\x93Y\xee\xd9\xb5&amp;\x82\x15\x14&gt;\xae\x00^J\x12\xb9$\xc8d\x97\x19\x86\\\x99\x98\xa7&lt;Z\x9c\xadc\x9fs\x9fy^\x95g_Z\xb5\x80\x96\x12\xc4\x89`\xa9\xac\x96g]\xa9\xafW\x8dz9{3{9\\\xa7\x1eI\x9c\xd6g\x90\xc6\xbc\xcbL\xdb\xd2\xeb&gt;\x86\xe7\xe4\xdc{p\xfa\xdf\xbe\xf6\xe3\xd0\xce3\xf3\xbeS:\xe7]\xfa^\x99\xc6rq\xadvj\xdb\xaf\xbcul\xd2\xaf\xadp\xe9\x00\xe6\xcc\xf09\xce*\xf3\xb1p\xe5Z\xbb\xb7z\xda\xd7o\xa6;:\x87t\x96\xaa\x05(\xee\xdc\xfa\x9b8\x18\xbe\x1b\x9e\xf9\x18\x93m\x9a\x9d\r\xce\x82&lt;\xba\x90\xa0\x80\xa4H\x800J\xe5\x933&lt;\x88\xf3\x13Xmm\xc6}\xefu\xbfB\xd6u\xe6b\xce\xb3\xb5\xc6\xce\xf2\xb5\xedw\x8e\x8aj\xa6\xd9*\xea\xc8*\x17\x98\xa6\x94\xaa\x91(\x83$\xb8c2\xe5\xces\xb1\x9a\xb9\xac\xf3\xb5\x9c\x1b\x88\xdeF\xce\xc6\x91i\xaaJBRAK$\xac[VN\x9e\x86o\xd5\xe1\xe8\xe5\xed\xf3\xdb3\xac\x13&lt;nm\x1a\xcbs&lt;\x86u\xc4k&amp;\x9b+\xe9\xbd\xf9\xf0xk\xe1\xfe~\xdfD\xef\x8f\xa2\xf6\xe6\xfc\xde.E/\x9c\xce\x91\x03c\xb55uu\xb5\x8e\xaai\xb5\xf5\xbc\xd3#@\x99\xcb\x8c\xe0^^nX+_u\xb3m= \x81:.U\x14\x97goS\xd5\\\xf2\xb1|~/\x1b.j\xe8\xd3\xa5\xbc\xf6nu\xd1!\xb4\xd5\x04\xcf\x19s2\x99\xe1\x068\xc1\x9c\xe2\x93\xce]y\xbbkx\xad\xb35\xbe_g3\xd7\x9b\\\xd7\x9b\xce\xbbZ\x9e\xebpcU:\xc0\xa4\xca\xb8X\xa4\\\x80\xaaP\x84\xa6t\xcf.\\\x90"e6$\xc2`\xdb\x9f\xacd\xd6W\xac\xf4\xf7,&amp;\xa8\xa4\xb5\x92S6\xb3:b\xd9\xb6o\xd5]\xfa\x9c\xbd$\xd7k\x96\xd5\x9b\xc7\xe70I\xb9\x9er\xf9\xfck\x1a\xf2\xb4\xea\xf5\x9e\xff\x00\xd1\x8e\x97\'\x95\xe3\xdb\x8d/\xa7\xe9\x9e\x8d\x1a{9\x8f\x8e\xf0\xe9\xe41\xad\x9d\xb0\xedM\x9bt5\x9e\xa5\x9a\xd7F\x9d\x04\xe8\x0fI\x98RV\xae\x0cL\xf2\xc6\xe5K\x17\xb2L\xeb\x96m0)\xa7N\xbe\xaf\xad\xbc\xd3\x97\x95\xc3\xcff\xf9\xdc\xe9\x9at\xbag\xb5]\x06]ce\xa1V\xe7\xccFJ33\x9dra\xcb\xcb\x9bg\x9a8w\x0b\xeb&amp;\x80\xd2\xb3\xbe\x94z\x0cm\x8dr\xe5\xf6\xfb\xc7\xaa\xd4;^JP\xac\x80\x04\xcf&amp;{\xa5\xc2!B\x91h\xa9s\xe0\x88V\x8a\xa5\x99i\x1a\xce-g\x0c\xca5\x86\xf4\x97Lj\x17\x05aIQ,\xb9nSk\xaa\xd7\xac\xbb\xf5\xf9\xbd\xec\xeb\xa9\xcbI\x97\x8d\x96l`\x8e&lt;\xb8%\xe1*\xb6\xe9u\x9e\xbf\xb6}NoO\x96\xb9\x18\xd7:\xe8\xf5r\xb1\xdd9\xdc\xdf6\xe5\xac[\xcb7\x9e\x9e\xe6\x9a\xde\xce\xfa\xd9f\x9d\x1ek5\xa3 \xa9P\x19/A\x8b\x15\xab\x94\xc1\x19eR\xa9v\xeau\xf4\xf5\x1a\xcc\xcc\xf3\xd9\xbc\x0c&lt;\xc6wZl\xdeu.\xeb\x9d\xac\xea\x05\xa4\x92\x07$\xd9\x92L\xf1\x8f.Rq\xe3\xcd\'3\\\xeby\x9b\xa5u\xa7:d\xda\xb9t\x8dz\xcdg\xd8k:m\xd9U\t\xa5\xd0AB\x97,\x8a3\x89\x84\x0b@\x85\x08\xc9"\xedX\xb16\'L\xda\xce9\x8c\xf78u\x92\xa74!\x0c\x0e\xe5\xc8ir\xc6\xb4M\xfa\x06\xbd\\\xd7\xab:|\xee\xfcle\xe2`\x9c`t\xe3f\xf2\xe5\xe5\xda;su{]\x1fZ\xe8\xecra\xc5\xe77,\xcdfYr\xcb\xe6993&lt;\xab\x9e\xff\x00I\xda\xd4t\x9a\xec\xdf\xa6\xbd\xc6V\x93j\x1b6\xb1L%T\x94\x05s\x97\x9d*&amp;lS[5:\xda\x9e\x97\xa0y\xceFu\xc4\xc3\xcd\xe7C\xa6\x9d\xe7\x04\xa87\xd9\xd7\xb1\xca+$\xac\x94\xcec,b\x8el\xcf\x1d&lt;\xecb\xd6glV\xebs\xbe\x94\xbd,\xdd\x19\xe9\xaaOO\xa1[k\xa5T\x8bU\xda\x19\r\x04f\x91\x08\xa5X\x98R,T\x83\x98\xb0)J\xaa\x08V\xd9\xf5\x9c\xf7\x9e]NC-G]\x89E\x14\xcb\xcd&amp;\x88\xa6\xbaw~\xaeo\xd2\xcb\xdf\x97v.\xdc\xe82\xe4sf\xcey\xf5\xe7\xf3L\x9ay\xa9\xa5u\xbfA\xed\x9f\xab\xf5\x9d\x1el\\\xf5\xc8\x9a\xcfNX/\x0e?7/8\xf1rq-\xf4z\xcfWm\x97==\xb7\xeej\xa7,Bd\x86)\x00\xab\x04A\xcb\xceV\xbb\xec\x15\xc75\xb3suu\xf5\x19\x9777\x99\x97\x9e\xce\xb2\xa6\xfd\xe5V\xf2e\xb3A\xa8}\x14\x0ebi\x12d\x8c\x869\x9e,\xcf\x00GI{\xe77v\xcdz\x18\xdf\x9dt/N\xb4\xc1M\xf3\x1d\tt2\xb5\nP\xbc\x95K\x97:*E(\x01\n@\x06I2\x02\x95u\x01\x13\xa2.S\xaey78\xac\xb8mQ\x00\x81H\xdb\xebh\xf9}\x0c\xdf\xa8\x9d=\x04\xbd&lt;6.\xf9o,\\\xf3\xcc\x8e=b\xcd\xe5K\xcc\xb7\x97n\xfd\xbd\x9fi\xef\xba=\xbc\x81\x9b\xc1\xc6\x960J\xab,\xb8+\x9e3\xef\x97\x8b\xce\xf8\x92\xf5\xbbN\xae\xa7Z\xcd\xd6k\xd1\x96\xad\x9a\x0ct\x92\xdc\xea\x88\xcee\x97:u\xae{\xd6\xe3k\x93\x07\xa9\xb2\xb5i\xa22\xe5\x80\xe1\xe3\\\xb9:[\xcb\x8f?4\x11\x9c\xb5\xde\xad\xb2\xe1t\x8c\xe5\x12"Lrr\xb58&amp;}\xe6\xfab\xf4\xe8\xcdzi;\xad\xf5T\xb0\xe7\xf3\xeb\xc9n\x0c\xb2\xea\x99R\xa9T\xa8\x84H\x00\x14\xc8\xaa\xe0,\xa4\x93 *\x03V\xed\xa1V\xabXN\xb1\x96\xce\x1d\xcbdm\x95\x14\x02\x85\xb1Zh:\x99\xdf\xb0\xc7OE5\xdc^\x965\xb3X\xd1\x05\t\xcb\x87\x8b\x84\xe3\xe6\xfc\xfaon\xa6\xadG\xebz\xf4\xfa/\\}\x02\xca\xc5\xe5gX\xe5\xb3}\x8e\x89\x17\x9cq\xa7&gt;\x1c\xbe3;\x9bu\xbag\xabf\xf3^\xe1\xd4@Q\x83dS,\xb9Z\xca\xc86\xc3\xd6\\\xf5m\xe5\xd9\xc2\xba\xb3d\x93F\xc6x\xe6K\xc9\x97\x14t\xb5\x91\x8f7\x9dt,Q\x8d\xb3\x1a=-&amp;r\x96s\xe2c\x97\x95\xbcq\xae\x93\xbew\xdb\'f\xceZ\xedk]\xfa\xe8s\xbaf\xb2\xe3|)\xd3"\xeaC/X\x05R\xa8H\xa8Z\x81LP \x91$\xca\xc5Z\xba\xb2\xd4t^\xf2\xab\x8c\xc9\xc1e\xb6\x1c\x05\n\x89\x08\xb0k]\xc9\xd3\xda\xf3\xdf\xa4\xce\xbb\xd9\xd7Q5k6\x00\x9c\xdeG;\x85&lt;w=\x1e\x9e\x9b\xa7&gt;\x1et\x8b\xa5\xef^\xf7x\xf4\xdb?\x15X\xd2\xc16V\x84\xd2l\xcf&gt;\x0c\xc7\n&lt;fz\xf3+\xb3\xd3=D\xe8\xd8\xfd\n\xac\x88\x94\xa3,s\xe5\xe7JF\xdb\xa3N\xd6\xa7CS-\xcf\x16i9\xba-j\x11\x8dyr\xf2\xe5\\\x86\xcaW\x1c\xbe\x9by3\x915\x8e[\xb5\xb2\x1d?8\x19\x94fc9,\xf1\xb4_\\\xb7\xa6KSf5\xb6^\x95\xbb\xf3\xbe\x8e[1\xacMy\xdc\xe9\nt\xfd\xe0`dX\xa1m\n\xc6i)F\xe2\xac\xa0r\x18U\xab[\xb2\x8a\xb0w\x85\xeag87.\xaa\x91r\x88E\xd4#N\x9d=\x04\xdf\xb2\xe7\xbfL\xbd\xfck\xa4&lt;\xa5U\xce|\xcc\x19\xb8\xb1\x9f15\xe9\xb7\x9dZ\xc7\x82\xc7\\\x0bZ\xd7\xb1\xde=\xafh\xd6\x8b+\xc5h\xfb*P\x93D\xc4\x98\xe4\x9f/\xc7l\x1a\xcf\xa8\xdf=\xda\xbb\xd1\x95\x0b(K9e\xc3.\x03\x1c\xbb+\xb7`\x9e/;m\x9d6p\xcb\x9d\xad\xba\xc7J\xd6Y\x92^t\xbc\xd9P-\x1c\xa4z\x8dg\xa7fIy\xcds\xe83\\\x8e\xceI\x94L\xe29rs5\x15\xd7\x05\xd2\x1a&gt;m\x86\x99\xbe\x84\xd6\xec\xce\xcd\xbb\xcevo\x94\xc6\xc4n\xf3IY\x04J\x15\xa5\x19\x90\x03T7\x9a*\x07\x08.@\xb4l\xads\x96/A\xa0\x97\xcfo-\xc8\xa9p\x01\x96\x15[Z\xb1\xd7\xd2:\xfa\xc9}\x86/o7`\xc5\x05^\xb0\xa8\xcd\x86I\x9e~]\xddGj\xf0\xb3\xaf;\x95\xe9\xdc\xd4\xec\xf5\xba@\xc3=\xd6\xdc\xe3\xa0\xde\xcajVq\x99\x8f\x11\x8d\xfc\xab\x1d4\xef\x9f\xb9\xeb\x97\xab\xec\xd1P\xa5\\!\x8ed\xbc\xf9P\xae=\x0e\xb3\xd3\xb9\t|\x1e7\xc2\xe5[UG\xd2n\xadV\x18\xb5A\x9a\\\xb1F\x8ai\xde\xb9\xedj\x1e\xae\x19y\x8b\x976\xb9\xc3\xb0\x98L\xce#\x9b3\xcf\xd9[\xc3;d\xe0\xe6\xad[:h\xc4\xd9]-\xba(&lt;\xf5\xc8\xce\xb1@Y%\x19\x9aC\xa8\xa3(\xaa\xea\xb6^\xa0\n\xca\xb3"U\x05\xc2\xc1\xa9d*\xd0\xaf=r\xcc\x8f@\x81,\xb2\x05:u]}C~\xab7\xd8bw3\\\xd4U(\x0bg6IE\x9b\xac\xd3t\x893\x14\x10\x1a\xb1\x021\xb5\xb5;+\xd1\xb3\xbc\x9e;\x9b\xe2\xb9\xdf!3"\xb4\xf7\xdb\xc7[PcPt\xbaVHNdgV\x1d\x8a\xf4;\xce\xb9\x99\x97\x0f7\xc4\xf2\xde\x19f\xeate\xac\xb9e\x1a,X)K\xae\xb5\xeatY\xea#\xb5R\xb92\xc15\x93\x9d;\x92c4bNzs\xb5\x99\xd2i\xdemh\xa5\x8d^Fo\xdb\xa9)\xe1R\xe3\x8c\xb9TS6\x1dR\xd2\x84\x0e\x81\xbd*\xc5H\x11L\x8d\x05\xc8f\x05\xb1.\xda\xd0A_&lt;\xc3\x02(\x84-)[;\xf6\xe6\xbd\x86o\xac\xc3\xd5\x9b\xb4fv\xc9\xb0P\x00R)\x98\xd3\x91\xadS)\x16\xb9\xe5S"T\xa9F[\xd7\xa36G\xe7_\x1fO)\xbb\xd7\xeb\xce\xac\xe5\xaf\xd2\xb7\x8e\xf6\xb3P\xd9\x07\xa0i8\xa8\xc96Q\xb5{\xbb\x9dn\x99\xd1#3\x13\xca\xf8\xcez\xe4\xcb.\xb0j\xe5\xaad\xf4"\x98\x1a\xb5e\xcfCm\x03\xa4\xd7Gh\xe6\xaf$e\x98\xb6A2K\x89\x8e~\xb3\xcd\xd0\xb76ih\x94\x00\x96\xd4%\xd6\xbdkv\xcai\x9f\x17\x14\xa1\x95\x97W3\x14\x14h:\x15J\x17\x88\xb4\xadeh\x00\xcbI-\x9a\x08\xb9D\xe0\\4\x85\x90\x84K]\x17\xb7\xa5\xc6\xbdno\xad\xe7}\x18\xfdV+s\xd2-\x00\x02\x08A\xac\x04\x04Y\x923\x17C\x85E\x91kNO+\xf1?/C\xeb\'L\xf75\x9fO\xac\xf6\xeb\t\xa5\x9b\xb9\x9d\x0b\xb7.Y\xb1KSMt\x13\xb5\xd3=\x1b.\xaeV\xf2r3x9\xa2\x05\xb8\xab\x9b\xa6r\x14\xcbQ\x95\xa3M\x05$\xb5\x85\xa1\x8d\xcc\x99\xc8\x11sFH\xc1s\xce9\xda\xcc\xe94\xe9l\x8a(u\\\x00\xc6\xf7\xddtf\xb5\x02b\xcdH\xcc\xc9\x17,\x06En\xabE\xd2\xe1y"\xe6\x98\nYR\xdaV\xac\xb4!2\xc4\xe0k$\x84\x11e\x14F\xf7\xbaz\x9c__\x9b\xec0\xea\xdd\xb0m;="\xd1\x08Qe\x0b@\x16&amp;2"\xe5\xba\xa8\x0cE\xe6\xe3\x9aE\xbf&gt;\xe3\xbf\x17\xe7\xd7\xb0\xef\x8e\xf7l\xfb\x8e\x9c\xfd\x0e\x9c\x9a\xf9\xfe7\xbd\x97o\x9b7\x92\xae~u\x9f\x07i\xb6\xb6\xa7Gsm\x8e\xa6\x15\n\xc3\x9f/"\\6\x98\xcdL\xe9\x92DH*V\x1d\x04R\xda\x02\xe6\xb9j\xefgNZ\x11\xb5\x82\xe7\x9b\x9d\xf3\xe69\x9bb\xd6J\xe5\xfaY\x00K,\x815\xa1\xbe\x8do\xa3\\\xb3HK\xcae3e\r\x89\xb5H2g\xb5\x0c\xa6\xca\x92\x8a)\xa9d\xb2((E\x1ev\xe6\xc8\x1a\x10$\t\xd3\xac\xdf\xa4\xe7\xbfg\x87\xb3gCM]\x17G\x9d\x9a\xd1\n\x00\x80 \x00g\x17"%\x02\x14g\xc19d\xc6\xddggS/\x1b\xbf\xae]\xb2uV\xb7\xac\xfc\xe7\x9e\xde\xce\xde\x9c\xf4o,\xd3\x0e\x19\xb3][,\xd5O\xd2!\x94gT\xe0\x8bqFkF\x0e\xad\x9ad\x85\xc8\x00*T\x04\x98%\xcdgJ\xe3\xb5gJ6\xa1\xeb\x1c\\o\x96\xbc\xf3\x9d\xbeY\xea\xb4m\xc9\x91"\x89\x06)\xa9\x9a\xab}jQtR\x0eK\xc9x\xb7\xb0\xe8\xb8T\x8be\x16"\xc5f\xdaH\x1bGV\x04\x90\x05\x18\xa3\xcd\xdc\xd9\x0b,\x83Yc\xafV\xef\xd2r\xd7\xbb\x8fS\x99m\xb8\xd14m\x91\x14Q`\x80.\x00\x01H\x12\n\xd0\xb0\x04\xe6\xe7\xe7\xac9\xa1\xa7\xa2\xd4\xd2\x9c\xec\xd1\xac\xdai\xdb\xa0\xcf\xcc\xb9\xebu\xc7O\xa6\x1f\xa8\xdaD\xb91KSe\x99\xd7\x8e\xb9\x94\xd0\xca\x003}\x86f\x97\x1c.\x9b0\xcb\x04J\xa0D\x02\xa1\x12t\xb5\x9e\xdb;\x8d\x96&lt;\xc6\x9ciy\xf2aL\x1a\xc2v\xaa\x94pTI\x02B-m\xa8iMv\xbd\xb3\x17\x01\x9a9MQ\xb1p\x94T\x8a\xd4J*h\xa6e.\xd1\xb2\xd6\xca 0\x07\x9e\xb2\xc8B\x8b\x1f\x0fo\xa9u\xea\xf8\xbd~u\xd9oFf\xab^\xd9[jD\x12&amp;\x00\x04\x19\x98\xc0\xb4\xb5\x00\x14E\xb4\x99\xac\xf9\xb8c\x0c\xbd[=\x06\xa4\xc8\xd2i\xd6\xdc\xcd\'\xc3xuv\xb3\xea\xb7\xc7V\x9a\xac\xd4JU\t\x9a^"\xf9\xd9\xae|0}&lt;r\x19\x8dB4\xc9\xabM\x127X*\x10\x11R\xad#:\xeb\xa1s\xbe4SlQ\xc9\x97\x9b&amp;9\x8c\x1a\x98\xba\x06\xc8\x95m\x97F\x84Y\x16(\xa8\x8egM&gt;i\xa1D\</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495717-asesinaron-a-un-adolescente-por-defender-a-una-companera-de-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El Polo Cultural Saldías fue distinguido por la Legislatura porteña  </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fue declarado Patrimonio Cultural</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fue por iniciativa del legislador porteño Matías Barroetaveña, que por AM750 destacó el rol que el espacio cumple para la cultura porteña. </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El Saldías Polo Cultural fue declarado Patrimonio Cultural de la Ciudad de Buenos Aires por la Legislatura porteña, a partir de un proyecto impulsado por el diputado Matías Barroetaveña, del Frente de Todos. Se trata de un importante espacio que funciona desde hace años y por el que pasaron miles de artistas, y es impulsado por el Grupo Octubre.El Saldías Polo Cultural cuenta con una larga historia de más de 13 años. Lo que era un viejo galpón abandonado al borde de la estación Saldías, ubicado a pocas cuadras de la Villa 31, se transformó primero en sala de ensayo y más tarde en un complejo por el que desfilaron múltiples personalidades de diversas expresiones artísticas. Sobre todo en los últimos años, además, recibió a miles de espectadores.En diálogo con AM750, Barroetaveña destacó la importancia que tiene el Saldías para la cultura porteña. “Es un lugar muy importante de la Ciudad de Buenos Aires, que muestra cómo la cultura se hace de forma colectiva desde la sociedad civil. Es un lugar que no es apoyado por el Estado porteño, que recordemos que viene bajando el presupuesto para cultura”, señaló el legislador porteño.“Esta declaración reconoce la producción cultural que se ha hecho a partir del Grupo Octubre, y que tuvo como protagonistas a Luis Alberto Spinetta y Fito Páez, entre muchos otros, y a un conjunto de bandas que legitiman ese espacio”, agregó Barroetaveña, que destacó la “enorme vida cultural” que tiene Buenos Aires.“La política sin la discusión cultural no tiene demasiado sentido. El Polo Saldías está en un lugar que es símbolo de la desigualdad, de un lado, lo más caro de la Ciudad; y hacia el otro lado, la villa 31 y el barrio Saldías. Están todas las desigualdades. Por eso hay que defenderlos, también está amenazado por los negocios inmobiliarios”, señaló Barroetaveña.“La Ciudad de Buenos Aires es de los porteños, hace 15 años gobierna el PRO y creen que son dueños y pueden disponer como si fuera de ellos”, se quejó el diputado porteño.El Polo Cultural Saldías fue utilizado como sala de ensayo por primera vez por Spinetta, de cara a los ensayos para el show con las Bandas Eternas, que se realizó en diciembre de 2009. Antes, era un galpón abandonado entre una de las puntas de la Villa 31, el camino que conecta con Aeroparque y el coqueto Barrio Parque.
+Desde hace tiempo, el sitio es un punto clave para la cultura, con show y presentaciones de todo tipo. Se estima que hay alrededor de 1.500 artistas que forman parte. Tras una alianza con el Grupo Octubre, el espacio que nuclea a los mejores músicos de la época contó el año pasado con un enorme festival del que participaron decenas de bandas y tuvo el cierre de Fito Páez.Una de las mejores características del Polo Cultural Saldías es la variada programación que llevan adelante artistas que están establecidos en el lugar, donde cuentan con sus propios espacios de trabajo. </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x02\x10\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x02\x03\x04\x06\x07\x01\x00\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x04\x01\x02\x05\x00\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xae\x10\x80\xe7\x98\xf5\x04\xf9\x15\xd5\x0f\x1dl\xb8\xbb\xfd\x96&lt;\x92\xf5\xed*\xcf\x93\xea\xa6\x8b]L\xc6\xc2\xba\n\x9a\x7f\xcfj\xe6\xd5\x9b\x8dG\xd4\xe3\xa1iq\x80\xf0\xd8Sc,\xaeHR:=u\x97\x07w$\xc3\x9fJ\xb2\x89p\xba\x11]\xb3\rb\x91S\xe7N\xba\x89\n!J7\x04\xa4RU\x87\xbd\xdb\n\x18\xa2\x83\r0\xf8\x98d\xa1R\x80\x8bJ\x95[ c\xc5\xa4\x16J\x0e\x88\x95&amp;\x0c\xfe\x1dU\xce&amp;4YB\xbcA2\xdb\xc9\xe5\xb8\xfb\n\x81\xca\x86\xefi\xd2\x03\x96\x1f\xd4\x1c\x94\xf1\xa1;\xce\xf2\xbc\xa4\xf3\xdd\xcb\xf7\x932\xef[_r{\xefZ}\xef{\xbb\xdd\xf7-\xddS~\x9eW;\xce\xe5s\x8a\xb7{\xbcWw:\xa5\xc77\xe9\x0e\xf7Gy\xe7k.\x1b\x0b\xd0\xcd\x98X\xe6\xba\xb3\xbb\x11\x92T\x93\xc2\xe7\xf79$I\nA\x1ds\x14\xd3\x02\x0c\xb0A\x18\x0eX\xb5~\xc1]Y\xc9\x9a\xa6QdWb8\xb2\xa2j\x9d\xce\xb1\x02l\xf4Y]~\xb6\x0edy~!SC\xec\x0b\xf5\x8d\xc7\x1a\xc5\xd0\xea\xd4\x82w\x12\xbe\x01\xa8\xd2\x81S`\xa4k\xe8wo-o4\x8b\xd7G/R\xb6y\xddJm\x1f@\xcf\xb7\x10\xf2\xd2\xb7\xd6\xf1aS\x84C\xebiy\xda\xdc\xf3\x88\xe8\xe4\xa8\x8eV\xb3\xc7\xcf\x1f[9\x06Tb\xdb\xd1d\xf8\xabG~*\xca\xb9v\x16\xb9]\xb8\xb3\xc3\x14p\xa0\xcdh\xe5\x8f\x06j \x90\x0c\x8b\')D\xec\x91\xb3[PBC\xc8\xb7gE\x9f\x15\xaaE\x9f\x02]k\x9dE\xb9Hu26\x17\xd6\xf9I\x1e\xe7E\xce1)\x99\xa8\xa8\xae!\x80\xfb\xc9\xec\xdb\xde\xef;\xbb\xef{\xbb\xae6\xefr&lt;\xafwq|\xf4\xf3~[\x96\xe6z\xe7m\xc8W\x95\xdd\xe7;\xce\xee\xad\x0e\xd6R\xe2\x15\x1d\xee\xf5\x13.\xf9\x1d\xe8R\x93\xea\xf3\xad;#\xb9\x86\xa4\xfb\xa21\x18\xaa\xeeqnG\xa7.\xddE=q\xc2\x1eDm\xe2x\xa2\x11@\xcb/\xc6rb\xc4\x04\xf04Y\x91-\x95X\xd3\xdb\x82\xf5.\x92\x83]\x8b\x1d5OU\t\xb8D~\x17\x9f\xd0{\xa9i\x9a;W\x83\\h~e\xd4\xb9D-\n\x9aHK\x88\x8e\'\xa1\xe4\xfav;\xe1s\xdd\x06\x8a\xe0c\xbb\x1d\xdd4\xdc\x91\x12h\xac~D"Y\xdb\x11\x94\xea\xa2\xf0|\xecy\xa1\x18+o\xa6Li-\xf5\xe3w\xdd\xba\xed3%\x17\x1a\xe7\nl\xab\x16\xad\x10h\x82\x88\xc4\x98L\xd9\x95\xaa\x1c\x16WZ\xf5A2+\x9e\x8a\xcd\x8d.#\x99\xae\xca\x83\x12h\xb0\xc7\x81\r\xb6\xa3\xc8\x8b\xc5\x91\xee.F\xc2\x08D\xe4\xfc\xbe\xa6\x95\x90\x97$Rj\xf1\x0c\x8dh\r\xad\xd6\xfa|\x95\xf6c\x89Z\xed\r-\x97:}\xcf{\xb9}G{\xbb\xeevyKG\xba|\xe2\x1c\xe8RV\xecK\x0fw\xd3\xc9s\x8b\xe9\xf2]r9\x89&gt;\x97\x13\t\xde\xcd\xac@W\xa1\xdb\xa4\xa3\xadL&lt;\xdf\x98\xee\x90\xa9\x86\xebJ\xfb\xd3\xc0\xde\x84\x86\x92\x1b1\xd7\x87\x95\x0bB\x1bu\xb9\x8b(\xe9=E\x94I\x8aN\xf6\x1do\xa8\xdf\x06\xc8\xe1V\n\xd4\x8eD\x87\xa0\x8d\xcd\x8c\x08P\xb9L\xd9\xc0\x0cS\x83O9\xe3Gy\xde\xf5Q\xc7Q\xc3_\xbb\xe9\xbcm\x07;\xb7(i5\x0b5~n\x15\xe6\xd5\xa4\x8b\x93\xa0\xcb\x14\x99\x9f\n^~\xd4\x94\xf1#\xba\xb9\xce\xdb\xa3\xb6\xe7\xa6:\xecyu\xbc4&lt;\x92\xac\xdf\x90\xefR,y\xc3\x0b\xcaq\n\xbd\x1bi^(\xe1\xc02(\xb0\x97\xe3M\xb0\x1amlR,\x83\r\x03k7\xa2\xca\xbe3\x8e\x1b-\xcbpv\x9dn\t\xe91\xa6\xc8\xe5\x066\xcf(1O3J=&lt;YJH\xa1d\xd8dL\xc4%\x02\x85o\x8f\xb2A\xf9&gt;\xe5\xe8\x9e\xab\xb3\xdeW\x17&lt;\x8e\xab\xb1\xc9[\xbc\x8e\xe3(M\xa6D\xa1\xfd\x9e/\xe8\x0f\xd3\x9eiQ\'\xa7)\xb5\xcc\x92\x89\x14\x90\xcb\x10\xa0x\x93C\x11\x87\xc8\x88~\x19\xa0v\xe9\xae\xc0\x93nu\x97\xd3\x10\xdbRU\x11\x11\x0e\xfb\xa0\xb8\xe9\xceG\x04*\xf4A0-&gt;]\xe8NP\xb2\x8b\x1eJ\xba\xcfZ%\xc2\xb8\xfdY\xb2\xd4\xce\xaa\x07\x02C\x85h\xd0d-\xd0\xb1\r~O\x0b\xdd\xf7-e)\\\xee\xf2}\xee\x0f\x9aKv\x84\x98\x06B\xa466d!2\x15\xce)\xc4y)\xcf\x0c\xa7_D\xac\xcd\xaf6\xeb=n\xa5h\xbd[Z;=\xc9,\xbc+\xb0\xd4\xa4]h\xbd\xf4{\xd6Hs\xa1/^&gt;\xd4\x93V\x13R\x1a\xb4=\x00\x8f\xba\xa0\x9eR\x18Y\r\xa9\xeb\xaf`\x04hi\x90\x8a\x97"\x05\x93A\t\xc2\x98\x05\xc5s\x9aK\xec\xcf\xe0\xca[\xae\xf2c\x06\x9e\x85\xc1\x1cXY\xb1\x92\xbc\xd7\x1d5Q\x16C5\xb2\x1aq\xb3\r(q\x04\xa2\x16\x8ft8\xa6\xe7RXJ}~Z9\xe9\x84\xfb\xaa\x99\xf3\x8d\xfa%\xc5qq\xcd\xa1\xe5OK\x85;\x91h~y3f\xd5)q\x03\x9d!\xe8\xe6U&amp;%m\xd48\x99\x87$5\x16\xbd.\x03\xed\xdf\x95!\x92\x14\xbb\x08\x91\xda\x11\xa8)\x9fj::c\x14\xb2\xcaB&amp;\x12G\xe4\x806\xb9\x8b56\xc9\x04\'\x1b\xd1"Y2\x08\xbc\xf3^Z\x12z:\xbd\xebQ}W\xbb\xbd\xcfw\xa2&lt;\x86\xdd\x91\xc3B\x90Zq\xc6\xfb\x162\xc7\x98\x11\xe1{\x8d\xb0\xa9T\xad\x0b\x9c\xe1@\xe6P\xd6e\x89\x08\xa9\xd2\xdc\x94^\x918\xebw\xe7_\x8e\xf8\xee\xa3\x10n3\xa0\xd6]\xb0\xe5\x8c.\xe0\x9buZ2\xe3\xbf\xc5^\x91\x12\xeck\xd2bT\xdc\xda,\x12\xc2\x8c\x9c\xe1\xb3\x18\x94\x8b*/ZJ \xa7\xc6\xf1\xcd2\xcbc4&gt;H\x8d\xc5I\x18\x13\xfa\x84\xd6\xcb=\x9e\xfbP"\x90]1[&gt;"\x04}\x96/\xce0\xbfD\xc4B\\(\xd2\xd3\xf1\x89\xcaB\x9c\x9a\xa1\x0e\xaf\xa5\x9e\xf9\xce\x8eyn\xc5\xda\xf4\xc7k0\x1d\xf3\xbd\xcdH\x9c\xa1\x96\x07\x0b\'\xa4w\xa5\xcf\x9e\x06\xe1\xb1\xfd\xd1\x16Q\x14\xb31\xe4\xf2\xd0\x89\x8f\x86\x11:\xb7\xdb\xbc9\x12K\xb1\x1c\x87&lt;\xad\tTh\xccR\n[\xe2V+\xb4j8\xe2\xd8\x7f&amp;A*\xd2\xca\xd7\xada a\x07xH\x8exL\xd6\x8eth\xde\x12\xe4T\xa8\xb5\xbd\x99\x99p\xfc\xf6\x87\x12\xa7$hjT;W\xce\xf9\xce\x86W\xceu[i\xe6H?y&gt;\x9e!\x1d\xdf\x0c\xa3\x93!\x92\x0eR\xe3\xcd\x11I\x97\x0cI\rG\\\xe3\xe0i\xb4;\xdb\x0e\x14rC\xcd\x1eZ\x17\x17\'h\xaa\x9d\xb7\xa8X\xa0\xda\xabV\xabg\xb7z(pW\xe7\x139\r\x8e%\n\xe3y\xa7\x13k!\xb5\xa2\xc0\x1d-\x94=\x8cM2+\xbc\xacxA\xfc{\x16dz\xa2\xd3\x98\x8d\xde\xa2\xdb\xf2z\xaa\xef\x13\xdd\xd5#\xbd\xcbeQxvxFP2\x8e\xf1\x11\x94 \xff\x00Kd\x81\x8f\xc9-\xdb\x98t\x8cI\xe8\xcb[\xdd-Jv@\xc9\x0f\x93DuIK\x82\x88$\xb9\xc2\xacC4\x18o+\xaa\xfcR/\x0c\x82\xf8hU\xfb\x8c\x17\xac\x92\x92TV\x0cJ\x1dT^\xe3\xe3H@\xa1G\xb3#\x87X\x91\xda\xf1\x05\xd8\x85g!\x10\x07\x13V\xb0\xd7YYl\x17L\xc1\x8a\xcd\xc4u\x18\x81X)`:\xd4\xabY\xf3N\x1a\x87z\xad\x98\xa5\xf3\x97\xa2\x11m~\xf4\xf3z\x07\xb1{\x9a7\xbc[-G^\xf8N\xe4W\x92\xfd\xab\x16\t!W\x0c\xf5\xc7\x97h\x8b\xe9\x0c\xf5YC\xd2\xe6\xc3\x93\xafS\xa7B\xaf&amp;\xe7I\x85#\xc7\x95\x12\xc0\xe11S"\r\xce\x1eO;RS\xf1\xe4\xae\xda\x1fjTR(\xf2\xe3\xcbQ\xef6\xf5\xaf`xY\xbbz\x8c\xf2\xef\x9f\xf7O{L\xccvly_\x0b%\xa9\x11\xc7\x91\xd4)\xfb\x86\x13oF\xb4\xf9\xa55~\xe3\xb0\xa6]i\xd4\x0b\xc6y\xa3\x81\x15\\]\xe3\x9c_\xbaQ\xde\xf3\xbb\xc9R{\x95\xe4/\xb9H\xef+\xd3\\\x95^\xac[\xe2q\x01#\xa3\xe7@\x9e\x85&amp;D+UJSSi&lt;K\xf1g\xe2\xba\xe0\xc8\xeb\x16\xea\xcd\n\xd4Y\x08 c\x98\x86\xa9\x97\xe6=\xe0\xb3]\x92\xd9S\x85\x85\x8b\xb6\x0e\xde\xaa\x13\x8d2N\r\x81\xc1\\$7\xe5\x12\x90m\x91\xa5\x81\x80\x97\x11\x13zk\xb5\xe31\x8c\x18\xd7\xa1riw$\x03\x92;\x8d\x1cR\xd8J\x85\x80J\xc1\x16\x83R\xd1D\xd4\xcc\xd1\xee%\xee\x1a-wo\xca\\\x15\xa6\x1dH\xd6\x98i\xc5d\xcfJ\x87,b\te\xeaW\xec\xc2\xee\x1e\xdc4\x85\xf1_9\xd2\x84\xfa;q\xa2\x04\xc8\xa6\n\xe7\x0e\'\xd5m\xa9-u\x9b\xd0\xc3C\'\xa1\xb0\xf9\x13\x94\xf5\x12\xb2m\xb3\x197\x99\x87\x1b^\xc8O\xe6\x93\xef.\xc12pYl\xddG\x9fRR\xd0u\xd7\x11"\xe8\xf9\xd1\xae1+\xefHG,\xb5\xbe\x85\xb6\xab\xfann\xef\xbf\xd2\x01\xdf\xf3\xe8\xf2U\xf6\x1d\x8eO/\xe9\xa3\x8ap \xc0&amp;2l\x86\\b\xf3\x1ed)\xb7\xa4\n\x89A:X\\u\x0e]n%}\xe9J]g\xbb\x9eR\xa7\x91\xde\xaa9\xa9\x8c\x1a\xa7\x04e\xd2V\x8b%Z\xd0 \x04\x8e\xe31\xba\xc6\xeb\x92]\xad\x94\xa6\x88u\x9c\x1aH\x98\x8cZ\x9dh\xa4\x8e\xda=a\xf0\xd2V\xd2\xdc\x83\xab\x08\xcaOV\xe2\xe4C*2\x823\xa2\xd6Wj\xbdc\x07\x18\x97(B\xc1\xc5\n\xcc\xf9\xf4\x9a\xd4T\x99\xac\xb6\xb8\x15\xaa\xd4J\xa2\x01\n\x80\t\xa9\xe3;\xceyK\x0fd\x1d\xcd\xd5\xa8\x13\xb5\x1c\xf2\x9c\xd6\x85\x9e\xefk5\x9e\x18\xa3hT\xbaB\xcb\x8fB\xf6\xcff\xcd\xd5\xbd(\xf6K{\xd8\xcb7\x1b\xe8j\x8e&amp;\xbe\x1d\xb5gz[B\xc9\xbb})\xcb\x06\xd3[m\x03aL\x92\x1d\xa0\xcb\tq\xa3\xac\x98\xa4\xc7\x10L\x97\x15?\x86\xb8\xce\xb1\xdc\xed\xff\x00:y\x8d\xdb)\x1a\x8bS\xeb\xf5as\xb6\x8c\xe4\xb2\x0c;o\xc5Z\xf1\xdeC\xac\x1b*\xc8|)\xac\xddn\xf1JM\xf9*iR$7)\xbe\xa0\xb4\xcd\x81{w\xadH\xe2\x15\x82\x8bWz\xdd\x07\x14\xd7k[&gt;_#\xe7$\'\x98\xd1\x16$J\xf1\x07\x10\x81\xd7\x84\xda\xda(\xd8\\P\x87Z#ny\xfcd;&amp;gp\x95\x9aMd\x12\x0e\xab\xb8\x14\x82\xecG:B\xb8\'\xa2\xf1b\xc8\x89RH\x8a\x97\x14\xd4(\xe3\xad\x8a\xf1\xe1Ij\xd1q\\\x91\xf9\x9a\xe1\xe6\xd9\xa9\x04\x15\xce\xa9|\xa7\x84\xd7a.\xc8\x1b\x0b\xa4\xdc$\xdcKb \xbe\x9f\x12\tz\xac\xce\xa1[\xc7\xd6\xe4\x89V\xad\xea\xe9f\x16\t5\x17Q\xb6D\xadA*\x96\xd7\xa4F\x18\xa1\x9aS\xb2\xb5\x06]\xd1\x12\xed\xbb7jx\xd9\xab\x98\x9e\xf9\x97p-\xfa\x88\x13\xec\x19\x1d\x8a\xdc\xa9\xb1?\xa5~l4\xe2\xc7\xad\x951\t\x9a\xe7B\xb2O$\x99\xb4\xfc\xeb\xb8\xa6\\;\xe9hx\xa1F\xdd\x98Y\xc9\x9d:\x8f\xa6\xd43Oh\xe6\x1b\\uM[&gt;\xaf1\xa8\xbd\xd0Q!(\xed:\xc1!\xec)\xd1%a\x90L\xcd\x1cV\xe2\xe4iQ+h\xeaJ\x8e\x17FX+\xfd\xedu-\xe7\xe6\xfd\xef+o\'\xca\xae\x95\xed/\x9b\x8fl\xe8\xb2\xa6l\xc8\x13\x89:\xeb\xad9\x9f\xa6\xe3\xcd\xb9#\xf2x\xd7J"Ih\x9d\x0e[\x12\x06x#\xcaP\xf5\xa2\xe3\xa3f\x97\xef\xa1b\xd0\x97t\xa7xv\xfa\xa4\xf39x\x90gA\xbcF\x8b0y\x83\x05\x91\xe2\xb4\xb2\xcev\xbd\xc2,`|u\xf4q\xbb%n;\xbcO\xae?y\xf6\xe2\x10Y\x8b \x8c\x11$\xce\x0e\xc0\xeb\xb6\xfa\x85\xa8t\x85t\xd5l\x1d\xe6\xbb{h6\x1a)\xac\x9d\x99#\x87h\xd4\x9c\x8eq\xb2f\r\x0bF\xa4\x9e\x9bN\x93X\xaeu4Jv\xc5\x98P\x93\xf4\xcc\x17x\r\xea+\xae\xd8 \x94\xad\x83:\xb5M3\x9b-&gt;\xe8\xd8+ 4\xaa\x19\x85\xaeQn\x97\x9c\x9d\x1c4\x903O)\xb3D!_\xf3\xfbG\xeb\x12\xeb\xa6\xack5\x1a\xe6\xd2\xf4-^\xb3\xea\xdb\x0c\xfaG\xe7\xab~\x9ef\xc1\x86\xed\x18\x82\x8d\xdb\x8a\xd5l\x86\x14\xaa\xa5\xce\xd0\x83\xf9\x15\xb7@hu\xa4\xbfi\xa3\x99mD\x169&gt;\xd1#7v\x0e\xca\r\xb9\xcb\x19\xe0\\\x8b\x0fRj\xc2\x1c\xc0\xdc\x9d\xd2\x02\x89\xc32\xaa\x8c\xb8\xd7\xa0\xf2\x90\xce\x10P!\x13\x83\x16b$\xf8GUW\x1a=\x98~\x90\xe6\xbb\x9e\x98S\xd2\xe6,{\x8e|\xdd\xd8rb\xdcE\x0c\x00&lt;\xab\xabu\xb7T|\x87\x9fL\xa5\x12\x1c\xd8\x95i\x1dR\'\xa1\xbc\x85\x08\xe9\xcf\xef\xb9\x0e\xcd5[\xbe%\xad}\x07,\xc6zp\x17\x97i&gt;\xf7&lt;\xf2\x8c\xc4\x9d\x14\x95\x83\x16T{\xd6\x14yd\n\x1a8\xbd"\xb4\xd2U\xd7\x9c\xf3*\x16\x1c\xea\x84Q\xd6j\xef\xa6\x86\xc3)qre\x82\xee\xa9\x97\x0f~\xf4@6\xa1So\x15\x96\x97F\xa3\x9bl\x01w\x16\xd5AM\xa1\xcc\x12\xaa-\'Y\xab\x97\x10\xf6j\xef4\xff\x00Z\xbd\xbfY \xe6kR\xa8\x1fB\x8f(1]r\x08#\xd2\xb1\xbbd\xda\xa8\x0fS\x05t,\xb4\xe5\xd1KjM/\xf3^\x9f\x9f\x9e\xd2\x0e\x9d]\xbf\xd2\xf0u\x04\xec8\xbe\x9a\xca\x99d-W9\'}+\x9b/\xb9.\xc7\xcf5\x1c\xed\xc1\r\xaa\xec\x98\x9e\xb2Z\xbe\xb9\x8b\xea\xf8\x8fd\xd1\xb7\x90C6y\x97\x1e\x81\xe81`Y\t\x9e\x15\x8b\x1c\xce\x03$\xde\x89H\x9d\xc2\x86\xb8D\xc8\x92\x8c\x84j\xa4\x9bA1\xa7\x0b\xd0\x99\xbd\x96\xd3\xda\xf5y\xc3uh9\xd1d\xc2\xa7\xae\xfa\xa4J"\xc0T\xc3\x8c\xae\x83\x02\r\x80\xf0\xc7Y\x03L\xc4btfR\x81:5Wa\x8d\xdd9\xb4\xe2\xbd-\x1ew\x17"4\xd37w\xf5s\xf9:\x85\x81\xb5\xf1wt`8\xc5\x06\xe3\xac%\x9a\xd4Y\xb0\xa8NEv0\xdaO\x96\xd5J\xdeC\xaa\xe7\x1apN\xd0&gt;_\xb1\x1d\xa8\t\xe0x\xf2\xdaT\xee\x06t(\xcf5h\x8f\x02|"\x8a\x0c\xe1\xd3\n\x193\x0c4\xa3\xf5\xba\x1e\x86e\xb42\x9e\x14\x9a\xdaD\xbcy\x8c\xfd)4\xadj\xa3K\x13\xd2Ic\t1\xa4G\x9f\x9d\x04\xf5[&lt;\x19\x1a\xd9^\x95\x17\xb7V\x97\xadg%h\xcbv*V\xbc\xab\xff\x00?j52M*B\x95\xf4F$\xa3B\xb7\xb4\xd9@A\xbf9\xfd)D\x111\xebe\xedn-\x9e\x90~\x98\xc2\xdbrl\x15\x1c\xad\x1c\x87\xe8\\\x93\xe9\x16\x17\xf9\x84\x8f\xd3F\x87|\x8aW\xd0\xc2s\xef\x8dV\xbe\x84\x04a\xe0\xb9\xaf\xdd4&amp;)\xf2\x9e\x9d\x8a\xd8\xf5\xd6\xb9\x17\x89\xb9\xe7=\xf28\x89ol\xe6\xfd\x0e:\xb3\xa0\xf9\xadj\xbb\x99F\xdbz\xe0\x80^\xb0z\x1c\xa9\xe6\xf3\xfd\xcf?F\xa50\\q\xd4\x94\x08\xf2mA\x82m\xec\xb0:\xc13b\xe6\xa8\xb1V\x12;\x1f\xae\xb8\xe4\xdf\x9a&amp;\x15\xf4:\xb3\x9e\x06&lt; \x1bm\x97\x0cN\xe2\xaey\xb58\x8c\xa3BlK9\xc1\xa5\x06\x85\xa8\xf1\xa52\xfex8\rC\xf68\xd6E\x8a\xb4\x13a:\xddVB\x9a\x96S\xb9LM\xa4\xb5\x89\x19\x86\x8c\xca\x16\'\x08\xc9\x13Y\x8dw`\xcb\xbcJ\xe3\x1a[\x19\x00\x8b\x1al\x1a1\xd4\xb9\xe1\x18~{s\xcc4\xdc\xb2\xda\xf3K\xbf\xa0\x05\x9d\x93\x81\xd5\xacn.\xa5\x8d\x8ep3\x87\xf9\x81\x03$\x9b\x9a\xd2H_j]Y\xa3\x9f\x97a\xd8\x01\xd7,\x01a\x04 [{\xaa\xba\xc6Ue^\xe4\x1d\x0e\x07\xa2\xe3&gt;\x05Xf9V\x10\xc3\xc8\xdd\xb2\xc9\xee0\xb6\x83\xa0\xd0\xf4\xecg\xf240\xee\xcf\x9d\xd1&amp;T+\x19^\x9fW\xf9\xc7\xea\xbc\x1e$\xfdL\xa9\xe2\x8e\xf1\x99\xdeEg\xbds\xab\x86\x92E\xce\xda\xabf\x92n\x97\x88}hwK\'4\xd8\x8e\xda\xd0\xb4#b\xe3\xd5i\xc3ag\xd6\xb6\x90\x10\x15\xfcs_8a\xb9\xe8\xcf\x872;|y\x98mr}\x17c\xbb\xa0v\x92\xd4\x11M\xd6h\x0c\xa9lr\x9b0\x07%K\xdf\xb0\x9b\xda\xa9\xbc\x80\xcc\xce-\x991\xady;\xb9\xe9rCY\xc2\xbe\xe4\xbb^e\x98\xfd\t\xbd\xdb\x1d\xd3PEl\xf4Ml\xc1\xa4c[\xe6GL\xb4\xd4\xb2\xf53O\xa3\xc6\xe1\x8d\xa5\xa2\x8d\x90\xd1\x824\xddv\xc0\xa6\xa8\x16f\xa0\xebI\xb0\xd6\x0f,\xe1\xb1\xa6a$\xedT\t\x9a\xf6\xe6E\x0e\xce\x8b/\xab\xc0\xaf\x17\xb5\xfb\xbd\t\x91e\xb9&gt;\x98\x1dY\xfa\xdfy[\x01ZE\x8e/\xab\xdb\xb3+S\x1e\x87\xe9\x1cD\xddyO3Wg\xdd\xf1\xca\xb3\x10\x84H\xbb\x1c\xe0\x817V\xab\x95\x19\xb5g\x0bW\xcc\xdd\xdb\xcc\x11vN\xa8\x96cJK\x06YG\xeb\xc1b\xa7:}\xfc\xa0\xe3gm\xd8\xda\xdf?\xfbG\xa1\xe9\xe7\xdex\xad;+O\x06\xb3dV\xedl\x87\xa5\x00\x0cA\xeaUAC\xba\xf6\xcb-)\xfa\x88\xb1\xba\xc6\xbf\x97\xb3^\xaf\xd8\xe9u\xed\x8b\x11\xb1\x05w?E\xce7\xdc\xc5{P\x04\xe8\'5rBI\xb9\xd6\xf2\xf5\xb4\n\x15\x88j\x1as\x04K\xcb\x19\x08\xbd\x9e\xc2R\xe9\xd2\xaa6\xb7\xcc\xbf6\x1cV\x8d\x15\xfbmY\xbd\'8\x9b\xb5"\xa9{\x11\xb3]^A.\xac\xa9u\xdc\xd4\xa1\xdb\x00\xe3\xc6(\xcd\xa8\x07\xcc\x93\xf4\x86.\xf5\x10C\x86\xb1\xe8\xf9[i9\xadN\x07~Rq\xaaE\x0cg\xa3\xcb\xfa\x0b\xd9\'\xd2Y:Q1\xad\x0f\x8bhR$^\x05\xb9\xec\xea\x1a\xfe\x1bjc\xc1j5\xcc|X\x15\xfa(\x1e\x077\xabw\xd0-\x14\xbc\xf2|\xf7\x1e\xcd\xa2z\x1c\xfb\x0c\xaf\x9b\xa5\xa6\xf7\xd08F\x9bvQ\xcc\xbf\x89V\xef\x90\x8c\xdb\xf1D\xda#\xc9\x866\x14h)\x154\xedM\xa7\x99\xba5H\x8eR}.U\xf6\xafO?\xe9\xbc\xf1\xbdG;\xb2S\xdd\x8e\xa7\x97\xacb\xea\x15n\x0b.y\x8b\x1c0d\xebr\xb6\xday\xb4}\x7f\xd5\xc2\x15\x15\xff\x00+\x96\xf2-w\xce\xe1[\x19\xce-\x96\xafs\xcd\x0c{nf\xaeX+n0\x97&amp;\xb0\xb32\x99=q\x02YC\x8fls\x97\x9c\x12\r\xa3\xael\xfaC"\x8e\xbd\xcc\xe6ymY\xbb\xce-\xa1\xe4\xf7\xa1=\x8f\x12\x94@E\xd5*lA\xc7X\xba:\x8d}\x05\xf2\xce\xbf\x99\x8d+\x1d\xdb\x0e\xd4j\xf4\xcbv\x14&amp;-\xb1\x8d\xc9m\xb6\x1e\xa9\x92o\x98b\x85\xfa\xda\xf1\xf3\xcb\xd9\xc3\xfa\x7f/\xa6\xd8\xce\x89@\xb9g\xd5w\xadd\x14Y\xa9:ti\xff\x00\x9f\x9bOi\xcc\x04\xbd{F\xdc&gt;{\xa5\xb3_\xa3\xf1\x8a/\xd3\x15\xb7\xcb?IW4\xf8\xb5\xa0\\\xc0\x19\xbd}\xc2\x17\xf2\xb6\xbd4L\xbbT\xa7\xfa\x95\xc8o\xf8\x05\xf7\x01\xe3\xb4\x83\x03lI[&amp;U\xac\xe2\xe8p$*J\xe7\xd9\xb3\xe1\xb4\xcdL\xba#L\xb1\xea\xf1/\xd6\x0c\xc8\xba.\x9e\xb2gW\xc56w](\\o$\xb7\xcdc\xb6\xfc\xd3U\x9b\x9e\x19\xf4\x0eI\xd5\r\x9cN\x1d\xeap\xbe\x92\xf6#\xf4\xbf\x97\xde\xa9V.x\xf5\xafc\xc8\xf6\x1c\xbfMBVZHc/\xa7{A\xce\xd9\xcbg\x92\x19\x08\xe2\x0e&amp;"Ha\x10ZY\xfb\xbc\xca\xad\x95\x07\xea\x19\xe6\x93\\\xd2\x9aM\xa8\x84?A\x8aZ\xdbR\xb2\xb9\xb82\x83\xa3g\xdeO\xd6\r\xe7=\xa1\xe0\xe4L\x83&amp;\x9a\x13\xae\x94[\xf2&gt;\xb7\xe8\x1c\xfc\xee}\xa0 \x85\xea\xf2\x93\xf1\xb5{\x80"k\xc2\xf3\xcb\xd5\x1bD\xf6\x9a\x81hp\xfb\xfdD\x85\x1d\xb7\x01\x14\xcd\xfc\xa1\xbb\xd0\x0bz\x8d\xe5f\x8f\xbb+\x9e\xa4Y\x9cY\x8cZ\xc9X\xd7\xb4\x91\xa7\xd5\xfe\x95\xc1Tb\x9e|\x8d{O6\xce;g\x07\x97\xa6\x06o\xa8\x87SR9\\\x9c\x83\xf6|W\xe8\xf1\xa9\xb7\x8b\xb1\xa3\xd4\xf53\xf4+\x87\xce\x0b]\x83\x01\xfe\x83\xc3kMG\xe7\xfd\x172dG\xf5\xfa\x1d\xb0}D\xfa\x1c\x11\xa4g]\xcf\x1b\xbe\xe7\x1c\x87\xcd\x17\r\x1d\xe4\xb2&lt;\xd6\xdft\xbb\x9f)\xfda\xf1\xf7\xd6\xac\x8e\x9e\x8d\x03&gt;T\xdc\xd4\x95\x97 \xf6\xa4v\xc3\xf1s\xb9K\xa2\xfd\x1a\x0fJ\xf9\x9d\x9b3\xd0}v\\\xad\xc7\xe6\x1d\xaf\xc8\xee\xdb\xb1\xebp\x82\xc6{\xa6\x80\x96\xe6/\xa9\xbfB\x08\xc7\xd9\xa8\x8c\x97W4\tA\x80\x1b\n\xf3\xe8\x0c\xac\xe0\x1b\xb7|\xe3\xa9\xe7\xe5\xa4\xddw\x13%\xa5\x9d\x06\xb7n\xebj\xbd\x0e\xcd\xa1\xaa\xc6O\x9e}d\x08\xa2\xc1u\xf8H\xab\x02\x80\xdb\xe6\x06\xf4E\x9e"{\xcf\xc3m\x94\\\xb2\xea\xd5\x9d+/\x8d\x8b\xe8\x95X\x97\xc4\xa8\n\xb5\x80.Bb\x98\x11\x17+0&lt;\x89\x12j\xf6A\x95\xd5\xadu\xe7\xb4\xc1\xa6\x07\xad\x14\xf4A\x9dH\xd4k\x1ec\xd9\xe7Jr\x1d|t\xd9\xe1\x15\xc7.v\xacr\xdaV\xe1\xceG\xd4\x98V\xf5\x8dw\x14\x83\xc0\xcb\xcb"\xa9\xd7\xea6V\xa49\xd1&amp;a\xe8\xc6C\x879\n\xec\xf1\\7\x9c\xdesk\x80,\x8fP\x00\xf5\xb2\x88\xc60\xaf{O\x9e\xc8\x8am\xb8L\x13N\x10\xcd\xad{\xdb\xf2\xdao\x9a@\xb9\xfb\x08\xd5\x1e\x97\x95\x9c\xdfB\xc65\xa4\xe3\xf1J\x0brr\xc3\xac\xa7\xa8T\xe3\xd7.+\x9d\x96\xbf\xb3\xe4\xedP\r|\xeb\xaf4\xa8\xbb\x05\xccff\x8dl\x0cj\xee\xe6$=\xea\x8d)v\xaa\xbaVMq \x01}\x0cU\x9c\xfb\x89\x12\xd5Y-\xc17\x9a\x1d\x8bA@)\xb9\xe3\xed!\xf46Q\x94X\xa4\xdanc&lt;\xb1\x07\xb2\xd73"I\xbb\\\x99\xf4\xce\x13\xa0\x9e\x85l\xc57\x11\n\xb1|\xb3\xb2\x93U\x9c\xe3z\xc5J P\xadU:\xb1\x1c\x1e\xab\x0b\xbb#\xb2W4\x0fu\x95\xa1\xbf\xa5Hk\xb3;\r\xa1\x98Q\x86IJ\x1a\xccH\x94\xb1\xf0\xf35\x99\x04j\xd56\x96m\x15N\xb2\xe3\xaa\x06$2\x88\xb4\x8f\xa5_\x81\xb6\xd7\xc1y?\xd3\x19Y\xf4lo\xba\x8f72&amp;1%z\x00D\xa7\xca\xbb5\xcbc=\xd4\xa7\xc8\x0f`\x1d\x16\\WH9\n,oSe\x88\xbaO\xa8E\xba\xea\xe2`\xe6N\x80\xda\x82&gt;\xf7\x8a%;&amp;+\xd5`\x91@pn\xc5\xcetz\xfe\x9fK\xb5\xe7\xe6\x11\xd1\xb7U\xdf\x8a\xaf\xa1\x86\xf2\x17\x9c\xbc\x9b\xf08\xabcA,zT\xe76\x0bH\x88\xabtJ\xf4\xcb\x13\xcb\x07\xd6i\x17\\\x9d0\xc3\xc5\x12\xbfZ\xa9\xe7\xaa\xf1S\xc0\xdb\xf4\x93C\x11N\xb3\x8a\xb9N\x87\x9bk\xda\x99\xf9\xe9\x0bVi!\to\xa5\xfd\x07k\xe4\xc1wO\x9d-K^\x8f\x1bT\xcb\xd3\xcf\xceVn*\xb8D-\x83=Q\x9b^%\xf4\xaf\xcd\xcefk4\xa4\x08\xd4[\x95\xd2\x95\x87\xf3\xae\xda|\xa3\x18\xda\xf9\xa4;\x9bRL\x82O\xd18\x0bj\\\xe3\xe5\x96\x96\x81Y7\xf46\x04\xb1\xc0YK8j_\xb2f\xee\x89\xb3\xbe\xe32\xb0\x1e\x8d\xe2\x99m\xa9\x1a\x9f\\\x94\xf9\xd3l\xcf;\xd4\xaa%\'\xd1m\xee\x9f=D\xd1\xde@]\x81\x80X\x18\xd0\tM\x01\xed3~\xb5\x10T~\x9d\xf8Xy`\x06\\\x8e-$\xdfu\xb7\x85Z\xec\xa4\xc8;I2\xd4\xd4\xc5.\\W\x91\xa3\x8d\xb8\x8a\xd7\xc2LB\xb1~U\x07~\xc3_\xdfy.\xa3\xcd\xa2\xec\x98\x92\xe3\xa2\xf5\xd4\xf0\xf8\xeb/\xc4\xc2\x14n\x1c\xc8\xda\xf5\x9a\xb0p\x8d#P\xb0O\xa8-B\xb1\xd3\xdf\x1f#)\xabyU-\xb5\xc49\xe4\xf3\x8a\xa5!\xde\'K\x0f\x91s[\xaa\xfe\xedva\x17\x14E;\xcb\xf7YS{\xd2\x99\x8aL\xcd39\xb6U\x87\xe7\x98\xd9\xa8\xd5\xa8\x1e\xca\x12\xd27+v%\xd7\x1c\xb1\xc8\xed4\xf3u\xf2\xd39\x9c"&amp;\xef\x9f\xbe\x06\xd4\xe6\xe3me\xff\x00L\xfc\xa5\xf7-\x02\x06\xcf`\xf9\xf9+\xe0z\xcc\xdcm\xf3\xee\x98l\x987\xbd[X\r\x08\xcb\xe98Q\xfd\x04]M\x9a\x7f,eK\x1e\x81\x96\xfd\x04\x8b\xb9 QNh\'\xa7\xdd\xc4\xd7\xf0\xb6\xa9".4\xcd\xbcy\x0b\x89\xa9Z\x81O\xb4%\r\x13q\r`v\xa7\xd54| \xa3+\xe96Z\xc1\xa4\\\xbfP\xa8\xb1\xdcRX\xc2\x95\xc6\xe2\x11\xe0\xad:\x89\xe0\xf6\x10={%\x9b&amp;\xd8W\x9b\x1d\x8e\x82\x15w\xcf\x13\xad[w\x0cD=\xda\xab\xe4\x9c\x9fO\xbb\xe2E[M\xacU\xac\xde\xd3\xcf\xfdl\xe0\xab#\xb5\x1eH{\xb0\x13N\x08"\xa8%\xca\x8d1~\x12\x89\x83\x0c\xc1\xb9\x90\xe7*\xbb\xd2b&gt;\xb5\xa5\xf1\xa7C^\xb4\xf3]\x18n\x07\xf4\xf7\xcc[\xdb\x91\x1ar7\x8d\n\xe6@\x99\x15~\x14\xd1qYo\xc2\x95YLi\x15\xebrj\xd6\xa6\xce1h\x08\xe0\xf7\xc1\x03\x9b\x07G\x11HW\x08\xa7\x9cGzW\xee*\x0c\xa5!]s\x90`\xbaC;\xd6V\xbbO\xc9\x82LZ.\xb4\xa8\x80\x7f\xc6+\x06\xdf\xc17j\x1do\xcc\xad@\x9em\xb6\xadL\xfe5X\xdb\xe9\xe9\x04\xa2eJ7\xafVk6h%\x06\xb5\xab\x04\xd3\xc8\x89\xb4\xd5\xebX\xfbw\x1a\x14\xa1f\x17\xd8\xbf?e\xf1%i\xe0$\xe8\xe66a\xa6R\x8eT\xbbL\xcf\x9d\x0cg6\x8b\x85\x15\xf6\xd3+B\xb8\x98-)\xba=\x1d\xfa\x11\x9a\xa9\xeaV\x86n\xf7\x9e\x0f\xd4\x91\xd1f$\xd9\x08ig\x06\x02h\x8eg\x17\x1bU\xdb\x16g&lt;\xc5uj\xe3\xaa\xd4\xad\xf5\xdd\x88\xb4\xb1[!\x8b\xf3\x1b1\tf;kC\xf9\xde\xafn\x1b\xe9\xf1*MZ/\xfa`\xcd\xa2n\x86\xe4\xb9u\xd8\x05J\xce\xb9\xa5W\xa6g7lw\x18\x1cAY*Bbvo\xd3y:u\xbc=_\x9d\xf4,\xe2\xff\x00\xed\xfc\xff\x00\xd3:\x163\xb5\x98a$J\xe0\xeb:ex\x80\x06NCO\xaf\x0c\xd7\xec\x95\x93\x9a\xc1:\x04\xd5\x83-Q\x1f^\xcf\xca\x8f$\x03\xf3nv\x9dA\xf9#\xec\xcf\x95\xbd^\x9d1\xa5s\xc0\xdd\xb5\xc6\x81aPe\xd4t\x02\xde\xc4_9\xb6\x84\xe1G\xd7\xe61Y\x8e?\njq\x03#K\xf5V\\i\xbc_{\x9d\xe1\xf7\xa8T\xf2\xfa\x8e\xda\xeb\xe2}0\xb56\xb8"\xd4\x87!\xa7$0\xf84\xa4#\x8d\x05\xa6\xa2J\x8a\xd6\x0e\x9ek;\xd1\x81\xb7\x98\xea9m\xb9L\xab5*\xdc\xd2:7,_]\xc0\xd8R\xe9X\x87\xd6\xd6\xdf\xc5\xe4z&amp;{\x96\x9f\x9f\xf6\xfa\xad\xe2\x9em\xa8\x0e/\n\x19\t\xc5V\x11\xa1\x03\xc4\xe1;fwc\xea\xd4I\x8fi\xec\xfd\x870\xd0(\x889\xa1C\xa6L\x1b\x9b&gt;\x7f\x16\xda\xa3\xb6lWQ\x9d\xc0\xaeULg\x8f\'\xf5\xbe\x11x\x15\x93\xa8\xf4[\x9e X\x02r\xb3?w\x03\xe8\xec\xca\x89\xbecm\xe2:\xa5;@\x96\xf3\x866\x8f\x9f\x9a\xc9\xd1\x8dC\xbc6\n\x9a-y\xae\xb8f\x9a\xcb\x00^m\xb4\xb2\xb2C\x03\x08\xc1z\t\xa0.\xaf\xcc\xad\x1f\x04i\x8d\x1c\xc8\xfc\x90\xd3+\xf3\xe8/\x9f\x8c&amp;\xde\xdfC\x03\xc2\xdbv\xde\xfee\xfag\xd1\xe731\xa2j\x04YG\x10\nO\x91\nJ\xd3\xea\xdd\x8e\xb8[\x1b\x9b^!Y; \\\xa4i9\xe8\xdd\x05$z?"\xbc\xf9\xaf\xe9&lt;Gi\x9f\x9b\xa3\xe4\x02\xfc\xd9\xf6h\x03\x9b\xa4\xbbS:B\x0bG?"\x8ee\xed\t\xaf_\xa0\xa3\x81ia\x82\xdd8\xc0+S\x16\xa5\xc5\x9f\x04\x88#\xca\xe9A\xce)\x17\xaa\xba\x9e\xda;\xce\xfb\xbb\xcaJ\xfa\xdeq\xbe\xd4\xd3\x1d\x8a\xe8\xb5\xe4\xb0\xf2\x04v\xda\x9b\x1eA&amp;\xf7A\x9b\x1aD\x08\xf0\xd0\x90\xe8\x16`*\x07+j{C;\xe8\x11"\x8d`\xfaLa2\x11\xb7\xe7\xf4\\\xbbD\xa2,\xf5\xcfB\xa8\xe9\x18\x9e\x8f\x12\x03\xae\xe3\x1b&gt;t\xbb6gf\x00\xed\xd8}\xac\x0cS+e\xde\xd6\xc5\x1do\xadZB\xc4\xeaf\x89V\x03p\xcb;r\xa1\xc6\xe4\xdb\xc5v\x83\xc9\xcdM\xb5\xb8\xa1\xbb\xee%|\xc5\xdbF-\xaf\x96h\x18\xc5\xc6}\xb1\xb413\xa8\xd2\xdf\xbdsr`p5;d\xcf\xb5\x9e\x16_\x90\xfdUN\xac|\xdb/}\xc5l\x91&lt;\xc3D\xa7\x90\x16=\x03\x03\xd4\xc2p\x114j\xb1N\r\x98\x8a\x7f1\x84L\x93\x1c\xdcn\xbf\xd0)+q\xa1]\xebZ-]-\x04\xbbR+\xb6\x03\xa5\xcc\xe99z\xf8\xdc-\xfe%/\x80\xc0\xd9*\x0e%Jj\xe1\x1c\xa0\xa9\xf6\xc2\xd4\x16\xb2RB\xa9\x9c\x19\x88\x8c\xda\xa6\x9a\x15\x08v=\n\x1c\xe8\xea\x82;\xcc\xa4\x08\x12\x1b9v\x04\xb7\xb1\xe4T7"\xa8\xd3\x0b\x12\x0f:0\rg\x03\xaeV3\xf5r\xd3b$\xea\xa0\xd4\x02\x10d|\xf7zE\xfa\xd3\x89\xb7\'\xde\xe9\x07\xde\xf1]n+\xde\xeb{\xde\xf4Y\xc7\xe2\xc9\x13\xb2S\xef\x05\xf9\x11\xa5G\x19\x9eu\x0e\r\xdb\x1cV&amp;\x19\xaaB\xfa|\xde\x19U\xed\xa3%Y\xa9F\xc0\xb7hl\xb91u\x9d\'?)9\x1d\xaa\xfd\xeb8\xac\xddk\xb4J\x9d\xe9\xa4og\xf1{\xb6V\xc9L\xdd\xa7^\xcd\xbf\x8a\xb5VS\xd0/\x8d]\x85\xe8\xe5U\x8d\x940jha\xb0\xf3b\xbd\xd7b\xf9\x7fG\x19b\xe9\x94}3\'c\xc0j0\x18\x84\xd9lD\xb5\xc3\x9f\x16U\x13A]\xd2\x87Ei"\x92\xb8\x0e(\xae\xb1_b\x07Yb\xe2\x91\xca\x13\x16*6\xb1\x93S\x02\x85\x18\x8cm\xaf:\xc5\xc2\xacW\x8b\xaa\xd5\xaa\xd6l\xfd\xeaj\xf5\xda\xa9\xf2\xa9J~\xcf\xa0\x927*\xfe\xc1\x98\xff\x00\xccU\xef\xbd%&lt;\xa7\xce\xf7k\xe8\xc6\xb8\xbd\x82\x99\x7fX\r\x9c\\\x14\x97\x9f\xe6\xde\x1a\xfci\xf5L\x0f\x92\xfak~\xf9\xa5u#)\xc5\xcc\xe1_#\xfe\x92U\x9dw\xf3-\x7fI\xe0\x8d\x1c]\xd2\x95iL\x81+\xb7v\xf1\xab\x9f\xd9F@e}\x1a\xa7 z\xba\x0e\x0e\xd4s\xd2\x00Y!\xb7KR{\x90kj\xe8\x9f\xa9\\\xd0Q\xd4Y\xb5\x80?\x08\x9d\x13\x8c\xe6\x12\x80Hh\x9ek\xdc\xebYjRU\xd3\xee\xf3\xdde{\x9e\xad\xd4\xb6fQ\x97P\xd3\xb4m\xcf6\xb0\x9a\x7f\x9dJ\xdb\xf3\t\x8b\x95;1Z&lt;]\xbf\x1fZ\x13n\xb2\x01\x1aT\xa8;z\xa4\xc0\xf6\xca\xbee\x118a{\xa9O\x935\xace\re\xb0\xb4Ie6\x0e\x08b\x86\xbe\xd2\xf7\xdc\x9b5\xfb\x8bat\x8a\xbb\x85\xfd\x07\x87\xe8=K^]|\xcb\xeaj\xac\xc8e}\x07\x99\x80\xbb\xfe\xad-\xd5\xc9\xe9\xd5Ply\ra\xd7\xbd\xd4-\x12\xc24\x0eU\xca\x8a^\x1dX\x9b\xd5\xe2S3*Kz\x9bu+\xa0\x1b\xf3\xdfB\xaa\xbc\x0b;CD\xccX\xab?\x96u\xa8\x1a;3\x91\xd8\xf4\xd9\xae\xaf\x91\xeb\x1e\x0ff\xb4\xf9\x98\xb0\xf2\xa9\xf6\xcc\xcc]\xc2\xc6\x9bQ\x8e@\xa3\xae\xb7\x06\xd5\xab\xa8&gt;TY\xa5q\xe5\xb5)un\x97\xdc\xa6\xe1\xe70\xac\xb1\x08\xb3\x9a\x8b\x9d\x0bY3z\x0b\x19h\x96\xf4uj\xf6z\xd3M\xdf\xda\xc7[f\x9a\xadR\xb8l\x80\xa0\x9e\xd0\xee\xab-\xf2\x16)\xfa#XV\x9f\x07\x99\x8f\x0f\xce\x18P\xbe\xb8\xf6y@\xd2\xa0\xf5\xa4\xb1\xd4Ee\xdch\xda*\xbaaEk4 1&amp;\xd6\x12\xb6\x13X)\xe7E\x9f\x83\xc7.-\xcc\xd9p\x88\xb1\x04\x1a\xe7\x16\xd6_;\xdfu\xf9\xd5s\xad\xee\xf9\xe8*\xbb6\x084\xba\x95\xb0U$:\x87\xd6~j\xe1I\x06\xe4\xb9b\xa7WM\xf3\x95R\x84\xa4@\n\x8c\xef\x86\'\xb4`\xa6\x926\xad\x8b\x15\x01\xddd\xb1\xd0\x95ft,\xc6\xcfo\xa2\x19\x0e\xbb*\xde\r\x8a\xbes\xb6\xc9\x06\xc6O\x06m\'K\xcdN\xd32)\xb7Sc\xcft\xb3A\xda\xcaGX\xeb\xdac&amp;K7\xd0\x98\xed\x1a\x89T]W\x0f0\x13\xf1\x95\xf46a\xa2\xd4\xbc\xef\xa2\xca\xbb*7\xa1\xf3I\xe7\x93x\xee\xdb\x8b\xeei?\x9eV\x8f\xdb\x9a\xec\xf3\xbfN\xe9\xdc\xb7\xc9\x85&gt;\xce\xa6\xcd\xf2}@\x0e\xb8U~s\xa6}q\xf2\x0b\xa4\x16m\xdb\trGC\x9e.\xc1XRl\x19\x9a\xc7\xd1\xd8\x81Si\xfd\x13P=\xa0 L\xdeN\x9at\ne%4a\xa2\xbcC5\x90tcE\x19\x9aV\xd8g[\xafc&lt;q\x9b\xa80s\x8eg\x9b\xa8\xd8yIBt\xbd\x939/\x9a\xae\x9a\xb4$\x87\x9f[\xeb\x94\x91\xbd\xf4\x08O\x9a\xdb\xab[\x0eU\x0c&amp;\x88\xb2\xe8R\xa5\xf8\xd3RU`\xabic\xc6\x1cDi\xd2\xd5(\xb7z\x82:5\xeb\xcd\x18\xb1\xc3b`t%\xdf,\x1f\xb7\x8b\x04:\xc3\xfa\x8c\xb3\x0f\x8f\xb3\x13\x19\x96\xf06jkGt&lt;B\xfd\xce\xc9\x15\xde{\xaf\xe7\x1br\xa5\x97\x19m\xd5\xbe6\xa4]23\xa0\x92G\xd2\xc4Z\xb9S\xael\x12"\xd1e\xf4\xc7\xb1ax\xc2\xda\xf2Z\xe5.\xc3[\xc6\xd2\xcbH\xc3!\xb5\xe7\xba:LHr\xc9\xa6b\x16U\xf6\x8f\xd7\x1cb\x1d\xe5\x83?}\xcc\x03\xb6\xca&gt;\xa0\xb6\xd5x\xc3\xd9\xab\x86\xbe\x81\xa9\xc37\x9f\xb7Yh\x16\xe0/X&lt;\xa8\xac\xea^\xe3GyM\n\xdb\xcbh\xb8\xaa\x93g\xd3)\xd8-W\xed\xcd\x00\xf8\xff\x00\x9e\xdaO\xda\xa2\x99_\x17\xd7\xa1\xd7N}K?\xa3\x8et\xe7\xaa\xadD\xd3\xd4\x89\xe8\xe3\xd8\xbd\x9e\xf3\x8d\xdf\xc5\x9f\xf44\x1c\xbba\xf39\xbf\x1e\xc2\xfb\x1b\xe6g\xd5\xa33\xa7\xdeJ\xc7\xcf\x16?\xa4\x8c\x8c\xd8\x1d\xefD\x8bW\x1b/H\xab\xd4\xdbU\x7f\x13\xe1#M\x0bL\xa7\x1e\xfa~}\xdd:\xa1\xc6\x88k\xf6\xc1\xad\x8ah[\x0c|\xa5\xb1\xbd\x1a\x15=\'\xb6\xf0\xbf=\x89\xab\xbbU&amp;\x8e\x1d\xe6\xcf\xc3\xa7V\x1d\x8dH\x1eC\x08\xe9\xea\x15Z\xca\xac\x97\xbc\xa5\x00s\xeb\xd6Z\xaf\x97\xbd\xbe\xbf6\xbb\xc5\x87&amp;\x0c\xc6r\xed\xc0\xae\x14\xf44B\'\x9a\x03\xab\xd1-\xc2\x0b\x08\x95\xfd&amp;\xb6a=W\xf3\xabMH\xeb0F\x19c\x95M\xae\xbc\'ZO\x95\xa1\xe4:\xa6\xd7yW\xb9\xde\xb7\x94\x9eT\x8e\xb5\xdfE\x96\xdb\x8dwI4\x0c\xca\x9b\xfdJ\xe3\x83E\xd9\xe2\xc8U\x87\xe0\x13\x17\x0c\x12\xb0\xd4\xc9\xf0-\xa3\xe3W\x96\xcc\x84@J\xdcJ \xf9\x0c=\x97b\x8e\x1a]-r\x95Y8\x8f\xd1j\xcd\xd9z\xce\x1dR\xfbF\xbaOZ\xe9\xb7zR^\xc2\xaf&amp;"\xb6\xbed&gt;K\x1b!Q\xcfO}E\x1b\xb61-C\xeb\x95/\x89\x84h\xb7.\xd5&amp;\x9fWj\x14\xa5\xceW\xb3\xdc\xd7\xe8\xaan\xab\xb8\xf2m\xf5\xcd\xddX\xde\x0e!\xe3\xc9\xa5\xea7\xb4\x96\xf9\xd4\xa7\xd3\xf6l\xf0|\xc9~\xd7E.&amp;\x8fT\x00,]\x0e\xa1P\x86g\xef1s\x8aS\x8c\xec\x81\xf2\x03\'\xe3!\xee\xc5B\x95C\xa6\xb4uQ\xf9&gt;\xc1\xf6\x1b\x8a\x0f\xe7\xcd\xf2-w\xcf\xc9\xd9yEPZ\x9a\xd5O:\r\xa8\xe5\xc0%\x06\xb3\xa3\xda\xf0lHc\xc9\xecUJ,s$^\x0c\x12\x01\x84\xbd#S\x05\xb24\\i\x80\x94Y\xe92\xba\xbb\x06y\xedK5\x8ca\x8a\xc5\xbarj\xbe\xe7\rOX\x84\x1b\x03z8\x026\x9c?Y\x85hc\xa0\xbf\x97b\xa2\x9b\xa4\x15]O\x94\xe8a\x93\x95\xe2\x10\xda]\x12\x84\xb0i~\x12\x90l\xc5\xf7\x9d%&lt;\xa4\xab\xac\xae\xa7\xbdos\xbc\xe9\xf2\xd2\xaa\xdf\xa8Rb\xce\x17\x12Emy\xd0\xe6\xc1[o\x84\x05\x91\xb5\x08\x8c\x9d\x18z\x91\x8c\x81\x9aTcr\xd5U\xbeI\x90\x17:\xea\xb6\n\x97\xdb\xd3\xc3\x85\xb2d\xfb"\x1aP\xb3]\x13/\xa3Wv#=oGW\xbdg\x07\x99\xc6\xd4r\xe8\x0es\x0c\xf3C\x84T(\xbfu\xfc9\xfa*\xb6x\xec7N\xf9\xf6\xda\x9f}\x17\xca\xf5f\xfcr\xbb\xee\x0c\x1d\xf7;\xdd\xef{\x91\xdeii\x98\xa7F\xb7\x02+\xc8\xb0PA\x97KR\x07\x9b\xd4\x1a{^\xad\xe7\x12]n\xc2\x06\xc3O\xe9\x92z\x9a|\x00~\xa5\xbe\xda\x16\xc9\xc5t\x1b\xd4\xb4\x12\xc4-Z,L\xfe`\x90p\xf8\xb3a\x87K\x04\x9b7\xf1\xf8\xa5\x04\xec}\x19L\xf9\xce\xaf\xbd\x1bM"\x88\xdf\xa3\x19\xb0\xbd\xf1)\xe5IX\xe2*\'\x8b\x91\xb09\xf6ifJ\r\x93I/p\xa5\x05P\xfb\x06D\xa6 2\xe6\tt\xd1\xa7\xd8\xe8@\xf3t\xa9\x84\x07)\xef; \x93\x82\xc4\xcd\x80TRbd\xafj\xd2*\xd1\x8b\xc51)5m\xa2Y\xec0L\xb2\x16\xab\x94\xbd\x8d\xc4\xf1-#2\x1c\xb8\xb6;hu\xaeQKmW\x85\xfb\xde\xeb\xf7\xdd\xf5m\xee+\xd1\x7f+\x9d\xe2q*OC\xb2\xe2&gt;\'\xca\xc6q*oD\x9e6q\x15!\xce!m\xd1\xee\xb5\xe3\xe2Y\xeb\x93f\x12\xd0Z\x8d4\x19\xe3\xda\x92U\x85\x0fG`\x1a{\x16J9!\x0c\xa9\xb2\x91b\xc9\x87\xf4/\x9a\xe7\xb1/\xd1\xfc\xdf\xdb\x10\xbdo\x1f\xe8@\xc7\x98\xa1+\xeb\xb2\x9f\xbe~\n\xfa\xc7K\xe4\x052=f\xd6\x8e\xe0o\xa4\xb2\xcd\'k\xc0\xcdL \xb2\xad\x9f\x94\x98\xe1r\xea:\xb4\nKe\x15\x16)\xde\x94\x1d\xa2$=J\x06\xcb\x9c\xb1J\xbd\xaeM\xc0\xc8\xd6\xf3\xef\xa4\x08\xae\xb6\x07\xb9Jk=`6(\xfeN\x92\x9b\x1c\x152\xda#eT\x817\xba\xd5~o\xcf\x1ag\xe8\xbc\xcf(\x1f\xb1\x17\xa1\x155\xb5B\xd0\x1a+\x12)\x12\xe2\x9a\x11\xd1^\xb0J!\xa6k\xb5\xab\n\x8a\x1f=y\xb5\xd3p\x9e\xc8\x87g\xa5\xdd\x81\xb7F\x97\x1e\xe6e\x18\xac^\xab\xa2f\xb6\x84H63&amp;aD\xa5\xf4(urKi:B\xc5\x96g&lt;~\xa2J\x1b\xd8E\x8a\x00\xb0\xaf\xb6 U\x92I\x13\x04DXKf8n\xbe\xe9\xaaH[\xcd\xda\xa9O}\xc1\x97\x16dK\x1d\r\xb8\x99[\xde\xf7\xa6\x15\xee+\xb9^\xe7b\xfeW\x17\xd6OU\xea\x91)q\xbe\x85\xbc\xcb\xd0\xd4\xc5\xc7Z\xdb1\xa6A\x95e\xca\xc6v2\xfbl{\xad\x1b.U\x8a\xa8j]m\x06lT\xc8\xa2\x99\x9bzKw+\x1fj\xa7\xb0\xab=z[\ti\x17&lt;\xd6\xe1\x87\xf4\xec\xde\xcdv\x86a\xca/W\x8c\xaf\xa0\xb0\xe7.\xc9eL\xbfc\xc5\xe1\xed|[\xee\x92\xbf5\xfd\x03\xe7}-_R\xf9\xb3r\x12\xd7\xba\xdd\xfe\x83\xbd\x945\\\t\xba\xc5\xc2\xff\x00\x87\xdf\x0f\x91qm\x16\xactC\x8d\xb7DJ\xa3l\x02\xe2\xe6\xc9\x88\xd5\xc1j1vNgP\x967\x00\x7f8P\xa1\x9f\xa6\xab\x7f4\x0fr\xdf@g\xf9\xa4b\xcd\x904\x16u\x15y\xa6\\l\x1el\x9c"\x1e\xf4,\x88Et\xc5\xda\xea\'m&gt;\x13\xe1\x17\xbc4#\x8c\xf9\xc9\xcb\x8b&amp;\xbb$&amp;WIQS5w#\xd9\x08\xd6\xaa\xb3\xb0\xcc\x82\x81\xd3\xcc\x9fl4n\x1af\xc2\x979\xeaB\xa2u\xeczE\x02\xdf\x9b\xa7U\x11!\xc6\xbd\\n\xcbv\xfd\x15S\xb9\xcd\xc8TN\xc9}\x1aC\xb6\xac9O\xb9R\xde\xa0WM\x11\x8c\xee\xb1e\x15\x9d\xe1\xd8\x1eB\x03^u&lt;Zev\x95\xefuz\xafv\xdd\xde\xf1U\xee:\x87"\xfe\xe4\x9e\x80\xf1Z\x99\x16\xd4q\xc57\xceN\xe4Wk\xa4\xca\xd3\xee\\\xa3/D\x16\xba\x19q\xbb\xe6;2\x0b\xbc{\x17Y4fc\x11\x85j[T-&lt;\xbb\x92Z\xd9\x1dz\xb4\x7f/V1O\x86\xaf\xa3\xbeG\xa8&gt;=\x13N\x8f\xb1\x8bVMl\xc5B\xc2\x07\xce\xca\xd9\xf9\x0c}\xd38R~\x9bW\xd9~b\xfaK\xc5h\xecU\xd2\xc4\x1e\xf3x\xbb\x9e\xf93\xda\xbb\xf5\x98\x9c:\xf3\xe3\xeeb\xe9\x99\xa1a\xfd|#\xe6\xaa[i\xfd9\x9f|\xfe\x1bS\xb5\xba\xdew\xe3\xc5\xe8\x08\x84\xab\xcfDm\xb7\x04H\x95\x96Ns\x99\xd5\x9cL]q\x0f\x81!m%\x1d\x96\xbdp\xbe\xa7f\xd9\x8b\x11L\xf8\xe2&gt;\xb2\xd5^B`U\xbfGK\xdei\r&gt;\xdd\x93\xe4\xb8\x8fQ\xce\xaf\xac\xc1\xd0\xeb\n\xb6o\x9bu\xa8\xe7\x94\xdf\xa1\x9e4\xbe\xf0\xfc\xae+\x87\xde7\xce\xe5:\xcb\x9d\']\x8e\xed}\xeb\xae2\xe76\xff\x00\x12\x9b\x19\xe55\xdb\xcc\x8e4\xa8+\xaairCP\tS\x90psc\xc8-\xf3\xf8C\xca\nw\xcf\xf9\n\xed\x93o\x8bOS\xdd\xe2\xaf\xddW\x9c\xa7q\xe5&gt;\xb9\xdb"\x14\xd8/\x16\x01H\xb12\x9a$\xd0[\x11\xc2\x91Xr\'W\xc2P\x98\xe2\x03\xb9\xe54\xa4\xdf?\xce7\xde\xb1{\rN\xc2_C?\x92\x9a\xd7o\xb2\xa2tzW\x86i\xd7\t-^\xa7c\r\xe7\x96\x01\x1d\xb6\x9c\xf9\xe5\x80\xfd:\xfc\x87\xbbb\x8d}\xce\n\x8bw\x8a\xe5\x9fG\x12X\x1b \x04}q\xad[6\x93\xe6\xd5\xfb\x0e\xd7\xf2W\xd3\xe2\xc9O\xcb\xdfL\xfce\xbe\xa1\x9a\xd59Z\xea\xd9\x87\n\xeem^\xeb\xb3.\xd0\xee\r\x88\\\xcb@C"k\xb1\x07\x8e2\xe6\x02\xaf\xf9\xfb\xa0-\xd7_\xc2\xb7\x0f\x19\xa8\x1b#\xd9\xb1}\xc6F\xa6"=\x07\x99\x7f\xcd*`\xc8b\xc1\x08W$q\xd1\x15\x94\xb7.\xc3\x98n\r\xa6\xbaY\xb3w\ne\xf3\xd5\xd6W\n\x1bL\xc7\xd1\xf6\x95\xd6&amp;2\xe7\x96\x8f\xde&amp;\xc9\xc8u\xb92\xcb\x8cO\x1f^LgS5i\xf9\x91\t2\xd7\x04\x9c\xc7^\x8a\xe0\xfd|\x97#\xb9\x0eH\xf3&lt;\x93\xc8\xe4n\x102\xa5@\x95n\xbe\x86\x18\xe1uQZ\x9f\x03\xce\x08\x0c\xe8\xca\xbf\x89X\x83"\x18G\x9e\xf2K\x9b\xc4\xad=^+\xc9\xbc.C/\x0e\xd2\x9fd\x8aL\xd6L\x8ct\xc0;\x1ek\x19\xce\x12b\xc6+9\xc0\xcc\x92\x87\xa0q\xe9q.\x92LW\xf9r\xc7e\xe6\t\x9f\xde\xa3\xb7\x14\x92\xc1\xa5\xd7N\xf1\xe6\x9c\xd9\xdcB\xf8\xae}\xcb=x\xb8\xbd\r-\x88R\xfc\xdf\x9d\x00\xce\x9b\xc6\xfb?\xb5\x17B\xfa\xb5z\xfe\x8c\xd9sjV\x17\xf8R\xcc\x00K\x8b\xe9\xcd\xeb]\xcc\xc3\x95k\xa4-\xefM\xf5\x8f\xc5\xe7!\xf7\x8f\x04\xd5\x87\x8fV\xb1(\xff\x00-p\xb7\x9a\xe3\x94\xd2\x9bI\xb14D\x03(\xb0\x1e\xc9\x82TY\xd6\xfc\xfc\x18\xa6\x93s\x88\xbc\x06\xea\xd7\xd2\xb2\x17\x13\x17\x82\xa2\xec4\xa4\x07\'\xbd\x16\x13\x16\xc6\x92\x089\t+\xab5\x9fY\x98"S\xe1q|\xcf\x05\x1c\xed\xa2\xb1\xebe\x91\x843b\x9a|\xee\xd1\xc2\x97\xf4\x04\xa6\x11\xf9\xc7\x9fI \xe2\xf9\xe5{\xbc\x11\x13\x18o^\xac\x06\xd4\x17N-CW;d\x91#\xab\xfd?\x81^\xee\\\xa7\xac\xad]\x87]\x8f\xc8nJ#\xdc\n*\xe2u,\xb0\x8d:\xe4o\x04rJ\x08 \r\x81\x91]\x83\x8a\x8c~\xbb8\xb9#\xc4\x1c\x06\xce7\xbd\xef\x1b7\x89\xef"\xbe\xf7\xbbx\xeb\xec:9 d-\x83)\xda\xef\n\x06p6H\x96\x18\xb9\xcf]k\x9a\x8d#\xcb\xe8S!\x1e\x15\xbc\x00\xecL\x8b\xb0E\xba\xd3\xb7r\x13/p\xd9l\xa9DIQ\xef\x94%}\t\xd2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495594-el-polo-cultural-saldias-fue-distinguido-por-la-legislatura-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Roban computadoras y tablets de una escuela del barrio de Palermo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:31</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Primaria N° 26 Adolfo Van Gelderen</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Autoridades de la Escuela Primaria N° 26 Adolfo Van Gelderen, ubicada en el barrio porteño de Palermo, denunciaron que el establecimiento sufrió un robo en la tarde de este domingo, en el cual se sustrajeron tablets y computadoras, entre otros elementos de enseñanza. La Fiscalía Criminal y Correccional 56 investiga lo ocurrido y dispuso la intervención de la División Investigaciones Comunales 14. Las clases del turno mañana, en tanto, fueron suspendidas. El hecho ocurrió el domingo por la tarde cuando desconocidos ingresaron al establecimiento, en Salguero al 2455, llevándose del interior notebooks y elementos de enseñanza.El director de la escuela, Marcelo Rodríguez, realizó la denuncia en la Comisaría Vecinal 14A de la Policía de la Ciudad, luego de tomar conocimiento de lo ocurrido a través de la casera de la institución.Según precisó Rodríguez, la irrupción al establecimiento se produjo sin dañar ninguna cerradura, puerta y ventana. En el interior, en cambio, estaba todo "dado vuelta", con armarios rotos, y como "no se podía limpiar (a tiempo) hubo que suspender las clases a la mañana", explicó el director en diálogo con C5N."Ahora vamos a ver en el transcurso de la mañana qué se hace", dijo y contó que los ladrones robaron "aparentemente tablets y computadoras". También habían "cosas preparadas para seguir llevándolas por el fondo del parque", aseguró.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x01\x05\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x00\x01\x02\x04\x05\x06\x07\x08\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf7_\xae\xf9\x98\xb5%\xa7\x93|\x97\xdffy\xde\xa2ZWT!\x13Y\x9c\xe8\x80\x95\x88b\xc8\xa8/3\xed\x85\xab\x93m\xcdsn+\xfd\x1c||\xc7\xad{&gt;\x1d\x9e\x9e8\x10\xe2j\xb7M\xe4AHt\xf3\xd1\xa5\xc2\xe2\xcf/W\x96\xf2w{g\xb1\xe2F\xf3\x15SK\x96u\x04\xf3\x87\x15A\x94G\x17\xf4\xcb\x95\xf2\xbd\x8c\x06\xfdG\xd7\xf1\xe6\x9cF\x18\xd3#\r\x8d\x96\xc1&amp;\xce\x99lo\xcfklC\xa6I\xb5-9C@\x81\x03\r\x02\x07\x04\x08\x1c\xa4\x08\x12\x10 q\xa0@\xc0\xe0\x86\x81\x02\x07\x1aBb\x04\t\x08h\x19\x08HHh\xa7\x04&amp;\x04\')\x84\xf208!\xa4!\xb8\xdchh\x1d\x08\x108J\xa1\x9c&gt;\x1d&gt;=\xf2\x1f\xa3T\xe6\xec\n\xb49\x84\x88H\xa8\x87n*\xd9U\x87\x15\xd6\x90\x15\xf7\x9c\x1a\x84\xdci&gt;\x98\xdc\xdf\x8fO\xa3\xcf\xd2\xea\xf3\xf5\xfb\xfc\xdd.\xae;:rN\xf3\x8d\xdc\xdc\xb0\x98\xd6\xa7\x07G\x95\xf0z~\x8b\xecx\xd2\x8at\x9fH\xb7S\xa3S\x0b\x98\xa2%\x12^d_\x15\xe2\xfa\xd9\x9b\xe5\xe8~\x87\x02s\xa7R{\x9a\xfa\xcc\xa4J\x9b-\xb1r\xddg\xa0y\xb6]&lt;z}\x1c\xdd\x05E}s\x85\xcc\x81\x816\xe0\xc2I\xa0q\xa1\xb8\x99\x8e\x93&amp;\xed\xa4\xdcl\x0e\x08\x1c\x18\x10 @\x90\x86\xe0\xc2C@\xe3@\xc2@\x93@\x81\xc1\x81\x02\x1b\x8d\x90\x81\x02\x07\x91\x03\r\xdbq\xa0pHC\x92\'Y&amp;\xb2\xf8{\xfc\xaf\xe4\xff\x00E\x96[W\x8d*\x82\xa9"B\x1c\xd3\x88AQ\nR\x84\xa9\xec\xae"\xa5\x08\xd6MJ\x94\xe9\x151\xc5F\xf3\xb1\xb6%\xdb\x97c\xa7\xcd\xbf\xd1\xe7k\xf5p\xe9wp\\\xdf\x83\x13\x87\xd1\xcb\x8a\xeb\xfd\x8f-\xd5\xceS\'\x98\xae\xb2\xb9A\'\x13\xb8\xd3pI&lt;\xef\xc5\xf6,\xf7\xf3\xf7^\x8f\x9c\x0c\xf4\xa0\xa8)\xba\xa9\xa8\x9d\xe7\xb0\xe2\xb5"\xd4\xf0\x9e\x0f\xbb\xdd\xfa^~\x1e\x85)\xa3\xe4\xe5\x0e[g\xbd\xb6wt\xcc\x17\x9a\xa6\xcf7C\xa6\xa9\xa40\xdd\x0e\xc4\x0e4\x08\x1008\xd0 t0\x90\xd0\xd0! @\x81\xc6\x81\x81!!\x02\x04\x08hhhL\x08\x1c\x14\xd3\x8d\x02\x04\x0e\x08\x1d4\x0e\x9c\xaf\x18\x93\xccx\xdfG\xe7\x7f9\xf7\x0f\x14\x18\xb85y\xcd\x02,\xd3\xa1\x1a\xce]t\xe4\xaa\xb8\xacK\x05;M\x8e\x00F\x89\x96\xe9A\xa8\x84\xa6\xc8 \xb5jhn\xa6f\x1b\r\xae\x16t\xe7.\xbc\xb7v\xf3\xba\xefS\xc3\xd2\xee\xf3\xb4z9V\x99\xc0sq\x16IT\x12\xca\xcfQMy?\x8f\xeav=\xbc\xbd_\xa1\xc1\xba\xd0\x1aU\rs,\xf7\xaa\x96d\xd2Ujo\x8f\xf2\xbd.\xf3\xd2\xf3,uq\x88H\xa7.9k\x97\x9ddM\xdc\xca\x8e\xd6\x9fN;U \xd78\xd4&amp;$8\xd2n\x08\x103n\x08\x10 @\x81\xd2a\xb8!\xb8\x98\x10 uH\x19\x8c\x84\x08\x10"P\xd8hh\x1d\x0c\xc4\x9c\x93CB@\x81\x03\x83\xa1\xc1"W\x9cTy\xe7\xcd\xfd\x9f%\xe2\xfdmt\x16i\x13U\x9a\x0ep/\x1d\xfc\xf7\xce\xce\xec\x97YQ\xd4\xd4NuC\x978`W\n\x9bTH@\x97l+\x95`\xaa\x83\x9bQJ\xea\xb0\xdev%A\xed\x05%`\xb6\xe6\xbb\xa76\x8fo\x9d\xa3\xd7\xe5t&gt;\x87\x93\xab\xd3\xc3s~V\xe8\xc5\x89Y\xeb\xe3\xbe\x17\xb1\xe8\xbd\x9c\x9b~\x87\x0eL\xdaL\xa9U\xa5\xac\xe6\xc5&amp;\xac\xc7Q8\xd7\x80\xf1\xbd\x9e\x9f\xd0\xe1n\x88\x94\x8cD\x1cm\xd2kQ\x04\xd4\xf1\xdf\x85\xf2\xfd;]\x9c&amp;\x92\xccX\xb6\x8d\xbdr\xd8\xb8k\x88\xb4\xe2La\xa0p@\xc1 `t C@\x84\x81\x03\x8d\x86\x81\x02\x04\x0c\x0c\x0eK\r\r\r\xa4p@\x86\x86\x81\x02\x1b\xa1\xc1\xc6\x89@\xe0\xe4(\xaf+\xf9\x9f\xbd\xe6\xbc\xbft\x91uEhSN\xf5\xe1\xe4\xfa\xe3\xe98u\x824\x01S\x964\xcc\x805dt\x8b\x8etV\x14(\xb3R\xc0\xa6T\xe9\xcd[E4Z@\xac \xc7(T\xcc\x93M\x11\xa9\x80Go\\\xc6\xb3\x14\xdd\xbe\x8em\x9e\xef\'k\xd0\xf1tz&lt;\xcf2\xe2\xe9\xf6?c\xc8\xbf\xe9\xf9\xb0\x9b\x93\x96L\x8bJ0g\xc6\xb3L\x955\xeey\xff\x00\x0f\xd5\xed\xbd\x7f(\x9b\xf3*\xb6nY\xbcxu\x87yU:z\x8ds\x1eG\xa9\xd8{&gt;Dt\xc1\xe6\xcb\x1ade\xa6&gt;vY\xbb\x99i\x90V\xa6\x99\xf6\x1d\x9ep\x8a\x86\x91)hn6\x1a\xa8J\x92\x13N\x08\x18\x1ch\x1000:\x103\x10\x92l\t\x89R\x1a\x07\x12i\x81\x03\x8d\xd3@\x81\xd2@\xe56y\xe4a\xbf\x95\xfc\xa7\xe9\x14\xf9{\x04i4@E\x1e\xd5\xe1\xe4\xba\xf3\xf7\xd8wC+\nqtA\xd6N\xea\x9a\xa3!a\x86`\x88]e\n4\x13\xa6\xac\xe9\x891&amp;\xe0\x82 d\xc4Q\x98\x00 \x08\x0c\x9a\xd3:\x84\xdc\x8d\xa2\xd1\xd5\'\r\xbf+\xa3C^=N\xbf;w\xbf\xc5\xdb\xec\xf3\xf4\xfb&lt;\xf9u\xf2\xad\xf1wm0\xf9\xe6\xd3\xd1\xe5\xfe/\xa9\xd3z\x9c\x1aw\x9d6]\x9a\xd1\xd7\x1b\x17\x02)\x932tbx?\x1f\xd6\xec=n\x08\xd4\xb0]q\xa1r\x16J\x94\xa4\xf2o\x0f\xd9\xe68\xfb\xbd\'\xdb\xf1\xb5Z\xadY\xeeK\xdc\xd38\xed\x9co4[\x89\x90\x93T\x90\xd0\xdcL\x92\x06\x04\x08\x10 @\x81\x81\r\xc6\x86\xc0\xe0\x84\xc0\xe0\xe0\x81\x81\x04\x90\x86\xe1&lt;4\xf2\x9f?\xd3\xe5~k\xef\xa5\x97P\xd4\xccU\x80\x83\xb7\xa77\x17\xa4v8\xf5\x8b\x1bq\xc4\xa1\x0c\xe3\x8aN\x80-\x0c\x95@\xb4\x19\xec\xd2\x1dUV\x93a\xbalT\x93\neN\xa2rNT\xe4\x08\x10&lt;\xb8\xed\x9er\x9d\x0c\xf6q!\x9a\xe47\x05y\xc7\x1dlR\xae\xf4\x1decn]\ryzN\x8f/O\xd2\xf2v=/#O\xa3\x8c\x9d\x1eo\x9d\xf8\xde\xe7w\xeb\xf8\x93\x14j\xa4:Q\xb6Z4I\xa7H\xa2\xd8\xb5\xc6\xf9&gt;\xa7a\xebyS\xac\x92\xda\xa4\xbc\xc9\xbbi\x87H&amp;wc\xce\xed\xe3x\xfaz\x9f\x7f\xc8\xd3\xbce.\xba\xdb\x9f\x9a\xb5\x8dJ(nw\xb6\xcfKl\xe1P\xc3M&amp;\x92\x18n\x0c\x0c$\x08\x100\xdc\x18\x10"\x9c\x18\x1c\x10 @\x81\t\xc1\x03\x8d!#\xe5\xdf\x91\xfa\xbd^\x1fgn=J\xcbH*\xacN\x880\xf0u\xe4\xb5k[\x1e\x91e\xa8\n4\xba\x92\xde\xad\x89R\xe3\x16\xf53\n\xa1`+\x94Yr*B\x12&amp;S*I\x9c\xa0\xa0\x83wpD\xd84\x1a]}r\nD\x8d\xec IY\xa2\x1bb\x04X.\x0c\x940:(\xd3\x95%\x96\xe9VV\xf6\xe5\xd4\xd7\x92\x1b\xf2\xf4^\xa7\xcd\xedz^N\xa7G\x0e\xafW\x1b\xa7HGj3I\xbc\x91\xf2^7\xad\xd8z\xbet^foR\xe5\xaab"CE\xf1\x9eog\x03\xc1\xdd\xe8\xfe\xcf\x9fl\xc8\x9ag\xab\xac\xcc\x91:\x93R\x17=\xc5\xd9\x97\xcd\xbe\xcd\xe6\x06\\\xd3&gt;\x8b\\\x89\xa6q\xb9f\x90DI\xa46\x044\x08\x10\xd0\xd08\x9cl\x9a\x04\x0e\xc44\x0e\t\x08N\x97\xc6\x1f\x05\xf7=\xd3\xf45\xb2\xf4\xd1.\xe8\xe8\xac\x88\xa3\x91\xea\xe0\xec\xb9\xfb\xab\xabQ\xab\x04\x10a\x86\x03\x80\xc6@\x8bB\x1cG\x15O7\x16&amp;4\x92\x82\r\xca\x9b\xc3*\xaa\xb3\xa5\xf2\x85H\x92\xc6\x07@\x06}\xf9\xa8\xe5\xa9\x96\x85W\x04\xa0\xd5\x8b\xc8\x02&lt;j\x9aEE\xa9S\x0b\'\x14\xe4B(]&lt;\xfe\x89\xd1\xf3\xd8F\x99\xf1\xd9\x8b\x1dP\xbc\xae\xf5rt\xdd\x9en\xcf_\x95\xd0\xf5\xf9W\xfb&lt;\xbb\xddX=e\xc5\xf9^\xefg\xe9\xf8N\xee)\xe479\xa5"\xab\x995&lt;\xfdy~?O\xab\xf6&lt;\x9d~\xbeIg\xb6$\xd2\xcd\xa13\rs\xa9\x15\xc9y\xfd\x9dg\xad\xc0TFk\x97\xc7cs\xec\xda\xe5&lt;\xefW\xa7\x9ff\xb3\x8d\xe67OR\xcc@\xc3\x92\xa6\x12iL\xaa\xd1!\x03\x82\x04$\x08rC\xa1\xc7\xf17\xc0}\xdf\x7f~\x9e\x9e]sh\x13\xa9R\x80\xeb#\x03\xab\x87\xa5\xe5\xef\x8a\xa6\x8a\x89SD\x86\x80C\x98\xd0(ph\xa4\xc4c4 \t\x84\x96)ej\r\x1ahe\x9an\x05HE\x18\xd3@JT\xf5\xc2\xde\x1b\x85]\xa75\n\xb0\x98\xb4\x86B\x8b\x90\xd0$I\x83\t6\x9c4\xd6\xa7W\x95\xea\xfe\xc7\xe5\xb9F&amp;\x9a\x1cvU\x9e\xda9\xf7c\xc7~Dz\x19Q\xde\xce\xf4/\x8f{\xb7\x82\'\x0f{\xef|\xee\xc7o\x11w\xe7S\x8b\xb5\n\n\x03\x9d8\x0f7\xa7\x8e\xf3\xfb\xfd\x0b\xd4\xf3\xf5;\xb02W\xda;\x02\xd1D,\xf4\xcfU\xc5\xf9\x9d\xddW\xa3\xc0a\xda\xd3;T\x89,W\x16cnc\r3yzt\xfb9VN\xd0\xb4w\xcbSH\x16\x90\x86\x84\xce\x9eZr\x8aB@\xe0\x81\r\t\xd3t$|\'\xf0\xbfs\xed\xab\xd9\x96[F\x9dyv\x15WN\xdb\x9f&lt;\xe8\xe4\xecx\xfd\x01\x00\xe2\xca\x86\x18SwV\x93#a@\xa1\xd9\na1\'Ed\x99\x04\xc95\x01I\xa4\xaecR\xec\x0e\xa9SLi\xcc\x06\xc8\xed\xcel7\x91n\xe5\x93\x8b\x0e\xd5D\xcf\x16\x16\xca\x01D\xd3\x1aS\xb7&amp;\xa1+{\xaf\xc5\xf5Ok\xf2l\xa6EK!ReJ[M\x8c\xd4\x13\xdd\x9d\x1e\x86f\x1e\xa6V~\xceT\xf4\xd5\x95\xbf\xd3\x86\xdfg\x9d\xb3\xdd\xe5nt\xf0kwyw:\xb82x;8\x9e\x0e\xce\xf3\xd6\xf3,\xf5b,\xef0\x92\xcdWUi\x91s\xabG\x07\xe7\xf6w\xde\x8f\x9e\xe5Uj\xa4X\xe2\xa5R\x93\x815y:w=\x0e\x16\xb0\x93\xa6N7H\r!r\xbd-\xe3S~v4O44\x0e4\t\x08\x1c\x10\xd2$\x1f\x15|W\xdb{\x06^\xe5\x1c4WsS\x02\x99V\xbdg\xe3\xfb\xf2z?\x17\xa3Y\xb2E\t\x04LC\xae\xac\xc9\xc4h\x14\xd3\x8e#\n,)\x93s\xa02\x18\xa7\x1c["u\x07jA\x0c\xb3B(\xa0\xc0\xca\xdb~i\xe5\xb2T7S\x98\x8bE\x14\x87)\xd2,\x88\xa0T\x130\xc0\x93\xba\x84\xae\x9f\xb3\xc2\xf4\xdfk\xf2\x8c\xc7\x9b\x12\xd2&amp;\x9a\xa9\xe6`TF\xc92p6\xaf}\x16r\xbaf\xd5\xf3\xed\xcd\x8fK\x0b?S2:s\xebM+\x9d=0\x9b\xe1\xea\xfdO\x17k\xd3\xf2\xf77\xe7=\xf2\xdds\x95KY\x19\x11\xa1h\xf3\x1f7\xbb\xd1;\xb8^\x88i:\xb5(N\xc4\xe0Y\xeb\xe7\xde_\xa7\xd5z&lt;\x13\xa8\x8c"\xdc\xe9\xdc\xa9\xbeg\x9baOGo\xdb\xe6I\xda\xa4\x90\x81\xc1\r\x86\xe0\xe0\x90\x81\xd1\xf1\xef\xc1\xfe\x85\xdeG\xacT\xc0\xc2K\x88T+Wl&lt;\xd4\x8e\xff\x00\x1e\xa2\x0e\xb4\xdd\x94\xaa\xa0\xa5\nt\x02e@\x074E8\xa6T\x0c,\xb2\xab-7\x05L9\x8c\x08\xb8\x9c\x15X\x18\xa1\xc8\xba\xc0F\x86\xac{s\x93\r\xcc1]O,\xdd\xcb\xf4\xe05\xb13\xd8P\xadQ5B\x869\x88\xd6\xac\xc6\x95\xd4\xfa\x1f9\xe8\xbe\xc7\xe5\xd9\xa4;\x98H\x84\xa9)\xa6\x01\x02\x04\x0c\xecF\x87\x97\x02H&amp;\x14gFZ\xc3&gt;\x9a\xf9\xf6d\xe3\xeb\xe6\xcf\xa5V;\xf9\xf3\xa4;\xf3\xdd\xe8\xe7\xe9z&lt;\xfd~\xef\x1f\xa5\xeb\xf2\xeft\xf3\xef\xef\xc3\xe7\x1c}\xde\x87\xe9y\x90\xa1\xf3\xd3:l(C,EG|\xff\x00\x07Gs\xeb\xf9c\x8d\x13\xb8\x0b\x13\x9bNbu\xe9\xa9V\xcb^\xeb\xb7\x85\xaaShH\x1c\x18\x1d\x0eR\x04\x08\x1d\x1f\x1f|\x1f\xe8\xfd\xe6~\x9c\x91^\x8br\x0c\xa0\x0b;^|\x99\xae\x87\x0e\x83:b\x82\xd5\xf4TW4\xc6\x94\xca\x92+\xaat\t8\'uU \xb2\x0e1&amp;\xc5\x18&amp;\xcai\xdeUY;\xb4\xeb\'9p\x08\xaa\x0e\xd8O\x1d\xae*\x05D\xd5\xca\xb1\xf1\x8fk\xf3\xf7X\xea\xe1\xdb\x7f/J\xf6~\x97A\x1d:s\xd4E\xd0(\x08\xa9\xf3:\xde\xff\x00\x9b\xed\xfd\x9f\xcc3I\x93\x81\xa6\x89rXi1\nCq\xc4\xa8\x171\xcd$\xd2I\x85\x04\x869\x1aMLJ\x8a\xe8Y\xf4\xd77\xc9\xcb\xbb:=\x1c\xd9\xf4\xf2\x17U\\\xf5\xbf\xd5\xcds^^\xf3\xd5\xf9\xad\xee\xce\x1d\x8d\xb8\xed\xf5\xf2G\\\xe1I\xd4O-\xbc\xdb\xcb\xf4\xfa\xff\x00G\xce+9\xdc\xb5\x14\xdd\xba\xcf_\xa3&lt;\xc1\xe7\xf1\xf4zWg\x08\xed\'L\x92\x04\x0e$7\x044\x84)\x0f\xe5?\x82\xfd3\xa2\xcf\xbe\xb2\x9d*u\x90\x8b\x81\x1c\xa6\xbc\x9bq\xd1k\x1d\xea\x8e\xd4\xdd\x16\xad!+B\xba:H\x9a\xa1\xcd:\x1d8\x0c\x8e\x82\x82\xa4\xca\x9cr\x1c\x06\xd4\x8a6\x9ap\x92\xd2d\tT\xcadT\xdf\x9e\xde\x1b\xc1Y@5\xa5\xc3\x9b\x84\xfa?\xca{\xa3\x9b\x02\x97\x8a\xd6\x9a\xb8\x8a5\x8a\xe9\xbeun\xf2\xf7\xda\xcf\xd2\xd0\xc7\xbb\xd5\xba\xfcn\xf3\xd1\xf8\x1c\xf37r\x91\x8f7\xcc-zG\x1a\xee\x10@L$\x86.N\x88\xd2M\x04\x14\xb2\x96\x9aMH\xa6\x1cA\x92a\xc6\xa1\x84L\xf4,t\x0bN\xac|\xfd,~n\xe0\x1e\x9e\x04\xf6g&gt;\x8d\r\xf9zN\x8f7s\xd2\xe0\xda\xdf\xc9\xe8\xfb\xb8\xb2\xf8oo\xd5\xf32\xb3\xbc\x0e{\xe9zs\xcc5\xe70\xae\x8b\xa22yv\xf4\xbe\xde\x15r\x9d0\x90 p`q\xc8jD\x0e?\x98\xfe\x0b\xf4\xfd(\xea\xae#\x80\x81\x95H\x9eW~N\xab&gt;\xa5\x8e\xc1df\x8d \xd1"\x80\xa8\t\xdcL#i$\x9cGdt\xadZCM\rQF5VB\xad\x16P2\x86\x8bY\xe8!M\xb4\xe9\xe4\xab\xbf92\xde\xec\x95Pz\xba\xf5\xc9\xcf\xfd/\xe4?@.\x1a\xf5\xb7\xc3w\xe9\x91\xe85\n$\x80jVc+\xf9\xef\xeb:\xcf\xbeO\x99@\xc95\x15&lt;\xc6^\xaf\x97c\xf4N\xb0\xa9\xa7\x9b+\xe7\xdd\xbc5*7\x16z\xe2\xdcjM$A\x11&amp;\t;\x12\xa9\x8e2Dj\x92%\x91\x05R\x1c\x9c\xb2l\x89:\x83\xa9E\x8e7\xa4\xbd\x0cY\xef\xab\x8f\xa1\x83\x97\xa1\x95\xb7I\xd3\xdd\xea\xf3.\xf5y\xfd\x1f\xa5\xe5\xdb\xea\xe3\xdc\xaf&gt;\xefO.a\xb6V;\xfa\x06\xbc\xd66\xc9\x86\xe0\x81\x81\xc1\xd3A\x04!\xb0I?\x9e&gt;\x03\xf5h\x97$\xc6#02\xc4\xceS\xa7\x8f\xa8\xc3\xadc\xa1\x98\x16\xcc\x88\x8d\x90\xea\x80\xaa\xca\xa0\xa7Y2\xa1&amp;$\xadZ\x9c\xba\x85\xcalc\xba\x9ep\xed\x01\x064\xed j\xe61\r\x0eR\x83\xd1\xcfo\x1e\x80\xca=\x15\xd6\xb3\xdb\x86\x87\xd1~?\xed\x0b\x82\x95\xed\xf2\xee\xbe\x87v\xf6\xcb\x1d$\xf3\x036g\x0c\xde\x8a\x9fnX}\x05\x9f\x99L\xc5\x87\x1a\x8eN\xbb&gt;}\xc7\xd5\xc1\x8e\x8d\xfc\xfaz)\xe8\x8c\xdd\xa8\x9dg\x88\xf4\xe5\xcc\xd3\x8bf\xf9\xf5\xab-W;o\x1d\xf5\x94\xb3\x19\x92\xb2*\x99RR\x93L\x8a\x1c$\xc6i\x81\t\x81\xa4\x80\xdcl\xc8\xb58\xb9\xe7\xbeY\xdb\x92zyy\xfat\xa3\xab\x12;,n\x8d\xd9\xc9\xd5\xeb\xc3\x7f_\'\xbc\xf4\xfc\xad\xee\xce9V#\x1a\x12N\rA\x92\x95a\x11bc\xaa\xf9\xe7\xf3\xff\x00\xd6\xeb&amp;\xc8\x98\x8b\xa1)z7\x1eS\xb7/\xa1s\xf6\xd6\xce\xe6\xd1\xdb\xac\xd1e\x94*\xa7h\xa0\xaa\x12m4T\r8 \xad\x18!6\x12\xcc\x98\x07)j\x9b\xa7$\xdd41\x8c\xe3\x18\xe4\x98\xb7\xe6X\xf5\x19"5\x18\xd2\x97G\x97{\xe8\xbf#\xf5\xa3\x87\x02\xb6\xf9w^\xee\xaa\xe6\xd8\x99" \xe6D:\xe9\xad\xfd*g\xd21\xf2\xaa\x990\xe2\x97\x0f]\xbf*\xdfuq3\xca\xc3\xd7\xb2\x9d1"*\xab\xbb\x97F\xde}V\xe3mSKk"N\x10x\xda\xdf\x92\xf9\x8e\xab\xcbj\xb2\xd7x\xeaLY\x06\xa7\x17.\xa6I\xb3q\x044\r3\x11!\xa6\xdc\x1d\xcb\x16\xd3RD\x1b\x13n\xba2\xe3\xaf7/O6=\x0c\xb7\xdbN\xbas\xb7\xe6\xfa\xa7\xea\x7f??G,\x82@\xect\x9c\x1d\x0e\x0e\x0e\x9f\xce\xbf\x9f\xfe\xb4\x14\x05T\xca\xadC#kL|\x86\xf9\xfd\x0f\x9b\xbe\x080\xc8\xec\nm*\x0082pU\x05L\xe4\xa8eN\x84\xc2)\x8a\xb8\xab)C\x961\x98`urF\x1b\x8d\x87\x01\xc8pF^\xfc\x9aX\xf6\x117LR\xb3\xfb&lt;\x9e\xa3\xe8\x7f\'\xf4\xa8\xe3\xe4/\xaf\xe6\xed}\x0e\xb6\xa8\xe9\xd3\x15d\xfa\xe7\xe5\xf1\x8by\x15\xec\xd3&gt;\x89\x8f\x15s(\r\x0b?^\xbf8\xea\xec\xcc+?*\xe5\x95\xe0\x86A999\'Y\x97\x9a\xe8 y+\xab\xd1\x8e\xabyvi\xc9r\x0bI\xd9yN\xb9g\xa7\x0e\xa3\xcbX\xc7J\xf9\xf6Z\xd7\x9a\xb4 \x89\x89p\x80\xa2$\x0e\'\x06)\x9bv2pC\xda\x1c\xb1\x95\x1as5\xb0\xa2\x81\xdf\xdd\xfb\x9en\xff\x00\xa7\x83\x83\x03\x82M\x04\x90\x84\x84\xea\xbep\xfc\xf7\xf5\xb0\x04\xddD\x08\t\xdc4\xe3\xe1\xa9v\xbc\xdd\x8e\r\x0c+F\x1b\x8ci\xb8\xa54\x93\nvjRp\x1c\xc2B`eQ*\xc9BN)\xa5PL\xa3\x92q\xa54\xe4\x98\x00\xd5\x1c\xf6\xfc\xdb\x1c\xfdV#A\xbbp\xce\xed\xf0\xfa\x8f\x7f\xf2\xdfK\x9e\x1e\x12\xba\xfei\xdb\xd0\xd3u\x04IRU\xdb\xd7\x83\xcb\x9e\xc5\x89\xd3\xdb\xa3\x9b\xbf\xcf\xcc\xaeg\x00dp\x95\xd5\xf3\x9fG\xa1\xa2+F]\xaa\xe8\xdeK\x00\xcf\xad\xbb\xf1\xf8\xbdh\x0eX\x1c\x8d\x9c\xda\\\x9a\x8c\xf4i;\xb4\x1a\xb3\x96&lt;t\xece\xdd\xec\xbe\'\xdcg_5\xad9\x9a\xf8\xb35\xf3\xa1\xa7\x9c{\xe7\xd1\xd7\x97j\xb0\xd9\x8c\xb4\xe8\xd8r!%.LSL\x957D\x01\x9a\x82\x91\xba\x93d\x1b\r\xe9\xee\xfaYv~\xc2Lt!\xa0C@\xe2@\xe8\xf9\xa3\xf3\xef\xd7&amp;\x06@\x02Lw|\xe6\xdc@\x9d\xbaLw0T\x86i\xb8\x15M;\x83\x92+\xa2J\xe6\x98\x01\x02\x18\xc2\xf2U\xcaJ\xad\x0e\xa0\xe6\xa8i\xc9\x13\x1b\x8eA6\xa2\x9cS"c\xa9\xe7\xfay\xf7p\xdc\xf1\xa1\x8b\xac\xe7\'\xb7\xe7;O{\xf3\x0f@\x9e^\x02\xbb\xbel\xd7\xb6\xc5\xea\xe1$\t.\xfd\xf8|C\xf6\x94\xdf\xd1ya\xe8\x19\xf9u\xcc\xe0\x08|\xe5u\xf8\x0e\xbe\x85\xfa\x9cI\xc7\x1e}\nj*\xda;\xcb\xa5\xcdb-\x02\xea\x98\x14\x9b-\xf5A\xb6K*\xa6/\xa4s\xf3\xea\xce|\xbe~\xaf%\xe1~\xaf\x99\x08\xcbVu\x1d\xb9\x0b\x8e\x93x-9+\xe9\xcd\x0e\x8f6\xb6\x9ept\xf2\xf4/\x8f^\xf2\xd7\xbc\xb4\xef\x1d\xb7\x9d\xd4\xa1\x04\x13Wqr1\xb9\x9c\xd0\x953{~\x94\xf6\xbe\xd2(3\x14\x89\x8e7\x1a\x12I\xc7\xf3w\xc0~\xb5]8\xc8`jH\xae?nN\xab&gt;\x86\xcfS\xb4\xf1CV)\xa5\r\xac8\x80\x98\xe2\xca86\xc0D\xe47\x92\n\x99PBhuqN\xc8U\x0bE@\x1d\x84\x00&amp;TE\xaek\xaf\x9b\xa9\xe7\xe8\x14i2\x95\xe5\xce\xf6\xfc\xc7\xa5{\x9f\x9a\xf6\xd3\x97\x9c\xe9\xd7\xe5\x0f\xa6\xdds\xe538\xd2\xd1]\x15y|I\xee\x89?\xa3\xf3\xe3\xef2\xe1\x02\xce\x00\x83\x9d\xae\xdf\x98\xb5\xef\xeb\xab*\x93\xca(\xf4\xf1&amp;\xebR\xd5\xbeN\x822\xc4;kP\xf3\x9d\xf29\x96I\xdb\x85\t7g?\xa3#\x8b\xa6\x8c)\xe1\xeb\xf9\x8f\x85\xfa\xde];+I\x0c:\xf3\x13=\xe0$DIh\xa8\xdc\x17L\xee\xe9\x83i\xc5\x99|\xd5\xef\xcc\xa7\xa7\x9d=y4u\xe2\xd6\xdb\x93Z\'d[\x8e\x98\xc9\xdc8$\xf4;OA\xf7\x14\xec`t q\xbah\x10\x9c&gt;n\xfc\xff\x00\xf5\x807\x16]\nM\x85\x1cn\x9c\xdd\xc6}\x10\xcfG\xa2J\xaa\xabY3\xcb\x8d\x8c\x13E\x89\xba\t\xdd\x15`f\xce\x9dr\x99;j\x82\x87D\xd5\x08\xa54b\x84\x0c;"\x00\xce\x80\xa6\xdae\xcet\xe3\xbb\xcd\xd7g=\x1d\xcbi\x9d~\xff\x00\x97\xf5/o\xf3m\xb9\xc7\xc9o\xb7\x99^\xae\xe4j\x88\xaa\xf2\xcdy\xf2[yu\xde\x9a\x92{~[\xf5\xb1\xc0\x038\x82\x0f&lt;\xae\xcf\x9e\xb5\xf4\xfd\x15\xe3\x98\xfc\xfe^=\x0b\x93\xaec\x9d\'\x9e\xacr\xe7\xbfGz\xf3\xcb\x1e{\xca\xa0\xe8=D\xd0!kF_XO&amp;\x8e&lt;\x94y\xbd\x8f3\xf1?`\xce\xa9$\xd3*\x8e\xb8\x96-"\xbd\x02D\xddL\x81\xb95e{\\\xb3\xe3Z\xc8\x18\x9e\xf2\x1d\xf26\x9c\xcb^\n\xfa\xf9t\xb5\xe2\xb1\xa7\x1f\xa4k\xe7\xf5\xe6/\x12~\xa3\xd4}\xe0Z\x13bBC\x8d\r\xc1\xc1\x91\xf3w\xc0\xfe\xb1\x11@\x13\xa7I\xd5\xf9\xb6\xfe\x7f\xa0\xe3\xe8\x0e)\x0c\xc9\xcaj\xa4\x92\x19B\xa2v\xc7\x04\xc4\x9bPyc\x1aL\xe0\xc3\x92rUTfT\x82\xb1G\x9ad\xe29\x81A\x81#\x1f\\\xc3yns\xf5Ih\xe1;\xe6\x8e\xb8\xc3^3\xf4\xf9\xfbO\x80}\x11Q\xf2\xdc\xd7*\xdar\xc0\x9f9\xe9\xf39\x03\xabb_\xd1\xd1\xc5\xbb&lt;A2\x88\x90\xf8\x17\xbf\x89\xf5vu8\xe7\x9d\xb7\x16^}\xf5\xa7z\xa1\xa8\xf2\xd2#\x02\xbb}\x11\xde^x\xe6\xd7-*\xd74\xe9\xed\xd5\x05Fd\xe1\xf44q\x83(\xb3\x9f\xa5\xe6\x7f;\xfa\xf5-\x902\xd6\xc4\xb1\xef\xccY\xda\xbap\x9c\xdb[\x96Q\x16;MSsl+\xe1\xa8\xb4\xc9M\x89\x8c\x86\x13Vc\xb4\xeehux\x9e\xfb\xe8~z\x13\x14H\xf4~\xbb\xf4e}\x02\x83\xa1\r\xc1\x02\x04\x0e\x8f\x9b\xbe\x0f\xf5\x91\x92\x11\x94\xa8\xcb\xd2\xa8\xf1\xddy=?\x9f\xb9\x87\x19\x18n\xb4\nr\x02\x80\xa2\x98dC\x0c\x08)FU\\rE\xb1\xd4\x96\xc12\x86\x9c\xd3\x91B\x1c\x93(\x0ch\x08\x10E&gt;\x8c3\x05\xb7\xcf\xd4x\x1flk\x0e\x19\xe8\xf3k\xa1\xc3\x14]r4V}c\x7fL+^W;|\xec\xbfS\xe2\xf69\xbd/Q\xe8\xf0-\x1ehL\xe2&amp;/\xcd/\xab\xe7-\xbd\x1fD\x8ee\\\xd8S\xd8\xab\x1b\x1agm-\x15\x14\xa7k\xc5_\x97I\xf3*\xd7\x9a:\xbdh\xde\x91\x9els\xfd\x05\x1c\x9c\x14_&lt;\xfa\xb0~w\xf4\x8azEG\xa1s\xb3\xeb\xa5\xeem \xbb$\xdc\x12\x89\xa4\xd6NH\x85w\xa3\n\xd8\xf5\xbe\xa4g\x11T\xb8;#0*\x06\x96\xafO\x95\xee\xde\x97\xe6\x9c\xe3\xc5\x89\x1dW\xaa\xfd\x10m\x89\x03\x04\x86\x81\x02\x1b\x83\xa7\xf3\x1f\xc1~\xaeRB\x03T\xd3\xa4\xf7\xe4\xe0\xeb&gt;\xfb\x97\xb4\xa3\xae\x15\xd5\x15X\x93\x90\x14%.\x03\x82n3 J\x98\xa5,I\xd9@\xc7$\xe62\x8e\x9a\x0e\xeaC\x1arD\x9b\x18\x1c\x18+uq\xe7g\xb6\xcf?C\x93\xeb\xfe\xff\x00\xc4[\xed\xf11\xe7\xab\xa1\xe4\xec\xe4\xf2\xef\xf3\x1f#\xea\xc6\xee\n\xcb\x19\x08\xe8&amp;\xd8\xe1w\xfc\x9d\xbfG\xe4\xb7\xbc\xbf\xb8\xf5\xce\xdf\x8an\xcf\x00fq%\x87\xc8\x9e\x87#\xc9\xf5\x99\x1d\x1e1\xba\xbc\xf7;\xe8O6\r&lt;\xd6]1\xcdzX\r\xf9\x8a\x8f\x8e\x88\xcai\xa4A\x8d\x05\x19\xfd3\x97/\x1d\x9e\xfc\x9e\x9d\xc2\xf9\xcf\xd3s/J\xfaGm\xb7\x0f1/\x07&gt;\xcaw\xe6oux\xb9\xfc\x7fD(\xd8\x85\x9avy\xd7cL\xf2r\xdeT\xa1\x1aN\x94\x0c\xe0L\x93\x8e\x84\x14Z\xdb\x8b\xdf=o\xcbp^!!\xaa\xbd\x13\xdc{]@XP@\xe0\x81\r\xc1#\xe5\xcf\x80\xfda% \x81N\xf4\xc6\xeb\xf3%\x9e\xfa\xdc\xddEu%A@"\xa4\x89\x00\x00\xee\xa68\'\x04\xec eE4\xa8\xb2\xe0\x89\x154D"2KT\xdd\x08\xa8"M\xcd\x91\x07\n\x1d|\x11\xc7\xabO\x9f\xa0N}\xa7\xe9\x7f8\xf2\xad8\xc9\xae\x9e\xeas\xeb\xe5\xd1\xf2\x97\xce~\x98L\xb65*\xf0\x1bH\xc4\xee\xf9\x9d\xed\'/\xa3\xe5v9&gt;\xd3\xd7\xfb\xfe"\x1d&gt;\x08\x8c\xd11\x0e3\x0f\xa2\xe3&lt;\x1f\xd3iz\x7f-v\xb8\x89\x8f\xd4\xc1cy\xf3\xda\xd7\x9a\x8e\x9e}-\xf9hk\xcbc~\x0c\xc7\xcd\x98\xb6\xa6l9\xaa\xafm\xe8\xc3\xe9\xb8\xf3\xb9\xf5\x8f\x19\xafU/\x99\xfdS6\xf4\x1a~\xbf\xec|\xd7+\xcf\xdf\xc5\xf9~\xcbtp\x07\xd1\xf8\x9b\xdew\xdb\xbe}Cs]\xe5\x9ee{l\xb3_\x11\xb6\xe4\xa3\xcf\xec)\xd7Fz!\x1d\x07\x96\x1d*k*\xf7\x8f\xd1\xbe\xcf\xe5\x18\xef\x9e\x99\x08\xae\xef\xda\xae\x8b\xb9Dn\x0e\x0e\x08\x10\x90\x9d?\x98&gt;\x03\xf5\x9a\xe3#Dj\x92\xbe\x7f\xb3\x8bo\x93\xa6\xd4t\nR(\xb3A\x97\x14\xca9\x8c,\x93dAU\x08DU]\x08\xa6VD2&amp;\x98\xd3q\x90\x12\xa7\x07D\xc0##$\x03\xa5\x8b\xd5\xc5\xa9\xcd\xd5g-\xeb\xab\xfaS\xea\xbf0\xf2\xed\xb9\xb2\xad\xfd\x0e\xf9js\xf6\xfc\x9d\xf3\x7f\xa5\x16w\x9aH\xac\x9fC\xe6\xba\x0e\xef\x98\'\x9f\xf4\x98\xde\x9f\xc8m\xf9\x9fk\xeb\xde\x9f\xc2\x83\xa3\xc3\x891&amp;.x~/\xa1\xe0\xfco\xb9\xd2\xeb\xf1k_7Y\xe1\xfd\x19\xe3P\xd5Q\xe9\xd0o\\=\x06\xbc\x89\xe9|\xd8\xb4\xf3\xf5x\xfe\x8c\x9d&lt;y\xf7\x93\xe9\xc2=y\xbdV\xbca\x18\xf2\xf5\xad\x0f\x0b\xf4\xbe{&gt;\xb7tl\xb5\x06\xd9&gt;a\xf4\xe7\x07\xa7\xf0\xa7\xf3\xfe\xb9\xf2\xf4F\x12&amp;#\xbb\xaeX\xfd\x1e8\xfa&gt;z\xf7\x9b\xf70j\xa6\x9c\xd4\xb4\xc9\x9d\x00\x8dM|\x8c\xee\x7fg\xde\xfd?\xcf\xac&gt;:\x06lW_\xea\xdfa\xe9&amp;\x080\x8d:\x19\xd2&amp;HJ\xbeY\xf8\x0f\xd5\xea\x0c\x8d\x11\xcd\xa6p\xfd\x9c=\x7f\x1f\\\xf3\xe8R\xc2\\%\x95PS \xc23%\x12\x8a\x94\x15\x11\x82(\xe8\x92\xa0\xab\x9a"\x82\x8e@1\xc8q\x1c\x870`\x10\xe4\x87\x92\x02\xc1\xea\xe3\xdc\xe7\xea.[\x8d_u\xf4_\x03\x9f\xa76\xde\xd9v7\xc7\x8e\xf7\xf9\xd7\xc6\xfb\x8e\xa3\x8b\xd0\x0e[\xd4\xed\xf2t}\x1f\x94-\xf1O\xcd\xfa*&gt;\xc7\xcbj\xfc\xff\x00\xd6{\x7f\xb5\xf0\xf9=^;\x12\xc4\xb0p\x1c\xdfC\xe7\xfew\xdd\xbe\xde\x1e\xae\xb1c\xcc\xfazX\xbb\x1c\xe6\x8ex[P\xe4[\x1f?\xee\xfc\xf5\r\xb1\xe8|\x1f\xac\xb1\xaa\xccZdV\xcbi\x05\xd8\xb6\xf2g\xea|]\xce\x1f\xad\x8f\x17\xba2O\x9d\x0bLY]\xbb\xca\x97\xa7\xf1\x13\xe1\xfa\xc8\xe1\xe9\x9dJb\x15\xdd#\x07\xa3\xc8\x87O\xce]\xf3\xfe\xd1\xd3`\x8b\xd2FU\xb7\xe0\x07o\xca\xe9y\xdfU\xd9z\xdf\x0b\xdc&gt;\x1c\xb3\x18\xab\xd2\xed\xd1\xfd\x1a\xe8\x9a.\x8b\xa3\xa2\xd0\xc1c\x89\x85!\xfc\xb7\xf0\x1f\xabLbj5:;sp}\xbegQ\xc1\xec\x9b\x9f\xa5I\x01\x82l\x8a\x9986\x01\xdcJJ\x82\x11Nh\x92c\x1b*\x92\xb9"A!\x91\x83\x19\x074\xe2\x9b\x05\x80\x10\xe6\x86\t\x0b\x9b\xea\xe4\xbf\xcf\xd5\x7f-\xeb\xcdG\xd5\xf9|\x8e?o\xca}\x8f\x9b\xed:89\x1a\xd0\xbc\xdd\xbd\xb7\'\xb7\xb7\x81\xab\xe8|\x7fi\xa4\xf1G\x15\x9f7\xe93=\x7f\x90\xd7\xf1&gt;\x97\xda=\x7f\x91\xce\xea\xf2\xd1,K\x13\xc1c\xedyo\x99\xf5{;rU\x8cw|\xcfR\xa6\xf8\xe9a\xdc&gt;\xa0q\xd3\xcek\xae\xdez\xdc\xf4\xfc*yp\xd8\xf2\xfe\xb9c:K+\xfc\xd1\xa1\x9eY\x1a\xe6-\xf1\xe2\xfe\x9f\xe4\xfao\x0b\xeb\xf50\xef\xc2\xd5\xd3[\x1f\xaa\xa3\r\xee)z_\x07\xa1\xc1\xf4\xc1\xc7\xd98\x84)\n\xfdF\x06\xfeb\xec\xf9{\x1e\x7f\xdc&lt;k2\x02)TF\xf2\x07\xab\xf1g\xf3~\xab\xad\xf4\xbe\'\xd1\xeb\xcc\xc91\x8a\xd7G\xae\xb1\xfd\x1b\xe8\xeaz\xbd\xd6R\xd2![;\x1aS\xa8\xd2g\x82|?\xea\x8c8\x81.&lt;\xe7\xaf\xc4\xe8;&lt;\xac\xde/\xa0\xeb8\xbd)F\x8eQ\x13\x1a\xa1&amp;\xe9\xc4de\x84\xdcaT4\x1a\\\x90"\x92\xa9!\xc61\x9cq\x1c\x06\xa5\x91\x05\x01\x04\xd33\x04\xc2Q\x99\xd3\xc6^~\xa3\xe7\xb13a\xe9\xe7\xe24\xe6\xe0}\x8f\x87\xb9XD\xe8Kb.\x8fB\xcb\x93{\xb3\xcd\xd3\xe2\xf5s4\xe3\xd1\xe3\xf7y\xdfW\xe3y\xee\x1f\xa3\xfa\xb7\xbb\xe63o\xccB\x89,\xce\x0f\x97\xe9\xf8\xef#\xf4hu\xfc\xac5\xe2\x17\x07\xd6\xba\xce\x84\xe0i\xe7\xbe\xb3u2\x98\x0fG\x06wg\x16\xbf\x07\xbfgl\xd6=\x9c\xff\x00f\xb7\x9e\x9fJz\x7f\'@\xe6\xf3\r\xbc\xcf@\xe1\xf5|\xe3\xc2\xfa\x90\xf2\xefs\x06\xd7\x81!f\xed\\\xbf\xd1|n\x9f/\xd3\x13\x83\xd6\x06\xd6-m3J\'\x1b\x7f&gt;\xbfo\xca_\xe0\xfb8F\xd0\xa4\xea\x9d\xe6HT\xfd\x7f\x89nO\xa2\xea\xfb\xbeO\xd4\xb4\xf1\xf1\x96q.\xcfS\x97\xa1\xa6e\xcf\xacu\xe6\xe9\xc0s\x0c\x1ct\xf1\xac\xaf\xe8mg\xe6\xff\x00\x86\xfdR#\x83mG)\xd9\xe4y\xff\x00g\x85\x7f\x97\xda\xf5\x1f7\xdcS\xa5\x90\x02\x18dM\xa5\xbacu\x04\xe2\xa8\xc8k\r!\x10\x14\xdd9*\x99L1&amp;T\xd94\x0c\xc3\x0e\x01)\x18&amp;8\xd2\xcf\xe8\xe6X\xf4\xdc\xcfQ\x92\xea\xb1\xba&lt;\xff\x00\x1c\xfa/\xcdt\xab\xcf\x81\xb8\x05\xe9\x06vt\xca\xc1\x85\xb5\xd6Nj\xde\xe3\xf5\xf8\xcfG\x86\xbf7g\xd4\xfd\x1e6%\xf0\xa2X\x98\xb3\x81\xe3\xfan?\xca\xfd\x1e\xbfW\xcf\x13_6\xe7\'\xd5\xd5\x87p\xd0H5BSVAz\x1f6\xc7\r\x1e/\xa6$f\x8ek\xf5\x10\xc0\xed\xbd\x0f\x03\x10\xcf\x88\xf5y}\xe7\x1d\xf9?+\xdf\xe2#\xa5\x1e\x8c\xeb\x12\xe7\xd9g\x02\x9f\xbb\xf0\xb0\xf3}\xcd\x7f?\xd8\xb4\xa3S&lt;c\x9c\x8fZ\x8e\xf8\xf0^\xff\x00\xc7m\xf9\x9f\\,=W\xdc\xa6\xea\xc3\xc9\xf6A\xeb\xf8\xc8\xe1\xebt{\xf9&gt;\xb9\xd5\xf3\x982\x99\xc8\xf5]\'\xad\xd1\xc6\xac\xbd\x97\xb5\'A\x02\x86V\x17\xe2\x98/\xa1\xba\xd7\xcc\x9f\x03\xfa\xb36\xec\x15\xa5\xd5\xe7\xf9\x8fw\xcf\\\xe0\xf7\xba^\x0fcJl\xd0\xdd7le0\xec!\x0e\n\x86\xa9\x86\xe4D$\x07\x08*1O4T\xeb&amp;D\xe2\x99X0\x10\xee\x03IXn;\x159\xfb\xf3\xd3\xc7\xa7S=\n\xc1\xa4}\xb9&gt;{\xfao\xcazm8\xc6l\x01\xf7\x07\x06\x04\xed\xd1\xeb\x80\xe7\xaa\x1c\x1ar\x9b\xed\xd8\xf4sX\x9c\xfe\x9e\x87\x86\xf9X\x96&amp;!\xc5g\xeas\x18\xfd\x17:sT\x85w\x93\xe9t#\xa8\xb1\xd0\xd9jG5\x81*\x9fo\x83\x9b\xbf\x99\xaf\xc7\xf5\xe3\xc6\xe2\xe4\xcd&gt;\x9c_@{\xbf\x17\xcb,\xbc\xf8\xe3\xf4\xea\xeb\xf3\xcf#\xe88~^\xea\xd0he\x8c\x8c\xb1:c[\xab\xce\xa5\x1d\xd6\xb9\xbdHZ;\xd8oN\x9b\x9fL-2\xce\xee\xf8[\x1c\x9e\xce\xe7?L\xe1\x97\x1e|\xfb\xee\xd4\x9dp}\xbf\x99Y\xfa:z\xf1\xfbW_\xcds*\x1d\xa8R\xd8\xf5:\xb8\xa7\x9f\xbbuS\xe9\x15\x9a\x93\x0b\x0f\xe6\xae3\xe8\xfe\x85\xf3?\xc3\xfe\xae\xf4\xe5ju%\xec\xf1\xbe\x7f\xec\xf2\xfa\xbf/\xe8\xbb.~\xdb\xb1\xa5\x98\xa6\x8b\x0b\xa7\x19\x1b\x98\xc9,(\x82\xa9\xa6aWd\x19a7\x96\x15A(\xc9\x990\xa7m1\x81\x19Xv\x022\xe48\x8c\x8ehtrU\xc7\xaa\xf6z\x1d\xd3L\xb6\xd8y\xbf\xd3\xfe&gt;}\xb9o30\xd7h\xe4\xca7\xde\xe5\xd3\xa5\xe1\xed\xf1\xff\x00Qt\xbaq\xd8|\xbc\xdcv}\x91\x9f6y\x92%\x89ax\xbdz~Dt\xf6\xab\x9a\xdb\xc7c&gt;\xca5aY\x16z\xf6\'ig\xd7\x91\x8fX4\xe6\x8a\xe5\xb5\xc5\xf4\xf61\xed\xb7:CJ\xb9\xa7\'G\xe9|\xdf\x92t\xf3\xa5\xe0t\xcf\xd4\xc7\xf3}\xdd._~\xe6:\xd3,F*\xe8\x1d\xdf"\x19\xd4\xdc\x9e\xb3f\xder\x95sem\x85\x99\xd2\xb7\xa9\xf2\xba&gt;\x7f\xd1\x8dt\xda\xadp;&gt;{\xa5\xe5\xfaHrj/W\xe6\xeae\x1b/\x7f}\xeb\xf9nd\xc6M\xc5\xd6m\xf6\xf9\xbe\xa7\xb2d\xe1\xb6ZzE\x8d\xb3\xd8\xd2\xfez\xcd\xfb\xefJ\xf0?\x87\xfdYPz\x1f\\\xa8z\x1e\x0f\x85\xed\x97\xb3\xf9?I\x8d\x15eV\x96[\x1e]\x89\xa9\x84(\x8aeU\t\xb0\xa2i\xa6\xed\x00B\x00h\xa7*)\xa0`2\xa8+Bp"p\x18\x95\x10n\xc7#\'|%\x9e\xf7\xb3\xdea\t\x87\xe8\xe5\xe5~\x9f\xf1\xfe\xe3nl\'\x971\x9fN\x8d\xe7\x9b\x97V\x8e;\xf3\xbb"\xdew\xdf-m9\xb2p\xf4\xbe\xcb\x8eL\xc3\x14&amp;\x14\x08\xf1\x17\xe9x\xe1\xdb\xd7_-U\x8d(\xd1\xebdK\xe7CsN\x97L\x9e\xee\x8e\xe2\xf3\xabG\xa8\n\x9bY^\x99\xd1\x1czy\x9bX=\x19\xf4\x1bx89\xfa\xd4\xf1\xf4;\x9e\x1f\xa2\xd3\xf3\xfd"\xe6\xd7VC\xc6\xc7\xdf\xf2\xb0\x8a\xbf\xcf\xf4\x91\xac+ux\xb1\xc3\xba\xe0f\xe9\x86/g\xc5]\xc7\xe8\x0f\xcd\xea\x87&amp;]~z\xba\xf4s\xf4\xd7Ar\x1b\xa3\x93.z\xfe\x9b\xeb\xf9\x9c\x97\x8cj \xb4\xe6\xe3\xbb\xcb4\xcbk\x97\x7f@\xcf\xa6\xd2\xb2#Nq\xf3\xbe\xce~\x9fU\xc5\xf8_\xa6J\xc4\x9fG\xd3\x8f+\xe8|\xbf\x86Wg\xb8\xf9?A\xc9(\xc7\xdb=\\\xb6\xeby\xba\x89\x1aN\xa04\x19Z\x875s\x01\xca\x95[\xa1!\x04G\x05F*sB\x1c\xa4rH0\x954\xd0\xd0@\xb3\x03\x99e\xed\x82\x9dts\xearX(u\xf9\x9c\x0f\xd2\xfeE\xee\x11\x87=\xd7\x97\x9ea\xd7\xbb\x8b\xe9\xf1\xeb\xf2\x1e\x85\xd6W3kwN~a\xc8s\xf4&gt;\xcf\xc3\x8f\x00\xc1\x02&amp;!\xe5\xf7\xdd\xe2O\xb2\xf5e\xcf\x0f4\xbb%_\x1du\x93\x85\xa0\x98\xb5)\xe9\xaf;\x9d^\x90\xd4\x0cQ\xb5)7\x11I\x1d%\xf2s\xab\xd2\x1e~\x9fA\xc3\xdf\xd7y\xff\x00F\xf3\xbd}y\x9f=\x1b\xd1\xf9\x80?,\x9c\xbfOwN\\oC\xe4\xf7\xbc\xef\xb1\x8c\xd3\xe9\x9e\x1fw\xc3C/go\x97\xe9bVoO\xcaX\xe6\xf6\xdb.\x9c\x9d\xf8-v\xf8\x15\xb9=\xff\x00z\xed\xf9B\xbeZ\xa6L\xaf"\xfd/$\xa9\xea\xf8\xf4\xee\xba4\xe6\xb564\xc29/5\xd3\x0e\x83\x9fF\xf1?NW1O\xa4\xea\xc3\xcb\xbd\x0f\x8f\xf3\xdc\xbd\xef_\xf2\xbd\xd6x\xf9\xd7W0\x9cw&lt;^\x86\xa6=3c+\x93"\x9bHa\x96HRd\xec\xa7\x11\xa1\xc18\x975\x06\x01\xce\x8e\x94]H\xa7U\x04\xe4$S\x04\xdet\xb5\xc2\x8c\xeb\xa9\x9fA\x841bw\xf8\xdc\xbf\xd2~E\xe9\xb30\'\x8d\xcb\xba\xae\x1bKk]\x19J\xb82\'}J\xca\x9a\xe9\xfa\xab\x1e\x8e\x93\x1e&gt;`\xc0`\x89\x8b\x1d\xe9`\xba\x8fl\xa7\xbecY\x89s\xcc\xa1U\x84\xeb\x15\x1c\xe9OJ\xf9\x87\x14uh\x934\xac\x8el\xf5X\xca\xeeO\x07N.i\xfa\x14\xd7\xb7\xb7\xc3\xdd\xd6y\xde\xe9\xa6\xa9\xde\x08\xe3\xe7\xfdO\x87\xe9_}\xbf7\xeaY\xacoG\xe2\xf6\xf8&gt;\xc9\x1a\x17\\\xb9\xde\xbf\x8e\xd2\xe7\xe9\xec&lt;\xff\x00\xa1\xcf\xe7u\xbd\x0f\x0cO\xd3l\xfa\xb9\xcdy\x87\xd9\xf3\x9a\xdc\xbfS\xe9^\x87\xc5t/\x8b=\x0c\x04\xec\xec\xf2\xedL\xbc\xdf\xb0\xeb\xd0)\xd3#\x9fN\x13\x89\xf3\x9as\xf5KK\x1eG\xe8\x90\xa9 K\xaf\xcf\xe6{\xfeg\x89\xe6\xfa/E\xf2=\x82\x9aGl&lt;\xfb\xa3\x89=;\xce^\xb3a\xb9\xa7I2\x03t\x8a\x10\x9b5f\xea\x84\xae P2q(\x93Q\xaa\x10\xf3\xeb\x1d8\xa9\xaa\x82\xa2&amp;\x04\xd8\xb9\nO:z\xe3Nt\xd8\xcf\xa1\xa6F,/G\xc4\xe7\xfe\x93\xf2OY\xcd\xf2\xebZ\xfc\x9e\x97\'\xd3::\xf1B\xae\x13\xcb\x85z\xfa\xe6{}\x17\t\xe0\xa59sK\x19\x01\t\x00&amp;\xea\xa4SC\x1b@\x98\x90\x12\x1e\xa6#9G\x1c\x1e\xb5\xdcf=\xb9\x9a\xbc"\xf2&amp;\xf0\x1b\xf5\x1c\xf3\xe1\x8ds:8\xb8\xdeogW\x8f\xe8l\x93\xb4\x95hoW\xd4-\xb9\xbe\xff\x00\x84\xd2\x8fWS\xcc\xfa\xb1\xa33\xd2\xf8\xab\xde\x7f\xd4t\xfc\x9d\x16\xb3\xe4\xc1\xf5|\x0e^h&lt;\xbfTe4\xfa\xbc}\xec:t0\xe9\x96\xb9bz?-\xd4\xf0}&amp;\xb7\xab\xf2]\xe6\xdcYjP\x17n\x8f;\xda\xf8e\x1e\xdd\xbfFN\xa7U\x9d_\xcf\xa3\xcc\xf1\xc39\x15~o\xf4\xa8h\x12f\xcf\xa3\xe7y\xe7\x7f\xcd\x83\xcc\xfa~\xe3\xcf\xf4\xab\xe7\xbc\xae\x05\xbf7\t\xdd\x83\xe0\xfd\x03\x9f\xba\xf6;\x18\x9a\xe9\xb2Lk\x19\n\x94\x9cD\xe9g\x92TgK9S\xb4z9\xfd\xa3\xd9\xf8\xefM\xd7\xca\xe0\xb3\xef\xf0\xdf\x17\xec\x83\xcf\xe8\xcaa\xd6\xb3\x01Z\x86uW\xa7\x90q\xae\x8cj\xa1\x04\xd3\x9e\xf4~g\x1f\xe8\xbf*\xf6\x1e&gt;\xef/T}\xf4\xcf\xdb;5\xc3\xcf\x1bhI\xed\xf3\xb7\xb2e\x19\xea\x0c\x15\x8c\xf9\xb9\xc91\xd2a\xb8\xe9\x05\x97Zj\xea\x8a\x9a\x91\x13!\x18c\x1c\x86\xe2MA7\t\x03\r\xc2J\xa6\\\xf5\x90g\xd3[\x9f\xd4\xe7\xaa\x81\xa6y\x8ba\xe5\xd9G\x9b\xbb\x8b\xf5~:\xdf/\xb1\x95\x97\xb5\xd5q\x02\xf4&gt;wW\xcf\xf5\xb9e\xe8\xd7\xeb\xc3\xa2\xea\xf2\x04\xfc\xce\xc3\x8b\xe9y\xae}\xa9\xed\x84b\x84\xaat\xc3\xdd\xf3\x1d7\'\xbfs\xd1\xf9oM\xbe&lt;\xb6\xe2\x96y\xd1\xc7\xe9\xd3\xce\xe4{\t\xb9n\xe9g|\x0c\x1dE\xe1\xc3\xed\xc3c\xe7\xff\x00R\x1d4\xe7\xa0\xf4\xbco\x0c\xec\xf1\xba?+\xea:\xae&gt;\xe8* \xdaio\x87e\xea\xfc\xbev]Z\xf9t\xe6g\xd3_\x0e\x8a\x93\xa5)\xccS\xd9r4\x82\xd6J^.sL\xf1&gt;\x9a\x0c\xdf\xd8\xbd\xcf\x87\xf6\x7fO\xe5\xe3\xb2\xc9g\x94\xf8\xdfE\xe3\xff\x007\xf7mVJ\x93e\xa8\\4U&gt;\xcej\xd9\xed\xbb\x1a\n\x10\xea\xb8\xefK\xe5\x85\xed~c\xd9\xf3{|\xde\xfco\xb7=\x1be0\xc1:\xbe\xaa\xcd\xf7\x19*K\'$\x83\xaag\xcd\xac\xd01(\x1cuJ\x98\xec\x94\xc2\x02RR!Hr\x1b\x81\x02\x01\x14 @\xe0\x81\x93M\xb0&amp;NZ,u\r\r\x8a\x8c\xdd\x8d\xe1\xa3Xg\xbc\xbc\xce\xaeW\xd3\xc2\xba\xf4w\xfc\xddy\xbe\xbc\xb8\x8d}\x1cm&lt;,\xec&gt;\x97,\xb8ur[\xcdh\xe5\xb5J\x9b\x1d?&gt;\xd8\xf6w}^\'\xb3\xcf&gt;A0$W\xbf\x9f\xed\xd9\xccI\xf4\x8b\xd8-\xf3\x1c\xe7\'\x94s79\x8f\x83\x7f\xc4\xfd^\t\xde\xd7;\x1e\x97\xcf|\xf9\xb6\x1e\x97\xe5}.\xbf7\\\xc1\x95\x15\x9d\x17g\x9d\xeb\x9e\xdf\xc2\xf0gU\x88\xc8&amp;\xbb\x93\xa5Sof|&gt;dm\xe5\xbe_\xd6\xf7\xfay\x9c7\x17\xb3\xa9\xaf,,\x17\'g+\xc9\xeb%\x87\xd5\x7f]\xf9\xe7E\xd3\xe5V\xddc\xef\xcf\x1f\x1f\xda\xf9\x17\xe6\x7fG\xd6\xe4\xeb\x83\xd9\xe2_Z\x91\x95\x1d\xb1\x16{]\x8d\x0b\t\xeb^_\xd2\xf8\xcd/_\xe1\xcd7\x93\xd5\xe6f\xd4\xd5]\xbd\xaa\xcf\xe8\xbc\xfamFf\x99\x03\x82\x92\x87H\xcf\x9fY!\xc0\x96\x07\x1db\x8e2\x8d\x08jRL\x11\x1c\x86\xe10\x882 \x08\x1082\x196c\xb1)wqj1P \x95R\x88\x1d4\xd3\xaaj\xa8\xe5p\xd2Z%\xf5d\xadO\x8e\xb5\xf3\xd3/m3\xdb\xad\x97\xa3VuU\xc9\x85]\xe7\xe9\xf1\xbd\x86&lt;\xec#\x19H\xafN\x07\xa3\xb3\x83\xca\xa1:\xf4\xb9\xbe\x81^\xcf3\xc8\xb7\xcbm\xc3\xab\xe3\xfe\x99V/S\xa7\x1c\xafG\xe6&lt;J\xba=\x7f\xca\xfa+\xb8\xef\nJ\\\xa6z/G\x8b?o7OL\xb9}#\xd3\x8c9\x05}.\x9c\xb9t\xae\xe9\x900\xea\xe9\xf5\xe4\xcc\xe3\xf6\xb6\xf4\xe7/W\x9b&gt;}\xfc\x9b\xc2\xfb\x90r\xf4}a\xf5\xbf\x9bZ\xd3\x8c6a\xdc\xc3\x9f\xaf\xc89\xbd3p\xfb\x13yr\xeb\xbf\xb3\xcf\x0f:\xf3&gt;\xa2\xa6\x9c\xc5\xcf|\xf8\xd2\xec\xd9S\xce\xeb\xf9\x1d/\xa0\xf8\x9a\xe7&amp;&gt;\xdc\xf9\xb4\xfbY\xea\xfa6&amp;p\xb3\x96\x16\xebI)\x891\x1d3&lt;\x15\x94B"\x888\xeb\x0c\xc5\x18h\x98$\x94\xb8\xe07\x1c\x86\xe2C\x8aP\x04$\x89\x04B(f8:rw\x17\x10\x96\x85\x12IZ@N\x87\x12\x97\x0bPC4\xca\xd1*\x84\xea\x00\xc9\xb2\x97\x02^\x87\x92\xb5\xa8\xc1\x06\xa0\x0c\xcb\x9a\xef\xcd+\xd9\xad\'T:\xaaM\xf9\xb1\xb0\xd7&amp;\xd7\xcf~\x93K=6o\x9f\x96\xf7\xbeO\xcax}of\xe0\xf6_&gt;\x80\xad\x06\xa4\x90\xfa\x1fK\xcd\xec\xbb&lt;+\x15\x9e6=\xfd#\xe5\xc2\xcf\xbb\x99\xe5\xee\xdd\xea\xe5\xc1\x1en}5\xf0\xd6eR\xa8\x8db]"\xef\x95\xefJ\xa3\xd9}\xaf\x95\xf7OG\xe6\xc6\xa6\x91_*s{&gt;\x92\xb3\xce\xbc\xfb\xda\xe6\xf2^__\xa3Y\xf8\xbf\x83\xf7\xe2\xacty{r\xb5\xcbO;\x84_9\xeb\xfc\x9fk\xdb\xf0\xa1\xdb\x1ekS\xdb\r=\x18\xca\xb2\xc9\x19\xd7J\xd9en\xbb|\x92\xae\x85ss\x863\x08\x04C\x96}\x98\xf9\xe9\xbc\xf2\xb7n\xd2W\xa73L;\x02\xa6M\xab\xb5$\xd2\x80\xa2%"t\x92\x8b\x98\x837!\xcaR\x1b\x08`\x81\x82M2\x13\x12\x12qd\x04\xc3q\xb0\xa4\x11n\r82\x1d\x88&amp;\xacu0\x1c[f\xd0\xe6TS\x80A\x92a\x0b\xb2V\x82&lt;\x7f\xc7\xfd:\xb4\xd4\xba8\xaa\xfa\xdf9\xe4\xfc&gt;\xd7\xae\xf0\xfa\xd1\x8de\x14"_M=\xab\xd7\xf8\xc9\xf5\xf9\x17\xdd\xe8\xa9\xf2\xd3\x7frxx7\x17\xb5\xd4\xf6\xf8\xf4\x11{\x9b\xd1\xad\xcd\xec\xeb\xf6\xf8}%\xe5\xc7szg\x88\xe1x\xfd\xce\xaf\xaf\xc1\xb3\xae\xdd\xcfO\xce\xe7\xd6\xb8\xcb_+\xf2\xbe\xa7J\xb7\xc9\xc9\xe2\xc6\xf0\x99\xdd\xa0~W\xbf\x99\xb7.\xaf?^&gt;\xd9k\xe3\xa0\xa2\xb9\x7fg\xe3=\x03\xbf\xe3\xf4\xb6\xc7\xd2\x85\xd1\x0cF\x15\x8c\x9c\x90\xaa\xb8\xae\x8b\xd7\xcb1|\xdd\x1e\xef\xaf\'98H"\x10\x1f\x9dWO\x13\x97U\xd8ec\x08B\x98i\xb0\xe9\x19+\x14h\xd6:"\x90]\x15\xe0\xb2(\x90\xc9\x0c L\xc2e\xa0g#I\xd3\x88LL\x08h\x100\xa1R\xc3E2&amp;\x88Q\x06:\x18\x109S\x01\x92\xcc\x89Qc\x8eED\x18I\x8c\njP\xcaW\x99\xf9_\xa9\xd4\'G\xb3\x8b\x8d\xf4&lt;\x0eO\x87\xde\xf4\xee/N\x13B\x97\x072\x8dsz8\xb5\xba\xb9\xeb\xe9\xc7N;\xb7/\x82\xd6\x91\xa3Ys\\\xdd\x9e\x99\xd5\xc1\xe6\x</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495603-roban-computadoras-y-tablets-de-una-escuela-del-barrio-de-pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Barcelona y Manchester United se enfrentarán por la Europa League</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalanes e ingleses animarán el duelo más importante en los 16avos de final </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Barcelona de España y Manchester United de Inglaterra protagonizarán el cruce más atrayente de los 16vos de final de la Europa League, el segundo torneo más importante del continente, tras el sorteo realizado este lunes en Suiza.El conjunto "culé" terminó tercero en el Grupo C de la Champions League, detrás del Bayern Múnich (Alemania) e Inter (Italia), lugar que lo relegó a participar en esta competición.El azar lo emparejó contra los "Reds" de Old Trafford, que fueron segundos en el Grupo E de la Europa League, cuyos ganadores de zona avanzaron directamente a la siguiente instancia de octavos.Manchester United, tres veces campeón de Europa, cuenta en su plantel con los argentinos Lisandro Martínez y Alejandro Garnacho.Por su parte, la Juventus de Angel Di María y Leandro Paredes, también marginada de la Champions, enfrentará a Nantes de Francia, en otro de los cruces destacados.Las llaves restantes de 16vos de final son las siguientes: Sporting Lisboa (Portugal)-Midtjylland (Dinamarca), Shakhtar (Ucrania)-Rennes (Francia), Ajax (Países Bajos)-Union Berlin (Alemania), Bayer Leverkusen (Alemania)-Monaco (Francia), Sevilla (España)-PSV (Países Bajos) y Salzburgo (Austria)-Roma (Italia).En octavos esperan los ocho ganadores de las zonas: Arsenal (Inglaterra), Fenerbahce (Turquía), Betis (España), Unión SG (Bélgica), Real Sociedad (España), Feyenoord (Países Bajos), Friburgo (Alemania) y Ferencváros (Hungría).</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf8\xc8\x00\x00\x00\x00\x00\x00\x00\x00`\x03\x00\x18\x00\x00\x00\x00\x00\x00\xa0\x02(\xa0\x8a\x0c\x00\x00\t \x15\x02(\x90\n\x00\x13J\x03\x00Y\x00+\x11@\x00R(\xa0\xc5PrP\x04\x02\xa6"\xa8\x90P`\xaa\xd2=\x8fq\xbd\xa5\x9b\xa7:4\xb4s\xb4\xae\xa6\xee\x85-\x0b\xf1[\xbfOBu\xd9\x9e+$\\\xe5p\x9a\xf1\xc08p\x126D\xc7\x8em^=\x0b#dRW\xa3\xc1^8NzH\x82A\xe9+\xc7\x80\xf1\xe9\xa3\xc7\xc4G+\x86\x8f\x1c\x81\xca\xe4\xd1\xc3\xd0\xd7*\x83\x9e\x92I\x12\x12Y_\xe7\x00\x1c/N\x00\x00\x00\x00\x00\x0c\x00`\x03\x00\x00\x00\x00\x00\x00\x01@\x01@\x01\x80\x0c\x00\x10\x03B\x83\x05-EU\x01\xb1BID\xb0\xc8\x05Y\rP\x00\x14@\x12B\x8a\x02\x80\xc5E\x00\x01\x8a\x08\x15\x15\xa5\x05i\x1c\x8a\xd5\xdd,\xdd)Q\xa9\xa3\x9d\xa3}\x1a:\x19\xfa7a\xbf~\x85\xf9\xc6\xdd\x9a\xd6\x88\xc8\xe6\xb9\xa5sT\x1c\xe68$s\x1e7\xc9\x1b\x93\x92H\xa4D\x92E \xe4{\x1e\x12:9\x13\x91\xf1\xc8)$\x8d\xe9J\xf8\xde\x9c\x8f\x8d\xf1\x1e\xf68\x1d$nD\x8e\x8d\xf1os\x14os\x1c\x0fV(K,254\x91Ie\x7f\x9c p\xbd8\x00\x00\x00\x03\x00\x00\x01\x80\x0c\x00\x00\x00\x00\x00\x00Q\x14\x05E`\x03\x00PBv\x91\x88\xb4H][s\xc6&lt;}\xca\x97\x87v\xbfYQ\xc6^s\xb8\xf3\xf6D\xdd\x9e\x8c9=\x9dq\xaf?_N\xe5\xe4\xf1W\xd1\xb2\x92\xe7q\xbd\x03\x95k\tu\xb2g%\x05\x18\x00\xc5\x00\x01ADQ\n\r\n\x8a\xd5\xdd,\xcd)Q\xa9\xa5\x99\xa7}::\x19\xda\x17a\xd2\xbd\x9f~p\xbbf\xad\x922\xb9\xaa\xd2\xb9\xaa7\xab\x14$to\t\x1f\x1b\xd1$\x91H9%\x86H\xb9_\x14\x8d\xca\xf8\xa4JG\xc4\xf0\x96H\xa4\td\x89\xf1R\xb9\x8eM\xefc\x90\xf71\xc9\xbd\xccTH\xe8\xdc\x12,j9\x1d\x13\x914\x90\xbeQ\x9ej\xf2\xce\xbf\xceP8^\xa0\x00\x00\x00\x02@\x00\x000\x00\x00\x00\x00\x00\x00TP\x15\x14\x00\x18\x00\xc1\xeerO\xdf\xd1\x8d\xc3;6\x9b"\xf7\xe6HP\xfd\x1ewm\xae\x9b\xcf,\xd7N\xfd\xb3\xa5q\xc2\xd7\xe4\xe0\x1fOk5%\x1e\xe7\x9b\x8f\x8eGYJ\x93G\x9b\xd4r\x1aC\xdc\xe3\xfalkcV\x1b\xf4\xec\x93AF\x00\x02\x80\n(\x80\x1aE\x06\xae\xe9fiN\x8d=&lt;\xbd;i\xd2\xd0\xce\xbf\xa3\x0e\x95\xfc\xeb\xf2\x85\xdb5l\xb8\xcc\xe6\xa8\x9c5A\xca\xd5\t\x1d\x1b\x87+\xe3pK$R\x0eI"zr\xc9\x13\xd3\x95\xf1\xc8)\x1c\xc7"W\xc6\xf6L\xf8d\x82\x95\xf1&lt;$toNEb\xa1\xee\x8d\xc1#\xa3X\xb9\x06(H\xb1\xb9\x13I\x04\x93S\xcb^Y\xd5\xf9\xd6\x07\x07\xd4\x80\x00\x00\x00H\x00\x00\x06\x00\x00\x00\x00\x00\x00(\x00(0\x05a?[:\x87)\xb4\xb6bE\xcf\xec\xca.[\xa4\xc5\xd7R\xe7lWD\xf54\xb0t\x05\xd5O\xcd\xef\xce\x188\xd4\xefBrG\xadY\x9b\x989\xfb"\xd1\xe3\xb6p\x87\xbf\x15J!\xad\xa7\xcc\xf5-bGV\xfb\x1d^H,BX\x86\xd1\xaa\r\xa8+@\x02\x01A\x01Z\xb5\xa5\x9b\xa3:54\xf2\xf4\xee\xabCC;B\xfc\x1a7\xf3\xef\xce\xbb\xb6\xa9\xda\t\xd5\xaa%V\xa89X\xad=\xf1\xbd9\x1f\x14\x81#\xe3zr\xbe\'\x84\xcf\x86Q\xcd$RE\xc8\xf8\xde\x94\x8ec\x9a\x92H\x9c\x89\xdd\x13\x91+\xe1p\xe5tj\x12\xack\x12GF\xa9\xbd\xd1\xa8\xa4X\xd4r\xc9^IF\xc4\xb5\xa4\x9d\x7f\x9e\x80p=H\x00\x000\x01\x80\x00\x00\xc0\x00\x00\x00\x00\x15\x14\x01@\x01dI\xa5\xa0\xb1\x8d\xaa\xd1lV\xb0z\x06hH\xe16r\xf4\xd3\x83\x07W58\'v\x93y~\x89\xe7lkb\xd6=Q6X\xed\xa9O5+\xcd35\xb1!WRP\xb3\x91q\xadilr\xf6\\j\xe9M\x866@\xd8\xd4\xae6"jQ\xe5\xf1h:i\x11@\x11@\x00j\xce\x8eu\xf9\xd1\xa9\xa7\x97\xa7mZW\xb3\xf4/\xc5\xa3\x7f:\xfd\x95]\xb5R\xcb\x8c\xeej\x82\x88\t\xca\xd0\x1e\xe8\xde\x89_\x0b\xc73\xe2xJ\xf8dd\xd2\xc14%3\xe3|I_\x13\xd1+\xe3\x90Nr(9\xccV\xe4|/\x14\xae\x89\xc9\xc8\xb1\xb9\x12,j\x94\x8b\x1a\xb2E\x8db\xe5t.\x92\x9eX%\x94?&gt;\x80\xe0\xfa\x80\x00\x00`\x03\x00\x18\x00\x00\x00\x00\x00("\xa2\x80\xa0\xc3C?dW\xbb\x1e&amp;\xf5p\xd3\xb4a\xb2\x92\xe5E\x19\xd4\xd5\x89\xac\xad\x13d\x1c\xd5\xc7\x83lC \x98\xf9\xda\x88\xf5(^\nK\x7f9\x13\xd6\xdc\xcd\r^^\xddV2\xfd\'\xb7q\xd9\xb3\t&amp;\xb7\x92\xc7\x0c\x13r\x00Y\xda\xe7\xf4\xa7\t \xd9\xca\xd1\x1a\xe0LP\x00E&amp;\xac_\xcf\xbeQ\xa7\xa7\x97\xa7t4o\xe7_\xbf\x0e\x8d\xfc\xeb\xf6Qz\xcdK-YV(\x9e\x881\xc3\x14$tn\x1c\x8e\x8d\xf1R\xc9\x13\xc7#\xd8\xe4O4\x13\xc1\xcb#\x1f\x11\xefl\xa8t\x8dz\x15@b\xa1!\xca\xc1\x92,Nd\xae\x85R\x99\xd0\xb8r:\x17\x04\xa4ND\x92A X\x9a\xbd\x87\x1f\xcf\xb08^\x98\x01\x80\x0c\x00\x00\x06\x00\x00\x00\x00\x00\x00\n=\x8d$h\\\xdf\xbd\xa6\xaa\xe2\xb72,\xd37\xc2\xf8\xe4dA5bZ\x99\xb3\xd6i\x935\xe3b\xc8\xc0/\xc5:Ul\xc7q8\xaf\xf4\xec\x8d\x9c\xed\x1e\xde\xaax\xb9\x1e\x8b\x84&gt;:\x1e\x8e\xbc\xeb\xc7\x9aP\x85ML\xb4\x91\x19u\xe3\xcf\x8f~\xb0c&gt;W\x85kV\x18\xd7@R\xe8g_\x1c\xce\x9b\x07A\\Rb\x01(\xcf\x7f&gt;\xf3\xabOK/N\xda\xf4o\xe7\xde\xbb\x16\x8d\xec\xfb\xd6\xe7\xbdj\x9d\xa9+*\xc7$\xaa\xd2MU\xa0\x9e\xe8\xde\x9c\x8f\x8eJ\xc9\x1e\xc9P\xf9\x1b$\\\x93E&lt;I$k\xe0\xdd,r\x84\x8fc\xe2\x84T\x90\x83I\x8e\x1aHp\xc4nU\x89\xc1*\xc4\xa1+\xa0rR\xba\x15\t\xa5\xab`-OZ\xc0~\x7f\x01\xc3\xf4\xa0\x00\x00\xc0\x00\x00`\x00\x00\x00\x00*(\x03\xd8\xac],\xce\xc0\x86\xf4\xb3\xe0\xd2r\xf0 OW-b\x07U\x12D\x8a\xc7\xa1\xcc{\xd3\x96\xae\x8a\x0e-\x94\xeb\xa3g7\xd1t\xdd\xfd:x\xed\x8fD\xd4\xa3W\x93\xd6\xf6\x16\xd7g\x99\xf2\xbfDr\xedxG1\xef\x1e\x7f\xa3\x1f\x99\xde\xeb2/\xc7\xcf\xd3\xd3\xad:\xf3\xef\xbaq\xc4\xf7H(2\xb4\xe3q\xa34\xb5\x1a\xd2\xb1ZI)se\xb3%\xcd\xa5\xaa\xda\xc4E\x1ce\xbdB\xeb\xabOK/J\xea\xb4oP\xbdvM\x0b\xd9\xf7\xed\xcfz\xc5[2\x8d\x97F\xe68h\x0e\x18\nG\xc5$\\\xcf\x8eZ\x89e\x8ah\x0f\x95\x93E\xc9+%\x83{\x9a\xe4K#$\x88\xe7\xb1\xe2V\xabd5\x1c\xcb@kd8bM\xc8\xb18$X\xc4LF2b%D\xd6iX\x15\xdb4\xed\x0b\xe0 8^\x98\x01\x80\x00\x00\xc0\x00\x00\x00\x00\x15\x14\x00\x01^\xcb\r7\xd8\xbc\xbb\xd2\xca\xd9\x81\xbd\xcf\xe7\xb7\x98\xce\xdb\xc6m\x8a\xf67\x0bl\xb5\x91K%\xe8\xc9\xb7\xb5\xba\xda5p\xba\x1e\xa1\xd1\xe7\xdd\xe7^\xb3\xd4v5h\xe1\xbb\x1d\x8dT\xa8\xd8\xd7}\xb5Rf\xaa\x06?%\xdcr\xd4h\xe28\xbfK\xe5\xa3o\x92s\xbe\x87\xe5[\xf8\xb9\x0e\x92\x9e\x9c\x10M\x14s\x8d\xbaJ\xc12G\xd5KW-,\xcdE&lt;\xd8\xec\xd1\x8e\x8d\xb6\xb4q:,{\xd55E\xbe\x0f\xbbJ\xd9^\x8e\x9ef\x8d\xd5\xe9^\xcf\xbdv]\x0b\xd9\xd7\xad\xcdz\xd5;R\x85\x97\xc5#\x01\x10\x14j\x83\xe6\xaf4\x0b\x12E%Jk\x15\xec\xd5)%\x8ej\xc9%l\x90c\xc5\t$c\xc1\xcec\x81Z\xad\x92\x11\t\xb6\xc5$6\x83XXH\xb1+&amp;"P\x98\x89S\x94\x8dZ\x96\xcd+\x08\xbfs&gt;\xda\x8f\xc1 p\xbd0\x03\x00\x18\x00\x00\x00\x00\x00\x00\xa0\x00\n\x04\xd1[kkg\x9f\xe9!\x05\xac\xeb9\xb4\xe2\xda\xf5\xce\xc7/G\xe73\xde2\xf3u&lt;A=\xaa\xb4\xa3\xe5\xbdGo\xd5Uw+\xd6m\xe8\xe7\xdfK~]\x96\x9f\xb5\x9b\xa3\xab\x06\x85\x8a\x0bv[\xeb\x9d\x08lC\x95V.\xcf&amp;\xec\x1c\xbbl\xe6[d_\x9d\xf9\x1f\xbd\xf8\xf7G\x8d\xe7\xf1\xdc\xcb\xdd\xc8{\xa3\x9ej\x08$\x90Q\x12\x84c\xa75\xc9\x14\xdc\xd8\xe4\x9c\xf5\xaa\x1b6\xb0\xb7$\xb0[f\xb6\xc8&gt;\xd5KN\xbd\r,\xcd++\xd1\xbdB\xf5\xd9\xaf^\xcf\xbdvK\xd6\xa9\xda\x94l\xbe)\x1aT@\x15\x11\x02Y\xabO\x02\xcc\x91KB\xb1&lt;\x13\xd5+\x12\xc55Nic\x96\r\xc2 \xa5tk!\xee\x88\tZ\xd6Lz1\xb6\'\xc2\xb1\xd8\xda\x88\xcb\x14\x8b\x18\xdc\xab\x12\x84\xab\x12\x8eR5\tg\xa98\xaf\xdb\xcf\xb6G\xe108\x1e\x98\x01\x80\x0c\x00\x00\x00\x00\x01Q@\x00\x05\x069\xf1\x02\xed\xf59\x8d\x98B\x87Y\xc5}O\x8f\x7fO\x87\xd0s\xfc_]\x87SU\x99\xf7\xd2\xb3v\xe2P\xea;A\xc4\xba\x96n\x8d\x89\xe8\xa5\xb4n.=k3\xf5m\xe6g\x9d[\xcc\xc9{\x8d\xfa\x11\xd5\x84\xe0\xa2\xea5_\xab\x03\xa8\x10\xcd\xf3/E\xe0t\xf3|\xb3\x9e\xefy\x8e\x8f\x1e\x08\xb6\xea\xd9U\x08uj\xce\x10\xd1\xdb\xa4C&gt;\xc4\xac\x92\x8e)\xa0\x92e\x1b\x90\xa15\xb1\xec5j\x9e\x8e~\xc8\x16\xaa\xd9\x9dz\x1a\x19\xba\x16W\xa7v\x85\xdb\xb3\xde\xbdB\xed\xd9/Z\xa5jP\xb4\xf8di\xc2 *"\x04\x93V\x9e\x05\xb9\xea\xcfAjz\xd6s\xca\xcc\xd0MS\xb3,\x12@s\x06\xc99ct\xc7\xb9\x8e\x05c\x99 b\xb2\xd0`\xdb\x06\xb1c\xb1H1$H\xe8\x80\x99b\x02U\x85\xc3\x96z\x93\x05\xfbY\xf6\x1c&gt;!\x03\xcfzp\x06\x000\x00\x00\x00\x05\x04\x14\x00\x14\x00$\x0eE\x17A\xaf\xcd\xfa\x05J\x7f\xb2y/B\xe7\xf5\xf8,&gt;\x9b#\x8d\xea\xf2\xd6\xf4p\xba\x19Q\xe9\xda\xb5M\'\x1d8kV\x9a\xb2g:p\xbb\x15fJ\xb9lI9]y\'l\xeb\x91\xec\xa4\xc7V|\xd5\xc9#\xb1H\x86O\r\xddq7\xe3\xe29\xbd\xf9\xf7s2\x0b\x0c\xbb&amp;=\x0b\xf4,\xa9\xb5\xf4)\xca\x08\xc9\xa6+\xa8&gt;)\xa6\xe6\xde\x81\x95d\xaf$MjV\xab\xea\xae;\x15\xe7\xbe\xbb\xfa\x19\xd7\xec\xafJ\xf5\x0b\xb6\xd1v\xf5\x0b\x97\xe5\xbdj\x95\xab*\xb5$2$\xe1\x1a\xc7\r\x01\xd3W\x96%\xab4\xecf.X\xab=\x0e\xdc\xd5\xa6\xa6V\xa5\xaf%d\x8d\x11\x80\x8d\xb0\x96X\x1e\xc7\xc6\xb14\xacF\\\x95\x83&amp;\x11\x91\xdc=cY\'\xac@JF\x04\xab\x10\x12\xcdVA\xdf\x9e\x8c\xc2\xf8\xc0\x0f?\xe9\x80\x18\x00\x00\x00\x00\x02\xa0\n\x00(\x0c\x00`\xe6\xa8\xb4=\x93\xc4\xfe\xc0\xa9}g\xc7\xf7\xfc6&gt;\x97\x9a\xe4\xe8\xe4p\xbd\x89\x04sB\xd9\x91\xad\x1a\x10\xc6\xd5\xa6\xd0Y\xab\xf0Ud\xeb\xb34(\xe2\xca\x97\xa3pu\xda\xd3\xca\x17\xeb\xbc\x95q\x90\xd5\x89\xa1J\xa4A\x0f3\xd1f]\x9f\x8a\xce\xecr\xf4\xe0\xe4b\xdb\xe7\xb4\xe2\x86\x8d\xfav\xe6\x89\x1f$\xa1\x0b\xe6\x9cY\x11ie\xba\xe3\xa7j;!B\xbc\xed\x8b\xd0\x8c~\x8a\xeb\xcf\x04\xdaj\xbb\x7f&gt;\xfd\x95\xe9]\xa1v\xda\xaf[\xa3r\xfc\x97mS\xb5eV\xa5\x82R/F\xa0(\xd0\x1d5ybY\xb1RzK\xb3\xd4\x971zZ\x92\xd5+\x92U\x96\x12\x9c\x80\x14\xc9\x12H\x99\xd5\xd2j\xcb"d\x94\xa9\x13lr\xb64\x9aX\xc8\xedO\x18\x93R,`H\xb1\x01)\x12\x84\x8f\x81Qrj2\x8f\xe4\x10&lt;\xff\x00\xa6\x00`\x00\x00\x00\x00\n\x8a\x02\x80\x000\x01\x82\xa2\xa5/\xe8/\xe7\xd7\xe8\xccc\xec\xfeo\xdb\xf9\xef?\xb1\xe74kW\xe1{\x1b3P\xbb\x19\x0c\xbf;2\xdb\xaf^Q\xa0\x93S\x12\x92l\xce\x1c\xb3\xfbHl\xab\x99\xb3\xa8\xe9U\x0c\xf6)J1+\xe9\x84\x15\x962)=H\\_J\xc4R\x8c\x14\xec\xd6\xb2\xacnC\xd0p4`\xe3\x99d\xd5\xcf\xa0\x9aY\xce\xb8\xac\xdc\xac(\xf2\xb4\xe8\xca5j\xea\xd4\x9dX\xd5\xb43\xa5\x0bsR\xb3ta\x9a\x19uSr\xf5\x0b\xd6W\xa3{&gt;\xf5\xb5\xdc\xb9F\xdd\xd9.[\xa7f\xdam\xcdZa=\x11\xa2{Q\x1bt\xd5\xe5\x89&lt;\xf5%\xa8\xbb59h/INZ\x8b\xb2\xd3\x92\x0e\xc2D\xd1N\x90\x12,$M\x91;c&amp;H\x91\xa4\x89X\xd6\xcd+Z\xdb\x07\x8d\x1ax\xc0o\x18\x8dH\xb1\x08\x95#\x074\x95U\x1f)\x81\xc0\xf4\xc0\x0c\x00\x00\x00\x00\x01P\x07\x08\xac\x00`\x00\n\x8a\xa3/\xe8\xf7\xe6\xff\x00\xe8\xf4\x0e\xfb\x8d\xf4\x8e\x0f\x9f\xd9\xf3\x8c\xbe\x87\x1b\x8d\xeak\xca\xf7\xc2\xe8PxD\xc7\xe8\xb5WJ(\xa5\x1dz5[mH\x92[\xbb=mZ\x94\xad\xcf\xb1W\x029\xd1\xb9O=D\xb9Z\x15k\xb2\xacW\xea)V\x1d\x13\x93\x98\xeb"\xa7\x91\xbb\x14\xaa\xf3\x18z^gW.l\xdd\x9c\xcb(\x86\x07\xbeuQ\x87M\xd0\xbf&gt;\x9f\xa1\xfd/\x1b~D&gt;\xcc\xe6q\xef\xf8\x86\x1f\xb0&gt;u\xe9\xf28Yc\x7f[\x93r\xe5\x1b\xb6W\xa1{&gt;\xfd\x95\xdc\xb7N\xd5\xd9m\xd9\xa9f\xea-\xcd^W\x17\xa2#\x14F\x83\xa4\x85\xc9O%w\xd6\xed\xc9RZ\x8b\x92S\x92\xb2\xe4\x94\xa4\x81q+\xb9)\x926\xb2\xc2\xc0\xb2\'"V&lt;a!\xe8\xd4\x90\x00\xc0\x10\x04D\x90\xa3["B%d\x89\x1a"T\x8d\xb0\x7f0\x01\xc2\xf4\xa0\x00\x00\x00\x00\x00\x02\xa0\n\n\xc0\x06\x00\x00\xa8\xaa/\xfd\x06\xfc\xf7\xfb\xae\x0f\xe8^W\xb4\xce\xc7\xd1\xf1\xec\x1e\xd7\x93\xe3z\x9a\x8eeZv[}h\x91y\x99\x922T\xc7\xe6o\xa3\xb0\xe5\xf8\x0eCw\x1b\xd7(\xf8\xd4:y\xde\x9b\x9b\xc2\xa4\xe9\xea\xe3\xe6f\x94z\x1dnIZ\xf4=\x9f)\x923\xf7{\xde-\xd9\xd3\xb3\xb6\xafF\xedZ_\xa5\x1c\xb5j\x82\x19\x18&lt;\xae7\xba\xe5\xae\xc1\xccV\xd8\xcf\xd1\xce\xa6\xae\xd3\x92w\xa4\xedu\xbc\xff\x00I\xbd\xcar\xdel\xae\xed9\x1e6\xbe\x9c\xdb\x1d\xf7\x96\xf5\xf5k\xf2:\xbe\x95\xe6\xbe\x8b\xc1Y\xbbF\xe6\x9c\xba\x17s\xef\xce\x17-S\xb5vk\x96i\xd9\xba\x8bSW\x96P\x90b\xb4\xa8\x8d\x07\xab\x15)\x1d\x1c\x91rI\x0b\xa0\xecI^Z\xc9\xa4\x82H\x93:%\x8ce"\x191\x127:\xc0\xadXX\x9e\x0es\\\x87*\xacH\xd1\xcd\x90\xc6:9\x83H\xe6&lt;\x8d&amp;JD!\xe8\xc6\xc0\xf9\xa4\x0e\x0f\xa6\x00\x00\x00\x00\x00\x14\x00\x18\xa00\x00\x00\x04**K\xf5\xff\x00\xc8\x1fF\xc4\xfb\xca\xb6O)\x93mO=\xe4\x1d\xc9\xf4\xbd\x05&lt;\xd8\xb2\xf4\xf6ceH\xd8\xf6g\xe1\xd9V_\x01\xa9\xcfu\xbc\xee\x03t\xe4\xdb\xc9\xc5\x9fk\xa1\xa7G;\xd1k\xc1\x93\xa3RX\x98\x9bI\xed]V,{\xf5.\xa2)R\xc0\xb7:\xee\x13\xa0\xabOk.e\xec\xdb\x98\x8a\xc9:|\xefKFy9l}\xdc\r\\\xa8\xfb\x8ek\xd1#wU\x87\x06\x1e&gt;\xe7-\xc5tTws\xe6;U\xaa\xfe\x07\xa3\xc9\xdd\xc7\xd8\xaf\xe3\xdf@x\x07k\xc7Mr\x9d\xce\xb7\n\xed\xda\x17\xa7\x0b\x96\xa9\xda\xbe\x9bv*\xcfnksU\x9eu\xc84\x12\xa8\xe4\xc5W@\x1c\x8e\x80\xae\x16"\xbd\x92"I#|\x13\xd1\xa8\x0etn\x93x\xd0$TQI,sV+\xd1\xf0\x1c9b\xa2l\x8c\x91\x043\xd7\xb8H\x9f\r\xa2\x91\x96\x0f#\x10\xe4jE\xfc\xe0\x07\x03\xd2\x80\x00\x00\x00\x00\n\x08\xa0\n\x03\x00\x18\x00\x02\x82\x8b\xfd_\xcd=:\x0b\xd0\xfc\x9a\xa7?\x97]\xcb\x98\xf5\xe4z\'_\xe2\xbd\x1e&gt;\xc7\xb8\xe8y\xd7{\xc8\xf4Y\xbc\xd6\xde\x05\xd5\xf2t:\x0c~\x8f\x12\x85\xb4\xd2I\xb5j\xd0\x85\xbb\xda\xdeQ_W;\xdd"\xf2]i\xc3\xa0\xce\xa7j7Y\xb9\x99~\x17hh\xb7v2\xa1\xa3kV\x16\xd9\xbd\x9f\xa1^\x84l\x88\xddXt!\x9d&lt;Ng[\xcf\xe9\xe6\\\xd1\xce\x89N#\x9f\xb4i\xab\xa3\xc3\xd5\xb2\xbf\\\xd8\xe1wput0\xfb\xde:\xb9\xe7x\xdfa\xc7\xfa/\x1f=\xbav\xf7\xf2\xee]\xa3r\xc8\xdd\xb5R\xcd\xb5Z\xb3R\xc5\xd9\xecOZi\xd50\xc7\xa5#\x91\xd0\x88\xf6\xc9\\\x95\\\xe8\x03\x87\xc16A\xf1\x1a\xe5X\x8dI\x11\xa4r\xbc#W5\x8fV\xb9\x93O^\xcdI\xce\x16\x04\x8eG\'\x14r\xc7%\x05k5o#\x85\xf0^\x84bZ\xe4F =\x18\x91\x7f&lt;\x01\xe7\xfd(\x00\x00\x00\x00\n\x8a\x00\x00(0\x01\x80\x02P\x12\x97\xd9\xfcS\xbbP\xdd\xda\xf4\x08\xb8\xbe\x8b\x8e\xcc\xde\xe7q\xf5hG!uw\xbd3\xca\xfb|\xfb5\xf9\x1fN\xe4\x95\xfc\x0e\x7fM\x87\xd1\xe3\xd0|\x9a\x119Y%\xeb\xdc\xbc\x9e\xbf\xa4\xf2{\xf8\x1a\xbd\xf5\x1b%\xdct\x9bt\xea\xd6j\xec\xd9\xa6\xecM\xb6o\xe6\xd3KOJ\xfb\x95i/P$\xda\xcf\xa7$\x8a\xc2\xcajdm\xd6\xd3\xcf\xcf\xdf\xa9\xd5\xd5??\xf3\x8f\xa8\xbc-\xd9\xe7\xaf\xe9%\xb8^\x9a\xc7E\xc7\xefM\xc6\xf4|\xfe\xee_\x89\xe7\xd8\xaf\xe9&lt;d\xb6\xeaZ\xb6\xbbw)[\x9cn\xd9\xa9j\xda\xadX\xab=\xd4X\x9a\t,\xa6y!\x99FW\xb1\xf4\xb7\xc9\x14\xd5\x0eUui\xcf\x1fX\x926H\x889\xc0\xc2F\x89\x1c\x8e\x06\xb2FI\x0eb\xb2kU-@\x9cE\xadJ\xe8\xdc\x9b"|2Q\xd5\xb1V\xf2\x08%\xaf\xa8j1.\x94\x89\x18\'\xb5\xa9\x13\xc0\x00\xf3\xde\x94\x00\x00\x00\x00\x00\x01\xc2+\x00\x18\x00\x00\x02P\x14Vx\x14&gt;\x8a\xbf\xe0&gt;\x97\x87\xa9\xb1\xe3ZW\x03\x1fw3\xad\x8c\xebv&lt;\xefU\xcd\xf4\x1e\xbd\xcd\xf5)\x9f_\x93r~\xad\xc4\xeb\xc3\xccX\xbc*\xb1\xb4%e{/\xa5*vUw\x1e\xc4\xf7UK\xb1\xc7\xd5k^\xa3\xb5\xa9&amp;\xda\xb5\xd3We\x05\xd5\xcb\xb20\xe4k\xe3\xc9\xd2\xa3o2t\xd8Z\x96\xec\x85\x96\xd6\xa7v]\r\x9ewE\x1a\x9c\xcd8\xea\xd5\xc1u,\xf5\xd8\xbeW\xa5\x83\xcf\xeb\xbe\x16\xf4\xbc\x0e\xdc&gt;MYS\xb7\xe5e\xb5R\xcd\xd5\xdb\xb7N\xd4\xe3v\xcdK6\xc2\xd5\x8a\xb3]E\x99\xab\xcb:\xac\xcdZh\xc6ia\x9a\x94\xf9\xe2\x9a\x91\xefI)N\x91\x92\xc5\xb5\xed\x91%P\x881\xd1\xcd9cQ\rH\xe6\xa4Xenk\x15lVYX\xd6\xb5:\xc6\xa8H_\x0c\xc8\xebKZ\xf2*\xd3\xd5\xd4F1.o\x18\x83r0K\xc1\xc0\xf3\xbe\x90\x00\x00\x00T\x00TP\x14\x18\x00\x00\x0c\x00\x12\x80\x90\xa8\xa1/W\xc9\xf5\xd0\x9f\xa8r\x1fBgs\xbb\x1f1z\xbct\xa8\xdb\xa1\xe8\xfeI\xef\xd9\xbaVmUqg!\x8feo\xa3\x9e~\xc4\x15G\x9a\x87\xa3\xad]\x9c\xf1\xa9\x0cl\xa5cKI\x99\xbbRi\x91\xa1\xd3_\xd6\x92\xa9b\x9et\xeb\xb7\x06|6\xd7o=\x91J\xba\xb4\xe6\xadu(W{\x8b\xa3\x1f~;s\xd4\x9ct2\xb5\xa5\xa7N\xefA\xcf\xf2\x99\xb7t\xdd\n\xf5vg\xe5~\x7f\xf6\x7f\x11\xdf\xce\xf3\xe84\xb3z|\t,V\xb1}v\xad\xd3\xb5d-\xda\xa7f\xc8\xda\x9e\xbc\xd7UfHd\xb2\xbb3W\x964\xcd=Y\xea-\xcb\x04\xf9\x94\xf21\xf4\x8f\x927\xc1\xa4\x91I\x15+DCc|v\xc4V,\x84\x8d\xech\x9a\x19\x02i\xea\xd8\x81;\xe0X\x13\xac"\x1d\x01\x05\x82V}k\xd1Vj\xfa[\x1a\xd4\xbaN\x18\x82r#\x11\xe1\xe0y\xdfF\x00\x00\x00\x00\x00(\n\x8a\xc0\x00\x00`\xa8\xa2\x01b\x91BB\xde\xa2\xf0\xfbg\x89\xda\xf4\x1eOk\xe7x\xbd\x17\x9a\xe5\xfanK\xe9\xcf\n\xfa*\xdar(\xea\xd6\xd2\xb8(v(\x10\xa5CN\x9c\x159\xe1\xb3M\x88\xfbW\xa8\xd1\x9f\xa1n\xf2\x94zCd\x9d\x04t.\x85\x8aT \xb2\x8bL\x80\xb2\x97f\xcfJ\xec\xee\x93\'f\xca+\xc7f\x04\x92\xc5v[T\x8d\x84\xb2\xab\xad\x7fU\x9bo=\xb3\xd1\xece\xd7M\xf7|\xfe\xd3\x96\xe2\xf7\x1f\xd1\xe0y_7\xe8\\\xc7_\x89\x8d=y\xd9j\xcd[\x16B\xdd\x9a\x96f\xadOV{\xa1bj\xf2\xd9]\xa9k\xcc\xa8\x92z\xd3U\x1bvj\xd8\xca\xad\xbe\'RJ\xf8\xa6\xad\xb6H\xdc\x9c\xe8\xc5QH\xa6\x82I\x11\xa9jr4\x12\xba\x11\xb9\xa7\xa58XZ\xca\x95\x92\xb8\x94\x906\x19\xb7Vt\x1a\x02%\x8a\xd95\xadK\x9b\x95\x88\x0eF\xa2~(\x07\x9d\xf4\x00\x00\x00\x00\x00\xa2(\n\x8a\xc0\x00\x00`\nD\x02"\x80\xc5\x05g\xd2_I\xfc\xdf\xef|\xde\xa67\x97\xfav\x1f\x17\xd3\xe0z\xed4\xd1\x1a\xf9/\xc6\xd5\\\x99\xdas\xb8\xf2\xb9]\xff\x00-\ts:y\xd1S&gt;\xd2\xd6\x16\xdeM\xdaWrg\x92\xbfk=\xf6W=(\xa1\xb6\x8a\xd4\xb5\xa0\xb6\x9cZ\xfa\xf9\xf2\xa6\xb3\xe6l\xeb\x96)!\x95U\xeb\xcd\x1d\x94E\x1a\xc1erD\xc8\xae\xa3bJ\x9em\x1d\x1e\xff\x00\xd0x\x15\x9au\xfao\x96cA\xb7\x9f\xd7\xeb\xf3\xcc\xf5\xdeSG\t\xb7~\x81\xe4&lt;q\xfb\x18\xff\x00,\xf6\xd6,\xd5\xb1S\xb5b\xad\x8b\x0bS\xd6\x9e\xd8O4\x12\xd9\x1b\x13\xd5\x9dQ,\xf5\xacU\x0br\xd7\x97:\xb7%yi\x8c\xf3W\x92\xa6\xe4`\x13\x10\xa0O\x13\x19$\xe4\x8a;\x14\xe5tjd\x89$M-G\x0e\xd2@\xd4\xad\x15\x91\xb9\xa1\x8e;\x07\xc2\x90\xda\xe4\x8d#\xb4TjM\xbd\x1a\rF\xa0\xbcd\x0f9\xe8\x00\x00\x00\x00\x01DPP\x18\x00\x00\r\n\x8a \x08\x8a\xa8HU@=\xb7\xed\xbf\xcd\xaf\xd1&lt;{\xb8j&gt;\x8b\xc1\xf1}N\x85\x0b\x9c\xac\xf4\xf5-\xe7\xe5\xd9\x83NNe\xa9u\x18\xdc\xaf=\x1b78d\xc2\x17U\xd4r\x1b\x1c\xee\x9fcs\x99\xd5\x16\xa3(Kmv#\x8d-\xa2Td\x93\xa8\xae\xf8\xe7E72\x19V\xea\x92T\xb6\xa24\x82\xcc\xc9\x13\xa9YR,\r\xd1F\x87)\xd0g[W\x07]\xf9s\xcf\xa7\xb7\x9b\xd2{\x9e\x05\xc7\xb2_m\xc2N\x96\x8fgg\x03\x96\xf0\xff\x00\xa6~\x7f\xf1\x9d\xbc\x89\xeb\xcf\xe3\xfd\x8d\x9b\x15lMZ\x9a\xbc\xd6F\xcc\x90\xc9lg\x9e\xb4\xca\x99\xecU\x9e\xaa\xec\xcbVjcjj\xb3P\xac&gt;\xb3\xe2L@%3\x18\xc9)Y\x1cr\x1f\x12Ci9]fXZ\xe2%ug7e\xb14S6\x06H\x99\x90\xb6r\x95\x8cl\xdb\xda\xd4\x93z0sz4QQ\xa3~:\x07\x9c\xee\x00\x00\x00\n\x80*\x00*\xa2\x80\x04\x80\x01\x00\xa2\x00\x8aPY4P\x07\xfd\xfd\xf9\xff\x00\xf5\x857\xfdK\xe5\x9e\x9f\xe4\x9coI\xcd\xf2\x9d7\x96\xd3\xd7\xd2\xc1\xce\xc5\xdf\xcc\xeb\xf9~2\x86\xbe&gt;\xa5\xda\x17\x85\xa9\xd3C\xea\xd8\xbbm\xb8\xd9qty\xe9\xf4pk{\xa9\x8bbunM\x83n\xdauc\xa5\x15\x99\xf4b\xa2\xcbs\xde\xcd*\xce\xa9+\xd7\xabm6YV;\xb3KZ5\x9c\x16\x16G}6\x9bZ"&lt;/K\xd1\xd8\xfaO\x82\xc3\xb7\xa9?\xa5\xe3\xe3\xcd\xa5&gt;\x9a\xb4\xba\x0ckq\xf3\xb7|\xff\x00\xd1-\xe1\xd3\xf2\xba\xfd;\x9f\xe4}\xaf\xcf3}#\x8f\\\xfc6n\xae\xa6^\xa6D\xdfB\\\xd9\xcb\xf9\xc2],\xaeof\xc4\xd5\xa7\xca\xa7\x96\xbb\xaa\x8d\xa9i\xcbT-:\xb2\xc0\x9c\x81\x05&lt;q\xb6D\xa9\x1aH"VZ\xc7FH\x94\x8dBG\xc4\xf8\x8fj0\x16\x172m\x1aGd\x9e\x91\x92\x9b\xc6\x03p\xc5\x13\x86\xa0&lt;b\xb7\xe4 y\xce\xd0\x00\x00\x02\xa0\x02\x88\xa0*+\x00\x18\x00 \x14@\x11J\x0b&amp;\x8a\x00\xbe\xb5\xe4\xbb\x89\xfe\x99x\xff\x00\xa5\xf9w\x0b\xd5p\xb6\xd9\xe8X{^)\xce}\xa7\xe0]\x9f3\xf3&gt;\x9fk\xaa\xa5\xc2k\xefZV^\xbd\x9aGF\xa3\xb1\xa2\x8b\xde\xcb\xcbYP\xe2\x17S=+8z\x11\xbfU\xd9RYM\xa8s\xab\xdf\x9fJ\xbeyny\xd1\x95\xef\xa5\xec\xafZ\xea\'\x8e6N\x13\x15\xea[Ctsc\xf6\x1c\x1d\xb9\xb9X\xbd\xa7\x1f\xa1\xb7\x8f^K\xd0\xf48\xfd\xab\xfc\xbe\xcc9\xcf\xbf7Y&gt;\x07C\x9b\x16\x94\xfc\xda\xd1-:;\xdd\x0em8;\xb7\xa4\xe6j\x96\xa5\xd83Y\xc1y\x17\xd1\x145K\xe6\xc7}\'\x8f\xc3\xef\xf8R\xfag-\x87o;"E\x8be\x87\xd7}jv\xc6\xb1\x1c\x88\xc9\x0ek\x12b\x8c\x1bTA\xb7H\xc9\x14U\xc1\x00k\xd8\xc65\xec\x93dR\xc59\xb1\x11,\xb1\xc3Q\xa7\x8cPr"\r\xeb\x1b\x83\xc9@\xf3\xbd\x90\x00\x00\x00\x00Uj\x82\x81 \x00\x00\x04*(\x80"(\x8a\xc5\x01\x84\x91\xa8~\x8cr\xbe}\xec\xdc\x8fA\xc3{/\x0b|=\x13\xe6_T\xf9\xd6q\xcd\xb3\xcd\xad=\r\x84\xc7\xcf\x9c6.\xf2M\xb2\xae\x9a\xb79RU\xf4\x92q\xd2\xba\xbd\x07K\x8a\xd6\xcfwI&gt;m\xban\xb5V\xcc\x17U\x99ZL\xcdxn\xbb6[#dc.\x8c\xd0AWF9\xe3\x82+i\xbbR\xb6\x9fO\r\xec=|\x9f\xa3\xf0*\xba\xcdhk53\xecN\xbb\xdb\xb8\xb6_/\xa7\xc8\x8fc\xa5\xca\xb3\xad\x9f\xa9_\x1bS\xa8\xe6wpT\x93\xc7f\x8b7\xe5\xcd\xbd\xcb\xdbm\x1cg\xd3Z\x19\x12\xd8B\xd2\x0b\xa8H \xa7\xaf;yMx4\x1e{\x89\xeb\x19\xdcN\xf7\x9c.\xae?\x97\xf4\x8ej%6\xb9\xaa\x03E\x1bEU\x14\x926j\xa2\xd4\x98\x81\x1b,4+G4v\x90G$VY\x13\x1d\x1d\xf6\xb9X1\xca\xc0n\x1a\x88s\xe2s&lt;\xa8\x0f;\xd8\x00\x00\x00\x00\x00\x14\x14E`\x03\x00\x04*(\x80"\n\x0c\x14\x18(\x0f\xd5\xbe\xb4\xf8\x07\xed&lt;\x1d-\x0e~\xc7\x94d\xe8u\xdcm(\x16\xaa\xf4u\xa3\x8e\xcc\xdc\x7f@\xe8$\xbc\x8fC\xd9\x96T\xf9\x85\xfe\xc6\xa4\x979\x87\xd5\xb8\xab\x8boo\x9d\ns\xb5\xe8\x95\xc6\xddH)\xe9\xaal\xe8\x9f\xbf\x9b%\x95uw\x10?2\xfa\x96\xab*n\xe7\xdb\x8e\xae{\x85\x9e\xeb\x99\xd1\xf7\x1c\x18\x9a\\\xf4t\xc6\xf9m\xddN&gt;\xa5\xb9\xea\xcbb\xa6\xd5\xfd\x1c&gt;G\xa6\xaf\xa1(\xd8\xd8\xc5\xcd9\xdd=NV\xd9wo\xd2a;\x9d\x1e\xca\x8f\x01\x05;\xbaL\x0b\r\xd7^9\xb4\x97\xc2\x93\xad\xc9L\xe2\x95\xeb\x97M\xda\x18\xf9\x96\xd7\xbb\x05;\xbd\x0e{\xb2/G]\x9cl=\xb7/\xe0\xbdu4zp:mTp"\xb8D\xb3G5I\xc4\x8e\xad\xc6\xc9\xe3\x1dhlAtjC4\x17\xdd\x14n\x8e\xfb\x94i$\xf4h\xa6\xe1\xa87:0&lt;\xc0\x0e\x07P\x00\x00\x01P\x00TP\x14\x18\x00\xc0\x00\x15\x15 \x05\x15\x02LTP\x00\x05\xf7/\r\xb5\x0b&gt;\xd0\xf2.\xdf\x8b\xe0\xfa^\x13\xe8\xef/\xfa\x1bM\x1eZ\xca\x999\xbb\x1b\xf9\xbc\xb46\xd7\xb7\x97\x93^\xecw\xe3\xa3%\x94\xed\xcb\x82%\xd2C\x955R\xb9\x9e\xfc\xf9ge\x12\x9e\x9c\x85\xba\xb7\xaf\xa6\xdc\x94\x99\x0bJKGn\x16\xd6\x8e\x9d\xf9\xdf^\xbfg\xa6\x9d\x8a\x97\xb6\xfe\xa7\xe5(SF]9%\x84r\xd7\xde\xc7\xdb\x9f\x9b\xaf$\xa9fX\xaeY\x81V\xbc\xed\xdd\xba\xf5d\xf5\x18\xebE\xf2Z\xbf-\xbc\xda\xf3,\x16a\x993\x99dt]\x94\x8d\xeb\xc9\x86\xe8\xbd\xe9\xf9\xd9\xe9\xb7t\xa1g\x1e\xbc\xfe_\xbb\x8a\x1b\xfc\xff\x00Ko\x8a\xd4\xf5\x9b\x87\xb5}Y\x99]6g\x8b\xeee9\xaf\xf2=\xb7\xa2\x91R\xcd\x14\xd5\xb9\xdd\x1b\xaaK\x13\xe1n\x08%\xafz\x86\xbc\xd0h\xbe\x18\x9f\x15\xf7\xa8\xd4\x93x\xd4Rp\xc0\x1c4G\x9a\x81\xc2\xe9\x00\x00\x00\x00\x02\x80\x02\xa2\x80\x04\x80\x00\x15\x14@\t\n\x8a\x02\xa2\xb0\x00\x05E\x0fJ\xf4\xff\x00\x9a=\xc3\x9d\xd4\xee\xbaL.\xb3\x17G\xcb\xb35\xf1\x1e\x9c\xea\xf2\xd0\xbe\xb9+\xcc\xd9\xd7I\\O3V\xde\xa4^F\xb5\xc9 \xf3\xa8k\xd5\x95x\xf5\xef\xd3\xd3\x8e9!IFx\x19Z\xca\xd79h\xed\xc6U}J\x1c\xfe\xb3\xc1zW\xbe\xf3.\xe5e\xcf\xf4\xd8\xeeh\xb6;l\x8e\xdd\r\xc7^\xbc\xb16\xff\x00-z\xe5*1\xad\xcbv\nz\x17\xe9\xd1\xe9H\xbfP\x8fG\x05\xf5fK(\xa8\xcb\x91I\xd5m\xa8\xdc\xe0l\xec,\x8dPSs\xa3h\xa5\x9a\x9a)m\xdd\xe6-g\xb7\xa0\xa7\x15\x9c\xba09\x1fN\xcc\x9e\x8e#J^Y\xea\xd4\xcf\xd8\x8b\xceo\xce\x04\xf0\xdd\xc9\xe6\x82j%(\x89\x01\xd1\xba6V\x8aXnU\xe1\x9a\xbe\x8b\xe2\x82Xo\xd0\rG\'\x0c\x01\xc3P\x1c4\x0f:\x03\x85\xd2\x00\x00\x00\x00\x01Q@P`\x03\x00\x00TR \x08\x14\x00\x05`\x00\n\x8a\x05\x8a\xe0}\x01\xeb\xbf\x13\xfd\x07\x93oO\x8d\xdfwX\xfa^#\x85\xd2r\x14vf\xa2Y\x92\xabr+\xd6\xf3\xeb\xd8sU\x13g\xb1\x92\xae\xb5\x19\xf2\xaf\xcf\x15F\xd5\xd7\x8e\xc4u \xb2\xab\xd5!\xabmk]ZB:\xd6\x1d\\\xfbn\x9b\x9e\xb7\xf5_!\xcdtx[\xda5&gt;)\x19\xaf3\xba\x1c&gt;\x82\xce}\x86\xb2{x\x960\x96\\[\xb6\xb1\xa2\xeb\xea\x1d\xb4\x90\xf4\xbc\xb2\xc6\xd8m\xa6H\xe2k\xb1\xe4\x08Ya\xb0F\xa5m)B\xec\xd3L\x98K6\x97\x15\tm\xaeD\xa4t\x8a\x93\x15\xcb5W\xc2z\x92cO\x9bd\xd9\xdaC\x8f\x9c\xbf\xb6\xe5+\xe9\xcb\x9f\x9f\xbd\xc2\xe9T\x99\xab\xf3\xce\xcc\xa2&gt;\x86\xc8\xdf\x14\x88+\xc9\r\xf2\x86\xac\xd0_|u\xe6\x82\xfb\x91\x10\x94\x95\x10\x05\x1a\x02\xab\x15\x1e|\x07\x0f\xa4\x00\x00\x00*\x00\xa2\x00\xe1\x15\x80\x0c\x00\x01P"\xa0 \x00\x14\x06\n\x00\x00\n"\x82\xdb\xa6I}\xc9\xde|\xb1\xf4O7\xa5\xe1\xb9\x9a\xf8\xbc\xdfOI\x90C~y\xec\xe5\xc1nM\xf9\xb1\x1f*6*\xd1\x86TE\x9d&gt;F\xcc\x05\x14\xaf\xab,\x90\xc6\x93N\x85Z\x81VJ%[O/\xa4\xdf^\xd6=\xfc\x0f\xa1p\xf4wru\xf5V\xacs6S\xa5\xb1\x95\xa7w\x1aYY\x14\xf9\x815\xbc\xb7K\xd4Vv\xbe\x03\x92\xaf93\xa1ex&amp;\xe7\x89\xadW\x0cT,Dr\x0e\x18.F\xec\xaa\x93WZ\x15a\x15\x93\x10\xa8O%T#\xa7k\x1aGF\xcc\xb4%(|\x8d\x86\xadw\x12\x8b\x08\xd6\xe2\xfd\x1e\x1a\xb4aG\x89\xb1\xe7\xbb\xd2IX\xf9\xefQ\xf5\xc8"\xd2\x12\x1b\xeel/\x8a\xdbc\xaf-{\xedQ\xa9!\xc3@Q\xa0*\xb5\x05\xc2\x01\xc2\xe9\x80\x00\x00\x00\xa0\x08\xa0*(\x000\x01\x82\xa0%\x01 \x04\x94E\x93\x15\x00P\x01D\x18\xa2\x12Z\xdf_\xfcY\xeaY\xb4z7=\xd7\xf1\\\x8fG\x99Rl\xfd\x14"Wu\xd9,\xc5Z\xad\x94j\xc1B\xbd\xb4X\xc9!\xd7\x8cb\xb2\xc8+Q!%|N\xa9\xc9\x1an\xda\xa9\xf4\x8c\xe6=\xbf%\xf6\xa9\\\xd3n\xdd\xfc\xdb\xbb\xf9\xceq.\xda\xb4\xb4s\xf4\xf5p\x9e\xb1\xb5b\x97\xa2\xcc\xbad\xd2\xa0\xef \x8b\xd5\xef\xf2n\x9al\xb69\xb5sQ\x84CrD\xd7l\xad\x8c\x1b\xd26\x13\x95#G\'A)\x1b+6\xcaF\xe8\x1c\xe5$\x8f\x89\x02\xd5\x9c\xd4ul\xcd\x95&lt;\xb3\xda\x88m:\xa4)\x92\x8e\xa7\x07\xd5\xdb\x82\xe6Y\x04\x9e_\xd1\xb2%\xaf\xe1\xfa\xe4H\xc9\xdeB\xb0\xd9&amp;D6\xe6\xe4Dm\xc3D\xd5\x11D\xa3D\xf8p8\x9d\x10\x00\x00\x00\x00\x05\x00\x05`\x03\x00\x04\x00\n\x02@\t(\x83j\xa81@\x00\x15\x88\xa8\xb3J\xadX?L\xe9&lt;B\xf6}&gt;\x85S\x99\xb2\xdd\xe8\x8avR\x90\xab\xa7[a\xb2\xc6Vl\xb0Y\x16\xb5\xd1\xca,E\xdf\xb68;{\x0b\xdf\xe7Y\xc8\x873\xb1R1_^\xc5\xd4\xab\xa3vy\xefR\xbd\xa3\x1c\xb2\xc1\'O&gt;\xc6\x85y5\xf9\xf6\xa4v\xb2\xadK\x8c\xc1\xbb\x99\xc9\xcf\xc9z\xe7\'\xd4\xbaJW{\xbef\xdcT\xa2\x9dw\xa1\xa8\x85\xf6[\x02\x12\x90\x85\xa5\xb3\xb6\x04S\xb0Uj\x9d\xc2\x93\x14\xf4\x17&lt;#\xa6\xec\xa4q\xd8\x8b2P\xba\x88J\x96(\xd8\xdbj|\xb9S\xd0\xad"FP\xbe\x18\xdd{&lt;\x96\xd5\xf5_)\x9d\xa3W\xc6\xfa\xdald^c\xac\xe8\x11\x96\xb1\x02MF\x83Q\xa8\x87",\x04\x1cV\xf8\x809[\xc0\x00\x15\x00\x00\x14E\x01Q@\x01\x80\x0c\x00"\xa2(\x00 \x01%V\xac\x9a\x80\x00\x0c\x00\x92p\x8b\x16*(/CS\xa1\xee`J5sfo\x9c\xe5\x8en\xadJ\xfazY-\xe5b\xd2\xa8\x8aq[rtv\x04\xefdcX\xde\xcey\x18\xf5\xb9\xaa\xb5\xd6\xad\x0b\x11IfK\xb6\xa2\x92\xec\xf1\xdf\xab\xd2t1X\xac\xfa\xd7\xf1\xe6\xd7\xca\xdf\xaf+\xfc\x7f\xbe\xf3\\\x1d\x8e\xda\xecz\xbbrN:\xbfO\x92\xb1I!d2I\x1bLb\xb4\xb4h\xd8\xde\xadFF\xc7\xa4j\x9b\xda\xf7\x05D\xb7V7\xb6:\xf0Q\xa6\xcb\xa3q;\x13\xd1Y\xd5\xa8\xdc\xfbVe\x95\x8d\x06\xb63\x92\x8d;0\xe7Y\xb3;\xacF\xcb(\xd3\xe4w\xa7\x8cx\xbc\xedL\xcf\x07\xec\xe3D^^\xc0r\xc1\xb1^\x94\xb4\x1b\x1eyL\xc8c\xa6s\xb6\x02\x12\xe5\x80\x8d\xc0\x00\x00\n\x80\n\x00*\n\x00\x0c\x00`\x00\x85E\x10\n\x84\x01%\x01\xb1QX\x00\xd0\x03\x15Qb\xcd\x06v\x9d|l\xc4\x93#\xa9\x96XD\xc3\xaa\'!\\\xdf\xea^Y%V{_-\xd4\xdc\xf2^\xa7\x81\x83\xad\xc7\x94ry\xbe\xab\x9d\xf6~n\x98\xae\xefs\xd1T\xb96\xd4\x16e\t\xeeW\xbbng\xc5$\x05w\xdd\x8brq\xea\x1d\x1c\xbb8\xdaZu\xe8l\xe2\xf0\xd7\xf9\xfe\xdf\x8f\xea\xacl\xb5\xfe\x87\xcaB\x96\x9fu\x10\xa4\x95\xd8\x90\x91\xad*\xd4dt\xb9\x8ddmTc\x94\xdc\xe6\xbd\xc5\xedh\xd2\xc0\x89]\xf0\xc1x\x85\xd4R\xc5z\xeeG@Fs\xac-F\x9a\xd1\x9e\xdae\x85R\x12\x8d\xd076\x9b\xf62$\xbf6\xab\xa9K\xa3-\x8e;\xaf\xc9\xc3\xab\x9dW\xc1\xf3OX\xf6B\xcc6\xcc\xc8\xe3\x8c\x9e\xd8\xc4\xd5\xadb$t/\x0ep\x07h\x00\x00\x00\x00\n\x8a\x02\xa0\n\x00\x000\x01\x82\xa0%\x11R\x00\x05\x11APV\x000\x01\xa5\xb5\x17\xa7\xf4\xb0\xd8\xaf\xd4\xd3\xf7\xde7\xc9\xe9\xf6&lt;\xd7\x94\xf5\xd5\x90L\x9aZ\x8a\xa9\xa2&lt;\x0b\xbe\xcf\xe1Z\x9c\xfd~\xab\x89\xab\x81\xe6\xfd\x1c\x18\xb6\xeaz~\x06b\xb1}g\x19\xc8\xad\x99-\x9a\xb7\xae\xaa\xd5\xca\xd6m\xcag\xbf\'=\x8d\xee8\xfe\xd6U;O/\xa4\xe9p,\xf1\x9dw\x9a8\xdc\xea\xa8\xf5s\xadVL\xae\xb7\x0e\xccn\xce\x96\x89`\xac\x94\xf4,\xb0\x1c\xa3d\xac.b9T\xe3|\x8a\xe0\xc4\x11I\xd1C\x14.\xb2\xfa\xb2)\xd8"|\xabTD%\x0c6\x9b\\\xf3\xd6\xccU]\r\x88\xe3\x84\xad\xb6\x05i\xf5\xa5f}\x08B\xda\xe5r\xe6U\x8d4j\xbe\x95\x9dX\xf9j\xbdg\x1f\xe3\xbb\xf5\x88\x93\xc5v$\x88D+\x98\xa8#V\x82\xab\x15\x98@;@\x00\x00\x00\x00\x00\x14\x10\x14\x00Q\x00P\x18\x00\xc0\x01(\x08\x00QQ\x06*\xa1!U.\xce=\xf7W-\xbf\xa7\xfc\xdf\x98\xad\xd6W\xb2\xdc\xb5\xb3Z7f\xf3^\x83s5\x9e+\x1f\xaer\\N\xe7"\x96\xa9s:\xaa\xac}Ow\xa1\xe5\xecX\xecG\xdeb\xf0\xfb\x1cC\x98\xefo\xe7\xa4F\x8d:\xfe~\x8d\x95]cs\xa7Jc:nGK\xb4\xb6\xd6v\xf8;\x1dF.\xc7O\xcb\xe4p\x9b\xd9\xf8{\xbd_S\x9e\x9d\xbf)N\xe6e)\xeb\x9f3/\xa0\xcd\xd6,\xa3uclk\x1b\xb1\xccD\x8d\xee\x91\xaf\xb2\xb6\xb1\xb0\xc6\xd9\xeb\xc2\xea\xaf|\x91\xc8\xc7\xb5\x11\xa8 \xbd\x1ds\xa8\xd5m7\x83`\xae\xcb\xa5\t\x02\xdbZ\x93\x83ZC\x9e\xe9\x8asUd\xb0\xc8\xac\x8eH\x90Z6\xf2\xedm\xcb{2\xfb\xdd\\5=\xccO\x9cz\x86\x8a\x9cM#D\x00@\x14\x06a\x81+@\x00\x00\x00\x00\x00\x00\x01D\x01@\x00\x00Q\x15\x80\x00\x00\xc1P\x12\x88\t@\x05\x9e\x01\xafq\xb3\xe6\xdd\x9f\xd1\xfc\x16\x91\x1a\xf4\xb9\xf2\x11D\xa4\xf8\x02\xadN\x9e\x9b\t\\\xe6\xb5\xe5\xcf\x7f\t\x85\xe9^i\xe7}\x16\x85z\xa9\x97_\xa5l\xf0]\x87\x1f\xad\xc0C\xab\x8d\xeax\xb3\xb5\x88\xd4\xfa\x19\x0e\x9cme\x951^\x9d\x97#\xdf\xc6\x92\xeeWG\xdd\xe2o\xb8\x8f\xa9\xe5|\xebW\x9c\xeb9~\xbb\xd0x\xcb\xb4;\x1ee\xfc\xac=V.\xed\xbb\x0c:\xfce\x89\xd5\xdd\x8b\x1b`\xafd\xf2TBV\xe8C\x057K\x1cN\xcf\xaaIbY+63\x96\xda\xb4[V[j\x90`\xd3\xe9\xdc\x8e\x13\xa3Zh1mGD\xb5\xcaii\x82\xb4\xc66C\x05\x8b5\xd2MY\x11\xa2T\x9bU2\xcd\x01d4,\xe5\xda\xbf+x\xee\xe7\x9c\xe3\xee\xc0F\xb7\xe7^\x81\xc8\xd2#\x95\x80H1\xec\xff\xc4\x00\'\x10\x00\x02\x02\x02\x02\x01\x04\x03\x01\x01\x01\x01\x00\x00\x00\x00\x01\x02\x00\x03\x04\x11\x05\x10\x12\x06\x13 @\x140P\x07\x15`\x08\xff\xda\x00\x08\x01\x01\x00\x01\x02\x01\xff\x00\xc1\xac\xaeW+\x95\xca\xe2J\xe2D\n\x00\xeb]\x08:\x1d\x08 \x82\x08:\x10A\x04\x00\x08:\x1dhM\x0e\xf5\xa1\x00\x00\r\x7f\xe0\xd6$\xaaW+\x95\xca\xe5q\x02\xc1\xf0\x1d\x0e\xc4\x10A\x04\x10A\xd0\xe8A\x04\x10A\x07C\xb1\xfa\x04\x10A\xff\x00\x84Y\\\xaaW+\x95\xca\xe5q"\xc1\x07\xc8A\x04\x10t \x82\x08 \x83\xe0 \xe8A\xd8\x83\xf4\x08"\xff\x00\x1dG\xc5:\xd7\xd5Y\\\xaaW+\x95\xca\xe5q"E\x83\xe2:\x1d\x88 \x82\x08 \x82\x08:\x10A\xf2\x10v&gt;B\x08?\x87]-\xc7\xcf\x1e7\x8e\xe4)\xe2x\\\xecj\x92\xc5\xe3\xf1y\x1c\'Jk\xca\xc4\xc8\xc2\xc0\xe3o\xaf\xf7\xac\xaeU+\x95\xca\xe5r\xb8\x91"\xc1\xd0\xfd\x03\xa1\x04\x10A\x04\x10A\x04\x10A\xf3\x1f1\x04\x10}\xe1\x11Lz\x16\xae:sy\xb1_\xd2\xe7\x91\x8f\xc9{8\xc9_\x17\xc8S\xe9\xdc\x9fQ\xe3bcY\x8f\x9bjgf\xd7\xc8\xe2~\xe5\x89*\x95\xca\xe5q%q"\xc5\xfd\x03\xb1\x04\x10A\x04\x10A\x04\x10t \x82\x08&gt;\x03\xe6 \x82/\xdeY\xe1\xe9\xday|\xda\x9f\xdd\xce\xae\x8bR\x9eS!m\xa5\xf1[\x15\xb0\xf3y~O\x03\x91\xe2+\xe5m\xc1\xb6\xebM\x9c\\\xe7\x14-\xa9\xfb\x04\xaeW+\x95\xca\xe2D\x89\x16/\xe8\x10A\x04\x10t \x82\x08 \x82\x08&gt;C\xf5\x08 \x83\xee\xaa\x99\x85\xc3\xd8\xf72\xcc{\x1b5\xe9\xe1\xd0\x910\xe6QS\xf95\xe2\\\x98y&gt;\xe7\x11fs&lt;\xe2\x1f\x91\xb6\x91\x95\x08\xfdb$\xaaW+\x95\xca\xe5q"\xc1\xfa\x04\x10A\x04\x10A\x04\x10A\x04\x1d\x08 \xf8\x0f\xd4\x08\x82\x0f\xb6\x05u\xb4\xe2\xf1\xb9L\x85[F\x05\x1b\xc7\xb5r1\xe66U\xb4%\xf9yUTi{7nSN93\xf2\x03\xf0\xd4\xe5\xb5Mhb?X\x89*\x95J\xe5r\xb9\\H\xb1~\x03\xe0 \x82\x08 \x82\x08 \x82\x08:\x1d\x08&gt;\x03\xb1\xf3\x10\x10G\xda\x13\x0f\x06\xaa\x11\xf3\xf3y\x05\xad\x90f\xdc\xd1a\xb7\x8d\xe3\xb3\xf1\xf3%\x8f\x81F_)e\x16]\xc7\xe2\xe5\xe4\xb3&gt;Pfn*\xe6\x95\xcb\x0e\x84?\xa8D\x95J\xe5r\xb9Y\xae$X\xb0|\xc4\x10\x11\x04\x10t \x82\x08 \xe8A\x04\x10A\xfb\x01\x10\x1f\xb0+\xc3\xab\xdd\xca\xb2\x9a\xb8\xfcy\xc3\xf1\x9c\xad\x96\x11\x0bQ]\xfc\xad)vQ\x8c\xf8S\x8b\x19\xf6\x1bI@8\xca\xaa\xc2\xc4\xcd\'\x191\xf2[\xca\xb3\xfa\x84I\\\xaa$\xae$\xae$H\xb0|\x87B\x08 \x82\x08 \x82\x08;\x1f\x11\x07\xeb\x07b\x0f\xb0%\x17\xe3\xe1\xd9N2X\xcb_\x9a\xe76U\xb3\x1e\x9b\xc0`j\xb1\x8c\xc6\xc7\xb4\xf1R\xce\xb8\xccZ\xed\xcc\xce\x17S0\xec\xcc\xca\xca\xb9zXJ\x83\xfa\x04I\\\xaeW+\x95\xca\xe2D\x8b\x07\xccA\x04\x10A\x04\x11`\xe8A\x04\x1f!7\xbf\x80\x83\xad\xc1\x04\x1fc\n\xb1\x88\xb5cU\xcc\xdb\xc7\x9e_2)\xf2Yk\x0e\xbd\xda\xe3\xad\xab\xc5\xc7\n\xd5\xad\xe3\x84s\x0c\xc7\xa2\xfc\x8a\x9d\x05\xb0\xc37+zV\xea\xf7\xf1\x11%R\xb9\\\xaeW+\x89\x12,\x1f1\x04\xd8\xe8t\xb0A\x04\x10A\x07\xe8\x13s\x7f!\x16\x0f\xb1\x89,\xbf\x8c\xc9\xb3;\xd4\x17\xe2\xb64\xcf\xc7\xad\xe0\xf8x\xadl*\x16J\x03L\x19\x92\xbeM\x15I\x95\xa5\xed\xbe\xd6,\xc1\xb7%\xac\x1f$\x95\xca\xe5r\xb9\\H\x91"\xc1\xf0\x1f1\x04\x10A\x07B\x08 \x1f\xa4\x117\xbd\xefb\x08\xb1~\xbe%\x15c\xcc%\xcd^J\xba\xd6\xb9\x96\xf5\xf4\xd1!\x80x\xa3V\x05m_\x1b]\x95aU\x90\xb6\xa3V\x81\xeb\xa9\xb23\xcfL5\x03\x16\xae\xd5\xb2\xdcg_\x8aJ\xe5r\xb9\\I\\H\x91`\xf9\x88 \x82\x08 \x82,\x1d\x08?n\xfb\xde\xc1\x11b\xfd@\xbe&gt;&lt;\x06\'-J;\xe5\xf2G:\xccb\n\x95\x8e\x1a2\xc5\x04xUU\x98\xcf\x8a1o\xc4j31\x1f\x1e\xdam\xaf E\x06b\xd4\x98\xd6\xd3\xed\xad+\x8e\xc3\x0e"\xdf\x8db|\x16W+\x95\xca\xe2J\xe2E\x8b\x07\xc0v \x82\x08\xb0A\x16,\x10A\x04\x1f\xa3ss\x7f\r\x82\xb1b\xfdM\xef\x08\xe27/\x96\xf1\x0eC-\x96\xc6\x8a\xcd\tR\xca\x05C\x12\x8clZ\xb8\xfc|&lt;\xdc\n\xb0\x9f\x8f\xc9\xe32p20r\x00\xc2\xc7\\\x9a\xeb\xa2\xd1^:\x14\x97\xd2k%R\x9a\xe7\xbf\x93^\xbbY\\\xaeU+\x89+\x89\x16,\x1f!\x04\x10A\x04\x10A\x07B\x0e\x87\xeb\xde\xe6\xe6\xf6\n\x95\x8b\xf5\xb8\\L\xfb\xf2\xe5\x93\x0eWe\xf3qaT\x9e\x157\xb7V?\x1b\x81V\x0f\x1b\xc7`q\xb6\xe0\xb7\x1a\x9cnV\r\xd898\xaf\x85\x97\x8f\xec\xde\xd6\xd4\x</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495658-barcelona-y-manchester-united-se-enfrentaran-por-la-europa-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Octavos de final de Champions League: cruces y las fechas de los partidos tras el sorteo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Picantes duelos Liverpool-Real Madrid y Bayern Múnich-PSG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Madrid, Bayern Múnich, Chelsea, Manchester City, Tottenham, Napoli, Porto y Benfica clasificaron como líderes de grupo, mientras que Liverpool, Inter de Milán, Brujas, Borussia Dortmund, PSG, Eintracht Frankfurt, Milan y Leipzig lo hicieron como escoltas. </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dos posibles finales de la Champions, que de hecho se repitieron en los últimos cinco años, conforman los duelos más atractivos de los octavos de final del certamen de clubes europeo: el vigente campeón, Real Madrid, chocará con el actual subcampeón, Liverpool, mientras que el ganador de la edición 2020, Bayern Múnich, se cruzará con el finalista de ese año, el Paris Saint-Germain de Lionel Messi, de acuerdo a lo que determinó el sorteo llevado a cabo este lunes en Suiza.La sede de la UEFA en Nyon fue testigo de un nuevo sorteo complicado para el PSG, que tendrá que superar a un adversario muy difícil desde el primer cruce mano a mano, como le sucedió la edición pasada cuando las bolillas lo emparejaron con el Real Madrid. Esta vez la mala fortuna lo ubicó con el Bayern, un histórico animador del certamen y que le ganó la final de 2020 en Lisboa. Además fue el equipo de mejor rendimiento en la fase de grupos, con seis victorias en seis partidos en la zona que compartió con el Inter y el Barcelona.El costo de haber terminado segundo en su grupo por haber metido menos goles de visitante que el Benfica resultó muy alto para el campeón francés, sobre todo porque los portugueses quedaron emparejados con el Brujas belga, probablemente el rival más accesible de los que quedan en competencia. Con Messi, el brasileño Neymar y el francés Kylian Mbappé en sus filas, el PSG tiene a la Champions como principal objetivo, independientemente de lo que pueda hacer en la Liga francesa.El otro duelo estelar de octavos lo protagonizarán los finalistas de 2022 y de 2018. Pese a ganar su grupo, al Real Madrid le volvió a tocar un camino complicado, como le pasó el torneo pasado cuando debió eliminar al PSG, al Chelsea y al Manchester City antes de toparse con el Liverpool en la definición. Esta vez el conjunto inglés quedó detrás del Napoli en la fase de grupos y con ello se convirtió en uno de los cucos del sorteo, que finalmente le cayó al conjunto de Carlo Ancelotti.Desde que Jürgen Klopp dirige al Liverpool, en tres de las cinco ediciones le tocó el Real Madrid, con dos finales perdidas y una eliminación en los cuartos de final en la 2021. Ahora, en la cuarta oportunidad se lo cruzará en los octavos.El gran vencedor del sorteo resultó el Benfica de Enzo Fernández y Nicolás Otamendi, que recibió como premio al Brujas. Los portugueses se quedaron con el grupo que compartían con el PSG y la Juventus y tendrán como adversarios a los belgas, que finalizaron segundos en la zona que ganó el Porto.Otro aspirante al título con un primer adversario en los papeles no tan difícil es el Manchester City de Julián Álvarez, que deberá superar al Leipzig. Es cierto que el conjunto alemán le ganó como local al Real Madrid en la fase de grupos, aunque a esa altura el campeón español ya estaba clasificado y con el primer puesto del grupo asegurado. Por haber ganado su grupo por delante del Liverpool, el Napoli, con Giovanni Simeone entre sus filas, tuvo la chance de quedar en el Bombo 1 y evitar a varios de los candidatos. Y se puede decir que tuvo un sorteo benévolo, frente al Eintracht Frankfurt, vigente campeón de la Europa League, un rival accesible para esta instancia del torneo más importante del continente. Otro de los equipos italianos en competencia es el Inter, que con Lautaro Martínez y Joaquín Correa en sus filas buscará seguir en carrera en una serie muy cerrada ante el Porto. Los neroazzuri terminaron segundos detrás del Bayern y por delante del Barcelona en su grupo, pero se cruzarán con uno de los primeros menos pesados que había en el sorteo. Teniendo en cuenta lo que fue y lo que podía haber sido, no es mal cruce para el equipo de Simone Inzaghi.Para el Milan, su clásico rival, el panorama también es cerrado, con el cruce ante el Tottenham del defensor argentino Cristian Romero. Si bien el conjunto inglés ganó su grupo, el equipo italiano era de los más fuertes del Bombo 2, por lo que es una eliminatoria de pronóstico cerrado.Algo similar se podría decir del cruce entre el Chelsea y el Borussia Dortmund, que no figuran entre los máximos favoritos pero que son adversarios de cuidado para los candidatos más fuertes. El equipo inglés, campeón en 2021 y eliminado de manera polémica en la edición pasada por el Real Madrid, aparece con un ligero predominio en la previa, pero no podrá descuidarse si quiere seguir en carrera. Los partidos de ida serán el 14/15 o 21/22 de febrero y los de vuelta el 7/8 o 14/15 de marzo de 2023. La sede elegida para la final que se disputará el 10 de junio será el estadio Olímpico Atatürk, en Estambul, Turquía.PSG vs. Bayern Múnich Milan vs. Tottenham Brujas vs. BenficaBorussia Dortmund vs. ChelseaLiverpool vs. Real MadridEintracht Frankfurt vs. NapoliRB Leipzig vs. Manchester CityInter vs. PortoChelsea vs. Borussia DortmundBenfica vs. BrujasBayern Múnich vs. PSGTottenham vs. MilanPorto vs. Inter Manchester City vs. RB LeipzigNapoli vs. Eintracht FrankfurtReal Madrid vs. LiverpoolLeipzig vs Manchester CityBrujas vs BenficaLiverpool vs Real Madrid Milan vs TottenhamEintracht Frankfurt vs NapoliBorussia Dortmund vs ChelseaInter vs PortoPSG vs Bayern MúnichEn el caso de los encuentros de ida, la UEFA ha contemplado que se disputen el 14, 15, 21 y 22 de marzo. En las jornadas del 7, 8, 14 y 15 del mismo mes se jugarán los partidos de vuelta. El Liverpool y el Real Madrid volverán a enfrentarse luego de lo que fue la última final de la Champions League. El historial, conformado por nueve partidos, es favorable a los españoles, que se impusieron en cinco encuentros, mientras que los ingleses lo hicieron en tres ocasiones y hubo un empate. Además de la 2021/22, jugaron las finales de 2017/18 –victoria 3 a 1 del Merengue– y la de 1980–81 –triunfo 1 a 0 de los Reds–.PSG y Bayern Múnich protagonizarán una de las llaves más atractivas de los octavos de final de la Champions League. Los franceses y los alemanes se enfrentaron en 12 ocasiones, con seis victorias para cada uno. Entre esos partidos se destacada el de la final de la Champions League 2019/20, cuando los bávaros se impusieron 1 a 0. Con dos duelos de alto nivel como Liverpool vs Real Madrid y PSG vs Bayern Múnich, ya se confirmaron los ocho cruces de octavos de final de la Champions League. El escolta del grupo H se medirá con el líder del grupo C. Se revive la final de la edición 2019/20: en aquella ocasión los bávaros se impusieron 1 a 0. El escolta del grupo C irá ante el líder del grupo B. El escolta del grupo G se medirá con el líder del grupo E. El segundo del grupo D se medirá con una de las sorpresas de la fase de grupos, el líder del grupo A. El escolta del grupo E se medirá con el líder del grupo D.Se revivirá la final de la última Champions League. Liverpool, escolta del Napoli en el grupo A, se medirá con el Real Madrid, líder del grupo F. El equipo belga, escolta del grupo B se enfrentará a los portugueses, sorpresivamente líderes del : dejaron segundo al PSG.El equipo alemán, escolta del Real Madrid en el grupo F, salió en la primera bolilla del sorteo. El conjunto inglés dirigido por Pep Guardiola quedó emparejado con Leipzig.El exjugador del Real Madrid y el Bayern Múnich, entre otros, Hamit Altintop será uno de los encargados de sacar las bolillas en el sorteo. En el equipo bávaro llegó a la final de la Champions League 2009/10, en la que su equipo cayó 2 a 0 ante el Inter. Además de ser el único equipo que ganó sus seis partidos de la fase de grupos, el Bayern Múnich se convirtió en el primer club en haber ganado en tres ocasiones diferentes el 100 % de los puntos de la fase en cuestión, según indicó Giorgio Marchetti, adjunto a la secretaría general de la UEFA.  Comenzó, en la sede de la UEFA en Nyon, Suiza, la ceremonia del sorteo de los octavos de final de la Champions League. Se presentó un video con algunos momentos destacados de los 16 equipos clasificados. Lionel Messi del PSG, Cristian "Cuti" Romero del Tottenham, Julián Álvarez del Manchester City, Nicolás Otamendi y Enzo Fernández del Benfica, Lautaro Martínez y Joaquín Correa del Inter estarán atentos a la suerte que le depare a sus equipos.BOMBO 1NapoliPortoBayern MúnichTottenhamChelseaReal MadridManchester CityBenficaBOMBO 2LiverpoolBrujasInterEintrancht FrankfurtMilanRB LeipzigBorussia DortmundPSGEn el bombo 1 están los clubes que clasificaron como líderes y en el 2 los que lo hicieron como escoltas. Los equipos del mismo bombo, grupo o país no se enfrentarán en octavos de final. Los cabezas de serie definirán como locales. Este lunes desde las 8 se realizará en la sede de la UEFA en Nyon, Suiza, el sorteo de los octavos de final de la Champions League, el certamen de clubes más importante del mundo. Será televisado por ESPN y transmitido a través, pero podés seguir en vivo el minuto a minuto en Página|12. </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x007\x00\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x05\x06\x07\x08\t\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf8\xcaHI ],\x96\xa8\xf2\x92Z\xe69\xc8c\x18\xe5\x19q_%\x8cf\xc9&amp;3d\xb2c\x1c\xa3n3d\x93\x1d\xaf%Md\x14\xb9\x14\xb1\x81\x1a\x00\xb1\x14\xb1\x80X\x80\xb1\x01b\xaa\xcc\xc2\x17a\x19\xe2\x02\xe6\xd0Y\xa9\x19\xcc+3R3\xb4V\xd6\x1a\xac\xdcDk\nU.\x85F\xd2T.\x05kx([\xc2\xd2.R\xa3p+6\xd9\xd6c\x0c\xfb=SV7\x0f\xea\xce\x8ct\x16{3\xa1\xcd\xda]\xed\xcd\x1bY\xb1\xdbS\xe0\x7fK\xfc\xdd\xf2\xb5\xaf\x90\xfc-\xc9\r\xc9`\xda1V\xa2A\xd4$5I\t$$\x06\x02\x18\x804P\x08\x83$5\xd2O6\xe4\x90\x84B\x10\xc6e\x96:\xd2m*\x85\x98R\xd0\x11\xa4HH#\x10B\xc0&amp;\x121\x84bHc\n\xd0\x90\xb3\x08X\x80\xb1$f\x15\x98\xaa\xb3\x91\x19\xd8\xad\xdd\x91\x19\x9e\xd46\x14R\xed\n\xd6\x1aFgZ\xd9\xde\xca\xdd\xec\xaa\x8eM\xbe\x9c\xe0\x9d\x95\xde\xbc\xea\x0e\xf2\xff\x00fy\xd1\xd2\xdb\xeb\xcf0\xfd \xf5g\x9f\xb3v\x9e\xb9\xaa\xb7`=y\xc3\xb6\xe5\xf4\xc4\x0e6Ac\x14d\x8a\xf9\xf4j\xb2-k\x02\xed\x85\xf5\x85\xb2\xbf?\xcf\xaa&gt;j\xfa\x87\xe6\xff\x00\xcf^T\xc9\xf9mC\x0e\xa1ejb\x0e\x84\x86\xb0\xc8h\xc8I$$!$\x91d\x91 !d\x90\xd7I&lt;\xbb\x92BI\tmW\x9b&amp;\x0c\xd0&amp;@i\x03\x18T1\xa0BA\x1a\x00\x92\x02H#\x10\x16\x91\tj\x04\x98Vb\x07\x8e)b+\x16\xa0Y\xa035+5\xbaT\xd97w\xce\x13\xecl\xf4\xe7Xw7z3\xa4}\xfb\xfas\xa2\xbbqg\xa3:\x9b\xf6G\xd90r\xed\xb3\xdd\x8a\xba\xad\x07A\xf58\xe8S!=V\xb2\xcd\xc3Hd\x81\x1ai\\q\x9bP\xb1b\xb1`\xcd\xadm\x18\xb5\x87\x99\xa925\xbc\xf5Pq\xf2\xc8\x1eJ/\xae\xfc2\xb6\x9a\xcd\x9f=t^\x13\xed^5\xe6\xe9\xe6\x06\x1f\xcdXA\xb0\xb04X\x1d\x0b+X`j%H`4A\x12I!$\x80"\x10\x88k\xa4\x9e^\x92HI!2\xb1sL\xe6\x8c\xa0\x98\xa1\x89\x15\xa1\x15\x9a\x021\x01$R\xc4\x04\x90\x12`\x16(\x0b\xdd\xd1\x8e\xd9Ww\xce\x0bl-\xf4gXw\x17z3\xa4\xb3x\xfe\x9c\xe9n\xda\xb7\xa3:\xdb\xf3\xcf\xa78\xd6\xde\xfe\x8c\xd5k?x\xac\xe7@]\xc5k\x1c\xa9\xdd\xca\xdb\xa1\xaf-\x1b\\\xfd\xedf\xc7\xdc\x1b=m\xde\xbc\xdf\x89\xd0h\xfbJ\xa3\xce\x1b\xac\xd81k\x0e #\xcc\x91^f\xd6\x1df\x91l\\\x13!Sw\x1a\xab\x13\xe6+[\x06-e\xcc\x0b\x05\xb8\xb9\x1b,\r\x97\x9e\xed\xbc\xaf\xd5\xfc\xf7\xc1\xd3\xc1\x88?\x19\x0c\x94\xcc\xadD\x86\xa8\xcau\x1a\x03D\xc8\x86\x03R\x18\x03$\t!$\x0b\x0c\x06\xbaI\xe5\xdc\x92\x12HM\x86\xbfhe\xb0f\xa1\x0c\x02e\x86Y\x91\xe8\xce,\xd8\xf5\xbe\xce&lt;\x11\xea\xf5\xbdZs\xbb\xb7\xd0\xd1[\xbboFt\xd6\xed\'|\xeb\xef\xcan\xf9\xc7\xb6\xd9\xde\x0b\x94\xfa2\xcbjTf&lt;\xe8r\xd0\xac\xfdf\\\x9b?Ls\r\xb5\xec\xf2\xf3\xa7\xeex\xca9\xbd\xbfC\xe7y\x86WQ\xca\xed\x9f\x81\xb5\xcf\x8c+:&lt;\x0el~;\xb6\xd1\xf5\xbd\x07\x11\xbf\xd2tH\xe7\xd1Dy\x11\xa1\xd5\xdf\xe8\xb7\xbaOw:\xc3\xaf\x97\xa2\xc6\\\x94\xb2\xca\x90\xc9k\x8e\x99\x05\xb1e@\xf9\x1bW\x81bx\xedj\xe9\xe7\xa8\xb6\x0c\x81\x8f\x90\xb5l\xcd\xbfe\xae\xd8\xf0\xbb\xbeS\xad\xd3\xf8\xba|\xb3\x01\xf9"A\xb0\xb2\xb6\x84\x83D\x83a"S\x15b\x11)\xa0\x90D \x92$\x92\x12@\x9a\xe9\'\x97\xac\x92\x12H\x1d\xf6\x87\xd0~\xef\x0c\x0c\xad\xdc\xfd\xdf\x83U~{\xfa\xf1\x87u\xb3\xd7\x84v\xec\xb7\xca\x9b\x97\x84\xf98\xaa3y&gt;\x82\x8bNml\xf2U,\xd9#\x16\xcd\x04\xb4)v\x96K\x06\xe2\xd9\x1f\x9d\xde\xf7\x1c\x87K\xe0i\xbd{\xc2\xba\x1c\xb4\xbe\xdd\xe2\x9a\xee\x89\xec~?:\xbdW\xca\x0bj\xf4\xaf\xcd\xdb\xd2of\x99\xed\xdd\xeb\xb1\xdfE.\xfaV\xce\xf2\xa4\xb4\x88]\xe5\xa4\xdab\xb2\xf0\xdb\xeas\x9b\xdb\x8dT\xb98t\xaeX9\xda\xc3\x82\xb0\xe76\xa1ux\xaa\n\xf3YM\x98\x93Abx,U\\\x08Y\xce\x96]\xdf7m\xdc\xf7\x14\xfc\x0f\x17\x93\xf9\xdf\xd4?3}\x1e\xdb\x896;\xf5\xfcb\xb9\x18\xff\x00.\x12\r\x16V\x0c\x86\x89\x13P\x90h\x91\x06\x80\x84\x88I"I"\xc9 $\x89\xae\x92yzI!$\x83zo\x9a\xfaw\xee\xbc\x16\xb0\x7f\xdf\xfc\xe8I\x95\x1c\xf5x\xc5\x89g\t\xf20\x14\x8f7\xd0\x85\x8e(,eR\xcd\x08Kf\x82\xd3\x9a\x12\xf2\xa3\xb3J%\x87qK\x1ev1\xb0\x0e\x1c\x0c\xccH\xcfh\xb2&gt;\x85\x85\x90-\x0c\xa5\xc3\x0c\xf1\xc8\xea\xfaGV\x80\xd0\xe3FE\xc1\xa5s\x16\xdd\xb6\x16ri\xea\xe9_\x85\xe5Gq\xae\xe3yT\xef\xad\xe2\xf3\xb7\xf4\xddw;\xc7c\xfa7\x15\x9b\xb3\xc7\xf4^_\xcf\x9d==N\x94\xe7t\x1d\'9\xdb\xa5B\xc5\xbaH\xed*fQl\xcf\xd6&lt;\xd7\xcf\x9b_\'\x97\xda\xfc*\x8c\xae\xbd\xf7;\xcd\x06\xfb\x97\x7f\x90t\xddo%\xf2\xc4\x82\x91\x81\t\x07HA\xa2D\xb0\x91\x06\x80\x84\x82\t A\t\x08$\x04.\xbaI\xe5\xdc\x92\x12\x10e\xfaW\x9f\xfa\'\xf4_\x9alW\xfd\xa7\x88\xb4\xdc\xcc\xe4\xed\xb3\xbc\xbb\xe3\xf1\n\xd3\x8f\xd1\x10\xb7\x1b#H\x8d\x19df\xcdFf\xca\xb7-\x9a\xac[\x15Y\x98\x92\xd5\xd2\x168\xa1\x8bC@\xc3\xb2\xc5\xb5\xeakoj\x1e/5&lt;\xafeV+2\xbc3)\x95\x8c|P\xccc\xa4\xcb\xc4\xdexf7Y\xcdk\xf8]\xd2huZ\x9e\xdd\xc8\xf9\xf5\x19u\xd9\x9e~{\xdf@\xe7y\xf5\xae\x9fC\x8e\xb6\xdf\x8d`\xd2\x84\xcc\xc8\xedp\xf0\xf2\x93\xce\xc6\x19\t\x18\xe2\xe0\xb5\x07\x12!i\x8a\x1e_\xce\xee6\x1dN\xf3\xf1w\x80\xe7\xfdC\x83\xf7\xd4\xe8y\xee\x83\xebk\xe6\xdf:\xf6\x0f \xf96\x11$,\xac\x19%\x12\rC&amp;\xa4 \x84\x82\x18\nI `$\x06\x10\x18kd\x9e^\x92HI!\xbf\xef8\xee\xd3\xfa\xb7\xc9g6\xfe\xa3\xc9\x7f\xa2\xdd\xe4\xdf#\xcfJ\xd89\xfd\n\xe5\x83\x9e\x83\x99\xcbP\x83\x8aY\x19Y\xaal\xadj\xf2qk9\xcf\xca\xeb\xdb\xb5nN\x1d\xfdO\x9b\xc5\xe4\x187\xb2\x86%c\x17\x95\\\xb8\x1c\x909al=&amp;z\xeft\x1bk\xfc\xbe\x9e!\xb6\xb8&gt;\xaf\x1dv5\xcc\xd0\xf74P\xf9\x06\xa8\xb2\xd7\x8a\x9a\xd6*.!\r\x90\xabu\xaa\xdbk:`\xd5oL\x01\xe7RD\xe3L\x15\xf2\xb9\x02\x8b\n\x12W\xe4\xd1F\\T\xa9\xd3%S1C\xc6\xe7ac\x87K\xeb\xbc\xa7Q\xf9L\xea\xfc\xc3\xe9/\x9c~\x81\xf7\xbaM\xbf\xd4\xe9\xe5^\t\xf4\x87\xcd\xff\x00\x1bRC\x99\x18\x12\x19(\x90jI,2\x1a\x86@\x90I\x08HA$\x802\x13Y$\xf2\xf4\x92BI\x0e\xd7\xad\xe7\xba\xcf\xec\xdf\x16\xbe\xdf\xd7=s\xf2\xfd~?\xf3\xff\x00\xb4\xfeO\xe7\xe9\xe6\x85\'\xea\xf2u\x92i\x9d\x1eR\xf1\xeb\xb4\xf4~\x1bk\xf2q\xa1\xe99\x86\xec\xf5\xa5\xf0\xfax\xbd\xc7\x80\xe1O\xa5\xee\x95x\xb8\x8fK\xe7\xb9w\xf4*k\xe7\xaa\xd4\xd6\xbcR\xd6\xb0\x8fe\xb5S\xb3 g9\xa3i\xad\xb2\xea\xd0\x8c\x1b+y\x1a\xea\x18\xb9\xa9\x8b\x90\xd8\xed\x95\xedI\xce\xad\x95\xb6\x0f+lR\xbd\x86\xdb\xc2\xf3\xab\xfa\x8fD\xe5&lt;\x97\x0b\xd1\xab\xe3y\xbazl\x08\xd5h:\x8dv\xefkN\x8f\x9c\xf3\xcfJ\xc4\xe21d\xc8\xe6r\xf1}}+\r5jKV)\x97\x19i{\x9f*\x1e\xd3\x96g\xa4ym\x9e|\xf6\xdc\x85y6\xe5\xecu\xdb\x1e{\xe4\xbe`\xfa\xc3\xe4\xef\x8f\xb6\x80\xf3\x84\x82B\r\x12\rI%\x86ID\x82\x18\x18\x92BHRHA\t\xad\\\x93\xc9\xd2I\t$=;\xd08\xbc\xef\xee\x7f\x07\xec\x9e\xd3\xe3/X\xfee\xdf+\xe6|\xbc\x1f\xd0t\xc2;\x06\xfa\x17Z\xdb\x19\xa9\x83fY({\xac(\xb2\xd7\xd4\xa5\xedj\xa9\xdc\xc2\x921Y\x95\xa5r\xa7+ ][Mo\x9a\xe5L;\x06\xb68h\x8cL\xa2\xc0\xe4oO\xf3\xef3\x0c\xbbz*\xd9\x1aUr\xd9\x88\xece\x16F\xc9M\xb2*7\x18\xcd\xdbs\xd3\x84\xc9\\y\xbb]]\x1e\x9b\xaeq\xa6L\xce\xf1\x85\xf7t\x98\xd4\xe4S\xca\xd3-\x1cmKb\xc2%\x89\x15-\x93\x16\xa6\x13\x95g\xac\xf39S\xcfWzg\x9e\xfd\x03\xf9\x1d\xf1~y\xf4\x1f\x8bx\xf5\xa8\xcd\xc4\xcf\xfd\x860&gt;?\xfb?\xe3\x0f\x8f\xb2\xcaxBA\t\x06\xa4\x92\xa1\x06\x8c\x06\xc2D\t\x91\x0c 2K!\x06\x8c\rZ\xa9\'\x8b\xac\x92\x05\x97\'\xa4\xf5\xdc\x9a\xe7\xfa\x0f\xf3\xd9]\xd5\x1e\x8b\xf9\x1dx\x8e\xa1\xb0\xbb\xf7\xce8\x11\xd39p\xa6n\\\xc7\x9c\xeeK[\xe9\x9e[\xe6\x07\xbb\xed|\xcf\x10\xcd\xf6\x0f@\xf3\xdf\x9c\x93\xdb\xf4Yp\x99}uI\xc3z_\x07\xd3\xdb\xb7\xe1\xb6\x1a\xea\xbf\x8b\xdb\xea\xbe\xa5$\xbfj\xac\xec\x88\xf69S\\\xc8\x93!\x96\x8e\xabC\x9d\x9fF\xf6\xeeUy\xfa.\xc7\xb5\xbbx+k\r\xca\xd9\x1a\xa3\x87\x85uh\x0e\xa3\x9e\x9cA\x84(1Z!\xc5\xde\xe9Q\xac\x03#3\xcf\xad[\xef5\x99k\x17\xab\x9e[\xc8\xa7S\xd1ry\xaa\xfa^\xdf\x83\xc6\xa9\xed8\xdfF\xab[\x16\xd0Kb\x86\'\x143\x1c_E\xeb\xb8\xafo\xfew\xcfU\xac\xa7\x9f\xce|\xf3+\x13+\xfa\x07l\xaf\x8c\xbe\xce\xf8\xfb\xe3\xefVD\xf3\t\x042J2J\x84\x10\xc9,2\x1a\x84\x14$D2J\x84\x12\x18kU$\xf1\xf5\x92Bm\xf5\x1d\x1f\xd2\xe7\xe9w\xd3\xb8\xfe\xbb\xf1\xbd\xe7oV\'\xf2\x1c\xfc\xd9\xa6\xb1?u\xef,l\xee\xaeZj\xa6w\xd4\xbf\xb9\xe0l\xe1:\xfa\xf9\x8bd\xcf\xa6\x97\xf4)k\xdf\xba\x8b.6Uc\xb0\x8c\xcd\x01\xe3,ujfF\x95\xda\xb6\x8beqr\r&amp;2\x1b\x1d\xa5\xb9\xe9h\xbaV\xd2\xdaP\xe4\xcc\xad\x9b\x1a6j\xb98)i5\xb6\xe95\x1dg\xc9\xcf)\xbb\t\xcd\xc3\xfaw\x0c\x9d\xaf\xa3\x1f&lt;\xab\xca\xee3\xfc\xbf\x17OV\xe495\xdd\xef5\xdc\x9a\xdb\xd4\xdd\xc8,t\xbaLD\xad\xae\x8a\xe4\xb6\xa1zJ\x8e\xcd\x8a\xac_\x9dR\xc7\x9au\xfc\x8e\xd7\xc8\xe99I1o\xc9\xc7\xc9\xedo\xf9S\xea\xcf\x97&gt;n\xb8\xf3\'\x95\x08! \xd4\xc9\xcd\xf5\xe2\xb3\x8f\xa3\xc6\x96\xbe\xd7\x0f\x9e\xbcU={\xc9\xfd\x1c\xea \xeb$\x82I%\x86H\x12\rj\xa4\x9e&gt;\xb2H\x1e\xb3\x93\xed\xfe\xff\x00\x9f\xb6\xa6\xeb\x7f\xaf\xfc\x8d\xd6\xba\xda|w\xb2\xf3\xdfO\xf3\x1f\x91\x86um\xfa\xd5\xa0\x94\x039\xe8\xd8\x8d\x85\x97S\x98\xb56\xcba\x96\x84u:\xcdM[uY&lt;\xef\x1a{\xfe\x97\x85\xf1\xcb}\x97Y\xcd\xe5G\xa0\xd1}\x1a\x18\xbe\xea\xbb4\x08\xccF\x96\x10\xc7\x81i\xdbg\xaf\x7f\xe5}\x16\x7f\x8b\xbf"n\x9fC\xc9[\\\xf2Po1Kd\x93\x18\xe4\xb6\x18\xa7!qi{\x0f5B\xe1\x8bD\xb0e\xb2\xd7\xeeu}\xf9\x9c\\\x8a9\xf4\xa8X\x9e](u\xcdT\xb2\xb8T\xb1pEt\xcd\x8a\xd340\xea\xfc\xf7\x9e\xd3\r\'\xe7=\x16\xec\x13\x03X\xd9\xfa\x0f\x8ez\x8f\xb3\x9e\xf7W\x95\xac\xeb\x97\xc8\xc7\xcb\xed\xbb\xbem\xfaS\xe7\xbf\x9b\xbf-\x92xP\xc8\x19%z\xc5\x9a~&lt;\xc4\xa0\x1a~\xbb\x8e9\xbe\xcd\xa4\xe5\xfdr\xbc\x08\xddN\xf0H\x81 \xd9 $"F\xb2I\xe5\xeb$\x84\xf4_;\xf5\x1f\xd6\xf97\xdd\xb7\x11\xec?\xaa\xf0\xfa\xef\x8b\xfd\x1d\xf3\xdf\xf3\x9e\xfe&amp;U\xff\x00\xa1\xe8\xd8\x96T-(4\x96u\xdd\xf7\x01\x8f\xf2\xa7\xaf\xec\xfc3\x17\x8b\xd8s&lt;.v{\x06\xa7\xce\x1b\xbb\xb1\xc8\xe2_\xd0\xee\xb0\xb9G:\x1d\x9f\x1evE\xbd\xfd,w\xc8m)\xb2\xc6\x10\xbb\x81\x8b\x01\xc5\x96d\xedtO\x9e\xdb,|g\xb9\xb1\xea:\xc5\xcdI\xca\xe3I\xc2\xe3\x8es\xac\x83\x8ey\xdbBdp\xb46\xe3/\xcc\xe6\xc7C\x8d\x8b\xa4\x9d\x0bF\x96\x9e\xc3e\xc5\xe7+\xd6\xef9\xdf5\x1e\xa7\x81\xce\xf0\x99=\xc3\xf2\x9eo\xb5\xe9\xb6yy\xcfA_M\x87/^Mq\x9f\xa5\xd8\xe8\xe3K\x8f\xd7\xf9\x7f\x87\xd3wFG\xa5\x0co^0\xb4=n\x8b\xe7\xeb\xd6\xb8\xee\xeb\x90\x9c\xaa\xcb\xc7\xbf\xd3\xd2\xff\x00\r\xf7\x1f\x1d\xf9\xfb\xf0\xc9\'\xcfC\t$5\xd1\xecy?Y\xf3\xf5\xf2:\xfd7\xce{\xe6\x83&amp;\xf9\xb7\xb5x\xa7{\xa67\x1b\xea&gt;_\x12H\x84\x82I%\x92Hk$\x9eN\xa4\x107\xae\xf9\x17\xb4~\xeb\xc2\xff\x00K|\xd9\xbe\xfb\x9e\x1f\xb3&gt;`\xd4\xf2\xdf\x17Z\x9c\xfc\xde\xf3\xf4s\xcbl\xc9\x9c{\xd2o\x98\xb5-\xd3\x9d\xad\xc9\xcc7\xad\xbdc:\x1e\xab\n6\xce\xf4\x92\xe7\xa4\xcbq\xa6f\xde\xd4E\xc8lv\x8c\x86\xc7yo\x95\x12\xd3[KaV\x86u\xd9\xe5\xafoC\xe0&lt;\xf4:?z\xc64F\x8d\x00\xc9\x93d\xe36^\xa5\x91\xe69\xbf%\xbb\xc7\xe6\x17\xbd\xf4\xd1\xe6S\x8b\xd2\x93\xcf\xd2\xce\xe7U\xcb7K\xb5\xafX-\xe94\x14\x0c\xb6\xda\x81)*\xbdV\x97t\xca\x89h\xcd\xaeY2\x1c\xce\xc9\xfe\'m\x93\xc3\xf59\xc2t\x1e]n\xb9\x0e?\xd6\xbf9\xed\xd8\xda\xe3\xf4\x9e\x0br&amp;\x87\xcd\xbe\x93\xcb\xf7\x9a\x8f\x16\xbern\x9d\xbc\x97\x96;~\xf8\xf2\xb3\xea\'S\xcbz|-,\xd7\xb6i\xa9\xeb&gt;g\xab\xc1\xce\xdfQ\xf5|s\xaa\xe5v\xe9\xeb\xde\x1d\xf4g\xceu$\x88L\t\x0c\x84\x84V\xb4\x19\xe4\xea$\x86O\xb3\xf9\'\xae\x7fG\xf9\xcfn\x07\xb1\xfd\'\x97O\xa0&gt;g\xf1t\xdc\xf6^p\xff\x00G\xc9\x98q\x1b\x8fl\x99Sf\xd8\x15\xa20\xde\xe2\xe9s}\xff\x00\xc7&lt;3_\x9d\xee\xbc\xff\x00\x91\xe4\x99\xdd\x86wk\xe7\xbdL\xa2\xae\xdc\xe8v|\x9ek!\xfb\x968`\xb0#:\xbd\x16$\x0c\xce#XE}\xc7G\xcb\xd7\xc6d\xf4\xd4g\xaf*\xf7\xb7\x7f\x9fE\x96\xbaR\xd7\x8aF\xbaKQ\xb2"\xcb$(\xb0`\x81\xf6\xd9\x97h\xf2\xb17\x03\x83wD\x83\xc5\xa5F\\\xd9\x14`T.k$LVH1YA\xe7w\xba\x8a\xed\xf9=+!\xbe\x86-\xf0\xef}\xf2\xef\xcb{v=g\x1f\xe3w\x9f\xd2\xfeS\xe6\xf9x\xe4\x94bv|\xfa\xf3\x8b\xbe\xe9s&lt;\xdd\xfa]\x07`\xf5?\'\xee\xe6~\xa2\xd6y\xe6\x8boE\xf2\xde\xcf\xa9\xcf\x7f\x8e\xbd\x93\x94\xef\xaf\x9f\xcby;\xe8\xd4\x998\xce}\x97\xf1\xaf\xd3\xff\x00/\xcad\x9a\xc9"$2T \x9a\xc9\'\x93\xa8\x92\x1d\x07\xa7\xf9\xd7\xa2\xff\x00N\xf9\xb8\x9d?)\xf5\x07\xe4&gt;\xf6\x8b\xc0=\x9b\xc6\xfd\x1ex\xedg\xea~Z\xbe\xf7R\xcdn\xee\xd5r\xe3\xa59\xd5\x14\xc9|fJ\xda\xf3\xb5Oc\x15\xbb\x9a\x0c\xc5C\xc6\x82\t\xb1\xca\xb6k5d\xb5\xab\xb2\x18\xd6\xd6\xdc\xd4\xbcZ\xf8\xf6\x17\xb6;.C\xe2\xb6Yg\x15\x97$\xe3\x98\xc84\xcc\xdb\xc5c6\xd9[`A\x98\x06\xd8\xf7\x9eG\x98_\xea\x9es\xca\xebr\xbb\xfc\xef;\xcd\xb6\x1d\xe6\x8b\x9bA\x81\xd2\xb5s;\xec\x1c\xe8\xa2\xfe\x7fw\x8b\x87\xc7\xf4\x9c\xe7\xa2\xa4a\xd7B0\xc5\xbe\xbdwQ\xf3\xb5\xa7%\xbd\xb8\xd0\xee\xe7\x19\xf1\xbba\xf9\xf7\xaed|\xce\xbf7\xfb\xb6w\x99\\n\xfdG\xca\xba\x9e\xb8\xe0\xfd\x07\xcd\xbd\xbb\x9d\xe4&lt;\xdf\xd4|\xbe]n\xcf\x1f\xd6\xf9\xefA\xec]_\x11\xea\xce.\xab\x17S\x8b\xb5\xf3\x0ecMq\x0c\x1a\xc9\xb2\xbc\xaa\xf7?\x05\xf7\x9f\x06S$\xb92D\x86BHkZ$\xf2u\x92C\xb4\xeey\x1e\xc3\xfa\xaf\xca\x1bL-\xbf\xba\xeb\x98\x0e\xf8\xb2\xdci\xa9\xe9\x1e\x7f\x9b&lt;\x1cu\xc6\x87\xf3\xfa\xeej\xc4\xb7\x1cv\x8b\xdb\x17#5\xda\xfd\xa7&amp;\x9edg.\xa9\xba\xc1\xca\xf2\xad\xd6o9\xbc\xdc\xf7\xd9\x11\xe7\x87\xd1z\xceW\xc4\xd3\xdd\xfcO\xa3\x15\xa3\xfbhh\xd5\x1a4\x17\x04}\x8e\xbfg\xce\xedy\xdd\xae\xb3\x08\xea\xfd\xa8xr-$\x13\x1b%g\x88\x05\xa6Zf\xd7\r\x99\xbc\xd0\x8eWm5C\x01b\xdd\xdd\x84\x97\xb7+\x8d.\x11\x8em\x91H\xb0ER\xc1\x15\x16\x99\xa8\xc1\xf0\xe7\xf2\xb0\xab\xf9\xbd:r\xd3\xdd\x83\xa7\xdc\xe2q\xbe_\xec&gt;K\x83\xf9\xde\xf9|\x9eW\x0f\xe6\xd7\xd6\xfc\xff\x00\xcf\xb8\xba\x9e\x98|\xab\xa0OI\xe3\x17y\xb9\x8d\xe9\x9ek\xae\xd3\xde\xbb\x0f\x93;\x06{\xec^\x17W\xd9\xcbr\xff\x00[rw\xd3\xf3\xa8\xeex\x7f?\t\xba\xd2\xf5\x92u^Y\xe8\x9et\xa4\x83\xac\x18\t$\x94H\x86\xb4\x19\xe4\xea\x18C\xd47\xfa\x8e\xbb\xfa\xff\x00\xc8\xf4\xafy\xe6\xf0\xff\x00\x8a~\xef\x9d\xf9\xbf\xeb\x9f\x91\xff\x00Y\xf0\xa3\x07\xfd?\xcbg\xae\xda\xefzL\n&gt;&gt;6\xdb&gt;;\x0bN\xf3E\xa2\xba\xde\xfb\x07\xcd\xf0\xfa=\x13\xb4\xf0F\xdb\xdc\xd3\xc3\xce^\xdf\xc9\xf9\xfb\xf6z\x84\xf3&amp;\xd3s\xbe\xe2_\xb3\xb5^@\xc7Q\xcbX\xddU\xb5\xaf\xd1C^\xd5S[b\xe3\xd9sY\xb9\xdb\xf2/\x8fgaG2\xf3H\xe5\xfa\xf8C\x96\xb0&lt;#\t \x92":o3\x97\xd2\x04\xa2\xa0\xf1\xe9\x00\x19\xad~#t\x15E\xf3j\xc4\x15\xe1h\x8b\xce\x882\xb0\xc3\x1b\xfe{\x16$\x12\x92\xaf\xce\xe8l\xcf\xda\xfc\xfdb\x99\x8f\xea\x9c_\x8ev\x1c7\xe7\xfbQmwy\xad\x98\xd9X\xbd3\xb4\xcc\xd3\xec&lt;\xdd\xbb\x1e\x93\xcc\xbd+\xa62\xb9\xbfM\xf3k5&lt;\x0fQ\xc9K\x99\xddy\xc7]\xe9\xe3\x93\xb8\xe3\xbbO\xa7\xcf\xd1\xb1\xf4\x9d\'\x9f\xec\xf1\xbe9\xed\xbe+\xc3\xe5\xe3\xfa\xa7\x95\xfb\'\x1b\xc8q{\x9d&gt;\xe4 \xb2H$\x92\x04\x89Z\xd9\'\x93\xac!\xeb\xd5\xb68\xb9\x1f\xd3~o\xd7\x9bo\x90v\xdf\x8c\xfb}o\x93\xf4x\xff\x00\xb3\xf9\x1a\x8b\xb6\x13\xbf&lt;,\xabo\xeb\x9b\xf5~\x8b\xc0\xf8\xf9\xd5a\xb2wFb)6\x01\xa3\xd1u\x83\x119\xdb\x19\x08\xcf[Kl\xad\xe9\xda\xb3\x8by\xa5\xaa\xd6\xa5\xa5\xc8|W[\xda\xa3\x17=LZ\xd5\xb4\xb6\x9a\xde\x1c\xabC\xc0sL\x0f\x90-2R\xc5k\x8cr\xda_\xbc\xc9\xf9\xd3D\xfdU\x1c\x9c\x8e\xd7\x17\xa2\xd4\xe5\xa6\xc7\x06\xdd\xde?5\xb2\xc0t\x1c\x95\xe7Q\x9f\xe5\xb6b\xf5|\xc5\xdaN\x8a\x83N\xda\x11\xa4\xa9\x89\x9f\xc3\xfc\xfd\xf7\rJz\xb3\xe4&gt;y\xe9^k\xf0z\xd6J\xf9:e\xd2V\x8d\xf8\xe0\xd9m9+5\x9fP\xd6\xe0\xf36oy\\\x8c=L\x9d\xef;\xb6\x96\x8fD\xf3oI\xfa|\xf3\xbb\xcf;\xf4\xa9\xf5\xb8?\x1f\xf6\xff\x00\x1c\xe1\xf2t\xde\xe7\xe1\x9e\xd9\xc7^A\x88F\xf3\x0fE\xb08\xe3\xbd\xd1\\\xc9 H\x95\xad\x92y:\x9c\xbcM\xafy\xe9\xd6W\x97\xfd\x17\xe7\x06\xfa?g\xfc\xbb\xd5\xf3\x06\xc3\x07\x13\xfa_\x9f\xa0\xc3\xd6\x9fT\xd96\xbd\xf9\xde\xd3\x98\xec\xb3\xfe~|\xf5\xbd\'\x0b\x9fN\x10\xfaV\xef/\x1c&gt;\x9b\xae\xb7\x83\x7fp\xce\xf3\xbc\'/\xd7\x19&lt;\x7f+\xd9\xf4\x92\xf0;_R\xd0\xf3y\xc6\xe33\xab\xe9x\x9d\xd5\xd9&lt;\xe7!\xcd\xf5\xdc\xaf\xd2\xd28\xb3\xb0\x16q,\x96,q`\xbdf\x93;\x97m\xbf#\xd0\xd7\x9di\x8d\x8d\xdb\xcf[Z\xd1S\\R\x86\xbd\xaa\x91\xbe\xd6\xb3\x88rKX\x87$\x98\xa35c\x14e\t1M\xf9\x1dZ\xe4\xc9\x1e{B\xe4\xaeT\x0b\xc5Q,\x12\xd4-\x18V\xb6L\x94&lt;\x96\xbeC\xb3\xc0\xf3\xdc\x99Vg\rx\xe7\x99{\'\x8e|&gt;\xb4\xa4\xbf\xc3\xd6\xb6\xed)\xd4\xe3+\xf4\xfdv\xf3\xc0\xb7k\xce\xd9\x85\x8b\xea\xdb\xd9|G+\xd0D\xbee\x9d\xd5l\xec\xf3\xbfG\xaf\xa9\xf4Jw\xfa\x9dW\xbf\xd7\x99\xe5&gt;\x8f\xe7&gt;O\x16\xaf\xd5\xb8\xdd\xbf;\xe7\xbd75\xdak/\xa5\xdc\xfd\x03\x1e/\x8b\xc9\xf4u\xc3\xc9\x19$J\xd6\xc9&lt;\x9df\xff\x00A\xd4\xfd\x0cw\x9e\xbd\xe4&gt;\x8f\xee\xf2\xfa~GW\xa1\xff\x009}/\n\xe3\xde\xaf\xf4\xd7\x82\xc7K&gt;\x84\x16\xad\x9a{\xc6\x97\xc9\xfa_\x1f.\xce\x8f?\xa3\xad\xeeo\xe0N\xafi\x81\xcf7GB\x9aF\xac\xecz\xec\xd8Y\x1fJ\x1e\xf3OU\xacUk[\xb5-i\xc9\x1a\xc2#\xd8\xc2\xb35\x92\xc8\xcb\xb8\xb7L\xd3\xbe\xd2\x8c;u\x86`\xceP\x92\xb1\xd5\x86\xdck2\xdc\xe9\xa6\xb9\xad\xbc\xaes\xd3\xc4\x19\xae\x10a`\xadqm\xb3\x1d6yS\xf9\xaa\xaeN&amp;k&amp;\xea\xaem@\xdd\xe6rr\xcb\xb6\xd3\xddH\x01$8\xa2\x11\x8b\xc3\xf7\\GO\xe2\xd5~%\xed~m\xe2\xbc\xbfA\xc7\xe8&gt;\x7f^\xdfY\xcb6\xe7s\xa1e\xb9\xdb\xcc\x1d\xdc\xbc\xc8\xddnS\xcf.\xc8:b\xec\xba^S\xae~\x8f\xf0?\xad&gt;V\xe1\xbe\x8bk\xc0\xd7\xf5\'M\xe7\x9e\xab\xe3\xbel\xfbg\x95{G\xcf\xf9\xa9\xe9\xfea5\x9c\xae\x9b\xa3\xd3\xc6\xaf\xba\xd1pvW\x01\x0c\x92\xcdp\x87\xc9\xd6v\xbcW\xa1}\x8e]!\xb2\xcf\xdbx\xb7\xda\x8a\xec\xf0\xe9Y\x9f\xd9%\x8a\xf4\xce\x84}\x86\xbe\xce\xb9\xee\'-_\xa7\xcc\xd5uz\x1f\x07\\P\x87\x9f\xa2\xc6\xad\xb9\xad5\x1ck!\xa8|\xcb\x9f\x1e\xc9nz32VM\xea\xe9[mn\x1afY\xba\xefU\x83\xbdv\x05\x83C0\xe89\xb4O\xb4\xd6\xb5\x18\xbd+\x97\x95Y\xa4)c\x0b\x1a\n\\B\xc7X\x1d\xb7\x17\xbf\xf3M\x8e5\x9a\xce\x0e\xd3M\xcd\xe6\xe1\xe8|\xbe\x93P\xbdF.\xb7U\xb7\xa7\xe2\xf1\x9aLN\xd7\xa9\xf2J+\xa8\xe4\xb3\xb0z\xe8+\x9dj\xb2\xc6J\xcd\x925\xfc\xd7m\xe6&gt;=\xf6^\x1b\xf4\x07\x85\xf9\xaf\x19\x8f\x93G\xc6\xefUOW|z&amp;\x07\x1a\xb7=\xcbp\xec\xbd\x8e\xbf\x9f\x91\xd4Q\xcf\xcfN=S\x8b\xd3t\xb7?\xa3\xdf\x1b}\x87\xe6\xdeN\x9f#\xa7]\x81\xf5~\x93\xf9/s\x81\xe4\xf9}\x1f\x94z\x1f\x9ef\xc2\x0e\xf3\xb0\xe8\x0b\x8d\xa6\xd8k,\xd4\x1c\xed\x81\xa1=.\x86\xcd&lt;\x07\xc9\xd6zo\x99z\xd7\xe8|\xfb,\xacO\xa3&gt;\xe7\x93\x90\xf3\x1f\xb0\xbc#\xe2\xe7\xc9\x9e\xbb&gt;\x97\xac\xdfW\xa0\xf3\xbc\xb5\x9e\x91\xa1\xf3\xe3\x98\xdd\xfb\x17\x93\xf3cl\xbb=\x8f7\x96\xaf~:4\xb5t:\xa8\xb3\x1e\xec\xa8\xd3\xed\xe6\x06\xd9=/\x98\xee\xeb?\xa4\xe31W\xd21\xbc\xeb";\\\x1e\'/\xa3\xba\xdd\xf9\x0eYf\xb1\x9f\xd9U\xcb\xec\xac\xf6\x15X\xefK\xb4\xdc\xdd\x8fn\x87\x07\xb1\xd6\xdc\xe8\x9b"\xce\xde&lt;c\x95\xb9\x98\xe7\xdf)\xba\xef\x08\xe6\x94\xc19\xb2\xb0\xe6i\xac)\x9a\x13\x0cf.\x98\xc3!\xab\x18e\x8e\xb3\x04e\xd3\xe6\xd5\x02\xd5\xe4\xacZ"\x89`\x8a\x83\xac\xaa\x18@hac\x89W\x8f\xec\x97\x8d\xe3\xb8u\xea&gt;\x07\x7f\n\xa3q\xa7\xf8\x9e\x8aq\xf2k\xeb\xce\x97\xc9}\xcc&lt;\xad\xd6\xc7\x97M\x1e\xa7i\xa7\xd4\xc8\xb6\x8c\xaf\xa1\xc0\xf7\xdc?\xa9\xf1\xbfnfk:_6\xbeM\xf2\xcf\x7f\xf9\xcf\xea\xfd\rgM\xcdw\xbf;\xc1\xe4\xd4i\xbb\x1e\xdc\xf0\xad\xcc\xc5\xac\xdc\xaa\xb1\xeb\xaaNR\x83\xaa\xb3\x03\x9e7\x1a\x1d2\xd9\xae\x92y:\x1ff\xf2/a\xfd_\x9a}\x0f\xf3\xd6W\xd1\xf2}k\xf3V\xb3\x0f\xcd1[2\xcfW\xa3\x0f*\xc7\xd1\x92\xebu0\xcek\xd6\r\xb9\x99\x1df\xbe\xdd\xb2\xfb\xf3\xae\xb38\xe1\x89f[\xf4\x98\xfdF\x92\xedr\xc6\xa7\xb4\xb7\xc9\x8e)\xb7:\xe9\xe8\xa1\xef\x1c\xb6\xac\xcf\xccE\xf5\xf4\x82\xc8\xfct\x1c\xb2\x06w\x949m\xc5\xb5]Y\x96\xcd\x8d\x8b\x99\xd3\x1b\x1dt\xc5\xce,j\x9b\xa7kZ\xb3\xcd\x02\xaeV\x9cs.L\xa1\xb1Y+\xaf+\x8e42f;f\x9a\x9f+\xcbu\x83s\xae\xe5q\x86\xf7Y\x86\x1a\xf4\xd3\x0eY6\xd7\xcb\xcf\xce\xc2\xbenL\xf6y|\xdc\x02\xb8\xde\xc1\r\x97\x97\xe5w\x9e?\xe1\xdf3\xca\xfa\x07\t\xf1\xbb\xe1\xd9Q\xce\xb2\xe5-\x8d_eV\xf1\xebF\xb3i\xa8\xf5y\xf22\xb0\xf3\xbd\\2\xfd\xd7\xc4\xfe\x92\xf4c\xe8m\xfe\x83e\xe3\xe9\xe4\xbf+}7\xf3G\xb2al\xb6\x9ee\xe5\xd6\x9c\x83\xdb\x98\xef\xf8\x19^\x90\x9ew+\xb5\xa7\x91\'E\x89\xa9\x88H6kL\x9eN\xbb/\\\xf2\xff\x00R\xfd\xb7\x92\xcb)\xed~\xc7\x9b\x99\x1b\xceoW1\xf1l\xe5\xbc\x86\xc4\x86u\xb86\xe2\xe6\x1ca\x19v`\xbc\xbb\xfa5\xd6z\xf1\x9c\xd4n&lt;\xfa\xd75\x1d\x16\x1a\x96\xde\xcc4\x96d[\xab\x99fN\xa7\xc9\xcf\x0cw\xab\xcb\xaf\tg[\x85n\x85\x94\xfa\x12\xc5\xb3\x9d\x8d\x1dV\xc8\xe8\x1d\x9aiY\xbb\xde3\x84}\x8e\x0e\xe8x\xd4\x18\xb1[\x93\x05\x8c\x84[A\xd4&gt;&amp;G\xcd&amp;v\xabhK\xb5\xba\x88\xeb7\xfc%\\\xddF\xa3@:;\xec??\xd8e\xd5Y\xc4`\xd7\\\xdc\x96&amp;\xde\xb1\xa0\xe1S\x17\xd05\x1c\x95\xdaz.\x17\x9eL\xbb\x8c\x8f?j\xaa1\xef\xaa\xe5\x86*\xf2\x9f[\xc3\xe3|\x9b\xce\xfa\xbdo\xe7\xfb\xf1"\xdc_&gt;\xf2\xde\x9b\xb9\xf4\xb6\xdam\xe5\xd2j64zxY\x94\x99^\x8e7}m\xf2g\xda^\x9cz\x16\x9bq\xa2\xf2o\xcd~y\xf6~G\xbeu\x1e%\xdbq2\xc9&amp;\xb2H\x81\x80\xd4e6\x12 H\x89\x81$\xf2\xf5\xeb\xbd\x13\x85\xee\xff\x00\xa0\xf8z\xbf\xa4\xfez\xf6/\x8f\xe1\xd0\xf8/\xafy\x0e\xbd\x12\xc0\xde\xafS\x10\xf4\xfe\xe5\xe1\xdd\x07\x9f&gt;\x87\xd0y\xc6?\x92z\'/\xab\xc0\xe8\xf4\xe9\xe6\xa3/o\xf3~N\x8e\x97\xd1z\x0f\x1b\xcb\xb7\xd37\xde$$\xf6j&lt;\x8d\xf4\xf5\xfes\x86\xb3\xa3\xd5\xe9\xf3t\xafD\xc3\xe3,\xda\x96\xba\xcfj\x87\xb9\xf4\xa4\xee\xf6&lt;x\xf2\xd6m\xf0zt\xc7\xb2\xec\x8d\xef\x0e\xde\xafo\xe6\xf6y\xeb\xf5\x9a\xae\xd8\xd5\xb5\xe7\xaf\x93\x1d\xef5\x8er\tC\xd8k\x1edJ\xa6\\*\xa3hJ\xd2\xf1\x18\xf2\xe1U\x06\x12\xaaYO\x96\xaa\xc5\xf3\xd6EL\xdb\x16\x95\xc2\xf5\xa13rW\x159\xdc\xd1\x833s\x86\x12b\xec\x1b\\2\xd8Mh\xc5\xe5\xb4\x1e\x89\x95\xf1\xfa\xfc\x9d\xaa\xedx\xaf\x1e\xdb3\x0e\xc8\xcd\x98C\x1d\x1e\xfa\xb2=\x1c22q\xf3\xab/\xed\xbf\x8c&gt;\xd9\xf6s\xdfj\xeb\xda\xf8z|\xf1\xc2v\x1f9\xf6ka\x9a\xcc\x92!\x92\x06\x03a\x80\xd4 \xa4 \x98\x12\x1f/_E\xeb\xb9\xee\x93\xfaO\xcf\xc8\xec\xb8\xb7\xe3\x8d\x86\xae\xfbu\xba\x1f*\xbe\xd6\xb7y\xc2\xb3\xa9\xc2\xd7\xa8\xe6\xdff+\xe1\x95v\x03\xc6\xedpS\xe8cgf\xad\xb8kmf\x95\xb3wm\xa4~m\xdb\xe8\xdf7v\xfa\x16\xe5w\xb6h\x0eo@\xdc\xfbso\xce\x8af\xef\x9fGg7U\xb0\xe1\xac\xf2s\xed\xa7\x18\xdc]\x96\xa7L\xce\x9b\x06\xc0k\xd7:b\x1c3F1\xe7r%\r\x85\xc2\xa9\x8dZ+\x18X\xb0f\x91&amp;\x01\x1d%Ud\x80\x19`#\xa0\x81\xd0Du\x15\x1dDV\n\x92\x11\x0cQ\x84"\x99\x02\n\xc4\xc2\xccc\x81\xf0OP\xe439\xa2\xc2\xc2M\x83d\xa7\xb7\x1e;\x99\xd0\xe8k\xa3\xfbO\xe3\x9f\xb1\xfd\xfc\xb9M\x9f\x9d\xef|=&lt;\x03\xc6\xfb~\'\xac\x84\x12I\x12\x19\x08d!\x12\x8c\x92\xe4\x91\x0c\x19\x1b\xcb\xd7\xd2\xb3q.\xea\xc8\xb2\x9b0\xb5\xd2\xccV`Gz\xee\xb4\xda\x96L\xbb\xa9Wtz\xb2\xc4\xb1\x1e\xc4u{+\xb0vWGt{Z\xc5a\xad\xae\xd8\x96#U\x8c\xb6!\xb1\x19Z\xc4q\x9d]\x0b\xab\xda\xe5\\wK"44H!!\x80\xe1\x85\x0c\xa4\x06(\x92R\x86\x02\xa3\xa8\xa0\x81Q\xc2V\x96*\xd6\xac\xa8\x8a\xca 1T@\x05e$X3VFX":\x85\xd3\xf0&gt;\xb3\xabO\x96\xc7O\xce3\xdet\x1e\xbb\xec\x18x\x7f\xd1\xfaK\xf9\xdb~`\xfa\x7fi\xa9\xf2\xe7\xadz\x97\xcb^\xac\xf6\x1em\xec_\t\xf3\xa1$\xeb$\x902\x00\x91\x10\x91\x03\x01\xa3$\xb9\x90\x83\x0b\'\x1bc\xe5\xed\xdf]M\xf9\xb6Z\x97!ub\xc6V\r\xa9e\x8fj8\xcc\xae;\xa3\xdbe\x95\xda;\xa5\x83:\xd8;+\rj8\xec\xb6\x0c\xe9e3+\x8eC\xda\xec\xac;+\x160dg\x04vG\x1a\xca\xdcfV\t\x0cB\x19K\x08\x80\xc8\xa0\x10\x8a`P\x18P\xad\xd1\x00dUR\xa8\xa1\x91UJ\x82\xb7@V\xea(\x00\x82)\x00\x035N4X\x06S\x0e\xd5X\xbe{\xe2\x7fR\xfc\xe4\x9fe\xee~\x10\xe89\xbe\xd1\x1f\x1b\xeds&gt;\xa8\xd9\xfcw\xb6\xde~\xb6\xf9\xff\x00\xd6\xfcG\xafG\xf9\xd7;\x07|\x8c\x90\x84J0\x12\x11\x10\xc9(\xc0h\xc0bI,\xc2\xdc\xe9\xfa\x0f\'^\xbe\xear"\xdbk\xb86\xd6\xe1ujk\xabr\xd7\xaa\xd4f\x8e\xa6\xc4\xb6\xd2\xe9j;\xad\x83X\xae5\x95\xb8\xf6%\x81p\xf6\xb3\x02\x96\x15a\xedF\x1d\xd5\xad6+\x86\xc5tf\r#\x11e\xa5\x92\xc0\xc2\xcadb\x11\x10\x99\x08\xa5\x85\x92R\xc9\x14+\xa2(+\x11\x1e\xb0-\x89H\xac\xabZ\xba\x15\xab\xa0\xaa\xca *\x00@\xa0\xa8\xb1\xa0\x18\x10\x14\x85\x8fS\x16\xf1\x1d\xaaK\xc6i\xb6\\\xf6 \xdda\xdf\xb9g\xbcxO\xa5\xc9\xb9\xc2\xda\xfc\xc3\xbb\xc4a\xc9\xacHE\x19%B\t$\x81\x92Y\x08\x81\x92\x04\x18\x98]W-\xd9\xf9z\xefo[\xa2\xd7K\x03`db]K\xad\x94\\25\xb5\xda\xa6\xd4\xb6\xc6\xb1lR\xe2\xc2X\xae;-\x81uq\xacK\x061\xc2\xe1\xeaX\x96\x91\xe3\x0f#\x91\xe1\xb2\xc3]\xb1,\x0fle\xb0\x8e\x0c\x19\x1a\xa40\x04\x85!\xd4\x01\x80\xa1\xa2*\xba\x8a\xa6\x15\x8b)\xa1\x19\x01U\x88"\xb2-q\xab\x020\x11\n\x81Z\xb0\x10\x02\x80\x90\xd6\xa6B\x86\x03\xd6K^\xb2\xbeI\xa4\xc7\xeb\xfd\\\xb6{\x1d\xb3\xf9\xef\x87t\xf8\x1e\xa3\x8d\xe5\xfc\xc9\xf5\x07\x87}Lp\x92O\x9f!\x90\x92M!\x90\x84B\x11\x10\xc9(\xc0jHS\x0b\xbe\xe0}/\xc9\xd7/"\xab\xe1\xad\xaa\xc1\xec\xad\xcb\x1c0^25\x88\xd5e\x8a\xe3\xda\x96CZ\x8fk\x95\xb5\x0b+\xd3:\xb4\xb6:=\x1b\x03\x92\xd5ewV,)`\xce\xae\x86\xc4{K\xa5\x88\x81\xeb\x8c\xbb*\xb6\xd6d\xb1\x1a\x023)\xa6\x10\x8c\xb0\x90HI\x140,\x15\x0bEY\x08\x85@\xac\x15+\xb1)k*\x04 U5\x80\x1a\xc8\x86\xb2(\x03(R\x94\xb9G\xb6\x82d\x8d?1\xdb=\xee\x9b\x86\xf6_f&lt;\xb3\xce;\x1fW\xe3z\xad.\x06w\x8f^\x11\xf4_\x9dsZt^!\xea&gt;\x9b\xd2\xfc\xaf\xaf\xfb\xc3\xc4Y\xf9\xe9\xbdO\x88\xe8\xd2B9HD\x0c\x900\x14\x92@\xc9\t$\xac\x7fO\xf3\x9fF\xf2t\xbe\xc5b\xd7\xae\xd5k+\xb5\x97t\xb1\\\x82\x96\xba\xb5\xb6\xb2\xbaZ\xd5\xdb\x0e\xf5\xd9m\x8c\x8e\x8e\xc8\xe3YU\x8bk#\xd5\x8c\x8e5\x95[-\xadU\xb4\xce\x8e3+\xa5\x85Yl\x89e3H\x96YSKiFG*\xd6\x92 \xe2\x10\x19\x02\xb2\x10\x11`\x91e\x80\xad\x91$\x14\xa8\x14\x15\x02=j\xa0\xa9Pz\xe9P\xc1\x14\xa0\x11\xd0V\xeb\xfb)&lt;\x86\xefU\xa8\xf3\x1b=\x19O?\xab\xd0e\x9e\'\xa6\xfa\x08w\xcf\x91w\xfb\xf9\xc6\xf8\xdfw\xd3\xa9\xe5\xbd_O2NG\xb1\x12\xf2\xf4u\xda\xf3K\xd5\xe8M`kz9\xd9\xc1k=9\xf9&lt;\x9f\x13\xd9\r\x9e%O\xb9\x83\xc0\xf1~\x855\xf3\x8e?\xd2\xad\x1f/r\xbfex.\xa7\x8e\xc973;\xfe/\xb4\xf2t\xb5\xd2\xd5vK\x0b\x19mCbX;\xab\x8fb5\x8fev\xab\xba1k\xd6\xc9c#\x8eU\xae\xac\xb2\xa7K\x1d\x18{j\xb1]\xd4\x96\xb5nX\xe8\xc9c#\x162=\xae\xf5\xb1c#\x165lXQ\xecv\xa9\xa5r\xb2\x9d\xab28C+\x1a\xe5\x8e\xa1-h\xaaYZ\x81\x95@\xf5\x00\x84 WEA\x90-EU T\nD\x0c\xa8\'g\xd4\xf2=z*\xc5"=b\x95\x11\x04\x14\xca\xa2\x1db\x86$\x1eVC\x85\x95\x8a`\x14%\x86\xb2k\xf6\x8a\xc1*j\x15#+(JBy\x07\xafy\xbe\xa7\xcd\xf2N\x99\xe8\xba\xad\x1e\xf7\xc9\xd5\xad\xae\xc4\xb5\xd1\xc7\xb1]\x1e\xca\x9c\xb2\xda\\\xb5\xeaz\xb5\xeau\xb5\xe9\xb2\xadj\xdeKZ\xa6.(n\xadz\x98\xb9\xea\xb0\xb1\xebt\xb2\xca,[^\xa6.z\x8a\\\xd5\xba\xd8\xf59c\xd6\xc5\xadS\x16\xb5d\xb6+S5lY\x10\x17\n\x98s\\F5\xca1D2\xaa\x8c\xaa\xb6\xb0\xa5R\xc1R\x17%U\xdbx\xa6\xb8\xbd(R\xf5\xa1*\xf4\xa9Kk\xadGJ\xd4\xed{.\x13\xb8d*\x81\x94 \xca\xb0\x81V\x1c\x01L\x15F\x95\xac]*\x85\x98\xf6\xd2j\xd9\x18\xb2\x97&amp;e\x00S\x14\x05\xb1\x08\xe1H \x84\xe3\xba\xfd9\xf2\x1c\x87\xae=\x07,\x1f\'K,\xad\xec\xb1\x91\xcbZ\xa7[^\xb7Fua\xddm\xa3b1e\x95X\xafen\x8dj8\xd6#\xdd3\xa3\xc8\xce\xadk\xbdn\x96\x94r\xc7\xa9\x96\xc6R\x96=n\xb6=LYm\x0c]e6S\xb2X\x16\x06\x0b\ta\x80\xa9\x02Q\x00\x04\x05K\x11B\xb2\x00\x14(\x1a\xe2\xd2UebV\xf5\x08\x86\x90\xa2\xd6\x96%H^\x94)x\xc6C-qB\xf6\xfd\xff\x00\x9a\xfa;!Ua\xd1\x16\x8c\xadK\x050\xb6V\x0bU\x00eF-D\x85\x8a\xa0\xd6\xca\x9e\x9e\xfd~\xc6\x10Vj\xc8\x84y\\.\x95\x91\xeb\x004Z#\xe3T\xd9k;g\xd3,\xd4\xb7\x97[\x83\xa9\xb2\xb6\xd6\xe9\xec\x97l\xfa\x8b\r\xbd\xda+kuf\x8d\x8d\xed\x9a\x0b\r\xe5\x9a&amp;M\xebhYw\xad\xcf\xb1\xd1[\xcc\xb9\xd375a\xd2\x9ej\xe3\xa2nv/H\xdc\xebY\xd2?2\xc7L\xfc\xcb\xafKg2\xc9\xd376\xcb\xd2Y\xcc\xb9\xd1\x9ez\x1d\x1d\x9c\xd3WOg0N\xa1\xf9[N\x9asltm\xcd\xb9\xd0\xce|\xa6\xf8iDn\xe6\x96[\xb9]L\xad\xa0\xd6\xb4g.\x1e:l\xd3\\\xa6\xce\xbdx\xac\xf4\xc4\x0b\x91ZWO\\@T\xeaS^B&amp;2e)\x88\x9b\x1c\xe9m\xf4\x1e\x03\xbb\xb9*\x8b\x0fZ\xa52\xa2\x8c\x10\x17J\xa0\xe0 \xc2\xa9\x17J\x81r\xd6cZk\xabL\xb6D.\x95\x12\xd6\xa4\x96J\xd8\xb0\xd0KUA`U&gt;_\xe6;\xae\x17\xa6R\xdfA\xcd\xe1\xbf3&gt;\x9c\xe7\x97OTx\xf2\x89\xea8\xd5\xe7\x13\xbf\x07\x04}\'qg\x8f\xcflu\xf1\x13\xed\xeexi\xf7V&lt;$\xfb\xd4\xb3\xc1g\xbf2\xf8\t\xf7\xf6&gt;~?A\xb9\xf3\xc9\xfa\x1c\x9f&lt;O\xa2\x9d&gt;ro\xa2\xdc\xf9\xc0\xfd"\xeb\xf3a\xfaM\xd3\xe6\xa9\xf4\xb3\x9f3\x9f\xa6\x1c\xf9\x90\xfd6\xf5\xf3\x14\xfaz\xc3\xe5\xe6\xfa\x81\xa5\xf9v}H\xd5\xf2\xcc\xfa\x9e\'\xcb3\xead_\x97g\xd4\xd0\xf9h}N\x0f\x96G\xd4\xd1&gt;Y\x9fR\x05\xf9r}E\x0f\x97G\xd3\xe0\xf9\x80}:\xb5\xf3\x1c\xfadI\xf30\xfaa-\xf9\xa9~\x94H\xf9\xb8}\x1f\x8e|\xf0&gt;\x89S\xe7\x81\xf4\x1dU\xe0\x13\xdfj&lt;\x19\xbd\xd9c\x99\xfa\x13\xcd\xbd\x19\x90+\x92\xb5f\xa1\x80Z\x92\xb2&lt;\xae\x16 P\x15\xaf+\x85R\xae\x94\x83\n\x8b+\\\xda\xa8k.5\x1a\xb5\xa91t\xac\x16\x1a\xc8\xf1\x08\xe1!\xe1\xbea\xed\xde[\xb9\xff\xc4\x00A\x10\x00\x02\x01\x03\x01\x04\x06\x08\x05\x03\x03\x03\x05\x01\x01\x00\x01\x02\x00\x03\x11\x12!\x04\x131A\x10"02Qa\x05\x14 #@Bq\x813PR\x91\xa1$`b4S\xb1\x15r\x82C\x92\xc1\xd1\xe1Tc\xff\xda\x00\x08\x01\x01\x00\x01?\x03\xfe\xd8\xb1\x81`X\x16U_tcw\xbf\xbb,f&amp;c1\x98\xcb\x0f`A\x1b\xbaeN\xf7\xf7\x1d\xa5\x8c\xc4\xcc&amp;3\x11,=\xbcO\x84\xc4\xf8K{\x03\xa2\xb7\x7f\xfbn\xc6bf&amp;c1\x13\x11,;k\xdb\x84\xc9\xbfQ\x99\xb7\x8c\xde4\xdey\t\x92\xfe\x99\xd4\xfaL&lt;\x0c\xb4\xdat\xa9\xf9\x10\xfc\xc6\xd2\xd3\x19\x8c\xc4K\thu\xa2\xa7\xc3O\x84&gt;\x1e\xd8\x82+\x19\xb7\xdby\xa7\xe4C\x8f\xe563\x131\x98\xcce\xbb*Z\xab\xaf\xdf\xe0\xf8v"\t\xb7\x8e\xbf\xe4K\xf9\r\xa63\x19\x8c\xb4\xb7\xc1R6\xa8#\x0b1\x1f\x02&lt;{\x11\x04\x13\xd2\x1c\xbf"_\x88\xb1\x96\x98\xccf2\xc3\xe1\x12\x8dW\xee\xa3\x18\xf4\xd9;\xd6\xfd\xfd\xba\xdco\xe2&gt;\x00C\xd8\x88 \x9e\x90\xfc1\xf9\x12\xfc\x05\xa5\xa63\x19ia\xf0B\x14e\xe2\xa4}D\xa5M\xaa5\x96=&lt;\x06\xac\x87\xe8e:`\xa1\xa8\xede\x1aJ\x81/\xee\xcb\x11\xe7\x1e\x98\x1b=7\xe6\xd7\x81G\xaa\xb3[\\\xed(\x8f\xe9\xeb}\xba6+\xef\xc7\xd0\xf6\x07ZK\xe5\xa7\xc0\x1d4\xec\x84\x10M\xb4{\x8f\xc8\x97\x87\xb7i\x89\x98\x19Cfj\xa7\x8d\x80\xe2eT\xa6\x1e\xc8\xc5\x87\x8c\xc4K\x0f\x83\x1b=\x7f\xf6\x9b\xa3r\xde\xaf\xbe\xe5{J@\x1a\x8a\x1bAyJ\x80\xf5\xcd\xcb\xf0\xbc\xa3N\xd5\x9fx4\xa7{\xf4z?\xf1\x8d\xb8\xe0g\xbc\xa7\xb3T\xdf\xb5\xf2\xd1E\xef\xac\xd8\xad\x95K\xe87fT\x08;\x8cO\xd4J5J\x02\xb6VS\xc8\xcd\xa5P`\xc8\n\xe6/i\x89\xab\xb2S\t\xa9Rn%Ow\xb3\xee\xcfx\xb5\xfe\x92\x81M\xd5Dg\xc7+G\x08;\xaf\x97\xdaP}\xddL\xad~\xc15\xa6\xc3\xef\xdb\xf9\xf6\x82\t\xb5~\x03~D\xa0\xda`f\x1es\x011\x12\xc3\xc3\xd8\xd9\xe8\x9a\x9a\x9d\x14q3h\xac\n\xee\xa9iL\x7f?\x07\xb3\x00k\xd3\x07\xf5\x08\xdbC\xadv^\xae\x19wq\x9bR\x04\xda]\x17\x85\xe3\xd3\xfe\xb4\xd4\xde\x0b&amp;\xb6\x1cc^\xa5bG\xcc\xd0\x04\xdenw\xa9\x8e8[\xce\x10A\xb1\xe2%f\x1b\x8d\xf8\xef\xd4\\\x7f\xfb\x9bS\xa9\xa2\x19{\xd5uo\xb7F\xce\xe1\x0b_\x9a\x91\x16\xa7\xb9jL.\x0e\xa3\xc8\xca57d\xf5r\xb8\xb4w\x0c,)\xa2\xfd%:\xb5\x10YZ33\x9b\xb1\xb9\xediw\xad\xe2;a\x0fcCf\xc8d\xff\x00\xb4\xddQ\xee\xe0\x0c\xaf\xb3\xa8\x19S\x82,\xaa/I\x87\x97\xe4T\xfb\x83\xb0\xd9\xe8\xe7\xabh\x83\x89\x9bEl\x86\xee\x9fV\x98\xf8M\x94\x85\xda\x11\x9b\x803\xdc-M\xe1}\xe6\xb7\xc4\x08\xceZ\xa1v\xe2M\xe6\xfc\xfa\xd1\xae\x05\xb5\xe1\x15\xca\xd5\xcd@\x1e\x10\x13{\xc6%\x89\'\x89\xf8jz81\xc5\x98\x8e\xd6\xfav4FUTy\xcd\x05P9M\xe7[\x8c\xa5\xaezs\x9c\xccXxF\xef\x1f\xc8W\x87\xb7\xb3\xd1\xdejtA\xc4\xcd\xa2\xb6}D\xd2\x98\xe0?2\xab\xde\xec\x00&amp;\x04r\xd8\x857\x8c\xa5M\x98X\xcfWk\xb7YF&lt;o7\x0cQ\x9dH`\xa7\x94Z\x17\xc3\xad\xa1\\\x8f\x94\xf7b\xcc\xa8\xe4_\\\xb8M\xa17u\x99}\xb48\xb01Y6\x84\x04\x1df\xeb\xaf\x97?\x19\xb4\xd7Zt\xf7t\xcd\xcc\x11z+\x0bVo\xaf\xe4\x03\xdb\xd9\xe9\x1a\x8d\xe0\xa3\x89\x9bMl\x86\xee\x9e\x94\xc7\xf3\xf9\x90G&lt;\x14\x9f\xb4Z5\x1a\xfd^\x1cbPf\x17\xba\xe9\xe77#\x1c\x8dE\x02\xf6\x89EJ\xa15\x08\xcc\xd8i)\xd2\xbdVV:/\x19HR\xa9YT%\x86\xbc\xe52=]\x9bv\x97[r\x94\xf04\xf7\xb6\x19S\xfe|&amp;\xc8\x7f\x17R:\xbcD\x17z\x157e\x99\xb2\xfb\xdaX\xa5A\x98\xb4:5pp\xd5\x81\x19ASv\x87\x16\x19g}!\xda)\xe4\x84.\x98\x90\xc2gOw\xbaB\xda\x9f\x9b\x94\xda\x1f:\xcc\xc3\x87`.8\x18j9\x16,zGF\xd8-\xb4\xbf\xe4\t\xde\x1e\xd5\nF\xabXM\xa2\xa8\xc7sK\xb8?\x9f\xcbhR5r\x00\xf0\x11h\xfb\x86\xa8yp\x11\xe8\xdbg\x0f~\xb7\xcc&amp;\xe17\x88WQ\xa6b\x1fsIJ\x01v\xbe\xb6\x9dC\xb3!v\xb7X\xf0\x11\xf8\xd6\xef\x1e\xefw\x8c\xa4\x1bZmJ\xe9\x973\xc2&amp;*\xd5\x80m1 J.=_\x1c\xd5N\\\xc5\xe2W\xdd\xa2*\xebbo\x12\xa0J\xa4\xa8\xba\x9d,`\xa8\x88\xe1\xa9\xa7\x0f\x13\x03\x90\x8c\xbc\x9a\x06!J\xf2&lt;`$p\xe7\x06\x9c:\x18\xb1\xe3\xdaR\xa4\xd5/kD\xa5\x92\x16\xcci0M\xceYu\xbc:\x04\x1c\'\xa4\x07\xf5\x1fo\xc8)w\xfd\x9aHj6+6\x8a\x82\x9an)\x7f\xe4|\x7f.\xa4\xf8+\xf8\x9e\x10\xd7\xcb,\xc7z\xdc!\xdaX\xe5~\xe9\xe5\x05g\x15w\x8b\xa1\x8bY\xd4Xp\xfaFfn&amp;d\xdf\xa8\xcd{!\xe3\xda\x0e:\xe9)\xd1[iT\x9f\xa4\xdc&amp;6\xd7\xeb\nPE\xd6;dt[\x08"\xcfJ\x0fx\xa7\xcb\xf2\n\x1d\xff\x00aAca*0\xd9\xd3t\x9f\x88{\xc7\xf2:OMi\x8d\x06w\xe69J\xe5Z\xa9+\xc3\xe0\xa9\xf0o\xa7b!\xediSc\xa8\xd2":\x8bc\x7f\xfc\xa3l\xf9\x1f\x96\xfeQ\x80\x0e@\x82,\xf4\xafu\x0f\xe4\x1b?\x13\xec\x0f\xe9\xa9e\xff\x00\xaa\xdc&lt;\xa1\xd4\xf6\xc1I\xe0\t\x82\x9b\x92\x00Ss\xc2T\xa6\xd4\xcd\x9cZz\xb1\xb9\xbb(\x03\xbcO/(\x94T\x87cW\xaa\xbc\xc0\xe3)l\xd4\xdc/]\xfa\xc4\xdbI]\x14S\xa4\xc3\x98\xd7\xb6Z5\x1b\x82\xcfV\xa9\xe4&gt;\xf3\xd5\xfcj(\x8e\xa1Z\xc1\xb2\xf</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495484-segui-el-sorteo-de-los-octavos-de-final-de-la-champions-leag</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Brasil tiene su lista mundialista con Dani Alves y nueve delanteros</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>El entrenador Tite dejó afuera a Gabigol, Firmino y Philiphe Coutinho</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Con la presencia de nueve delanteros y el llamado a último momento del veterano lateral Dani Alves, el director técnico del seleccionado brasileño, Tite, anunció este lunes la lista de 26 futbolistas convocados para el Mundial de Qatar. La estrella de la nómina es el atacante del Paris Saint Germain Neymar, mientras que los ausentes más notables son los los goleadores Gabriel Barbosa, de Flamengo; y Roberto Firmino, de Liverpool, y el volante ofensivo Philippe Coutinho, de Aston Villa, aunque en esta caso por lesión.En una conferencia de prensa en la Confederación Brasileña de Fútbol (CBF), Tite confirmó los futbolistas que irán a Qatar en busca del sexto título del mundo. Nueve delanteros, varios de los cuales se pueden desempeñar como extremos, como Vinicius Jr, Raphinha, Antony, Richarlison y Gabriel Jesus, invitan a pensar que el técnico apostará a un esquema 4-2-3-1, con jugadores de neto corte ofensivo de mitad de cancha hacia adelante. De los 26 elegidos por Tite, sólo tres jugadores militan en clubes brasileños: el tercer arquero Weverton (Palmeiras), el mediocampista Everton Ribeiro (Flamengo) y el delantero Pedro, figura de Flamengo en la Copa Libertadores. La nómina completa la integran:Arqueros: Alisson Becker (Liverpool), Ederson (Manchester City) y Weverton (Palmeiras).Defensores: Dani Alves (Pumas), Danilo (Juventus), Marquinhos (PSG), Thiago Silva (Chelsea), Éder Militao (Real Madrid), Bremer (Juventus), Alex Sandro (Juventus), Alex Telles (Sevilla).Mediocampistas: Casemiro (Manchester United), Fabinho (Liverpool), Fred (Manchester United), Bruno Guimaraes (Newcastle), Lucas Paquetá (West Ham) y Everton Ribeiro (Flamengo).Delanteros: Neymar (PSG), Vinicius Junior, Rodrygo (Real Madrid), Richarlison (Tottenham), Raphinha (Barcelona), Gabriel Jesús (Arsenal), Antony (Manchester United), Gabriel Martinelli (Arsenal) y Pedro (Flamengo).Entre Rusia 2018 y Qatar 2022, Brasil solo sufrió una sola derrota en 30 partidos, que fue contra Argentina en la final de la Copa América 2021 en el estadio Maracaná. Los 26 convocados se presentarán el próximo lunes en Turín, Italia, y allí se entrenarán cinco días en el centro de entrenamiento de Juventus, antes de viajar a Qatar. Brasil debutará contra Serbia el 24 de noviembre, luego se enfrentará a Suiza el 28, y cerrará la fase de grupos contra Camerún, el 2 de diciembre.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x01\x02\x03\x05\x06\x00\x07\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf9\xa0\xc2!\xec\xf9\xb4^\xed\x19\x17\xb9$\xe8\xda4\xb1\xf0t\xab\xa22_+S\xcf\xeej9Q@\xe8\xe4\x824O\x82T\xbc\xa75\xed\x999\xcda\x0c\x04B.\x89\xe8\xd1l\xf2\x86\xf2\x87(\xf2\xb5\x12wtN\xe5\xe8{\x95$^E\x83\x95\xbd\x0fw,\x9c\xadX9\xae\xe0c\x8et\x86\t\x1f\xd0\xb6\x19`\x0c\xd9\x07\x94XD\xb18\xd34&lt;\xe9\x1a\x8eH\x13\x97\xa4\xe4^\x91\x9c\xee%\xae\xee\x13\xbb\xb8\x8e\xeeY\x13\xbb\x8cH\xe5@aI\xfa3\x1b,PF\xb1r\xdcS\xe3\x95\xa8N\xee\x83\x91zDE\xe1\x13\x97\xa1D^\x85\x11zD\xe5\xe1\x11\xae\xe8F\x1a\xc0e\xbcrE\x90Xj\xc5+gD^\x81;\xbaF\xc72\x06\x1aWpn\xe5B\xa9\xceA.+\xd3\xb3k\xeeFm\xc2\xe8c\x84\\\xf8\xdcH\xb1\x84\xac\x8d\x99\x17\xb8\xd6\xb3u\xb6\r\xa0G\xa5\xaa\xe6\xf4)\xdam\x8e\xfcTEj\'\xf3\xdd\xac\xcai\xd8\xf5\xe5\xc6\xd1V\xf6y\xb5}9}\x0c\x15\xee\xd1\x17\xc4\xeb\xe4\x19\xb2nMY\x04\xd2S\xf43\x07 \xf3\xf6\xf8\xb3J]\xb7#\xa3C\x1e\x9e\xbe\xab(\x9ah\x9d\xce;\x19,\x16\x07L\xdbNwDe\xd0?\x93\xb76\xdd,L\xb9\xc8\xaf@\xe9c\x05\xc4\x1e\xe9V\xcd,\xbc^\xaeK\xb5\x90-\x99\xc6j\xec\xbaxp\xf6\xfe\xabi\x8b\x7f\x95[\xef\x0c\xc9\xb3\xcb \xf4\xbdH&gt;\'\xde\xa0S/\xce\xa3}1S\xa7\x1f\xcf\xec\xf5P\xad\xa3\xcd\x1b`\x0fg\x8c\xd4rh\xa7\xbb\x96\x04\xe5\xe3\x11{\xa4l3\xc2\x18n^\x1a\x08\x9a)\x8ev\xf3\x92*r\xf4\x8d\xe5\xe0Q\x1c\x92"/H\x9c\xbd\x0bW\xb8DGt-\x8eV\x82\x14F\x8c\xba^@\x13\x80W1\xedBr\xf4\x88\x8e\xe1\x1a\x8eBS\xbb\x81\xe6\xaaB!@N4\xc9\x1cr2\xb6Yg5\xb2W\xf3gE^eNU\x10\x9b\xfa\x1d\x07\x9c\xefZ\xd1\xdfS\xf9\xce\xc0W\xf5\x97v"V75\x1fIa\x8d\xbc\xdd\x92\xe6\x9a\xf4\x1en\xca\x1bX\xedz8\xc9c\xa8\xf8\xfb\xacYA\xdd\xeea\xd4d\x87\xd3\xc9Xl\x16\x9b\xb3]\xe8j\xac\xbc\x07\xa7\x96\xa8\xe8U\xb3U\xd7\xb4\xde\xf7\xca\xc1\x14\xcb\xd3\xe6O\x7fQy\xe5\xbd5\xa8\xebM\xe5\xbb\x07\x11\x9a\xb9\xd3YUV\xe1_X6\xa3\xd80\x91:\xc3\x1e\xb0l5`h\xb0\xc3\xe85\xce\xf3R\xd4\xdeZ\x96\x00\xb3?&amp;\xb3!o3\xab\xe9j\x9cI%\xe6Ke\xdc\xcbSo\x91\xaa&lt;\x8b\xdd\xe5\xdd\x8f\xc0k}\xbf\xca\xbb\x1c\x8c\xe2\x17\x0f_\x89\x17/=I\xceB\x12\x02 \x0e2\xaf\r\x13\xcb\x1c\xa7?#\x90\xaar\xf0\x8d\xe7$\x88\x8a\xa0\xb5\x1c\xd8S\x98\xc0\xf3s^U\x11zD\xe5\xe1\x1b\x01\r\x8d^\xc3`M)0\xaf\x10\xc7C3P\x9c\xa9\x02r\xf4\x88\x8a\xc0z4\x88[\x19\x11\x96\xce\x1c\xf1\xc9\x01\x8f\x8eG\xc9\xdc\xaa\xca\x9c\xbd\'"\xf0$\xe8h/\xfc\xe7v\xe2\xa6\xde\xab\xccv\xdboQq&amp;{-\xac\xc9z\x1e|\x9a\x1c\xc6\x8f\xa1\x87Q\x01#\xf8\x9f@\x1d\x80\'\xe9\xaa*\x0b\xfaN\x86`\xcc\xeb\xbd\x99jC\xd6\xd3e\xd1Ad\xdb.\x8eC 8O\'\xdc\x1c\xd1\xec\x19j\xa8\xb5T&gt;\x8f\x93N\xaeo\xaa\xf36\x17T\xd7~c\xd2Y\x07g\x07\x91\xeeV\x17\xcf\xbd\x07\x06\xc4\r\x08\xb6\x00m\xf4\x90\xb4\x892\xeb\x9b\t\xb8\x81\x86CmS]l\xd2\x05\xaa\xa6\x16T2\xfa\xac\xb0W\xa4*\x1cXzQ\x98Q\xdaLY\xae\xf0f\xd3\xd74\xab\x8d\xd1\x08M[\xc9\x03\xcd2~\xd9\xe7\xfd~V\x19\xd2C\xe9|\x9b\xb9y\xeal3\xc2\x18tr\r\x04M\x01\x07:r\xa1T\xe5Q\x1b\xceH\x1b\xca\x80\xa4r\xc7\x18x\x9e\xc5\xd3&lt;\xd0Nj\xee^\x88\xd5\xee\x91\x11z\x16\xb2N\x04f\x16\xd1d3r\xc5\xee\xe4\x8b\xc9\xcc\r\xd0\xf4B\xeeo&lt;Y\xc7\x05aeA\xb6q\xa3\x1b8\xc4\xbee\xeeR\x88\xbc\xb2,\xb2Zs\xb7\x07|\xe3\xfc\x87\xa2Z{\\\xddW\x17y\x93\xd0\xb0\x0f)\xbc\xa9q\x91\xd2\xcbq\xa6\x92\x84:\x97\x91\xb1\xb64V}\\gS_\x8d\x83E\x05\xc7\x19\xaa\x99*\xee*\xf1h\xad\xb8\x16\xcbe\x04\xc3\rG3]\xe1\x19[K\x14\xea;\xca\xddt\xe6\xc6\xb1\x03\xdd\xf9\x03\xae\xe9n\xf8=\xbb\x1a\xabQ&lt;\xf7Z\x9a\xc1\x86t2\xca\x84h\xb9}\x16z\x14\x91k\xbe\xa7\x18]\x15\x8d5\xc8Zt\xd0\xebkMe:&lt;\xf4\x9fJ\xa53\x02Y\xbd\x1e\xd8\x05\x10\xa5]u\xacL\xa2\x89 \xcd\\Y\xed]!X\x8c\xa4\xb2j\xaf\xeds\x17h\x97\xb8oA\xa0\x8b\xe3x\xcfh\xf3\x0fG\xe7k^&lt;\xfd\xbf:\xb0\x91\x1c\x022XWD\xe4\x8aI\xa9\xdc\xbc\xd4\xa7*\x02\x9c\xa8b"\xf0)\x04\xb0\x07\x85\x8a\xab\xa2Y\xe3\x94\xd1\xc8\xe4\x8a\x88\xbd"#\xba\x16\xa2\xf0\x89\xca\x92r##=\xb0\xb0Y,-AkUd\x0c\xc9\\\xe3TF\xc0K\xd60\xa5\n.(\xa1\x0bj\x1d\xca\x86\xae^Y,ns\xb3\xf0{Z\x86\xe6\xc4\xe5\xf4-\xa8F\x1b\xb5\x8a\xca\xff\x00/d\x13a&gt;^n\x17KG\xd9\xe8\xebk\x9aQ\xc7\xefr\xa76\xa2]\xd8\xb4\xe6\xe4\xe6\xe0v5K\x98\xec\x9a4\x00\xd5E\xb3=\xd19\xf5i=\x01U}\\s\xde\xe6\xedl\xafW\x15Jq\xba\x1d\\@\xde\x83\x88m\xad\x198v\xea\x9d\x9bw\x9d\xec_\xf5\x04\x90\xea\xb6\xb4&gt;\x8a:2\x0bs\x96\xabM\x15\xab\xe7\xa7\xa0{\x822\xad\x9a\xdd\xef\x94\xb1\xe8\xf5/)\x1e\xa5\x84\xf1WF\xf7\x9a\xd1\xa2(\\\xd5\xc5@\xa6\xf5\x90A\x00\xb8\xa2\x89MY\xa4\xab\xb2\xb9m\xe9,N]\n,G&gt;[!\xb1\xa1\xd9\x97\xc6\xc8(/[\xe3\x8aj\xf5\x99\x07\x1c\xd1\xc5\xd0\x92+\xc5\x87\xa8\xd36g#\x92\x04\xee\xe9\x11\xaedh\xc6\x9ct\xba7\xc2\xe9q\xb2\x899\xcf\'"\xca\xd1\x1c\x90\xa7*H\x9c\xa8\x0f5\xc9#\x07&amp;\x11`\xadV.\xa7\xb9g\x88\xd7\xb9\xc6\x96\xa2\xf1\x13;\xb8\xa0\xe2\x188\xbeS\x06%\xa9^\xe55\xf7rH\xb1\xb4E\xb6Q\xdb$\xbd\tY\xcd]*)\xa1\xca\xce\x01\xdc\xd53\x958\x85\xee\xe39\xccp\x0b\xc8\x92;\x93\x8cUN\x92\x11\xcbh\xb0ry\xf0=\xccX\x8a\x88\xa6wr\x08\xf6\xf2+-\xe5\x16\xef.\xdd\xde\xab\x15\xae\xf2~\xd4\xba\x18\xab\xb2t\xe6"\xaa\\\xfd\x1d-\x95\x19@\x94\x14\xb08\x1e(a\xb5fH\x11\xe3\xd61\xa45\x12\x01\'\x9e\xb1\xe0X\x03\x1c t\xb5\xea\xc8S\xc3\x96\xcc\xd7\xa6g\xcd|Se\xef\xa1\xd1\x8f\xce1~\xab\xe5~\x83\xce\x92\xf8\xa5\xe9q\x12)V@a8q|S\x8e\xd8\xe7\xc8\x04\xb2\xa3\x12\x19\rJ\xd7t\x10\xc4J\x07\x02;\x08\xc5\xc1J\xb1\x0bJ\x98\t\xcdE":R\x88\xbd""\xf4(\x8a\x82s\x1e\x90\x869\xc1\xae\xa9I\x0c\xb2\x8fEIJ#\x90\xb4\xfd\x1c\x85\x18\x92\xf4\x88\xee\xe2\xab\xdd\xc4+\x1e\xc1\x06\x80\xce\x17\xc0C\xdekG\xa75k\xc8\xb0s\x9b\xc2r\xf7\x19\xca\x8b\x07/q\x88\xad\x8a\x19\x94Y\xa1\x91\xc8\xa5;\x91dUD\x91{\xb8N\xee\xe9\x15;\xa4\xee\xe4\x85y8\x17z\x1f\x9dz\x7f7\xb1u\xb4\xc9\x93\xe6}m|\r\x8f\x0fh\xe9\xeb&amp;K\xaf\x99G!6\x0bU-\x88TK5\xb5\xc5\xc5\xc6\xca+\xdb\x1c.\x84\x81AgE\x12\xd8`\xe3\xa2\x96\xb19\xab*`czo\xcc\xa0\x96\xee{\xeaoh\xb5`#\xc9\xfd[\xcc\xba\x9c\x81\xa6\x82n\xc7\x9dw"\xc4FH\x92\r\x01\xed\x16\xd70\xf8E\xd1\x91\x0c\x91HV\xb9\xa8NE\x91\x11xH\xa01\x81\xeb\x90\xb1\x86\x99\xa6\x02X\xa7t\x12J\\\x88\xa4r/\x08\x88\xbd$"\x1a \xd0\xc2\x85 4\xe8\xbc\xd9\xd1\x15\x01B\x07!\xe7/qE\xeeX\x11\xc8\xb0\'*\x90\xd5^3\x93\x92E^\xe9\x17\xb9`N\xee3\x95z\x0e\xeeQ\x13\x9c\x860B\x85\x16\xb0\x91\x88\x96\x12\xe6\xbd\xb2\xa2\xf2\xc9\xc9\xdd"\xb5\xca#W\xbaNG$\x9c\x8a\xb23\x9c\x90\xaf\xa7\xf9\x9f\xa3\xf2\xbb\xb6\x93\x0e?\x9d\xf5\x8d`Ra\xeb\x178\x13G^\x96\x07\x16%WXYY\xc6\x82\xcbj\xd1\xcdD\xe7\xa6\xecjn\x86\xe2!`\x8c\x05Q\xd0\xd1\xaa\xb1\x92\xc6\x8f\xcd{\x00\x8cb\x06\xba\x83\x8e\xa5&gt;\xfc\x08\xd2\xaa\xf5s\xdd\x83\xdac\xb7\xf3kf\x8an\xcf\x99Tr\x14N\xe5\x13\xbb\xb8\xc4c\xf8\x18:T%\xaeT\x819PD\xe7$\x9c\xd5\xe0Y\x11\t\x18\x08l ]\x03\xca\xd8\xc3\x92\xe1$\x8a[\xa1\x94\xd3\xdc\xe6\xc5`\xa4\x8c.\x8ax\t\x16M\xdd\xc7?"\xf4\x8d\x9e9Zr\xf2\xb2w/\x11\xdd\xcb\x07\')\x9d\xca\x86$j:\xd9&lt;\xa1\x90D\xaa\xd7\x1a\xf9{\x8c^E\x83\x95z\x04\xe5Y"\x14\xb1\x05\xd1\x121R\xc2\\\x8fl\xa9\xdc\xa0r;\x89j\xaf\x01\xc8\xe419x\x16\xf3\x92DTt+\xe9\x1e}\xe8\\\x8e\xf2\x0e\'y\xdf_)B\x1b\x8f\xa1!\xe0\x16\xb6\\H\x0e\x82\x1a\x07\xde\x8bj\x81eP}\xd5Y\xce4V\xd0H\x81\x90\x96 GG\x1e\xa8\x1bZ\xfa\xec\r\'mf\x11\x8c\x8a\x00\xdaC/\xaa)\xe2/F\x12\x01|z\xf9\xd0b7X\xdd\xdc\xba\x89Q\xfd\x8f2\xd5\xe5\x81;\x94\x84\xe5@S\x97\xa4o/H\xdeT\x919\xc9#UR\x16\xf3\x90DG$-k\xd0\x18b)\x03\x84\xe2\x90&lt;2\xf3\x8a\'wA\x1c\x05F\x1cI\x9c\xa1\xe4\xee\xe9_1\xf1Cr-\xdd?;|]\xce\xea\xf2\x9a\xab\xd2"\xf7\x18\xbd\xcaBr\xf1\x11\ntB\xd0$tCAr\x81,\xa8\xe5\x1aSL\x8a\x8e+\xca\xbcU9\xdd$B\x98 \xba\x12G$XK\x91\xcf\x97\x95x\x04\xe5\xe2S\x95DNrH\x88\xe8\xa3r@\x82\xc2\x9d\x1c\xd1\x08\xd7\xe4\xaf\xf8\xbe\x88r\xeb\xed&lt;\xe7\xaf:qns\xea!\xbd\xc8\xef&amp;\xa2[\x93@\xf1\xa6\xb0\x19\x1a(.\x12\xe0f\x02M!!D\x94\xe2\xee\xaf)S\xa7\xa7\xa2\xea%\xb2\x82\xab\x01\x19\xedec\xa2&amp;\xc4\x17\x91.\xceUq\x82\xee\xe4\xcb\x98\xd0f\xf7s)TVv|\xd9\xce\x0eR\xb3\xf3_+o9\x0cDwH\xd4z\x08\xdeU\x91\x9c\xbd"5\xc9\ns\x9b\x0f5\xc8"w,(\x8a\x82#d\x8e\x16\xa4m[\x08\xe6&lt;\xaa#\x92Fs\x92\x1e\xee\xe1\x12)\x9a\x1bSE\xa3\xa9\xf3\xdd\xc0x\x98=\x0f\x019z\xd4NU\x81;\x9cbr\xf4\x08\x8f\xe9"\x84\xb4\x8d]\x1d\x94"\xe0\xe5tq\xc9\x98\t\rv\x0e\x1esB\xaa\xf1V\x06h\xc2\xc1I\x18\x81q\xael\x8d\x95\xaa\xbcBr\xf4\x9d\xcb\xc2w/H\xc8\x08\x18X*\xf2\xae\x82H\x88\x83E\xb1\r\x8b\xcez\xe9\xac\xc4\x7f\x13\xd2\x1dUU_\x05\xfdK\xab\xed\xce\x91+\xedK\xedF\x0e\xda\x9d\x1e\x8f&gt;7K\x9f^\x94G\x8d,\x9b8~U\xa9\'\xb2\xb5w\xe6\xdb\x1d\xe5$\x14\xf4R\xb1v\xb5\xdb\xa3\xab\x94E\xb6\xd1\x05:\x11Y,V\x08\'\x00\xad\xdc\x9e\xcf\xdbVn\xe5e \xb1\x8b\xb9\xe6\x82t\xf1\x0b$\x9c\'\x15\xb1p\xb3\x9c\xeeGqV\xf2\xf0\rUI\x1b\xcel-\xe664\xa8\xc7\xc9\xc8\xe4\x01\xbc\xee\x05\xbd\xdcbC4j\xc2G,CI\x13C&lt;\xa7\x91P\xaar\xa4)\xca\x82\'*C\xac\x12\xac_;\xdf\xb2\x10\x17v\xb9F\xa8\xf2\xeb\xc4\xfeEdUN\x11{\x94\x8e\xeeX\x11Qd\xe4W\x19\x0cd\xa4`"\xb1\x1dn\x88\xa0\xe4-b\xb0\xcer\xb4r\xa0\x84\x19Z\xd1\xa4\xf9\xc30\xe6\xe5^eE\xee\x13\xb9zNE\xe9#\x16p\xc5\xec\x96"\x85\x93\xedq\xba.Og\xd4&lt;\x9a\xf37\xe6\xfde\xc5^\x8e\x82\xab\xf2\x8c2=\x19\x88vp\xf6\x16\xa9\x89\xb5z\xf4\xf6\xb4\xb6\xd9\xf6\x17\xa5\xcc\xe9\xe9\xbfp\x19"%\xd5\xb9MVn&amp;z\xa8\xfaM9\',W\xd9I\x92\x0e\xda\xaf\xbbu4\xe2\\ZS\xd9\xad\x920\xfa\xc6`\xe7\x06\xc3w)\xb4\x96\xd7\x9a\xf9\xded\x9b\xdcOc\xcd\x0f\x11\x1d\xab\x15|6C\x8b\x85"\x16\x0b,d\x04\x86\xa2d\xe5\x95\xa7*A\xcc{!\x1cr\xc6[\xdb(j,=\xe0\xcaj)a\x90\xd7\xc8\xbd\x02E,a\x85\x86hSQ\x13\x8eKS\xc8\xa9\x119R\x14\xe5@Q\x17\xa4\x96\x12P\x8a\xf6\x1f\x08\xbe\tX\xc8\xc6M[3W`\xe1f4I\xc8\xac\x8a\xadQ\x15QL\xee\xe5\x03\xbb\xb8\xce\x86d\x84\x18\xc9\x18i$\xca\xf3Z\x99X\xfe\x15\x049\xe3M\x0c6\xba`\xd6J,\xed\x9eD\xe5\x8a\xaa\x9d"1\xd0C\x00\xe4\x0e\xba\xb8\x90\x9f\x1e\xcfQ\x8c\xdar\xbb@\x0e5\x87\x9d\xf5Z\x11\xaf,q\xeb\xf3h6\xf4\x96\xd5\x8c\xd4\x1e%\xb3?t\x84\xd9M\xab\x9bsU\xd9\x1d&amp;kWM\xda\x9a\xa9\xeb\xab\xba/?\xd9\xce\xf4y\xfc[\xb1\xb4\xe7\xf1\x1dN\x9a\xe2\xec\xb97\xde.}\x83\xdb\xd5\xd8\xd5`\xa7\xd9(,\xaf:\x8e\xd8\x05\xbdE\xbe\x9c\x17\x16tca\xe9\xda\xd3Z\x0b}&gt;~\xbc\x9e\xe3\xe4\xeb\x1c\x89\x00\xa3X\xc7.\xae\x91\xf0\xad\xe5I_!C\xdc\x14\xc6\x99\xf9:V\xd8\xe6\xe8B\x82\xc5\x8bmb\x19\x08\xbf\xa7\r\xd0Xt3\xb6tc\xdb \xa3\x16*i\x98\x91\n\x88\xe4^5\'wB\x88\xbd""\xf039\xaa\xc8\xa8\xbd$p\x96\x91\x80a\xf0\xcbG\x9e\x16\xc7\xb1\x942\xdb*\xaf,N\xe4S9\xcd\xe8\x1d\xc9\xd2*\xa7A\x08f\x874q\xa0\x17\t\x8a\xc7\x1c\xc9\x0c\xed,\x046\x10-\xf0\xcf\x04q\xec\xa5\xab\x9aWd\xa2N\xd4\xc8\x9c\xb0E\x11H\x18\x18,\xe2\x16WoqW&lt;\xce\xf1\xcd\xb9\x87\xca\xfb[m\x0eJ\xca\xabvX\x8d\x98(q\xec\xb9KEI\x16\xb2Z\x95\x95w\xf9\xb5.\xd7\xd6h\x12\xd8B:\xb5\\)\xfa\x18\x9d\x1d\x95~\x9c\xf5\x85\xcb\xa5\x06\xacc\x81\xa9\xe9n\xec\n\x00\x01\x88\x82X\x1d%\x95M\x94\x85\x7fJc\xd6q\xf0\x95\x9bcg4{\x97\xcb\x93\xbb\xdd|\x859\x14\xaa#\xb8H\xa0.2\xf5\xf0\x95\n\xea\xe2b"W$\x8dV\xcf\xdc\xad\x03\x91Z\x0bc\x9d\xa4\x82=\x80\x8b\xa7\x8a\x00\x89\x0bDS\x9e\x01\x8c\x18_\x01aJ\xb6\x9b\xd1\xc8\xd9\xbb\xbb\xa4N\xe4\x93\xbb\xb8\x19\\\xd5(\xeeG\x19\xca\x9cG"\xa9\x90Bc\x05\x90\x95\x1b\xca\xc9\xc8\xb2\xbe\xe4S\x17\x93\x8cW7\xa0^E\x92!J\x16]\x19b\x16\x1c\xb5k\x8e^\xeeC\x15\xaf\xe8`\x84\xd4\x0fZ\xcb\x08\x85\xd1\x17\x14\xd2\xb9\xfb\x91\xa9\xe5N\x85Z\xe4\x129Z\xfa7l\x86p\xde#\xe9L"\xa2\xce\xd5\xd6Z\xe6\n\xa3e\xa1 \x11$\xe2\x11\xc5\xe8+\x8f\xcfJu\x96t7r\xd9\xc2$@BtE\x15=\'8\xa6f{\xb8\xcdt\xc5\x96\xd5v\x06\xfah\xc6\x0e#\xe0\xad\x14\x81\xac\xcd\xd5\xd7\x17\x11\xa8w\x19\x1dM\x1b\x0f\xc1\xea\xfc\xb3\xb5\xe5\xd9\xc8\xefM\xe0\x93\x95$\xee\xe4\x91`\x98x\xc3\'*\xe9\x90\x88\x884*wJ\xd3\xbb\xa4N\xee\x85\x11RF\x8cT\x0b`OF\x8d&amp;\xc9\x04\xe72C3d\x02#F]N\x98\'B{\x85y\xa2~\x8d\xc1W\x9a\xb2H\xfe\\\xef\xcb\xddbr\xf2\xe8\xaf\x91\xa3\x0bJ@Z4\xd8\xado\x03d\xb5\xaae\x87W\xf4\x16]Z\xa6X\xadwAb\xb5\xbd\t\xa3C\x1c\xb2r\xabe\x86\xd9k\x14\xd3d\xb5\x8b\x05\x9aV\xa9\x96]Z\xb2X\xf5w\x03e\xd5\xdcE\x9aV\xac\x96=Z\xe8,\xb8B\x1b;\xd7\x90\xa6\xf6\x8a\xca\xbb\xc1\xfd:\xaa\xc2\xb8\xdb\x92\xf4\xda\x8b\x8a6\xd8\x9e\x04\xb5kV\xcf\x9d\x8c4\x82\xc5v[\xad6_L\xb6K\x95\xd4f\xdc\x8f4\xec\x06\xde\xff\x00\x15\xa0Ce\x0b\xc0a\x18*\x95:\x08L&amp;\xaa\xa4H,\xa0\x176v\xa9\xda\xbc\xf3\x96\xd3l\x01\xcf\xcbk\xa9[\xde\xb7\xe7N\xee]\xbcdE\xe4\x89\xcf\xea,\x88s#\x0c\n\x18\xd5\xb5\xb3\xa3\xcd-G\xb6\x06\xf3\xbaF\xa3\xbaF$\x89$p\x95\x1c`\x18k\x12\xf6\xcc\x92\xb5Q\xf3\xd2,q\x10\xd8\xc0\xc1g\x12\xdc\x03\x89`~\x91\x8f5\xc8\xadW\xae\xc7\xa4_;"a1^\xd0\xaaG\xe8+\x1a\xbep\'}S\xb8t\xd5S\xa3wwI\xdd\xc9"\xbak\xc5\\\xf7h(\xc1\x8b\xb9\x1c\xbb\xb9\xb0\xbf\x9a\xa6*\xa7@\xbc\xde1\xfc\xce\x85\xea\xc5\x91\xeb\xda\x14\x14\xdd\xbeJ\x13\xce\xdb\xa5\xce^\xed||\xc4\xe3\xe9\xcf~=\xb7@U9\xae\xe0:\x7f)\xed)^\xe8\xd9,o\xb3v\xb5\xe8\xd3\x16\x114n\xaf\xa8\xb0ll\x94"\xe6\xef\xcd\xe8\xda\xef\x16\xdb\xaam)a\xc1\xa5\x9e\x96\x9eS\xb6k5\x11\\T\xa5\x97-\x84\xe4\xb6\xbe2\x015&lt;9\xda\xd9\xc3\xac\xb4\xadz\x86{\xe3e]^f\xf5-\xad\xcch\xb1\x8e\x1c5\xa0\xf6f\x05y=G\x86s\x9c\xb99\xedt\xab\xc8hZG+\x0c\xd2\xfaAx\x94*:\x90\x80\r\xd3\xa4\x90\xa4\xef0T\xb1\xe2\xf5\xa8l\x01GB\x12H\x16d\x92\x04\x9d\xa6D\xd9\xd2H:d\x86\x16\xce\x82\x0e\x84\xa1\x90$\xfc\xd0\xb5"z\xc8\x11\x11\x03\x01\xa1\x9e\x1fB\xd5\xc1\x1c\x05\xbe\x8b\xb9zn\xe4\x9f\x84\x89QIE\x92X/7\x98=~\n\xa5\xc1l1\xa6\xcaU\x9d\xbb\x9a.^\'\x92t\x02\x1es\xc9\x89J\xe1\x05W\xb5\x8a/,\x96^\x83\x88\xddc\xa3b\xe9d\xe7\x8c/\x9ezN\x0bm\xb9\xe5^\xde\xee4#\x8f8\xf3\x82?\x15G\xc8\xc3&lt;\xaf\xb2\x1277F\x19\xcd\x86T\xb3XP$g\xdc#\x9f]i\xa5\x8e\xdck\xa8\xc3T\xfa\x9e4\xd3M\xaf\xaf\xdfC\x1d\xa3\xddV\xa3\xa2a\x14h\xae\xba\xa6\xb2\x0b\x15]\x9dcRBH&lt;\x15\x02\xce5\xb5\xa0\xddP\xf4\xef-2\x99\xf1p\xa3\xd1_[U\x90\xc6\x07\x87Ul\x0f\x17\xd3\xf9\x0b)\x84.\x9f9+\t\x97\x95\xdd\x01\r\x18\xf6X\xb1\xf3\xe2\x9f\xa3ss\x9e\x89\xc3\x94\xd6\xc8\x95\xe6}\x8a\x15f\xa8\x1a\xf6G\x84\x0b\x11\x96\xaa\xfe\x91\xab\x9d\x9c\xee\x924\x9d\t\x81\x1e\xb2E\xd2$\x91\xa4\xad\x91\x8b&lt;\xa6\xc0P\x88"i\xc8!n\xe9\xe7\xab\xb4\x14)\x8c1\xe4\x0b\xbe\xd0\x06H\xf7\xfa\x04\xb0\x07F\x9am"\xd9O\x81&lt;y\xbaH\xf5\xb9\x06\xeb\x9f\x91&lt;\xfa\xec\xdb\xd82t\xfe\x83M\x1a\xa2\xbf\xd0\x82\x93\xc9\r\xb1\xbb\xd6an\xfa\xbb*\xf9\xad\xc6\x96\xf5\xe6av\xc9L\xf3\x1c\xd7\xb2c/|\r\xac:\x1dD\xcdK4\xfc\xea\xd8\xa7KD\xc8e\xbd73sy\x8d&gt;\xdb\x1f\xd1\xb63A2\xfc\x16V\x15\x968\xaa\xb20C|\x97\xb5\n\t\xdb\xa7\x05\xa1qX\x86=\xb1\xf6}Q\xd3\x1f\x99\xbdu\x0b\x87\xafy\xeaV\x1e[z\x17j\x7f\x9cJ,\xdd\x83C~\x0bl*\xackr"H\xabb\xab\xc8\x8c\xa3\x02 6Q X,\xa88\xa3\xbd\xaf\x07\x9f\xe7v\xf8\xae\xc76\xc6\xff\x00?\xa0\xcb\xdb\xb5\x0c\xc19\xbbj\x028\x1fK\xe5\x0e\xb5\xab\xd0/\x08\xc7\x13\x17?\xd5\xd7\x04\xa0\xaf\xa1"\x18\xa1Rt-\xb1~d\tn3x\xe0\xdc\xa9O\x1a\xd2h\x0e\xb7p\x00\xdc\x0c\xb5\xb2K\t\xda\xfa\x08tq\xc5\xa3\x92\xdb\xa1\xacKvG\xa3K\xe8"\xd3\xb2\xe9\xd2SCz\xd8j\xa65\xc5\xa9\xab4Ti\x93Z\xb4\xebf\x93\xb3\xa7V\x8a*\x03&gt;\x1e\xe3W\xc0`\x9a;\x9diU2\xeb\xf4\xadg\x97\xef\xf9\xd4\x80\x9a\x95\xa8\xc5\x99\xb8\xc1;Yk\xfc\xff\x00~U\x99}6\x0c6\xbe\xeb\x07\xb6\x8bNn\x824\x83P\xcd\x9ds\xa9\xb0\xa3\xb6\x02\xa1\xa0#\x9d\x85=\x85zO?\x1c\xbc\xff\x00J\xed\xa6\xdb\xca\xbd\x0f-[\xa7\t&amp;!I\x8a\xdaT\\\xd8J\xbf\\e\x93\x05\xa1uX\xcd{\xa7]O&gt;\xec\xb8\x1e\x95M\xcf\xe9yHwy\xfb\x9fBUl\xe9\xa2\xd8\x8a\xeb:\xb5Q\xe0\xb7\x90\\\x9e$/\xab\xd2j\xc7\x87OA\nQ\x8a~\x86\x02*vy\xf6\xad\xfe\xcd\x7f\xe7:\xec\xbd\x0b\xd2\x83&gt;\x8b\xe0drJ\xa1\xaf:\xbd\x92\n\xc7\x81m-\xd2T[\xe0\xe5cq[|Gw)\xda\n\x0b\xfa\xbbV\xc2\x14/7u@F\x81\xe9&lt;\xad\x8e\x9f/\xa1\x1c\x9b\xf6$\xf8}\x16&gt;\xb7OGO\xa5\x0e\x02e]\x12j\xaa\xae-\xe4\x97\\x\'\xcd\xd0\xc2@\xd4ycmh\xac\xad\xb2\xd9\x83\xabj2p\x98l\'\xa9\xdc\x12\xc5\xa0\xb6C\x1a\x02E\xb4er\xc6\xb0Z\xce\x90\xe7V\xc6%\x93\xabc\x90\xda\x82\x03\x14\xc83\x98\xb9\x1d\x0c\xb11\x125\x8f\xd0Z-}\x85}\xfd\xf5\xe4\xe1\xba\xc3o\xe7w\xf4W\xecR\xe1\xe5\xc0\xb0\xe1\xac3\xfb-\xd4z\x1f\x98k)\xaa\xf7\xcft9\x19d\x9b\xaf1\xd2\xdc\xbe\xbd_\x99\x0f\x18\x1f7\xd5;_{\xaf\xf3\xdd\xfeD;\xacd\xcf(\xb2\xfe\x85`\x0f\x85\x99\xeemf\xc1jO\x82\x85)\x95\xb5\xaa.\xb3Cf\xee\xacz&gt;\xeb\xe8o\xa3Pn\xeb{9*S.\x9b\x8c\xe3\x802\x8a\x9a\xda\x90j\xbfx&amp;\xe6\xe9X\\\xe4\xb4t\xe8\x16\x92\xd2\x9a\xc5\x94\xd8\xcd\xb3A\xf6C=\x8d\x90\x83\xccj\xa3t\xf1\xa5\x92\x15\x15\x95\x02\xb2\xf2\x8c\xb41\x93^CV\x94\xc7V\xba\x0bW"\xdb\x90\x1d\x9e\x1fR9T\x18\x8d\xb6+mf\xdf\xe7\xef\xea\xed[\x88P\xbc\xcd\xd5@\x9a\x0f\xa5\xf2\xa6X\xd6\x1c\x9e~\xd4\xaa\xa4\xe5\xef\xb3\xacT\x1d1\xa6F\x8d\xe6\xcf_!\xe5\xd8B\x17\x1ed\x91sG$\x93j\xc9f\xb4x\xbdf\x97\xc3\x04K\\o\x11R\x83\xd8;K\x90\xa2t\x84\xb2\x1e2F\xc0\x80\x11\xc3\xa9/\x85\xd1\x01\xc8\xd4\x88\xe7\x8c\xb6\xb1"\xa0\x96\xda\xce\x18\xae\xe3\xc5]t\r\xbd\x00\xb9\xfc\xbdfJ\xde\x10\xce\x0f\x96I\x1a\xa3\x19g\x11\x16\x1a&lt;]\x19\xd3\xdc\xfa%\x03\xcam\xbd\'g\x88\xf9\xa6\xda\xe7\xb0\xc9\x1d\x17Q%Hc0\x94\x0e&amp;\x13\xb41\xedB\x85\x8c\x0b\x16H\x1a\x03\xa0\xb9\xcb\xca[\xaa\xac0k`u\xe4\xd5&gt;\x9b\xcc\x84\'\x90p2\x8b%Ea\xf0U\xa549\r^&gt;\xadv\xaf+\xa1K\xb8\x1b\xa1\xa3T\x92C\xd9\xe1\x99\xf2\xc6i\x08\xf9\x19)\x08\x8c\xd2\xf8U2\x0fd,\x95\xa5\x00L\xa8j\x1b&lt;\xbd\xd43Q\x93\xde\xb6z\xda\xfd\xef\x99\xea\xe5]\xf9g\xab\xd0\xeaL\x95\xf6~\xcf?OD\x14\x03\xe5\xbe\x11\xa5\x87\xd0yr\x8c\xae-x\x96\x1c\x1a\xf2k/\x84\xe4\x85\xb4^\x8c_\x08\x91LAzB\xb86\xc8g\n\x92\x1a\xf0\x10\x93\xa3\x13\x88#\x86\xe1\tA\x9a!H2\x12R\x0c\xc9\x0bh|\t\x9c\x12\x98W\t\xd2\x12\xd8\x18\xd1\x8a\x92\xf7n\x8a"\xe2\xb0\x02X\xe4hS\x19*\xcc\xe0\xb2\xc5)\xd3^\x96)\x08\x0ba\xd2W2\xca\x10\xd5\xd1\x9c\x8b\xa0C\xd7\\\x8f\xe8\xd6\x02A\xc2\xec\xb6\xd37~\x8cTb\x8c\t\xca\x04\x0c,b\n6R\x87\x11\xcc%\xe8\x87q+a\xe6V\xd6\x18\x13-x\x07\x0e\xf5\xd7\xddW[Wu\x82@\xf0H"\xbeX]^@\xd2WT\xd9\x0b]\xf5:\x8a\t\xb2t\xed\xecj\xb9-\xdc\xcfOf\xba\xd6x\x90h\x9e\xdc2\xedI%$VH\x846\n\xdcqJ\xad\xac\xacA\x0b*9\x83V\x1a\xa1\xa9*;\xf2\xa7\xadyG\xae5M\xf2/G\xf2\xed\xbc[\xcb\xcc\xbd\xacz\x10}&gt;\xea\xca\xfc]}^\x9a\xec\xde{\x06\xe39\xd1\xe5TO\x0b\xac\xac\xb6\xf3\xb3\xd8\xd4\x8e8\x93\xf0\xfcP\x85\x19$"(\xa2\x8d/\x08\xe1i\xef\x06CQ\\7E! l\x84\xb4t\x90\x94\x1b\xa4\x9f\x87\xe9\'\x8e8\xc3+"\x8d4\x19 R\x1a\xcb\xe8\x1f\x16NW-\x80\xdb\xd3\xe9\xb8\xfe\xc4QoD\xaa\xca\x02\x15\xfe\x9b\xc6\x91\'O\x8b\x14n\x9f\xb9r\x0e!\xc0\r\xc4,"\xb4\xc5\x10\x17\x1b\xd0\x89\xab\xa1\xbe\xb7\xa1\xb3P\xf9{U\x97\xd9K\xa2\tdl\x91\xe9\n\x18\xf8\x9d\x19\x0fp\xe8D\xb0\xb2R9\x1a\x84pE\x08V\xb8c\xa2t\x8c\xc1\x8b\xaa\xf79\xbd\x0cN\x1eB\x1d\x14\xc2H\x15Q\xa0\x86X\x8c\x1b\x07j\xcd\xe2Y\x895\xfej\xc1th\xce\xcc\xd8.\xab\xd8\x86\xe3i\xe4\xd4J\r\x82\xd2\nR\xc6\x98X\x172\xb6&amp;\x1ax9ceb\xaclW\xdc\xbcO\xe9k\xb1x\x162\xce\xab\xa1\xc48\xd0-\x92\xeb\x1a-2V\xd9\xeb\xafo\xd4\xe5\xebx\xb5\xd6\x93\x1csj\xee\xb1v\xb8\xfd\x1f\x92\xe2\xfd\xfb\xc5.\xc0\'\xb3f\xbd0\xd9\xe0\x18/\xaa&gt;s\xe8\xf1(\xd2\xe2\xaf_2$\x8e\xc2\xc0\n_\xd7R\xc1\xac\x11\xecB\x94&gt; \xbe\r`)\x04\xe9\x0b\xe1\x10B\x94N\x90\xa4\x18\xc4,e\xc0\xf9\xac\xaes \xd4\x85\x97UaF\xab\x92\x1bc\xc1\xefe\xb5\x19\x8dM\x80\x98g\x8b\x9f\xb6\xa9\x1e\x9e\xb3\xc2\xcd&lt;3\xf3\xb8\xcfr&amp;\'^o/a\xef\x81\xec%VHr5_!\xc8\xdb\xc3\x01\xd1\xd8\xbcA\xe0}\x95\xfa\x0c\xdd\xd1\x05B3\x84\x99\x8ci\x0fF!\x125\x9b\x14\xb3\'\xde\x95\x81K\x84^m\xd9\xa2\x99\xde\x85F\xb2\xba(\xf9\xfe\x97\xcb\xea=%\xda\xb8\x9ew\xa3\xf5\x9b\xba\xb4x\x96_\xe8o/d\xf2\xe8=\x10]\xbc\xbc\xa5\x90\x9a\x9bs\xdex\x87\xdb\x7f-\xf3\xfb\x19{J\x0b\x1a\xf5\xdd\xcb\\\xf4k\x92*\xe7\x86\xca(g,\xd9UcA\x14\x91\x01\x14SA\x04h\xa9# \x7f\x13\x12\xce\xa5\xb4\x9e\xc7A]\xb7\x87\xe1\xb3\xc3\xee\xadM\x87\xa4f\xef\xbc\xff\x00\xa8\xb0\xf3\r\xdf\x91\xad\x84\xda\xe5-\xb6Yw\x97\x9e\x98g"\xe2\xbe\xd1\x9a1I\xb0\xb3\x9b\x90\xd1\xd3\xd9\xd3\xd4\xb4\xf2\xafF\xc5\x0emFK\xd1rI\xc7\xc6ji\xf5\x9d\x1a\xcd\xa0\xda\xd6q\xec\xf2\xaa\xfdNo\xd8f\x89%7B\xd6\xf5\xdb\xe99\xf5\xb9\x02\xc0\'9m\x11\xf5\x83\xe9"j(\xacpY\xa4\xa1*\x1em\x99\xb0\xed\xeb\xbb\xd4BpGMZ+:\xdb?1\xe92Z|\xc6\xa3n#!\x96.~\xea\xce\xee\xf5\x9e\x16r\x07\'\x9f\xc6\x90\xa9nrz\x8a8l\xabO\xa8\x12\t\xdf3\xc5+\xe39\xe4\xf4L7\xaa\xbf\x12\xab-\xb5\xcaX\xfc:\x83u1\xdeg\xeeb\xce\xce\x143\xdc:0%\x07|\x96\xde\x8b\x937\x91\xe9\xef2F\xe7\xa5\xc3\xcb\x1e\x87o\x9fd\x8cNg\xa16&amp;V\xcd\x1a\x15\xcb\xd8g7$R\x91\xa0\x1fy\x81,?\xa6\xe6\xab3\x86\xbcN\xd3\r\xe8\x9d\xcf\x19\xef\x9ee\xe9i\x97_\xc0\xf6\x169\xfc\xfdk\xc3)-j\xbc\xe7\xd5\xca\x18\xfbjB\x96^\xcbY\xca\xd2\xb28L:\xb1\xf5\xcc\xb3\xf5m\xe1h\xa6\xb6\xaf\x0f\xddU\xeb\xd7g\xf5\xcf\x9c\xfd\xf3\xe6\xed\xfev\xcf^"\xf1\xfd\x1c\xbal\xe1k\xabS\xe7\xdaLx7\x16\nKR\x06CU\x94I\xb00b\x9d"\n_4K6\xc6\xac\xf6\x07\x93\x05\x86\x8eU\x0eG\xd3\xe1\x98&lt;KI\xae\xaa\xc6z"\xc1\xe3\xd9\x93\xc5\xec\xb3\x1e\x92\x88t\xf9\x8b\xab\x05\xf3\xeb\x88\xe5\xbc\xb4\xba\xe9\xaao!f\xc6\x87\xbfM\xa9\x966\xfck|\xba\x9bk\x87\xf4\x14\xddi\xb2\xdb\xeeu\x95\x99_S\xc3\xe78s\x05\'\xd26\x92\xd2\xaa\xd7\xcc\xfaL\x8e\x9b1\xa7\xdd\x88\xc8\xa4\x8b\x9f\xba\xb9\x1a\xbe\xaf\xc2\x94Pv\x189z)$&amp;\x9fU\x88\x02\xda\x9b?\xad\x9a\t`[\xd4\x914&amp;\xb2\xf79\xbc\xe6\xcf\x1d\xe9\xb9\x90\x03\xb7!!\xf4V\xd35\xdd\r\xa8b\x05\x83\x81|i\x13$\x84W\xea\xa8\xd5b[\xdf\xc6\xf4\xe0R\xd8\xbfV\rESa\xc1\xd1-XK\xa0\xb9\x03\x8b\x0eE\x8d\x9a*\x8dT\t\xf6\x11\xec\xa6\x11\xd4|C\xc2\xe9\xf0\xa3\xf5\x1f+\xf5\xfd\x18}\x8e\xe2\xa6\xc3\x9d\xd3\xf9\x9b\xc2&gt;\xe8\xf8\xcdv\x82}\x14\x92\xeb\xe7\x06\xc4m\x04\xb5\xd3+]G\x14\x88\xf2\xc3 \x92\x13O5k\x8fZ\xfa\x03\xc9t\x94\xe8\xd1\x0b\x97\x89.\x8b\xd4\xfc\xd7[\x7f;\x1bYi\x80Q\x11RL\x9a.l2\xb7\xa8_U\xa8\x92\xb2\x14\xcc\x0e\xc5\x82\xaa\xf2E\x93\x03 \xadNY_j\xc6\xc9L\x8d\xd8b\xc1v\xfe\x15\xac\xb5\x05Y\x9c\xb4\x1aA\x01\xc8\xfa\x0cY\xdb\xe7z/\xa0|\x8b\xa3Vb\xe8\xcdVCFm\xcc&lt;\x9b\t\xb5\xac\xb5\xe7=\x16O_\x9a\xe8\xa5\xd5\xd5\x1d\xeeG\xc5`\xb7\xf8\x0fKE\xa7\xa0\xf9\xf7\xa0b{\xcc&gt;\xe3\x13\xcc|\x14\xf0O\xec&amp;\x8a\xda\xa2\xdb\xcdzL\x8e\x9b1\xa5\xdb\x88\xe8\x9d\x1e\r\xb5\xc8\x9d\xea\xbc16\x15\xe4`\xe7i\xecq\xb2e\xf4\xd7\xb4/\x88u\x82G\xb1:\xc7\xfaV\x07\xd0l\xe1Qy_\xa4\xe5\xb4\xf2\xe9\xed\xb1\xd6\xba\xb2i\xdfLq\xa8\x8b\x9a\x1b\x84\xb1Fp\xc0\xbd {\xa1[,F\xdb\x97\xdb\xb1k\xdb\xcf\xeb-u u\xdf\xb1 [FI\x053/\x12\xafuMfX\xda(21\xb5\xf6\xc3\xca\xc1\xb9.\xa8\xe9\xf0\x88[_V+\x95\xdd\xd2Vs=\x0e\xa0|\xf4\xc3^\xbb\'+\x1b?\xcb\r\xbc\xa1\xd7\x80\x97\x8f!&amp;\x1dWu[\x1f H\x8fd\x04#C;\xe4Sg\xa5m&lt;\x1b\xd4\xd1\xaf\xe2\x04dsn\xf2\xb7\xd0\xday\xce\xab\x0e\x90\xb1-fj\xf2\xd2T\x1a\xab\xaa\xb6\xc4Z#h\x94\t\xe4\xb6\x04p`\xb2\x1a[2\xd8\xdd\x15\x84DN\xd1H\x8a\x04\x91I\xd0\xe2q`M\xa3\x11\xb3\xd6\xac\x96\xd1\x0f"\x92\x99\x04\xc0\xe5\xaa}\x16\xbf\x19\xf2\xfc\xde\xd7 \xa2\xd3Q\x99\xd1\xf3\x98&lt;\xbe\x9b#x\xbc\xd2c6\xb9\xdb)\xe7\x9e\xc1\x98\xe8&amp;wyW\x7fK\x15\x8a\xdbb\xb3\xb6\x02h\xa4\xf6K\xa2\xb7\xa8\xb6\xf3^\x93!\xa6\xcch\xf7b\xb0\x1dC\xc5\xa4w\xc1/\xab\xf0\xa4\x10+\xf0\xf3Kt\x0e\xe6\x89V.\x0f"\xc7\xc3Y:\xcaj\xcd=]eA\x83\xd9v&gt;\x87cM\xa3&lt;vY\xdb{(\xb3\xba\xcc_\x08\xa2I\x00y\x1a\xd5\x8bs\xa7\xad\xb6\xe1z\xaba\xdf_F\x8f?\xeb\xcbgsm\x83\x90\x0e\x16\xc9\xa0\xa3#\x98\x81\xd4\xd4\x0c\x18\xe4S\xb0\x86\xcc\xed+\xe6JgVU\xba\xc1\x95D;Z\xad|\x85\x0cx\xc7\xea\xe4\xcf\xf3\xff\x00\xbf\xe9/\xc7\xf1\x94\xfe\xa5\xe55t\x08\xb5\xa8-.\xb1\x9a\xaadr\xdd\x19!\xd1\x8e*8~\x89\xbc\xf4\xfd\x1c\xcc\x9f\x9c{\xe7\xcf5\xcbK\x0c\xdc\xb9:\x8e\xab\xe9\xa5\x93Z\xb4 &amp;\x8f08\xabP\x12\x12\x12a\x96(e\xb1\xce\x8cN\xcd\xd96\xa9\xd6\x0b[jM\xc1\x01LE[\xa1oG\x83!@I~RPt\x10\xb4\x89L\x9epb\x92\xdb\xa9\x88\x82\xcf6^M\xebG\xd3\xd4`k\xec\x82U\xd8\xf6[\x8f)\xb6\xb0z\xc0x\xb6\xf1\xee\xd1\x13\x88\x1fJ\xfa\x16V\xb4;%D\xb0\xcd\xdf\x9a\x0bZ;O;\xe8\xb2\xf6"w\xa4\xf2VQ\xc0e\x99R~\x7fC\x88\x88\xf4\xac3\xb92\\\xe5\x8dT\xc9`\xdb|}\x13\xeat\xc1S\xd6\n8\x1bu\x0f\xa2\xba\xadz\xe8\xba\xda\x8d\x85\xa5\xbd1,\x96\x91*\xc9\r\xa5u\xb6m\x9a+\x18\xac\xb8\xbe\x9c\'\xcd\x18d!\xb3,\x8dQ`||\x18b\x9dN)\x16A\xb4\x93*\xe0q\r(\xefG\xb0\x97\\\xce)%i,R\xb6\xec\x96\xf4S?G:\xc6\xf2\xbf{vY\xecsW%l~y\xf7\xa4[&gt;-]NN\x8e\xb1\x04-\xa5zD"\x0fI\n\'\xd2E\xe3\xb6\xf1\r\xce&gt;\xb6V\x15\xceOX\xaf\xe7\xf3\x1dU\xcf\xec\xc9o\xdd^\x86K\x18\xe4\xc4\x14\x94\x92\xbb\t9\xe2C$\xa9$.\t\xa0\x190&amp;\x935\xb8\xc7\x11,fR\x1a\xc6H\xfb\xad\xe7\\\xe8\xa5!\xedr\x82\xd9\x86qW\xc5\x18\xee\x93\xd9@\n\x913\xe6S\xe9\xcb\rq\xa2\xb4\xa3m\xaat9\xb4\xd1\\\n-\x12y\n\x10\x06Z\xf3UV\xdbT\x86\xa5\xf6H\x18b\x1c\xb9\xf5\xb4KHu\xf3C\x9e&amp;K,e\xac\x9d\xf3\x9c\xe1\xa7j\\\xaeU\x8d\xe7\xba@\xb3\x9bL\xcf+\xbf-\xf5\x05\xb5\x1a\x89/\x1fce:H\x1a\xe8\x04\xad\xb1s-L\xe1\x11\x1bA\x13\x95\xeaK\xba\xcb\xdeOsAi\\_;\xb4\xf1g\x8c\x90I\x9e5\x93\xc7\x04\x90\xf0\xe4\x02\x02I4\xd2WCv\xa5\xa9 \xb4s8\xf2\xa9f@&lt;\xf9\xad\\\xc8\xbd\x7f\xc8&gt;\x94\xeb\xf9\xca\xfaOM\xcb\xd1\xa7\x05\xab\xb9\xcd\x07\x1e\xbbRB6h\xedMd\x95\xbf0\xfdC\x94\xafg\x87\x13c\xe9y\xba\xf8/\xa6)\x85\xd7\xc3\xea\xb1\xe8\xa2Y6\x9f\x81\x8bQ\x83\xf4\x92\xb8`\xe9\xe7z\xf4\x16\x00\x19\xca\xf4\x12&gt;7\xad\xac\xac\xb0\x80A\xab-)\xa4\x1a\x02\xc7"\xac\xb2\xae\x81\xaa\xd0\xb6\xd6HO\x8eX\xb0\xe4o\xfc\xed\xf3_\x11BoW\x85m S\xd9I\x8b\x03\x95\xd7\xa2FN\x81\xd3\x99%-\x85E\x94SEl\x1d\xa9S\x04\x88\x19\x8c\xb1N\x97\x12\xa4K\xb1\xc5\xd5E\xcf&lt;#\xa1\xe8h\xafS\x92\x108\xe6\xc2\x12\x1c\xd9/\xd7d\xbcOG\x82\xa3\xf5zk\x17\xcbc\xd0\xd5\xf4\xf9\x10h\xa3\xdde\xd7M&gt;\xb6l{q\xfd\xb1\x1c\x1f?/8\xda\xae\xd3Qq\xcc\x95\xb9\xedpWg\xceh\x01\xabe\xd3\xb0i\xec\xaa\n\xeb\xeaD\xb2\xefiU\xe9\x1c\x8e\xed~\\\xf0\xb9\xfd]\t\x95\xc78Z\xab\x80\xcc\xad\x90H\x1ahY\\\xf5c\x12\x12\xd0\xf3\xa1a\x84\xc3\x01\x0ce\x0c\x97\x10\x1c\xd2P\xe8\xc6\xca\xd4\xee\xb7\x9c\x9f\xe8\xcf\x9c=\xde\xca=b\xae\xce,\xfas\x10\xed\x87-\xe7\xda+J@v\x16\xbe{{\x16\xcf\xce\xf7y\xb0\xdeY\xad\x93-V\xab\nV\n#F\xbe\xb2\x93\x02=\xa8\xa0\xd5\xfa\x8eJ\xc2\xca|\x9e\xcc\x0b&gt;\x87$\xcb\xec\x81y:\x1a\x99)l9&gt;\x84\xc1d\x96\x9d \xd2h\xb3\x11\xc1\x8akH$\xb6\xe9\x83M8\xf3\xc5|\r\xcd\x80W\x99z_\x91\xdb\x9c+\n\xab\xad\xdc\xfd\xd9K\x06\xde9\x0f\x86R\x15\x19\x13\xd6\xa6\x06]v\x08\x19 _\x9d\x95\x12\xd2Fq\xe1\xdf\xad\x9a6\xe9\x12\x8d9\xa6i\x92L\xc2\xe9\x18\x0e{\xafD2\xad\x96\x0e\x92\xb1\xd7s\t\x9b\x87T\xd2cs\x16\xab\x1e\x19b\x11\x8d\xa0\xbf\xa0\xe9\xf1\xb5;\x1c~\xc7\x16\xf3\x1c\xd5\xa3_`\xf5\xd9u4+\xa5\x88\xa5\'\x14%\xd4\xa0\xf2\xf5\x94\x88=\x98\xcc\xb9\x9b\x13D\x10\x8fX\xf5\x0f;\xe7u\xab\xa1\xa2+\x95\xdf$W\xd65z\xf2\xc0$\xb1\x0cF\x900\xe6\xc2\xc4$-\x864\x8eD\x8aDsI7;\x88\x85\xad\xce\xeb\xe7\xb86wO\x84\xce\xeez\x9d\xea\x1ea\xa4\x87\xea\x96\xc5-6\xcf\x0c\xd0\x18\xaf\x8c\x81\x1f\x87\xb6\xcb%\xa2\xc8\x08\x15[a\x9d:\x85\x9aK\xbb\x1daG\xaa#\xd7G\x9c\xf4\xd6\x83\x9b\xf1\xefK\xf1K*\x91\xac\xed\x9c\xf7t&lt;#\xdd\x1b\x92\xcd\x95fay\x9d}\x85@\x04s\xfb\xc5X2qt\xc8\xae\x8d3\x87\xabP&amp;z\x1b\xc9U\xdf\x8d\xd8\xe4\xf6b\xe2\xab\xbe\x81\xb4z\x1f\x93})\xf3f\xae+\xe5\x89\xb7\xe6X\xdd\x03!\xac\x985x\xab\x0b\xa7\xb6\x80Gy\xe2\xd9.a\x9c\x1d\xeaV\xd6c\xdf\xa0\x1b!Q\x0e\xde\xb3"i\x96\x8f\xeb0Xt\xa4\xc8\xc9\xd3\xa4V\xf7H"\xc7\xc0L,\xa3\xc3\x8f\xa0\xbd\xa0\xe9q\xb5\xba\xfcv\xbf&amp;\xe3\x96\'Q\xaf3Ks\x1a\x10\x8a|\x05J\xaeP\xd9^\x1b\xd2\xcaF\xe9\x0f\xb6\xa7\xfdO\x1d\xe6-\xbe{\xe1\x9b\xdf,\xc7\xd8.\xd2\xa6\xc36\xa3+M\x0c5\xc5\x9ez\xf0\xb5\x8a6i\x19\x1c\xce\x90.}s\xd1j\xfc\xd5u\xd4n\x1b\x92\x02\xdc\xdb\njf\xee\xe6H\xb1\xcd\xa7\x0b\x9f\n\xd7b,Me\x96\xe3?\xa8K&gt;\xa1.\x8c\xe4kP\xc9\xae\x06i\xebf\x84\xab\x17\xbc\x1az\xed{$\xc3G\x7f\xe1\xf0\xfb\xa2xw\xb4\x95\xe9\'I9\\\xd83\xff\x005\xfd\x13\xf3U\xd4:\x1e\x8e\xec\xf2#RI\x96\tC\x11\x103\xd7m\xc6\x12\x1c\x7f/\xbf\xebv\xde\x04\xe4\xbf\xe8\xe8&gt;|\xb0[={%\x8ei]\x13\xa9\x01\xbe\x89\x87\xf4O\xa9\xad\xcf\xe6\xff\x00A@\xfb1T\xf8/\xd0&gt;C\'\x99(\x92\xe8\xc7\xd3\x00d3\x00\xe0\xde\xa8\xebJ\x82\x18\xae\xc2,1\x14\xe4\xf9\xfa]\xaa\xab\x0bC\x9fme\xb5\xfd\xe1\x14w6d\x88!N\xe0W\x91$V\xa2B\xe4jH\x0b\xa3X%\x14\x81\x8c\xc8P^\xd1t\xb8\xda\xadvC]\x93y\xa3\xcd\x9e\xcd\xa9\xb1\xc7\x1a\x99\xe3\x8e&amp;\x12\x80@\xcfX\xd0p\xf6TO\xba\xfc\xfd\xf4\x90;\x98\xc2mw\xf9\x7f\x8f{W\x86c\xe9\xdd\x19^nM\xc7\x83 jM\xbc\xcb\x96\x0e\xe6|G*\xea\xa8\xab\xe9v\xe0dl\x7fo\xcd\xb8\x1b\n\xb84\xab\x0c\x81\xa4\xeeiV\x11\x0c\xa0\xf2\xb5+\xb9\xacF[M\xd6\x88-=wzu\xeeC`\xac|U\xf6\x82V\xbeBU\xa61\x85\x894+\x953\xe5/+H\x93R\xef0N3\xf4\x18\xdf\n\xf6KrZ M\x8b\xe7^+\xba\xc1]\x99\x8f\x85]$j$\x93\xce9\tb5\xf0\xab\x05C\xa7\x03&gt;\xec"YW\xe4\xe9\xab\x81c$\xa3z\x7f\xbeYW\xce\xbfR\xfa\x05\x93\xe6P\xcd\x89\xaa\x03\xa4a\x01\xfc\xf9\xeb_+\xd9]\x94\xb5\xe6\xbdN\x9a!D\x90\x17\x03mS\n4\xca\xf6\xa9\x1d\x0c=q\x1f\xa2\xe7\xd9Csg*X4\xcfj\x95NHy\xbc\x92*"B\xbc\x89\'r$\x82/9\x82\x0eX\xb2cho\xe8z|mF\xbb!{\x8by\x94F.]u\xec\x98f^\x8b\xa1uQ[V\xe8\xb0D\xae\x87}9\xf3/\xd3\xac\x971*\xd5\xa6\x8b\xe5\xef\xaf~N\xcd\xb4\xbb\n2\xb0\xf4m\x85\x80%6)\x9d\x15\x93V&amp;&gt;\xc6\xda5\xc2i\xf3\xbd~\x0cN\x92;\xf2\xad]\xb5Hm\x1b\xfb\xa0\x91y\xe0\xc7#\x1d"19^\x1e\x7f=;\xdd\x85.\xce\xbdN\xde\xf9\xf7\xa3#W\xa9QH\xfb\xba=2\xc6\xab\xfa\x18|\xf7\xd1s2~z\r&lt;uk\x98]f}\x0f\xa4\xfd\x8d\xf1\'\xdc\x9ar\x89\xc7V\xb5_2P\x985\xf9\x18\x8ek+"!!\'\x9f\x1a:w,\x8c\xd4\xe6\xb6\x14\xe8\xf3\xd2=\xbc\xcc},\x1f\xb1\xd5^Y]\x81\xf5w\rQ&amp;6v^\x86A\xca\x8fR\x7f\xcevS\x92\xc8\xbf\xacI\xed)\x8fF(W\rm\x11UKb\x1e\x03J\x8a\n\x96\xcf\x12\xbd\xaf\xa1x\xaf\xa4U~\xad\xb2\xb6\x8d\x0cG\xa01\xa3\xdb\x0b9\xc9\x0bZ\xf4\x91\x88\xf4\x11\x9c\xee0G5\xd08Bj$\xcd\xd1X\xd6ux\x97\x12\xd7?\x9f\xd3\xd0\x1d\x99&amp;\x9b\xb4\x1dV\xc5n\xad\x80k\xaa`nm\x88\xd75\xd2\x13\xf4\xa7\xcd\x1e\xec\xf5z\x14\xf5\xf6\x14j\'\xe7\xaf\xa2iV\xcf\x92\x1ba\x98\xc5\xd10QR+\xa2Kk+\xaa\xf7\xa2\x19vl\\|\xbd\x1e:s\xd2\x04\xa5\xba\xa6\x8d\xa3{%\x8a\xe9\xa2\x94\x14\x88\x88\xd4\xc2\x92!\x8c\xe9\x98\xcb\xec\xda\xda\x9d-\x1a\xf3\x1e\x93\xe6~\x98\xb1\xb2\xb6@]t\x05\x8c\x9c\xd4@Z4\x95\xd0\xfce\xe5\x9f|\xfc\xf6-\xa8\xc4\x92V-~\x8d\xf4UOo\xc3s\x96#\x06\xd5\xf9s\x1c\xba\xb05\x92$\x90:i jI\xd0\xc0\xaeY8\x1b\x0c\xb2?\xd1Sy_\xa5\xe0\xecZ\xde\xe6\xac\xc8\xbf\xb3\xca\x1a\xf4\xedO\xcbX\xb5vt\xa3\xf8E\xb4\x97\xe3\xcf\x86\xca\x98\xaf\xe8\xd0\xc9\x1b\xd5\xe7\x1axMr[\xf0/\\\x99\xda\x98+\xbeR\xc9\xb6\x92=.{d\x1bT\xd8\xdb\x97d\xcd\x89\xb0\xc8\x912I\xd2\x14\x86d\x89\xa0\xcc\xd8R\t\xd2\x16\xc9\x9fw\x9dG\xb3\x9f\xe8\x19\xfc\xd4n\xb6\r\x03Q~[%\x9anGl\x16\x1c9Q\xaab\x82\xfa\x1c\xd6\x8c\x0c\x88\xc7\x18\xe73\x81\'\xd5|\x96\xc9\xea\xfa\x13O\xe1\x1e\xa7M\xfa\xf3(\xe5K]\xe4&gt;\xb7F\xaf\xe1M\xfa6T\x7f\x1f\xf4\x8b\x1a\xb6P\xbc\x13]\x84\xbb=\xc4\xb0\xae\xbet\x88\xce\x82Z+\xcc\xf8m4\xe1\x16D\xe8\xc6\x90BF\x8a\xcfH\xd6\tH\n\xce\x1fp\xd4\xe4\xb5\xf9\xf5a=C\xca=&gt;\x12g\x04\xe5\x84\x9b\\\xf1\x08Ha\x85\x95V"\x96\xa5\x8c\x88\xa4\xf2\x7f&amp;\xfa\x9f\xe4jt}{\x05m\xb5\xd9\xea\xfc\xdb\xd1\xbc\x99\x93=4.\xd7\x81\xc8\xe6\xc0\xe7\xc5!\x9c\xadl\x8e|O\x86*#X\x08z\x1a\xe0\xf3\xea\xf5\xbd\x17\x8c\xea\xab\xbf\xd3\'\xc6\x1b\x06\xde_3\xf3\xab\xb3\xe8\xf1\x91\xbd\xeaQ\xc8\x8e\x18\xb9\xa9\x0b\\\xd7+IaYU\x0c\xf4\xe5\xde\xb2\x10^r\xb0\xae\xdb\xbc\xf0T\xb7\xd6K\xf1\xc7\xa5\x9e\xab\x0eI\xdaq\xea[\x96K*\xd4\xb30\x92jS.\x90\xea\x130\x92i\xfb0\x82i\x9b\x9ai1\xc7*i\xe7\x00\xc2\xc6]v\x1a\xe1J\xe3v\xe5h\xa0Uu\x8d,![B\xc6\x8c\xb6\xa719]d\x82@e\xe6t\x8f|32h=#\xc3\xfd\r\x1b\xd8\xac&lt;\xabmN\xadu;n\x14\xd6ICD&amp;\xc3\xcd0\x18\xe7\x84\xeb\xeb\xce\xd7\xce\x95\xf0+\xd3*D\xf8\x16\x92\xd6\x9c&gt;\x8c\xaa\xc3J\xce\xa3)\x13t\x0e\x92v\xb69;K\x95\xddWo\xa7k\xb27\xb5_\x8f\xf4\xcf\'\xf4\xa0mM\xabH/^\x93+\x0f-yP\x1a\x14\xd5\xa4A\x1cr\x98\x9f)}c\xe0\x89m\xcf\xac\xfc\xe7\xf4\xe3.;\xc4\xbd\xd3\xe7\xdb(\r\xd0v\x8c\xa56\x17\xc0\xeeF\xc9;\x1a\xc9%t\x11\x19Gs\x9f\xbd\x05A.\xbd\\\xdd\x06@J\xf4z-u\x0c\x8dL\x91F\xd2&amp;Nl*\xacd\x1d\x0c\x91B\xe9"tg\xce,\xc1\xa9@\xdc2.`\xfb\xe72R\x85\xa4(\x1f5\x9bk\\\xaf]&lt;\xc3t9*\x9c\x9a\xf0+U$\xe4\xe4\x07\x93\xbaN\xe4ln\x1d\x06\x17\xff\x00\xff\xc4\x00%\x10\x00\x02\x03\x00\x02\x02\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x01\x02\x00\x03\x04\x05\x11\x10\x12\x06\x13\</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495610-brasil-tiene-su-lista-mundialista-con-dani-alves-y-nueve-del</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Gabriel Heinze en Newell's: "No fue una decisión difícil de tomar"</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>El Gringo fue presentado como nuevo DT</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Gabriel Heinze fue presentado este lunes como nuevo director técnico de Newell's, club en el que se formó como jugador (1996) y en el que también colgó los botines, hace ocho años.El Gringo, de 44 años, aseguró que la decisión de agarrar al club de sus amores no le costó "porque hay mucho del sentir" mientras estampaba la firma en el contrato."Hicimos un análisis y eso empezó a motivarse un poco más. Si bien la decisión no fue difícil de tomar es muy importante todo lo que analizamos, eso va a ser la verdad el día de mañana", aseguró el exdefensor este mediodía en la sala de prensa de Newell's, donde se llevó a cabo la presentación.Al mismo tiempo, Heinze remarcó que su equipo de trabajo será el mismo con el que se ha desempeñado a lo largo de su carrera como DT: "Es el cuerpo técnico que me ha acompañado siempre, con Mariano Toedtil y Nicolás Pavlovich (ambos exjugadores de Newell's) como ayudantes de campo".El zurdo también diferenció su etapa de jugador de la de técnico: "Antes le pegaba a la pelota y ahora como entrenador uno abarca muchas otras cosas, como jugador es completamente distinto".A su vez, Heinze dejó entrever que su tarea se extenderá a coordinar el trabajo con las inferiores, con el fin de potenciar los recursos del club rosarino.Por último, el Gringo adelantó que se prepara para atravesar esta nueva etapa en su club "con mucha pasión, dedicación y esfuerzo", pero evitó darle un mensaje a los hinchas: "Daremos todo lo que podamos. No creo que tenga que decirle algo al hincha porque nunca me gustó y porque lo que haga no se va a apartar de lo que hice antes".Newell's será el quinto club de Heinze como entrenador. El entrerriano arrancó en 2015 con Godoy Cruz, donde duró apenas dos meses (dos triunfos, dos empates, siete derrotas). A mediados de 2016 asumió en Argentinos y allí tuvo su primer gran éxito como estratega: fue campeón de la B Nacional con 11 puntos de distancia del segundo y varios jugadores de renombre como Alexis Mac Allister, Lucas Chaves, Damián Battalini y Braian Romero.Heinze no se quedó en el Bicho para la temporada siguiente, descansó un semestre y luego asumió en Vélez, donde permaneció dos años entre 2018 y 2020 dejando una buena imagen a pesar de no sumar títulos (31 triunfos, 22 empates, 18 caídas). Luego vino una experiencia en Estados Unidos, con el Atlanta United: fue otra estadía corta, de apenas un semestre (cuatro triunfos, ocho empates, cinco derrotas).Así las cosas, Heinze lleva 146 partidos dirigidos en su carrera, con 62 triunfos, 46 empates y apenas 38 caídas.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x00\x07\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x00\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x00\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00|\x12\xc5\xe8s\xa2\x82L\xa6F\xf4\x81d`W\xe1\x0b\x10zY\x19\x83\xa0\x11\xa7.26\xe7\x00#p\\\xa6$\n\x81\x89\x02\x80!\x01@X\x98\x1c\x1a\x14\r\xd2\x10\x0e\x06\x10G\xa1\x0e\xe1\x00\xa0#!J\xa0\x12N\x10\x10\x07\x84\xc0\xe0\xe0x@H\xe1\x0e\x93\xbb\xb8\xc1\xe0\x198C\x84\x13\x13\xa11\x8ah\x0e$4\x82b\x88\x861x\xc3\x94\x80\x02\xbc\x97\x18\xa8\xa42-\xc0 \xf0p\xc0\x1d\xdcgp\x84\x80=\xd2\x00\x1b\x8c(\xf7B\x00`\x808xB\xf1\xbaB\xf1\x82B\t\x80\xc2\xf0\x80\x80S\x81\x85\x03\x04\x85\x1e\x01\x04\xdc \x89\xb8\xf2\x00\x89\xa0 \xa82$*\x1aD\x81q\x11\x05\x0c\xa0\x86rE\xd9TX\xab\xb2\xcb\x16h\xad\\1f\x8b$1f\x8aZ\x14&amp;\x8b\x04!\'\x0b$!g\x00H.\x9c(0}5\x9a\xc6\xb7\x96\x98\xba\xb5\xa8\xb5\xc5\x8c\x9b,R\xd0&gt;*\x0b\x98R\xbbV\x08\xd2M\xa9%|\xb6A\x82\xb0[H1\xaa\x85\xa8$\xaa\x05\xac\xa2UIl,50\xb5\xf4\x952\xdb@J\x99m\xa52\xa6\x16\xc0\x86\xa7\xd6\xb0\x12\xa8\x16\xa0\x06\xae\x16\x82\x99Y5\xab@C\x93\x0f\xa4j\x0b1C\xe9\xd6A0@\xd3i\xd6H3K\x94\xc8\x80\x94\x08#\xbaD$`\x0f\xc2F@\xf4\xb27:\x9c\t9\xc7H\xdcU\t\x13\xe5BD\xc4\xfc\t8\xc0`\x14\xdd!G\x80\x8e\xee\x10C\xbb\x80\x000I\xc5\x10\x93\xb8Jaxz@\x01\x01\x03\xb8a\x13\x01\xcc\x13q\xe0\xe3\x89\x84\x03\t\xcc!\x8cx\x13\xe5xD\xc4\xe7\x04\xce\x08\xe5\xd0\xceH\xe6-\xc8\x1f\x85\xb50$\x89\x0c`W\xe0C\x12\xbf\x01#\xc2@\xb0\xb0\x07\xe0\x03\x00\x7f\xd0\xc1y\x1f\xd8\xbeE\xa6\xda\xcce\x86:\x9b\xe2\x8e\xf4\xaaX\x15\xd2`\xb7*\xc1\x1d\x10T$\x01/\x08\xaa\xcdz\t\x15\xe1\xc0\x8b\x03\x8a\xc0\x99m^\x97\xd1o\xaes\x813Lq\x96\x1c\x8da\xd6:b6\x95\xf1!e\xdc\x96\xc1\x8d\x0e\xfa\xbe\x00\xe0\xae\xfe\xe3\x01P\xcfALy\xcb\xd0\n\xd6K\x0ez\xc7&amp;\x8fD\xe6\x12\xd84\x9a\xa6\xf9\xf3;\xd3\xea\xfe\x94\xca\xb5\xc66\xd5\x87\x99\xbaZ\xb2&gt;\xeew\x03@~\xb4\x91\x1da\x16\x95\xb2\xea`\x8f\x96u\xfe-\xa5[\xa4\xf9\x96,:,\x89 \x89\\\x97\xa0\xcdq\x0cW\nH\xc0\xb2\xc7\x92\x10\xb6\x03CZ-\x9c\xb2VS\xb4\xa6\xadX-\xa0\x92V\x0bf$\x95\xb2YI%k\xacD\x86\xbcK\t\x04\x80\t\xd4\xe1\x88\x19B\xc8\xc5G\x86\x81\xb1\xdc\x9aF\xc7p&amp;"*\x1cD\xb9~!\x03*py\xd1\\\x942\xe0\xe6-\xfc\x1d\x85\xb53+\xd2\xc8\xc8\x1e\x14\xc6`\xf0\xa24+\xb2\x98\xd4\x1d\x04\x8dE\xc7I_\xf1_\xb5&lt;\x7fM\xd1\r\xa6\x1aUlrO\x18\xa3 \x89\xc8\xb6$U\x88\t\x00\xdd\x01\x07\x86\x12\x80\xf4\x00!\xd2\x0fw\x19\xdc%\x00x\x0ea\x16Ih\x04\xdc\xa1^\x11\x028\x12\xe2\\\xaa\xd1\xfc\n\xca\x96}\x95m\x1e\x11\xf6m1O\xe3,\xd5]}\xe3]\x17\xa7\xe6Vz\xde6j\xf5\xbd\x8f\xc9\xba\xedxs\xac\xbb\xd1\xfem\xe9s\x9e/\x16\x9d\xf4N\xf5x#Yz\xb5\xc4]\xaa\xec\x9a\x02\xa3r\' \x13\x93\x87\x93\xe4\xc11\x90\x03\x1csaew\xcdD\xc7\x87f\xa4\x12) f\x8e\x16e\xc6K8\x81\xe2,\xcb\xd6\x15t\xb2)Ui]\x97\xa5sd\xa9\xb7Ss\x90\x00m\x95|M5;\xc2\x98\x97\xb3\x90\xc4_-.\x96S+\xb7\x1c\xd6\xdaM\x1b\x0e\xb1/U\xae\xf9\xac\x9f\\\x9b\xc8k\xa3\xfa\xdc&lt;\xa0\xe8\xcfR\x9f\xcc.D\xf4\xe3\x8f1\xea\x0c\x9a\xa2\xc6;\xd78\x1e\x12M,\xf7\x99\xfc\x12g\x9e\xfa\xef\x05kQ}D\xf2\xa5sj\x90\x05\xbaD\x01p\x91\x01W\x8c\xa8\xf9\x87\xd3\xde}\xa2\xeacY\xa4\x14\xd4!\xe6\xa1)\xd2\xd0\x17\xe8\xc0\xa9\x1dH\xd8\x8eR\x8a\x80\x87B\x1cb\x88Q\x01#\xbb\x86B\x95P\x90\x8b\x02\x92\x11N9NS\x8c\xe0H\xe1\xc9\x11*J:\x122NFx\xa2S\xb2\x8b\xc8\xea:\x17X\xc3\xd4\xcd\xde_\xb3T\xd5~\xb9\xf9\x9fg7\x8c\x04D;\xafLJ\xe7+\x8e\xf7\x9ei\x99\xfe\xaelcW,\xb5f\x0e H~L\xa4,\x91\x13i\xc9\x94\xa0\x94\x9cC8\x00\xa4\x8aG( r\x9cC\x1c\x05\xd0\xea\x10\x08P\xc8\x94\xc5\x85\xb7:\xae\xa3u\x9d\x1e8lk\xe9]\xa2\xc8R\xed\x9b.\xdf&gt;\x92\x94z\x9b\x8a\x92\x9a\xd5o\xb7h\xabF*\xd8H\x10"\xda\xc5@\xf5\xc9tQ\x1fBWe\xaf(o/\xb3\x99\x90\x92A\x82\xd8\x02\x1c\xa7\xbb\xbaN\xdc\xb0\xbd\x9c\x0fK\xf1\xc2\xfc\xfes\x8e\xd1k\xb6\x8aZ:;Ul\xdb\xd3\xf97\xa1k\x17R(B\x08\x06\x08\n\x03\xd2\x14\x0c\x12Qq\xbd\x7f\x1d\xaa\xca\xeaR\x86K)Q\xf3L9\x9dD\xd5\x88n\x96[\xe4\xa9\xfa\x00Z\x91\xf6\x85\xba8|\xa3\xafz6\xaf\x83\xd5W\xbc\xc1m\xd3\xf6y\xcf:\xcf\xee\x12ve\xf2\xf0\x89\x8b\x17\x84`\xe1\xe3\x00c\x02\x8e\x0c\xb2n\x1c\x19\xc1\x1dE^]\x9c\xcb\xd4\xf6\xd1\x1dk\xb2\xb7\xf9\x16\xf9\xe6,\xfaW\xf4\x87\x98\xfd1\xce\xed@\xd16\x9a\xe4\xd9\x9c\xfa\x1a\xb7:Z\xab\x8b\xfbv\xa5no;\xcb\xfag5E\xcd\xea\xd0V\xdd\\l\xf5\x8c\x9b\r9\x9b\xa2\xe1\t\x08A)\x05LR\x0c$)Zq8$\x10\x00i\xdc\x1ca\xcc\x99\xc2\x9b\x89\xce\x0c\x04)\x8a\x02B!\xcc\x89\x98.\xaa\x0b::t\xc1[*\x94d\xe1\'\x11\xed\xdc#\x8fR rQz~\xe2\xf0\xf7\xbf\xeaw\x931\x88\xf2}4\xfdrB\xab\xaa\xb8\xc63\xb0Is\x1aH\xd5\xe0\x88alk\xd2\xe0f5\xb9\x98\xeb26+\x94U\x93\x03\x11`j\xd9F\x91Y\xf5\xe0\x1c4\xe4\xc1\x97\x85\x9b\xb66nF\xc0\xcc\xfa\x17\xcf~\x8dU\xb3\x10\xc0\x90\x9c%0\x00\xc0a{\x86L\xf3$\xd82\xba\xac\x8bU\xa3\xbc\x1d*\xe2\x13\x94\x8c\x1a\xd9V\x1dY-X+\xf5\xf7f\xb0V\xf1\x8fZ\xa5mxb0\xd7ng\xa2\xf2\xf4O\xb0\xf4N\xbf\x95\xf9\xc5\xe9\n\xed\x91\xf3\xf9\xb4\r\xc6\xc07t\x80r\x9c\x83\x9c\xa7!Y\xafD[\x16y\t\xe7\xac\xb1{*\xa3\xcd\xfa\x0b0e\x8e\xb2\xec\x13L\xb9\xb5s_\xaf\xc6\xc0\xb5:\xb5\xaf\x95\xea\x05\xa2\x91\xa9|\x0b\x1b\x84\x03\xc9u\'U\xb0^s\xd8]6\xb4\xf3\xd9})R\xe9y\xaf;E\xeb\xb6\xf6\xa7\xcc\xe88\xd7$\xc5\x92\xbbZ#c\xc8z2\xb5\x0e,]\n-\x85&lt;\xba\xc2\xd2d=v\xa2\xb2\x9c,M\x18E\x04\xa1\xc8\x8a\x01p\xc1\x91UF\x1e\xe2\x00*\x1d#\xb2\xae\xbbUl\xa9\xdb\xb6\x927T\xfd\xab\x86\xce#\x9a&lt;i\x8fRe13\xe8O\xd6\xdeN\xf6\x95\x1a/K\xe4\xf8\x07?\xab\xec\x98\xdf%Y\xec\xd1\xe8\xfa\xbe\x05\x03&amp;\xb7G\xad\xcb\xd9\x95fN\xe1\xb5\xf3\xeaM]\x17VVL\xe4\xa3\xebf\xe9\xa8\x95 .\xf4\x8b*7\xb8\xc1Fz\xb1\xf9\xfd\xf1#\x9er\x07`\x8fu\xf4W\x9f\xfd\x0eRH\xc8\xac\xa0\n!!xBN\xe1\x133\x8ccg\xf2~m\x8c\x9d\xd1dy\xfb\xed\xb0\xd7\x7fB1\xc9\xb4[\xccm\x8f\x05p\x80\x91w\xb8Xi\x12\xf0Ex\x8b\xde\x1f7\xf3\x8fAY\xb0\xda\x85\xd8o:\xd6k!m\x19\x00\x08\x0b\x07\xb8d\x13\x94\xe4\x18\xc5;\xaf\xb3|\xb7o\xdc\x94A\xe6\xd6=)\x95l\xc2\xdfr\x02VS(\xd1\x00V\xa82\x17W\x93\xaf%\x98\xe1\xeb\xeb\xb0/\xd8d\xeb\xe7\xcct\x9a\xb5\xce\xceu\xd5\xc5\xeb\xb6\xcaf\x8f\x06\x1d\x03\x16\xdd#\xf6q\xd1\xa1\\\x1f\xa3\xf9\x9f\xd4\xfeE\xf4\xa3\xad\x99\xb2\xed\xe8\xbe\xb5\xc8g\xee\xbb\x80W5tj\x8ev\xf2\x19\x96\xdf\xe1\x9fq\xf9"\xd4\xf5\x9e}\xa3x\xc6\x1fv\xd4\xea:\xf5G\xc0\xbe\xf7\xf0w\xb0\xf4T\xf9\x8b\xb4\xe9\x7f-{W\xc5\x1bm\xab\xd4m\xdb\x14#\xd0y\x1e\xe8\xde\xa9\x19\x1d\x99\xeb\x17UD\x90\xda0\x02\xb6_#{\x83\xc6\x05\xa0\x89\xc0m\x0ftx[\xd8\x18\xfap\xd8\xef\xae\xf2\xbc\x9b0]\xb5-\x8d\xdf\xc74\xfd"\x0e\xdc\xf5)\xb7j\xca\xa7\x98\xc8\xb3\xd2*\xcd\xb9\xb6\xeebQOc\xd0\xa2\x99\x89\x9c\x84\xbcC\x9a\xcf\xbe\xabCR\xbf5~\x01T-F\xc9\xaaT}7~\xc477\xad\xb4\x84\x0c\xd2\x83\x01\n\xd0\xfc\x97\x08\xa8\xa2\x12e\x9ek\xd51\xcc=m-\xb9\xbd\x19\x9b}\x86.\xc1\x05u9\r\x03U\xca\x90\xc6Xrm\t\xa6\xedt\xc82\x91w\xb3&gt;i\xfa\x97\xc9\xe9\x9e\xde\x84\xa7\xa9\x9f,w\x90\xac5\xebi/\x08F\xe1\x01 NC\x88s\x91GU\x9d6t\xea\xf2E\x8c\x83$\xb4\x8ca\x9a\xb9V\xf57\x06[\xe7\xe8R\x91/\xf4\xe9\x9b\xa6}\xd5e\xc9Q\xe4\xf7\xb46ys;\xad\xf5\x1cW\x9cB\xcc\xfa\xabK\x1dN\xecp\xec\xa7aue\x86~\xc1\xf0J\x9c\xcb\xca\xf9g\x12\x90N\xd1\xae\x14\x84\xe3\x99f\xa6i\xe6\x86\xdf}\xf3\xb3\x86\xa7j\xb0\xf9\xbc\xb5\xdb\xe8\xc4&lt;\xea\x94]\xc6\xe1\xe5\xc0*\xaf\xab|\x9ckj\xf4\xa6\x87\xe2\xb0Y\xeb\xeb_\x85\x93Q\xe8z\xaeF{W\xdeY\xb7\x96\xd6\x0b\xefLs\xcf2zi\xf5\xbd7\n\x8c+\xee\x1f\x1c\xc13\xcf\xa1\xb0\x10\xa9r\xbe\xb1\xf2V\xf7\x9b^\xe2\xd6\x8b\x9a\xe1\xee\xfaE\xbeS\x9c\xdf\\\xd3J\xe4\x83\xd7\xc6\\\x82\xa7\x95k~Q\xb3\x19\n%\xd1\x89&amp;.ZT\x13 \x92\xa9\xc6L\xea\xde\xac\x89\x83\x94d\x82\xe16\x8a\x11\x11\x08v-\xab\xce\xfbU\xb9\xd2\x9f\xcd\xec-]\x90\x99\x8e\x84\x96\xba\xe4\x84\x15\x10;H|\xcb\x82\xef\x1e|\xe5\xf5\xbd=\xe8\xcf\x15z\xfa\xad\xb3lOT2~\xc9\xe7q\xb6\xef@S\xb0khODx\xe7\xd2\xf7yW\x81r\x7f\xa2\x7f;\x96\x9dr\x01\xb4q\xa4\x85\xe2\xdbP\x80\x0c&lt;b\x9aA9\x04\xaa\x8a\xa4\xa3\xaa\xee\x9a9+ \xfa%F\x13q\x0c\xe0d\x99qW\x19.\xcf3!\x8bm\xf47\x94}\x95\x87\xa9\r\x15h\xae\xe2\xea\xd0\xaa\xf7\xe8\xbb+\x80\xd0\x98\xeb\xf1\xee\xf8\xc7\xa4\xb0\xdd9\xa0\x9aV#u;\x8bnW\x07[\xee\xa9`\xe8\xe7\xe8\xef\xf1\xf8r\x8bw\xa03\x1aRm\x9fsO\x17yV\xf6\xbb\xb6\x16[pk\xf2X+\xda::\xdb\xbc\x814\xd5\xadJ\xe3H\xa3\xd4S2}\xef\x9a.t\x16\xb2\x82\x15d$:\x89\x99\x82\xab5]\xab\x7f\'\x0f#\xa6\x89d\x80\x96\xd6\xc5\xaa\xcc\xb0\xedE&gt;K5\xee/\xf9\xe6\xefM\xddY\x9f\x95\xc7\xd6o\x9e\xd9jw\x05W\x8dBQfw\x16\xe9\x8dV\xba(\xec\xe5:\x06\xe9\xb2\x02\x06MX\xa41k`\x12\x88;5\x9a\x9dl\x8b\x1cT\xdb\xea\xcep!\x83]v\x8a5\x9fFO=\xccXlt\xd9\x94\xfa\x1f\x07\xde\x96\xc9\xce\x865\x891\x12Z\xcd\x16\xe4\x98&gt;\xbb\x97\xf3:\xbd\xee\xaf\x03z\x8a&gt;\xb9\x97\xd93\x9a\xf5\xc3\xd5\xefAz\xb0Nx\xf6F/\xeb\x90\xd5?\xa5&lt;\x0f\xa5P\xc6[\x04\\\xb4\x0bgP\x11\x0b\xe9\\\xc8)\n\x86 \xacP\xc9\x9e\x03\xa8\x89\xdd\x16U\x01!\xda\x05\x88\xb5y\x02\x89\x9c)\x8a\x90?p\x86\xdf\xb0\x11\xaa\xefg\xd6\xf1\xfb\xa7?\xb7\xc8#&amp;o\xb1j\xb9\xac\xc8m\xcf\xcb\x11P=\x8f-4\x82Ku\xf8\xab\xf2\\\x04\x05\x1faZ\xbbp\xb4\xb5&lt;\xbf.\xc4\xb8\x92\xd4h\x8a\x0fE\xd3\xeb\xb3"\r\xcf5qSL\x01\'qE\x94Jr\x10!\xc1"\x8b5^\x05\xb90e0\x0f\x08c\xa4k\x11\xe3\xf8\xc7\x97\xd5*T\x08C8\xf9\x1b\x86;\xf3\xb2\xfa\x0e\xebe~L\xf7\xe5\x07\xd1Y\xb5\xf9\xee\n\xf3O\xc1\xdc\xad\xd3\xe6\xaav\x8e\x8ap\x8c\xa1\tgH\xea\xc9\x9c\x11\x9a\xaf\x91D\xd4NB\x10\xc5RR\x9c\xaaI\xc6\x00\xda\x85\xbe\x89u\x8b\x06\xa2\n\xe9\xa1S\xa4\xc0\x1d\xd2f\xbd\x05fz\\\xf3\t\xda\xad\x84\xd9p]^\x1bI\xa0\xd5j\xe5\xa8\xd24\xce\x7fK&gt;\xa8\xcdE\xd1\xa2\x0e\xf7E\xb3\xc6\xd9"I\x06\xb7\\\xe5iV\xfbZ&gt;\xcf\xacX\xf469\x93\xcd\xf9\x9a\xba:\xe3W\xda(\xae\xa5E\xdb\xb0\xeb*\x11K\xb4T\xb2\x8d\x0e\x19\xe0\xb7UJ\xe6AB\x16\x14M\x15aI\x95\xd5\x8b^I\xd5p \x89\xc6\x05\x94\xa6\x1e\xda\xdah\xd5\xf3*c\xe9`\xab\xfc\xb0K\xe8\x8f\x8a,\xae\x8e\xea\xe8\xad\xb5T\xe7d\x0f\xa7\x9e\xfd\xfc\x02\x9a)\xb1-ZpR}$\xa6Y#\xd7F\x1e5\x92\xa0\xf9\xca]\x92\xedvj\x8f7\xb7\xb5\xd2\xea\x93\xfc/\xa7\xdc\xebPO\xf2\xfaJ\x06}~\x9b\xdf\xe40\xb3i9\x97W\xe7\xca\x94\xa3\xa3\x00wt\x80%\xe5\x8b\x150`\xe0P\x18\x172\x16w\x03s\xdb\xde\xee\xe6\xe6w9t\xee\xa1\xf4z\x8d\x08\x96\xe1B\x0e\xd9s\xe6\xdc\x9e\xbc\x9eo\xbc\xf9\xdf\x97\xddoI\xbcH-\x94W\x1b-W\xaf\xc4W\xc8\x1a&amp;ge]\xc2L\xf7\x0c\xbc$\x9a\x87\xad,\xd6;\xa9\xc9\xd3\xdf\xe3\x19q0\xd0)\xf9\xef\xb4\xde3\xeb\xddo\x08\xe5\x93\x9d\x15+\x1c\xfa&lt;\x1d\xb5\x987\x82\x02n\x1auX\xb21\xe5\x12Y\xbdJ\xad\x93C\xf7\xf4\xabV\r\xb5XK-b\xd5\x8c|\x11v\x0fIE\xa5c{\xb344\x1a\xb80nl\xf06..\x8c\x9cl\xcd1\xe9o4\xec\xb9\xacq\x84])Z))@\xb6\xa1\xce\x91\x81p\xabua\\S&lt;\x872}\x00\xc7\x19\x0bk\x1e!\xa4P\xc9\x98\x83\xee\x18\xd7\xb8\xe9\xd3a\xa2\xe8\xad\xf3\xf40\x8e\xd2]D$\xee\x13G]\x914\rK,\xbf9\xb9\xd2\x9a\xb81\xe1,\xa0-$cc\x84\x9f$$\xcbE[K\x14\xab\xcd\x83\xcf\xce\xa1\xf4^\x85\xe4G\xd5m\xf5\xab\x1c+\xb9?J\xd8k9\xacvn\xbe\xafOq{\xcf\xdb\xcd\x9e\xd9i\x16\xf32&amp;^\x8f\xc6{\x7f0\xabp\x06\xdf7\xdd\xc0@\x07\x14\x03\x993\x18}\xbf\x1d\xdb\xaf\xcdq\x91\x81\x90\xe8s\xd7w\x13?\x15\xdb\x82\x8b\'G\xaf\x13]\x9b}Wp\xa4q\xbbPt\xcd\x0e"Y\xe7=\x02\x1f@77\xce\xb4\xef5t\xb8\xd9Bc\xd8w\x14\x8a\xf2\xc4\xde\xa5"D\xd5\x8a6\xc9\xaf$\xa4\x9cEr\xda/t\xca\xb5Q/\xb9\xdah\x17\xac;!$\x99H\xba\xa6\xc4\xae\x92j\xed\xd6H\x8a\xed\x86+B\xcfv|\xcer_5\xd8\x99lId\xdb]\xb5\xd4g\xec\xaeW1\xd43v\n\xc0^X:\xcei\xb8&gt;\xe7m\xceg%\xa7\xd8\xb1\xf2\xae\xc9\x80%IT\xf5\xcc\xdc"\xf6\xf8\x07u\xb6\xf3\x1fc6\xceiz\x1d\x9e\x9c\xec&lt;\xef\xe9\xe9\xfao\xf2\x12\xda\xe6C^\xb5\x0c\x99\xc3h\xec\xadq\xd6f\xc7\x92\xe0\x16\x9b\x88\x01\x962:hm+}\x88i\x97t\xdc\xcf\x9f\xa3\xec\xb6\xd3E\xb1\xd1\x9a\xda7s\xcc\x1e\xad\x8dnr\x0f\xa1\xe4\x11\x15\xcf\xa3\x84\x85\x9e\x0f\xdaqr\xfa\xe5\x8b\xd5\xf1~}h\xd4\x7fmG\xa6\xf9G\xd2\x16R&lt;\x97U\xf6\x1bG_\x1f\\\xbd\x033\x9b\xb5\xe7\xf2nk\xe1\xf6\xfe{o!h\xcd\xd0\xaaNZ"\x16\xeb\xbc\xf6\x1d}\xc9\xdeV&gt;\xf9(j\xf3-+\xd9\x13\x1d\xaf\x96\xf8\xc5\xbf\xbc\x19t|o\xcf\xb4\xfdq\x83\x0bh"\xaab\xc9\xcd2\xad+\xab.\x83!\x03+\xb7\x13\x89\xea\xd4\xf3W2NE\xab\x19\xca\x9e\xc7\x8b\xa1\xac\xa4\xb1x\xdd\x865\xab}[^\n\x8cT\xc4wW\x9f\x11\xe2\x9f\\x\xda\x8d)\xf2\x85\xcd\xac\x149\xe2\xb5\x99\x88\xb1\x15\xb2\x1d\x96{u3/ IE\xed\xdf9J\x17\xf7\xac\xebBV\x8c;\x17\x10#5\\\xb4,\xd2G\xaeH\xcb\xd3\xa6\xa1jkkf\xb5\xcc\xba\x1a\x99\xac\xa5vf\xec\xac\x8c\x91\xec\xf4=Z\xbef{z\xcdug\x11\xba?kT\xe8\x80KNy\xd0\xaf\xcd\xbev\xf5&gt;\x05RM\xc2^\x89\x95\xb3e.\x13W\xd5M\xd2)\xb3\xd7\xd3\x89\xd3\xbd9\x87\xdc\xf5\x84\x1a\x8dv\x1dD\xce\xd4\x9f\x8a0\n*$B\x00`*P4\xc0\xb2\xd3\xeb\xaa\xbcvN\x95\xb6\xa3\x07M\xa7\xac\xf39U\x81\xe9\x8b\xe72\xb4\xf4\xda\xbc\x92W?^\x99V\xb8\xd3{?2T\x08\xb6\xdf8\x8d\xde\x9aX=ET\xf3\xf0\x05\xf6&amp;\'\x96\x88\xb3\xd9\xbd\xe3B\x81\xee\xa4&lt;0\xa9\x1e\xab}\x80\xd8\xb3z\x7fV\xd0b\xa1\xee\x97\xf9\xf8\x04t\xe0o6\xfb\x05[[\xd6}R\xdb\x87\xec\xf0\xfb=\x02\xc3\xc9\xfa\x05\xed\xedF\x9b\x7f.\xfd+\xe4\xbfJz\x1f\x8dRO\x8dB&gt;\x07\xe4ge\xb6\xad\x9b;~\xcfn\x1b\x94\xddZn\xea\x1fYh\xf6\xeb\x12a\xa775\xc6z\xd3\xca\x9e\xc6\xe5u\xd5\x0e\xee\x7f@\x94\x1b\xc46\xbe}^N\xc1\x17v\x7f&amp;y\xe3i\xc8mv*\x99z\xaeQ\x8b\xf1!\xbc\xf4{\xc6\xae\x0e\rG\xf4\xe8\xb4t\\]\xb53Vx\x88\xc5\xbbR\xaeU=i\xfba1\xbd\xde\x81\xad)\xd2\xa5\xeb\xd5\xaa^\x8d\xab\xd2\x9ah\xa2\xcb\x0b)\x15\xca\xe9&amp;\xe1vv$\xfc%\x9e6\xbb$\xcc\xb4\xddo\xe5\xad&amp;\xa3-jn\x1a.5\xa2s6kRp\xb3\xdd\xaa\xb0\x8f&gt;nXECD@\xebe\t\x89\x95\x91j\xcd\x91\x9d\xf4\xb8\xc8v\xec\x1b\xaf\xcb\xcdA\xdb\x1c\xbb\x95Q\x03\xc2\xb0\x17Z\x93%Km\x8cK22\xeb\x88\x06\xcd=\x13\x19d\xcf\xb5\x95h\x95l~\xdeR\xb6\x8b9b\x92m\xe4\x08\xe5\xe5%i\xeb\xc2\xc8\xbdA/\xa3A(\xd3\xd1\xfceD\xbb\xad\xc0\x99\x84$1\x92\x19\x15\x04\xf6\xd81r\xebwh&lt;\xdc]n\xb8\x1a\xaf\xa1D\xcfr&gt;\x90\xd116\x1fN\x83\xb4LE\x93B\xc7\xfbO?\x7f\x91\xf3bZ9z\x12p3\\O\xa0\xc9\xe77\xac\xa3o\x9f\xa7\xdf\xf3\xf5=/\xc5t,\xb6\xd3\x14\xb22\xff\x00F\xd1\xec\xae%\xbcJ\xd6%\xfef\xaf+~U\xf4\x1c\xe6\xe6\xe9ab\xe29\xea\xb8\xfa\x8b\t\xdd\xb8\xdd\xa0\x01.m\x08\xa2\xa2\xb6g\n%\xff\x00\x1f\xbe\xaf&amp;\xd1\xe7Xn\xcc\xc1gl\x11\xe1&amp;!e\xeb\xb6j6\xc1@\xb2\xa8\xf9\x16Vl\xfay\xc4gYRlf\x82\x16\x17\xeaE\xd2\x9b \xd5l\xbbH\xdd\xc7\x18\xd7\xf1\xe8\xb2\xe1\x9b&amp;/\xab\x1e\xdb\x9bX\xab\xb4\xdds\x80\x91\xcf\xb1\xeb\xd0+N\xd8\x83\xa7\xc0J\xd5\x01\xd0\'\xabS\x88r\x9a\xee\x93\x98i\xaa\xe5\xa7\xe2\xfbF-:~\x81\x8b\xe9\x06\xec\x13\'\xbbUo\xaa\xd5)\x16\xe4R\xd9\xc2P\xf4[p\xc8\xf5zE\xa96\xdf\x18\xdczX1\x1a&gt;\x91\x9b\xcb\x04\xc9\x8a:\xbe\xe0\xf0\xe7\xb8\xf1\xf7\xe8\xd1hH\xe5\xb8\x87\xe4\x1b\x1axF\x91\x9dm\xc33\x1f\x07f\xcb\xec\x9a\xc98sO`$P\x92\xcf\xd2\xeeQD\xd2\x8b\tZm\xdc\xca\x90\x00z/\x8d\x1c\xa5\xe8\x07\x83\x8c\xee\x01\x91\xff\x00\xb5&lt;\xa3m5\xde%X\x8bW\xe7\xdfFc\xfbR\xdb-\x15f\xa9f\xf5s\x90s\x14\xdc\xfd[\x9eQj\xcd\xf3u\x8c\xa7v\x0fL\x00\xb9!m7\x1e\x90\x96\x8c\x93E\xca\xb6\xf9\xb8\xc3\xa0~\xff\x00\xcaW\x97\x81z\xc9d\xaf1~\xac\x80)\x1c\xa6\xf8\xfe\xa3c\xd5\x9a\xd2\xdd\x94m\x95\xdfM[X\xa7\xb2\xf4Z\xbd\x8b\x91\xd2Q#4\x04\x8f\x1b&lt;\x90\x9ef\xf47\x8e\xb5\xe6\xc9\x15E\xf6\xaa\x89U\x9fd\x8e\xc5%b*y8E\x1b\xa5\xb6\xd9\x9a\xad\xea\xec\xe7n\x87_UZ;@oU\xb4[\x8c&lt;\xfe{\xd8\x00pkd\x95\x8a\x17+\xcbQ$Q\xdf\x8e:\xcfK\xbfs\xba\x11\x14\xab-"\xb7\xb2&gt;\x83\x9fV\xb2$\xb9\xf3]ny\x04\xca\xc4k\x119=\xd8\xe5\xe2\x1b\xdd\nK\x16\xddf\xc3^e\xc8\xe8\xe6*4q\xa5$$\xa2\xa4\xae\xce\x88HI\xa9kU\x91\xad\xda\xb8\xde\x8f\x9eJi\xcfw\xc3\xfd\x07\xe7\xe2\xc9\tx\x13\xeeX^\xb3U\xf7\xc98\x19\xfc\x9b#\xef:.{\xae\'\x85\x1a\x8c\xe9:\xee\xe6\xdf\x97\xf4\xe87\xd3\x0f\xe9\xdc\xd4\xb68\x95\xd3\r\xa0d\x1b`~\xf3\x85\xa6.\xfe-\x18;\xbb\x9f\x1a\x0e\xe0` \x1c\'\x07\x04\x8f\n\xd4a\xba\xec\x1ek\xe6M\xb2S\xcf\xe2\x1f\xd1V\xfc&gt;O\x91\xf4\xbd| Ke0U=_%\xcf\xd6z\xa2\x0e\xf1w\x8a&amp;\x08Hq\xe9\x0f\x92kY\x07C\xc72U\x00\xec\xfc\xe1\xc8\xa5\xd1$\xe2\xd6T\xaa/\xa2\x1c%\xb2\x17\x08\xcdJ\xda\xf3h\xb9\x9a\xc1\x13\xd6Z\x95\xd6\xda\xbd\xcf-\x05$\x95\xcdG\xba\x8c\xcft\xc3\x94\x95\xcf\xaa\xa1\xe1Od\xf8/\xa1\x85\xea\x90\xe4p\xcd\xc9$\x12\xc8\xb8\xc7,\x95\xc1\xba\xab\xd7e\xaeb\xb1)\xa3,\x9ctl\xa5\x8b\x12\xed:\xddv^\x0fE\xb7\xd5d]\x86\xbb\xa6\xe4\xd1\xa7f\xb6\x86w\xe5\xcd\xa4\xaa\x17\xdb\x15\xad\xc9\x95s\x95\xd0\xec\x9a\xd5\x01\xa9e.\xd5\xeb\xdekY;\x88S\x16\x89\xea\xc5\xa6\xa7\xa6\xab\xa3\x8a\xb5\x93\xbb\xc3\xd2|\xf7\xa3@Wn\xb2J\xd4\xff\x00\x9f\xeeR+\xfa\x86w]\x96\xb4`\xdcm\xc9`\xb0Wg\x98e\xcfj\x16\x88\xd8\xf4\xc3\x18}\xb8\xf6\x8c\x1b\xd0\x18\xc85~\x12\xa5\xd2\x9a\x83;)Y\r\xc3\xc6\x9e\xb9k\xe0h:L8\xdb\x8b\xe7\xfb\xf0\xa5u\xa9\xfa\x9d\'\x9d\xedw&amp;\xbey4\xb3\xd6\x91~dZ[`\x8a\xaf\xccY\xcau;_\x9a\xa7\xabP\x13\'\xd9\xf9\x89\x8a%j;\x83\x94\xf5\x92;\xe8\xae\x8c\xde\x03\x82\xfa.\xefF_\x99\xc6\xfa%\x9bS\x7f\x8dMe\x82\xcb\xd2\xd3Z\xbf\x9b\xe0}\x82\xbeUZ\xd7\xa3\x9a8DG2\xf5k\x0c\xb5\xd1TE4\x9b\x8ar\xa1\x8ek\xf8\xd7K\xc5\x14\x08=o\x9e\x95R\xa4"\xee\x19\n\x85\xadu]\x06\xbd\xfe\x9d\x95\xf3D\xce\x1e\xa7\xa4n\x15K\x13e\xcb\xb0oqBk\xc1/+\x159\xbf\x90\xe22Q\x95/2$O.\xbc/\xc4\xfe\x90\xf37O\x04\x83Q\x8eK\x9f\xc8\'\x14U\xa2\n\xa9U\xcc\xdf:\xb4\xc8\xd1\xf8Y\xb5eb\x91\xcdeq\x90\x8bEQsKmr\xc7\x9fD&amp;\xa9\x92\xe9y4[_\xd4.\x1d\x0eo\x99v,Of\xab@\xd2l\x15L:\x93d\xd9\x9d\xe3C\xd0h\xafq\xdc\x83\x8eZ\x8b\xa7s\xbb^}\xab&lt;\xd4\xb5E\xefG\x9f;3Iz\xd3C\xbadV~/Z\xe2z\xcd\xeb\r\xf8\xba\xae\xe9\xfa\xea\xbf\xe8\x18\xfd\xda\xc5\xce,T\xfb3\n\xdd6\xdd\x05\xd1\xc5\xa1gS\xcd@\xcf\xcd\xa4D\x06\x8fs}{}+j\xfeN\xb7S\xbf\xd3\xad|\xe1\x0e6zn\xaf\xe7(%]\x8b\x1ek\xcb\x98\x04\x04\'\x01\x82@\x9f\x81\x90\xa7\xa9?&amp;\xd4\xf8\xbd\xbdq%\xd0\xeb|\xdc@\x01\xf1p\x94a\xd0}\xe7\xe2_l\xef\xe5\xb6w\x92x\xce\xd4\xfaH\xb7\x83=b\xb2\xcb\xe1o\xa2X\x9d\x1d\x16\xbb7\x9b=\x03Grz\x99r&amp;\xef?\x90R=+\x1f_S\xc7\xf0\xbe\xdb\xaca\xf4^p\x8f\x97\x84\xf3?Q9\x91V,&amp;o&amp;\x87w\xe5\x11\x06!\xf4p\n\'H\x8e\xeep\xa5-\xf7\xad\x19\xb7\x15Ly\xbdz\xbd\x1f\xb4y\xbbM\xae^\xe5h\xf6F\xaa~\xd7R\xba\xd9E/\x1c\x99\xcd{|\r\x05L\xe8\xda3Bd\xb2\xee\x92\xeaM\x9a\xea@j\xd0\x9aB\xec\xac\x9dF\x1d\x91\xf3\x9c\x92\xca\x1eQ\xb3\x1az\x1beE\xec}w\xcf\xd7\xe3\x96GN\xdbR\xb5f\xba\x1d3\x99[M\xb6\xd3n{py\x83r\xc4\xb5\xfa5P\x14\xa5\xdc\xe8\xbe\xba\xc8\xf2*\xda,c\xb6\x99-\xb5F\xce\xd4r\xe8\x9c\xc9\xf5,w\xa1\x96vB=\xc6\xfcN\x94`\xc5\x96\xd9h\xcd.|n\xad\x8f_\xc9\xac\x19-i\x9bh\xf9\xd3\xc5m\xf5I\x19+V:e\xa2\xfa\xeb\x06\x81\xb2\xf40\xd6\xd7\xb4\xc6X\xadm\x10\xb4\x98\xf6*\xe3\xcb-f:^&gt;\xb0L\xdbI\xefRYN\t\x90ox\x1a\xb0\x01\xba\x8d\x01\xc6\xe8C\x87\xa0\x03\x93\xa3^H\x83\x9ew\xd0!\xd8\xcbCt\xbc7\x08\r\xdc\xe2\x1c\x86I\xb9\xfb\x0b\xcb~\x9b\xe9\xf20o%zW\xcdY\xb78\xb6Tz\x8d\x1fMZ\xaa\xb7S\x93\xe0\xe6\xee\xd8\xf8\xbf\xbcZ}\xb5\xe0\xcfx\xf5|:\xd9]\x93\xc5\xfa\xf0\xfb\x85\x0f\x10\xbd\xc9\xda\x9ek\xcap\xfe\x86\xc1\xdb(\xf6\xc7\x99M\xc0\xccz/\x8d\xc4\x19f\xeaN\x99\x8ak\x17\xcc^\x0b\xaeQ\x13\x14\x9c\x1e\xb6F\xd5N}\xb7\xcb\xecw\x1c&amp;\xe3\x97N\x8e\xf3/\xe7M\xe3\xd0~D\xf4\x0e\xceO\x9d\xe8\xb5J\xae\xdc\xbac|\xedy4YLy\xd9\x17)\xcc\x86\xdc\xc2z*\x16\x11N\xa9\x0fLf\xa4\xe9\xa4Zo\x9f\x8fb\xe1\x96R-r\x88\xa1#\x9c\xc6Z\xd1P\xb5g\xb6\x02\xc9\x01v"\xcc\xfd\xfey\xab\x15\x12\xfbS\x98M9\xb5\xe6\x95q\xaa\xdal\xc4Z\xd5\xb4\xbd\xd2\x98\xa5GHk\x04\xcb&amp;\x8b.A\xa4g\x9b(\xb3\xc2X+[3\x82 \x8a4\xc6\xb7\x93k|\xbd\xe9\xabW\xb6e\xb2j\x9d\xd4\x9b\x04\xd4\xf5nb\xc1N\xb1\xd7e\xacD\xa9\xcd\xd5\xdb\x91\x07v\x08\xa2c\'\x9d&amp;D\x8d=\x0bL5\x8b\x02\xfae\x94[\x1f\xd3\xddn\xe6fY\xed\x86\xbf\xcc\xec\x87wWg\x0f\x0c\x81\xc3\xd2\x14\r\xc4\xdc\x9eFNs&gt;\x83\x03\x05`\x80\xe8\xf8\xb3\x10\xe4\xbf\x92\x06)\xa1\xf5\xae\xf9\x86\xec\xddN7\x93\xf0\x8dO+\xc1\xd4Z\xc7[\xd4\xeb\xb3\xdbq\xd2T\xbe\xb77\xc8\xed\x1e\xb1\xf0\xdfw\xbb{S\xca\xfe\xa4\xf4?6\xa7x\xd7\xd3\xde`\xe7\xfab\xb8A^g\xab\x96t\xc1\xf2l\x8c\xa5^3=\xfeJ \xe9\xab\xd5\xf9\xe7w\x00P\x0e\t\rs\xa4\xab^\xfdc%v\xde\x9e\x8c\xa9\x14G\xa5\xe6\x1f&amp;\xdcj\xb2J\xd9\x9f\xea\xc1\xaf\xfb\x1cl\x8e\xfe_\x88\xe0e\xa0\xf3lP\x13\xea\xddAL\x0c_\x91\x13\'\xa3X\x9d\xd5dx\x010\x14\xc8@\xe9\x96\x02\xb8/\x02e\xdb\xacbV\xea]\xbe\xab#4\x8c\xda\xe8\xf5\\\xb1\xfd\xb3\t\xd3\x9fH\xa3\xddq\xe4\xbeE\xd2\xd0\x8a\xca\xa4\x9a\xd4\xd9o\xa6_\xb3wM\x1f9\xd23x5\x0c\xcbM\xcc\xda]j\xd6\x8a\xa2\x96\xe9\x97\xab\xb2kD\xc9\'\xf3_9%\x98K\xd6]\x9d\xa9\x9aX!\xcd\x1cd\xeb\x86\xed\x8c\x89l\xcc\xda\xb3\x8c\xdb&amp;\xf2HE\xbe\xbc:1\x9cvmX\xdd.\xc5Kix\x91)\xc0\xd2\x1a\x8fs:\xa0!\xc0\x9b\x80d\x10\x01 \x00I\x1a\xcfu\xcf5\x8eo\xd0hU\xcbEO\xa1\xe3\xc4\xc55\xdcn\xe1,\x9e\xf1\xd2k6\x0e\xaf\x0f\xc0\x14y(\xde_m]\xfb\x00\xf5K\xd7\xe9\x1c\xbbB\xc4\xf5\xb6\x11\x1a\xfe?\xc7\xfd\xa3\xd1\xbe\x86\xc9t\x9fQ\xf2\x1cO\xce\xda\xeeE\xc2\xfaH(\xd9\xd6.\xda\xf3\xb5\xbb:k\x83\xcb\xed\xb5N\xcf\xcecUMM^[\x83\xba\x02\xf7\x04\x9c\x02\x00\xab\x7f\xaf\xef3W\x9eE%/\xe7)\xc0\x81\x0e=\r\x86\xfa5\xab\xd3\x14\x80[V?\x1f@z~\x03.\xcf&gt;\'\xbbb\x15\\\xd4HZ\xec9\x93\x02\x14\xe4\xc0EE 1nDaX\x04\xec\x84z\xd6\xde\xc9\x02\x84\xfcT\x916\xda\x9d\xae\xab \xae\x14\xf9\xcb+\xdf&lt;\xbd\xe9\xdf1h\xa3K\xcd\xf6\x8c5n\xb6\xc4\xd8(\x82\x1a~\x1a\xdbM\x8f\xa83\xcd\x08\xb6\xe6\xd7\xda\x11\x1aVu\xa1g\xcd.\xf5;$\x02\x98n\xe0\xa2\xe1\x12\x9a\x13;g\xc2H\xa9\x13\xc8\xd6\x06\xec&amp;`\xb7\xb2*V\xd5\x0e\xd6\xc0\xe2\xfc\xd0\x93\xea\x1e\xda\xdd\xa8\xc9k\xaarf\xe6\x11\xc0\xb4\xe9\x1e\xd3-\x15U\xb2\xa0\x02\x18:\x02\x1d\xd0\x88wH!\xdd\x00\x14\xfa\x8b\xae]\xb3M\x10w\xb3Z\xfd\xc6\x97^b\n\x84\xbf\x8a\x054\xa8?E\x9a\xccg\xbd\x9e\x0f\x80\x8cSq\xbb\xe7\xf6\xcf\x89}\xfb~[\xdf\x97\xbd-\xe46\xea\xd5c\xe4\x18\xf9_\xac\xfbKN\xa6M\xfa\xef\x89x\xda\x95b\xaeyo\xb5 \xee&gt;C&gt;\x84-\xf4\xeb0\xd1\x9a\xc1&gt;\x8e\xef\xfc\x8c}\x19\xe7\x9b5\xdc\xadVG\r=\xd4\xa1\\v\xcf&gt;\xae\xee\xe5i\xbd\xd3\xce\x1aA\xba\x92\xa1\x15\xbf\t\x8a\x02F\x89\xb9\xe5\x9a\xdd\xf9\xd7z\xbb\xbb*c,\x8d\x80\xd7\x1f\xe3\x0fux\xed-\xca\x01Q\xc9\xb9\x10P\x88D\x07\x98\x14\r\xc2\x17\x8f\xc4\x98\xaa\x03(O\xc0\xc9\x95|\xd5\xc7A_\xb3\xd6\xecYt\xc2\xcaD\xdc.\xa7X\xf3\xa6\xd7\x8fh\xa3W\xc2\xf6,yn\xd0*\x16\xdaK\x14%\xa0\xd5\xc5y^\xb1Z\tH\xde;#\xd6g\x12\x08G\x00"= \x9d\x8a\xdd\x19\x18\xd6\x81\xc8&gt;\xa6\xd6+OX\xac\xad\x85\xbd\xc3\xed9p[\xadN\xe5\x8fZk\xa4}\x19\x9d\x8ab\xf5\x9dDD\x85\x85\x101nD\xcb\x0f\x9d\\)9\xf5\x80\x08Q\xa0\x00\xc1\x08wt!\xc3\xd2NjyL\xd7G\x06\x93!\x88X/\xa2\xef\x8d\xda\xa2h\xb9\x8a%6[\x8bx\xa2\xec\xa2{3 \xd7&lt;\xd9\xd8\xe2y\x8c\x04\xbcO@o\xa4\xde/\xf7\x16\xfes?\r\xfa\xbb\xc8\x98\xbd\x93\xc9\x08\xdb\xa7\x07\xdcz\xf4I_\xf6\xdf\x16\xf2}zz\x0b\xc2}\xed\x84\x8cd\x8a\xd2\x82\x89\xc5\xdd\x9a\xb0\xdd\xd3^\xef\xc9\x92\x12\xf2\x91\x00\x10{\xb8\x08\xe1\x01\x11\xdb\xb8\xd9\x1b\xaa\x05H{k(\xaai7\xeb\xbd^\xc9\xa3%\x81\xdbG\xb6(Xk63Q\xfc\xcf\xeao:\xd6\xfeq\xe1\x0c\xbd\x02\x80\x82\x1e\x01\xe1\n&amp;\xe6\x040\x08\'\xe1#\x01Y\xb2*l\xea5t\xf5A\xcd\xc3K\xe5\xd5\x17\xa0f\xba\x86\x8c\xebg\xd6\xfa\xcd\x8bl\xcat\xcc\xf0Ym\xacZ\xa9\xd0HK\x0cMvJ\xc0\xdb*\xf0Z):\x0erWG\xce\xf5\xecm\x86\x8dO\xbf\xe7fN\xc8\x9e&amp;\x06\xd5\x89hZ\xadP\xc9\r\x16\xb9\xd1s\xab\xc6\xcc\xd6\x98\xc9,\xfa\xec\xede\x9a9\xa2\xf9\x18\xd9\xa9v\xaa\x01gq\xe5V\xe4\x95#\x8ad\x88\x10@\x11\xa3\xabZ\x1c\xd6}X\xf8h\x104\xdd]\xe9\xf9\xd8\xd4!\xd5&amp;\x04\xc5\x89\xb3T\xc4\xac\x92J;EZ\xde\xcf\x80i[\xf9\x9eto\xb0c9w*\xa35*\xb0\xfe\x89\xf3\x9e\xf9m\x1e\xa0]\xda\x1d\xbf?\x9f0\xd3O\x9fC\xb7-\xbc\xd2\xadJ\xaaEI\xf9\x1f\xb4=\xd72M\xf6\xd4\xdcs\xcd\x03\x12\xf4\x9f:\xc5b\xe4\xa3\xbcW\xda\xe2\x9f\xc7&gt;l\xa7\xaa\xdb\xa9\x1a\xb8\xad\x1b\xb8o\xd8\xf9\xb2!\xc0\x96\x0fp\x06\x1e\xe0\x80{\xbaE_5yu&amp;8\r\xb5\xc9\xb0j\xfd\'\xa1\xad4\xab\xb6\xac\x96UNKQ\xbc\xd4\x14\xecG\xd8\x96\xcf\x98\x01\xe4\xc01rt\x8a\x07*\x10\x0e\x00DC\xa00\x90Z\tV&lt;\x8d\xc4\xe1\x0b\x99\xb8IB\x91\x12\x91\x8fr\xe9\x8c\xd6rM\xbfVZ3`H\x99\x8a5\xfa\xaac\xfa\\\xf4\rozh\x9c\xf3-M8\x89\xea\xed\xb1\xe7\xf7\x9ak\xd7\xa5\xe5Zv_&amp;\xbb\x96\xeb\xd8\xd3\xae\x91R\xbbP\x965\x8e~\xfe\xab\xab\xe40Uj\xfa^i\xb7\xea\xc8l_S\xcd\x19&amp;\x12]\x8a&lt;\xd0\xa4\xb3\xd5/!Y\x07Kk\x18\xa7\xc5[2\x9cv\r8\xba|\x9a\x96\x93Kw7lM\x8e\x0fCV\xcf\xa3\xef\xf1*h\xa3=\x0c,M\xbb\xe8\xb8" \xe6\xe3\x1c\xbc\xbe\xd1$:X5//\xfa\xb3\xcbVW\x0e 8\xb7\tL\x06KY(\xc0\xc9\xb9\xc9\xf9\xe8\xefV\x91\x9b\xf2\x95\xe9\xb4;h\xef\x85\xf5g\x9e\xa2\xf2\xcd\xabF/b\xf9\xb2\xe9\x84t\xbc\xfaMVG\xcf\xfd\x06\x19\xe3E\xe6W\x19\xd5\xce\x95\xd3\xf1\xce\x11Pz\x1eA\xa8&gt;\x1a\xd9\x87Ht1\xe1#\xc2G\xf4\x97\x10\x8b\xb2\xad\xa2\x85\t\xc5u\x07\xad\x13C\xe8\x1bV\x0fn\xb76\xf4\xe38\x9c\xd1\x9e\xc7)N9\x97\xbc\xfd\xbc=-\xe6\x84\' \xea\xdb\xc4\x10\x04\xbc%V\x1e\x00\x90{\x80E\x0e\xdc\xcc\x14(t\x83a\xacX\x80\x8b\x7f\x0f`\xa2\xf8\x1d\xc3\x0f\xdb\xf5e\xcc\x9b\x04\xa4g\x85F-\x84r\xb2\xd0\x95\xbb\x8b,\x19cV.U{\xda\x98\xe8\t\x16\xc5m\xf9\xc5\xfe\x8cW[\xc7\xb5\xac\x9d\xd7Z\xccul\x8e\x15\xd9\xcf\xd5\xf3\xdc)\\\xe9\xa8\xeb\xec\x98\xd6\xb5\xab,MBn6\x17,\x16-FY\xdb7\xb6\xd2\x92|\x99\x1c\x9f$\x18J\x99!{m\xa4X\xd0\xe8\xee\x1aX0i\xaa3\xb3\xbeV\x81u8\x98\x90\xa7r\x891\xc8X\xe3\xe1\xcd\xdao\x0b\x91\x8b\xba\xbabs\xd1{\xab\xc1\x9fH\xfcI\xd0\xf2x\xc0(J\xad\xe2\xbc\x99&amp;\xb6\x07"\xc3\x89NG;i#WBm\xdb7\x9co\xa69j\xbaI\xa0\xd2Q\xb2+i\x9b\xae\x89x\xb0\x90\x8cl\xac\xaa\xf3\x10\xfd\x8f\x9c\xa9a\xae\xdd.\xe3\xa8uU\xad[\x99\xd9\xccfg\xdcC\x1ev\x9c\x15\x86K3\xd1X\x1c\x15\xb2\x12\x16V:\x9bS2\x9c\xac\xfa\xcdK\xe2\xb7%h\xeb\x99w\x18\x18!\'\xa3\x00-\xac\xc5\xe0\x93\xb8\x06@\xee\xe1\n\x06\xe8C\x84\xb2\x1c\x03\xa0$\xfc\x04\xc01\xf3\xd0s\x94\xdb_\xd81\xfd\xc3F\\\xb2\xf7R\xbdZ*5\x8b\xbdmM\x87;\xb4S\x12\xcd\x06\x9f\x7f\xcb\xc3K^\xa9\xf7\xb6\xae\x84\xe1\x84\xf8g\x15)\xc8\x957\xac\xcbB\xcf\x99v\xdcCq\xc2\x9a[\xa9\xf6z\xbd\x168o`\xae\xa5\x8a\xeb\x98\xfe\xb3\xa75I\xb3g\xc0\x91\'L\xeb2\xceX\xafu B\x84\x9c\x89\xd1\x0e\x04\xe4\x91\x97\xb9Q\xb4\xca\xcd\xe6:P\xb9l\x81mcf\xaf\x1c\xf1\x9ch6\x02\xd4\x11\rq\x82\x8fb\xe2\xcbz\xc3f\x9a\\1MG9\xa3\xdao1\x15\x93v\xfey\x93\xa6\xb2Yt\xe8\xde\x83\xc8&amp;w\xe1\xb8y?\xdb\xd4V\x1eVS\xd1\xb3\x194\xf9f_\x7f\x92\xab\xa3\x80\xbc\xbf\xc3q~\x87^-\xb3l\xb2\x9f9\xab\xea\n\xfd\xb9\xf0\x16\x9bv%\x8b\xbaX\xc1u]\x94\xe6+%\xde\xf9S\x8b\xbd\x1e\xf6\xb4\x19b\xac+\x15\x04\xe5K\xca\x01(\xa6\xba S\x1a\x9d=Hgh(\xd2-\x0056\x88\x80\xc1\xdc= \x15P1\x108+\x19\xe3\x07\xcc\x82\x1d\xd6!@\xe0\x18\xbc&lt; \x14BN\xee\xe0L\x02\x10\x11\xfb\x07R\x0c\xcc5\xe7&gt;\xfa\x0e\xef\x83\xef\x9b9Y\x05\xf35\xb2\xb3;k\x13c\xb13\xa73\t\xe6\xd1;\x9f\xda\x19\x08\xbe\x8d\x90m\x96\xd7\x8a\xdes\xcd45&lt;\xa9\xc8)\x93\xaa\xcc\xc6\t\xa6\xe3\x9a\xbeVVz\xad`\x84\xa3D\x949\xc8\xa4\xdav_{\xba\x9a\xec\xacL\xcb\xa1\xe2l\x95j\x9bo\x9e\xa2\xc6_\xe5\x0fO\xb5S\xc7hS\xe4Wx\xa6B\xa3+\xb3b{UF\xdar\x16\xb6\x90R-\xaa\x99\xe2\xd2\xe0\x90\xde\xe1\xa9\xaa\x17\xb5\xc3\xb2l\xa5\x93c\xbd\x16\xc8\xd5\xa7\x9bd\xfa`=\x9b\xa7zO\x90RPU,\xb7_uo5u\xb5\xdd\xfd\r\xe403\xd6\xf3\x9e+\xb0\xdd^\xcb\xa0\xf9nv\xae\xa7\xa5\x95\xcc\xe5GF\xe3;\x8f\xea\xb11\xff\x00H\xf9R\xcd\x93\xa9B`U\xf8\xbe\xe2\xb4\x94\x8c\x05\x9c\x9d{f\xc9\xed9z\x08c\xfb\x0eA\xbf\xca*\xa1V\xe8x\xb3\x1c\x04\xc3\t@\xa9Z/\x13%H\xe8\xad\xa28e&amp;\xd0\xc8\xa3\xceHUeO\xaf\x8fH\xcd\x8d\xaa\xc8I\x8d\xf6\xe2\xecL\x04\x9e\x92|\x0f\x97]\xfa\x82RO&amp;\xf7\xb0\x9d\xbax\xcb\xbd\xb6\xfaO\n\xf7\xbd]\xc1\xf3\xf8\xbfC\xfc\xe0\xeb\xe7\xe1\xe0W\x11(\xac\x05R1.g\xeb\xd3Il\x0e\xff\x00\x80\xfa\x13N,*\xe7G\xd3\x89\xa0L\x95\x00R,\xc4\x141\x13Uk\x856\xd5\xb6,\xabE\xb6\xac\x97Y\xc9\xb6\x90r;5:\xf0\x8d\x02-_Ck\xa2[+\xcc\xb1\xb2P\x04\xcfx\x14x\x10\xb3\xd5\xa5\x1d^\xcb\xc6\xbe\xd1\x9c\xd0V\x00\xa5\xf4iV\xcfz|\xcc\x9a\xb7r\x84\xc5\xbe\x08\x96.\xa5\xeb!d(j\xee\xef\x95\xeb\x95\xcb\x0b\x94\xdd\x80\xca"\xe2\xdd[?gw\x84\xa9\xe0\x95\x8fg\x1dJ\xeb\xb8HW\x91\xae\xcc\xa6\xb9\xb9h\xe7\x9c\xff\x00\xabZ\xf2\x1d\xc3\x0c\xf4\xff\x00\x11\xab\x1c\xbd\x9a\xf9h\xff\x00NfV\xd5\x99\xb5\xf5\x9c!\x1ef\x1b}\x9a\xab\xb2\xabC\xad\x0e\x8e\xfea(\xe9\xb7/\xda\xaa\xd6j\x1e\xad2\x96\x8aJ\xac\xa5}\x1a\xadZ\xd0\xabX\xe9\xbb|\xe6\xcd\xa9fV\xee\xe7\x85q\x90n\x98[\xe5QT\x8f\xcf+\x99.!]g!\xf5u\x89\xa5\xafI\xc8\xf7e\xf4\xca\xdeTfO\xaf\r\xe3Vr{L\xbe#`g\xba\t\xe0\xd6\xc4{\xe0\xbf?Y\x19\xf4"\xa7\xe1f$\xfd \'\xcdVQ~\x98\xb6\xf9\xa0\x93\x0f\xa5L\xfen\x81\x9fD\x18|\xfb\xe0}\xec\xcb\xc2\xe1\'\xb6\xde\xf8[\xdc\x96W\xe2N\tnwB(\\=Q\x10{\x9c\x04,n\xb5-T\x0c\x9fp\xc3\xb7k\xea\xc3/\xd4\x8bbX\xc5\x05Qt\x99\xaa\xdc\xf3\xd5c\xc9H\xd5i\xb2V\xd5\x02\xfa\xc4\xa5l9N\x96fC\xa2\xe7z\xa2\x9c\xea\xc1Y\xb9+F\xa2\x99\xcc\xab\xda\xaa\xbd\x9e\xe0\x01\t\x01\xc3s\xc9iEf\x9a\xb2\x85\xb76\xf4\xa21\'\xd2O\xab\xcd\xcf\xf2\x9fQ\xf9\xc3\x0e\xd8T\xe4\xc3.\x88\xc0\x93\x01#7\xbc_t\xaeX\xd5G\xa28\x83\x98\xe9)q\xb6\xb8*\xae\x89LN\x8d\t\x03d\xaa\x16cl\xa8m\xb4z\t\x1c\xaa\xc9+\x8f\xe8\xd6&lt;Cf\xc8=?\xc3\xeb\xedd#\xf3Y+l\xcf\xb8\x8d\x1e\xcd\x89\xf1\x1b\xd6\x85\xe57vUg\xbcdW\\\xde\x9ac\xad\x97\x16\xd9/G\xb2\xd2\xae\xcc\xf7\x1c\xdb\xb1\x1e7\xa6E\x15\x18\xe4\xeb+Y\xb15\xe8y=NT\xec\xbb\x1e.\xcb\x9f\xb9\x99\xd9\x8a\x80\xaajq7\x89\x8ai\x03\xd5&gt;U\xf4\xf5\xf4\xb1\xf0\xf7\xba\xbc+\xbe\xbe\x01\x0cZ\xbb\x83\x89\x10\xe13\x8e\x99\x81T\xc9\x19O\x11D\xec@\x0e\xe9\x04\xc5\x12\x0c%\x18\xa4\x03\x147wp!\xee_\r\xfb\x9bF_\x12[k\x8e\x93M\x92I\x1b!\xcf\x9c\xb8\xd1\xab\x97V\xce\xcd\x19\x13U\xb5M\xa6\xb7\xb5\xe4\xdb\xe6\xeb\xf6\xfe\xec\xbf\x9a\x10\xf5k@\xfeb\xc5\xfd#\xe6\xc3N\xa7\x96\xe9\xd9\x83\xe7\xd0\xa0\xad\xb4\x97\n]kS0g\x1bFG\xacA\x8d\xe8\xf9\xbe\xaa\x8f@\x90\x80\x9cCU\xe0\xeao\xe1\x01\x90\x0c^\x92\xd4\xc9\xfcV\x9c\xb6\x8fA\xe0\xb3\x97\xd1\xa4\xc2[#uf\x7f\x8d\xdc\xeb\xd1\xb2d\xcanGL\xa5W\x81Kl\xc665\x17\xc3\xa4\xb8\xa9\xc2\x8d\x97h\x94\x0c\xd4\rv\xc1F&amp;\x95vWa\xa4\xa2#2\xd6r\xedr\xafT\xcbJI\x8f3\xe9\xb5\xfaU\xef+\xf4\xff\x00\r\x8a\x8e\x97\x8b\xaf\x18\x00\x82\xb7\x08\x0c\x82\x03\xc6&gt;\xd82\xd9\xd1\xd4\xbc\xb9\xac\xda\x97\xb0\xc2\xc2j\xc1\xba\xd7C\xb6ghc\xda8\x0e/\xa6\xaf=h\xa7[\xc1Z#X\xe8\x1bx\xb0\xd3\x15\xa8\xfe\xae\x19\xc7\x11\x92\xbc-c\xc9\x9cA\xf4\x87\x9f\xb7\xfb\xe9\x93\xf0_\xbf\xfc\x01\xba\xae\xee\x0c\x9b\x03\xbb\xa1\x11\xeea\xdd\xc6\x80\x0eAV2f+\x0e\xee\xe9\x04@b\x89\x8ah\xa5"\x89\xc6\xee\xeeF\xefox\x87\xda\xba2\xf9 \xcb8\x97\xa4W\x93\x8bUjY\x04A\xbdV\x96\x9f\xe7{\xb7:^\x13\xa9\x1f1\x7f.p\xbb\xdf\xa8;\xca5W9\x07\x9c\xf5\xfc\\c\xd3\xb3Y(\x9br\xec\x19\xbc\x85y\xd3Db\xca0\x82\xe8\x99\xa4\xc8\x95ms%\xb9\x03K\xb0\xc0\xce%\xb5\x81\x0e\xad\x87\x80A\xe0\x1e2q\x9b9\x96\xaa\xe9\xe9\\\x93\\\xed\xf9\xc3\xb3~\xe3\x7f\x1e\xb5\x9em\x95*\xb5\xf9\x04\x84\x0f3\xec\x0e\x05\x08O\xa1gz \x9a\xca\xf0\x92\x0bK\x8e(4s\x12\xf6%\x1a\xad\x13%\x03]\xf0\xb1R1E\x9a\xecx\xdb\xa1\xd4\xf4C\xfcm&lt;^\x92\xf5A\x16\xfd\x9f\x13\x04\xd5\xc3u\xcc@\x00V7w\x18`\x10\x82\xc9#\x11o\x1db4ZU\xafb3p\xf5\xeb\x9d\xaf5\x91c\\+6\xdc\x7fH\xcfH\xcc\xb5\xf8\xd4\x12j:=\xf5\xf9y\xce\xceMX\xb3\x87o\xe9Wx\xdb\x03\x9a\x90\x1e}\xef{\xf2G\xa7-\xabC\xf9\xf1\xf47\xe7\x9e\xc0\x00=\x93Xu\xbf_:&lt;\xe5\xdb\xec=\xb9q\xa5/\x13\x12\xbc\xbf\xb58WJ)/\xf7\xd5\x98\x1fl\x13L0a\xf4k\x03V\x06&gt;\x87\xb75&gt;LG\xd3\xf5\xf7&gt;\x7f\xee\xec=&gt;\xf67\x8e=qm\x1en\xbc\xd1\xf5\xfbV\xa79[\xbf\xdfUIh\xddc;\xe7s\xa5\xb7a\xf7&gt;Q\xbe\xd5]W\xe4\xf6\x19L%\xcc\xd1\xb4\xe8\xfeE\x9a\x960\xa7HG\xcc\xe2!\xd0\x08\x87@"Q \xe6H\xd0\t\x0cXS\xe3\x8a\xb18\xe2B|\xa7H\x98\x9cLV\xd5X;\xd3\xb4\xe8C\xa3\xfa\xbf\x9c\xd0_ZP\xdd\xceJ\xa1i\xcd\xf3m\xc0Ok[\xca}\x0e\xa46\xe1\x86\xa1\'/\x0c\x8fdB\xb2zm\x9e5}\x19\'\xd8C\xb7\x0e\xfd\x82d\x0c\x93G\x89\x18\xcf\x9d\x8c\x86\'\x00/_C\xd9\xb4\xe7\xaa\x11b\xd4\xe8\n\xbd"\\\xa0\xc8@S\x8c?\xa3|\xe7\xea\x1b,\xcc\xb4\x1aF\x9b\xdb\xe7U)\xb6\xfa\xee\r\xb2\xd0\xce\xd9\x17\xcc\x81@\xe3wR\xd5r\xdd\xbb\x07\xad\xb5\xa4\xce\x0e\xfdZCx\xf8&gt;\xd7\x9c\xa5\xe7V\xaa\xb8\xf2\x89\x82\x85\x18\x11\xf4\xa7\x9b\xbd\x04\x06\xef\xf3\xbb\xe8\xd7\xceMt\x8f\x07e\xd9\xae\xfaG\xc8~\xae\xc5\xec\xe2\xf3\x9a\xdb\xde\xa7\x8e\xa9\xdb\xa9\xcdm\xc3\xe8\x0b\xfe4\xc7\x7f\x1a\xe4\xeb\x1c\xca3\xed\xf5\r7\x0f\xea5z\x9e\xaf\x80\x80\xafxg\x8a\x9c\xb5\xbeS=I-O\x87\xb3k\x0fT\xf9[\xd3MF9,\x9ep[o\xa7j\xf7\xad\x98\xbc\xd9\xa1zg?\xaabp\x81\x9a\xe6\xee\xcd\x02\x8d\xf</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495611-gabriel-heinze-en-newells-no-fue-una-decision-dificil-de-tom</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Messi tendrá tres días de descanso extra antes del último partido</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>El PSG licenció a su plantel hasta el jueves pensando en el Mundial</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Lionel Messi y el París Saint Germain no quieren arriesgar nada, a dos semanas del comienzo del Mundial. Por eso, el astro argentino, al igual que el resto de las figuras que estarán en el torneo, recién regresará a los entrenamientos el próximo jueves, ya que todo el plantel parisino recibió tres días de descanso en la previa del último partido antes del receso por el certamen en Qatar.El vigente campeón francés publicó este lunes el programa de la semana tras la victoria del domingo 2-1 contra Lorient, y el primer entrenamiento para los futbolistas fue fijado para el jueves. Messi no estuvo en ese encuentro, que tuvo como figura al brasileño Neymar, ya que "por precaución" el jugador argentino fue descartado por una inflamación en el tendón de Aquiles.Se descuenta que el crack rosarino se reincorporará al plantel ese mismo jueves y podrá estar a disposición del DT Christophe Galtier para el último partido de la Liga 1 de Francia antes del receso por la Copa del Mundo. Por la decimoquinta fecha de la Liga francesa, el PSG -actual líder y defensor del título- recibirá en el estadio Parque los Príncipes al Auxerre, el próximo domingo a las 9 de Argentina.Después del encuentro, Messi quedará liberado y se sumará al plantel del seleccionado argentino en Abu Dhabi. El lunes 14, el mismo día en el que Lionel Scaloni brindará la lista definitiva de 26 jugadores para el torneo, se espera la presencia del 10 en el entrenamiento a puertas abiertas en el estadio Al-Nahyan que todavía tiene entradas disponibles, a diferencia del amistoso del miércoles 16 contra el seleccionado local, dirigido por Rodolfo Arruabarrena, que tiene agotadas las localidades del estadio Mohammed Bin Zayed.En la actual temporada, Messi ya se había ausentado en otros dos partidos, frente a Reims y Benfica de Portugal en la primera quincena de octubre, por un dolor en uno de sus gemelos. Este nuevo inconveniente físico interrumpió un momento ascendente del capitán argentino, autor de 12 goles en los últimos 11 partidos disputados con PSG por el torneo francés y la Liga de Campeones de Europa, y con el seleccionado nacional en partidos amistosos.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x04\x02\x05\x00\x01\x06\x07\x08\t\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x00\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf4\x8c\xaf\'/c"\x14\x0e\xc4\xca\x99\xcb\xd73Z\xca\xaf;kJu\nv\xba\xd9{8\xbbI\x9e\xc5GY-\x9f\xafs3\xcc$P]\xc55\x89\xb1I2X\xb9T\xca=\xab\x15\x8cM\x9d\x92\x12\x99\x7f\x13\xcc\x19\x08\xa0F*@1\x10\x8c*Iu\\^\x89\x16$\xe3\xa4\x1a\x9b\x00\xe3p&lt;\xdc\xc7\x81\xe5\xd7\x19\xcas\xed\x1e\x99\xda\xf5W#v\xa2t\xd0\'r\x8c\xfb+\x80\xf2\xc5\xeb\x95\xb1\x0bI\x06\xa4zyFuV-\xe5\xbc\xd5a\xab\x0bBW\x11\xe6\xfe\x92\xd1V\x95]j\xcd\x1ej\xeb\x9c\xbc\xa9\xd5o]PX\xa4\x9b\xae7\x06\x83\x15\xd5\x9a\x9d,l\xeb\x1e\xe6\xbd\x93H\xb9\'kY\xb92\x80t8\xd7\xad`\x01\x92\x83\xba\xc6\xbc\x8eG\xa7\x9c5\x96\xd4\xf6Zq42\xe0\x05\x82\xcf$`\xd8\xef\xce\x8a\xb6*\xdeI\t\xb0\xdaj\x05\xb0\xba\xa86D\xca\x1d\x17M\x87\x02\xc0\xe1d\xf4D!8\x9d\xf49\xaa\x89\xf0\x1f[e\x04\x04C\x8a\x05s\xa5^\xc2\x98W%h6\xd5\x05\xb3\x9eZ\xf3&gt;F\x9aM\x95\x87I\x9b\'M\xb2\x0bL\xa6\xd0q\xb1d\x19)i\x84O\x1a\xd8\x19\x02N\x8c\xcd\x19\xa1sJD\xab\x98\x8e0r*E\x95\x90\x86\x0e\xb3\xd0\x08\xea\xf5\x826\xbb\x1c\xb22\x81\x1beG\x91\xe2Y\xf5\xcaxI\xfa\x11\x96lt\xc5f\xd7\x14\xab\xae\xb4\xafN\xda\xe5\x9fTQA\xb7\x11\xce\xa4\xa7\x16\xf3\xc8P\xca\xfeiH\r\xdb\x95\xc9+*\xc9\x88\x80v\x94\xd6\xd2\xd7\x8a\xbc\xed\xcd5\xe2\xa6\xcf\x96\x90$i\xab\xc5\x88\x9d\x1c\x8d\x05\xb9\xb3L\x85\xb9;N\xae\xf4\xa8]\x97\x10\x84-\x04\x85`\xd6\x91\x93\x8b\xc2\xc1p\xba\xb5\xe2\x95-\xcdEJ#lD\x89g\x97y\xa86\xc7Y \xab\xeb\xde)\x01\xe0Q\x12\x03\x80\xaa(&amp;\xc0\xea\xbe\x8d\x06\x02\x19\xa0\xc0p$\x18\x8bR\x81\x1e\xcb*\x8d\xfc/\xd5Y\xea\xb8\xe1\x9b\xd8\xc8\xba!8\xb2\x86\x06\x83\x8d\x1bL\xe1\x8c\x15\xbc\x88I\xdd0_G\x8dP14h\xa0\x83Q`\tKA\xf6P\xef\x9f\xa1\x82,I9\x08\x02)$sea\xa2\xe9\xd4\x02:\xac0B\rf\xdb\x084u\xc5\xcd\x05\xba\xebv\x91}1%-\xadp\xa3\x9au\x96c\x9a\xf6f`\xc5\xa4\x1d\x07X(6\x92u,\x02\x85j1\x92\x1b\x98#(\xb7\x06j\x10\xbf\x9ci-\xbb\xf2\xb5\x8b\xee\x93,\x04&gt;\x88Mi\x07\xab\x9dT\x1fZ\xf1[g\x93\xa0\x08iJ\xa2,\xc9\x1a\xed\xe0X\xcd\xa6\xe6\x9e\x93m\xcd4\x9b"\xc0\xce\x00\x8c2\x07\xb9\xcaO\x11\xb7\x10Q\xaf\xb5\xac\xbckQ}z\xea\xf1\xb1\xacW\x03\xd0y\xd7\xc1\xc0\xd2u\xcb\xbc\xb5\xe4\xa0[\x13\xa2+\xbe\n\x04B\xe0(\x8b\x0c\xe1\xa2\x88f\x1b\x01@\xa3`!\x96\r\xbb\xe2 \x7f\x88\xfaw\xdd\xaf|\xe7&amp;)\x83\xadKL\x83\x91\r\x80\x9c\xd3h\xf2kM\xa1Xv\x01`\x90\xdc\x1b\x85`\xc8\xdc\x0b\x0b\xa2U\x81\xf1\\rd\x92\xb2\xd3d\xb3u\n\xeb9+Ig7\x9df\xec\xf4\xcbP\x9f@\xa3\x8ei\x1e\x83\x9c\xa2I\x8enH\xdd\x85\xb7\x02\xac\xcf\xafYx\xd7V\xbb\xd1gOi\xaci\x84\x8b\xd2Y\x0f\x07L\x81 k@:\x0e\xe8\x8a\xc4\x02\xf4\x00E\x12\xd0p0\xcf:\xe02\xbb\xce\x8c\x06:\xf9\xc7\xc5uh9\xb4\xb7y\xb0%\xe1\xd7\xca\xc0\xc3\x9d\x9cr\x8c\xa5YCd\xd8\x11\x94\xe5\x1bD\xd8x\\\x96+\xd9\xf3T\xae\xe9\xa8\xb63\xb3\x95\x10\x9a\x05\x11Q\x1c\x0e\x91 \x8f\'.oiDj\xedkm:\xe5\x9eR\xe8\x86O\x15\xa3\xa3\xe3*)\xd8\xa6\xe8\x92\xaf\x02\xb3P.\x02\x88\x90\\\x03\xaa+\xbc\xb5Q@6\x1a\xaa\xb00\xddD2\x8d\x94P$\t\xebJ\x9e\xfeG\xe8._\xa6\xb2u\xb1 N\xbb\r\xa6\xc3@\x85,\xad\x16\xf4\xc4k6\x86\xc0\xd0\x11\xc7\x82\xe3b\x04\xac&amp;D\xc4Q$\xf5\x036\xcb\x99"34+\xb6g\xf0]\xb6\x98\xa7:Ye\xb7\x9d\\,\xc5\x85e3\xde\x1e\r\xc75K\\\xbb\xaaV\x89,;\x18\xf1\xb6\x8b\xad\xeb@\xa2\xe8z\x17\x9f\xacw\xd1\xbe\x85\xf0\xb7\xa7\x1e\xbf\xa87Qf\x9e\x84\x810\xeb\x0c\x07\x0e\xb8FX\xeb-\x03\x84\x11\x80\xcbnU\xd1e#\xe6\x04r\x1b\xf1\xee:\xd5\xd3z\x18\xfadQ\xc6\x1d|\xb2\xc1K\xb7\x85\x83\xacg\x99\xa43M\xb6M\x96T\xc6\xa0\xc7/KV\x88\xd9\xf2]\x96\xc4\xdcL\x8f\x86e\x02\xaf\xa9Y\xa2\xbbK\xd2c0\x8a\xacYG\x12\x8a\xd6\xd9\xd7RI&amp;\xe2wU\xb0\xb9\xb6\xb72\x1dZ\xb5\x82L\xa9\x81\xb8:$\xbb\xcb\xba\xa4\x17\x17\xa2\xa6\xbb\xa1\xa2\xd7\t\xb0QS\x0b!\xac\xd7\x19\x84\xea(\x10lnd\x1d\xfc\xe7\xafikCn\xc2\xe1\xca\xeb\x18\xd9\xb7Ws\x9e\xd2.\xcb\x0b\xc8\xba,\xaaB\x8aK\xa4=\x8d\x84a\xbd+\xc0E\x08\xa6\x9a\x0b\xecfm\xb0\x00$\xd16\x83\xf8\xf5%\x03\x98\xb4\x804\xd4(\x8a\xd1\xde|\xea\xa3\x9e\xf3\xf7\xac\x80B\xc2#!\x99\xd7\xf3\xc8\xdd&amp;y\xdcq\xeea\xc7\x08\x0e\xe38k\x82jf\xd53\'k\xf5\xb7\xc2]`\xe9\xfbkK\xb5\x1fXQ\x9c5`\xbb\x00,\xb8\x88\xb6A\xacU\x1b\x8cK\x10G\x88\x01`.\x83\x86\xc3T\x88\xf2=\x08]\xc6w\x86\xc9\xb2V\x11&amp;\xcbIa\xb4T;&lt;\x0c\xad#\x88\xf1\xa3\xb6\x95\xd6|\xb5u\xd5\x9e\x8b\xc8\xda\x99X(\xf2uJ\xf5\x1bJ\x89\xa9\x8a`\xb3\x91\xda0+\x9f\xaf\xac\x90X\xe2\xe8\x9e\x0c\xc1\xd8\xa7\x1bXVW\xdbW\x1c\xa4L2\x15\x03A\xa2(\xab\xea\xd0&amp;&amp;\x80\xea\x8a\xce\xadTQv\xc1ET\x0c\x86\xa8\x01\x18\x0c/1\x98\xf8&gt;\xbe\xack\xdau\xbb\xb6\xa5\xb7\xe7\xbd\xab\x95\xefrt\xbaA\xb1\x0b\xec\xfa4\x9a\x1b&gt;)\\m\xe8\xe4\xe1b4\xa2\x03|KQ\xbb\x06\\I\x81\x9c\x02\x9a\r\x153\xe2r\xb1\xc9No1@\xe3y\xf1\x1f&lt;\xfb/\xce(z\x94|\xbe\xa0\x8fL\xe5\xb9\xf9\x95\xc5\xc4\xb3!\x82b\x1c\x18\x9e\'\x0c\xf38\xc2\x1e\xf7\xb0f\xb3,\x9fN{O\xc3\x7f^C\xd1\xe9\xe1 C\xbb@\xd8\x1db\xa9\x15xil\x83s\x88\r\x05\x91u\x99]\xb2\xe14l\x80\xd1\xf5E\x81\xf4\xc9]\x16D\xc2\x04\xc9\xd2;$\t\x94\x85\x81\x88\x91\xc6\xcag,\xab\xec9\xe8\xfb\xc8\xbf&amp;fQ\x98\xd0M\xe5\x1dk\x12\xb2F\x8a\r\xc6X\x9fc\xc1\x81^\xe2\x17\x8a\x90\x9c/-\xc2p9\x86\xd5q\n5\xd75\x8c\x11\x0b!`\xb0\xcf\x16T\xd6ygT\x97mz\x04\x96uZ\xa2B`\x14\x0b\x01\xa0\xba&amp;\x06W}\xd7\xc2\xc0\x7f9\xee$F\xe4\xe0\xb6h\xb4\xafcaQe\n\xdc\xba\x9d\x84*S\xc4\x92$\x96\xca\xb8R,\x9b\x00m\x89Y\x11:\xb4\xed\xb6\x02\xc1\xdb,JqZY\x92,\x1cE\xb7\x933\x19\x1eQ\x11@\xeb\xf3\'\x82\xfa\x0f\x98L\xa9\xd0\xf7\x9d\x9cz&lt;u\x0f\xa2!*\xfc\xe2\xd7\xd06\xec\xbe\x1bk\xef\x05\x1b\xe7z\xdf\xa3\xeb\x83|\xf8\x7fh\xab\x07\xc2\xb9\xdfo\xe0\xfa!\xe6\xb71\xb5\xec\xf3\x93\xf6\x8f\x1d\xbc\x07\xed\x05P\x7f\x8f\xd3]s,D\x15:\xd4\x98#\x9ad\x94w\xad\x97U\xd0\x12\xae\x99!\xca\x91\xb2\xb8H\xcdO`m\xbd\x8c\x88\xde^\xb0\x81`w\x94\xce3\xe0S\xe8\xe0\x15\xe5ZF}\xda\xf7f] J\xba@&lt;\x19k\x90\xb5A\xc5n\xe5\x0cg\r\x8c\x80"\xe2w\x88 X^P\xd4\xf7\x81\\Q\xc9\xb8k\xac\x90a^\x06B\xe8\x08\x97L\x15U\xd5YRU\xd5j\x13Y\xc5\xe8\xa8\xae\xe2\xb4U\xc2\xca\xf4U\x16mZ\x0fJ\x1d\xb2\xdf+\xf4\x89I\xa96\tI6\xc3\xb7F\xe4\x07\xec\x17r-2h\xf0}\x9cs \x9b\x86\xf6\xdce\xa3\x82\xa3\xca%\x04\xd2gZ2e\xcc\xeas.]\x9er\xb5\xb6\x95\x81\x14+\xcc\xd4\x17&gt;$\xd3\xf9\xf6\xe6\x87\xe89=\xcd\xcd\xd4!\xd2\x8c\xd80t&amp;\xde.Z\r\x8b\x15\xa9my\xedD+\x1c^5\xa7\xe0}\x13\x91t\xf1e\x19[\xd3\xf1d}\x81\x97\xec^\xa2\x8f\xa1\xe3\xef\xadY\xa5\x96\x8b.u\xa8\x81\x84\x86\xc98\xc0g\x16\x11\x9ei\x9b\x0c\xad\xa9Od\xc3r\x96\xd2$\n\x00\x96xO4\xccB&lt;b}\xb0VL\xcd\x9c\xa2bE+6W\x98\xcf0\x93#\x1fY\xb6E\xd1\xb2D\x9a\xa04\xb1\xd1\x8c\xe2B\x8a\xb6\xb5\xa2\x18\xb0\x1a\xce\x1b\xdc\x8e\x93K\xb1:\x05\'\x15! \xb6\x1aMm\x16,\xaa\xa8\xf2\x8c\x12Y\xd5*\xaa.\xda\xb4U\x14qZ*\xeb4\xb5\x15E\xdbU\xc7\xb1\xa7d\x8f\xcb} 2;\xd4!Fufm\xabm\xc28\xc8\x18\n\xc9\xc4Y\x99kzm\xb9\x8c\x8c\x9b\x96\xf6@\xd4y@\xc8\xcfPK4dH\xc1\xf2\xa0\\,\x19\xa9;-\xb9+\x08\xf2\x7f\xe6?\xa3&gt;k\xcb\xc4}-\xf2\xd7\xd6\x9c\xd5\xe8\xe31\xce\xecM\x06\xb3h\x13\xc49\x12\x80\xea\x8af)\xd3\xa0)\xb2\xa25G!}\xc1\xd6\x1c=S\nz&gt;K\x84\xad\x9e\x1fr\xbe\tsv \xac\xeb\xd2\x9bTj:3\x05F\xe1\x98+\x17G\x98\xadq^\xc4\xcb2\x95\x91\xa0eh\xee{]\x02\x8c\xd8K\x0ef\x9a$x\xc6i\xb8\xebm4\xce\xde\xcc\xd5\xc6\xc2\xc1X\xe0\xdc:\xe5c\xd8=\xb1\xc8\xae\x93is\xab\x14}\x13\xa1\xac\xd3\x05\x86h\xbc\xc0\x06\x83I\x8fr\xdb\r\x97SGX\x0c\x0c\x90\x01\xc5\x9ej\x8c\xd0eUg\x17`\x92\x8f)DEg\x15\xaa\xa8\xa3\x8aP*\xbb\x00\xa2\xac\xabj8\xf6\xba\xcbj\x7f\x98\xfaEJ\x13%Y0\x8d\'r\xda\xa6\xcf+\xec*\xd3\xc5\xb2\x85\x81\xb6I\x15\xd4d\x96&lt;\xb7(\xed\x96\t\xb4\xa0e@u\x83\xc7C\x06g\xa5_\xbc_-H\xce\xe8\x89Bv\x9d\xbf\x89z\xfd\x1c\xdb\xc4&gt;\xa4\xf9\xc3\xd99i\xd7U\xf8\x8dL\xef\xf4j\x1f1\x91_\xdfK\xe3\xbd\xbf?W@\xd7\x8d\xcd\xa7\xdd\'C7\x1d9*,6\xa6\xf3\xff\x00T\xe5\x1e_;\xaf\xdbq&gt;\x8f\x986\x15#\xa7\xdcv\x94\xae\xf2\xf5\xa9XJ\xc4m\xaa5]\x18\x8a\xa6\xb4\xa6]\x1d\xd7o.\xea\xd1\xa3\xc1\x89ZF\xc3\xab\x8ff\xc5+\xb3\xb7rcEl\xc9w\n\xf6@\xb0\xc9J%\x07\x86\xc1%lT"\xa4-)D#\xd5o\x11c%\xc8\xc2a \xf6N\xbd\xea\xf3\xa1\xac\xd3 \xf5\xbd\x95\x14\x0e6\x01\xc2c\xa4\x8b\xa6C\xa0\x17U\xd9u\x99\x03\xaa\xd0&lt;\x18(\xb3\x8a\x95MG\x15\xa2\xa4\xa3\xaaUSQ\xc5(\xa9\x81\x95\xaa\xab\xa6\xe2\x8e=\xc2\x9e\xde\xa7\xe5&gt;\x99V"\xdaRE\x99$\xf8\xea\xa5\xc2\xcd\xea\xfb[\xf3\x9d\x911I\x18\xb1\x91]\xeazt\x10\xe6\xb3\xa6\x97\xd0N\xc5\x0f^\xe2\n\xe2\xecM\xa5 s\x80\\d\xd81Xuk\x12\xd7t\\\xd7\xf2\xfb\x9b\xeb.\x0b|\xf5\xc4\xfdC\xce\x86\xf91\xafe\xae\xa8\xb1\xf5\xf6:\xee[\xfc\x8b\xc8z_\x9f\xf4F\xbd\xc6\xa8-\xcf\xda\\p\xd6A\xbdJ\xd3\x84\xed\xe3~\x1b\xc9=\xe7\xc2\xaf\xcc\xaf\xac\xf2\xdd~\xa7\xac\xf4\x1f&gt;\xfb\x9c:\xd7\xac2v\xe0\x80\n\x1aGv\n\xda2a\xcep@\xde\xd9\x0eW \xea\xd2\'+ \xab\xb7\xa5\xb2\xae\x91\xbc\xb09\n\x17\x1d\x1b\x99\')\xe0\xc0\x1b\x029T\x9fI\x96\xb6\xba\xca\xae\x89\x06\xd2a\xf5\x89U9R\xc68rh8\x96\xd1\x8e\xe2\xd3\xd4\xb7&lt;D3\x0c\x88a4T\x8d.\xd1e\x93qL\x14\t\xe0\xea\xbc\x0e"\x14Q\xc5\x19SQ\xe4\xddRM\xe4\xaa\x14Q\xb5*\x8a,\xca\xb4\xcb\xa8\xca\xae\xbe\xe7Wi]\xf1\xff\x00S\x06F\xc8b\xee0S".S\xadn(./\xcfd\xcal\xda,\xc9}\x94g\x15\xc7M\xa7%h\x91\x14CD\x95s\tY\x00\x19\xaf@1\xc4u\x9c\xf5\r&gt;h\xea\x9eVb\xf6\xa1o\x17\xd5\xee\xae\xf9\xae\x83\x94\x9e\x82\xe5A\xb9Q\xf4\x8cN\x8d\xf3}\x87\x9dQ\xbc\x8cV\x8e\xc6\xf5\xc3\xee\xae\xdb\x9f\xc8o=\x0fl\xbcD\xbanqh\x0f\x08\xf6\xee\n\x89]i\xc8\xddk\xdfz/;\xd0\x05X-\x0b\xab\xcePLj\xdc\xec[\xabm\x86\xcb2\xabE\x892\xad\x8e\x00\xca\xce6\xab\xad\xa6l.\xd8\xc0\xce\xa2e\x89p3K\xb4\xbaz\x96\r\x00\x1c\x04.\xa3J2\xd5\xd4Z\xd3\xd54e\xe4\xe2\xc5\x9a\xd6\xc8oC\xd1\xc9\xaa\xc2\xdbk[\x9eYNS\x0c\x018\r\x83\x12\xc0\x820\x06\x18*\xa3\x8a\x95Z\x05\x83\x05\xc4p\xb2\xa8\xa3\x8a0QF\xd4uM\'R\xa2\xa8\xa3i\xd0(\xabI\xd5WQ\xa5(\x9e\xec\x8b\xc9\xfcw\xd4\x8c\xc1\x96f#\xa9c\xa2\xeal\xa7\xb5\xaay\x85\xbbUNV\r\xe81\xac\xcd\xa0\xca\x89\xa5\x8e\x17\x98\x06@\xd9 \xa3*\xdak\xa6\xd2UU#(^\x1b\xc8\xc9\x83\x04\x84\xe7v;~\x1b\xd2|\x8fK\x9bw\x8c\xb3\xf2;:\x86\xf9{\t\xd6\xee\\\x8d\xbb\xee\xbf\x87s\x80u\xe6\xc4H\xa7WwmKb\x93\x12`\xe7\xf1\xb0\xa1Z\xa6\xf1\xca\xda\xa9&lt;\xefX\xea\xac9{\x04d\xaf\xfbx*Eb\x95\xf8\xd4&amp;\x1e\xb0z\xc5;\x1c\x08\xc0\xd9S6D\xc2\xb6h\xda\x04\x8e\xd7\xb2u\x93\t4\t\x98U\x85-\x14\x07\x19\x86\x17:\xe2n\x19\x86.P\x9c\x04\xdbI\x92\xa6\x9e\xd6\x9e\xd3\xc9\x0en\xa6aB\xec\xf4\x95&amp;"\x01\x87\x86\x8b\x12\x83)\xe1U\x86&amp;\x07\xb0\x04\xd0\x8e\x89\x87&amp;P,\xc8\x08\\f\x1b\xa2\xe1`\x0e\x14Q\xb5\x08Q7SuI\'S\xa2&amp;\x93\x89P(\xa3i\xd4,\xab*\xba{\xda\xcf\xaf\xf2\x7fH\x84Z\n4\x0e\x13\xab\x18\xb1)2h\x0c\x9c\xc3\x00%\xa6\xc6\xa3+\xc3s\x84\xa8\x989A\xd0\x00a{"\xcb\x15k\xcc(\xb2\xab\x81D\xdbu\x04\xe4g]\x90\xa6\x85\x81b\xb9x\xfa8\xfe\x9f\x9ek\xc4\xf4\xba=\xbb\x92\xa73\xc9\xfaw\x9c\xear\x1e}\xd2r\xbd\\\xbc\xf7{K\xdd\xbbzM\x8dxx{!\xcf\xbfKx\x82\xa5\x8a&gt;\x8ez\xbb:\x1b\x9c\xbe\x81\xd3\xf3\xfe\x8a(\xce^\'\xd1\xe7\xd1U\xf4Uo\x1aC\xcbTK+\x1a\xa7p\xb0"S\x05\xe3W\x91M\x8c\xabp\x1b6i\xec\x01\xb5e\x16\x01i\x95\x1aVh\xea\x1dK\xa7L\xf8\x1f\x05\x98my\x84\x88$\xcd}\x12\xb2\xad\xd4\xad,\x94\x8b\x80\xe6]\xe3\x19fm\x0c\x96\xf6\xc2\xc0\xc1\x88M\x15\x1c04p\x0cK\x84\x04l\x81\x82\xc1`l\xab\x89\x80\xb2.\xbb+8QV\xd594\x9cI\xd54\x9cJ\xaa\x9aN&amp;\xea\x9am\xa5EYF\x94\xa0\xfa8ok\xe5\xbd\xea\xb5\xad\xd6F\xae\xdb\x00\x9b\x90\xeb3\x9d\x82\xc6d\x90\xcb\x16\xb3h\xab1\xd3\x02osu\x08\xcc\xb3\xac\x15"VP)0U!\x13o0p\xf8\xa4\'\x91\x19fx\x1e4\x84\xc8X[\x91G\xa6\xf3\x7f#\xd0\xf5PV\xf1i\xb3\x92\xe6\xd3uq\x94\x83D^\xca\x8d\x9bG\xd4o\xbc\x9b\xab\xe7\xeb\xb6\xa0b\x81\xd2T\x0f\xf3\xf4\x9c\xfdO\xca\xfd\xd6\xd2\xf7\x010#\x15\x15}fJ\xba\xdb\x9a\xc7\x95*O\xd4\xba\xb4\xd5\t6\xbf\x97&gt;&lt;:\x89r\x9b\x07\xa8\x1f&amp;\xae\xdd\xe5\x9f\x9c^.\xf4\'\xb9\x0b\xb5~\x89\xba\xa7\x95\x9d"\xd3V|\xa8\x93g1L(q\x08Eg\\\xc2\xb4J\xed\xba\xdb\x84\rc4z\xedY\xc7j\xa0Z\xa8\xca\x96\x8e6L0\x8a\x0b\x04\x11\x95\xa23\x8fa\xeeXp\xd6mB\xab\x8c\xb0l\x00\x9c\r0*\xca\xce\x14U\xa5\x08Q\'Q\xa2\xa6\x8b\xa8\xba\xa8\x8b\x88\xba\xa8\x9biT*\xa3*8\xfa\xa7NG\xe6=\xaa\xf5\xec\xd6V\xa8J\xd6\xb9XM\xaa\xdaU\xc2\x0c\xe4\x8aE\xdd\x17\x18\x14\xed6\x08\xb4XN\xbc\xea9\x02\xc6\x15\xe6\xae\xcaGQ\xe3\x18\x94_\r5 \x99tSf\x81U\x8ah3\xcfqx\xe7\xb6y\x7f%\xd1\xe1\x07O-s\xe9\xbc\xc5\xc8w9\xa3%a\xca\xf3\xbd\xa4Jp=D)\xcc\xba\xce}j\xd0\xf3[K\xdeW\x1e\xff\x00\xe2&gt;\xed\x9b\xd7Bp\xb7:\xeb2\xb3\xcdJ\xcb\x1a\xc6J^~\xe7\x999e\xd6\xad+l\x8dR8]g40z\x05)\xb6GK\xd1p\xb7czgW\xe6}x=\xf5\x9f\'t\xafzJ\xe6\x12\x8emQ\xec\xe6\xab\xa2\xf2\xb1\x8dq\x1d\x1c\x98\xdf\xc3\x1a!\x85C\xb3k0bh\x85M;\x15\n\xa0\x07Ud\x0c\xf5\x85Ne\r\x8b\x1b\x0c\xc6\xdcw\xa2\x06\xa3\x0b2\x8a\x12\x81\xc3Y\x85\xd9\x00\xab*\xb8UVT!D\x9dE\xd54]B\x81D\\E\xd5D\xd9I\xc2\xaa2\xa5\x07\xd8C|_7\xeb\xa0\x07\xc0\x9a\x9a\xaa\xf2\x85X-\xa0\xcc\xefb\xcaMgfB\x93\x82\xe0\xb5E$a\xb7;\t\xf6r\x03x\x14\n\xc8\xf2 :cJ\xe0\x91v0\xb0\xfb!sH\x80\xcd\x8d3\n\x06\x93\xa3\xc9\xb7\xc8\xe3\xea\xb8\xea\xf3?\xdcy\xafy\xcd\xd1YI\xd1\xf3KH\xb2\xf53*\\\xeb\x94\xdd\xbc\x16c\xaf\x13f\x84\xa7K\x8f_\xeb\xfeq\xdfC\xb3\xdaDP\xd3\x90\n4\x9b"\x156T\xe7Ps\x97\xf4\xe8\xf4\xcat[\x9d\xb9`v"F\xe2\xd5\xed\x10e\xe4\xa1|\x95\xf9\x94tf\xa4,\xba^F\xd7\x0fD\xe9xN\xb0?P\xed3\xf3\xab\xc1\x10\xf6\x98\x87\n\xc9\x93\xa2\xebN\xde\xd6\xba\xe1\\\xd2\xd6\x96\xbb\x1eA\x86CB\x0b\xa5\xe4,"\xab\x00i\x83S\xd3(\xc8&lt;ef@\xd8\'\xd0\xb5\xb6.P\x11\x01\xccd\x0c\x06\x03 \x16aW\n\xa8\xd2\x87(\x93\x88\xba\xa8\x8biQRE\xd4_&amp;\x93\x88\xb8UF\x94q\xf6\xc8\x9b\x1f\xcez\x88\xadd\xbe\xd4\\\xbf_\xc7\xa1M\xa4\x9a\x95\x9fr\xb9\x8dWqi\x16h\x80+\x0c\xd8\xe6\xf8\xc7\x81\xb6]v\xd6m\x19d\xb3G\t\xb5aH\xb2\\-\x9eC.FK\x88\xd9\xc2\x8d\x19\xcc\x9bxw\x86}S\xf2\xf5y\xed\xec\xb8\xb6&amp;n\xd4\xac\xd8{\x14\xeb+\xab\x11\xd20\x87O)\xb4&amp;N\x9f\xa4s\x9d\xff\x00?c\x9dG5a.\x8fN\xe5\xfd\x03\xc3}\t\xfb\xd1&lt;\x0f\xb3\xf4\xfc\xfe\xc2\x9e\x02\xf2\xad\\\xb5\x91&lt;\xee\xd4\x98\xb2r6\xa6\x17J$~F\xb3\xb1\xaba\xc6U\xf5\xd4\x97\xe5\xa0\xdb\x1a\xeb\xe1?H\xbfRqz@^%H\xdc\xe6\xa4 e\\\x81\x86\x02\xd2j\xda\x8e\xf5\xe7{g]`\x96$u\x10\xdb\x1e\xc6V!\xd8\x88\x88\xa4&lt;\xba\x14\xc4S3\x18eR-@\x85\xe2Q\x15\xc8\xebGHy\x1d\xb4)\x8f\x01\x88\x82u]VUl\xaam\xaaU$\x9dE\xc2H\xba\x8b\x84\xd0u\x1a*i6\x93\x85\x94iF\xdfqn\x05\xf9\xdfTK\xb8\xb6\xd4\x9c\x8fe\xcb!\xa50I\x1b\x10\x8b\xc0\xd1\xe2V\xcf\x1bi\xd5M\xf5\x93\x15\x8e6\xb12%\x04\xc1\x9c\x03\x0eZ\xde$$\x0e\x0e\xa5-\xa1\xc2h\xa0\xc8\x9a\x91\xd2\x9e\xa6D\xb8Qx\x07\xb9\xc1\xea\xcaz\xff\x00+\xe6t|\xb1Q\xf4_\x8b\t\xd1*\n\xcaF\xee\xa5PRr\x1e\xdfe_\xa7\x17Q;\xd8\xdc\x01\xaen\xec\xb8\xaf\xb8\xc7\xd0\xfc\xc3\xbe\xf1\xaf[\x99\x92\'c\xf6\xbe^\xecQ?W\x9d\xd6^\xf9\xa3\x1egO\xa9\xb9\xe7W\xff\x007\xe8\xf5\xe3\x01\xfew\xd5F\xba\xd5\x0eN\x8a\n.\x96\x9d\xd3\x9b5\x83=&lt;\xafu5\xbd;+6\xb0\xb18pl\x18*\x9b\xe9\x99\xa4\xb3JZ\x07\xe8h/\xdew\xce\xd7\xb2\x96b\x03\x893\x1cFF\x07\x06Wc\xc8d\xc1\xca\x0c\x84}+\x1d\x84\x16\xc7\x8aK&lt;\xa9U\xa38:hr\x86\x11\x84\xa2\xc0B(\x08\x02\xac\xaar\xc9\xb6\x99\t\xa2\xe2n\x12E\xc4h\xa9"\xe24T\xd3m\'\n\xa8\xca\xad\xbe\xdf2\x07\xf9\xcfa\xb5\xa4,*\xf9\x8e\x8b\x95CK\x15R\x9d\xac\xc3P\x93k\xf8sP}\xd51\xc64\xe3\xb8{\x8e\xb7W\xe9Y\xe7\xacg[\x99&amp;\xd2\x9d\xcaR\xc7\x0e"\x8cID\x8b\xb6H\xcc\x19L\\\xcfRt\xdc\x07\x1fQ\xf6\x1e&lt;.\xf9^\xb7\xa2~\xdd\xc5\xf6\xdcO\xc2\xfb4&lt;\xafaG\'\xf2\x9eC\xd9yZsy4\xfa\xa4\xba\xa1Z\xf9\\&amp;]\x1du\x9f?E\x99\xc6\xc2\xdav\xf5\xd4\xefc\xd2$\xcf\xdfxl\xd9\xaa\xf7\xb1\xc3\xa9h\xca\xc4\xd8Ynw\x06\x19N\xf6\x0f\xd1N\xbegvn)\xaf\x9f\xf4\xee\x10\xb0\xd7\xc5\xfd\x15Kek\x82\xf6=\x15\x15\xe5%r\xfdcN\x8c\x04A+4\xe4\xab U8-\xce\xd5\xe5-\xcb\xce\xe0\xca\x11*x\x86$\x96\x02\x8b)!\x1d\x15\xdc2\x057\x1c\x8b#\x165N\x86pz\x88#Q\xa5\x8a\xaa"\x8a\x93\x88\xe7\x1c!\t\x8c\x81\x84\xc0!eZQ\xb2\xca\xb0\xab\x04\xd1y\x16\xc8"\xf2\x14TQu*"i6\x9b\x05\x14m7\xdff\x1e\x9d\x8f\x99\xf6\xed\xa2\x9e\x9d\x11\xe4\xfa\x0eNT\xa3\xa6j\x8c\xb0\xea\xa3ExX\xadJ\xb5e\xd13\xc8a\x1e\x95\xd2\xf9\x07a.\x8fE\xb6\xe2oy\xba\xfb;Nr\xfeT|\x90`\x01\xe4\xe1\x8c\x8c\xaa\xb4K\x9a\x8e/\x95\xfa\xef\x1a\xfe\x8e\xba\x1fS\xe6bN\xa8\xea\x95\xbdR\xe8\xff\x00P\xf3\x1c_c\xf9\xd7\xd0QU\xda\xd6\xf9\x9dt\xd4WH\x85\xe1\xab:\x8a\xfaN\x91\xb9\x9e\x88G\x05^\xc7\xa2[\x89[\xd4\xe5\xe9\xaa\xe9\xfa\xbfd\xaf|(\xb7\xa4\xc1\xd5/\xa1\xe5\xd9\x08m\xfa&gt;l\x1b\xc9[\x9c\x87\x10\xf3\x18\xc9\xb1NF\xd9T\xf8\xd8=Aa8\xdc\xc5=|\xe7\xab{s\xcf\xf4\x7f\x13\xf4N\x10\x1b\x99*\xfa\x03.\xc7\xa8RY\r\xc6\xb0\xb0\xb9\xa5\xb8+g\xb1\xe0y\x8e#lH\xc3e\'\x91\xc2\xbb\x8eD\xaekX\xc3g\\\xbb?\x11\xe2\xb6\xc0Q\xe0\xb0\x8e\x17A\xc2p+\x01\x90D\x0c%\x0b\x05\x95e]\x94Q\xa4\xd8,\x93i:\xa2\x83\xc8P"\x8b\xa8\xb8M6\xd2p\xaam\xa8\xe3\xeaw9\xb7&gt;[\xe8:-W\x0e\x93\x1f/o\xcd\xce\x94\x146\x9c\xfb\xa5m;\xd5\xfd\\\xca\xae\xca\xce\xa1\x1c\xc5\x84\xfa.^\xc1\x1f\xd2:\x8e\x07\xb0\xe2\xf4;~\x9b\x90\xea#[\xd7\x11p\x0cN\xa7\x87\xfa\x8f\x1f\xa3\xe3F\xa7\xdax%X\xe0\xed\x92[g&amp;\xc9\x8e\xc3\x0b \x1b\x81\x0e\xbej\xdb\x9c7\xce{7\xcfy\xcd\x7f\x85\xe9z\x00\xbc\xc4\xfc4\xebiy\xf5\xfa&lt;\xdb\x99\xf3\xfa\xe8\xe6uh1\xd9\xca\xad\x837\x1d3\xaf\xe86\xef\xbb\xca\xb5\x88\x0fa6i\xa7\xe4\xfb\xce\x03KHY\x9d\x01\xd8[,;o\x7f\xe7rz\x1f\\\x08U\xe7#a\x94\x8f\x0c\xf3\x15\x12\xe1\xb5\xef\xa3\xf8\xe5\xe7\x87\xdf\xec\x9a\xc6~\x17\xdeU{A\xb4\xeb#m\x8e\x94\xba\xb9\xcaE;&lt;d\x82Bk\xe3\xb1\xc7GNq\x91\xd9\x90\xd1I\xea8W{\xcd0\x93!e[y-\x86\x80\x8a,\x04\x03\x85\x940(\xd9F"\x88\xa8\x80`\x1c\xb2\x8d(B\xa9\xb6\x91\x0b$\xdat\t"\xea5T\x11u\x16\t&amp;\xd8[ \x9d\x9aE\xbd\xe5\x84g\xf3\x9fCv$\x96\xbf4\xa8\xce\x82\xbd?9\xd0\xf3\xa1i\x95ez\xc9e\xdc\\\xaabh[.Yf=Og\xc3v\\=\xbd\xd7W\xc7\xdeSt\x9c\xad]W\xe8\xbf)o\xaeV\x9b\xdb\xe2\xee\x12\xe3\x13-\xe8`\xf3pkz*\x1e}\xbe&gt;\xae\xe1n1\x8e~\x8b[?=7\xcf\xfa\xd6\x96|?G\xc7\xd2\x14\xe5}HPk\xa9Wtsf\xec\xe9z\xb9+\x94\xeci\x12b\x1d\xa8\xbdO\x10\x16\x12\x10\xd6\x03d^\x94$\x1b\xba\x8a\xa3b\xb3\xae\xba\xed\xc2\xd4pz\xa0r\xc4}^t\xab\xec\x14\xe8\x89\x0bSbDZ50\xd6\xad\x8b\x9c\x9bi\xba\xcb\xff\x00\'\xb0\xf6t\xf63\xde\x91\xea_;\xfb\xe7\xcb\xfanB\xc3~]\xd0\xd5\x9eRU\x91\xb4\x83-n\x9d\x0e\xcb,\xe2\xa1\x81\xb8\x90\x83a#\x885\x9ad\x9ekdoY\x98\x1d\xa5Y\x0f=k@\xe83\x1e\x10\x19\x06\xcb\x08N\x04\x04&amp;\x0b(@\xc2\xe4(\xa3I\x9c\xb2M\xa6\xca\xaa\xac\x0c\x9a\xb4-k(\xb5\xc9&lt;\x8d\x911\x1dc\xb4\x93\xab\xcb\xa3\xd6I\xcf\x9f\xcd\xf5\xef\x14H6\xe62\xda\n\xb2\\\xfd\xe5*jE\x9eRL\xb8X\x08\xcb\x8c\xf0`,&amp;ms\xd8\xf2=_\'G^\x95D\x7fR\xf9M\x97\x98\xb1\xf5\xb9\xad\x91+\xb3\xa5&amp;\xfa C\xaf\x99\xce\x83)\x1ej7\xe9\xf2\xf5\xf36\xf9/\x9d\xf6\xea\xaeD\x04V`u\rJ\x1b\x9a\x15\xa3\xb5\xf7K_\x99\xeez\xd0]\x12b\xad\xc4=O\x02\xde\x9d\xc8*\x11G\x85\xc9C\x84v\xf5Y\xd7\xde\xc3\xd5\xe7\x02\xeeh\xe6k[\xd3\x08\xae\xbcd\xfb\xabwY\x98xv\x05\x00\x95\r\xc1\xcc\xf0\x97U\x1e_O\xa1RZ\xf3\xdc\xed\xd1=]i\xce\xf6\x1d\xff\x00\x9f\xd8r?\xd1\xf3\xaa\xb4\xf9\x8fD\xd2\xd1i!\x8d\x98\x10\x90\x1e\x06\xd5\xc8\xd9V\x86\\\xe06fE0\xe2=Gm9\xe6f\x19\xb8\xc8\x82\x9c\x06\xc6Q\xd0\xb6\xdcc\x1c$=\xc7h\xc2C8c$\n\tVTl\xaam(B\xaa4\xa3\x04\xe3 \xe2*\xdb:\xedJ\x84\xdf_\xaa\x15\xaa\xda\x05\xd6\xb4\x0fWK\xa3\xa4\x1d2\xdc\xdd\xddA\xb8\xf7:\xb8\xfaxQ\xcf\x96\xcd\xd6\xe8\x12p\xac\xd8\xf9z\x13\x0b\xe1\x0c\x94\x1c\x8bM&lt;n,\xaf\xdfPYw\xc8\x96\x1c\xc1\x7fH\xf9\xe2R\xf5\x9c\xac)\xd4Z\xf1\xd7\x15\xe8\xe9#[\xa9\x97\xab\x98\xaf\xf2\x0fK\xce\x9e\xa7\x9b\xd2\xeb\xa9\xc2\x8f7wGE\x13\x99?X\x01ru\xb3\x81\xb0\xee\xe4\xab\x8c\x9c\xf4\xbcT\xddZ\xd6\x1d\xd4\xed\xa5u\xe8\xf8u7KZQi\x1fN\xda-Oz\x02\xf5Mg"\xcfL\xd2$[\xda\x9a\xc1\x02\xc9\xabC\xacJ1j\xb1\xee\x96\x14\xefr\xdc\xde\x9a6\xd4.\xf2\x8ew\xad\xe2\xbd\x0f\x92c^\xba\xe7\x9c\xd9X\xd6=\x06\xb3\xb0\xaa\xb2\x96\xf5\x8e\xe3\xc9}O\xc4\xec\xb42\x87\x816\x85\x84`M\x00Q\xad\xb6\xa9VBq\xd1\xcc\x8bCm\x92\x8c\x8aK5\xb2\xbb\x9c\x08\x0c\xe7\r\xb6\xd8w\x102;\xc2#\x1d\xeb\x18\xc2p8C \xb2\x89FU9UYWeSm6\n,\xd2\x84\x8d#\xa5@\x9c7\xb7\xc3$\xdaF\xa8\xe6\xfb\x8ev\xa9\xcb/\xa0pw\x18\xa8F\xb1\xb6j\x99\xe3\x9f\xc0\x97\x9b\xa2R\xdb\x1c\xfd\x0b\x81\xe5\xb6V\x0cB\xdc\xe1\x19\x87I\x12\xc5Y\xfdG*\xcb\x08\x9e\x9c{\x1a6\xa5\xea\xf3\xf3\xf7&lt;\xe5\xbe\xad\xe5x9\xcf\x07\xab\xaa\xa4\xaf\xb4\xf3\xfa\xa2\xeb\x8f/eC\x90\xe8:\xb9\xa9\x1dK\xa7\xe4\xf4y\x1b\xba\xcb\xbe{\xf3\xb7\xdc\xf7E\xdb\xc1\xcf^S\xf4^\x97\x93\xcctUV\xbd~rE\x80i"\xb6\x0c\x91\r\xccg\xdd%\x0e\xc8\x1f\x0fe\x8e\x04\x82\x93\xaa\x86\xa9\x8d\xc2\x8a\xb1\xbb\t0\x95\x924\x0eq\xf3\x07\x07\xa0z\xcc\xae\xe5\xad\xb7MS\x93\xe7\xcb\xda.\x97\xcf\xad\x81\xd5d-\x85\x82.\xc5\xae}\xa3\xc4\xbd#\x96\x9d\xd1\xab\xa7\xe7Y\xdd#\x98=\xb4d\xaez\xd6\xd2WF\x12\x83\xa6\xf5-0\xd4\xf5\xbc\xbb\xde\xa4D\xa7\x93\xdbc(\x18G3\x17f\xb3D\xe6\xb7\xa3\xa2"G\x00\xc0\xe2!U]P\x84Ty SQ\xc4\x8eUF\x94%T\x1e\xaf\xe8\x92\xba\xd0\xcb\x10\xf5+J\x97\xf5\xd5*\x95\xe7\x84`\xf0u\x82\x051\xc2x\x8c\x91\x8d\x81\xc9\xd9\x83\x0eQ\xe9\x8a\xa6^\x93\x18\xa6\x0e\x8e&lt;\xd4eI0\x83\xb4\xff\x00Y\xce;\xdeO\xa6\xf3}\xe8\xdaS\xdb}w\xccSXliT\x19\x81~n\xb6\xdd\x0f\x03\xd4\x9fJ\x16T\xbdM\'\xcc\xf4\x94\xe5\x8fEoGR\xe4\xbb+\xec\x95%aWl4&lt;\xff\x00KV\xa3\xdf\xb9\xe0\xa8\x16\xab\xfa\xbc\x0b%\xf6\x1ag\xda\x86\xfd\x08\x1bp#\t\x86Q}\xa0\x1a\xb1Ic\xa5b\xec\xecQu\x91\xaaE6\xd0B\x99\xa5i\xe0\x97\x05\x97_j\xf9\x1d]\t\x07\x19-\xe7_\xce]\xd2b\xb2\xae\xb8\xe3{&amp;BW\x16\x9d\x1d\x13QoW\xca3y]\x16\xba\xac\x96\xd6\xb3\xab({\x11/\x05;\x1c1\xe6\\\x84\x8e\x9c\xa1,%8\xcfbJ\x1b#a\x9c6\xd6fm\xado1\xd6\xa5\x9bC\x083\x86\x03C\x05\x17\xb1\x0e\x15\x08\xdc\xd7\x9dT\x93\xa80Q\x16\xd0!t\xca\xa5\x96\x0b2\xbb\x94kl\x92\x06\xa5;\x14l\x87C\xa1K\xc2\xf5\x91\xe8\xcb\xd3\xdf\x95+K\xbb\x9a\xcf\x87\xac\xf4\xca\xa4\xa7\x99\'\xd7r0\xea\x00`\x12d\x01\x06\xfc\xadMi\xb4\xdf\xadb\xb7\xdf\xecU\xa8\xd7\x84\xb6\xbe\xe5\x9a\xf7&lt;\xee\x893r|\xee\x0b\xc9\xf6\xde\'\xa3\xcd\xdb\x96\xf3\xe9\xbc^b\xe5\xda\xe0\xe7\xcbT\xa7x\xd4^\xd3\xf0\xf4\xbe\x93\x9c\xef\x9f\xef^V\xbbQ\xb9zZ[j\x0e?E\xf4\xecU\xfa\x7f\x80e\xb2)\xe9\xf3\xbe\x13C\xa1d\xab\x91LDa\xe9&lt;\x95\xab\xea\xfa$\xbe\x7f\xb7\x94\xe7}\x08\x1d\t\xe2\xf5\xdd\xef\x9e{|\xac)oCu\x8d3u\x1c=\x165\xcdT\xca\xa8/#\xfc\xcfu\xcbU]\xafO=\x9a;\xcc\xb6\xfd*V\x8e\x8a\xb8\x85\xc7-,\xce#\x81l\xf5+\x9em\xee\x1b\xa3~F\xcc\xa10\'\x84a\x8cs[d\x9c\xc5&lt;K1\x10\x19\xee9\x81$=\xe3\xbdkxf\xb7\xad\xb32GfK@\xc6\x12\xc3\x87\xa2Ca\x00\xc1*\xaan(uU7AJEZ-\xa2\xe1$\xddI\xc0\xa2\x10\x13\x05\xdb\x11j\xd4n\x14\xbc\xadX\xb7\xb2\xf9\x7f\xa3\r\xf9\xae\xbb8Fk\x0c\xe9\xe6\xabJ\xde\xb5\xd3\x95\xe1}\x1f\x87\x9d8\xb5\x98M]|\x94^S\x90b\xc2\xc2\x8e\xf5o\xa2\xe9\xca3\xdfy\xfd\x94\xcaD^\xcf\x85wq\xc8\x0e+\xea\x16\xfeUus\xdd7\xcb\xf5\xd7\xac\x94\xd3\x1e\xbf\x96J\xeb\x8e\xa7\xca\xeb\xe09Oh\xe6&lt;\xcf[\xce\r\xd2\xe7\xa1\xe6\xca\xba\xe5\x18\xf7\xe2\xb2\x7f\xb7\xc6\xe9\xfd\x07\xcd}[\x90t&gt;\x1b\xef&gt;\x04\xadI\x92\x9f\xd1p\x91\x07\x17amf1\xf1=\xd6t\xd0\xf2\xfa9\xadtt\xb5Z\xef&gt;\xf4o:\xf4\x11.M\x9a\xd3M\x94-sT\\\xed\xb5\x1f\x9bu\x9eF\xd7\xc7\xe8\xe8\xba\x1a\xbc\xf69\'\xd1V\xf6\x1cF\xdd\x03\xa5T\'GA\xd3r\xd0\xc6\x81F+j\xb9\xc3C8\xab|\x94\xb2u\x07\xf1\xc0\xb2,\x05&lt;!\x10\xdc\xb3\x1d\x92$\xc72r\x1a\x12\x96\xc6\x1eO6\x86\xa5\xad\xb4Q\x90\x8dFQ\xc74H\x1d\x11N\x1b\rr\xaeUu\x8e\xb6\xcb\xd5\xda\xa2G.\x8d\xa5e\x02\x89Y\xa0E2\x0e&amp;\xf8\xed\x89\xcc\xe8\x01\xe1Z~\x8d`\xfd\x8f\xc9}=}\xa4\xf7h9%\xf7\xd9\xc6\x95\x05\xbf5x!\xc8t\x1c\xec_\x99_\xa2\x8co\xcc\xaf\xd3\xa6\xcb\xcej\xe5~\x89\x8eG\xa7\xfa\x0fR\x13\xb4\xe5\xa4\xb7\x1c\xf7W\xcc\xfb\x1e\x05P\x0e\xc7\x8bN\xd1\xaae\xfd\x8e&gt;\xe7\xea_\x8f\xfe\xd5\xe2\xec\xf3~\xbf\x9a\xf0\x12\xbe\xf1\xe3|\xb5\xcfE\x90\xb4\xb1\x9f\x7f;\x00J\xc3\x9b\xd0\xad6\'\xdb\xe1\xbc\xd0\xc3\xd2:\xc6\xf8\xa2\xcd=g\xca@^\xaei\'\xa0t)b\xac\t\xba\xf4O!\xeb\xf9\x9b\xbf\xb0\xa3\'\x8b\xd1iAi@\xe1\x1f&amp;R\xa3\xbf\t\x95,\xe7E\xc9\x8bl\x85;\xb5\xdf?\xd8&gt;\x87\x9d\xbc\xe56\xf7);\xe9\xf3\xf4V\x8b\x0e\xb2\xbb\x1b*sR\xd3\xa0\xaa\xb7\x96\x995\x90f_I\xe8\xb3\x0c\xac\xcf\x9dv\xec+_\x19\xb1\x12\x07@\xb1540\x9a\xdb\'\x86\x1a31&amp;V\xd9\xf0\x15\xa2\xcc6\x04M\x0c\x05\xbd\xc4\x8c\xcc\xc3\xa7\x0c\x8e\xd1\x11br\xe0al\xaa,\xd2\xccUY\x950\xa4\xa4\xe89\xf7X\xd5ZT0\xa8U\xa4\x9f&gt;Dw\\AW\xa9y\xfd?b\x1b_\x8c\xfah-l,9\xaa{\xfe[2\x14/V\xdaI\x11\xfb44q\xe9E:r\xcb\xf5!\'\x90G\xb3\xac\xe8\x9f\x17M\xd2S}\xa3b\xc3s\xc8\xf4\xf9\x8b\x06\xe9~\xa3\xe2\x11\x8bt\xfe\x0f}\xcfIA\xd0\xfa|V\x157&amp;\xe6\xfaJ\xae\x81\xbd{\x1e\x12\xd6\xb4\xd7%km\xd1\xd4\xe8\xb5\xb5-\xaa^9\xadz&gt;h\xd9\x84\xfax\x86\xc8\x02\x18\xa8\xd7\xae`\xfe\xaa[\xb9\x8b\x8a\xbb\x82\x06\x9a\xfb\x12\xdb\x91\x0ck\xd2\xf3\x0b\xcf\x8e\xe2\xda\xb6\x13\x00nC\xe9A\'aG\xcc\xeaW\xd8\xa9\xf3^\x80.)\xedy\x87Ws\xcd\xf4\xfe\xf7%\x85\x8d_AI\xb2\x18{\xcf\x95o.{\xd4\xf8E\xc0\xf5.m\x04=\x7f\x19U\xdfA\xf9yt&lt;\xef+\xb2\xf2\r\xa6x\xa1n\x98R\x94hw\x99\x8b\xa6\xd2\xf6\x13bH\xdb\x83\xaf\x165\xb2\xd1f\x1b(\x16\xc2\xca\xbc\x18\x11\x02\xde\xb6D5\xbd\x11!\x90\'\x01v\x01\x95e\x9a\\\xe4\xd3y3\xab9\xde\x93\x9cuV\xa6\xc8-\xa8\xe5\xd7Y\x93\xc81\xdc\xed\x87\x85\xd0z\xc7\x93P}\x83oIo\xf2\xbfB\xf0f0(9~\xab\x9fG\xe7\x95\xb3R\xa0\xb6\x89Z\xe3\xb5\xec\xc3&amp;\xa9\r\x8a\xe4\xd6U^\xd3\xd1\xb8\xaes\xa4\xe5\xbe\x9f\xd9\xaf\xb7\xaf/G\x94\xa8\x1aC\xe9&gt;6\xb1\x1b\xda\xaf\x17\xb1~\xcf\x86\xf4\x0e~\xb7\x9c\xa0s\xd0\xe9n\xd6\x85\x9e\xae\x1b\t"_G\xcf\xc6Aw+\xf3\xf7\xe1\x96X7UU\xd7\xc7t\n\n\xe3\x1b\xda\xba\x92punp\xb2y\x8d\xe8\x13\xa2dn\xce\xbb\xaaI\xa4e\x96\x8b\x04\x8b\xf2U\xb1LSx+j\xac\xb6\xd8Ldn\x8e\xe5\x1eJ \xcc\x97\xf2\xfbQy\x16\xfc\xa6\xe8\xfa&gt;n\xff\x00\xd9\xe2\xe8nho;\xe3\xd9\xf5&gt;y\xed^-\xf8\xee\xcb\xcf\xbd\x8f\x1f1\xbb\xe2\xfbIng\xd1\x89\xce!\xbb\xe4\xd8]K\r\xa0\xdf3\xdb8\x9bvX\x0ez/\x1d\xcfi\x8bd\x8b\xf0v6=I\xc9\x18\xebl\x86A\xb4\x051\x91\x01\x10EG\xad\xc0\xae\xc71\xb0$w\x87,\x16\x17\xc1E\xd9\\\xe5\x93qM\xaa\xb9\xdb\xfa\x07U:\x18v\x07\x00\xed\xd7\x82\x1a\xf6\x91aK\xe4&gt;\xcb\xc1\xd0{]\xe7!\xd1|\xc7\xd0\xdd\xe2\xe4\x0b]K}N\xc6\x81;\x14\\\x1e\xca\xb1\xd5v\xc0\xba\x8aYUT\x06r\x94\xcaV\x9c\x9d\x17m\xc6\xfb\xbe\xea\x94=O9\xd1\xe6YT\x98_O\xf1)\xd7\xb8\xaf\x99z\xe7\xeb\xe3\xe5\xdb\xbc\xe8#\x0e\xefL=W\x18\x87D;\xc7\xbc\xc9_K\xc9\xf5\n\xce\x16#\xab\xacO\x9e\xcb\xf1\xba\x1di\'\xb5[b4\x04\xde\xe8j)\xdc\xe9\x8fi\xf3v\xc6\x8f_\x1dU\x07S\xccN\xa4\xa6\xbc\x9b\x1aU\xbd\x03|\x16\xe07\xda\xf2X\x9b\x1c\x07K\xd6+b\x8f!R\x9e\xc5\x0f\x9e\xf448\xb3\x138\x9e\x1c\xafw\xd0\xf3]G\xa9\xe7[\xdaU\xd8^7]\xff\x00\x9f\xba7\xb5\xf3\\5\xb73\xed\xb5\x89\xb3\xc5\xae\xb5\x833)\x841\x19P\xdcmv\xedE\x9dA\xcd\x8c\x17_\t\x01\xa6\xca\x85\x83\x1b\x16\xc4f\xf4\x18\xecH\x87D\x12\x11\x86\xdb\x1eD\xed\x0eZ\xcb\xa1\x10\'\x17q\xde#X\xeb\x90\x15L\xae\xc0A\x8a\xf2\xa8\xa4\xed\x93\x87m\xb6=\x97P\xcb\xe2\x9an\xa8\xcbWMn7\xd6\x9d\'7}\xf3\x1fC|\xcd{\xac\x83\xa9\xb9\xafq\xcd\xd5\xf4\x155U\xb6\x14%V\x91F\xb7\x0b*\xca\xda\xc6K\xe2\xf3\x1d\x7fC\xd6\xf1\xfak\xd7\xf7\x12]V\xfd_\x9b\xa8,\x90\xf4\xbcLF\xda\xa3\x8e\xc8\x92\x0b\xf9\x15\xea)\xce\xf8\xea\xb5\xfae\x1bF\x10\xbe\xf9e?J\x1e\xf1\xe1\xdfqx\x13\xf3x\xdc\xdbK\xe9\xbc\xdfr\xeao\xfd/\xe2\xfd\x0f\xcf\x8f^\xf3\x89\xfdO\'\xd3~\xdb\xf0w\xde\x7f=\xd1\xe2\xfc\x8f\x9dV\xfa\x15[\xdd&lt;\x0f\xea:\xf1\xef\xe3_\xd1O\x81x\xadW\xd8\xf1]\x87\xb1/\xb0&gt;G\xfa\xab\xe1/\x03\xa3\xed\xaf3\x17]\xc5\xd5\xf2\xa1\xa8\x8f\xf4\xdc\xe6\x08j"\xaa\xad\xa3x] \x94\xb4\t\xd9\x91\xfc\xfe\xf6o-j\xba\xbc\xdb\xab\x9a\x8b\x9fO\x92\xc2\xd2\xa9\xd5\xd6\xec\xd3ZE\x8ee\x9e\xe6fo\xaa\xac\xd8\x0f\x17o\x9e\x93\x9e\xa5\x12\xc5\xadE\x88\xd7L\xa8\xcd\x1a1\x90\xc8\xd4\xa0X\xb0\xb0\xbbS\xad0 U\x94\xc8B\xb1&lt;6\x0cL&lt;\x05\x92\x8e\xd0\x1c\xe1\x8c\xa4=\x86\x8a\xcc.\n\xa9\xb8\xa05\xd5\xb65\xac\xb9\xd5V\xf4U\x94\x11q2\x10Q\x94\x1b\x19RD\x8ara\x9b9j\x8d\x8f\xcd\xfd\r\x8b\x894\x03*\xb8;J\x9a\xba\xf2\xba\x9b\x99\xe7\xba\xbeeO;KsC\x85b\x9b\x15\xa0\xcf\xa4\xf9\xd7e^\xbf&gt;\xb8\xaf\x97w\xd1U?^_\xa7\xf8u\xeb.+\xc4\x95E\x95y\xe4\xa2\xcc\xc3\xca\xbf\xa9A\xae?\xaf\xd5\xfa\xcb\xc8\xbd\x0b\x89\x1e\x1f\x96\xc1l\xfa\x19}3\xde\xf8\xef\xb4x5\xf9\x07\xb6\xe3\xfe\xad\xfa.?&gt;\xf6\xff\x009\xf4\x1f\x9c\xea\xf2_*\xfa\xd3\xe5\x8f\xa0\xe3\x9f\xdd_\x13}\x9f\xe6[\xe1TX\xe7\xfd\xee\x7f_\xe6~\x8a\xf3\x1f\x97\xef\xef\xbc\xe7\xb4\xef8\xdb\xe0\xbe\xe3\x80\xf4\x8fq~\xba\xf1\xefX\xf2\x7f\x05\xba\x1f\x97&gt;\xb3\xf8\xb3\xb4\x84\x86\x87\xaa\xf54\xed\xa9\xe5\xe9nQ\xe7\xa8\x98\x11\xd1\x9d\x9c\x19\xe6\xe8\xf6&gt;\x17\xd1\xecxS\xcb-\x96\xb2\xf5\xbc\xeb\x06\x92\xb1ala\xef-\x93P(6\xc3\xd0\x80a\xf5\x1b\xe5\xe8&amp;\xa7\x14B8\xabhm\x1c\xac{9a-\x11\x8c\x01\x84i\xeax\xa6@ q\x89\x852\x049\xc7\r\x0c\x83\xd80 \xc8\x1c\x08=\xa1&lt;\x90`\xaa\xca\x8a\xc1M\xa4\xf6\xaf\t\x1fe\xb5rC\xac\x94Q\x84\xc8^\xb5\xe4\x98.E\xb4p\x889\x11z\xdcg\xf3\xde\xfbL `m6\xb9\xd9T\xad\xb4F\x9b\x9f\xa0\xea\xa9\x18q\x94\xddMB?"\xb7G_I\xa9\xe9&gt;{CON\xe7\x8c\xea\xb8_]/\xd4\xdc\xba\xf8\xf6\xa6\xd6\xf7&gt;f\t\x94\x1em\x96\\\xc0\xf3-\xe9u\x8a\xfaO\x7fr\x7fP|}\xf4=\xbc\xaf\x99\x9f\xfa\xc6\x8b\xbek\xb9\xdd\xfc\xc79\xc7\xde\xb8\xea[\x8e/\xaf\xabg\xdd\xe4\xfbo\xe2\x8f\xa0\xbcK\xe5\xfbu\xf5\'\xc9&gt;\xb2\xb5\xf9\xd3\xb3\xf2\x9f_\xe8{O\x9e/*\xc23\xf7\xff\x00\xe7\xbf\xbbs\x9az\xce\xc3\xcc\xa0~\xca\xf8g\xe8\xff\x00\x99\xec\xdfwx\xaf\r\xed0\xdf\'!yM\xec^\x95G\x16\xf0\xec\r\xca"X\xc0\xf3\x07\x1e\xaf\xb0\xe7\xa7\xb7\xb8\x83&gt;E9 \xd8\xd7\xf7\xf2[_\xd2\xb5\xe8sXZ\xd6\xb2\x86\xe1\x85\xcaF;&amp;\xe0\xfac\x0c\x0ec\x10\x83c"&lt;\x18\xec\xa6@\xee\xc9B\x8c\xc1\xd46-`\xa46\x0eP\xdaz\xcdm\x1dn$hD\x19\xd0\x8c\xc7\xb4#\x99\xb6\xf3qV]\'Q\x18\n4\xae)tU]5\x13\x14i\x17\x9a\xd5\xed\xa4B\x89\x9a\xb8\xe8,4\xdbY\x16\xbc\xe4u\xa2\xae[\xc4\xf6.\x9b\xe7lQ\xef\x9d\xa7rta9*\xd8\x15O\xd7PRRtu\x19\xa8ko+\xa8)\xe9zT/\xf4\x1c\xa2V\x0bz\xdf/\xcf\xb0\xb1\x1a\r\x000\xf48pA\x87\x19\xc1L|\x8f\xd6u\xfc\xad\xef\xba\x9d\x9f0k\xef{\x85?F\xe4\x84\xed\xf6?\xca\xd7T|2\xe5}\x1b\x96\xfa\xe6\xab\xf1\xb7W\xcd{A\x7f\x1e\xe9\xb9\x1f\x7f\xf2\xfa\xfc{\x95\xf5d4\xfc~\x8b\xe9\xee\x11+\xc7\xf2\xbf[\xf8#\rB\xeb\xe8\x04\xdf"\xf7\xa7\xf5\xd9\xd7\xe4\xae\xe1\x9e\xd2\xcb\xc0\xdf\xfa\xdf\xcb\xce\x95\n\t^\xf9Vf\xf5\xf3\x1e\xc6\xa0I^\x03\xc1\xb1\xd1\xc8\xe3\xca1\xcd_c*\x16~\x07U%u\xfd?G9n\x96?g;\x96\xe8\xb7Ei\x85\xed\x10\x92\xc08]\xd6\xd4t\x83\x0by\xca\xc5\x9e\xb7\x16\x9c\xe1=\xa6QL\x12\x99b\x02\xd1\x17:\x99Fq\xcd\x9a\x94H\x8cw\x12!\t\x0f\r\x0fc":\xd4\x08\x9cF-\xb6\xa6,\x1b`\xd4CZ\xdd\xa4\xfb"\x95\xd6(2W$\xea;!WgT\xda\xa5r$\xc2\xc8\x8a\xcfk\xd4\x8a\xa7\x9f\xe8=iIl5\xcb(\x1f\x83\xb8\xe0\xd4ee\x12r\xbe\xa1:\xe6\xeb/4)\xdf\xa3\xb4\xd4\xd0x\x8fb}\xb7\x1c\x82\x9d\\7\\\xf9\xaf\xe4\xbc\xd8\xe0&gt;Vy\x07\x81\x99\\\xcdM:\xde\xc3\x8c\xea&gt;\xa7\x90Z\xb1\xa5\xeb\x7f@?\x99\xb7K\xfa\n\xbc\x8c\xfdO\x13\xe8\x9e\xcf\xce\xbc\'\xe6{}\xd7\xb4\xb9\xe6\xfc\xfbx\x7f\xd6\x7f\x1b\xfd\x06:\xaf&gt;A\xfa\x87\xc3:\xf9~\x92\xf2K*XoU\xe1y\xcf@\xe4\xe8\xf3\x1f]\xe6|\x13\xd1\x87\xd8\xff\x00.\xfd\x11\xf3\xc4+\xf6\x1f\xc4\x9fY|g\x9b\xd5\xfd\xd7\xe7\xce\x93\x93\xaf\xcb9\x9e\xc3\x90\xfa\x1f:\x9aP\x9f\xcc{z\xc2\x87\xbf\x89w\xd7f\xdcM7[e!\xe8\xbd\x0f?\xd4|\xf7r\x8b\xd9\rR\xae\xcdK\x9f{\x83,7cT3\xc9L\x87\x99A\x8ekX\x0bd\x9b\t\xb8N\x18\xd2\x8c\x90\xcez`\x18aD\xbaR\x8c\x86-\x82\xf6\x04\xac-\xc5I\x06E\xf6\xc8\xea\x1bj%\x9b*\x9ay\x83\xaa\xf5{\xb6\x1c\xe2]R\x1brj\xdbSe\x16\xc2P\xdd\x8b@d\x14\x92\xb0K\n\xb4,\x90:\xb2\xaa\xea\xb1\x85\x15e\xddcm4+m\x84\x99\x96\xe3\xedj\xee\x8e\xf6\xd1\xb3:\xe6\xf3\xfb\xa23\x0f\x87\xb9z\xcb*\x9a\n\xdaWy\xfe\xa8\xad\xce\xb3\xce\xf5\xf2XA\x1e\x97\xdc\x87%+\xd4\xde\xdcV\xef\x16O&gt;\x15M5\xcb\xd5\xcfc\xc8Ff_[\x1b\xad\xba\xab\xb9\xfa&gt;S\x15Bz\x80h\\-\xa6%\xddZ\xa8p\xda\xea\xc8T\xd8I\x19\x1b\rO\x96\xcb\xc9\xa1\x07\x033vV\xac\xb42\xdd\x10-i\xf5\xc9\xda\xb1\xf7]!\x7f\xc9\x1a1\xbb\x97\\\xe8\xfc\xcfaEwm)\xd0\xcbLF:\x01\x07\xd3\xcf(\xee&gt;\x87\x90\xe5\xba\x8e\xc5\xbd;\xad\xe6\xfb\xcf\x99\xf5(\x95\xbc\xaaI\xd4X\xd1\x9f\xde\xf3z[\x1eb\xc0\x8e\x94\xb56.,\x98\x00\xa7\xd0\xec y\xc8\xc5\x01\xa2\xc5\x9c\\\x99\x93\x92g\x14V\xb0Ip\x8c+M\x9f\x8d\x85kj\xc6\</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495612-messi-tendra-tres-dias-de-descanso-extra-antes-del-ultimo-pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Martín Palermo asume un nuevo desafío en Platense</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Será el séptimo club en la carrera de DT del Titán</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Martín Palermo fue presentado este lunes, justo en el día de su cumpleaños número 49, como nuevo entrenador de Platense y aseguró que la decisión fue por el "entusiasmo" que le generó el proyecto del Calamar."Me entusiasmó el proyecto. Trataré de dejar un huella importante en esta etapa de crecimiento del club que hace dos años ya está en Primera", expresó el flamante técnico en la rueda de prensa realizada en el estadio Ciudad de Vicente López.Palermo estuvo acompañado por Pablo Bianchini, presidente saliente, y por su reemplazante, Sebastián Ordóñez, quien asumirá oficialmente la próxima semana."Lo más importante es seguir formando chicos y la consolidación del equipo en primera", agregó el Titán, quien luego de la conferencia de prensa recibió una torta con el escudo de Platense (por su natalicio).El Calamar será el séptimo equipo de la carrera de Palermo como entrenador.El exgoleador se retiró en 2011 con la camiseta de Boca y poco más de un año después condujo los destinos de Godoy Cruz. Su primera experiencia como DT duró toda una temporada y dejó un saldo positivo de 14 triunfos, 17 empates y 13 caídas. Tras algunos meses asumió en Arsenal para la 2014/15 y tras 11 victorias, 11 igualdades y 17 derrotas se fue antes de que termine el torneo.Tras casi un año inactivo, partió hacia Unión Española de Chile, el club en el que más duró hasta el momento: fueron dos años y medio en los que sumó 35 triunfos, 25 empates y 22 derrotas. Su buen rendimiento le valió el pase a Pachuca de México, donde estuvo casi un año y cosechó 16 éxitos, 12 empates y 13 derrotas.El Titán pasó la pandemia sin club y a fines de 2020 volvió a Chile para agarrar Curicó Unido (cuatro triunfos, seis empates, 15 derrotas) para finalmente llegar a fines de 2021 a Aldosivi de Mar del Plata. Con el Tiburón, Palermo sorprendió al llevarlo a cuartos de final de la Copa de la Liga de este año pero renunció de manera sorpresiva antes de arrancar la Liga Profesional. En Aldosivi fueron 12 éxitos, 5 empates y 10 caídas.Palermo llega así a Vicente López con marca positiva en sus 257 partidos como entrenador: 92 triunfos, 75 empates y 90 derrotas.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x00\x07\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\x01\x01\x00\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf4p1\xeeyDfA(\x1c\x08(\x00\x03\x81\x18\x00\x06k\x11\x80\x00` b\x04`\x00\x18\x00\x00#0$(\t\n\x01!\xc4\xc3\x18\x1a\x1d\x18\xec\xddm\xec6"P\x82\x16\x00\x00\x00\x01B\rD\x10\x06\x10Q\x04\x01\x84\x00\x00\x00\x00\x18AD\x10P\x12\x14A\x05\x00\x89@I,\t\n\x02L\xc0\x90\xa0$(\t\n\x02A\x98\x90\x00\x01\x98\x90` \xa2\x08\x18\x08\x00\x00`"0\x101"%\x00\x89@HP\x10\x0c\x04\x0cL\x102\x01(\x92D\xa0\xaa\x02\x84\x9b\n \x18\x00\x00\xe0F\x0c\x04\xa0\x94\xa8\x1aH\x18\x802P\x931\x020\x00\x01\x84\x00\x000\x100\x10P\x12\x14\x04\x85\x11\x89i\xe8\x1d\x19o\x9ee\xfc5\x00\x08\x00\x00\x00\x00\x00@\x03$\x80` \x0c bD\x1eNz6\x19\x8b\x11`*\xeco\x0b\x00\xe6\x84\x0c$\x81\x84\x100\x92\x06\x020\x02\x06\x02\x06\x10@\xc0@\xc0@\xc0@\xc4\x88\x03\x08(\t\x06 @\xc0D\xa1"\x00\x00\x00\x00\x080\xd9\x8a\x00\xc4\x85\x10@\x18A@HRd@\xc0\x90f$(\x84\x83\x02\x01\x94\xd4\x19\x84\x901\x12F`#Q\x04f @\xc0\x01\x80\x81\x98@\xc0\x01\x80\x800\x81\x80\x808\x021\x12\x08\xc4\x82VF2$\xd8\x9d\x18\xed\x9ei\xec5#\x07\x12\x90\xa1\x04\x831!@HP\x12\x14\x02%\xc9\xcbV$\xcb\xaf\xf3\xbb\xac\xe3D\x83\xcf\xd1\x17\x05\xaa\xe69tYc[\xac\xdb=\xff\x00c\xf2\x8c\xbfK\xcf\xf5P\x85;\xaf\x84\x89A\x04\x0c\x04\x0c\x00\x8c\x04\x0c\x04\x0c\x00\x8c\x04`\x04\x0c\x04`\x04\x0c\x04\x0c\x04J\x01\x03\x02B\x82\x12\x14A\x12 \xca\xc6-}6:&gt;\xcf6\xcb\xfc\xf7\x7f\xa2\xad\xb8\xc7S\xfa\x0e\x0bZ\xf6\xb1\x91;9\\\x8fS\x95\xb7\xe2\x05\x87v\x04f\x04\x83\x00#\x01\x03\x02I@l(H\x82\x84\x12fbL\xccHP\x08\x18\x80\x06\x02\x06a\x03(\x93%\x01&amp;` ` `\x04`\x00\x00\x03 \x11\x89c\xa1\xd8@\xe8\xcbj\xfb/\xf3\xea@\xc4\x08\x18\x08\x18\x08\x18\x08\x18\x01\x94\x9c\xf4:+\x9ey\xe3z\xf2%\xf3\x17\xb9\xfaz\x15g$\xc6\xc6\x9d&gt;\x87\x13\xa5\x99z\xbfY\x8b\xb6u\xfa\xdc&lt;\x8d\xf0\xf4\xde\xe7\xce\x9e\x82\xef\xf3\xa5\x00;x\x800\x101\x02\x06\x020\x02\x00\x00\x18\x08\x18\x91\x00p ` ` \x0eD\x0c\x80\x01\x84\x00\x02U\x00c9\x1b\x1f\xe7t\xdc\xd5\xe2\xd8\xf2;\x06gW3\xab\nN\xcd\xc1u\xda\xd3\x7f\x82M_\x0fK{\xec]\xaf\x1e\xddOg\xc5\xfaw\xd3yzBC\x9d\xb8\x900\x101$\x85\x10D\xa06\x14&amp;\x12f\x04\x99\x9c\x08\x19\x84\x0cD\x90P\x08\x18\x08\xcc\x04J\x01\x03\x01\x188\x100$\xcc\x04\x0c\xc4\x831!@HRL\x9dm\xad_N[w\x9a\x7f\x9fT\x99\x88\x100\x100\x100\x11\x83\t\x97\xd7\xc5\xd8\xd6\x7fY\x93\xe0\xee\xe0\r\xf5\\\x86\x1e\x8f&gt;\xa5\xb6=&amp;\xb2\xbe\xd8\x95\xa5\x9f)U\x98\xeeIsL\xf3\x9e\x8b\xe2;oK\xc9\xf4\xb1,\xba\xbc\xe4\x1a\x84\xcaL\xc2\x08\x19\xc1!D\x92\n\x12A\xa8\t\x06\x02%\x00\x82\x84\x12\x14\x04\x85\t\x84\x85\x04\xa4\x19\x04d\x84\'-}\x81\xca\xf9\xecv\xc3\'\xf2\xfe\xb6qF\x9c\xed\xac\xd9\xe2.}NNx\xdd\xbc\x0c&amp;\xe8\x92\xc7Nr\xe8QW\xe7t\xe86&lt;\x95\xfd+\xe9\xdd\xa7\x02\xee\x7fK\xe6X\x18;\xc2A\x80\x89BI%\x01\xb0\xa3\x12\x14\x04\x99\x80\x00a\x03\x01\x18\x10\x01D\x11\x83\x12\x14\x04\x99\x80\x8c\x00\x03\x11$\x14&amp;\x12\x14\x04\x838$(\x04Fi\xcaT\xdcP\xf4\xe3\xbf}\x89\x1c\xfb\x11\x82\xac\x83\x02@\x11\xc0\x00\x00\x00\x90\x93\x1aO\x17R30\xb9\xef\x1fn\xf2\xc3\x96\xf5\xfe/G5\x84\xddq\xad\xa7\x1a \ri-\xd8 \xb2r\xb9jN\xb7\xa4\xd1v\xf0z\xb4\x94]\xbeY\x12\x80\x90\xa0\x100$\xcc\x04\x0c\x04\x0c\x04\x0c\x04\x14A\x03\x01\x03\x01\x03\x01\x03\x02!\xbd\x88\xca\xd7\xf5xZo\x17\xb7\xa4U\xf3\xdbmkw\x88\xd6\xd4\xf9\xfdU\xe2uO\x07E\xa4j9\x91\x15\xb9\xbd\x867\xaf\x19\x13\xe2\xef=\x1e|\xd4n\xa7\x9e\xf4\xb99e.\xd3\x1d\xe6\xf4z\x0b\xb5q\xae\xcf\xf4&gt;s\xe0\xc5nD\xa0$(I$\xb4\x88\x06\x10\x00\x00\n\x02L\xc0\x90\xa0%F AA \x8c\x04\x01\x80\x00\x90\x0c@\x81\x80\x81\x80\x81\x80\x8c\x00\x00\x00\x003\x19\xed%\x17N\x1b\x89,H\xe7\xd8\x81\x88\x92\x06\x02\x06@\x06@\x06\x02y\xa68\xfb9O%\xea\\\xc7\x9f\xb3I&gt;\xcb\x83rwX\xe2\xd5\x9a\xbeV\x16x\xcb\x89m\xd4V\x17\x9c\x85Tf+M\x9fE\xe3\x1dJ\xf9{&lt;\xb1{_W\xca"P\xb6I3\x00\x00\x00\x18\x08\x01\x00\x00\x00\x00\x00\xc0\x85\x00\x00\x0c `$\xa9\x05\x1f,\xea\xb9\x1e]9z\xe7B\xf2:\xe1H\x91/\r\xa6V\xd9\xe5\xf0\xbb\xcc\xe7\x97\xd5\x9dm\xf6j\xe2\x1aZ-;}u\xc6n*no\x96\x9e\x02d\xfa\xbc8T\xf4\x8d}/\x98\xe9\xf57\x9dY&lt;\x14\x9a\\\x00a\x00\x02\x06\x06\xc1\x89\xa8%\x1aR\x14\x02\x06 \x004\x900\x100\x00\x0cI\x80\x00d\x00\xa0\x100$(\x04J \x03\x02B\x84\x01\x183T\x1a,\xf7N\x1b\xb9\x11\xe4\xf3\xec@\xc4I\x03\t ` a\x04\x0c\'\x93\xf2\xedw"\xf9\xbf\xd3\xef\xbb\x0f\x9e=s\xbf\xcbRy\x1f\xdc\x1c\xb2\x93\xe69\x1aH]\xb9d\'\xdb\xbdz\xae\xce\x05\x9c\xb3\xd1tUH\x16\xf5\xf6\xb5\x8d\xdf\xa6\xbc\xad\xea\xadr c\xb3\xc6 ` \xa0$(\t\n\x01\x12\x80\x90\xa0$(\t\n \x82\x80\x90\xa0$\x94d|\xee\x8b\x0fX\xab\xcaO.-\xf2\x97\x93(\xbc\xce\xd3\xce\xcf&gt;=*\x1c\xb0\xb7\xf4y\xb9\x8a\xf6\xf7[\xe5\x9b\xbf5i\x17\x98\x9e\x87\x92\xee\xe7\xd1\xees\x9bN\xccQi\x1a\xc2\xb6S\x861\xd0\x81\x80\x81\x84\x100!FR@0\x100\x00\x0c \x0c \xa1\x04\x85\x00\x8c\x00\x00a\x03\x01\x03\x01\x03\t\x00\x00\x11\x84\x00d\x90\x0c\x80\x0c\x04`\xe1\x9c\xce\xe93\x9d8n\xa4\xc7\x93\x86\xc9\n\x15\xb2L\xc0@\xc0@\xc0@\xc1\xca|\xd5\xee_\x15y\xff\x00IW\xe9\xdf+\xfa\'\x93\xafD\xdf8\xa3\xc7\x19x\x9b\x08\xdb\xa1\xb6\x86mKe\xe4\xb4V\xa9\xccr\xaf3\x96\xd4\xb7\xb1~\x85\xe8\x9e\x1d\xdc\xfd_\x01!C^t\x85\x10A@HP\x12\x14\x04\x85\x00\x81\x80\x81\x90\t@HP\x12\x14\x04\x91\xc3@\xc8\xaf)\xc5\xb4Z\xb9\xf8~]z^2\xc9\xcdXi\xd1G\x9d\xd2\xf6\xb2&amp;\xa3\xd4\xe2\xcbiZ\x7f\xa7\x19\xf4[h\x9e\x976\x0f5\xd11\x9cZ\xea\xba\x8f3\xe8\xdd\x14\xb7y\xa73\xd5\xd0\x93\xac\x98\x04\x93#\x02B\x80\x90\xa1&amp;\x8c\xc2\xa0\x00\x00\x0c `\x00\x04\x83\x00 ` f$(@\x81\x92L\x00\x00\x00\x008\x100\x10P\x12\x14\x04\x85\x03=\x9b\xd3fzy\xf7\x8f\xb1#\x9fr\n\x11$da\x18\x01\x18\x00\x00\x03\x8av\xc6\xe9\xaf\x8c:\xba\xf3~g\xba\xd6/\xa7\xf3\\\x90\xeb\xec\xaa\xf3\xd6\x11\xccGFl\xb8\xcacY\xa8)L\xabt\xd4w\xf9Gl\xec\xb4W\xde\xcf\x84@\xc6\x99\xa4\xcc\xd0\x90\xa0$\xc1\xc0\x89D\x00\x0c \x00\x01\x92@0\x82#\x01\x18\x01T\xdb\xc5\x98\xe2\xf4[LG\xc7{)\xc7\xe9\xb3\xf5i41g}\'\x9b[[\x7fc\xdf\xcdC}\x84\x9b\xe5tu\x83\xae\xd1\xfb\xfcQ-3\xd7\x97\xacd\xc8\xb4\xa4\xd1g\xf7\xd5\x88\x9fb\x86\xb0\xddI\xcaRq\xeb\xd3\x95\x92\xd5uf\xf2\x81\xc5\x88\x18\x08\x006`\xed\x04\x0c@\x81\x9aH\xc0\x00\x02\x00\x00\x00\xa0$(\x04\x0c\x04\x0c\x00\x00\x00\x0c \x00\x01\x80\x81\x81&amp;`\x04b\x14X\xfd\x96K\xab\x9f{.4\x9e~\x80\x0cVH\x18\x08\x18\x08\x18\x08\x19\x89\n\x05o\x9a\xfdM\xe6\x1e_A\xecM\xb5W\x9f\xe9\xc3\xad\xb3\x83\x96\x98\xe8z\xf7zr\xcfLx\xb5\xd6\xba\xabWd\xca\x9b\xa4c;\x16\\\xde\x8bI\x8fW\xc6 `#\x00\x00\x00\x8c\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x11\xa4\xc7\xb4sN]\xdbp|v\xe7\xf6J\xd5\xe1\xac%\xedr\xfe\x8f%&amp;\xbf!q5\xc4W\xcc\xc3\xf8]\xbd\xb3{\xc3:\x7f\xad\x83\xac3\x86\xea\xcb\xb1YsZ\xbe\xac{C\x9c\x81\xecm\xd6\xf3\x98\xba\xaf\x17\xbaN\x1d\xcc\'\x9b\xbfd\xee&gt;K\xf4\xdf\xbf\xc3\xafr3\xbb\xd9\xc4\x9a\x04\x86JR\x80\x10\x00\xcc"P\x12\xa0a\x03\x10 `#\x00\x00\x18@\x00\x03\t f$(A!A\tP\t `\x00\x00\x11\x82\xaf3\xad\xa2\xd2\x9a\x19,\xbd[\x00b\xb2@\x18@\xc0@\xc0@\xc0@\xc0\\\x1f\xb0q^\x1fS\x94I\xcfN\xe5\xf4%E\x92\x9c\xedN\xbbX:f\xb8hkM%\x9c9\xb6\xce_\xa58w\xad\xf5\xf3d\x99\x97o\x9eJ \x00\x04\x00\x00\x00\x1c\x88\x18\x08\x18\x08\x19\x00\x19\x00(\x80@\x83\x00\x04@\xa6 \xd3\xea\x11ja\xe9\xba-^\x99\xad\xbb\x85E\xb3\xd2e\xd5\x19\xde\x07\xda\xf9O\x99\xbc\x0e\xb9\xe7\x8dm\'\xb5b\xb4\xf1\xfd\x9e)&lt;\xa7\xa5qNm4WX\xcb\x9f\x90\xf6,J\x9e\xe3\x9bXx\xed\xa6g\xb35\xfa7\x85\xf6\x7f\xae\xf1\xb6\xb2y\x9d\x86[t\x95W\xd8\xea\x84\x87\x99-A\x88\x103\x12j\tH1\x00\x0c\x00\x8c\x00\x00\x00\x00\x00\x00\x00\xc2\x06\x02\x06\x02Q\x00\x03\x01\x03 \x00a\x03\x10\xae\xa5\xbc\xa4\xd2\xba7\x9az\x96 \xa1\x12\x90\xa2\x08(\t3\x01\x00\x90\xe9hx\x96\xf5\xd2F\x1a_\x9f\xfa?5\xbbX\xed\xb6\xb5\x9bP\xe5b\xf9\xca\xc9\xb4\x94"j-\xa4Y\x8dR\xceZ?`\xfc\xe4\xec\x9e\x9f\x87\xecC\x03nR0\x02\x06\x12\x00\x00\x00\x00\x00\x00\x0c \x00\x01\x90\x08\xe3\xa1\xb84\xb8\xe8\xafU\x7f\x9a\xdcZ-\x13\xca,\xf9\xe7\xb1\xb7\x9f\x8d\xd3\x17\t\xe7r\xb3\x9e\x98\x9c\xe4\xdd\xabW\x80\xd1\xe486\xe7P\xb4\xa8\xf1:\xf1\x15\xbb\x8c\xed\xe3@\xe6)\xefC\x9fO\xcf\xb5\x15\x1aVE\xaef_\x1e\xfa\x8b\xcc\xfd\x87\x95\xd5\x1a\xae-o\xa3\xcf\xd4or\x0e\xfb\xfc\x16\x1b\x1e\x1f\xd7\xe9\x1d\xaa\xe6\xaa\xd3\xa2Xie\x13b\x00\xa5\x800\x10Q\x00\x03\x81\x00i d\x00\xa0\x84\x85\x01!A$\x0c\x04\x0c\x00\x00\x00` \x02@0\x10\x00\x01DA\xa2\xbe\xa1\xbez7\xda~\x97HPJB\x80\x90\xa4\n\x19\xaa\r#[\xcdN\x8b\xb78\xb8\x9dg3\xae\xbe\x80\xe5]\x1e\'\xca\xfd\x0f\x9a"1\x1b\xa2\xda\x19\xb5\x133\xb5\xf4\x88v\xb9\xe9\x052++\x0cS;E\xd1\x85-R`z\x1eO\xd5Ko\x00\xfb#\xa7\x83l\x00\xc7@\x00\x90\x00\x00\x1aC\x04HP%D\x902\x00\x04\x08R\xe9-\\\x1f(\xdbs\xdf\x1b\xa9\x1a\x8eom\x13\xae\x9f\x0eO\xa3\xcb\xb9\x83QO\xcb\xad\x9b\x95\xefy\xfd+\xb4\xc7\xc9\x9aOMD^\r\xb44\xf1\xe8\xb0\xd1y\xc9Y~\xdcc\x1c}\xb7Ms\xf2\xf7\xf3\xbd\xef?\x8b\xd9\xcfo\xcf\xeb\xd1\xbf\x12O\x91\xd7\x90\xa0\xd5\xb3\xe8s\xbb\xb2\x85\x1f\xd7\xe2\xcft\xceU\xbb\xe3\xd7\xd1W\x9c\xc7Y\xe8\xe3~\xfc+[\xa4\x83\x19\xdc\x81\x98F\x00\x004\x90P\x12\x14A\x05\x01!@HP\x82B\x80\x95\x00\x00\x00\x00\x00\x00\xe0@\x18@\xc0@\xc1\x0b?\xa1\xcdk\x9e\xa2Dy4\xb9\x08\x99im!sL\xe7Dt\x1c\x15\x1dW]/G\x10\xeb\xd7i`E\x8a\x973\x97\xb8\xfeMz\xa6\xbf\x9f\xd9\xfc\xcf\xb3\xc1y\xefh\xe4\xbd\x136u]\x9d:,m\xe8\xe5V\xef\xd3K\xadR\x0eN\xef!\xd3\xcd\x188}\x1e|\xae\xa7\xcb#z|\x1e\xe0\xec\xfe&amp;\xdcm_X\x97#\xd8\xf1_\\\x9a\xa8\xf8-b\xe3\xe8|\xe8\xe9\xf0qE\x95\xba%\x9f?\xb3\xee\x8dz\xf3\xf6\x1bY\xea\xfa\xcc=-\xd4\xf3\x99\x1a\xcek\xe7\xa9%C\xf9\xdfF\x97GK\xabk\xa3^y\xde\x8aO\x80\xe8\xf3z,b\xb5M\xa6\x0f\xd6B\xa5W@\xder\xca\xc2\x84\xedonW8]]/V+\xd4V7\xc9\xb4\xc6\xf1mz\x9c\xb6\xb5\x13\xa8\xf5\xae\xce\xdb+k\xe5\xf5\x15\xb5U\xc7\xab\xcb/\x19k\x87\xb4j{o\x12\xf4\x8e\xd8\xc8\xbc\x95u\xdd\x8a\xed \x8c\xb6\xb4\x06t\xbaB\x80\x00\x00#8\x11(\x04\x0c\x04`\x04`\x04\x0c\x04`\xd2@\xc0@\xc0@\xc0@\xccH3\x12\x14\x02%\x02\x1esI\xcd7\xcb{\x8f\xc7Qu\xcd\xec\x1c\xfb]\x11\xa2\x81Z\x92\\\xea\n\xf9\x8c\x8e\x9f/\xa2\xca\xd7\xf2k]\xd2\xb6\x18\r\x9d_\x1e\xfd_\xc8\xdd\xf3\xc7&gt;\x17\xa0\xad\xde\x11\xfe\x8cw\xf6\xd4\x16\x98\xfa6\xa7\x02=5\xb5j&lt;I\xaef\x9eD&gt;\x9f&lt;\xea\xd6\'\x19\x8d\x84ta\xa1\xef\xbei\xd8\xfa\x9c\x9d\xca\xef\x8d\xdc\xde\xdd\xf6\xf7\x8b\\d\xdbV3k\xf2\xbb\x1bMW\xf8V\xd2\xca\xcf\xbb[l\x1e\xe7\xb3\xfaly\xf6\x98\xcb\xb5\xf8\x12\xf3\x93iO"&gt;w\x9b2\xbeN{\xd7"\t\xf5\xe3ae[a\xcc\xb1\x8c\xeb\\\xd3U\x06\xc2\x17Ft\x90\xa7Qw\xe5}M=\xad\xab\\\xfcC\x85\xf5el+T;\x15=\x15\xd1g\xe6#|\xe3\xeb\xf3\x1ac_\x8e\xe9\x1c\x8f\xa7\n\xc4\xea{\x14\xd3\x8e\xf6S\xd2\xf5\xe5\xb3\xba\xca\xbf\xb4\xcf:\xdb.}u \xc5l@\xc0\x01\x84\x90P\x12\x14\x12\x931\x10@\xc0\x08\xc0\x01\x18\x00\x00\x00\xc2\x06\x02\x06\x02\x06\x02\x06\x02\x06\x02\x06g=\xf3\x87E\xe1\xfe\x96;\xba\xcc\xa9tN\x92.b\x0c6O\xe3\xacbw\x19\xdb\x1aY\xac\xad^)\xc4\xe9dg\xe6]cX\xf7\x11\xe3\xd6n%\xf8\xdeOR\x9auv\x8bhP\xd1\x13\xb2\xb1\xe77\xae\x8d\x0eN"\x19\xae:\xc4\xe2\xc2\x9e8%\x89\xd06\xa4\xb3I\xfa\x1c\x9dr\xbb\x1b\xd2o7\xf6\xf9\x98\xda\xd7\xa19\xcd\x04\xbb\xacNI\xbd\xf0/5\xaa\x17\xfe_VgQQ\xe9\xb6\xd6ft\xf0\xed\xbfV2\xe2\xd1u[V\xd4\xac\x1f\xa2\x1d\xb1\xa4\xbc\x87u\xcd\xb4uK\x1ef\xf5US3\xfas\x9a\xa4/zf+\xae\xabz\xf3\x91&gt;\xae\xf3\xb784{\x88&lt;\x97\xe7\x95\xfd\x17+\xd1J\xc1\xa1\xa5\xde\x97\tDL\xacq\x9e\xaa\xea\xcf{\x03?\xbb\xd3-Gc\xad\xdc\xfa\x9cQe\xdc.o\x8a\xa5\xbd\xe6\x98\xdbo\xa5\xc8\xef\xaf\x1a31\x8e\xe0\x8c\x00\x19\x89%\x90\x930\x92\x06\x10\x00\x00\x06@\x06\x12@\xc0@\x18A@I\x98\x08\x18\x08\x18\x81\x07WM#\xc1\xb9\xc2#\xc99n\xbb\xca}\\\xebEA\xda\x8f5\x00\xe2m\'en\xad\x1a\x17\xaa\x91h\xbb:\x97Q:\xef1se\x8f\x19\xeb\x1c\x8f\x1b2\xc9\x8f+\xb0\x81\x89!\xa7\xd9C3\xa2,\x8a%\x88DT\x81j\xb4n\x10\xd4+\x18\x12qm\xb9\xe8\xf2\'\xa1s\xdd\t\x7f7(\xe5\xd0#Gj\x8by\xf9\xc7\xa6\xbd\xd19\x1d\x0f\xc9\xee\xf5{4\xb9k\xb7EP\xc7\xaa\\\xec\xd4\xcdi&lt;\xcd\xdd\x16\xb6\x19\xbb^\xfc\xed\xe6U\xa7\xc2\xec\xba\x87Q\x1b\x0bXW\xc5\x91|\xa6\xa2\xa8H\xea\xd7\x03\xaf5[\xd3[\xcc\xe9\xe7\xe7\x9a\xe3\xd2\xe7\x1e(\xba\xf3\xb9\xa6\x9fM\xea\xf3K\xd4\xe3:V\xb9D\xe7\xdd\x7f\x95\xd9_\xd68\xc6\xbb\'\xb1\xb5\\\x9f\xadz\xbc\x90\xea\xa7Pgz\\\xee\x8e\xc9\x17\x17-@\xbc\xed\x0c\x0en\x90\x01\x84\x14\x02\x06\x02\x06 @\xd2\x930\x00\x00\x00\x02\x00\x19\x00\x19\x89\x06\x02\n \x81\x98\x938\x19\xeb9\xceD\xf7/\xab\xb3\xae\xd7\xae3\xadf\x9f\x89S\xa7%\xc3}\x8d\xca=.\x1e\n\x15\x1f\xd2\xf2\xeb\xb4y]1q\x15\xd8\x1aR\xe9\xb8\xed\x97\x17y\x9d\x05\xa2G(\xe9\xfc\xbb+\xdf\xe7%I\xf2\xfb+\x8d\xd10\xcbR\xc9\x15\xee8\xb9\x88\xe8\x92\xdc\x9b7Hm.\x12\xad\xc2\xb0\x8c\x98\x8f\xb0\xf7\x7f)\x03M\xebo\x1a\x18\xac\xbf\x1adH8`\x1b\xbb\x0c\xce\x9f\xc4\xd1\xe7l\xb4Y\xce&gt;\x12"s\xef"I"\x9aYM\xcd\xccM\xa2\xa2\xb5i\xb8\xb0\xad\xb5\xf3\xf6\xaei\x9a\xbd\xa8\xf5\xc6N\xebJX3\x10\xb06\xd4\xaa\xbe\xba\xde\xd9T&lt;\x89T\xee\xc3\xe5\xd6\xbd-\x1fn\x1d\xa7)\xd1\xb3~\xff\x00\x9b\xc9\xfa\x1b;\xccoM\xc7\xfbg5F"\xcf\xa2\xc6Ot\xeb\xdcK\xb4\xf4\xe7\x10\x9fU4\xc7\xbf-\xed3\x92\xd8]m\xaa\x069z\xc0\x07\x02\x01BB\x80\x90\xa0\x11(\t3\x01\x18\x00\x00\x00\x02\x0c\x11\x80\x00\x00\x00\x00\x11*@\xe7|^\x9d\x82\xbc\xa1\xb8\xafe\xe4\x8e\x83\xe6\x98\x9e\xe5o\xe4i\xe8\xd5\xeex\r\x94\xed\xe8Gq\x18~\xcf/\xbb9\xe7\x8f\\\xdb\x9f\x13M\xdd8\xad\xa9A\x9e\xe9]\x82\xcf\x1bJ\xf6\xeb\xd6\xa7\x89\xf9_\xd3\x11I\xf9am\xf4\xc2\xab-&gt;a\x9f\xd1\xeb\x14\xfc\xcfG\xd3\x86\x15\xf9\x94\xbf\xa4\x15r\xf9\xe0\xd7\xd0\nIxm&gt;\xd1\xa7\x98\xf2"=I\x9d\x98\xf3\xdb]\x97?\xa5yC\xfa\xaa~\xac+\x91g;|\xb3\xe5\xa2f\xb6\xaaj\xd2\xba\x0b%\x95f\xd3]\x92\xe8\x1e]\xe5\xed\xb1\x93\xb9\xe7\x1a\xcbK\xc7kXg\x16\x97T\xad7\xa1\xe6\xded?B\xf1j\xcceg#ci\x85Qw\xdb\x8d\xa4\xae\x97\xa4\xee\xc3\x81X\xdaT\xf9\xfa3\x9c\xb7\xab\xe7\xd5nBjb\xe5\x98ns\xcc\x18\xf64\xddy\xf78\x18\x89^\xcf\x1f`\xe9|\xcf\xabo\x8f7\xe5\x9e\x8a\xe3*\x93\xf4j\xbb\xa7\xf6\xce{\xaf&amp;GDj\xde\xe6H\x9b\x96\xb4\xd3f\xc8\xad\x9c%\x0c\xb5# \x18#\x00\x06\x102\x00m\x12|!p21\x12\x95\x00\x00\x02@\x00\x00\x08\x00\nB"\xe99;\xae`s\x7f7r\xf7\xf4\x9e/=}y\xd9\xdes{&lt;\xad&amp;d\x86\xa9XU\xbb\x1d}\xf2\xe7\xd9\x8e\xc3}\xe8a{\xd09\'A\xdb\x9b\xcb\xb8\xff\x00i\xd0suUv,|\xee\x8e=]\xd77\x9bWI\xab\x81Y\x8c\xe343!kV\x92\xcdt\xc5\xa8\xa2jcF\xbc\xa2\x0b79\xcdlGV\x89\xcf\xe7\xad\xd0a\xd17z\xa2\xaa\xd1\x1d95a\t;R]S\x914it\x9e|\x87\x0fIG\x95[\xd1\x11_\xcdy\x93\xca\xeb\xf6%\x8f\t\xf4g%\xab\xa2\xf0&lt;FW\xf4\xedv\xba\xde\xceP\xbe\xf5\xcd\xb8\xfb:\x1f;\xe0\x99\\=\x1d\xd7G\xe0h\xbcu\xce\x11\xd2\xb5\x91\xcb\xe6]\x15u\xce\xfeg\xa24yI\x1e\xa7&gt;3!\xa1\x8d\xe7\xf7s\xaa\xcd._\x8e\x8e!\xf6GS\x0e\xbab\xf2\xa1\xa74CRZ\xde\x9d\xff\x00\xd0&gt;I\xec\xde\x97\x9f\xa6\xca\xf3KMs\xd4s[\xbeu\x86\xde\xaf\xe8^S\xea\x1d8w(|\x8e\x82\xb6\xf4\x9c\x9f89K\xfa,y\xa2\xbe\xb6\xf5+Y:)\x8e\x99#\x11s[i\x15@)\xa5\xfa\xb1\xb5\xd0\xe8Q\xb1\x95\xd3\x16y*\n|\xb7\xeez\xae\t\xd2\xef\x8e\xbc\xf2\xf6\xf2\xb46\x95\x96\xab6\xd4(\x80\x89\x00\x8eB\x96\xef\xcf\x99\xeb\xd2\xb1\xda\xaf4\xf9~\xd6r\xacJ\xd7\x16\xc4\xfa*L\xc83,7\x89\xf6\x9a[\x1e\xae\n\xed\x15}\xe7_$\xc9G\xbd\xd2\x98}t\xc8\xb9^j`1[C\x13\xdf\x95VW{Sj\xc6\xde`\xec\xe1\xd4\x8b\r\xaf\xe7\xd9\xec\x86\xae\x141\xd6\x10\xb4\x96\x86\xf1\xbd\'\x9d\xc2\x8a\xb3\xa6\xdbC\x82_\xea\n\xd1\x8d\xc9\xee\xf9\xefV\x16p\xd8\xbb\xe8\xcf5{\x98\xd6\xefH\xec\xccF\xf1S\x1e\xda\xd8\xd7Ga&gt;}\xe7S\xd9\xd6\xed&gt;u\xeaZ\x9d\x9f\x0fM\xaf\x9c\xfbU\xacNG\xa4\xd3INk\xcf\xfd\xdb\x9f\xf9~\xc3\xf9:(\xd9\xf4\xf6\x1cNPF\x1d\xe6O\x9e\x9dD\xac\x0e\xfe_o\x9fB\xba&lt;\xbe\xdc\xfa\x93\xca\'+\xe8)X):\x84\x12\x1dJ\xdd\x94\x03\x04\x80\x90v.T\x01j\xa8\xdb!\xf6\x92\x07\x96\xc9\xa1\xe2lX\xfa\xa391!Iy:\x91\x99,\xad\xbe\xb2\xe6*\x98\xec.\xf1\xa3\xb4t\xbala\xe5\xa6\xf2o7I\xd2\x91\xce\x15[\xeees\xc0\xa7\xa1zg\x8b\xe7us{\x9e/\x8f\x1b\xd3?a\xda\xf8rLO\xbb\x0f\xc4.D\xfbxx\x90\x91\xe9\xde_\x88\xa5\xe6\xee\xe8&lt;\xe2\xbe/\x9b\xe8\xd9\xaa\xaa\xc7\x1b\xdd\xb7Q\xd9\xba\xf9yoPcO\xea\xf0\xd7\xc8\x90\x8e\xdeV,\x95"k\xa3\xd0\xd6i\xf8\xb7\x8d)H\xa5\x96\xda@\xcc9P\xa1\x02.s\'[uS\xccF\x88\x88R\xb4\xc9\xc6\xe5\xba\xb3\x1aW/\xd39\x06f\'\xae\xbf\xcf\xb7\x12\xbb\xb3|\xaf\x14\xf2,!\xc4\xf2J\xc8\x19\xefO\x9fE\x16\x05\x96q*\xbfQw\x9c\xe0\xe1\xf4\x1a\xca\xa2j0\xbb\x1c\xcf\xbe\xdb\xf9\x8es\x126\xac\xfb\x08:\xdc\xf4\xac\xb6\xb5\x97\x96\xb1\xdcb\xa6\xb3K\xca;[y\xdf\xc9\xd9\xcd\n9}7r\x17\x02\xbbSZ&gt;-\xcfsw\x92\xc8\xf5\xf1Xb\xa5\xc6\xbei)\x8eSJ\xe1qu4\xca\xaf\xbb.k\xc0\x93\xd3#i\x9e\x05\xbe\xc1\x0e\xd1\xc9\x1c\xd7Ua\xb5*\xed\x17\x13N\xab\xa5\x94\xb04\x94\x96\xac\x135i\x93\xbbl6\xca\xf1d\xa8q\xf6\xcfc\xa2\xe7\x13\xf3\xd3\x08\x14|=I4&amp;N\x86\x8ae\xe5Gr\x0e\x13h$\x06\x00\xe9\xb2 \xf2ZM\x92\x1c\x8a\xe8\xf8hA\xe0\xd0\xb1\xf9P\xf4\xf6\xa4\xde%\xa0\xc7m\x8d\xaa\xeaU\xc9\xbd\xcai\x90\x9e\xaf\xe9^Y\xd6\xfd\x8e\x1a\xbb\xfa\xcb\xad\xb3\x8a\xd4\xc6!1\xf6\xe4\xd2gm2:\xceM\xe4\x98\x89\x85\xf8\xf4z:\xd6\x9dS\t\xdc\xed\xab\x19k\xe7\x18\xd2\x8f2\x95\xda!\xc1\xb7e\x14Q\xee\xa2\xccW\xb51:V\x87%\xd2\xd3W\x05_qfg\x83M\xeen\xa3\x9a\xe9/aZ\xb0JKzQ\x84\xc8*"\xf0/A\xc2\x8by\x93\xa3\xf4\xa8\xd5\xbd~\xb3\x8f\xde+\xd3\xa4\xf3\xad\x96\xb4\xd6\xed\xb9\xfd\xc54\xbde\x16\x18i[.\x13\x95MfDJi\xc50\x1e\x85\xf3o\x1f\xa5\x98\x84\xe3\xfc\xda\xd4\xdd-\xcd+n\xfb\x9d\xcb)\xf3#]\xe3\r\xb6x\x9d-\xf7h\xe8\xe5\xe2\xbb^\x9b\x8c\xd3\x179\xbdE\x0ezfWlW\x8dF\x96.\xf3\xbb\x8b\x93\xe0\xfb\xcf;\xac\xf2G\xba\x8a\xfc\xff\x00C\x99\xdb\xe8o\xa2y\xc6\x13\xbbr\x8b\xd2\x9ds\xa3\xf6q\x95\x9c\xfb\xec\xb5\xcc\xafVF^N\x89\xda_?\x19g\x8e\xa1\xc9\x8c\xa6)N\x95*TZ\xa2\x15B\xf1\xf36\x9d1K,\x8d*k\x19\xe6\xf6H\x99\xc8I\xd12T*\xdaI\x9f;\xe2\x98\xcfl)\xed\xbbyy\x0e[\xa0bF\x08\x95\x8d\x81\x87t\x8ff\xe8\xe6D\xf6xZ\xb7\xae\xb3C,Jg;I\x95\x12]f\xd3AIi\xc5\xbe\x81\xb8\x93\xb1\xbf&lt;\x9b\xb2El\xb3@\xb4*\xbeU,\x9bx\xa0Z\xb3\x1e\xa6~\xd0\xea!=hi+9\x01-\xa82\x97\xcbJ\xc7D\x83+\x98\x95\x0e\xf4Kd\xdd\xea\xb2B"\r\xb0\x9aJ\xd6\xcb\xb4\x97@\\2x\xee\xbe\xba\xdb\x99\xf6\x1c^\x96\xf3\xd1\xa3VA\xa5\xed\x95_4\x96\xb8\x16\xf8\xe9I\xc0=\x03\xcfs\xe8\xe1\xb1\xbb]&gt;:\xf2\x97%L\xf1;\xe8\xb7\x9c\xa7\xb1\xf6q\xca\xa4\xed\xb3\xe9\xd1\xce\xba\xc5\xc4\xcfG\xcc\xaa\xc2uf\xa9&gt;U\x85\xe9\xfa\xcb\xbc\xfdi\xdc\xe5Ls\xcb\xed\x03\x17\xae\x1f\x97\xf4.A\x8e\xd7\xc2\x9677U\x9d\xa6.\xce-\x8e\xcaZ\xd3\xf6\xf0\xca\x99\x0f}\xd1\x8e\xd3c\xa8&lt;:3\xec\xdc\xc9\xe8\xe7\xe7\x8d\xeahs\xd3\xcf\x8e\xb4|\xda\xd9B\x9f[3c*\x1c\xb4\xd5\xa9\xa0\xad\x8c\xa8\x12"\xd2\x03%\x12\xc4\xba\xa9(\xb6\xae~\xaef\xde\x14\x98b,j-\x10\xf1\xa4\xe2N\xa6\xd7\x13\xe8\xf1dg\xd0\x1ekj\x83HZ\xfc\x8fT\xd1\xebj\x9c\xae\xa3\xd7\xe1\x93e\x06z\x1bfC9\xd9S\xab\xec\xab76P\xac\xb8z^\x92\xc4\x9c\xec\xa3H\xa4\x84\x9aF\xa9n\xa8o\x0f\xc1\x9b_ha\xb7X\xbdN|)\xa9\x8af\xa9\x87\xd15\x88!\xc49ha\x0f5(\x91%\xc6\xd2\xb1P\xf5F\x94\xb2o\xce\xb7\xd17\xda\xaa|E\xdd\xbd\xcf8o\xd1\xd5BU\xd3\x99\x80\xa4\t-;\x16\xb0v#\xbc\xf7\xb86\'ql-Xg;\xd5G\x98\x9d\xa31M\xa2\xc3te\xc9\xe3\xf2\xdc\xef\xc9\xfb6\x9d\xcb\xce]\x13\xb7\x9b\xd2\xbd\x8b\x91w\xfczl\t\xca\xdd\xf9!\xc6\xe3\xd9\x8c\xba=\x07\x0b\x81\xe7\xe5\xe8\x1b\xbf4\xfa\'n{H3*\xf5\xcf\x84\xf3\x1d\x16+&gt;\x84@\xee\x1b\xad3\xf2\xeb~\xb7\xe24\x9em\xa1\xb0\xbb\x98\xa8\xb9\x9dy\x9e\x93\xab\xd9Uo_W!\x16\x9c\xe1lz\x867\xf2\xfbv\x10\xb5\xe7\x9f\x06B\xd6nJB`\t\xd1\x15\xb0v$\x9a\xd9\xc6\xcc\xe5N\xe3\xe9D\xda\xbb8\xa4\xb8\x8e\x9aa\xddB\xbd\x89\x86\xcd\xa1\';\x81\xe8\x9c\xbf\xb3\x86\xae4\xb8Q\x06\x934\xa6\xfa\x8fi\xa2\x07\xae\xbc\xb9\xda\xfbp\xea\xf6\x157\x1d\xdc\xe8fCy\x19\xb3\xad\x9dK\xe9\xa4\xd5\xcd\xe1\xde\xc6MQ\xd6o\x1b\xa4\x89[h\x93\x9cY{OhQ49&gt;\x8b\xc3\x16\xb1\xb3\xe6\xd2k~\xcdgf6\xc2\xb0\xec\nQ\x19\x9e\x99\x88f\xf8\xb1\x96\xe6%\x10!\xda\xb1h\xa5\xc7l\xb2\xba\xe7\x8a\xb3\xe2*Z\xc0\xaf\xd3[b"\xc4\xdesk\xe8\xf56]\xfco\x9ca\x9c\xcb\\%\xe56\x12*\xad\xebmK\x10%F\x96\xb0^\x8a\x94p\x0e\xfd\xe2\xe4\xfa\x8a\xbd\xcb\xfe\xaeo\x9b\x8e)\xff\x00\'\xb9\xa9\xad\xc2\xb4})\xe9|\xfbs\xc9\xbc\x9c\xa5\xe6g\r\xb9k}\r&lt;\x1e\x96\x13+\xd8(\xec\xcd\xf5|U\x87\xab\xe4\xdfs\x9d??\xd2\x9cCOg\xaa\xa6\xbd\xebO\x86\x9f\x19\xe8\xbc\xd5\xd5\xb8-&amp;,\xc5"\xf7\xd1\xf6\xdf?uz\xb70\xf2p\x91\xcf\xe8l c\xdd7Y\x84Mt\xc8\xd30\xe7W\x99%N\xb4\x96\x17\x05\xc9\x8b(3`E\x8a\xca\x9a\xee\x08&amp;\xe1\x93\x88\x88\x98\xdb\x89\x1bB\xabI\xd3\xe9I2\x9c\xce\x15\xab\xa2\xe6\x9a\xea\r\xb9\xb3\xf1&amp;C\xb6`\x8c\x97\x1e\xa8\xf2\xb7`\xb4\xd4\xc8z\x1fV&gt;\xa3\xd2f\xb4\xbe\x9f\x18C\xa5\x9c\xc5}\x93\xce\xf6\xf3)\xd1\xcb\xa5\xdb\x94O\xd2\xd6\xa9\xceS\xde\xbbu\xe0\xa4\xd6\xddIl?\x86\x8d\xa73\x88\x8d(\xbb?\x11f\x9az\x01\xfc&amp;\xef\\\x08\x94V\x86\xd0\xebv4@Z\xae%@\x8c\xd4\x88\xb3\x15\x94\xfa\x1a}\xb3\xf1/Az_6\xf9m\x9fHw\xb7\x9e\xae\x9b)\xde\xf38\x85\xc7Q\xd52,|\xd8=\xea\xe4\xc8\x12\x0b\xc1J\xfeZ\xeb\x15\x1eFZ1\xe4\xcfQ\xd4\xccL\x9d\x1d\xed2\xf9\xedU\xbc\xc2y\xdd(jG\xa82\xbd\xee\xdfs;\x87\xbb\x9aW\xf5\xe73\xd7\x8d1\xdcA\xc1\x99\xef\xee_&gt;\x02\xff\x00z;W\x81\'\xd0k\x98\xf3\xe2\xfd\x00\xb3\x82;\xdd\xe1\xa3\xc8\x88\xde\xe4\xa2]\x8fcqe\xe5\xc7N\xb7\x8a\xf2.w\xe9\xec6{y\xe1]f6\x1d\x9c\xacYD\xe8\xcf\x80:H\xe9\xf3u\x131\xf2kk\xb6N\xd2&amp;$\x1d\r,+\xee\xe9\xef%\x1e\r\x84BS\x88(X\x90%\x9b\xa8\xb7\xabC\x88\x0e\x94Ef\xabR\xa5\x89\xa8\xd7,diQg2\x00\xa6\xcb\xd9A\xf7\x1d\xaf\xc4\xb2\xde\xa4\xe4\x1e\x9f&amp;\xebAIy\xd5\x81\x92\x84\x19\x89&gt;$H\x8e\xe4^[76\x99x\xde\xe6\xb2t\x1d\xaa\xcb\xec;Y\xea\xaf2\xe7\'I\x11%\x00\x11If\x80(\x92R6\xcd\xa9\x84\x06\xcfH\x90\x10 Q%E \xc5~\x16\xf9Tr\x0e\xe7Ih\xa2\xe6\xd7\xdd2\xaa\xfd\x14w\xb6\xa0\x8b!\x8d\xe8I3\xd2\x1b\'\x8a\x92\xcc\x84\x95%\xfb\x18V\xb3kw\xe3F\xe3\xdf\x8e\xe5;\r=\xf2\xdf=\x99\xbd\xd6\xbeG\xe6\x1e\x96\xef\x1e?^#\xbeE\x99\xc3\xd6@\xd3[\x00\xb3\x1b\'\x0e\r\x07R7\x1e]\x04Y\xe4qfy{;qq\x16\xa6\xbd\xbe\x97\x93gfU\x1e\xae\xcf\xab\x92m\xa5?O\xb3G*Q\xf3i\x12\x15\xb4\x88\x9c\xb5&gt;\xfd\xb8\xb7\x9c\xeb\xbdD\x9e\xdeo\x03G\xd1\xc6\xcfJ\xf9\xf3/-\\\xd3\xfbZ\x89\x8a\xd8R\xe2\xe7\xa4\x19\xccY\xdb4&amp;\xecEh\x91n\xc4\xd4\xce\xd2MmI\x0fWM3\x99\x97csvA\xcd,4\xe5bke\xdf&gt;1W\xb9\xc4o\xc8\xc9\xa8\xa3M\xe7\xa2y\x7f\xa0z"\xaa\xeb\x9e\xd6wsu\x1b\x9c\xf5\xff\x00V/\x039!\x99\x11\xec\xc7W\xf2\xb8~_OU\x7f\x95\xd0\xe3&gt;\x9c\xa1\xf3\xcd\xd6\x91\xd4\xd9\xc0XD\xf7\xa8Ui\xc3y\x0cG\x16\x84\xc5|\x15q\xaf\x1f3\x10\xf6\xcb\x89\xe7qzTk\xc77_A\\\xc6\x01\xce\x82\x0c\x1a\xf6,C-\x13SD\xa9\xcc\xa4\x7f\xa7+\xf9\x99F4\xae\xfa\xc7\x91V\xe3n\xf8\xbf7B\xacz\x88ya\xd9z\x89\x1ebI\xe9\xe7&lt;\xd9\'\xa2\x9e\x9e\xb7\xf1\xbf{\xbb\xaf\xd6X\xc3\xce\xf9\xc64+\xbex\x82\xe8\x0e\xde\xba\x0bN}\x07\xe6=\xbd\x94~O#-z\xf1\xb9q\xb7=0\xbaT\xc5"o\x93\n\x14^\x94\xc5%f\xb5\x13&lt;\xbeGIT[\x9c\xb3\xd3\x1b9\x7f\r\xf5g\x9c\xab5\x16q$Y7\xb9y\xde\xc6#\xd4i\xf2\xbb3\x9f\xaa\x95\xe4\xc2=`\xdf\x94\x99O\xad\x19\xf2q\x18y\xb6[X\xd7\r;h\xfcD\x0c\xe7R\x811\xcd[\xe8\x95\xcbq\xdb0\x9aN\xe6U\x1c\xda\xd1t6\xf4\xd3\x17\xf6\x99\x99q{l\xe5\x95H\xce\x9f7su\x8dR\xa2\xcc\xb5gH\xfc\xc4\x0e\x1d\xe8^-\xbf.d\xd4-\x9f\xaa\xfb~\x03y\xdd\x9ar\x9a\xba\xde\xbex\x13\xa3+j\xdb\x93o\xdeZ\xad\xb4fc\xc2q\xd5S\xe1z6\x8d\xd7\xb7\x9bc\x0b0\xe15\x11\\\x8bl_\x02m\x11\xe0\xd4\xc2]a\xe9\x1c\xe8oD\x87\xa0K\x98u\x93\xb5\x89\xb0\xbb\xaf\xa2\xd2\x9b&lt;K\xbb#\x93\xa2\x1bu\x9bz)\xf1!^\x12\x88\xaa\x96\xd2\xaf\x16\x16\x19\xe3\xd6\x9a\xd9\xb84\x1d6o&amp;\x13\x1d\x94q\xc5Y\xd6as\x12\xca\xddF/&gt;\x9b/s]x\x8f\xd8\xfb\xe1r\xa8NMe\xaa3\xd6\x88\xf0i8\x7f\x8b\xea\xfa$\xfc\xde\x9e&gt;\x9f\\\xaf\xc8\x91\xf5\xc7\xd7\xedy\x05\xa9\x8faT\xf9E\x84w\xc8|\x14\xba0\xee\x8dq\x07&amp;;@\xe2\x84\x9e\xd3\x13\x91\xa5\x1dC!@\x16\xd0\x0c\xf2%~\x9aC-\xdb\xaa"\xcdu.LZ5\t\xb2\xccW\x11c&lt;\xdc\xc3g\xecj\xa4\xc4\xeesK\x891\x1e\xb6\xdd\xb3&amp;Z\x87\xef\x9ev~\x88\xedL\xfb\xd6\xcaV)X-hQn\x131\x99\x9d=2\xaeM\x8a\xa5G"bf\x1b\xa0\xbf)\x8f?\xb5\xd811OXk&lt;\xd1\xe9\x1e\x8c\xac\xa06\x8d\xb3A6\xbd\xeb&gt;m&lt;\xad\xe2\xc15\xce\xda|_\x8b\xf4\xaf\x9b|\x8e\xd4\x05\x16\x1a\xb2\x16\x98)m\xae[91W6z+\xd1 \xa7c\xb9x}\xc8\xefVNDgP\xde\xd7\x05\xb7\xbc\x1fM\xc2kt\xcf\x1f\xa2\x8a%\xc3"\xc8\x8b\x8d\xd4\xf4\x19\x92\xadD\x96\xe8l\x9cMHq\xa2\x98x\x99J^m"a\xc4\xa5Q!J;\xc2\xe6\xc6\x91j\xd8\xe9s\tO\xd0\x19y\r\xd74U/U\x94\xe8\xcb\x89q\xde\xe3\x82\xe5\xd3\x127(\xca\xf8\x94n\xdd\xac\xf3\xd4t\x93\xac\xf3B\xe9\x8b\x89\xe6\'\xd3W\x15\xe5\x83\xaa\xa9&lt;\x98\xfa\x99\x1c\xbc\xbay\xdd\xccGNRyrz\x90\xacr\xe5t\xc4\xc3\x9a\xa3\xa7:r\xc5u\x85\xd5\xc9\x0f\xadJ8\xe1\xf6\xb91lc\xcc\x17\xb1\xc31\xb8h\x98\xb9KL\xe9\x9c\x89\x14\xcf\xab!P\x04^\xea4Hu\xb4\xc6k\x17\x0b\x07!90\xa7\xaaU\x13fQ\x13\x9d\xe4\x1dc\x99\xdaB\x9b\xb0\x88\xaa\x8fv\xe5Y\x96\xb6\xf3)i\xddO;\'\xd1\xc9\xf8-\xca\xe2\xb4\xa2}&gt;\x86l\xf3\xdd\xdf%\xf1\xb7\xe1\xbe\xb9\xf1_\xa7\xbb\x1d+\xc5~\xa7\xe1\xfa9yX\x95z+Qb\xda!.K\xc6\x9d\xd4&gt;\xd24yU\x93W\xd4\xcc\xab\x8aLY5\x96\x9fC0\x0f\xd7\xb4\x8e\xad\x85\xad\xdc\xebX\x96\xf5x\xc4V\xc4\x93\x0f;!M\t\xa9\xa4\xc4I-\xb3\x14\xdb\xed\xc4\xc7\'\tT)j\x89B\xcc\xec@R\xf4\xa9:\x1dC\xb7\xb4\x9d\x97\x9a\xde\xa5\xbca\xfe)V]\xca\xfe\xect5\xd7\t\xf9n\xba\xb4\xdb\x9f\x0e\xb5\n\xb6\x05P\xb6"\xa5ve\x11Z\xa9\xc4B\x12\xd2FD\xb0BM\x80\x95jm\x95\nR\xbd9\x8a\x03\xbf4Q;nR\xaf\\\xd4\xdac-\xc4\xc0\xc2\x11\x0f#\'\xae\xbf\xef\xf1\xf17\xfbT\xcaO\x1dc\xb9\xb9X\xe0\xae\xf7\xb99\xcf\x00\x91\xdf\x1e\xac\xf0g\xfb\xbb\x98\xb8\x85\x9f`^6\xe5Rzr\xab&lt;\xcaWG]m\x80\x7ft)8\xa9Z\xc5U\x9d\x93xkT=d\x13\t\xc9 \xce\xe7:\x1e[\xe89h\xe5\xb4=\\\x1b\xdc\xe1z\x17\xcfu\x0f%\xfa\xcf\x91\xe5&gt;a\xf4\x8f\x99}K\xf5\x9c\xcb\xe2\xbd\xf3\x88\xd2x\xf2\x95s\xa6\xf4\r_\xa6Y\xc5j\xdb\xa4\xb5.2\xef/D\x9b\x1f9kI\x9d\xdai]\xdes\xa6bt\xa6\x0fIM\x0e\x16\xd8\xce\x8d\xca\xaa\xec\xfc\x8b\xbd\xf1\xeb7\x83\x10\xf4\x9b\xd1\xb1]z\xf3\xfe\x95\x96\xda)\x85\xa1\xf4\x8f\x9c\xabj\x948\x8c4Z\x9aq(m\xf2\x1a\x0e\x8bU\x01b\xf5B\xc2\xc0\xe3DI\xf6\xdf\x99\xfd\x97\xf3:\xd9@i&lt;l\xad\xc3\xefzYZ\x94s\xf9\xbe\xa7Cj\x0c\x05\xda\x10kU\xc8X)-l\x9d\x8f\x88\xc8&amp;\x8a\xe6\xab\x16\xc5R\x8a\xae\x11P\x8c\xd6\xe9\xa9U\x16m\xc1\x15\x99h\x8c(\x92\x1bz\xf2\x84\xcasH\x8a\xec\xa76f\xca\xbdy\xc4\xe3\x86\xb2aFv\xc5\x9b)\x94\x95DA8@Id*\xd1H\xb7:B\xaa\xf0P\x84\xdf&amp;\x8de\xc0\xacvS\x93\x15V\x89d\xd3\x96-*rL\x9c\x83\xbcSE\xd2\x1fMa\xc9X\xe6\xbax\xd7e\xf3\x0f\xa3\x8f%\xf6\xa7\x81\xfd\xed\xf5xD\xf3\xff\x00\xa1&lt;\xa7\xb4b6x}\x97\'dx\x93 \xd90Fj-5\xea\xf9\xd5"\xbe\xd2\x08\xaa\x99\xb9\xcbS\xa1d+\x8d\x0e\\\xd2.&amp;[z\x13\x98M\x1e\x91\x84\xd6&amp;\xfd\xf9\x8c\xa5\xe5\xa6"\xd5\x8fkZ\xdcM\xc5knD\x93k\x15\x96Mm\xa1iX\x92\rK\xd6\x8d\t\x00a\xc7\x1c\x84w\x0f\xbc\xf3Ok\xd6Y\xa7\xe2\xf6\xafT\xe1\x08g(\xec\x8c\xb5\x08\x00M\xc1\xd4\xb2\x8c\xe5\xf46\xdeE4c\x02I\xc3\xa4\xb4N\x8a\x99L\x81\x08\xe2Bb\x1aS\x8f]\x14Mwi\x80vO\xef\x15/\xd9+\xa2!&gt;\xb3\xd4\x90\xb2\xb9\x06\xe1\xc30\x94\x17\x94Y%\xca\x92\x1eT!&amp;\xc1R\xae+G-\x15*\xb7r\xd3H\xab\xa5YL\xed\xa0\xba\x02\xe5\tFud\x93R\x08Y \xa8PAT\xa2J\xab$\x97\x13Sh\x94\xb2\x11\xcd4d\xbcA\xe9\x0f0}\xcf\x04\x7fo\xf8\x8f\xd9\x9e\xd5t\\\x1b\xbds\x9a\xce_\x96\xdb\xfa&amp;\x9d\x1eVo\xd3\xb0\xab&gt;~{\xbd\xd7\xad\xc7l:\x13s\x18\xe5\xdc\xd2\xd6kj\xec`\xda\xab~\xbcMn\xa4\xe6\xd2iS\x9d\x12\xd0\xa6\x95UX.\xbaD\xa6!\x86\xb4\xac\x88\xaaTKM\xd9\xca2\xf0\xb7\xefZ9\xac&gt;\xc74\xe0\xe8\xef\xe7z\xf9\xf6wq\xaf\xb5y\xbd\xcd\xbc\x14\xd8\xdbe\xd3\r\x97\xa2x\x8f\xa2\xfeog\xc2\x1a\xf9N\xa5\xb6\xd8\xc0\x1bR1$\x8c\xf0\x90J1\x06\xe2\xad-\x13\xaa\x83\x08\x98\xd0\xd0x\xe6#\xaaC\xb7B\x16K\xe8\xadr\xac\x95\xb4W\xb98o\x0c8\xe3\x9a\xcbKZt\x13k1\xa5\xbaB\t\xc0\x94\x11\xa5\x14\xa0\x8b\xcd-M\x90\xf0\x8c)2\x0e!\xd1 \x98*\xcb\xa1\x84\xe6\x96\x96\x0eN\x92T6\x87\xc4C*}\xeb\xa2\xaaJ\xb5\x98\xc7$Y\x1dO\x89\x86\xd6\xe2\xb56N7%\xa9\x08\x1e\x0c\xa2\xaf q\xee\xa5\xcc\xff\x00B\xf3Q\xea\xef+zC\xa9\xd7\xdeu\xcd+_\x93\xd9\xea\xb3\xd3\x93\xc8\xea"\x9as\xd7:\x14D\xe2\xad/\xe4\xcc` ]G\xdf\x18\n\x98\x89\xabN\x19\x89\x06\x99$\x01#J\xc8C\xa4\xec\xc3\xe1\xc7-\x10\x9a\x9a\xd4\xccx\xd7\x07\xa4gc\xebNX\xa67\x87h\xe7\xc7\xd0\n\xd1\x8a\xb1\xd2\x02\x0c\xe3T\x16\x12\xff\x00-\x95a\x16g\xe7}\xe4JW\xcct\xc6\x0f\x9d\x11\x9b\x98&amp;"\x89\x82P\xceJ\xe0\xc0\x92z\xa2\x8b)\x1bE2\xedW\xbcU=d]\x08n\xc9^\xb1\x153Sdc\x90s1\xca`\x98\x86r\x8c\x8cR\x84\xccA(\xc6M\xd4\x8d\xb6\xfbU6\xc3\xb1\xf1U\x06\xd7\xe4]Ip\\\xd1\xbc\xed\xe21\xcaU\xd1\x15(\xf4G[\xa5\xac\x00\xb1b\x14EhXBI\x0fW\xaeSS\t\xac\xe6\xc10\xdb\xceg5\x058\'\x14\x04\xd2\'\x941\x9c\xcbK\x02\x92\xf8d\xd3\x97\xf0\x9fv\xe1\xdf\xa2pF\xee\xbc#\xa6z\xb1\xec\x15\x02\xec\xc1W\xb5Vt\xd2BT\x8a]\xd8R\xe3\t\x8f*\x96\xf5\xa7C\x8d\xed\x8aR\xa2\x89#%\x04\x87\x10\x84\x99\x95\x86\x95\x92I\xd6\xdcD\xa7\x99~\xf0\xd32c\xc9\xc7\x19\x91\xa4\x05\x12\xef\t\n)\x80J$\x91\x99@(\x8f97\xdbs\x8a\xcf\xa8\xda\xfc\xcb\xd0uL/\xc8\xdaA\xc5+D\x97`\xca\xd8\xe8[\xbd\x08\xef&lt;\xad\xa1\xa0\xb1\xac:\xe3Nh0eb\x89\xb4D\xbe\xa6\x97a\x91%+6\xd4\x97CA\x0bS"\x0e\xa5\x08C\xa2\x1bTNf\x03\\\xe9\xacFO5\x96M\xb9\xcd.8\xea\xbd\x18h\xd6\x9bX\x10M`\xcd\xa2\xce\x1fCM\xd1(E*$\x93\x02\x92\xb4\x11\xe5 \x94u\x96\x8d\xc2\xa9!\xc2\x81\x11\xa0\x04\xe2P\x96\xdd8\x88\xe8\x9aV\xacE\xcb\x7fT\x08\xf7\x98\x8e\xda\xf8\xcb52\x0f\xe9\xbc\t\xeb|\x8b\xa9\xe7\xaf\xaf\xd2\xa4\xf5\xf3\xcf\x9d[&gt;\xb7\x92@\xa2\xeb\x832\x10t\xd6\xb4\xdag\t\xb7Q\xa6h%&amp;$\x94G\x12D\xa2\x92\x02\x93%\xa5I\x80Z\x175\x93"4\x8b\x83\x12Y\x93\x12\xa3\xaa\x12M\xb5k\x0e\x91\x08\x18"\x890\x0e\x01i\x91\xcdd\xbc\xcc\xdc\xd2D\xf5~Y\xebC\\\xd5\xde+\xd7&lt;\xf6\xads\xb3\x0e\xe8\x8eH]\xe5\x85I;\xccd\xbe\x886\xa3X\xd2\\Ed8\x95\xc9&amp;\x910\xea\x16\x12\x95\xa4\x80\x90q\t"\x8f\x10\xfcv\x9a\xe6\x12T\x8e)\x00\x8b)ZT\x9c\xec\x93P\xaa\x12b\xab\xb6\xaf\xa5\xa1\x9c\xc8Tc\xac\xbcL\x95O\xa1\xb4DH&amp;\x0e\xa7\xc4t\xcaP\x8a\xa9\x89\taV\x85\x82~\xe6\x8a[\xba\xc5{\xb3\xdd\xd9\x08NV\x93\x12B\xc6\xa32\x1aJR\xb1Ry\x8fQ\xe3]\xd9y\x0e\xb2Do\xb1\xe4=6n\xcdo\xa0-\xbc\x9e\xcewgVOL\xb4\x92+q\x11\xd8\xa8\x9b\x9a\xd1f\xefT\xa1\xd4Z\x88J\xca,\x90b \x89BIJ\xc8 \xa0\x94\xa8\x8dW\xa5F\x93b\xda}\xbb#\x12\xd3\x99\xc5 \xd6t$\xed\n%\x04\x05\xa5iS\xe4\\\xf2V0m1\xb5\x90\x0b\xf8\x1fH\x94\x15h%\xb6\xd8\xf2\xa29\x12\xf0l\xa6\xd2DR\x94\x83ePY \xab$\x12\xa8\xab\xa1)\xb1d\x94A\xd0\xd0\x83\xa8m\x8a\xc4\x96\xe07\x82C(.K-(k\x98\xfaP(p\xda:\xcb\xa81ip\x9boG\xff\xc4\x00)\x10\x00\x01\x03\x04\x01\x04\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x02\x01\x03\x04\x00\x05\x06\x11\x12\x07\x10\x13\x14\x15 \x160P@\x17`\x08\xff\xda\x00\x08\x01\x01\x00\x01\x02\x01O\xe0\x9a\\\xea\xda\xad\xf7\xd6\xbf\xf5\t\xfa\x16\xaf5f\xa0\xff\x00:\x7f\xe7\xef\tgV\xff\x00\xf6\xd7\xaa\xb2\xd3_\xe2m\xb5\x03rD\xa4\xb86\x7f\xc8\xe4\x8b\xfdK\xcdY\x91\xbf\xf06\xd9\xaa\x1c\xa7\xeeo\xcd\x90\xd3\x92/v\xac\xdd\x87\xbf\x87\xbd\xba\xe3\xf3\x82\xe3\x1eP\xaa\xab\x8f\xa4\xa6\xddO\xf7\xa7\xef\xbcU\x9e\x9b\xfd\xda\x01\xdc\x84\x17e\xcdn\xe1{\xbb&gt;R_q\xab\x15\xc6\x14\x9f\xe0\x99\x13\xc7&amp;T\xbb\xac\xb0\xb8\xd9\xee\x11^}\xf9\xd2\xc6\xe1\x06\\w\x13\xf9\xb7\x9a\xb3\xd3\x7f\xb5\x10(\xaeRo\xee\xbf\x1eu\xd2\xf9\x08eE\x95g;d\xc7\xb1\xf7q\xf0\xfe\x0c\x97\x1e}\xf9\x8fJ\x9c\xe2\xd5\x9aD)Sf\xdcfEv\x01\xc1\x94\xc1\x7f2\xf1Vzo\xf6\xb0\x13*}\t&gt;\xec\x89\x12\xe4[\x9efe\xc3/j\xef.rO\xb3N\x86\xff\x00\xfb\xdfrt\xb9\x13_\x94\xaf\xb5\x19\xfbg\x18s\xde\x92\xe3m4\x12-\xd2\xa0H\x02\xfe]\xdd,\xf4\xdf\xedq\xe6\x96A\xde\x8c\xeaZ\xbc\x11d\xa1 \x88\x88\xbd\x1c\x87\xa6\x13\xff\x00\xdck=\xd9\xab.\x8dA\xcbC\x8e%\xec`\n\xb6\xdd:d\xf33 \xde-\x97\x16\x8b\xf9W\x84\xb4S\x7f\xb1(\xc5\xb0\xc8Yo\x1b\xb8c\xae\xa0\xb5\xe2\xf0\xa8\x88\x88\xd2\x8e\x0c\xf7\xfb6\xa5 \xe7\x14\xa1\x91N\xb4\xc4hm\x9b\xd7\x04l\xfc\xee8\xeb\xa4\xa4L\xbf\x8bT?\xe5\xdd\xea\xd1M\xfe\xc4\xa5W\x9c\xb8:S\xd5\xd96\xcc\x82\xd1\xbeiH\xa8H\xba\x84\xab\xfe\xa5\xa7\x1dr[\x93\xdc\x9a\xab9\x14|\x08\x08GS\x10\x89\xb3m\n\x1a\xb35\xb6\\\xc4\x11\x84\xfeU\xde\xad\x06\xd7\xed#\xb9M\xba\\\xa0&gt;\x81*\xf5{\xba\xab\xc2\xa8\xa2\xe7!0+j*\x7f\xa5\xe2\xb8\xcbzc\xb2\xfd\xd8\xb3\x1e&gt;\x07N\x90\xc9\x07\xa4\x8c\x80\x8c\xdd\xba:\xc7\x93\x16\</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495613-martin-palermo-asume-un-nuevo-desafio-en-platense</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Aníbal Moreno, figura de Racing: "Teníamos la espinita de ganar algo"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>El catamarqueño jugó un partidazo ante Boca en el Trofeo de Campeones</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cuando el mediocampo era zona de paso en el Trofeo de Campeones, con expulsados de uno y otro lado, una figura emergió entre los presentes: el catamarqueño Aníbal Moreno, gran valor del Racing campeón este domingo en San Luis contra Boca."Teníamos la espinita de ganar algo. Hicimos un gran año, sacamos muchísimos puntos, ganamos muchos partidos, perdimos pocos, jugamos muy bien y merecíamos terminar el año con algún trofeo", consideró el volante en declaraciones a ESPN.Vale recordar que Racing terminó primero en la tabla anual pero sumó numerosas frustraciones en el año entre la Copa de la Liga (eliminación por penales en semis ante Boca), la Copa Sudamericana (derrota impensada y de local en la última fecha de la fase de grupos), la Copa Argentina (eliminación con Agropecuario de Carlos Casares en 16avos) y la Liga Profesional, con caída ante River en la jornada final."Nos propusimos este año pelear todo lo que teníamos en juego y jugamos este partido queriéndolo ganar. El equipo siempre tuvo en mente jugar todos los partidos de la mejor manera para ganar títulos y se nos pudo dar este que es muy importante", declaró el volante.Finalmente, este domingo Racing sumó su estrella número 38 al vencer a Boca con goles de Matías Rojas y Carlos Alcaraz y le dio un espaldarazo al ciclo de Fernando Gago, quien consiguió su primer título como entrenador."No tengo dudas de que va a continuar y también con su idea, la cual nosotros pudimos agarrar rápidamente. Vamos a seguridad con la idea que él tiene y eso nos va a hacer bien a todos", opinó Moreno en cuanto al técnico.El exjugador de Newell's destacó además el funcionamiento colectivo de su equipo lo largo del año por encima de lo realizado por Boca, ganador de la Copa de la Liga y de la Liga Profesional."Sin desmerecer a Boca, que es un equipo muy fuerte, Racing hizo un juego muy bueno durante todo el año. El grupo se lo merecía porque hicimos un esfuerzo impresionante durante todo el año y lo pudimos terminar de la mejor manera", continuó.Moreno llegó a Racing en 2021 a préstamo desde Newell's por un año y, una vez concluido, fue comprado por el club de Avellaneda. El catamarqueño lleva ya 89 partidos en la Academia, con 5 goles, y tras un proceso de adaptación se convirtió en uno de los baluartes del equipo, destacándose como un cinco recuperador incansable, casi que a la vieja usanza. Este año jugó 47 de los 53 partidos del equipo, incluso completó y fue figura en las dos prórrogas en cinco días que Racing tuvo que jugar en el Trofeo de Campeones.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x00\x07\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xc8h\xf0\xd7J\x1a\xebLV\x81\x1aK\xdaK\xea\xa5mUe\x1e\x99\xe0\xc6\x9a$\x949\x89\xba\xaeq\x93\xb5\xbbR\xe4\xc9\xec\x87%\xc9\xa4u\x16\xe6\xb8\xd67\xd0\xd4\x8e&gt;{\xd5\xed\\mw\x96Zz\xe5\x8dwpl\xc6\xbf\xac\x02\xcb\xb9\xa50\xce9|mR9p\x19T\xbb3er\xa7\x93P\x97$\x03\x06\xf8cA\xd3Cf\xe0\x08\xe9\x92\x02\n,\x19\x8be\xd4\xe5"\xf3\xdes\xb7\xe5\xd9\xf5"2c\xea\xa2Lv\x8eQ\x94M\xa9\x81Dc7[R&amp;\xc9\xa8\x90\xa5.\\X\xc9\xead\xe2m#-\\\x190G\x01\x87t\xf3\xae\x91i\xacNE\xfeZ\xd1\x15\xe3\xa3\xe8\xe2q^\x95\xb39.\xab\x1b\xc8~\xa7\x15\xa6\x96\xdal\xa3\x1d\xe6\x1f\x9db\xba\xd6&lt;N?\xe7oZy\xa3\x01\xce\xe1\x9c9\xc42E6D\xe0l\xd4\x86H\xa8\x98psl\xe2\xda\xd5\x031\x134W\x19-HyQ\x0eNP\x82C\xb2r\xad\xd8\xc6\xd5\xca\xe9\x90G\x0e\xca;uPm\xe1h\x9e\x82\xda\x8a\xdf\xa6\xde\xb1\xa88\xbd\xfd\xf7.\xb7\xae]NO9\x99[\xda\xc7\xca=\x17wy\x9b\xd4\x0fi\xa2\xce\xdfX\xa6\x9bBqZ\x08\x80\xe3\xbeh\xa8\x87\xa44\xea\xee\x89\xf6\x94d$\x18\x06\xc0\x00@\x00\x01\x19\x9b\x12`\x00#\x00@\x00\x06F\x00\x03\x00\x00\x100C\x00%\x11&lt;\xe9\xd1&lt;\xe5\x8fL\x1cm\xad\r\x8d\xb46\x9b\xe9Q!\x0e+J\r\x8e-+M\xc9\x11\xdd\x07\x1f\x8b`\xa5%\x90Q\x92,!\xdf\'OqSX\x1b]O3\xd4\xa7;\x05\xd5\xf0\xcc\xa7Lk\xcb*fJ\x1dG~\xeb\x9eT\xd4\'\xb3\xc5z\x03\x83\x10\xee\xd7\xd4:9\xc6xa\xf9\xc40\xfbh\xc5y\x87\xd5\xdcO\x11\xe6\xd8\xbb\x8c\xa4\x15I\xc9fm)6&amp;\xdcm$\t[f;\xfb\x8c\xad\xb5\x15\xcci\xa7kM\xc3\xb3\x8b9V\xb7&amp;,\x9a\x17\x19m\xcf\\G\xa0\xa5\xcb\x892\x8a\xa6\x1a\\\x81\x18\xa5\xccD\x8d\x05\xae\xab\xa5\xaf\x04:\x01\xc5\xe0\xe5\xed\x9d\x0c|\xbd\x84\xe4\xf2w\x9a\x1b\x10\xac\xbb\x91*qT\xe8\x8e\xd9\x19G\x14J\x12\x8a \t\xa2\x11\x05\x8b\x95K\x0be\xd4\xa9\x96\xa7PC\xba\x14\xa4\x17gK Vb+\xed\xb8\x08\xd8d\x03\x01\x13QO\x08\x89\x84\xa6\x88\x04\x8b\x11\\I\xd9\n\xd2\x15\x99V%;J\xc4rX&gt;S\x8c\x80\xe1e-{\xd0\xaf\x89!)\x9c\x16Iq\xa6\x82@\x9c4\x81\xaeLg\xd3\xb0q\x89\xd1\xb2Kl\x88\xb7u\x995\x0fSYI`9\x96q\xecc*=6vY\x18\xaa\xb4\xab\xb2\xa8h\x8c\xec\xe1\x7fu\xcf\xbb\xa57i\xba\x7f\x1c\xf4E\x94\xf1\xbe\xcf\xce\xfa\x03\'\x00s\x81%`*\xb2;\xf8\xf5&gt;#\xc8}y\xcf\xb2\x9eA\x81\xd3p\xa8\xa2\x85\xa1\xa6\x93\x86\x16\x99\t l9\x90\x9c#j\xedd\x9ac62\x19Sr:\xcc\x94wd\xcdU\xc3\x979\xea!\x04\xde\x8c\'\xdc\x8b,r,\xd8\xd0\xe46Z\xaeU{\xdc\xbfl0\x84\x1b\xe5\xf3\xf3\x9cz,\x8eh\xec\xe1\xd3\x9f\xe5\xc9\xb2=U\\\x94N=tr1\xa2\x8e\xb2\x9eP.\xab\xa9\xa7\x96\x95\xb5u\x06\xb9\xa9\xdb\x0e\x8c\\\xeds\x8fCO?T\xa1\xbaN\x1dS\x8e\xd8b\xdc\r\xad\xa7;z\xb9\xf5\xab\xce5\xac\xe6o\xe9\xcf\xe7/\xb9\xfd\x07\xc0 b\xb2u&amp;;P\x88\xa5\xcc\xd3$F\x11\x94\x81\x1c\x03\xe1\x83\x07\x92\xd8\x88~V\xf5/\x96\xf5\xc3\x98[\xd5\xb7\xd5\xcc\xd3\x06\x99\x06\xd3\x8e\x04u\xa81"E\xa4gJ\xe6\x9e\xf6\x9b\xf0\xee\xef\xa6W~\x1d\x1bhB\xcb\xb1|\xe4\x95\x1b\xb6\x15\xee\xb6\xa6\xcd\xd6\xa9c\x1d\xec\xd8\xfa\xee\xc5j \xc3\x9d,U\xc5\x9fe2\x9818Sw\xee#\xda\x08\xa7\xd5\xbeP\xef\x13\xafT\xdc\xf5N\n26\x100\x04\x0c\x039\xcd=Uo\xcf&lt;G\xd3\x1eg\xc4\xa9\xabd\xc6\x92\x8c\xd4\x86\xc9\xc7p\xe4X0\x9bG\x91U*\xf2\xc2\x8b\xb3%\xa9v\xb9e\x1d\xd6\xeaa_/\x95\xe8\x0b\xca\x17\x9d\xa6\xfa\x1eU3\xe2Zn\xe1{t\xf8;&gt;\x82\xaaS\xe0\x97;\x9a\xbc\xf3\xf2\xf5\xbdE\xe7\xd2\xbc\x9bo\xa9\xdb \x87T\xf4\xa2\x97\x82\xac\x82\x8c\x8eIkB\xe5\x05)\xb7.\xa5kI\xd9\x07\r*pR\x90\xb9%)\'4\xb3J\x84\xb3J\x90\xa5!BuM*\x12\x916\xb1\xfc\xf7t\xed\xbf0\xe8\xdeG\xd4\xde\x11*\x8b\xe1Q\xdfQ\xf3\xee\xad\x01\x1c\xbdJL\x1a\xb9\x1a\x12\xca\xb75\xae,\x82Z\xd8\x16A\xd6i\xbc\xd9\xdd\xfc\xc3y\x8ci\x0fur0\xdd\xac\xa5:\xc2\x9c\x85(V\x1a\x8e\xa9M\xf8\x1b\xbe\x97i\x87\xa5\xcem\xf7R+\xbf-+U"&amp;Rv\x8d\xe7\x1a\x11\xa69\x19s\xd4J\x94r77+\x9dtt\x9b\x97C\x93\xd2\xfa\x01N\xaf0\xe4=o\xca\x05\xc2\xa2\xf4L.\x9c\x90\xf5Q\xdf\xb2\xbdwk\xe3^\x84\xb6\x8d\x11\xb0-\xa9\xf2a(\x92q^\x07\x00$\xd1Ue\x16\x97\xcby\'\xa7\xe2\xf3\xee\xf2\xa8\xf4\xfcj\xed\xf3\xd5\xbf`\x8d\\\xf9\xad\x87A\x9c&gt;q+z\x88K*\xce\xde*|\xf2]\xa4x\xce-\xcd=i\x0e\xa9/\x9f-\xc3c]\x8d\x87\x13\xa3\xd8s9\xd3\x8e\xde\x96\xa6D\x15U~\xc1\xe8O\xc9\x17\xd57\x9fT\xf1\x88SeM\xaf\xad\xb3\xe3u\xd0\x86\x98\xaa\xe9*\xae)F\xdeE\\\xdb\xab\x9e\xec7z\xbc\xa9k\x8b#\xa7\xcct\xd2\xbb\xa95\x92\xa4\x8c\xc2\x84\x14J\x10RL\x14i0Z\x9b\t\xba\xf4g`\xf6\xbd+\x97t\xef#\xeat.4\xe6\r\xb1i/)1[U\x06mO\'fz\x9af\x9f\xa9\x8f8\xff\x00Osm\\\xc6WC~K\x99g\xfbF*\xb9\xe4|\xe7\xe8\x0e%\x97N^L\xcbMU7\xae\x87\xa9\xa3A\xdaI\xb2\xcd\xb0&gt;\x95B\xe9\x96\x14\xd7u\xdb"l+1\xa9\xd4\x89W!\xf6\xe4J\x00\x8c\x9a7\x9aq\x8f:\x87%\x05\xbe\x83\x9dR\xdc\x88\xe4\xea\x93Od\xa1r\x1e9\xe9\xee;F\x8ew:\xce\x8a\xda:\'a\xe5\xbb{r\xdb\xc7\x85\x0e0\xb4o\x0b\x99\x84\xbbV\x8b\x97tV_\x1b+\xba$\xda\xa2\xd6\xdc\xab\x8fG\x8e\xe7\xa0\x0b(K-\x98\xeb\x00|\xbfK\xb2|1\xb1wmE\xe5\x06\xac\'\x87^\xcc\x92\xc7\x9e\xa6&lt;\x8a\x97\xa4\xb2$*4\x19\x17\xc5\x95\xac\xb1oK\x97VJ=z7\x11\xaa\x9chmj\'{\x9f0\x84\xb2&lt;\xefv\xc5\xe8\xd2\xb9}F\x1b\x94\x13\x8a\xb9\xce\xc9\xc1u\xe3r\t\x9c5b\x87!\x99}\xaeC\xce(\xfd\x07\x9e%\x11\xea\xcc\xa5\xa1\xc1(\xc8\xd8F\t\x86d\x13\x06\x95\x02\x9di\xd8\x9a\xbe\x9d\xcbzw\x92\xf4\xfa\x87X\x7f\x97\xd0\x8dMsM\x92\xda\x9ak\x8a\x9eN\xcc\x97@\xc5\xed\xbb\x18\xb5\xe8C{\xa9\x12k^\xb2\xb9x\xbdF_\x1e\x8eI\xcdz\xb6\x035\xf46\x16\x16VI\xdb\x95\x95\x1a&amp;\xcbe\xca\xb5?!\xa9U\xdc\xe4\xf8\xaf\xc6r\xe7B\x9c\x9a\xcc\x9e\x9c\x17!\xb5\xb8\x00\x16\nq\xa5\xc9:\xa4\x98Jv\x12\x9cg\x9bk\x9d2\x15\x1d\xc7\\\x1ew\xd0st\xdb\xcf3=#9(\xecw\xd8\x1bm|\xfdMvy\xb8E9\xadS\xf9tE\xd8\xe4\x8a\xc8\xf4\x01\xce\xd1l::9\xe1\xc2[\x84\xe1[\xaa}\x19\xeea\x11\xc7\xacG\xe34-w\x88\x9es\xaa\x94}-\x03\xcdP\x03\xd3u\xfei\x8bd}\x19\x0f\xce\xcc\xcdw\xfa\x9e&amp;V\xc7\xac\xd7s\x82\x94wp2\xa7b\xb9\x8b\x08\xe4-\x01RI\'I\x962\xa3\xa7\xa3\x8ds`\\\xf9\xee\xec\x99\xc7/\x16\x96\xe4\xda\xdca\xab?.\xeaVi\xe6\xe2lk\xf6&lt;\x9c]\x1dwG=,\xb9\xb2\xed\xb1\x85\xd9\xcf\xf4\xdec0z\xf5z\x1f5\x91^\xbc\xdcq\xe8\xd6W9Q\t\xeb-\xae;eWm:\xae\x0e\xabj\xdd\xb4\x7f6\x87:\x1e\x06\xfb\xcfvz\x1b\x98\xd3\xe6\xec\xd2\xd2WQg\x9d\xe4\x1c\x94,\xf7it\x1c\xf3e\xa6\xbdlc\x91\xaa\x9a\xf5\xcerEe\x0e\xb6\x96\x99\xe32\xbb\xca\x18\xcb2v\xd1\x9d\xb2\xdaD\x8a\xb4Ky*\xabL\xbb8s\xe3d\x97P\xf4-\x9124\xa6\x9d\x90\x87\xa5X#e\xa26N.T\xa8\xd3\xe5\x14\x1b\xc7(\xb4\xb7\x1ch\x89\xd0VF\x95\x10j\xb6\xd6\x0c^N\x83iP\x97=\xaa\xcc\xe7\xf7s\xba\x9d\xe78\xda\xd3-\x9cx\xd59\xaf\xa1\xc8Q\xe4zY7\x91\xf1Glu\xece\x96\xd5\xf4Z\xb2d\xc8\xe8) `\xe4\x12\x8c\xc0\x94f\x04\x14\x01&amp;\x0c\x0c\x03a\x80\x10jJ\x80-*\x035\x04 8\x19\xae\xae\xd3S\xf49\xd57\x95W~w\xd1N~m\x86]\x12,\xebg\xd1J\xdc\x0b\xe6\xe86\xdaj3\x15\xf2\xe8\xf7\xc0\xd5\x95\x7fdv:\x1cN\xa7\xb5\xc6\xd3\xba\xcc\xbfU\xe3\x1aJj\xab\xb2\xc2\x05t./~k\xb4\x0fs\xfaZ\x06\xab\xd1U\x93Yii\xac\xc3\xd6@\xf4\x15W\x95J\xdeT\x12\xaaR3\xb6\x15u\xcb$\xde\x94\xe1d=~a\xd9\xc7}\'\x9d\xa2p\xe8\xa7\xcd\x8d&gt;\x95\x0f\n\xd4\x1d\x8e3I\x8f\x90\xb4[*VTHY\xc6\xf9\xcb\x88\xba\xb4\xd9\xcd\xcf\xc9\x8c\xee\x9f\xa4\x99\x0b\xaf\xe5\xd4K\x15\xa3\xf5\x13\x9ceB\x93\x11\xa4:\xdc\xb4\xe4J\x82\x99B\xd9\xfa\x97\xa7]\xa8\x8c\xe4\xe9x\x9c2\x05\x1e\\h4\xc4\x91\x1e\x12\x85\x0e\xc2\x82U\xf9\xde\xa5\xd7:\xbc\xcb\xad\x86CU\x9a\xdd=T\xea\xcc\x9ax\xfeCa\x8f\xea\xe2\x04\n\xc8\x99\x91\x80205\x03\x04\x99\x86\x03\x04\x85\x9aL\x0c\xc1\x004\xa8\x0c\x10b\x80\x00\xa0A\nR\x14\x0e)\xa5\xa1R#&lt;\xcd\xe47\xa6\xe9\xcbWm!\xde\'og\xa7\xaf\xd9\xca\xba\x05j\x0c\xa36\xc6\xae-V\xe3`\xeb\xaa\xb2\xcb1\x9d\xd9\xe7-\x8f3\xbd\x8ft\xb6Z\xd8\xa9s\x85\xed\x9dU\xaf\xb9\xf0\x103\x1a\xfaX\xbc\x85\xc1Y\xf9/^\xc4K&lt;\xf6]\x16/e[\xbe;E\xf3\xf8s\x8fJ\x8f\xcb\xebe\x1e\xb5\x1b\x8eD\x9c;\x0c\x1eF\x96\xbb\xa5\xaf9\xd7f\xbe\xf2\x98\xf2\xb1up\xf2L\xec\xcf\xaak6%\x1b\xd4Svx\xcf\x97\xb3\xdcy\xac-\xbb\xd3\xf1\xfe\xe9\x12\xe6\xbfCQ\x96\xfa\xcc\x8d\x9e*VImK\x8d\x8f\xa8F\xaem^a\xe9\xec\x87s\xb7\xf3\xc6\x86\xbb{\xfd\x8f.\xd5g\xd5\xb4\x8c\xd3)\xca:\x9a\x00\xd8F\xe7\xb9\t\xd7\xdc\x15\xe6\xdb9\xd7\xe8\xab.\x0f\xae\x89\xd54\x1cB\xe2p\xea\xec\xe5\xf42\xa9\xc6\x1f\x8b\t1\xcd\xbaW\x02\xd1\x93\x14\xb3s\xa5\x82\xcbK\x9a\xbe\xcdn\x8a\x03\xb1sh\xe5x\xdd\xa63\xa5\x91)2\xb2&amp;dhP\x00\x14d\x04\xa2I\x8dA*a\xa9\x06\x0b\x04H\x06\x93\x0320Q\xa4\xc0\x1aL\rm\xac\x14\xa4\x00p\xd2\x03ge\x05\xfb*\xb5\\\x11\xc5\xed\xf4\xfd\xbf-\xde\xed\xc7\xa6\x15P\xa1N\x89\x19\x8b\x18\xb72\xb7\xb9TB\xaca9\xf6Q\x1c\xeaj5\xeb\xa6c\xb4W\xe6\xd9[RZ\xfb_\x0c\xf5-\xad\x15\xf90ywy\xa7\x9e\xf5\x1bZZ\x15S\xaa\xd1\xa8\x074\xfa\x12\xa6\x88\xd4m\x900\x04\xea\x16\x1d\x0bY\x8a\xd6\xe3\xba\xc39wG\\\xb9\xbcyq6g3I\xb2\xdb\xad\xe0\xfaG+\xba\xd3m\xab\x1fC\x15\xd0\xe2S\xea\xe7t\x08\xacB\x9eL\xf1&lt;\xe5:^^W\x0eK\xac\xc1\xc3\xe1-\xa7\xb4\'\x95\xf6\x01\xb4T\x96tj\x93\xa5\xcc\xdc\xc4\xe8\xf7\xb5\xda:\xed\xc4ew\xb9\x8a\xac\xa0\x8c\xfeB\xc8\xe9\xec\xb9\x05.\x9c~\x93\xbb\xf3\xce\xf6\xab:tC\xb8\xa6\xea\xfd]5\x94\xa1v\xc3\xec]\x97;\xe7&gt;\x99M\xbb\x1e9^\x99\x05\x9ep\xb7\xd2e\xe5\x9a\xed\x85\xb1U\x9c\xdf\x15\xb3\xc5\xef\xcaD\n\xc8\x9a\x92`\xe1\xa0\xd0\xa3 \x06FL\x06A\x8a4\x84,\x11\x02\xc8\x80,\xd0\x10\xe1\x10\x03\x04`km@\xa5$\x02\xc1\x18tWsS\xe7]\x8cf\xd9\xe4w\xf7{\xdeg\xb7\xdd\xcf\xd0\xd3\xcaw2\xa8\xbc`\xd8\xfdD\xd6\xa9\xd3[.\xd6\xf22\xc3\xe2{V\x00\\\x9a\xea\x8a6\x9c\xfdF\xcb\x95\x0e\xdf\x07\xabQ\xe1b\xd9Tle\xb5^\x0e\x9bJ\x06\xa4F\t\xb5\x1aM\xb5(\x80\x18\x01\x01m\xac6\xba\xbc\x8e\xab5\x93j-\xea\xea\x97:\x85c]\xaa\x94\x98\x0c\xea\x9b\xdeK\xd7x\x9e\x97:\xe2\'\xe7\xd5\n\x02\xe3\xdf\x87iS{CnH\x8a\x9fa\x9bfBe\xf4y\x88\x95\nc-\xd1\x0eJ\x9bU\x16\xd9\xa4Q\xed\xb2\xfb\xd6l\xee\xabnd\xb3\x94\xba\x8a\xbc\xd3\xc2Tm*,\x9eC\x89\xfa\x96\xd7NO"vN\xc76U\xf9\xa7\xabo(\xf0o\xb6\xb4\xae\x9f\\o\tLj\xc9\x01\xc9pa\xa5yM\x96w6\xda&gt;]\xd6\xf8\xefK\x91}\x18G\xd3\xcc\xc2d6\x18\xed\xb9\xc8\x8c\xe6\x92`\x02\xcc\x82\x14\x00`\x06l d\x83\x000\x03\t\x03\x00\x01\x91\xa6f@\x02\x88\x01\xad*\x03\x00\x01\x99\x00]\xfc\x9d\x16\xfev}\xab\x8c\xe77\xb9\xb2\xda\xf3M\xce[6s3\xb2\xb2_d\xc4\t\x12&amp;D{=\x07\xa5\xd1\xf2\xed\x02z\xac\r\x96OF|\xc3\xfa+\x8fK\xe62\n\xdc\xab\xa7\xc8\xc3\xd7t*\x89\xc7\x91\xe6w\xd8N\x17\xa4`\xc1\xe4\xd8I[s\x10\xb6\xd4\xd3\xcaii\xac\x8c\x90\x14\x85\xb3a\xac\xc8\xebsYa[eWL\xf9\xf5e\xadV\x9a\x01\x91H\x91\xde\xfc\xfb\xb3\xcb\xb3\xa2XV=\xc6\xf4\x90#\xda7:5\x15\xb2\xd1\xab\x98\x97\x8en]\xd0\xa6LR\xb2\x0c\xf7\x1ec\x01\xd6%\x1a\xda\x0b\xeaiB\xabs\x8f\xd9\xbb6\xd7\x1576\xd1V\xdd\x934\xbaj\xcd[l\xc0E\xe8\xa9\x8d\x99\x1bK\xf7#\x18N\xcay\xd7]*K\xe4cWYT\xc5\xc4\xb0\xca\\\xe6\xe8\xcf\xa1\xb5\x82\xef\xcbr\x9b\x1a\x8e\xbf\x9c\xbbh\xd8\xb7&amp;7\x1d\xb0\xc7j\xa0\x00,@\x12\x90\x14\x95\x01\xa8\x8c\x0c\x18\x02\x04\x1cL\xcd\xc4\xda;\x1b\x81e\x87B\xbaO\x92\x1fs\xb4\x8c\xbc\xf4~\x95\x99\x13\xcb\xe7\xeaW\x03\xcb\x07\xead\x07\x97\x07\xa7"\x87\x9b\x87\xa0\xebd\xb3:\x9c\xd6\xaf\xd9x\x8a|\x8fC\xccb\xe8\xd4\xebs\xba\x0f\x19\xec\xad\x9f\xa6\x9f\x8e\xcb\xe9\x91m\xe7\xa2\xb2\xa7]\x04\xaf#t\xe5\x8dWVW\xe8 \xf6x\xd1\xe4\x99\xfa\xcf \xa2!\xa3#\x14\xf74\x92\\\xff\x00\x9fo\xf0&gt;{\xd4GB\xd3\x83\xa4hu\xb9\x08#6\x8dm\xad5\x9a\x14\nRV\x1a\x9dv3]\x9ev5\x93\xea\xab\x9e6\xa6\xda\xa6\xfaPfLR\x90\xa0\xeb\xf68\xed\x8f#\xd0\xd0\\\xc1\xa1\xae\xde\x9e\xecW\xee\xe7.\xc6\x92\xea\x9d\x92\x9f\x85&gt;\xbb\xe4\x87^\x1cH\xb6\xd5\xa2\xad\xa3(\xf7Tzl\xee\x91\xdb\xb9\xbe\xa3\xbc\xbb2R\xf4X\xd0\xdbQ_\xa7B\x82\xd782n\x9amH[\xae\tu\x08!\x1e]S\xd5\xce\x91\x9bhY:\xa5\x91\xdacvd\xf3^\xb3\xa1K\xeby\xccC=)\x15\xcf\x84c\xfd\x0f\x99\xd1O\x1d&gt;\xbf.\xc8\xf1U\xfa\x02hy\xd0z5\xa4\xfc\xf0;\xdcAp\xf1\xda\xdag\x1c\xd6t\xcd\xddS\xe6;~\x81w\x96\xec\x9d\xd6\x8d\xc9B\x9aL\xe6\x18\x97"Fj\xd4\xf3\xf1\x83NY\x16E\xb3,BY\xb7N)A\xb0o.\xe8y\xe3Y\x90\xd2\xfbO\x17eE*\x16M\xa2\xf2-\xe7\x96\xf5T\xb1n\xeaj\x96\x8bU\xcf4tj\xd8\xc6\xaff\x12Cq\xe1g\xba\xc9\x9a\xe7\xbb\x1c\x97\xe2"\xa0.\x9d\xceH\xe8\xf3\xae\xea%\xc3\xe9\xf2\xb9\xd6\x17\x7f\x80\xe5\xf6\x194\xab6\xc5\xb6\xe3r\x1b\x06@j#\x05\x19\x1a\x14\xe3N\xa3C\xae\xc7\xeb\xab\x94\xda\xdb*\xda\xa7\x91\xa8\xbb\xa7\xba\xa6\x82\x84\x81\xa0\x89\xea\x1a\'\x13/\xe8\xca\x1c[\xfc\xf7Wy_OCX\xcc\xb8s\xc5\x16\xe3=f\xb4\xde\xd8\xd4\xd8Q\xaa\xceDHP\x17\x8e\xb0\xa5Rj\xdf\x08\xee\xaa7:\x0c\x16\xdd[\xb9\xb9\xccXJ\x9b\xd6\xab\x19\x95\x103:&lt;\xf6=\xfa\x1b\x9eU\xaep\xd6\xbf[\'Fk\x17aL\xb39W\xcb\xac\xa6\xd8\xce\xa0\xe9\xd0\xca\xed+\xe7c\x96\xb6\x96}~\x16MZ\xa1~L\xda\xf4F\x8c\xc3:\xd0\xcc\x92\xf5@Y\xa5h\xc0f\xd3\xa6\x0c\xcb#X\x03 \x8d\x91\x0b\x05Y\xb9\xe3\xc4z\x05\xc6g\xa0IU\x0b\xc1\x19\xe7\xda\xd2\x00\xcb5\xae\x03\xc65\xb7\t`Y\xe8i\x1f6c\xa7 \\\xb27Xe\x9c\x92?^h^8\xb6\xc5\xde\xf5\xb9\x16\xe2\x14\xce\x17z\xd2\xe75o\x8bm\xbcir\xb6\xe2\xa7b\xe6&gt;}\xb5\xb3#\xa6\x9b\xad\x9aSZp\xc7\x95Ya\xb79\xd0\xe8\xa9p\xea\xadZ\t\x96M\xc5\x8d\xd2\xe6e0\xda\xdc\x957\xb4\xb4\xbb\x19\x02x\xa6D7\x804\xa7\x0c\x1b%\x90\x13\x8d\xac/\xb6\x18\xdd\x85R\x9b]c\x02\xa9\xe5*tO\xdbVV_y\xed1|o\xbf[\xc9\xaeL70\xad\x8f\x9fp\x9e\xa5\xe6\x98\xfaX\xd8]\x0f\x9cRV\xcf\xad\x9b\x1d\x17\x96\x14\xf6yv\xbb\r\xb1\t\xa2\x92\xda\xbe\xe8e`j\xeb\xed\xae\xbbg\x8c\x95\x13\xa3\\\xf3\xdd\x85\x1aT\xed\xc4\x97\x17 \xca\x8b(g i2\xd4\xdb\xb4\xba\xe7\xfa\xdb*\xd0L\xa2\x97e\x13\xa0:\xd4E\xccL\xeb+7F\x8fn\x15\x18\x1b\xf9\xe0\x02\x11\x82\x00`\x80\x18"\x05\x04\x90\xd6\x10@\xe0l\x84\xea[K)\xbc\xc7\xea\x1cA\x0ei\xe8\x9e]\xbd\xb6\xbdA\xc4]WH\x11\xc0\xe4\x1cb\t"0\t"(\tB(\x14\x92\x8eL|\x99\x03\xf9\xf9\xa9\xcd\xe9-\xa5\xc7\x1b&lt;\xf7\xd9[S\xd9s:\x9ay\x95v\x1a\xf0\xb0\xdb\xe8\xba\xb7Zq\x9c\xfac\x14\xc9\x16U\x9e\x9c\xe8\xdbL\x98\x96q\xb0_\x96buuW\x94\t\x11:\x9c\xbcvcI\x9b\xa6\xd4\xbc\xdc\x95%\x07I\x8c\x07C\x1bK\xa9cD\xe2\x01*%\x05\xc6\xcb-\xdf(\x96\x1fa\xdc4\x15&gt;?\xd04\x8b\xb6(Y\x89\xa0\x080\xc2@\x18"F+\x83w\xef;\xe1\xd8\xd5\x95M\x96}\xb7\xf3\xeb\xad\xf2o\xa9\x85o\x9f\x88\xf2\xb3n\xe9\xafF\x9c\xf3\xae\xcd-\xaeB\xde6\xeb\xec\xf3\xb3E\xa9&lt;\xea\xec\xa2\xd2\xb9B\xb7SMa\x0f=\x95\x1a\x8a\x1bu=\x1c\xd8\xd3\xe7\x9c\xd4\x82\x94\x1a\x97\x92\xb4\xdf\xcf\xde\xdb`\xd9\xea\xf2z\x029\xeb6U\xd1\xcb\x9b\xa5\x9d\x1c\xb9\xb2\x1a\xe9E\xcd\x00t\x94s\x84\x0b\xa4#\x9b%\xae\x92\x8ej\xdc\x97KG4K])\xben\x96t(8\x94\x8ba#\nMts\xe6\xe6\xce\x8c\\\xe9L\xe8e\xcf\x80o\x86\x04\x0b|0$\x1b\xe1\x82\x01\xbc,)\x06\xec\xf0A\xaf;i3\xba\x1c\xba\xdeR\x04\\\xf95\xf39=kk\xcc\xa5\xac\x1e\xb1\xca\xbb\x8dX\xab*\xac\xa9.W\xd79\xcd5R\xab\xac\xb5\xa3\xd5N\x82\xa9\xe8\x19\xed\xa4\x832\xbb6\xb4C\\&gt;\x9f/7\x9d\xd0\xd3Qlg\x8dlp\x94L@0\xc4\x12\xd2\r!\xc4\xb16\x91=A[\xbf\xeb\xe6\xec\x00\x01Z\x8c\x04\x81\xa2\x83\x99P\xfb\x1c\x1e!\x97\x82\xf45\x7f\x9a`F^\x99\x85\xe6\xc6\xe2w\xee[\x92\xd6\xab\xd8\x9b]?&gt;\xfdM\xb6v\xff\x006\xd95\x96\xa8\x8c\xfc\xaa\xae\xe9\xcc7T\xab*Md!\x1a\xc9\xfd=2\xce\\\xc8\xb9,\xab\xaf\x9d_\x19\xd3e\xf7U\xd6M\x9d\xfc\xcb\x1a\xe3\x16P\x97Qg&amp;\x10\x9d\x12P\xd4t\xfc\x9d\xce^\x85\xdc\xe0\xdf\xec\xf9h\xbe\x9e\xe3\xa4\xf3`\xb6\xbfU\xdb\xf8\xf1\xe9\xd7\xec\x12\xf2\xbd\xac\xe1\xe92\xf3\xd4\xbb#\xde\xc7\x10\xddJ\xbd\xaakE\x95\xd8\xa6\x08d\xd2\x84\x02Z#\x10J\x10\xc9\xa9b\x18\tB\xbd\x97+S\xa6\x03\xba:W\x85h#&lt;\xe2\xea\x90\xe9\x15)K\x06\x8d\xe3N2&amp;4.!\xa0\xa3\xbf\xe7t\x02_$5:\xbd\xcc[\xad\xdc\x873\x95\xd4\xbe\xb8\xcd\xe8\xf7s\xe0\xe5\xb6y=\xf9lvxmer^WOC(\xa6AH\xaey\xfa\x8b\x8a\x9c\x9b+!\xce\x83\xd3\xe5\xe7\xea\xec+\xe8\xb4\x8d!\xb7\x02JH\x04\x06- \x81\x06w\xe8\xe8^\xba\xa0\xd5Q#\x00\xaf\x8824\x15d\xfeu\x9e|\xff\x00\x9cEaGIK\x1e\r\xcaJY@\x1b\x08C\x1e\xder&gt;\xc7E\xf4V\x95\xb22o\xbc\xd1\xe4\xae\xf3\xea\xb9:\xf7\xe1{4\xf7\x15\xd6J\x12\xa4\xbdn\x88\xee\xd9Y\x1a3\x124\x92\xe4\xa9\xaf\x04\xd9A\xe3\x9b"&lt;\xea\xf6f\xb7\x9c\xaenj+p\x9e\x8e\xe5jG$\xea&gt;.\xd5\x9f&amp;\xa4+\xb1\xc63Hb\xd0\x08\x12JhN8\xd95l\xaa\x99\r\x0b\xba+\xc9\x1d\xe3M\xc1:F\xcc[Bp\xb5bI\x98\x00F\xa0l\x9eS\x19D\x94\n\xb6\xaa\xfa\xa4\x9di%\x92r_\x80a\xa6\xb4\xcb\xde\xca\xa9i6T\x1er\t\xb5h\xedt\xb5\'\xdb$#\x88\xdfP\xde\xf3\xfa\x8f\xb8\x97E\x11\xb91\xaa\xb6|\xba\xcb\x0e?f\xca\xf7/c\\\xb4t\xb3[\xe9\xf3*/kgh\xa6\xf2\r\xaczg\\O\xc5\xae\xca\x1a\xcb\n\xfc\xba\xe1\xd7Z\xd7t\xf9y:\xcbJ\x8a\xac\x06\x856\xb0\x92\x9a\x06\x92\x05\x020s\xd4\xbc_\xda9\xe5d\xb2\x17D\xc9!\nJi\xabq8\xc6\xaf\x84c\xb7#s\x9d\x9b\xbe\x99\xb1\xe1\x1bV%\x15\rH\xc8\xc0\xc8\xa9\xab\xd4\xfeR\xf4}\x17\xda\xa5\xb6sj\xbf\x9dM&gt;\x9d\x1a\x05\xc0\x99N\xa9\x0cL8\xdd])rB;6\x0c9\xb5h\xcc\xd7++\x1a\xdb\x17\x9e[\xb1\x9du).\x1aQ`\xd8\xc2\x83\x80\x97#U.g\xe4\xdfKy\xaf\xaf\xc9R\x92[q\xba\x1bpd\x956\x91\xb2\xb5\xb6\xe9\x9bdZZ\xe51\xc9p\xcd\xab\xed\x16:\xd0:gC\xf3\xafO\xd9\x87v@\xb6a5\xb6ct4\x10\xea[ (\x92\x1bek\x16\xa4:\xa5Y\xad\xb86$\xa7\x19\r%\xb5\x13\x08\rK\x97_%\x12P\x84\x07 \xbe\xcf^\xf3\xba\xd3\x15\x1dB8\xee\xb46\xe6\xc1s.\xbbq\x06f\r\xd7\x16\x943\xb4\xe4\x9cQcn\xc9\xa4\x19\xc5\xd5;\xc8\xd5\xd1\xf3h(\'\x1f&gt;\xa6\xeb\xe7U\xf4\xb9\x99zkjz\xa6\xb0\x90\xc5\x11\t\x06i09q:\x82;\xe7[\xa0\xb9\xcd7*\xa0\xa2\xda\xf4/1\x11J68\xb34J\x9b\xcf}C\x93H\x94\x1ckL\x10\xf3.\x10s;y\xceI7X\xebD\xd3\xe8\x7f=z\x17=\xd6\xd5\xb6\x11\xb3i\x93k\x93\x9e\x9e\xbe\xcf-sV\x8dC\xd5\xb6t\xec6\xcd\xb5t\x99\xedYL\x13X\x97eN\xba\xb9%L&lt;\xe9F\xb6B\xa3$\x98nSS3}\x8b\x14\xfc\xe3\xe7\x9e\xe5\xc1\xfa\xdc\x99\xcd\x92ugPB\x81I\x0f\xb4\x95!\x80ym\xba\'\r\n\x92Z\xd9\x98\n\xb1\xa9\xb3e\x94].P=\tw\xe7\xae\xe9\xbf\x9b`K]\xf9\xa3\x93\xcd\xa0\x13\xe7\x19Bi\xf8\xf3@\x88I(\xdb\x00\xe1 \xc1A\x06%\x1ba\xa7_\x88\xe0\xa6\x06\x8c8\xc5\xfesA\x83\xab!I\x99dY\x91\xa6\xbbR\xe7\xeei*\xb4\xd5e\xae\x8d\xb0\xe6\xeb\xcb\xe6\xba&amp;\x1eq\xa5\xb8gi8g)\xbaf[=\xd8\x06\xa5\xcf\xd7]s=\t\xecWr\x8a\x8e\x85\x8a\xbe\xac]M\xc56{V\x10qk\x04rFi0\x9d\xe9\x1eI\xe84\xb7\x05^\xc5c\x9a:-\x14\x94\x8c\xa5\xde\x04U\xd99\xf8\xbc\xf6\xe2\xa8\xa3\xc9\xd1\x05\xb4\t\x86\x14\xcbY\xfc|\x96\x94\x98jZI\x0e\xf5\xc2\xbb\x9e]\x171\xa45\x9b\\xv\xb1\xdcb\xda\xd4Eq\xe8\x17\\\xb6\xf2\xad\x1d\x02^&gt;u;6\xb6\xb8\x9b\x15=[\xd9\x93q\xd89\x94S\x86\xa4f\x18Q\xd11\x9a\x8f\x05n\xfb7\xd0\x1au\xe8\xd2~C\xe5\xbd\x03\x9a\xf68\xf2\\q\xfd\x19\xebW&gt;(\xc9\x82l\x01\xba\xb0mIu7\xdf\x84\x1a\x9a\xed@q\xbe\x9b\x9d\xd1H\xd4\xe7\xef\xe9\x04\xcfE\xe6\x17vG\xd0od\xf5[\xf9+jSh5)5\xce\xb2+\xf1/\x82\x82\x04\xe2\xb2A1\xc0\xd2\x90\xb0\x80\x0e\x06\xc9\x8e\xad\x85\x8aI\xb2\x08\xf2\xddZ\xfa&gt;^\xaf9\xb6\xd0Q]^\xee\xeb=c\xcc\xd7U\x8f\xd3\xb9\xaa\x98\xd7/\xd3W\'k`\xec,\x8c;y\xf4\x99-\x95\x9f\x81mb\xca\xd9h\xa9n\x86\xa1\xfc\xa4\xac\xd6C\xe7\x9a\xca=U\xf3\xcc\xe6\xe3\x11\x8a\xf4\xa9\xb5\xa1\xc0\x91 \xec+\xba3\x8fL\xea4\x1ah\xc5DN\xc5\xdb\xd8\xc7\x12)p:\x1ey\x18\xd3\xe1mp\xd4\xddUa\x06^\x9a\xd6\xa9r\xae\xcf]\x97\xd4sZ\xae\x8ad+\xb4\xd0\xa4\x92_m\xe2=\x97.\x9dJ\xd3#\x1e\xe8\xe8\x96\x97\x1a\xf86\xed\xba\xf3\xf0\xb40,\x8c\x0b\x08Q\xd9\xa9\xb6\xe7\x87\t\xf4\x87\xf9\xb3\x8a]\t\x9cL\xe8KS&gt;\xb3cE\xaa\xd1\xaa\xea\xb9\xaaR\x17$\x98Si\x94\xfcc\x81\xd1\xe6\xbb|+g\xa2\xbfl\x1e\x89%-@}\x89jHZT\r(\x98\x052\x87\x04N\x85\x08M\x86\x19\xd0\x0f\'}$\x98\xf3[f\xb3\xb1\xf9\xf3\xa2h\xcb\xd4MB\xfcE\x1dp\x11\x129\xb7|\x14I)%\x92\x00(\xdb0Y \xc1F\x80\x0e-\xb7\x1aR\x92\x08\xb3\xd48\xe7@\xe7vg\xe6\xa4\x89F\xcd\x17\xaa\xcdo?\xd9\xd5\xdeN\x17uv\xd13[Cy\\\xdd\x91\xbd\xce\xa9\xb1\xe7\xb5\xc8\xb3i\xacf\xde\x80(.\xece\xc8\xc6f5\xb8\xcb\xe1\x93\xc1m0\xf9mB\xdbZ\x1c"9\x13\xbd\x01\xcb\xfd\x08\xe1{,\x85`\xb2\xac\xbfj]E\xaeJK1\xcc\xb6y;\xf1\xe2\xe2t\x06z\xdc|\xdd\xbd\x85gW\x90\x8c\xf1e\xdc\xb1\x95\xb2c\xf8\xcfx\x92QB`\x80\x1az\xd7%\xe9Y\xaf\xe9\x13aO\xc1\xd2x\xa42\x88\xd1\'\xd7\xce\xb5\xa5\x9bi*\xd8z\x9b4\xb9\xca:\x8a\x83\x97/\xaa\xbd\x19sm\x0e\xde}s\xa5\xbf\x95"\xb9\xae[OH&amp;^mI\xbe]\xd2&lt;\xc3%\xc6!\xce\x1d\xbe\x1cw\xe1I\x1c\x94\x9bL\nj\x10\xac\xd8\x88\xb1\x10u\xd1\xb0%\x98DT\xa58\xc7\x0f\xa4\x1f~\t\x85\xbc\xcc\xf4\x96_Y\xe5%5\xe9=7\x9e\xfb\xde\xbe|J\xcb\n\xfb\xe8\x8aKn\xd8\x10H\x05\x11\x81\xa5D\x04a`\x10\xb4\xad\x8aRCF\x12a\x13MU\xb5\xe6v3\x8f\xec\x1a\x83\x936\xad\xbag"-]\x15\xd0\xd6\xd6c\xa1j\xa7GY\nN\x8a\xdf\xd1\xe5\x9e\xae[\xeb\x9c\x1e\x93\x9d\xa7F\xd1Ye\xb2\x0c\x1b\xea\xe9\x18J\xed\xe5u\xf0\xe3\x9c\xab\xb7\xf1\xa8:\xc3\x90\xa9\x0cK-\xac\x97H\xeb4:\xc8$\xa1T\xd6g\xbc\xba\xe4\xb9\xbe\xbf\x17\xa5\xe1\xa9Go\xcf\xad,+n\x07*"R+U\n|Z\xf4\xc6\xc9\xde\xd0s\xfaX\xc2\x03\xc9{4\xa1\xc6\x94\x81\xa5\xc17\xba\xc3\xeb\xf3h\xea\xb7\xb9m\x1f?\xa3n\xecy\x90\xb6\xae\x0e\x92\xb2P\xaa\x90nY\x07\xac\xab\x9eO]aIwU\xaeI\x86\xa8\x92d\xc6\x9a\']C\xad:\xe3N\xb9\x1cGk\xe2g\xfc\x83\xe8O-\xdfA)\xb5u\xf9\x15\xcd\xa8\'2TW\xe4I\x8b.1\x19e\r\x90\xb0Esc\xb3n\xb9\x01b\xd4\x14\xa7)\xb6HO\x1b&amp;\x0e\x84\x81&lt;\xecw\x19?\xb8p;+k\xf5\x02*\'\xf4\xf9R\x10\x92\x12\x12A\xc5f\xd2\x89)M\xac\x1f\x08\x08I\xa4\xdaZ\x92\x00\x04\xa4\x07A\xc9\xef9]\x99.\x1c\x8a\'\x97\xc6\xef\xf0\xbb\xb3\xd10i\xe9grc{\xda\xa7U\xb3\xe8:NV\xac-\x8e\xb8\xe1,\x99\xea\xc23\n\xd2\x84\xf3\x11\xb5\xe1\x18Z\xce\x9a\x94p\\\xaf\xa8\x89\xaf\'F\xf5\xab\x0c\xf2f\xeb\xaa\xf3\xfd\xbc\xfd5&amp;N\x0fg\xce\xcc\xac3\xedp\xa136-\x95\xa6D4\runTF\xe5\xa3?\x90\xc3\xd4\xdb\xe3q\x8c\xf0\xfb\xf61`\xa7\x9b\xd5\xb42j\xbb\x1ee)L\xdc\x8e\xf0\xd7\xa4\xcd\xea3\xdf\xd0u8=\x97;\xa5\xa1\xb2\xab\xb6\xae\xf7\xd11\x08\xcf\xb9k\x16u4\xd5\x9b\xf2).\x17.\x16H\xb2\x87e\x16\xe4\xd8\xef\x91\x90\xa4-\xa7\x1cj8\x1eff6\xbb9\xb7\x07\xe9\xfc\xaf\xa3\xcd}\xc6W\xd0\xe7\xd7\xc9E\xc8F+\xb42\x9e\xba\xf5\xa1P\x9d\xe2\xc7DW\xa8N\xa0\xed\x9a\x14\x03\x9c\x96B9D\x0c\t\x06(\xeap\xc1\xa5\xb8lh&lt;\xb0\xe9}+\x89\xf6~\x87=\xe2@\xd1\x94\xc2\x96E\xa1!a\x14\xe5\x18\xe3\tI\x06M\xd4\xa1$\xa6\x80\xd2\xc3#\xd3o\xf8wK\xe7\xf5\xb7v\x94\x97\xd8-\xaf\xcdmk\xa4\xf9DN\x83U\xd0\xcd\x1f\xb33\xab\xcbr\x94\x02`\x00\xc0\x00\x00\x00\x00\x00\x00\x04p\x91\x1a\x87?\xa2\xbd\x06y\x8a\xbe\x86|\rS.\xfa\x7f\x9fI\xb0\xcd\xc5P\xdcD\xe5\x959v\xf5\xaa\x9e+\x97\xc5\xd2\xec8\xfc!r\xfbVu*\x1c\xfe\x9aA\xa2\x16!\x87\x1bB\x12\xeb(K\xcc\x81\xc8Sk\x1a\x80 \x97\xac\xc4\xech\xbbg\xa4\xcfh9\x9d;\xeb\xdc\xd6\x86\xbb\xafV\xd4\xa8\xb8\rLfi/!\xf9%&gt;\x1f\x07\xe51*-\xf9Q\x9f\x14\x84%\xb49Z\xedru\xdc\xf3a\xcc\xc3\x9bau\xb9&gt;\xa7(\x8d\xb1\xaf,\xc7bO\x14\xa7P\xcc\x92\x9dX\x06c\xcam\x11\x96\xeb\xac\x8e\xb9k\x04IA\x80@0m&amp;\xd8\x04\x92\x81\xa2|\xc2\x18\xbf\xd0\xca5\xbd\xfa\xbfs\xbb\x9bG+D\xe5\xd9h_\xb5\tW\x9d\x8a\x14\xa0\xa6SA\x0e\x96\xf6\x91N\x8e\x0c\xf8\x91\xb6\x04+\x84\xa9\xe6 m\x04\'\x9c\xdfs\xedF\xb9u\xad\'+\xd2\xf2\xb5nK335\xb2,\xeb:\x03\x8d\x8b\xa0X\x00\x03\x00\x00\x00\x00\x00\x04\x06\x8a&gt;w8\xf4,\xcdY\xf4\xe9}-\xc7\xd1\\\xca\xab\x1cl\xe9\xc8A\xe5XM\x1e\x7fe\x87$\xf9\xefP\xe1\xb6y\xf5)!\x00d`\x01\x19\x02[[HJV\x95$4\xf3dPN6H=\x19\xc0|\xdb1-\xe8\xcbG_\xd5p\xee\xe5\xcf\xe8Y\xdcWO\xc7\xbbW:\xa6\xf2\xb9\xc4\x8dq\x0eQ\x82\xfa\xd78%\xc5\xb8\x07)\x0f)\xc8}/\t\x80\xe4\x08\xb8\xf5O\xd6\xc5\xd1\xf3\xcd\xee\x12\xc8r\xfc\xb6\xb37\xd3\xe63%\x89\xba\xb3"\xc5\xb6e\x15;\n\xc0&amp;;U\x10/\x9a\xcf\xa5\x17\xe9\xcf\xb8;t\xc1XI(\x8c\n\xc4J\xd4\xe9\xc7\x89GS\xec}\x0eg\x9bz\x07\xa5,\x15\\Oc\xd8,0v9\x84\xde\x88c\xc0J\xdb\x06c\x8bd\x03\x16{@\x9e4\xf6&amp;\x9e9z\xe0\x193\xd5\x84\xf2\xa3T\xd0\xf2\xce\xdb\xbb(\xd3\x1e\x8c\xe3/\x10\xe8c\\n\x8cY\xb1\x1b\xb6\xbb\xdb,\x8b\x95\xcb\xafv^9\xd9y\x1a\xde\x000\x00@`\x00\x04d\x11h\xf4~TK\x98zK\xc8\x9e\xb4\xe9\xd1`\x03\xbb\xea\x91\x1b\x15\xe6\xac\xef\xae\xf9\xde29\xba\x14\x90t\xd8I4\x82^\x8e\xf8\x12\x1c@(\xc0\x02B\x92\x82B\xc9I\xb0N\x03Ip\x03,\xc9d\x19\'\x12\x0b\x91\r\xe1HHp\x1a\xdbc\x13e^\x8a\xd1q\xed?C\x95\xd8\xb4\xbc\x8fi\xc4\xeek"\xc8&gt;_f\x02\x96\xd4d\xfa\xa3\xbcE\xd7\xa3Ks\x96\xf3n"%l\xea\xfa\xe5\x16\x1d\xacI\xd7\x93\xc6\xee\xf1\x96G\x94\xe6u\x98\xee\x9f)I`\xb4S5\xb6\xd2\x11g0\x13n6\x86\x816\\aluC@*;\xddE\xb7K\x95\xcf\x9a\xd8\xe66\xe2\xe9]s\x82\xfa\x03\xb7\xe6\xb2vv\x905`\xb6\xd6s\x9be\r\xbe\x9f\x1fg\xcd\xe9t\xf7\xa9ey\xaf\x7f`H~\x996N\x84\xdb\'\x88\x1a\x0e\x80d&lt;\x01\x90\xf0\x06S$\x82\x12\xa6\x00\x8eo\x80\xf2N\xaf!\xd12i\xcfVncX\xb0\xb26.\xdc\xf4\xdd\x1f\x99k\xf9}\x8da\xb6\xbd\xbc3\x04\x01F\x85I\x18&amp;Y\x81\xf0^\xef\x95E\xe8\xfdo\xe3\x1f^u3\xe8\xb8&gt;\x17\x9d\t\xe6H\xb9\xfa\x16I\x00\x87\x1bX\x04-\xb0L\x88sA$f\x00\x94@\x94\xa9\t\x82Sb3Q\x83D\xe3i\xb4\x97\x88\x1bjSC\x84\xe8@\x9e~3\xa0\xe9\x19\x8a\xdf\xb3y\xf7\xb2\xf6xW\xb3\xa7\xc8\xf4\xfeA\x9bHe\x12\xfaf]\\\xee\x9e\xbav\x18`\xe8\xf4\x1b\x0e\\y7\xf6\x178\xfa\xa8\xb7\xa71\xcda\xb7\xd4\xe89\xcd~\x8c\xd7\\\xfe^cFz\x0c\xf4\x88&lt;\xbe\xd3\xafW\xbb\x9bT\xb8\xcapiS+\x1c\xf2f\xe5\x14L\\\xd7\x83S\xdb\xbfj\x97_\x1a5\xf9\xb69(\xf3{~}\xad\xfeN\xcbV=\xf6\xeb\x93\xcd\xe9rz4j\xed5\xf8\x9e\xbe\xcf\xdfg\xe8o\'Q?\xc0\xf7\x97\xd3\xf2V\x19\xde\xb1u6\x1c\xfb\xde\x06+\x91\x03\x00@\xc0\x100\x04\x0c\x80\x11\x80\x00\x00\xf0\x8fI\xe2:\x9dUu{NW\x7f\x96\xfe\x95+\'k\x87]\xa5\xe6V\xcf\x0fs\xa8\xcb\xce\xdbl\xf3\xb2\xcd\x81d$\x04\xaa\xe4|\x0b\xb6|\xe7\x92\xceC!&amp;\xd6\xdf\x0c\x99EF\x85\xa1\nB\x80\x026$\xc8\x02\xd9u\xa0j}|\xf0\x00\xc9\x00\xd4\xc8\xdbZ\x1di\t\x0e\x00%\x04!\xb7[A\x03Q$!\xc2\x06\x1a\x92@\xc1:\x06\xc4\x98\xe0\x8b\xd6\xd4\xe2p\xf4\xec\xdew\xd1\xfd\xdf\xcd\xdcq\t\xd5\x89\xe3\x8a`\xf96\xb4\xc1\x0044\xfa\x13\x8a\xc4\xa6IC\x83&gt;\rZi97A\xe4\xdeo\xd4\xad*&gt;\x1f\xa0iji\x0f\xbd\x0eY\'\xa44\xb0T\xf8r\x81\x8a\x99i\x1d\xbd\xa5z\xd4Q&amp;\xa1\xc9\x13\xf2\x9b\x0c\xdaP\xa6B\x13\x86\x82\xe7\x14\xf6\xac\xbd\xe7i\xe5\xfdGc\x85\xea\xed\xe7\x0f\xf4.\x8c\xf5\xf0\xad\xea\xb3zH\x92MvGE&gt;\x8a\xe7\x97~[a\xe45`\xbf\xda\x02,\x98\x00\x10\x03 @\xa2 \xc3\x04@\xa0\x92\x0f\x9dWUV\xdd\x8e{\x93\xaadFZ\xadG4\xd8b\xdd\xd1\xedke\xf9\xcfQ\xad\xbc\xc9Y\x9c= \xa3S\x8e\x9e^nF\x8a\xf87\x90\xb49m\x90J\xe3\xbd4\xd1)\xa0qh6!\xc6\x9d\x02\x00\x80\x1aV\x04\xdb\x8c\x836\x15\xd6h%\xa5cm\x93CJQ)\x04\xe0\x0c\x00\x00m+J\x08\xc1\x8d$\xb2\x12\x10\xea\x06\xdbO\xb6\x04\xcb\xc9\x04\xad+E\xff\x00\xa1\xfc\xb3\xde\xfd\x07\x99\xd9\xb8\xd3\xbe\xa3\xc6-$s\x82\x19\x90\x96G\x0e\xa9N2$ \x18C\xedF\xc8\x99V9\x0f\x07\xd1\xb9\x04\x1f\x97\xf5\xee\x1a\x9d\x8c\xa3\xc7\x96\x80\x88n\x90.D \x9d\xb4\x9a\t\x0c\x9b2\xa5!5\x94BCF\xf1\xb5n\x8a\xa3b\xc2\xc0!\xe6\xd4\x16V\x99\xf9r4=\x9b\x839u^\xa5\xe8\x1e"\x87\xb2\xaf|\xddx\x8b\xb9\xdd\x0e\xf6\x9a\xbc\x1d6y~4ds\xb4wOY|\xe5\xf4\x99\x1fE\x86\xc9\x0e\x92\x08n\x06\xcc\x16\x10BX@\x1f\xcf\x0b\xeaK\xefA\xc64\x1a!$\xf5.e\xd7\xf2h\xddE\xb8\xaa\xf2~\xb6\\\xda\xd9S\xe6Mz\xbd\xf4\xad8\x7fg\xf0m\xd0\xcb\xb4\x11\xba\x08u\x87Z6\xdci\xa5\x11\x18\x07Yt\x02B\x01\xc5 \x81l:\xd0\x14\xe6$\x81\xb4\xb6\x13JR\xf3KZ\x14\x06d`\x12`\x10\x95\xa1\x00\xc1\x81\x11\x86\x11(\x81\xa4\xb8\x90\x8a\xf1\xc6B\x96\xa2@\xde\xe0\xe4\xe8\xa3\xd4O@\x9f\xef\xfe`\x14\xa1:\x9bC\xa9\x90\x82Q&amp;\x86\x9d\x8e\xa4\xdf/\x81\xcf\xbc\xd7\xaf6\x8d^s\xd4-\xc2\x924\x9a\xc02N\x902\x97\xcd\x0c\t+\x08\x8e&gt;l d\xe2\xees[\x94\x8c\xacN\xb6\xcc\x19J\x9ecHq \x00\x00$GPX\xbb\x01\xe9\x13\xa4Bq\xa9\x12\xaa\xac\x93\xe8R\xb9\x1b\xb6\xc2a\xd6\xbfT\xefm(f\x87\xbb6\x1e%\xf6\x83\x84\xa0\x92\x8bPH\x12\xc9!\xb5\x04\x00\xf0\x1d\xc5\xfd\xaf_\x99\x84^\xf2n{y\xefQ\xaa\xd0)n\xab\x1f\x83\xe5\xfd=\x84\x98r,\xc1%\xd8\x92#\x1c_\x89;\x87\x0e\xdfQ\x90+\xa2\xd3\xad-\x8e\xa1\xc4\x89\xb0\x00%\xe6\x9e\x06\xc9*\x07\x10iB\xdaQ\xb2C\xad\x90&amp;;\xad\x02\x9e\x06\x04`\x02\x94\xda\xc0\x100J\x1c@\x11\x98\x00F\x00\x02\x00\x1bq \x96\x1f\x08\x84\xeb\x12@\x100\xed\xfd\x07\x88\xf6\xefk\xf3\xe7\x01\x9f[\x88\xd1-\xb4\x06\xc4%d\x8eQ7\x91\xf9\xff\x00R\x12\xdb~_\xd7\xc88$\x13\xdd\xad\x08\xb3j\x01\x8eb\xa1)\x12\x84P\x12De\x03\xc1\x02I\xd4\xb4`Fi\x04Z\xd6\xb8\x83u+a\x92\x806J\x00@\xc8\x1cu\xa5\x04\xbb:[\x060,\xea\x99b\xba\xcb\xa4C@@N\xb3\xa2\xb4\x0b\x1fF\xf9\x9fD\xe3\xf4\x00r\xee\x9a\x85\x84\x12\x16\x12\x18\xa2 \x1c\x13Y]\xb5\xc9e\x0b\xb7f&lt;\xb4}\\q\xd0V\xdf\xe71t\xec\xdf\x87!\xe3y\xc6y\xcb\xaf\xcb\x15a=J\x14\x93H\xd0\x08\x02\xdf\x88\xebJ% \x10\xfb\x0f\x03Km\xc0$\x90\x03\x94\xc3\xe0\xa4)\xb0%\x9a\x81$d\x02\xd2\xadI\xa8\x12\x9a#\x04\x06\x85$\x12\xa0`F@\tD\x00\x12\x92\r\x99\xa4\n\x1c\xf8`\xf0mAw\xe9O)z{\xd2y+Bn?\xa7\xf2/\xc1\xac\xe3x:\xbb\x9eYX\xcf\x90\xf6\xaaJ\xdc\xc1\xd3`\x9fh\x1ax\xdfi\xa0\xf1\x84St\xc1\xb3x!\xa5)\xc6\x9bS\x8e\x04d\xcbi\x8c\xa9\xe2\x06I\xd3\x04\x1b\xa6\xc6\x8d@\x08\x8c\x90IZA\x00\xcc\rH0rDwYr\xec\x1b@\xa4\x9e\xc4\x90\x88M\xac\x1eu\xa52\xce\xc6\x96pl}\x7f\xe2=h\xbd\xae \xca\x80\xe1\xb4i\xbe\x1b\x01\xc9\xb7\x18}\xc5,\xc8\x00\x00\xcd:\x9c~\xd3#\x97\xa0\xf4\xa6eSZ|\xcf\xe9\xcf\x19\xee\xc9\x85J\x91\xa5,\x92\x04\x90\x10\'\x1b~#s\x92Ji\xb7\x1bZm\x9aR\xd1-\x0f\x03\xee\x19\x02If\x00\x02\x04\xa5\xc4\x81-+\x03I\x90(\x10\x05 \xc8\x01\x18\x020\xa0 \x00\x11(\x81\xb2R@\x19\x00\x84\xb7\xd8A\xf7\xce\x03\xd5z\xdcn\x9d\x9eO"\xf4\x1em4&amp;~3\xdd2\x95\xc8\x84\xc9.4\xc6\xd0\xb9HJ\xcc0\x8c\x9d\x08\x86k\x035(\x18p,\x08,\x02V\xdb\xac\x8e\xb7B#\xa5\xf6AR!Oc-Ii\x8d\xa1d\x82%\x12\x12\x0c\x81 \x94\x0e\xbd\x1d\xf6M\xb5\xac\xb1\x06\x1av:#-\x97\x80\xe6Aq\x93\'W\xba\x16k\x82\xe3;\xaf\x7f\xf0\xf7\xa2\xd4z\xa3\x95\x93*&amp;%d\xa5\x87\xdb\xe0\xb7\x08t2\x04\xf2\x98\x01\x17)\xa1\xcd\xe6\xdf.\\Y\x99J\x1f\x10\xfa\xb7\xc9\x9dl\x0c\xb4\xe3rj \x00\x9bZ\x07"3\xcd\x81I\x88\xf8(\x04\x01!h\x1a\xdfbK\x89\xae9\xa2@%0\xc0J\x02\x14M\xa9IX\x80\x00\x01\x19\x82II\x00\x08\xc0\xc0\x00Fd\x06@\xc1\x08q\xa04\x9a\x90Q_i\x88\xd8c\xfap\xba/\x9d{O\x16ChQ6\xb2\x08\x03#\x92\tp(\x12\x14\xb0\x8fyS\xe9;\xea\xe6\x16\xfe\x80w\xb9\xe6\xfc\xdb]\xeb\x07*\xb3\xc6\xb5\x1e\xea~\xbb\xbc\x00~\xfd\x87F\x8f\x06\x97\xb7\xe0\xd5\x7f\x8cU\xeb\xea\x8a4y^/v\xe1\xd5_\x12\xc6\x05\x80\xc3O0\x04\xd4\x94!\x82P\x06\x8c\x12\x08\x04\x83\x8f\xc7\x98\x0c\xd8SM\t\x82\x1b\xe1\x1di\x01$\xe3:\x0f\xc9\x82\xa0\x9b"\x9d\xe0\xbd\xbe\xc4\xb9%\xed\xcdo\x8c}\x0eW\xd6%a/\xe3&lt;\x16\xdf\x1b\xb7\x83h:\xa6\xa3\xb1-\x89F\x9e\x9e\xfa6}I9x\\\x96r\xbe\t\xdb\xb8\x7fW\x1bm\xba\xdc$A*L\x92\xe3lPm\xd12\xb6\xcdJS@\xd8Hv2$\xba\xd2\xda\xb0\xed&lt;\xb7il/l\xb2\xbb\xe9\xaeW\x99\xf5\x86F\xb9y\x95\xfe\xe3\xadk\x8a\\\x9c`\xc7Y\xfa\x97\xcf\t\xe1cz_2\x8e\x10\xdf\xa0\xa8C\x8c\xab\xb3\xc2\x0eL\x0c\xa2\xc0\x00\tD`HZA\xa5$\x80\x9a\x90\xc0#CA\xb2\n\xfaMFT\t!@N\x11\x83\x86\x92\x05\x9b\x04\x12\x1d\x84\xe0=\xeb\xaf"\xfb+nW6\xf9\rW\xaa\xf0\x0c\xd5\xdc\x1d\x17\xe7\x9f\xb7\x955B\xd3\xdb\x05\x0cT]\xd0\x8c\xb1olj\x1d\x16^\x0b\xf7g\x80x\xfe\xba\xae|G\xf8\xfd\xd5\xa4\x18\x02#\x06\xda\x92\xd00\x87\x90\x86\xc1(\x15.\x1c\x90\x80\xfb\xf1BC\xb1\x88\x1f&amp;L\x1c"0\x93\x15\xc8\x08\x0e\xb0A,\xd8y\x8e\xeb\xf1\xf3\x05\xdb\xf7\x1er\xea\xf5\xbe\xe5\xb8\xc3\xed\xeb\x91\x82\x02$-2Q\xda\x92)\xb2/1\x95\xe5\x9ba\xdb&lt;\xdd\xd5\xf8\xe6\xcaH\x8cUk\x04\xe3Q\x93\xa9\ni\x97P\x06\x84\xa8\x90\xb5\xb0\xb19\x19\xd6Bj\xc9\xc6Y\xf4\x1e[\xde\xae\xaf-\xd1i\x18\xb2\x12\x04\xa8\x90\x97 \xefY\xed\x95\x91\xe3z\xa9\xf9x\x9e\x87\xf1\xb7}j\x16i\xb8Gp\xe7\x02\xee\\\xe6\x91\xc4\xf1\xbb6_\x92\xe1\xa1\n\xa6d\xa4\xa8\x12d`\xa4\xa8\x81\x96\xdfe\x01\x95\xa1\x83e\x89\xb8\x0b,\xf4\xc8\xc1\x11\xe3\x00kJ\x80\x12\xc06\x1ePF\x0f\xb0\xc9\x1e\xe9\xf0w\xbd\xba\x1c\xea)U\xda\x7fi\xf3\xab:\x9e\xa9\x8c\xe0\xfa^qo\x03\xa5u\xf8y\xd8\x1d\x83\x93szU\xf6U\xfd\x92\xcc\xdc\xe9ZNu\x07{\xe0\x1fx\xf8#\x91\xea\xddv3\xfc\xae\xc1\x9aL\r\nB\x1d\r\xba\x0c31\xa6E5%\t\x99\x12h*\x0c\xe8@kB\xc1D\x0c\tHH0\xc9\xb8\x04\xb5,\x08\xd0\x80r\xf6\x9bN\xca\x8e\x87\xcen"\xbd\x95\xb8\xc3\xed\xf3\xc8\x80!\x99\x18c\x04\xb85\xbf5\xf0\x9d\x0e_LYie$\x14\xcb\xccB\x1cB\x1ay\xb4\xa6\xe3o4\xc3i\xd4!\x06\x95\rH\x0e\x0eI\xa5$V\xebnI\x02\x06\x06hH9a\x01\xc6\xa5\xc4p\x81\x04\xa9\t\xc6\'\x80 \x02\x00\xd9\x04)m\xad\x86hP\x02\x00\x14\xa4\xac\x1be\xf6\xc1\xa6\xddh\x1b\x97\x16h4\r\xa0\x0fG\x94\x083H\x1b\x88p\x10\x01\x03\x84\x85H\x1e\xfc\xf0O\xbb\xba\xbc\x9c\xb6\xa7\x1b\xb9\xf5^#\xa4`w\xfc\xdb\xcez|\x9fT\xe5\x9dw\xab\xc5\xbe\xe3\x9d{\x8ca\xdf/\xb0\xf2n\xb3\x0bs|\xeb}\x83\xd9\xcaw\xc2~\xd0\xf1\x7f\x03\xd8\x9a\xe3\x1e\x1e\x84\xe0\xd3\xc8B\x1dl\x1ay\x93\x07T\xda\x01\xe6\\\x00\xc4\xa6\xd6\x05\x02Dq\xb8\xb6\x</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495628-anibal-moreno-figura-de-racing-teniamos-la-espinita-de-ganar</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mundial Qatar 2022: Arabia Saudita confirmó la lesión de su capitán </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Aun así, el primer rival de la Selección Argentina no descarta a  Salman Al-Faraj</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Arabia Saudita, primer rival de la Argentina en Qatar 2022, confirmó este lunes que su capitán Salman Al-Faraj tiene una lesión en la articulación del hombro, pero no está descartado para disputar la Copa del Mundo que comenzará el próximo domingo 20.El experimentado mediocampista fue reemplazado en el amistoso del último domingo en la victoria 1-0 ante Islandia en Abu Dhabi tras una fuerte caída sobre su hombro izquierdo, y generó preocupación en el equipo dirigido por el francés Hervé Renard.El capitán saudí se realizó una resonancia magnética que determinó que tiene una lesión en la articulación del hombro izquierdo.El jugador de Al Hilal, equipo conducido por el riojano Ramón Díaz, continuará el "tratamiento con el cuerpo médico" del seleccionado, informaron los saudíes en el parte diario del plantel.Además del capitán, Arabia Saudita detalló que el goleador Saleh Al-Shehri, el defensor Sultan Al-Ghanam y el mediocampista Nasser Al-Dawsari también se entrenan diferenciado por distintas dolencias.El próximo jueves, los "Halcones Verdes" enfrentarán a Panamá en Abu Dhabi en un nuevo amistoso de preparación para el Mundial Qatar 2022, en el que debutarán con Argentina, el martes 22 en el estadio Lusail.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x02\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x04\x02\x05\x00\x01\x06\x07\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x00\x01\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xe9l\x15\xb3GL\xa7\xd1\x9b\x94K\xb60uH\xed\xf1ZP\xdd\x96\x84\xaa\xc1l\x982\xaa\xbe\xe1%\x9d0\xad\x84\xb7\x9f\xa2\xe6\xee\r\x1d=\x8d=\xa6\x8c/\x95v4g\x9ef2\xa3\xa3\xec\x1e\xb4\x1d\xd2\x9e\x90\xac\x17\xcf\xb55\\\xaf\x03\t*\x975\xf7\x17\\OI\xaf\x9f\xd3?Qd\xec\xce\x10$j\x8b\xac\xdc\xadKY/35\x07Y\x83\x12\x8a\xd3XJ89Y\x17b\xe7j\xba\xc9\xf0\xd0\x93\xd0w\xc4\xf4R\xac\xa1\xadI\xa8\xe4jkq\x94)\xee2\x92S\x1c\xe5`\xf7\x1a\xb1\x00\xca\xe6\xd7_\\\xednM\xa0\x01\x96V\x90*\xc2\xfb\xb1,\x16\x83\xd6\xe5+\xa3\x8b\xab\xc4\x0c$=\x9c\xa3XW&lt;:\\eF\xb9}\xb2\x14$\xe6uw\t\x8b\x91\xd6V\xb5\xc40\xeb\xa9\xa6\xb8\xa8 \xa9\x9c"\xec77\x1c\xfd\xd7G\x9dj\xeds\xd6\x9bW\xabZ\xba:\xb2^\xcb\x01\xb0\xc9\xb4\x8e\xa25\xaa\xe8Y\xc9\xd03k\x12\x99`Z\xe9\xea\xce\xfbU\x8eo\xe6&lt;u\x0e\xec\xdeks]|\x89\x84g\x19\x9d!8:d`\xe2\x8a\xd3\x90\x96\x93\xac)Y\xa6\x17X\x16\xd6\xcf\xac\t2\xa2\xb4e\x9dm\x93W\x7foOm\xaf\x99`\xd2\xadj\xcb=\xcaoV\xa7\x1d\xd3I\t\x8f&gt;\x88\xac\xc2\x99\xb4(\x8bJ/Ez\x0f\xd3\x03,z&gt;\x16\xfd\xb9\xfd\n\xdf\x97\xbf\xd7\xcd\xb5:M1,\xecr1\x96kr\xf2;\x14\x98\x19(7.3\xc7\xbc\x00K\xee_\x0c\xf1~n\x87\xb6\x97\x9bJ\x0f^\xa5U&lt;\xae\xaat\xcf\xcb\xf7O\xa4\xbf&lt;c/\xf4\xb2&gt;5\xecQ\x9b\x9cfrR\x84\xaeJc\x90\xc8\x8fbCt\x93H\'R5\xb6(\xe5\xda\x92\xe4]N\xd0%\x1d\xd9!\x03G\xa9\xccUg\x87\xd4\xe3\xd6\xc4\xa2\xe9p\x88\xdd{\n\xd9d\xddK&lt;\x8e\xfd\x94\x93/#\xb0\xc2\xfa_\x8d\xd3\x12\x87U:*\xea-)\xcc+2eg=\x9b\x8a\xdb=\xd8_m\']\x99\xf6\x139,\x81\xd8d\x8a\xfaXH\x83\x14sny\xa4\x9e\xcd\xd4,\xf5%:{\x90\x8d2m\x03\xf49\xf6GI\x8dx\xb9[\xca\xebv\xf1\x0b\xa2i\xd8\x96\xc2N\x04\x11\xb4\x0e~\xc5Y\x1c.^\xba\xfb\xb9\x82Y\xcbV\xf5\xc9\xa1\xdcZ\x1d\xa5J\xf4\xd3[j\xc9\x94\xcd\x80\x9d\xdb\xcea\xb19\xa74\xa6I\xbd*\xec\xf1\xab\xd0\x8c\x1c\xfaD\x8d\x82\tr(8\x8a\xb5U\xd4\xda"\x0cB\xda\xa5\xf1.\xef\xa5\xe3:]|\xee\x91\xba\xa7_\x9a\xc2j\x1c\xd4}\x8aV8"UU\xd5\xfc\x8cn\x04\'I\xc1J\xbe\xa9\xe2\xf3\xa2\xb1}\'\x83r\xbbn\n\xed&lt;kr6\x1a\xf6j\xbaO\xb3\xbe\x0f\xfa\x1e3\xeb\xfd\xcffq\xde\xf6U\xad\xe6\xd6C\x11F\xa6\x01GUV\x9a\xe4m\x12N\x9aT\xae\xab\x96\xc4\xe6r\xbdKm\xc9\xef\xc1V\x1bUv\xe3\xa4\r\x80z\xfcj\xc1\x9d:\xa6\xdb\xa7\x7f\x91\xdc}\x84\x18\xe1w\x8c8G\x91\xd0\xda\xcc\x0c\x0e\x9a\xa7\xa1L\xd5J[R3:v\x07k^\x05[!\xf4\xe1\xdb\x04e\x8aH6@\x92\x99Kt\x02\xeb50\xe7\xde\xe3\xf5lg\xe9Y3_b\xb7\x90G\x8d\xa5W\x06\xee\xdc\x06g\x0f\xaf\x05\x03\xe2ow\x8f$K\x16\xe0\\\xb3b\x104\xdeb\xf4\xa03,d\xec\x03O\xe9O\xad^\xf6\x0b.m&gt;\xa1@o+;\xc5\x8a\xc0\xe1X\xd3\x97L\xed\x87#\t\x85j\x806C\ta\x14\x0bx\xd2u0z(\xd8\xa2\xb7\xd4%n\x95\xd5A\xa7\x05\xbb\xa0\xe8\xb8\xeb\xa7c\xeb\xed9\x8bF\xe5\xbcj\xa9\x96\x8d\x81\x11=\xd1\xbcS\xd9&gt;*\xaa\xf2*k\xa5h\x1aH\x80\xba@\xa5\x84\xa5\xc7\xb8\xc9\xb7S\x85\xcb!\x082=Z\xda5;F\xf8\x8b\xc9\x7f\xa5V&gt;\x1f\xee\xd6C\xd1!w\xadn"Z\x19!\x18\x1025:\xbc6P\xb2\xacR\xedIU\x1b\xb0\xd0Z\x91~.UZV\xf5\xfa\x15J\xbb\x89\xf4\xb9\xe9W[\xc0\xc2\xb2\xcc\xaf\xf2\xbak\x99\xc68\xfdz\x81\xdc\x0f\x9d\xb2\xbbV\x92\x1b\xa5\x8d\xfe\x12\xf9\xe2\xddD\x97Nwd\xf4&amp;\xc9X\xd1\x8e\x07\x994dX/\x8eU=m\xfdh\xdf8\xad\xdaI\xd8\x03\xb2\xda5\xc2\xcfNQ\xc2.n\x85v\xe6\xd6\x9cQ\xc2\xc3NJ\xb2K]\x0f\x16SA\xb6b\x8c\xce4\xf4\xe0X\x1f\x17x\xc5\xd1sue\xb2l\x1b\x1d\x1bU\x17Q\xe5d\xac\x0b\xab\xd9c\x039\x89\'\xb9\xda\xb5!\xcd\x83\x904\x98\x08\x86\xc8Vu\xea\\\xa7EM_t\x85\xb2\xa1k%J\xebU\xb3@`\xac\xab\xd9\x81\xd0ZsV\x16=C\x9c\xf3\xb0/\x98\xaax\xab\x95\xf8\x87\xeb\xff\x00\x8fH9\xb8\xf45pk\xd3\xeaN\x15\xc4\xa9x\xb9E\x962\xf7\x00y\xb3"\x93\xc0J\x94\x80j\xb2\xda*I_K}\x85\xf9\xed\xfa\x0es#\x90\xa6kP\xd0\xb2q\x84\x8c\xf5\t\xc6\xce8M\x90.&amp;\xa1)(:4\xb5q\xb6\x19+k-PmR\xabh\x1d\x19\xabH\xe1\xae\x94zn\xe2\xd8\x132|:\xd0\x1d\xb6\xb3\xe8\xab3\xc6\t]\xbb=\x12\xea!f\x01\x95\xb1xPT4\x8a\xfc\xd1\x917\xab\x18\x86\xc4\n\x92V\xccK\xaa\x84\xfa\x10-\xf5\r6\xc8\xbc-\x18\xf5\x01\xb64\x04"nlDBP\xb9JjQ\xd9\xe6\xce\xfa.D\x9e\x05\x8a:+\xb0\xb4\xf3t\x9f2&amp;\r\x0e\xc9B\xb0\x1a\x14\x05+k\xeda\x91[`\x176\xca\x0cQ\xbf\xb0\x96V\xce6\x0e\xb7\x93\x86\x80\xd0\xca#^\x96l%U5\xf7Ue)\xd6\xb1\\\xa5j6hJ^R\x80\xd9\x0c\x98\x04\xba;N2\xe4\x0f\xb0\xb5\xe6n\x8c8_\x8d&gt;\xf8\xfc\xef%\xd8XU\xd8\x04\xec:\x98\xf5\xf8\xfa^_C\xec\xd3\x19\xe47\xbd\x92\xca?*K\xd8k \xf9\xbb\x9e\x8a\x8d3\x8e\x9d\xd0\x0e\xab|\xf3\xd0|\xf3V\x0e\xb3\xf4{\xf3\'\xf4\xbfVY\x8cB\r\x05\xd2\xf9V\xd6\xd4\x91\xb1\xa9\xaeW,\xdb\x89\x08\x07\x03\x8eA\x0c\xe3\x16\xae\x06B\x98\x82\x8f\xa8\xcb\xad\x894A\x13\xc9\xc9\x14d\xe7C"\xc1\x0f\x9d\xc2\x93\x12\xa8\xa6;\xaa\x8acq\x18\x8a\xf6\x02\x16\xd4\x81\xf4\x96Kd\x07jnj\x13^#\xe0\xf7/y\x93[a\x86$be`\xd7J\x9c\xd3\xa5-\x07@\x16\xbe\xa4 dV\xc4n\x8b!\x93O4\xac)1\xbb\x01\xad\x05h&amp; 0\xd5m*Y\x12/IM\x1d9:\x00S(i\xbc\r\x1a\xd4\xcb\xd0P\xcdn\xbdj\x80\xd9\xf5tLQ:\xad7l\xd4\xb8\xf0w`\x93\xf2\x93P\x93U\xb5\xca\xa3\x06\x15\xc6D\x84+\x1d3\xb4Qi:\x90\x16\xd6\x83\x95\xc4\xa8[lmy\xab4i\xee\xfa\x1e\'\xaar:?\xce?\xd1_\x82\xad&lt;\xfd\xa5\x13\xd9\xdb\xdb\xfa\x7f\x89\xf6X\xfa~\x90\x9f&amp;\xaa\x1fv\xad!\x02\xdc\xd42\x985a\x0b\x14p\xc14\xd3q~\x83S\xaf\x0f3\xfa}\xf9\xa5\xf7\xae\xac\x9dpF\xba\xf6\x93\x11\x1c7\x8dZ\xc3B\xd5\x8a\xd7ugl\x8b\x90\x80\xd1\xd6K\x88\xe4)"\x02\x89F\x9aN-r\xbe{\x95Y\xdfN\xc6\xa1\r\x85Il\xd0`f\xe79\x90\x0fG\xd4\x10\r\xa1\t\xa6&amp;\x97^\x8a\xea\xbbjl\xda+\xc3\x05\xc8]f\xa9\x9d\x19,H\x99\x96G2\xa7\xa7\x9c\xa2h\xc6mD\xc6\xb1d\xe33\xc1vTU\xae\xa9\xd1V\xb4\xd05r\x99ld\xe4\xd1gJ\xc1f\xe2\xc9\xd7QY/J\xb9U\xec\xf9\xcdk\xe5\xf4\xc3\xe6\x97\xdb\xc7\xe8\x91\xe7*u\xf2\xba\xda\xeeN\xb8\x1f\xdc\xdb\xf9\xb7O\x97\xa7\xdb9\xce\xdas\xfb\x17\x8f\xd1Xf\xe8tM\xf3\xcc\xb8o\x18\xa1gF[\xb9S\x01\xd9\xad\xeb\xabT1\xb0E\x000l\xd2\x12G6\xa0\x17\x82\xd21N\xea\x14\xf3\xab\x12\xb8\xb3\xa4}g\xd5t\xdcG@i\xed~[\xfa3\xca\x06|\xbe\xca\xf7\x19]\x1e\xb0mc\xe9\xd8\xec\xd7Y\xb6 \xcb\xe9\x80\xe9y"\x07h\xff\x00)\xcd\xb9}\xcdg\x95\xd7\xec\xe7\xfb\x00yoA\xb3\xf3\x1e\x9f\x92\xee\x88\xfe\xccHi\x86\x92\xc5}\xdd\xba\xe5;\xda\xb1\xdb?R\xfe\xbc\x8f\x95b\xb1e\x90\xf7/a\x98\xaaD\x12\x02\xe6\x978\xca\x90\x89\xf5.V\x15\xed\x81\xd8\xb0\x9bi2\xb2\xbb\x16\x07\x98\xc9\x13\xbdn5x"\n\x8c*\x9ddiB\x9a\xd2\x99\x1a\xea\x17ez\xbd\x10[b\x1bb\xac\xa0\xcb&amp;\xa9\xac\xe9\xb6o\xd7;\xa3+\xa4^L\xccQd\t\x12P\xaa\x81\xabZ\xddf=\xa8\xd73X\x8d]\x14t6\x14\x85 %\xab\xd3Ys\xc6\xb8\xa8\x15tcohOg5\xc5\xc2\r\xbcx\xd4\xb5]\xaf\x8a%\x89\xab\x8du\xdc\xcfY\x8f\xb3si_i\xcc\xee\xb4\xd0\x1a\xc7\xd1\x94q(\xf6#MPu\xd6\xa9\xc3kN&gt;\xe2\x1c\x99]\x9f\xa7\x85\x13\x0eM\xc2\t(\xc1h)\xacKyEQ\xbaYUpe\xe5\xa5\x1d\x89\x87Gy\xce\xde\xda|R\xe9\xee3\x81\xec|\xf3\xa4\x1c\x9f\xcd\xeb,\xa0\xa6=v\x1c_\x1f\xc9m\xe7\xfa\x1a|)X\x8e\xfe|\x0fL\xa63\xc6\xf5&lt;\x8bDM\xbd\xd9?/=\xed&gt;w\xe8\xdc\xee\xb7)\xed\x1c\x1f\xb3\x0e\xae\xb5v\x12\xbds\xd8\xf6j\x9b\x897\xb3\x15\x93\xe9Xj\xc2\xd1\xc4f/r\x8c\xae@d\x18\xc0,\xe2\xa1C\xcd@\xa8q\xc8\x01i\x85\x19S\xac\x9d\xaft\t\x96Sh\x92\xc1\x04R^\xe3(\xd4\xd0\xe4\x105\xd72\xea\xd3[QmW\x9fU8\x1cZ\xacz\x9e\x8a\xd5\xd1@\xb7\xb1mMmAr\xd5sZ\xf1&lt;d\xcc\xecf\xd42,h\xb7\\\rR\xb5\xea\xcc\x9a\xab\xab,\x90\r=\x14\n+\xbd\x04\x8a\xe4\xd3W\xcd\xdd\xf3\xfa\x14\xb8\xe6=8w\x1d\xefF!\r\xc8\xbb-m}\xda\x9a\xf94\xf9d\r\\\x96z\xca\x0e\xa7\'a\xeb%\x9d\xe7vYp\x07\xcd\xd0\x85e\x85r\xf5U\xa1l\xb5\x95\x05wGVWS7 \xec\xd8\xe2G\xd3\x90\x8b\xe2/\xcf\xb4\xd7\xac \xb3\xadJ\xb6\xa3,\xd57%\xf5\xd7=\xd1Z\xfaK\xda\xbb\xbaH\xfc\x07\xe9&gt;C\x9b\xda\xf2\xfe[\xd0\xb8\x8c\x1d^\xce\x9f\xa3\xc4O\r\x17\xa6\xd2\xec\xcf\xc0\xd4t\xcfk\xc5\xcf\xfb\x95\x9fA\x83_\x9b\xf9O\xd5\xbe&amp;L\xf3.\x82\xcd\xd6\xae\xf6\xfb\x98&amp;g\xdf}3\xf3W\xd6z\xb2\xd3T]Q/\xab\x0c\x14\xdc\xa2\xd8\xd7\xd9\xeb\xc2\xfd\x82\x0fi\xc8\xf9\x979\xaeZ\x94J\xa1\x02F\x08\x95qeE\x04\xc0.\x83\xa9ID3Ch\xd2\xdb\xb5O\x89:\xd2l\x12Y"\xc5zY\x1e\xb5A\xa0\x11U6+\xcc\n\xd2\x8d{\xc9)\xd5\xeb\xbc)Jl\xf2\xb2D6"N\xa5\x1c\x01`\xba\xea\x0c\xeb\xc0\xeb\x08\x9d\xb9\x9c\xd87\x14$\x9aYl\xafM\xf0\x89W+p\x9bI\xd5.i\xf1\xecQ\x06\xd1\xcb\xba\xa6\xba\xe5\x16\x8dJ\xaf\x83g&lt;\x05;\x84\xb57e\x0bUj\xf6\xcb\xea\xe7S\xa7n\x96\xcf&gt;\xe7IO~\xbdo23\xe4\xeb6X\x19]\x05Q\xb2V5\x00X\xa9r\xb6\x9a\xe2\xb0\x98\xb9$e\x92\x80\xb2I\xc9\xaeA\xda\x9d\x98*\xe9\xdb\xa2\xd1\x9eH\xa8\xaeb\xbaz\x92\xd1e\xd4u\xfc\x8fp\xbb\xean\x05j\x17\xad\xd8\xda\x01|\xf9\xe4_Ps&lt;\xee\xbf\x99^pvi&gt;\xce\xaf\x95U\x1bK\xd7s\xb6c}\x85\xef\x17\xdc\\_\x8a\xf4\xae*\xaf\x84\xae\x14\x1c\x9ak*\xa1\xec\xe6}{\xea\xfc\x1f~\xd2\xa0\xe7\xfaj,\x9dj\xf6\xa0Il\xd8&amp;\xf6\xfcl4\xb1\xf4%\xd6\xeb\xd8`7\xa1n\xe1\x05\xa1\xc0\xd8pT\xa8\x08\x90\x82\xben\x08\xbc\x9436\x838\x8bbO\xb0\xabLQ\x88\x12\xb9$\x8e\xe2I\x8a\xc7\x12\xb4\x00\x0c\xac\xad(\xaa\xea\xf2!\x17f\xca\xaf\x93\xf9U^\xb5\xa2\xd9\xb4\xd5l\xe3\x16\x91\xc4\xdf~"\x943b\x0f\x18\xe5T\x071\xc1\\Li\xca\n\xf6\x02p\x92\x8a\xd2\x97\x9f\xd7\x02\xcd@N\xb1\x1bj\xc3Ud\x18\x9bS\x8e\xe3\x14\xfd\x8ez\x82\x04\xec\x84\xee}"\x17\x88k\xe2\x16\xfe\xba\xe2\xd2\xcb\x000\xf4\x1f2\xac\xaf\xa1\x15[T\x89t\xdfU\x95L\xbb\xb1a 6U\xcc\xf9$\xd2\xa7U\xd4W\xfc\xe6\xcc\\\xe5\x05\xa5\x1fO\x95\\\xb9\x96\xe7:\xca\xee\x86\xf7\x0e\x8e\xbb\xbd\xe1\xfd\x04\x0f\xb2\xb8\xab\xb7C\x1f\xb2\xac\xb3\xaboq\x8c\x1f\x95\xbc\xdb\xdf\xfeR^\x8b\x98%\x7f\x97M\xbd\x80\x1a\xc1\xd2\xb4\xf4?:\xb2l\xeci\x91\xe5\x81\xaa\xd6\\\x05\xb9\xaax\xce\xcf\x83\xdb\xcb\xfd\x14\xba\xe1\xbbR\xd1_Sj\x86.\x95t\x1b\x08\xbboU\xb3\xa9V\xc7\xabcB\xec\xd8\xa93\xea\xc6(B\xdbc\n\xe8\xd1\xd8\x85\x18\xd2\x1b\x1aC\xac\xadF\xbfkK\xf2\xae&amp;gY9V\xf4\x96\x8d\xd6&gt;\xd52@M\xa8`q\x8dM\x8f\x04\xb6\xc5i\xa6\x0e\xd4a3\rJgjC3\xca\xed\x05mSC\xa9\xd7\xb2Q\x1a`\xd8\x0b\x00\xa4S\rM\xe2\xb2\x94a\xc0D\x05\x9a\xa7\xd7\x90\xda\x9e\xde\x9a\n\xb3\xa5\x8f\xb4a\xc5f\xe6\x8dy5\xa72\x12\x98\xad\xae\x91s\x03\xa7\x980c\x1a\x1c\x87\x12\xcb\xb5\xb7\xf2\xd8\xb0\x81[\x9eG\x13\x0e#\x14sV\xf9\xa8\xc8L\x82\xbb\t\x18/\xadm\xa3Z\x99\x94\xcf\xae@\x94\x08\x91\xe5z\x8e_f.*\xb2\xd0}^\x1d\x1czFx\xdd*;\xdb\x1bnV\xc6\xbb\xeeo\xb1\x19\xd1\xda\xd6[.\xde\xb7F\xe0n#r\x14^q\xf0\xaf\xe8\xff\x00\xe7\xed\xd71\xdey\xcd\xaa\x9b\xeb\xf7&lt;\xd5\x1f7\xb5\xe8\x1e_W\xad\xdc\xaaA\x8fz\x11\xd9\xb5\xe7I\xc9\xdf\xaf\xcf{QW\xd5\xf7k\x13\'d\x0b6&lt;\xef\xaf\x0b\xe0\x16\xd7i\xb5\x85\x99%\x14k\xaee\xcfA\xbb:8\xf3\xb0=}\x16\xf9y\x1b:hRN\xb3ZF\xb7c\xcenh\x94y\x8e\x15#,_\xb0\xabx\x86\xce\xc2\xa9\xe3M\x84\xc1&amp; \xf1\xd4j\xb6\xb9\x16[\xd7P\x8a\x86\x89\xb4\xab\xcf\xcc\xc3\x10a\xf9!\xb9\xee\x8c+:\xb8\xca\x85,\x12\xcb\xa8Q\xda\xeb\xd3\xa1\x88wM\x95\x12\t2\x11\x0c\x80\xed\xd5\x9fw6\xcc\x95\xc6~nTb\x8dv$\x89\xd3\xd9\xcb\x89\xc4m\x19\x97U\x94\xc9\xac\x95i\x8b\xda\x10\x94[\x1f\xda\xa5BN\xda\xed\xad\x0f\xccE$m\x883\xa0%\xa9\x89z\xe6=\x89\x85\n\xc7\xea\xb4dOJGv,M\xa5st%\x19\xc5OB\x8f\xa2T\xf3\xf1s\xeb\xf0\xd7B\xcfJ\xd7\'o0\xdfJ\xc6R\xad\xea#rk-\xbe\xad\x04Ih\x07j\xf7\x064\x06\x8f\xcf\xbfEp\x00_\x9eb\xea\xf9=(\xf4.\x0f"\xa6*^\xff\x00\xd2\x07W\xcfF\xf7\x8a\xe0\xd5\xe45=?,\xfea\xbd\xfb\xe7\xff\x00^\xb1\xfb:\xdb\xe5\x10\x86/\xac\x03\xf1\xf7\xab\x86\xafe\x1d{9\xbb0Zk+xk\x9c\xaf\xadI(\xd8\x03\xb0\xb8\x0e\x84\xed\x0e*n\xfa\xf6\xafW\xd9NiX\x19+\x83\xb6\x94;8\x8e\x9dFo\x13\xae\xa4\xc9\xd5\x83U\xa6\xb5Z\x12\xb6L]\x9cP\x0c\x0b\x05\xd4\x12t\x19!\xe0&gt;\xcd\xfa\xdb=\xdc\xe6\x8c9\xb7\x14\xe69\xd1mf\x14\xa2\xadI\xba\xfc\xda\x82\xbe\x97^\x8c\x06\x97\x16\xb34\x866\xd8Q\t.\xd8\xf4\xad\xea\xe7Y1\\\xcbW\xc9\x9a\x91\x9d\xa6\xd0\x17\x1fS\x8fbj\xd6\x9b\x9fUV5,[\x04\xac\x1bF\xcdtb\x97[7Sg\xcc\xe9Z\xba\x85\xce7\x15\xc9\xd8\xd2Ui\xa9\x90\xd7\xa5qZ\x1a\x12\x03i\xb6\x83QaY\xb3\x15l\xf2=Nd\x97l8\xfaq\xd9\'\x97Z\xf2\xb0\xcc\xac\xba\xa3\xf0\x9fq\xe6t\xee\xec.\x9e\xd3\xcf\xa2/Bq]\x1b\xd6m\x12\x95\xb0#t+\xb5&gt;\x0e\xf2\xf7\xdc\xf7\xcc\xe8i\xf3&gt;\xa3O\xe5~\x8a\x1a&lt;\x8f\xca\xfd\xa7\xcd\xf0{\xae\x1b\x0c\x8e\xee]\xfb\xdc\xa3\n}\xda\x15q\x8d(u\xb6cw\xd5\xbc\xc3\xd6\xb2\xec8z\xce\x11\x9eA\xbeC\xae\xac\xe8\xf9\x88\xf6\xfe-e]\x0ft\xbc\xf0\x9b\xd1\xc9\xefw\xff\x004\xd9\xab\xab\xf4\x0c8\x8e\x8b?\xa8z\x19\xd1#\xd8s\x85\xe9&amp;\xbe\xdd3\x96\xa5^z\\\xba\x18\xe6\xa2\x8d\xa8fU\x1a\xc2Z\x88u\x8bd\xc1\x17!(\xda\x84.\x8a\x18\nY\xc1\r-\xd28\x1b1~\xce\xb9\xfd|\xc6\xc8\t\xb39H9\x8d\xe2l*5[X\xfa*\xd0\x92\xaf\xa3O\xac\x18\xf4\x9dG^@\xb0\x16jF\x99\xb8\xa3\xad\xca\xc3J\xb2k\xf2\xec\x02\xdd,\xd6\x85\xad{\xaf\xc8a\xa4\x9a&lt;\xc6\xad\xb2\xad0\\\x06\x1b*\x12(\xd3\xa5\x8b:\xeb^Gb\xd6\xed\x1b\xde{\xdc\xb1\x13\xa1#\x16Et\xa5u\x9du1\x04\xd8M\xc1_^J\xee\x97:;\t:\x18\x18\x0c\xd7\xcb\xbd\x86\x92\xb7\xc3\xb9\xda~\x97\x92\xe5\xeb\xf9\x8f\xeb_\x95&gt;\xdb\xcf\xa2\xf6\xc0\xadj\xe7\x83b\xf9\xdc\xf9\x9fH\x97\xc5\xc0\xdew\xb7\xf1~\x15\xcb?\x89y\xcd\xd1\xebG\x9bi\xa4\xe3ag\xe9&gt;[\xd8e\xf4\x94\xfc\xb7q\xca\xf9\x8f\xae\xf9G=\xec\x1ek\xd7\xe4Rnc\xd5\x8fZ\xde\xa4\xdc\xe3`\x05}\xe8\xfc\x9fM\xc8\xea\xfa\'\x8f\xf7\\\x86\xff\x00\x1f5V/K\xc9\x83\x91\xed\xf9\xf1\xea\x19J\xae\x92&gt;\xda\xe3\xcf\x9fo;\xafx;\xbe\x1d\xcfC\xc0\xde\xb3/\x7f\xd4x\xd4\xc1\xff\x00J_\xfc\xc5\xd9\xe2\xf6^\xd0*{\xec\x1f@\xaf\x0b\xf0Sk\x06\xd8\xe1\xaec6\xc5\xae\xcb\x05r\x90\x15\x98\xadub\xb1\x05Z;gJx[\x13$,YV\xbc\xfc\x8d\x10\x12 f@\x95V\x915x\x10W$d\x1aV#\xbb\xe5\xc5z\x10mH\xee!R\x94\xb6r\xb5\xd7\x9d\xc9A\\\xb3\x99\x0f\x94N\xfd\xbe\xb6*\x16\xef\r\xa3\x9f\xcf\x12\xf3L\n*\xbe\x9a\x99\xe8\xa4\xcd\xc3@\x16\x13\xd6^\x81m\xaa\xaf9}N\x8f\xa1\xa5\xbd\xe7\xbd\xc6\x97h$\xa0]\x05#UiPr\xb2\xb9\x9a\xadH\xae\xaf2=~a&amp;\xb96\xe5ic/\x93S\x97\xf4}\x0e\x1d\xb6\xdf:\xfd\x03\xf2\x7f\x0b\xb7_\xf7\xbf\xc1\xdfc\xb3\x9c\xf7\x8b\xf3*v&gt;E\x7f\xcf\xe5[0t\x95\xd5\x8bC\xb1%&lt;\x03M\xaf\tg\xc9+\xb9\xdfVY\xd57/Vj\xa0-&gt;\xb1\xc3\xf4*\xf9o\xb5\xf2\x95=\x15h\xbb\xcf\xe8}\x17\x9e\xe8\xf39-\xdb\xeb^E:*\xfb\xd5&gt;\xca\xfe\xb3\xb0\xe6\xf49\xda\xfa\xf3v\xbeg=\xc4\xdb9K\xd7Y/Z(\x96\x95\xa2\xfa\xcf\xc6\x93\xa5.uoe\xcc\x86\xb3\xf53\xa9\xd9\xf3\xef\xc9@b\xcfl\xf78U\xab\xd0\xbd\xdf\xe5n\x94{\x1fQ\x05v9?ZVrm\x966\xe6\xdb\xf3\x04\x87\x9bs\xa8+\x0c*\xa8\x05\xd2\xf4T\xc2\xb7QnD\x93\xdd\\\x9b\t\xee\xa7\xb8FS:_P4\x8b\n\x0b#8\x18\x95\x91.\xee\xd3\xdb\xa5)U\x1bx\xd4\xa8\x95\x90\xaa +\x01\x04\xae\xd9\xf5W\xcf\xba[\r\xd9\xab\ra3\xcdZ;p\x10\xf3\xf4}M\x06\xa4r\nYV\xf42\x9aB6^\xa1\xaf\xe9/y\x9b\xba\xab\x9ak\x8c&amp;\xe3J\x1cm\xb8\x84\x0b%\xe8\x9f\xa2\x92\xae\xb8\x89t2\xa8\xb9\xe3\xd8\xe5c\x07m\xd9\x93Z\xd5U\xb4\xd7U\xd6\xb8\x9fQ\xf3\x8f\xb7y\'\x96\xf6v}e`\xfa\xff\x00/B\xaf\xba\xe2vy\xc5 \x89\xea\x8a\xa6\xd0\x07\x10\x95V\x95\xa6\xadS16\xdcW?\x17s\x1f\n\xcd\xda\x15\xf4\x0e\x00\x9c\xafe\xd7\xd2^Up\xfe\x8b\xca\xd2u\xfc\xce\xac5\x0b\xdc\xc7^J\xfe\xbb\x9e\xe8\xc3E\xd6\xe5\xcc\'\x02F^]\xef\x9f\xb1:\xe8\x95XIy\xc0V\x8e\xfe\x01\xb5g(!4u\x98\x8b\x17\xcc.\xd6\x1d[[B\x0b;f\xb9\xe6,:{^U\xf3\xe5{\xc7\xb1\xfcU\xde\xe7\xf4\x7fN6\x8d\x92=\xdbL\x85\xa7\xe7\xc3h\xcd\x18c\x1a%\xa6\xbb\xcb\xc6&amp;\xbb\xcb\xaeW\t\xd4\xc1\xa4\x98$2p\x88\xe4\xcd\x08R\x99\x10erl.\xc1\t\x0b6\x8cB\xce1k_\x19\xddD\xc2\xf8\xea\xea\x95\xb7L\x19R\'\x03V\xb3Qm\xa9\x86\xe7\xba\x00\x81\x95nU\xf3\xf7\xb4z\xf2\xf2\xf5\x17t}&lt;\x9br\xb5\xf4t\xac\xef(\xaf9\xdbz;Z[&lt;R\xc2@\x9aH\xeb\xc9e:\xb2\xa6\xdd\x01m\x12wU\xfd&lt;u\x93`\x9d~IY+\x87\x96\xbd{\xc1\x04E\xb3\x8b&amp;\xeeR\xa6\xfdO/\xec\x9e\xb0\xf2j\nO\xb3\xf9\xa7\x9b\xd4\xb4~\x8b\x97\x8e\xf7\xee\xc1\xe58\xc0\xba\xbf3\xa7\xeb9\xde\x94\xf3\xf3v*Z\x9c\xdb@y\x9c\xfa+4\xb04\x1d7#Ur\xdf\x1f\xe9|o\xa2\xf2T\x1dU\x7f;\xd4\xf3,\xb7n\xd4P\xf4\xdb\xeb\x16\xde{\xcd^\xac\xedx\x07\x01\xb1i\xe4\xeb\r\xb8P8Z%\xe8n\x08\x94\x98\xac\xd6\x16\xd5Y\x00C\xa0\xd1\x1c.hb\x80\xe94\x94\x9d\x95\x9d\x97=i1\xda)\x80\xac\xdfbz\x17\xc0^\xfa:\xbe\x99c\xcb=FzC2\xb3-\xd8mG \xc1V\x17+\x08\x0f\x01$R\xb2QNJY\xa5\xde\x0f\x05R+\x11A\xb1\x15\t\x98\\\xb9Yb\xd5Y:\x9b\xc43&lt;\x0f*\x18mX\x84-\x02\xa2\xc8\xbe\x90\x15`YV\x8c\x85\x01\xae\x13\x065\xde!\xb4$^\xa6\xc6\xa3VZJ+\x8aN\xae0\xbe\xa5\xb4\xd0\xd5\xc2\x16\xdc\xcd\xf7\x16\t\xd9bc\x04\xdc\xd0p\x0b\x90S*V\xb2J\xf4U\xd7[\xa5\xd3\xe7V\xb576\xf3\xca\xf4\x1b\xac\xf8\x16\xe04\x9f\x88{\xef\x8d\xf3{\x91\xe5\xfd1\x1e7\xa1\xf2+&gt;\xba\xac\xd4\xa5-\xbf\x0fc\xe7}\n\xb7\x1d_\n6\xd7sW\x97F\xfa\x9e\xd8\xf3#k_my\xd5.\n\xd6\n\xabJ\xa0\xde\xd6!\xb2k\x08\xec\x01\xa6\xfe\xfb\xcf\xd8\xe6\xfa\xae\xfe\xfb\xcd\x1a\xc7\xd4\xf4\x9f=\xa1\xa9\xd5\xc9h\xca9\xd0\xf3q$\tk\x99`BL\xb4]\x12\xe1\xac\x98\xc1hd\xa6W\xc1\xaa\xf9\xb2"\x98k@pyZ\xa3%\xe7L9\x12\x8c\xae\x9e\tF`\xdf\xd0\xbf&lt;\xfd&amp;^n\xf7\xdf&lt;o\xbegC\xb4aC\xd7\xd0\x18\xd0\xe5a\xa1\x12\x17\x046\x07F\xaa\xcf\r.\xaa\x13\xca$\xc0\x13\x04bi\xb6\x88\x92\x92\x1e9V\x96\x94v\xedM\xbd\x85M\xa4[\x87]\x8b\xb9\xe4uc\xb5\xc8\x1a\x8b\xa2\xdd}Z\xb5\xceS\xcb\xb2*\xfbKN\x8c\xab\x94\xc8\x85\x10\\v\x9c\xb5\xfa\xf2\xd7T\xdeG\xa7\x85K\xb3[\xad\x8b\xd8\x9a\xc7\x16\xb2\xb8\xc3Y\xcdi\xb9\xb5\xb1LpB\xda\xaa{\xeaV\x15b\x86K\xa7\xcf3\t\x17V\x1bf\xea\x9bH:\x10\x88#&gt;#\xeb\xfeg\x97u\xad5}W\x9d\xf6\n\xee*\x90Y\xf3d\xe6\x8b5q\x96/g\xe6M\x9f[w6\x16\xb5v\xa5\x99kJ\xeb\x03\xcd\xba\xdb\x1a\xca\x87\xa0\xbf\xa8^\xc56}\x16\xc1\x11\x8c\x15\xa9"\xc2X\x13\xb1\x88:\xa4\xeeB\x9b\x1d\xeeq{\xd8LC)A\x8b\xac/\xaf9w\xe2A\xfa\x12\xa2\xeb\xc5\x14\xbc\xa3\x0bm\x177a@+J\xa1\xe9\xa4\x02*=)My\xc6Lq\x8c+i.[\xc6\xd7\xd0\xff\x00&lt;tW\xcc\xfa;\xa5\xf1;\x92\xe6\xfdAs\xf3g\xbf+\xe8\x17\x92\x89\x1dq\x89\xe3(\x03dTk\x88\xc1[\x94Q\xd4\x92\xd4\x95:\x0b8#\xba\xe1\xb9\xed\x16\x1a\x8b\x1bzkgg\xb7\xb5\xa8\xb5\xb0p\xeb\x1e\xe1#\x18\xdc\xd8d\n\x15\xebYB\xedZ\xa7\xabe\xdcGa\xc8\xf5*\x1e\xa3V\x94F\x12\xb2\x8f\x03ON5l\x05i\xaf+6Q\xb1\x1a\xdbdqL+2*H1dT\xc8\x0c\xc3+\xa8\xe7\xfa\x0ewJ\xe8\xeb\xa7S\xd8\xe7YN\x9c\xfay\xd7o\xf3\x96\x19\x99h\x15\x80\xa6\xb1\xc4\n\x8b\x9d|?\'\xdc\xd0y\xdfo\xcb\xd5tH\xec\xc3J\xe8\xd9w1\x97)\xec4\xf9\x9bV*\xec\x0b\x9a[\n\xd6\xcb#. R\xc8d\x8e\x00)\xab=\x8b\x82\xa3Q\xb7\x8bb$1\x04\xa1\x8d\x8e\xe1\xa0i\xb7\x13\x1a\xe39\x92-x=\n\xab\x1fo?\x0bz\xf93}E\xd4Q|eq\xf4\xb7\x953-G\x90t\xdd\xd8\xbb\xe7dz\x16\xc1\xdcH\xfb*\xe9\xaf\x9aV\xda\xa4zy \xc8\x9f\xbd\xc6uM\xb6\xa1\xef\x1b}\'\t\xbaC\xd65w2\xbd\xff\x00\xb5\xe3]\xe3\xfb\x0f\xa6n\xbe]\xfak\xa5\x95\x88\x93M\xce \xb2\x12\x89\x81\x95\x04\xc0\x8b\xb5\xe0\xf4+_\xabK\xeb\xeb\x9dAu\x03\x81\xc6\x05\x85\xcd5\xd3\xf2\xd8[UZ\x10\xb4e\xcb$\xb5\x9a\x92 8\xa0\xd6!g^uX\x95\x9aU\x19\\)\xe3\xd8\xaf&gt;\xef&lt;-\x8b\xb4VN]\xe9\xd2l\x92[zk\xb7\xe7\xba\xb4Z\xd6\x01\x1a\xc2\x89\x9c\x9a(\xd8\x80\xca\xd2\xe0\x02*\xc0\xae\xe6\xba\x0eO\xa3\x8f\x97\xa9\xdd\x17\xa0\xe1\xbcj0\xb3?Z\xd7\x15$\xbf\xb8O\x91\xac\xa5\xfaCw\x1ec\xe3\xfdu\x17\t\xdc\xf9\x87\x0b\xd1V^\xf3\xb6\xdb\xf9\xb5\xb9`\x96\xdf)RrW\xdbm\xef9N\x82sl\xcc\xa1K\x97a!\xeed r7p\xd6B\x9b\x19\xaeB`\xf4@\x89\xe9y\x80_\x1c\x86\x85\xed\xb2\xa3-\xccmd\xa2ea_gs\xdb}o\x9f\xa2\xae\xff\x00\xb0dg\x9f\xa8\x1e;\xc9|\x99\xbc/BW\xce=!\xb8\xfcb\xb83_D#d4\xe4\x15fU\xd3Cq\xc8\xd9\xccE\x80x\x8c\xd6\xb97\x08\xcc\xa5\xec9&gt;\xe9/\xf4\xf69\x0b\x0e7\xb1c\xd5|\x91=*\xfb\xce&gt;S\xeb\x1d.4\x02p\x98&amp;\xabK]\xa9\\\xf5h\xb1\x1a\xbb\n\xa554\x9e\x02\xe0Z\xd3D\'\xb9B\xdd\xaan\xcdW\x0e\xa4X\x18\xa4tM\xca\x10\xd8\x10\x8a)Z+\x06\x9c6B\x1b\xe2+A^\xad\xba\xa1j\x95\xe9\x95\xa5\x13oGR\xfd\r\x96f\xbd\x7f\xca\xf4\x96\xbe\xc2\xde\x8a\xe0\x82\xc0\xa1%\xc6\xf6\x1c\x02"\xd8\xac\xad\xd7I\r\x00\xaf!{\xc9u\xb9\xfcE#\xf5&gt;\x8b\xcb\xb1\x18\xc4\x1b\xb8d-f\xebx\xff\x00\xa49\x9d\x0f\'\xf3\xce3\x99\xf2\x1e\xa7\xbd\xf3\xc7*\xf1\xf5\x0f\xd0s=^\xdf&gt;\xcd\x1d\x92\x1a\xbc\xc5U]\x95R{\xcd\\QXD\xdd\x96\xb4\x95\xcd\xeaV\xfa\x17\xe6s\x963\xb3\xf5;O\x91\x9b\xdf|\xee\xf4P\xf0\xcc\'\x12xn\x11\x03\x11\x04\x0f\x0cI\x11q\x98P\xb6\xa6\xe4\x1939f\x08\xdc\xfb\x8b\xe2\x9fa \xf7;\xff\x00U\xf2\xefK\r\xdf+\xdb\xdb\xf8\x03x\x9d/\xa3\x8f\x92\x1d\xbe7,\x80\xd4E8\xc6W\xfd\xbd\xf1\x17\xddi\xef\xf9\xcf\xcc\x1fw\xae\x1a&gt;\t\xcf\xa7&gt;sv\x05\x98Kg\x99\x93\xd7\x9e\x03\x9d\x87\x19\xd0\xe3\xe8\xf4Oq\xe6\xcb\xdb\xf5+~\'\xd1Hi\xbe\xa2\xf0\x19\xb7?\xd6 \xab\xb1\xdd\xcf]F\x94(\x82\x0f#GYYiR\xb8\xb4\'\xb1\x93h\x0c\x89;iYfab\xd2,\x9cl\xcaL\xa9\x8d\x82PK\r\xc6A\x04\xc1\xa0^\x05\xc8\xaf\x0bS\x14-\x8bT4\x87G\x06\xca\x19\x1ek\xb7\xea\x19\xe6\xf4\xed:~/\xa7\t\xdd\xdcr\xdd\x04\x0b\xb3\xd7\xb3t\xe6\x04 dC\x11\x97\xaa\xc2\xd6\xe8\x14y&gt;\x87\x97\xeas\xf9\x04\xad+\xfb&lt;u\xc2e\x8f4\xa4\'\xa0\xf5^\x83\xe8?\x1c\xf9N\xff\x00\x92\xf3\xf6\xb5\x99\xb4\xae`H5w-\xc3g\xe5t\x9a\xe3\xa6-OqK]f[D\xf5v\xfb\x01o\x9f\xf7\x7fG\xf0e\xb9\xec\xfa\xd7\xc0|l\xc1\x96r\x86\xc7\x03P\x0e\xc9f\x8c2\xa6\xe1-]\xc7z\x85\x99H\xbb\x0b\x02fl\xd5\x92\x1c\x0eO\xdd|\x1a\x01\xab\xe9\xaf\x98z\xae\xdam\xba\xf5_\x13\xf3\x9a\xd7\xeb\xff\x007\xea\x16\xbc\xc1\xee\x04\xb7\x92\x83W\xf7\x1f\xc3\xbfj#\xd0\xdbAL\xad%D\xdav_\x9a&lt;\xdf\xee\x8e(\xd1\xf2Y\xbe\xaa\xf0\x85;\x99 \xd3V\xc7\xdf\xa0\xb4]\xf4\xa6g\xd3CP\xba\xabEiW\xbe\xf5\xf1\xa7\xd6Z\xb3X\xaf\x8bh\xcc\x05&amp;\n$\xa9\xeej\x82\')b\xa4\x9a\t\xd2\xf6\xac+\x1d\xa3\xb1:%dx\xf5dj\xec\xb7[#U\xa6\x92!,\x8b\x85{\x06\xb1L\x81\xe1j2\x9e\x86U\xd7\xd8V\xf5\xb8\xfa\x90\xe4\xdc\x96\x8d\xd5\xb9\xca\xeeXt\x9c\x97I\x95\xfd\x97C\xcc\xde\x85^\xb3\\{\x17\x94\xda\xa0\xcd&amp;D\x05\x8b\xa2e\x0c\xebh\xee\xea5\xaf\x9a\xaa\xbe\xa9\xe9`\xaaU\xb4\xb7\xf2\xb5\xea\x9ea\xd1)~\xc5\xf1\x9f\xd5\x9f\x1dyOAR\x96\xd6he\xa5OA\x06\xea\x8b\xa4\xaf\x9c5\x05\x10V\xddXS{\x88t\xbc6J\xb4K|\xe8\xb7x\x0cU\xf7\x10\xdc\x96f*Z\x84\x04M5r\xed\xc9\'\xab\x17 \xa4!6 D\xcd\xd6j\xce\xb0\xb2\xd2\xdb\x1c\xe6\x88`Da\x82\x11\xd6I\xad\x0b{\x89`\xed\x84\x16@KS\x11D\x8b8\xc9\x89\xa7\xfb\x17\xe3\x8f\xaeS\xdd\xb8\xda\x18M{hA\x89\xb7\xb7\xe4_9\xdc\xb3\xcc^\x89\xfc\xa3\xe4\xbfq\xfc\xf1\x8fW\x05\xdd\xb9\xdbe\xe9j\xe9\xa4D\xcb\xc9\xe5\x00\xc7\xfd\xb3\xc1\xba\xcd\x19\xfe\xa7UEz\\w\x02\x88\xe8\x8f_\xb1\x04\xd1\xb0\xf9\xb4D\x84\xd6]Q:rCle\\\x18\xcbi\xd3\x17B\xee7[=\x19\xadu_\x17!\xb1\xa2&amp;e\xb1\x9dl\xc9~&lt;\x91\xd3\xd6\x08\xaa\xd8z\xfcm\xc2\xc0\'K2\xb1p\xf4\xda\xe99n\x87\x1e\xae\xcb\xa0\xe5\xba$]\xf3(8\x11\x85\xce\x11bIY"\xb6\xd7,\xfaq\xb5t\x97tLeE]\x8dn\xdc\xb5i\xba\xb7W\x8eoW\xa2\x9f\x1f\xa9O\xe3\x9e\x8d\xc1y\xbfC\xe4a\xeaj\xba\xbcJ\xbe\xba\xae\xd5\xbct2i\x96waIb:z\x1f\xae\xaa\xafsv\xfe\x0f\x95\xe5\x1e\x9ei[E\xa9\x8d\xbd\x8bU\x9b\xa5\xaf\xfb\xc6\xd8u~x\x97\xee\xeb\xd1\x9f\x9eJz\xbf\x90\x12\x18\xd00\x84\xba\x86\xae\x12@%\xc2\xeb2\x04\xe4\xbc\xe5\x13k\xea\xec\xc3\x14@\xe7\xa0\xc2\xdaa\xc3\x04\xe2p\x90\xae[\xc1\xd0;1\x10\xb3\xd3\xfd_\xf2\xaf\xd55\xd84\x85\xa33\x02"\xb9\x02*\xb4\xae\x93\xa7\xf3\xafB\x07Ty\xfd\xd5\xb7\x1b\xd1)k6mt\xfc\x8b&lt;\xa8\xb3\x14\x12\xe4\x97o9\xbe\xa1\xf8\xbe\x8a\xd5\x0euy\x97\x04\xa7pm\xb2\r\xa4&gt;MD\xf95\xea\x0cf]U\xe3tY4\xa0\x07\xa3\x9bB\xa5&gt;\xf5&amp;$\x1c\xb6#q\xda\xdarHK\x83^\x17\xcbNcG\x9f$\xfdgK\x08u=\xef\xe72&amp;\x07.\xaaziZ\x8b\xd2\xd5t\xb8\xf4\xd9\xdeW\xdd\xe6cO.\xc2\xd8\xd4\t\xba%W\xb0\n\xdbR\x85\xda\x02\xceo\x9c\xea\xb9s&gt;z\xa9\xcam\xd9\xc6\xd5W\xadj\xc6\xf7\x9f\xb9\xcc\xf9\x1fSW\xc6\xddr\x8a\xaaU\xa5\xae\x87:z\x11\xb5pd\x89\x86h[\xd7|\x83\xb3\x0e\x8f\xd8\x01d9\xfb_,\xf9\x9f\xba\xf8^\x8e9\n\x12^&amp;\xca\x02\xdef\xfa\x1eW*\xfd\xdb\xeb\x0f\x86\xbe\xd4\x0e\x8f\xc3&lt;;\x8a\x1e,\x8c\xb2\x0e\xb3[\x979Fqe\x90\xcaj\x1e\x8a!\xb8\xa4\xfa\x91\xd2\xc1\x92\x8ca`$x@\x9a\xa4%\xac\x90\xeb6\xa4\x135]`@\xa7\xda\xdf\x1d~\x80\x0fG\x86\x97g"g\x13.\xdc\x95\\\x1e\xbd\x03(\xf9_7\xf7\xef\x14\xc3\xd4\xaa\xbfz\xc7&gt;\xca^:\xc7\x96\xabJ\xa2u\x15bJ\x1b~\x16}}_C\xd7\x81[\'m\xb4\xe7\xad\xb3}\xf0\xb4\x1d\xb1q:*OlT\xba\xa2W\x18\r\xa3\x1d\xf4A\x94\x1a\xbc\xc0\xba\x01\xf4\x00\x85\xce/\xd0+eL;\xb8\xb1|\xda]Xtc\xe6\x1c\xbbi\xd9\xbcZ\x8f\xa2\xe7;\xfc]O\r\xa5\x04\x8b!\x13\xaf|V*q\xef\xaam\xf2i\xe8:\n&gt;\x87\x1e\xa7&amp;R\xaa\xf0\x935\x08\x15\xb3\x00\xb6\xa5\x1btJ\xf9\x8e[\xb2\xe54\x07\x03\xcd\xf4\\\xa7_\x9f\xd2vL\xf1\xbeg\xd2\xaf\xcb\xd9\xd0\xf1:\x95\x9c\xcfC\xc8j\xc0\x9c\xc4m\x99o)\xef\x16Y\xf3\xcauF\xdb\xc5\xa3\xfa\xb1\x8b\xa1\xdc\xe4\xd0h5y\xef\xca?s\xfc0\xeeq%\x19\xd6&amp;\x08\x06o6\xf7\xad\xc5\xfa\xef\xd3\x1f8{\xd2\xba_\r\xe0\xcc\xcc+\xcfp\xa2\x9ce\xab\xac\x9c7*E\x0e\xae\x9c\xc0\x9c\x92\x18\x93TU\xf2\xd8\x83Q\xc5=\x1d.`\xca\x9ax\xccQd\x01c,6u60\xfb\x9f\xbd\xbe$\xfb\xbct\xd7\x12\xcc\xb4\xea\x83XsBly@z\x8c\xdb\xf9\xcb\xca\x1eiO\xea8\xba\x1eio\xb5\xe5\xd7\xaa!\x9a\x0bz\xe6\x8e\x7f\x0f\xf4g\xa9KF\x1ee\x9b\xe2\x10\xd6\xbdf\xd0\xdds\x8d\xb3"\x8c2\xc55B3*5\xf1\x8c\xa2Z-n\xaa\xbf\x1e\xd4\x95b\xb4\x08\xb2\xa8V\xa2\x97Y\x1b1\xc9U\xabI\x1a+N\xf9M_5r\xbd\x175\xeb\xbc\xe3v*\xdc\x03"\'\xc3\x9d\xd5v\x02t\xabv\x8a=\x9d\xfd-\xf5\'A\xcf\xd5h\xc0\xce\xa2\x91t@f\x01\xa0\xdd\xd7\xd7\xdbW\xb5\\\xf7#\xd8\xf2{sy\x93+\xf5\x1a\xd5[\xce\x12\xa3\xc2\xfb\x84\xea\xe6\xb5J\xbeN\xea\x83o7\x19\x03NU\xedso)\x9e\xa1\xddW\x1f\xaf\xcf\xb4"\x1bSL\xdf:\xc5\x8f\xa2\xfc\x1d\xf7\'\xcb\x937\x96\xc4\xa1^B2\xb3\x11%\xc8N\x95\xee\xde\xa3\xe7\x1d\x80t~H\xcc\t\xe4mc\xea\xc2\x1b\x19!FY\x95D\x8e\xf7\x02\x07\x1e\x14,G\t&amp;\x9b\xab\x0b# \x18\x98!\x944\xc7#\x12\xc5\xc7\xa0\xf5\x0fQ\xc1\xdf\xf9\xeb\xd8\xee\xf9\xbc\xdd\xae\x97\xd7&gt;*\xf4\xb6\xe5\xfb9\x9f$\xf5g\xf2\xe0\xa3J.\xbc\x7f\x99\xf5\xff\x00\x9c+k|\xf0\xaasnV\x82\xc2\x8d\xf9\xeb\xe7\xd0}\x8b\xa3\x9f\xe7?C[\x01\xd9*\xc1h\x1a\x14f\xe4\xa5\x89\xb2\x1eX\r9\xc2\x1c\xe7:\xb8l\xbb\x90X\\\xbb\x0e\xc9\xb9\x01\x165"\xb00\xe8\x97\x1b1\xabPOFR\x86)l\x04i\xcc\x87\xe4:[\x8a\x9fe\xe5\xee.*\xef1n\xc8=\x99YDf\x90rn\x1f\xa6\xb7Qt\xd7\xdc\xfd\xde\x1e\x8d\xd1\xd5i\x06\xcc\xa3\xb1d\xc2@\xdc\x02\x0eV\xb94\x9c\x9fO\xc7t0\xf1\xb1\xca\xac=e9\xeb\xea\x1f1\xe9R\xab\xb9\xe5\x18\x8a\x9a\xe3\x07w4\x8d\xa4\xf1\x83\x1e\x99\xe6\xde\xff\x00\xa5L\x12\xba]\x0c\x96YT\x15\x13\xbb\xa3\x93+\xd7&lt;\xdf\xaf\xb7B\xbe\x1e\x1bKg\xcd\xa2\x88\x92\x8d\xb8lU\xf4u\x98kC\xa5\xf3\x8e\x08\xc7\x88m&amp;S\xa9E\x80\x08\xcfZ\xcb\x92\x9c2T\xb20\x92C\xd4#\x0f\x8b3)I\xe4m\xb3\x0bs\xa3\x07\xb8\xb9O\x83\xd2z\xd5\x07\x9asy:\x9d\xb7\t/Y5\xf3\xdd\x9a\xdcP\x9f\xb9{\xb7\xc0_o\xe9\xe5t\x03\x877X\xba\xef\x98\xfe\x8e\xf3{\x7f\x86Q\x9b\xd3\x87W\x83\xfd\x19\xf4u\xbe\xae}s\xc6\r\xa40$\n\x08f\xd0\xa8S\x9e\xe5\xec\xba%\x96\x89\x02UnZ\xdd\x1e\xf32\xef5\xbc\xb9\xad\xe6Uf\xb25\x04"D\x88Y\xbc\x1b\x8e\xa7\x90`]L\x86R\x8c\xe0\xfc\x81Q\xd2!\xea\xbc\xf3\xbd"7\xf86\x0f-%\x8d\xbc\xf5G_N\xf4sv"\x9e\x84\xf5]\'/\xd1b\xe9^9\\\xea\x1a\xec\xa1\x8b9\xaf%\xee\x81V\xdds\x97G\xc7\xf5\\oC\x1f\x1c\x19\xb7\x83\xa5GEq\xc9y\xafW\xbeJ\xc6\x8fG=]fl\xc1\xbb\x04/%zOq\x7fW\xd0\xc1M\xa7\xcd\xaf5\nW\xc8\x1a\xa8\x87h\xb9\x87o\xe8\xfee\xdf\xe6\xd1\xf2G\x1d\xf4/\xcf\xb8\x90\xb15\xa5\x91e\x18\xd0}#\xcdxYf\xa8Kp5\x18%\x8c\x13I6(e\xa9\xc2\x87Y\x18\xc2\x94r6Y\x1c\xdd\x90\xdb\x01*\xb1s\x8a\x8b\xd2\xba\xe5\xfc\xd7\x0f\xab\xbb\xe6\x97\x94\x05=#uB\xce\xd7\x9b\xe6\xfd\x1c/\xcb\x97\xfa\xaa\xd8\xd5\xe2\x7faxg\xac\xde[\xaf&lt;\xed|J\xa7\xb0\xa9\xcb\xfb\xee\x84Vu\x03\xdb\x15-C$\xc1\xc8p\xa3\x19\x0eV\xe3\x9b\x15d\xf5;d\xa7\xa9\x15d\xe1:\xa9f\xb67\xbc\xd6\xae\xe7\xa8j\\\xb2\x1a\x95(\xebWP\xd6j\x14u\xbc\x1b\xdc\xb5\xbb\xbd\xcbS\xb5\xe4\xe3)_=/\xdak\xa7\x93\x9f\xb6\xb2\x7f;)\xe5w\xb0\xaa\n\xee\xb9c\xae\x1e]^\xd9U6\xec&gt;\xb7\r\xc2\x18.8m\x89(\xb5\x80\xae\xaa+\xef\xd49\xc9s\xdd\xfds\x93\xe6\x1c\xcf\xad\xfc\xf1\x8b\xabQ\xce9G\xc9\xe9\xe5I\xd5\xd7\x8a\x04\xd6\xdd\x98\xbe\xf3\xe3\xbfs\x9a\xb9\xfa\xce\xedM+\xe2M\xd6\xec\xd5\xc4W\xfa0\x08&lt;\xf4^\x8f\x879\x0e\xa9\xeb\x10\xae[\xe1_\xd2\x9f\xcd\xdc\xe9Ks\xd8"\x10\x9a\xf4Z\xd4b\xd7\x960\xdc\x932\xa4\xa1\x9eL5ND\x12\x8b(\xe5\xa9!\x9b\x8c-\xe6\xb2^\xe1!K6\xb0r\x12k\xce\x99`\xcd_E\x9fJ]\xf7\xa2}\r\x9b\xa1\xc5z-x\x90\rR0\x81\x89X\xe29\xe3\x9e\x99t\x7fH\xd42\xc8H\xd5\xad\xc7wZ\xd6\xb5\x0fQ\xdc`\xc7Y\xba\x08\xef%&amp;\xe5\xa9F\xcaQ\x95\x8e\x10R\xaa\x96\xe1\xb9%\xac\xd4\x9a\xcc\xd5\xdedr^k2X\xf7\x99\x06:\xde\xc6\xb2Y\xbb)n3\xb9\x93\x84\xa8x|\xb4\xcd"\x99\xd9\x98\xc5\xb1\xcd\xcbDv\x10\xbb\xae\x8d\x94a(s\xee\x80s6\xe5CG\xc8J\x8d\xa8\xc3TOFJ\xd5.`U\xcd|[\xf7\xa7\x9d!\xdf\x15R\xbbO\x9bAt\xb4\x9a\x97\x0e\xa5\xc5\x07\xd1_E\n\xdfB\xaaEs\xa2\x95\x12\xb7\xcb\x951\xbb\xdc\xbaM]\xc2\xc6\xa8\xd62\xaaO\xf3s\xf4\xd7\xe0J\xc1\xe5\xb8\xbch\x0c\xbe\xf4L\xdef\xeaC20\xb3[\x8c\'\x06&amp;i!\xde\xe3\n{\x0e\xe5\x17P\xcb\x92\xd6\xb7/P\x94\xa5\xe6\xa7\x94"\x9c7\x0c\xf6Ue\x10\xe9\xfd\xff\x00\xe6\x0e\xc3\x1fS\xe9\x1b\x7f\x9b8\xd1W\xd4\xf3\xfa\x12\xf5\xce\xf1/_\x7fM\x1c\xde\xb6U\xad\xc6RGz\xdc(\xebz\xa9\xado,#\x12e\x84%\xbc\xab\xcd\xeaTy(\xca\xefS\x14\xe0\xefp\xc8$\x8ej\x8fy\x1c\x85\x99\xad\xdc\xd6o \x8f{\xdc\xa8o7&amp;\xf3y/R\x8eK\x94\x879Ux\xee4V\xdbYT\xbc\x8d\x92/\x87\xdc%`\xe6\xa4ZLd\xa1l\xb9 \xf4x\xc8\x18\xb1\xab\xb5\xe2\xd6U\xa9\x175T\x9e\xda\xcb\x9f\x19|\xdf\xfa\xaf\xf2\x12\x99\xf2\xfb^\xad\xf4\xdd\x9f\xcc\x9f]zV\x89*m\xac1WMe\xc5\xb1\xadU\x87leZ\xfac%/\x8c\xeeE\xbeL\xfa\xf3\xcd\xaa\xbf8 \xc0o\x0cw\x9a"\xdc\xb51\x10h\xc0\xa2\xdefK\xc6\x16\xdc\xa6%\xad\xc5\n\r\x02\\w\x9b"\xd4g\x92\x0eX:\'\xa06\xa2\x16\x8b\x02\xa2\x8c\x89)J\xe1A\x0e\xfd,d\xf1\xfe\xa2\xd8.\xc0ww\xa9d\xa8\xef7\n3\xd6\xe5\xc77\x92F3\xc1\x90\xde\xf2V\xb3xU\xadK*\xf5\x9b\xcb\xbd\xe6d\x91\xde\xa7*9\xb9A\x8eKWq\x96\xb5/7\xa9\xcb\x86K*C{\xc1\xa8\xe6\xf5&amp;\xf7\xad\xdc\xd6\xf5+\x9a\xde\xb7$s6U\x99\x9a\xb9\x9a\xde\xe4\xd6\xf5\xba\x9a\xd4\xb5&amp;ky&amp;\xf5\x9b\xb9\x9a\xde\xa5\xe6\xb7\x1a\xa9f\xb7&amp;k5&amp;\xf2:\x92[\xd6\xa4\x94r\x15\t\x91\xcb\x19dw&amp;f\xe3.Y\xac\x92[\x8e\xe5\xee;\xd4\x9b\xde\xb2\xaf{\x84\xa5~r\xf9\xbf\xde\x7f\t_&gt;\xba,\xea\x007!\x89\xce;b\n2\xdcce)\x9a,\x1a`v\'\x167JGR\xcbn\x122\x83\xa0\xb0j\x1a\xcb\x05%\x18\xcca\x0b\x03m,\x86\xd2S\x14i\xfa&gt;j\xea\xd7\xfa\xa6\xc2/\x0fJZ\xcd\xcb\x8e\xf5\xb9y\xbdnMfnH\xe4\xb5$w\xbd\xc9\xac\xde]\xea2\xd4\xadoz\xa9\xad\xefRjQ\x94\x9a\xcd\xe4\x9b\xd6\xf5sY\xbd\xdc\x8c\xa3:\x99\x9a\xdd\x147\x9b\x83\x1c\xde\\\xcc\x96T\x86\xf3rk7\x92\xd6\xc0\xe3\xf2\x1b\x03\xbb\x84\xc0\xe4\x86\xc0\xee\x84\xb88\xc8l\x0e\xae\x1fB\x8c\x8ch\x1a\x90\xfa\x0c`3\x8be\xdb\x1a\x0cn\x98\xc5e(\xfa_R5\xa5\xb2Sx\rAcA\xdc\x85\xc0\xe4\xa3\xe2\xf9#\x1b\x06F\x1f`\xd5S\x1b_Tl\xedYKk\xf3\'\xf4\x97\xf3\xa9i\xe0\xe3\x1d\x82J\xb1\x05\x08-\xab\x91\xaf%k\t\x99\x12f\xe8\xf5\x02BA8\x18\xd98\xbb\x90\x14\x07{%X\'(I\x05\xcc\x03t\xa1\x9b\xb6\x07%\t\xa7p\x9c*\x89mSc\x17\xfaS\xdf|\xd9\xf4m\xe9&gt;\x07Wf\xc0JY$\r\xca$\x81)D\xc1d\xa2lz\x90\xb8&lt;\x84]\x0e2\x1b\x03\x92\x17\x03)\' JB\xe0e!0z\x90\xbb\x06Hi/)\x0b\xb0\xe4\x84\xc1d\x84\xc1d\x87\xc1jB\xe82\x90\xb8\x1d\xc8\x86\xeb\xa5\xbb\x87a\xb4\xa41\x8c[$gj\xee\x0bQWP[\xd2\xf0\x91\xccWR9\xa5#t\xe4\x13\x19S\xd1F\'v\x1a\xaf\x89K\r\xd6\xeeK\rW\xc6U\xa6\xeb\xf7Ae\xa4\xa3Ca*\xf9\xd4o\x12\xc9\x1e\xda\x19R\xc7\x12\xdd[\x9aSP\x9d\x8aq\x96\xf6\xeb\xb2\xd8\xf7\xc0_r\xfc\x06\x84\xf9\xcd\xad\xbc\xd2t\xaa\\\xaa,\xa8\x1d\x80Gdni\x19\xa4\x91{Z\xea\x18@\xa2\xa6\xec\xea\xb1q{ \xaf\x00\xf1:r\x8c \xca\x9b\xa1\x14D\xcc\xde\xb2\xcfp$c\xe09FT\x99P\xe2\x1fF\xfd\xb5\xf9\xb7\xfa2\xfc\xcfE&lt;dsh\xeeG$\x84\xe5\xb7\xb4\xf7#x\x9e\xe55\xb4\xf2[\x9aV0\x9c\xd2\x91\xb1{\x11\xdc\x8ebz\x96\xdc\xeb\xe5\x05\xdd\xa5\xba\'4\xa6H\xe6\x95\xd4\xb6\xf6\x9e\xe4nH\xeeG1-\xcao\x13\xdc\xb71M\xcbgi\xeeF\xb1M\xca\xe5\x0b\xcb1\xe8\xfei\xd3\x17\x9dg&gt;\xab\xb9TI-\xb5\x95T\xa8\xac\xb5]\xa9VZ\xaf\x8c\xab8\xa1\x0b\x1b! \x02\xab \xd6*\xfc\xf7\x03\xa1KV.\x9f8\xf0\xbf\x1fm\xbe&amp;u}\x9er\'\x06\xf5\x9b\xe7H\x9d\xbd&amp;\xe8\xe4\x97^\xe5.\xea\xee5N9W\xb9G+\x97\xdb\xa2\xc0e\xf0\xe9\xb5*\xee\x14\xa1"\xbe\xd7?\x13\x1f6\xf0\x8e\xab\x97\xe0\xf4\xf9\xb1\x95\x14t\xc3Z\xd8\xd5\xd1\x0e\xcd\n0\x01\xc1F\x1c\xd5\xaeE\xaf"\x8e\x8dm2\xbck\xb8\x17+:X\xd4,\x91$\xf5M\x18YX\x8f7\xadY\xcf58A\x81GE\x13\x08\x94]g\xde\x1f\x01\xfdO\xd1\xf2&gt;\xf7\xae\x1a=\xef7\xdd\xef\x86\x1c\xbe\xf3~~kWw.\x11\x85\xbb\xb3\xce:B\xce\xc3|\x86Q\xf5\xd0\xe4\x84C\xd8g\x12\x06#\xbe\xce\x03w]\xf6\xb89\xd1w\x13\xe2f/\xec\xb7\xc6n\xa7e\xae:2vS\xe2\xb7\'g&gt;\x1c\x92</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495647-mundial-qatar-2022-arabia-saudita-confirmo-la-lesion-de-su-c</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Selección Argentina: de la lista de 32, Scaloni evalúa a 27 para ir a Qatar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>El DT partió hacia Doha junto a la delegación nacional</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>De la lista preliminar de 32 jugadores dada a conocer por el cuerpo técnico de la Selección Argentina el domingo por la noche, 27 mantienen chances reales de jugar el Mundial de Qatar. A la espera de los resultados del examen médico que se le practicó a Giovani Lo Celso y que es muy probable que confirmen su imposibilidad de participar de la competencia, el entrenador Lionel Scaloni parece tener una sola duda antes de cerrar la lista definitiva que dará a conocer el lunes 14.Según fuentes del cuerpo técnico, si Scaloni resuelve llevar nueve defensores, irá Juan Foyth, el jugador del Villarreal, para ser una alternativa más como lateral derecho o primer marcador central. Si, por el contrario, decide potenciar la media cancha y el ataque, esa plaza pendiente será para Ángel Correa, el futbolista del Atlético de Madrid. En contra de Foyth, juega la inactividad de más de dos meses que viene experimentando por una lesión con inflamación de la rodilla derecha que tuvo a fines de septiembre. Pero Scaloni valora las variantes defensivas que le brinda y piensa poner en forma a Foyth durante los entrenamientos de la Selección en Abu Dhabi y Doha. También habrían crecido en los últimos días las chances de Paulo Dybala de integrar la nómina final. El delantero cordobés empezó en Roma con los trabajos en campo buscando acelerar su recuperación luego de haber sufrido el 12 de octubre pasado un desgarro en el recto femoral de su pierna izquierda. Dybala será revisado esta semana en la capital italiana por el doctor Armando Daniel Martínez, jefe del cuerpo médico de la Selección, y Scaloni resolverá en función de su informe, aunque las sensaciones respecto de su presencia son positivas. Obviamente, si Dybala no llegara, entonces tanto Foyth como Correa podrían meterse en la lista definitiva.Dando por hecho la desafectación de Lo Celso, los 27 jugadores que están en carrera para el Mundial son: Emiliano Martínez, Gerónimo Rulli y Franco Armani (arqueros); Nahuel Molina, Gonzalo Montiel, Cristian Romero, Germán Pezzella, Nicolás Otamendi, Lisandro Martínez, Marcos Acuña, Nicolás Tagliafico y Juan Foyth (defensores); Rodrigo De Paul, Leandro Paredes, Alexis Mac Allister, Guido Rodríguez, Alejandro Gómez, Enzo Fernández y Exequiel Palacios (volantes); y Lionel Messi, Ángel Di María, Lautaro Martínez, Julián Álvarez, Paulo Dybala, Nicolás González, Joaquín Correa y Ángel Correa (delanteros). El vuelo charter que lleva a Scaloni junto al presidente de la AFA, Claudio Tapia y más de medio centenar de integrantes de la delegación llegará a Doha a primeras horas de la madrugada de este martes. Entre los viajeros se encuentran Walter Samuel, Pablo Aimar y Roberto Ayala (ayudantes técnicos), Claudio Martín y Martín Tocalli (preparadores físicos), Matías Manna (videoanalista), Damián Albil (entrenador de arqueros) y Ernesto Fontanet (peluquero) más utileros, masajistas, kinesiólogos, médicos, cocineros,  empleados del departamento de márketing, prensa, administrativos y audiovisuales de la AFA.La comitiva permanecerá en el complejo de la Universidad de Doha hasta este jueves, cuando partirá rumbo a Abu Dhabi, adonde a partir del viernes 11 empezarán a llegar los primeros jugadores procedentes de Alemania (la Bundesliga se detiene este miércoles) e Italia (la Serie A se para el jueves). El lunes 14 se realizará un entrenamiento abierto y dos días mas tarde se jugará el último amistoso frente al seleccionado de los Emiratos Árabes Unidos antes del debut del martes 22 ante Arabia Saudita por el grupo C de la Copa del Mundo.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x02\x10\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x02\x03\x05\x06\x07\x01\x00\x08\t\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xfa\xfd\x186\xd3\x91\x90\x91\xad\xe1\xfc\x9d:\xa3\xd5K\x0eW.\xe4\x11\x9a\x05\xb0\xb1\x93\x10\xf0\x80&amp;{\xc2\xf1\x85\xa1\x9f\x07Z\xf30s \xd6\xe3h\xa6\xe9\xd8\x86\xa1J\xca\xd3\xfc\x81\xa7\x19\xe2\x92\xde\r\xeb\x1dmM\xa10\xd2\xcd\xba\xa8\xd8\xaa\xb2\xa9\xcf\xf4~\xca%\xc1]\xb1\xe4\xb6\xb4q\x0e6\te\xf6A\xafy(6\xb1&gt;\xba3H\xf9@h\x9a\xb2TmL\x7f\xa9P)\xc6\x96K\xddim\xbb\xd4\xbbMN\xa0\x84qqe@wi\xd0"\xd3[\x84\x9ei\x87\xdb\xeaaDM\xc3\xb6)\x0c\xa9\x87\x94\x01 S]H!\x0bK^Z:\xd2\xbc\x8f\x03\x9do\xa0\xafs\xc3\xef:\x81\xab\xc8\xf0#\x8al:\x95 =\xdfx\x12\xae\xf4:\xae*N\xad\x0e\x03\xc7\x82j\x19\xa5^i4W\xd0\xebo&lt;\xfbK\xce4\xc6\xa0\x9fis\x8c\xb4\x84l\x86y\xbe\x8f!O8\x94\'\xf2\xde\xcb\x81\xce}6_nH\xfc\xab\xf4\xb7\x9d\xd5\x93\xea*\xcf&lt;\xde\xad\x19\x83\xe3\xe6\x8a*\x0c\x92\x8b\x87\x91A&lt;z\xb1a\x07\xba\'\x80\xc6\x99\xf4\x89\xe2Zef:\xf1\x9f\xb5\xac\x91Q\xb7\xa1\x86\x0e\r\x1ete\xd35\r-J\x1b\xf2[\x83\x8b\xb4\xd4\x93\xb2=\x0f(\x93\xcbeT\x14\xe0\xce\xa1\xef%\xc1\xb6\xc9-\x88$\x96\x90\x1e@\'\xda\xa2G\xdd+t\x05`\xaaO\x04\xfa\xb8\xa6\xfd\xde\xf8Ju/3\xaf\xb3IUh\x81\xab\x11%\x9e6\xafcNz\x94\xf4\xa1U=\x87\xe7}\x01\xce\xae\xaa\xed\x80\x9eB\xcf\xc3\xd2\x8f\xf7\xb8\xc2\x08\x0c\x80-)S8\x95p=\xce\xf1\xaf{\xde\x05u\n\x0e\xfb\xc9\x1fR\x94\x82\xbd\xe4\x87\x93\xe4\x82\x93\xc4\x82\xfa\x9f\r\xcf\'\xa0\xa5\xb6\xa9\x1cZ\x16\x0f\x94\x19\x88\xedB\xe3Sj\xae\xd1\x03\xbc\xe8\x9aVi\xa7\xb2\x01\\\xf4\xe5\'!\x1d!\x19&lt;\xdf[S\xee\'\x83\xf8\xba\xd5\x9f\xd8\xfe\x95\x1b\xb0\xe1W\xddq\xfam\xef\x9c6\xff\x00?\xa6\xd5e\xcet\x0f\x0f\xbe9\x99\x98e\xab\xea\x8ewL\xd09\xd0\xc2\xb10\xdb\x92\'\xac$\x0ci\x1dB\xa2\xceu\x95\r+8\xb3\x05\xc1\x85(@6P\xc58\xb6\x1c\x17P\xa43\xb5\x9b\x08\xec\xaf\xcc\xc0\xca"W\xc8}\x1ey\x0b\x07\xaaq\x7f.:\xd7\t\xf9\xbc\xca\xaf\xa4+93w?Sh\x9f\x14\\\xa4\xfa\xcf=\x02\xc5\x19\xc0\x92\x9fQix\tF\xd1\xd7T\t_c\xc2\x0e\x986x\x12\xf8\xccx7fhTY\x04o\x12\xd9\xb6\xb1\xc5\xda$\xb0\xd4\x05v\xc4\xe7\x88\xe8\xe5\xfa\xf8\n\xfd\xa3NZ\xfbD\xb2\x1e!\x87m\x14\xb6^\x0e\'\xbd\x04\xf7\xca\x04\xfb\xbc\x0f{\xdc\x0e\xa5i\x0e%H\x0e\xf3\x9e\x04\xa5i\x04\xfb\xdc\x0e\xf7\x9d\x1f\\ma\xde\xf5r\xfa\xb4,o\x90!\x88~\xa5l\xac\x11U\x10\xf0\x9cQ\xb4\xfc\xdbI\n\xf2\\A\x9c\x84\x84i\xd3\x8b\xa8R&amp;y\xe4u\xbf\x86\x12\xe47\xd0+T\xb4\x08\xfa\xbd\x1a\xe5D\x90\xd7\x1f\xa7\x0c\xf9\xb6\xfb\xe6t\xfd\x17\x1c\xcc\x9f\x91\xd9]nF1Z\xba\xca\xc0I\xa8C\x90\xebd\x08\x0btU\x03\xfc\xe7\x90&lt;E\x8a\xba+\xe1\xd5k+\x95\x06`\xe51\xd4p\x08B:\xd2\x16\xdfB\xb9\xc9x1\xcf\x1d\x0b2\x8e\xd2\xbd\xf2\xca\xd0\x16\xf5\xd9l}l@]\xe9\xac\xb7\xc1\x04\xfa\x17\x95\x9f\xce\xa3o\xf0\xfd\x1c\x19?\xd1\xbf1I\xef\xc7\xf6\xccM~\xd9\x94\x9fc\xabY\xe9;\xc5\xf1\xaf\x04t\x08\xf1\xbc\xb7Z\xa1\xc6\xf4\xcb|\x8b\x9c\xbe\xa8\xab(\x9c\xba\xfb;\x1e\xe6\x15i\x98\xa6\xcb\xabj\x12D\xe3;\xad\xd6\xa7m\xf5~v\x04I8\xdd\xf9\xd4\xe3nT\xbc\xf3\x0e\x82\xbb\xce\x87:\x9e\x87y\xee\x95\xdew\xa0\x9e:\x90i.$\x13\xc5%\x08\xe7R\x1c\xefz\t\xf2\xba\xcf+\xde\x12\x96\x85\xa7\xd5%\xc2\x94hfHMb\xc9^\x15T#AyR\xb4\xbc\xd7I\x1c\x0bo0fq\xd1\xe6N$%)\x89\xe7\x13\xc7_%\xd5f\xa3\xfe\x92kd\xbf\xb5si\x93\x19\xf4?\xccR\xac\xf3\xd9\xa7\xd8\x9d\xfeV\x7f\xf4\x9dz\x91\xc9\xbe\xd1\x110\x07\x85\xefEul&amp;\xe0&amp;\x0e\x12\xec\xb0`\x04\x87\x9b\x07]\x10\x84\x96\xcb\xae\n\x0e\xefF\xb1\xb7ao\x9e\x01Zu\xa1%\xf6]%\ty\x81\xbb[\xb1G\x0cI\xb8!\x07\xf3\xf5\xe2\xa3\xa5rz\xe2\x02X\xdc\xde\xc7\x17\xe6\xe7E\xb8:\xd4X-\xd4\x89+\xe4\xac|\xcd\xf6u\x0b\xab\x83:\xfa+\xe5\x1f\xab\xfb&lt;\xa7\xe7k\x13\xaa&amp;\xfb\xefR\xed6\xe3^\x8d1\xc8;eK\x9f\xd2B\x06\x7f.\xce\xc8\nDk:\xea\xd1\x9e\xb2\x93\x94b\x113\x18\xfc\x94M\xae\xef\x8f\xec\x1e\x97\x81\x14\x0c\x9c\x7fg\x1bj\xe2\xd6k}\xa7\xe9\xf3\xca@\xbb\xe4\xf4\xa5\xfb\xca).\xf1 \xeb]l=\xef \x15\xc1Za\x9c\t@_\x99x:\xae)\t\xf2\xbc\x1c\xef&lt;\x0bq\xa7\x158`fH\xfc\x04\xf4\x08\xaaq\xd2Q\xaf*\x8e\x8b\x9eh\x83\x83\x1d\xd1\xcc\xcf0\x03g\x17\x9b\xf3p\xba\x9ep\x7f\x16:\xc9\xff\x00I\x11\xd6\xaa\xf0xk\xfaM\x8e\xda/^G_\xe7&gt;\xedso\xdf\xf9\x99j6\x97\x97\xde_I\x8a!_3\xf5\xc1\x86h\xf20\x8a\xcc\xd3=5\x0ead\x89"\x0c\xa6\xc8\x18\x1a\'\xfb\x9fY\xe0\x93\x04\xc0\t\xba;\x15\'Cc\x16(!\xc4WZ\xb3\xa3=\xb6\x84\xbf*\xd6\xc4\xa03\xbd[\xe7\x89\xd1wh\xa2y=\xb0\x99\xa3VQ\xb4\x99\xf3\xce\x88m~\xe8\x86sw\x1aTD\x83\xc4\xb1\xadP\xe4d\xf7cb;|\x8b\xec\x88\xeeu\xf9\xb6\x85\x8a]&amp;\xeb6\x1aF\x1d\x19\x84\x11\xa0e\xe8\xb1\xceC\xb1E\xc1V\xf7\xe5\xd2\x86\xcdt\x1c:]v\x0e\x91S\xb2\xc8\xe3W5\x1b6\xe1\x82n\xf5\xce0\x12\xb1\xbd\\C\xaf\xcbP\xa5\xf1T\xd2\x95\xb4\n[+\x05\xf9\x0b\x05\'\xa3\x01ppP\xe1/\x1c\x0f\x9d\x04\x89k5*\x08:d,\xaa\\\xf8jut\xb2\xe4\xe7I\xaa&amp;\x1ea\x1e\xf7\xbc\xdf\\GFAB\x15,\x88Y\xa8\x81S\xe3%b\x8c\xeaZ.u\xa2\xb5\x00)\x82\xcee\x16!*\x1cO\x91+\xdeO\x9a\xf8\xec\x8e\xf3\xe9a\x80_\x1b*\xdc\xbe\xaa\xfc\xfa\xfb\xaf\xcb\xea\x84\x134\xa9\xfa\x1eF\xd3\x90T\x1ez}S;\x9e\\|?d\x96\x9df\x1e(\xa9J\xf5\xae\xec\xff\x002\xebrjbp\xb8\xb0i\xf7\x1a\xc5\x19\xfa\tb\xc8\x1f\xa1\xf1\xfb\xe0\xac\xd6\x8a\x95\x9a\x11\x03\x14\xd01\x95\xea\xb9;\x1a\x10\xfa\r!\xf4\xaf\x92\xef\x96}\x8f\xf2\xf6\xb1B\xe2\xef\xbe\xd1o\x94&gt;\x1fR\xb4P\xf9\xcfn\x17a!g\xd5ZO\x9a\xf7\x17\xa0\x15V\x06\xab\xd5\xe6\xecz7\xc8\xba[\xcfi\r\xc8\x15\x9e\xaa,\x94Ow\x97`\x97\xaf\xcf\x8b6\xc0&gt;\xb1\xf9[\x97\xdb\xb5\xc2\xb2\xe2q\xf5\x1d$:Y\t\x97\x01\xf5\x8av\xcf[\xbe\xf2\xf5w\x13\xfa\x9e\x95\x06O\x7f\x93\xb5\x10\x1e\xdb\x88\xed[\xf0\xbe\x04\x80\xbd\xbeh~w\x8f&gt;uJlt&lt;\xc8qI\xe8)H\xe87O:\x9e\r\x9e;\xed5Q\xf4n\xd6\x7fZM/xf\x14J*/\x96\x1e\xf4\th\xd1\xee\xf8e\xef\x13Q\xf0\x86g\xaf\x9cJ\x81\xe3D.i\xd8\x99h\xc1S\xe2\xa6aL\xeaZ.{\xa25\x02\x19a\xced\x12\x19J\x1cO\x93+\xdc\xe7\x9a\xf9%:\xfeC\xee\x1c\x87\xb7\x13EO\xea\x9c\xbbF\xf3;+:\x06\x9a\x9e\x1d\xa0\xeb\xda\\\xcb\xca\x89f9-\xf9.\xc7f\xddi\xd7\x13\xac\x8f2\xd6;%/\xf0q\xf1\xb2\xfd\xd22x\xeb\xdcoD\xc5\xaci \xba\xca\xd0\xee\tZ\xdaR\x94\x8dH\xbe\x80\xea\x87E\xd8)m\xfc\x89v\x80\xbf\xd7M\xe6\xc2\t\xde?\xbeU~\xc4\xd67J\xafh\x81\xebY\xc5\x96\xc6U\x04\nj\xf3\xaf\x9d\xd3p\xadz&gt;\x19\xc9\xaeY+=\x1a\xc9V\xd2\x96\x16\xa0l\x15\xcd\xb8\x8c\x9f\xa9\xc9Q`\xf9\x7f\xe8\xaa\x96=\xf8\xeb\xb6\n\xdf\x1f\xa4\xd3\xec\x8bU/\n\xcd6\x8d\x11\xeaT&amp;\x8b]\x92\xcdN\xcd"\xe9\x8f\xd8Q\xa8m\xdf:}\x05\xa7\x9d.\xdfS\xdb\xe74\x95&amp;\xe1^\xf7F\xc3N\xb4\x1e\xe7|\x8f\x0eT:+U9\xc0\xe8\x95\xabMg\x94E\x85\x00\xd6\xc5\xe1\xc8"\xe9H\xf0n\x91\xd4\xb2\xe0&lt;D&lt;\x93\x8eJ20m\x97\x9f\x9e\xb7\xfen\x82\xba\xbff\xd4P\xef\xabx\x03\xa3\x85T\x85\x9a\x873\xa9h\xd9\xce\x8c*\xfcy\xe0\x99\xbcP\xcf\xc4/\xc9\xf0\xb9\xce\xf4`\x91V\x8b\xcf\xd1\xb6\xe2v\x9dK\xb7\x05\xcaL\xc4y}\x12\xd1\xcfFc\xb4\xed\xb75\xbao\x8c\x97D\xf6\xd0ts\xafH\xf8\xc3\xb5Gk\xb3\x94\x9emli\x82Fu&gt;\xdcKz\x16\xca\xf5\x9a\x0b\xab*Rm5\x171\xfa\xf6\x1f\xa9\xd3\xbbJ\xd7%f\x08&amp;\x006\xc8\x18\x0e+\xf9\xef\xbb\x101\xd48\x96 \xbc\xbf}C\xc3D\x04\xf4\x1dd\xedu\xb1X\xeb\xcd(\xb1\x93\\~h\x18\xc3\xe7\x1f5\nSHe\xc5KY\xa2n\x1d\xde0\x04\x1d\xee\xbe\x0f\x10\x94H\xe8\xa4\x14\x9f\xcc\x15]\x7f\x1d\xe1\xf6\x91\x1c\xe3\x17\xb5dad\xb7\xe6\x94\x81\x96 !4Z\xfb\x99\x8a\xaa\xcb\x8f\x0e\xf1\xf4o\xce\xdb\x1e\xfcw\xa54\xad\xb8\x9aO\x11\xa4\x91\xd4)&amp;\x98}\x94\'\xbc\xf0.\x02v\x1aJ\x14\xa8\x93\x8e\xab\x19\x96\xab\x9aZ\xa14h\x1b\xabq\x91\x12\x14\xc9\xe0\xbeq/;V\xb6\xef\xcd\xbfd\xd7\xaaO_\x9d\x94\xb5`\x86\xe2\xf4\xbd\xf4\x8f\xcc\x9b\xaf6\xdab\x1fk\x97\xa5n\xb0\xf8\xdd\x8e\x91\x01\xcdF\x1ef\x14\x8a\x96\x8d\x9b\xe9\tW\x81&lt;\x137\x9dm\xc9\x9e\xf5=K\xbc\xef\x82\xa1\x84\xfd[D\xae\xec;X\xb0[\xaf8\x13\xacS\xdc\xfa\xd2\x9a\xd2\xdc\x97\x99\xdcf\x1b\xb9h\x91[\xa9+\xac\x08\x04\x88\xc7X\x8a\xec:\xb9\xb4\x96\\2e\xcc\n,\x9b,\xb2\x10\xb3\x9a\x91\xb5\xf8z\xbd\x16\xa6\xea\xe6\x17!\x1c\xe7\x12c\xc58\xea?\x92L\x8e\xb7\x1d3VQ\xac\x97@\xba\xf9\xfe\xcc4\x1d\x88u\xbdjr\x8eGG=\xe2\x91d\x11U8\xbe\xc9k\xcb+\x1d\']\xc7\xafC\x9f\xcd\xed\\\xda\xb3\xad\xe3;/g\r\xd65}\xee\xf1$\xe3\xc5\x91\x07d\xe2\x01\xd38O\x9a\xbe\xba\xf97\x93\xd4\x8bm\xc00\xef\x83\x1aRg\\\xe3\xac\x95\xa0\x8a\xbcIgV8\xb9\xaa\xb5\xb8|\xa0\xab^\xb5#\xeb\xf8-\xf4\xd8\xe9\x19K~A*c\xa4-\xbe"N\xf5&lt;b\xc0&lt;y)s\x91\xf2\xebH\x1c\xabc\xca\xb4\x9c\xba&gt;n;\xa6f\xa4\x06-\x89\xeb\x8e\x89\xd9Xt\xe9\x9d\xfa20\x8e\xbeh\xf8\xd9\x08\xec\xad\xbd\x8b\x1c\xd8\xb9:6f\xc8\x1f\x93\xa7\xce\xb0\xeao\x80x\x0ej\x90\xd3P\xae)\xbaFu\xa1\xcc\xc0\x82|y\x0f\xba\xcb\xaa{\xdey\n\xf2z\x8bx\xe4=\xafX\x8eq\xa1&gt;\xecx\xeaey\x12\xdar\xcd\xc3\xa8f\x95\x10\x90\x92p&amp;\x82O\x81\x96\xca\xa4}\xae\x9f\xcfN\xa7\xdd\x96\x84-\x14x\xa0\x90\xdd\xd2\n2\xc4\xdd\x1c\x1d\x17 \xaa\x87\x10\r\xca\xf0\xc8o\xff\x006\x96\xdf\xd3\xc2\xe5\x1a\x0c\xea\xdd&gt;\xddQ\x92\xd7j\x89?\xcd\xf6\x1b\xea]\xcf\xae.&amp;\xf4f\xd7\x13\x1e\xe5n\xf9\xc8\x89\x98\x88\xbeNGT\xb4\x17\x97,\xf0V\xcc:,\xb2a\x0f\xd3\xe7\xe8\xe7\xc5\x97\xd9\xc0\xd5\x97\x8d\xd1P\xbaSH\xd2%\xb1\xfb\xfbf\xbf/Bl\xf9/\x07\xa3\xe9\x8a\xdc\xae}/)\x0c^\xb2\xf6*Yy+E\xaa\xa7e\xaeO\xa6\xdd\xaeMz\x9e1\xdco\xc8\x8f\xaf\xdd\\F`\xde\x91\n\x8a\x9a\x1d\x1e\x1a\xba\xda\xe1\xbc\xda\xf8\x15\xd3\xd8\xe4\xd2s]S:\xd0\xc5\x9bt~\x98\x992\x04\xb73}`\x86\xc4IM\x05\x85\xfa\x8a\xf5\x8b\x04x\x11\xc13\xab\xe1{\x1e7\xbe\x8aH\xdc\x9b\xf1j\xe4\x8f\x80`l\xaa\xc2\xcd\xc38\xa8\xe8T\x0b\xfb\x98\x18\xf9\x18\xf9\x87\x1ci\xd5=\xf7\xbc\x8f{\xdeD\xb8H\xf6\xbd\x0e0\x94\xa0\xee\x84BN\x0f\xc6@\x8f#\x83yL\xf5\xd2\xa4\xa2V\x13\x0cG\x98\xe4\x8ae\x9e\xbb\x9d\n\xb1\xdc\xce\xfb\xef%\x9eB\xd0\r\xf9"\x8a\xce4\x04\xdb\xbcwn\xaa@)n\x81\xf4\xc4M\xaf\x9b[\xd6k\x96\x86]y:\xc6\xfb\x1b\xc2&lt;O\xa0qq\xb2\x13rHqw\xd1I\x81\xd1\xe2\xee\xa0-\x90\xf2S\x93q\x92\x103\xc8\xbd*\x89{\xe9\xe1H\xe4m\xbd\\16a\xbb\xb4\xfa7\xa3R\x82\x8b\x9b\x86\xa8a\xd1\xb9\xac\xfa\xb1f\x8fW\xf3\xd8\x1b\xfe3\xc3\xdd\n\xf4\x14\xc7?a\xf2\xc0\xbf\x9e\x96\xafF\xd0\x94}\xadg\xadX=_\x12S\x8c\xb9\xa4\xb3 \n\x80\xf6\xd9(#\xf3\xfd"\xb1\x9b\xac\xad\xb71\xa7V\xda\x9a\x8e\x8f\x94\x86\x8b\x9c\xcdu\x1c\xe1\x98\x98\xe3\x15\xd1\x0c\xb6tm9)\x1a\xf1\xf6\xa6\x9a_\x98\xc7\x1e\xe9-%\xef0\rs*\xd2\xe5\xfd\x12\xc3\xedro\xd5uR&amp;&gt;J9\x95X\x99h\xc2*W\xda%\xe6\xe6\x16:F&gt;!N\xb4\xb5*\xea\x14\x8e\xfb\xdeA\x1eJ\xb5\xddi[bt\x90\x1dK\x8c&gt;\xe8\x08K\xe9bG}\xc2\x98\x18\x96\x81\x8f)\x01\xc0\xdf\x15\x10NG\xbf\x86\xe6xD\xd4\x9c\xcb\r\xb6X\x9cd]\xf3\x03\xf4E\x92\x18X\xee\xac\t\xd2q\n\xa6\xf9\xfd!X\xf9\xde\xd7\xbes\x15%Ek\x94\xcf\xd0_0\xcc\xf9&gt;\xa6\xb0\xd4\x8d\x13\xc5\xf6t%\xe4\xc2m\x8e\xe0N+/\x96\xba\xeb9\xcc\xba\x92\x83fY\xf3\xcfOD\xfd\x01\xd7\xc2a\xf1\xfe\xdf?\r\x1e(J\x8e\xfb\xadWj7\xd8\x17\x11A\xb1)\xa2\r\xb2=\xa1\n=\x95PR2\xaf\xa1f\xf8z\xfeb{v\xaa\xf9\xfe\x95\x18\x1b\x06\xbao=e2\xad\xebx\x16\xd2\xc0+L\xdd\xe3U\x8c\xae\xc4RS\xbc\xc8\x03\xd1\xd1DM\x96\xbd\x85y\xc4=4%v\xcf[\x15\x9b?\xd1)j\xbe{\xaejY\x0fAlT%\xcat\x85n\xe0\r\xcc)o0\xe5\xe5\xa1\x8b\x92\xdf\x05\xe5\x0fiyn\x9ci\xbd\xb6\xb4\xf2h\xe2\x90\xb0\xf4\\\x9c`\xab1R\xd1&amp;u[\xd5\x1e\xf6\x10Q\xd2q\xa4yhZ\x9e\xfb\xde\x0f{\xde\x02\x90\xf2\xef~\xb6\x9f\x03.\xf5\xaaN%\xa4\xa4\xf2\xba\xfa\x03\x7f\xac\xb5\xe6\xdbB\x14\xc8\xcc;$^xU\x97D\xe6:\x95\xe1\xbbR\xff\x00\x11\xce\xbc\xde\x8fH\x1e\x8f0\x80\x1c\x8e\xeex\xf6gB\xa9\x88\x1d\x8fA,\x1b\xb5\xc0\x86|S\xf1\xd1Q\xb2\x82"KU\xc2&amp;|\xefCA\xa7\xea\xb1\xdeG\xa9\x9a\xf6\xd4\xfb\xc6\xbf`:N\x06\xec9\xbe\xa1\xe8\xf1n%c\x8a\xdb=\xf5\xac\xb2\xf5)\xa8Ke\x05\x16\t\xcc\xdd\x14\xb6(:=\xdb8\x022\\qGy\xfe\xd8\xd1-\x10\x98\x95\x9bx\xf8\xddv^\xc2\x9e]q\xdf\xa3h\xb1\xf1\xd1\xa0\xe1\x9avq\xd5\xc9\xbc\x11\t%\xd1\x07W\xa7N\x86#\xc4\x0bc`\xcb\x06\x80\xea\xd2N\xcdD9\xefa|\xae\xda\x82\x11\x91\x04\xd9\x15f\x1f7}cB\xa7\xf3\xec\xbd\x8d\xb7\xa9\xf2\xa3M\xc8\x07fT\xd4*%\x91H\x11\x89\x8c\xd33m\xd9\x9e\x8e\x96\xda\xda\xdb\xcbGV\xd3\x88\xe4t\x84h\xab\xb1R\xb1fuk\xdd\x12\xf8\x10\x91\x92\x91DyI\xec\xa5u=gS\xde\x03\xa4\x00\xadv,U\xb8\x85\x04\xfa\x84\xd1\x1c)HO(\n$\x84\x01\xdd\x00"\xcc\x8c\xe9\xc6*n\xb9c\xd2&amp;\x18r;\x83\xa6\xb6\xc90w3\n\xaa\r\xea\xf3\xdaB\x80\xe7o&lt;\xa0\xc1\xb5\x0c\xf6\xa1\x01\x1c\xc2YJ$\xc5\x8a\x18\x0e\x8c\xb3\xa0\xac\xf6^\x0eG \xb6\na\xa1\x81\'\xb0\xc9\xd80R&lt;\xee\xff\x00\xa0\xfd\x9f\\|\x9fR^\x1c\xac4\xcf\xdb\x16A\xa8}O\x83l\x9f\xa6\xdb7\x97\x9es\xbc\xae\xd1q\xad\x1d\xc7\xbc\x11V\xba\x9eN\xaf\xb6a\xda\xabt]2\xae\xc4)\xd5\xc8\xb1(g\xd6\xe2\x18I\xeb\x92\x16\xd7\x10\xbem\xa0\xe3\xafQ\xe0e^\xee\xdd\x14-\x1b\x1b\xd6\xfaT\x8a\x85u\xc3\x9c\xe3\xe0\x9f\x18\xd8V\x0c\x04Pm\x05\xa3\x9foJ\xc6LI\x9fhQ\xd1J\xa5#\xeepa\x86W\xbe\x8e\xcf^\x99\xa4\x87V\xaad\xca\x10j\xae\xe1T\x94\xe2|x.^r:^u\xf4\xadK\x83\x92\x1ez&lt;\xe3*\x05F\x1f\x1a\x101\xb2\x11\xa4V/\xf4+\xd90\x91R\xd1D\'\xbc\xec\x9d\xef=G}\xcf\x00\xdd`}\xb5\x95T3\x84H\xbd\x9b\xcet\xe1jn\x87\x10\xd6\x97X\xac\xc2m:*\xeb\xf5\xba\x8b\x80\x8c\xafZ\x1a\xd9_\x99\xe6\xd2Q\xb6B\xe4\xd4J\x0c\xa5c\xd8\xe2q\x91\xdc\xe9\x9e\xb3\xce#\xaf\x02\xdc\xb9(\xa2x\r\x1b\x1aJ\x15\x0f,\x04\xa7:\xc1\x0e\xa2\x14\t0\xe5\xdau\x8bL0jb\x82\x8f\x96m(\xcdg1\x94\xc6\xecT)\x98\xd6I\xca&amp;\xbd\xbe_@\xb5@kuu\x8b\x86\x93\xbc\xe4u\x1cA\x18\x9f^+\xe7\xcd\xb3\x83\xa6\x9bcE{=\xb6lGt\xa0\xe2\xac\xb2\xb8V\xf0\x90\xee\x92\x8c\xeb\x8c\x16\x81\xb8+\xeb\xc6\x97!\x0f-\x85\x8d#\x03\'O&amp;\xd0\xd3X\xe9\x8b\xe9\x03\xbby\xb8Ty\xec\xf4;\xc8\x085\xb9\x06\x13o\xb1#\x96\x81\xbc\xe72\xd2r\xa538\x8am\xa6\xb6\x18\xecA\xcb&gt;\x15j.\xb2\xc9X\x8cW\xd0\x08W\xf3K\x7fI\xb3/\xe7\xcb\x9e\xb6cQ\xe9${\xc9\xd8\xfe\xa4n\xa9\x1dU\xe0\x0e\x8e\x14\x0cd\x8cy\x15\xdb\xb5.\xe8\xc8x\xa9H\xd2\x11\xdez\x12\xbc\x9e\xd1\xdf{\xa1\x14\xc7{\xb5\r\x0f`\x85\xdb*\xdc%\xbd\x1d\xbc\xd1\xd6\x9a\xec5\xabLl\\\xe28\x11\xf1\x89\xbc\x1d\xa2\x16lk\x84\x1c\xa6Z\xbf\x10uA\x15\xc8\xf7G\xf69ZS=\x94\xf0\xdd\x1cf\xb29\xa8\r\xf4\xb0\x8e!\xf1\xd0\xd9\x11\x92R\x8502\x87\x1c\xcc\x80\x05\xcb\xb2C7\x08m\xf4\xcb\x1d%\x07\x03\x91\xee\xf30C\xda1\x92\x83\x90V\xa1Q\xa7\t\xaea\x902\xe2\xa4}\xd8\xfa\x9bO\xd1\xff\x002\xebX\xd6\x85Q\xd4r\xee-\xf6\xf5\xd7\xaeXV\x18e\xa6\xb7\xa1\xb1\xb7\x9ajYX\xe4\xf1hDt\x839\xa7{\x1db\xe5\xd4$&gt;8\xdb\xa4\xdc*\xda\xab\xa95\xe9\xde\x8c\xccx\'\x98\xb8\xe3BddT\x9c\x04\x06\xcfB\x97J\xc0\xdb\xdd\xe6\xe8\x15}\x1a]\x8e&gt;:P)\xe6\xdd\x01\x10\x85\xc4\x8e\x16OU\xbaU\x9f\x95t\xa7d\x83\x1aX\x009p\xb7&lt;Z\x14\x9b\xaai\xc5^\x8c\x93\x8b\x14\x08\x07\xc7\x99\xc0\\\xea\x16\xca\xa8\xa8\xd9\x18\xd5\t\xf7\xbb3\xce\xf7\x81\xd5!L\x85{\xbc\xda\x9a\xa5]\xa3\xb6\x8aT\x95\xb7\xbb\xe7\x9f\xbd&lt;e\xa8\xb9\xd5{\r\xb8\x81\xc5\x80\xe6D\xe0&gt;\xc3\xca\x01s\x9b\xe6k\xe8\xf2\xb2\xd2\xdb\xeb\xc4F\xd6\xd2}R\x1b\x18\xcf\xaa:]\x84x\xe9P\x0f\xbe\xe4\xa8\xc2\x10\xdaF8\x85\xb6\x81\xddT\xb2\xdb}\xadc\x9e_P\xcf\x9cpa5&amp;\xd4\xb1\xdcqVz\xd5^\x95\xd3\x1b\xd5!\xc8\xbd\xf9o\xd9\x04\xdc\x1f.\xf2\xcd1+\x1b\x8b\xa7\xe5\x13\xc3\xfar\xa9y\xaa\xf0m1\xaa\xe2\xba\x9etuB\xfa\x165\x9c&amp;\xff\x00B\xd1\xeb\x8f\xe3\x9a\xe6c\xecpY"-\x11"\xe1\xa5\x964\xd0\xb1\xa4C\xda\xce\xd0\xcao\x94\xbbWL\x98ds\xe4\x17\x05)\x05@\xb1R\x00\xa9&lt;\xc8)\xddfd\xfa\xf4\xff\x00/Cl\xbe\xd6\x1a\x0e\xdb\xc8\xa1E\x80\x84O\x93RP\xad\xea\xa89E\x95\x15\xe6\x07b\x85\t\x08\xf7\x15\xe2\xbb\xdft}q\xb5\x02\xa2\xa4\xe2E\x0b\x1ep\x15\x9ce\x96\xbdbdTl\x8cl\xc2;\xc5%\xc5{\xc0\xbe\xf1c\xae\xaf\xab\xda\x85s\x9e\xb4\x96\x9eE\r\x06\xeb\x0cyB:.\x8e\xa0\xe8R\x81P\x14\xc3b\xec\xa1*\xe5\x81\xe8\xf17\xe6\x1d\xb9e\x92\x10\x98\xe8y\xa0o\xbcD\xd0K24, \x036\x90Q\x92\xd1R\xa5\x12\xebll\xc0%m6\x83Dy\xab\xaau\xe8\xc2\xba\xd2\x12\xb0\\\xce\x9e\xf1\x11\xba)\xd9\xb8\x99\xcd0\xbdvu\xefG\xc3\xadR\xb4\n\\o\x97\xbd\xc6&lt;\xafs\xb3pR\xd5?]\x87E\xd6\xb8u\xcd\xef\xd9\x9d\xaa4\xda\x85\xa9\xcf\xf2\xdb\xd5\x99\xe5\x13\x98\xcf\x95W\xb7\xb3\xb1W\x9e\x8b"\x14r\xb2v\x90\xd4V\x1a\xb2\xc3\xe3#&gt;\x98\x8f\xa8tF\xc6CL\xdc\x1b\x04|-\r\xb5\xe7T\x03+\x02f\xca\xc3=F*+A\x128\xfem\x80\xf4\xccFt\xda]D\xd0\xc9u-\xb7\xc5%\xb4\xf1|r\xdf\x97\xe4s\xca\xf1~\xef\x94\t\xefx\x1c\x89\x97\x87&amp;\x1a&lt;\xf8\xeb\x86&amp;\xe1\xe5\x99\x1d\x1d#\x1f\x10\xdfU\xc4\xbb\xdf(&lt;\xbf(p\xc3\x0e\x8e\x9aGP\xd3G\xb2\x0bT\xa4E\x04f\x18\x80\x9a\xb1\xff\x00y\x8aL\xcd\xc1\x04\xc3\x00Lu\xcdu\x84\xf7\xd2\xe2G\x10\xda\x08\xf3|\x07\xda`\x91\x8c,\xc0\xd2\x0b\xde\xf4u\xd9\xe4\xd7\xa2\xeeq\x0f4C\xce\x00\xb1;z\x8b\xd9\xbdo\x12\x99\x98\xed8\xa4\xeeI"\x93\xc3\xe8\xf9\xa2\x03N%|^W-\x11 \x0e\xb3b\xb5\xd5\xcf\xdb\x9f\\",\xdfO\xe6\xd8\xab\xda+\x1aU\x16\x97\xa0\xe7\xfe\x17\xd2\xaaJ\x06w=\xae\xff\x00P\xfc\x8b\xf5_;\xa8IHE\xe3\xbc\x9c\xd4\x1c\xa6.\xc3!T\x97D\xa4\t\x15v\x05\xaae\xd3\xed\xd8MiX\x04XksX\xeaT\x15\x8d\x19\xdc.\x01\xf4\xc6Oe\x92c&gt;\xd0\xfa0`\'8\xddzH\'\xd4V\x1fK\xbd\x1193NaV\x98\xe5\x06w+\xb4&lt;\x8aF\x1bZ\x1b%\xac,v\xddK\xb46\xe2C\x9e\xf7\t\xf7\x17\xe1\'\xca\xf0\xb9\xc5\xf0\xd1*\xf2\x98\xdc,\xcc#\x88\xa8\xd9\x18\xca\x9e\xc9\xc6\xca"8\t8\xf2\x1b\xf2\xfd\'\x14\xb5\x82\x16\xa5\xa3=]R\xcb\xe8\xb2D\x1b\xc8u\xe6P\xd2\x84O\x81\xc4\x11\xdb"\x82\x9a\x08\x98n\xc8\x94\xc1\xeb\xf6:\xae\xaa\xa7\xc55\xe8q\xb8\x01\xcdH\xd2\xc5v[\xb12\xa8\x18\x920\rB\xb3v&amp;B\xcfWmQ\x13P\xa6\x8c\xce4\xf4\xc4!U\x9f\xd5\x95\xef\x9bl~\x9f\x97\xf4VW\x14U\xc5y\xd6\xc4\xe0\xf58\xca\xa5\x1a\x1d\'\xb4\xab\xd1\xb2\xf1t\xac\x0bB\xb4\x8d+K\xf9\xf2\xe5\xdf\xe2_\xabL\xd5\xb4\xc2\x0b9\x95\x8e\xf1~\x90yH\xf2\xa7Y\x9f\xb8&gt;!\xfbC\x98\x02\xa1\xa1gxk$`\x8e\x04\x911\xee\xcb\x1e;\xce\xb6)\xe4X\xd38\xea\xc5\xbb)lS\xa3s\xd6\xf2\x9a\xd5\xa3\rG\x8f\x91J3\x0bt\xdd\x1f|\xeeQD\x81Y\xb9\x0be\x05\xac\xf5\x99\xca\xbfVV7\xc2\xb4&amp;\xa3\xa1\xadY\xd8\x90\xf6\x960\xdaDw\x07\xe4\xd5\x94)\x15\xa79\xde\x8b\x9eW\x89O\xbb\xe0\xe7\x17\xd0o\xceyR\x15\xe56,\x1c\xd4\x1dLlT\xb45Ar!\x1e\x01\xc7\xcaG\xcc\xb5\xd7T\x84\xbb\xd5\x07\x94\xa5\xa3\xe5}?\x0c\xd9\xbd$\x81\x89e\x08\xe3o\xd1\xe7\x9ee\x04,\x0e\xd0C5w4,bq\xc8LF\xcbW\xfab\x9a\x87\x87\xec\xe5w\x9dnF\x86\x90\x15\r\x96\x0fP\xfc%\x8d\x80\xac&gt;\xf8\x99\\\xe2\xa0\xa5\x9c\xb1\x05=\x03-\xc0\xc8\x91\x1ad\xd2\xdd"\xce\x1c]\x93\xc9IS.J\x0cn\x92\xa6^n\x1a#$\xc2\xb2A\xc6\x18Ac\x8b\t\x13(\xd4d\xc9M\x88Tt[3\x81u\xc1\xbfO|\xd1\xbc\xe6\xf7\\\xb7L\xc8x\xf5\x9bx)\x1d\x07\xda(H\xa4H\xa5\xd2\xa5\x0f\\W9W\xd7\xaa2`b\x8bQu\xdb;,skb\x05\xc6sg\xd2\xed\xa1\\\x84\xfdv\xef\xbcV\x0c\xaaZ/&lt;\xf5J\xa9uejq\xe9d\xe5&amp;\xa3L\xce\xdenR\x07;-a9\xcf\xab\xbd\xe7\xb9\xf6OW\xca\x94y^\x17=\xdf\x0f\xbe\xef\x81&gt;\xea\x93B\x94\xc9@\xc0L@\xd2j\x12n\n\xf3\x970wX\xc8\x87\x8f\x03.)\xd4\x90\xe2\x96\x1e\xea\xba\x8f\x88~\x84\xf9\xc3\xe8oRy\x17$4\x91\xea4`d\xa2\x1f\x08\xf6$\xd3eF\x87w\xa6tE\xc2\xc7\x1f#\x82\x8dS\xe8\xf4Vx\x14\xa4F\x9c\xe4\'\xbe\x84\xc3\xcc\xb4\x97E\x93\x116e`H\x19\xf1\x93h\n\xb2g\xe33DDH6\x1cKO*Q\xa2,\x1b4\xb25C\x1e\xfbw\x9b\xe9\x15\xc6\x16\x8fv\x01\xb9\xce\xd8\x80\xbc\x0et\xa0\xfc\xe4\xb2Mab\xe0\x85D+$\xc0\xa7\x1c\xbbi\xa6\x1e\xb3\xfb\xc7$\xbcf\xdc["\xc5\x9c_\xb5r^q\xec\xe9r\xa4\x8f\x0eX\xfa\xe5\xa3\n\x96\xaf=\x1c\x81\xed\x19\x04\xde\xcfI\x1c\x8a?&amp;\xb3\x12\xf9\xf7q\xbd=\x14\x8bbU\x0b#t\x8e\xa9\x9e\xf4\xbd\x1fl+\xed\xb0\xd7FV\xebF}e*\xeb\x1d\\\xb8\xe7a\xdac\x98\xce\xe4\x99\xf3\xf0\xe3\x94\xe0\xdc\x9a\x91\xe6\x97\x1a/\xdcS\x9f{\xbe\x1f;\xee\x87\xbc\xa5&amp;\xd0d\xc6:\x8b\x8c|z\x9f@O\xd7L\xec+\xe7\x9b\xe2;\xd4\xfa\xf7\x9d\x99B\x96\xa1%jP\xfe\x05\xdf0M\xc3\xd4\x99\xb1\xac\xe1\xc9\x06\xe1\xed\xa04HG\xb1\xf7jT\xed\rb3\r\x85f\xb5X\xa6\xacV;:\xa2\xbe\x8b%\xc5IE\xf1\xe2O\x13\xdc\xa5\xa6\xddeJJ\x0b\xca\xd5\x19&lt;\x0071\\&amp;I\xb6\x9c\xed\xaa\xf92\xf5,\xdc\xb3u\'s\xd2\xc2&lt;q\x96\x937-\xa9u\xf9\xb9G6|\x84m\x12\xe9\x11\xd43\xa4% Av\t&gt;\x80\xeaf\xd6`\xe5\xc4:\xbey\xe9\xea\xfc\xc4&gt;u2D\x11\x17\x13\x07\x0f!\xa6\x7fNh\x7f:\xfd%\xc1\xb6;+\xd4\xa6m\x9d\xa7\xc6\x885\'6\x998\xe5+\x98&amp;.zT$F\x95\x0fUO\xb5\xd5\xe73\xa9B\'\xc3\xe2\xd2\xbd\x0bk\x8fN:\n^\x9b\xa2\xbc5\x9c\xec]8\xc0e:\xac\xa6\xd3\x8c^+\xe3\xeb:J\xe3\xee\x12\x18mk\x91vT\xa1\x12\xd8b\x7f\x98TK\x8ac\x97\xa1\xe5#\xa0\xb56\xb0Z\xb8\xe8q\x1d\x00i\x81v-\xd2R\xaf4\x9a\xd5\x9e\xb2\xa2\xd2\xd9#Uq+B\t(S\xa74\xf5\xd5\t\xb5u\xc1\xfe\x7f\xe9\xb9\xb1\xbe\xc4\xfd)X\xc4\xa1\xb36\xba\x8d\x0f\xb4\x15\x14bZ\x0f\x85\xfa\x90\xcas\xcck\x8e\xb4\x16\x8dk\xe7}\x1b\xdd\xcc\x9a\xa4t\x8f\x06/\xf5\xa7\x14\xb4\xdb\x8d\xa4\xdbO\xb4&gt;\xc8E:6\x07\xb0D!\xb9\x88A\x92\xb4V\xa6\xa1F1+"Nk\xe6\\\xfd\xaf\x9b?\x19\x84\xd6&amp;a3\xcd+7\xe7\xefm\x8b]G&gt;\xb4E\xce\xb9\x9dC_\x15H\xbc\xf6L\xd1\xdd\xcb\xb7\xcc\xa5V5Lo\x93\xae\xac\x8e\xb1\xc5\xeaE\x0e\x1c\x9eV|\x94B\xb5V \x9a^\x93\xa0}k\xf1W\xd7|\xd5*\x04\xfay\xae\x1az\xbd \x04\x83a:\x1dBB\xc4\xf4\xdc1\xe5\xf2hV\xc8\xcf\xdb\x8c3\xe3\xef\xa7\xa1\xcc\x9f&amp;\x7f-\x814 )\xd9*q\xc2R\xcf\xf4\xca]_\xa6&gt;\x81\x19\xd1^\x07\xe4\xda\\\xfe\xa6\x13d\xa4\xcct\xadvg\x1d\x99\x87\xab\x95\x95/=4\xf4R&amp;b\xa7\x9bY\x99]\x7f\xd2p\x9c\xba\x18\xa0G\x87044}\x13Q1\xe9\x1b\x9c\xe7n\xbc\x95y\t\xad\xd9+j-\xa3\x121\\K\x89\x1fd\xa2\x8c2\x94u%\x90\x1fI\xe2\x7f\x9f\x1c\xf7}\x84\x8e/\x8c\xe7;\xc0\xe7\xbc\x91%+l\\J\xd3B\x10\xe3H^\xb3\x94\xed\xde\xd4c\xe5N\xd4\xf9q9\xc6]\x88BU\xc4\x90\xdb\xa9\x1b)q#t\xc8\xc2\x85\x1c\xdc\xfa\x14\xd4\xe4\'\xeb3\xa3W\x0c\xc7X\xd3\x97q\xf9\xf4\xaa\xd7w\x9d\xbeg\xd0\xec\xadt\xca\xac\x1c\xbe\x98Y\xdc\x86\x8dl\x83\xe4\x84S\x9f\xc5\xfd\x13_\xc9\xcd\xd7\xb4x]\xf9\xb0\xf8\xff\x00\xa7\xb0&gt;/B\xb3\x12uS\x87\xd8\x08\xd0g3\xa3e\x98WFMO\xb6\xcbGn\x7f=j\x89}K%\n\xf7\x9d\xbd\x84x\xe2\xe1UJ\xb9a\x16k\xc5gs.\xad\xe4T\x8c\x9b\xb1\x08\xdb\xb2P.\x8e\x03\x95\t!\xe2\xf9\xad\x98\xc9\xc2S\xae\x177\x1eNgQ\xd3\xf3\xce\x87Q\xfa\x1b\xe6\t^\x8c\xb77l-)\xa9g\xff\x00Bc{\xc0\xe4\xd9\xa7\xa8\xa8\xd9e\xa4b\x83\x9a\x14,\xea\x7f\xa3&lt;\xa9U\xbb\t\x19^I\xeb-g\x9a\xb9\xe7\xbd\x16\xd2\x97\xd6\xfb\xdft|\xf2\xf8\rV\xecp\x8el\x83\x90\xc9IJ\xf84\xa9*&amp;VJ\xbf,L\x87\xbc\xea?:{\xd4\xfb\x19\xaf\x89\xe8{\x9e\xf3\x9f\'\xa9\x04\'\xbc\x0e\xa7\xdc\xa3\xc8Z\x10\x1e\x81\x0b\xa8\xfbS\x8e\x01?X\xe0\xca\xc8H\xefV^OR\x97\xb8\xb4\x8d\xb6\x9fl\x1aJ\x99*Q\xe8yg\x9f[\x90f\xe73#I\xa4\xe4\xec-S=\x96\xb6\x01\xc2\x91&amp;\xde~v\xad\xf9\xc7\xd8\xf2\x9d\x03l\xd1\xa4\xe1\xff\x00@t\xf0\xd2\xf4\xecsPxSms\'tr\xc6\xe0\x9a\xfe\x01\xe7{\x11\xf5U\x8d\xe3\xfb\xb2\xd2\xf5\xa35\x89\xd1B\x91\xd2DzRr\xd4\x06\xadN\xd3\xa6~\x91\xaf\x82w\x1d\xda\xa4\xe3\xbd\x15.\xcb$\xb3\x19\x8b\xfa\x1a?I\xcb\xe5Y\xa8\xd9z??4wFk.\xe1W\xb3\xa0\x8f\xf3w\x91\x1ch\xd6\xdd\x8c\x901\xa8\x1aU\xfe\x85\xa2\xcf\xb3}^\xaf\xd4\xb4\xaf\xa0\xbf3&gt;\xb53\xfa+\xe7\xed\xf46\xb2\x9b\xc5\x12.\xcd&lt;\xda\xc1\x9aE\x95q\x93&lt;\xfap\xc5\xd63\xda\xd1\x88Q\x0e\xf3}j\xe6\xa7\x9e\xdd\xba\xfc\xcb\x97\xab6\x8c\xc4y\xcf!\xbe\xb8\x81\xf7\x9d\xf2\x04\x8d&lt;vK6\xbe;O\x14\x90\xf2\x17\xc28X~\x0b)\x95\xc9\x90\xfc\xf8B\xb9\xeb\xe3\xce\xb7\xd6w\xc9\xf0\x92\x85\xf8\x13\xce\xf0&lt;\x85 i\x97\x86\x94\xdamuv"z2X\xee\xb9\x8cL\xbc\x11\x1afCn4\xc5y\n\x1az\xa7X\xcaK\xe8\xe2\x93$2\x99\x02b$\xb5\xc3o\xaav\xc9\xf4_\'\xf3\x15\xde\xf1\xa9\xf0\xf7\xfc\xa3\t\xf6\x17\xcf|]\xf5.\xec\xcd\x13\x8e\xbb\xb8\xcd\x13\xf3\xf1\x7fA\xe7\xe8\xa2\x9a\x83\xb3\xef\x1d\xba\x94&gt;=\x16\xca*\x07\xe1\xeak\xdc\xef6\xcfJF\x99\xd1\x12\xa7\xd7\xa4\xf6\xce\xc5\x0c#\x15/J\x84m+_\xd4\xff\x00\x16\xfd\x8d\xcbw3\xe3\xd5\x95\x1e@\x0bJ} G\n\xd9\xca!4\xc8\nv`\xac\x1d\xdd\xda\x94\x80\n\x10\x1e-\xa6\x8c\xac\xf7\'h\x87\x08\xb0\x02\x0b@)\xac\x9b&gt;\xde\xbe)\xea\x9c\xd2\xddS\xf6\xeb\xef]\xa7\xf3w\xec\x0c\xd6\xdb\x16a\ra7\xab\xaew\xa4ON\xd7\xa3\x86\xef\xce\xd4\xe8o?\xd0\xd8\xe2\xf2\x92q\xde_k\xc2\x9c\xe9\xe5\xd7u\x9f\x94\xf7\xf9\xc6\xeb\xd49\x93\xf7\x1d\xf1My~N%M\x99a\x1c\xef\x95\xa1\x0b@s\xbd\xf2\x84%~o\x86\x83\xc0\xf8y\t\xf7\xb1\xce\x957\xe0W\x93\xe0\xf7\x14\x80\xf7S\xc0\xeay\xe6\x9b\x92\x01\x8dc\xa5\xb6Uf\xd0\xb2a\x03\xc6\xc2\xcb\xdc\x96\xdfQS\xd7Yt\x17\xef)\x89!\x87\x1a[O.\x94s\xe4"K\xbe\xa7\x82\xef\x7fK\xf1/S\xa1\xf1\xee\x1fJPQ\x95\xe4{\xbfC_\xf3\xcb\xc7\xd5~{\x9f\xe7\x7f@\x0b\xcb\xe9\xd8)oe\xe4P\xc5\xb9P|?\xae\xad\xb4\xe9\xde\x7f\xa2\x1c4\xbc\'6\xc9\xf7\xbb\x1a8@\xa5i\x12\xc0\t;\xb470t\xc7O8F?\xed\x95kl\xcf\xed\xbc\xbb}\x0f`\xc6\xa79\xefJ\x8a\xa5\xb6\xd5\xa8!\xa4\xdc;2\xa9\x98\xb4\x99\xe0\xe6\xa6\x89\xa6\xae\x15\xae\x0f\xb2YiG&lt;\n\x87\x97\xebjK\xc9\x9b\x97\xa7\xc1A\xcc^\x14\x1f\x87\xef4o_\x89KS\x9d&lt;\xc2\xe8\x14d\xce\xbfs\xfd\x03\xf9\xc3\xbcb}S\xc1_\x92\x91\xf3\x17\xda\x98\xc8|}[\\\xa6;\xdb4\xab:&lt;O\xa4b:T&gt;&gt;\x9an\xfb\x94\xd9;\xbcm\x11\xd6=\xdf\xe5\x18\xe8\x8f\xb1|_\x87_\x92\x8b\x9b\xb6\x8f;\xe9\xb6\x10\xf2A\xb4\xb8\x95\x08\xf2\xb8R=\xde\xb7\xf0\x9fS\xefc\x95\x1e\xf2\x01\xdf6\xa0R|\x90\xef=\xc0\xef8\x916\xdb2\x1bd\xc0\x85\xbfQ\x14C\x91\xc36j\x95b\x1c\xea|\xe6\xb0\x857\xc2\x08twhZ\xf9\xc9\xa7\xd4#\xd7\x1dk\xa8\xa4F\xcb\x8b\xc1\xe9\xc7a\xa8\xde\xb9\x97E\x11\xfbE\xa2&amp;\xf8|\x1b\x9fC\xf29\x1b\xba\x95\xff\x00\xc7\xf7&gt;s\xbe\xce\xdd\xef\x0f\x9e\xe17\xba\x16=\xd9\x8dl5y\xbe\xca\x87\x97\x07\x9bx\xa7&amp;V\x9dy\xc3d7\x87&amp;\x13%\xd5\x83\xc4\x8e\xf6\xb9:\xeb\x0fQ\xe9\xa8\xc6\xf1\xbb\x94\xbc\x15\xbf\x9bgg\xdf\xb5\x84}\xbd\x11Q\x17*\xedg\xcd\x943\xf2)\x81:\xe1\xd0\x92i\x98o\x9d\xe9\xf5Q%|\xff\x00\xd6\x18\xa6\xfd\x0c\x95\x8a\xcd\xae\xe0\xbbh=\x9c\x7f$5\xf4\x16+\xf4?1\x13\xd3y\xd3\xce\tJL\xbd\x1f\xeco\xce\xb6s\x7f\xad\x8d\xfeqn\x10j_-}O!\xcb\xd7\x92\xb0\x90&lt;O\xa8\x94\xe3\x05\xf3\xed\x1f\xd7}\\\x9a\x1c\xa6c\xa6\xfa\xbe\x0b\xce\x88\xf6\xfc\xa7(2\x02\xbfc\xad\xd8\xdb_\x91\xe2\xd2\x97\x13-\tw\xc41\xc7\x926z\xbe:\xf87\x9c\xe7\xb1\xcb\xd6\x9dd\x1d\xea:\nO\xb8\x1e\xef8\x1dJ\x92\xd7\r\x85o\\\xa5\x188\x1a\x82\xbc1`\x07\x8d\x10s$\x06F\xa3}WIZ\xda\x1cD\x01\x1f\xe8\xb3\n\r\xca\x8b\x11pRzC\x11\xd3\xb1Aj^\x1e\x8er\xe5\xda\x89SS\xc5B\xcahZ\xd3\x13\xddr\xbe\x93\x99\xb7\x18\xeb\xd8\t\xedF\xe0\x92\xcc\xaf7K&gt;\x90\x1f\x97p\x8b\x0e,\x1e\x9d\x86\x95\xed\xc8\xc9VK\xea\xc3\xabm\x0eItw\xd0Mv~_\x1bV\x8f\x97\xb7\xcf\xb6\xf5\xc8K\xa2!%m\xd3\xc4\xd3d\xedO\xc9_\x92\x97"4\x19\xf1\xbe3\xc3M\x0e\xa7J\xd6\xfc\x7f|S\xac\x91\xbc\xbd\x91\xee\xa2O&gt;\xb0\x93\xd8t(V\x8b\xd2#k\x9a\x14F\xfc_:\xa2\xf1V\xfao\x97\x05rO\xeb\xcf\x14\xec\xc9T\xe1\xce\x98v\x88I#\xfaM\xf0za^w\xadv&amp;\x8b`\xf9\xff\x00\xa0\x92\xebk\xc6\xda\xd6\xf1M\x97\xbf\xc61\xc1\x9c\xeb\xf3\x8bp\x7f\x04m\x82\xb5`\x07\xba\xcf^\x8fq\x1c\x96\xef[Q\x1d\xe7:?s\xbcu\xf0\x1fy\xcfc\x95M\xab\xc0\x95\xb7\xd0R{\xc6y\\\xf4\x8a\xf2\x1cq\x00\xd3\xca\xd1M9\t;Y\xc7\x17\xe1t\x99!\tC~\x91\x85\x93\x02{\xd1\x98\xa8&gt;\xbd\x0b\xd3\t:\xc59\xd7nE\x7f\xcc\x88\xc6\xd8\xf2\x9aZ\xa4\x91\x8d\x8eL\x8142\xb1\xe3A\xf0\x92\xc2nI\xc0\xb8\x89\xf1\x16\x96\x81\x9d\x1a\xdb\xc5\xb41\x06\xab\x83\xa6 \x1b\x10Z\xa8\x190\xe3\xfd\x1eY2#5_S\xcf\xcc\x13\xa9k;\xf3|\xa6E\xfaC\r\xe8:\x1dB\xf5\xe7\xfa\x16J\x9d\xb4\x8e}\xb1\xfb\x1e\xa3\x081m\xf9\xc5b_\xd6\xd6/\x8d5\xdes\xe8\x14P\xa5r0\x88\x0f\xa8\xaa3\xa5R\x05\x16Y\xaa~\xb7\x97\xd4*\xb7\x9a\x08;\x1f/\xa1\x8e\x13~\xcfx\xfd\x15\xc2$\x9cz\xcfL`7\x95\x0e\xab|\xa0}\x1f\xca\x96X\xaeur\x1a\xf0\xeeXgE[\x93V+\xf4\x94\xe2:!\xe1mI\xe1\xf4d\xa4\xe8\xce\xf8~\xb4\xd6\xf7\xf3\xe9\xbbr\xfd\n\xbc\xea\xf9\xbf\x11\xcc\x97]d}\xd7\xe7\x1f\xa2\xd3uL\xaa\x1b\xbeGK_[\xe8\x9c\xebJ%\xcf!C\xf8\x13\xde\xe7\xb1\x87z\x8e\x82\x15\xcf\x07}\xee\xb3\x9e\xf7$W\x10\xdd\xe4\xe8\x93Q:\xcf\x04\x93@\x8f\x0e:^\xe4#\xb8\x03k8EI5\x08p\xccL\xca\rr\xa7[\x8a\xb4T#2\xd2Dv\xceXPI\xb0\xd5\xb2\xb9\xefD\x8e\xdc\x90@y\x04\x1b\x0e\xa0\xb43\x194\xd4\x7f%\x1e\xb9\x15\xb3\xcd\x10\xb3\x94\xb1xw\xde{\x8ci^_R\xab\xda\x00\xae\xb1?KG\xfb\\\x07jT\r\x0b\xe8\xfe~/[\xa4\xce\xf4q\xe6z\x14+\xca\xf3\xfb\x85_\xbf/\xf4\xda\x8c\x95Y\xeeN\x8bS\x94\xfb\x8a\x1f#\xb6\xaek\x93\xb7\x81Y\xe2\xde\xe9\x1b\x08Vw\xf3\xfc\x06uh\xec\xcfO\x92\xa6\x03\xa4}\x84&gt;{\xa5k\xc9\x8c\xe6\xff\x00Z\xb4\xeb\x0f\xd4,,\xab\xa9\xe2\xdby\\&gt;\x97\xcb\xd4\xaf\xab~b\xab\xa35\x18W\xad\xe4\xcb\x15\x14\xbd2\x96X\x06S!\xd1\xd4K\xef\x04\xf8\xa4z#\xf5%\xba/\xa87\xa9W?DE\x98]S\x8b\xa3\x19gi\xab\xe2G\x03\xc1\x00\x8f\xa3&gt;W\xd3\x15l\x1d\x85\x9b\xc5\xab\xc9\xe9J\xf7x\xcf)\x1d!^O\x1a\xf85\nG\xaf\x9fz\x8f\x07R\x9e\x03\xbeO\x81\\\xf7\x89\xe3\xc8+X\x8e\x94\x0c} \xc6\xa5\x19J&gt;6i\x01\x1b,/\x03\xc1\xc9G"l\x81\x0f\xb1\xc4\x84e\x8a\x83\x91\x1cE\x9e\x01*Mpe\xe9&amp;\xd4m \xca\xaa\xbar\xf2\xd0\x0f\x1f\xe1\x03\xe9g\xec\x81zy\x00\xdb\xf1P\x89\xd8\xaa\xcd\xbb\x9d\xaa\xd5\t%\xc5\xbc\x98/\xc9\xf2k\r,\xe8T@\xa4+\xbf\xbd\xe5N\xb7\xa8Q\xbd\xbf\x03C\xcfwo\x9c\xa9\xe8\x15\xbb\xce.\x8eH?\xbf\xfc\xa7\xd4g\xb7a\x0c\xc3kER\xb2T+^\x87\x98\xd7x7\xb4Q\x19\xee:\x9bl\xa7\xb8-\x0f\xe7\xfd\x02\xcd\xa2\xf9[N\xd5~z\xd9n\xbfF~u\xfd\x13\xb7?\xd1\xa8\x81\xce\xf4\xcfeN\x07\\O\xe8\xbf\x95\x1b\x87\xcbmKi\xf9\x19N\xbe\x92\xf9\xabu\xd6t\xcf\xf3\x89\x7fx\xfc\xd9\xb6yA\x01w\xa6$\x08\x01\xca\x93\xd21\x12\x18\xe8/\xd20\x88\xe7\x85$\xfc[\xe0z\xc0q=b\xd3\x80i\xfc;\xda2=\xc7\xe7\xde]l\xb6\xa8\xbb\xaa\xac\xa0\xad:0j\xbb\xe45\xb0\xfa#\xd9\x06\x86\xaao\x8e!.{\x9cK\xe0\xd4\xad&gt;\xc6|\xef&lt;\x1cB\xd2O|\xdb\xa1\xcew\xceH{\xcb\xe9\xcf\xcd\x10\xc1#\xad\x92$\x8dAH\x11/\xc10\x9d\xacHD\xaa\x98"\x1a]\xaeJE\xcak1\xdel\x90x\x86\x88\x13\xae\xb2\xe5\xc9K\x19\xf7\x10\xab\x02\x0f\x1d\xad\x9c\xa9$\xabHp^R`\xab"P\x8f\x14\xf0\xf8X\x035!\x17/U\xe7\xde\xea\x8a]\xb7\x8fc,5\x05k\x99\xda\xaeE\xa0\xfdO\xcc\xc7l\x9f:\xec\xbd\xbc\xf5\xfbe\x03VY\xc3e\xeb#\xca\xf7-\xfb\x04"\xfcOK\xacPf\x13\xe1w\xff\x00\x9d|\xfe\xab\xef3\xebw.\x86H\xb4\xe0\x8dKo\x8d\x81\x8e\x10\x07\xb3\xd7\x19H\xac\x1fq\x9c\xa9\xc1\xf4\xd0\xb2\x0e\x89\xda\x04\xac\xda\xac\x88)\xe6\xd8\xb2\x85\xe0\xb8`=\xa7\xac\xec\x9f\'rgk\xf8\xbf\xf4\x03\xf3\xe3\xa37^\r\xee\x9c\xcdtoR\x91P\x04\xa9+\xacy\x92J\x8c~\x94\x97\xa3&lt;\x12N\x82\xd26\xbc\x89\x1e\xe4\xdbq\x98i\\}/\xba+\xb2&lt;\xcb\x8aEz\xa7\xa8\xa2\x9ect*\xb4\x8dP\x8f\x9f,b\xf9\xa7\x9e\xf7\xab\x97\xb9\xee\x0b\xdc\xf7\x83\xdd\xe7\x9a\xf2\x92KD8\xd3\xbd8\xb0?:\x1eD\x9a\xe0\x8eS\xd1\xc2{\x8d\xa4~em\xcd\xb11\x07$L\x99,9\xac\x08H\xef\x8d\xde\xf5Lq\xd6UPS\xc2&lt;\xd7\xa8\x9a$^wP~o\xd1Q\x8e\x92\xdd\x8a&amp;?\xc6r\x9d\x12M\x8d\x18=aT\xfd\x02Q\x9emb\xfb\xd6\xb97\x9a\x93\xaa\xcf\xe9\r\xea\x14]_\xe8\xbc5I\x93\x11\xec\xf8C\\\xd5\x1b\xcd\xbev\x11\xfd\xf0&gt;\x9a\x81\'\x1bq\xf2\xfb\xa2\x8b\xb3\xc9\xe6\xed\x9b\x07\xcf19V\x9f\x93\xee6\x9em\xbey\xbe\xc0Q\xf3z\xe3\x94\xcb\xe2\x02d\x96\x99\xeb\x1cL\xf4\x15`6\t\x1c\x16\x00{\xf1=SQ\xa0j\xb3\xfdE\n\xcbH\xaf\xb9\xd5Q\x19$\xd3\t\x12\xa7R\xfe\xbb\xe2Pm\x8a\xebjUJ\xa4n\x81\xcc|\x17_\xfb\x9b\xe4^\x9cj\x84\xc7\x11\xd8\x8cX+D\x97EK\x83\x1c\x03\xc0r\x86X\xca2+\xa9\xfd\x13-\x82\xef\\\x1d\x1ds\x8a\xe6\xd5JC\x82\xf2\x93\xe69\xc6\xd4\rBX:\x1f\x17\xfb\xdc\xf5q\xf7=\xc0\xf7y\xe0\xe2\xb9\xc0\xe1\xd1\xd2w&gt;q\x87\xb6\xc4#\x06\x87D\xa0\xe3:\xa9\xb0$\x10\x00\xf2I\xc9#\x17!\xe1E\xac\xe8\xe9\xabz\xc07l\xd90b\xed+\x9d\xe3Ju\xb5$\xe3\x8c\xf5\xa2\xd69,\xa7\x0b+\x11\x9d\xb7\xd3\xe4$\x8c\x93\x90\xed$\x06\x1c,\xbe4l\xe4\xd8h\x98\x8cj&gt;2h&lt;\xa8w\xa4\x9a\xb9\xd4\x157\x07\xf5\x7f\x1f\xaad\xdb&amp;(i\xbff\xbb\x87\xce\xbc\x9d5\xb48\xdf\x91\xeff/\xc9\xc7y\x1d\xb2rq%\xe5\xad\xe2\xd9\x8d\x97*\xe9a\x8b9=\xea\x03\x03\xd82\xac\xf2\x1f\xeal\xa6\x1cm\xa7 ~oH\xb1Vd\xb35\xcc\xe6\xbc\x9c\xc6\xa0l)\xea\x9c\x923\\\xabi\x9c\x93T\xf9\xc6\xa9\xa1\xed\x0e\xb7\x8b\xef\x049r&gt;\xb77i\x87\x14K\xb0\xb0\x9d\xa5\x92\xb4\xb9\x1b1\n\xab\xe1\xf4\xdf\xf3_W\x19\x14\x0e\xbbE8\x1b\xa2%\xc1\x96"\xd4\x0f\x04s#\xa0$w\xbf\x9d\xf5L\xefk\x97\x1e\x91\xe7t\xde\xa3\xeb\xf7\xda!\x135\r)*\xe7\x81Jo\xa3\xf8\xc7\x89\xe7\xab\x8f\xbd\xce\x87\x16\x8f\x07S\xef\x02f\xa0\xa7\xf4\x81x\xf3Z\xe4\xcb\xef\xa8\x05K\xc8\xa4\x80\xceJ\x01q\xd4#\x9dO\x04\xb0\x8b\xe4PS\xf5\xe9\xda\x92\x1fmz\no\xbci}J\xd2%L)\xa7\x17\xe2\xe9\x87\x05n\x84\x9a\x1d\xc8\xf8|\xc9Hd\xb9\x0cIi\x13\xa92\xff\x00]\xd2Y\x8f\x96\x02\x98\xad\x92\x9c\xaa*~\x16`\x9dR\xadKo\xb3\x9br\xa2RTO\xd7\xbf;\xd4\x1b\x85bt%c\xd4\x9am\xe2\x9b\xc1\xd2\xec\xcc\x05\x8b\x97w\xde\xb4\xab=kGJ7\x0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495660-seleccion-argentina-de-la-lista-de-32-scaloni-evalua-a-27-pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jorge Almirón se fue del Elche después de cinco partidos</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>El técnico argentino presentó su renuncia a un mes de haber asumido</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>El entrenador argentino Jorge Almirón dejó de ser el DT del Elche a sólo cinco partidos de haber asumido el cargo, de acuerdo a lo que informó el club español este lunes a través de un comunicado oficial."El Elche CF comunica que Jorge Almirón ha decidido dar un paso al lado como entrenador del primer equipo. El club agradece sinceramente su trabajo durante esta segunda etapa en la que asumió, con gran profesionalidad, la responsabilidad de dirigir al primer equipo en un momento delicado", expresó la entidad.El club propiedad del empresario argentino Christian Bragarnik había contratado por segunda vez a Almirón hace un mes, pero en los cinco partidos en los que el ex DT de Lanús dirigió sólo consiguió dos puntos. Con cuatro unidades en 13 encuentros, el conjunto ilicitano marcha último en las posiciones, a siete puntos Cádiz, Sevilla y Celta, los tres equipos que tiene por encima en la tabla."El secretario técnico de la entidad, Sergio Mantecón, se hace cargo, temporalmente, de la dirección del equipo junto al staff y cuerpo técnico del club, y serán los encargados de dirigirlo mañana frente al Girona FC", preciso el Elche oficialmente.Almirón, que en Argentina tuvo experiencias en Defensa y Justicia, Lanús, Independiente y San Lorenzo, había reemplazado en el cargo a Francisco Rodríguez, que fue destituido en la octava fecha.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x00\x07\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x00\x08\t\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xaaZZ\xcf\xf3\xfdE\xa5\xac\xa8h\xf3\x94\xf6\x967\x05u\xa7\xd3\xce\x82\xad\x1dxn\x15\x16\x97"\x051\xcd\xc4QS^\xd2!GZ\xd2\x90\xe0,\xa9M\x03\xca\xb5\xc6\xa0U\x8d\xd4.\x15\x15\xe6g\xb6|\x7fj7\xde\x18\xbc\x8d\x97n=\x07G\x1a\x0e\xe3]\x04\xb4\xacB\xc0\xf8"\x90e\x84 \xd4\t\x95 \x88\x16\x03A\x98&amp;\xfa\x14Bp`\xd4\t\x81\x8d\x10\x924z\xc0\xbd^\xd5X!\x95\xe5Z\xbeWW\x98n\xd5\xf3;\xac\x8c\x8d\x93\x8f\xd1\xdd \x9c\x1c\x8a#\xc0\x02&lt;\xce19\n\n\\\x0b\x99\xaf!\xd8\xb3\xe0|h\xf0\x14\x90\xc6p\xa5\x06\'\x92\x95\xe8\xa1\t\xe7\x11\x92UaQ7\t\xd3\xc7\x91\x99f\xff\x00\x9d\xf4\xe5\x00\x9c\xbd@\x90\xc2R\x89\x1c\x83\xa5\xa1\x1fqDq%\x00\xcf\x12\x9c\xd8K&lt;\t,\x00\xe8\xae\x92\xcaYg\xad\x12\xcf\xc55d\xed\x85tU\x02\xd4\x12\xa6\xa6\x16\xb4\x9ez\xb1e\xa3\xae\xe1%\xc31&lt;\xf0\xc1\x7fV7\xe7=~A\x14\x80\xb8\xa0\xd6\x833\'+\x0f\xa0=JY+\xb8\xf5sN\xa0F=s\xaa&amp;\xeb\xb8Xq\xa9?L\x08u\x00\x08)\xf2\x0f\xc5\x10&lt;\xa39 V\x93y\xa2\xaa\xb1\xaa\xb5\x9e\xb2y[N\xd9\x8dm\xa7R\xca\xceQ\x9c\xbbu\xf8\xb9\x96h\x8e\x95w\xc1 \x93\xb32\x12"\xc1\x10\x82\xbaQF\x122E\xb2\x14U\xeb\x863o!\x06\x85\x05\x8b\xe0}\xc4\x16\x04\xbd\x1e\xe0\x89\xc8Y\x98w\x0c\xaf+\xd4\xf2\xea\xfc\xa2L\xdf\xb2\xb6\xe6O\xe4\xeev\xfa\nC=\x95%f4\x1a\xa4{2\xf6\x9a\xe5JQ\xa49\xb3I\x051\xae\x91\x14\x14Elr\x8c\xa5\xa3~H(\xa4\xb0\xb6dIf\x8e\x10Aft\x8ap\xdaa\xc0\xf2,$\xeb\xc2\xb2k\'\x9f\x83:\xf1\x1b73\xec\xf0\xe7\xba\xbf\xb3\xbb\x9b\xa7\xa3\xf0f\xa4\xd2J\xa5\x9b\x17D!&lt;\xf4\xba)C&lt;\x0b\xe2*t\x8e\xba":\x88\xdaSN\xb6\x16\x06\xe3\x89\x13 X\xa0\xa3\xc0\xb7 R\x9e\xafX \xee\xf9\x93\x1b\xbd+D\xd9\xe24\x1b\x02\xb6\xb7\xe8\xe9\xa8\xdd\xc0\x9d\t\xbe\x84A3Q\xba\x92\xb1\xe768\x96H\xc6\x04\x949\xc6\x99\x8ef6+\xc1\x06\x89\xc8pE\x04\xbf"\x1ce\xc4#^.pkC\xbfg\xf1\xa7\x1a\xad\xd8\xab\xc7\x93\xbam\xb8\xc6\xd8v-\x8c\xe5\t&gt;\xcc\x03\x19\xf4\x13\x85t\xf9\xd0$\xed\xda\xac\x84B|B\xbai\xf4\x82\x04\xf3\xc6\x08\xf4\xe6\n\x10\x0c,\x89\xa2\xaf-(\xe4!\x9bY\x9b\xb2\x9f1&amp;\xed\r\xa0-\xb5B\x19&amp;c\xa0c\xb0\xf3v\x188r\xdf\xd2\x91&lt;Sk7\xdb\xae\x98\xb2\x83\xf4\xa5\x87\xcarq~\x8a\x8a\xa0\xd9\xe0\xdf\x02\x87\x14\xd5&gt;~\xb45\x0cW\x12OZN#\x12\x94\x16\x97L\xcf\xa7ff\x82\xb3&gt;\xfaz.\x83G\xdb3\x96\xb3WJ\x91\xf3VMRg\xe1X\xef\xb4[\xff\x00;\xec6\t6O5\xa6$f\xde\xbdR\xe7\x88z\xebp\x92\xa8\xb8&gt;\\\xef\xac\xc3\t\x19d\xae\xc3X&amp;\xaa\xd1\xb9\xaa\x12\xa8\x02(\xd9\xcf&lt;\xf9\xb5kY\xad\xd1\xda\xce\xd5\xba\xc0W\xd5\x87k0\xc0\xbe&gt;\n\xc1_\xbb\xe6Mt\x8c\xdfO\xd7\xe0\xb6\x1bMn\xcb?PPP\xaeE)\x801\x87\x18\xda\x8b\x81\xb3\xad\x8b\xaa\xa5\xb4\xaf\x8a\xacOi[\x16\\\x96\xd0\xae6\xb1f\xc8\xae:\xe4\x96\xbc\xa6J\xe0\x9e\xac\xaeV\xe4\x9e\xa0\xaeb\xe8\x96\x8e|\xf1w+\x96z\xbd\x1a9\xaa0oY\xcb\xcc\xdf6\x9c;T]\xbdAj\xa2\xf3\xecXS\x86Pr\xebC\x1cs=\x14p\x93\x06\x06\x07\xa6dpt-\x8c\x0b\xf2\'b\x80Q\x19\x84\x0c\x81\x013\x08s4\x12~w\xcci\x12\x83\x96\xe0\xac\xd1\x159X\x9c\xb5\xd7VJ\x92\x1a\xfap\x8f\x9dh\xfe\xb4t? \x9fS\xccg+\x14\xf6vt_\xa3\xab\x08\xc9Y&amp;h\x0e\xa4h\x129\x9fD\xd1O\x9f\x82z@\xe7J\x06\xa6\xf3 Z/Y\xa5\xc0G4\xec\xec$#\xccP8\xd9\xf8\x96]\x06\x83~\xe7\xfd\x8e\xcb3\x19f\xd9\x8e\x99\x15vB\xbd9\xfb\xa9a\xaf\xa0\xdd\xa4\xc2\x12\xa5\xc3\xf6.g\x8c)7\x8a\xcc6DH\x88\xc3j\xe7Y\x19e\x98~\xc5\xd5\xbc\xb0b\xd5\x94t\xcdRoU\x98\xe8\xa5G\xaa\xdb?\xa8m^\x9f\xaf_\xf2\xd4\xf5&lt;\xbbX\xd7\xe2\xf5\xdb\x0c\x14\xec\xfd7\x10\xc5\x18$\xacx\xfcv2\x85&lt;\x84w&gt;+M9\xc1\x08\xa6&amp;\x00\x01\x01\x11\x8c\x98\ts\xb5\xe0z\xaci\x82Yh.N\xc8\xe2\xab\xc3\xb5DF\t\x01\xee\xe9S)n\xcf\xc5_\xab/\x92\x9a:6\x05\xf1\xa3\x96m*\xe2\xaa\x92\xdb\x16\xc4\x8eOoS\x0fYKp[\x0f\\\x9e\xde\xae(\xb9f\xd4\xae2\xb1=\x99\\qr{\n\xb9\x0b\x92\xcdm\\\x99\xc3\x96\xab\xe6\xbb\x17\x9a\xac\xbc\x0eS\xda\xce$\x06.@0i\xdb\x07\x94^D\xd6\xbd\x0b\x89\xe9\xc9-\x98_\x90K5\xc5%\xe2e \x01\x00\xee\x00`\xf4\xb9\xac\x840L\x10"\x82P\x83\x8e\xe7\xe0\x0cA\xe0\x035\x168&gt;\x92d\xfa\x8ea\x8eE\xb3rlvJ\xd2\xfc\xdf\xb9h\xd6L\xa6N\xfb4T\xa8\xdd,\x96`\xac\x99[d\xea\xc9\xda\xb0\xba\xab\x10\x8d\xb5\xac\x02\x84&amp;\xc2$\x1a\x9e\x18\x1e!iF\x03\x9dAT\x92\xa7Q\xe8t\x08\xba\xf2\xe4\x98\xb6U(nk]\xb0\xd74|\x94\xda\xeeI\xb1j\xf2Z\xbc\xdcD\xb5\x9e\x94\x00@d\x88\x98`\x8c\xe1;\xea\xef&gt;l\x8e\xa2)d\xc8\xeb\xa5+\xc7\x91\xd9\x13P\xc6P\xdaH\xa3\x89\xa5\xb6\x14\x86\x1e\x96\xe2\x91\x0c5-\xc4\x85xr[\x8ad0\xf2m\xc9\x90\xc4Q\xd9\xaaFj\x009of\x0e\x17\xb6X\xd9N\r \xb1\xbf8.\x86\x81]\x13\xae\xc8\x11\xa8\xf5\xa5\'\n\xd7O\x90\x84\x19\xa5HF4_\x11\xc5\xa9\x95\x05\x12\x98\n\xc5\xd4i\xc0\xf9X\xc8sLtb\x89h\xf6+\x0bq\x93pd\xd5A\xb8\xa2\x06\x100t\xdc\x17\x06\x8f\x0bJ\x10~\rTB\xbcC#@\xacB/\t\xa9n\xcf\xb4g\xc9@\x1d\x85|\xf6e\x7f\xceq\xc1"\x04\xe3\xc2D\x1c\xe3M $\xd9\x19\xc2P\xc4\xcdtB\xbc6\x8e\x8e\x92\xe6\xfd\x91 W\x97\xa9HD\t\x8f\x14\x1c\x94\x14\x80\x93\x834\x01\xbe4yY*x\x82\x8eh\xf0\\\x13\xc7\xae\xf3Rl\x12\xe3B\xa6C\x89(R\xf2\xa5\n\xf5\x86\xbb\xa3\xe3\xce6lsg\xd7\xe6\xf5I8\xd9\x19\xfa&gt;(\x80\x02j\x143\xd9\n\x83\xab\xfb6\xf9l\xb6\xd7\x83U\xf1V\x12\x1ax\x1c\x06\xe7\x00\xe3\xf0\'\xca\xf0"\x0ey\r\x81\xe0\x83\x00\x900E\x96\\ET\xcd\xf6\x0c\xae\x19qVn\x9b?%q\xd3jZ\xfc{\xed\x8do&lt;\xfa\xd4\x94\xaf\t\n\x8e\x8d\xb1\x11\xd5S\xba\xac\x8a\x02ZA\x95Y\x8a:\x91He(kE#\x91#\xb0\x11C\x1dCf!^,\x86\xdaE\x0f&gt;d\x1bN#}\xe4l\xa3;\xb5,\xe1%@\xc7 \x82\xc2\x91\xc1^H\xe8\x00T@\xea\xa4\xd5\x0f\x9b\xd7#\x94\xac\xed\xe0\n\xdd\xa1\xcdTQm\xb5P4H\xf1\x95\t\xb4i\xf2\xf1"\xfd14\xe5\xca\x08\x9c\x08%E\xbf\x12p\x92e`\x0fp\x8e\xe1\x90W\xbeLb\x82\x1b\xe5\x8f\x0e\n\xe9\xa1\x85\x05\xa2p`\x8b\x1bl\x03^\xe2\xeb\x11\xab\x83\x1b\xec]\\1u\x8b\xab\xe3\x1d\x16\x0e\x802\xbe{\xa0\xc4\xbel!\x8e\xae\x96\x08\xc2\xa9\xaf\x04\xe5\xae\xaf\x0c\xe3K\xcb\'\xee\xe6\xfa\x12_\x1a~\xfb\xda\xb9\xf2\xa5\x14\xf5#f\x07r\xb5\x04\x9as\xe9\xd6\x9fX\x18a\xeeMLU,6\xf3WN=\x1d&lt;\xdb\x11b\xd9\x85\x80\xb5\x97!&lt;\x10\xc6\t\xd5\xab\xce\x9a\x99\xe8\xa3\x04\xa9\xa3_\x04vO\xab\xe4\x90\xc9\x8d\xa0\xa1O#\xaa\xec9\x1e\xbe\xbdE\x8cy\x0b:=\x08Z\xad\xd3x\xdd\x90Y\xbeZJ\xb2\xf3\x99\xd2\xbb\xc9\xd6,6\xf1\xdd\x08u\x98\xcc\x02`/\x1cA1S\x811[\x83\xc24\xc9\x18\xdb)m\xc5\xe9\x02tW\x058\x11\x05\x88\x0b!~L@\xe2\x8bu4\x98\xcb?\xcb\xd0\x8f,\xc9(\xd7\\efge\x11\xadf\x9b\xce\xb8i\x14\x1a\xe9\xc1\xe9\xbd#\xc5\x9e\xc4\xaf3\x845\xb4kY\x1a\x1a\xf2d1\xd46D\x95x\xcbm\xa9\x9a\x86\r\\\xdb3\x93\x8dLY+\x1c\xf9\xa9=\xbcZ!\xdc\xc6P\xdc\xdb\xbb0\xe4w\x14\n\xf0\xf4\xb6\xd4\x15x\xba[*$q\xf4\xf5\xc6\xe42\x92\xea(\x90\xcc\xcb\xa3 G?\xeb\xca\rR\xc6\xdc\x88\xaa\xc3bHP\x06\x98M\x91] \xdcM\xbb\x81\xa1\xe08(\xabR\xa9\xbe\x18\xf2\x12\x96R\x17\x89z\xac\xeb8\x9f\xb0t\xc6Q\xaf+\xb0\xcay\x9c\xa5\xc5b*~?\xa1\xc9B\xbbb\x8e\x89\x190\xd6L\x0e\xd9\xe4knT\xa9\xb6\x0b\xca\xf5\xaeE\xf6v\xabh\x92m\x90\xebx\xfc0\xe4\x1cU\x1f\x91\xd75\xec\x97]^\xb2v*V\x16\xed\xf5hYE\xb7T\xe1\xe3\xa1\xc5\xa5\x83Y\xce\xc9\xd2Bn!\xfd\x16\xc8\x95\x897q\xe4\xd4\xae\xaeBdk\x0b\x85\x81Z\xfb\x91\xcc\x92\x11\x98\xbc&amp;\x98\x05\xd4\x91\x15H\xc0;`\x039\x11A\x84\x86\x03\tK\x19\xa2\xe1\xf3\xbc\x1d\xc8\xb7\x12K\xd1\xaa$f9J\xbe\xd6\xc6\x84\xaa\x80NU\xb5\x94G\xc3\xdb^\xdd\x8e\x8b1\xe8\xdc\xd3V\x0faZ\xbc\xe7\xe8\xc8\xb2\x82\x804\x8a\xb7!\x06\xb2-\x82\x8d\x93lx\xf5\\\x9c\xbe\xebI\xbe\x9ewU\xbbU\xefS\xf6H%,\xd6wD\xb2q\x15+\x1d\x1e)\xe5z\x1c\x83\xd9%\x9e\xb6\x9d\xb4\ni\xe9]\x08*BW\xa2\x8a\x82\x9d\xfc\x12\xcf\x12\xd1\x08\x96l\x86\x9c\x98\xb2\xf4u4\xd4rz\xbe\xf3JY\xf08\xcb\xad)\xf9\xc76\x88mD\xd7^.\xb4\xe1u\xb1Tv\xa4H\xe2\x88mh\x91]Z\xac\x8e:\xafN\x19\xcb\xf1=R\xae\xc8\xb7\xa5\xcd\x1e\x94\xb7h\xaa\x18\x93\x828\x11\x9e\x01A\xb2\xb4\xa2\x14D\xee\n\x8e\xbc\xf6\xc2!\x1b2\x0b\x8a\x07\x1d\xd81\xb8`\xc9\x1c\xb6vy=\x87Z\xcau\x83\xd7LD\xccG\xdd\xb2\xa2w\xadvS"-\x87\x15\x92\n$\xe3\x9b\xbd\xbb\xe4\x9e\xd3\xb62&gt;y\x97W\x93ZFu\x025y9\x05A\x83\x97\x8d[a_\x90\xa8\xa5\xe6c\x15;\xe8\xe4\x94p\xa7\x1c\xeev\n\x12\xe3\x90gP\xa8\x8a\xf1\xb4%X\x97\x1fR\xc5+Y\xb3\xe6\xe8\xca\x9aA\xeeN\x94 N\xf4l\x81cd\xa8\xdb\x91\x8c2\x05\xd9\xc8\x9a\xb4\xd2u\x9a\xa7\xe8\xb9\x8c\xee\xc7\xbb\x99b$\x01-\xa2\xcaz\xd1\x82\xc65\xd7\x816\xdd3\x8a\x9f\x8el8\xd5&lt;|\xdbB\xcf\xb4Yp5\xeb\xc5.\xe7?g\xd0\xce\xa0.\xb1&amp;\x1c\xe2\xdd\x10\xae\xa4\x8b\x8b\xack5J{4\xacb\xd7\xb6p\x9dsS8.\r\x88\x0e\xca\xd8\x10\xec\x1b,3\x94@A\xdc \x8dB\xe1N\x8cq\x0c\xf2\xfd@\xaf\xc9\xd86\xdc[r\x97J\xf4\xe7\x97\xb3\xb8\xd5\xa3\xb8\'3\x84\x02/@I\xc7\xba\xcf\xc5\xb4\xbf\xaa.n\xb5\x1a\xae\xa5\xca\xcc5\xd5\x02|`\xd4nda\xd5NPc\x0e\x0f\xcc\xc8\xe0\xf0Z\x1c\x1dsqd&amp;1\xae\xe3u\xf3\xb2\xf7\xccd\x1f\x96\xd9u|\xb7T=t\xb3g]f\xca\xf4}\x9e*\xca\xabLeb\xb9\xfc\xe9\x89\xe8{\x17#\xb0\xa3\xb2\xb8\xe9\\\x9a\x0f{~x\xf2\xc9\x8b"\xbaX\x02)\xbc\xf1\x02\xac\xdec\x11\xcd\xd0\xf3|g\xa3\xb2\xc6\xe8\xfb%\x1fU\xc9\xb0kv\xf8\x8c=Z#[\xf3=9i\x91\x9a@\xce\x9c\xf2B\xf2\xd1\xc6\xa4\xdeJ2\xec\xf3\xd7|\xfa\xcb\x97\xa5i:\xb1\xabMb\xbe\xb1,\xe7MIg\xb0\xb3\xa7T\xb1\xc3Z1tf\xee\xb0\x97\xae\xa7\x12\x05\x85\x9a\'O:\x01\xe3\x85\x13i6\x9c\x93RN\x91Y\xaan3\xb1\xe3\x14\xf13\xfd+6\xd3\xdf\x17\\\xb7\xd5-\xb6{\x18z\xfd\x92\xbf\xaco(\xceV2\x01\xe5rh\x8f]\xc7`\xec\xacC1\xdb\xca?A\x92\xcc\xd3-\xeb\xa8\xa7t-iFN/S\x00\xb8\x9a\xa4!o{T\x9d\x14\x85*\xe5HU\xe2\x14k\xa5*\x1eJ\xcf\xbaa\xfb\x9b\xeb^\xc8\xa4}\xbd\xa6\x10]\x19\xa5\x95\tWp\xdf\x8e8\xcf\x877\x85\xd1\xdcfF%\xa8\xaf\x94\x19=m\xc6&gt;r{"\xd8\xca\x84\xb6\xa5\xf1%\t\xed\xca\xe2J\x92\xdb\xd5\xc4V%\xb7\xad\x89.Y\xb5)\x8b\xacJ\xfb\x97)V\\\xe62q\x8eg\xca\xd8\xf4|\x1a\xe7\x1fE\xae\xa9\x97\xaf-\xdaZ\x19\xfa\xc3\xb4#^V\x10\xb7\xc9\xd1W.\xbd\x9e\x8a\xac\xe5w5)f\xee#QU\xbba\xaa\xca\x8e\xcaj\xea\x83\x86\xf2\xfe\xcb\x93s=D\x8c\xc4\x1d\x8b\x0f]\x81@\xae\x97i \xf6\xb1f\xf2\xa6dLU\x8e*u\xd0o*\x1bf,\xa4\x9a\xc3M9)\xa7\xb0%N\xab,s\xb4i\xd7U^i\xe6\xac\x15\xd8\xfd*V\x8b)\xf6\xa5\xcf\x8b^\xe0w*\xfa\x0f!\x18\xd2u\x17\x18\x01\x9b0\xe2\xd6\x91\xe16E\xfb\x04Q\xb1m\x9b\x14\xa7\x87K\xd4\xf2\xedb\\}Z\xdbW\xb5\xd9\xecc`m0\xd7\xa8wHF\xc6\x99\xd7u\x89\xbe&gt;\x99\x03\x99l\xbdR\xb4\x96K\xb5\x82\xb4\xde\xc6\x9c\xab\xa9#oLu\xee\xb0\xa6\xca&lt;\x1e\x84\xd2%e\xdc\xdb\xe0\x85\xb3\xa3$%\xa8\xf7\x9a\t^\x1bP\xb5U\xa1\xe4-\xdb\x9e#\xb9&gt;\xd5\xd6*V&gt;\xee\xbd\tc+\xba\xa9C.\xdf\x9d\xa3\xcbA\xa8\x96&gt;g/\xed1"\xbc\xdf\xb42\x11\xcf\xc2\xf4\x91]0m\xe9\x11\xaau\x9d\'\n\xe8\xcf&amp;F\x17\xa5\xcaF0_\x01\x16b\xe4\x84R\x05R\x92\x03\x00\x90Y\xc3"\xa9\xca+\x0b\xc3\x9fR\xbc\t\xda\x16\xa8\x88\xee\x8bQx\x96\x82\xb6lt\xf4\xd7YX\x92\xd6\xdcc\xc7%\xb3-\x8b\xa8Y\xb5\xb8\xc4\x14\'\xa5\xe3\xd3\x94xv\xb4\xd2&lt;\xacr\xfe\x95\x19t\xaf]%Td\xc4s\xdc\xb7H\xaa\x82\x91\x1cDN9\xd1DA\xe5I\xa2\x88\x96\x16\x13Y\\ez^8\xb9\xd2(\xa5M\xd22q\x92N.VM\xdc"\xe4\x89\x86{5\xe9l\xe6O\xbb\xe3.\x83M&lt;\xea\xb7\x8dH\xe3\xb5u]@\xb2G\xc6\xc7\x84&amp;)\xa8d\xb4\xf9\xfa\xe6\xb5\x92\xe9\xd2\xe7\xec\xb6\xbc\xf6\xd9?_.\xc0\x0b)\xc4BY\xa2\xeb\xcf\r:\xceW\x1cd\\\xb7Z]\x07\x00\x90\xed\xa8\xe0^\x0e\xee\xe6\x14\xa7\x10b\xd6X\xa0\xc1w\x02\x86\xaa\xa9\xcck\x9e\xe89\xd5ua\x95\x9b\x15v&gt;&gt;\xf5\xb9b[\x8b\xef\xdbZ&gt;F\xde\xb55\xa5\x8a\x1f]\x0b%\x18\xd7\x9bKcV\x02\x9f{i\x1a\xdf\x10\xb2\xf4\x08\x95\xd8\x16od\xc7\x92\x10\x96q\xe7\xe4\xa9\x92\xe2{\xa8\xa4\x12\xf4\x94\xa1GJ\xf8.\xba\x12\x9a+\xae\xa6\x1c\xb5\ri\r\x14a\xf4\xad\xd7$\\z\x92\xa9\xc8\xd9\xca;\xf9\x9b\x16\x9e\xa5%]\x1eJ\x1a2r\xec\x06\xcf,e=\xa8\x91\x8e(\x9e\xd4\x8a\xaf\x17&amp;\xd0\x99^4]\x8d"\xbct\xbb\x02ey\x19u\x86\xf2\xaf/\r#\xa5\x0c\xe3\xb4T\xe1\x18\x89\x17\xd2\x1c\xaf\xad\xc0\x9a\xed\r_Z\x01\x05\x90\xa9\xcd\xba\x89\x91\x8c\xa4\\G?\xb2*7pk\xf3\xb5\x05\x9b\xe8QUI\x07\x85\xd0\x93j\xc9\xd4\x97p\xf1\xab\xaa2z\x9f-\r\x13\x0c\xd6o\x95C\x9f4O\xb9\xf1MUL\x9f\xa5^\xbe\xa6&lt;b\xcd\x8dl`\xca\xcd\xad\x0cx\xcew\x9a"L\x8ey\xad\x95\x07\x0e\xbd\x8e\xc9\x87=\x8fsjS\x15T\xd1\xb3\x17\x1fUO\\s\x8f*\xe7\xb0\xab\x8e\xac\xec\xd7\x8f\x90\xaa\xa7\xae\x8eL\xb3\x9e\xac9b\xaeZ\x89\xb3\x03\x92\xd3O\x9a*=\x18\xf9\xca\x8eZ \xe7\xea\x12\xb8\xe7\xaeiP\xcf\x9e\xc0JF?+\xa0\xed\x9e\x7f\xd6\x0e\xf6\xae5U\xac\xeb\xcdD\x15\xb8\xa2\xe2\xa4\x1ad\xe7\xd7Z\xdd\x80\xfa-9\x8e\x9cQ\xe7\x95\x9ds6\xaf\xa9\xdaNa\xa6y]r\x8b6\x93\xe7\xf1\x1d;p\xef\xd6\xf9\xe8\xb6S\xb1\xb9\xee\x8aU\xb0y\xce\xd5\x96V\x1ak\xda\xf9s\x11T\xfa\\\xfaF\x1b\xb8\xe15\xf1\xaa\x13\xd0\x16+x7\x9b]r\xd7\xd7\xefJ\xcb\xb3\x99\xcb\xd1+\x85\xddd\xbd\x88J\x1a\x12\x88,\xd1B\x01\xa5\x8d\x85\xb5C\xacgW\xd4\xd9\x19\xa6\xb4\xce\xbf\x196N\x86\x16\x0el2X\xb5T\x93\xbd\x13-\xd4\x18MM\x9c/\xc9\xc2\xf3\x8es}&lt;c\xb8Y\x1c\xdb\xa5Wl\xea\xb9.\xb3s\x04\xe1\x10%\x90u\x01!\x17\xa05bj\'U0\x0e\xe5\x9a\x94X\xe2\xe1\x9ff\x94\x93\x86\xe1\x1dV\xa6\xa6kNl\xfc\x8e\x83\xb1\xf1F\xa0\xe8\x1cZ\x11\xf1\x08\xb1+\xe2\xb4\xc8\xae\xca\xd3R.\x94\xa0R\xab0\xa5\x04[\xd1\xa1\xaa\x85\xd7TEP\x1b:-\xd7\xbaq\x16\xa2\x86E h*\x91\x06\x14\x93\x1b\xb30(\xe5T\x82\xe7)\xf5+\\\xa5iR\xa5\xc5\x97\x15i\x02J\xf5\x0f^(\x94Hzy\xdf\xdc\xb3\xd5\xa3\xa3YS%\x18\xec\xd7O\x90(OZ6Hq\xfa\x15j\x8b\xaa\xbe\xa1\xa5\xa7\x06[yO\xf2K\xbeuG\xa16\x95\x9ci&gt;;\xb3!9\x071\x0f;bY\xab\x9fw\xe4\x866B/.\x98D\x8c_\r\xea\xec31\x12\xde\xdb\xcb*\x92\x89t\xb0Q0\x8d\xd3\x07\xaf\x85Y\xb3Vm\x16\xf1\xef\xb6\xaa\xbd\xa7\xb3\xdb\x9f\x99\x87\x99\xc7\xd1x\xe9\xab\xac\x9a\x14/5\x03&amp;\xc23nY\xb8\x04`zx\x17Z\x92\xd7\xd0p\xf4\xe6\x94q\x85\x96\xeb\x15b\xfd\xc9\xe9&gt;\x93"\xfek\xbc\x00`\x84\x92h\xf1\xa4\xa3\x1f\x85\xee~z\xa7euD\xe3\xb8\xfe\x9e\xdb-\x01b\xcd\xa1\x9c\x8b)\x019f\xb3v\xd2`\xab\r\xb8J\x93\x96wV\xf1x6e\xd2\x92\xb5v1-\xfd\x0e\xacU\x80\x91\xe3\x9b5O\xa1{\xa9\xf2\xb9\xa0\x87\x16\xa5\xc2\'\x82P\xb1\xc0\x12\x00\xc1g\x05\xc8\x03&lt;\x0f4Z6\xc3\x1e\xab\xc9[\x14\xc4\xbd&gt;|\xc7J\x89\x8d\xf9\xea\x16h\x9a:qi\xcb\xf0\xa0\x93\xb0\x03\xaa\xb6\x95\xa1e]1\x1d\r\\\x99s$u\x12W\x9f+KTNu\xe5)j\xe9\xba\xf2t\xf5\x93\xe8\xa7\x1fOgOE8\xa4N\xdbDy(\\\xb26s\x8d\xc7\x03A8x\xb0\x9c\xa7\t.PR\xd4\x1cZ\x8b\x97\xed\xb0\xe38R\xaa\xd5gIe\r\x90W\xf3L\xf9\xea\xd8\xbcX\xd80\xc8;\x8e[\xbf\xc9q\x18\xe1\xa6M\x11\xea\xac\xbf\x1b\xa3-/\x1b%\xed\xfc\xb1\xd0]\xbe\xfcy\xfe\x11\xb9\xe0\xf5p muK}\xbc\xab\xcd\xa6\xb1g\xedv\xec2\xd1R\xf8\xba/\x1c\xb6s\x92\xf35z@\x82\x84\xb7F\xec\xcfQco\x83\xe9\xe0\xa1U\xefL=\xa7\x8f\xaa\xcc\xcd\xb1\xb2\xab\xad\xf7+\xd0|\x8f\xab\xb7\xaa\xc23\xcb\xfa\x0b\x19q\xec\x9e\'\xac\xf2_%G\xc6\xebU\xce\xa3h\xe7w\x1cCO5\xc9\xd6s`\xcfm\xd1\xae\xd5\xcc\x97\xa7B\xeb\xa4\xa4\xd5^\xadq\x92\xd7\x87&lt;q\x7f\x17m?\xac\x84\xb6\xb8\xce\x99qT\xa8G\xd0ku\xa9\x8a\xe5\x82"&lt;\xec\xc7\xaeA\xd3\xf9\xa54-\xecY]\x19\xa2\x91\x84\xe7\xaa29\xd2\x89\x91pr)g&gt;\xc1\xb4\xe3;]}\xdd\x0eZ.V\xefJ\xde\xb9c\xa9W\xd1\xa7\xc6\n\x18\xfd\x82\xa5zB1\xe7|\xd9I\x9b\xb8(\xfc\xfb\xb5w\xb4\xfb\x17\x9d\xc1$\xb3Y+\xb9D$\x89zx!\x91\x7f\x1d\xc9\xe8-!\x1b9\xd0\xc5\xc1(\x7fK\xc2\xa9\xe6\x1bFQ\x1cX\x8b7\x8c\xdf\x94;u#\xae\xed\xa81\x03gB`b9)q\x890\xbd\xa8\x94\xc9(\xee\xc6t\xb1\xd3\x87$\xe8\x8e-\xd3\x8e\xa9\xa2+\x1e\r\x00v\x11\x1a\x8a\xe7\x8c\x9a\xa8\xb1\x90\xe1\xda\x0e6\xf3\x85\xab\xa6\x96W\x9c\xe1\x1b\x8e\x17W\x9e\x87\xb9S\xaewso\x16z\xd5\x9f\xb5\xda\x9f\x96\x8b\x95\xc1\xd1x\xe5\x07\x19oW\xb8\xb1\x903N*\xad\xb2\x10\n\xc7\xf4\xf9\xb5\xe7\xe3;\xe8\xbc\xf3x\xb8\xfc\xcf\x9b\xb2\xce\x8ef\xd6\xb2\xe7Ln\xdb\x91\xd2^\x1d\xf3\xba\xb4M\xa9d\x8e\xe0{X\x87J\xa3er/\xe2,5j\x81B\xcd\x0eT\xeaR\x9d8\xd4\xb8\xb3\x92RQ\xf2\x06\xb58\x13\x9aD\\t\xbcm\x90\x17iIV\xc8\xc2A*g\x0fb\xa3B\xef\xf2\xfa\xc3&amp;\x96\x9d\x9ez\x06\x0fI\x87\x8c*0z\x94\n\xa6\xa0]\x01\x80\xa8\xb5\xbd:\x9e\xb1\xd6\x94L\xf7\xf0l\xfbf/\xb5\xc3\xd1h\x12q\xd2\x16z4)\xb7\x1a5}J\xab\x88\xb7\x19\xbdE\xa4\x12qo\x1d\xe39De\x9e\x87W\xbaS\xf9\xbe\xb2\xc3e\xae\xd8\xbcu\x92\xb313\x9e\x93\xca8#\x92z\x0e$$%\x8a\x07\xc9\xfa$l\x10\x13\xe1*b\x9b\xd8y\x98\xbc\x9bX\xc8\xa1\x8b\x17j\xe5\xb3\xf2d\x89\x95\x8c\xd1\xe8\xa3\rb\x95\xb3}\x10-\xe8\x05`\x96\xc6!\xec\xee\xcc\xdce\x8e\x8c\xa6x\xb9-\x0ch*\x92\xbc\r-Rw\x05)\xea\x92\xb7\xf5P\xe1g\x1a\xc9\x89X\xd4\xac\xa8J\xda\xbdQiSgg\x10\xc4\x8dW\r\xd5\xb2:\xfc\xdb;\xb5&amp;\xe1~;\xfd\x9a\x9fd\xebv\xad\xb2\xb5\xd9,=)\xc70\xee\xb3]$\x8a(\xa9\xc1S,\xd9n_Gw\x8f\xcc \xba\xdef\xddVb\xda\xbc\x8e[7B\xbb\\ \x8am\xaa\x88&amp;\n&lt;`HY\xbbEI!\xe6}\xd4\x0c{\xb6V\xd7-+\x1f-V\x8eA\xd1\x93\xae\xc5Z\xe1eKk%]\x9d\x95ikR\xed\x85\xb2}\x1c\x85\xb0TR\x1b\xa2w\xac\x1fWa\xa3\x9eF\xe6\x8eR1\xa7\xef\xf8\xc9\xc9*\xd3\x99Q\xa7\xda\xf1\t\x08Ce\x8b\xab+Vie\xe8\xaaG\x1c\xfdC\xa1\xdeD\x053]\xc1\xb8\xedx\xc6\xd9\x1fM{\x90b\xfe\xcfB\xd2\x91y\xad\xd7\xd2\xc8\x91\xb4\xb5\xc5\xec\x9b\xaentI\xa6\xdc\x93\xcd]\x8d\x9bW\x0fi\xf5\x81\t\x0f-\x99\xcc\xcc,\x87O\x870FD\xedr\x89\x08\xfa7\xcd\xf6\xd5\xb0A\xcfm\xcb"r\x8f\xac\xf3\x91\x19\x06\xbb\x8d\xc3\x0e&gt;\xddd%\xe5\x12n\xa8_\xe9.v\xda\xd5\xc1t \x99\xcb\x1e.\xba\xa5\xc5\xa3Y\xa2\xb1f\xaf\xc8K\xab\x06,\xb0\xabY\x14\xedkS\x84\x95\xd9Z\'#CS91-$\xf9\x9f%\xa9+\x95\x98\x96\xb4\xbe&gt;\xa1-\x89&lt;\x8c\xc3\xb5\xd3\x85\x19`4\xdc\x1a\xd2\x85\xf2o3q\x7fG]\x91\xc6\\\xd5\xa7gs\x8b9\xaa\xdd\x99\x8eQ[\x9fN\xcfTM\t\xcdV\xc9\xb2\x9a]&amp;\xa2\xc5\x12\x04\x80S8\x0c9\xba\xa0c\x90\xe2\xbe\xdb\xb1\xfd\x9f\x87\xea\xea,\xa6"h\xdd95\x05;\x9fR\xc8:(\xd2a%\xc4+m,L\xa5\n\xf4\xba\xc4\xb33\xe7\x11\x82Ja\xcdui+\x11\xab\xb31\x9a\xb1/\xa1\xa9\xbf+"*\xfa_\x0e\xb3\x86f\xb2\x99\x15\x98,\x94\xab\xc8\x17\x11$!%\x9dW\x82\xb4yVp\xe1\x94\xe0y\xf2/\x1bN;\xb2G\xd5^^\xb3ygy8\x99v\xea\xfaSk\x92Ut\xaa\x05\xb7\x02\x95C\xadb\xdd9\xd5\x90 \xd8\xa8\xfb\xb1\x8c\x8e\xec+\x8br:NI\x9aR%\xcfr\x12m\xde\xed\xc4\xa8\x88t9\xb0\x98\xce\xc7\x8b\xd7\x83#MBY\xe5Z\xb4u\x13\x7f\xa5\xb7IQ\x90{\xafOsI\xe0\xbc\xc8g\xa4\x8b\xb3\x86\xd6\\\xfc|P6\x92\xb8\xe2a\xb5 \xa1\x8c\x97a\x028\xe8l\x84#\x8e\x06\xc0B9\x08kE!\x92\x86\xac\x99\x1c\xb7\xb5\x04\x88\xe6\x81\xa4\xb1u\xd1BR.Y\x0f\xc1$(\xe0\xb7\x9e6\xd3\xba\xdd\x08\xe6\xdd\xd2\r\xed\xf4j\xa0\x92\x12\xd8\xaa(\xa7!T\x00\xa0\x81\x88Q\xbf\x88\x97l\xc4\x8d\x1c\xe8\x1d4]@n\xba\'H\xda%\x003\xed\xd7`\xecLx&gt;\xb99\x98\x89Z\xef|\xb2K\xa6\x82\x12M\xc4\xdd\xab\xa5\x05\x18\x13\xc0F\x05\xd4\xb2dby\xd8\xa9\x15aA\\\xce\x12N\xa3vJR\xfd\xde\x93\xc4p\x90\xcd*\xabeA\xd0\xa6\x00\xe9\xccb\xa4g]W\xde\xc6\n\xb1\x99-~z\xc7\xa9\xe2\x97\xba\xad\xd9\xdffN\xe7\xdd\xd0\x93\xa2\x18\xb2\xe9\xd4\xc3\xab\xae\x01R\x12V\xd3T\x94\x1d\xa3\xab&lt;\xdd\x97\xab\x82\xa5d\xea\xf1\xd9&lt;XN\x1c\xd9b\x01Jqx\x07\x0e\xb9\xb0\x8b\xe7K,_Q\xc8j\xe7\xe6E\x1e\xb7\xcb\xb4\x87\x9fcw\xa6\x84\x19 \xb7\\h\xbe\x063\x07\x84G\xbc\x0c\xec\xf9\xeeb\x12\x04\x08\x86\x92Pb9\xd3\x91M\'\x0e\x9f\x841l"*\xd9,\xfc\x15`\xb5\x8a*%\xb8\x08\xa9pZ\x84\x02\xaf\x02\xa0\xeby$|\xb1\xf4\x1a&amp;\xca\xdc\xbc\x9d\xa1\x07\xe9\xb1\x8c\xcdX\xfbQ\xd3D\x93\x99\xcaDXb\x91`H\r\xc0\xdd5\xd2m\xc2\xec_\n\nEF\x03\x05\x97b\x0f\x0e\x84\x88\x99r\x80\x9d\xa6\xed\x80\\9\x9d\xdd2A\xa3\xdeO\xa0\x92\\\x8e#cqp\xd0h\x03\xa5\xc4\xd5no\x14\xba&amp;"dM\x05F\xb3W\rI4\xca\xaf\xd9GS\xcf&lt;2G\xecy\xd4\xd6IP)\x9b\xa8\xd3\xc4\xb8\xa0\xb1\xd3PJ(\x89\x81\xdc\x8c"\xa8\xb4)[\x91\xab$\x99\xe3b\xe1\xc0\xb5\x9e\x93\xcb\x1d\xec\xf4\x0e\'\xa2\x1f8\xe2zb\xb9y\x95\x9a\x92\x99A\x89\xeb*\xe4B\xac\xd7\xd4\xc7\xc5\xcbc&gt;8ef\xcall\xe5\x9b*\xd8\xc2\x84\xf6scJ\x12\xd0\xf3\x94 \x966\xe2\x06\xb7\x9cb\xaeg\xd6j\x0f9\xe8dW\xc0M\x88?+\x97\xb4\xccQ:\xe6At\x02&amp;\xbbh\x8b\xb2\x11\xb2\xb0r\xb6\xc2jJ&amp;W5\xce\xce\x99\x80L\x1c\x06\x12\x98bb\x18\x06\x06z\xba\xa3\x8e\xe4:\xc6M_\x92{\xb7\xe2{\x91n\xa7\xe7\x8dc\xcbV\xfaT\xdb\x0bk`r\xa6\x0cX\xa5T#\xdd4X\x1d\x94FB \xb2 \xd1\xf84\t\x08\x89t\xd1\x18\xe2=\xd0\xc6J%\xe8\x95\xaeH\xd6\xc6C\x02JVM\x8f\xcf.2t=Z\xff\x00\x1b\xd4\xb8\xbe\x8eH\x84-\x1b\x10Y2\xa98L\xc7Bl\x9d5\x19\\r\x04V\x89m\x85\xec\xe6\xca\x92\xa75\xdd\xf2\xf3|\xc1\xec\xe8\x15\x08\xa00p\xc6F@\xa8\x8a\xe9\n\xa9\x1d\x87)8\x171P\x07\x0b\xb42R\x925\xe5\xe3\x17\x8c\xe4\x99U\xe7\x11\xe4z&lt;\xb5\x8a\x90\x12T\xa4+k\x82\\\n\x018g\xe4\xca\n\x818\r\xc0\x030\x07\x0cx\xbc\x06\x00\x10\x0e\xe1\x17s\xb3\xc6\xc6\\\xe4\x80\x90\x9c\x84\xc4\xa0V\xfd\xb6dV\xb3\xd9\x99\x15@\x19 \xf0\x82\x81Ni;\x12\x92h\xb9\xaeK\tD\x0c!\xc30\x90\xc0c\x14\xc1\xd5\xcb\x1daG\x17\xca\xf4\xfc\xbe\xbf!)\xbaa\xdb!\xaa\x95\x99\xba\x8f\xbf\xbeDLK\x02\x80\x80\x1c\xe9\xa8\xc4\x13r\xd0\x1d\xae\xcd\xd0\x1d\x8b\xf8\xe1\xbff\xe0\xed\x02\xac\xdf\n\x14\xb2\x91\nRM\x17\xac\xb1\x00!\x87\xc4?\x03Pr\x84e\xd3Pa\x19\xed\x96\xff\x003&lt;\xe7\xf5=\x1a\xeb\xcf\xf29z\x1b\xa0bd\x84\xf6sa\x11\xf6U\xbbg9\xd95\xf3\x9c\xb7\xe1\xdf\xcdt\xf69\xd8\x9dH\xc0:E\x81TL\xe1\x113\x01ai\x17\x08\xae\x8eL\xa8\xb1\xc7$A\xbc)T\x12\x81\xc9\tpD\xc0\xfd\xfcR\xd0\x8bR;\x8c\xcf\xe7\x97\xe4\x00\xa9~C\x90\xbf \x12n9\xbf!~o\xc0\xe4\x1b\x8bk\xf3q\x05\xf9\xbf&amp;\xe3\x9b\x08;;e\x9d\x06\x7f\x1fiU\xce\xd8g.\x90\xf4yZ:\xdbr\xec\x95\rA\x9cm\xcdQ\xd3\x08\x95\xe5\xd51\xee\xadV\xd0\xad\x1c,\xa8B\x98sa\x08!`q[8\xa6\xd4\xaf\x18vt\xa2\x13\tgU\xa9\x80\x94\x12\xa8\xd1j\xf6\x9a\x94c\x89f\xba.u\x0f\x1f7l\xab\xa4\xf7\xc0\xb5Q-=\xc4\x88\xa2l\x0e\xe2\x80\xaeV\xecr\xc2J9\x8e\x8c^\x88\xe9\x93\xb4\x18\n5p\x0b\x1c\xa7h \xe7\xa0\xd4\xa2\xe3\xd5(\xd3*\x80\xc1\x14\xcc\x06/\x08"\x9b\x84\xe2\xd1\xe3q \x1e\x10\xee\xeeGq\x8c\xc0\xe3\x08\x83\x84\x05\xc7\xee\t\xa9J\xb4\xb5r\x97\x04\xd4\x9dp6z\xbd\xa5\xb4T!D\xcd\xe2,P\xa3\x95\x98\xc8\x921\x05\x06*b!1R\x1b\xe3\xb6Q\x12q23\x14s\xaaahR\x9euH-\x05n\xb1\xd6.\n\xe7O\x10P\x9d$FG\x84\x92@\xcb\x9d$\xc4y\xc3t\x07\x1c\x01W-\xdcK8\xdd\xe8\xf7\xa4\xb6\xfb\x9dN\xe0\xfdqZ?\x8e4W\xaa\xfdJ\xc7\xebn}_j\xaf\xbd\xa5eo\xbf\xc3V\x86eT3Bx\xcc\x874\xc2\xa3\x81Z`\x81\x00\xbc\xb1A\xb2r\x84\x08\xebC\tp\x94P\x87\x90Z\x8d\xba\x9b\x18b\x19\xf5\xee\x87\x1f\x1b7\x08\xf26\xce\xcaI\xf1.\xea\x99\x13\x00\x10\x04\x1aQ"&lt;\x04\x8a\xd1\xe87u\x1f"\x061Td&lt;\x84|\x82\x14r\xd9 s[d\xc5Ic\xa4\xa4\x82\x11b\x01;\x80\x04\xc50p\x08 \t\xc5O\xbb\x80b!\xc0c&amp;"X\xa5\xe0\xe3\x14\xcd\x08\x08\x01g!\x17M\xc4\xf4dB%\xac\xd5\xab$\xa2V\xcf\xd0I\xab\x10x5X\x9c\xf2\x1c*\xd1x\x82\x8a\xedA\xda\x05X\\\xe1\xa3\x91\xbb\xb4U,u\xd7rv\xbc\xc6\\\xd0\xa9[[;+\x0c\xee\xf1\xc9V\x06\xe2\x90\xa9M\xf44\x82\x80\xcfDb\xa1\x9c7\xbe\xa2SD\x8f\xbf\xf1\x1a|~\x89\x0c\x14G))g(o\xb4-\x05Ko\xb7U-\x93\xf5\xa3\x15)\x12\xb5\xe5u\xd9\xf4p\xfb\x87\x88\xd8V\xb7\x9aSb\xab\xe9\xf9\xce\xbc\x19:\x83\xd9\xfb\x1eX\x96\xc2\xa6@\xa1-x\xd92\x84\xb5%\xb2\xc5Ij\x06\xcc\xd5%\xa5:\xcb\xd5\x1e\xac\xa6V\xb0\xf4\xcat5yB\xa7K\x9c\x83\x97\x95;\'\x0c\xad\xf5 \x90\x92\xcd%Y\xbf\x07\n|#\t[\x83\x84\xd7\x8fhe\xa2$\xc1s\x14B9C6\x05j\xc5AMN80NC\xb5\xdd\xc0\x05\x03\x14;\xbb\x90c\'r\ny/4\x80 \x1c\x06NP\xc0\x89\x95\xb4\x85@\xd6\xba\xc8\x8a\x06\x00 \x18\xa8\x011\x997\n\xf4\xf1\x94m\xaa\xa8\xa4\xe3~o\x10\xda(\xb2\xcc\x1d1\x84\xc4\x15\x80\x19\xaa\x91\xd0an\xe1\x8d\xdc4Y\x0eWEA/%\x14\xf1\x17i\xbc\xecq\xf2\xf4\xc52\xf9\x08\x9a\x80Q\xa4\x0b\xeej\xd2\xdd\x16\\\xba\xa6\xb3\x95\x85\xbc\x18\xa2A&amp;\x0c\xc8\xaaX&amp;\xaa\x9b\x8dMZ\xcbQ\x84!\xed\xe2\xf6\x8d\x9diq\xb3k\xb4\xd6-\x13\xf5\x81\x0f1\x0e\xb4\xe3\xed_\xd7\xf0{\xebS\xfa\x8a\xd2\xcd\x91\x1cG\x7f\xc4\x88a\xe2!\xc3\xc2\xe1\x01Q1\x93\x00X\xc8p\x9c\x99\xa7\t\xea\x91\xfc95"\x00S\x84\x88\x10T\x81\xce\xb6\xed\x95B\xdfjR\tf\xc8\x92\xa9\x80\xa2\x00\x0ey\xb3\x81 \xa9\n\xc4\x1d2P\'\x04\x04H\xd6$b\x86V\x8f[7\xc6!\xc0\xaa&amp;p\x100\x01@\xc5\x0e\x01\xe0/\xbf\xfc\x01\xf4\x95/\tQ\xfe\xad\xd5G\xf3Z\xf9\xf4\x0b$FQ\xa0e\x18\x9a=E\x93\xe4B\xc7%C\x98\xa1@\x06&lt;\x02#\x08s\x0f3\x05%\tG\x12E\x83I\xbcd\xe0,\xac\x1dD\xca2R\x06m\x10\x16j\xbb\x12\x15\x13\x00]\xbb\xb4(tN%\xdd2p\x9a\xd1\x92\xed\xb3q\x98\xb8T#\x9aQ\xf5\x7f\x95\xb3\x87\xaf\x8avSU\xc4\x95\xa8\xd5@\x1d\xaa2!\x11.\xdd\x02\xca\xa7I$\x00\xb2\xe8\xaf,g\xd3\xf3\rI[\xb3\xd9kvIz\xb0\x8d\x93f_\x9e\xd7tx&lt;\xbe\x8e\xaa[x\x17a&amp;\\\xd9\xedj.\xf9\xd4\xcc\x1f\x98\xae8$\x8cW\x16\x12\xc2U\x0e\x13"\xeb\x85,\xe8\x95@u\x83\x8a\xab\xc1c\x17Ua\xad\xc6\x1a|x\x02\xad\xael\xf38y=\xd7\x19g\xac\xf1"~\xab\xa0Mb%\xb7TZM%\xca\xc4\xf8\xa6\x12\xcd\x8e\xa07\x8fy\x1e\xdd\xaa)\x184\x1c\xed\x96mB\x98\xad&amp;r\x1d\x05\x12\xf0\xd6\xe2\x99\xa0\x0e\x00\xe1\x0e\x01\xd0s\xd0G\xae\xe8\x18\x1f\x04\xbc1\xf9\t\x89\xc0d\x11\xe1p\x80\x80\x87s\x00@X!\xdc\x00\xb2"\x89\xa8I\x98\xea\xe4\xd0\xa7\t\xa3=bv\xaeq\xac\\\x89EPT\x1c"\xa3v(\xbag\x88\xa7\x10\xa0\xe8\xe9(\x13\xcd\xfd\x1d\xe7L&lt;t\x81Q\x9f1\x10W\x89$\x0b\x80\xd0\x15\xb9I\xbf8\x17&amp;\xfc\xe0T\x9b\x03\x92\xb1\xa9]\xa44\x01D\x9e3\xeaYn\x8b\x1b\xf7[\x16yb\x97\xaa\xb0\xa3\x0cR\xc9\x06\xec\x08\xb4I\x03\x12\x92\xf3\xc8\xde\x15\xc3\xf4\x9a\x17_\x96\x1ev7\x82\xa9\xd2z\xeb\xc4\xa9}o2t\xf1\xb4\x9cuA\x98\x89\x8e\x92\x991,PS(&lt;M\x01^j\xb9\xa7f\x1b\xf7K\xe36\xb9G\xcaY\xdf\xb9\xa7W\xa2Mmq\xbe~\xb0\xb5l\xa5l\xd3r&lt;\x8f\x9e{\xfc\xa1\xf3 \x9fI\xa9r^\n\x8d\xd0h2Q@%\x8c\xc1D\x8c\x0eL\x92\xd2\x8a&amp;)\xa2\x10C\x86u\x12Q\xa2\x81\xc1\x85\x10\x10\x0e\xee\x0e\x0e,C\x8c\x84\x90W\x02\xea\xf83\xb0\x0e\x18\xf7pw\x1b\x84\x00&lt;\xc1\xee\x16\x14e6\x94a\x8e\xf7\x82\xc6^p\x1d\xb1\x84\xd6D:[0\xa0J\xcd\n#T\x95I\xc5\xa3Y\x06\xc89\x80\xa3:M\xdd!M\x7f#\xf7\x1ey\xd5&lt;\xb9\xbf\xe3&lt;\xee,1\xa5\x13\xdd\xe7\xa3E\xf1[f+\x00$&amp; \xc7\x8a\x03P\xcd\xc0ny\xaf\r\xd04\x11\xa8B\xf4\xa2k-aH\xcfV\x93\xc7\x8d\x0e\x8e\xc2\xa66*\xcd\x8c\xd8\xd1\xc9l\x86\xc7\x04\x96\xf2(7\xab\xe9\xf67\xf1\xf3\xd6\xf2\xeb\xac%\xabu\xf4d\xc1\x93\xd5`q\xc1\xa2\xbf-\x96Yh\xd5]B\xb1_G&gt;CI\x84\xa7\xb5XBQ\xacw\xc7"\xf1\x9a\xe0\xd6\xb6Lg\xd3\x1d/\x8eX\xea\xbad\x9c\xfb\xb9\x0e\xdb\x15Y\xb29n\xeb@\xd3\x02\x8d{\xcf\x99H\xbb\xe7\xd7L\x00^\x80\xbdg\xba|\x9f\xcfl\xeaY\x89\x1a\xe1\\\xb5&amp;C\x14F\xbb\x96\xab8\x89T(\x88\x02\x08\x13&amp;a\xa8\x00\rw\x073\xbb\x81\x1c\xae\x87\xed\xb4y9\xe4\xbbX\xa4\x93u\xc1\x801\xdf\xf6Q\xf8s\xbb\xa4\x0f\x07\x00\x89M#\x83\x807\x9frxs\xdc\xd5\xb7ET$\xd9g\xda\x07\x9dr\xfak\xe1\xf20\xc9\xea\xf5\xce\xc8\xc2U\xec\x1d\x90\x99\xd3\xab\xb3\xcdA\xd5\xa36\xa3/*l\xad"\x9c\xca\x9b\x16\x93]\x9d\xe6\xf1)\x08\xdfMN|\xed\xae\xa3\xd6\xd1\x916\xd9\x8d(am=\x02\x13\xaf\xceL=0\x16\xd3\xe5\xe4\xbdP\xac\xab\xf2S_d\x17V_\x17\xb2\xf6\xbdbu\xf9\t\xb6\x9b\x01nJ\x13K\x0c\x05|\xf2wtj\xee!U\x8arB\x07\xe2p\xcd\xc0\x01\xe86\xcf\r\x93\xedn-U\t\xe9\xf3\xe3\xe9\xf7(\n\xfaP\xf2\xe99\x86\xc3\xb8\x07\xb3\xc6\x95\xaa\xa3o\x9f9\x08\x97\x94\xa5~\x8d\x0c\xa1\xe7\x9f:\x86\x98\xad\xe3\xf6\xcb\xb3x\xcdy\xda\xc6\xfb\x80\xed\x1d\x1f\x90\xe9&amp;\xa2\xb8\x9fr\xff\x00k\xc9\x1b\xd8z&amp;\xbc\xfb\x00\x91\xa9\xdf\xf1\xab2 \xaf\x0f&amp;f\x16\x1a\x7f,\x1f\x86\x91Y)\xc2.&amp;~\xbe\xa4\x00%R]T\x15\x12\xdc\x02\xe2R\x9c\xa0S\x07&amp;a\x0e\x00\xee\xe1wp7\xe9\x1fe\xf8\x87\xdb\x88\xf1\xcbu\xd9\xc6&amp;\x0b\x85\xd41_]\xd3\x1c\x12\xf9\xd6%\xe9\x03\xdc =\xc0\xd7ws6\x8fzx\x0b\xdfPr\x81\xdc\xdb\x1f:z+\xcex\xbd\xac\x10Y\xf5l\xde\x9b\x01/\xa0\x18\xd9\x8b\r.\x8d`\x86\xbcX/\xb5\x9a\xba\x10\xe1\xa7\xc2\xcf=%A%=mZ\xd9L\xb8\xf9\xff\x00\r\xdd\xc1\x93\x10\xf7Mi\xa6(\xd6cv\xb9\xb5\x14\xec\xd0\xdc\xdd\x8c\xf8\xbd\xce\xdcc\xa42\x8d\xb9\xdb\x07\xbe\xfb\xc9\x1a\x1a^.\xfa\xb0\x8au\xea\x8f\xd0\xe7\xd1\xaa\xb6\x9a\xa7?\x90B\x99&lt;\xf4\xa6\x90#\x1dn\x05\xb3\x800sa\xba\xe6\xc0/N\xadW[7\xd8l\x0e\xeb\x05Q\xb5\'\x02\xa3\x8c\xd2q\x82\xc9\xa3\xc0\xb8#8\xfa\xa4\xe4\xaaC6\xb5R*\xeeX$3\x1a\xfc\xb2\xea0u\x15U\xd6\xe61d\x8f\x1d\x87\xab&lt;\x99}\xdf\xf3\x1f\\\x97\xce\xd6{;z;(\xcb\xe8\xe8\xf0{\xfb;#\xe6\xc9\xcdL\x12\xf3u\x9bL\xce\xd9\xb8c\xdb\xbf\x96[\xf3\xa0\x80\xca(V\xac\xf0d\x98\x90\xe4RUTU\x05\x0e\x99\xc8\xf0\x0f0\xa1\xc0\x83\tL\x1c\x1d\xc2\xee\xee\x1a\xff\x00G\xfel\xfa\xb44\xad\x1ak\xcd1=\x15!\xe3k\xf8\xbd\x0f\xf3\x8f\xd6~\x0e\x1f\x07t\x811E\x83\xdc"\x01\xeef\xb9\xef\x9f\x9f\x9e\xfe\xad\xcd\x80\x96M\x9f\x9d}\x17\xe7\x9c^\xc9\x86\xaf\x85]\xa8\xf4\x9b\xe5\x1a\xe9\x81\xec\xf17\xdd#\x1c\xd6\xe7\\\x057C\x8d\x0b-J\xc3\x06\xf1\xf9\xd53\xa5\xc6\xfb.\x9bt\xa3^x\x1e/\xb8\x07\x1f&gt;R\xc1\x1f#\xed|\xd0\xf0wO\x11Z\xba-r\xaa5\x9b\x83\xf0\x9e\xaf\x8c^\xcb\xa6\xd4\xfe2K\xdfy\x03GH0\xd7F\x1bC\xbd\xd0:\\\xeaM^\xc7Z\xe6rA5\x12\xcf[d]HGlm\x86F^:*\xd5}\x12\xacF\x0c\x1f\xa1*/\n ~\x7f\xdf\xd63q$\xe8\xcc\xc5I\xe9\xe3\xf8rG\x8b\xe1\xcb\x9e\x14G*\xcd\xb1\x8b)1\x13\x10\x1do\x94s\x98s\xbet\xd2\x90f\x8b\x9d{Y\x9fqQ3\x96\xe8&amp;\x82\xe4\t\xddW\t|/P\xde|&lt;\t\xfd\x1c\x93\xf9\x9b&lt;\x1fE\xfcN\xd6\x84\xc801X1\x92I2\xacC\xa7\x19\xa8\xb3u\x81E\x11:\x0f\xdd\xce \x06(p\xf7\x07\x14\xe5\x0e\x0e\xe1\x8e\x8b\x9c\x80\xbe\x86\xf9sY\xa3\xd7\x17\xf6,\xf7gfC\xe7\xc5\x90\x94\x84@\x1b0\x80\x80\xf7s]\xdc\x02\xd3~\x81|\xf4\xfa\x0f\tX;\xbaCO=\xfa\x1b\xcfx\xfduJ\xe7K\xb5\xe3\xf7\x1e\x80\xc27,Ko\x83\x93\xd4\xb2mR\xc8\x12B\x99i\xb3\x95\x12\xadv\xcb\r^pA\xd3^G\xd5\xf4;\xee\x7f\xa0p|\x80\x08v.m\x96F\xbf;\xed|\xc9\xf8{\xa7\x88\x08`\x08\xaa\xec\xd4/\x88\xf4\xfd\xdd\xdc\xdd\xf6Y(\xb9Oy\xe4\x85\x93\xc6{3ay\xe6\x89\x9b\xf4\xf9\xd4\x9a\xdd\x86\xbd\xcc\xe4\x94\xa7O=n\xe7\xe1m\x10\xea\xcd\x00E\xc3Bfv\xe1\xaa\xa7I\xcf\xb5L&lt;\x08\xc3]\x80\xd5\xf3)\xcf\x9a\xbd\xc4\xecC^\x15m\x84k\xc3\x1b,\'\xae\x8a\xb6\xc2z\xe9\xd5\x91U\xf9H\x9e\x8e&amp;\x00\x1d*\xcf\xc5\xe0R\xc7Z\xb2$\xe8\x8a\'8\x94\xa7\xe6\x90*\xe9!\xd3b\xb9b=\xc0\xd1\x01R&amp;@1d\x14\r\xc1Wg%\x1b\x1b\x0c\xaa*\x82\x86!\x90~\x01\x0e\x10\x06\x8d\xc5\xe1\x1c\x03\x87\xdc\x02\x03\xc2"s\xeb_!r^\xcd\xf2\x14jd\x83\x87\x9b\xe1\x0e\x03q\x0c!\x10\xe1\x08w\x0e\xfd\xf4\'\xe7o\xd0\xd8\x16\x90\x10\x98\xdf\xcf\xfe\x81\xc12\xfa\xaaC\xc6\x89\xf3&gt;\x93\x7f\xa9\xc5\x8c\xf2NZsp\x95v\xb9\xfc\xd3\x88\xde,\xf9\x07:UD\x0bGf\xff\x00\xa2f\xbaO\x0f\xc8\x88\x08`\xe6\x1ez\xbc}\xb9n\x07\xad\xb8\xf4\x9cI\xa6Q\xb1\xd9\xaf\xe4@&lt;\xc7xx:2\xb1\xca\xc3L{\xbf&amp;f\x8e\x9bn\xc9\x85fzn]\xd3\xe6\xd3+\xf3\xd0\x1c\xbeW$\xaa9\xe2Ke&gt;\xd5\x1e\x85\xa5\xa8\x92:\xe4\x10J\x04:\xdf\x9cI\xb8B\x1a\xca\x16r\xebf\xb0\x01\x18\x1e\x9b\x020\xa3.TEt\xa1HGt\x87\x11`/@Ux\xf9\x18\xed\x1e\xa6?\x83\x96\x81\x10\x005\xae\xa7vI"(Y\xc5&gt;1X\x02\x02"\xa4\xe0E\xc1\xc2\t\x82\xc0\r\xc8\xbalG\x84\xaePq\x13pq\x90\xa8\x92\x83P\xc50\x18\xc42\x0c%\x17\x11(\x80\xc3\x87\x83\x83\x80f\x12p\x952\x07\x12\x89\x98\xa3\'\x08\x0cx9\x062fa\xf8\xbcG\x80JJ\xe1\xf4?\xe7?\xd1\x18+\xa0pM\x16\xbda\x8b\x8e\x8a\xebk"\x90\xdfPB\xf2\xf0\x96b\xdfK]Y\x92\xb6\xda\x81K\x0cGu,n\xc1P\xdf\xb9[\x92\xddm!\x87\x15X\xb6\xa2\xe4\xae\xaa\x16\xb2\xc6U@\xb5\x16\xb9\xd5\x8bh-r\xab\x85\x98\xb0\xb2\xb6\x16"\xd5"\xcc\xb2{\xeaxB\xdd\xc3}yp\xac\xb3@\xcb\xfa\x1c\xea\xd4\x1c\xb4G7\x94(,Z[Yv}\x1d\x92\xad\x98&amp;\xa7`\x8bl\x90\xdb\x15RJ\xafR\x8d\xe1Yw\xa8%\xd0\xc4Y\xd1t\x8e\x16hM8\x05\x97\x97Q\x04\xb2\xc2\xea\xdc\x96LMl\x05\xe2\xea\xed\xfa\x81}\x91\xfc\x1c1\xe0\xe0&lt;\x8cX"\xf0\x8d\x9e;\x1fF\x08\x97\xc8\xfb+\xaa+ft\xe3R\x19\xa8\xfb\xa8jT\xc6\xca\x04\xaa&amp;\xd1y2\xb1D\x0eQ\xc1\xc2\xcc\xc3)\x8a\x89\xa8\x16\x06\xbe\xc9\xd7`\xfec\xf7\xd2\xb4\xc3\xe6\xc9\xbe\x92\xaa\xd7\xcdb\xfd4z/\x98K}&gt;X&gt;a\xaf\xf4\xe0C\xe6j\xff\x00J\x8c\x1f7\\}\x1f\x11|\xddu\xee+\xa8\xbev=\xfa\x13\xc3\xf0\x13\xafx\x80xaOp$\x1e+u\xec\x9e\x0f \xc9\xfa\x95\x14\xf0OA1\x96\t\xc2\x98&amp;\x82\x1ea\xba\xb2\x02\xb5\x7f\x8d\x87B\x9d|e,\xe1\x9f\xc8L7\x8e\x86\xaf\x99\x90\x81\xa6\xabvyU\x03 \xd5T\xd4l\xc4\xc4\xe7\x9aV\x9c\x0e\xc8\xbd&lt;\x08\xde\xeb\x92\xf5\xc7E\x91jY\x94\xee*\xd2y\xab\xb0T\x18\xa5~R\xb5c\x9eS7]"\xbf)\xe6\x17l\xae&lt;U\x9a\xf1k\xe7(\xaa\x0b\xc6\xc5D\xa6Z\x00\xa7\x05"\x11^&amp;\x81\x1c\x84\xa5\xea\x1b&gt;%\xaa\xd3\xee,\x06@t\xf1\x9c\n\'\x05y1\x05E \x05\xcc\xd9Q,dL?\x1e\xe7\x1a\x0ey*\xd8\xf7\x03B$\x10\x10\x0e\r$\xd03\xf8zvX\xa4-Y\xb7\xb7\x8b\x99\xa98\xda\xe1\x9c!m\x0c\xdb\xbb\x8f\xd5\x85\xbb\t\x85\xa5\n\xc2:\n\xf5h\xce\x89x\xac\xd9U:&amp;J7NA9\x04=\xdd\x7f\xae\xcc\xd3d\x8a\x8c\x15i\xfa\xd1\xca\x8aEh\xd5\xda|-E\xa7Fj\xb0\x1dF\xca\x89\xc7&amp;\x0c\xa8\xdc\xe9\x97\x14\x94\xe2\x03\x14\x02C\x84\xcdS\xc8X\xd8{\xee\xe1\xf3C\x87\xf4\xf9/\x18z\xee-\xfb\x98\xe4\xa1r\x8dq\xfa\xd7;\xdfz9o4\x81/N\xaf\xe5\xb1\x94=P\xb7\x94\x8c\xea\xf5z\x9eO&lt;\xab\xf5y\xfc\xa0\xa3\xaf\xd5\xa7\xf2\xa2\xb2\xab\xd4\xdd\xe5\xf5\x9d~\x9b\</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495568-jorge-almiron-se-fue-del-elche-despues-de-cinco-partidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>El Messi que queremos y necesitamos</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8 de noviembre de 2022 - 00:32</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La oportuna y tocante miniserie estrenada la semana pasada sobre la Selección Argentina y la Copa América que se ganó el año pasado en Brasil mostró a Lionel Messi tal cual lo querían ver millones de hinchas. Resonante en su función de lider, su arenga en la previa de la final en el Maracaná tensó las cuerdas emocionales del país futbolero a quince días del debut en un Mundial de Qatar que se espera con expectativa acaso exagerada. El Messi que queremos, vibrante, comprometido y dispuesto a dar todo por los colores, aparece allí en todo su esplendor. Y desmiente años de críticas que escucharon y leyeron sobre un astro único con la pelota, pero ensimismado y distante. Incapaz de hacerse cargo de la Selección para llevarla de la mano rumbo a una gran consagración internacional.Sin embargo, para poder hacer una gran Copa del Mundo, ese Messi es insuficiente. Argentina no llegará a estar entre los semifinalistas sólo por el hecho que motive, grite o insulte. El Messi que necesitamos para figurar entre los cuatro primeros y, mucho más, para ser campeones del mundo, no es el de las arengas emocionantes, sino el otro. El que aún con 35 años y más de tres lustros en el más alto nivel, sigue provocando asombros cada vez que juega y hace jugar. El supercrack que, con menos piernas pero con más sabiduría que antes, es capaz de resolver los partidos con tres o cuatro pases de magia.Aquel Messi de los años virginales que tomaba el balón en la mitad de cancha, eludía a cuanto rival se le cruzaba en su camino y hacía de a dos y tres goles por partido ha debido dejarle inevitable paso a este Messi de los años maduros que arranca por delante de los volantes y mueve los hilos de su equipo, abriendo pelotas a las puntas, poniendo a sus delanteros mano a mano con los arqueros rivales o yendo a definir él también. De aquel gambetador empedernido a este estratega genial han pasado quince años de fútbol. Y además, un mayor conocimiento del juego que le permite anticipar las jugadas. No por ser el más rapido con las piernas sino por verlas antes que ninguno.En los últimos veinte partidos que jugó con el París Saint Germain y la Selección Argentina, Messi marcó 16 goles y aportó once asistencias. Si además, en Qatar es capaz de meter cuatro o cinco pases gol por partido para que definan Lautaro Martínez. Di María o los volantes que se suelten desde atrás y se siente fuerte como para llegar al gol por su cuenta, Argentina estará en condiciones de hacer un gran Mundial y hasta de ganarlo. El Messi que se necesita para ser campeones es ese, el gran estratega y el enorme definidor. Si además, viene acompañado del Messi que queremos, el de las frases emotivas, el líder que toca los corazones con pocas y bien dichas palabras, el combo será completo. Estaremos delante de un fenómeno del fútbol de todos los tiempos, capaz de hacernos llorar cuando habla y reir cuando juega. </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Por Daniel Guiñazú</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x00\x00\x01\x00\x01\x00\x00\xff\xe2\x02(ICC_PROFILE\x00\x01\x01\x00\x00\x02\x18\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00trXYZ\x00\x00\x01d\x00\x00\x00\x14gXYZ\x00\x00\x01x\x00\x00\x00\x14bXYZ\x00\x00\x01\x8c\x00\x00\x00\x14rTRC\x00\x00\x01\xa0\x00\x00\x00(gTRC\x00\x00\x01\xa0\x00\x00\x00(bTRC\x00\x00\x01\xa0\x00\x00\x00(wtpt\x00\x00\x01\xc8\x00\x00\x00\x14cprt\x00\x00\x01\xdc\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00X\x00\x00\x00\x1c\x00s\x00R\x00G\x00B\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfpara\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x03\x00\x02\x04\x05\x06\x07\x01\x08\t\x01\x01\x01\x00\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x04\x05\x06\x01\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf9-\xba\x15s\x9e\x95pr\x14\x99\xee(\xe3^\xb3$T\x92\xddtpU\x82\xed\x93T\xa5\xb3n\xaeZ\xd8\xf6\xcd\xc5urd\x1fs\x15km\x16T\x05b\xd7\xd8\x93Z\xe48i\xb1H\xc1u\xa5\x8c\xc5\xc1TU\x9aZm;\xaa\xf6t\x9cU\x18\xd72\x8c\xd2\xd2B\xa9\x87e\x0b\xcc\xb1\xa0\x05X\xb1\xd9j]\x12*]\xa6z}\xae\xe3\x02(\xc8\xc3I\xb4uiE.\x0c\xc5im\xb3\xf6\xa9\x97\x10\xe0!\x02t\x15Fn\xa3K\xaf\xb9\xcc\x16\xf75x #\x07.$\xa3;\xe5N\x02W\x8e\x04;dS\x9e\xc4\xa0-\x00U]\x063AR\xde\xc1\xa9\xa5\x97,\x93QEb\xdcUN\x0bH\xe9\x00\xe6ywW \xa4D\xdb\x00\xc8\x8b9+\x81x\xac\xeb\x81\x1dPC,Q\x96\x03L\x16#L\xad5\xcd\xfc\xba\xbbJ\x15\x11\xb1Mp\xd9\x8fe@tO\xb9\x8a\xc9$\xc9\xab\\+(\xd1\x88\xf6\x91\xa6\xdc\xc9\x8d.\n\xa1\xc44$\xeb\x95\xca\x8a\xa8V\xcf*=\xb3_\x14\xee\xb4w\xd5r\xb4Yb\xa5\xd6i\xf6\x9d\\\xf9*5{\xe7\xca\xa1u\xdf\x9fT\xaa\xeb\xdaR+\xc4Q\xb6\xfd\x85\x03tL\xa9\xa0u\xeb\x9f+=\xb4|\xfd\xa0\xad\xd5\x0ek36\xec\xf0\xaf\x93&lt;\xb3t\xb0t\xd1\x8c\xb8t\xe3\xa8\xcb\x8fQ\xe1\x98\x06\xb1\xa6Ej\xfd2\x9e\xea\x95\xb2kX\x8c\xbb\xb5J\x19Y:\x17\x14\xf3l\ts\\+F\xc5T\xabA\x1d\x03o\xcc\xba\x173\xd2\x1f\x90u\xdc.]&gt;a\x1bG\x0b\xa1\xc7\xa35\x93\xb2\xe2\x80Iks\x04\x1fd\xb2n1\\\xa8\xcfI\xeb\xe4b\x1c\x97\x8c&amp;\x93\'$A\x1d\xa00g\xac\x05\xb4m\x1d\x8aXW\x90\xa5V\xa5\xa2\x01%\x9c\x92G\x16\x15\xb5w\xf5v\x83\xe4\xf6\xaa\x13\'3\x16Z\xc8\xd7\x00\xa8\xaeS\xc7x\xd4\xf8G,\xcb\x06a \xe9\xaa\xab\x81qV\xcaYU\x84D\xb8\x8d\x1ag\xcf\xa5:\xec\xe1A\n\xa4\xb4\x12\xd3\xd1\x9fb\xd8\x88\nG\xb2\x8c\xa44\x8cG\xba\x82\xf0\xcaCD@\xd4\x92\x11\x14\xb1\xac\r\x92\x90\x04t\xb1"\xa1\xa9\xc8k\n\x81\xf8W ,;V$\xe7\xa1\x8fNZI\x1e{\xe7\x83\x9a)`\xdaD\r\x19\xa0\x11\x1e\r\x19\x01q\x104t\x01\x1d\x80\xd1\x10\x11Na\x11KCu\x993\xe2\xd9\xdb\xc3\xccF\xd6\xdc-]xwy\x93\xe2ZU\xcdF\x9dZ\xd9\xbb\xe5FzX\xc0Z]\xcd&lt;\xc3\xaf\x1bx\xab\xa4\xd9\xc9\xc8\xad\x93lr\x82&amp;\x96\x06:\xcf\x02\xecX.\xa4w\xeb\x1dg\x96\x85\xa6y\xd7\xeb\xea\x98\xb6\x88\xa2\x06\x84e\x03t*Y\xe6\xe8\xfd\xab\xcb\xb3L\x91\x97n\xa1\x19WiQ\x9e~\x85\x15\n\xd1\xc9\xa5\xad\xd4\rY\x96\xe9}\x9f\x99qj\x82\xfb@\xeb\xd2S8\xb5\nr\xe5\xe5\xde=:\xe0M\x8bQ[\xe0T\x8e\x80\xe1\xfe\x8d\xe9\xf7\xd6\xa3\xd7\x8d\xc4\x99\xf0\xae\xaa\xa2D\xb8\xab"\xfb\xe3\x96\x9a\x94\x99\xeauC\x12x\x9c\xc2\x85q\x8eWF\xb1\x80\xf8$\x93\xeaI\xc2\x01\xf02\x98L\x8d\xa2\xe6\xc2Q\x95w\xa1\xc1\xc9\xf8\xe9(\x04\xb9I)\x87\xa4\xaa\xdc\xd4\xe1\xaek\x84\xbd|\xc0\xd1\x9b@"y6\xd6\x15Q\x835\xa4"\xc6\xee\x8d\xe4w&gt;{\xad\xfa6\x9e\xa7\x88\xe27\x99\xdd\x9d\x18\xacm\xfd\xb2\xb2z]#&amp;\x07u\x8e\xdeg\xd1\xd3\x08\xac\xb9t\x907,X\x12\xb4\xa9=i\xa2\x90\xc6F\xc5=9-\xacz\x93\x13\xd5\x19\xef\x8aMNCS\x90\xd4\xe4\tz\x85\xe2G\xad\xf5\x1e\'!\xab\xd7\x80E\xf0\x1bJ\xd0B\x920EDC\xd1\x1a\xb6\xb9\xc8\xba\xae\xb1\xae\xa8\xa6k[# \xa0\xcf\x01\x07\xb8D&lt;\xf0h\xb4\xd0\xe6\xaf\xe8j{JB3\xe3)\x1d\x01.J\x8c\x89*2\x0e\xe8\xc5/\xcf\x16]b\x89OgK4\xe7\x03\xc2G\xb5\xa0.\xf1Z\x1bH\xcb\xcd&amp;\xe8~\x80\xd5\xdc\xe0\x97\x1fB.oW\x8et\xdd\xbc\x9ap\xcc7\xd0_=\xf4yNp\xfc\xdc\xd1*\x1f\x81\xfd\x07\x94\x90\x80\x89\x07\x89-\x0fc\x87\x7f\x06\xd662\x15\xd1\x91\'a\x86\xe9\xba\xb9\xf5\x14\xdbx\x9c~\xfe.~\x86O\xd5$m\xbdvh\xc8\xe8\xd4\x9dm\xfb\xac~\x95\xd9q|s{\xd9s=^\x06F\xd3/\xde\xb7\xf4y\xfe3\xe8\xbc\x0f\'\xab\xc6%Z\xe5w9\xda\xe3\xe3\xafv0X\xa6\xacB\xf8\xd4=\xbez9\x89\x0b\xd5\xe3\xe2z%|kH\xd0lpf\x88\x82\xea\x11\xa9\xd2k\\\x86/|\n\xe7\x92\x91\x9b&amp;0\xcf\x1c\xd1\x08\xa2J \xcf5\xe7\xaeBI\xd4\x9fO37s\x11\xb9\xc6\xc3J\xb3N5S\xf2\xf7j\xb6\x03\xa0M\xb4U\x95\xe8\xd9\xea9\xee\xde\xa6~z\xdb\x14\xa9\xad\xcd#J\xec\xd24\xab4\x9f4\xae\xce\'\xdd1\xb2\xb3M\xe4\xfc\xf5\x92[A&amp;\x81V\x8em\x8e\x9a\x9e\x15\xfdN\xbc\x83\xa1s^\xb1\xb1\xb7\x17P;\x8eOnJ\xa2\xe7\xb8\xf3\xfd$O\x9b\xfa&gt;J\xb6\xe2=\xf3\xe6\xde\x8f\x1a\xd9\xd4k\xa1\xce\xbd\xf2\x9d}]\xaae+\x95N\xea\\O\xa1\xb5D\xe0(\x82\x1c0\xcd\xcf}{\xc9\xbb,E\x96,\x9d\xe2\xa8P8\x9d\xfd\r\xde+Sw\xe7*\xee&lt;{$\xd8f\xfa\xc6\x13\xeez\x9e\xed\xca:\x8dbT\xfb\x0c\x9e:\xf9\xdf\xaf`\xba7C\x9f&amp;\xb6\xc2\xb7\x95\xd0\xa3\xc9\xf4 g\xd6\xf9\xfc\xbd\x03%\xd3\xe2Lp|\xcb\x8eJ\x1a\x08\xd6\xb0\'\xa2z\x1c\xe6\xa5\x90\xe0\x93P\xe1\x98$X\x92\xab\xe5\xe9!\x1a\xa6{\xc4\xa6\x9e\x99\xe8\xef\x1a\x89\xc6\x8d&amp;\xa5\xb1%\xc2P\xfckd\xe1\xa1\xd0\xc4\x8cy\x1d5-\xc4\t\x90\xdc\x8e\xd7\x15\x96y\xfbK\x18#\xa3\xb8\xd0\xeaq\xfaX\xad\r9\xeaf\xe8\xabe\xc0\xacZ\xae\x8d\xcf\xfaM\xa3\xf3\x8e\x97\xcc\xa1\x9bAD\x95\x19*J\x8c\xd2k\xa1"m\x85%\x95\xcfB\xb6\xa7\xb1*\xe0OZ\x0bKH\x96\xdez\xa3U\xf4\x8a\xed\xcc\x1c\xb3w\xa1\xb2\xe8oO\xb4\xad\xa5\xe6z-FJ\xee|\xe5\xa5\xe9X\xb2\xe4\xf9\xd3&gt;\x18\xfbG\xf3\xfb\x7f\x95t\xfc\xe3\xba\xdc]\x03\xf3/\x86\x94\x99\x94i\x96i+o}\x82\xd5\\\xdeW6\xa0\xf0T\x03\x8a\xd1\xd8c\xae\xdf53i\xfa\xb4\xde\x9c=r&gt;\x87G\x95\xf4J[\x8d\xac\x16\xdc\xdb]\x84\xe6vz~c\'\x19\xb7\xae\xbf\xe6Z\xccum\xca\xfb\x8e\xa7\xa1\xc3\xf9?\xa2\xf4&lt;\x85|\xa2\x81\x99\x9b\xa3\xb9\xa2\xf42\xf1md0\xda\xac7c\xcf @\xad\xcf\xab\xa6Y\xbfM\x1a\xcezi\x16m\xe6\x8d\xd9\xa7\x1a\xab\xdcGZJ\'@\xb6W\x1e\x81\xdb\x04p\xf5\xdb\x1aq\xc6v\x86\'\x8c\x0f\xb55\xf7\x89\xae\xd2\xd7\xde=\'\xad+\x9e9\x03\xb6\x02\x1cM\xbd\xa5\xa7\x18\x17jj\xb8\xb9{\x0b\x13\xc8\xdb\xd7\x1b5\xc9\xdd\xd5\x158\xf6N]\x15\xcd\x04ymT7\x99\x05\xbb\xa2\x96\x9b\xe8Q\x1b\x15\x10fW:&gt;\x81\xcet\xa5\xbe\x07C\x97(\x87-\xc4E-\xa4oe"7\xb2\xfc#\xd8\x84\xc6\xaa\xc378\x9ax\x7f\\\xe2\xc5\xc7\xbb\x0b\x1f\xdc\xd0\xb8\xe3\x1d\x02\'oS\x1dh\xec\xe7\x03\xb3uJh~\x1f\xd7A\xd0\xc2\xb2)\xf2W:\x1c\xf7\xa5\xf9\xc3\xe8\xb2z\x9f)\xf1\x92\xfa\xbb\x86\xce,\x1b\xe5\xadl\xb1\x94\xb7\x10\x94\xb4H\xd0g\xacKj\xb7\xc2+\xc1-\xa4me\xef\xd0[z\xf8?\xa2!lsc\x9b\x1aJ\xd4\xcf\xc0\xa8:\xe7\x13\xbc\xba\xfei\xb3\xe4\\.\xae\xe6\x00\xac\xb5\xbaj~\x0bg\x0e\xed\xd4sz~\xb7\x0b"@\x03\xad\xca\x9dM~L\x19\xf8\x94\xbe\xa3]\xc9\xeds,\x1f\xd40:\x1c\xdf\x880\x9fzr|\xba\xff\x00/{\xb6\xc4\xe3\xa71\xa9\xf5\xee&gt;\x9f\x16L\x9bw5sq&gt;\x8d\xf9\xcb\xe9,\x98z]\x9c_\x19#{\x94\x84\x8d\xbbr.5\x8e\xc9\x90\xd5?2R\xf84\xec]\xc7\x94\x91\x11\xa1n]\xa6\xa1\xd9r\x9aU\x9e)x\xa9\xdc\\6\xa5\xc5\xa2\xadq\xf1\xac$\xaeF\x88R3e\x0c\x0b\x88\x84\xd74i\x13\x87\xcf\x83\xe9.\xbc\xa8\x02?\x80Q\x90\x14oA"z\xa1?\xc7\xa5\xd3k\xfe\x91\xc8\xea\x97Ql\xfa\xfc\xbcy\xc0\xbb:t\xf2]a\x9b\xe62\xbe\xda.:\x87\x98\xd1\xe3\xbc\x17\xb1\xb2\xca\xc9\xca\xf2\xf65\xfd\x0b\x94\xe8z:\xbb\xbb\x0c\xbd\xc7\xb2\xf37\x178[\xbd\x8dno\xc8\xfe\xc7\xae\xf3{\x9f\x1d?\x7f\x8b\xd5\xe8AES\x94Ec\xc4\xd78\x04\x86t*\x9e\xd9&gt;%\x0e\xce~\x9d\xd4\xbe@\xfa\xb7[f&amp;\xa7\xda\xb71\xbc\xb3\xa8\xe46\xf0|\xd5q\xac\xe7\xba;Y\xc8[\xb7\xe8\xefs\xaf\xafiz\xfex\xbal\n,\xb8(3\x9az\x7fA\xc8\xd8\xd8\xd2\xeb8\xdd9\x11\xa6RD{I\xa3\xccl`\xba&lt;\x0b9\xd9\xe5\x7f$\xfe\x83q6\x1f\x8c\x16\x86\x9f\x06}\xdf@\xceu\x1ewV\xbb9\xd6\xa8\xb5w\xb8oc\xc4oz|^\xa1\x06tM\x8c|\xa79}\x98\x88\xb4%YW&lt;\x95\xce-\xfd\xacqb\xab\x9c\x16\xbdV\x0c\x8d\x18\x08\x98j\xb1\x97\xe4\xcf#F\xfc\xbaN\xa9d\xd8\xady\xb1\xa8\xe6\x89+\x97\x10.\n$\xd19\xa8I0{\x9a\x83&amp;z?\xcf&lt;\x1e\xe6\xf89x\x8fW\x9e\x1e\xa6\xa5;\xc6\xbe\xa7A\xf7/,\xd2\xe5\xa9\xcc\x0cOQ\xc2r\xad\x99\xb1\x8ax\xa1\'\xc6\xd4\xd9\xc0\xc8\xa3\xc8w\x9c\x8e/\x9f=\xb7\xa7\xe8x\xbd:\xb9:\xfa\xde\xae\x8c*\xfd\xce\x03\xe5Ft\x0c\xcd|\xe9\xb2\xf9\xfdO\xcf\x9d\x9b\x9f\xd4\xdcy\x9e\xd76\xcbv\x98\\~\x8f\x1c]\x86F\\\\j\xe3\xa9t\xd5j5;\xdc\xb6\xce\x8f\xcf\xab\xado\'\xa7\x9f\xbe\x06Fuu\x913\x95\xf9q{\xa1\xe5\xbb\x7fC\xc6\x8c\xdd\r\xb7\x03\xb5\xcf\xeb{\x1e\x0b\x9f\x9f\x94\xef\xad\xb4Z\xf9tM2\xdc\xd6\xe6\xf5\x9d;\x9el\xea\xc3\xe8\\\xc7U\x9e\xba\x1b\xb26Z\x99\xea\ta\xf3^\x0eo\xd0\x12x~\xf7s\xa1\xd0\xa9[\xa3\xc5\x1f6|\xe1\xf7\x97\xcc\xba\xbb\x15\xbdS\'\xae\xe4t\xf5\x14Sh\xbenc\xf7\xdc\xf7\xa5\xf4\xf8]\x12\x14\xfa\xde\x96\x0eU\x99\xd1\xe7\xa0\xd7$&lt;\x8d*\xdc\x9c\xd1\xae\x12#T\xdbS\x90\x92\xf2\xe0c8\xa0\xd4\x90\xd6=\xb6o\x8eG\x8ec\xa1\xcd\xd8\xf6\\\xfb\xe2G\xbe$$\xf41=\x0czC\x9d\xeb\x84\x92\x12^\x1e\xb7\xcfD\xc7\xb0I&lt;]3\x9b\xfd\xbb_v\xbc\x1fa\xcd\xb1u:nN\xb1{O!\x7fAE\x99\xbc=\x9b\xde}\xb0\xa7\\\x85\xca,9[~\x95F\xeci\xdcg\xb5\xd8\xd8\xf9\xd0uP\x1b\xe3{\xf9\xcc\xce\xe3\x8c\xf6\xb4q\xf9\xba\x18\xd8k\xa3k9A5\xef\xe8\x0c\xce\n\x7f\x0f\xab\xbb\x06&gt;\xcb\xe5\xdd\\Q\xf4,Y\xce\xe7F\x8d\xee\xddg\xc8;oK\x84\xd8\xe2\xcc\xbe\xdf\xf1\xedW\x11\xd9\xd5\xdd\xc0[L\xb3Y\x0b\xa0s]\x88\xe5_Tp&gt;\x81\xce\xdc\xeb\xdc\xfa\xce\xb7\x97\xb9\x86\xea\x18=\xf6\xb5\\2,-\xcd|\xcd\xc6.^\t\xce\\\xd2f\xfdo#\xa3\xed\xbe[\xc7s7\xb5\x18\xcc\xd4\x9c\x19~\xe7\xe1\x17\x1a}\x1d\xa8\xfb.W\xcd\xf6qw|\xcf9\xbb\xe4\xf5\xfa\x8d\xc5\x16\xe3\xc0c\xa0\x89\xb4ZNg\xab\xd0X\xf5\xb5k\xa96x\xef\xd1\xf4\xf9=\x1d\xc5&gt;\xd4\xb99-\xa5\xf3\xdb9&amp;\x8cMt!U\xdbT\xa2\x12j\x1c\'\xa0I\xca\xc3i\x14\x06\x9c\x81z\xe6[\x9b\xa4\x92\xc7\xa4$\x90\x92p\xd79\xc7\x9e\xfa\xea1?\xc9\xa5\xeah\x9b\xea&lt;^#\xd4\x9dR\xcfS\x8e\xd3\xf4m\x15\xb7k\x9d\xcfc\xf4\x1a}\xa8\xe7p\xb6\x1c\xabs[\x94\xde\xc7\x99\xcc\xda\xd6l\xf0z\x1e\x9e\x96\xde\xcf?q\x9f\xe5\xa4(YX\xfb\xa1\\g\xb4a\xbdOG\xf9\x0bK\xc7\xe8\xf4O\x9f4\x1c\xef\xe4Ca\x1b\xca\xe8\xfb\xe3\x90\x9c\xd5\x03\xdf\xd2}1\x8b-\x95\xb1\xa4\xe8\xf6#a7x+g\xfe\x96\xf9v\x15h\xf6\x9f\x9fKIP\xde\x81\x97\xdd\xee\xe8Q\xf4l\xf6\x1a&gt;}1O\xcd:\xc7\xa3\xe5\xe9l\x15\xb7\x03\xb1\x83\xf9\xe7\xeb\x7f\x96.m\xa1G\xfa\x1f&gt;\x0c\x1fp\xf8\xf3\xba\xeam\xee\xf9\xb6\x87\x03\xd2\xe6\x87\xae\xd1iu\xb6x\xef\xc5\xbf\xa7\x7f)`\xcf\xc3\'\xe6:V*\xd2}\x81\x8d\xd6\xf3\xba\xd0\xfee\xfa\xab\x91\xf1\xd8\\_\xd0\\\xeb\x95\xad_\xdd&gt;\x7f\xec\x19\xf6z\x04\x9a\xb9&gt;\x03\x0c\x99\xb9\xc9\xb3\xf6\xe3\x11\xaa\xc7~\x95\xa7\xc9+g\xc4\xf5\xd8\xdd\xeb\xd2F\xe7\xb6\xe9\x8dp\xc6\xb8\x07#U\xd9U\xa2\x03\x13\xe0\xbc{F{\xe3l\x92PMr\x1a\x929\xa2z\xb9\x13\x9c\xe5y\xe3\x9e\x919\xde\xa9\'\xf83\xd4\xd4\xfb\xef\x88\xf5\xbe\xb6\xab\xdf=\xf4\xf1\xaeI\xf1z\x95\xe7A\xc1\xfdK\x8b-\xfb(\xe9\xe6\xba}^#M\xe8\xf8\xa6\xf9\xdb\xbb\xf1\xfd\xddZ\t\xb7d\x8am\xc0\xc5\x9f\x1d\xec\xfa9\xfbX\xe7\xf0~\x9f\xce\xb9\x9b:\xcd&amp;\x1f\xa9l\xeb\xd4\xb7G\x83\xcf\xf71\x8a\xd0\xd0y^\xca^\xbbWa\x9e\xf8\xe9y\xe2\xd0\xab\xa8k\xb4t\xba\xbbSo W\xc6xX\x8e{\xdc\xf1Y\xb2z\x8a\x0eoO+\x82\xd8f;\x1c.\xe1uwq\xd9\xe2\xac\xafn\xa7\xd0\xde\xf8\xe7\xb8s\x9dg{\x95\xdal\xa8.8\xbd{\x0f\x94&gt;\xa4\xf9\x82\xa6\'\xd1\xff\x00(\xf7\r\x8dny\xf5\x07\xcc\xbfKj\xed\xf3\xdb\x8b3\xf49\xf1-\x0e-\x1d\xb5\x96\xd3\xe4\xf3\xe3\xcaQv\rV&lt;\xbf-ncr&gt;\'s\xe9\x85\x8a\xdc\xe8\xef\xd2S\xf4\x1a\xdf\r\xce\xe1\xfby\xf0=\x15t&amp;4&gt;\x03\x05L\x9ccvg\xadg\x8dS\xdbs(\xa6\x8d\xfaf\x8c\xa6%\x94\x93\x90\x10\xc8\x8c\t\xe2-\xa3T\xdaU\xc4W\x95\xae\x12J\xcciX5\'\xc1\x8d\'\x83\x1a\xefNp\x9c\xad\xef\x88\xa3\x9de+\x16|\xd3o+\xbe!\xb5\xec\xcd\x83\xd4\x90\xef\x13R\xf6?\xca\xa6\xfa\xbdO\xac\x7f\x92\xf5\xca\xd1[\xde\xd1W\x13\x99\xd8\xab\xa0\xb2\xc9\xe6\xd3\xd0\xf5x\xfb\xbd\xed&lt;\xf79\xde\xf2\xcfM\xc5\x81\x90\xde\x0f6,\x9c\xf9s\xe9\x1bIR|\x91E\x81\xeb\xf5&lt;\xed\xcdum\x85\x07KO&lt;:\xf2h\xed`\x1a\xef&lt;\xdfc\xc4\x9c5\xc9\r\xef\x19\x1e\xeb\xab\xb5\x98\xbc\x8di\x8b=_\xcf\xb1\xe86\xb4\xf6\xfd\xbb\x9e\xef\xf8\xfd\x88\x14\x16\x99&lt;\x19\xf1\xac\xa7?\xa2\xf3\xbfI\xdcs\x0e\x81\xdb\xe3u\xf6\x04\x1cN\xbf?\xa3\xe9\xfc\x83oG\xa4\xea\xb9\xee\x9b[z\xd7\xe7\x9f\xa2h3\xe0\xe5\x14=kE\xb3\x82\xd6\xe6\x92\xff\x00\x9b\xd1\x03\xe7@\xdf\xe7\x1e \x0f\xad\xb2\xdc\'F\xc9\xecc\x89\xb7\xca\xea\x9f#|\xe5\xf470\xd5\xda\xcdt\xdcf\xab\xcfzmB\xaf\xb8\xe1c\xa3\xc5nq\\\xc6\xb2#\xab\xbc\xf6LE\x15\xdb}V\xb6\x96\xae\xd2\x97\xd01\xcdM\xef\xf1\xe4z7\xd4\xbd9\x02\t\xc0FsR\x03WcYw\x11\xcdr\x13\x9aA\x0c\x8d\x1a\x9c\xd11\xed\x18\xd4\x8ez\x92\x11D\xe5_\xea\xabz_\x0b\xd9\xe6\xabz\xa5o3\xd1\xf0\n\xbe\xb5\xcc=\x1f\x84\x82\xe7\xfb\xbb\xc2\x0b\x9e\x86z\xefFx\xf5R\xc2x\xa6\x97y\xe0\xff\x00M\xc6K,V\xd7\x1d\xcc\xeb\xb7a\x96\xd7t\xf9\xba{,\xc6\x87\xbb\xc3\xe7\xf1\xaf\xf3\xdd]&lt;\xe4]|I\xfbJi3r@\x1bp&lt;\xb1\x12\xee\x18r\xc99\x96\xbb1\x8e\x96\x0b{\xcc&lt;\xdfa$\xb9\x9b\x89%E\xd3t\xfd\xc7O\xa7Wc%s\xbb\x16_2\xfdG\xf1&gt;\xe73):\x0e\xafs\x95\xd8\xca*\xfe\x07\xa3\x89\xcc/\xf9\xefO\x94\xd7y\xefG\x9d\xf4L\x9a\x8b\x8e\xd7+\xb3[R\xca\xe2\xf4\xe8i/h\xb7\xb447\xb0%s\xfav\x94\x85\xa0\xcd\x83j|\xacl\xb8\xbaZ\x817G~\xaf9\xa3\x83\xd4\xe4\xc0\xf0\x90\xb5\xf6\xach5\x91&amp;\xb3\x9b\xbc\xd6\xab&amp;(\xd9\xed,)\xcb\xcfE\xa2\xcb\xf1;\xba\x1d\x0eZ\xfbG\xa3\x93\xa9\xba\xcer\xb6m\xa3\x92\xdb\x89\xb3\xce4\xca\xdb\xd1y\xa2\xe6\xf6\xf9\x8fQ\xce\xe5\xc3xnd\x90$\x08\x97\xa0\x86\xf0\xd8\t&gt;"\ru\xb5A\x15\x13\xd1\x8eJ\xc9&amp;\x89\xaeCS\x9a59\xb0\xe7\rr\xcaZJ\x0e\x9b\xa1\xdd\xd2\xec\xab\xb4\x1eC\xf4\xe2G\x95\xe6+\xc6\xf3n\xc7\x8d\xe8h\xf0\xe1\xe8\xf3\xde\xb3\xf2\xbf&lt;\xf7\xdc\xfa~x\xe5/\x17\xae\xa3Rx\xce\xb9\xc9\xa4\xe2\xaf\xa7sP4\x1a\x1b\xb9\xdb1\xaf\x95\xb0\xa7\xb2\xab\xf7\xfeJ.\xbb9\x8b\xcd\x86\xf6\xae\xc2\xe8\xad\xb4\x89\tv\x95\xd1\xa4\xd4\x12K\xa9\xf6\xb0\xb2 q\x9a{13\xce^K\xbb\xe3\x08\xa2\x9b.5\xa4d\xfa\xdc\x99\xaa~W\xa7\xea\xb5\x99\xb3\xce^\x8d\xf0\x8f\xd3\x9f*op\x1b\xd3q\x1d\x1b\xd0\xf35\x995\x82\xe6o@\x82\x96-T\x9e\xeb\x9e\xdba\xc7\xb7\xbd^gv\xba\xc6\xea\xf9\xfb\x99\x8b^G\xb5\xe8h\xf4\t\x03\x9b\xc5\xeb\xce\x88\xb1\x1b\x9a\xd7\x90\x88^\x86\x9fV\x8fQq\xc3\xebg\x86+N\x97-\xd1.\xeb\xf4\xb7,\x19%\xb1Uv\x91\xa4\xe5\x98\x957\x158\xf3\xc0\xc6tL\xe7\x92\xeaS\xdb@\x9f\xb1\xd5X\xae\x89\x03\xc9`\x85~\xe9^S[()q\xff\x00@\xe7K\xc8lq^\xf7\x074\t\x1b\x10S\x00\xebs\\\xc3\xc0\x1c\x00\n\t\x04:\xeb*\xc4\x05\'XH\x83\x1a\x9c\xd1$\x86\xa7 i\xcd9\xb2\xd9\xb7-\xd4uH\x1a\xaf?\xee\xef\xa6\xc0/\x99\xf6\xf3\xd0\n\xc0\x0c\xe6\xa2\xa7=r\x0c\x17Y\xc1{\x0f\xcch\xd5\xdf\x9b\xfe~\x89\xd7"\xf95\x9eZ7\xea\xb5Y"\xb5O\xf7\xe2_c\xe1\xfd\xcb\x15\xea\xaa\xe1hy\x1d\\\xe6\xee\xae\x17WCG\x1f\x86D\xf6\x1e_\xb8f1\x9a\x1b)\xf2k*4E\xc3^l\xe3\x8c\x1b\xecI\x1b\x9d\xf7\xde\'\xc2\xe9\xd3\xa7.\x1fM\xa9\xc8jr:-~)\xf86\xba\xc638\xd8\xc9\xa0\xae\x81\xb7\xac\x1b\x08\xda\xcc\x0f\xa5\xb8\x18m&gt;Z\xb9\xc2O\xf3\xcfg\xf5(\xd5-\xfa/\xe6\x8f\xa66uz\x96\x96\x15\xc6\x1c\xf8J]\xcd&gt;\xce\x03M\xac\xd1\xf3\xb7\x1b\x90\xe9\xb9]\xedQ\xe9k\xaf\xd3tQ\x17G\x7f\x9fl)\xa0\xf5\xb8\xfa\xa1\xba\xaf\x97\xd3\xd3\'\x13\x1eX\x14\xb3q\xf4\xd0L\xca\xec,\xb3\x97\x14\x1f\x9d\xf4\xd5v\x9f\x18\xdc\xbb5e\x9e\xd5I\x18`\xfeo\xce\xad\x1dt\xcf\xd4t\xed\xf1\x9b&lt;W\xae\xc1\xcd\x1a\xe6\x87 \xce\xbf\x12h\xd8\xc7\x8c\x08\xb1\x8a\n\xae}`\xbd\x0b\xae\n/|ZI!$\x86\xa7!\xadp\xce\xbc\xba\x92\xf49\xf9\xc2\xe8\xb18\xfe\x8b\x9d;f\xb8^\x9b4}I\xf5\xb3\xe4\x16\xc4\xfb89}W`o\xab\xf0\xdc\x81\xbd\x85g\xd0\xe3M\xec\xad8\xc3;*8\xd2\xec\xde\x1cavTq\xae\xa3h\x9a4\x10\x90\'T\xb3am\xbcW\xab\xceVO\x1e\\\xb9z\xde\x81\x9c\xf6\xbe&gt;\x9e&amp;\x84]^ntE\x83\x97\xe0\xf45\xef\xc1{N]\x95\xbd\xe3\xf5P\xba\xfd\x86.\x9f\x0e\x0ftl\xb8H\xbb\xa0\xce\x1a.\xea\xd3\x85\x0f\xba\x0e\\*\xef\xaa\xfb\x8a\xe9(\xba\x14\xec\x1d\x0e\x1d\x9a\xfa\x12\xa7??\x88\x0f\xb8\xe5\xe3\x17*\x8566\xb6\x08\x7fT|\xb9\xf4nL]\xe6\x16\x82\x87\xeb\x9c\xc3\xbf\xda\xf6\xf9\x9a\x19\xf4\xb5&gt;k\xb5\xa4\xc0o2\xbb\xda\xb6\xcd\x97f\x9b\x93\x91h\xefg\xb2\x96\x97\xbd&gt;E\xee\x03\x7f\x84\xe6t\xef\xef\xb9\xf7B\x9a\xa5\xa8\xbb\x83W\x1ey*\x8c\xebqW_\x9et7\xd8M\x1d\x16-\xc1\xdf\xe7\xa7\xfa\xbd\xc5[kM\xf9\xef2\xa6\xf6\x9a\xef\xdds,\xb0\xbb\xac\x1f\xa8\xc5\xce\xbci"\xc8q\x9c`\xca Q\x8f\x08k\x84\xfb\n\xae\xca\xb6!\xaej\xb3\x92C\\\xd495\x0ejB\x19\x06}\x8c\xa4\xb7\xbf\xac!\xcbEj\xb1\xf5\x92\td\xa8\xcb\x18\x87R\x03\xcc\xabX(\xc9@l\x95(\xcaJ\xa9\x02;\x95\x19IR\x0f \xeb\xff\x00\x1f\xd6\x0e\x81iE\x8d\xdc\xd1\xea\xbd?\x05A\xe5=^\xb34\xcd\x07\x9d\xf4n\xe4\xf2\xa9\xfd\xe7\x8bj\xa3\xa7\xe9\xf1\xf5\x93y.CG?h\xe4tN\xe7mX:$ML\xfa\x7f\xd0O\xcd\x8e\xfd\xb2\xfb\x05\xb7M\xe8(\x9b~\xbe\xfc\xcf3H\x9fs-\xd2\xbe\xab*\xddbNE\xbb\x055\x8c\x1e\xd1S\x13\xc9&gt;\x8b\xf9\xd7\x13\xe7\xb8rc\xf2\xa66\x87&lt;\t~\x94\xbb\x93\xf7\xc8\xf9\xf2\xae\x8fw\x1f\xd0r/\xa7\xd2\xe98]x\x90t|\xefc\x06\xc6\x7f.\xdd\xefjmP\xd7\x17\xab\x9f\xbd\x0c\xbb\x8c\x88sV\xb3~\xed\xb9%\xe4\xd6\xe8?\x1a}B\xbdfT\xf4\x19\xdc\x8e\xf22\xe7uu\x85\xa2\x7f;&gt;\xa5\xd9\xc2\xe5\xdc\xd5\xc5\x04\x0c\x18\xe4\xd9\x8e\xeb\xa7\xe7bd\xfa\x15\'Zx\xb0w\xb1\xf22\xf24\xd6\xc6\x18\x1d\x14W\\\xd0\x1d$g4oHi\xcc u\xaa\xdar\x98\x9b\xec\xae\xb6*\xb4v`\x90\xa2\xb2\x8dk\x9c\r\xc9I\xad"&gt;\xbd\x1d#\xfdF\xf5\xe4\x9ay\xf8\xb4e\xc7\x05;.\x86E\r\xb3\x11\x87\x12\xad\x9fL\xa9\xcc\xc5&lt;\xf5$\x9f\x96\x03\xad\x03%\xc1\xe8\xe5"\xd1\xb5\xa1\x9f\xb6\xce\xa4=U\xa7\xe6\'\xe9\xa7\xe6\xaf3\x05\xc6\xcb\x9f\xd7`\xc5\xf4n\xd3\xe4\xef\xae8\xfe\x92\x15!r\xfc\xce\x9e\xf3\xe4\x9e\xeb\x85\xea\xf2yO\x85\x0e\xff\x00\x17\xd6\xf9\xec=\x13\x8e\x96\xc8\x96{@\x92c\x1f|\xf4O\x86\xbe\xde\xde\x83\xa8\xe4\xcf$Mo\xc1\x13[\xf0D\x17\x04s\\\x94\x9a\xdf\xa8\x1f.}=\xc9t\xba\x1f3\xd4\xfd\tG\xc4\xdf\xe0\x82\xeb\x1c\xe7kC\xea\x0f\xa6&gt;r\xefypS\xd5\xce\xa4\xe8h\xe8MC\xb0\xd6\xcf\x0b\x99u\x18\xbb8\xb3[\xa0\xd9EVX\xca\x83\xa5\xb5\xccy\xdd\xef\xd0\x05\xad}\x7f,\xd7\xd9\xd5\xc7\xe3\x1fI\\\xfer\xfds\xcd;\x83,\xb3\xd8\xd8w\xb4qU=\x12\x07\x1a\xb2s\xf46P\xe2s\xf5X\xadoC\xaa\xa9\x973\x05\xe9-E?\xd0\xf9\xe0\xc4\xb1\x1ex\xc8@\xd0\xc0\xdd\x91\xdc6\xe3\x12\xb4\x17,\xf8\xa5m\xdb.\xa9\xdbp\xa9I\x0bT\xd3\x9f\xd0\xf58U\x83\x93\x8b\xac\xb3\xecrq\xf5\xa1\xc3\x92;\xab4\xe5B\xebH\xe3\x8b\xb0\xb4\xcd\x94\x8bo\xdb\xdd\xdcg\xa7\xe4\xe2\xb7#y\x8b\xc5\xdd\xd5j\xf0Z\xea\xd1Y=6Fvo\rF6}K\xe9\x0fZvo\x83\xa0i\x80\x96U\xb3\xa3\x00\x91$\xe5\xe9\xa5eM\x13e\xf0_\xdb\xdf4h\xeb\xf2*\xe6\x1f\x8b\xc8\x9b\xf4\x9f\xcbRu\xf6\xf6\xdd\xaf\xe5\r\x06\x1d\xae\x8b\xcd\xeb\xa2f\xc1\\\xd9C\xcb\xa2\x91#\x86\xb0\x82rAD[IcN7\xeco\x90\xfbF|\xbfX\x1e\x92wknx\xa3\xc6\\\xb5HL\xbb6E\xcc\x9665\x92(I\x8f\x97d\x08M\xab\\\xdbC\xcc\xfc\xa7BDh\xb28[\xa3\xc8\xf6\x9dw\xaf\xd3-\xf1\xf2z\x9c\t\xbaZ~o\xf3\x17F a\xfc\x1e\xe1\xda\x85&lt;\x0f\xaa/L!\xc5\xbf3\x12\xbbO|\xf7\x94\xf6z\xdb\xf8vhx\x8e\xf73\xa5\xf4|\xf6\x97sZ\xb8\xca\x07N&amp;\xc6\x8e\xef)\x8e|\x9a\xd7\xe5M\xe3\xddD\xfe\x87?\x1e\xe9.\xb3\xf2[\x96\rk;\xfc\xc74c\xe9\xabke\xc0\xde\x8b\x8bL\xed\xce;\x98\x84\xec8\x92\x08\xae\xa4\xa8\xc6\xfa*K\x16$\xd76\xbe\xb5\xc0J;S\x804\xbeXh\x9e\xd4\x89\xa7a\xcfi\xf4p\xb7\xbd|Il)\n\xbbDU\xe7/\x83,P\xa6\xcb\xbc\x14T\xbb\x9a\\[0\xa6\xc8\x99S\x0bEG%\xa1\xa5\xadj\x9d\x1aY\xb1\x95t\xef\xe8\xcc:\xc5\x13\r\xd1\x19\x8fg\xf3\xc5o1\x9eo\xce\n&lt;\x9f1H\xceh\xb6t\x19$ \x0e\xc6\xba*,\xca\xf9%\xa1Id\x982e\xb6\xc0zp\xe2\xca\xe8\x98\xb2\xf6\xce\x9b\xf3\xdfs\xeeula%\xd1\xcf\x018_7*\xa5\x8a|nXx\xc3d\xe6:LK)\xd5\xc6pO\xa3\xfeL\xf3xvw\xbcn\xf7\x8b\xbd\xf4^\x8f1\xac\xf7\x1b6\xe5m\x7f\x9f\xf3\xd8\xfd\xae\x86\x06\xbe\'M\x8c{\x97K=\x10\xfb\x1c\xc5\xd4.\xb3\xda\x0ey\xad\xb74&gt;\x8f\x9f\xdb\x9bo[m\x93\x16C\x93u\xba\xee\xae\x82\xdb\xe5//\x9f\xa5\xccih\xb6vs\x96\xd4\x17~\x1bjH\x15\x07O-\xd4\xcc\x8c\xaf}\x9fI\xe59\x7f.\xe3\xe8\xddS/\xd4$\xb4\x81\xf4\x18\xe8\xab\xe4\xc4\xdc\xab+J\x893\x9e\xc8\xb5`U\x94h\x10~\xedhd\xe5\xeeX/M\x12^\xb7\x105\xe7\xa2\xcf\xbd4\xb9\xbb,\xfb\xb6\xca4\t\xc1b\xfc\xd9kgNz\x96\xce\x8d\x8cz\xb5Y\xf2\xee\xa5\\\xfd]\t\xe8\x1d\x93\x16\x8e\xc3\x1d-\x8e\xe9\x94\x8d\xbc\xb7\xf23\x8e\xaf\x9a\xc8\x15\xa2M\xcc\xbc\xe4\xbaI\x04h\xcd\x9b\xb9\xb9\xa9\xac6\x91\x05\x12\xf2Y\x1a\x96Z\xee\xfd\x80:\xc1\xf3\xc7\t\xfa\xf7\xe2^,\x1eZ\x1e\x9c\xb8\xd2Io\x04H\x04M\xde\x1a\xedY0}9\xf3\r\'\xcf\x81e\x8afI\x8b?\x16P\xee\xeb\xfe\x80\xe7t\xe6\xef\xa8\x97?\xaf\xac\x80E\xd1\xc6iPl=\xdf0\nZ\xb8\xa5\x93b\xd6P\xa9,Lf\x94U\x931\xf1\x97\xd8? s4h\'2\'+O\xea\xee\x9f\xc3~\x86\xf4&gt;\x86Y\x0bm\xce\xe4\x16\xce6\x17\x8f\x83\xa4\xf3|\x8d9m\x8e\xa3$\xbbv\xd7\x8cu\xe5T\xc2\xa7\xba\xe6w\x12\t\xb5\xf7n-\xa9n\xb6\xb4\xf3\xd1\x15w\xab\xab\xe1\xd5\xd5\xf3\xf8]&amp;ncY\x13\x99\xcft\x0ei\xc5\xecM\x81O\xa1\xedtj\xd5\xa4\x0fC\x90\xb3\xb3\xd3\xff\x00/\xc1\xa0\x9fWi\xeb9W\x10\x8d\x13\xb3\xa3\x9e\t\x03\xb7\x92\xf9\xa3_h\x10\xa6\xc2\x9e\xa0\xeb\xe6\xc5\x8d\xb2^T\xd9e\xd3\xd0\xc9\x04\x9d\x7f5WA\xa1\xa5\xda\xea\xd2X\t\xae\xad\xa4\x05\x12\xa6\x14\xf8\x97\xb3\x90\xd1-*\xf3h\xc6\x93\x12\xcb\x1e~"\xa2;\xf3?3-D_\x13_\x0b\xcf\xa9\xaf\x80\x8b\x07\xd6\xba\x96\x05\xa8V\xb8}"\xa5\xea\xa5\xf0\xbe&amp;y\xd6\xd0\xac\xf2\xaf\x9aR\xe5\xdd\xf3\xee\xa9e]mW\xc9\xbfDs\xbc\xae\'%\x07\xa7r\xe6\xd7\xbe\xce\x854\x00\xd3\xfd&gt;\xdc\xf9sy\xbe\xe7G\xc8\'\xe8\x1c\xaf&gt;]\xcd\xeef\xcbG\xab{\xf4\xaf\x1a\xe9\xfc\xee\xa6\x84u\xe7\xc5\xb9e}\x98\x9fX\xa6\x1a\x0e?\xd0y\xbe\x84\x1c\x1a\xdb\xe6t%\xcf\xd5\xb6\xf2p\x04V\xde6MU\xc6\xf9G\xe9\xff\x00\x99qU\\HRf{O\xd2\xdf#}\x1f\xb3]\x12\xdb\x9a]\xb1ZS\xda\xd7h\xedsF\xec\x00\x9c\xd67\xa2r\x9c\x0b\x8f\xa2&gt;f\xee\xd8\xb2\xdf\x94\xd0\xb4{\xc8\xe2n-\xab\xdb\x8c\xe0\xb6\xb4 \x0f:_U\xcf\xba\xa9,Mm=v\xdf\x9co\xb0b\xb2\xc0\xedj\xf1oq\xad\xbeVoG\xa3\xaa\xa7uf\xf6\xb54\xfa\x99\x9eg\xd0\xec\xafq\x96\x9d?7\xa7\r\x00\xf2\xe9\xb9\xb5\xf1*\xf42\xf3\x12\xeff\xf8\x11|\xce\x99\t\x89re\xd3\xba\xa3c+17\xef2\xc2\x9cUu\xbc1\r\xd1\xd3\x967\x0e\xe4VT\x96\n\xbf\x82\x83\x97DClh\xdf\xe4I\xee\xfc\xd7\xcc\tIk\xe3Q\xdc\xfb\x19Ih/L\xe5\xc7\xf2X\xd0\x14\xf7\xc9\x89\xea\x8d\xf1\xeaMrp\xd6\x15\xa2#\\!\x9d\x1f3Vw\x1c?\xa3\xcb\x8f\x8c\x13mL\x95\x1aM\x9d\x12K\x8e\x9d\xd6y\xdfD\xf3\x10?\x9b~\x96_o\xe3\x8do~n\xe6Vhh\x0b\xce\xf4:Y\xf9\x891\xbf\xa9\xb1\xce\xdb2\xd8\xe6\xad\x1c\xd0\xc9\xa2\xa9\xf2\x82s\xd2\x18\x89\xea\xc4\x88\x91\x1f\x8dv\xec.\xcb\xe7Y\xad^\x86\xf7\xbd\xbf\x87v\xeeB\xc2\xea\x9en\x8bj9\xf8oG\x9f\xa5\xe6y&gt;rf|Y\x1d7\x10\x953\xb2\x1a\xd1\xd5\r\x9a\x9b\xa1\xe9\xaf\xcfW&gt;\xb6\xb48-\xbf9\x9eMG\xb1^\xe0K\x9fIk\x95\xb4\xdde\xf4\xdd\xad\x8b2\xc65\xb9\xf7:\xef\\_B!6\xa5\xda34\x95\xcd\xd5\xe9\xde*\x07\xe7\xe6_;&gt;\x8b\xe8\xd5&gt;\xfd\\\x1a\x85ST\xcc\xc2\xce\xd1\x9f*\xa5\xa7\x0eySW\'\x16\xb2\xc6\xba\x16}N[\xb9y\x97\xab]\x1b4\xcc\x8b\xb7Q&gt;oY+\x16\xec\xf8\xb4p\xa9\xc59\xe8\xdee\xc4\xd6b9m\x18\x87u#)mDc\x9c\xcb\x8c\xa5\x97*\xbd\xf6e+m\x1de\x95\n\xb7O]\x92\xb2`\xb4\xae\xe6K\x12|\xc3\x1c\x9cy\xea|\xd8\xb7\x98\x8d\xae\xf3\xe1\x19=\'\x98\xf7\xc5\x92\t6l\x91t\x8cY6z\xad\x0e{\xcc\x1a\xc2\xb7\x1e?Z\xf6\xc4:\x04\xef.\xe9\x03u\x9a\xafGqg\xcf\x1d[\xbd&gt;\xef\x07\xaa\x9c\xf3\xf3\xdb|C\x80\x93T\xf1\xdc\xe1\xb8rjC\xea\xecZ\xbf\x9c2}\xb3\x8bz\x16\xcb\xbb\xfc\xe9\xdf\xf4\xe3EcX\xeeU\xee\xf3\xdb\xcc\xcf\xa5\xaewK\xa5\xcb\xfd\xbd7D\xe6[&lt;\x1b\x9c\xa7G\x97\xd4s\xb4\xb5\xd2\xf3\x94\xf8\xba\xdb[^K\xd076\xb7\xd8\xee\xcdP\xe6p\x8f@\xeeW8\xb653k\xefa\xbd\xcc\xe9\xbd\x0ec\x0e\xe2\x83.K\xbcF\x94\xb3\x8f\xe7\x88\xfd\x1b\x9d\xf9\xd9g\x89\x98\xf1$\xd4\x82\xa6%\xbd\x89\xa3\x93P\xe4\x9e1\xa9\x1e{\xe7\x83\x92HI!%\xe2\xd2\x1aC\xd9\xef\x94"c\x97\xe8\xd2D$\x16\xd5\xc8,\x17\xa2{c5sT$\x89\xa4\xaer\xe7\xfb\x01\x85\xb2\xacE\x9a\xa9\'\xd5\x93k\xfc&amp;6#\x89.\x88\xf8HA\x12\'(\xc9r\xe5\xd4\xb9\x19?\x9e{\xa7\x12\xf49I7U\xd9q\xef\xd5\xf6\xcc\xf5\xc73\xb4\xb0\xdd\x0b\x11\xaf\xce\x88\xa3?\x1f\x14\xcd\x02$\xa6\xb4$b\xba\x98\xec\xe7S\xce\xd7j\xb4,\xc9\xe7\xde\xfa\x0b\x03\x8d\xc3nh\xfd\x157\x82\xf7\rn,\xa4\xbd\xd3z\xd4\x84\xef\x08d\xf87\xd0\xdc\xbb\xd3b\xd0\xf6\t\x9a\xb6~d\xef&lt;\xf3\x98\xb5\xf4\x90\xb9\xee\xdfX\xf895;U\xd0\xbb\xf7\x0e\xfa\x13[{\x8e?\xab\xf3\xf8\xe1\xc4\xeb\x9cw\xae\xec\xe0\xd8\\s\xd2\xf6#\xa4\x8e\xae\xc8\xf9~&amp;\xeb\x03\xe6l\x97\xb9\xee\x91-u\xebe\xf7\xf3\xcd\xca\xdba\xb4\xda[\x08\x93\xf6vs\\\xcb\xa7\xf3~\x07w,\xf1\xac~I\xc8^\xa0\x8f\x8e\x89\x0c\x1f\x83\x9e6\x07@i%\xa1q\xeb\xc4\xd0\xae\x03C&amp;\x8c2\x1bC\xa08r\x1b\x82\xf86\x87@EZk+\xe1\\4\x115&gt;\xb9\xc3O\x85\xf4)\xf6H\x9a9\x1f\xd1\xa0\xe8~P\xedj\x93\x93&lt;=x\x08\x15\xac*\xfcx\xd0\xe2F\xd5\x1dS\x91\xfd\x15\x89\xe7\xefqy1\xa4\xf4\xbd\x1c\xfb\xbc\xbd\xa5\xe4\xd6V\xc9\xb8\xadN@\x9c\xdc\x1eW\xdf\x11`\x92W\x0czC\xa1K_/\x85c\xfb\xef\xce}\xdc\xeamL\x9e\x8e\r.\xab\x07\x1a\x1fX7\x9e\xef\xbc\xbc\x19\xe0v!P\xa4\xef\xcc,\xce\xf3/\xfbW\x1d\xfd\x0f\x90\xed\xf5\xb7\xa7\xd6\xc9\x81\xf9.\xfc\x9c\xae\x86\x97C\xa1\x93\x81\xa1\xbc\xda\xeaX\xf6nW\xb5\xfb\x93\xa3k\xb1\xbd\x03\xa5\xc5\xf9\xcfW\xd6q\xb3\xa7.t\x96n\x9fgCq\xf5\xc9\xb9\x0fh\xe3|\t\xf7\xb9q&gt;\xdd\x15\xb3t\nN\xd5\xc9\xa3\x8d\xaa\xd6\xa9\xe6~C:\x9f\x95H\xae\xe2\xcaw\x8f\xd6\xc44O\x10\x16\x9d\xabc\xd3\xd01\x9d\xa0\x93\xfc\x83S\xbd\x00\x88\xe0."\x1a2&gt;\xc2i\x9b\x01\xa2 h\xe9bE`4DR\xb6H\xae\x1b\xeb\xdc\xf879\xcf\xa1F@\xd1[\x018\xee\xbb\x13N\xd0\x04+A\xbb\xc7\xc1\xa9\xce\x1a\xd34k\x93\xee\x04\xd3,V\r\x96S}\xf3\'r\xf8s\xec\x8f\x81\xfb\xbfz^\x8f\x92\xf5MN\xfd\x8a;\xb5z7\xfa&gt;w\xac\xc9\x18\xfak\xfa\ro,\xe7\xb3\xd9\xd6"\x12\n\xe0&lt;#S\x90\xb8Ot\xccn\xdf\xcc\xee\x13\xfd)\xd2DR\x7f\xd1\x7f3\xf4-\x17tJ\xcb\x80\x8d.\xd2_\xe8Zt\xf5\xbb\x9c\x7fO\xe6lr\xdd\xe6mIK\xca\xe7R@\xfd|\xb0\xe0Xs\x8d\xefM\xd1:\x17\xcd\xdd/.?\xa0z^7G\xd6\xe3XW\x9e&amp;\\5\xef\x1c\xa2\xb2\xca\x0c\xfas~I\xd1\xb9\xbf\x9d\xc4\xfb\xca\x07i\xb5M\xca\xbb5v\x8d\x0f\x08[\x15\xdc9\xbe^\x160\x9a\x96\x9e4\xe6\xa1\xcf\x03\xa4Q\r\x06AT\x92\xa282\x8f\xe4\xa4\xfb\x19RK\x00\xd9IQ\x1cIQ\x95$\xa0\xb0)#"J\x8c\x89*3\xc2 "8\x1c\x87\xa24\x13\xbdb\n\xc6\xa9\xb2&amp;\xa0\xe8n\x1c\x84\xff\x00\xa7"/\x946\xc8\x1aF\xe74k\x93\x84\xe7&lt;\x03d\xb0n\xd7\x1b\xd1#&gt;\xd7\xe4\xff\x00\xa4\xf9N\xa6?\x9a{W\x11\xd4{M\xbe\xc1\xad\xc4;\x87\xe9,l\xa1FM\xb4\x02\x03[\xca=\xc9\xdf1\r\xc7b\x06\xe75m#\\\x0c\x83%&gt;m\xc7}+\xf3?\xa5=\t\xdbi\xd64\xf3a\xf5\x93\xc0O3\x12P\x16\xfe6\x88\xabW"N\xf7L\x079,dM\xb4\x9eS\xd3\xdd\xd0\xc8\x1d\xce#8\xbe\xe5\xaa\xf9WQ\xd1\xc1\xf5a\xben\xec\xb9r\xd8\x1e\xc4\x99\xe2\x05\xb4[\x05\xfc\xef\x8f\x9f]\xe5\xb19%\x80\xe7\r\xa1\x90\xd0D5#\xf8\x14\x11\r\x04CA\x10\xd0F\xb5\x04Mm\x1c\xd4\xe95\x85@\x9aW\x11\x9b-\xa4dD\r\xce)\x19\xa6\xf6\x82i\x10\x03\xb4\x83Z\xe5a\xa1{\x03!\xf9pt\x17E\xb9&amp;\x8eI\rs\\\x11\xaeH\x19\x06\xe9$\x9dG\xb0f[=z\x1c\x1fPT\xd7\x0b{\x80\xda\xe0\xe8\x82\x8eG=\xe3iQsn\xf1y\xe9\xf0\xf0\xd8\x9d\xd31\xb7\xb7\x95\xe8\x07\x9b\xab&amp;Q\x9d\xaf\xaat\x87"&amp;\xb4\x81f\x1fj\xca\x86\xd9\x83!\xb8\'\x15\xed\xa2\xd9\xbf\x8dWR\xe5\xbe\x96\xb5]W\x81\x1f#\xaav\xdf\x93~\xa1\xe2\xcc\xf2\x89q\xc4I\x0b\xd6\x10\x1bH:\'5\xc8jrZk\x90\xd7\x0c\x96\x1fa\xe4]cm\xd3S\xd9\xe82\xb8\x12\xb3\xd1\x1f94\xc3\xf2\xf2\x9c\xe7\x01l\x86\xc0h\x8dA\x1a\x8a\xb8\xc8\xde\x91\x9ca\xa0OD\x06\x88\x97\x18rR\x00\x8e\xac$RE\xc4RF\x81:J\\dV\xdc\x01\xc5q\x18\x85@\x8a\x9b\x16\xe4%q\xeb\x98U\xb1{\xe1\x01\xfe\xbd\x03\xf0\xea\x00\xf4\xca\xec\x08\xe4\x88\x0b\x0e\x84\x03\xa1\xad1W\x11\xd2Rb8\x89\xf23\xcc9\xb4\x91\xbe\xa2I*\xfb\x02\xf0\xc2[l\xa2\x1a\xbd\x0c&lt;\xcb*u\xf8\xbb\xc9no\xd8j\'\x97\x8e+\xa5\xbe\x95\xe7sD\x88Q\x90\xad\x82D$\xb6\xccDt\x91\xd5\xb1\xf2\x10\x12$@\xf9\x93\xea\xac\xd7A\xf2\x9b\x9e\x0fAS~\x85\xf9\xdb\xa2i\xcf\xd0\x0c:\xf3a6H.\x1a\xf4\xe1\x89\x14h\xa4\xbb\xe5\x85\x10v\x11\xc4y\xfa\xc7\x81&gt;.\x8d\xcf6[.\xdd\xe7\xab\xd0\xe5&gt;gM\xc7\xb6\xbeb!ir\xbc/\xaf\xf4k\x91\x88\xa9\xc8I!\xa4kG5xz\x98\xff\x00\x90\x85\xea\xfaDM\x1c\xd4\xe0JHT\xd25%\x89\xe4[|\xf0\x80\xbc#P\xc7\xb1\xeb\x12{\x90$V,i\xca\x83 \xd9\'\xa4D@p\xa4\xad\xae\x19\xd0&amp;\xb8\xa3\x0b\x19\xcbs\xc4\xd8\x19\xe0"\x06\x9c\xac\xf3\x80\xc2k\x869\xadt\x08\x90\xecv\x0c\x80\xd2n!\xa1I+k\x9c_\xcf\xa0\xc5]6\xb0\x80\xac\x0ex\x8b\xb1\x88Ep\x07&lt;M\x81\x1e#\x08%\x10V\xb8V+\x1a\xa0\xe2G8\xc7\x80\x81P\x8aq\x9e-\xf6W\xcb\x9d\xeb\xcd\\W\x1f\xa0\xfa\x9e\xf3\x92\xf5o:HO\xd3\x82\x0c\xd1\xac\xd2\x93\xb0e\xac\x9e\x1f\xea^w\xdc\xcd\x8c\x8f\xf4\x84|\xf5\xc80?Rs]7\x12[LG\x1f\x01\xee\xa9t?~\xfd\x18\xf7;\xd0\xe4\x8f\xf1\x87\xdb\x7f\x04\xf4\xf66sqZ\xed?\x9e\xfa\xd9&gt;KB#\xcc\xd1\xae\xf0kM{\x90"\xf81\xc1\x92\xd1\xc2r\x1f\x18\xc8M{\x04\x92\x06\xe4\x87!\x93\xe18&amp;\xbbh\xd9\xec\x88\xd6\xb1\x05r\x05\n\x94bk!\x1c)!"h\xe34a\xe2)\x19\xa3c\xe4\x97\xa8\xc4\xd7B,}2\x1a\x11\x9f\x1a\xec\xcdE\x04X\x84\x88\x966\x80\x92\xd6\x16\xc8N\x1c\n\xc6\x9e\xc2i&amp;\xc2+\x93\xad\x11\xb2I\x044a\xa9\xea\xc0DB\x19\x1b\x1f\x1b&amp;9A\xb9\xec\xbf\xab\xdf[\x02\xb1\r\xf1\xce\xf5\x8f\xa8\xa2(\xbc\x19\x9f&lt;\xca\xeb\x1d\x97\xef\xc7k\xeb[\xae\xf6~U\xdd5\x9a\x1e\x1dpe\xae\xc5i\xeb\x1cI\xbbN\xb3\xce~\x8d\xe4\xdf\xa1\xeb3\'\xbd\xf8O\x99\xb7\xfa\xb3\xcf\xe95\x98/\x8c|\xef\xf6)~e\xd5|\xff\x00\xf5\x17\x12\xd2\xf9\xceo\xf2\xf6\\\xec&lt;\xda\xb4\xf4\x1f\xa0k~\x81|#\xd20\xdc\xee\x86\x96\xe6\xae\xe3\xcd\x84q{\xc8\xd4c\x83$c\xd3\x8f=\xf5&gt;\x89I0\x18\xd3\x84B!\xd8G!X58\x8f\x81*#\xec\'K@\xc4\x9e/\x1e\x88\xd2\xd2\xab\x03\xbd\xf1\r\x19\x04\xf8Tq&gt;\xc7q\x060\xe3 \x175J\xa5\xc0vq\x02\x9c&amp;\xb2L\xfc\x8e\xa63\xe7\xc8\xd2\xc0u\'4\x7fNs\x8f\xf1\nlg\rEd\xa2K\x1a\x1d&amp;\xaeY%\xc3r\xcc\xe8\x07A\x1c\x14\xfa\xe9`\x1b\xe1\xd9\x14\xc4\xd6CD\xb0#\x81\x9b_:B0H\x14Rc\x0e\n\x97\x014\xee\x02f\xab\x01\xc4|\x00B\xa1&amp;\xba\xeee\xe5\x11y\x95\xd1\x05K\xa8\xf3\xb9fa\xfa\x14\x9c\xb8\xbe}\x9b\xd4\xf9\x97\xaf\x9f\xa2q\xfb\xda\x9fb\x93\xf2\xbf\xd5\x90&amp;\xa8:6NF\x1a\xcf\xd3\xe7z6\x9f\xac\x05GT\xe7\xf7\xc3\xe0\xc7)\xb9\x9c\xe8\x1c\xf7O/\xf4}\xdcOJ\x8c\xee&gt;\x99\xd1\xbc\xf0\x98\xfc\x1bO\x01&amp;\xa49\xa8\xeb\x12FDQ\x14\xdf\x08d_lb)\x08\xc5\x90\x14 \x1d\xc4bx\xad\xe3\x90`\xe7\xb9\t\xae\x10\xd7\xb9XG\x88\xd8IbK{\x9b\xe0\xf65\\8\xb0\xfd\x81\x93YwTg\xbb$\x00\xa4\x19\x18\x16\xc3\x9f\x83\x04\xb7\xdf\xd8\xfeHo\xc2F\x85#\x91\xae\xb0\n\xe1\xbe\n[T}i\\!4\xed\x1cF\xb0\n8\x82\xb1\xec\xa3\xc4\x8b?\x06\xe2:\xfe\xc4&lt;\x90@GM#2\xc03q\xa2^\xb5\x15&gt;\xd9&gt;\xae\x91\xd6\x85\x86be\xc0.+\xa4\x96D\xa0\x8eI)\x0f\xd2\xa0S+\xc9)\xdb\xdeg\xef\xdc\xbdKU\xc2\x8f\xad\xd3\xef\xf3\xbe\x7f\xd5l\xe0\xe8N\xe6W\x9c\xd9\xd4P@\xc0\xfe\x9d\xcc\x8f\xdby\x0fM\xda\xf9\xc6~\x90\xc2q^\x06\xef\xda0\xf1y\xdc\x1d\x9e\xdd\xc3\xb7\\\'[F6F\xfe7;\x9f\xf3\xfb\xfa$.\xc6Qt.C\xdc&gt;\xfc\xb4\x8c\x89\xe70&amp;\xb9\xa3G4KjE#\x11\xcf@\x91\x9e\r\x10\x0bC#e\xe4\x88\xceBMK|\xaa\x93\xd2I#D\':3I&amp;\x85\x00\xbc\x1d{K\x00F\x8cX\x96\x13Ib\x8d\xe5\xc4\xf2\xc1t%\xa8\x8a\xec\xe8M\x81\xd3e\xe502\xe0\xc9\xf2`\x97\xe4\x11\xd0\xa7}\x12"Ks\x92\x81H\xd7Q\xa2\x0bf\x1c\x9ak$Q|\xb6\xf8V\xcc$Q,\xae\x12\xb4\x90\xbb\xc0&amp;a&gt;Br_lb\x9f\x18\x0b\x8e\xe8@d\xe9v\xa9VLD\x06\xdcF\xf9u2f\xbaQ\x87-\xc5s\xa6\xa28\xad\x15*\xc5\x7f\x00\x88\xa6\xb4\x84\xcb \x95\xae\xb6i]\x06\xd8de,\x03p\xdb\xd5\xb4\xe0\x9d\x03gW\xbe\xb6\xe0]\x9eO\xcf\xbc\x83\xe8\x1ey\xa5\xc7\xd4\x9fGp.v\x9dq\xc9%\xa7[d\x03\xad\xbex\x9f&amp;\xc3AL\x93BD\xd6\xc2q5\xd5^\x96\xac\x81\x1aV\x84\x80\xe2\xc0\xd5c.\x07D\xf5\xe8\xc1_\xe7\xc8\x9e!\x80\x96Z\xb5i\xe3\x88\xe8Y*DY2\x03\xed(#\x04\xad\x01\x02]%\xba\x01\x02G#)\xea\x92\xd9\xb06h\x08\xca[\xad8\xf5\xf2u\xc4Q\x91$bt\x9f&amp;!(7&amp;\x86Cd\xa6\x12\xb0\x84\x97\x08t3\xe1\xa4Lh\x08\xb3\xc8\x84\x94t6\xa4\xc8"&amp;y\nH\xe4@\x86x\x9cF8\xdd\xf0\xe75\xbfI\x1c\x84\x7fFA\xa8\xa8d\xb8\xe8cG*^\xa0\x15HC\xf52\x9d\x08\xd4{\xa2\x1aRa5\x84\x95\x1c\x143\xe1\xc9\x94\x98\xc5_N\x18\xa4\xfd\x00\x93#Y\xa96\x0cjA\\\xcfA\x14E\x12 \xc1\'\x98\x84\xd34\t\xa4\xb8\x8d\x1ax\xed\\\xcb"\xa2\xa1\xf3]\x08\xc9\xe4\xb3=0J\'[5t\xb7\x04_\r\x1a_a\xc0;\x80\xc6\x9ax\xba\xd7IW\x11\x9f%\x84\x17\xcb\'\xc4\x03\x99\xa5\\\xb3\xb8\x8c\xff\x00dXB\x19\x1f\x0e\x9c\x07\xd3\xa0 \xee,lYQ\x13fN\x805O\x1ceRq\xa2\x0ci\xc4\x1d\xd1\x11$\x0f\xf2\xde\x91\xc1\x81"\x11\xd6&lt;d8\x1d\t\xc3\xbd\xf4\xb2(\x9a\xdaI\x10\xdb4`\xa7%\x87\x1a\x1c4\xea/^4\x10n|\xdf\xa5\x02\xfa)!\x13$O\x0cgb\xb4Z\xd3\x86j\x19-\xd1\x90\xd91%\x8cx\x82I\xf68\x83\x9e\xbeZ\x8a&amp;\xaa\x94V\xb8L\x8c\xd4N\xf4.\x1f\xe8\xc2II\x8b|ds\xc3\x8c\x088\x8a\xac\x91\x14X\xd2 \xd6\xa7\x11&amp;\xa2J\x01\x0f\x1e\x9e&amp;\x92`\xa0*\x1c\xe8\x83\xab1[\xe0\xd4@\xa3\xc8\xf2\xd0\xd1\x1d\rk\x9a\xb6\xb9\xc5"\x86k\x88\x83\x96$\x0c\x8fd\xdb\xe3\x10tJK@9\xcdDrK\x8c\xb8\xc7q,6\x94PI\xc2\xb8+\xd8(\xb7\x91\xad\xb3\x9a3A\xac+\x87\r\xae\x0e\x03\x82\xe2KD\xd5\x9d\x89@g\x01\xee\x04\xe6\x96\x0ejK\x1f\xadp\x9e\xe0\x0e\x924(\xd3\x84\t\xc5\x02\n\xa4\x89p\x1d5\xf3\x00GeY\xc4\x12!"\xc6Y\x18W 2\xc6\xc9\xb4\xf6\x0c\x92?}\xa0\x8f\x10\x93\x0e\x19\x0e\xb8\xd2\xda\x84\x07\xf8\x0c\xa2Hl\x96\x88i\x06E\x84\xe0:\x18?\</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/495570-el-messi-que-queremos-y-necesitamos</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No hay dos iguales: ¿Qué esconden las huellas dactilares?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4 de noviembre de 2022 - 13:23</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Se definen en la semana de gestación 19 y luego son inmutables</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Por qué se las considera “códigos únicos”. Cuál es su uso social y qué papel cumplen en la vida cotidiana. El rol de Argentina como país pionero en su aplicación forense.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Huellas dactilares: todos los seres humanos las tienen desde que nacen y, a lo largo de su vida, las van imprimiendo involuntariamente por varias partes. Anatómicamente, constituyen la estructura formada en la yema de los dedos por las crestas papilares (glándulas de secreción de sudor situadas en la dermis).En diálogo con la Agencia de noticias científicas de la UNQ, la criminalista María Eugenia Petrini, subdirectora del laboratorio forense de la Procuración General, explica que las huellas dactilares son formaciones particulares que se encuentran en la tercer falange de los dedos de la mano. “Esas formaciones están conformadas por crestas y surcos papilares que van a formar un diseño o dibujo particular. Es decir, tipo fundamental”.Esta estructura es única para cada persona y una vez definida, en la semana 19 de gestación, permanece inalterada toda la vida. Sencillamente, no cambian con el paso del tiempo.Por ejemplo, si se toma la impresión de las crestas papilares y surcos a un individuo durante su infancia y se compara con la obtenida una vez alcanzada su edad adulta, se observará, independientemente de las alteraciones propias del crecimiento como el tamaño, que las huellas permanecen idénticas.Otras de las características es que son inmutables. Es decir, no se pueden modificar: en caso de lesión, si es leve, el tejido se regenerará sin ocasionar cambio alguno.Según explican los especialistas, la huella viene definida por un componente genético y otro físico, basado en el resultado de pliegues generados por acción de campos de fuerza elástica, no lineales, que se producen en la capa basal de células que existe entre la dermis y la epidermis durante el desarrollo gestacional. Eso implica que las huellas queden definidas antes del nacimiento.Incluso los gemelos monocigóticos —aquellos que tienen el mismo genoma debido a que se producen a partir de la división en dos de un solo óvulo fertilizado por un ú</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00&lt;Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x02\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x82\x98\x00\x02\x00\x00\x00\x0e\x00\x00\x00&amp;\x00\x00\x00\x00(c) Stockbyte\x00\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x02\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x02\x04\x01\x03\x05\x00\x06\x07\t\x08\x01\x00\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xfb\xdf\x95\xea_s\xe5(\xf5\xf91\x96,V\xd5\xed\x18 8\x97x6\x8bZ\xe6KA5(\x9a@\x83\xa3\x85\xc3*\x91U\x08\x81\xa0=\x14\x88\\\xc8e\t\xe2\x95\x8f/&lt;|\xd0\xa6\xedM-$\xd5U\x06\xe1Z\x84\x89\xa9!\x92\x81\xd6\x88U\xa1\x1a\xe8\xcd\xe8\x15\xa5C\xcchL"\xfa\x9b\x02\xc6\xb99\x1f"UXL\x0c\xe4\x9a\\\x9c\x05\x8d@pHW.\xb9u\x82i\xa7/8yH\xc7K\x1e\xa7/H\x8a6K\xf4\xa3\xde\r\x96\x9d\nB\xc0\xaek\xaayUH\x90\xe0\xe4MI\xa6h\x962\x0f\xb8\xb6\x97\x07!\t\xac\xda)\x00@4i\xd8\xd0\xcb\x81\x82z.W\x9a\xd4\xac\xd4U\xe4v^\xd3\x07K)cm\x1bXegK\x90}\xaaf\xb4\xc4\xed\xcd\xac\x84BgHBC\x82\x00\x98\x08\xe4\xf9\x80\x85\x98\xf3R\x89`\xa3&lt;\xac)\xb4\x98\x80T\xd5NJ\xf3\xa6\xb3\x1a\x94\x88\xa9*\xa5\xaa\x9d2\xd9\x9d4\xe7G\x9b}V\xe5\'X\xc3V\x84\x81\x08\x93&amp;\xb9\x05J&amp;\x88!\x16\xb5(\xe4\xe2\\\xb2@\xda&amp;\xa1&gt;G\'\xcc\xe4\x0b+MyjC\xcd\x0ct\xf1\x85\x8bS\x8fq4z\x05~\x99V\xfdK\x83\xe4\xed`K\xe4YJ\xca@\x8a%\xd8\xd5I\xb4\xd0\xa6\xc3N\xd4\xb8O2\xc70\x9a*\xb1US5eL"Za\xa3\tM\x84\x99\n\x10T*!e\xc8\xb5\xa8Mj&lt;\x94\xdd\x897h\xa6\xaa\x8a\xb8:\x96\x83ZU\x06\xaa\x10t\xb8%\xa1\x1c\x07#\x83\x86 \xbar\xd3A\xc2\x91\xc3\x17\x0cE^|x\xa4\x96\x99Y\xa6U&lt;\xd6J\x84\xd1\x96\xaa\xa6s\xd7Z5\xdaOZ\xd6\x8b\x14\xdb=\\\xe9\xb6\xba_S\xe4\x13\x9eNB\xe1s8\x06k\xa4\xb0%\xae\x97\x03!H\xecj\x11\xc3\x86D\xb3D\xd4\xc8r\x05UrR\xa91f\x15\x90\x8cD\xb0\\\xe4\xe9\x1a\x03\xf5%z%W&amp;\xcd\xab\xc7t\x86\x1c\xce\xa91*;\x11cV&amp;I\xe9\xdew\n\x06m\x1156\x08Zi\x05p+*E\x17\xb5x0\xd5\x11T\xcbY\x92\xd3\xb50:\xd3D3\xc7\x8a\x99\xb1\x91,\xa8\xe5\xba\xd3W15e\'\x12z\x94\xa6t\xa5\xa1@\xcdK8P&gt;\x14&amp;\x8bn$@L\x90\x16\xb3\xdb\xf2\xe8\xc8\xac\x97\xd7\x15\xdcS"R\xf3\x95\x14i\xbb\x1a\xee\xaa\xd4\xa7\xa3I\xb6\xacA\xd4\xf9\x9dg\xd3\xe5R\xaajBh\xc3\x80\x926p\x89\x91/\x80\x93\x81\xc8\x1c\x92\x13JQ(\xe6\x12\x04"(\xa9\x13"N\x1c"\x13\x80\xa1\x89\xa7\x97/\x140\x92\xf3\xcf:-zu^\x90\xab[\xd0\xa3E\x17\xd2\x14\xcd\xa8\x15j\xbaCe\xed:M\xd4\xaaD&amp;\xd5L\x074\t\xcd(M)\xa1\xa5(\xbd\xc9\xa7\xc1\x95\xc7\xd1\x1dx\xdf\r\x8a\x89\xa5L\xd6\x08\xeaU[Y\x03]\x0f\xb3\x90\xc0\xd8j\xfa\x98\x1d3B7Q\xb7\xa6l9\xe0\x11\xc2\x01T\x8aBY"\x80\xce)\xe4\x13@4\x039\xceEg\x85\xae+\x10\xbay\xb1JM\xe9\xce\x9e\x8e4\xdf\xb3E\xa6\xda\xb5\x82\x99\xb5\x08\xabH\xf3\xad\xfa\x9c\xeaE\x0c0\xe4rf\xd4\xa0\xa9Be$\xb2\x13$\x10HK8:_&amp;nE\x9d4B\x84\xc0"j\x134\xa5\x92\xd0&amp;\xb0 &lt;\x89xry\xd58\xd7\x1b-\xfa:\xa7\x15kQ\xaa\xd5\xf4\x99sT\xb5b\xc8\x1a\xa8q\xabjj\x9a\xe1R\xdb.l\t\x177\x08\xe0\x14M(L%\xd1\x15\x95\x86\xd6\\hm\x90\xa0\xa9f\x8f\x11Vb`\x0b&amp;`\xcbR\x0f\xb2\x02\xe7+6sTgVP`\xed\xce\xf5\xe6\xcb\x98LF\x12\xf8r(d\x87"\xb1\xaa6\x1a\xce\x0c\xd1gk\x8e\x1dd\x81+C\xcd\x9b\x99\xd3\xd0N\x9e\x88\xad\xabO\x8a\xea\x92`K\xe0\x86KF\xd6.\xd1^\x1a\xfa\x17"\x98\xa7\xd2\xc9\xa2d\xcb\xe6\x88%9\x14\xb52\xe53j\x13\x90\xe0\xe9gS\t\x88p\xe8\x03\x97X\xea\x97\x13L\x8amZ\xd4H\x14\x95O.k\x0eO?+\xcd^m[\xf4j\xf4)\xed5\xb7J\xd0\xae\x1c\x03bv\xe0\xc2\x89\xb0\x0e\x12\xe376\xb4\xf3\x98nD\t\xc8\x08B\x14\xc3Z\xd3c\\\xe0&amp;\xe2\xb9\xac\x85^y:\x03&lt;m\x03\xadP\x9b\rX\x8a(hV\x85#$\xc92\xa5P\xd9\x06\x1a\xd2\xa9\xd0\xa8\x84\xf9\x100\x97\xc1\x03\xe0\x80\xcfM\x06+Q\x99ybi\x8aR\x93\x96\x84\xe9\xa1:z8\xd3z\x8d{\x96\xda&amp;\xb9\x9c\x81n\x11\xc9\xc3\r\xcc\x07\x97\xdf/C\x86\xad\x05sD\x1c\x04\x04\x04.TnH9\x1d/\x82\xc6\xa19\t\x10M/\x9d\xf5\xa2k\x83\x80\xd1m\x0b\xc3\xa1:\x95_\xa6l\xa71V9\xed%uY\xd2\xf1e\xe0I\xe5\x1cWk\xd2+\xd0u\xe8jv\xa94\x89\x96\xe3\x9b\xdc\xacPET\x14\x05\x8ds 4*.jE\t\xc0W\x14\xa6\x1a\x9d\xcb\x1a\xe7\x12\xcd\xaa.r\xc7\xe2\xf3\xd6\xa9.\xa1D\xee\x07\x9a\xe0 \x86H8\xe6\xb1\xd8\x00\x10\x98\x8c\x9ae\x96\x05\xe1\xb1\xa6VMHp\x08\xe2_5\t\xae\x9exai\x9a5\x9e5d\xb2Y\xf9\xd2\xca\xf6\xa3_J\xebb\x854\x9b\x9a\xf4\t\x10pK$U\x8c\x13&amp;\n,jC\xc4\xf4e\xec\xf9\xf61\n|\x04\xc9\x96@@B\xe4\xc8P\x05!2\x13\x14\xcd\xa0\x1eL\xd3\xc8e\xcasgR\x13F\x00\x13S\t\xdc ej\xac\xca\xda\xd7;*j\x04f\xb2&amp;\xbc\xec\x9eE\xcd\x1aO\xa2Zm\x07\xa5kX4\x9c\x18,\x9c\xb5T\xd14\t\xacT"\xc6\x9a\xa9\xbd\xc9\xa3\x81l\xae\x8c\xad\xbd\xb3\x96\xa6\x8e\x14\x82\xc1\x86\xdf\x95M(\xa3\x1d\xe1`6\xd0\x83-\nk2\xf0\xbe\x93\xceU\x8b\xa4b\x89M\xab\x96\xed+.\xe6\xb6\xda\xb9\xaeD\x04K\x11\xd2\x19\x89\xe6\xdcc\xdexW\x8dY\x88\xcd\xd7\x17\xbf\x1a\xfa\n\xa7\xd3_X\x8e\x8ci\xcb_X\xe2e\x83\r\x86L\x0c\x07\x02\x90\x84@\xea\xd2&lt;\x9b~\xcb+\x91H\x1bB\x9c\x84\xa2S\x99v4B\xe4\xe5\xa9d#\xa6\x90\xce\xd6\xb5Jz\xd5\x15\x04E\xb1QE\x01\x16\xd0\x97\xa5|\x94\x95X\xa9T\xc2V\xd2`\\5%\xe5\'\xe7\xd1\xe4i.\xd7\xac+\xd2\xb3\xd2\x12\xe5\xcd#\x89v\x88\x18H\xa8*\x1a\xf2\xc9\x16\xb1\x97,4\xa6\x1a\xdbp\xc6\x90T\x851\x18C\xe0\xae\xa7\xce\xd3\xc2\xce\xaa\x1d\xc1p\xabN\xea8\x00D\x9dca\xa2\x06\x90\xa0\xc2\\\xb2\xdaP\x17\xd4\xae\xaa\xc0e\xafCPL\x89\x04\xaa\xa4\xcf\xb5\x8e\x8ck\xcb\x0e\xb3\xa6RQG\x9e\x9b\xf3\xaf\xa0m\xca\x12\xe9\xc4\xda\xd4OB\x19R\xe0\x04\xc5;E70\x15\xcdsP\x9c \x99\x8b\xaejF\x9e\x9aNa\xa5\xc1)\x8b!&gt;\x87h\x1b\x92L\xda&amp;\xb9:\x13\xc9/\xb2\xa6\x01\xba\x85l\xa3*f\xe6\xc4\xc6J\xa9\xc3J\xc5\xb2\xe7?;{l\x8e..c;xGJ\x80\xcbG\x9f\x97\xe4Z\xae\x8f^?J\xc7A\xd6\x98r\x03$S.i\x02b\x82hf\x8aJ\xb2\xbdN\x9c\r\xaea5\xc8\x01\xd3\x15m*Z\xc8U\xe7\xe6\xb8U*\xe4\x15.\x03\xa4\xbc\xb3N\xd1[j\xc9"\x9d\x88\x84\x0b+o\x9c\xca`\x9d\xcd\x1d\xad$\xb5@f\xbbI\xcf\x93!\xacG\x1e}\xe7JJE[\x17\xb7\x9e\xfa;K\xb6\xa3H\xa9_\xa5!\xa4p@\xe1\xaeNZ\x96\xach\x02\xb4\xe0c.Y\x08\x96y^\x9c7\xb9\xb7|D\x1c\x10\x99\x08BS4YH\xa1\x9b9.\x1d\x0cFh\x07FWh\xaf\xb9\xac\n\x95\x11vi6\xa4\xbcWM\x8c\xa2\xdf;\xd3\x9b\'\x16\xbbd&amp;X\xf3\x95\xd3\xcaO\xce\xc3\xf1\xe2\xbe\x9f\xaeoQ\x1a\xed4\xd1\x042\xe4\x80tK\xb9\xa3Fo&gt;\xc5s\xa1\xbe.\\\x1b"\\\x85sB\x8b\xf4\x81\x96\xb0\x02~5iP\x89\x0b\r\xb1WJ\x89\xaa\xa91\x14\xcdI\xd2\x11\xdf!\x8e\xc6\xaa\n\xd8\x98\xecE\t\xb3J\xfa\x9b\xe6\xbd\x1b\x81B\x94\xf2\x9a\xc3q\xe7\x9ej\xc2U;s\xd7\xd1N\x9a\x1bN\xad\xcd\x17-1\xd8\xab\xd3&amp;\xa4P\xc9\x14\x0eB\x02\x13\xe6\xba\x90\x80\xcdKP\x1d/\x83\xc4t\xe5\xed\xb9\xb6\xba\xa3\x931\n\xa8\x11 \x90@a)\xcav4\x82\xa4b\xa8\xa5B\xa9E\xc2n\xa6\xf1\x83C\x0e\xb5J\xd2\x0c\xee\xb1\xb4\x11\x99v\xf9\xd2\xea\xcc\xcb\xf6\x99\xc6\x9d\xa9\xb6\xd5\x01\x95/\xccC\xf2A\xafF\xf2\xad\x96\xb4Zy\xae\x06*SUd\x8b\xc5\x06:?\xb6V\xe9\x1c\x165{\\*3\xd2\xdb\x93\xb9\xe4p,\x02\x9e4_\x9dTl\xa9 \x9a\x8b\x9a\x06\xc0r\r\x8c\xd4\x84\xb3Ux\xb9\x96\x89v\'5\x14\x12,\xa5\xabSxk\n\x80\xc9\x0cQy\xda\xc9\x15*C\xb3=tg]}\xa7\xd9R\xcf\xd25e\x98\xf8P\xc9\x17\x04\xd2 \x19sK\x80B\x03\x80G\x01\xcdJ\x04d\x8a\xae|u\xafs\x8d\xca]Nd\xe0\x80\xe4\xe6]\xad\x18\xa59\x0c\xf1\xa55D\xb1a\x01\xa2\xe6\xa9\xa2\xcc\xea\xed!LtZ\x9d\xcd\x0eUe*(\x84\xdf\x99\x9e\x88\xb3*\xb3X\x99\xab\x1ajJ\x03\x16_\x97\x97\x80?@\xcfH7Z~\xe6\xd4\x08\\\x19&lt;\xbb3I\xfd\xb3\xb9\xabj \x00b\x86\\\x9d\xae\x0e\x0e\x0e\x05S\x84\x00\xfc\xb4Z\xe3U\x14\x81\xda^\x19\xb2\xf1\\3\x0eA\x0f\x90\xc8u*\xd0\xba\xad-#:^\xbbU3b\xa6\xc0\xcb\x0cay\xd7\x19D-\x0cf\xf6\xb3\xdbCi\xd9\xd24\x03Y\x12\x002\xa9\x01\x95O\x0f\x91\x00!mH\x0e\x10\t\x88H\xc0V5\x01\xcc\xe9d\x19{\xe6\x8cW\xa4\x86A\x08 \x89p\x99 \x98M\x14\xb3\x1a,\xcb\x9a\x84\x04\xd4\xcb\xa1\xa7\xda\x10\xa55\xc6t\x9d\xcd\xa7\xb4\xdc\x86\xaa\x12Z9\x9b\x06\x98\x87\xdb\xe7V:\xbcH\xda\x18n\\\xac\x18Q^I\x08\xb3\xd5\x8f\xd2\xb5}\x17\x0b\x90\x9e:\xb5\xa41R`h\xbe\xe0\x02\xb9\xab\xaeX\xb8\x80\x19\xa3jY\x02R*i\x02tK\xf3\x05\xe6IXE)\x9a\x90 m\xa9\x97\xc1`\xd9\x10\x81&amp;\xe5\xc80%\xde(\x1e\x9dM\x958\x8a\xf1\x9a\xc7#\x15B\xf2S5\xae^\xdb\xa7\xf5\x9fAR\xdc\x9c\x8e\x08\xa2D-\x93\x98\x0ed\x0eDMW,\x19)\x88KF\xd4\x0e\x1a\x14\xf8R\xaaR\xf2\x9b\xe7\xb1\xcf\xb6\xb5OK!Bp9E\x80b\x96\xa5:\xd5e&amp;\xb2i\xa7h]K\xa4\xa9\x814\xe3\x99\x9b\xabI\x9c-+v\xe5O\xdc_\xa4\r\xa8\x97L\xd3Nk\x1d\xa4\x9d\xa6\x13\xb2D\x05\xe7\xa6\xbc\xac\xb6\x03\xd67\xbfH2\xb1c:ge\xa3E\xeeI\x91,S\xbe\xe0\xc3\xa9KR\x12\x1c\x10\x85&amp;\xa0 "^m\x9eO;U1h\xd9\x00\x11N5 I\xb0\x1a\x02\xbc.h\xd9Hrn4\xcdB\x8e\xb1Q\x94&lt;\xa22\x08\xae\x12\xd1[k]\xfb\x1e\xd1z\n\xce\xe4\xf9\x80\x80nd\x9b\\\xe7\x99\t\xf3B\x9c\xb4l\xad\x02\x1c9\x170\xda\x80\xe9`\xd0*!\x12`\x1e\x13\xa3\x1f}\xcb\xb1\xda1HW4I\x92\r\xae\xa4SB\x9ar\xf1\x9b\x19l\xb5T\xb8`Ev\x92\xc3\x90\x9b$\xe9C\x1af\xc4\xd5QM5\xc3_:\xeb\x96\xc9A[\x82\xb5\xa0\xd2z-\x979I\xf9\xb90CaW\xa2\x8b\xf4\x9bb\xc5\xa4\x13\xb1\xab\xd0)\x8av\xb9{\\\xf8|\xd0\x0e\x90a\xcd\x81\x01\xc8Q8LY2V\xcf2\xaf\x12j\xb0\\T\xaa\x94Z\x9d\xad:\x9b"y\xa6\xc2\xf6\xb9\x97\t\x9aH\xcdR\x9a-fQ\x92\x96c\xcdxK\xc3\xd0Z\xfa\xaa~\x86\xe5\xca\x92d\x8b\x82\xb1\xcdL6NH\x04\x00 9\x9c\x9c\xb5\x01\x08\xacr\x8b*e\x10\xc8\x01L\x136\x85;E]O\x8c\xd1{\x8ct\'"\x9f\'\xd2\xed\xa9\x94\xf9\x9d\x0e[\xce\x1a\x82\x08\xb8\x96:I\x00\xa2\xa9\xa2N\xca\x9a"\xae\x1d\xd7\x00\xc4\x9b\x7f\x9e\xdc\xdb!\x9a\xae]M\xd9\xaec5UM\xb1B\x0fgS\xa4\xe4I\xe5e\xa1/\xd7\xe8\xbd=-k\xcc\x07XS\x14\xb4[z\xe6\xe3\x93\xa4!\xcc\x14\x13@\x17\xb5\xc9\x90\xb2Jf\x0ed\x0f\x92T~Ro=4\x93\xb9\xaa%\xc0\xeb\x07\xd1\xa0\xd6\x85\xa7\xe5\xb9p\xc3U\'P*\xaa\xa0A\x18\xa1\x92\xa1\x07\x01%\xd3^\x98\xd3\xd1\xe8\xb4\xee%\x9c\x1d\'P!\xd5&amp;\xc2\xa9\x04\xc5\x10\xc8\x00a\x87\x04\xa0B(\tv\xb9\xe9u\x80\xa7!\rJr\xd4\xa7\xc1\x97\xaey\x91~\xb2H\x1c\x84"\xd6H\x86k\x82\xc6\xaa\x9a\xa1&lt;\xc6@\xe6Z\xe8\x86\x13*\x02\x00\xcbF*Fj\x80\xd7%m\xe0\xb1\xd1\xf4\x87|\xe8\xce\xab\x19\xa2(\xac\x05\x16K\xd3\xa9\xca\x8b\xf3\x99V%N\xad\xafX\xcd\xeb\x86\xe9U\x0f2n\xdd\'N\xf3\x01\xc2\r\x86\xd4\x80\x81\xb9\x02\xaaCnr\x15]!\x8c\x13!KI\xa7\xe5f\xf2&amp;\x8a\x94&amp;\xb4\xb8i\x81\xe9\xa3Q\xad\x9b\x8a\xe5\x83+\x18#\x9aLi\xa3\x01,\x930\x90G\xbe\xaf\xd3\xdb\xd6\xd2ns,\x84s\\\x034-H\x8a\xd4 h\xe0\x86\x89\xa0O\x82%\xcd\xa2\x10\xa7"\x89p!\x19\x80\x04\x84\'\xc2\xb1\x9c\x1e[|\xb4\xf9\xf7\xd7H\xed\n\x0e_0f\xac\x14\xb0"\xd3M\x10\x80\xa2X\xd2\x80\xb9\xa53\xab\xb7\x86\xe1\xa5\x17\rHj\\\xd34r\x1d\xabS\xa4A4BN\x8bQ\xcd\n\xaaxz\x1e\xdf\x15u\x9f7\x02,\xf4\xf4zj\x97\xd0\xd6\x93\x02+\x9a\x93YU\xf5,5\xc1"\xe6H\x95\x9a\x81\xde*D\x81M\xcb\x94KP8\x93(\xaf2\xa9dT\xca%\x88h\x87\xa8r\xcd*\xa6\x81\x14\xb2\xe6Z\xd2\xa1\x9a\x9eD\x99\xaas\xa6k\r7^\xa6\xabv\xe1\x9aF\xd0\'\xcdrb\x12\x00&gt;Jny\x84\xd5i\x95!\x02j@\x02Q\xc1\x01Zd\x83\x15a)\x88s$%\x1c\xc9D\xb3\xc3te\xed\xb9vf\xa7\x98)\x92\x06k\x93 \x01\xd2\x8a)U5\x9a\x80V\xcdOCMS\x9befw]*\x15Y\x9b\xb1\x8dT\xc4U\xb77%[k\xb2Dl\xa2]\x19\xd6t^\xc6\xd9\xe9\tv\xb0\xe1\xf9\xd8\xa7\xd9\xea\xe8\xf4:\xe6\xe5\xc7\n\x1bY:\x82\xda\x93NZ\xb1\x16T\xd25\xe6\xedsj(EI\xa8\xa9\xd2a\xbeG4\x13Y\x8a\xbc\xd0\xf3e\xbc\xc6\xd2\xf4M\x05(`\xa6\t\xc80.\xa4\x8c\xd7\x9e\x0c\xe82\x94W*\xd7^\x91\xd7\xa4\xd1h\xdc\x93R\xd7 G\x08\xad2GR\x04\xe5\xa2\xb9\x14\xf9\x92\xe6\x18(\xb1\x9c\xd5r\xe0%\x10\x10\x06\x10\x10\x1c)`\xcb\x96p\xc8\\\x15\x88X\xcc\xbe\t\x01U(\x19\xab\x1a \xad\x8b*\t3nh\xce\xce\x85f\x98\x92\xea,\x10\x8eit\xbb\xdc\xafi\x8c\xedYeI\xa1T\x9cT\xf0%\xcb\xb8\xdc\xec\xe9\x11i\xe4\x87I\xcb\xc3O;\x9bY\xbfS\xacz+\x9d;\x8e\x08\tj\x95B\xd5\x8d\x18\xb8+d\xb2\x99r\x9d)\xda\x97!J\x0e]\xc1\x02\xe1\x82c5\x9c\x0b\xb0\xc5\x03FX\xd0\xd8W#a\x0c\x10\x80F\x96$&lt;)T\xcc\xf0k\xbb\xf5\x14l\xe9,\\\x88Hr:\x90\xcb\x81\x88t\x90\xc8\xa4m@\xb9\x90\x13K\x9a\x14\xd2\x8a\xf3\xb9\xe8\x93M\xa1\xaa\x9d\xaa\x97\x1a\x80\x14\xc9\xa8\x08A5\xc3\xe0\xe0\xe9d\xd7\x0e\x10A\t\xdbHS1\xcc\xb0\x14QJhgT1v\x0c\xbe\x1bd\x9d\x15\xcdu+\x9aH\xadL@\xb9\xa2\x86b\x84&amp;\xe1&lt;uC\x9fmM\xf1\xbb\xa3*\xf3\xbb\x82\xe13Il\xeb\x12^\x0c\xd6\xce\x93\xe9\xeev\xaf;mr!\x9c\x81d\xd4\x90\xabN\x02\x15MHMg\x94\xdc"`\xcbJ\x87\x12\x90\xe4@\x08\xc6Z\xc3@3\xca\xa2@ct\xac\x06Q4W\x0e\x90\xcfk\x16L\x98\x98\x95e\xbfR\xeb\xd1Z~\xe2i@HHM \x96)\x95H\xaa\xad0\th\xe9@\x8a\x94"Y\x83\x96\x98\xfa%\x9aV)PjK)l\xe6iR\xd3\xb9\x80\x84\x1d.G\',\x90\x14Jr\x04\xd0\xaa \xb1\xcf*\x80$K8)O1\\I\x915{\x18\xa9\x88\xa3h\x86\xab.\x11"\x96SE8\xe9\xa1\xa6V\xc5g\xf3\xebm\xad\x1e\x8c\xa2\\\xb5\x00Ci+@\x91\x955\xe6s\xa1g\xae\xd67\xf5\xcd\xca\x92hS\x90\x86sB!\x1dI\x90X\xe6\x82\xab\x96Rrb\x98\tv\xdc\x14\x8b\x99\\P\xa7\xc1C1\x93\xa5\x94\xa6L\xbe\xa4\xe4\xe6\xe9\nQ\x9a\x8c\x993\xf3\x93f\x91^\x93y\xf4B\xb2\x89jE\x14\x10\xb8\x048 +U -\x10\x84:\x8e\x14\x866Z\xe2m(\xcb\xad\xa1E!J\x17K\xa9?-\xa0\xb6+\xd1\xe9-f\xef\xd2\x08\t\x83,\xc3\x98I\x02\xa9nQ T\xacD\x81\x075X\xd3M&lt;\xec.i\x8b\x81.\xaa\xf6\xb93\x97M\xa6\x1c\xd2\x06\x9c\xdc-\xcd\xbe^zn\xed\x8d\xd7\n\xd0\xc6v"1\xb2+\x98\xc43k/;\xf3\xb9\xd6xok&gt;\xaf\\\xf5u\xca\xc6@sB9j\x05Sc.@\x19\x08\x04\xca\x18\xa7\xc8\x90U\x964\xc3\x9a\xe2\xe0 b\x1c\x8aY\x8a:\x87h\xadj\xa6Z\xd2\xa3\xcf\x96\x94\x18\xd2\xa9\xcd5o\xd1\xd3\xd2\xa3R\xe1\x91\x82\x0e\xe4\x98D\xc3|!`\xa2\x15CR\x10\x02\xd14\x03\xa6k\xcf\xa7\x8f\xa2\xb5\tf\xdb\xd2sY\x9d#(\xe6\x8d\x94\xe7T\xe9\x14a\xa8k&gt;\x9a\x1e\xc8k4\xd0\xaeh\x98*\xa0F\x07S\xc9\xf0Z\x1c\x06\x12\xca&amp;\xab\x11\'Ji\x8e\x99l\xeb\n\xc5f\xc5\xb1I\xf4\xd7k=\x85\x8d\xe4\xe3\xb7\xa3\xbc\x9c\xe8\xca\xa8\xab.W\x00\xce\xe6\xa6\x01\xac\xb4\xb4\'73U\x0b\x15&lt;\x80r\xd7\xad\xd7?A\xbeW\xdcrp\xd0\xa6L\x80\x86\x93W"\xe0\xb1\xc9\x02\xf9Y\x84\x07\x00CF\xc7\xc5\x002\xe0\n\x97\x04\rjYs@;\x12\xb6\xe4\x13M\x98\xd1HA\x99\x9a4kS\xf4\xd4j\xda\xc1\x1f\xa1\xb8\xb0R\x10\xc2k\x82i\x02`\xd7\',\x14@@M\x02\x8c\xa9\xac\x1dg\xb3\xa5\xe9g\xc54\xe1\x10\x10\xa5R\xcc\x99Km\x11\x95\xd9\xa4NT\x9bz\xf1T\xda\xd5\x87\xee\xc4\xddM\x94\xa4B9\xa3\x90i\xd9S\x03\xe9\xa3$\x1b\xae]\x88\xe0H\xa1B\xc9\xac\xc4\xe6\xcf\n\xbfl\xd6ml4\x8c\xebG\xa3&amp;\xe9T\xcbd\x1a\x90\x8b\xae\x91\xc5\x15Og\xa0gS\x8d7JQ\x96\x18 \xe5\xadP\xf6\x1d\\\xef\xed\x9f5\t\xc0pM%\xd3T|\x17\t\x974\xaa\x08d\x02\xc0\x97\xd2\xc6\x92\xacm\x02\x1c\x9f5\xc9\x95L\x82\xd4e\xe7\xa4\x89\x8b\x9a\xd1\x9dO\xcf\xe5Hf+\x98\xdb=\x06\x87\xa1\xa4\xe5\xc8My;^\xc4\x98g2R\xe0:@&gt;j\x02\x10\x03\x80\x96H\xb9\xaf4^HT\x0b\xcd\x03\x9a\x11\x00\x9amCOIJ[\xa2\xad\xac;Z\x92\xd6i\xc1\x8dMc\xd3\xcd\xfb\x84\xf7\xaaH&amp;\x88G&amp;MX&gt;s*\x89\x00\xaaC\x91\x03\x14\xc0\x94h[;R\x90\x85\x12\xd0\xe3\xe9\xd3\xd2\x06\x93\x9aCA~\x99\xa9\x17|\x8aQR.\x9aFj0\xd0a\x9c\xd3\xf0\x86,w\xcb\x06[:N\xee\xb1\xadK{\xaf\x9ei\n89\x92\xe5eiK\x8a\x1d\x15\x8eTWd\x04\x00\x81A2\x01vpZ\x9c\xb9\x84\xe1\x96R2Dy\xd3u\x045SX\x8a\xaa\xca\xb0\xb3)\x83V\xcfEf\xc3W\\\xc0fMg\xdc\xfa4C\t\x92)j\x03\xa9\x08\xe1\x1c\x02\xc3s\t\xd7/\xca\xc6\xb9Z\xc2\xcd\x10T\x0bK1$\x9cT\x9a"]\x00\xa6\x83\x12\xaae\xd7\x14E\x0e\x93@\x96\xce\xbd\\\xdf\xb0\x17\xa2\xb5\xc9H\xf9\x86\x1c\x12\x135(\x11\x9au\x07 \xa9t\xba\xc1D\xd4G\x94\xc3\xa1\x18\xa7w\xcb\xd2L\xdd\xa4\xdbJ\xd8\xaa\x18b\xe9\xae\xa9\xa6k?-\x03*\x89\xa9\x92\xf0.m\\\xdf*\xe5\xe6\xeb\x03/_Y\xd8\xdb=;\x86z3!ps\\\xc8ECMW\x04\xb0Evl\x80\x00%\x95)`\xa1$\xda\x15\x94\x80%\xa9e\x8c\x84T\x9ed\xd2\x0c\xb1\x8a\xc3\xce\x8a\xf3y+\xa0\xdc\xd4\xf4V\xb4\xaeI\xa1l\x83\xcaMm\xdc?.Y50\x101\x0e\x0ejZ\xe0\xe6B\x11\x9a\xf3\xb1im\t\xd4\xad\x9e\x9c\xe7\x85\\\xba\x9a\xa4/\x9a\x17&lt;4\xd1\x14\x96\xd2\t\xa5\xa6\xe1)r\x93d\x8d\xa9\xafq\x9d\xfa\xad \xd9"\x96\xc9\x02\x9f&amp;a\t\x92v9\x10\x84\xe8U\x0eU\xce\xf0\xf9\xb7\xed\xa3F\xa3=;\x87\xa3q\x11H1\xd4\x02-b\xf9\xd29\xda\xc3,\xebF^r,\xe5\xd4\xeet\xf5\xcc\xf5\x9c\xe6\x97\xce\xb4\xadntd\xfe\xb9\x95\xab\xeeHR\xd0\x8f\x9a\xe4.\xaa\xba@5\xe2\x9d\x99\xe6\xe1\xaa\xe1\xc0\xc9\xa2h\x01%N\x93\x14sB\x9d\x8c\x94T\xd6sl#\x83\x1b-&lt;\xee5\x85\x99\xa2-\xfd\x97\xa0\xd17H\x85\xd4\xa0!?\x0c\xdf\xb6\x82Z\xb6\xe2\xa1\xc2r\x05K\x9a1C\x00p\x0b\xcb\xc3o\x1eij\x9a\x90\xbbV*\xcb\xcc\xbe\xe6\xd4\xd7\xb5\xd1Y\x8d6\xca\\\xd7R\xca)\xb5\x9f\x9d\xdfS[\x16\x18Ek\xda\xf59\xd7\xd0\x1a6\xb8$!9O\x87`\xa4V\x00\x82qv\xa1,uF)\xfe\x8c\xa8\x0c\xfb]\x9b`l\xd4\xaf.\xe1\x944\xe6\x96\xc7N\x86\r\x1c\xd5\xf0\xf2f\xa8\xc3M\xbd\xf2\xd0\xd2\x0fY\xe9\x15\xa4\xa6m\xb1\xe9o\x9e\xb6\xf9\xb1\xa4\x04\xd5\xfaA\xb5\x01.@r\x12\xd2ShM\xe9(\x16@\x08Hr9\xa8N\x90\x10dUPA\xc3Tv\t\x81BhM\xe1e~s*\xcc\xcdk\xda\xf4:\xad\xbd&amp;\xe7&lt;\xc3jX\x01J&lt;\x9b\xafb\x91T\x84\xd7R\xe6\x88%\xcf2Bi\x02u\x06Bx\xc9\xe4\xc6\x94\xe9\x9c\xa4\xc2~y1\x13)\x95\xcel\xddU7 \xaar\xc6\xe8S,\xaaneSKT\xa0\xd7\xa1\x8b\xd3\x97\xef\x99\xac\xd4\x84\x0e%\xf2d\x16\xb5k\x98\x0e\x9bW7\x8f\xcb\xd1\xa5\xbe,\xef\x00\x9c"\xb6r\x11\x8b\xb0W\x80\xa1\x1c\xec3\xac\xe8\xb6\xb2m\x0e\xbb\x9cn}\xe2\x96\xcd\xe4\xde\x93!\x14\x9c\xa9\x0b\x9c\xcc\xee\xc8\xad]\xb3\xdc\xe8\xca\xfd"\x98\xae\x15\xda)\x14\xd2\x00\x84\xf8 j\'b\x04P\xc8G\n\x07\x08 \xe0Lm\x88\xaeQ*\x13hF\x10\x9fK\xce\x9a\xc4\xce\xbc\xbeT\xbef\xe6\xb3\xe85\x9dm&amp;\xc6\x81\xb3s(\xe4\xc40\xd5Ws\xe8I\x01\xcb \\\xc3s\x00l*T\xa6\t\xe7\'\xe7JJ\xa1\\\xa91\xd2\xd3MR\x14\xdc\xd1\x8e\x85\xac\xa9\x14zBrhi9\xa9\xd0+&amp;\xa8N\xfa\x8dH\xb3i`~\xd3\x19\xe9\xee\xe4\xd8\xb9\xe1\xc4\xd5\xb5\x014i\x9bP\x84\xb9\xb6\x04\xde\xe8\xca\xa7$\xc0\x97\t\xc3\x14Mi\xa7RXk\xf3\xecrT\xd5\xd9\xbc\xec6S\x1bg|\xd8\xde\x1a\xc6\x9c\xe8\xc9ZHMm^nk1S\x8d\x95\x96Zj\xe9\x1b=9[QQQ\x15v\x91uO5\x08\x11\xf0@r\x17\x18\xb4\x12\xc4r)\t\x0eG\x08A\x06\xee\x0eN\xf6\xb92\t\x97\t\xe4Ma\xe7^g\x1a\xb2V\xee\xf3\xbf\xb4\xe9\\C\x059h\x91!\x016\xbcfW\xe9\xb4\xcd\xa1\xcb\x04R\xc9h\x9a\xe6\xa0p\x8a\xa5\xe2\xb6\x9d,\x99hg\xa1^y4\xae\xe7\xd1\x8d\'6\x95\xdbB|\xdb;\xaeXM\xf5M\xd2\xdc\xa5Jy\xc2xb\x1d\x14\xcbI\\=\x9d\xb6\xde\xec\xd7\xb0\x91\xfa\\\xd4\xa7!\x11U\xcdg\xf2\xec\xee\xb9\xbb\xbeb\x00\x00\x98\x04\xa3\x98\x12\xc0k\xe3jM3\x9b\xb5\xa1O\x1b\r\x91\xcd\xde\x9b\xfa\xc6\x96\xd9\x8bJ\x8e\xfdsc\xa33\x87{V#\x1ehs\xb7\xeau\xf6\x86n\x15)\xaa\x8e\xce\xae\xd2\x0e\x94 \x15K\\\x12\xd2R\xc5\x9c\x9c\xb5\xc8\xe0\x84pr\x16\xa2\xb4\xdd@Ms%2\x93\x9b\x00\xc5\x9a\xc1\xc6\xfc\xee#\xac\xde\xdf=\xdde\xcb\x92k\x82\xa9\xa9\x1c\xa0\xaa`\x04~\x14~\xe5\xc4\xd1,\x970\x06\xd4\xb4\t\xc8\x85W\x9f\x1d,L2\xb0\xd2\x8a\x9c\xebLK\xa2\xe6\x88\xa7v\xcb\xcfg\xaf\xa4\xa8\xc0\xb4\xd4\x8bR\xa8\x02i\xc1\'-\x91\xf0-\xa4j\xc3\x86\x92\xa1\x99\xbfO\x15\xee\x11{B\x9d\x80\x86\x1a\x86U\xa3\xd5\x8c\xcb:D\x81\x1f\n\x81\x88r*\x8bW\x1b)\xae\x96MW\r\x0cu\xa1\x15Ej\xf5b\xed\xc8\x82\x94\x9a\xd6-\xb9\xbd\xcd\xa1C-\x97\x9d-h\xa7\x03OIz\xe6-]Rr\x04\xd5\xfa\xe6*\xa0D\x1c\xd1\x0b9T\xb5(\x80\xe1\x82!\x025F\xc2-\x08\x8a\x94\xe0\x08%\x9c\x15\x06$W\x9f\xc7L\x0c\x1e\xadN\xefN{\x9aKW&lt;\x1c\x001\x97\xc0T\xb8EI)~i\x9e\xbd\xa9h\xa9\x08\x15(@\x87\x04\'\x96:.i\x8b\xcc\xca\xb3ZE\xa0\xd2e\x14\xc5\xa9\xa4ro\x06\x1e\x93vWn\xb9\xaePJ\xb1\xb0\x13\x19\xdd\x1565CP?B\x8c\xd1\xb95\xe93\xbfep1Y\xfc\x9b\xb7\xbeok\x10\x13/\xa9LT\x88\xa9\x02u!H\xb4\xb9\xb5\xb53hb\x94\xce\xaa\xca\xae\xd6.\xd6n\x03\xa4\xabV\x89\xae\x9c\xd9\xa9\xa13\x86Z\xcdP\xefk:ZQw3N\xa7KI\x96YS`T\x9d\x82\xbe\xa6\x06B\xe6\xa4Y\x8a\x89\xab\x04)\xc0\xebB\xaa\x8cL&amp;a\x11Q,\x80B\x00\x99\xc1U,\x0c\xef\x0b\x9b\\LM\x8d\'o\xa7=\xbdf\xe6\x88U\x8c\x9a\x81\xf2r\xe6i\n|\x9f\x9b\x96\xc6\x91\xb9J\x00\x9c\xc38!\x9c\x1c\x84b\x91\xd1D\xb4\xf2\xbc\xc6SQ\x8de\xd8\xd3\x0c\xcb\xdf6\xf2\xb1\xd60\xa6\x9aN\xdd\xb3(y\t\xbe\x14\x8e\xf4B\x05\xa7AP5J9\x19\xada\xfbnm\xb4!\xeaubb\x94\xc9\xa8NB%\xc4\xb8\x00\x96\xaewR\xaa\xe1\xd5\x9d\x0c\xbaf\xbaIf\x86\xf9]h-Q%\xf7,k.T\xd6\xd2\xf3Q-\xaa\x9ej\xb1\xe2\xe1\xa2QM\xed\x1at\xb4\xeee\x8d\xd4g\xab\xb5\xab\x10\xcb\x9b\x9a\xe0\x86\xb8&lt;\xea\xa6Zl\x99\x1d\t\xa8\x9bP\xedjS\x88\xa3N\x02h\x04p\x13B:C\x0f-19t\xc6\xc5\xeco\x9e\xd7Nz\xfaM\x81,+\x91O\x83\x9a1pU6nb\x97\x89\xce\xfdv\xb9\xdc\x99\\\x8b\x08P\x8e\xa2\x02\x96\xb3\xa2\xd7Er\xec\x1e\x13Y\xb1d\xe5m\x10&amp;\xdaX\x16\x96\x9a\xd2\xb8I\x9b\rdE\x1azNp\x1a\xdf\x1b(\xc4N\xbaW\xcd\x0bH\xb37\x9foK\x0f\xeb\xfa\xe7)\x9bP\x9c\x84\xa2C\x93\x14\xd5\xc6\xe8\x8b\x94KP\x15&amp;\x86\x1a\xd8\x876\xcd\x9d")\x08u\xcbT\xadj\xcbF \n\x80f\x8c\x16\x9aK\x97n\xd3%l+Z\xb5:\x9aKnPV\x0c}\xc4\x80\xc53y\xc8\xe1&gt;\x0f8\xcb\x81\xa6\xa9\t\x96\xca\\\x9eb\xa3\xce\xf4\xd26\x08@C\x04*\x08MP\xce\xe7\xd7/\x93\\\xac\x9e\x87^;\x1dYki6\xd2\xe0\x16\x10\xa4!\x90\x9f\x0b\x99\xc0(\x01\xf8\x91\xfb\x9a\x82\xa4\x0c\'"\x99\xd4\xc0\xebFl\xd5\x0c]U\xc9#/=&lt;\xdbH\'\xa2)\xa9\xc3m\xb9\x1a\xd1Wp\x08\xe9\xb5\x9a\xca\x0fB\x84\xe5\xb2\xd2\xd3i9\xb2k%\x998i\xb5\xacz\x14\xfe\x8b/E\xa3A\\\xc4\xb8\x9a\x96\x82)L\xb4\x18b\x9f\x00\xa3\x87\x08\xa6j\xca@"j\xfd&amp;\xfd\xa1\x82N\xd4\x81T\xcc\xd1\xd4\xd05\xe2\xb3y\xb6\xb3*\xd4\xea\xc1[Y\x89\xdc\xcdJZ\xda@\'[,h\xc4A(\xae[W\x12&gt;\x0c\x06\xe8Ec\xd6H\x82\x9c\xeb\x1dR\x81\xa9\x15\xb4I\x04\xb0@\x18\xa0\xf2\x93\x01\xd3/\xb8\xb6\xa7\x8bU\xa0/G\x9fW\xaf\x1dM\x11\xb5"\xe6\xec\xb9\x81D\xd0\x845\xc9\xf5"H\x1b\xcdO\x19\xafWS\x01\x01\x0c\xb1\xccR\x84\xd2\x96\x83k\xc5_rp\xf3S\xcb\xc6\xd3\xde(\x96M.\x9d\xf7\x14\xd3\xbe\xa5\x90\xc7\x1d\xe2i\x08\xa7H\xdb\x15I\xae\x9e\x0eZ9R\x17\x15\xaa\xf4\xf2\xf7\xa2\xbd\x93\x92\x02\x00\x962\xe9\xce\xe9\x9a\xe8r\xc1D&amp;M@\x15\x1c\x80AZ;\x97\xf6\xceQe\xc8\'\x08\xb4+\xa51I*\xc5\xe1\xe9\xde\xdf\x07zr\x8bHEfKa\x9aM7i\xb7"\xc9\x0b\x1a\xac\x0c*DE\xb9q\xc2\xf2\x0e\xaf\x13\x89\xb6\x18\xb3h\'\\\xbfK\t\x94\x10s\x08P\t\xb7\x9e\xca\x06\x00\xbev\xe7\x99\xd1\xdcZU"~\xb73]\xb8\xeai\x0c\x00\x04R\xb9\xa9\x01\x96t\x849\x9c\x06\xd4\x00\xa3\xcbM\xe9\\j\xb0@\x9c\xc8u"b\xf2\xf1\xd5H\xabe\xb0\xd4\x8a\x84\xb0\xf6\x95s\xb1\xa9\xb6(-C\'X\xaf+^\xe7\xd2#&lt;1\xc7x\xad\x93\x15Vvz1\xa6l4(\xa1;\xe8\xf4\xd8i\xee\x85}\x12\x90M+\x96\x91\x9b\xe6DW5)\xc3\\\x12\x9f9\xb2\xc9\x96\xc6\xd9\xdb\xa4M\x12\x89\x10Qj\x00`\x18\xfc}\x05&amp;\xc7_=\xfaI\x04\xd4\xe5\xcd\xe7C\xb17\x19\xb5\xaed\xddi\xc0@\xa4!\xa9A\xa7sW\xb9\xf3N\xae\x04\x93V/@LJjY \xd9\xc1\xc8\x84\xd6fX\xeba\x82\x83\xa6+_\xc8\xe9\xb3\x8fJ\x91\x8f\xebsGw;\xfa*4VH\xac\xd5\xba\xce\xdb\x83L\xa5\x9d(\x02k\x80Q\xd4\xa4^\x1et\xf65\x04\x99\\\xc8\xa1\x84\xd5r\xf3\xa6\xd7\xa9\x04\xf9\x97gU\x8b2\x95Y^f\xb2\xceV\xa2u\xe9-1\x07:\xed&amp;\xdeK\x9fL\x1ee\x189k\xc9\xe8i\x0c\xb9\xcdM\xa0Hn\xcb\xd9\xca\xfe\x82\xd3 \xbeuF7-\xf4\x92&gt;\x08D\xb0\xc5\x14\xb99\x064\x8b\xf4\x93\xa5!\xcdp\xe5\x12\xc1\x121\xa2\x9c\x1b\xe9t\xe2\xf7^\x1c\xd4\x0c\x9a\xe1eF\x99\xf2\xed\x97\xa1kR\xa6h\xe4\xc0(G0\xda09V\xa7`\xb1\x9d\x02&lt;\xeb\xadd\xb6\x05t\x83/\x99\xc8\xe0\xe0\xe0\xcaU\x9c\x98\x8f\x91\x14\x95\x8a\xdc\xf2\xbal\xe3\xba\xe1\xe3z\xfc\xd4\xf7af\xb2,\xbe\x90K\x1b\x91\x97{\x1fkU\xcc\xb2Q-\x00Bp\x00\x1e\x19W\xb9\xa4n\t\x90\xd0\x81!q\xe4\xb7\x10\xe8\xa4\xf0\x044GL&lt;\xdd&amp;1\xd1\x8d"\xa4\x0e\xb9\xb3\x1aaR\x94\xeb\xa5|?5\x16\xf5\xc2\xf4Z\x8d0D\x04J\xa6\xc4_\xa2\xca\xf7\x83G*\x8c\xeaiX\xd4\x81\xa0\x13 \xe6\x1bSRCol\xe6\xa6\xd6pK!8G\'P\xf39\xb6\xb3\'\xa9\xd9\xcff\xd3\x08&amp;\xa6\x90*\xe59J\x93\x8ad4\xa8\xbaI\x02\xb4,\xb0P3\xa9\x04p4Hei7\x8fM\x84\xb5Z\xec\xea\x03\x90L\x14pJ9\x98\xca\xb3\xe6\xab\x1d-\x02\x16+_\xc7\xeao\x96\xe2VO\xab\xcdOnLo\x9dR\xf3GoFLs\xe8\x87Vz\x99U\xa9\xb1\xacm\x12\xc2$\x050\x1c\x08\x15e\x06k^\xa9\xcc\xb5\xc1\x0c\x84\xf8H\x8d`\xa1\x97"e\xd0\xc5\xf2\xa2\xb9\xcc\x8b\x9a\x94\xd3\xd1k\x1cv\xd2\xacx\xd9[j\x98\xdb&lt;\xaa\x9a\xc5j\xaa\xa5\xd8\xd7\x0fC*\xd4f\x0eZz\xeek\xd6h\xc2ip\x10\x10H\x13R\x89e\xf7,i\x16R\xebR\x03.\xc6\x85\xb8BX\xe8\x97&amp;\xda\x9d\x18\xb5\xd3\x915\x014H\xa1\xaeN\x03"i\x19\xa7\xc3H\x07\x1b\x00w\xa7+\x1a\x80\x10\x00\x01\xda+R0\xa2.*I\x15\xcd\xf2\x05\x10\x99\xb5\xc1\x08\x96\n2\x8a\xc6\x9aEP\x07\x0b\x98\xf7\x9b\xd3o\x16\x92\xa5?K\x9e\x9e\xdc\xbbI^\xc5Qn\x91\t\xc8\xdb\xb8\x8ct\xafh\xddr\xf8:\x91\x8c%\xd8\xd5C\x11y)\xbd\xbb\x8d0\'"&gt;\x0b\\\xd6\x9ex\xe9\x08c\x08Y\x0b\xcd\x10\x02y\x08x2\x07m)F&amp;\x1b1\xb6zW9\x01\xe8\x03\xca\xb4\xd0(;s\xbfo\x063\'\x9f]$Q\x15\xa0\x86\x1a\xe0&amp;\xb8\t&gt;d\x85\xce[\xda&amp;\x94\x88\xa8\x94\x15(\x02\n\x93\xcb\xe5\xdd\xa9Z=\xb8\x18\x8fI\x11\xca9\x92.ec\xae^LR\xe8Zk\xd0H\xc8\xee\xd29\xab.J\x94\'\xcc\xa9;\x04!`\xaa\xcbNk\x85\n\x86AD\xb2C\x83\x83\x91\x03\xca\x1eL\xd2\xecU6)R\x8b96&gt;](\xc9\xf7^\x01\xdb\x8c\xe8\xa8\xa0nQM\xe75\x14\xc8T&amp;nmc\xd9\xd3u/\xb5t\xb3k\x9a\x86@\xbc\x04i\xee\xaa.\xa5Z\x0e\x90\xa6H\xa4h\xa7\x01(\xeaT\xc5-,\xc2\x07\xe6\x07`\xa8\xce\x95\x8bw\xa3:\xda1\x18\\5\x83&lt;=T= \xf2\x13os\xe9St\xe7[7\n\xe7[\t7k\x85\xc3$\x1d\xcb\x17-\xed\x9c\x87\x05\xb4\xa6\x94K\x84\x08\xd1\xcfD\xb8\xb7\xd3\xe8\xc5\xfe\xbc p\xc3\x10\x0eE#\x96\xa0P:$\xc6*\x8c\xeab\x9f\xb9\xdeh$\x16\xfa\xe6\xdb\x99d\x04\x00\xa2\xe1rtE\xc9&lt;\xc8\x9a\x84t\x90\xce\x0e\x0e\t\x0e\x0ceJ&amp;\xad%Gpg\xa7\x9f\xcd\xab\xbc\xd6\x10\x1fF]\xd5\x8d\xba\x0b\xd0\xa0v\x93{\x1c\x12\xf2\xce\x95\xb2\xca\xe1\x81\xd8\x9bMk\x92\xc8\x08K@:%\xf8\xc1\xfb\x9b\x80\x19$#\x84\xf8+\nP\x8bv\xc9[")a)\x16\x94\xbc\\tkX\xd5\xd6*\xa9\x15Xt\xb4@\x1a\xf6Hr^Z~{\x9fg\xa2\xa9\rP\x97&gt;5V\x9a4\xc3a\xa3A\xb5cMk\x16T\xd9J\x02&amp;\xb9\xa1L\xd04er\xee\xd9/\xf4\xe2z\xcc\x8c\xc4u0\x98\x8c\x9a\x84\xf8\\\x02\xcc\xe8\xac\xb9\xa9\x16\xa3\x18\x08\x9a\xd6\xd3!\x1a\xf1@\xcb\xf4\x8b\x1a\xad&gt;\x0b\x052T\xae\x1a\x94t\xb8@\xa3\x86(\x96ppK3\x87\x95\x15E\x0b \x81Vy\xe9\xaby48V\xed\r\xeb\x0c\xed(\xdbLW\x04R4\xd8\x05\x90\xbd\xaae\xfa\x0767b5\xdc\xbfst\xb0\t\x143\x12i{\x9fD.LQ\x03\xe4\xe1\xaaGD\x15\xd2\xaek\x91Ry8\xe8\x13Z\x9bd\x93\x08\x05\x8b5\x14\x91\x1f\xb8E\xec\xc7\xce\xfc\xb6:\xbb\x8d\xeaT\\\x15\x06\n\xa4\xdaa\xab\xf2\xbd\xea\x97\x81\x9d!\xcd\xb2\xb2\xd1\xa4t\xa4$\x0e\x95`\x86\x1b/\xcd\xa6\x9fFW\xf4e\x13]HFH\x9a\\\x9c&amp;U\x10&gt;N\xb0_;TI\xda$\xdf\x93Z\x92\xec\xbd\xa6$[:\xa8l\xe9\x12\xd5C\x04\xef&amp;\xc9(\xaa\x90\x99P\x9f"\x02\x1b\x84K8P\x9f\x003\x01Zi\x88\xabj\x86\xf2\xa5\xa3\x9d/\x9ad\x9dMSZ\xc97\xe7\xc0-\x1d\x0f\xe3KZ*\x92\n\xe6\x97\xb9{+cL\xec\xa3R^\xe6\xb99\x0ciBb\x1eF/\xd0\xden\x0c\x00\xc2\xb9\xab\x1a\x11P\x9d)\xac\xaa$\xc7\xe6\xde\xf7.\xef\x9c5\xd1T\xb4\x03B\x93\xe1\xb0\xd54\xbc6Z\xe9\xf3\xebj4\x10\xc3\\\x8c\xa6!5\xa0,\xcbU\x8fu/E\xa6lk\x04\xcb\x1a\xe0\x90\x90!\x00\xf2\xb97\xb1\x1a}XYrT\x86\\\xb6U&lt;\x12\x89\xa0e\xc395f\x8f7f\xd9\xe5*Z\x94\xe7[5:t\xbaL\xe7MB\x1c\xec\xe9[r\rJ`\x04\x8b\xdc\xac&gt;\x18K\xe4\x12 b\x12\xceK\x99\x03\xe4M,ex\xf2\xea\x01\xa5[\x12\x9a\xc9\x86\x84\xab\x94\xed\xda2\xaf\xd23\x1d/S|\xdb\x95\x0b\xb1\xc0Jj\xa6\x98\x936\x88OOH\xd1k`[\x95\x1d/\xa9@\x02~\x12/\xdcT\xf0\x10\x859d\x8b\x82\x99\xac\x8ctW\x1d\x1b\xdf+X4\x82Y\x8a\xc4$\xa8Y\xa9K\xc9*\xc8\xc7M\xa8z\x80\xc0/,\x01A\xb4\x95L\xb0Y\xba%\xe9zW\x1bzK.`|\x9fHVrH\xe7\xa2&lt;=\x1a\xdd|\xeco\x9c\x8c\xee93h\x07\xc9\x9dO"i\n\xaa\x13\xaf\x1bgH\xb2\xd5\x02\xcdh)_5\xaa\r\x81%X\xf3f\xb4eH\xeb\x96m\x15(M\xdd\xf0\xf4]\xfc&gt;/\xca\xf5%8\x01O\x90)\x93R\xce\thB\x13*\x9c\xf9\xbc(\xb5\x99ST\x85H\xc7M\x12i\x85\xba\xc6\xedu\xdcT[\xcf\xa0ud\xb6Z\xec^Y\x15kBg3\'\xa8\xd13\xad\xadXu\xaa\xd0\xd7=\x84\xf4\xa4&amp;\xa5\xcdcN+\xc9\x95\xec\xdc\x90\x08r\t\x80\x9e_&amp;\xf2+zr\x10\x18\xaa\xd3\x975\xaa`B\xcb\x13\xc5\xcbJ\xb2\xbbZq\x84.\x1c\xe7X\xe3\x86\x9aN\xaa\x9aG\xa5y\xa5\xac\xddKlZmJ\x052\n\x91\x99\xcb\xd1|\x1a}\x9c\xe7K\x99-\x13&amp;\x94\xa3\x98)\x9b\x92h[K-/J\xedfZ\xe0JZ\xba\xe6BmV\x8a.U\x12pP\x9a\x11z\t\x1bR\x04\xe7g\xbb\x8fs\xab\x94\x9a\xf0&gt;?\xb3\x08\xe4\n|\x10\x99\xd2!C!\x13G"\x02\xb1\xf9\xe8\xbc\xa4\xc5\x8a\x85B\xcbU\x98Eim%\xa7n\xfbJU\xbf\x8cfmz\xc6k\xd8\xc6\x17\x95\xac\xa5\xa4\xd7\xcf\xbdU\x9c\xeb\x9f\xa3bq["&amp;i\\j\xa2\xb0\x10\xe6y\xec\xae\xbb^\x89(g\'L\xd6W&amp;\xda\x1a\xe6\xde\xd1Z(\x1dR\xe1\x0b\x8e\xc4X\xd5qY\x98\xea\xf8\xa1\x01BCe\xaa\x93Bj\xf9&amp;\xe7\xa6\xb7u\xcd\r%\x8b\x9c\xf6\x125s\xad;\x82dH\x86Z%\xc5\xd1\xb1\xd5\xce\xd7Nb\x04\x12\x1dJ%\x9b\\\xc2j\x07(\x0bJ\xe3\xa3\xb7\x9c\xd8A\x01\xcdf\xa7\x1bcj\x1d\x1b\xb9\xdc\xa0b\xb8+\x9aT$NKcl\xbd\x17\xa3\xc1\xa1\xaeP(\x0f\x07\xe2\xfb"\x9c\x88G\xc8\x80\x96\x13P\xdf\x0b\x82B\x00\x13\xce\x1f\x99UJ3\xca\xaaZ\x8er\xa9D\xce\x9c\xad\xd6\xec\xd5\x1e\x89~mU\xdc\xd32J\xe9\xd8\x94\xb2\xd1&gt;\xbc\xae\xe5\xd8:q\xaa(\\\xe9\xa6V\x0c\x173\xd4^m\xa2\x02\xa5B\x9f\x87\x8a\xf5\xd7\x0c\xa6\x87&gt;\xa0\x8d-\xf3\xb2\xa4\x13\x14\xc5\x15\'\x02\xe6-\x9d)6\x18\xdb\x01!\xcd*:\xd9@R\xd4gl\xd2\xb45t\xce\x8dgJ\xa7\x14s/8o\x07\xa5SP\xf2\xf8z\x1c\'S\xb7\x9c\xedK\\\xc2\x08\x97,\x16t\x9c\xd9\xb5\x00\xaevp\xd8\xe8\xc8\x9a\xe6p\xe2J\x83&gt;\xa6\xed\xf2\xbd7\xa0fn&amp;\xab\x8a\x08f\xd4\x86r~\x83\xb3\x93\xd2\xf6\xf1]S\x01\x01\x08\xf0\x9e?\xb3\xc1\xc0\x12\xf89\x9c\x88el\xa6\\\xb5h\xb9\xb2D3\t?76\x8c]hN\x96{\x9af]s\xe8\x86\xcd\x805m\xd7Q\xa3\x85+\xd9,\xe2gM\xcemn\x9c\xd8\xce\xae\xd2\r\xcdi\x94\xd3\xf75\xa1\xea\x9d\xe6\xac\x96\x03\tr\xe7\xe7\xea\xfd76\xaf\xdc;\xbeu\xcb\x94\xf9\xae\x97\xcdB`\t\xcbO\rj\xce\x8c&amp;]\xf6\x86\x90!A\xd0\xc6\x91P\xdc\xb8\xbfXq\xaa\x13*\x01\x19v\xa1\rK\xd3\x8aW\x97]n\x8c\x1a\xe8\xceS!K9\x83.\x02\x13\x96\xa2Y\xd2\xa4ts\xe8\xde\xd9\xd9j\xcb\x98\x08\t\x0e\x96\x90)\xb6l^m\xa6\xf4Q\xe7\xa59\xd1 \x85\xc9\xd9S\xbb\xe8p\xebt\xf3\xc8\xa0 98\x0f\t\xe3{\x10\x8eo\x82\x11\x0c\xa9\n\rq\xc0R\x1c\r\x8a\xd0v\x95H\xf33y3Y\xec\xcf\x1e+U8\xba\'\xd0\x86\xbbe\xbc\x8c\xb4\xcd\x0f!\xbe\xach\x8d\x0b5\x9ft\xe4%w\x80\x96\xb3WT\xe9\'\xc0\x13Z\xaeu\xf4\xcd\xcc\xecUKHa\xa6DR}X\xfb1r |\x01\x0e%\x95"iL\xedLn\xa8\xba\xe5\x8bL0Z\xe0\xe6\x00f&amp;\xcaw\xeb\r\xeb\x99\',\xb5\xae\x0b\x04\x83*U\xe59:}v\x07\xa2\xf4\xb8\xec\xa4i\xf3F"\xa5\xcc\x84\xf9\x015\xd4\xb9\x0bM\xf6T\xd6\xd9\xd9J\x02Z\x14\xf9\x92\xca\xe4\xcc\x19ts\xb3I\xe9met\xe3\xa9 \x82P\xefF\x1e\x87\xbf\x85\xbd"\x12\x80\x81\xc2|\x10/\x07\xe3\xfb&lt;\x94\x84\x0f\x82\xa6gM*\x10\x16RT(T\xc2\x1b\x13\x94\x9aIF\xfc\x94\xde:~q\x98w0\xa6\xf9[\x12zd\xda\xd4\xa8a\xac_\x172\xcbl\x95\xcf^y\xe6\xd5\\\x96v\x88\xa4\x91\xd8K\xac\x06\xb4\x91\xa8\x9e\xbbVEfsm~\x91\xa5\xd1\x97\x9c\x87}\xad\x99$b\x81\x97(\xacjEW\x9dV\x9cE\x0bU"\xb6\\\x9d\xb6\xb8\\\x995\xd77\xdaY\xad\nK2&amp;\xb4\x12\xca\x1a\x98\xe9\x93\xcf\xb6\x86\xd9i\xf5\xf3\xee\xa7eL\xa0\x82C\x83\x98)\xf4\x900\n\xb1\xb75\xce\xdb\x90\x18\xa6L6\xa2\x97K\')\x15\x9a\xd3\x1d\x1c\xed\xa1\xe8\xbbq\xd2"\xe6Iko\xbb\x8fs\xaf\x90\x99\t@B|&gt;\x14\x0e\x03\xc1x\xfe\xc1"\x03\x82ZPj\x02\xe3VjZ\xad\x15\x8e\x86&lt;\x8b\x91\xa8\xd3U8%xH\xbf#\xa2\xc6\xa8i\x0c\xca\xb9\x1e\x9a^\xed\x07b\xd4\xa5\xb73kRM1\xa4\xb8\x91\xb9\x80\xa5\x8e\xcby\xa9\x86\xde\x93]\'3\xb73\xa7p\xd3O\xa3\x1b-Z\xe4G\xe1\xe5\xfa\xd61/\x92\x96)\x95\xab\x9d\x88\x86X\xcdBr\xd2\xc9\x82&amp;\xcb\xe4\xa85\xba2\xb5\xaai\x04\xd4\xdc\xd0;d\xe8\xb9\xb9\xf3\xdc\xfb\xdf\x85i\xf6s\xe7\xea\xb7s4t\x9b\\\x90K\\8\x14\xa7\xc3\x04-\x95\xdc\x0c\\\x9e\xb9\xf2\xa0\x97\xcc\'&lt;\x9c\xd2\xe1\xd5/-:v\xc5\xbd\xb2r^\x8cT\xe3\xa8glk\x97\xa4\xf4x44\xcb\x9a\x84\xe0!8\x0e\x0e\x0e\x14\x0f\xc0\xf8\xde\xc7\x07\x01\xb2Z\xccMT\xd6\x18"\xb6\x02t\x05a#\xd0\x91\xda\x9d\x9d C\xc2\xcd\xf8\xc9\xb5)\x1c\xb0p\xa3\x9d87\xe9\xea\xd2\xa0gr\x9c\xe9jUZ\xa42n+\xca\xe9\xa5^\x92\xe1:\xa9\xd2\r\xaa\xe9\xa8\xe6\xd7i\xafK\xd7\x81\nQ\xcdruEx\x86{\xa7 \x9ayZ\xf8\xe9(\xe6\xaaU2@\xe5\xaa\x87J+a\xd4\xec\xeb\x03\xa4\x9c\xbbS^\xe6%\xd3.\x1b\xa9\x99\x1eof\xae\xf89\xd3\x911\xaa\x87ny\x16R\x89\xa2\x14\x04\x8f\x85J\xa5\xf9\xf4oH\xbbY$\x15\xcf\x04K:\x99\x08\x01n%\xa1\x15\x9d5u\xe6\xd6\xb9\xe8\\;\x9d\x86:i\xf5\xf3z\x1e\xde+\xa9BP\x9c\x07\x0e\x03\x82\x05\xc3\xe0\xe0\xf0^?\xb1\xc1 mC\x9c\x85k\xcb\xa9\x94MT*\x06\xb0\xf89\x1aHv\xe7R\xa5\xcb\x84\x15y\xb9\xba\xd3NL\xb6\xfc\xd3\x8a\xc5\xe9\xe4\xd9\xb0X\x9d2\x114 \x84\xd2\xe9\xabP\x85\xad\xb9t\xb5ST\xd1\xab\x9dlq\xf4bt\xe5\xed\xaa5\x19\xcd\x1b\x98\tL%\xe5\xc5`\xb5\xe82\xb0\x8a\x14\xe4%\x15\xa7,\x99\x04\x04r\x11r\xce\xb1m#k\x93z\xa5Q\xe6\'\xcdg\xf1\xf4\xa9\x8d\xfa.\xdeac\x95%\xa4\xe7\xa7\xbbP\x00\xc2 }/\x9a\x94\xf3\xe3K\xb1lo\x9c\xb0\xc0B\x02\xc6\xac\xa9\x96\xa1\x840E\x12\xf1q\xd4|\xfe\x87\xea5:\xf0w\xb3\x9c\xb4\x9d\x9e\x8e}\x9d\xf9\xcd\xa8D\'\x01\x03\xe0\xe1@H@\xf88&lt;\'\x91\xeb\xc8\xba\x89\x90\x19\x914\xb8\xd6N\x94V\x9a\x8c\xe6\x95L\xd58\x8d:\x9d\n\x9d*\x99\x0c\x95X\xaa\x91\x0cI\xacg\n\xb9\xd9\x93v\xd5\xd4\r\nK\xa3E\xb3"QI\xdc\xe8\xc5eR\xc2\xa9\xd7M\xf6frth\x08\xbb9\xb7\xb0\xd7kI`\x9e\xa5\x00,\xe9a-H\xaf\x1b\x95i\xb3_;\x86\xba\x1f0!\xcd#gT\x9al\xed\x16\n\x96\x10V\xdb\xd5 \x9dU89\xeb\x93\xc3\xd1\xa1\xd5\x86\x96\xd9\xda</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/494963-no-hay-dos-iguales-que-esconden-las-huellas-dactilares</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>La minoría pelirroja: ¿Por qué su mutación genética los convierte en únicos?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>28 de octubre de 2022 - 13:12</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>En Escocia, los pelirrojos pueden llegar a representar el 13 por ciento de los ciudadanos</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Las personas que nacen con pelo anaranjado no superan el dos por ciento de la población mundial. ¿Qué hay detrás de las pecas, la piel blanca y el pelo en llamas?</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>La población pelirroja representa un porcentaje muy bajo en la totalidad mundial: tan solo el dos por ciento. Esta condición es la que, en la Edad Media, los condenaba a la hoguera o en la antigua Grecia a ser arrojados desde el Olimpo. Pero los avances científicos lograron una victoria sobre estos y otros mitos: hoy se puede explicar, a ciencia cierta, el origen de los excepcionales rasgos de las personas pelirrojas. En la Agencia de noticias científicas de la UNQ se elaboró un repaso a partir de la voz autorizada de un científico.La cadena genética del ser humano tiene de 50 a 70 genes involucrados en la pigmentación, pero solo uno de ellos es el responsable de que existan los pelirrojos: el MC1R, gen receptor de melanocortina 1, responsable absoluto de que algunas personas tengan el pelo anaranjado. En diálogo con la Agencia UNQ, el doctor Mariano Belaich,especialista en Genética Molecular, docente e investigador de la UNQ, explica que “cuatro o cinco variantes de este gen impiden al cuerpo la producción del tipo más común de melanina, la eumelanina, de color marrón oscuro. Las personas con estas mutaciones solo pueden fabricar la otra clase de melanina existente: la feomelanina, de color rojo”. Los genes poseen variantes en una población, llamadas alelos. Y, en los seres humanos, como el genoma nuclear se compone de un 50 por ciento de la madre y el otro 50 por ciento del padre, suelen tener dos copias por gen. “A veces, esas dos copias tienen el mismo alelo (homocigota). Pero, en otras ocasiones, podemos tener dos diferentes (heterocigota)”, dice el especialista. Y aclara que las instrucciones de algunos alelos pueden prevalecer sobre otras, por eso se las suele llamar en función de sus efectos (fenotipos) como “dominantes” o “recesivas”.En el caso del color de pelo y de la piel, participan genes vinculados con la síntesis de pigmentos. Entre ellos, variantes de melanina. Algunos de estos alelos presentan dominancia sobre otros. Por ejemplo, pigmentos oscuros sobre los claros. Si bien se han identificado alrededor de 200 genes implicados en tales fenotipos, destaca el gen MC1R (receptor de melanocortina 1). En particular, este gen posee un alelo del tipo recesivo que, en estado homocigota, explica alrededor del 73 por ciento del fenotipo “pelirrojo” según un estudio de un grupo británico publicado en Nature Communications en 2018. En ese sentido, portar esta doble carga alélica para MC1R predispone con alta probabilidad a ser una persona pelirroja. Y esto puede derivar a partir de que la madre y el padre también fueron homocigotas para este alelo, y pelirrojos, o que ambos portan esta variante en estado heterocigota.La frecuencia de los alelos para los distintos genes varía según las poblaciones humanas y sus historias evolutivas, de migraciones y cruces entre etnias. Por ejemplo, los alelos de MC1R asociados al fenotipo pelirrojo son más frecuentes en el noroeste europeo que en el resto del planeta. Alrededor del 1-2 por ciento de la población mundial sería pelirroja, pero, en Escocia, ese grupo crece hasta alrededor de un 13 por ciento. En general, los fenotipos homocigotos recesivos son siempre menos frecuentes, dado que se requiere del estado homocigota para su manifestación.Las personas pelirrojas, al igual que quienes tienen piel más clara, tienen menor capacidad protectora y son más vulnerables a los rayos UV. “Más allá de una característica física, los genes vinculados con la pigmentación son importantes porque presentan roles en el desarrollo de cáncer, como el melanoma. Si uno es pelirrojo y amante del sol, es necesario cuidarse mucho porque el cuerpo no está del todo preparado para ese ambiente cálido y veraniego, pleno de rayos UV”, remarca el especialista.Otro aspecto frecuentemente asociado a las personas pelirrojas es la percepción a los cambios de temperatura. Una investigación de la Universidad de Louisville (Kentucky, Estados Unidos) apuntó que la mutación genética que les hace tener el pelo rojo y la piel delicada, también parece hacerles más sensibles a los cambios de temperatura. Tras comparar la sensibilidad al dolor térmico en 30 mujeres pelirrojas y 30 morenas, el estudio detectó que las pelirrojas comenzaron a sentir dolor alrededor de los 6ºC, mientras que aquellas con cabello más oscuro no comenzaron a notarlo hasta que la temperatura rozó la congelación. El equipo de investigación concluyó que el gen MC1R puede provocar que la respuesta de detección de temperatura de una pelirroja las vuelve más sensibles al frío.Como sea, aunque la fascinación provocada por su aspecto no siempre fue positiva, en pleno siglo XXI, el cabello rojo los convierte en uno de los grupos minoritarios más dispersos y fascinantes en el mundo. Tras siglos de peligroso desconocimiento, la ciencia otra vez hizo lo suyo.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x03\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x06\x05\x07\x08\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xfe\xaf\xf5\xf9\xea\x13@\t3\x9b\xceL\xb3\xb8\x95(\x02Q@\xcc\x9dR\x08\x00\xb0Bj\x85H\x04\x0c\xa1RT\x85\xa0\xcb\xc8\x00,c\x18\x0e(\xa0\x1a\xb4\xa2\x8a\x8a\x8bT\x92E\n\xe2\xcb\x00\x00\x10\x892\xd4\xccD\xd4\x80\x84\x00\x02$\x92\xa5\xd0e\x0c\x061\x95\x932\xacjns\xd5\xcc\xce\xe7+"\xc8#RIfh\x05\xac\xdb\x9a\xbc\xdd\x0b\x97I\xade\xd2_\xaf\xdf\xc8"\xb1(\xa2%\x99b\x12\xca\xc4\xd4J\xa0\x01D\xd2\x10\x02\xb9Hh\x95\x00\x02-P\x02\x04-\x00\xa0\x08"\x861\x00\xc6P\x148\xa2\xca*\x1c0\x01\x0c\xb2\x86\x00!\x00\xc8\x10"\xb5\x12\xb9\xa6Z\x91j\x80B\x14QKE\x14TT\x001\x91YVU\x9e\xa6\x04\\\xe7fz\x90E\x93d \x02\x81k6\xda\xbc\xdb\x97E\xd6j\xe3\xd6Ny\xd9\x9d\x98\xf4\xc2\xb9J\x04\xa0\x84A\x12\x8a\x01"\x95K$\x99\xac\xaa\x80A\n\xa5Dv\x80\x08\xe1[H\x92\x86\xa4\n\xc68@0\x18\xc61\x95\x0c\xb2\xa1\x8c\x062\xa1\x941\x80\x0c\n\x92\x95\xc3\x02\x0c\xeb;r\xac\xcc\xea\x04!\x9aF\xc5C*\x1d!\x12I5\x9dfF\xb3\x8d\xb1s\x9d\x98\xeaedRd\x10\x80KY\xaeW\x9bk\xa4\xb6\xb5/\xb6\xe5\x90\x8a\xc7\xa62\xd4H\x85\xa8\xa9\x84 \x01\xc0N\x88\x16b\x0c\xa5\xcb:\x88M\x02%&amp;\xd40P\x11\xa3P\x11\x82\xa1\x8dP\xe4j@\x03\x01\x8c\x02\x98\xe2\xe2\x8a\x01\x841\x94\\P\xc61\x8e\x1cP\x08\x92)[\x99\x04T\x90\x00k\x1a\x8c\x068\x04I\x15\x04\xd4\x93\xa9\x9daf6e\xa9\x8e\xb3\x14\x99@ \x00\x95\xcd\x19\\\xb4\xaeV\xbe\xc7\x94\xaa\xa6gB4T\x99\xe973b\xa5`8 \x01\x05"I\xa8X\x81Q\x9c\xd6R\xcc* P\xa4e\x0e\x81\xc2X\x10\x94@j\xe1\x80\x0c\x04\x00\x00P\xc2\x18\x0cc(\xa8\xa2\xe1\x80\x0c\xa1\x8a\x88\x04%\xcc\x90$B\x82\x99e\x00\x0e(p\x89\xa8\x01\x91X\xe9\x8e\xa66e\xa9\x8d\x98\xeb3bIT\x80@\xa9\\\xaf+Z\xcd\x17\xd9\xf3;\x0b\x18\xe5qP\x05\xa5\xca3\xd4\xcfY\x01\x10\x00\x00\x82\xa6\x90\x12D\xb0H\xed$\x15\xc1D\xb5\x08\x1aP\xa5D\x92\xa8\x04\x00\x00\x10P \x00\x00\x00\x01\x80\xc7\x14YP\xe1\x80\x0cc\x18\xca\x1a\xc9\x04\x12I 2\x8a\x00(\xa1\xe4\xc6!\x8c\x93*\xc7l\xac\xc3S\x9e\xcc\xb5"\xc8\xa9I&amp;@\x14\xa4\x10\xf3Z\xb5\xf7\xfc+@\t\\\xd5\x0c\xa1\x83&amp;\x99\xeaE\xcc\xdc\xa0\x00\x18\x84\x00 \x10\x80\xa1\x80\x12\xa9Y$K\rHA\t\xa4@\x89\x10\x0c\x00\x04\x000\x10\x00\x0c\x00eC(c\x18\x06@\xca(\xb5\x07\x94\xe9" \x82J,\xa0\x10\x8b\x1eTQC\x01\x01&amp;5\xcb\xd2`\x98\xeag\xa6RF\xa4\x92!\x0bH@% \x8f\x7f\xe6\xe9C\x06E\x95D\x8e\x8a\x19Z\x99\xef3M\x04@5\x14D\x88\x00\x00\x00\n\x01\x12\xa2\xb1\x10H\xa1,\xaek\x04\x88@\xa9Hp\x00\x0e\x00\xa0\x00\x00B\x18\xc6TP\x00\x00\x0c"\xa1\xad\x94P\xa1\xc3&amp;\xb2\xa9\x10\xca\x8b\x84\x03\x19C(\xa2\xd1\x94Q&amp;F6\xf3\xd6:rk8jdMI32N\x92\x02\x08\xf6\xden\xa0\xca@h\rh\xaa\xa4,\x9d&amp;\xc5b@bR\xa1\x10SA\x00\x00Q@\x1a%\x02\x18\x89\xa8\x02\x0c\xa5\xcdsY$@\x01\x051\x8eRV\x00P\x87\x0c\x90\x18\x14\x00H\x00\x00C\x19KqC**\x02*)\x0e.\x19\x9dU^T2\x8aJ(\xa0\x18 B\xe0\xb8\xd6ZrW&gt;\xa4&amp;u\x1a\x91\x13P*\x98#\xd6\xf9\xf6\xca\x1a\xb0FRYe\x97\xac\xd0\x82\x90\x82\x01R\xa8\xd4\x9b\x98\x04\x00T\xc6\xa0\x00C\x18\x08\x8a\xc8\xa0"\xb3\x8c\xd6e\x91+$\x90\x18\nY%\x12\xb1\x94\\R\xa1\x80\x08\x02\x10\xa9\xc4\x80\xc61\x8eW\x0c!\x940\xa0"\x84H\xc7\x16Q\xa1H\xc61\xa0\xa8\t\\\x8c\x88$\xcbL\xed\xc6\xb2\xb3\x1dg+ \x90\x11\xe9\xb8n\xa1\x94\x05\x14Y\xa2P\xca\xb1\x8c\xaah\x80\x04\xa0\n\xc8\xb1\r\n\x8d&amp;\xc41\x84 \x18\x88\xacS5\xdc\xa1\x08\xc8\xcddR\xa1B*\xa9BL\x8c\xe2b5I)l\xb1\x8eZ\x01\x08) \x19\xa8\x00`0(@\xae*\x19C\x08\x00\x07\x12*\xb2\xe2\xc1A\r\x05@\x92\x04\x13REgY\xdb\x95\x98\xeaed"\x10\x8f\xbb\xc7u\x0c\xb2\xca.,\xa5\xa6X\xcb*\x9a0\nb\x81]\x8d\x18\x84\x04\xd4\xd9:\x8a\xc4\x03\x01\x19\x98\xd7:MR\xdckH\xce$\x91j\x06B\x8d3\xab\x94\xb6Lq\xae\\t\xf1\xdf3\xea\xf0\xe7\xaf\xd5\xf4\xf8\xfd7\xb7\xc3\xd5\xd7\x95EYr\xd49J\x04$\x9b%\xa0!\x8e\x01\x81@\xae(\xa8c\x18A\x08c T\x15\x0c\x00E\x08\x00\x9aD\x91RI\x15\x15\x95e\xa9\x9aE\x88@}n{\xa8\xa8\xb2\x8b\x8b,\xa2\xa1\xa5\x1a\x94\x03\x18h\xe2`.\xca\xb0\x01\x01#\x1dM\x81:\x92\x16I\x99\x95@Jf\xb5\x94\x8b\x1d\xac\xca\xcc\xaes\xd4\xc8\xb9t\xce\x9d\xb1\x8b\xf2yz&lt;\x07\xcb\xfb\x1e\x1f\xe3}\xff\x00\x9b\xe6\xfa\xbeS\xdb\xe5\xea\xcb\xeb\xf2\x9e\xfb\xd3\xf3?Q\xfb\xff\x00\x95\xfb~\xdf\x1dQ\x0eWU\x04\x15$\xe8\x94\x90\x86\xae\x00\x18-C\x80`\x03\x860\x1c0\x00\x01\x08\x02\x88T\x84MI"\x15gY\xaez\xceU\x9d\xced\x80\xcf\xab\xcft1\x94QQ\xa4YYXj\\\\YC\x11#\x19E\x88\x91\x94\x15V\x08\xc6MM\x93b\x16\x8b"j\xf2\x16-\xc6\xccu&amp;\xa0\xc6Lw\x9c7!(\xb9\xac\xa6\xfe?\x9b\xd7\xfc\xff\x00\xf0\xbfO\xe3\xf9}?\x9f5\xf3z\xf9\xfe\xaf\x9f\xdb\xf6\xfc\xbd~\xb7=}\x8f3\xe9\xef\xcd\xfb/\xea\x7f\x13\xe8&gt;\xaf\xcd5\x90\x00\x068*\x1aL\x92\x92\x80\x03\x08\x0b\x87+\x00\x19`T8\xa2\xc4!\x00\x89\r\x08\x08\xa0A\x91\xa6dV5\x95e\xa9\x99\x170 \x03\xe8\xe3L\xa1\x942\xca\x8a,\xb2\xb2\xa2\x8b/%\xa0\x03*.\n\xca\xb0\xd2\xa3\xa7\r\xea\xach\x860\x01\x13J\x8c\xa8\xc9y\xeb\x1dH\xd3"\x13+1\xac\xb7\x98I\xael\xef\xe3x\xbe\x87\xe5\xff\x00\x1f\xf4_\x93r\xfa?\x0f\xaf,q\xadf\xb8\xbay\xfd/\xcf\xfa~\xdb\xe7\xfb\xbd\x0f\x9f&gt;\x7f\xae}{\xcf\xfbG\xec\xff\x00\x05\xf4=\xde\x12\xc0)\xd8\xc0\x04H\x84\x000\x1c\xa4\xac\x068\xa9n,c++4\x11$\x81$\x8fB\x08\x00@\xd4\x99\xe9\x8d\x99Y\x96\x99\xd9\x91\x172BJA\xf4\xe7J(\xac\xa8\xa2\x8a(\xa2\x87\x17\x14P\xca\x1c1\x8c\xb029\xb4#\xa7.\xb95\xb1\xd2V4c\x02L\t[1\xaeM\xcc\xeb2,\xcc\xcd\x9c\xb5\'RD||u\xfc3\xe2~\x9b\xf2\xee\x1fG\x0e^\x8d\xf9z~\x7fo\'\xcc\xed\xe5\xbcju\x8fA\xe1\xfa\xbe\xe3\xe5\xfd?\xa7\x8e_a\xcf\xee\xfa~o\xeb\x7f\xaf\xfcg\xd3\xf5ya\x1a\xde\xb2\x0b79\xa5bL\x0e\x9dD\x02\x00\x00\x01\xc5M2\xa2\xe5\xa2\xa2\x8d2\xa1\x92 \x18\x85N\x19$\xac*\'Y\xcc\xce\xb2\xa8\xac\xeeq\xb6.`\xccI\'\xd3\x9a\xa5\xa2\xe2\xa4uKC\x91\xd3*Z*(e@QQF\x80H\xaa\xf2\xde4\xb3K\x01\tZ1\x80\x8c\x8c\x16EfZE\x12McR\x98\xef9\xd4\x13n3_\xcb\x1f\x03\xf5~\x07\x1e\xe8\xcd\xf9=&lt;}\x9c}\xdd\xfc\xbd\x1fo\xcd\xe9\xeb\x9d&gt;\x0fO5f\xfa\x8f\x07\xd2\xf5&gt;G\xd9\xe7\xcf\xd1{&gt;_\xe8\xff\x00\xac\xfc\x97\xd2\xf6x\xb5\xeb\xcf]aV&lt;\xf5[\x98c|\\\xf5\xf4=&lt;Z"D!\x80\x80c\x86\xb5\x14\xb5-E\xc5E\x148c(b\x18\x19\xaaP\x93;$\xce\xb2\xd3\x1a\xc9\x9c\xac\xce\xb3\x14\xaeP\xec\xd6-h\xa2\xa0*\xa8p\xec\xa5"\x87\x15-\x0c\xa2\x8b\x8a\x80\n,\xbc\xb5.\xcb\xb0%D\n\x01\x80\x84\xa2\x10\x85B\xe6ed[\x85\x9c\xfa\xcf5e\xa8/\xf27\xc7\xfb\xfe\x17\xcb\xf6v\xe3\xee\xe4\xe9\xe7\xf9\x1e\x8f\x9f\xc3\xd3\xcd\xdd\xc7\xbf\xd0\xe1\xed\xf9\x9d|\xfb\xe3\xaf\xd3\xf3z\xfd\x8f\xcc\xfb\x1e\xdf\xc1\xd3\xe8\xf3\xcf\xd5\xeb\xe7\xf4\x9e\x8f\x9f\xf7\xfe\xa7\xc7\xec\xf7\xf8\xfe\x97\xa7\xc7\xf4&gt;\x87\x8e#\xe7\xf2\xdfWlo\xd7\x0e\xe5\x08\x04\x02\x11 \x009X\xc7\x14\xaf+\x8b\x95\x8cpS\x18\xe1\x02\xa1\xac\x92*U\x99\x9def,\xe7\xa4\x19\xac@}-b\xd0\x05e\x1a\x15\x00\xc2\x81\x8e)YYQEE*(qC*.M$z\xadZ;,\x00BV\x8c\x95P\x80\x15\x10gdV5\x16\x19\xbf\xcf&gt;\x0f\xa9\xf8\xc7\x87\xf4&lt;8\xf5\x1c}\x7f\x1b\xd1\xf3\xfe\x1f\xaf\xe5r\xf4\xf3g\xaceF/\xd4\xf3\xfd?w\xf2\x7fG\xe8|\x9e\x8f\xaf\x87_+\xf6\xb8c\xee\xf7\xf1\xfa\x1f\xb3\xf0=o\xd1\xf9\xbf+\xa7/\xb9\xe8\xf2\xfd?W\x1c\xf2\xf3\x9e&gt;\xfe\xb7\xe9\xf8\xe6\x11 \x88\x04"@\x98\x14\xa0\x07+(r\xd8J\xe2\x87\x0c\xa8\x00BT(TT\x90g\xa4\xa6V\xc1\x06A\x1e\x87|hD\x90l\xbd\x12\xdc#2)T\x80\x0cy1\xc3Z(c\xc8\x1a\x83\x19qf\x91VU\x8c\x92A\xa1\x99Y\x95\x841\x80\x84ME\x12,\xdf\xc3&gt;W\xdd\xfen\xc7\xd9\xf9-e\x8b\x9e\x9c\xfb\xf3a\xbf?&gt;\xf9\xa5\xa6\xfe\xbf\x9b\xdb\xeb&gt;g\xd8\xf4~_O\x90\xfa\x1f3N^\xbfU\xe0\xf7\xfa\x8c\xf9\xba3}\x0f\xa3\xe6zO\xad\xf1=\xa7\xd5\xf9\x07N|\xdc\xdd&gt;\x9f7\xde\xf4\xf1\xce\\\x95XY\t5"\x08\x9a\x9a\x15f\x801\x0c\n\x96\xa1\xadKU\xa6\x0cb\x11$\x99\xd4\xd0JM)P\x88\\\xd71\x1e\xc2\xf0\x00\x14.]"\xe1\x13HDX\xac`\x04\xb5\x04\x14TP\xc6L\xa4\xa0\x0c\xa2\xe4r\xb2\x86!\x13\xa2\x18\xe1\xc2\x10\x00\x12H\x8c\xd7\xf1?\xce\xfe\x97\xf9\xa3\xbf\xaf\xc9\xfa\xfewW&gt;\xff\x00C\xcd\xdf\xe9q\xf4\xfd//\xb3\xe2z\xb8\xfc\x0fg\xcc\xfa\\\xbd\x9fs\xc9\xf4\xb9\xb5\x9d#\xc5\xfd_\xce\xf3o\x97\xb1\xf9\x7f\xa1\xfdo\xf3\xff\x00o\xe9\xf1\xcf\xa1\xfa_\'O_\xce\xfd\x07\xdf\xf2z\xba\xf9\xf3\xef\xe6\xeb\xf5\xf0\xf5\xfd\xf8\xf3\xcd\xfea\xe0\xf6~\x93\xf4\xbc\x1bj+$\x91$.5\x9ceH\x02T\xa9\x91\xa0c\x08sL\xa8\xa2\x95\xc1\x10N\x90I6H\x89\x12\xe7\x10\xb2\xa8\xb3\xd79P\xc4,\x82\xa5\xa9l\n\x01\x85\x85\x8c\t&amp;\xa6\x902\xd5\xab$\x00\x00\x00\t\x82[S%\xa0\x03\x84MI"\x00\x11"3\xce\xff\x00\x14\xfc\xff\x00\xe8?\x08\xbe\xef\xca\xbe\xaf\xc6\xe3\xdf\x99\xea\xfd//\xbf\xdc\xfc\x9f\xb7\xf6\xbc&gt;\xbe}vMM\xd6}3\xf3\xbd\x1e~N\xde]p\xd3\x9f\xa3\xb3\x8f\xb3\xd5\xf9;\xfe\xf3\xee\xfc\xcf\xb0\xfd\x07\xe5\xbc\xbfO\'\xea\x17\xa7\xc3\xf3w\xf0\x1b\xbf\xaf\xf7\xf3\xfe[\xe1\xf5}\x9e\xfe_M\xdf?g\xb1\n\xc0R\xcd\xceZr\xa75AEE\x94\xb0A\nJ@\xd0\x975P\x13I!d\x91(\x12Le\xad`cs\x98\x80\xd6=~sIZ$B\xa0\x98p\x012\xb5\xa2\xe2\xe2\xa9C\x1d\x14\xc1\x01h\xc0\x00\x04\x04\xe4\x96\x06\xa8\x00\x0b \xccU\x02\x10\x08\x04(\xf0?7\xe9\xfe\x1f\xe1\xfb?\x84{\xfew\xcc\xed\xe6\xf9\xdd\xbc\xbc\xd7\x9e\x93]|\xfb\xfbO\x99\xfa\x0fS\xf2\xbe\xf7\x96\xf7|\xdf=\xee\xf8\xf6\xeb\xdf\xc3\xd7\xe8&lt;?K\xe8\xf1\xf5\xfc\xafO\x1c\xbd\x1e/u\xe4\xf4\xfb\x9fW\xc2\xfc\xaf\xd9\xc7\xf4\xdf\x07\xbf\xd8\xfa&gt;\x176\xb7\xe1&lt;\x1f{\xf5m\xf8\xbfQ\xfb\x7f\x99\xfb~\x9ci@\x84\x06u:\xceU\x95"\xa3Hc"\xa4\xc9b\x88\x839T\xd3\x8d)\xdc\xc1\x83XK\x0b+ED\xc4\xe9\x81\x91\x9d!\xc8\xd7\xd9N,t\r\x00\x01\x82\xcaE@\x87+\x95\x80\xc6T\\:\xa5c\x1d8\x00\x10!d\x95D\xa2I\xa4EI0\xedK(\x91*\x12\xa1\xc9\xe7|\xfe\x9f\xc5\xfeG\xde\xf0\x18\xd7\x9d\xeb\xcf\xc1{&lt;\x7f\x1b\xd3\xe3\xf9\xdd\xbc\xb8\xdc\xfd\x1e\x1e\xa1\xaf\xad\xe6\xfa\x9c\xdd|zs\xef;\xc6\xf8\xe9\xf4x}\x0e\xae^\x8fg\xcb\xb7\x8b\xef\xe3\xe0\xe9\xc7\xd2y~\xa7\xb2\xe1\xdf\xcau\xf2}\x0e}\x7f\xa7\xf5\xf0\x7fU\xfb\x9f\x03\xe8\xf6\xce\x94\x00\x08B$\x8a\xcd$-\xaar\x02\x84\xabP\xb2\x0e5\xe4\x9a\x85\xd5\x9e\xc4\xd0\xca^\x06\xb9\x976\xa4h\xe1\xaa\xa92\x11 3\xd9\xb85`0\x01\x80\x00\x00\x00\x81X\x80C\x89%X\xca\x19PAc\x84\xae\xa8b \x82*I\x84\x04j\xc4\x85J"U\x01\x8eo\xf2\xf7\xc6\xfb\xfeg\x97oe\xca\xfeu\xd3\xa7\xe7\xbe\xdf\x0f\x90\xfa\x1f\x1f\xb3\x97}\xb3\xdbn]&gt;\xb7\x0f\xa1\xe7=\xff\x00\x1f\x9f|Kz\xf9\xfa;xz\xbb\xb8}\x1e\x9e}\xfdG\x8f\xea\xf0\xf7\xf1|\x7fG\x8b\xe9\xcf7\xf4\x1e\xfc\x7f\xb8\xf4\xf0z\xff\x00w\x96\x93\x83\x18\xfa=6\x00\xc4\x00L\xb1\x18\xd2\x01Q\xa4\xc1#\xad,Vbr/2\xe0\xa9;\r\x0ce\xe0k\x02\x16h\x129X\x89Y\x10\x01\xeeg\x16\x12\xba\x01\x05\x06\x14\x0c\x04\x001\x80\x00\x01"\x18\xc0!\x19TIKEKv\x01*\x94\xa48\xa8\x92l\xac\xd5Q\xa9\x16H\xe9\x13\x1f\x8ey:\xff\x005|\xff\x00\xbd\xfb\xa7\x1c\xf4\xf2\xf4~-\xbe\xdf\x90\xfdo\x8d\xf3\xfa\xf9\xf6\x9b\xa8\x8b\x9d1\xda\xdb\xb9\xae}r\xef\xe5\xec\xce\xcds\xd3M?\xa1\xfc&gt;\xbf\xd7\xfd\x9f\x07\xd6\xf5\xf1\xf7u\x9f_\xb6~g\x9f~s\x94\xf6\x9e\x9e}\xb6\x90\xf6\xb1\x80\x13.b\x18\xc93\xb25\\\x85\x96\x85MJfr5\xca2\xe5\xc0\xe72\xb72\x17\nH\rX(H\x82=\xfe9\xb0\x18\x00\x00\x06\x80\x0c\x06\x00\x10\xe9\x80\x00\x00\x00\x00\x12 \x00\x18A\x02\x84\xc5\x08C\x1c\x14\n\xc0*EY\xc9\xfc\x89\xf3\xfd\x9e\x93\xc7\xf4\xbd\xdf&gt;\xbf\x91y\xfd\xff\x00\x8az\xb3\xf3\xba\xf3\xe5\xeb\xe7\xe4\xeb\xe7\xea\xe7\xdfL\xf6r\xf6s\xf5\xf3\xeb\x87\x0f\x7f\x1f/o\'C\x7fC\x1e\x9f\xe8\xaf7/\xde\xbd\x1f\x1a\xfbs\xf3\xbc\xbd&gt;o\x9f_\xad\xd3\xcb\xfaW\xb3\x1fMX\x16YqC\x10\x00\xc6\x04\x18\xd1"\xaa\xb0\x16\x93$Y&amp;mH\xc8213\xb7\x13\x86\xb8\xeaQ*\x18\xd6RU\x1f\xa4r\xcb\x00\x10\xc2\x8a\x00\n\x00\x00\x01\xe5TP\x10P\x00\x10P\x00H\x00\xe1\xd0H\x00\xa0\x84 (@\xa0"Q\nU\x84\xcf\x8b\xf0\xfa|\xd7\xc8\xfb\xde+\xcd\xf4\xbf&amp;\xf5_\r\xe8\xf3\xf1o\x9fo/Mg\xa7\xc8\xf4\xf8\xb1\xd62\xdf(\xdf&gt;m\xf0\xc7\xa7\x0e\xa9\xafS\xe6\xfa&gt;\xbb\x87\xa7\xfa\x01\xf2&amp;\xe7\xbb\xaf\x93\xe9\xfa~\x7f\xb8\xed\xd3\xedo\xa3\x1e@h\x82.(\xa0\x18\x00\x08\x92I(d\xeeg$k630\x18\x10\xa9s\x8eM8\x0c\x0c\x8c\xf4\xc5\xac\xd9\x95\x934\xfd?\x90\x00\x00\x00\x01\x8c\x00\x00\x06\x00:\x02\x18\x00\x00Q@\x08Y\x14\xe9\x80\x00\x00\x84\x02\x00\x10\x08\x00\x0ew?\xc4\xa7\x97\xf1\xcf\x1f\xd8\xe6\xf3{\xf8\xf9\xf6\xf8oG\xc4\xc7}8{8\xbb\xf9&gt;7\xaf\xe7\xf3\xef\x10c\xd3\x91$\xeb\x05\xe7\xd9\x9d\xfd~~\xdfw\xe6\xf5~\x91\xd3\xe6~\xf3\xed\xf8\xbfc\xa6&gt;\xe6\xfb\x90\xa1\x08j\x94\x00\x02\xf2c\x01\x940\x030\xb0\xb2D\x002E@B$B3\xa8\xac\xcc\x8cZ\xe6g\x05\xca\xdc\x13\xdfs\x8e\x98\rA \x03\x18\x00\x0c\xa1\x88\x00\x04\x02\x94*\xca$`I"\x00(\x00\x00b\x00\x10P\x10\xa9PK?\x9bO/\xf2}\xe9\xf9~}|\xd2\xfd\x1f7\xb3\x95k\x1d\xb3\xd6&gt;\xdf\x9b\xeap\xf4\xe1\xf1}\x7f.\x0b\x9bS#zMR\xfe\x99\xe1\xfa\xdfG^^N\x98\xfe\xd5\xf6\xfc\x1fY\xbb\xa0\x00\x19\x19h\x85\x00\x04\xa2\xd0\xd0W\x148\xd0\xa1\x99\x8bP@\x90\x01\x00\x80@!\x00\x89\x02H!r1\\\x0fE\x98\xea\xc0\x06\x03\x00B\x80\x8bZ\xb2\x84(\x04f\xb2\x88%\x91\x8e\xc0\xb01XP!\xd5Y\xaa0\x1a\x88\x00\x08\x04J~m\xaf\x0f\xe6\xf5\xe7\x93\xf2\xab\xbf\x03=\xbc\xd2\xfd\x8f\'\xbf\xdc\xfco\xb9\xe4\xfd|\xbeOn\x13s\xcd\xd3\x8e\x99\xf5\xf2\xdf6\x1d8g\xaeNo\xa3\x1d\x91:\xc8\x9b\x1d\xa7\xe9|\xa7\xf4\x97_\x07\xec^\x9ez\x80\x0cB\x01\x12\x04\x88B\x18+W\x15\x0c4R\x16Q\x99\xce\x06\xc6\x82\x01\x08\x85\x06\x80\x08\x04(\x82U,\x1dyhoL\x82P\x10\x00\xa1\x1a\x1a\xda\xd33&lt;\xd6-0!]P\x00\xc2\x18\xc8"\xd4\x88V\x00\x9a\x1a\x9a\xc5\x85\x08\xc1P\xa4\xf0\xfa\xf2\xff\x00#\xef\xcd\xf9\x1e\xfd\xbc\xa9\x13p\x99K\xdf\xc7\xd1\xeb~o\xd6\xf9=\xb8\x98\xf6K?3\xb7\x0co8\x06s\xdeU\x9fG\xcf\xeb\xf9\xfd|\x85\x9a4\x8dZ\xda&gt;\xb65\xfdK\xcf\xc1\xfd\x0f\xed\xe3\xd9\xad1\x8c`\x02\x01\x88\x04 \x00V\x10\x8e}^d#C\x13\x9d\xa4t\xb3\xd6h\x81\x8c\xbc\xd6\xe7(n\xcfAH\x84\x0b0\x08K&amp;\xb3Vt\\\xb1\x1c\xb2\xf2S\xb2\xc4`f\xbaK\xb4\x02"\xc8\xd2i\x81E\x92\x8c\xa0\x95\x94I\x14\xc1&amp;\x95\x128\xb3\\\xdd\t\xb1\x9aP\xb1\'&lt;\x9f\xc4Z\xe3\xf8\x9ff\x11\x02)Q\xd1\x8e\x9d|=^\x83\xc5\xf5/\x97_\x9b\xdb&lt;z\xf3\xe5\xbc\xf5s\xf5p\xf4\xf2N\xa5\xcds\xf4\xf3s\xef\x8e\xd3\xae\xdc\xbbug\x7fC\x9f\xa9k\x9f|\xbf\xd0\\x\xff\x00K}\x1f\x8b\xf65\xd1\x8c\x06\xae\xc0\x91\x0c\x00\x14@j#\x84b\xbf/l\x05HK+%fu\xc7Zo\x1cK\xf3\xed%\xa9tg\xb0\xe8f\xc0J\x08@I\xd3\x9d\x82\xb38+\x9c\xe6\xd4Uc\x11\x06vTk-,\xd95(\x13J\x8b\x12 \x01\xab\x10\x14P\x08\x06\x8cr\x80\x94i.j\xac\xe4\xe7\xbf\xcf\xfc?W\xf8\x87\xe9|?7\xbeiP\xd4.k\xd3|\xff\x00\xad\xed\xfe\x1f\xe9\xff\x001\xfd\x07\xe4\xf2\xd7?\xa5\xe6\xfa\x1ac\xb93\x9e\xe7\xce\xed\xe2\xc3\\\xf9\xfar\xe9\xc7Nm\xf2\xa0N\xfe^\xcf\xbb\xe3\xfa\xbdg\xf4\x14\xf2\xff\x00O}?\x83\xd4\xd4\x05o\x0cz\x80\ts3D5\x84k\xa1\xa4T\x81\x9b\\{\x9cvs\xe9\x01\x11l\x01Q\xb4w\xe1\x82\xfc\xed\xd8\xaa\xcd\xa2\xe3\xe9L\xf7C\x10\xc4  \xcb\x1b\xa3-3,\xd2\x84V\x14\x86\x92M\x05\xc3V1\n\\\xf7\x85I\x02H\xa9\xa0@\x00\x82\xd0\xc0\n\x00(\x98\xb8j\x93\xe7s\xeb\xe3\xfe_\xd7\xfc\x8b\xd1\xe4\xfeQ\xfa\x7f\x1a\x1a\x90\x03\\u\xf5?7\xed\xf9\xefo\xca\xce\xcdq\xbd\xf8\xfa%\xaf\xb1\xe5\xfa?\x13\xd7\xf3cR\xa4\xf9\xfd|\xbd.\xb99\xb6\xb4\x97Y\xd3\xb3\x9f~\xcck\xf4\xaez\xfe\xd1\xf4\xfc\xef\xbf\xd7\x18X\xab\xbb\r)\x80\xc4A\x95\x8a\xc4d\r3X\xe8\x8a$\x83\x92\xb9\xb5\x11Q\xc7\xb9\x98\x04R\xf4\xe6\xf4\xe5\xcbX\x19jB\x91\xd1\x1d\xb1\xd2\\\x14B\x02H\xcfHG\xaa\xd1SA\x00\x01\x13\xa9\x8d\x16i-\xc5\xa8\x80\n\x95P\xb2\x05\xa4\x80$\x91N(\xa0\x18\x08D\xd2\xb2a\x05Upy\xfa\xf9/\x97\xf5\xf9s\xd3\xf8\xcb\xeb\xfe\x7f\xc2w\xe3\x00\xa1\xd9\xcb\xd1\xa6zso\x97o\x1fU\xe3|\x9d9)fR\xb2\xd79MM&amp;\xf0\xd7:]&amp;\xfa1\xd3ix\xfb\xf8\x7f\xa7~W\xd9\xfd\xe3\xbf\x93\xdf\xfb&lt;pn\x9a\x90Qe\x00\x00\x0c\x92\x84\x05%$\xb5\x06d\x02\xb3\x12\x07\x121\xae\xeb\x00f"\x93d\x93\x02\x88i\xe5D\x08\xf9\x1ds\xf2\xbbr\xe9\x9a\xfa|\xf7\xbeid&amp;\x8a\xd3\x02\x9a\xe2\xdf?\x8f\xe8\xf3\xaa\xea\xc6\xba\xb1\xd3\xb3\x1a\xe8\x9a\xa9&amp;\xce^\x99\r\xb3w\x9a\xdb5\x8e\x1a\x80\x05E\xca\n\xc42\x80\x82*I\xb1\x81\xf2|\xfd|_\xcc\xfa\xf9c\xa7\xe6&gt;\x9f\'\xf2?\xd9\xf8X\x82\x80vs\xed\xea~g\xde\xf8~\xbf\x99\xf3\xfbp\xef\xe1\xee\xe5\xd7&gt;.\xbe9\xdc\xdf\x1d:\xb8\xf7\xc3|\xb6\xc7n\x89\xd6\xb3u[8;x\xb6\xd7\x1f\xea\xdf\x93\xf6\x7fL\xe9\xc7\xf5/\xa5\xf3Q\xb1\xa2f\xad\x9bZ\x01\x80\x14 \x01\x8ch.d\x88k"\x14KH\x92cR\x05\x0c\x83\xa6\xcd\xee\x11\xcb7\x94\xac\x83#\x00??\xfa\xbf:u/-\xa6\xfa3j3\xb3\xa7;Z\xcf6\xb9\x99\xd6[\x91r\xd5\xad-\xc9\xa4\xbaf\xe8:\xd2j\xe3E\xea\xe7\xbd\xb3\xad%\xeb\xc6\xb7\xce\xb4\x82\x8c\x9a\xb4\x00\x00\x00U4\x0f4&gt;\x17\x0e\xde\x03\xe6}~lt\xe5k\xf9;\xec~\x7f\xf3\xefg\x8eF\x05M}/7\xb7\r\xe3\xd3|\xbf\xd1y\xff\x00\x7f\xc7\xf9~\xaf\x97\x9d\x8c\xea\xe7\xdaWN}\'S\xa7\x1d;yz\x95\xca\xeb\xc3\xe4\xf7\xf1}n=\x7f\xac\xbe\x1f\xe9=\xe7\x7f\x17\xeb?W\xe4:\xb2\xd6\x92\xd9\xa5\x91\x14\x03(@QD\x80\x92\x1a\x81\x14D2V\x14\x08\x98\xa1VQ@QvY\x812\xd8\x80\xccg\xe5\x1fk\xe5\xe9\x161\xc5\x145\x11\xd1*\x81\nkUQR\xd9Kkqqj\xda\xb8\x13\\^\xbe};\xb9\xf4\xea\xce\xb7\xc5\xb8a\x05\x03\x02B\x90\x82\x11\xf08v\xfc\xd7\xe5\xfd\xceL\xeb\xe7\xcd~\x7f\xdf\xcd\xfc\xcb\xf7\x7f5\x9d$\x15\x95\x97\x7f\x9f\xe8r\xf5\xf3\xc3\x1c\xfd9\xab:\xf9z\x08j\x93\\\xedjts\xf4a\xd7\xcc\xd9\xe3\xeb\xe7\xf5&gt;o_\xf4\x17\xc6\xfd/\xe87\xcd\xfb\x9f\xd8\xf8[iH\xca\x06jUJ\x98\xe2\x8d\x00\x81\x80\x89\x11+"\x02\xe3B\x1a\xc8 ,\x98\x92DM\x00LEL\x155P\xe1\xaf\xe2\x1f\x7f\xe1\xef.\xf9\xbb5\xa4\xbd\x11\xbc\xd5+D\x82\x83G\x14\xadh\xa9l\xa5\xb1\xc5\x14\xac`\xae(\xa8\xdf\x1b\xed\xe5\xd3\xb7\x1d7\xcd\xb8c\x869U8\xb8j\x86|.\x1b\xfc\x93\xe5}\xef\x9f:q\xaf\x96\xd6\x7f\x9a\xbe\xef\xe5\xfe_^R\x82\xb5\x13\xbf\xcf\xeb\xc7|\xb9w\xce5\x9e\x9e}\xaek\x9f\xa7\x1d\xb1\xad\xb3\xd1K5\xd3\x8e\xbc^\x8f\x1aIOq\xe2\xfa\x7f\xb3\xfc\xcf\xb7\xed\\\xff\x00\xa0&gt;\xbf\xe7\xbe\x86\xcd\x1d\x80\xe9H\xf5HtC\x86\x08\x94U\x08@*B\x10\x15\nY&amp;\x94T5DQ.vfE\x99Y\x06\x92\xd8(\x89I\x7f\x11\xfb\xdf\x08K\x8dWIv\x8e\xa9\xd3\xae]\xa5\xa1\x8ceC\x87mC*[Z(\xa0V\xad\x1a\xd4T2\x96\xb3h\xd7\x17E\xa1\xe4\xea\xa5\x95i\xd3\x8d\xf4\xe3zf\xd1\xc9\xcb\xa7\xe2\x7f\x17\xf4&lt;s\xaf\xc9_;\xac\xfe\x0f\xf6\xbf7\xe5\xfd\x1eDH\xc2:\xb1\xdf\x1ds\xc7X\x0e\xde&gt;\x9em\xf2Z\xc7W&gt;\xbd&lt;}&lt;\x9d\xfc\xbfC\x87\xbf\xe6\xf7\xf0c\xd3\x88\xb7\x1f\xa7\xfc\xcf\xb9\xfaG\x93\xe8\xfai?\xa3\xbe\xb7\xe7&gt;\xafL\xd5\x80\xc6\x05\x00\x00\x08J\x05\x01\n\x02h\x10\x84EBf\x92\xd4\xaeW9\\\xe5\xa9\x15\x9d\x99\xd9\x8d\x98o\x9e6Eo\x8b\xd1\x8d\xf6c\xafN7\xa6j_\xc4&gt;\xd7\xc5\xd56\xb3H\xd6i\x8e\xb4\x97i\xad\xe3V\xadt\x8b\x8b\x18\x16\\T\xb6\xb5\x16\xa0\xe0\xa1it\x87\x141\xad\xc5\xadKP\x13Sd\x92\x81R\x16\xeb\xc3\xb7\xe4\xbf\x9b\xfd_\xc8\xc7_\x99g\xcc\xaf\xc7\xbe\xa7\xc0\xfc\xfb\xdd\xf3d@\xa4R\xc5\x82\x0by\xbd|\xfb\xf1\xf4\xf3}N\x1e\xfc\xf5\x8e\xde&gt;\x8f\x87\xeb\xf9\xb1eX\xd3\xbf\x9f\x7f\xd7&gt;_\xdc\xf6\x1c=_a\x7f\xa1\xbe\xcf\xe6&gt;\xcfY\xd7.\xb2\xdec(\x00` \x06\x92%DY\x9d\x92\x02\n\x92Lk\x9a\xe7\rL\xeb\x0b\x9czc+"\xc9\xb9\x95\x8b\x12$\x94\x9a\x94R\xb3loI\xb6\x9f\x8f{|\x1dGK]\x0b\xb9r\xd4\x99\xa4h\xd1\xc8\xd6\x97C\xa2k\xa8\xe9\xce\xfa\xa6\xb74\x96\xa5\xb1\xc3)\x06\x80\x19e\x0ckr\xd4P\xc4\x04TY(\x84\x8d^5\xe0\x7f-\xfa\xef#\x9fW\xce\xb9\xe5\xb8\xfc\xcf\xd9\xf2\x7f\'\xfa\x7f\x1aZ@\x88\xa5\x90dQX\xa5\xfa&lt;}\x15\x9e\xbf3\xd3\xe1H\xd5\x8eOA\xc7\xd3\xfa\xbf\xca\xfb^\x93&gt;\x9f\xb0~\xdf\xfa\x0f\xca\xfd.\xfc{9\xef\xe9s\xe9\xdd\xcf[)\x050\x1c8B\xa5Pdr\xf4\xc7=\xcc\x80\x01+\x9dc\xa9\x9d\xcei\x1a\x99Y571\xa9\x04\x93\x11dY\x9a%\xa4b$\x95\x84\xfc\xa3\xbf\x97Sd\xd4\xd4\xb5v"\x83F1\x8d5\xc6\xb6\x97y\xae\xdc\xde\xc6\xba\xe6\xbagK\x93Hj\xca)X\x161\x94TQJ*\x02l\x94\x82lH#\xcfO\x1b\xf9_\xd6\xf9\x1c{&gt;U\x9f9\xcf\xc2\xfa\xbew\xe3?[\xe1\xa2F!\x92\x8dD\x01jk\xa7\x97^&gt;\xdc(\x94j\xca\x8fc\xe5\xf6~\x95\xf3\xfe\xbf\xdf\xe7\xe8\xfbM~\xd1\xfa\x1f\xc9wz\xf8\\o\x8b\xdf\xcf\xaff6\xd0*\x1c\xb6\xbaf\xaa\x8dIL\xd3*\xce\xc4N\x92\xc95)\x156BF\x90gfzeq\x94\x99[\x8e\xb3\x82ag\x15\xc7\r\xe7\xcbr\x8e\xdc\xeb\xad\xb1qNT\xe6\xb3\xf3y\x9f\xa3\xab\xd5s\xb2o\xa6\x89\xa0\xcb\xad(,\xa1\xa5\xcb\xb4T\xde\x8c\x9ah\x9dX\xe9\xbe.\x93U5w:M\xef-\x85Q\xbeu\xb9\xadZ\xb5BH\x80aJ\xc9\xb2QCo\xca~O\xf5\xfe;\x1e\xbf\x93s\xf2\xef?\x15\xea\xf9\xff\x00\x8c\xfd_\x87\x00\x8cCYF\n (\xec\xe5\xdf\x8f\xb7\x01@J\x8f\xb7\xbc\xfa\x0f\x9f\xf4?D\xf1}o\xbb\xcf\xbf\xddo\xf5\xdf\xd0\xfeS\xe9z\xfc\x9aK\xaa\xeb.\xb8\xba\xad\xca\xe5\xa0\x18\x08C\x9a\xa8 \x9651\xd6s"\x90\x11fVcg%\xc7\xce\xd6&gt;}\xe7\xc9\xacrk&lt;\xb6s\x98Y\xce\x99\x19[*\xa6\\Bg.V\xe2x\x0f\x17\xaf\xabS\xaa\xce\xcd&gt;\x8e\xf1\xdf\xb9\xd7Z\xdct\xdb\xb5\xce\x96\\\x9aMl\xba%\xd9R\xd8l\xe6t\x9d5\x93I\xbb\xc1\xable\xa2\xb2\xd7\\\xeb\xa3:\xde^\x85\xa5\x84\x8b"\xe5Z\xeckp\xea,\xcfP\xe5\xbf\x87\xf9/\xd9\xf8\xfcz\xbe.\xb1\xf3u\x9f\x17\xea\xf9\xbf\x8f}O\x89 4J\xc9F\x00 6\xce\xe2\xcc\xech\xc7\x1f\xd0^\xbf\x1f\xe7\xdf\x1b\xed\xfe\x85\xe2\xfa\xdfs\x1e\x8f\xbdo\xea\xbf\xa0\xfc\xaf\xd0\xf6x\xb5\x97Yv]\xb3\xad\xb3nW-(1\x12!\x04$R\xf3Y\xc7\xbcq\xdcsk\rwk;\x9e;\x9e-g\xe7\xde|\x1a\x9c\xfa\xc6FF6f\xb2A\x11\x04.l\xc2\xc12\xe6\x91\x1f\x9cx=\xf5\xack\xa9f\xa6\xf7=V\xdd\xc7uv\xeavt\xce\xc9\xd3]g]\x9d6\xe9%\xd9k\x0c\xea\xde\xc6\xb9^v\xc0hT\x12\x12\x12\xa6mu]\xa6\xb7\xce\xefCRl\x9b"\xe5,I7/\x97\\\xbf%\xfb\x7f\x0f\x8e\xff\x00/\xa6~e\xe7\xe1}_7\xf2\x7f\xa7\xf1\xd0\x00\x86$j !\x14%CFmy\xff\x00k\xfb\xfc\xdf\xcd\x7f\x9f\xfb\xdf\xa2x\xbe\xbf\xd6\xcf_\xb4\xdf\xea?\xa1\xfc\xa7\xd1\xf6\xf8t\x97\\\xdd\x8d\xa7M\xb2\xd36\xa5j\x08\x94\x91\x19\xa7=\x9cz\xc7-\xcf&amp;\xb1\xcd\xa9\x8d\x99\\\xc5\x91fW9\x18\x18\xd9\x91\x8aef&amp;&amp;L\xc3R(\x99`\x88\x98\xce\xcc\xe5\xcc\x98\xfc\xcb\xe7\xfd\x1agj\xd2\xb5\xd6osmA\x9d\x07s\xb2\xe9.\xa7K=\xd6\xf7\xed\xbd\x9a\xb3\xa1\x9d\x9dVw\xcb\xf49\xf4\xd4\xcfx\xcb|\xdd\x90f\x90\xad*\xa8\xb6\xaacI\xbds\xb7c\x1a\xb5\x9b\x99\x15Luy}_C\xf2\xff\x00\xb3\xf0N\xdf\x13\xa4\xf9\x17\x8f\x82\xf6|\xaf\xcd~\x87\xcb@\x81%*\x04b\x10\xc6$\x14Vz\xae\xbe_\xed\x0fo/\xe5_\xcf}\xef\xd0&lt;?c\xeeg\xd3\xf5\x97\xf4/\xbf\xf9O\xa7\xf4&gt;v\xb1\xb6u\xb4\xb7-\xcdi\x9a\xe1\x08I\t\x96\x99&amp;6s3\x86\xb3\x8d\xb9\xdc\xc5gdY\x95\xceVeQ\'=\xcf=\x98\x18&amp;6bfC2\xd612\xca\xceS\x04ffB\xc4\x9f\x99\xf8&gt;\x8b\xb2\xa6\x8b\x9dS\xa1t\xb8\xab\x9d4\xbe\x98\xd0z\xb6\\\x9b\xae\xa6\x976\xce\xd7I\x8d\xce\x83\xe9c}\xd8\xe9\xd3\xb9\x8fn\x0f\xa6n\xe0K\x9b\xd1\x9a*\xae\xe91M\xa6RFw\x0b\x85\xc4\xcd,\xd5\x0b7\xee\xf8~\x97\xd7\xfc\xf7\xeb\xbc5\xe9\xf1\xb7&gt;\x1e\xb8~u\xed\xf8\xde\x0b\xdd\xe0\x94\x06!\xac\r\x1a\x89*\xc6J2\x94O\xd6}^?\xe9oG?\xe7_\x83\xf7\xbdo\xce\xfb~\x8b\x1e\x8f\xa6\x9e\xab\xec~s\x7f\xb3\xf0\xba\xdb\xec\x9a\xd6.[\xcbIihje&amp;z\x99\x98\xd9\x8d\x99\x99\x11q\x1aEg\xac\xe6\xc6fG;&lt;\xdb\xc7:d\xb8\x183\x91\rf\x99\xcdd\x934D\xe51\x06b\xcd\x85\xcd\x9f\xcc\xfc?B\x87V2\xcd\x12\xe3[wf\xf5+\xa64\xd4\xa6\x1e\xe6\x95\xben\xc5\xa5\x14\x99\xeajl\xd6\xb9U\x9d6\xf5\xdct\x1d\x15\xbe\xf3viN\xaa\x9b3,\xdb\x91\x9bK,\xa6\xb1c5|\xb5\xeb\xfe_\xd8\xe8\xf8\xbf\xa8\xf2\x17\x7f!&gt;\x07O?\xe6_C\xe2x\xbf_\x8eA\x01\x08\x00j\x84\x81k"(\x0f\xdd\xbd~\x0f\xd3\xfa\xf2\xfc\xa3\xe1\xfe\x87\xd0|\xff\x00\xb7\xe8q\xdf\xb6=G\xab\xe6|\x1f\xd3~7\xe8\xaf\xd6t\xfamv\xe7{\xcb\xa2\xea\xb5\x154K\x9d\xcevd\xce5\x91$\xdc\xc2g\xa4&amp;w9\x19Y\x85\xe7\x86\x98\\`\xb8&amp;+\x82f\xb9\xc6Ydf\x92\xdcdFD\x10L\xab)_\xcc\xfc^\xe0\xb3R\x86X\xca66j\xd9\xadf\xf5\x8du/Y\xab\x8d54\xb2\xcb\x06i\xade\xbb\x08\xb6\xa9(\xe8\x97]\xe7\xa8\xe9\xd4\xdbY\xde\xddJ\xa9\xbbi\xd7\xc7\xd3\xd3\xc3\xd3\xc7\xbe?3\xaf\x8f\x97Y\x8ez\xfd\x07\xe2\xfe\x93\x93\xe5\xfd\xef%\xab\xf2l\xf8=&lt;\xff\x00\x96\xfd/\x85\xe4\xbd\x1e\\\x80\x11\x00\x86\x00\x00%\x11\xab6\xb8\xfe\x99\xf6x;5&lt;O\xc4\xfd\'\xde\xf9\xff\x00g\xeb\xe3\xa7b\xfd\xcb\xc3\xe2~\x9f\xf1\x18\xf7\xf3wK\xf5\x9a\xfb9\xeb\xf4\xf3\xbe\xd6\xb4i\xd9&amp;rs\xeb\x19k\x14\xdd@\xd4\xa4\xeb)2\x925\x9c\xeb*\xc2\xe7\x1dg4\xe7\\\x19\xc12o)3\xce\xb0g\x1339\xa8"\x16Y\xcb5\x9cL#3\xf3\x9f\x17\xbd.\xf0\xac\xb2\x8b\x04\xd1K)tFl\xce\xcb\xa5h\xba\xef\x95o5\xac]\xc9sJ\xf5\x9a\x8a\x9a\xd1\xab\x91\xad\x14\x9aU\xa7Bhj\xd53k\xbb\xa7g&gt;\xfaf\xf1o\xcb\x96\x92\x8b:\xfdW\xf3\xff\x00\xb0\xf1\xfe_w\x9a\xd6\xbeN\xa7\xc3\xe9\xe6\xfc\xcb\xe8|O%\xe9\xf2\xe6\x08\x80\x045\x00\x04\x002\x8fK\xd3\x87\xee\xfe\xdf\x0b\x97\xce\xfc?\xd3\xfa\xdf\x9b\xf6\xbbr\xdd7s\xcf\xf4_\x98\xf9_C\xe4\xedq\xd9\x99\xdb\x8b\xdf\x8b\xf43\xd7\xa2l\xd62\xd4\xc3|\xf9w\x8c5\x96\xd5\xc3\x9a\xd5:\xdd:s\xbaI\xd4\xcbS$\xc3x\xcc\x89y\xced\xca1\\\xa3)r\x9a\xc53\x99\x86\xb3"#)\x95Md\x99VI\x07\x84\xf0\xfd!5\x82\xd4\xc5X \xba\xad"\xabM\x15\xdc\xd9\xb4\xba/H\xec\xbb\x9du\x9a\xeb\xc8\xd73J\x92\xa6\xa9R3\xa1n]+Vt\x96\xedjL\xc9\x15\x12\xac\xa1f/;\xfa\xdc:\xfe\xbd\xf0\xbfc\xf9\xd6z\xfc;&gt;&gt;\xb3\xf3\xf7\x8f\xce\xbe\x87\xc4\xf1^\xaf\x1c\x124B\x00\x12\xd0\x80c@g\xda\xd7?\xde=\xff\x00&gt;\xec\xf3\x9f\x13\xf4\xfe\xbf\xe5}\xbe\xcc\xdf\xb0\xbe\x81\xcf\xe1}\x8f\xce\xf9\xdf\xb7\xf0zn{q:\xf9\xefcch\xdaj\xe5U\xcf\xbe\\\xbb\xcf&gt;\xdc\xf79\x13\x1a/du\xb5\xd1w\xa54\xce\xe6\x0c\xe5\xc0\xe6Ns\x19r0\x8c&amp;ft\x9c\xa2\\H\\\xe4\xc9r\xb2\x08\x14A\xe1\xfc?J\x92\xcb\x97Hw9\xe8&amp;\xa8\x91\xd5.\x89k\xa6n\x9a=\xe4\xc4\xe9\xbb\xce\xe2\xec\xed\xb7{\x16\xf8\xcd\xcd\x11\xac\x89kuR\xda\xf4&amp;\xd2\xbaIQMDA\x84f\xb35\x19\xbe\xfb\xc5\xee\xf5\x1f\x13\xf5^:\xce=o\x1b\x9c\xe4\xfc\xbf\xdf\xf2\x7f1\xfa\x1f/0\x10\x0cE\xa0\xa8\x91\x88\x12\x80\xa4\xfd\xa3\xd7\xe3\xf5=xy_\x99\xf7=?\xc6\xfd\x17\xdf\xe7\xd3s\xd5k:\xfd/\x85\xf9\xdf\xe8?5\xab\x1d\xb9\xbdyo\x99\xb5\xb5J\xb4\xcbI\xb9\x99\xca\xb9\xf4\xe6\xd6y\xf5\x9c\xad\x91\xe57:\x1b\xb5\xb1\xd0\xba\xb552\xe0\xcf5\x98\xcb\x9c\xb8\xa6Q\x9ew\x11\x92\xe4\x99\x18\xa4D\x90\xb2\xa8\xc4\xf1&gt;\x1f\xa3R\x06\xf3ZF\xa9:gs\xa4\x96\xd3)\x0b.\xb6\xcd\xbaW6o\xa5jD\xce\x92\xf4g[j\x8ej\x8df\xae/Ec\xb9vj\x9a4\xeeu\x1c\xd9\x98Z\xf3\xa9\x8c\xcc%\x89\x7fd\xf8\xff\x00\xa0\xe1\xf9\xff\x00g\x82\xbaf\xbc\xf9\xe0=\x1eO\xcf\xfd\xff\x00\'\xc7\xfa\xfch\x11\x02\xb04Db\xa8\xd0`R\n\x1f\x7f|\xff\x00o\xf5\xf8~\x0f\x9b\xdd\xd1\xf0\xbfQ\xec\xfc\xfe\x9e\xc5\xfai\xe9\xbd\x9f/\xf2\x7f\xd3\xfe3z\xeb\x97K\x9d\xd3f\xad/".k;3\x8c\x89\x9a\xcbS4\xce\xa2\xb2\xb9j\xa5\x91\x8e\x15hmm\x02\xe7\x96\x12\xe2c.fFk\x94\x91,\xa6wY\xa6I\x0b\t\xe2\xfe\x7f\xd0\xdan\xd9\xa6\x95\x9a%\x8c\xa8\xa6\xb5f\x89\xb1Y\xa8%\xd6\xf9\xd6\x9amUs\x14\xb17\x9b\xb9\x9c\xb5\x9bMkK^\xf3w5\xbeu\xa8\xc6\xc6\x8d6\xaaI\'%5\x12\xa9\xbb\xc6\xbf\xa0~\x07\xea\xbc\xaf\x9f\xd5\x8e\xaf\x9au\xf0\xfd|\xbew\xd1\xe4\xf0~\xef\x95\xf1{\xf2@\t#[$\xa02(`\x05\x0c\xa4\xfd{\xd3\xe6\xf4\x1a\xe7\xe5~\x1f\xe9\xbfA\xf2}/\xbb\xcf\x7fP\xf6\x1b\xf1~;\xfa\x9f\xc6=\xe7\xa0\xbds\xd3S\xa1\xa7+\xca$\x9b\x9d.\x88\xca\xcc\x960BUfZ\x8a\xb3"\x05\xcd#Y\x8c\xa9\xbe\x8bzJ\x933\x06\xb213\x88X\x8c\xa4\xce\xb3\xa9\x16I`\xf1\xde\x0f\xa4\xec\xd36\xc0W%hQK\xb1\x9b\x14h\xd6\x80\xc5\x16m.\x8d;\x8c\xf5\x87-&amp;\x92\xddTh\xb7\xa5\xe9\xadZU\xc6\xd4t\xe6\x92\x92I\x96e\x82a\xe3~\x87\xcd\xea\xfd\xb3\xe1~\xa7\xcd\xe3\xaf\xc6\xaf\xcd\xfa\xcf5\xd7\xcb\xf1=\x1eO\xcf\xfd\xdf/-\x91(\xd5\x00\xc4ZI*\xd1\x8de)i*\xbd\x06\xb9\xfe\xa9\xdf\xcb\xe6\xfe_\xdc\xf6_?\xeb\xfan&gt;\x8f\xb2{L\xf0\xfc\x8f\xf4\x9f\x8e\xf9&gt;\xaf5\x9a\xdc\xef\xa3\xd5\x98H\xa6\\[nYL\xcc\xcc\xe5\te[\xa2\xe7.\x17\nh\x01\xa4\xd24g{\xab\xd0\xd2"#9!\xac\xec\xcc\xc4sO \x92\x0f\x17\xe0\xfa,\x12\xd7yj\xcc\xec,if\xb3c5e\xaagB\xd0M\x17Iu\x96.4\xb5\xa3]\xa6\x9aM\x8a\xcdW[(\xddz\xdb\xae\x9c\xe6\xc1\x98\xb8\x83+\x88\'4\xce\xbfE\xf9\xff\x00W\xf4/\x8d\xfa\x1f6\xdf\x8e\xd4\xf0\xbd\xf8|n\xbeo\x1f\xed\xf9\xfes\xbf\x9a4BIZ\x10\x08\xa4\x14$\xa2\x92\x16\x8aFh\xcf\xea\xfe\x8f7?\x8f\xe9\xfaO\x95\xf6\xbdO/O\xde\xce\xbd#\x9f\x89\xfb\x9f\x95\xf2?C\xe6\xd5\xce\xd5\xd1u\x96\xf1\x17&amp;e\xb4a\n\xb3e\xa9V\xe9\x94\xc6\x17\x13`2\x96\x04\xaa \x92\x01\\\x9a7\xa5\xc6\xd6]\x8e\x89q"\xcc\xd4\x875\x116\xe6I\xe3|\x1e\xf9\xb1\xc6\x8b\xach2\xd1V\x89mM\x9aX"M\x16\x99\xa8\xcfR\xce\x9c\xec\xb9\xbb6\xc6\xae\xe93E\x99\xdc\xd2h\xb7%\x9a\xd6\xd6\x96\x9a\xb9\xb1\x9d\xe6\xe5\x94\x8aI\xfa\xc7\xc9\xfb~\x8f\xe6}\xcf,x\xbe\x98\xf3]x\xf9\xff\x00O\x8f\xf3\xff\x00w\xcd\xe5\xe9$@\x90\xba\x19\x80\x01@\x00Q\x05\x8d\x00=\x87N\x1e\xaak\x7f\x91\xfa\x1fa\xe6\xf6z\x8cu\xfb\xd3\x1f\x07\xeb\xfew\xc2}_\x88k:\xd5\xd4\xeeL\xcdBjc\x1b3U\x8a\xa5\xb9\xa5\x13J\xc2&amp;\xc5bVLb\xb9\xa0\xb0\xb0&lt;j\xa4\xd5n\xe6\xec\xd9\xa7is)\x9a\x95\x9a\xcc\xb1Px\xdf\x0f\xb9Y\xb6m\x96\xa22\xca5\x87I\x9b\xb1\x85\x9a\xca\xec$\x8dMJ\x8d\n\xad35t\x8b\x9d%\xdeZ\x8de\xd6I\xb9\xcbqYl\x8dE8\xa4\xc8\x95\xd1k\x0f\xda&gt;W\xdc\xdb\xc9\xf5|V\xa7\x8e\xdf\x1f\x87\xdb\x87\x94\xf6x|g\xab\xc8\xb5\x18\x84JR\xe2\x02\x03p\x1a%\xb34\xa5\xa1\x04m\xac~\xbb\xe8\xf3\xfc_\x93\xf7=\x9f\x8b\xe9z\xde^\x8f\xbf\x9c\xe3\xf4~\x1f\xe7_o\xf3\xcby\xa5\x9b\x87\xa6\xd9\xda\xb31I\x92\xac\xeb8\xc2\xe5\xb4J\x02\xdc+\x12M\x02\x8c\xc8\xb6R\x08\x96e\x953o\x16\xda\x12\xed\xd9n\xaa\xc2\x94gl\x11s\xe2|\x9e\xab5\x82[\xb2\xa5v\x03*54JKj\xcd\x10\xd4&amp;J\xb1\xa6\xad]\x97\x96W.\xb6\x9b\xd3 \xb5\xdeR\xcc\xf5\x8a\xb3\x1b\x89\xa9\x94N\x8cm\xc4[\x99|\xef\xef\xbf\x1f\xf4_\x1b\x87\xd0\xfc\xeb\xaf\x1f=\xd7\x87\xc5\xef\xe6\xf0\xde\xdf\x9f\xf1\xfbrj\xc0C@\xcdd\xa2MH6I)R\x0bB\x00\x8f\xd2\xfd\x1eH\xf2}\x0fG\xf3~\xcf\xb5\xf3\xfa\xfe\xce.\xde\xff\x00\x91\xf9\xe7\xdd\xfc\xc6{\xcd\x0e\xc5f\xb9\xd2"\xa6\\\xd39r\x88\x1bM\xa91\xb9r\\\xae\xc5J\x1a\xc15)\x06B\x9aY\xb2\xd2\xe7I\xa6\xb5:^u\xd1\x9e\xbd1k:\xcck9\\\xe7\xbe~\x1f\x87B\xcd\xa5\xd6j\xa9\xc0\xc4\xd5\x975\xacQ@\x9dsW\x17b\xd4\nJ\n\xd1z3x\xb7\xcaw\x9e\x9ck\\\xa9j]\x9a\xd5J\x8e\x8c\xb5\'8\xe7\xbc`\xd7;\xacUIo\x96\xff\x00\xa4\xfe/\xe9\x7f&gt;\xe7\xe9\xfc\xe3\xd1\xe7\xf8\xbd\xb8y\xff\x00G\x8f\xc5\xfa\xfc9iCVAh\x84B\xdaJ\xb2\x00\xd4\xb1"\x1a\xb1\x01\xea\xfay\xfdnt|\xaf\xbf\xed\xbc\xbe\xdf\xb7\x9d\xfd\x0f_\xcb\xfc\xf3\xef\xfeUn\xe8\x94\x80\xc8\xa8&amp;Y\xcb%\xc8K04\x93;\x1a\xa4L\x8bKy\x11\x9e\xecX\x8c\xa2\x15gI\xa5\xcfJkL\xee\xb1\xd6\xb3\xd7^}k:\xddi\'x\xc7\xa79\xe9\xcb\xc5\xe2\t,\xea\xd5\xaaIK]\r3t-\x15gs\xd3\x8dl\xb6isd\x8c\xa6ukh\xcbS\x9f\xa6/3Yh\xd77E\xdakk\xbc\xb71\xdbns\x93\\2\xa5\x04H\x97\xaf\x8f_\xe9\x7f\x87\xfa\xaf\xc9O\x03\xe9\xf2\xfc\x0e\xfe\x7f;\xea\xf0\xf9\xae\xdc&amp;\xdd\x15\x8c\xcc\xd4\xccd\x80\xc0\x82\x0e\x92\x84BR\xb1\x04\x9fCy\xfdk\xaf\x97\xcf\xfc\xbf\xbb\xeb\xbc\x7fC\xd0\xf3\xf4\xfd\xee\xfe\x0f\xcf\xbfA\xf9\x05\xa5\x8cV\xab\x88\x9a\x12e\xcdq"\xc9\x9a\x98%\x8bY,\xaa\x05Ax\\\x8d\xd3;$\xc9 \xca\xe8\xcdY\xdb\x9a\xacu|\xfbo\x8e\xba\xf3\xef9\xb4\x08"\xdf+\xe9\xcf\xc6^)1\xd6vkX\xcd\x1d\x05\x8d\\\x86\xa5\xc3]\x19\xd5CSin2\xd72\xbaq\xbdV\x82\x9c\xcdFZ\xc2\xb3V\xb6\xcc\xd1\xba\xaa\xbb\xd2\\\xd8\x8b2H^{\x89_E\xe7\xed\xfb\x9f\xc4\xfdg\xe4;\xe3\xe1\xfd&gt;O;\xea\xf1qz|~[am\x1a\x80\x94\xb02@\n\x12\x06\x8a\x08\x82\xd0Y\x18\'\xec\xdd|\x7f#\xc7\xf4\xfe\xcf\x87\xebz\xaf?\xaf\xd3\xf4\xf3~\x7f\xfa\x1f\xc6c\xd2[E\x811\x04\xab\xb3#\x02s\xac\xd1M\x92\xc9I\x157 \xa9UIY\xd9\x93Hk:\x83!\x04\xddg\xa1\xcf\xa5\xe3\xa6\x99\xf4m\xcb\xa0\xab)\xb6i\xb9kq\xe4z\xf9\xd1\x1a\xcd\xac3F\xd3a\x17\x0c\x9ai\xbc\xa1E-1\xabZ\xad\x837\x0e\xd1\x92\xb5\x9a\xd3+#Y\xd0\xb9r\xd6RtMo6\xe4IM+e9\xac\xc1\x9f\xd3\xfc\x7fC\xd9|\x9f\xd0\xfe9\xdf\xcd\xe4=^\x0e?W\x87\xe1\xf6\xe5\xe7\xad\xa1\x94\xb2P\xd7&amp;-Z\xc8\xca!\x19C\x11#V\x00B~\xb1\xd3\xcb\xb7\x1e\xf9\xfc\xff\x00\xb7\xeb|\xde\xef^\xc7\x85\xfb\xff\x00\x8b\xc7\xbekUH$\xd4\x19\x04)\xac\x97\x1a\x83&lt;\xd7\x02\x92\x14\xac\x9aU6 \x1eNY\x8c\xab5\xa9\xa2ie\rT\xde\x9c\xfa\xd6{VtJDU+\x93^w\xc9\xf7\xf2\xda\x16\xa1\xa2f\xad\xd2P\x19\x9a\xa3H\xa2j\x8be\xae\x84\x9a\x1a\xa5,%\x1d\rK)\x93SI\xae\x8ch\xb0\xb2\x95\xae\xb9\x82\xb25V\x95\x9de\'\xee\x9f3\xecsx\xbe\xaf\xe3\x1e\xaf\x17\x94\xf5\xf8~\x87\xa3\xe6x\x8e\x9d&gt;r\xd0-\x12P\xc8J\x12\xa2\r\x92\x14M\x01Q P\x00\x8f{\xd3\xcb\xeb9\xeb\xe1\xfc\xff\x00\xbb\xec|\xde\xefu\xcf\xaf\x8c\xfb\xbf\x8a\xe1\xf4q\x8d\x90\xd2l\xcds\xa4\xd62`\xb9\xd1.QK28\xa5i6+e\x95J\xdc\xe4\xb9TgK6\x15J\xa5sI^uY\xe8\x9a\x94C\x8d\xb3\xbe\xbe}{\xb8\xf6\xf0\x9e\xaf\x0c\\\xeb\x9d\xe8hf\x99\xd8\xec\xb9uZ\xb9\xa8KW0\xad\x1b(\xe9j\r\x13h\x8d%.4T\x9a\xa5.Vjtg\xa6\x92\xea\x892\xb1\xadK;\xce6f\xba\xcb\xfdS\xf1\xbfG\xf9\x7f\x0fo\xe3~\xcf\x95\xf2=_;\xeev\xf3~e\xae\xb8[\xa2%\xb2\n\x02FH\xc95I$\xb0Q\x12\xa2\xc0\x04z\xae\x9e\x7fx\xcf\xc3\xf9\x9f{\xdd\xf8\xfe\x9f\xac\xc7o\x91\xf6\x7f!\xe6\xfd\x9f?&gt;\x91\xc4Y\x9d\x90CR\xe9\x9aD\x98\xb2\x9a\x88\x85\x9b4\xce\x93 \xc2\xa6\xc9\x15J)R\xa8&amp;\xb3f\x1a\x89I\xa7\x0eRX\xa4\x8a\xae]q\xd7\xb7\x97_\xa9\xe7\xf4\xf8\x1fW\x87-N\x8cn\xd0[GbL\xed\x19\xdeV\xac,\x94\xb3X\x9b4k\x1b\x0b,\xb8l\xe95\xba$\xa3v\xa6\xa5\x9a\x9be3r\xb2\xa9gE3\x0b&gt;\xe7&gt;\xdf\xd5\x7f#\xf4\x9f\xcdk\xf9\x87\xb7\xe4\xfdoO\x89\xef\x1f\x98\xebH\xd1!u3\x1a\x0b#\x10\xc94I\x10\xc1Z%IJ\xc6\x89}&amp;\xf8\xfb\xfb\xcb\x83\xe5~\x93\xda\xf9\xbe\x9f\xad\xe1\xe8\xf9?S\xf3\x1e_\xe9|8\xd6cS\x1dL\xaeq\xa5*k\xbf\x97mq\xac&amp;3^[2\xac\xb5"\xa6\xe2\x82\x02ji,3\x14\x95K2\xc3)\xb9\x96\x05\x0eW-\x01\x14F\xf9\xeb\xd7\xcf\xafG\x1e\xdeC\xb7\x96\x96\x95\xa3\x94e\xa3\xbav\xe9\x99g=U\x9b\x83"\xdeW\xa0\xb5\x0c\x11\xb3\x9e\xb3\xb4\xea\x98\xb3ywUs\x9d\xb7%\x182\x8e\x86\x90MPJK\xfa\x1f\x9b\xdb\xfa\xef\xca\xfd\x0f\xf3?\xab\xc5\xe5}\x9f+\xd1w\xf2|\xae\x9a\xfc\xf5h\xb1\re\x18\x89\x18\x0c\x83\xa0\xcd \xa5\x06$\x065bO\xbd\xae_\xa9\xf2\xd7\xcd\xf9\xbf\xa4\xfd7\xcb\xf5=\xc7\x1e\xbf\x94}\xcf\xc6\xfcOw\xc8l\xabr\xd6b\xde}\xdc\xac\xd3\x0e\xde]\xfaq\xd3\xbf\x96\xf2\xc3\x9e\xe7$\xe5\xdc\xe1\xeb\x9e^\x98\xce\xe5\xc8J\xac\x9a\x8b&amp;\xd9\xa8E\x04\xd6(MB\xa1J\xe5A\x16H\x8a\x9b\xe8\xc7]\xb1\xd3\xce\xb9\x0b:\x9a\xa8b\xcd\x143\xa7:\x06\x8a\xcdFg`\x9a\xaaJ6\x9al\xdd\x99\\\xed:\xab\xcdF\xabq\xa4Q@efVl\xd4\r\xa8f\xb3\xae\xbc\xdf\xea\xbf\x9b\xf7\xbf&gt;\xf3\xfb?\x17\xf4y&gt;o\xa3\xc5\xd1\xea\xf9\xde{\xa3\xc7:RX\x92\x96U\x88\x81\x94#2\xcaH)Z5B\x1aP\xd5\x1fj\xf2\xfdg\xc5\xf4|\xe7\x0f\xa3\xfa\x17\x83\xee\xfe\x9d\x99\xf9\xc7\xdb\xfco\x8d\xfa\x1f\x1a\xa4\xb5\x9aZ\xb9\xd2\x8e\x8e}+:\xea\xe7\xd3\xe8\xf1\xeb9\xbc\xd7&lt;\xfa\x98\xdcpu\xc7\xcf\xed\x9cu\x13\x00*I\xa0\xcc\x91,\x99\xa3\x975k2\xb9r\x12\n\x93InQ\xba\xc6\xfeNj\x99Zo\x9d:\xe4\xb9\xd4\xa3+.j\x8dd\xd2,VM\x</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/493167-la-minoria-pelirroja-por-que-su-mutacion-genetica-los-convie</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Entre el humor y la curiosidad: la ciencia detrás de los récords Guinness</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>20 de octubre de 2022 - 10:32</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>El conocimiento oculto en los fenómenos más disparatados</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>El libro de los Guinness es un éxito y una referencia en todo el mundo. Cuáles son los récords más científicos y sorprendentes que fueron registrados.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>¿Puede el ser humano ser recordado por llevar a cabo grandes hazañas? Efectivamente. Y nadie registra mejor la superación de los límites de la humanidad que el Guinness World Records, el famoso y peculiar libro que reúne algunos de los hechos más extraordinarios de la naturaleza con una amplia diversidad de capacidades y cualidades humanas. Pero ¿en qué medida la ciencia participa en estos récords? ¿Cuál es la mejor forma de pasar a la historia y lograr una marca Guinness? Desde la Agencia de noticias científicas de la UNQ lo repasamos. Para el norteamericano George Frandsen, la mejor manera de ser recordado fue y sigue siendo coleccionar heces fosilizadas. La marca en el famoso libro la logró gracias a su museo particular que reúne un total de 1.277 piezas, recogidas en 15 estados de EEUU y ocho países diferentes. La joya de su colección es Precious, con un peso de 1,92 kilos, encontrada en Carolina del Sur y que fue expulsada por un cocodrilo de 6 metros en el Mioceno, hace más de 5 millones de años. De esta manera, su colección de heces se convirtió en la más grande que, hasta el momento, el mundo pudo registrar.Pero los Guinness más científicos de la historia no terminan ahí. El caso de Garry Turner también pasó a la historia de estos récords. El hombre es capaz de estirar la piel de su estómago hasta una longitud distendida de 15,8 centímetros debido a una rara condición médica llamada síndrome de Ehlers-Danlos, un trastorno de los tejidos conectivos que afecta a la piel, los ligamentos y los órganos internos. Esta condición hace que el colágeno que refuerza la piel demuestre su elasticidad, lo que provoca, entre otras cosas, un aflojamiento de la piel y una “hipermovilidad” de las articulaciones. En los casos más graves, puede generar el colapso o la ruptura mortal de los vasos sanguíneos.A la piel más elástica, se le suma otro récord donde lo científico dice presente. Es el que obtuvo Jason de Caires Taylor, un artista británico que tiene el récord de mayor cantidad de instalaciones artísticas bajo el agua: 12 instalaciones con cientos de esculturas individuales. Taylor creó el primer museo submarino del mundo, el Museo Subacuático del Arte en la costa Cancún y el primer parque de esculturas submarinas en Grenada, considerado una de las 25 maravillas del mundo por National Geographic. Este artista trabaja junto a biólogos marinos para colocar sus esculturas en lugares estratégicos que ayuden a generar nuevos arrecifes de coral artificiales. La idea es que desvíen la atracción turística de los arrecifes naturales para así ayudar a que estos puedan regenerarse.Siguiendo la línea científica, el caso de la norteamericana Kim Goodman no deja de impactar al mundo: sus ojos salen de sus órbitas hasta una distancia de 1,2 centímetros, un valor certificado por un oftalmólogo. Luego de sufrir un golpe en la cabeza, Goodman comenzó a sufrir exoftalmia, una condición médica que impulsa los ojos hacia fuera de las órbitas y que, normalmente, está ligada a alguna patología. Lo extraño, es que ella logra controlarlo a voluntad.Otro dato impactante que registra este libro es la temperatura más alta de la que existe un registro fiable. El 10 de julio de 1913 en Greenland Ranch, en el Valle de la Muerte situado en California, Estados Unidos, se midieron 56,7 grados. Las máximas en este lugar alcanzan una media de 46 grados. Sin embargo, años más tarde, la tierra se recalentó. Y el 15 de julio de 1972 se midió en el suelo una temperatura de 93,9 grados, casi lo suficiente para hacer hervir el agua.Con tan solo 12 años, Jackson Oswalt también entró al libro Guinness por construir un reactor nuclear en su casa. De esta manera, se convirtió en la persona más joven en lograr la fisión nuclear, al construir una máquina de acero que consta de un vacío, una bomba y diferentes compartimentos que podrían romper átomos de alta temperatura que liberan energía de fisión. La máquina, que cuenta con materiales de unos 10 mil dólares, es capaz de producir un alto nivel de energía.La sorprendente hazaña de lanzar un globo para captar imágenes inéditas en la estratósfera, realizada por el influencer científico colombiano Faber Burgos Sarmiento, el 26 de septiembre de 2020, lo hizo merecedor de récord Guinness. El joven incorporó una cámara al globo para tomar las fotografías que, posteriormente, publicó en redes sociales. El logro de figurar en el libro de Récord Guinness lo alcanzó porque su video, donde explica cómo elevó el globo hacia la estratosfera, es el más visto en la red social Facebook.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x005\x00\x00\x00\x07\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x00\x08\x01\x00\x02\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x01\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf3\xe7\xd1y\xfc\x1c\x1c\x05\x00\x0e\x02\x82`!\xcb%\x8a\xf5i\xae\xf7\x8d\x9e[\x05`\xa4p\xca\x0b\x17\x87rY\xeb\xf3\xe4Y\xad\xea\xa9U\xad\xb9\xa0\xb2,A\xac\x876T\xfbEN\xad\xa9BT\x81J\xd8@\xe3\x08,\x07\x0e\x03\xa0\xa0p\x1c\x15\x0e\x03\x07\x02\x84\x1d\x1cU\xc5![$H\n\xa4\xd1*3\x05\xb5\x8dj\xa4[\xc02\xc0\xd9\xfa\xc5\xabY,\xf6q\xaf\xfcn\xdfs\xf5#K*\xe2a\xc0\x15\x87\xd1&lt;\xe4~h\xc3\xea4\xabE\x9aHH\x02` \x89\x00A\x00\x80P\x00 %\x01l\x01\x82\x01\x9dx\nAC\x80\x03\x81\x10(p,\x08\x82 \x16\x1c\xc1@\x95\x89\xa9\xc1\xd6\x1d"Rt\x02\x81\xe6V\xb0\xca\xba\xd4\xf0\x00\x08\x14\x0088\x13\x00\x01Y$W\xadMW\xcc\x96&lt;\xb1S`\x00IXX|;\x92\xcf_\x9fK5\x8d4\xbdTnhNeAOd8\xb6\xa9\r\x15;\xb2\xb5\xc8&lt;J\xb5\xb0\x12rT\x03\x81\xc3\x81D\x0c\x1c\x02\x07\x03\x10p\x08\x95$2\xe85\x0cz\xa0`\x93\t\x8cd\xcey\xab\xebx\xad\xc8\x10\x8a9\xc0i\x92\xb5\x1ddW\x9c\x8b\xd9\xc6\xbf\xf1\xfbc\xcf\xd4\x8d.\xab\xc1\x00@\x88+|\x83\x91\xf9\xa3\x10\xa8\xd2\xad\x1c4\x94\x08\t\x01I!\x1cB`P($\x04\x02@K\x0e`\x80\x0e\xa5\x01 \x80P \x08$\x04\x0e\x03\x02`\x98\x05\x870\x00Z\xc4\x94(\r\x87HI\x01AQV\x0e\xed\x96\xf5\xa8\x10\x00\x00(\x00\x08\x00\x108\x01D\xe1v)\xcfw\xcb\xa1\xf3B\x0e\x9cI\x81aa0\xf4\x0b\x9e\xaf&lt;\x8f\xadi\xaaQknhBC\xac\r\xd0\xbd\xf5I\xe8\xa9\xdbV\xe4S\x92\xa5S\xc5\x82\x0b\x81\x80@\xc0t\x04\x00\x0e\x02\x07\x01\x03\x81\x88\xea6\xc9biL\x91)H\xa8\x1b91L\xb7\xb5\xa9]\x88\x8e\xd5Y\xad\xa8\xe0b\x0b5u\xb1\x02\xf3\r\xaf\x8d\xa0\xf2;f\xe7jJ\x8bV\xb1I1\xd0\x16\x03]"\xe4u\x11\x89Ri6\x0e\x18\x10("\t\x8cP\x10L\x13\x04\x85 $\x1d\x01l\x01\xa4\x80GB\x87\x11\xc0\x90\x14\x00\x12\x02\x00\x01A0\x00-\x87I\xc0T\x11P\x80,u\x87A\xd5\x83"\xd6@\x8f\x95u\xf2(9\x89(\x10\x00\x04\x00\x13\x01\x00\x89\x08M\x8c\xcbr\xcd\xad\xf4\xd2\x93\xa8\x91\xd2\xce"!p\xf4\x89\x9d|\xf2\x1a\xce\x9a\xa5V\xb4M\r\xa6O\n\xab\xc3\x8b\xeb}\xaa\xa7\xad[\x98S\xc4\xaa\x93\xc3\x1c\x93\x01\x81@\x10\x14\x04\x14\x0e\x01 a\x95\x1f\xac\xa9T%\xb9\xfb\xdf\xf3\xac\x92\xca:\x81PX\x1c(\x8dr\xc3\\Wv\xac_F\x9e\xb1\x01P\xcfQo\xa2"-\x83\xd3\xca\xd0\xb9=\x91\xe7\xeaJ\x8b\x97\xb1S\x98\xe8\x00\x06\xc9R\xc26\x88\xc4\xe94[\x07\xacp$\x04\x02\x92@ &amp;\x08\x81@\x80P \x15\xcea0#@\x00\x10Y\x84\xc0\xa4\x14\x11\x02\x82@\x01\xc0PE\x81\x80@\xa4\xa3\x0cB\x06W\x98\x00M\x0ea[\x05I\xcc:\xf8\x84\xb4\x06\xe0(\x14\x008\n\x1c\x1c1\x04\xd9S\x15\xd3&gt;\xe7\xd3\x91\'\x06\x00q\xd2L&amp;.\xa1s\x9ey\x84\xd6\xb5U,\xb5\x81\xa1\x8c\xc8\x8a\xa9\x0e\xb4$\x86\xba\x9f\xb5N\x12\x0eJ\x8b&lt;\x002\xa0p\x10\xe02\x02\n\x81\xc0\x03\x80\xe2\xb8\xd3K\xacZ_\xf37\xbd\xc0\xefh\x1e@\xe0\x17\x0eS\xa0%\xa2\x16\x15\xbd\xf5\xc1\xf4*\xe7\xac\xcfWj\xc7\x13U\xf0\x1a9z\x1f\'\xb0&lt;\xfdISz\xf6*S\x1c\x1c\x02\xd2\xa5\x84}1\x89Rh\x96\x0f\xd8\xe0H\x08\x1c\x05\x04\x81 L8\x94\xc9L\x12\x02\xb9\xcc$\x05\x93\x80\xa4\x12a9R\x90PH\x13\x04\x80\x00A0L8\x08\x00:#&amp;\x02U\xc1\xc0@3\x03`\xa99\xa7S\x0fK\x94\xb7\x80\x00\xa0 \x00@\xe0\x16\x84\xd66t\xc9r\xa3d\x95\x99\xd2h\x059\xe1\xd2L\x0e.\xa2Y\xcf?\x0b\xab\xe9\xa6n+\x08\xd0\xced!T\x98u\xa1$\xb5S \xf5,\x82\x80u\x9e\x18\xa4\xaa\n\x01\xc3\x83\x90\xe0RC\x80\x90U\x16\xbf!\xafG|\xbd\xcfy}\x17\xd8ZF\x89u\x12\xa8,(\x81\xe6@\x13A\xa6\xb8\xa9\xf5\xa1\x9e\xbc\xe3nr\xe9\xcb\x13U\x95\xfd\x1c\xcd\x0f\x95\xd7\x1e~\xe4\xe8g\x16Br\x00p\x0bJ\x96\x0ci\x8cZ\x82\xfda \xe0\x81\x010 \x14\x13\x04\xc0\x80\x00\x98\x10\x08Js$p\xb2\x15\xc0\x02\x10AQ\x17\x81 L\x82\x12\x91)\x01\x88 \x14\x04\x13\x02\x0e\x90\xc9\x81J\xf88^\x01i\x1beI3^\xb6\x1e\'\x87L\x93\x07\x01@\x010\x02\x04\x82$mI\x96\xe5F\xb9+(F\xc8\x19\x81\x88u[W\xf1t\xd2\xa2p(\x9d7M6H\xaf\x93CX\x922\x9d\xa1\xde\x94\x92\xd3K\xf7\xa5\xc2!\xc3\x96\xce,\xe08(\x07\x0e\x0eC\x80\xf2\x18\x81\x01\x9a\xd7\xd3\x8c\x8d.\xb9;\xde\xf2:2\x19\x1aF\xa9u\\\xad\x12\xa1\'h\xe7^\x80\x885r+|V=\x06u,\xc6\x16\xe5\x87\xa9\xeb\xb7\xf34Ngl\xfc\xee\x81hu\xecT\xa5D\x009\xa5K\x06T\xc61AzrM\xc0\x90\x010 \x00\x00&amp;\x04\x02\x02`@L\x90\x04\x810-\x92\x00\x9c\x85\x98I\xa0\x08H\x13$\x80\x99\t\x90\x04$\x04\x0e\x04\xc0\xa3\xa62`Q8\nH\x90vS\xdb\'\x936\xeba\xe0\x00 \x00\x00\x10\x01\x82\x07\x07I\xd5\x1bU\x14\\WD\x9d\x94$\xe1\x83\xa2\x1dD\xd7\xf0t\x92\xcf8T&gt;\x85\xa2\x9bRVX\xd0\x8c\x88\xac\r\x90\xf7JH\xeb\xa5\xf3gt(\x92j\xaf\xe1\x80c\xc0h\x0c\xc0\x81\x918\x06T\xe2\x96\xbbT\xd5\x84n\xa9Z6/\xcb\xda\x97#L\xe5\x0e\xa2\x13\xb42\xd1&amp;\x05&amp;\x0c\xeaW\x12!\tVv\xd9Q\xf4\x19I\xbf\x10Y\x92:\x8bkW\xf2\xb4&gt;gl\xdc\xfd\xe1M\x8a\xbc\x14\x81\x0e\x03Y&amp;q\x95\x065Ixh\x93\xb0\xe0(&amp;\x1c\t\x87\x01A L\x08\x05\x02\x00\x02@PJ\xd9\xe2R\x02H@ $AIJa)\x92\x95\x14\x94H p&amp;\t\x8e\x90\xc4\x02\x00\x01\x80\x053"\x8f!my\xbfW/\x07\x00A\xd2p\x14\t0\x99"\x04\x03W;e\x19\xee)\xa6N\xdc\xe9X\x1a\x02\xc0\xf5J\xfe\x1e\x8aY\xdb\r\x86\xbch\xaa\xe2\x95\x84^\xdee%\x83\xd9\x0ft\xa4\x8e\xba^\xb6wP\xa6$+\xbf\x86)*@\xa4\x03 Ht^\x0e\x90aH\xa8\xebO(\x96]3\xe7{\xb3\\\xad\x19\x83\xc4\x16vh\xb3{\xad\xa5\xa2_\x83y\x8d\t\xe1\xb3\xc2D$\xd0\xd2\xc6\xaeur\xb2\xec\xe3%\xb9\x18\xd1mgG*\xff\x00\xcb\xed\xaf\xcf\xe8\x92\xa6Y\xe0\xa4\x00\x18\x06\xc9\x17\x18\xd0d\x14\xc5\xc9\x89k\x0e\x02\x82a\xc0@\xe0L\x12\x00\x02\x81@\x80@L\x00\x11\xb6JIA9\x13\x02\x07\x02@\x94\xc2S)\x15q(\x81\x08(\x10\x12\x1d\x11\x90\x0e\x01\x03\x07\n,\x82\xf2\xad\x95\xe6\xbd\x9c\\H\x02A\xc1\xc0\x01\xc4t9`!"\x86\xdbF;\x85\x1b\xa5n\xcc\x95\x87\x00\xc4&lt;E\x80\xc5\xd5N\x87\xc4!nz\x12\xe4\x95\x84hJDR\rl:\xd2\x92Z\xe9~\xd9\xdc*\x9a$\x16\xf0\x18\xab\n\x10\xa0\t\x1cI\xc6\xe2x\x90U\xe9\xce\xe2\xdeKk\xb7Oy\x9e\xed\x83\x8dnyjRbe\xebi\xe4j\xa93\x01s\x81\xa4\x8c\xde\x1cL\\\xda\x1b\xd9\x10\xbd,q\xfd\xcc\xc5\xbb#:-\xabh\xe5h&lt;\xce\xd9\xf9\xfdBT\xcb=e#\x80\xc1\xd6I\xdcgDdT\x16\xf7%\xac8\x00\x08\x00\t\x80\x82`\x98\x00\x10\n\t\x81A0\x00F\xd9\x02J\t\xc8\x90\x14\x00\x11\x04\xa4$\xc2%`\t\x92\x99%%0H\x10%\x12J\x1c\x1c\x0302\x87\x98=\x95\xe7\x1d\xee`\x16\x00\xc9\x87\x07\x01C\xa2y\x1c\x14(\x00\xdbv^}\xc6\x9d\xf2\xf6\xd4\x84\xaf\x01\x99]\xadpx\xfb)f\xbb\x11*\xb8h\xae\xe8\x95\xf4hJDb\x0c\xf0\xe3JJk\xa5\xfbgUT\xd1%[\xc0`P\xf2\x87\x14\xc1\xc0X\xd1\xc4\x18RB:+lU1\x97D\x8f/\xa0\xf3\r\xc5A\xe2\x0b\xac\xb8VD\x0f\x03(*0f.\x1a\xc8\xd9\xd5%.\x9a\xff\x00S$oo\x19n\xcc\xd6\x87\xaah\xe5\xe8&lt;\xde\xda\x98\xba\x85\xce\xcb5d#\x80\xc0\x16J\xae5\xa22J\x0bC\x93\x16\x00\x02\x05\x00\x02\x87\x02`@\x00(\x14\x11\x00\x02\x00\x02O%\x02\xb4\xa5"a\xc0\x90"\x08\xc9\xd3\x00V\x80&amp;I\x07H\x94\xc12\x11\x04IH\x048\x06`\xd2\xa6\x95\xeb\x138\xefr\x8eZ#\x90\x00\x00\n\t(5\xb8@Y\x0f6m\x999\xb7\x1az\x13\x17T\x88\x82\x1c\xca\xf1R\x0b\'\\\x994b\x93U\xafEwT\xa8\xb1zS$ \xd3\x0e5$\xa6\xba^\xb6u\x15F$\x16\xfe\x18\x15\x8d5\x9eS\x83\x89:\xdcR8R\x95\xe5=\x0c\xf8\xc5=$\xf5\xe5\xd8.\xf2\xd2\xdc\xde\xf2\xbec\xd2Y\xb9\xcf}\xaen\x08\xab\x10\x9a\x80\x05\x04B\xa9j\\Q\x07E\x95\x1e\x9eH\xde\xd6$\xaf\xceJ\x1a\xa9\x7f.\xfd\xcd\xed\xad\x93\xaa\x8eiq5\x96c\x83\x83\xac\x938\xd6\x88\xca\xe8,NMX\x08\x10\n\x04\x01\x01\x02\x02A\xc0\x00\x00\x98$\x00\x05\x02\xb4\xa6Jn\x16B\x01\x01 H\x10\x90f\x04\xad\x10@\x94\x8b\x12\x04\xc1\x10D\x12\x04\xc0\x03\x83\xa6\r*\xa4\xa9\xacL\xdf\xbf\xc9\xe8q, \x14\x04\x04\x84\xd6E,!!\x10x}\xb37:\xe3N\xf9\x8b\xa9I\xa0\xd1 #\xd4\xae\x0b\'e&lt;\xf7\xe2\xb1]\xa7]wd\xa8\x8bzD\x94\x0e\xe3\x8d\x14\xcal\xce\xf1\xab:VXr\xa5\x9c?@iU%N\x00IK8\x8eY4\xbd\x0f~\x7f1\xd7\xb2w\xa9\xcd%IV\xf3\xfdH\xde/E\\\x97\xbdA\xf5i\x7f\x84\xbe\xd6h5\xc5\xfaKK\r\x1a\xb5b\x19\xda\x95\xde\xaeH\xfe\xe6b\xd9\x90\x95\xdbQ\xb3\x9f\x7f\xc1\xd7[\x17E,\xb6\xafee#\x80`5\xb2g\x19\xd1\x19]\x05\x85\xc9\x9b\x03\x80\x81@\xa0\x98\x08\x14\x12\x0e\x01\x00\x04\xc10(\x14\x01\xa52Sp\xb3\t\x90@L\x083Y\x02T\xe2&amp;\r\x89!bp$\x08\x82\x00\xd8\t\'\x07\x00\xcc\x1d\xd0d\xeb+\xcd\xfd\x0f\x14U\x85, \x148\t \xcc\x8aXRB#\x95\xb6\xec|\xfb\xa5;\xe5\xee\xa1\x17\x0c\xb20\x8fV\xa8\x0c\x1d\xa2Q\xa3\x18X\xb3n\xae\xf1\x15rh@\x11\x80\xd6\xc3\xadyd\xb6P\xf2jQB\xe7\xb4\xb0\xdcX\x00\xac\xa9\xe5D\x008:NF\x14\xb0\t\xa2i\x9c\x0b\xd4\xe5\x94\x84\x98\xf2[\x9es\xfbR\x1e{t\x91\xa1\xab\xccATMeYk\xaa\xb6\'\xd1^\xba&amp;\x94\xf5i\xb6\xd4~\x8dQ\x1d\xce8J\x92\xb5\xa8\xbdW\xec]U\xb0oK5\xcb\xd9YH\xe0\x10\xeb$\xee7\xa22\xaa\t\xe7&amp;l\x15\x0e\x02\x87\x07\x07\x02@\x00\x98p\x10\x00\x00\x13\x00\x02\xb4\x90\x90q\x19B\xca$9"S\x19\x19\x13\x989Z\x00\x89&lt;X\x8a\x84\x06\xc0\xd1a\x05\x92\xda\x1aN\x01\x98\x17A\xb0\x1bS9\xeep\xfa\xbbxb\x81\x00\x80\x04\xf0\x18\xb3\x86\xe5\x02#k\xc5\xcf\xbbW\xd3\x96\xb3*O\'S\x95^\xd7L\x06&gt;\xd1h\xd1\x8c\tg\xda\x97t\xac\x13Cy\x12\x80m\x87z\xf2\xc9\xea\xcc\xec\xa4\xf1hUjj\xc5\x01\x86RT\xcc\xa6\x0e\x02\x81\x89\xe5\x9e\xa9\xba\xe9\xcf\xed\x8c\x0b\xd3a\xf4\x0f\x0f\x9a\xa1\xab\x1b\xf3\x1e\xde\x13\xccj\x9d{6jZaJ\xb5\xc6t\xf1\x0b51\xb2\xaa\xe6\x8aew\xe2\x89\xbd}4\xcf\xa2u8Ez\x11\x85\xa95\x17\xdc]upoO%\xcb\xdbXL\x08\x08\x03J\xb6\x0c\xe9\x8c\xba\x82i\xc9\xb7\x14\x93\x80\xa1\xc1\xc1\xc0@\xe0 \x00\x00\x14\x13\x02\x00\x074\x92d\xac\'*AJ\t\x12\x80\xe9\x81\x08&lt;\xd6\x8c\x88\x12B\xc4\xd4L\x86\xcb-\xc1\xbc\x84p\xe0\x98\x0c\xc1\xedAh\x1bL\xef\xb9\xc1"\xdaXr\x90  \x90\t&lt;\xb6\x8c\xcf(!\xb4\xf3\xf9\xb7t\xe9K\xd9\x9d\x17\r\x12*\x8e\xea\xaa\x03/k\xb3\xe8\xc7!,\x9b\x92\xe6\x95\x95t \x08\x01\xec\x87\x9a\xf2\xcbj\xcc\xe4\xa4b\xe2\xd5bJ\xc5\x03D\xa90,\xa7#\x80\x84\x98\x91S\x95\xd6M\x9eq\x9e\x9d[\xd7\xf9\xbfMp&lt;\xd5s\x07\xb9\xc7\xbc\xcfv/\x917\x07\xb6\xedC\xebY\x0c\xca\xd6\xa34N\x95\xb6\xbd+\x9a\xea\xa7u9\x9bGc=\xac\xcdi\xd7\xcb\xe9T\xd1*-U\xe7\x1fUn\x7fE&lt;\xd68\xb5\x06c\x80"y\xc5\x9ciLe\xd5L\xb5\x9150\xb4\xcf(P\x00\x19\x81\x04fx:$\xa4\x08\x0c\xcaD$G\x13\xcf AX,\xc2$t\x88\x92\x84:@\x04\x0c\xd6\x94\x88D\x90\xb18\x13!\xaa\xcbpm!\\8&amp;\x030\xa5\x88.u\xab\x9b\xf7|\xd1\x0b@a\x02\x81\x03\x83\x91\xca\x96\x1edH0\xdbW/\x9fv\xaf\xa3%r\x11\xd5H\x93$;\xae\xa8\x1a{E\xc7\xa3 \x84\x9f\xdc\x978\xaf\x97C`H9\xa1\xf6\xcc\xb2\x9a\xb3:\x8az.%v$\xacP4J\x92\xa7e\x118\x81-\x00\xe59,S&gt;\x9f*\xf2\xfdt\xcf\xb6\xf2&gt;\x87\xe6\xf9\xfa\x97;\xdb\xc5\xf9.\x9b\x8eu\x8e+\x13\xd6\xda\xaf9hVG\x9cu\xd7hE\xd8\xe3[}\xbc\xfcG\xa1\x97\xd5^\x83\x9e\x9d\xb8;F\x01!:\xe8\xa8B\xde3u\x1c\xf3zm\xebWV\x01 D\x84H\xb4*\xf2\xca\x933BN\xe5\x9aJ\x96hR\x02\x00\x07\x0c\x03\x14r\x13\xc0\x04\x01\x010\x13YH \x11\x80$\xa3u\x82L\x10\x92\x02e\x89\x02j\xa0!\x01)\x92E\x88\x02D \xb2\x88%"\x0e\x14\x04\x06`\xce\x83h[\x138\xee\xf9\xc0.\x11\x93\x0e\x90\xa1\xc1\xc8\xdc\x96\t#!\xc6\xday\\\xcb\xb5}\x19;\x94\xb3\x06\x89\x18W\xb4U\x00\x9d\xa2\xe3\xd1\x90\xc2OnK\x94Ve\xd0\xd4\x10\x030\xf7fI-Y\x9dE=\x17\']\x89\xab\x14\r\x12\xac\xa2\x8c\x9c@\x11\xc5\xbc\x06\x83\x94=Z0\x1c\x1e\x8e/\xa3\x93\xd2\x0f\xe5\xa2y\x1e\xc1O\x13\xdd}MU]\x95\xd9\xfaD\xd7\x14\x08#\xaeV\xcdZkm\x07eQu\xec\xd6=O\x99{\xd4\xe5\x05\xf8L@W\x9e\x9a\x91|\xa7\xa6\xaf/\xa2\x82\x0e,:@\x89\x08\x91a[\x06y\xcc\xd2"J\xd8\x97\xae\x15\x91i\x08\x1c\x03\x10Q\x88I@C\x80\x08,\xcf\x07\n\x12p\x14\x08\x1c\xe1Z\t\x0c\x98\x12\xa9j\xe2vAe\n\tL\xa7\x16$\x08\x10\x8a\xcb`BB9\xc1\xc03\x02\xe8.\x05\xa9\x9a\xf7\xbc\xe1K\xf8\x91\x00\x02\x07\x00\xc4\x8dv\x00\xc3"\x83l\xfc\xaem\xda\xbe\x8c\xad\xe8H:\x03\n\xf7=PK\xdaG\x1e\x8c\x92\x12\xc5\xb9-\xf1YWC`@\x05\xa1\xf6\xcc\xb2\xbas.R\x11ru\xd8\x9a\xb1@\xd1+\xcdgd\xe0\x02\x00\xb4AP$\xa7-\xf4l}\x8a%\xfa7\x88\xf2q\xb9\xbd3\xbf\r\xe8\x95\xc9EW\xd1\xd1nQ\xe7\x0fB\x94\x8f-V\x93\x0cH\xca54\x8b\xeb\xd1\xbdW\x92\x1d\xfc\xe2h\xc5\xd2\xa3]\x14\xda\xe2\xf5WM~N\xf4U\x96\xb04\x81\x12H\x930\xb5\x83L\xe6f\xf1h"\xe5\x85\x9c\x12P\xe0\xe0P\x9e D\xe0\x10\xe0\x00\xe9\x91I\xe5\x91\x04\xa0(\x18\x14\x0e\x80\xa4\'0m1\x97]-\xf4\xc0\xb2\x10\x13\x99J,H\x10!\x15\x96`\x9c\x85p\x03\x80\xd3\x02\xe9\xccu\xa9\x97z\x1f.b\xf0\x99\x10\x14~V(\x08\xe6\x1f\x80\x01d\xb7d\xe5\xf2.\xd5t\xe5.\xa9&amp;\x0eA\xd4w\x99 \xa3\xb4\x9e=\x19\x14%\x8fj\\\n\xd3]\r\x01\x12Mj\xc8\xef\xcf\'fUV\x82\xa5\xc9\xc5\x85\xa2\xf3Ls\xa2\x8fQ\x85\xe0\xe2\n\x96\x88\x1c\x06N\x89*\xbejo\xd0\xa3\x94\x8d=\x94&lt;/\xa8\xafd\x8c\xdb\xb1M\xa9,u\xcb\xbbd\x8c\xcb\xc5-SDK\xbce\xd6\xa9\xd9\xc37\xe9|\x98[A.\xc8\xa4R\x9a\xd1R\xa6\xdb\xcd{\xcf\xcc\xde\x89s\x978\x8e\x87\x02zkQ\xebm\x9a\xec\xe2\xe3K\xaa\xa7\xd8\xb4&amp;H\x10`\x19\r\x01`4\xc7\x00(d\x0b\'\x00\xb8-$\x01\xa8\xe0\x10P\x0e\x04\x88\x07\x14t\xc9\xf7\xa2W\xc1\xd8$\x89D\x96,@\x11!\x15\x96\xa0\xd6@\x039\xd2\x0b/2\x84\x9drf~\x87\xcb\tx\x12\x9c\x86G\xe4~\x03\x0eb\xce \x01d\xb7e\xe5\xf1\xee\x95u%\xad\xa9\'\x85H\x14gYk\xaf\xcfi&lt;z2\x88I\xcd\xa9o+"\xde\xd4\x94@n\x89\x1d\xf9\xe4\x9f2\xe9\x9c\x8bjqis\xe9\xe9Q\xb6\xa5^\xa5"\x00\x00\x82\xa5\xa2\x02J\x80P\x18\x95\xf3\xde\xd3fh9\xea\xb0\xf0~\x9a33?\x8b\'\xf2\xa5\xb2(~;"\x1a1\x1buQ\xdb\xeb\xb1\xf7\xf8\xa9\xf4x\xe6\x1c\xb6e1BqEJ\x9b\xee\xf5m\x1eoA2\xf7/\x05 a\xfa\x1b\x9a\xa5,\xa9\xb57\xd14\x96L\x94\xdapjFCL6\x82\x1d\x08\xf0Z\x07\xe0\xcc#$~\x84\x8c\x91\xc1\x16\xe4\x98?\x82\x1dF\xb2I\x02\x81\x19\x06\x90\x05qw\xaf$\xe8V\x8d\xc2\xac\x12D\xa2S\x8b\x13\x04Hl\xb2\xd4\x11\x90\xb0\r\x87H\x0c\xbc\xca,\x05\xa9\x9az\x1f2R\xde\x1c\x92\n7%\x9cA\x81B\xc0\x0e\x05\x12v\x8eo2\xe1OV^\xca\x93j\xc6 \xcbk\xbc\xd4\xc0\xd9\xda&amp;\r9L,\xd6\xea\xedSP&amp;\x84"P\x17\xae\x89N\x8d\x12\x13\x91\xcdU\xa7\x0e\x89i3\xeb\xe6A\xba\x95f\xa5b\x0c\t\x91\xc9iI8\x1aN\x0e\x05+\x1b\xdc\xb5\xeb\xba\x89x?I\x9f\xccM.\xd7\xfc\xad\x96\x1a\xf1\xc8\t`\x125\xd6G\xb5\xc6\x92\xec`c\xa2\xa45f\x16\xa0f\x82\x94\x04SQ\xa6\xfb\xbd;\x8d\xce\xdeY\xb9w\x82\x91\xca\xe3\x0c\x16T\xa5\xb56\xcf\x7f\x9d\xbaF\xfd\xcd\xa6k\x9f\xa5 3\x11\xb4\x94:\xc8\x19&amp;d\x96\x82( \xa0\x9e\t\xb7+\xeaD\x85\x82\x07\xc1]s\xa0\xb0\xc1\x19$8o2\x1d\x82\xd9^U\xd0\xad\xb5\xc1\xd8\xe9\x11\x89F, 7!\x05\x96\xc0\x8c\x80\x02\x03d\x15\xe3\x99y\xce\xb2\xbc\xcb\xd0y"\x97\x00\xe0\x1d\x0cu\xb7\x88\xe8c\xc5\xa20\x82\x8b\x1b\x17/\x97p\xaf\xab0\xf4\xa4\xf5\x8c\x02\x96=\xcb]~\xce\xd90\xe9\xca\xe0\x98\xdd]\xb6j*hB%\x01GB\xca\xef\xca\xfc\xca\xb5bqbka*\xd3\xd2\xaa\xdbQ\xe6\x93\x90b\x13$\xd5\xdaV\x85!\x08A\xdaB\x1c\xf4\xca\xe9\x86\xb7\xd1\xe8\xc3\xf0\xfd2\xb8\xae\xaf\xf269\xe5\xef\xb6*\xccN4\xd9"\xb5g\xbc\xf7\xf8\x88l\xcc\x942Z\xe8\xeb\xeb\x13!\x0c&amp;\xa9*\x14\xe8\xbb\'EN\x7fD\x8c,\x04H\xe9~\x18\x1e\xa1\xb2\xaa\xdc]\x8au\xcd\xf3\x8d\\\xdf7Js\x07a*\x88\xb4\x1a\x03\xd6\x1d\xc8\xd8\x10a\xd8(\t@\x00\xb4\x82\x05\x01\x07H\x04\t\x04\x90*\xc1l\xaf,\xe8V\x95\xc0\xb0i\x13\x89o\x16"\x08\x10\x8a\xcb`J@\x0e\x03Y\x1c\xf1\xce\xa2\xe1lL\xb7\xd0x\xe14t8\x80\x12r\xfe\x0eP\xc9a\x89\x10P]\x8f\x91\xce\xb3\xafRq\xa9F\xca\xcc\x03S\xbc\xc8\xb0\x0f\xdaK\x1e\x9c\xba\x1acuV\xd9\xac\x95\xe8nJ\x02\x9fR\xca\xed\xc8\xf9r-\x0e\x94ZZ\xacMo\x16U\x1a\xa5&amp;\x93\xca\x89\t\x16\x1a\x9b\xba\xd8R \xc9\x06\x98$C\xdc\xdc\xea\xabA\xba{\x8fOVG\x9b\xb1\xd7\x92\xebMs\xf6&amp;\x0cmJ\xe5\xd5L\xf4\xb9\x93\xddNsU\x10\xb1;R\r\x8a\'&lt;\xb3\xca*\xbdM\xde\xe9\x9f\xa4noP\x95\xbb\x87\x80#\x87\x11\x82\xea:\xca\xaa+\xa3(\xec\xa6\xdf\xc6\x99\xceV\x84eT`*\x10\x81\x10;\x9d \x02\x80\xa4\x88\x83@\xe8\x1c\xc80\x15\x8e\x05k\x1b!\x1d%\xa2\x01aW\xaf\x1d\xe8\xd6\xf6\xe3\x98\xe9\x13\x89N,D\x10!\xba\xcbPFC\x00\x81\xac\x06\xc5\xe7N\xb0+\x99o\x7f\xc5\xf1\xa3\x87$\x07$\xe5\xfc\x1c\xb2t~$\xc5\x8a\x95l|&gt;}\x91\xbas\x16Q\xd2\x9c\x05[\x1f\xe1Z\xed\xbd\x84\xf1\xeb\xcb\xd2f7\xd5jj\xc2\xbd\r\x81\x02\x15\xd2\x92\xbbr\xbe2\x9e\x1c\xb1b5\xda\x15\\\xa3B\x8fR\xd3H\xb2\xf1\x04[KN\x96vDT\x91\xdahD\xae{\rW&lt;\x9c\xfcz\xfd\xd6M\xdd&amp;\xc3\xca\xd3\xa6\x99\xe4\xba\xd3|\x9d\xb3k\x0c[3\xf1$z\xbc\x07\x1b-\xb5\xd7\xaa\x18\xcf\xcc\xa9\xcaJ\xcdm\xda\x1cTE\xdfK\xbb\xea\x1c]\x02Ur\x96B\xa03)\x8e6V\xa3UIk\xf3\x8e\xbd{\x7f"d9z\x1b\xca\x8c\x9c\xa5\x16\xb2\x99\x04\xec\x93\x0e\x11\xc9\xc0p\x10hU\x98\xe0\xb3\x02\x80\xed\x86!\xd5\x90\x88W\x83~\x04l\x1a\xb5tN\x85l\xee\x14c\xa4J$\x91b\x00\x81\x08,\xb5\x04d\xe8\x0c\xe00\xad\x8b\xce\x81`G2\xbfE\xe2T\x8d&amp;\x86"\xc9\x89\x12\xfe \xcb\'[\x0e\xd2e\x95!6\x0e/:\xc1gRi\xab\t\xaf\x80\x83H\xf3\xab\xach\xed\xa7\x8fnoY+\xb6\xabT\xd6E\xd0\xd6DAmT\xcb\xeb\xce\xf63*\xac\x92X\x9dV\x15/Q\x95[(4\xd2\xaa1\xaa\xb0+\xb1T\xd5\x1d1O\xbaa\xba\x19\x8c\xb6\xc9`\xb6^\xbc\x94\xa7\xa1\x96.\xf4\xf6\xab&amp;t\xaek\xe7t\xb0\xe7\xdfb\xc8\xd7\xac\x8aI\xc9f\xeb\xf9i\x1b\xbbV\xb4\xd1V\xb6\x99\xc9\x863\x0b\xcc\n\x13\x19\xa1ih\xcd\xcb]\x88\x97Iqh\xca\xc2\x86\xefG\xbd^45\x11\x85Z\x90\xe8f\xda0\xad\xbb\x87\xa9\xb4\xc0\xc0\x12T`\x8b\x82RG\xc0\xda\xd1\xd8:\x829\x08\xf6&amp;Xy\x07\x07H j\xc4\x02\x0eK\xe2\x89\xb8\xac\xd7\x95t+Z\xe0\xect\x89D\xb5\x8b\x12\x04HAe\x00NB\xc1\xd6\x03"\xb6)\x9d\x0b`\x93\x99_\xa3\xf0\x87]\x02\xaf\xc4\x89#\x17\x80\x08\xea\xc5\x87\x99\xe5\x81\xac\xd89\x1c\x9b\x0bu\xe6Y\x13t\x18\t\x15\xc8\xe0J\xd6\xafB\x96=\xb9\xdd+\'\xb1,\xee\xa0\xb7\xb5\x98H\x16\xd5L\xce\x9c\xef\x172\xf5\xb2\tbU\xdaX\xb9[\x14\xe52\x14\xd2\xaeK\x1aQ\xb1\xe5d\x95z\x1b\x03\r\x11\x9f\xf52GK\xc9\xe3\xb0\xd9n\xae\xec\xe5\xe5\x9cN\xf5\xbd4\xcf\xec\x98\x0e\x1b\xd9\xcbmX\x92J\x8d4~\x87\x9a\xd6:\xfc[\x8e_KUl\xf16\xad\xc5ju6Q\xeey\xfa\xe6\xc7H\x8cW\x11\xa1i\xeeK\x84\r\x97B^@\xdb\x13q\x08\xc1\x96\xd9\x17\x80\xb1S]\xbe\xb9\xb4r\xb55\x84\x19:C\xb8Y\x05A\x83\xac8\x01\x01\x91@I\xc5\x144\x08\xc8\xa0\x0c\x1c\x1c\x00\x06\x0e\x9a\xe8\x1d\n\xda\\\x0c\x83"D\xa7\x16 \r\xc8n\xb2\x88\x12B\xc0[\x03\xc8\xb5\x8aIN\xb0J\xd3,\xf4~\x10WA\x95\xccH\x8c1w\x01\x87P\xb0\xc3\n\xa8\xd4k\xbc\xaeD\xec\xf5\xe5\xed\xa17A$\x91\x12\\\xf8\xab\xea\xf4\tc\xd9A\xcd\x12\x9bR}\x94\xcbz\x13\x04\x07\x1a\xa9\x99\xd3\x9d\xda\xe7=b\x0bjUZ\x0bs\x86\xc95\x9e\xd0\xad\xc7"v]\xaej\x1c\x8c\xd6F\xda\x08\xbdY\xe9Z,qU\xae+\xb6\xb3\xa7\x97\x94r\xf4Zy\x1d\xa7\xce\xd3Yo\x98\xcfd\x9a+;\xaa\x8d\xeb\xf8\xbdSYx\xe7\xfa*6\xa1\xb6\r\xd3\x14\xa4\x8e\xbc\xf4\xb6\xa6\xcd\x04\xc4*mc\x0b\xde\x1eJ\x9c\xdb\x0bm\xc9]\x9ad\xa5\xdaE6\xe2\xbbyu\xd3U6\x13b\xe7\xdbu\xe3\\\xcek\x10,\x94\x97"\xc2^\xa2IJ\xed\x84pX\x14\x8f\x08Y,,K1\x1c\x11\x92KA&amp;\x10A]\r\xc0\x11\x05J\xf2.\x92?\xb5T\x93\x89Ne(\xb1 nCu\x96\xc0\x9c\x83\x00X\x04\x8bX\xbd(\x16\tZe\x9e\x8f\xc3\x1dt\x1a\x1dH:l2\xbf\x00\x8e\xa1`\x0c\n\xa7\xaa\xcdg\x95\xc3\x9c~\xb4\xc3\xe6%\x88F\x92\xc5\x92\\\xe5\xa8\xe9\xef\xa3\x9b]#\x1b\xcan\xa6veJ\xacBB0\xf3]SZ\xb19\xae\xb5\x11\x1b&amp;\xa2Qd\x857=\x9c\x0fp[W\x8d\xf3\xc9C\xda\xb5\x85\x03\x89U\x14\xac\xe8\x89\xe9J\xa5\xd6\xb0,;X\xa5&lt;\xac\xa2\xac\xe9\xf2\xfd\x0b\x92\xc7\x99\xac\x97\xc9d\x8c\xe9\xce\xfa&lt;m\x8b\xa7\xe2m\x07N\xef\x93\xd2\xe5\xfdg&amp;MR\x1c\x8b\x0b\x9a\xf2Y\x97\x81g\x12\x99^\x1aC1\x10\xb7\xe3\x9bo\xaa\xd9\x9d}\x98$4\xe7\x84\xd5U\xd5\xac\x84r\x07\xb5\x8f\xd0&lt;\xb4\xbb\xf9\xadM\x18\x18\ra\x93\xc8Y&amp;\xea%**V\x8b\xc9a\x08\x98#\x83@\x91g!\xc1\xf0&lt;\x06`\xa0Q`\xd6\x810\t\xae\x81\xd2\x84.\xac\xe4p\xc4\x99F,@\x10!\x05\x96\xc0\x9c\x9d\x00\xd8\x0c\x8aX\xa0\xe9\xcd\t&lt;e\xde\x97\xc4\t\xa7\x86QA[\r\x0e #\xa8Y\xc3\x02\xa9\xd1\xb5&gt;W\x0e_F\xe9\xc0#\xa1&amp;K\x0f%\xcd\x8a~\xbfB\xdd,\xa9q\xef}\xd4\xcb7\x1aOS\xa2@8\xfbU\x13\x1a\xf9\xaf*NY%\x1bfq^jm\x1d\x18\x9e\xf2\xde\x02\xae\x8b\x97\x1c\xb2\xc8R.\xb0\xa2\x15\x9bbl\x80gn\xb3\x15m\xb6\xec\xb4c;&lt;\xec_3\xd1\x17\'E\xb5\x16\xb8\xa7Fw\xaf%\xf7\xa7\xe45-\\\xcb\x16n\xc3+}=N\xcb\xe6(\x96\xd5\xbd\xa3\x89b\xd6Th\x8e\x80\x1a\xa1\x9bb\xd2\xda\xa1fk\xa4\x83\x9b\x1d\xf4y\xaa\xea\xcc\xa5\x94\xd2jz\x92\xbd\xbf\xd4s\xf5\xa8\xcb\xb8x\xfe\x8bJ\x1c\xa1\xce&amp;\xc0\x81\xe4\xe0(\x18\x0b\x00\xc8h\x0b!\xc0 \xe0P\x02AAH\x12\x83\xa0\xed\x0bH\xd5-\xaf\x83]W,\'2\x84X\x986!\x05\x96\xc0\x94\x9d\x01\xac:a[+\x07\xac,\x84\xd8\xcb}\'\x8c1\xa4F4\x03[\x9c~\x01\x1dB\xce\'\xa0:\xc6\xa7\xca\xe3&gt;\xbfd\xfc\xd6\x93\xa1\x1aJ&lt;\x979)z\xfd\x13t\xbe\xbb\xc6\xd2\xeb\xa9\x9af5uR\x98\x18$uQ/\xab\x9c\xea\xaa\xc5\x1ek\x9d\xbd,\x97\x16\x1d\x17I\xdcR\xc9\xafP \x05\xb7\xd0)P\xa2\x95\xfbBI?\x03\xc0\xaeF\x8b-k\x97i\xe1\xba|\t\xe1\xe9\xd4\xf0z\n\xbdz\xeb]_9\x1f\xb7\x9b(\xf5z{\x1fn\x8d\xb3\xbb9\xcef\xf8\xde\xc2\xd6%\xcet%\xde\xaa\xac7\x12Y\x8a}\xd5\xe5\xb7\xd7N\xd1\x9a\xc5\xa6\x9a\xd6\x81R\xd0\xe3\xfb\t\x0e\x0f\xaa\x88\xbb\x9d\xea\xdfM\xf3\x1c\x87\xa9\xca\xdf9v\xb5\xa6\xf2L\x0c\x89\xb8`\x10\x00\xe0\x00\xe0\x108pp\x14\x0c\x07\x03\x81\x00@\xa05\x82\xe53P\xc7R-u}\x10\x8c\xca\x11b@\xdc\x84\x16Z\x81$\x08:\xc0\xf3\nYQ^\xb0\xb4NL\xbf\xd3x\xc3F\x8eW\xe8\x0f\x12t~$K\x15\x1f\x80\x00\xc8\xfa\x8f3\x88\xefN\xcb\x01\x9d\x1b*M\x8e\x8b%y\xb1H\xdb\xe8XW\xae\'\x93\xa8zy\xa6\rF\xac%b\xb2I\xea\xa2_N\x07\x94U!\x96\xf9\xceGB\x9e\xb6K\xc8\x92[3\x99au\x13\xb5\xcd\x10\x8d\x16\x88\xec\xf2\xbc\x11\x8f5\x86\x8b\x10G\x91\\\x1fF\xaa\xf5\xd36O\xd2\xf3\x19L[w\xab}-^\xd5\xb7\x8d\x86\xbck\xd1\x17\xb9\xf6\xcf\xeb\xe8Yx$l\xda\xff\x00\x9dg\x96t\xd9\x0e[jrDIL\xeff\xb6\x88~\xa7,u\xe3\x06\xb6\x93.\x87?\xa6\xd1\xeb\xa2\xd3Us\x1b\xd9\xf4\xe4\xb6\xf4r\xcc\xdfg\xaey\xf4D\xd5evU\x90+!\x99\x13\x9b\n*@P p\x00$\x1c\x02\x05`\x90\x08\x04\xca\x12(\xc1\xd8Z$\xef\x12\xca\xad\xb7\xd3\xcc%\x0c\xdcd\tD\x84"Z\xc0\x13\x05\x88-\x82\xb3*YYm\xa8\xac$\xe6a\xe9\xbcb\xab\xa0\xc8\xfc\x06\x03D\xf0q"Z!\xc0t\xbfM\xe6q\\j\xd9`\\\xe2\xd4"\xc1\x07\x91\xc0\x94\xad\xbe\x89\xa5\x1b"\xb8\xdbC\xab\x9aV\xddJV\x85\xaa\x0f\x11)\xaa\xa9\xab\xf3\xbc\xa3&lt;\xc7:\xc9\xae\'N\xaf\xa1\xd4K\x01\x16mf1\x95h\x8c\xfbMZ\xce+\x97\xcfj\x80\xd1\xa2\xa5lZ\xeb\x89*\x8a\x81u\xc5X\x81\x85\xdb\xc6\xc8v\xf3\x18_F\xab\x9ddvp\x95\xa7\xd5n&lt;\xbe\xbey\xd3\xeb\xc0[\xb2\xb7\xe6\xf4\\\x97E\x13\x1b\xe1=Tu9\xe4\xed\xaa\xee\xf5Zm\xcbt\xbb&gt;~\xc8I\x84&amp;\xfav.\xb3\xe3,V\xcc\x90\x95\xcd\x7f\x1c4\xb3.\x93~\x99\n\xde\xafFfy\xb5U+\x82\xdfTc\x126#\xb5\xd2\xe4\xa8\xd3\n\x80\x82\xa0`8\x18\x1c\x83\x89\x1bH\xda\x07\xad2\xd7M\xa9\xe6r\xc9\xd0j\xad\xe6\x9a\xe3+\xaen\x89m\xaeSxD\x10Vl\x080\xd4\x00\x82\xc2\x85\x90y\x85,R\xda\x86\xb0J\xd3.\xf4^9J\xef41\x80@C\x80\xc3\xf4Y\xc4\x0c\xa9\xd3^\x9b\xcc\xe1+~\xf9\xf6\xcc\x13AA7i\x1c\tF\xd5\xe8\xdaW\xb9\x97\x0fJ=J$\xaf\xd0\xb6u)\n,Ll\xcf;R\xcd\xe2x\xebs\\|\xf7V5\xe2\x1c\xbeF\xb8+AeRb\x83u:\xce\x1b_\xd1\xa1@,\xc52\xf4\xb0\xac\x1a\x90\xeb\xa2ae\x12*\xd3\x92\x9b\xb7\xcb\xd7,\xc9\x7f\xafej\xca/\x19\xfdE\xb3.\xdc\xcbwN\x83\xd0\x86\x9c\xcb\xab\\=\xdbREw\xb1\x8e\x0bW?\xacVa!5\x98\x8a\xb8?\x96\x82\x9b\xdac\xdfW\x9eekNv*^0\xcdY\xdb\xd6\x99SJ\xc3v]\xe6\xba\x19STF\x8d?\x9d\xae\xdf\xebrX\xb7e\x95X\x94\x92\xbe\x00\x05\t8$\x82\x08\x11\x81I\x1c9h\x0e\x02\x05@\x00.@\x94\x19\x7f^\xa8\xbdK\x19Qc\xaac7\xc2* J\x00\xd8\x1a\x80\x81D\xe2\x06\xc8V\xca\xcbls\x89\xdae\xfe\x8f\xc7\x9e\xbb\x86%I8\x9e\x80\xc0#\x8cY\xd1\x03*d\xd9\xa5s\xb8*\xdd\xbe\xc2\xf9\x88\xf4\x12D\xa5\xa4\xb9\xc9H\xd7\xe8\xd9\xd5\xb9\x97\x0fJ\x1dZ$n\xd0\xaeu\x12\x14X\xb9%6ll\xf7-\xb5&gt;\xa6+\x9f\x1b\xa0+1\x05\xb2\x08W\x9a&amp;e"\xdas\xfb\xa9\xd6\xf1[/F\x83\xc03\x14\xfb\x91\xdcA\xa9&amp;\xa2\xf9\x14tE\x8ajpN\x8f\x94\xed\x1ck\r\x1dHfmw\'\xaeYg:\xb7u\x1a\xcbR\xc7\xa89;\x89fk\xaf[\x9d\x01\xd1\xe75\xa9\xd1\xae\xe7\x93S\xa8)s\x11\x8d1\x10\xd7L\x9dh\xe3\x1c\xe6\x8c\xe8W&amp;\xc5\x12\x0ck\xb5,G\xca;\x12~K_\x84\xfe\xfb\xe7\xda\xdc\x9e\xdc\xf8o\xaa\x93\xa6\x9b\x7f\xd9|\xfd\x9fE.\x1ac\xc0\xa0Pu"\xa0\xc8\x12\x0e\x05\xac$\x81@+\x15\xf9\x01\t\xb8\n\x1ef\xe9\xd5T\xd1\x1b-\xa3$\x89\xf0\x8d\xba[\xc8\x884\x06\xc0 \x02\x08u\x8a{+\xeb`\x8e\x16\xd8\xcc\xbd\x1f\x90\xe8:$X2\xda\xa20\x00\x8e1`\xc4q\x06\xa3N\x91\x8f\x86m\x1b\xec\xaf\x996\xa0\x92%-\'\xcfJV\xbfD\xc7.\xd6|m\xa8w\xb3?\xafR\xb4\xbf%\x17L\x94\xdb*\xb9J\x19\x0c\xe2ZbR\x87\x1a\x82@2Wm\'\xe8\x8a\xde\x95\xa9Z\xbaV=\x13\xf9\xef^\xb8\x11+N\x91,[\xaa)\x8ff\x8f[\xb5U\xae\xdfVG\xaf\x89P\xdb\xe5d\xeb\xd9`\xa7\xbb~\xc3\xdfR\xc6\x8cy\xaa\x8e\xeb=\xf96~\xa6\xbbm\x11\x1b0@Y\x95\x06\x16GJl\x82\x9a\xe21\xf5\xe5\xf9\xde\x95\x8e{\xec\x17\xf23\xca(\xd5\xe3\x0e\xfd\xa7\x96\xe2\xbdY\xcd\xb5\xd2\xf8v\xec\x1f\x00\xf4\x8d\xe2\xdc\x8f\xea\x9e~#\xa1^\xe9\xf1\xbfD\x91]3\xec\xdewj\xf6|\xd7Idpt\x9c\x0f$\\\x18\x80\x07\x01\xd8wa\x19"`\xf1\x02\xa8\xfc\x18&lt;S:\xd5\xc3\xdc\x98\xbdSh\xb2o\x94At\x89](\x83X\x1b\x81C\x85\xe0\xeb \xf6"v\xd6G\x13\xb53\x8fG\xe4\xb8\x8e\x90F:Xt~\x0e\x1cb\xce\x88\x105Z4\x8c&lt;1\xd3\xbe\xc8\xd9\x93z\x02D\xa5\xa4\xb9\xc9K\xd9\xe8\xd8f\xd6\xdb\x87\xb5\xb7~\x87\xebx\xacX\xb0c\xd3yz",\xd2\xe5bK:\xc7\xdd$H\x96\xaacEn\xe4m\xa5\x8f#Q\xb6T\xd2\xc5\xbab\xd5c\xcfs\xba\xe0\xca\x91,\xb4\xdb\x8b\x85"sd`X\x02\xb6\xf4\xd4\xf4\xe6\xc8\xaf\xf2\x86w\xd7p\xfa9\xfc\xfd\x06V\xd8\xda\xc6f\xc4\xf4\x94f\xace\xe3\xd2\xc8VR:\x16\n%\x0bf\xab\xd7\xd7\xfc\xff\x00\xb8\x99\xb3\xcfW6yM-\xf3\xc1Y\xb5\xc5\xb4\xe8\x16\xf3\xa0\xae\xb2\x89\x96\x8b?\x89\xddj\xf0\x9d\x88}\xd9\xa0{y\xab\x1dZn\\\x1d)U\xa2\xdfn}\xaf\xdd\xf3\\\xcdp\x04t\x83$\xab\x0eB\x1c\x13\x01\x07\x92K\xda8a4!k\x0c\x13\xf2&amp;\xf1\x9d\xf5k\x8a\xbd\x0fd\xe7\xb5\x90x\xe7`\xd3\x11\x9a%\xbc\x8d`JD\xc0H\xe0\x0b$\xf6T\x9d\xb5$\xe2v\xaeu\xe8\xfc\x8f\x00\x92i\x93#\x19-\xe28q\x8b:#\x89\x14\xbbL\xe7q\x13\xd7\xbe\xcb9\x91\xb2\x80y,\x12\x1c\xea\xe9\xda\xfd+\n5\xc7pu\xa3\xdd\xad\xf2\xbd\xbf\x9f\x9fF\xab)1\xf5MSE\xc9+X\xce\xf1Z\xc5+#\xc1+\x88\xcb\x0b.9\xce\xf5S%dN\xe2\xd3m\xa2\xd7t\xc1\x95X2\xd4n\x16\xa8\xb1\x96!\x13Z\xb6\n\xe1\x1d\xb2\x1b\xfc\xcc\x91F\xd1\x8b\xd1\xa9F\xa8\x8bG\xcd,e^1\x9c\xbdk[ey\xad\x87\x15\xb9]D\x9b\xe5E\x7f\x8b\xf4\xe3l\xf2\xd0{\xbc\x8d\xd64B\xe7\xeb8\xe8s\xe4\xde\x97\x12\xd0\x9bl\xcb8\xd1\xb4y]t\xac\x16c^\xb3?\xa2\xfe{\xba\xf9\xe5\x9b\xc6\x9fn\xe0\xcf\xf26z\xa3\xc9\xc6\xd5\xeb\xa8u-\x04\x06p\xa1*\x0e\x02\x14\n\t\x03\xc9\',\x16\xbc\xec\xe5J\x07!a\x0eb\x81\xd7\xaa:\xf4;\xc84\xe1\x18\x8d\xb9a\xb6\x99d\xc2\x12\x03\x88\x87\x00\x80\xd9\n[RvV\xdd\xc2Zg&gt;\x8f\xc8\x08\xe21\xc0k\x91\x890p\xe6\x8b:\x00#\xa9\xd1\xa4\xe1\xe1\xf6\xbe\x85\x8d\xa8I\xea\x00$\xa3\xfc+L\xd5\xe8\x98\xd5\xbc\xdc\'\xb6k\xac\xc8\xb7\xcaX\xafY\xb1k_5\x88\xb4\x9e\x04\xdc\x89at$\x16Z\x05kBX\xb3\xc6\x7fz\xcfH\xf3#[\xb3Y%C\xac\xf2\xcdf\r\xc8\x19,\x83\x14 dc\xa1d\x12\xf8\x17\xe2V\x0c\x9b\xfe\x1fF\xc9%y\x08\xea\xd5\xd1;#.t]\xe6\x86\xedVx\x8d\x99\xb9\xceur\xfbJ\xbf/\xadm\xef|\xef4\xcb\xa3h+\x8a\xc5\xdf\xdd\xf7p\xa6\xeb\xaa\xbfy\x97z8\xaeW\x1a?\x97\xd3S\xf0\x1b&lt;\xab\xe9\xa3\xdb\xdf\x10\xee\xccy\xeb\xfc\x93\xf7o?\xa5e\xa6\xf3\xdf\xabO\xb2\xa7\x0eA\x12g\x13\t\x908B\x00\x80\x03\xd0\x94\xb0x\xe7\x05`\x16\t\xb02\xcd3\xa7\\F\xac\xe6\xba\xc0c"\xc57k"\xce\xa4\r\xb2\x80s\t&lt;t\xc1H5\xb06/Y\r\xe6B\xd5\xcd}\x1f\x8e1i\x868ug@p\xe1\xcd\x16tH\n\x14h\xd21p\xcd\xaf\xa1bzRj\xc0\t5\xbe\xc4\xb4\xbd^\x82:\xae\x95\xbb\x97\xcb\xbeg\xa5\xae\x1fM\x0e\xcd#\x04\xfdHhDbx8\x13\xb8\x88\xb8\x91\xcd/j*\x9a\x90\x8e\x90LH\xa89\xcb\x96f\x9b\xcbk\xa7v5\xb4{\xcdu\xc7\xc1 \x11\x10E\xddK\xe5\xb2qj\xa6M\x1a\xa6\x1e\x8a\x8c\x0c\x8d\xddZ\xdb]b\xc5\xae\xb1\x15y\x86Y2\x8cL\xae\x85\x82\xa3\xc1\xfaM\xe3_\x91\x97\xe9\xf9\xdc\xcb-\xfe\xa9\xc7N{WSg\xe8\xf3L\x95\xd6u.}\xe8\x08\xe0\xd2&lt;\xdd\x92\x1ecfs\xe6\xb5\\~U\xd7s\x9e\xdag\xb9\xe4\xda~\x85\xce\xb4n\xaaI\xd5\xc2\xc8\x808`\xa8\x05\xa88\n\x00\x10\x10&lt;\xb4\x93\xb0\xe6\x13\x83\x80\x80\x95oT\xea,F\xdc\xca3\x83F\x1d\x94\xdb4\xc3|\xb3\x1bh\x94\x1c\xc1-\x8e\x95D\x83[\x1da\xce\x12d\xb6\xd7\x99z?\x1a1y\xd6O\')\xd0ptI\x96\xd1\x96\x18\x81\xae\xdd\x13\x1f\x15m=\t\xd7\xa57\xac$,+\xec4\xd35zFx\xb5k\xfc\xcc\xc2\xef+\xc4\xee7\x81\xb2\xb5j\xf4\xb8\x94-\x12\x8bAX=\x0c\x95\x83;\x19z\x95I\xa7-\xe9D\xbd2\xb8$\xa5\xae\x9b,\xbc\xfb\x9e#\xb2\x81\x9b\x91\x12\x10\'VZJ\xc5\xcdi\xb3\xbe\x86\x90\xa6,\x95Y\xcc7%\xabD]\xd4W\x19!.l\x1fL\xd8^\x13[\x9d\xad\xce\x02\x97\xe5\xfe\xa1\xa1\xf6&gt;z~\x87+U\xe7]\xe7\x8c\xe7\xa0\xe6\xeb\xd6\xca\x13Jk\x9b)\xce\xbd%ma\xf4/)\xa3@\xf3\x88\xa3\xdf\x98M\xb5\x0bKu\xb1\xa7\xd3\x0cU\x1f\x08\x9c\xb7HP;\x8c\xc1\xc0$\x1c\x02\x03a]\xb0\x86\x9284@H\x12\x04\x96\xbc\xd7ur\xd7\xdam\xd5\xd6\x90\xaaQ:\r\xa4ZD\xd5D\x1e\x89\xe6\x08\xf0IT\xc85\xb1\xces\x00\xd2GL\xc3\xd3x\xc3-\xe6Y3\x02\xb2e~\x93\xa1\x85\\\xd2t/%\xba&amp;.2\xfaz\x13vPWB\x90Xw\xf8i\xa2\xd9\xd4\xd8\xb8Z\xd5]\xd1o\xbeC\x95*C6E\x85\xda\xd0z3\xca\xb4\xe6\x1b\xc4\xb5\xe5\xb7e[f\x06\x93\xa3j\xb9\xc7J\x99of\xb7\xab\x12\xd8\xa6;DL\xe6\xb6\xf3\xcc\xb2J\x97dK&amp;\x190\x99\x13H\x8aC\xb6\x8b\x1b\xba\xc2\xc4]\x96\x1c\xd7b\x12#3\x15lWb\xba=\xf1\x8fkK\x189"Bo\x00\x16\xa6\x9b\xe6~\x8fl\xecyTwp==\xc8\xd3\xe7\x97\xb3FI\xd0t"u\xd5_\xd9VO\xe9\xaaqc_|\x9e\x8b\xff\x00\x9d\x17\xd1ub\xc4\xa8Hz\xcdJ\xa6\x14\x94\x89IT\xd0\x14\x06\xd1\x00ZD\x1a\x00\x15\x04\xf4\x15\xeb\x00\x91X\x1e(pjCz\xe7%\xba\xe8;zW\xbd\xdc\x8c\xba\xec\xfb \xad\xed\x96\xb9\x99Z\x88\xbd\x10{\x020AH\x03lu\x91\xcc\x15\x82\xba\xe5\xbe\x9b\xc6\xa9]\xaaCp\x18s\xab\xf0p\xe2Y\xd0\x00\x80.\x8b\x87\x96\xee\xfe\xac\xbd\x98\xd3\xb1\x02a5Wx\xea\x97\xe5\xee\xb1d\xd2\x9en\xe9)\xe9\x84P\xa2X\xab\xc5^\xe3\xb4\xd0\x92\x13:"\x81\xd1\xc1\x99\xf5\x80\xb5,\xdc\xf9\xd0\xb9\xda%)\x8c\xc3\xafT\xb6+\xec\xdc\xab\xda\xd9[\x15}\x1f\x9fe\x8f\x0b\xb7W\x8bq; \n\xe4k\x95\xe6\xc7\xa8\xc4\x88\xa6\xdd\x17\x84\x90\xaa\xc6\x0c\xa9\x86ma-I[\xb8\xce\xba\x14\xacD\xac\x12\x00,r\x88q\xfd4%\x9b\x17\xea\xf8\x9fNr\xf5c\xf10\xa1a\rKEu\x8di\x92z\n\xdd\xb3\xdc|\xb5\x96N\x06\x88]i\x1eC\x99\x92\xc4\xac\x8ft\xacu\x02p&amp;\t\xc1\xd6\x15RlL%md\x15( m%,\x1e\x87H\xab\x0c\xab+Q\\ZM\x8fu\xb8tju4\xeb\xbaq\xca\x8f%\x9edj\x879\xc67W\x01\xae)[e\xbb\x9d3\xccs(:\x03\x05s,\xf5&gt;-J\xee\x15c\x87\x0e0\xc7\x80G\x12\xc2\xc4\x81X\x11\xa2b\xe4\xba\xd1\xd7\x9b|\x88YWI\xc8\xd6n\x16\x8e\xcf\xdf\x87\xcf}\xaf\r\xce\xa8\xb5\x85\xab\x1bk\xca\xd85\xb0\x8b\xd3E\x97,D\xe9\x0eW\x0b\xa2 .\xa6\x1bMM:&lt;\xc9\xdc\xedR\xd5\xa6\xc3\x86\xdbG\x0f\xa0\xaa\xa5~\xc4\xb2\xe6\xb7K\xe5\\\x8d6\xc3\xbc\x91\xa0\x8d\\\x1d\x93\x08\xb67\xd2W\x1e6&gt;y3T\x91l\x81\x16,3\xc64*H\xdb\xc8\x8d\x0b \x0f$\x10r\xd0e\x13\xcde\x17\'\xa6\xbct\xbc\xbd\x9f%\xb2p\x8eZ3\x94\x97K\x16\xadK@\xeaV\xe2.\x89\xe7\x8d\xb9\xec\xee\xc5\x9c\x06D\xac\x0e\x16\xce\xac\x85\x00\x90d\x18\x80p\xcb%\x98I\xd1\xb1\x08\x84\x8b\x17\xf7\x1d\x80\xb0\xd6Hj\xca\x01\\\xe94\xab\xed\xb1E\x96\xfbj\xb9\xe6Y\x18\xb8\xebI\t\x1a\xe4\xcc\xa7uM\xe75\xd8\x95\x1e\x8a\x8d\xb2\x15\xa8\\\xa0\xe1\\\xcb=/\x89R/\x15c\x00\x8c+q\xc0F\xe2\xc0\x80\xa5`F\x89\x8f\x92\xf2\xfe\x94\xd5\x94\xa1e\x1c\tU7\xdf9\xa0\x89\xe9\xba\x8e\x83|\xad$\x94/\r\x1flV5\x96\x19\x88m\x15\xa0\xcb;L\xcaR\x8eP\x02\xe4\xad\xa2\xad\xd7\xe6\x98\x98MSX\xd9\x96\xc9\xe6\xfb\x12\x19\xe6\x1e\xea\xe3e\xf6&gt;\x1b\xc9e\xd1\x06\xd2\xde\xd1\x0bk\x89\xb9\xa0\xaa\xb6\xe3L2\x14\xb0O\xa8\xa5N\x915\xd5\x84\x16\x1c!\xd6\x9c\xac0\x18\x0c\x06 ^@\xaf\xaaas\xa6H\x93\xd2\x15dby\xd7\xab\xacgI&amp;!\xe5j\xac`\xe1\xeb\x12aC\xca\x90\xde\xafB|\x83L\x01\x1d2w\x0b\x07D\x92P\xac\x90A\x9f\xcbaa\xee\x08\x1e1\xe0\xf7=\x85Yoz\xd7\x93=\x9b\xac\x94=\xf6UL\xc0\\\x9c\x96\n\x02\xd2\x16!\xd5K\x07DS{\x15\xe7}\x08\xeb\x94%J\x01a\x95\xfa_"\xaa\xdc$\xf0\x08\xc3\x16\x1c\x81\'\x96z`\x08\x14\x9d\x07\'5\xd6\xbe\x84\xdbT\x95\x88R\x0f\x975\xdf\x87\x9d\x1b\xbbkq\xbd\x1b\xaa-P\x93\x92\x9b\xa5[\xa9[b\'k\x89$\x1eW"\xa0EE\xb5\xaa]\x8c\x8c\xf5\xd0t\x14\x86\xa4j\xc9+\xc7\xeaJ\xe5\xb1\t*\xfaK\'.t\xdc\x16\xb7y\x86\xb2\x13Z\xe2\xa6\xe8\xc6h*_;\x8a\xf5\xbbI\xba"\xc3\x96\xd2\xd4\xf2+2\x05jJ\xaa\xce\xa1h\x92`RS\x99\x00\x82+\xf3/D\x80\xc0\xad\xc4\x84\t\x80)\xc4\'6p\x16c5\x0c\x844\xb0n\x14@\xde`\x94\x04\xd6:\x04\x95\x11\xb1\x02B(H\x84\xe6S\xb0\xa7;S\xe4\x9e\x0b\x13\xc40_\xaa\x1d=n`\xa0\xa5\xd2j\xed&amp;%bn$KEmd\xe0P\x94\xe6\x0c\x1d\x12K#&lt;\xe9\xd3Q\xe8\xa1\\\xe1y\x9b+\xf5\x1e@\xc9p\x81\xc9\x12x\xb5@\xe8\x01N`!E\x1e\xff\x00\x9b\x96\xf7WFm\xe9E\xe1\x19[\x9f\x9d\x99\\\x17\'\x1d\x87X\xfai\xa4\x84H[$\xb5#vS\x0b|NT/Y\'T\xb9\xaa[YUG\xb1\xca\x8d\xea!\x86:\n\xa3E\xae(\xac{\xac\xd9:!YW\xd2#C\\2K\x87\x8a\xe4\xc3\xda\xebFmi3e\xe3\xec\xcaw\xd7\x03\xda\xaa\xc3\xcd\x9d\xe3\x83kJ\xed:\xbe@$T\xacC:\xe6\x85IH\x90\x9a\xb9\xa1\xa4\t@\x98#"S$\x97$\x86\x04\xc1i\x96\xe4\x10D@\x00\xc0Pj\n\x82D\x18\x90\x04\xeb\xb15\x94\xddS\xb2\xb4X\xe5\x13S\xa4\xebG6T\xd4\x96dY\xeb\x1c\xd3\x1e\xae\xa8}mm \xcc+\xbbI\x1cB\n"\x92E`I\x80\xdc\xa4\xb4\x02a\xc0b\xd2\x83M4\xe3\xddjZ\xea^\x95\x19l\xa3\xd4y\x03\x16p\xc7\x80\xd0\xe36\x98\x0c \xd7gLq&amp;J\xef\xb9\xb9\xcf\xb5\xf4\xa5\xda\xa4\xde\x87\x9c\xfb,&gt;w\xaf\x18uSRv\x9b\'+\x98\x99#-+\x9d\x18\xb5\xd7[;+r\xa3\xb8\x97j\xa9YU;\xb3\x99\xbe\xdc\t\xb4\xf0\xeb\xa4+[&gt;\xc5\x92\x18\xbeC\x0fd\xf4\x11V\x90W\xc4\xceHb\x11\x8cH\x16?\xcd\xaa2\xa8\xc8\xfc\xdfF\x97r\xdb\xbb8\xa4J\xfdW\xc6\xb5\x94[[G\xcd\x02\xe04\xd8\x8e]\nB\x84(B\x13\x11\x04\xc0\x83v\x84\x08\xe8aVk!X\xe9K,X\xdc\x19\xac\x19\xd5\n\x99\xed\xca\x8c;\x88\x86\xf3\x05XB\xbbo\r\x0fH\x8a\x932\x11G\xa9\xaa\xc2\xcc\xebW\x07\xb04\x82\xd6\xc2Z\xeeacB\x86\x91\xeb\xac\xe5\x81\xeb\xa5&lt;\xea4Z\xf5\\\xf5\x82\x05\x91kk\x8b\x8a\xf0\x14\xb6&amp;\xc8\xf44\xc4\x88\tp\x92\x83SD\xeaQL\xea\xd4i:\'(\xf5\x1eT\xe5\xa6\x1b\xa041\x96x:%D~\x01aH\xb2\xfb\x9f\x96\xef^\xa9k)"\xd7k\xf3\x9d\xf7|\xed\xb1\xab2\xf4\xb2\x95\xd8\x84\x12\xb6\x10\xf7\x98\xd7f\xbdg=F\xba\xa3\xe6\x86\x97\xadg\xaa\xb0\xdd&gt;c\xe9\xc2\xe2,\x13OE\x87HuS/NV\x95\xd4\xaf7\xd0uv\xa0\x106\x86Z\xdb2\x1eG\x19\xed\x99\xce\xcd\x93\xa3\x87y\xbd\xb4\xb5\xcdv\xeb\xd0\xf9\xab\xf5?!\xd8\xb5\xb54w\x10:%\xd0\xae\xacE\x88P\x87a\x1b1\x89\r7et\xc8eSya[%\xc5\xebr\';\xfe2c-\xb6\x0f-\xec\xb38\x9b\xd6\xaaq\xf3L\x86~\xda/k\x18\xe3\x9f\xa3\xcc\xb3zo\x1a\xf7&gt;M#\xca\xfd"\x89N\xda_3\xd2L]\xc8\xae\xec\xe09\xb9F\xbe\x82\x94\xf4E\xaa\x8d\xbf\x9b%\x9fl\x87C\x8e\xae\xec6.OB&gt;\xebs\xd6]\x0b&lt;\xee3Y\xeb-\xd9\xed{\x0eD:\x033\x19\xd0\xb3\x93\xae\xbe\x11g\xc9\x91&gt;\x85\x92\xf4"\x93-\xa6kz\xe9\xce;\x94\x8d\xe1\t\xc9\xfd\'\x96R.\x18a\x01\x03A\xd0\x19Yr\xc0#\xa1\x95\x87\xbbU\xc9\x92\xd3\xaaZ\xca$\xf0-\xb3\xcfzh\xf9\xd4\x15\xd4\xef\x15\xaf\xa2\xc1!\xad\x80\xe9(\x1bj\xbeSJ/\\U\xf5\xd3\xba\t\x03\xd6\xad\xe5\xf8%c\'\x</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/490891-entre-el-humor-y-la-curiosidad-la-ciencia-detras-de-los-reco</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elon Musk presentó Optimus: un nuevo robot humanoide que podría cambiarlo todo </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12 de octubre de 2022 - 09:52</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>¿Se viene la revolución de las máquinas?</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>El proyecto de la empresa Tesla está en una fase avanzada y, a partir del próximo año, podría empezar a producirse. Cómo es y cómo funciona el robot. Las tendencias globales de investigación en esta disciplina.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Mide 1,73 metros, pesa 57 kilos y puede correr hasta 8 km por hora, regar las plantas, saludar, transportar 20 kilos y levantar 68. Se llama Optimus, y es el nuevo robot humanoide de la empresa Tesla, que busca convertirse en el primero en venderse masivamente. La firma fabricante de automóviles presentó un prototipo de robot humanoide que caminó rígidamente, sin amarras, en el escenario en el Día de la Inteligencia Artificial de Tesla, saludó lentamente a la multitud e hizo gestos con las manos durante aproximadamente un minuto.Por lo visto, Optimus, que dispone de wifi y puede actualizarse y programarse a través de Internet, está destinado a realizar tareas sencillas en los hogares. En los videos mostrados por Tesla, el robot está cargando cajas o regando las plantas. Son funciones básicas y repetitivas, aunque, como siempre, Elon Musk, el CEO de la compañía, piensa a lo grande: “El trabajo físico será una elección y podría transformar la economía mundial”. Desde la Agencia de noticias científicas de la UNQ se realiza un repaso por las características de los humanoides y las experiencias que el campo de la robótica y la inteligencia artificial cosecha a pasos acelerados. El término robot humanoide suele referirse a aquellos robots cuya forma es similar a la de los humanos. Sin embargo, la definición varía según a quién se le pregunte: hay quien dice que un humanoide debería tener un “cuerpo completo” que incluya dos brazos y dos piernas, exactamente como un humano. Sin embargo, otros se centran más en la comunicación o en su capacidad para realizar tareas y extienden la definición a un robot móvil con ruedas que tiene “la mitad superior del cuerpo”, con una cabeza, torso y dos brazos. Tesla no es el primer fabricante de automóviles en desarrollar un robot humanoide. Junto con Boston Dynamics, de Hyundai, Honda también trabajó en robots llamados “Asimo” durante casi 20 años. En su forma final, Asimo era un robot humanoide del tamaño de un niño capaz de caminar, correr, subir y bajar escaleras sin ataduras y manipular objetos con los dedos. La robótica tiene especial interés en el sector militar, una muestra de ello es el modelo Petman. Se trata de un robot androide diseñado para probar la efectividad de los trajes del ejército contra ataques químicos. Está equipado con decenas de sensores que detectan si los gases tóxicos se filtran a través de la ropa. El robot está recubierto además con una piel especial que simula a la humana para sudar y crear un microclima bajo el traje lo más parecido al que se produciría en una situación real. De esta manera se puede probar al cien por ciento las condiciones, resistencia y efectividad de los trajes anti-químicos.Asimismo, están los robots humanoides que desarrollan labores de rescate en desastres naturales. Atlas es un robot humanoide concebido para labores de rescate en desastres naturales, que se integra en el ejército de EE.UU. Con una altura de 1,88 metros, 150 kilogramos de peso y aspecto humano, Atlas es el robot más imponente que se haya concebido. Conforman su estructura 28 articulaciones accionadas hidráulicamente, un potente ordenador que le permite moverse con inquietante parecido a un humano y un equipo de música integrado. Atlas no tiene ningún problema para caminar sobre terrenos irregulares.El modelo humanoide Geminoid HI-4 tiene la capacidad de poder conversar con personas, incorpora 12 servomotores para controlar la expresión facial, y posee además capacidad de movimiento de los ojos.Otros ejemplares de este tipo de robot son Kodomoroid y Otonaroid, las androides presentadoras de noticias en la televisión de Japón. Son androides serviciales, y están programadas para distintas tareas como presentadoras en los medios de comunicación. Tienen apariencia de mujeres jóvenes y se puede interactuar con ellas. Su función principal es leer noticias, algo que pueden hacer en diferentes idiomas y con diferentes voces.A nivel mundial, la fabricación de robots humanoides tiene un espacio muy importante en el sector cultural. El HRP-4C, creado por el Instituto Nacional de Tecnología y Ciencia Industrial Avanzada de Tokio y presentado al público en 2009, se trata de una mujer robot de fisonomía asiática de 1,58 m de estatura y 43 kg de peso contando con la batería. Utiliza 30 motores para desplazarse y es capaz de adoptar poses e, incluso, de bailar y cantar. El rostro, recubierto de silicona, cuenta con ocho motores propios para modificar su expresión de una forma asombrosamente realista.La NASA también impulsa la fabricación de robots humanoides para sus investigaciones astrofísicas. Diseñado para realizar tareas complejas en ambientes peligrosos, Valkyrie es un robot humano que puede caminar sobre terreno irregular, subir una escalera, usar herramientas y manejar. Mide 1,9 metros, pesa 125 kilos y funciona con baterías que lleva en una mochila y que le dan alrededor de una hora de energía. Tiene 44 grados de libertad, y ejes de rotación en las articulaciones, lo que significa que es relativamente flexible.Con todo, los robots humanoides constituyen uno de los desarrollos en sistemas robóticos de mayor auge en la actualidad. Su natural orientación a la imitación del ser humano ofrece un campo de trabajo en cuestiones como la inteligencia artificial, la interacción hombre máquina y la cooperación entre robots como ninguna otra plataforma robótica. Parece que llegaron para quedarse.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe1\x00"Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x01\x01\x12\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00\xff\xe2\x02\x1cICC_PROFILE\x00\x01\x01\x00\x00\x02\x0clcms\x02\x10\x00\x00mntrRGB XYZ \x07\xdc\x00\x01\x00\x19\x00\x03\x00)\x009acspAPPL\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-lcms\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ndesc\x00\x00\x00\xfc\x00\x00\x00^cprt\x00\x00\x01\\\x00\x00\x00\x0bwtpt\x00\x00\x01h\x00\x00\x00\x14bkpt\x00\x00\x01|\x00\x00\x00\x14rXYZ\x00\x00\x01\x90\x00\x00\x00\x14gXYZ\x00\x00\x01\xa4\x00\x00\x00\x14bXYZ\x00\x00\x01\xb8\x00\x00\x00\x14rTRC\x00\x00\x01\xcc\x00\x00\x00@gTRC\x00\x00\x01\xcc\x00\x00\x00@bTRC\x00\x00\x01\xcc\x00\x00\x00@desc\x00\x00\x00\x00\x00\x00\x00\x03c2\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00text\x00\x00\x00\x00FB\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-XYZ \x00\x00\x00\x00\x00\x00\x03\x16\x00\x00\x033\x00\x00\x02\xa4XYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfcurv\x00\x00\x00\x00\x00\x00\x00\x1a\x00\x00\x00\xcb\x01\xc9\x03c\x05\x92\x08k\x0b\xf6\x10?\x15Q\x1b4!\xf1)\x902\x18;\x92F\x05Qw]\xedkpz\x05\x89\xb1\x9a|\xaci\xbf}\xd3\xc3\xe90\xff\xff\xff\xe1\x00\x02\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x05\x05\x05\x06\x07\x0c\x08\x07\x07\x07\x07\x0f\x0b\x0b\t\x0c\x11\x0f\x12\x12\x11\x0f\x11\x11\x13\x16\x1c\x17\x13\x14\x1a\x15\x11\x11\x18!\x18\x1a\x1d\x1d\x1f\x1f\x1f\x13\x17"$"\x1e$\x1c\x1e\x1f\x1e\x01\x05\x05\x05\x07\x06\x07\x0e\x08\x08\x0e\x1e\x14\x11\x14\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\x1e\xff\xc2\x00\x11\x08\x02\x80\x03\xc0\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x006\x00\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x00\x01\x03\x04\x05\x06\x07\x08\t\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\xff\xda\x00\x0c\x03\x01\x00\x02\x10\x03\x10\x00\x00\x00\xf9\xf3\xecyn\xf4\xc4\xba\x8fP\xdd&lt;\x06S^omi\xd0\xf3\xa2\x88\xf5\x90\xb9{O5ME\x149\xe8x\xf5\xb0\x85M\xd0{\xe6{\x86\x88\x19Z\xe5\xb4\x18SAcX\xeaz;\x14yl8\xef3\x87K],\xfb\x1d\x16\xb2\xf4c\x0bA\xd5\x87\x10\xf4q\xad:H\x8e\x83\xbc\xab\xed\xd1\xeeh\xc6\x87\x9f\\o\x82s^+&gt;\xb3o\xb5\x91\x1f\x15h\xa9\x87\xa0\xeb\xcd\xacjZ7X\x1dp\xb7\x0b\xa4]\xa3\xfar\xfd\xf9O\xe8\x87\xe8\xe3g\xd3\xc6\x7fG+^\x8ew}&lt;.u\xe1s\xaf+[\xe5j\xf0\xb9\x8e\x1a\x9e\x7f\']\xf1\xfe~\xef\xcf\xf9\xdc\xaf\xd8\xf7s\x1fO\xebez=\xb9\xf7\xd3\x91\xc3\xd7\x8b\xf3\xbd\xd9\x1f\'\xddK\xe6\xf7\x83\xe7\xfa\x07\xcb\xb5\xe1\xe8\xf9\xd0\xc3q\xd3g\x02\x0et2\xc9\x0f \x0b\x9dZV\xc3\xb8\xfa\x1eC\xb9+\xa7A\xba8R+\x19\x02u|\xeaR=dnc%\x87\x9b\x86Z\x1cmn\x1dlY6\x92\xef-\xd3\x12n3N\x82\x8e\n\xa1H4\xca\xc3h\xd2\xb9\x165\x1f\r\xa4])\n\xc4*kK!\xa1\xb1\xf5\xa5b\x91R\x14t\xbe\xa5\x1f]\x9bY\xd1\x97O\x8d\xe1\xfe{\x98\xf1[=f\x8fA\xd3CL\x85\xcb\xee\xbd\x0e\xb0\xda\x0e\x8f\xdc\xddr\xdd9\xad\xc2\xeb\x1f\xd7\x0b\xb6e\xf4\xf2\x9b\xd3\xc6\xc7\xa3\x85\xbfW\x0b\xde\x8ew;\xf0\xb5\xdb\x95\xdd\xf9\xee9Zq\xbd\xcb\xcf\xd3|\xcc\xf7\x7f\x9e\xf3gz\xb8p\xbf\x7f\xd1\x89\xed\xf6\xd1\xe9\xe8\xa9{gg\xd5\x95\xe4\xf5\xe3\xf8\xbdY\x9f/\xdb\x07\x83\xa5_\x9f\xd4|}\x97\x9b\xab\xf1\xd3\xcd\x0er\x19\xc8\xe2\x94\xa34\xb0|\xc4\x0cE\x10\xe2\xf5&gt;\xff\x00 \x92\xd8\xf26\xa8\xf3\xd8\xab\xee\x1a4\xd0C\x8f\xa3\xc8\xd8:-V\xa7\xc6\x8f\x8f\\\xfezn\x98\xb1\xacK\xa2\xd5\r\x9b&amp;\x87\x86\xa4&lt;5=\x13A\x0c\xa1h"\xc0h\xb4iZ\x1b5\xe8\x81\x0e\x87Q\xdby\x1bQX\xd9&gt;u\xd3{\x15\xfd\x99\x97WFM~\x17\x8a\xf1\xce_\xc9e\xd6\xaet\xcd\x84e\x1b\x14\x83\xbc\xae\x91\xacZ\x8d\xde?X\xfd \xef!\xda\x1f\xab\x9c\x9e\x897\xaf\x84\xfe\x9f=\xaf_\x9e\xf7nw\xfd\x1c\xeew\xf3\xdb\xeb\xe7\xb5\xaew3\xc6\xd6&lt;\xdb^G\xa2~g\xd7\xd2|\xb7\x03\xfa?\x17\x17\xf6\xf9gz=Uw\xde\x9e\xb7O\x1e\x9c\xecz3|~\xac\xcf\x17z\x7f;\xd9W\xc7\xda\xaf\x83c\xe4\xf47\x9bM\xc6\x97.\x89\x96\xcc\x0cU\x8d)G\x07\xcc \x00\x8a\xdc\xefw\xf5\xbc2b\xc9\xbc4\x83\x98\xce\x83+\xc2\xb5C\xd3\xd80\x86\x1c\x1dW\x80\x9bn=\xb2\xbc\xda.\xdc\xeev\xcc\x94:\xa8C\x0c\xac2\x08@\x8c)R"*P\xd4\xa1\xae\x96z6r;\x874\xca\xda\x85\xa2\xa6\x99\x1dC\xa5\x9d\x16n\xd4\xd6\x0f\x15~2u\xeb\xbdl~\xf3\x96\xf9\xe0j\xff\x00L\xcdc\xca\xda\x8f\x03\xac\x8fL\x1e\xd1\xf4\x8d\xd7\x0b\xb6K\xa8\xba@\xf5\xf3\x9f\xd1\x89}\x9e{&gt;\xae7}\x9ek\xfe\x8eW}\x1c/\xf4\xf3\xda\xdf+W\xcfw\x1c\xf4|\xfc{\x8f\x85\xf4}\x1b\xf2\xff\x00G#\xdb\xe7\xf3_\xd5|^{\xe8\xa8v\xdc\x1a\xf4T\xbd*\xcfE\x1cv\xa3\xc7\xbe\x7f\x93\xd1\x9d\xe2\xf4S\xf0z\xe0\xf2\xf4\x83\xc7c\xf1v\x1e=\x1f\x8d\\*\xce\x86\x03%\x88\xb3\xa5\x8d\xb8\x18\x84E\x9bK\x9b\xd1\xbe\xc7\x82l\x8f|\xd9\x1a\x02\x1b\x1dI\xa2\x07Eb\x98k\xa5\x8a2\xb6\x8b\xa5\\\xcd\x9e\x95\xf9\xf4\xa3\xe7\xd3\xf6\xe77lKB\xdb\x91\x860\xc2\x18a\x86\x10\xc3\x02\x14\r0\xe3gJ\xc0\xb1J\x85E\xb8\xa8l`\x94\xa2\xcf\x9f\xb2\xf9:\xe7\xf93*\xb4#\xa3\xfa\x92\x12\x02\xe7Y2\x1c\xa3a\xe8\xdb\xcbo\x0f\xd4\xdd0=b\xe9\x85\xea\x87\xdf\x12z\xb3/\xb3\x85\x8fO\x9a\xe7\xab\x86\x9f\xab\x86\x87\xab\xc9s\xaf\x0bw\x8d\xd9\xc7C\x8f\x1e\xa3\xe5z\xfdC\xf2\x7foc\xc3\xdf\xce?Q\xf1\xf8\x9f\xbd\xf2r\xfdZ\xad\xd3Uu\xd6\xae\xba\xd6v\xad\x8e\xd4\xf1\xd2\x9f\x97\xd5\x9b\xe7\xe9G\xc7\xeb\xab\xe1\xf5W\xf2\xea\x0f-o\x17`\xe3K\x97A\xe3W*\xa5\x1c\xc5+d\xb9tj\x0c\x1cnr\x8f;\xe9_g\xc1!"\x03\x98\xd8\xd3E\x8d\x95\xa9\x06\x95\xc3\xda\xb3\xb1\x87\x94mmTC\xc7pg\xa5/&gt;\xe6\xef\xca^\x980\x1b\x93V(\x08q\x82\x94, F\x18a\x86\x18q\x80\x18C\x0c!\xb4+\x0e\x9a\xc7\xb4e*\xd0\xf9\x9e\x88&gt;f\xe9\xe2om\xe7iR\xcdM\xa6\xf7\xc7\xb9\xb5\xba]\x06\x8f\xa3\x8bYn\xb8n\xb9n\xb9n\xa7\xf4\xe0\xfd&lt;\xa4\xf5b\x7fg\x0b&gt;\xae\x16\xbd\x9e]oW\r?G\x92\xdfN\x17/\r\x1e&lt;\xb7\xbc7\xd1\xff\x001\xfa\x0e\xf3\xf3\xbfK\x95\xfa\xfe_;\xfd?\xc2\xe6&gt;\xaf\xca\x83}\xeb\xf4\xdd]z+nVn\t\xea\xab\x8b[\x9fz&gt;oM\x1f&gt;\xb3|\x9e\xa8|}\xc7\xcf\xd6\xa7\x9a\x87\x93\xaa\xf3\xecy\x1b\x97E\xca\xb7\x1a\xf2\x8c)\x1f\x96\xd4\xd0\x01\xcc\xb1(\xe2\xfao\xd9\xf0\x95\x1b-c2\xd3e\x8d;\x0f4\xda\xa3\xaeL\xe8\x94\xe5\x1c\xc6\xb4-9`\xe7\xa89\xf4\xa1\xcbsu\xc4\x9a\xe6\xed\x86\x92o,&gt;kf\xbc\xad\x11\xd8\xa8`G\x0fh\xf2\x18ja\xa0D!\x0c\x12\xb5\x8bqS\xd3\xaa\x1c\xbd\xf3{\xe7\xfc\xad\xe7\x10\xdc\xe1\x84uZ\x99__-\xc6\xe8v\x87\xd0\xa9B\xb8\x1e\x99]\xa3\xef+\xb4\x7fF_\xd5\x93\xf5\xf2\x97\xd5\xe6\xb3\xef\xf3iz\xfc\xda\x9e\xbf&gt;\xaf\xa3\xc9{^}\x1e|v|\xae\xcf\xe1\xfdoQ\xfc\x8f\xdd\x8fS\xcf?M\xf2\xb9_\xb1\xf2q\xbd\xde\x087ko\xadn\x94\x1d\xaa\xee\xd6n&lt;\xfai\xcbW\x97z^n\xd4\xfc\xfd(\xf9\xbd\x15\xfc\xbdG\x87j\xfe^\xb0p7\x87\xb1s\xd48\xab\x96\xd7\x1a\xdcvH01\x1ec\xf3\xae\xe9\x1f\x19W\x95\xf4\xff\x00\xb7\xe1\x14\x9d\x16\xa0\xb0\r\xc9\xcbm!\x91\xea\xbe\xe2\x95C]\x0b*P\xba&lt;\xa3\xe7\xba\xbc\xfa\xd0\xc9\xf5\x894!i \xe3\x0c4(\x8c}\x94\x0eL&gt;\xc8\x10\x88\xc7"\xc9C\xe84\x85)k/\xda&gt;\x8b%\xcfB\x11g\xc7\xda\x97\xc4\xdeVl;\x99\xbd%hYm\xfd\x9e#\xc7w{\xe8\xf7\xa7s[\xad9\xbe\xf0\xde\x8a}y7x^\x84\x9e\xaeo\xec\xf2\xdc\xf7y\xb4\xbd\xde]oo\x97O\xbf\x8bQ\xcbO\x97.\xb3\xe4\xfb=;\xf2\x7f\xa0\xea&gt;G\xb3\x89\xfb\xfe.7\xee|\x8c/\xa1\xf3\xe8\xfa&lt;\x94\xfb`5\xd6\xbe\xb5\x06\xe4N\xd5\xf5\xa8\x9d+\xce\xf5e\xab\xcb\xb5/?\xa6\xaf\x1e\x99\xfe_E~;\x8f\xcb\xd88u\xaf\xe5\xd4&gt;m\x97\x9fm\x9b\x1f\x0e\x8b\x8e\xdb\x95~d!\xa2&gt;qr\xb1q\xe9\x06^\xaf\xf6&lt;P\xeaL5\xe6\xc89\x1f&gt;\xb1\xa9\xe8\xd4\xd4\xa5H\xf6\xb4\x83u\x1d\xe8\xf9\x95\xf9X\xb1\xd2\x864[\xe7-\x87M\xa1\x820\x81\x85\x0c&gt;\x88l\x80}\x15F\x18\xc3P\xc0\xc0\xe8{\x8d\x0f\x9d&gt;\xa3u\xc8\xc1\x8d\x8d4"n\x1d\x97\xc3\xd7;\x83\x94\xfb\xb3y\x9f.\x83\xeds\xab\xc3\xa6\x8fh\xfd*e\xb6No\xd3+\xd1\x0b\xa7&amp;\xf4\xc2\xf5\xc9}\x9ey\xfd\xfe=\x1f\xa1\xe6\xdb\xf4\xf95=~\x1d[\xe6\xe8\xbcOI\xfc\xbf\xe8}\'\xf2\xdfc\x0b\xe8\xf0\xe1\xfe\xff\x00\xce\xc4\xfa\x1e\x0c\xefO\x96\xb7_=\x0fG\x96\r\x83]#\xbb\x8b|\xa0\xbe\x88\xae\xe0n\xb3u\xe7Z\xb9\xe9O\x87\xa6\xaf\x9b\xd1\x9f\xc3u|\xbd\xe1\xe1\xb0\xe1\xda\x0f\'Z\xfc\xe0\xf0\xe8\xbc\xf5c\xa3q\xd3r\xd2\xe4\\\xf4\xf0\xc4Y.h\xbc\xdb\x83\x17\xd7\xbe\xb7\x8a*\x9fP/0\x164\xb3\xd28}\x08jZ\x14GA\x9d\xb4\xd2W)\xf3\xb0gu\xf1\x03y\xb1I\x1bc\x04q\xa1d\x95j52\xa8\x19$\xe9\x00\x8c@Q\x83\x9a0\xfd$\xbd$y\xad\x81j\x06\x846hBWY|\xfa?\x8b\xd7\x97\xe6\x02\x99\x96t=\x12\xfb\xd1\xd9\xa1\xd6\x16\xa0\xf4\xa3\xa3^e\xdf\x0f\xd67|\x17\xa73{p\x7fC\xc5\xa3\xf4&lt;{^\xef&amp;\xd7\xab\xe7\xeb\xdf7q\xf1}\x9e\xcb\xf8\x7f\xd3\xdb\xe3\xd3\xcf\xff\x00K\xf2\xf0\xfe\x87\x8e\r\xf3\x9b\x1dk\xf5\xe5\x0e\xb1[\xb7\n}\xbc\xb0t\xc5^\xbc\xa0\xe9\xba\xfb\xd4:W\xd7Z\xee\xb5])\xbbC\xc7\xb6o\x9f\xd3S\x86\xe9y\xbd\x15\xf8n.]\x07\xcd\xd6&gt;=b\xe3"\xf3\xecx\xf4~Z\x1e;\\\xcb\x8d\\\x834\x10\xd9W\xf3h8\xeb\xd8\xbe\xaf\x86;\x89\xf5\xb8\xeeV03\xa0\xb4\xd6\x92\x8c\r\x0e\x8d4\x95\xa6\x85I\x18\x83\x16\x9f=\xd0\xc6e\xdc\xb7\xa0 \xecA\r\x08\x18a\xa9S\x91\xc3\x12u\x8a\x18*\x8a\xc93[:\nn\x98-E\x11\xc3R\xc5-\xd5\x01\x90\xdb$K\xe6\xed\x9b\xf0\xf5\xcdFx\xa2N\xb3w\xdd\x02\x9e\xcb\x9dl\x9b\x8b\xa5\x8bYS\r\xd2?\xa6.\xdc\xcb\xd5\x89\xfd\xdc\xe7\xfa\x1e=_\xa7\xf3\xfa?\xa5\xf3z;\xe2\xf5\xdf\xc8}\x8f@\xfc\xe7\xda\xe1\x7fC\xf3\xf9/\xb3\xf2\xa9w\xf3_\xf3\xfa\xba/\x9b\xf4\xfa?\x97\xf4+u\xe7G\xd1\xc2\xaflV\xeb\xc2\xb7^t\xbbp\xa9\xdf\x86\x7f\xa3\xc9C\xd1\xca\x8fmR\xe9\xde\xa5\xd4\x19\xedO:\xa5\xc3\xd7O\x97j&lt;w_\xcf\xde\xaf.\xb1\xf0\xe9\x17\x9b\xd0\x1c5\x07(\xdc\xaby\xba\x0f-\x87"\xe7\xd1\xf9V\xe1\xa6\x80\xca\xb7\x97A\xc7^\xd5\xf5|5\xb5&amp;\xb5\x82\x99l\xea+\xb1h\xa6\xa2\xcdz\x8ch\x93A\x1a\xd7\x90Hsir\xde~$\xbd3v\xda\x83t\x93\xd8\xa1\x82\x06\x1c\x1aq\x00\rM\xa8\xd6\x8d\x84\x91\xd1\xe2\xb2\xb0\x1d3-\xb1\xc9\x1c\x88\x9alt\x00q\x06\x1ej\xff\x00\xc9\xed\xcdxo:g\x1d\xef\xda\x9e\x85\xef\x9cW\x073\xe1\x1c\x96\xfb\x0b\xa1\xf7#\xb8yZ\xe5w\x07|\x1f|K\xed\xcc\x9e\xff\x006\x9f\xd8\xf9\x9d\xaf\xd5\xf8\xfe\xf5\xf9\x0fW9\xf4\xb8p\xff\x00{\xc9_\xa4k&amp;\x9c\xf4|\xfa\xf4\xaf\xcb\xfe\x8b\xd4?%\xf7q\xbd\xder\x82\x94H\xb7\x8a\x9d\xb8\xd4\xef\xcf?\xd3\xe7\xe7\xbe\x97\xcf\xe4~\xcf\xcc\xc2\xf6\xb3\xbav\xa5;\xd2\xcfj^\x7fU??Z\\\xd1y\xfd0r\xd4&gt;~\xb0y\xfb7\x0e\x90r\x8d\x98\xbc\xbdG\x96\xdb\x96\x97=\xaeU\xb8i\xb2\x8f2\xa7\x97C\xcb~\xd7\xf5\xfc0%\x96\x90\xc49B\xec\xf2\x9eQ\x84\x0c&gt;\x8dK&amp;\xa6\xd1\xe2,\xdc\xdez\xa7\xcfE\xd2]\xb9j\r\xc7\xd6ZW\x82\x02\x10\x02\x1ca\xe8\xa8i\n\xc0$Q#\x1fyk\xd0\xa1\xb3\xa4:5\x8db\xc9\xb8\xdb\x9f?\xae?\xce\xb4#\x17H\x8fQ\xfdV5t\xe3\xbc\xbb\xe6&lt;\x03b\xdf\xa2&gt;\xb2\xb6\tT\xaa\xc6\xd4~\x98~\xe7\xf4s\x7fnl}?\'e\xfa\x1f\x8d\xee\xff\x00\x03\xf6\xfe\'\xfa\x9f\xe7U\xb3\xd9k\x16u\xce\xdfN7o&gt;\xc3\xe5\xf7\xee&gt;\x0f\xd5\xf3\xcf\xd2|\x1d\xef\x9f\xf4=?\xf2_\xb7\rx\x15\xe2\x98\x1b\x9a\xfd8K\x8c\xf9\xcf\xe9~?\x9d\xfe\x8b\xcb\x9f{Q\xe7\xdb?\xcf\xea\xa3\xe6\xf4U\xe3\xd6\xb7\x0e\xd5\xbc\xfd#\xf3\xf6\x8b\x86\xe2\xe7[\x95nzn\x1a\x1e[\x0eU\xf9\xd3\xe5\xb1\xe5[\x9db9*y6\xb9\xeb\xdb\xfe\xc7\x8a\xac\x93\xda0+\x16k\xcd\x94\xab60\xf4T"\x07\'\xa2\xd1\xa2\xbeYX\xddn{\x9fY\x9f\\\xe3\xd1\xf7%\xb4A\xc9\x0e"(Y0*\xf5 \xfa+\x15D\x8e\xaf(Rm\xd8\x1bN\xec\x95\x89\xf0\x93\xca\xa1\xe5U\xf2\xdc\xfe:\x971\xe33J\xdaw\xff\x00\xa5\xc6\xd7G!\xcb\\\x7f\xcb\xbb\x9d9oz\xf8\xbfL\xa9\x02n9c\xb1lZ\xc3\xdd?|/O\x13\xf5\xf0\xb9\xf4y\xfb\x87\xcb\xfe\xf9\xe3\x1f\xa4\xfe\x01ZxKr~\xdc\xadzxhv\xf3\xef\xe5\xd1x\xbd\x9c\xbf\xd3\xf9\x9d7\xcc\xfdwI\xf3\x7f\xb6\xc7\xd7\xf9|\xb8\xc0\xdeA\xac\xe4{??S\xaf\x87?~\xae\x1b\xe8\xfc\xcc\xaf7\xb3?\xcd\xe8\xa1\xe7\xef[\xcb\xe9\xad\xe6\xeb\x0f\x0e\x8d\xc2\x87:\x1c\x8b\x9fE\xca\xb7=.us\xad\xce\xbf-)ZP\x91\xb2\x0c\xda\xfeM\x9a\xfbo\xd8\xf2S\x92\xcc\x00\xac\x1c\xd1m\x05\xcf\xa0\xa1Y\x1e\xe1\xb4P0\xd4b \xcd\xc4\xe7\xba\xb8\xdd\x8db\xc6\xb9\x8e\x8f\xb2\xa6\x85\r\x9a\xe0\xc1K\x1d\xccd\xad\n+\x15\r2\xb8H-\xa4dCQ\xb6v\xf48\xd7\xbc\xfc\x8bS\x8b\x98\xe78\xfc\xdeN\\\\A(\xea\xd4K\x1d\xdd?\xd5\x99\xbd\\\xbf\x8a\x95\\\xf4ah\xa0!\xa9\xe1J\xe8\xf4\xdd*\x1dO}&gt;\x95\xfc\xc7\xf4\xdf\x1e\xfb\x9f#\x8b\xfa?\x87[\xe0\x1d\xb0\xbb\xe4\xbb\xe3_\xd1\xf44:\xfa1\xbb|oB\xf8\xff\x00\xd2}\xfb\xf2_\xa6\xc6\xf7\xfb\xb0}\xbfW3\xdb\xeb\x8b\xac\xcb\xf5\xfeC7\xbf\xe5\xf39\xfes\x8f\xf4~+7\x8f\xa6\x1f/P\xe1\xd4y\xea&lt;h\x07\xc9\xb9\x94?=)C\x07\xc9\xb3\xa7\x06F\x95\x85+s\xab7;\x85\x9e\xbd\xaf\xeb\xf8\xea\x16\xc0\x04|\x85\xa5igj\x1e\x84 G\x10\xe1\xc5h\xc4\xe5\xba\x18\xdd\x8e\x98\xb7p4=E\r\x0c&gt;+\xab\xc0\xd4l\xb0J\x08\xc2\xa1\x1c\x00\xc7\x05P\x16&lt;\xb2Q\xb5\xf5\x17\xcc\xdf\xd1\xde\r\x00\xc0\x12\x18G\x98G\x90\xc7\x8a\xd6&gt;m\x993\xfd,\xfe\xc9=+\x9d\xb0\xfa(iB\x06\x1cP\xdb\x84\x153E\xbe\xde\xd3\xf0?\xa0m\xf2\xbf?~\x9b\xf9\xf8^-p\xda\x8d\xbb\xb3\xe5\xfb\xdd\xcf\xc9\xfdqt\xf3{W\xc9\xef\xeb\xbf7\xe2\xc7\x9d\xc6\xdbK\x0b\xa6&gt;\xfd\xf9\x1a\xf7\xfc\xb3\xfa\x9f\xcep\x7fK\xf1\x91\xb20\xf2\x8c\xcb\x03O\x03\xccY5:\xc7\x93\xa3\x8e\x0c\xa2\xca\xbaY\x8f\x03\x95.z\x9f\xac\xf6\xef\xa9\xe3\xab\xa4\xf6\xb0\x86\xc4\x1c\xe9j\xad\x16l\xb8\xd0\x08CR\xc9\xe0\x883y\xd9js\xe9o\xa7+\xd6U\xa6\xd0\xc3\x100\xf9\xd2\xb0\x10\xe5\x85\x1c\x11\x85\xb2\x10\x03\xe4\xc0\x85\xb2\x1aV\xcc\xb0}\xe3\xf1{\xf7\\hC\x91\x93\x08C\x11\x1cEM\x1b\x07.|w\xf4\x9em\xe9\xc1\x80\xaa\x1e#\x85IR\xabKPh\xddz\xaf\x9d\xfb?\xa9~\x07\xd2\xf8\xdb\xf6_\x81\x8f^h\xeePQ\xdb\xf8\x7fM\xb5\xe5\xfb\xb8~\x8f\x0f\xb1|o\xd2\xfa\'\xcc\xce\x07\x7f\xab\x85\xdf\xe9\xe2u\xfa\x14\xb5\xdf\x9a\x97\xd1\xfc\x9f\x9d\xf3\x9f\xb3\xfc\xef\xc9&gt;\xbf\xe4\x1d\xcc\x01\xc0di\x94\xac\x8d\x9a\xe0\x85+H\xf2\r!C\xd0\xc3\xc3DR\xd6\xcan\xafq\xfa\xde*\xc4\xaa*\xe8\xf8\x0et\xca\xc2\x0c\x15\x04\x96lrB\x1c\x8e9\xcc\xf5\xa7\xca\xd8\xeb\xcbJ\xca\xd6\xa4JZ\x88uiZe\x87\x01P2*:\x8bF\x18\x92\x03 \x1ff$\xc8r\xbf\x9b\xfa9\xf0\xbb\xa8\x01\xa2\x99\xa5HB\x1cr"\x08\x88\xf9\x7f\xd9&gt;[\xf6\x8fr8PP#\xda\xd6\xb2\xa1\x04\x14\xebk\x9f\xda\xfbs\xf2\x7f\xaa\xf8\xbf\xf5\x7f\x0b#\xd9\xf9\xa58\xb5\xcbk]\x7f\xcf\xfe\x81\x93\xdb\xe5\xe5z\xbf5\xda\xfc\x9f\xeb\x1dg\x8f\xfa\x0e~\xbb\xc5\x8c\xa9\x81\xc6(s\xe1\xeb\\~\x1f\x93}o\xe7\xfes\xf5\xbf\x06,\xb44\x0c\n:46+\xd8\x03\x8f\nE\x0c!\x08a\x88\xb1jeo\xd1}\xbb\xe9\xf8+-\xb4f\xd4\xc0\xe6\xb3A4\xa1\x87\x18q\xe6\xdcY \x8a\xf9\xd7&lt;\xebK\x94\xb5\xbeZ:UF\xa2\xd0\x84\x10#\xc0\x91\xe6\xa1\xecx\x1bXV-"\x83\xc9P\x83\xa1\r\x94\x99\xbdG;\xfa\x03\xf1;G\x10\xc7\x11%\x88\xeb\xb5lR\x10A\xe8\x11R*G\xcf~\xa7\xc8\xde\xd8\xfb\x82(q\xadf\x9a\x86I0-t&amp;\x9b].p\xfb\x7fi~c\xf5\x1f3}\xaf?\x9e}\x7f\xc2\x86\xf8\x0b\r\xab\xbf\xe0\xfd\xfe\x7fo\x8bO\xd1\xf06|?\xba\xe8\xbe_\xf5\x12@\xcec\x98\x8f|\xab\xbc\xddo?\xb7\xe7\x9f[\xf8\xde\x1f\xb3\xf1!\x03\r\x08Cb aX\x87\xc4jP\xa9\xa1\xc4\x08\x84\xb0\xe1W+\xfe\x99\xed_K\xc7OV\xeeK%$j\x81h\xa6\x82\x1d\x1c|\xe8\x15D\x83\xd2\x86\xcd\xe5\xdd\xb3\xb9\xdb\x9a\xe1\xa5\xa4(\x1bH\x15( F\x1e"\xc8G\x1c\x8c 4z\x11d\xf0\xda?@\xe4\xb3O.\xa3\x9d\xfb\xfb\xe2v\x08\xaex3\x87\xba\xce\xd2+\x16)\x04I\xa0\xc58\xc3\xcd\xf0\x7f]\xf97\xdd\xcci\x03k\xc2\xa5\x8a#\x87\n\xf4wB\xbd=G\xe5\xfe\xe3\xee\x1f\x9b\xf9/\x81~\xbf\xe9x\x9f\xa5\xf8\xf8\xfar\x1b\xc93,\xf6\r\xc8\xdc\x1f?]\xfe\x1f\xa1\x92u\x06\x02\xf0\xac\xf3\x03\x8e\xb7\x0f\xd3az\xbf\x13\x16\xfc\x0bE\x94y\r\x08\xa1X\xa1\xb9\xe5\xc6i\x0e \xa6Z\x86\x05^\x9aj\x1er\x96Z\x9e\xb9\xed?G\xc3^\xea\xc4\xaf\x88\x80\x18\x15)\xd1\x87fL\x9b;`C\xa3\x1e\x069L\xf5\xce\xc5\xbb\xbeZ6C\xa0Q\x92h\xc2\xc1\xe8G\x04\x01\xa0G\xa2\x80\xa4CE\x92\xcd[\x85\xb0@\xe2\x9egU\xce\xfd\xfb\xf1;\x8cB|\xf5\xbf7\xd0\xf8\xf4\xb8\x08\x04\xca\xe4\xda1K.B_\x0e\xf5\xbeV\xf6\xe1\xe9\x03k\x8a\xd7\xc1\xf2\x10\xc4\xeaw\xbe\x9f\x9f\xf4_u|\x0fOw\xd7\xf3_\x9f?K\xf6&lt;_\xd1\xfcPv\xe4\xaf\x14\xc3\x8dI\xa0t&lt;l\xae\xd649\x06\xb2,\xb8\xcc\x85\xe2\xe8\x909\x87A\xa6\x85\x93H\xf3,\xd2T(T\xd9\xca\x91\x85jA\x9a\x8b\x9d\xae\x9a\x9e\xce~\xd3\xf4&lt;\x95\x96v\x84R24\xa7(\xb4!\x85\x90\xcd\x96BKOI\x14\xbc~:P\xc6\xb4u\xcbGr\xbd\x04\x18[ \xe1\xb2q\rB4\x058$A\x91R\x86\x82\xa7\xd1\xa0a\xf2\xed8\xdf\xbc~\'p3,\xf3^\x98\xf5\xee}\x1a\x06\xc0\x86S%\xa5\x14\xa3\x9b_\x13\xf5O\x92\xbd\xb1\xb5\x18\x11\x04\xaf\x9a\xa1\xc4\xaf}\x12=\x1e\xf3\xf9\xff\x00\xe9\xbfa\xe7\xf9\x86?\x1f\xa5\xf0\x1f\xdc\xfd?)\xeb\xfc+o\x93\xeb\x8c\x13\x14\xf9-\xe3\xd6&gt;\x8f&lt;\xbdw&amp;5\xec\x9f+\xf5=\x17\x93\xdf\x87\xbcs\x1d\xbc\xa1\xbc\xe6\xef\x86G_&gt;^\xf9A|\xd0\xef\xcc\x0c6\xb93*A\xc9BFiX\xb2Y+P\x19\x85\x88\x14\xfb\x8d\x949\xd5x\xd3\xf7\xf1\xf6\xef\x7f\x96\xaa\xce\xa8L\xb0\xd2\xbek\xb4*\xe2\x01\x1c9\xb5\x93\xb2T\x0b\xc8\xf2\xe9K\x1d45\xcfGy\xadEMR\x08A\xc0\x82\x8f(C\x02\x1d\x08\x14\x92 \xa5jP\xe3Taa\xe9^m\xfd\xb5\xf1\xfa\xc6p}3\xe4\x9e\xac\xfd1\xe2\xdb\xa8\x82\x82)Lb\xa6\\\xbd\xbcWY\xf0\xd7\xd3\x83c\n\x04!\xe5q\xe5W\xb1:h\xf2\xfd\x1f\xda\xff\x00\x96\xfb\xbe\xbf\xf4\x7f\x9f\xf0\x9f;\xf5_\x0c~\x8b\xebs\xfe\xcf\xc1\xc7yR\xc7\x0e{\xc9\x98p\x1c\xeaL\xf4\xd4\xf5\xc2\xd3\xdax~\xc7\xeb/\x89\xbf\x18\xe9\xfa_\x15~v\xcf\x9bg\xf5&lt;T}\x7f&lt;\xad\x92j&lt;\xf5S\xb4WPZ\xd2E\x10oE\x9cE`]3"\xa10,\xba\x0b\x94NQk\x84\x17\x85+\xe5\xa6\xf2\xeb\xfd&gt;^\xd1\xed\xf2\xd6\xb6\xcc\xc9J\x14\xc2W\x9aC\x0f\x92VW\x10\xc1\x92\x10K\xccq\xed\x93\x95\xf6u:f\x1d\xa3\n\xc9-\x16\x0eY%\x01G!\xe2\xe9\xc2|\xee\xafgE\xe9\xcf}\xf4\xb9\x18:-J\x91g5\x80\x18T\xf0\xb2\xf6\x7f\x1e\xfe\xba\xf9}b\x8f\x12\xf5\xe7\xe7\xcfv~\xe7\xf8\xbd\x15\x115\x8cG)\x83\x151x},\xee~w\xfd\x88\x08\xc2\x82\x86\x08,\xd6U{\xc9:v&gt;/\xe8_r~{\xf3\xddg\xbf\xe0y\xd7\xcc\xfd\x8f\xc6?\xa4\xfb\x1c\xbf\xbf\xf9\xc5w&gt;k\xc5\xe5\xa7\xce0\xa2\xee=\x123s\xe8gW\xd1\xdf\xa6\xf0\xfe\xcb\xdc\xfe\'\xdd\xf9\x8f\xbf\xe1\xfd\'\xe7z\xb6\xbd&gt;O\x18\xfdG\xc2k\x96\xceTGJ\xd5\x01#\xc8\xd2\x8c\xa5\x03\tX,\xc6V\xd6\x96i\xe7\xa9g\xa9\xb7_&lt;\xb3o\x87\xab\xfa8\xf5\xaf\xa1\xe3\xa8\xb6\x98y\xa6\xa6\x13O*\x02\x8f&amp;\x91\xae\x92\xa9\nEl\x91\x1b\\\x87.\x99xh\xd6\xb6\xf1\x06\xc3k\xdc\x16\xb4\xa4\x9a@\x85.O\x9f\xa7\x90|N\xc8b\xc6u\xb3\xec\xe7\xe9\xff\x00g\x94y\x92i^\x0f!\xa7\x87\xa6\x10\xb0\xfa#\xc1\xd3\xe9o\x9f\xd2\x08\xf9O\xe9s\xf1_n&gt;\xdf\xf8\x9d\xbb^v8\xadW)\xa1\xe0\n\x98\xbe[\xd2z\x1e_\x9a\xdfjCc\x02\x16L8R\xb3K=\xa4\xcfO@\xf9_\xd4&gt;\xdb\xf9\x1f\x8e\xe8\xbd\x7f\x1f\x85\xf9\xdf\xa9\xf93\xee~\xeb\xcd\xbe\xcf\xf1\x98\xd8\xe3\xfc&gt;c\xc5\xb1\x8e\x9b&lt;=\xbd/?Vg\xb7\xc9\x07\xd5\xf0\x8d\x08\xde?U_\x9b\xf3}\xf7\xe6\xfd\x1b\xf8\xfe\x81\xe3\xff\x00\xa4\xf8\x1c\xc7\xb3\xf2l\xe6\xf04\xb2a\xa6F\x86V\xb5\xb2B\x84,\x96O\xd1\xa5\x89\xb5\xce\xeb\xe6\xea\xc5\xcc^\x83\x8b{\x1a\xf0\xff\x00\xbf\xe4\xed~\x8f\x96\xcd\x854\xc3Bi\xd5\x00\x1eMH\xe6|\xdd&lt;\x83\xe3z\x00\xeb\xbd\\\xbd{\xeb\xf0\t\xae;\x8fL\xcc4zM^\xbc\xea*\x89t\x92\x9a$e\xa5S\\\xef\xce\xef\xe6\xdf3\xd0\x13\x12g}\x17?m.\xbe}?\xa5\xe3\xea}\xbc\xaf\xf6\x806L\r\x8e\xaf\n\n_\xac\xfeO_j\xf2\xea\x08\xf8+\xed\xf0\xe6\xfbO\xa3\xbe_o\xa2|:\x01\x88\xeaA@E&lt;\xdf+\xe9;\xbc\xbe\x0f\xfa\xd9\xe3z\x98l\x848p\xa6\xa0\xf3\xef\x9f\xf1\xee\xbd\xe7\xe9\x1e\x7f\xe8\x7fs|N=\x8f\xa7\xf3\xbc\xef\x9f\xec|\xfd\xee\xfe\x99\xe0\xbf\x7f\xf9\')&gt;\x0eG\x0e:&lt;=V\xe6\xdf;\xec8\xfb\xb2\xfb\xf9!\xfb\x1f6=\xca\xd8\x98^\x19R/\xe3~\x93\x9f\xe9^\x87\xe5\xfd\xa7#\xeb\xf9\xfc7\xd2\xfeK__%\xac\x0c\t\x01\x95hg@O\x17\xf2\xb9\x95\xbc\x8do\xe2\xed\xe1\xa6[\xcbZ-e\x99\x97\x96Y\xe6\xda\x95z\xcf\xa0\xbfK\xf3.z3\xdb{}8\xf2a\xfc\xaer)+(\xa9J\xcc9\xe4\xff\x003\xd3\xc0\xfc\xee\xe1\x85\xfe\xb9\xf6\x7f\xbd\xe7\xe9w&lt;\xe3\xcd\xd3\x95\xf0t\xed~\x97\x1d\xbfG.k\x9fm+\xc6\x97\x0e\xbc\xf7\x93v\xfaN\xbb\xd9\xc6\xd7H\xb1\xaes\xe7\xfa\xb9_\x99\xf4s949\xf4\xd4\xc6\xf1\xbb\xf9p7\xe4\x9f\xae~\x97\xfd\x1f\xca\xf2-\xfa5;s\xee\xbe\xc7\x8f\n\xc7\xdf*\xff\x00\x1f\xe8\\\xf9\xbe\xee\x93\xe8s\xfaw\xf3]}\x03\xc1\xd7\x88\xaf\x88~\xff\x00\x9ck\xd7&lt;[\xfa\xf7\xe5u\x8c\x12\x02Q\xc8\xe2\x9e^u\xd6\x1eg\xce?Nx\xb7|I:C\x11\xe14\x8e\x13a\xe1\xf4\xe7\xf0\xd6/N\x1a8\xfa\x1ff|o\xeb~\xa7\xe6\xfchMy\x97\xab\xf6\x9f&lt;}\xcf\x95\xc2\xf7\xfeW\x8b\xcb\x86\xaf/Sb\xd6\xd59n\x99\xbe\xdf\x16\x87\xa2f\xf9\xa5\x1ep\xe8\xe05\xad\xcdz\xbaG\xeb\xb4\xb9\xfe\x87\x0f\xd9\xfc\xff\x00;\x7f\x12\xd4ia\x7f)\x83\xc2e\x93(\xe5,\xee\xcd\x81m\xbesK2\xe1\xab\x1aY\x96\xb3~~\xde|\xdbQ\x1aV\xf5_O\xc9\xee\x1f_w\xbe\xea\xa7\xd4\xe1\xca\xfe=W3\x8f\xf9\xbe\x9fE\xfa&gt;7\x8c\x9e\x1d\x9a\xb7\xbbs\xf3\xdf\x07\xa3\xcb&gt;O\xa1\xb2\xbb\xe8\xbd/\xdc\x9d\x96|\xf8\xbc\xfay\xcf\xc6\xe9\xd9\xfe\xab]/\xda\xf1z\x07\xe4&gt;\xdf\x9a_\x17\x9c||\xd3\xe7\x11\xd6{\xb1\xe9\xff\x00W\xcfK2\x1f\x9f\xf4\xb9\xef\x07\xbb\x0b\x8e(\xe7=o\x1f^go7?\xe8\xf0P\x98\xf6\x0f\xa9\xe2\x97\xd9\x9e3\xc9\xe9\xf5?\xd6|~\x8f\xd9y/\xc8}\x9f\x13\xf8\x1e\x9a\xd7\x1e\xcf\xfa\xbf\x9b\xf7\xb7\xe7=\xbb\xfe^\x9e?\xda|=\xf58\xf2\xdf?\xa7\xaf\xe2\xfe\x82y\xb7\x18)\x14\rHC\x18\x98\xbeq\xb5\x1c\xb9\xbfV~I\xfa\xdc[\x9e\xcb\x9e\xf3\xfc\x1dc\xed\xcbK\xbeK;\x93\xc1\xec\xad\x96?N\x17/~\xa7\xcb\xfb/K\xe1\xea\xe8&gt;M\xf3\x0f\xaf\xf3\x0b\xd3\xe9\x97\xb7\xe7&lt;\xb3\xa7\xc7\xa5\x8eo\x9d2;[\x0fE^\xf8\x17:\xd8\xe6\x11*\xd9\xba\x81\xb8\xb1\x9e\x9f\xda\xb5\xd2}\x11\xe5\xf5h^\x141\x9a\xb6B\xb4n+\xc3\xcd\xc0\xcd{\xa8s\xa3R9\x1e|\xb8\xf9\x9b&amp;\xbct\xbd1\x81s\xccjc\xcd\x17=P\x9d e\x05\xd9\xb1\xf6yv\x9fo6\xfe\x8b\x86\xfc/]\x89\xd0\x7fW\xe0?\xcd\xf6\xdc\xef\x8e\xf7\xd7\xe6\xca\xe1\xd7\xc2~\x17\xb82\x93\xb3\xad\xfd\xd7\x8b\xa6\xf9=\'\xf8\xde\xbf)\xf15&gt;\xa4\x87\xaf\x1e\xd7\xd1\xe9\xa1\xee\x9cO\xe33W0\xae\xaft\xeb\xdaz\xb8\xf2\xdc\xb2\xb8v\x9b\x8f\xa77&lt;\xdaN\x87\x1e\xbb\x9d8s}\xfc\xb5Y4\xa5\x97s\xe9\xf5d\xfd\xbf\x93\xd6\xfd\x9ex\x7f\x86\xfb\\\x87.\x08\xdd\xf4\xf3\xfd7\xe5z\xeeN:\xbf0wr\xf1=\xbd\x7fB\xf9\xa3PH\xe2;\n\xa0\x8e~^{NJN\xff\x00O\xce\x1f\xab\xca\x0c\xed\xf9n\xf7.\xb9]8\\\xdc\xa3\xe6\xed\xa3\xc7\xb6M\xc4[\x9a\r\xc3\x8dK\x9du^/\x7f5\xf5~&lt;\xfa\xd2\xe7\xaci\xc24\xbb\x8d\xee\xf1\xed\x8d\xe8\xe3\xa5\xdb\xd1\x8b\x8eu\xe7\x18\xe40\xcd\x8dzqo\x17\xc2\xb3\x13W\xd9\xbe\xfcky\xf7K;\x10(!&amp;\x80k\xe7x\xcf\x8a\xf2\x8du\xd1W\x92\xe3 !\x1d_~0\xeb.T\xc6\x8f73\x1d\xa3\x91\x02K\xd5\xaf\xef\xdf\xa1\xfe\xdb\xcf\x99\xd7\xcf\xc4~#\xd7\xa1\xf7\xb8Q\xf9\x1b\xe8g?C\xed\xc3\xc6~/\xbb+\x86\xd8\xbd\xed\x1f\xbb\x96\x87\x83g\xe7\xd7;\xcc\xad&gt;\x93k\xea\xeb\xa9\xfa\xfe\xdf&gt;\xfcg\x86\x1c\xc9\xb7ou\xa7\xce\xd4\x06\x0b\x1b\xd3\xe3\xdf\x07\xbf\x8e\xf6z\xf7W\xa7\x13\xd3\xcc\xaa\xb4\x1c\x97\xbd\xd6\x8e\xb17\xd0\x9d\xd7\xc2\xf7\xf0\xfc\xb1c4d\xfbw|&gt;\x91\x99\x13\xf2\xeet\xe0\xf5\xcf\xe9\xc9\xaf\xb7\xf1#\x88\xc8\xc8\xac*\xaf\x19\x92\xf0]\xe6\xb6]\x14|\x01\xd6\xf0=3\xb3\xddK\x86\xb2\xe6nU\xfc{\x06\xe2)\xac\xcb\xce\xf6:\xd2\xcd\xe9\xa7k\xd3q\xfd?\x85\xda\xf7\xf3\xf8\x9f\xcb\xfa\x01\x95\xee{\xf4\x8c\xfa\xea^|S\x19\x1d\xb8\xb4\n\x0eGZ\x17S\xde\xf9\x97\x9cNa\xcd.\xa7\xb8z8\xf5\xedt\x97\xa4Q1*\xc1\tk\x9f(ym) \xb90\x07\x18GO\xdf\x9e\xad\xc6]\xb9\xd9\x8b\x1d\x03=\xe9g\x98\x84-=\x1b\xa7\xba/\xda|\xbd\x1f\xaf\xe6\xe3?7\xde\x96.\xaf\xd5\xf3\xe9\xfc\xfe\x93\xf87\xc1|_DX!\x83\xdc\xb1t\xd9W\xcc`\xf6\xf5/\xdc}\xbe/\xf2\x1e&gt;\x7f\xc1\xe0\x84\x9fK[\xd4X\xad\x12\xa0E\xbc\xf4\xa9\xaeAg]\xad\xf2\x19\xc4\xba\x06L\x1fcm\xa1\xf7\xf8\xf4\xdf\x9f\xfa\x1c\xaf\x9b0LX\xcd\xf7\x9f\xab\xe7\xfb\xe7\xe6h\x8f\x81e\xf9\xde\xcf\xbc%\xfa/(\xa4\x15\x88\x86\xc7\xa8b\x1c\xdf\x9e\xfd\x93\xd6\xf8\xc0\xaf\x9b\xf5\xdb\xe6\xfe\x9c\xba?\\\xc8\xf0\xf5\xcb\xca\xa3\x9fK\xbfN\xae\xf3Q\x9c\x86s\xb1.^\xd5q\xce\xac+\x8d\xae\xb3\x1b\x98\xea\\\xdd~]\xb0\xfd| \xf3\x9a\x8e\x84\x86,\xda\xd9\x93\xbaPs\xb3\x9e\x96f\xe8\xf4\xe0%\xda\xfa{\xd7\x9bV\x88y\xad\x87)\xe5\xbc\x13\xa7\x08%\xa3\xaem2\xf0$cWQ\xdb\x94\x9a\xcd\\\xdamE\x9dM\x8e\xd9\xd9\xe6\x80\x0e\xd9\xb4\x97\xbb\xe8_\xd1]?\xb9\xe2\xa5-&gt;\xea8p\x1f\x9c\xf4p\xff\x00\x9c\xd4y\x0eHj\x92\xd9*)\x18\xbb\xae\xbb\xdfC\xe8\xe3|\x8f\x15M\xf0\x9b\xa4\x8b1S\xe6\x96P%\x86\x84\xb3\x8b\x1e\x95z\xe2\x1ed\x15(Awh\xfe\x8b\xcf\x1f\xc3\xf5Q\xf1ff\xa2g\xb7\xfd.\x7fJ\x7f3\xbe\x95&gt;[\x8f\x8bt\xfdT\xc3l\x8e\x02X\xd75!\xb1K&lt;\xbf+w\xcf\xd0\xb9U\xb3\xce\xf5\xbf\x85Y\xda\xdfE\x9dbNufz\xee\x9b\xdc\xde\xf2\x0ci\xcc \x85Q\xc4\x12A#\n\x8b&amp;\x1fa\xca&lt;\x0bF\x114\xde\xc6}\xf8\xcf(L\xdf\xcfz\xd7\x95}\xf9\xc7A_t\xf5\xf3\xe9\xf7\x18\xab\x1a\xbe\x1e\x9f8\xe5I`&amp;h,\x8d\x14\x82!WK\xdf\x15s\x81J\x93\xa0M\x16zQ\xce\x0cC\xda\xfa\x8c{\x17\xa3\x7fb}\xdc^\xea\xe61\xaeg\xc7&lt;\x07\xcc\xf1\x9f\x9d\x02\x03\x07\x1bvkL\xaf2ge&gt;\x8eny\xd0\xe7\xcfC\xd3\'\xd7\x1e\x7f\x9eC)\xa0\x8ae\x85v\xbb?\x17\xd1\xe6\xbd&gt;C\xae{~a&amp;\x00\x02\xef\xa9\'\xb73|\xcd\xd3\xe7!K*\xb6\xfb;\x9d\xfa\xc5&lt;\xe6&gt;8\xd3\xf4&amp;#\xc9\xa0"&amp;\xaa\xc5E\x836\xdd\x9e/\xb9\x95\xd7\x1e\xf5\x87\x0b\xd6\xfe{t\x9b\x18\xf4r&lt;\xf9\xc3\xbc(\xe8\xf7\xad-\xf4\xc8\x98\xaf!\x80C\x90\xd42G"\x04 B\x00hT\x03K\xa1=\xe5=1O4s\x93gGP_0R\xd4\xf4\xcfo.\x8b\xa7;\xd1o\xce\xf2\x8f/n*\xa6R^\xc3~\xce[\x9f\x9a\xb5\xcadQ\x80\xae\x8f\xb6*\xb0\xd9\x95s\xd4q\xa1\xd2\x0c\x980\xb4jq\x1b6\xfdS\xd5\xd9\xfa9\xf4R\xf8o\x9f_-r\x0c6M\x16z\xd6\xb5\xe2\x19\x927\xafj\x9c\xb7wI{g:r\xca\xc6\'\xc5\xb2FT%&amp;:\xff\x00\'\xaf\x17{\xd9\xe1\xf4\xf9\x8fW\xca\xc5\xeb\xe3C\x06M\xb4r\xbc\x8a\x1c\xb6T;\xa3\xf5#"\xaf\x9f+\xdfQ\xb1TG\x15\xf3\xaa\x92\xd1\xcd\x13OS?S\xe0\xff\x00^?C\xf8^wO\xccoT\x7f\xa0\xab\xf1z\xe5k\x9c\xd5{Z\xd5\xd6\xe9Nub\x1ch\x0b\\\xfd\x16\xf53\xf5\xc2\x0b\x86\x04!\x82\xa0\x86\x81\'\xc7\xb3F}2\xd5\x89\xce\xae|\x810\xc1\x10\xb0\x0e2\xdb\xd7\xfa\xf9nv\xf3\xeds\xb9&gt;.\xbeQ\xbbw=\x0bZ\xab9t:\xf5a\xf3\xe3^\xe1\xec\x14@\x1b\xdd\xb1^s\x8aX1\xd6\xfc\xb9b\x10\xc1\xd2\xd0\x81\x064\xfd\xf9\xfd\x11\xfd3\x9a\xe5\xaf\t\xf87\xe7o\x9d\x07\x01\x0e\x9e\x8e\x88\x88\xdb\xb6\x9d\xd7\xa2s\xfa\x19=\xbc\x99\x0et\xb9Z\x8d\x0b\x12\xe7\x15\x92!\x89Od\xf2z:\x9e\xbd&lt;\xf6\xf3\xb9s\xe3]8\xb8\xe1\x80H \x89\x08\xc4K\xb7\xe8\xf6\'\xb1\xcbOR\x96\xb3\xa3\xcbc\x11\xe5W:\xcf\xc5\xa3\x9dMf\xb7L\xca~hzs\xf7\xe6\x1e\x86~N\xf4ez\xc1\xe3\xb5\xa4!\xb4\xe8:j\x08\xcd\xc4\x8b\x01\x9a\xe8x}\xa8;xq7\xe0\xb3\xa4`\x01\x01\x05\x92\xd1B.g\xe8i\xcf\xa8\x17\x9c\x17\x95|\xf9\x06e\xa8\xa2+\x80s\rbY\'\xeb\x8e\x8f\x13\x8f]\x05\xe9\x9fF\x0e\xbd\xb9\xee_&gt;\xb3\x8b`\x1a=\x82\x8e#k\xae+g\x9ck\x1e;_k%\x94\x10\xc2\x0bB\xa4k\x9fT\xf5{\x1f\xa771\xaf.\xe7&gt;\x1e\xe1F\x07%\xa3\x9d\x99\x81\xd2g5\xd6/\xaeb\xfbv\xf5\xf1\xce\xadx\x9b\x87\xa6\xef\x83\xde:\xe3\xc5{~L,\xa0\xc4zg\x9b\xae\xe6;\xf2[do\x9f#\xdb\xcea\x11\x84\x18F\x97X\x15kR\xb6l\xab\xf4W)\xf6\xc6l\xb5\xc9\xf6\xe7\xd7\xf0\xe8\x19\x0cQ\xe7\xac\xecj\x84\xb6\xb5\x9d\xbe\x99y~\t\xf4g\xbf\xcb\xeb\xc9\x7f4\xac\xe0\xbd\n&lt;J#\x04\xe8z\xd6\\\xfc\xa3\x99\x87\x1a\xd7\xe5\xf53u\xf3\xea\xf4\xe3s\xa4a\xa5B\x88\xa1\x85O\x94+\xab\x8f\xa3#\xbc,D\xf3\xa4\x11\x84\xc4.m\xbcI \xd9,\x90\xd6\xb1\xbb\xd3\xecQ\x9c\xb0\xb1\xe2\x8ea\xf3\xa8\xb5\x86\xb2\xcd\x94\xa1\xe3k\xb7:\xd3!5\x7f\x1dck-\x84\x10\xc2\x0c\x12J\xf5\x8e\xf7\xeb\xcfWj\xfa\xc8t\x9c\xcf\x99\xf0\xcf\x93\x98\xc0`\xe3\xe9\xf5/\xe9\'\x8b\xf9g\x15\xf3,\xbc\xee\xd6:{Om\xf9\xbf\xa3\xcf\x85\xe6\xed\'\x8b\xdf\xea\xbf\x9f\xfd\x1e\xff\x00\'\xcc\xff\x00\xa9\xfc]-`\xc9\x04H\xb7x\xde\xc3\x9e\xb8_V)\xee,\xa3\x81\x10d\x95\xd0w\xcbN\x94\xb1,\xf5\xc5\xcdN\xeb\xcf\x7fI1\xa7\x8eS\xa6nK\xa7\xca\xa9h\xf2\xb9\xd9\xbc\xd6.\xdf|tz\x06o\xc6\xdd\xf3\xe6s_\xa0&gt;}x\xf7\xab\x9f\xc2\xde\xc9\x8f\xe2\xb2\x08+6;\xe9\xb3ke\x9d\xcf&amp;\xb71\xee\xa7\xaf,:\xe7o\xae\x1d\x16*\x18\x16\x98A\x152(\xd4\xc7\xd4\x8c\x8eqk\x06X\xef&amp;b+\xcd\xb6\x9eX\xd8E\x92C\xa8\xd7\xd5\xcd\xbcq\x9eg\xe5d\x96\x8e\xf8\x1d\x9a\x1ad`&amp;\xcf^u\xb3\x1en\xcez4e\\\x90C\x88`\x8b\xd4\xf6\xfe\x82o\xafG\xe8a\xf9\xb3\x06\xa7\xe7\x8eqZ\x07\x04I\xa7\xd4\x9fg\x9f\x15/\x92\xf8\xd4|\xdb\x87\x91\x9a\xd2\xf4\xf3~}\xf7&lt;_S\xd5&gt;\x17\xdc\xe2\xfd\xdf\x1f\xcb~\xbf\xc2\x941\x89G\xce\xafE\x9e\x98\xcf3\xf5VPC\x02\x11!\xd2\xfayj\xef\x9cSJ\xe6\xbeo\xa8\xf0\xf4~\x85s8\x11\xc5o\x1d\x7f=\x84S\xe7y\xeew\xc6u\x8f_\xebz\xdbC\x17\xe4=\xcf\x9bv\xfd\x10\xf1u\xee}\\\xbf&gt;\xbd\xd3\xc5\xbc\xc1\x8e\xfb\xdb\xcb\xb2\xf5\xe7\xcf\xfc=\xf3\xb9\xdc\xaeP K\xbd:B\xe7S\x9d\xb9\xd7\x12X2\x86i\xacL\xbbL\x89b\xc9E\x9c{\x8ezc\xbep@ri\x88\xfas\x06c,,h\xc4\x84\xb1\xd7g\xe9f\xef\x19\x8f%\xae= \xdc\xcd\xdf\x08\xcb:V\x87\xcb[\xb7:\xb9\xd5\xdcZ\xae\x84Ra\xc7\x10C\x05FX\xb7\xee=\xfa=c\xbf5\xb4&gt;g\xe6\'&gt;u\xf3\x04Z\x11\xf6\xa7\xd8p\xf1\xe6\xf8\x9e{\xe7\xd7\xb2yu\xe2r\x05\x9a\xda\xe9\xa5\xe1\xfa\x1e\x85\xf1&gt;\xe6\x8b\xcd\xe0\x1f\xa3\xfc\xb9\x0cL\x18\xe5\xaeZ\xb5\xdd\xef\xfe?W\xce&gt;\xdf\x1e\\,\x84\x11\x0cj\xeaiu\xe7z\xe5\x94\x0fl\xe3\xd7\xef\x0cV8\x8e\xbc\xf2xo\xb3\x96\xf1W\x9e\xbev\xc68=\xcf\xa6n\xbb\rj&lt;\xcf\x92\xbb\xcf\x93t\xfb\x87\xc7\xd7\xbf\xcd\xe1\xfd&lt;\xbe\x0b\xe9\x06;\x8fw.\xdf\xd9\x8f.\xf9\xbe\xaa\x9c\xd0\xe5\x1b1e\x7f\xa8#?\x9d\xbb\xdb\x12X\xf0\x18\xa4\x08$\x8dF5\x075\x89\xe8|\xfb"\x9c\xa3\xb9\x17$\xe7\x17L\x0c\x91\xc9\xa1\xae\xb11/IW\x92x\xecs\xed\xe7\xd6^\xfckq\x94\xaf\x1av"\xd8\x15\xd0u\xe9A\xc6\xaeZ\xb9\xde^t\xb3(\xeb&amp;\x18C\xe8\x00\xe5!\xb57\xf6e\xf7\xfa\x97\xdb\xf0G\xf3\xcb\xcf~2\xce|^\xe4r}\x15{O\xae\xf7\x9dg\x93&amp;F_wx5\xf3\xce\xb5\xf3^\xf9\xcb\x8d^\xf3\xfa\xbd\x07\xe3}\xff\x00H\xf0\xfa~^\xfdW\xe3%\xa2\x042Bik\xd9\xd5Mw\xb9\xd7\x84\xf4\xe6\xd0 \x86\t!\xad\xb6\xbf^\x91e&lt;\xe3\xee|\xf5\xf6\xde-Y&lt;\xe3\xe8y\xf9\x0e\x1b\xf4\x1f\x17^\xd6\x86k\xe6\xd9\xcf\x97k\xdf\xf5{\xebb\xcc\xf8{\xd3&lt;+\xb3\xdf\xfc\x9d=\xd3\xc1\xbc&gt;\xfc\xfe\x1b\xf5\xe3&lt;\xd6\xef\x9e\xbb\xdb\xcf\x97\xf1w\x86Z\xf8U\xc6L\xb5\xd5\rV\xe2\xbb\xd6Y@\x87\x84\xaeB\xb2\x91\x0cW\nj|{\xa3\xc4\x8e\xe5\xaf\x18\xe71\xde#\x11\xd0u\xd9\xb36\x98&lt;d1\xbd\x9f]9\xbd\x1e\xbc\xf1\xb3\xc6\x8b\x9c\xd5\x042w\xfb\xf6\xebo\xa7#\x9f\x15m\xf1\xbb\xc3Y\x18\xdd\xac\xdc^\xbc\xcd\\C\xd5q\xe0\x8d\n\xf7\xb6\xbe\xf3\xc8\xacs\x8f\xaf\xcc\x14\xce\x82\xd1W\xb8\x9f]/\xc8\xdd\xa7)_s\xf9\xde\x9d\x9b\xf9\xcd\xd6\xf9\x04\xcd\xae^\x8e\xaf\xe7\xfdoz\xf8?k\xe5_\xd7~$nD0\xc2\x0e\x94\xbb&lt;\xbd\xd8=|\xb0\xde{\xdeon\xe7&gt;\xfey\xec\xf9@"@\xebo\xa1\x140\xf4\xceo\xd1\\\xaeW\x8e\xfb\xb8x\xff\x00|{o\xcd\xf4v\x9c7\xb0\xbf?\xd9\xc3\xc7\xb0\xc7\xadiV_\x82\xfd3\xc7;O}\xf2\xef\xdf|\x9d2l\xf93\xdd\xcb\xce\xd3K\xa4\xb5\xd6E\xcb\xa4YC\x99[2\x12\xc6\x87\xb4\x18\\\xb2\xc2\x10\x94\x95\x11\x84W\x1c\xab\r\x91\xcfR\xc7A\xa1q\x0b\xca\x1da\x11\x9d&gt;\x97\xa0\xa2\x01\xcay\xf5E:Z\xe9\xcb\x19\xc6\x8c\xc7E\xd5\xce\xf2\x01\xde\xeb\xd9\xaf{\xf2S\xe7\x9eqW\x9e\xa4\xc7V\xd7&lt;&gt;\xb8!\xc7\x11Xq\xcb5\xa4~\x91k^\x80\xa4\x92\x1f\x1e\xd7\xc8\x9c\xf2\xd4\xe7\xb3\xe9\xf5{_\x12u\x9e\x87^\xd5\xc5\xf4\xde\x1e\x19\xd7\x7f\x9ey\xe69\xd6\xdf\x9f\xdf\xf4\x17\xe7?K\xe1\xff\x00\xa0\xfc\xcf+\xea\xf9\xe4\x86\xa2\x119&amp;u$bt\xcb\xcb\xb5\xe7\xf6{\x87\xcd\xfd\x0f\xce\x7fg\xf2QX\xe1\x84]\xa8\xc3 \x8f\xb9\xf9_t\x93\x82\xf6s\xf0\x8fo\x0f]\xf0\xf7\xf5\xcf\'Ys\xaf\x10\xd4\xf3\xdc\xce\xf8\xf7\xdd^V&gt;F\xf5g\xc1z\xbb\x9eO\xa5&lt;\xdb\xbd\x9b\xf2\xdf\xaf\x1el\x87\x01WuK6\x96sZ\x1c\x96\xa5\xda\xa6\x17l\xbda\x02\xa6 \x15\x80\x05#Q\x8a\xf9\xdc\x98\xf5\xb4\x05\xe5\x15\xe5\x16\xb9\x88\x8d\x08\xd1.R2\xcby\xf4&lt;\xed\x15\xc4}8c\xe7\x98\x97\xfa(sh]\xf5\xfa\xf5C\xcb\x9dL\xf2\xcbfY\xd2\x86\xf9S\xd4rA\xc1+\x8e9)|\xf6\xde\x9a\xfb\x9f]\nIfy^\x97\xf2\xf7\x8e\x070\xcf\xa2\xb7~\xba\xe9\xaf\xce\x9b\x9f\xa7{=#\xcb}\xbf\x9b\x83\xdfO\xcc[\xca\xbee\x8e}\xbd?\xe4\xfe\x8b\xa6\xe5&lt;\xf3\xe8|\x8eO\xd5\xe1\xad\xbc\xc6\x8e\xb3Ik;\xa8\x94\xb7\x1e\xae\xf2\xef\xee\x9f#\xf5&gt;!\xf5\xbf-\x93\xd7\x81\x08p\x87\x10\x8b\x91\xfa;\xca\xd7\xe9\x9f\x9f\xbe\xbf\x97\xd2\xfc}\xbe\x86\xf0\xf5\xab\x8d\xf8\x7f\\\xf9\xee\x1b\xd9\xbfN\xe9\x02|%\xeb\xcf\x8e\xef1[\xf4\x0f\x8f\xa7\x9eur\x1dg?\x99\x07#\x96v"\xae\x000d\xbbU\xe7/\xe9{JA\x97\x90D\xd1\x91\x11\xb3\x12\x8d\xb0b\xc9\xcf\xd6\xd3Q^a|\xf0k"\x10U0\xa1\x89K\xf3\xa5\x8c\xfa\xa3\xbcio\x95I\x88M~\x8c\xac\x04\xe9/]\xbcw\xe6\xa7\n\xd3\r\xb5&amp;\\A\x88r\xa8a\x8eZ/\x1f\xa3W\xb7\\\xb1\xd7\xc2N~"\xc0Af}\xcf\xdf\xa7\xb9j\xfc\x01\xea\x9e\xe9\x97\xb2x\xb7\xe8\x9c\xf3\xe4\x9d\xf5\xf0\xfeyp\xb9\x8b\x17\xd2\xfe7\xd2\xfa\xab\xf3\xde\xef\x93\x7fY\xe4\xb1\xe8\xf1\xd8s\xaf\xb8\xfc\xf5\xa0\xe9G\xa7&gt;\x17\xaf\x0c\xa8\x93f\xe4\xf5\x7f\x99\xfanw\xd3\xf2\xf8?g\xcdq\x83\x08q\x0c\x1a~\x8af\xdf\xe9\x9f\n\xf7\xf9\xba\x9e\x1d&gt;\x90\xf0z\x1b\x1a\xf0\x9e\xd8\xe0\xc2\xe5~\xa7\x96\xde\xe7\xe6\xdf\xaf&lt;\x96\xb3\x0bL\xa1BW\xe6\xad\xc8"\'\x1c\x88B$\xd5\x97\x1a\xbfTu\x8a\x94\xa2|\xb6w\x1dbHFH\x16\xac\xa3\x9b6=\x0e\xea.pk\xcc\x16\x08\xe4\x94c\xc2\x1c\x95\xad\x8cz\xc2\xf2\xce\xeb\xcf;&lt;\xd41!5\\oFo!\xcc\xf3\xa6\xd6ZZ\x97\x048\xe3\x15B\x0cE\xa2\xd5}Q\xad\xfd\x1bzx\x12|i\xcf\x8b\x0f].\xef\xe8\xff\x00\xab\xaf5\xab\xf3_^z\xfc\xe7\xd3\x7f?\xa7E\x9b\xf3\xa7\xa5\xe0\xb8\xe7\xe4\xfc\xf1\t\xd5y}\xbe\xeb\xf9\xef\xd4_\xef\xe5\xf1_\xd4~F\xd7^W/:\xfa\x96\xe5\x82k\x86\xe1\xe9\xc9\xe7O\xa2\x1en\xbb\xc7\xf5\xbb\xbf/\xbb\xc4\xfe\xb7\xe7\x19\x1c!\x12\x08\x12\xcd}\xd9\x97\xbfY\xf3\xaf\xaf\x86~w\xf4G\xcf\xef&gt;o\x84z1\xc2d\xdc\xef\xd19\xd6\xd7L~a{%kB\x9cDenH\xb9\x82\xa4\x83\x1c\x10DKu\xd2p\xf4\xd4\xdf&lt;&gt;\x9eq\xd5Y\x1cm\xe8\xfa\xc8\xc4$J\x11\x1c\xb1\x81\x9d\xac\xee;\x98\xb5\xcd\x0c"@\xc2\x1cpM\x99\xe8\x92\xb0\xef\x0bz\x94\xe2,\x84E\xf9\xadL\xef\x13|\xf5\xb3\xd2\x96\xb0y\xd5\x1dsp\xc7\x11L \xc6\x08#\xdb\xf5\xbf\xaew\xd7\xe0\x19\xcb\x92\xe7\x8d=3#\xd5\xfak\xef?GNGO\x9b\xfar\xd4\xc6\xbd\x9b\xc5\xdf\xa0\xc6\xbc\x0b\xd5\x8f(\xc7?/\xe5\xca\xbef\xff\x00?g\xb0~{\xf5^\x89\xc7\xaf\x81\xfe\xbb\xf0\xf0z&lt;:\x8eo\xbcGE\x8e\xbc_\x9f\xd7\x8f\x9d\xd8\xda\xbf%\xccv\xf5\xaf\x91\xfa\x8e?\xd9\xf28ow\xc8a\xc7\x1c\x11\xc2&gt;\xcd\xcb\xebT\xe7\xbag\xcak\xd6|\xbd\x07\x9e\xfcG\xd5\x8f&gt;\xc4\\\xef\xb8\xe3O\xdf\x1f\x9f\x1e\xcc\xc2\xd0R\x18\x88\xad\xcc\x1814U\x84\x18\x01\x06\xbd\x97\x9b\xdd\x95\xdb\xcd\xcf\xf5\xe0\xd2\xa8G^b\xef1\xd49\xb5\xe5\x82\x00q\x08q\x17Z\xa6\x86\x848\xe2\x1cb\xcbwW\t\xcdT\x80B\x08\xdb\x9d\x1b*\x9b\xc5\x8c\xef;X\xd6\xcf\\]qp\x841\x08\xc4\xe0T\xe7\xa9k__\xde\xff\x00&lt;\xcc\xfc\xdb8}\x01\xdb\xaf\x9er\xe7\xc1b}=\xd3\xa7\xd6\xfd7\xe6\x9d\xa7\xcd\xfb\xe5$\xbd\x0f.\xfa\xbc\xf5\xc0\xf4y\x9f/?-\xcb\x11e\</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.pagina12.com.ar/488766-elon-musk-presento-optimus-un-nuevo-robot-humanoide-que-podr</t>
         </is>
       </c>
     </row>
